--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="97">
   <si>
     <t>Model</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Score Std@3</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>chrome</t>
@@ -999,18 +1002,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1029,14 +1032,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,10 +1525,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V1040"/>
+  <dimension ref="A1:W1040"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -1540,7 +1546,7 @@
     <col min="16" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.75" customHeight="1" spans="1:22">
+    <row r="1" ht="16.75" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,25 +1613,28 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="16.75" customHeight="1" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4">
         <v>15</v>
@@ -1639,7 +1648,9 @@
         <v>26</v>
       </c>
       <c r="L2" s="11"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="15">
+        <v>45869</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1649,25 +1660,26 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" ht="16.75" customHeight="1" spans="1:23">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4">
         <v>50</v>
@@ -1681,7 +1693,9 @@
         <v>31.3</v>
       </c>
       <c r="L3" s="11"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="15">
+        <v>45869</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1691,25 +1705,26 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" ht="16.75" customHeight="1" spans="1:23">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4">
         <v>100</v>
@@ -1723,7 +1738,9 @@
         <v>31.4</v>
       </c>
       <c r="L4" s="11"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="15">
+        <v>45869</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1733,29 +1750,30 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" ht="16.75" customHeight="1" spans="1:23">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1771,29 +1789,30 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" ht="16.75" customHeight="1" spans="1:23">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1809,25 +1828,26 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" ht="16.75" customHeight="1" spans="1:23">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4">
         <v>15</v>
@@ -1841,7 +1861,9 @@
         <v>9.1</v>
       </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="15">
+        <v>45869</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1851,25 +1873,26 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" ht="16.75" customHeight="1" spans="1:23">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4">
         <v>50</v>
@@ -1883,7 +1906,9 @@
         <v>17.2</v>
       </c>
       <c r="L8" s="11"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="15">
+        <v>45869</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1893,25 +1918,26 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" ht="16.75" customHeight="1" spans="1:23">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4">
         <v>100</v>
@@ -1925,7 +1951,9 @@
         <v>23</v>
       </c>
       <c r="L9" s="11"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="15">
+        <v>45869</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1935,25 +1963,26 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="10" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" ht="16.75" customHeight="1" spans="1:23">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4">
         <v>15</v>
@@ -1967,37 +1996,40 @@
         <v>27.1</v>
       </c>
       <c r="L10" s="11"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="15">
+        <v>45869</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-    </row>
-    <row r="11" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" ht="16.75" customHeight="1" spans="1:23">
       <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4">
         <v>50</v>
@@ -2011,37 +2043,40 @@
         <v>35.8</v>
       </c>
       <c r="L11" s="11"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="15">
+        <v>45869</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" ht="16.75" customHeight="1" spans="1:23">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4">
         <v>100</v>
@@ -2055,37 +2090,40 @@
         <v>35.6</v>
       </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="15">
+        <v>45869</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" ht="16.75" customHeight="1" spans="1:23">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4">
         <v>15</v>
@@ -2099,37 +2137,40 @@
         <v>31.2</v>
       </c>
       <c r="L13" s="11"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="15">
+        <v>45869</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" ht="16.75" customHeight="1" spans="1:23">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4">
         <v>50</v>
@@ -2143,37 +2184,40 @@
         <v>43.9</v>
       </c>
       <c r="L14" s="11"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="15">
+        <v>45869</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" ht="16.75" customHeight="1" spans="1:23">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4">
         <v>100</v>
@@ -2187,37 +2231,40 @@
         <v>41.4</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="15">
+        <v>45869</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" ht="16.75" customHeight="1" spans="1:23">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="4">
         <v>15</v>
@@ -2231,7 +2278,9 @@
         <v>27.8</v>
       </c>
       <c r="L16" s="11"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="15">
+        <v>45869</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2241,25 +2290,26 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="17" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" ht="16.75" customHeight="1" spans="1:23">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="4">
         <v>100</v>
@@ -2273,7 +2323,9 @@
         <v>33.8</v>
       </c>
       <c r="L17" s="11"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="15">
+        <v>45869</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2283,25 +2335,26 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" ht="16.75" customHeight="1" spans="1:23">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4">
         <v>15</v>
@@ -2315,7 +2368,9 @@
         <v>31.9</v>
       </c>
       <c r="L18" s="11"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="15">
+        <v>45869</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -2325,25 +2380,26 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-    </row>
-    <row r="19" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" ht="16.75" customHeight="1" spans="1:23">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" s="4">
         <v>100</v>
@@ -2357,7 +2413,9 @@
         <v>40</v>
       </c>
       <c r="L19" s="11"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="15">
+        <v>45869</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -2367,25 +2425,26 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-    </row>
-    <row r="20" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" ht="16.75" customHeight="1" spans="1:23">
       <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="4">
         <v>15</v>
@@ -2401,7 +2460,9 @@
         <v>24.5</v>
       </c>
       <c r="L20" s="11"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="15">
+        <v>45869</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -2411,25 +2472,26 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-    </row>
-    <row r="21" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" ht="16.75" customHeight="1" spans="1:23">
       <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="4">
         <v>50</v>
@@ -2445,7 +2507,9 @@
         <v>27.3</v>
       </c>
       <c r="L21" s="11"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="15">
+        <v>45869</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2455,25 +2519,26 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-    </row>
-    <row r="22" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" ht="16.75" customHeight="1" spans="1:23">
       <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" s="4">
         <v>100</v>
@@ -2489,7 +2554,9 @@
         <v>27.4</v>
       </c>
       <c r="L22" s="11"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="15">
+        <v>45869</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2499,25 +2566,26 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-    </row>
-    <row r="23" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" ht="16.75" customHeight="1" spans="1:23">
       <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G23" s="4">
         <v>15</v>
@@ -2531,7 +2599,9 @@
         <v>24</v>
       </c>
       <c r="L23" s="11"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="15">
+        <v>45869</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -2541,25 +2611,26 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-    </row>
-    <row r="24" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" ht="16.75" customHeight="1" spans="1:23">
       <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G24" s="4">
         <v>50</v>
@@ -2573,7 +2644,9 @@
         <v>25.8</v>
       </c>
       <c r="L24" s="11"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="15">
+        <v>45869</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2583,25 +2656,26 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-    </row>
-    <row r="25" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" ht="16.75" customHeight="1" spans="1:23">
       <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G25" s="4">
         <v>100</v>
@@ -2615,7 +2689,9 @@
         <v>27.1</v>
       </c>
       <c r="L25" s="11"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="15">
+        <v>45869</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2625,25 +2701,26 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-    </row>
-    <row r="26" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" ht="16.75" customHeight="1" spans="1:23">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" s="4">
         <v>15</v>
@@ -2657,7 +2734,9 @@
         <v>16.9</v>
       </c>
       <c r="L26" s="11"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="15">
+        <v>45869</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2667,25 +2746,26 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-    </row>
-    <row r="27" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" ht="16.75" customHeight="1" spans="1:23">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="4">
         <v>50</v>
@@ -2699,7 +2779,9 @@
         <v>19.9</v>
       </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="15">
+        <v>45869</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -2709,25 +2791,26 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-    </row>
-    <row r="28" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" ht="16.75" customHeight="1" spans="1:23">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" s="4">
         <v>100</v>
@@ -2741,7 +2824,9 @@
         <v>18.8</v>
       </c>
       <c r="L28" s="11"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="15">
+        <v>45869</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2751,25 +2836,26 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-    </row>
-    <row r="29" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" ht="16.75" customHeight="1" spans="1:23">
       <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="4">
         <v>15</v>
@@ -2783,7 +2869,9 @@
         <v>19.9</v>
       </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="15">
+        <v>45869</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2793,25 +2881,26 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-    </row>
-    <row r="30" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" ht="16.75" customHeight="1" spans="1:23">
       <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G30" s="4">
         <v>50</v>
@@ -2825,7 +2914,9 @@
         <v>20.6</v>
       </c>
       <c r="L30" s="11"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="15">
+        <v>45869</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2835,25 +2926,26 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-    </row>
-    <row r="31" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" ht="16.75" customHeight="1" spans="1:23">
       <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G31" s="4">
         <v>100</v>
@@ -2867,7 +2959,9 @@
         <v>23.1</v>
       </c>
       <c r="L31" s="11"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="15">
+        <v>45869</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2877,25 +2971,26 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-    </row>
-    <row r="32" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" ht="16.75" customHeight="1" spans="1:23">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G32" s="4">
         <v>15</v>
@@ -2915,7 +3010,9 @@
       <c r="L32" s="12">
         <v>1.7</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" s="15">
+        <v>45869</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2925,25 +3022,26 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-    </row>
-    <row r="33" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" ht="16.75" customHeight="1" spans="1:23">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" s="4">
         <v>50</v>
@@ -2963,7 +3061,9 @@
       <c r="L33" s="12">
         <v>0.82</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="15">
+        <v>45869</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -2973,25 +3073,26 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-    </row>
-    <row r="34" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" ht="16.75" customHeight="1" spans="1:23">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G34" s="4">
         <v>100</v>
@@ -3011,7 +3112,9 @@
       <c r="L34" s="12">
         <v>0.55</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" s="15">
+        <v>45869</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -3021,25 +3124,26 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-    </row>
-    <row r="35" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" ht="16.75" customHeight="1" spans="1:23">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" s="4">
         <v>15</v>
@@ -3059,7 +3163,9 @@
       <c r="L35" s="12">
         <v>1.36</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" s="15">
+        <v>45869</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -3069,25 +3175,26 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-    </row>
-    <row r="36" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" ht="16.75" customHeight="1" spans="1:23">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36" s="4">
         <v>50</v>
@@ -3107,7 +3214,9 @@
       <c r="L36" s="12">
         <v>0.85</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" s="15">
+        <v>45869</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -3117,25 +3226,26 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-    </row>
-    <row r="37" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" ht="16.75" customHeight="1" spans="1:23">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G37" s="4">
         <v>100</v>
@@ -3155,7 +3265,9 @@
       <c r="L37" s="12">
         <v>0.95</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" s="15">
+        <v>45869</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -3165,25 +3277,26 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-    </row>
-    <row r="38" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" ht="16.75" customHeight="1" spans="1:23">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G38" s="4">
         <v>15</v>
@@ -3197,7 +3310,9 @@
         <v>3</v>
       </c>
       <c r="L38" s="11"/>
-      <c r="M38" s="2"/>
+      <c r="M38" s="15">
+        <v>45869</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -3207,25 +3322,26 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-    </row>
-    <row r="39" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" ht="16.75" customHeight="1" spans="1:23">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" s="4">
         <v>100</v>
@@ -3239,7 +3355,9 @@
         <v>3.9</v>
       </c>
       <c r="L39" s="11"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="15">
+        <v>45869</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -3249,25 +3367,26 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-    </row>
-    <row r="40" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" ht="16.75" customHeight="1" spans="1:23">
       <c r="A40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" s="4">
         <v>15</v>
@@ -3281,7 +3400,9 @@
         <v>4.4</v>
       </c>
       <c r="L40" s="11"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="15">
+        <v>45869</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -3291,25 +3412,26 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-    </row>
-    <row r="41" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" ht="16.75" customHeight="1" spans="1:23">
       <c r="A41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E41" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G41" s="4">
         <v>100</v>
@@ -3323,7 +3445,9 @@
         <v>5</v>
       </c>
       <c r="L41" s="11"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="15">
+        <v>45869</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -3333,25 +3457,26 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-    </row>
-    <row r="42" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" ht="16.75" customHeight="1" spans="1:23">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G42" s="4">
         <v>15</v>
@@ -3365,7 +3490,9 @@
         <v>9.7</v>
       </c>
       <c r="L42" s="11"/>
-      <c r="M42" s="2"/>
+      <c r="M42" s="15">
+        <v>45869</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -3375,25 +3502,26 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-    </row>
-    <row r="43" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" ht="16.75" customHeight="1" spans="1:23">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G43" s="4">
         <v>100</v>
@@ -3407,7 +3535,9 @@
         <v>10.3</v>
       </c>
       <c r="L43" s="11"/>
-      <c r="M43" s="2"/>
+      <c r="M43" s="15">
+        <v>45869</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -3417,25 +3547,26 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-    </row>
-    <row r="44" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" ht="16.75" customHeight="1" spans="1:23">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G44" s="4">
         <v>50</v>
@@ -3449,7 +3580,9 @@
         <v>45.8</v>
       </c>
       <c r="L44" s="11"/>
-      <c r="M44" s="2"/>
+      <c r="M44" s="15">
+        <v>45869</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -3459,31 +3592,32 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-    </row>
-    <row r="45" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" ht="16.75" customHeight="1" spans="1:23">
       <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G45" s="4">
         <v>50</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3499,25 +3633,26 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-    </row>
-    <row r="46" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" ht="16.75" customHeight="1" spans="1:23">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G46" s="4">
         <v>15</v>
@@ -3531,7 +3666,9 @@
         <v>26.8</v>
       </c>
       <c r="L46" s="11"/>
-      <c r="M46" s="2"/>
+      <c r="M46" s="15">
+        <v>45869</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -3541,25 +3678,26 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-    </row>
-    <row r="47" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" ht="16.75" customHeight="1" spans="1:23">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G47" s="4">
         <v>50</v>
@@ -3573,7 +3711,9 @@
         <v>27</v>
       </c>
       <c r="L47" s="11"/>
-      <c r="M47" s="2"/>
+      <c r="M47" s="15">
+        <v>45869</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -3583,25 +3723,26 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-    </row>
-    <row r="48" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" ht="16.75" customHeight="1" spans="1:23">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G48" s="4">
         <v>100</v>
@@ -3615,7 +3756,9 @@
         <v>29.3</v>
       </c>
       <c r="L48" s="11"/>
-      <c r="M48" s="2"/>
+      <c r="M48" s="15">
+        <v>45869</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -3625,25 +3768,26 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-    </row>
-    <row r="49" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" ht="16.75" customHeight="1" spans="1:23">
       <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E49" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G49" s="4">
         <v>15</v>
@@ -3657,7 +3801,9 @@
         <v>42.4</v>
       </c>
       <c r="L49" s="11"/>
-      <c r="M49" s="2"/>
+      <c r="M49" s="15">
+        <v>45869</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -3667,25 +3813,26 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-    </row>
-    <row r="50" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" ht="16.75" customHeight="1" spans="1:23">
       <c r="A50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E50" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G50" s="4">
         <v>50</v>
@@ -3699,7 +3846,9 @@
         <v>50.6</v>
       </c>
       <c r="L50" s="11"/>
-      <c r="M50" s="2"/>
+      <c r="M50" s="15">
+        <v>45869</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -3709,25 +3858,26 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-    </row>
-    <row r="51" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" ht="16.75" customHeight="1" spans="1:23">
       <c r="A51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G51" s="4">
         <v>100</v>
@@ -3741,7 +3891,9 @@
         <v>51</v>
       </c>
       <c r="L51" s="11"/>
-      <c r="M51" s="2"/>
+      <c r="M51" s="15">
+        <v>45869</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3751,25 +3903,26 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-    </row>
-    <row r="52" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" ht="16.75" customHeight="1" spans="1:23">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G52" s="4">
         <v>50</v>
@@ -3783,7 +3936,9 @@
         <v>48.6</v>
       </c>
       <c r="L52" s="11"/>
-      <c r="M52" s="2"/>
+      <c r="M52" s="15">
+        <v>45869</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -3793,25 +3948,26 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-    </row>
-    <row r="53" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" ht="16.75" customHeight="1" spans="1:23">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G53" s="4">
         <v>100</v>
@@ -3825,7 +3981,9 @@
         <v>53.1</v>
       </c>
       <c r="L53" s="11"/>
-      <c r="M53" s="2"/>
+      <c r="M53" s="15">
+        <v>45869</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -3835,31 +3993,32 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-    </row>
-    <row r="54" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" ht="16.75" customHeight="1" spans="1:23">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G54" s="4">
         <v>15</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -3875,31 +4034,32 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-    </row>
-    <row r="55" ht="16.75" customHeight="1" spans="1:22">
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" ht="16.75" customHeight="1" spans="1:23">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G55" s="4">
         <v>100</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -3915,6 +4075,7 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
     </row>
     <row r="56" ht="15.2" spans="6:12">
       <c r="F56" s="9"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -748,12 +748,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -878,7 +893,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,34 +905,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -1040,7 +1055,10 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1546,7 @@
   <dimension ref="A1:W1040"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -1649,7 +1667,7 @@
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1694,7 +1712,7 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1739,7 +1757,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1779,7 +1797,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1818,7 +1836,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1862,7 +1880,7 @@
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1907,7 +1925,7 @@
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1952,7 +1970,7 @@
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1997,7 +2015,7 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2044,7 +2062,7 @@
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2091,7 +2109,7 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2138,7 +2156,7 @@
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2185,7 +2203,7 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2232,7 +2250,7 @@
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2279,7 +2297,7 @@
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2324,7 +2342,7 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2369,7 +2387,7 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2414,7 +2432,7 @@
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2461,7 +2479,7 @@
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2508,7 +2526,7 @@
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2555,7 +2573,7 @@
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2600,7 +2618,7 @@
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2645,7 +2663,7 @@
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2690,7 +2708,7 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2735,7 +2753,7 @@
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2780,7 +2798,7 @@
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2825,7 +2843,7 @@
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2870,7 +2888,7 @@
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2915,7 +2933,7 @@
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2960,7 +2978,7 @@
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3011,7 +3029,7 @@
         <v>1.7</v>
       </c>
       <c r="M32" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3062,7 +3080,7 @@
         <v>0.82</v>
       </c>
       <c r="M33" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3113,7 +3131,7 @@
         <v>0.55</v>
       </c>
       <c r="M34" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3164,7 +3182,7 @@
         <v>1.36</v>
       </c>
       <c r="M35" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3215,7 +3233,7 @@
         <v>0.85</v>
       </c>
       <c r="M36" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3266,7 +3284,7 @@
         <v>0.95</v>
       </c>
       <c r="M37" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3311,7 +3329,7 @@
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3356,7 +3374,7 @@
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3401,7 +3419,7 @@
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3446,7 +3464,7 @@
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3491,7 +3509,7 @@
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3536,7 +3554,7 @@
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3581,7 +3599,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3623,7 +3641,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="2"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -3667,7 +3685,7 @@
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -3712,7 +3730,7 @@
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -3757,7 +3775,7 @@
       </c>
       <c r="L48" s="11"/>
       <c r="M48" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -3802,7 +3820,7 @@
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3847,7 +3865,7 @@
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -3892,7 +3910,7 @@
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -3937,7 +3955,7 @@
       </c>
       <c r="L52" s="11"/>
       <c r="M52" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3982,7 +4000,7 @@
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="15">
-        <v>45869</v>
+        <v>45866</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="97">
   <si>
     <t>Model</t>
   </si>
@@ -1543,10 +1543,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1040"/>
+  <dimension ref="A1:W1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="45" ht="16.75" customHeight="1" spans="1:23">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>79</v>
@@ -3632,16 +3632,20 @@
         <v>28</v>
       </c>
       <c r="G45" s="4">
-        <v>50</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
+      </c>
+      <c r="H45" s="2">
+        <v>34.64</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="11"/>
+      <c r="K45" s="11">
+        <v>34.64</v>
+      </c>
       <c r="L45" s="11"/>
-      <c r="M45" s="16"/>
+      <c r="M45" s="15">
+        <v>45869</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -3655,16 +3659,16 @@
     </row>
     <row r="46" ht="16.75" customHeight="1" spans="1:23">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>82</v>
@@ -3673,20 +3677,16 @@
         <v>28</v>
       </c>
       <c r="G46" s="4">
-        <v>15</v>
-      </c>
-      <c r="H46" s="4">
-        <v>26.8</v>
+        <v>50</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="12">
-        <v>26.8</v>
-      </c>
+      <c r="K46" s="11"/>
       <c r="L46" s="11"/>
-      <c r="M46" s="15">
-        <v>45866</v>
-      </c>
+      <c r="M46" s="16"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -3718,15 +3718,15 @@
         <v>28</v>
       </c>
       <c r="G47" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="12">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="15">
@@ -3763,15 +3763,15 @@
         <v>28</v>
       </c>
       <c r="G48" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H48" s="4">
-        <v>29.3</v>
+        <v>27</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="12">
-        <v>29.3</v>
+        <v>27</v>
       </c>
       <c r="L48" s="11"/>
       <c r="M48" s="15">
@@ -3790,7 +3790,7 @@
     </row>
     <row r="49" ht="16.75" customHeight="1" spans="1:23">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>86</v>
@@ -3808,15 +3808,15 @@
         <v>28</v>
       </c>
       <c r="G49" s="4">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H49" s="4">
-        <v>42.4</v>
+        <v>29.3</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="12">
-        <v>42.4</v>
+        <v>29.3</v>
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="15">
@@ -3853,15 +3853,15 @@
         <v>28</v>
       </c>
       <c r="G50" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4">
-        <v>50.6</v>
+        <v>42.4</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="12">
-        <v>50.6</v>
+        <v>42.4</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="15">
@@ -3898,15 +3898,15 @@
         <v>28</v>
       </c>
       <c r="G51" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H51" s="4">
-        <v>51</v>
+        <v>50.6</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="12">
-        <v>51</v>
+        <v>50.6</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="15">
@@ -3925,16 +3925,16 @@
     </row>
     <row r="52" ht="16.75" customHeight="1" spans="1:23">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>82</v>
@@ -3943,15 +3943,15 @@
         <v>28</v>
       </c>
       <c r="G52" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H52" s="4">
-        <v>48.59</v>
+        <v>51</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="12">
-        <v>48.6</v>
+        <v>51</v>
       </c>
       <c r="L52" s="11"/>
       <c r="M52" s="15">
@@ -3988,15 +3988,15 @@
         <v>28</v>
       </c>
       <c r="G53" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H53" s="4">
-        <v>53.1</v>
+        <v>48.59</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="12">
-        <v>53.1</v>
+        <v>48.6</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="15">
@@ -4015,34 +4015,38 @@
     </row>
     <row r="54" ht="16.75" customHeight="1" spans="1:23">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G54" s="4">
-        <v>15</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
+      </c>
+      <c r="H54" s="4">
+        <v>53.1</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="11"/>
+      <c r="K54" s="12">
+        <v>53.1</v>
+      </c>
       <c r="L54" s="11"/>
-      <c r="M54" s="2"/>
+      <c r="M54" s="15">
+        <v>45866</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -4074,7 +4078,7 @@
         <v>58</v>
       </c>
       <c r="G55" s="4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>31</v>
@@ -4095,11 +4099,46 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" ht="15.2" spans="6:12">
-      <c r="F56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="14"/>
+    <row r="56" ht="16.75" customHeight="1" spans="1:23">
+      <c r="A56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="4">
+        <v>100</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
     </row>
     <row r="57" ht="15.2" spans="6:12">
       <c r="F57" s="9"/>
@@ -10005,8 +10044,14 @@
       <c r="K1040" s="13"/>
       <c r="L1040" s="14"/>
     </row>
+    <row r="1041" ht="15.2" spans="6:12">
+      <c r="F1041" s="9"/>
+      <c r="H1041" s="10"/>
+      <c r="K1041" s="13"/>
+      <c r="L1041" s="14"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1040">
+  <conditionalFormatting sqref="F1:F1041">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10057,17 +10102,18 @@
     <hyperlink ref="C42" r:id="rId12" display="https://arxiv.org/abs/2504.07491" tooltip="https://arxiv.org/abs/2504.07491"/>
     <hyperlink ref="C43" r:id="rId12" display="https://arxiv.org/abs/2504.07491" tooltip="https://arxiv.org/abs/2504.07491"/>
     <hyperlink ref="C44" r:id="rId13" display="https://github.com/simular-ai/Agent-S" tooltip="https://github.com/simular-ai/Agent-S"/>
-    <hyperlink ref="C45" r:id="rId13" display="https://github.com/simular-ai/Agent-S" tooltip="https://github.com/simular-ai/Agent-S"/>
-    <hyperlink ref="C46" r:id="rId14" display="https://osworld-grounding.github.io/" tooltip="https://osworld-grounding.github.io/"/>
+    <hyperlink ref="C46" r:id="rId13" display="https://github.com/simular-ai/Agent-S" tooltip="https://github.com/simular-ai/Agent-S"/>
     <hyperlink ref="C47" r:id="rId14" display="https://osworld-grounding.github.io/" tooltip="https://osworld-grounding.github.io/"/>
     <hyperlink ref="C48" r:id="rId14" display="https://osworld-grounding.github.io/" tooltip="https://osworld-grounding.github.io/"/>
     <hyperlink ref="C49" r:id="rId14" display="https://osworld-grounding.github.io/" tooltip="https://osworld-grounding.github.io/"/>
     <hyperlink ref="C50" r:id="rId14" display="https://osworld-grounding.github.io/" tooltip="https://osworld-grounding.github.io/"/>
     <hyperlink ref="C51" r:id="rId14" display="https://osworld-grounding.github.io/" tooltip="https://osworld-grounding.github.io/"/>
-    <hyperlink ref="C52" r:id="rId15" display="https://arxiv.org/abs/2507.05791" tooltip="https://arxiv.org/abs/2507.05791"/>
+    <hyperlink ref="C52" r:id="rId14" display="https://osworld-grounding.github.io/" tooltip="https://osworld-grounding.github.io/"/>
     <hyperlink ref="C53" r:id="rId15" display="https://arxiv.org/abs/2507.05791" tooltip="https://arxiv.org/abs/2507.05791"/>
-    <hyperlink ref="C54" r:id="rId16" display="https://aguvis-project.github.io/" tooltip="https://aguvis-project.github.io/"/>
+    <hyperlink ref="C54" r:id="rId15" display="https://arxiv.org/abs/2507.05791" tooltip="https://arxiv.org/abs/2507.05791"/>
     <hyperlink ref="C55" r:id="rId16" display="https://aguvis-project.github.io/" tooltip="https://aguvis-project.github.io/"/>
+    <hyperlink ref="C56" r:id="rId16" display="https://aguvis-project.github.io/" tooltip="https://aguvis-project.github.io/"/>
+    <hyperlink ref="C45" r:id="rId13" display="https://github.com/simular-ai/Agent-S" tooltip="https://github.com/simular-ai/Agent-S"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1583,8 +1583,8 @@
   </sheetPr>
   <dimension ref="A1:W1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="331">
   <si>
     <t>Model</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>vs_code</t>
-  </si>
-  <si>
-    <t>vc_code</t>
   </si>
   <si>
     <t>computer-use-preview</t>
@@ -2221,8 +2218,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="I30" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -2299,31 +2296,25 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
     </row>
     <row r="2" ht="16.75" customHeight="1" spans="1:22">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="6">
         <v>15</v>
@@ -2335,37 +2326,37 @@
         <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
@@ -2373,19 +2364,19 @@
     </row>
     <row r="3" ht="16.75" customHeight="1" spans="1:22">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="6">
         <v>50</v>
@@ -2397,37 +2388,37 @@
         <v>31.3</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
@@ -2435,19 +2426,19 @@
     </row>
     <row r="4" ht="16.75" customHeight="1" spans="1:22">
       <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="6">
         <v>100</v>
@@ -2459,37 +2450,37 @@
         <v>31.4</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
@@ -2497,19 +2488,19 @@
     </row>
     <row r="5" ht="16.75" customHeight="1" spans="1:22">
       <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="6">
         <v>100</v>
@@ -2521,37 +2512,37 @@
         <v>29.63</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="S5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
@@ -2559,24 +2550,24 @@
     </row>
     <row r="6" ht="16.75" customHeight="1" spans="1:22">
       <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2595,24 +2586,24 @@
     </row>
     <row r="7" ht="16.75" customHeight="1" spans="1:22">
       <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2631,19 +2622,19 @@
     </row>
     <row r="8" ht="16.75" customHeight="1" spans="1:22">
       <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="F8" s="6">
         <v>15</v>
@@ -2655,37 +2646,37 @@
         <v>9.1</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
@@ -2693,19 +2684,19 @@
     </row>
     <row r="9" ht="16.75" customHeight="1" spans="1:22">
       <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="F9" s="6">
         <v>50</v>
@@ -2717,37 +2708,37 @@
         <v>17.17</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="S9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
@@ -2755,19 +2746,19 @@
     </row>
     <row r="10" ht="16.75" customHeight="1" spans="1:22">
       <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
@@ -2779,37 +2770,37 @@
         <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
@@ -2817,19 +2808,19 @@
     </row>
     <row r="11" ht="16.75" customHeight="1" spans="1:22">
       <c r="A11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="6">
         <v>15</v>
@@ -2841,37 +2832,37 @@
         <v>27.1</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
@@ -2879,19 +2870,19 @@
     </row>
     <row r="12" ht="16.75" customHeight="1" spans="1:22">
       <c r="A12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="6">
         <v>50</v>
@@ -2903,37 +2894,37 @@
         <v>35.8</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
@@ -2941,19 +2932,19 @@
     </row>
     <row r="13" ht="16.75" customHeight="1" spans="1:22">
       <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="6">
         <v>100</v>
@@ -2965,37 +2956,37 @@
         <v>35.6</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="S13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
@@ -3003,19 +2994,19 @@
     </row>
     <row r="14" ht="16.75" customHeight="1" spans="1:22">
       <c r="A14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="6">
         <v>15</v>
@@ -3027,37 +3018,37 @@
         <v>31.2</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -3065,19 +3056,19 @@
     </row>
     <row r="15" ht="16.75" customHeight="1" spans="1:22">
       <c r="A15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="6">
         <v>50</v>
@@ -3089,37 +3080,37 @@
         <v>43.9</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="S15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
@@ -3127,19 +3118,19 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
@@ -3151,37 +3142,37 @@
         <v>41.4</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="S16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3196,19 +3187,19 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="6">
         <v>15</v>
@@ -3220,37 +3211,37 @@
         <v>27.8</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="P17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -3265,19 +3256,19 @@
     </row>
     <row r="18" ht="16.75" customHeight="1" spans="1:22">
       <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="6">
         <v>100</v>
@@ -3289,37 +3280,37 @@
         <v>33.8</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
@@ -3327,19 +3318,19 @@
     </row>
     <row r="19" ht="16.75" customHeight="1" spans="1:22">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="6">
         <v>15</v>
@@ -3351,37 +3342,37 @@
         <v>31.9</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
@@ -3389,19 +3380,19 @@
     </row>
     <row r="20" ht="16.75" customHeight="1" spans="1:22">
       <c r="A20" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6">
         <v>100</v>
@@ -3413,37 +3404,37 @@
         <v>40</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="P20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
@@ -3451,19 +3442,19 @@
     </row>
     <row r="21" ht="16.75" customHeight="1" spans="1:22">
       <c r="A21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F21" s="6">
         <v>15</v>
@@ -3491,19 +3482,19 @@
     </row>
     <row r="22" ht="16.75" customHeight="1" spans="1:22">
       <c r="A22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F22" s="6">
         <v>15</v>
@@ -3515,37 +3506,37 @@
         <v>23.3</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="Q22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
@@ -3553,19 +3544,19 @@
     </row>
     <row r="23" ht="16.75" customHeight="1" spans="1:22">
       <c r="A23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F23" s="6">
         <v>50</v>
@@ -3593,19 +3584,19 @@
     </row>
     <row r="24" ht="16.75" customHeight="1" spans="1:22">
       <c r="A24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F24" s="6">
         <v>50</v>
@@ -3633,19 +3624,19 @@
     </row>
     <row r="25" ht="16.75" customHeight="1" spans="1:22">
       <c r="A25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F25" s="6">
         <v>100</v>
@@ -3673,19 +3664,19 @@
     </row>
     <row r="26" ht="16.75" customHeight="1" spans="1:22">
       <c r="A26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F26" s="6">
         <v>100</v>
@@ -3713,19 +3704,19 @@
     </row>
     <row r="27" ht="16.75" customHeight="1" spans="1:22">
       <c r="A27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E27" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F27" s="6">
         <v>15</v>
@@ -3737,37 +3728,37 @@
         <v>24</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="R27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
@@ -3775,19 +3766,19 @@
     </row>
     <row r="28" ht="16.75" customHeight="1" spans="1:22">
       <c r="A28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28" s="6">
         <v>50</v>
@@ -3799,37 +3790,37 @@
         <v>25.8</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="P28" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
@@ -3837,19 +3828,19 @@
     </row>
     <row r="29" ht="16.75" customHeight="1" spans="1:22">
       <c r="A29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E29" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="6">
         <v>100</v>
@@ -3861,37 +3852,37 @@
         <v>27.1</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="P29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
@@ -3899,19 +3890,19 @@
     </row>
     <row r="30" ht="16.75" customHeight="1" spans="1:22">
       <c r="A30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" s="6">
         <v>15</v>
@@ -3923,37 +3914,37 @@
         <v>16.9</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="P30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="R30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
@@ -3961,19 +3952,19 @@
     </row>
     <row r="31" ht="16.75" customHeight="1" spans="1:22">
       <c r="A31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" s="6">
         <v>50</v>
@@ -3985,37 +3976,37 @@
         <v>19.9</v>
       </c>
       <c r="I31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="P31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="R31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
@@ -4023,19 +4014,19 @@
     </row>
     <row r="32" ht="16.75" customHeight="1" spans="1:22">
       <c r="A32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F32" s="6">
         <v>100</v>
@@ -4047,37 +4038,37 @@
         <v>17.7</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="Q32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
@@ -4085,19 +4076,19 @@
     </row>
     <row r="33" ht="16.75" customHeight="1" spans="1:22">
       <c r="A33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F33" s="6">
         <v>15</v>
@@ -4109,37 +4100,37 @@
         <v>19.9</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="P33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
@@ -4147,19 +4138,19 @@
     </row>
     <row r="34" ht="16.75" customHeight="1" spans="1:22">
       <c r="A34" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E34" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F34" s="6">
         <v>50</v>
@@ -4171,37 +4162,37 @@
         <v>20.6</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P34" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="Q34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R34" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="S34" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
@@ -4209,19 +4200,19 @@
     </row>
     <row r="35" ht="16.75" customHeight="1" spans="1:22">
       <c r="A35" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F35" s="6">
         <v>100</v>
@@ -4233,37 +4224,37 @@
         <v>23.1</v>
       </c>
       <c r="I35" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="Q35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
@@ -4271,19 +4262,19 @@
     </row>
     <row r="36" ht="16.75" customHeight="1" spans="1:22">
       <c r="A36" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" s="6">
         <v>15</v>
@@ -4295,37 +4286,37 @@
         <v>26.2</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="P36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
@@ -4333,19 +4324,19 @@
     </row>
     <row r="37" ht="16.75" customHeight="1" spans="1:22">
       <c r="A37" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E37" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F37" s="6">
         <v>15</v>
@@ -4357,37 +4348,37 @@
         <v>23.6</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="P37" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
@@ -4395,19 +4386,19 @@
     </row>
     <row r="38" ht="16.75" customHeight="1" spans="1:22">
       <c r="A38" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E38" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38" s="6">
         <v>15</v>
@@ -4419,37 +4410,37 @@
         <v>23</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="P38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
@@ -4457,19 +4448,19 @@
     </row>
     <row r="39" ht="16.75" customHeight="1" spans="1:22">
       <c r="A39" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F39" s="6">
         <v>50</v>
@@ -4497,19 +4488,19 @@
     </row>
     <row r="40" ht="16.75" customHeight="1" spans="1:22">
       <c r="A40" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E40" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F40" s="6">
         <v>50</v>
@@ -4537,19 +4528,19 @@
     </row>
     <row r="41" ht="16.75" customHeight="1" spans="1:22">
       <c r="A41" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E41" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F41" s="6">
         <v>50</v>
@@ -4577,19 +4568,19 @@
     </row>
     <row r="42" ht="16.75" customHeight="1" spans="1:22">
       <c r="A42" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E42" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F42" s="6">
         <v>100</v>
@@ -4617,19 +4608,19 @@
     </row>
     <row r="43" ht="16.75" customHeight="1" spans="1:22">
       <c r="A43" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F43" s="6">
         <v>100</v>
@@ -4657,19 +4648,19 @@
     </row>
     <row r="44" ht="16.75" customHeight="1" spans="1:22">
       <c r="A44" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E44" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F44" s="6">
         <v>100</v>
@@ -4697,19 +4688,19 @@
     </row>
     <row r="45" ht="16.75" customHeight="1" spans="1:22">
       <c r="A45" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E45" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F45" s="6">
         <v>15</v>
@@ -4737,19 +4728,19 @@
     </row>
     <row r="46" ht="16.75" customHeight="1" spans="1:22">
       <c r="A46" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E46" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="6">
         <v>15</v>
@@ -4777,19 +4768,19 @@
     </row>
     <row r="47" ht="16.75" customHeight="1" spans="1:22">
       <c r="A47" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F47" s="6">
         <v>15</v>
@@ -4817,19 +4808,19 @@
     </row>
     <row r="48" ht="16.75" customHeight="1" spans="1:22">
       <c r="A48" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E48" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F48" s="6">
         <v>50</v>
@@ -4857,19 +4848,19 @@
     </row>
     <row r="49" ht="16.75" customHeight="1" spans="1:22">
       <c r="A49" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E49" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F49" s="6">
         <v>50</v>
@@ -4897,19 +4888,19 @@
     </row>
     <row r="50" ht="16.75" customHeight="1" spans="1:22">
       <c r="A50" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E50" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F50" s="6">
         <v>50</v>
@@ -4937,19 +4928,19 @@
     </row>
     <row r="51" ht="16.75" customHeight="1" spans="1:22">
       <c r="A51" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E51" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F51" s="6">
         <v>100</v>
@@ -4977,19 +4968,19 @@
     </row>
     <row r="52" ht="16.75" customHeight="1" spans="1:22">
       <c r="A52" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E52" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F52" s="6">
         <v>100</v>
@@ -5017,19 +5008,19 @@
     </row>
     <row r="53" ht="16.75" customHeight="1" spans="1:22">
       <c r="A53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E53" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F53" s="6">
         <v>100</v>
@@ -5057,19 +5048,19 @@
     </row>
     <row r="54" ht="16.75" customHeight="1" spans="1:22">
       <c r="A54" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E54" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F54" s="6">
         <v>15</v>
@@ -5081,37 +5072,37 @@
         <v>3.04</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O54" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="R54" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="R54" s="3" t="s">
+      <c r="S54" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
@@ -5119,19 +5110,19 @@
     </row>
     <row r="55" ht="16.75" customHeight="1" spans="1:22">
       <c r="A55" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E55" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" s="6">
         <v>100</v>
@@ -5143,37 +5134,37 @@
         <v>3.88</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
@@ -5181,19 +5172,19 @@
     </row>
     <row r="56" ht="16.75" customHeight="1" spans="1:22">
       <c r="A56" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E56" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56" s="6">
         <v>15</v>
@@ -5205,37 +5196,37 @@
         <v>4.43</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q56" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q56" s="3" t="s">
+      <c r="R56" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="R56" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="S56" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
@@ -5243,19 +5234,19 @@
     </row>
     <row r="57" ht="16.75" customHeight="1" spans="1:22">
       <c r="A57" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E57" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F57" s="6">
         <v>100</v>
@@ -5267,37 +5258,37 @@
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="K57" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="S57" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
@@ -5305,19 +5296,19 @@
     </row>
     <row r="58" ht="16.75" customHeight="1" spans="1:22">
       <c r="A58" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="E58" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F58" s="6">
         <v>15</v>
@@ -5345,19 +5336,19 @@
     </row>
     <row r="59" ht="16.75" customHeight="1" spans="1:22">
       <c r="A59" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="E59" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F59" s="6">
         <v>100</v>
@@ -5385,19 +5376,19 @@
     </row>
     <row r="60" ht="31" spans="1:22">
       <c r="A60" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="F60" s="6">
         <v>15</v>
@@ -5425,19 +5416,19 @@
     </row>
     <row r="61" ht="31" spans="1:22">
       <c r="A61" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="F61" s="6">
         <v>50</v>
@@ -5449,37 +5440,37 @@
         <v>45.76</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="M61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O61" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M61" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O61" s="3" t="s">
+      <c r="P61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R61" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="P61" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="S61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -5487,19 +5478,19 @@
     </row>
     <row r="62" ht="31" spans="1:22">
       <c r="A62" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="F62" s="6">
         <v>15</v>
@@ -5527,19 +5518,19 @@
     </row>
     <row r="63" ht="31" spans="1:22">
       <c r="A63" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="F63" s="6">
         <v>50</v>
@@ -5551,37 +5542,37 @@
         <v>54.2</v>
       </c>
       <c r="I63" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K63" s="3" t="s">
+      <c r="L63" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O63" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="N63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O63" s="3" t="s">
+      <c r="P63" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="Q63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R63" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="Q63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R63" s="3" t="s">
+      <c r="S63" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -5589,19 +5580,19 @@
     </row>
     <row r="64" ht="31" spans="1:22">
       <c r="A64" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="F64" s="6">
         <v>100</v>
@@ -5613,37 +5604,37 @@
         <v>56</v>
       </c>
       <c r="I64" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O64" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="P64" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R64" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="Q64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R64" s="3" t="s">
+      <c r="S64" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -5651,26 +5642,26 @@
     </row>
     <row r="65" ht="31" spans="1:22">
       <c r="A65" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="F65" s="6">
         <v>50</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -5689,19 +5680,19 @@
     </row>
     <row r="66" ht="46" spans="1:22">
       <c r="A66" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E66" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F66" s="6">
         <v>15</v>
@@ -5713,37 +5704,37 @@
         <v>26.8</v>
       </c>
       <c r="I66" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M66" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O66" s="3" t="s">
+      <c r="P66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R66" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="S66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -5751,19 +5742,19 @@
     </row>
     <row r="67" ht="46" spans="1:22">
       <c r="A67" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E67" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F67" s="6">
         <v>50</v>
@@ -5775,37 +5766,37 @@
         <v>27</v>
       </c>
       <c r="I67" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="N67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="P67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q67" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="R67" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -5813,19 +5804,19 @@
     </row>
     <row r="68" ht="46" spans="1:22">
       <c r="A68" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E68" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F68" s="6">
         <v>100</v>
@@ -5837,37 +5828,37 @@
         <v>29.3</v>
       </c>
       <c r="I68" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O68" s="3" t="s">
+      <c r="P68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="S68" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q68" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -5875,19 +5866,19 @@
     </row>
     <row r="69" ht="46" spans="1:22">
       <c r="A69" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E69" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F69" s="6">
         <v>15</v>
@@ -5899,37 +5890,37 @@
         <v>42.4</v>
       </c>
       <c r="I69" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M69" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M69" s="3" t="s">
+      <c r="N69" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O69" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="O69" s="3" t="s">
+      <c r="P69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R69" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="P69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q69" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="S69" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
@@ -5937,19 +5928,19 @@
     </row>
     <row r="70" ht="46" spans="1:22">
       <c r="A70" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E70" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F70" s="6">
         <v>50</v>
@@ -5961,37 +5952,37 @@
         <v>50.6</v>
       </c>
       <c r="I70" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="O70" s="3" t="s">
+      <c r="P70" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="P70" s="3" t="s">
+      <c r="Q70" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="Q70" s="3" t="s">
+      <c r="R70" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="S70" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
@@ -5999,19 +5990,19 @@
     </row>
     <row r="71" ht="46" spans="1:22">
       <c r="A71" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E71" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F71" s="6">
         <v>100</v>
@@ -6023,37 +6014,37 @@
         <v>51</v>
       </c>
       <c r="I71" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="K71" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="L71" s="3" t="s">
+      <c r="M71" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="N71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O71" s="3" t="s">
+      <c r="P71" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="R71" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="P71" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="R71" s="3" t="s">
+      <c r="S71" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="S71" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -6061,19 +6052,19 @@
     </row>
     <row r="72" ht="92" spans="1:22">
       <c r="A72" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="E72" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F72" s="6">
         <v>50</v>
@@ -6085,37 +6076,37 @@
         <v>48.59</v>
       </c>
       <c r="I72" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N72" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="N72" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q72" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="S72" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
@@ -6123,19 +6114,19 @@
     </row>
     <row r="73" ht="92" spans="1:22">
       <c r="A73" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="E73" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F73" s="6">
         <v>100</v>
@@ -6147,37 +6138,37 @@
         <v>53.1</v>
       </c>
       <c r="I73" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="O73" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="O73" s="3" t="s">
+      <c r="P73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="R73" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="P73" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q73" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="R73" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="S73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
@@ -6185,26 +6176,26 @@
     </row>
     <row r="74" ht="46" spans="1:22">
       <c r="A74" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="E74" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F74" s="6">
         <v>15</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -6223,26 +6214,26 @@
     </row>
     <row r="75" ht="46" spans="1:22">
       <c r="A75" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="E75" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F75" s="6">
         <v>100</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="401">
   <si>
     <t>Model</t>
   </si>
@@ -524,6 +524,30 @@
     <t>Specialized model</t>
   </si>
   <si>
+    <t>92.50/359</t>
+  </si>
+  <si>
+    <t>10.92/45</t>
+  </si>
+  <si>
+    <t>15.00/26</t>
+  </si>
+  <si>
+    <t>6.00/47</t>
+  </si>
+  <si>
+    <t>5.00/93</t>
+  </si>
+  <si>
+    <t>8.00/23</t>
+  </si>
+  <si>
+    <t>5.62/17</t>
+  </si>
+  <si>
+    <t>15.00/23</t>
+  </si>
+  <si>
     <t>83.87/360</t>
   </si>
   <si>
@@ -533,7 +557,61 @@
     <t>2.00/93</t>
   </si>
   <si>
-    <t>8.00/23</t>
+    <t>90.04/359</t>
+  </si>
+  <si>
+    <t>12.96/45</t>
+  </si>
+  <si>
+    <t>9.09/93</t>
+  </si>
+  <si>
+    <t>6.00/24</t>
+  </si>
+  <si>
+    <t>3.00/16</t>
+  </si>
+  <si>
+    <t>105.60/359</t>
+  </si>
+  <si>
+    <t>16.92/46</t>
+  </si>
+  <si>
+    <t>6.91/93</t>
+  </si>
+  <si>
+    <t>4.81/16</t>
+  </si>
+  <si>
+    <t>90.97/358</t>
+  </si>
+  <si>
+    <t>16.00/45</t>
+  </si>
+  <si>
+    <t>8.01/91</t>
+  </si>
+  <si>
+    <t>7.00/24</t>
+  </si>
+  <si>
+    <t>6.00/15</t>
+  </si>
+  <si>
+    <t>106.95/361</t>
+  </si>
+  <si>
+    <t>18.92/46</t>
+  </si>
+  <si>
+    <t>18.96/47</t>
+  </si>
+  <si>
+    <t>8.45/93</t>
+  </si>
+  <si>
+    <t>4.63/17</t>
   </si>
   <si>
     <t>uitars-72b-dpo</t>
@@ -560,18 +638,12 @@
     <t>4.58/93</t>
   </si>
   <si>
-    <t>6.00/15</t>
-  </si>
-  <si>
     <t>93.16/360</t>
   </si>
   <si>
     <t>14.96/45</t>
   </si>
   <si>
-    <t>6.00/47</t>
-  </si>
-  <si>
     <t>6.24/93</t>
   </si>
   <si>
@@ -617,9 +689,6 @@
     <t>8.99/47</t>
   </si>
   <si>
-    <t>5.00/93</t>
-  </si>
-  <si>
     <t>4.00/24</t>
   </si>
   <si>
@@ -680,9 +749,6 @@
     <t>6.09/92</t>
   </si>
   <si>
-    <t>6.00/24</t>
-  </si>
-  <si>
     <t>opencua-7b</t>
   </si>
   <si>
@@ -710,9 +776,171 @@
     <t>8.73/93</t>
   </si>
   <si>
+    <t>104.14/361</t>
+  </si>
+  <si>
+    <t>6.79/47</t>
+  </si>
+  <si>
+    <t>13.04/47</t>
+  </si>
+  <si>
+    <t>13.35/93</t>
+  </si>
+  <si>
+    <t>99.05/357</t>
+  </si>
+  <si>
+    <t>17.96/45</t>
+  </si>
+  <si>
+    <t>8.69/93</t>
+  </si>
+  <si>
+    <t>10.00/22</t>
+  </si>
+  <si>
+    <t>5.44/17</t>
+  </si>
+  <si>
+    <t>11.00/22</t>
+  </si>
+  <si>
+    <t>100.25/358</t>
+  </si>
+  <si>
+    <t>6.71/46</t>
+  </si>
+  <si>
+    <t>15.96/47</t>
+  </si>
+  <si>
+    <t>11.62/92</t>
+  </si>
+  <si>
+    <t>97.57/359</t>
+  </si>
+  <si>
+    <t>15.99/47</t>
+  </si>
+  <si>
+    <t>8.62/92</t>
+  </si>
+  <si>
+    <t>94.08/361</t>
+  </si>
+  <si>
+    <t>12.99/47</t>
+  </si>
+  <si>
+    <t>10.13/93</t>
+  </si>
+  <si>
+    <t>10.00/24</t>
+  </si>
+  <si>
+    <t>95.65/360</t>
+  </si>
+  <si>
+    <t>13.96/46</t>
+  </si>
+  <si>
+    <t>16.00/47</t>
+  </si>
+  <si>
     <t>opencua-32b</t>
   </si>
   <si>
+    <t>100.42/357</t>
+  </si>
+  <si>
+    <t>13.99/46</t>
+  </si>
+  <si>
+    <t>9.58/92</t>
+  </si>
+  <si>
+    <t>3.89/17</t>
+  </si>
+  <si>
+    <t>109.80/360</t>
+  </si>
+  <si>
+    <t>20.96/46</t>
+  </si>
+  <si>
+    <t>4.88/17</t>
+  </si>
+  <si>
+    <t>109.34/360</t>
+  </si>
+  <si>
+    <t>14.04/47</t>
+  </si>
+  <si>
+    <t>8.35/93</t>
+  </si>
+  <si>
+    <t>121.57/360</t>
+  </si>
+  <si>
+    <t>19.96/46</t>
+  </si>
+  <si>
+    <t>17.99/47</t>
+  </si>
+  <si>
+    <t>15.62/93</t>
+  </si>
+  <si>
+    <t>120.31/359</t>
+  </si>
+  <si>
+    <t>18.00/26</t>
+  </si>
+  <si>
+    <t>12.35/92</t>
+  </si>
+  <si>
+    <t>126.49/360</t>
+  </si>
+  <si>
+    <t>17.00/26</t>
+  </si>
+  <si>
+    <t>19.99/47</t>
+  </si>
+  <si>
+    <t>13.54/93</t>
+  </si>
+  <si>
+    <t>121.83/360</t>
+  </si>
+  <si>
+    <t>15.96/46</t>
+  </si>
+  <si>
+    <t>15.04/47</t>
+  </si>
+  <si>
+    <t>16.83/93</t>
+  </si>
+  <si>
+    <t>125.22/360</t>
+  </si>
+  <si>
+    <t>16.27/93</t>
+  </si>
+  <si>
+    <t>127.95/358</t>
+  </si>
+  <si>
+    <t>12.00/92</t>
+  </si>
+  <si>
+    <t>15.00/22</t>
+  </si>
+  <si>
     <t>qwen2.5-vl-32b-instruct</t>
   </si>
   <si>
@@ -806,12 +1034,6 @@
     <t>168.84/369</t>
   </si>
   <si>
-    <t>20.96/46</t>
-  </si>
-  <si>
-    <t>17.00/26</t>
-  </si>
-  <si>
     <t>21.00/47</t>
   </si>
   <si>
@@ -881,9 +1103,6 @@
     <t>13.96/45</t>
   </si>
   <si>
-    <t>18.00/26</t>
-  </si>
-  <si>
     <t>6.96/47</t>
   </si>
   <si>
@@ -905,22 +1124,13 @@
     <t>105.80/361</t>
   </si>
   <si>
-    <t>13.96/46</t>
-  </si>
-  <si>
     <t>12.85/93</t>
   </si>
   <si>
-    <t>15.00/23</t>
-  </si>
-  <si>
     <t>Jedi-7B w/ o3</t>
   </si>
   <si>
     <t>152.95/361</t>
-  </si>
-  <si>
-    <t>19.99/47</t>
   </si>
   <si>
     <t>19.00/93</t>
@@ -2218,8 +2428,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="I30" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -3465,17 +3675,39 @@
       <c r="H21" s="6">
         <v>25.7</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
@@ -3506,10 +3738,10 @@
         <v>23.3</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>55</v>
@@ -3524,10 +3756,10 @@
         <v>94</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>92</v>
@@ -3567,17 +3799,39 @@
       <c r="H23" s="6">
         <v>25.1</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
@@ -3607,17 +3861,39 @@
       <c r="H24" s="6">
         <v>29.4</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
@@ -3647,17 +3923,39 @@
       <c r="H25" s="6">
         <v>25.2</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
@@ -3687,33 +3985,55 @@
       <c r="H26" s="6">
         <v>29.6</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
     </row>
     <row r="27" ht="16.75" customHeight="1" spans="1:22">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>164</v>
@@ -3728,16 +4048,16 @@
         <v>24</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>56</v>
@@ -3746,13 +4066,13 @@
         <v>29</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>155</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>149</v>
@@ -3766,16 +4086,16 @@
     </row>
     <row r="28" ht="16.75" customHeight="1" spans="1:22">
       <c r="A28" s="3" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>164</v>
@@ -3790,16 +4110,16 @@
         <v>25.8</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>28</v>
@@ -3808,7 +4128,7 @@
         <v>103</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>155</v>
@@ -3828,16 +4148,16 @@
     </row>
     <row r="29" ht="16.75" customHeight="1" spans="1:22">
       <c r="A29" s="3" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>164</v>
@@ -3852,25 +4172,25 @@
         <v>27.1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>76</v>
@@ -3890,16 +4210,16 @@
     </row>
     <row r="30" ht="16.75" customHeight="1" spans="1:22">
       <c r="A30" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>164</v>
@@ -3914,28 +4234,28 @@
         <v>16.9</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>82</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>85</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>86</v>
@@ -3944,7 +4264,7 @@
         <v>109</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
@@ -3952,16 +4272,16 @@
     </row>
     <row r="31" ht="16.75" customHeight="1" spans="1:22">
       <c r="A31" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>164</v>
@@ -3976,25 +4296,25 @@
         <v>19.9</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>145</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>76</v>
@@ -4014,16 +4334,16 @@
     </row>
     <row r="32" ht="16.75" customHeight="1" spans="1:22">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>164</v>
@@ -4038,28 +4358,28 @@
         <v>17.7</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>145</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>86</v>
@@ -4076,16 +4396,16 @@
     </row>
     <row r="33" ht="16.75" customHeight="1" spans="1:22">
       <c r="A33" s="3" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>164</v>
@@ -4100,10 +4420,10 @@
         <v>19.9</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>82</v>
@@ -4112,19 +4432,19 @@
         <v>83</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>33</v>
@@ -4138,16 +4458,16 @@
     </row>
     <row r="34" ht="16.75" customHeight="1" spans="1:22">
       <c r="A34" s="3" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>164</v>
@@ -4162,16 +4482,16 @@
         <v>20.6</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>56</v>
@@ -4180,10 +4500,10 @@
         <v>103</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>32</v>
@@ -4200,16 +4520,16 @@
     </row>
     <row r="35" ht="16.75" customHeight="1" spans="1:22">
       <c r="A35" s="3" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>164</v>
@@ -4224,10 +4544,10 @@
         <v>23.1</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>82</v>
@@ -4242,10 +4562,10 @@
         <v>103</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>101</v>
@@ -4262,16 +4582,16 @@
     </row>
     <row r="36" ht="16.75" customHeight="1" spans="1:22">
       <c r="A36" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>164</v>
@@ -4286,7 +4606,7 @@
         <v>26.2</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>25</v>
@@ -4304,7 +4624,7 @@
         <v>38</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>29</v>
@@ -4324,16 +4644,16 @@
     </row>
     <row r="37" ht="16.75" customHeight="1" spans="1:22">
       <c r="A37" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>164</v>
@@ -4348,7 +4668,7 @@
         <v>23.6</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>45</v>
@@ -4360,19 +4680,19 @@
         <v>83</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>103</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>149</v>
@@ -4386,16 +4706,16 @@
     </row>
     <row r="38" ht="16.75" customHeight="1" spans="1:22">
       <c r="A38" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>164</v>
@@ -4410,10 +4730,10 @@
         <v>23</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>82</v>
@@ -4422,19 +4742,19 @@
         <v>83</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>85</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>109</v>
@@ -4448,16 +4768,16 @@
     </row>
     <row r="39" ht="16.75" customHeight="1" spans="1:22">
       <c r="A39" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>164</v>
@@ -4471,33 +4791,55 @@
       <c r="H39" s="6">
         <v>28.8</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
     </row>
     <row r="40" ht="16.75" customHeight="1" spans="1:22">
       <c r="A40" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>164</v>
@@ -4511,33 +4853,55 @@
       <c r="H40" s="6">
         <v>27.7</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
     </row>
     <row r="41" ht="16.75" customHeight="1" spans="1:22">
       <c r="A41" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>164</v>
@@ -4549,35 +4913,57 @@
         <v>45866</v>
       </c>
       <c r="H41" s="6">
-        <v>27.2</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
     </row>
     <row r="42" ht="16.75" customHeight="1" spans="1:22">
       <c r="A42" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>164</v>
@@ -4591,33 +4977,55 @@
       <c r="H42" s="6">
         <v>27.2</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
     </row>
     <row r="43" ht="16.75" customHeight="1" spans="1:22">
       <c r="A43" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>164</v>
@@ -4631,33 +5039,55 @@
       <c r="H43" s="6">
         <v>26.1</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
     </row>
     <row r="44" ht="16.75" customHeight="1" spans="1:22">
       <c r="A44" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>164</v>
@@ -4671,33 +5101,55 @@
       <c r="H44" s="6">
         <v>26.6</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
     </row>
     <row r="45" ht="16.75" customHeight="1" spans="1:22">
       <c r="A45" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>164</v>
@@ -4711,33 +5163,55 @@
       <c r="H45" s="6">
         <v>28.1</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
     </row>
     <row r="46" ht="16.75" customHeight="1" spans="1:22">
       <c r="A46" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>164</v>
@@ -4751,33 +5225,55 @@
       <c r="H46" s="6">
         <v>30.5</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
     </row>
     <row r="47" ht="16.75" customHeight="1" spans="1:22">
       <c r="A47" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>164</v>
@@ -4791,33 +5287,55 @@
       <c r="H47" s="6">
         <v>30.4</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
     </row>
     <row r="48" ht="16.75" customHeight="1" spans="1:22">
       <c r="A48" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>164</v>
@@ -4831,33 +5349,55 @@
       <c r="H48" s="6">
         <v>33.8</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
     </row>
     <row r="49" ht="16.75" customHeight="1" spans="1:22">
       <c r="A49" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>164</v>
@@ -4871,33 +5411,55 @@
       <c r="H49" s="6">
         <v>33.5</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
     </row>
     <row r="50" ht="16.75" customHeight="1" spans="1:22">
       <c r="A50" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>164</v>
@@ -4911,33 +5473,55 @@
       <c r="H50" s="6">
         <v>35.1</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
     </row>
     <row r="51" ht="16.75" customHeight="1" spans="1:22">
       <c r="A51" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>164</v>
@@ -4951,33 +5535,55 @@
       <c r="H51" s="6">
         <v>33.8</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
     </row>
     <row r="52" ht="16.75" customHeight="1" spans="1:22">
       <c r="A52" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>164</v>
@@ -4991,33 +5597,55 @@
       <c r="H52" s="6">
         <v>35.7</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
     </row>
     <row r="53" ht="16.75" customHeight="1" spans="1:22">
       <c r="A53" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>164</v>
@@ -5031,33 +5659,55 @@
       <c r="H53" s="6">
         <v>34.8</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
     </row>
     <row r="54" ht="16.75" customHeight="1" spans="1:22">
       <c r="A54" s="3" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>69</v>
@@ -5072,37 +5722,37 @@
         <v>3.04</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
@@ -5110,16 +5760,16 @@
     </row>
     <row r="55" ht="16.75" customHeight="1" spans="1:22">
       <c r="A55" s="3" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>69</v>
@@ -5134,13 +5784,13 @@
         <v>3.88</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>73</v>
@@ -5149,22 +5799,22 @@
         <v>73</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>77</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
@@ -5172,16 +5822,16 @@
     </row>
     <row r="56" ht="16.75" customHeight="1" spans="1:22">
       <c r="A56" s="3" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>69</v>
@@ -5196,13 +5846,13 @@
         <v>4.43</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>84</v>
@@ -5214,19 +5864,19 @@
         <v>74</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
@@ -5234,16 +5884,16 @@
     </row>
     <row r="57" ht="16.75" customHeight="1" spans="1:22">
       <c r="A57" s="3" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>69</v>
@@ -5258,34 +5908,34 @@
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>74</v>
@@ -5296,16 +5946,16 @@
     </row>
     <row r="58" ht="16.75" customHeight="1" spans="1:22">
       <c r="A58" s="3" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>69</v>
@@ -5336,16 +5986,16 @@
     </row>
     <row r="59" ht="16.75" customHeight="1" spans="1:22">
       <c r="A59" s="3" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>69</v>
@@ -5376,19 +6026,19 @@
     </row>
     <row r="60" ht="31" spans="1:22">
       <c r="A60" s="3" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F60" s="6">
         <v>15</v>
@@ -5416,19 +6066,19 @@
     </row>
     <row r="61" ht="31" spans="1:22">
       <c r="A61" s="3" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F61" s="6">
         <v>50</v>
@@ -5440,16 +6090,16 @@
         <v>45.76</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>107</v>
@@ -5458,7 +6108,7 @@
         <v>43</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>91</v>
@@ -5467,7 +6117,7 @@
         <v>41</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="S61" s="3" t="s">
         <v>43</v>
@@ -5478,19 +6128,19 @@
     </row>
     <row r="62" ht="31" spans="1:22">
       <c r="A62" s="3" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F62" s="6">
         <v>15</v>
@@ -5518,19 +6168,19 @@
     </row>
     <row r="63" ht="31" spans="1:22">
       <c r="A63" s="3" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F63" s="6">
         <v>50</v>
@@ -5542,37 +6192,37 @@
         <v>54.2</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>127</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -5580,19 +6230,19 @@
     </row>
     <row r="64" ht="31" spans="1:22">
       <c r="A64" s="3" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F64" s="6">
         <v>100</v>
@@ -5604,37 +6254,37 @@
         <v>56</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>127</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -5642,26 +6292,26 @@
     </row>
     <row r="65" ht="31" spans="1:22">
       <c r="A65" s="3" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F65" s="6">
         <v>50</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -5680,19 +6330,19 @@
     </row>
     <row r="66" ht="46" spans="1:22">
       <c r="A66" s="3" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F66" s="6">
         <v>15</v>
@@ -5704,25 +6354,25 @@
         <v>26.8</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>285</v>
+        <v>358</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>31</v>
@@ -5731,7 +6381,7 @@
         <v>60</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>133</v>
@@ -5742,19 +6392,19 @@
     </row>
     <row r="67" ht="46" spans="1:22">
       <c r="A67" s="3" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F67" s="6">
         <v>50</v>
@@ -5766,25 +6416,25 @@
         <v>27</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>289</v>
+        <v>362</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>31</v>
@@ -5793,7 +6443,7 @@
         <v>32</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
       <c r="S67" s="3" t="s">
         <v>34</v>
@@ -5804,19 +6454,19 @@
     </row>
     <row r="68" ht="46" spans="1:22">
       <c r="A68" s="3" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F68" s="6">
         <v>100</v>
@@ -5828,13 +6478,13 @@
         <v>29.3</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>83</v>
@@ -5843,10 +6493,10 @@
         <v>120</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>59</v>
@@ -5858,7 +6508,7 @@
         <v>149</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -5866,19 +6516,19 @@
     </row>
     <row r="69" ht="46" spans="1:22">
       <c r="A69" s="3" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F69" s="6">
         <v>15</v>
@@ -5890,25 +6540,25 @@
         <v>42.4</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>131</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>59</v>
@@ -5917,7 +6567,7 @@
         <v>127</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
       <c r="S69" s="3" t="s">
         <v>110</v>
@@ -5928,19 +6578,19 @@
     </row>
     <row r="70" ht="46" spans="1:22">
       <c r="A70" s="3" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F70" s="6">
         <v>50</v>
@@ -5952,34 +6602,34 @@
         <v>50.6</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>306</v>
+        <v>376</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>110</v>
@@ -5990,19 +6640,19 @@
     </row>
     <row r="71" ht="46" spans="1:22">
       <c r="A71" s="3" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F71" s="6">
         <v>100</v>
@@ -6014,37 +6664,37 @@
         <v>51</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>110</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -6052,19 +6702,19 @@
     </row>
     <row r="72" ht="92" spans="1:22">
       <c r="A72" s="3" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F72" s="6">
         <v>50</v>
@@ -6076,37 +6726,37 @@
         <v>48.59</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>146</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
@@ -6114,19 +6764,19 @@
     </row>
     <row r="73" ht="92" spans="1:22">
       <c r="A73" s="3" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F73" s="6">
         <v>100</v>
@@ -6138,34 +6788,34 @@
         <v>53.1</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>112</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>327</v>
+        <v>397</v>
       </c>
       <c r="S73" s="3" t="s">
         <v>52</v>
@@ -6176,16 +6826,16 @@
     </row>
     <row r="74" ht="46" spans="1:22">
       <c r="A74" s="3" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>164</v>
@@ -6214,16 +6864,16 @@
     </row>
     <row r="75" ht="46" spans="1:22">
       <c r="A75" s="3" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>164</v>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="422">
   <si>
     <t>Model</t>
   </si>
@@ -1221,6 +1221,69 @@
   </si>
   <si>
     <t>9.06/17</t>
+  </si>
+  <si>
+    <t>CoACT-1</t>
+  </si>
+  <si>
+    <t>Salesforce &amp; University of Southern California &amp; University of Washington</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Song et al., '25</t>
+  </si>
+  <si>
+    <t>143.71/361</t>
+  </si>
+  <si>
+    <t>14.00/46</t>
+  </si>
+  <si>
+    <t>24.00/47</t>
+  </si>
+  <si>
+    <t>22.15/93</t>
+  </si>
+  <si>
+    <t>16.00/24</t>
+  </si>
+  <si>
+    <t>9.60/17</t>
+  </si>
+  <si>
+    <t>203.55/361</t>
+  </si>
+  <si>
+    <t>32.00/47</t>
+  </si>
+  <si>
+    <t>39.40/93</t>
+  </si>
+  <si>
+    <t>11.23/17</t>
+  </si>
+  <si>
+    <t>18.00/23</t>
+  </si>
+  <si>
+    <t>216.34/361</t>
+  </si>
+  <si>
+    <t>33.00/47</t>
+  </si>
+  <si>
+    <t>23.63/47</t>
+  </si>
+  <si>
+    <t>44.52/93</t>
+  </si>
+  <si>
+    <t>219.34/361</t>
+  </si>
+  <si>
+    <t>12.23/17</t>
   </si>
   <si>
     <t>aguvis-72b</t>
@@ -2428,8 +2491,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -6824,103 +6887,319 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74" ht="46" spans="1:22">
+    <row r="74" ht="92" spans="1:22">
       <c r="A74" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C74" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="C74" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="D74" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>164</v>
+        <v>401</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="F74" s="6">
         <v>15</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
+      <c r="G74" s="7">
+        <v>45873</v>
+      </c>
+      <c r="H74" s="6">
+        <v>39.81</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" ht="46" spans="1:22">
+    <row r="75" ht="92" spans="1:22">
       <c r="A75" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C75" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="C75" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="D75" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>164</v>
+        <v>401</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="F75" s="6">
-        <v>100</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G75" s="7">
+        <v>45873</v>
+      </c>
+      <c r="H75" s="6">
+        <v>56.39</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" ht="15.2" spans="7:11">
-      <c r="G76" s="12"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="14"/>
-    </row>
-    <row r="77" spans="7:11">
-      <c r="G77" s="12"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="14"/>
-    </row>
-    <row r="78" spans="7:11">
-      <c r="G78" s="12"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="14"/>
-    </row>
-    <row r="79" spans="7:11">
-      <c r="G79" s="12"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="14"/>
-    </row>
-    <row r="80" spans="7:11">
+    <row r="76" ht="92" spans="1:19">
+      <c r="A76" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F76" s="6">
+        <v>100</v>
+      </c>
+      <c r="G76" s="7">
+        <v>45873</v>
+      </c>
+      <c r="H76" s="6">
+        <v>59.93</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" ht="92" spans="1:19">
+      <c r="A77" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F77" s="6">
+        <v>150</v>
+      </c>
+      <c r="G77" s="7">
+        <v>45873</v>
+      </c>
+      <c r="H77" s="6">
+        <v>60.76</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" ht="46" spans="1:19">
+      <c r="A78" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="6">
+        <v>15</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+    </row>
+    <row r="79" ht="46" spans="1:19">
+      <c r="A79" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" s="6">
+        <v>100</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+    </row>
+    <row r="80" ht="15.2" spans="7:11">
       <c r="G80" s="12"/>
       <c r="J80" s="13"/>
       <c r="K80" s="14"/>
@@ -11819,8 +12098,8 @@
     <hyperlink ref="C71" r:id="rId14" display="https://osworld-grounding.github.io/" tooltip="https://osworld-grounding.github.io/"/>
     <hyperlink ref="C72" r:id="rId15" display="https://arxiv.org/abs/2507.05791" tooltip="https://arxiv.org/abs/2507.05791"/>
     <hyperlink ref="C73" r:id="rId15" display="https://arxiv.org/abs/2507.05791" tooltip="https://arxiv.org/abs/2507.05791"/>
-    <hyperlink ref="C74" r:id="rId16" display="https://aguvis-project.github.io/" tooltip="https://aguvis-project.github.io/"/>
-    <hyperlink ref="C75" r:id="rId16" display="https://aguvis-project.github.io/" tooltip="https://aguvis-project.github.io/"/>
+    <hyperlink ref="C78" r:id="rId16" display="https://aguvis-project.github.io/" tooltip="https://aguvis-project.github.io/"/>
+    <hyperlink ref="C79" r:id="rId16" display="https://aguvis-project.github.io/" tooltip="https://aguvis-project.github.io/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="431">
   <si>
     <t>Model</t>
   </si>
@@ -1014,6 +1014,33 @@
   </si>
   <si>
     <t>Kimi Team, '25</t>
+  </si>
+  <si>
+    <t>35.00/360</t>
+  </si>
+  <si>
+    <t>11.00/45</t>
+  </si>
+  <si>
+    <t>4.00/26</t>
+  </si>
+  <si>
+    <t>1.00/93</t>
+  </si>
+  <si>
+    <t>0.00/24</t>
+  </si>
+  <si>
+    <t>36.95/360</t>
+  </si>
+  <si>
+    <t>10.91/46</t>
+  </si>
+  <si>
+    <t>3.00/25</t>
+  </si>
+  <si>
+    <t>3.04/47</t>
   </si>
   <si>
     <t>agent s2 w/ gemini-2.5-pro</t>
@@ -2491,8 +2518,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -6032,17 +6059,39 @@
       <c r="H58" s="6">
         <v>9.7</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
@@ -6072,36 +6121,58 @@
       <c r="H59" s="6">
         <v>10.3</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
     </row>
     <row r="60" ht="31" spans="1:22">
       <c r="A60" s="3" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F60" s="6">
         <v>15</v>
@@ -6129,19 +6200,19 @@
     </row>
     <row r="61" ht="31" spans="1:22">
       <c r="A61" s="3" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F61" s="6">
         <v>50</v>
@@ -6153,7 +6224,7 @@
         <v>45.76</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>279</v>
@@ -6162,7 +6233,7 @@
         <v>292</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>107</v>
@@ -6171,7 +6242,7 @@
         <v>43</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>91</v>
@@ -6180,7 +6251,7 @@
         <v>41</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="S61" s="3" t="s">
         <v>43</v>
@@ -6191,19 +6262,19 @@
     </row>
     <row r="62" ht="31" spans="1:22">
       <c r="A62" s="3" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F62" s="6">
         <v>15</v>
@@ -6231,19 +6302,19 @@
     </row>
     <row r="63" ht="31" spans="1:22">
       <c r="A63" s="3" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F63" s="6">
         <v>50</v>
@@ -6255,37 +6326,37 @@
         <v>54.2</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>127</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -6293,19 +6364,19 @@
     </row>
     <row r="64" ht="31" spans="1:22">
       <c r="A64" s="3" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F64" s="6">
         <v>100</v>
@@ -6317,37 +6388,37 @@
         <v>56</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>127</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -6355,26 +6426,26 @@
     </row>
     <row r="65" ht="31" spans="1:22">
       <c r="A65" s="3" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F65" s="6">
         <v>50</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -6393,19 +6464,19 @@
     </row>
     <row r="66" ht="46" spans="1:22">
       <c r="A66" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F66" s="6">
         <v>15</v>
@@ -6417,10 +6488,10 @@
         <v>26.8</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>289</v>
@@ -6429,13 +6500,13 @@
         <v>209</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>31</v>
@@ -6444,7 +6515,7 @@
         <v>60</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>133</v>
@@ -6455,19 +6526,19 @@
     </row>
     <row r="67" ht="46" spans="1:22">
       <c r="A67" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F67" s="6">
         <v>50</v>
@@ -6479,7 +6550,7 @@
         <v>27</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>234</v>
@@ -6491,13 +6562,13 @@
         <v>209</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>31</v>
@@ -6506,7 +6577,7 @@
         <v>32</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="S67" s="3" t="s">
         <v>34</v>
@@ -6517,19 +6588,19 @@
     </row>
     <row r="68" ht="46" spans="1:22">
       <c r="A68" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F68" s="6">
         <v>100</v>
@@ -6541,13 +6612,13 @@
         <v>29.3</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>271</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>83</v>
@@ -6559,7 +6630,7 @@
         <v>170</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>59</v>
@@ -6579,19 +6650,19 @@
     </row>
     <row r="69" ht="46" spans="1:22">
       <c r="A69" s="3" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F69" s="6">
         <v>15</v>
@@ -6603,7 +6674,7 @@
         <v>42.4</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>105</v>
@@ -6621,7 +6692,7 @@
         <v>172</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>59</v>
@@ -6630,7 +6701,7 @@
         <v>127</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="S69" s="3" t="s">
         <v>110</v>
@@ -6641,19 +6712,19 @@
     </row>
     <row r="70" ht="46" spans="1:22">
       <c r="A70" s="3" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F70" s="6">
         <v>50</v>
@@ -6665,34 +6736,34 @@
         <v>50.6</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>172</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>110</v>
@@ -6703,19 +6774,19 @@
     </row>
     <row r="71" ht="46" spans="1:22">
       <c r="A71" s="3" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F71" s="6">
         <v>100</v>
@@ -6727,37 +6798,37 @@
         <v>51</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>289</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>110</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -6765,19 +6836,19 @@
     </row>
     <row r="72" ht="92" spans="1:22">
       <c r="A72" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F72" s="6">
         <v>50</v>
@@ -6789,7 +6860,7 @@
         <v>48.59</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>146</v>
@@ -6798,28 +6869,28 @@
         <v>208</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="R72" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="S72" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
@@ -6827,19 +6898,19 @@
     </row>
     <row r="73" ht="92" spans="1:22">
       <c r="A73" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F73" s="6">
         <v>100</v>
@@ -6851,7 +6922,7 @@
         <v>53.1</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>112</v>
@@ -6860,25 +6931,25 @@
         <v>200</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="S73" s="3" t="s">
         <v>52</v>
@@ -6889,19 +6960,19 @@
     </row>
     <row r="74" ht="92" spans="1:22">
       <c r="A74" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F74" s="6">
         <v>15</v>
@@ -6913,16 +6984,16 @@
         <v>39.81</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>261</v>
@@ -6931,16 +7002,16 @@
         <v>110</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="Q74" s="3" t="s">
         <v>189</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>52</v>
@@ -6951,19 +7022,19 @@
     </row>
     <row r="75" ht="92" spans="1:22">
       <c r="A75" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F75" s="6">
         <v>50</v>
@@ -6975,7 +7046,7 @@
         <v>56.39</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>279</v>
@@ -6984,16 +7055,16 @@
         <v>200</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>40</v>
@@ -7002,10 +7073,10 @@
         <v>41</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
@@ -7013,19 +7084,19 @@
     </row>
     <row r="76" ht="92" spans="1:19">
       <c r="A76" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F76" s="6">
         <v>100</v>
@@ -7037,7 +7108,7 @@
         <v>59.93</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>105</v>
@@ -7046,45 +7117,45 @@
         <v>292</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" ht="92" spans="1:19">
       <c r="A77" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F77" s="6">
         <v>150</v>
@@ -7096,7 +7167,7 @@
         <v>60.76</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>112</v>
@@ -7105,42 +7176,42 @@
         <v>292</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>127</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" ht="46" spans="1:19">
       <c r="A78" s="3" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>164</v>
@@ -7166,16 +7237,16 @@
     </row>
     <row r="79" ht="46" spans="1:19">
       <c r="A79" s="3" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>164</v>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1277,7 +1277,7 @@
     <t>Salesforce &amp; University of Southern California &amp; University of Washington</t>
   </si>
   <si>
-    <t>#</t>
+    <t>https://linxins.net/coact/</t>
   </si>
   <si>
     <t>Song et al., '25</t>
@@ -2544,8 +2544,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1277,7 +1277,7 @@
     <t>Salesforce &amp; University of Southern California &amp; University of Washington</t>
   </si>
   <si>
-    <t>https://linxins.net/coact/</t>
+    <t>https://arxiv.org/abs/2508.03923</t>
   </si>
   <si>
     <t>Song et al., '25</t>
@@ -2545,7 +2545,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13260"/>
+    <workbookView windowWidth="27660" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Eval Results" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="449">
   <si>
     <t>Model</t>
   </si>
@@ -1341,6 +1341,39 @@
   </si>
   <si>
     <t>Xu et al., '24</t>
+  </si>
+  <si>
+    <t>TianXi_Action_7B</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>http://arxiv.org/abs/2508.04037</t>
+  </si>
+  <si>
+    <t>Tang et al., '25</t>
+  </si>
+  <si>
+    <t>105.57/361</t>
+  </si>
+  <si>
+    <t>14.92/46</t>
+  </si>
+  <si>
+    <t>17.96/47</t>
+  </si>
+  <si>
+    <t>6.69/93</t>
+  </si>
+  <si>
+    <t>109.37/360</t>
+  </si>
+  <si>
+    <t>5.58/93</t>
+  </si>
+  <si>
+    <t>5.83/17</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1387,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1402,6 +1435,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF5A3286"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1874,31 +1915,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1907,115 +1945,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2024,12 +2065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -2056,17 +2091,23 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2544,8 +2585,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -2639,16 +2680,16 @@
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>15</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>45866</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2701,16 +2742,16 @@
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>50</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>45866</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>31.3</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2763,16 +2804,16 @@
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>100</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>45866</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>31.4</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -2825,16 +2866,16 @@
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>100</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>45866</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>29.63</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -2887,7 +2928,7 @@
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="3"/>
@@ -2923,7 +2964,7 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3"/>
@@ -2959,16 +3000,16 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>15</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>45866</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>9.1</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -3021,16 +3062,16 @@
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>50</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>45866</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>17.17</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -3083,16 +3124,16 @@
       <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>100</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>45866</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -3145,16 +3186,16 @@
       <c r="D11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>15</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>45866</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>27.1</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -3207,16 +3248,16 @@
       <c r="D12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>50</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>45866</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>35.8</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -3269,16 +3310,16 @@
       <c r="D13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>100</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>45866</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>35.6</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -3331,16 +3372,16 @@
       <c r="D14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>15</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>45866</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>31.2</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -3393,16 +3434,16 @@
       <c r="D15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>50</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>45866</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>43.9</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -3455,16 +3496,16 @@
       <c r="D16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>100</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>45866</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>41.4</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -3524,16 +3565,16 @@
       <c r="D17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>15</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>45866</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>27.8</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -3593,16 +3634,16 @@
       <c r="D18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>100</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>45866</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>33.8</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -3655,16 +3696,16 @@
       <c r="D19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>15</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>45866</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>31.9</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -3717,16 +3758,16 @@
       <c r="D20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>100</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>45866</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>40</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -3779,16 +3820,16 @@
       <c r="D21" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>15</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>45866</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>25.7</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -3841,16 +3882,16 @@
       <c r="D22" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>15</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>45866</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>23.3</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -3903,16 +3944,16 @@
       <c r="D23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>50</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <v>45866</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>25.1</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -3965,16 +4006,16 @@
       <c r="D24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>50</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <v>45866</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>29.4</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -4027,16 +4068,16 @@
       <c r="D25" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>100</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <v>45866</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <v>25.2</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -4089,16 +4130,16 @@
       <c r="D26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>100</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>45866</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>29.6</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -4151,16 +4192,16 @@
       <c r="D27" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>15</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="7">
         <v>45866</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <v>24</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -4213,16 +4254,16 @@
       <c r="D28" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>50</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="7">
         <v>45866</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>25.8</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -4275,16 +4316,16 @@
       <c r="D29" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>100</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="7">
         <v>45866</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>27.1</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -4337,16 +4378,16 @@
       <c r="D30" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>15</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="7">
         <v>45866</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <v>16.9</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -4399,16 +4440,16 @@
       <c r="D31" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>50</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="7">
         <v>45866</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>19.9</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -4461,16 +4502,16 @@
       <c r="D32" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>100</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="7">
         <v>45866</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="6">
         <v>17.7</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -4523,16 +4564,16 @@
       <c r="D33" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>15</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="7">
         <v>45866</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="6">
         <v>19.9</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -4585,16 +4626,16 @@
       <c r="D34" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>50</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="7">
         <v>45866</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="6">
         <v>20.6</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -4647,16 +4688,16 @@
       <c r="D35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>100</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="7">
         <v>45866</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="6">
         <v>23.1</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -4709,16 +4750,16 @@
       <c r="D36" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <v>15</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="7">
         <v>45866</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="6">
         <v>26.2</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -4771,16 +4812,16 @@
       <c r="D37" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="6">
         <v>15</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="7">
         <v>45866</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="6">
         <v>23.6</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -4833,16 +4874,16 @@
       <c r="D38" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="6">
         <v>15</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="7">
         <v>45866</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="6">
         <v>23</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -4895,16 +4936,16 @@
       <c r="D39" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="6">
         <v>50</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="7">
         <v>45866</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="6">
         <v>28.8</v>
       </c>
       <c r="I39" s="3" t="s">
@@ -4957,16 +4998,16 @@
       <c r="D40" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="6">
         <v>50</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="7">
         <v>45866</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="6">
         <v>27.7</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -5019,16 +5060,16 @@
       <c r="D41" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="6">
         <v>50</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="7">
         <v>45866</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="6">
         <v>28</v>
       </c>
       <c r="I41" s="3" t="s">
@@ -5081,16 +5122,16 @@
       <c r="D42" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="6">
         <v>100</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="7">
         <v>45866</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="6">
         <v>27.2</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -5143,16 +5184,16 @@
       <c r="D43" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="6">
         <v>100</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="7">
         <v>45866</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="6">
         <v>26.1</v>
       </c>
       <c r="I43" s="3" t="s">
@@ -5205,16 +5246,16 @@
       <c r="D44" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="6">
         <v>100</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="7">
         <v>45866</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="6">
         <v>26.6</v>
       </c>
       <c r="I44" s="3" t="s">
@@ -5267,16 +5308,16 @@
       <c r="D45" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="6">
         <v>15</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="7">
         <v>45866</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="6">
         <v>28.1</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -5329,16 +5370,16 @@
       <c r="D46" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="6">
         <v>15</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="7">
         <v>45866</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="6">
         <v>30.5</v>
       </c>
       <c r="I46" s="3" t="s">
@@ -5391,16 +5432,16 @@
       <c r="D47" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="6">
         <v>15</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="7">
         <v>45866</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="6">
         <v>30.4</v>
       </c>
       <c r="I47" s="3" t="s">
@@ -5453,16 +5494,16 @@
       <c r="D48" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="6">
         <v>50</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="7">
         <v>45866</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="6">
         <v>33.8</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -5515,16 +5556,16 @@
       <c r="D49" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="6">
         <v>50</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="7">
         <v>45866</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="6">
         <v>33.5</v>
       </c>
       <c r="I49" s="3" t="s">
@@ -5577,16 +5618,16 @@
       <c r="D50" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="6">
         <v>50</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="7">
         <v>45866</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="6">
         <v>35.1</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -5639,16 +5680,16 @@
       <c r="D51" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="6">
         <v>100</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="7">
         <v>45866</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="6">
         <v>33.8</v>
       </c>
       <c r="I51" s="3" t="s">
@@ -5701,16 +5742,16 @@
       <c r="D52" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="6">
         <v>100</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="7">
         <v>45866</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="6">
         <v>35.7</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -5763,16 +5804,16 @@
       <c r="D53" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="6">
         <v>100</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="7">
         <v>45866</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="6">
         <v>34.8</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -5825,16 +5866,16 @@
       <c r="D54" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="6">
         <v>15</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="7">
         <v>45866</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="6">
         <v>3.04</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -5887,16 +5928,16 @@
       <c r="D55" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="6">
         <v>100</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="7">
         <v>45866</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="6">
         <v>3.88</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -5949,16 +5990,16 @@
       <c r="D56" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="6">
         <v>15</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="7">
         <v>45866</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="6">
         <v>4.43</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -6011,16 +6052,16 @@
       <c r="D57" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="6">
         <v>100</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="7">
         <v>45866</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="6">
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -6073,16 +6114,16 @@
       <c r="D58" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="6">
         <v>15</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="7">
         <v>45866</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="6">
         <v>9.7</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -6135,16 +6176,16 @@
       <c r="D59" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="6">
         <v>100</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="7">
         <v>45866</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="6">
         <v>10.3</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -6185,61 +6226,61 @@
       <c r="V59" s="3"/>
     </row>
     <row r="60" ht="31" spans="1:22">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="6">
         <v>15</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="7">
         <v>45869</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="6">
         <v>34.64</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J60" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O60" s="5" t="s">
+      <c r="O60" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="P60" s="5" t="s">
+      <c r="P60" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q60" s="5" t="s">
+      <c r="Q60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R60" s="5" t="s">
+      <c r="R60" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="S60" s="5" t="s">
+      <c r="S60" s="3" t="s">
         <v>43</v>
       </c>
       <c r="T60" s="1"/>
@@ -6247,61 +6288,61 @@
       <c r="V60" s="1"/>
     </row>
     <row r="61" ht="31" spans="1:22">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="6">
         <v>50</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="7">
         <v>45866</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="6">
         <v>45.76</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="L61" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O61" s="5" t="s">
+      <c r="O61" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="P61" s="5" t="s">
+      <c r="P61" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q61" s="5" t="s">
+      <c r="Q61" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R61" s="5" t="s">
+      <c r="R61" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="S61" s="5" t="s">
+      <c r="S61" s="3" t="s">
         <v>43</v>
       </c>
       <c r="T61" s="1"/>
@@ -6309,61 +6350,61 @@
       <c r="V61" s="1"/>
     </row>
     <row r="62" ht="31" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="6">
         <v>15</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="7">
         <v>45869</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="6">
         <v>39</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="J62" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="L62" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O62" s="5" t="s">
+      <c r="O62" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="P62" s="5" t="s">
+      <c r="P62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="Q62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R62" s="5" t="s">
+      <c r="R62" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="S62" s="5" t="s">
+      <c r="S62" s="3" t="s">
         <v>110</v>
       </c>
       <c r="T62" s="1"/>
@@ -6371,61 +6412,61 @@
       <c r="V62" s="1"/>
     </row>
     <row r="63" ht="31" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="6">
         <v>50</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="7">
         <v>45869</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="6">
         <v>54.2</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="P63" s="5" t="s">
+      <c r="P63" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="Q63" s="5" t="s">
+      <c r="Q63" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="R63" s="5" t="s">
+      <c r="R63" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="S63" s="5" t="s">
+      <c r="S63" s="3" t="s">
         <v>364</v>
       </c>
       <c r="T63" s="1"/>
@@ -6433,61 +6474,61 @@
       <c r="V63" s="1"/>
     </row>
     <row r="64" ht="31" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="6">
         <v>100</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="7">
         <v>45869</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="6">
         <v>56</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="J64" s="5" t="s">
+      <c r="J64" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="L64" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O64" s="5" t="s">
+      <c r="O64" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="P64" s="5" t="s">
+      <c r="P64" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="Q64" s="5" t="s">
+      <c r="Q64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="R64" s="5" t="s">
+      <c r="R64" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="S64" s="5" t="s">
+      <c r="S64" s="3" t="s">
         <v>364</v>
       </c>
       <c r="T64" s="1"/>
@@ -6507,10 +6548,10 @@
       <c r="D65" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="6">
         <v>50</v>
       </c>
       <c r="G65" s="3"/>
@@ -6545,16 +6586,16 @@
       <c r="D66" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="6">
         <v>15</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="7">
         <v>45866</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="6">
         <v>26.8</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -6607,16 +6648,16 @@
       <c r="D67" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="6">
         <v>50</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="7">
         <v>45866</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="6">
         <v>27</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -6669,16 +6710,16 @@
       <c r="D68" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="6">
         <v>100</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="7">
         <v>45866</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="6">
         <v>29.3</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -6731,16 +6772,16 @@
       <c r="D69" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="6">
         <v>15</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="7">
         <v>45866</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="6">
         <v>42.4</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -6793,16 +6834,16 @@
       <c r="D70" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="6">
         <v>50</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="7">
         <v>45866</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="6">
         <v>50.6</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -6855,16 +6896,16 @@
       <c r="D71" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="6">
         <v>100</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="7">
         <v>45866</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="6">
         <v>51</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -6917,16 +6958,16 @@
       <c r="D72" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="6">
         <v>50</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="7">
         <v>45866</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="6">
         <v>48.59</v>
       </c>
       <c r="I72" s="3" t="s">
@@ -6979,16 +7020,16 @@
       <c r="D73" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="6">
         <v>100</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="7">
         <v>45866</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="6">
         <v>53.1</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -7041,16 +7082,16 @@
       <c r="D74" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="6">
         <v>15</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="7">
         <v>45873</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="6">
         <v>39.81</v>
       </c>
       <c r="I74" s="3" t="s">
@@ -7103,16 +7144,16 @@
       <c r="D75" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="6">
         <v>50</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="7">
         <v>45873</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="6">
         <v>56.39</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -7165,16 +7206,16 @@
       <c r="D76" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="6">
         <v>100</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="7">
         <v>45873</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="6">
         <v>59.93</v>
       </c>
       <c r="I76" s="3" t="s">
@@ -7224,16 +7265,16 @@
       <c r="D77" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="6">
         <v>150</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="7">
         <v>45873</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="6">
         <v>60.76</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -7283,10 +7324,10 @@
       <c r="D78" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="6">
         <v>15</v>
       </c>
       <c r="G78" s="3"/>
@@ -7318,10 +7359,10 @@
       <c r="D79" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="6">
         <v>100</v>
       </c>
       <c r="G79" s="3"/>
@@ -7340,15 +7381,123 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
     </row>
-    <row r="80" ht="15.2" spans="7:11">
-      <c r="G80" s="16"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="18"/>
-    </row>
-    <row r="81" ht="15.2" spans="7:11">
-      <c r="G81" s="16"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="18"/>
+    <row r="80" ht="31" spans="1:19">
+      <c r="A80" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="14">
+        <v>50</v>
+      </c>
+      <c r="G80" s="15">
+        <v>45880</v>
+      </c>
+      <c r="H80" s="14">
+        <v>29.24</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q80" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R80" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S80" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" ht="31" spans="1:19">
+      <c r="A81" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="14">
+        <v>50</v>
+      </c>
+      <c r="G81" s="15">
+        <v>45880</v>
+      </c>
+      <c r="H81" s="14">
+        <v>30.38</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q81" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="S81" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="82" ht="15.2" spans="7:11">
       <c r="G82" s="16"/>
@@ -12241,6 +12390,8 @@
     <hyperlink ref="C62" r:id="rId13" display="https://github.com/simular-ai/Agent-S" tooltip="https://github.com/simular-ai/Agent-S"/>
     <hyperlink ref="C63" r:id="rId13" display="https://github.com/simular-ai/Agent-S" tooltip="https://github.com/simular-ai/Agent-S"/>
     <hyperlink ref="C64" r:id="rId13" display="https://github.com/simular-ai/Agent-S" tooltip="https://github.com/simular-ai/Agent-S"/>
+    <hyperlink ref="C80" r:id="rId17" display="http://arxiv.org/abs/2508.04037" tooltip="http://arxiv.org/abs/2508.04037"/>
+    <hyperlink ref="C81" r:id="rId17" display="http://arxiv.org/abs/2508.04037" tooltip="http://arxiv.org/abs/2508.04037"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1343,7 +1343,7 @@
     <t>Xu et al., '24</t>
   </si>
   <si>
-    <t>TianXi_Action_7B</t>
+    <t>TianXi-Action-7B</t>
   </si>
   <si>
     <t>Lenovo</t>
@@ -2060,7 +2060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2090,17 +2090,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -2585,8 +2576,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -7382,4937 +7373,4937 @@
       <c r="S79" s="3"/>
     </row>
     <row r="80" ht="31" spans="1:19">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="6">
         <v>50</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="12">
         <v>45880</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="6">
         <v>29.24</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I80" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L80" s="11" t="s">
+      <c r="L80" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M80" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="N80" s="11" t="s">
+      <c r="N80" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O80" s="11" t="s">
+      <c r="O80" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="P80" s="11" t="s">
+      <c r="P80" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="Q80" s="11" t="s">
+      <c r="Q80" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R80" s="11" t="s">
+      <c r="R80" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S80" s="11" t="s">
+      <c r="S80" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="81" ht="31" spans="1:19">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="6">
         <v>50</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="12">
         <v>45880</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="6">
         <v>30.38</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="P81" s="11" t="s">
+      <c r="P81" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="Q81" s="11" t="s">
+      <c r="Q81" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="R81" s="11" t="s">
+      <c r="R81" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="S81" s="11" t="s">
+      <c r="S81" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="82" ht="15.2" spans="7:11">
-      <c r="G82" s="16"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="18"/>
+      <c r="G82" s="13"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="15"/>
     </row>
     <row r="83" ht="15.2" spans="7:11">
-      <c r="G83" s="16"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="18"/>
+      <c r="G83" s="13"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="15"/>
     </row>
     <row r="84" ht="15.2" spans="7:11">
-      <c r="G84" s="16"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="18"/>
+      <c r="G84" s="13"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="15"/>
     </row>
     <row r="85" ht="15.2" spans="7:11">
-      <c r="G85" s="16"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="18"/>
+      <c r="G85" s="13"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="15"/>
     </row>
     <row r="86" ht="15.2" spans="7:11">
-      <c r="G86" s="16"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="18"/>
+      <c r="G86" s="13"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="15"/>
     </row>
     <row r="87" ht="15.2" spans="7:11">
-      <c r="G87" s="16"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="18"/>
+      <c r="G87" s="13"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="15"/>
     </row>
     <row r="88" ht="15.2" spans="7:11">
-      <c r="G88" s="16"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="18"/>
+      <c r="G88" s="13"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="15"/>
     </row>
     <row r="89" ht="15.2" spans="7:11">
-      <c r="G89" s="16"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="18"/>
+      <c r="G89" s="13"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="15"/>
     </row>
     <row r="90" ht="15.2" spans="7:11">
-      <c r="G90" s="16"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="18"/>
+      <c r="G90" s="13"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="15"/>
     </row>
     <row r="91" ht="15.2" spans="7:11">
-      <c r="G91" s="16"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="18"/>
+      <c r="G91" s="13"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="15"/>
     </row>
     <row r="92" ht="15.2" spans="7:11">
-      <c r="G92" s="16"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="18"/>
+      <c r="G92" s="13"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="15"/>
     </row>
     <row r="93" ht="15.2" spans="7:11">
-      <c r="G93" s="16"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="18"/>
+      <c r="G93" s="13"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="15"/>
     </row>
     <row r="94" ht="15.2" spans="7:11">
-      <c r="G94" s="16"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="18"/>
+      <c r="G94" s="13"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="15"/>
     </row>
     <row r="95" ht="15.2" spans="7:11">
-      <c r="G95" s="16"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="18"/>
+      <c r="G95" s="13"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="15"/>
     </row>
     <row r="96" ht="15.2" spans="7:11">
-      <c r="G96" s="16"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="18"/>
+      <c r="G96" s="13"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="15"/>
     </row>
     <row r="97" ht="15.2" spans="7:11">
-      <c r="G97" s="16"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="18"/>
+      <c r="G97" s="13"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="15"/>
     </row>
     <row r="98" ht="15.2" spans="7:11">
-      <c r="G98" s="16"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="18"/>
+      <c r="G98" s="13"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="15"/>
     </row>
     <row r="99" ht="15.2" spans="7:11">
-      <c r="G99" s="16"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="18"/>
+      <c r="G99" s="13"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="15"/>
     </row>
     <row r="100" ht="15.2" spans="7:11">
-      <c r="G100" s="16"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="18"/>
+      <c r="G100" s="13"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="15"/>
     </row>
     <row r="101" ht="15.2" spans="7:11">
-      <c r="G101" s="16"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="18"/>
+      <c r="G101" s="13"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="15"/>
     </row>
     <row r="102" ht="15.2" spans="7:11">
-      <c r="G102" s="16"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="18"/>
+      <c r="G102" s="13"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="15"/>
     </row>
     <row r="103" ht="15.2" spans="7:11">
-      <c r="G103" s="16"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="18"/>
+      <c r="G103" s="13"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="15"/>
     </row>
     <row r="104" ht="15.2" spans="7:11">
-      <c r="G104" s="16"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="18"/>
+      <c r="G104" s="13"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="15"/>
     </row>
     <row r="105" ht="15.2" spans="7:11">
-      <c r="G105" s="16"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="18"/>
+      <c r="G105" s="13"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="15"/>
     </row>
     <row r="106" ht="15.2" spans="7:11">
-      <c r="G106" s="16"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="18"/>
+      <c r="G106" s="13"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="15"/>
     </row>
     <row r="107" ht="15.2" spans="7:11">
-      <c r="G107" s="16"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="18"/>
+      <c r="G107" s="13"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="15"/>
     </row>
     <row r="108" ht="15.2" spans="7:11">
-      <c r="G108" s="16"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="18"/>
+      <c r="G108" s="13"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="15"/>
     </row>
     <row r="109" ht="15.2" spans="7:11">
-      <c r="G109" s="16"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="18"/>
+      <c r="G109" s="13"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="15"/>
     </row>
     <row r="110" ht="15.2" spans="7:11">
-      <c r="G110" s="16"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="18"/>
+      <c r="G110" s="13"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="15"/>
     </row>
     <row r="111" ht="15.2" spans="7:11">
-      <c r="G111" s="16"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="18"/>
+      <c r="G111" s="13"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="15"/>
     </row>
     <row r="112" ht="15.2" spans="7:11">
-      <c r="G112" s="16"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="18"/>
+      <c r="G112" s="13"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="15"/>
     </row>
     <row r="113" ht="15.2" spans="7:11">
-      <c r="G113" s="16"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="18"/>
+      <c r="G113" s="13"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="15"/>
     </row>
     <row r="114" ht="15.2" spans="7:11">
-      <c r="G114" s="16"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="18"/>
+      <c r="G114" s="13"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="15"/>
     </row>
     <row r="115" ht="15.2" spans="7:11">
-      <c r="G115" s="16"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="18"/>
+      <c r="G115" s="13"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="15"/>
     </row>
     <row r="116" ht="15.2" spans="7:11">
-      <c r="G116" s="16"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="18"/>
+      <c r="G116" s="13"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="15"/>
     </row>
     <row r="117" ht="15.2" spans="7:11">
-      <c r="G117" s="16"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="18"/>
+      <c r="G117" s="13"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="15"/>
     </row>
     <row r="118" ht="15.2" spans="7:11">
-      <c r="G118" s="16"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="18"/>
+      <c r="G118" s="13"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="15"/>
     </row>
     <row r="119" ht="15.2" spans="7:11">
-      <c r="G119" s="16"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="18"/>
+      <c r="G119" s="13"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="15"/>
     </row>
     <row r="120" ht="15.2" spans="7:11">
-      <c r="G120" s="16"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="18"/>
+      <c r="G120" s="13"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="15"/>
     </row>
     <row r="121" ht="15.2" spans="7:11">
-      <c r="G121" s="16"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="18"/>
+      <c r="G121" s="13"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="15"/>
     </row>
     <row r="122" ht="15.2" spans="7:11">
-      <c r="G122" s="16"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="18"/>
+      <c r="G122" s="13"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="15"/>
     </row>
     <row r="123" ht="15.2" spans="7:11">
-      <c r="G123" s="16"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="18"/>
+      <c r="G123" s="13"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="15"/>
     </row>
     <row r="124" ht="15.2" spans="7:11">
-      <c r="G124" s="16"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="18"/>
+      <c r="G124" s="13"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="15"/>
     </row>
     <row r="125" ht="15.2" spans="7:11">
-      <c r="G125" s="16"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="18"/>
+      <c r="G125" s="13"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="15"/>
     </row>
     <row r="126" ht="15.2" spans="7:11">
-      <c r="G126" s="16"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="18"/>
+      <c r="G126" s="13"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="15"/>
     </row>
     <row r="127" ht="15.2" spans="7:11">
-      <c r="G127" s="16"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="18"/>
+      <c r="G127" s="13"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="15"/>
     </row>
     <row r="128" ht="15.2" spans="7:11">
-      <c r="G128" s="16"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="18"/>
+      <c r="G128" s="13"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="15"/>
     </row>
     <row r="129" ht="15.2" spans="7:11">
-      <c r="G129" s="16"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="18"/>
+      <c r="G129" s="13"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="15"/>
     </row>
     <row r="130" ht="15.2" spans="7:11">
-      <c r="G130" s="16"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="18"/>
+      <c r="G130" s="13"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="15"/>
     </row>
     <row r="131" ht="15.2" spans="7:11">
-      <c r="G131" s="16"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="18"/>
+      <c r="G131" s="13"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="15"/>
     </row>
     <row r="132" ht="15.2" spans="7:11">
-      <c r="G132" s="16"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="18"/>
+      <c r="G132" s="13"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="15"/>
     </row>
     <row r="133" ht="15.2" spans="7:11">
-      <c r="G133" s="16"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="18"/>
+      <c r="G133" s="13"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="15"/>
     </row>
     <row r="134" ht="15.2" spans="7:11">
-      <c r="G134" s="16"/>
-      <c r="J134" s="17"/>
-      <c r="K134" s="18"/>
+      <c r="G134" s="13"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="15"/>
     </row>
     <row r="135" ht="15.2" spans="7:11">
-      <c r="G135" s="16"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="18"/>
+      <c r="G135" s="13"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="15"/>
     </row>
     <row r="136" ht="15.2" spans="7:11">
-      <c r="G136" s="16"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="18"/>
+      <c r="G136" s="13"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="15"/>
     </row>
     <row r="137" ht="15.2" spans="7:11">
-      <c r="G137" s="16"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="18"/>
+      <c r="G137" s="13"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="15"/>
     </row>
     <row r="138" ht="15.2" spans="7:11">
-      <c r="G138" s="16"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="18"/>
+      <c r="G138" s="13"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="15"/>
     </row>
     <row r="139" ht="15.2" spans="7:11">
-      <c r="G139" s="16"/>
-      <c r="J139" s="17"/>
-      <c r="K139" s="18"/>
+      <c r="G139" s="13"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="15"/>
     </row>
     <row r="140" ht="15.2" spans="7:11">
-      <c r="G140" s="16"/>
-      <c r="J140" s="17"/>
-      <c r="K140" s="18"/>
+      <c r="G140" s="13"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="15"/>
     </row>
     <row r="141" ht="15.2" spans="7:11">
-      <c r="G141" s="16"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="18"/>
+      <c r="G141" s="13"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="15"/>
     </row>
     <row r="142" ht="15.2" spans="7:11">
-      <c r="G142" s="16"/>
-      <c r="J142" s="17"/>
-      <c r="K142" s="18"/>
+      <c r="G142" s="13"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="15"/>
     </row>
     <row r="143" ht="15.2" spans="7:11">
-      <c r="G143" s="16"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="18"/>
+      <c r="G143" s="13"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="15"/>
     </row>
     <row r="144" ht="15.2" spans="7:11">
-      <c r="G144" s="16"/>
-      <c r="J144" s="17"/>
-      <c r="K144" s="18"/>
+      <c r="G144" s="13"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="15"/>
     </row>
     <row r="145" ht="15.2" spans="7:11">
-      <c r="G145" s="16"/>
-      <c r="J145" s="17"/>
-      <c r="K145" s="18"/>
+      <c r="G145" s="13"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="15"/>
     </row>
     <row r="146" ht="15.2" spans="7:11">
-      <c r="G146" s="16"/>
-      <c r="J146" s="17"/>
-      <c r="K146" s="18"/>
+      <c r="G146" s="13"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="15"/>
     </row>
     <row r="147" ht="15.2" spans="7:11">
-      <c r="G147" s="16"/>
-      <c r="J147" s="17"/>
-      <c r="K147" s="18"/>
+      <c r="G147" s="13"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="15"/>
     </row>
     <row r="148" ht="15.2" spans="7:11">
-      <c r="G148" s="16"/>
-      <c r="J148" s="17"/>
-      <c r="K148" s="18"/>
+      <c r="G148" s="13"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="15"/>
     </row>
     <row r="149" ht="15.2" spans="7:11">
-      <c r="G149" s="16"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="18"/>
+      <c r="G149" s="13"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="15"/>
     </row>
     <row r="150" ht="15.2" spans="7:11">
-      <c r="G150" s="16"/>
-      <c r="J150" s="17"/>
-      <c r="K150" s="18"/>
+      <c r="G150" s="13"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="15"/>
     </row>
     <row r="151" ht="15.2" spans="7:11">
-      <c r="G151" s="16"/>
-      <c r="J151" s="17"/>
-      <c r="K151" s="18"/>
+      <c r="G151" s="13"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="15"/>
     </row>
     <row r="152" ht="15.2" spans="7:11">
-      <c r="G152" s="16"/>
-      <c r="J152" s="17"/>
-      <c r="K152" s="18"/>
+      <c r="G152" s="13"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="15"/>
     </row>
     <row r="153" ht="15.2" spans="7:11">
-      <c r="G153" s="16"/>
-      <c r="J153" s="17"/>
-      <c r="K153" s="18"/>
+      <c r="G153" s="13"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="15"/>
     </row>
     <row r="154" ht="15.2" spans="7:11">
-      <c r="G154" s="16"/>
-      <c r="J154" s="17"/>
-      <c r="K154" s="18"/>
+      <c r="G154" s="13"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="15"/>
     </row>
     <row r="155" ht="15.2" spans="7:11">
-      <c r="G155" s="16"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="18"/>
+      <c r="G155" s="13"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="15"/>
     </row>
     <row r="156" ht="15.2" spans="7:11">
-      <c r="G156" s="16"/>
-      <c r="J156" s="17"/>
-      <c r="K156" s="18"/>
+      <c r="G156" s="13"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="15"/>
     </row>
     <row r="157" ht="15.2" spans="7:11">
-      <c r="G157" s="16"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="18"/>
+      <c r="G157" s="13"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="15"/>
     </row>
     <row r="158" ht="15.2" spans="7:11">
-      <c r="G158" s="16"/>
-      <c r="J158" s="17"/>
-      <c r="K158" s="18"/>
+      <c r="G158" s="13"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="15"/>
     </row>
     <row r="159" ht="15.2" spans="7:11">
-      <c r="G159" s="16"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="18"/>
+      <c r="G159" s="13"/>
+      <c r="J159" s="14"/>
+      <c r="K159" s="15"/>
     </row>
     <row r="160" ht="15.2" spans="7:11">
-      <c r="G160" s="16"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="18"/>
+      <c r="G160" s="13"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="15"/>
     </row>
     <row r="161" ht="15.2" spans="7:11">
-      <c r="G161" s="16"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="18"/>
+      <c r="G161" s="13"/>
+      <c r="J161" s="14"/>
+      <c r="K161" s="15"/>
     </row>
     <row r="162" ht="15.2" spans="7:11">
-      <c r="G162" s="16"/>
-      <c r="J162" s="17"/>
-      <c r="K162" s="18"/>
+      <c r="G162" s="13"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="15"/>
     </row>
     <row r="163" ht="15.2" spans="7:11">
-      <c r="G163" s="16"/>
-      <c r="J163" s="17"/>
-      <c r="K163" s="18"/>
+      <c r="G163" s="13"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="15"/>
     </row>
     <row r="164" ht="15.2" spans="7:11">
-      <c r="G164" s="16"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="18"/>
+      <c r="G164" s="13"/>
+      <c r="J164" s="14"/>
+      <c r="K164" s="15"/>
     </row>
     <row r="165" ht="15.2" spans="7:11">
-      <c r="G165" s="16"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="18"/>
+      <c r="G165" s="13"/>
+      <c r="J165" s="14"/>
+      <c r="K165" s="15"/>
     </row>
     <row r="166" ht="15.2" spans="7:11">
-      <c r="G166" s="16"/>
-      <c r="J166" s="17"/>
-      <c r="K166" s="18"/>
+      <c r="G166" s="13"/>
+      <c r="J166" s="14"/>
+      <c r="K166" s="15"/>
     </row>
     <row r="167" ht="15.2" spans="7:11">
-      <c r="G167" s="16"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="18"/>
+      <c r="G167" s="13"/>
+      <c r="J167" s="14"/>
+      <c r="K167" s="15"/>
     </row>
     <row r="168" ht="15.2" spans="7:11">
-      <c r="G168" s="16"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="18"/>
+      <c r="G168" s="13"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="15"/>
     </row>
     <row r="169" ht="15.2" spans="7:11">
-      <c r="G169" s="16"/>
-      <c r="J169" s="17"/>
-      <c r="K169" s="18"/>
+      <c r="G169" s="13"/>
+      <c r="J169" s="14"/>
+      <c r="K169" s="15"/>
     </row>
     <row r="170" ht="15.2" spans="7:11">
-      <c r="G170" s="16"/>
-      <c r="J170" s="17"/>
-      <c r="K170" s="18"/>
+      <c r="G170" s="13"/>
+      <c r="J170" s="14"/>
+      <c r="K170" s="15"/>
     </row>
     <row r="171" ht="15.2" spans="7:11">
-      <c r="G171" s="16"/>
-      <c r="J171" s="17"/>
-      <c r="K171" s="18"/>
+      <c r="G171" s="13"/>
+      <c r="J171" s="14"/>
+      <c r="K171" s="15"/>
     </row>
     <row r="172" ht="15.2" spans="7:11">
-      <c r="G172" s="16"/>
-      <c r="J172" s="17"/>
-      <c r="K172" s="18"/>
+      <c r="G172" s="13"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="15"/>
     </row>
     <row r="173" ht="15.2" spans="7:11">
-      <c r="G173" s="16"/>
-      <c r="J173" s="17"/>
-      <c r="K173" s="18"/>
+      <c r="G173" s="13"/>
+      <c r="J173" s="14"/>
+      <c r="K173" s="15"/>
     </row>
     <row r="174" ht="15.2" spans="7:11">
-      <c r="G174" s="16"/>
-      <c r="J174" s="17"/>
-      <c r="K174" s="18"/>
+      <c r="G174" s="13"/>
+      <c r="J174" s="14"/>
+      <c r="K174" s="15"/>
     </row>
     <row r="175" ht="15.2" spans="7:11">
-      <c r="G175" s="16"/>
-      <c r="J175" s="17"/>
-      <c r="K175" s="18"/>
+      <c r="G175" s="13"/>
+      <c r="J175" s="14"/>
+      <c r="K175" s="15"/>
     </row>
     <row r="176" ht="15.2" spans="7:11">
-      <c r="G176" s="16"/>
-      <c r="J176" s="17"/>
-      <c r="K176" s="18"/>
+      <c r="G176" s="13"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="15"/>
     </row>
     <row r="177" ht="15.2" spans="7:11">
-      <c r="G177" s="16"/>
-      <c r="J177" s="17"/>
-      <c r="K177" s="18"/>
+      <c r="G177" s="13"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="15"/>
     </row>
     <row r="178" ht="15.2" spans="7:11">
-      <c r="G178" s="16"/>
-      <c r="J178" s="17"/>
-      <c r="K178" s="18"/>
+      <c r="G178" s="13"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="15"/>
     </row>
     <row r="179" ht="15.2" spans="7:11">
-      <c r="G179" s="16"/>
-      <c r="J179" s="17"/>
-      <c r="K179" s="18"/>
+      <c r="G179" s="13"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="15"/>
     </row>
     <row r="180" ht="15.2" spans="7:11">
-      <c r="G180" s="16"/>
-      <c r="J180" s="17"/>
-      <c r="K180" s="18"/>
+      <c r="G180" s="13"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="15"/>
     </row>
     <row r="181" ht="15.2" spans="7:11">
-      <c r="G181" s="16"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="18"/>
+      <c r="G181" s="13"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="15"/>
     </row>
     <row r="182" ht="15.2" spans="7:11">
-      <c r="G182" s="16"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="18"/>
+      <c r="G182" s="13"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="15"/>
     </row>
     <row r="183" ht="15.2" spans="7:11">
-      <c r="G183" s="16"/>
-      <c r="J183" s="17"/>
-      <c r="K183" s="18"/>
+      <c r="G183" s="13"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="15"/>
     </row>
     <row r="184" ht="15.2" spans="7:11">
-      <c r="G184" s="16"/>
-      <c r="J184" s="17"/>
-      <c r="K184" s="18"/>
+      <c r="G184" s="13"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="15"/>
     </row>
     <row r="185" ht="15.2" spans="7:11">
-      <c r="G185" s="16"/>
-      <c r="J185" s="17"/>
-      <c r="K185" s="18"/>
+      <c r="G185" s="13"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="15"/>
     </row>
     <row r="186" ht="15.2" spans="7:11">
-      <c r="G186" s="16"/>
-      <c r="J186" s="17"/>
-      <c r="K186" s="18"/>
+      <c r="G186" s="13"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="15"/>
     </row>
     <row r="187" ht="15.2" spans="7:11">
-      <c r="G187" s="16"/>
-      <c r="J187" s="17"/>
-      <c r="K187" s="18"/>
+      <c r="G187" s="13"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="15"/>
     </row>
     <row r="188" ht="15.2" spans="7:11">
-      <c r="G188" s="16"/>
-      <c r="J188" s="17"/>
-      <c r="K188" s="18"/>
+      <c r="G188" s="13"/>
+      <c r="J188" s="14"/>
+      <c r="K188" s="15"/>
     </row>
     <row r="189" ht="15.2" spans="7:11">
-      <c r="G189" s="16"/>
-      <c r="J189" s="17"/>
-      <c r="K189" s="18"/>
+      <c r="G189" s="13"/>
+      <c r="J189" s="14"/>
+      <c r="K189" s="15"/>
     </row>
     <row r="190" ht="15.2" spans="7:11">
-      <c r="G190" s="16"/>
-      <c r="J190" s="17"/>
-      <c r="K190" s="18"/>
+      <c r="G190" s="13"/>
+      <c r="J190" s="14"/>
+      <c r="K190" s="15"/>
     </row>
     <row r="191" ht="15.2" spans="7:11">
-      <c r="G191" s="16"/>
-      <c r="J191" s="17"/>
-      <c r="K191" s="18"/>
+      <c r="G191" s="13"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="15"/>
     </row>
     <row r="192" ht="15.2" spans="7:11">
-      <c r="G192" s="16"/>
-      <c r="J192" s="17"/>
-      <c r="K192" s="18"/>
+      <c r="G192" s="13"/>
+      <c r="J192" s="14"/>
+      <c r="K192" s="15"/>
     </row>
     <row r="193" ht="15.2" spans="7:11">
-      <c r="G193" s="16"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="18"/>
+      <c r="G193" s="13"/>
+      <c r="J193" s="14"/>
+      <c r="K193" s="15"/>
     </row>
     <row r="194" ht="15.2" spans="7:11">
-      <c r="G194" s="16"/>
-      <c r="J194" s="17"/>
-      <c r="K194" s="18"/>
+      <c r="G194" s="13"/>
+      <c r="J194" s="14"/>
+      <c r="K194" s="15"/>
     </row>
     <row r="195" ht="15.2" spans="7:11">
-      <c r="G195" s="16"/>
-      <c r="J195" s="17"/>
-      <c r="K195" s="18"/>
+      <c r="G195" s="13"/>
+      <c r="J195" s="14"/>
+      <c r="K195" s="15"/>
     </row>
     <row r="196" ht="15.2" spans="7:11">
-      <c r="G196" s="16"/>
-      <c r="J196" s="17"/>
-      <c r="K196" s="18"/>
+      <c r="G196" s="13"/>
+      <c r="J196" s="14"/>
+      <c r="K196" s="15"/>
     </row>
     <row r="197" ht="15.2" spans="7:11">
-      <c r="G197" s="16"/>
-      <c r="J197" s="17"/>
-      <c r="K197" s="18"/>
+      <c r="G197" s="13"/>
+      <c r="J197" s="14"/>
+      <c r="K197" s="15"/>
     </row>
     <row r="198" ht="15.2" spans="7:11">
-      <c r="G198" s="16"/>
-      <c r="J198" s="17"/>
-      <c r="K198" s="18"/>
+      <c r="G198" s="13"/>
+      <c r="J198" s="14"/>
+      <c r="K198" s="15"/>
     </row>
     <row r="199" ht="15.2" spans="7:11">
-      <c r="G199" s="16"/>
-      <c r="J199" s="17"/>
-      <c r="K199" s="18"/>
+      <c r="G199" s="13"/>
+      <c r="J199" s="14"/>
+      <c r="K199" s="15"/>
     </row>
     <row r="200" ht="15.2" spans="7:11">
-      <c r="G200" s="16"/>
-      <c r="J200" s="17"/>
-      <c r="K200" s="18"/>
+      <c r="G200" s="13"/>
+      <c r="J200" s="14"/>
+      <c r="K200" s="15"/>
     </row>
     <row r="201" ht="15.2" spans="7:11">
-      <c r="G201" s="16"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="18"/>
+      <c r="G201" s="13"/>
+      <c r="J201" s="14"/>
+      <c r="K201" s="15"/>
     </row>
     <row r="202" ht="15.2" spans="7:11">
-      <c r="G202" s="16"/>
-      <c r="J202" s="17"/>
-      <c r="K202" s="18"/>
+      <c r="G202" s="13"/>
+      <c r="J202" s="14"/>
+      <c r="K202" s="15"/>
     </row>
     <row r="203" ht="15.2" spans="7:11">
-      <c r="G203" s="16"/>
-      <c r="J203" s="17"/>
-      <c r="K203" s="18"/>
+      <c r="G203" s="13"/>
+      <c r="J203" s="14"/>
+      <c r="K203" s="15"/>
     </row>
     <row r="204" ht="15.2" spans="7:11">
-      <c r="G204" s="16"/>
-      <c r="J204" s="17"/>
-      <c r="K204" s="18"/>
+      <c r="G204" s="13"/>
+      <c r="J204" s="14"/>
+      <c r="K204" s="15"/>
     </row>
     <row r="205" ht="15.2" spans="7:11">
-      <c r="G205" s="16"/>
-      <c r="J205" s="17"/>
-      <c r="K205" s="18"/>
+      <c r="G205" s="13"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="15"/>
     </row>
     <row r="206" ht="15.2" spans="7:11">
-      <c r="G206" s="16"/>
-      <c r="J206" s="17"/>
-      <c r="K206" s="18"/>
+      <c r="G206" s="13"/>
+      <c r="J206" s="14"/>
+      <c r="K206" s="15"/>
     </row>
     <row r="207" ht="15.2" spans="7:11">
-      <c r="G207" s="16"/>
-      <c r="J207" s="17"/>
-      <c r="K207" s="18"/>
+      <c r="G207" s="13"/>
+      <c r="J207" s="14"/>
+      <c r="K207" s="15"/>
     </row>
     <row r="208" ht="15.2" spans="7:11">
-      <c r="G208" s="16"/>
-      <c r="J208" s="17"/>
-      <c r="K208" s="18"/>
+      <c r="G208" s="13"/>
+      <c r="J208" s="14"/>
+      <c r="K208" s="15"/>
     </row>
     <row r="209" ht="15.2" spans="7:11">
-      <c r="G209" s="16"/>
-      <c r="J209" s="17"/>
-      <c r="K209" s="18"/>
+      <c r="G209" s="13"/>
+      <c r="J209" s="14"/>
+      <c r="K209" s="15"/>
     </row>
     <row r="210" ht="15.2" spans="7:11">
-      <c r="G210" s="16"/>
-      <c r="J210" s="17"/>
-      <c r="K210" s="18"/>
+      <c r="G210" s="13"/>
+      <c r="J210" s="14"/>
+      <c r="K210" s="15"/>
     </row>
     <row r="211" ht="15.2" spans="7:11">
-      <c r="G211" s="16"/>
-      <c r="J211" s="17"/>
-      <c r="K211" s="18"/>
+      <c r="G211" s="13"/>
+      <c r="J211" s="14"/>
+      <c r="K211" s="15"/>
     </row>
     <row r="212" ht="15.2" spans="7:11">
-      <c r="G212" s="16"/>
-      <c r="J212" s="17"/>
-      <c r="K212" s="18"/>
+      <c r="G212" s="13"/>
+      <c r="J212" s="14"/>
+      <c r="K212" s="15"/>
     </row>
     <row r="213" ht="15.2" spans="7:11">
-      <c r="G213" s="16"/>
-      <c r="J213" s="17"/>
-      <c r="K213" s="18"/>
+      <c r="G213" s="13"/>
+      <c r="J213" s="14"/>
+      <c r="K213" s="15"/>
     </row>
     <row r="214" ht="15.2" spans="7:11">
-      <c r="G214" s="16"/>
-      <c r="J214" s="17"/>
-      <c r="K214" s="18"/>
+      <c r="G214" s="13"/>
+      <c r="J214" s="14"/>
+      <c r="K214" s="15"/>
     </row>
     <row r="215" ht="15.2" spans="7:11">
-      <c r="G215" s="16"/>
-      <c r="J215" s="17"/>
-      <c r="K215" s="18"/>
+      <c r="G215" s="13"/>
+      <c r="J215" s="14"/>
+      <c r="K215" s="15"/>
     </row>
     <row r="216" ht="15.2" spans="7:11">
-      <c r="G216" s="16"/>
-      <c r="J216" s="17"/>
-      <c r="K216" s="18"/>
+      <c r="G216" s="13"/>
+      <c r="J216" s="14"/>
+      <c r="K216" s="15"/>
     </row>
     <row r="217" ht="15.2" spans="7:11">
-      <c r="G217" s="16"/>
-      <c r="J217" s="17"/>
-      <c r="K217" s="18"/>
+      <c r="G217" s="13"/>
+      <c r="J217" s="14"/>
+      <c r="K217" s="15"/>
     </row>
     <row r="218" ht="15.2" spans="7:11">
-      <c r="G218" s="16"/>
-      <c r="J218" s="17"/>
-      <c r="K218" s="18"/>
+      <c r="G218" s="13"/>
+      <c r="J218" s="14"/>
+      <c r="K218" s="15"/>
     </row>
     <row r="219" ht="15.2" spans="7:11">
-      <c r="G219" s="16"/>
-      <c r="J219" s="17"/>
-      <c r="K219" s="18"/>
+      <c r="G219" s="13"/>
+      <c r="J219" s="14"/>
+      <c r="K219" s="15"/>
     </row>
     <row r="220" ht="15.2" spans="7:11">
-      <c r="G220" s="16"/>
-      <c r="J220" s="17"/>
-      <c r="K220" s="18"/>
+      <c r="G220" s="13"/>
+      <c r="J220" s="14"/>
+      <c r="K220" s="15"/>
     </row>
     <row r="221" ht="15.2" spans="7:11">
-      <c r="G221" s="16"/>
-      <c r="J221" s="17"/>
-      <c r="K221" s="18"/>
+      <c r="G221" s="13"/>
+      <c r="J221" s="14"/>
+      <c r="K221" s="15"/>
     </row>
     <row r="222" ht="15.2" spans="7:11">
-      <c r="G222" s="16"/>
-      <c r="J222" s="17"/>
-      <c r="K222" s="18"/>
+      <c r="G222" s="13"/>
+      <c r="J222" s="14"/>
+      <c r="K222" s="15"/>
     </row>
     <row r="223" ht="15.2" spans="7:11">
-      <c r="G223" s="16"/>
-      <c r="J223" s="17"/>
-      <c r="K223" s="18"/>
+      <c r="G223" s="13"/>
+      <c r="J223" s="14"/>
+      <c r="K223" s="15"/>
     </row>
     <row r="224" ht="15.2" spans="7:11">
-      <c r="G224" s="16"/>
-      <c r="J224" s="17"/>
-      <c r="K224" s="18"/>
+      <c r="G224" s="13"/>
+      <c r="J224" s="14"/>
+      <c r="K224" s="15"/>
     </row>
     <row r="225" ht="15.2" spans="7:11">
-      <c r="G225" s="16"/>
-      <c r="J225" s="17"/>
-      <c r="K225" s="18"/>
+      <c r="G225" s="13"/>
+      <c r="J225" s="14"/>
+      <c r="K225" s="15"/>
     </row>
     <row r="226" ht="15.2" spans="7:11">
-      <c r="G226" s="16"/>
-      <c r="J226" s="17"/>
-      <c r="K226" s="18"/>
+      <c r="G226" s="13"/>
+      <c r="J226" s="14"/>
+      <c r="K226" s="15"/>
     </row>
     <row r="227" ht="15.2" spans="7:11">
-      <c r="G227" s="16"/>
-      <c r="J227" s="17"/>
-      <c r="K227" s="18"/>
+      <c r="G227" s="13"/>
+      <c r="J227" s="14"/>
+      <c r="K227" s="15"/>
     </row>
     <row r="228" ht="15.2" spans="7:11">
-      <c r="G228" s="16"/>
-      <c r="J228" s="17"/>
-      <c r="K228" s="18"/>
+      <c r="G228" s="13"/>
+      <c r="J228" s="14"/>
+      <c r="K228" s="15"/>
     </row>
     <row r="229" ht="15.2" spans="7:11">
-      <c r="G229" s="16"/>
-      <c r="J229" s="17"/>
-      <c r="K229" s="18"/>
+      <c r="G229" s="13"/>
+      <c r="J229" s="14"/>
+      <c r="K229" s="15"/>
     </row>
     <row r="230" ht="15.2" spans="7:11">
-      <c r="G230" s="16"/>
-      <c r="J230" s="17"/>
-      <c r="K230" s="18"/>
+      <c r="G230" s="13"/>
+      <c r="J230" s="14"/>
+      <c r="K230" s="15"/>
     </row>
     <row r="231" ht="15.2" spans="7:11">
-      <c r="G231" s="16"/>
-      <c r="J231" s="17"/>
-      <c r="K231" s="18"/>
+      <c r="G231" s="13"/>
+      <c r="J231" s="14"/>
+      <c r="K231" s="15"/>
     </row>
     <row r="232" ht="15.2" spans="7:11">
-      <c r="G232" s="16"/>
-      <c r="J232" s="17"/>
-      <c r="K232" s="18"/>
+      <c r="G232" s="13"/>
+      <c r="J232" s="14"/>
+      <c r="K232" s="15"/>
     </row>
     <row r="233" ht="15.2" spans="7:11">
-      <c r="G233" s="16"/>
-      <c r="J233" s="17"/>
-      <c r="K233" s="18"/>
+      <c r="G233" s="13"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="15"/>
     </row>
     <row r="234" ht="15.2" spans="7:11">
-      <c r="G234" s="16"/>
-      <c r="J234" s="17"/>
-      <c r="K234" s="18"/>
+      <c r="G234" s="13"/>
+      <c r="J234" s="14"/>
+      <c r="K234" s="15"/>
     </row>
     <row r="235" ht="15.2" spans="7:11">
-      <c r="G235" s="16"/>
-      <c r="J235" s="17"/>
-      <c r="K235" s="18"/>
+      <c r="G235" s="13"/>
+      <c r="J235" s="14"/>
+      <c r="K235" s="15"/>
     </row>
     <row r="236" ht="15.2" spans="7:11">
-      <c r="G236" s="16"/>
-      <c r="J236" s="17"/>
-      <c r="K236" s="18"/>
+      <c r="G236" s="13"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="15"/>
     </row>
     <row r="237" ht="15.2" spans="7:11">
-      <c r="G237" s="16"/>
-      <c r="J237" s="17"/>
-      <c r="K237" s="18"/>
+      <c r="G237" s="13"/>
+      <c r="J237" s="14"/>
+      <c r="K237" s="15"/>
     </row>
     <row r="238" ht="15.2" spans="7:11">
-      <c r="G238" s="16"/>
-      <c r="J238" s="17"/>
-      <c r="K238" s="18"/>
+      <c r="G238" s="13"/>
+      <c r="J238" s="14"/>
+      <c r="K238" s="15"/>
     </row>
     <row r="239" ht="15.2" spans="7:11">
-      <c r="G239" s="16"/>
-      <c r="J239" s="17"/>
-      <c r="K239" s="18"/>
+      <c r="G239" s="13"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="15"/>
     </row>
     <row r="240" ht="15.2" spans="7:11">
-      <c r="G240" s="16"/>
-      <c r="J240" s="17"/>
-      <c r="K240" s="18"/>
+      <c r="G240" s="13"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="15"/>
     </row>
     <row r="241" ht="15.2" spans="7:11">
-      <c r="G241" s="16"/>
-      <c r="J241" s="17"/>
-      <c r="K241" s="18"/>
+      <c r="G241" s="13"/>
+      <c r="J241" s="14"/>
+      <c r="K241" s="15"/>
     </row>
     <row r="242" ht="15.2" spans="7:11">
-      <c r="G242" s="16"/>
-      <c r="J242" s="17"/>
-      <c r="K242" s="18"/>
+      <c r="G242" s="13"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="15"/>
     </row>
     <row r="243" ht="15.2" spans="7:11">
-      <c r="G243" s="16"/>
-      <c r="J243" s="17"/>
-      <c r="K243" s="18"/>
+      <c r="G243" s="13"/>
+      <c r="J243" s="14"/>
+      <c r="K243" s="15"/>
     </row>
     <row r="244" ht="15.2" spans="7:11">
-      <c r="G244" s="16"/>
-      <c r="J244" s="17"/>
-      <c r="K244" s="18"/>
+      <c r="G244" s="13"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="15"/>
     </row>
     <row r="245" ht="15.2" spans="7:11">
-      <c r="G245" s="16"/>
-      <c r="J245" s="17"/>
-      <c r="K245" s="18"/>
+      <c r="G245" s="13"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="15"/>
     </row>
     <row r="246" ht="15.2" spans="7:11">
-      <c r="G246" s="16"/>
-      <c r="J246" s="17"/>
-      <c r="K246" s="18"/>
+      <c r="G246" s="13"/>
+      <c r="J246" s="14"/>
+      <c r="K246" s="15"/>
     </row>
     <row r="247" ht="15.2" spans="7:11">
-      <c r="G247" s="16"/>
-      <c r="J247" s="17"/>
-      <c r="K247" s="18"/>
+      <c r="G247" s="13"/>
+      <c r="J247" s="14"/>
+      <c r="K247" s="15"/>
     </row>
     <row r="248" ht="15.2" spans="7:11">
-      <c r="G248" s="16"/>
-      <c r="J248" s="17"/>
-      <c r="K248" s="18"/>
+      <c r="G248" s="13"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="15"/>
     </row>
     <row r="249" ht="15.2" spans="7:11">
-      <c r="G249" s="16"/>
-      <c r="J249" s="17"/>
-      <c r="K249" s="18"/>
+      <c r="G249" s="13"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="15"/>
     </row>
     <row r="250" ht="15.2" spans="7:11">
-      <c r="G250" s="16"/>
-      <c r="J250" s="17"/>
-      <c r="K250" s="18"/>
+      <c r="G250" s="13"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="15"/>
     </row>
     <row r="251" ht="15.2" spans="7:11">
-      <c r="G251" s="16"/>
-      <c r="J251" s="17"/>
-      <c r="K251" s="18"/>
+      <c r="G251" s="13"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="15"/>
     </row>
     <row r="252" ht="15.2" spans="7:11">
-      <c r="G252" s="16"/>
-      <c r="J252" s="17"/>
-      <c r="K252" s="18"/>
+      <c r="G252" s="13"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="15"/>
     </row>
     <row r="253" ht="15.2" spans="7:11">
-      <c r="G253" s="16"/>
-      <c r="J253" s="17"/>
-      <c r="K253" s="18"/>
+      <c r="G253" s="13"/>
+      <c r="J253" s="14"/>
+      <c r="K253" s="15"/>
     </row>
     <row r="254" ht="15.2" spans="7:11">
-      <c r="G254" s="16"/>
-      <c r="J254" s="17"/>
-      <c r="K254" s="18"/>
+      <c r="G254" s="13"/>
+      <c r="J254" s="14"/>
+      <c r="K254" s="15"/>
     </row>
     <row r="255" ht="15.2" spans="7:11">
-      <c r="G255" s="16"/>
-      <c r="J255" s="17"/>
-      <c r="K255" s="18"/>
+      <c r="G255" s="13"/>
+      <c r="J255" s="14"/>
+      <c r="K255" s="15"/>
     </row>
     <row r="256" ht="15.2" spans="7:11">
-      <c r="G256" s="16"/>
-      <c r="J256" s="17"/>
-      <c r="K256" s="18"/>
+      <c r="G256" s="13"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="15"/>
     </row>
     <row r="257" ht="15.2" spans="7:11">
-      <c r="G257" s="16"/>
-      <c r="J257" s="17"/>
-      <c r="K257" s="18"/>
+      <c r="G257" s="13"/>
+      <c r="J257" s="14"/>
+      <c r="K257" s="15"/>
     </row>
     <row r="258" ht="15.2" spans="7:11">
-      <c r="G258" s="16"/>
-      <c r="J258" s="17"/>
-      <c r="K258" s="18"/>
+      <c r="G258" s="13"/>
+      <c r="J258" s="14"/>
+      <c r="K258" s="15"/>
     </row>
     <row r="259" ht="15.2" spans="7:11">
-      <c r="G259" s="16"/>
-      <c r="J259" s="17"/>
-      <c r="K259" s="18"/>
+      <c r="G259" s="13"/>
+      <c r="J259" s="14"/>
+      <c r="K259" s="15"/>
     </row>
     <row r="260" ht="15.2" spans="7:11">
-      <c r="G260" s="16"/>
-      <c r="J260" s="17"/>
-      <c r="K260" s="18"/>
+      <c r="G260" s="13"/>
+      <c r="J260" s="14"/>
+      <c r="K260" s="15"/>
     </row>
     <row r="261" ht="15.2" spans="7:11">
-      <c r="G261" s="16"/>
-      <c r="J261" s="17"/>
-      <c r="K261" s="18"/>
+      <c r="G261" s="13"/>
+      <c r="J261" s="14"/>
+      <c r="K261" s="15"/>
     </row>
     <row r="262" ht="15.2" spans="7:11">
-      <c r="G262" s="16"/>
-      <c r="J262" s="17"/>
-      <c r="K262" s="18"/>
+      <c r="G262" s="13"/>
+      <c r="J262" s="14"/>
+      <c r="K262" s="15"/>
     </row>
     <row r="263" ht="15.2" spans="7:11">
-      <c r="G263" s="16"/>
-      <c r="J263" s="17"/>
-      <c r="K263" s="18"/>
+      <c r="G263" s="13"/>
+      <c r="J263" s="14"/>
+      <c r="K263" s="15"/>
     </row>
     <row r="264" ht="15.2" spans="7:11">
-      <c r="G264" s="16"/>
-      <c r="J264" s="17"/>
-      <c r="K264" s="18"/>
+      <c r="G264" s="13"/>
+      <c r="J264" s="14"/>
+      <c r="K264" s="15"/>
     </row>
     <row r="265" ht="15.2" spans="7:11">
-      <c r="G265" s="16"/>
-      <c r="J265" s="17"/>
-      <c r="K265" s="18"/>
+      <c r="G265" s="13"/>
+      <c r="J265" s="14"/>
+      <c r="K265" s="15"/>
     </row>
     <row r="266" ht="15.2" spans="7:11">
-      <c r="G266" s="16"/>
-      <c r="J266" s="17"/>
-      <c r="K266" s="18"/>
+      <c r="G266" s="13"/>
+      <c r="J266" s="14"/>
+      <c r="K266" s="15"/>
     </row>
     <row r="267" ht="15.2" spans="7:11">
-      <c r="G267" s="16"/>
-      <c r="J267" s="17"/>
-      <c r="K267" s="18"/>
+      <c r="G267" s="13"/>
+      <c r="J267" s="14"/>
+      <c r="K267" s="15"/>
     </row>
     <row r="268" ht="15.2" spans="7:11">
-      <c r="G268" s="16"/>
-      <c r="J268" s="17"/>
-      <c r="K268" s="18"/>
+      <c r="G268" s="13"/>
+      <c r="J268" s="14"/>
+      <c r="K268" s="15"/>
     </row>
     <row r="269" ht="15.2" spans="7:11">
-      <c r="G269" s="16"/>
-      <c r="J269" s="17"/>
-      <c r="K269" s="18"/>
+      <c r="G269" s="13"/>
+      <c r="J269" s="14"/>
+      <c r="K269" s="15"/>
     </row>
     <row r="270" ht="15.2" spans="7:11">
-      <c r="G270" s="16"/>
-      <c r="J270" s="17"/>
-      <c r="K270" s="18"/>
+      <c r="G270" s="13"/>
+      <c r="J270" s="14"/>
+      <c r="K270" s="15"/>
     </row>
     <row r="271" ht="15.2" spans="7:11">
-      <c r="G271" s="16"/>
-      <c r="J271" s="17"/>
-      <c r="K271" s="18"/>
+      <c r="G271" s="13"/>
+      <c r="J271" s="14"/>
+      <c r="K271" s="15"/>
     </row>
     <row r="272" ht="15.2" spans="7:11">
-      <c r="G272" s="16"/>
-      <c r="J272" s="17"/>
-      <c r="K272" s="18"/>
+      <c r="G272" s="13"/>
+      <c r="J272" s="14"/>
+      <c r="K272" s="15"/>
     </row>
     <row r="273" ht="15.2" spans="7:11">
-      <c r="G273" s="16"/>
-      <c r="J273" s="17"/>
-      <c r="K273" s="18"/>
+      <c r="G273" s="13"/>
+      <c r="J273" s="14"/>
+      <c r="K273" s="15"/>
     </row>
     <row r="274" ht="15.2" spans="7:11">
-      <c r="G274" s="16"/>
-      <c r="J274" s="17"/>
-      <c r="K274" s="18"/>
+      <c r="G274" s="13"/>
+      <c r="J274" s="14"/>
+      <c r="K274" s="15"/>
     </row>
     <row r="275" ht="15.2" spans="7:11">
-      <c r="G275" s="16"/>
-      <c r="J275" s="17"/>
-      <c r="K275" s="18"/>
+      <c r="G275" s="13"/>
+      <c r="J275" s="14"/>
+      <c r="K275" s="15"/>
     </row>
     <row r="276" ht="15.2" spans="7:11">
-      <c r="G276" s="16"/>
-      <c r="J276" s="17"/>
-      <c r="K276" s="18"/>
+      <c r="G276" s="13"/>
+      <c r="J276" s="14"/>
+      <c r="K276" s="15"/>
     </row>
     <row r="277" ht="15.2" spans="7:11">
-      <c r="G277" s="16"/>
-      <c r="J277" s="17"/>
-      <c r="K277" s="18"/>
+      <c r="G277" s="13"/>
+      <c r="J277" s="14"/>
+      <c r="K277" s="15"/>
     </row>
     <row r="278" ht="15.2" spans="7:11">
-      <c r="G278" s="16"/>
-      <c r="J278" s="17"/>
-      <c r="K278" s="18"/>
+      <c r="G278" s="13"/>
+      <c r="J278" s="14"/>
+      <c r="K278" s="15"/>
     </row>
     <row r="279" ht="15.2" spans="7:11">
-      <c r="G279" s="16"/>
-      <c r="J279" s="17"/>
-      <c r="K279" s="18"/>
+      <c r="G279" s="13"/>
+      <c r="J279" s="14"/>
+      <c r="K279" s="15"/>
     </row>
     <row r="280" ht="15.2" spans="7:11">
-      <c r="G280" s="16"/>
-      <c r="J280" s="17"/>
-      <c r="K280" s="18"/>
+      <c r="G280" s="13"/>
+      <c r="J280" s="14"/>
+      <c r="K280" s="15"/>
     </row>
     <row r="281" ht="15.2" spans="7:11">
-      <c r="G281" s="16"/>
-      <c r="J281" s="17"/>
-      <c r="K281" s="18"/>
+      <c r="G281" s="13"/>
+      <c r="J281" s="14"/>
+      <c r="K281" s="15"/>
     </row>
     <row r="282" ht="15.2" spans="7:11">
-      <c r="G282" s="16"/>
-      <c r="J282" s="17"/>
-      <c r="K282" s="18"/>
+      <c r="G282" s="13"/>
+      <c r="J282" s="14"/>
+      <c r="K282" s="15"/>
     </row>
     <row r="283" ht="15.2" spans="7:11">
-      <c r="G283" s="16"/>
-      <c r="J283" s="17"/>
-      <c r="K283" s="18"/>
+      <c r="G283" s="13"/>
+      <c r="J283" s="14"/>
+      <c r="K283" s="15"/>
     </row>
     <row r="284" ht="15.2" spans="7:11">
-      <c r="G284" s="16"/>
-      <c r="J284" s="17"/>
-      <c r="K284" s="18"/>
+      <c r="G284" s="13"/>
+      <c r="J284" s="14"/>
+      <c r="K284" s="15"/>
     </row>
     <row r="285" ht="15.2" spans="7:11">
-      <c r="G285" s="16"/>
-      <c r="J285" s="17"/>
-      <c r="K285" s="18"/>
+      <c r="G285" s="13"/>
+      <c r="J285" s="14"/>
+      <c r="K285" s="15"/>
     </row>
     <row r="286" ht="15.2" spans="7:11">
-      <c r="G286" s="16"/>
-      <c r="J286" s="17"/>
-      <c r="K286" s="18"/>
+      <c r="G286" s="13"/>
+      <c r="J286" s="14"/>
+      <c r="K286" s="15"/>
     </row>
     <row r="287" ht="15.2" spans="7:11">
-      <c r="G287" s="16"/>
-      <c r="J287" s="17"/>
-      <c r="K287" s="18"/>
+      <c r="G287" s="13"/>
+      <c r="J287" s="14"/>
+      <c r="K287" s="15"/>
     </row>
     <row r="288" ht="15.2" spans="7:11">
-      <c r="G288" s="16"/>
-      <c r="J288" s="17"/>
-      <c r="K288" s="18"/>
+      <c r="G288" s="13"/>
+      <c r="J288" s="14"/>
+      <c r="K288" s="15"/>
     </row>
     <row r="289" ht="15.2" spans="7:11">
-      <c r="G289" s="16"/>
-      <c r="J289" s="17"/>
-      <c r="K289" s="18"/>
+      <c r="G289" s="13"/>
+      <c r="J289" s="14"/>
+      <c r="K289" s="15"/>
     </row>
     <row r="290" ht="15.2" spans="7:11">
-      <c r="G290" s="16"/>
-      <c r="J290" s="17"/>
-      <c r="K290" s="18"/>
+      <c r="G290" s="13"/>
+      <c r="J290" s="14"/>
+      <c r="K290" s="15"/>
     </row>
     <row r="291" ht="15.2" spans="7:11">
-      <c r="G291" s="16"/>
-      <c r="J291" s="17"/>
-      <c r="K291" s="18"/>
+      <c r="G291" s="13"/>
+      <c r="J291" s="14"/>
+      <c r="K291" s="15"/>
     </row>
     <row r="292" ht="15.2" spans="7:11">
-      <c r="G292" s="16"/>
-      <c r="J292" s="17"/>
-      <c r="K292" s="18"/>
+      <c r="G292" s="13"/>
+      <c r="J292" s="14"/>
+      <c r="K292" s="15"/>
     </row>
     <row r="293" ht="15.2" spans="7:11">
-      <c r="G293" s="16"/>
-      <c r="J293" s="17"/>
-      <c r="K293" s="18"/>
+      <c r="G293" s="13"/>
+      <c r="J293" s="14"/>
+      <c r="K293" s="15"/>
     </row>
     <row r="294" ht="15.2" spans="7:11">
-      <c r="G294" s="16"/>
-      <c r="J294" s="17"/>
-      <c r="K294" s="18"/>
+      <c r="G294" s="13"/>
+      <c r="J294" s="14"/>
+      <c r="K294" s="15"/>
     </row>
     <row r="295" ht="15.2" spans="7:11">
-      <c r="G295" s="16"/>
-      <c r="J295" s="17"/>
-      <c r="K295" s="18"/>
+      <c r="G295" s="13"/>
+      <c r="J295" s="14"/>
+      <c r="K295" s="15"/>
     </row>
     <row r="296" ht="15.2" spans="7:11">
-      <c r="G296" s="16"/>
-      <c r="J296" s="17"/>
-      <c r="K296" s="18"/>
+      <c r="G296" s="13"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="15"/>
     </row>
     <row r="297" ht="15.2" spans="7:11">
-      <c r="G297" s="16"/>
-      <c r="J297" s="17"/>
-      <c r="K297" s="18"/>
+      <c r="G297" s="13"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="15"/>
     </row>
     <row r="298" ht="15.2" spans="7:11">
-      <c r="G298" s="16"/>
-      <c r="J298" s="17"/>
-      <c r="K298" s="18"/>
+      <c r="G298" s="13"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="15"/>
     </row>
     <row r="299" ht="15.2" spans="7:11">
-      <c r="G299" s="16"/>
-      <c r="J299" s="17"/>
-      <c r="K299" s="18"/>
+      <c r="G299" s="13"/>
+      <c r="J299" s="14"/>
+      <c r="K299" s="15"/>
     </row>
     <row r="300" ht="15.2" spans="7:11">
-      <c r="G300" s="16"/>
-      <c r="J300" s="17"/>
-      <c r="K300" s="18"/>
+      <c r="G300" s="13"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="15"/>
     </row>
     <row r="301" ht="15.2" spans="7:11">
-      <c r="G301" s="16"/>
-      <c r="J301" s="17"/>
-      <c r="K301" s="18"/>
+      <c r="G301" s="13"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="15"/>
     </row>
     <row r="302" ht="15.2" spans="7:11">
-      <c r="G302" s="16"/>
-      <c r="J302" s="17"/>
-      <c r="K302" s="18"/>
+      <c r="G302" s="13"/>
+      <c r="J302" s="14"/>
+      <c r="K302" s="15"/>
     </row>
     <row r="303" ht="15.2" spans="7:11">
-      <c r="G303" s="16"/>
-      <c r="J303" s="17"/>
-      <c r="K303" s="18"/>
+      <c r="G303" s="13"/>
+      <c r="J303" s="14"/>
+      <c r="K303" s="15"/>
     </row>
     <row r="304" ht="15.2" spans="7:11">
-      <c r="G304" s="16"/>
-      <c r="J304" s="17"/>
-      <c r="K304" s="18"/>
+      <c r="G304" s="13"/>
+      <c r="J304" s="14"/>
+      <c r="K304" s="15"/>
     </row>
     <row r="305" ht="15.2" spans="7:11">
-      <c r="G305" s="16"/>
-      <c r="J305" s="17"/>
-      <c r="K305" s="18"/>
+      <c r="G305" s="13"/>
+      <c r="J305" s="14"/>
+      <c r="K305" s="15"/>
     </row>
     <row r="306" ht="15.2" spans="7:11">
-      <c r="G306" s="16"/>
-      <c r="J306" s="17"/>
-      <c r="K306" s="18"/>
+      <c r="G306" s="13"/>
+      <c r="J306" s="14"/>
+      <c r="K306" s="15"/>
     </row>
     <row r="307" ht="15.2" spans="7:11">
-      <c r="G307" s="16"/>
-      <c r="J307" s="17"/>
-      <c r="K307" s="18"/>
+      <c r="G307" s="13"/>
+      <c r="J307" s="14"/>
+      <c r="K307" s="15"/>
     </row>
     <row r="308" ht="15.2" spans="7:11">
-      <c r="G308" s="16"/>
-      <c r="J308" s="17"/>
-      <c r="K308" s="18"/>
+      <c r="G308" s="13"/>
+      <c r="J308" s="14"/>
+      <c r="K308" s="15"/>
     </row>
     <row r="309" ht="15.2" spans="7:11">
-      <c r="G309" s="16"/>
-      <c r="J309" s="17"/>
-      <c r="K309" s="18"/>
+      <c r="G309" s="13"/>
+      <c r="J309" s="14"/>
+      <c r="K309" s="15"/>
     </row>
     <row r="310" ht="15.2" spans="7:11">
-      <c r="G310" s="16"/>
-      <c r="J310" s="17"/>
-      <c r="K310" s="18"/>
+      <c r="G310" s="13"/>
+      <c r="J310" s="14"/>
+      <c r="K310" s="15"/>
     </row>
     <row r="311" ht="15.2" spans="7:11">
-      <c r="G311" s="16"/>
-      <c r="J311" s="17"/>
-      <c r="K311" s="18"/>
+      <c r="G311" s="13"/>
+      <c r="J311" s="14"/>
+      <c r="K311" s="15"/>
     </row>
     <row r="312" ht="15.2" spans="7:11">
-      <c r="G312" s="16"/>
-      <c r="J312" s="17"/>
-      <c r="K312" s="18"/>
+      <c r="G312" s="13"/>
+      <c r="J312" s="14"/>
+      <c r="K312" s="15"/>
     </row>
     <row r="313" ht="15.2" spans="7:11">
-      <c r="G313" s="16"/>
-      <c r="J313" s="17"/>
-      <c r="K313" s="18"/>
+      <c r="G313" s="13"/>
+      <c r="J313" s="14"/>
+      <c r="K313" s="15"/>
     </row>
     <row r="314" ht="15.2" spans="7:11">
-      <c r="G314" s="16"/>
-      <c r="J314" s="17"/>
-      <c r="K314" s="18"/>
+      <c r="G314" s="13"/>
+      <c r="J314" s="14"/>
+      <c r="K314" s="15"/>
     </row>
     <row r="315" ht="15.2" spans="7:11">
-      <c r="G315" s="16"/>
-      <c r="J315" s="17"/>
-      <c r="K315" s="18"/>
+      <c r="G315" s="13"/>
+      <c r="J315" s="14"/>
+      <c r="K315" s="15"/>
     </row>
     <row r="316" ht="15.2" spans="7:11">
-      <c r="G316" s="16"/>
-      <c r="J316" s="17"/>
-      <c r="K316" s="18"/>
+      <c r="G316" s="13"/>
+      <c r="J316" s="14"/>
+      <c r="K316" s="15"/>
     </row>
     <row r="317" ht="15.2" spans="7:11">
-      <c r="G317" s="16"/>
-      <c r="J317" s="17"/>
-      <c r="K317" s="18"/>
+      <c r="G317" s="13"/>
+      <c r="J317" s="14"/>
+      <c r="K317" s="15"/>
     </row>
     <row r="318" ht="15.2" spans="7:11">
-      <c r="G318" s="16"/>
-      <c r="J318" s="17"/>
-      <c r="K318" s="18"/>
+      <c r="G318" s="13"/>
+      <c r="J318" s="14"/>
+      <c r="K318" s="15"/>
     </row>
     <row r="319" ht="15.2" spans="7:11">
-      <c r="G319" s="16"/>
-      <c r="J319" s="17"/>
-      <c r="K319" s="18"/>
+      <c r="G319" s="13"/>
+      <c r="J319" s="14"/>
+      <c r="K319" s="15"/>
     </row>
     <row r="320" ht="15.2" spans="7:11">
-      <c r="G320" s="16"/>
-      <c r="J320" s="17"/>
-      <c r="K320" s="18"/>
+      <c r="G320" s="13"/>
+      <c r="J320" s="14"/>
+      <c r="K320" s="15"/>
     </row>
     <row r="321" ht="15.2" spans="7:11">
-      <c r="G321" s="16"/>
-      <c r="J321" s="17"/>
-      <c r="K321" s="18"/>
+      <c r="G321" s="13"/>
+      <c r="J321" s="14"/>
+      <c r="K321" s="15"/>
     </row>
     <row r="322" ht="15.2" spans="7:11">
-      <c r="G322" s="16"/>
-      <c r="J322" s="17"/>
-      <c r="K322" s="18"/>
+      <c r="G322" s="13"/>
+      <c r="J322" s="14"/>
+      <c r="K322" s="15"/>
     </row>
     <row r="323" ht="15.2" spans="7:11">
-      <c r="G323" s="16"/>
-      <c r="J323" s="17"/>
-      <c r="K323" s="18"/>
+      <c r="G323" s="13"/>
+      <c r="J323" s="14"/>
+      <c r="K323" s="15"/>
     </row>
     <row r="324" ht="15.2" spans="7:11">
-      <c r="G324" s="16"/>
-      <c r="J324" s="17"/>
-      <c r="K324" s="18"/>
+      <c r="G324" s="13"/>
+      <c r="J324" s="14"/>
+      <c r="K324" s="15"/>
     </row>
     <row r="325" ht="15.2" spans="7:11">
-      <c r="G325" s="16"/>
-      <c r="J325" s="17"/>
-      <c r="K325" s="18"/>
+      <c r="G325" s="13"/>
+      <c r="J325" s="14"/>
+      <c r="K325" s="15"/>
     </row>
     <row r="326" ht="15.2" spans="7:11">
-      <c r="G326" s="16"/>
-      <c r="J326" s="17"/>
-      <c r="K326" s="18"/>
+      <c r="G326" s="13"/>
+      <c r="J326" s="14"/>
+      <c r="K326" s="15"/>
     </row>
     <row r="327" ht="15.2" spans="7:11">
-      <c r="G327" s="16"/>
-      <c r="J327" s="17"/>
-      <c r="K327" s="18"/>
+      <c r="G327" s="13"/>
+      <c r="J327" s="14"/>
+      <c r="K327" s="15"/>
     </row>
     <row r="328" ht="15.2" spans="7:11">
-      <c r="G328" s="16"/>
-      <c r="J328" s="17"/>
-      <c r="K328" s="18"/>
+      <c r="G328" s="13"/>
+      <c r="J328" s="14"/>
+      <c r="K328" s="15"/>
     </row>
     <row r="329" ht="15.2" spans="7:11">
-      <c r="G329" s="16"/>
-      <c r="J329" s="17"/>
-      <c r="K329" s="18"/>
+      <c r="G329" s="13"/>
+      <c r="J329" s="14"/>
+      <c r="K329" s="15"/>
     </row>
     <row r="330" ht="15.2" spans="7:11">
-      <c r="G330" s="16"/>
-      <c r="J330" s="17"/>
-      <c r="K330" s="18"/>
+      <c r="G330" s="13"/>
+      <c r="J330" s="14"/>
+      <c r="K330" s="15"/>
     </row>
     <row r="331" ht="15.2" spans="7:11">
-      <c r="G331" s="16"/>
-      <c r="J331" s="17"/>
-      <c r="K331" s="18"/>
+      <c r="G331" s="13"/>
+      <c r="J331" s="14"/>
+      <c r="K331" s="15"/>
     </row>
     <row r="332" ht="15.2" spans="7:11">
-      <c r="G332" s="16"/>
-      <c r="J332" s="17"/>
-      <c r="K332" s="18"/>
+      <c r="G332" s="13"/>
+      <c r="J332" s="14"/>
+      <c r="K332" s="15"/>
     </row>
     <row r="333" ht="15.2" spans="7:11">
-      <c r="G333" s="16"/>
-      <c r="J333" s="17"/>
-      <c r="K333" s="18"/>
+      <c r="G333" s="13"/>
+      <c r="J333" s="14"/>
+      <c r="K333" s="15"/>
     </row>
     <row r="334" ht="15.2" spans="7:11">
-      <c r="G334" s="16"/>
-      <c r="J334" s="17"/>
-      <c r="K334" s="18"/>
+      <c r="G334" s="13"/>
+      <c r="J334" s="14"/>
+      <c r="K334" s="15"/>
     </row>
     <row r="335" ht="15.2" spans="7:11">
-      <c r="G335" s="16"/>
-      <c r="J335" s="17"/>
-      <c r="K335" s="18"/>
+      <c r="G335" s="13"/>
+      <c r="J335" s="14"/>
+      <c r="K335" s="15"/>
     </row>
     <row r="336" ht="15.2" spans="7:11">
-      <c r="G336" s="16"/>
-      <c r="J336" s="17"/>
-      <c r="K336" s="18"/>
+      <c r="G336" s="13"/>
+      <c r="J336" s="14"/>
+      <c r="K336" s="15"/>
     </row>
     <row r="337" ht="15.2" spans="7:11">
-      <c r="G337" s="16"/>
-      <c r="J337" s="17"/>
-      <c r="K337" s="18"/>
+      <c r="G337" s="13"/>
+      <c r="J337" s="14"/>
+      <c r="K337" s="15"/>
     </row>
     <row r="338" ht="15.2" spans="7:11">
-      <c r="G338" s="16"/>
-      <c r="J338" s="17"/>
-      <c r="K338" s="18"/>
+      <c r="G338" s="13"/>
+      <c r="J338" s="14"/>
+      <c r="K338" s="15"/>
     </row>
     <row r="339" ht="15.2" spans="7:11">
-      <c r="G339" s="16"/>
-      <c r="J339" s="17"/>
-      <c r="K339" s="18"/>
+      <c r="G339" s="13"/>
+      <c r="J339" s="14"/>
+      <c r="K339" s="15"/>
     </row>
     <row r="340" ht="15.2" spans="7:11">
-      <c r="G340" s="16"/>
-      <c r="J340" s="17"/>
-      <c r="K340" s="18"/>
+      <c r="G340" s="13"/>
+      <c r="J340" s="14"/>
+      <c r="K340" s="15"/>
     </row>
     <row r="341" ht="15.2" spans="7:11">
-      <c r="G341" s="16"/>
-      <c r="J341" s="17"/>
-      <c r="K341" s="18"/>
+      <c r="G341" s="13"/>
+      <c r="J341" s="14"/>
+      <c r="K341" s="15"/>
     </row>
     <row r="342" ht="15.2" spans="7:11">
-      <c r="G342" s="16"/>
-      <c r="J342" s="17"/>
-      <c r="K342" s="18"/>
+      <c r="G342" s="13"/>
+      <c r="J342" s="14"/>
+      <c r="K342" s="15"/>
     </row>
     <row r="343" ht="15.2" spans="7:11">
-      <c r="G343" s="16"/>
-      <c r="J343" s="17"/>
-      <c r="K343" s="18"/>
+      <c r="G343" s="13"/>
+      <c r="J343" s="14"/>
+      <c r="K343" s="15"/>
     </row>
     <row r="344" ht="15.2" spans="7:11">
-      <c r="G344" s="16"/>
-      <c r="J344" s="17"/>
-      <c r="K344" s="18"/>
+      <c r="G344" s="13"/>
+      <c r="J344" s="14"/>
+      <c r="K344" s="15"/>
     </row>
     <row r="345" ht="15.2" spans="7:11">
-      <c r="G345" s="16"/>
-      <c r="J345" s="17"/>
-      <c r="K345" s="18"/>
+      <c r="G345" s="13"/>
+      <c r="J345" s="14"/>
+      <c r="K345" s="15"/>
     </row>
     <row r="346" ht="15.2" spans="7:11">
-      <c r="G346" s="16"/>
-      <c r="J346" s="17"/>
-      <c r="K346" s="18"/>
+      <c r="G346" s="13"/>
+      <c r="J346" s="14"/>
+      <c r="K346" s="15"/>
     </row>
     <row r="347" ht="15.2" spans="7:11">
-      <c r="G347" s="16"/>
-      <c r="J347" s="17"/>
-      <c r="K347" s="18"/>
+      <c r="G347" s="13"/>
+      <c r="J347" s="14"/>
+      <c r="K347" s="15"/>
     </row>
     <row r="348" ht="15.2" spans="7:11">
-      <c r="G348" s="16"/>
-      <c r="J348" s="17"/>
-      <c r="K348" s="18"/>
+      <c r="G348" s="13"/>
+      <c r="J348" s="14"/>
+      <c r="K348" s="15"/>
     </row>
     <row r="349" ht="15.2" spans="7:11">
-      <c r="G349" s="16"/>
-      <c r="J349" s="17"/>
-      <c r="K349" s="18"/>
+      <c r="G349" s="13"/>
+      <c r="J349" s="14"/>
+      <c r="K349" s="15"/>
     </row>
     <row r="350" ht="15.2" spans="7:11">
-      <c r="G350" s="16"/>
-      <c r="J350" s="17"/>
-      <c r="K350" s="18"/>
+      <c r="G350" s="13"/>
+      <c r="J350" s="14"/>
+      <c r="K350" s="15"/>
     </row>
     <row r="351" ht="15.2" spans="7:11">
-      <c r="G351" s="16"/>
-      <c r="J351" s="17"/>
-      <c r="K351" s="18"/>
+      <c r="G351" s="13"/>
+      <c r="J351" s="14"/>
+      <c r="K351" s="15"/>
     </row>
     <row r="352" ht="15.2" spans="7:11">
-      <c r="G352" s="16"/>
-      <c r="J352" s="17"/>
-      <c r="K352" s="18"/>
+      <c r="G352" s="13"/>
+      <c r="J352" s="14"/>
+      <c r="K352" s="15"/>
     </row>
     <row r="353" ht="15.2" spans="7:11">
-      <c r="G353" s="16"/>
-      <c r="J353" s="17"/>
-      <c r="K353" s="18"/>
+      <c r="G353" s="13"/>
+      <c r="J353" s="14"/>
+      <c r="K353" s="15"/>
     </row>
     <row r="354" ht="15.2" spans="7:11">
-      <c r="G354" s="16"/>
-      <c r="J354" s="17"/>
-      <c r="K354" s="18"/>
+      <c r="G354" s="13"/>
+      <c r="J354" s="14"/>
+      <c r="K354" s="15"/>
     </row>
     <row r="355" ht="15.2" spans="7:11">
-      <c r="G355" s="16"/>
-      <c r="J355" s="17"/>
-      <c r="K355" s="18"/>
+      <c r="G355" s="13"/>
+      <c r="J355" s="14"/>
+      <c r="K355" s="15"/>
     </row>
     <row r="356" ht="15.2" spans="7:11">
-      <c r="G356" s="16"/>
-      <c r="J356" s="17"/>
-      <c r="K356" s="18"/>
+      <c r="G356" s="13"/>
+      <c r="J356" s="14"/>
+      <c r="K356" s="15"/>
     </row>
     <row r="357" ht="15.2" spans="7:11">
-      <c r="G357" s="16"/>
-      <c r="J357" s="17"/>
-      <c r="K357" s="18"/>
+      <c r="G357" s="13"/>
+      <c r="J357" s="14"/>
+      <c r="K357" s="15"/>
     </row>
     <row r="358" ht="15.2" spans="7:11">
-      <c r="G358" s="16"/>
-      <c r="J358" s="17"/>
-      <c r="K358" s="18"/>
+      <c r="G358" s="13"/>
+      <c r="J358" s="14"/>
+      <c r="K358" s="15"/>
     </row>
     <row r="359" ht="15.2" spans="7:11">
-      <c r="G359" s="16"/>
-      <c r="J359" s="17"/>
-      <c r="K359" s="18"/>
+      <c r="G359" s="13"/>
+      <c r="J359" s="14"/>
+      <c r="K359" s="15"/>
     </row>
     <row r="360" ht="15.2" spans="7:11">
-      <c r="G360" s="16"/>
-      <c r="J360" s="17"/>
-      <c r="K360" s="18"/>
+      <c r="G360" s="13"/>
+      <c r="J360" s="14"/>
+      <c r="K360" s="15"/>
     </row>
     <row r="361" ht="15.2" spans="7:11">
-      <c r="G361" s="16"/>
-      <c r="J361" s="17"/>
-      <c r="K361" s="18"/>
+      <c r="G361" s="13"/>
+      <c r="J361" s="14"/>
+      <c r="K361" s="15"/>
     </row>
     <row r="362" ht="15.2" spans="7:11">
-      <c r="G362" s="16"/>
-      <c r="J362" s="17"/>
-      <c r="K362" s="18"/>
+      <c r="G362" s="13"/>
+      <c r="J362" s="14"/>
+      <c r="K362" s="15"/>
     </row>
     <row r="363" ht="15.2" spans="7:11">
-      <c r="G363" s="16"/>
-      <c r="J363" s="17"/>
-      <c r="K363" s="18"/>
+      <c r="G363" s="13"/>
+      <c r="J363" s="14"/>
+      <c r="K363" s="15"/>
     </row>
     <row r="364" ht="15.2" spans="7:11">
-      <c r="G364" s="16"/>
-      <c r="J364" s="17"/>
-      <c r="K364" s="18"/>
+      <c r="G364" s="13"/>
+      <c r="J364" s="14"/>
+      <c r="K364" s="15"/>
     </row>
     <row r="365" ht="15.2" spans="7:11">
-      <c r="G365" s="16"/>
-      <c r="J365" s="17"/>
-      <c r="K365" s="18"/>
+      <c r="G365" s="13"/>
+      <c r="J365" s="14"/>
+      <c r="K365" s="15"/>
     </row>
     <row r="366" ht="15.2" spans="7:11">
-      <c r="G366" s="16"/>
-      <c r="J366" s="17"/>
-      <c r="K366" s="18"/>
+      <c r="G366" s="13"/>
+      <c r="J366" s="14"/>
+      <c r="K366" s="15"/>
     </row>
     <row r="367" ht="15.2" spans="7:11">
-      <c r="G367" s="16"/>
-      <c r="J367" s="17"/>
-      <c r="K367" s="18"/>
+      <c r="G367" s="13"/>
+      <c r="J367" s="14"/>
+      <c r="K367" s="15"/>
     </row>
     <row r="368" ht="15.2" spans="7:11">
-      <c r="G368" s="16"/>
-      <c r="J368" s="17"/>
-      <c r="K368" s="18"/>
+      <c r="G368" s="13"/>
+      <c r="J368" s="14"/>
+      <c r="K368" s="15"/>
     </row>
     <row r="369" ht="15.2" spans="7:11">
-      <c r="G369" s="16"/>
-      <c r="J369" s="17"/>
-      <c r="K369" s="18"/>
+      <c r="G369" s="13"/>
+      <c r="J369" s="14"/>
+      <c r="K369" s="15"/>
     </row>
     <row r="370" ht="15.2" spans="7:11">
-      <c r="G370" s="16"/>
-      <c r="J370" s="17"/>
-      <c r="K370" s="18"/>
+      <c r="G370" s="13"/>
+      <c r="J370" s="14"/>
+      <c r="K370" s="15"/>
     </row>
     <row r="371" ht="15.2" spans="7:11">
-      <c r="G371" s="16"/>
-      <c r="J371" s="17"/>
-      <c r="K371" s="18"/>
+      <c r="G371" s="13"/>
+      <c r="J371" s="14"/>
+      <c r="K371" s="15"/>
     </row>
     <row r="372" ht="15.2" spans="7:11">
-      <c r="G372" s="16"/>
-      <c r="J372" s="17"/>
-      <c r="K372" s="18"/>
+      <c r="G372" s="13"/>
+      <c r="J372" s="14"/>
+      <c r="K372" s="15"/>
     </row>
     <row r="373" ht="15.2" spans="7:11">
-      <c r="G373" s="16"/>
-      <c r="J373" s="17"/>
-      <c r="K373" s="18"/>
+      <c r="G373" s="13"/>
+      <c r="J373" s="14"/>
+      <c r="K373" s="15"/>
     </row>
     <row r="374" ht="15.2" spans="7:11">
-      <c r="G374" s="16"/>
-      <c r="J374" s="17"/>
-      <c r="K374" s="18"/>
+      <c r="G374" s="13"/>
+      <c r="J374" s="14"/>
+      <c r="K374" s="15"/>
     </row>
     <row r="375" ht="15.2" spans="7:11">
-      <c r="G375" s="16"/>
-      <c r="J375" s="17"/>
-      <c r="K375" s="18"/>
+      <c r="G375" s="13"/>
+      <c r="J375" s="14"/>
+      <c r="K375" s="15"/>
     </row>
     <row r="376" ht="15.2" spans="7:11">
-      <c r="G376" s="16"/>
-      <c r="J376" s="17"/>
-      <c r="K376" s="18"/>
+      <c r="G376" s="13"/>
+      <c r="J376" s="14"/>
+      <c r="K376" s="15"/>
     </row>
     <row r="377" ht="15.2" spans="7:11">
-      <c r="G377" s="16"/>
-      <c r="J377" s="17"/>
-      <c r="K377" s="18"/>
+      <c r="G377" s="13"/>
+      <c r="J377" s="14"/>
+      <c r="K377" s="15"/>
     </row>
     <row r="378" ht="15.2" spans="7:11">
-      <c r="G378" s="16"/>
-      <c r="J378" s="17"/>
-      <c r="K378" s="18"/>
+      <c r="G378" s="13"/>
+      <c r="J378" s="14"/>
+      <c r="K378" s="15"/>
     </row>
     <row r="379" ht="15.2" spans="7:11">
-      <c r="G379" s="16"/>
-      <c r="J379" s="17"/>
-      <c r="K379" s="18"/>
+      <c r="G379" s="13"/>
+      <c r="J379" s="14"/>
+      <c r="K379" s="15"/>
     </row>
     <row r="380" ht="15.2" spans="7:11">
-      <c r="G380" s="16"/>
-      <c r="J380" s="17"/>
-      <c r="K380" s="18"/>
+      <c r="G380" s="13"/>
+      <c r="J380" s="14"/>
+      <c r="K380" s="15"/>
     </row>
     <row r="381" ht="15.2" spans="7:11">
-      <c r="G381" s="16"/>
-      <c r="J381" s="17"/>
-      <c r="K381" s="18"/>
+      <c r="G381" s="13"/>
+      <c r="J381" s="14"/>
+      <c r="K381" s="15"/>
     </row>
     <row r="382" ht="15.2" spans="7:11">
-      <c r="G382" s="16"/>
-      <c r="J382" s="17"/>
-      <c r="K382" s="18"/>
+      <c r="G382" s="13"/>
+      <c r="J382" s="14"/>
+      <c r="K382" s="15"/>
     </row>
     <row r="383" ht="15.2" spans="7:11">
-      <c r="G383" s="16"/>
-      <c r="J383" s="17"/>
-      <c r="K383" s="18"/>
+      <c r="G383" s="13"/>
+      <c r="J383" s="14"/>
+      <c r="K383" s="15"/>
     </row>
     <row r="384" ht="15.2" spans="7:11">
-      <c r="G384" s="16"/>
-      <c r="J384" s="17"/>
-      <c r="K384" s="18"/>
+      <c r="G384" s="13"/>
+      <c r="J384" s="14"/>
+      <c r="K384" s="15"/>
     </row>
     <row r="385" ht="15.2" spans="7:11">
-      <c r="G385" s="16"/>
-      <c r="J385" s="17"/>
-      <c r="K385" s="18"/>
+      <c r="G385" s="13"/>
+      <c r="J385" s="14"/>
+      <c r="K385" s="15"/>
     </row>
     <row r="386" ht="15.2" spans="7:11">
-      <c r="G386" s="16"/>
-      <c r="J386" s="17"/>
-      <c r="K386" s="18"/>
+      <c r="G386" s="13"/>
+      <c r="J386" s="14"/>
+      <c r="K386" s="15"/>
     </row>
     <row r="387" ht="15.2" spans="7:11">
-      <c r="G387" s="16"/>
-      <c r="J387" s="17"/>
-      <c r="K387" s="18"/>
+      <c r="G387" s="13"/>
+      <c r="J387" s="14"/>
+      <c r="K387" s="15"/>
     </row>
     <row r="388" ht="15.2" spans="7:11">
-      <c r="G388" s="16"/>
-      <c r="J388" s="17"/>
-      <c r="K388" s="18"/>
+      <c r="G388" s="13"/>
+      <c r="J388" s="14"/>
+      <c r="K388" s="15"/>
     </row>
     <row r="389" ht="15.2" spans="7:11">
-      <c r="G389" s="16"/>
-      <c r="J389" s="17"/>
-      <c r="K389" s="18"/>
+      <c r="G389" s="13"/>
+      <c r="J389" s="14"/>
+      <c r="K389" s="15"/>
     </row>
     <row r="390" ht="15.2" spans="7:11">
-      <c r="G390" s="16"/>
-      <c r="J390" s="17"/>
-      <c r="K390" s="18"/>
+      <c r="G390" s="13"/>
+      <c r="J390" s="14"/>
+      <c r="K390" s="15"/>
     </row>
     <row r="391" ht="15.2" spans="7:11">
-      <c r="G391" s="16"/>
-      <c r="J391" s="17"/>
-      <c r="K391" s="18"/>
+      <c r="G391" s="13"/>
+      <c r="J391" s="14"/>
+      <c r="K391" s="15"/>
     </row>
     <row r="392" ht="15.2" spans="7:11">
-      <c r="G392" s="16"/>
-      <c r="J392" s="17"/>
-      <c r="K392" s="18"/>
+      <c r="G392" s="13"/>
+      <c r="J392" s="14"/>
+      <c r="K392" s="15"/>
     </row>
     <row r="393" ht="15.2" spans="7:11">
-      <c r="G393" s="16"/>
-      <c r="J393" s="17"/>
-      <c r="K393" s="18"/>
+      <c r="G393" s="13"/>
+      <c r="J393" s="14"/>
+      <c r="K393" s="15"/>
     </row>
     <row r="394" ht="15.2" spans="7:11">
-      <c r="G394" s="16"/>
-      <c r="J394" s="17"/>
-      <c r="K394" s="18"/>
+      <c r="G394" s="13"/>
+      <c r="J394" s="14"/>
+      <c r="K394" s="15"/>
     </row>
     <row r="395" ht="15.2" spans="7:11">
-      <c r="G395" s="16"/>
-      <c r="J395" s="17"/>
-      <c r="K395" s="18"/>
+      <c r="G395" s="13"/>
+      <c r="J395" s="14"/>
+      <c r="K395" s="15"/>
     </row>
     <row r="396" ht="15.2" spans="7:11">
-      <c r="G396" s="16"/>
-      <c r="J396" s="17"/>
-      <c r="K396" s="18"/>
+      <c r="G396" s="13"/>
+      <c r="J396" s="14"/>
+      <c r="K396" s="15"/>
     </row>
     <row r="397" ht="15.2" spans="7:11">
-      <c r="G397" s="16"/>
-      <c r="J397" s="17"/>
-      <c r="K397" s="18"/>
+      <c r="G397" s="13"/>
+      <c r="J397" s="14"/>
+      <c r="K397" s="15"/>
     </row>
     <row r="398" ht="15.2" spans="7:11">
-      <c r="G398" s="16"/>
-      <c r="J398" s="17"/>
-      <c r="K398" s="18"/>
+      <c r="G398" s="13"/>
+      <c r="J398" s="14"/>
+      <c r="K398" s="15"/>
     </row>
     <row r="399" ht="15.2" spans="7:11">
-      <c r="G399" s="16"/>
-      <c r="J399" s="17"/>
-      <c r="K399" s="18"/>
+      <c r="G399" s="13"/>
+      <c r="J399" s="14"/>
+      <c r="K399" s="15"/>
     </row>
     <row r="400" ht="15.2" spans="7:11">
-      <c r="G400" s="16"/>
-      <c r="J400" s="17"/>
-      <c r="K400" s="18"/>
+      <c r="G400" s="13"/>
+      <c r="J400" s="14"/>
+      <c r="K400" s="15"/>
     </row>
     <row r="401" ht="15.2" spans="7:11">
-      <c r="G401" s="16"/>
-      <c r="J401" s="17"/>
-      <c r="K401" s="18"/>
+      <c r="G401" s="13"/>
+      <c r="J401" s="14"/>
+      <c r="K401" s="15"/>
     </row>
     <row r="402" ht="15.2" spans="7:11">
-      <c r="G402" s="16"/>
-      <c r="J402" s="17"/>
-      <c r="K402" s="18"/>
+      <c r="G402" s="13"/>
+      <c r="J402" s="14"/>
+      <c r="K402" s="15"/>
     </row>
     <row r="403" ht="15.2" spans="7:11">
-      <c r="G403" s="16"/>
-      <c r="J403" s="17"/>
-      <c r="K403" s="18"/>
+      <c r="G403" s="13"/>
+      <c r="J403" s="14"/>
+      <c r="K403" s="15"/>
     </row>
     <row r="404" ht="15.2" spans="7:11">
-      <c r="G404" s="16"/>
-      <c r="J404" s="17"/>
-      <c r="K404" s="18"/>
+      <c r="G404" s="13"/>
+      <c r="J404" s="14"/>
+      <c r="K404" s="15"/>
     </row>
     <row r="405" ht="15.2" spans="7:11">
-      <c r="G405" s="16"/>
-      <c r="J405" s="17"/>
-      <c r="K405" s="18"/>
+      <c r="G405" s="13"/>
+      <c r="J405" s="14"/>
+      <c r="K405" s="15"/>
     </row>
     <row r="406" ht="15.2" spans="7:11">
-      <c r="G406" s="16"/>
-      <c r="J406" s="17"/>
-      <c r="K406" s="18"/>
+      <c r="G406" s="13"/>
+      <c r="J406" s="14"/>
+      <c r="K406" s="15"/>
     </row>
     <row r="407" ht="15.2" spans="7:11">
-      <c r="G407" s="16"/>
-      <c r="J407" s="17"/>
-      <c r="K407" s="18"/>
+      <c r="G407" s="13"/>
+      <c r="J407" s="14"/>
+      <c r="K407" s="15"/>
     </row>
     <row r="408" ht="15.2" spans="7:11">
-      <c r="G408" s="16"/>
-      <c r="J408" s="17"/>
-      <c r="K408" s="18"/>
+      <c r="G408" s="13"/>
+      <c r="J408" s="14"/>
+      <c r="K408" s="15"/>
     </row>
     <row r="409" ht="15.2" spans="7:11">
-      <c r="G409" s="16"/>
-      <c r="J409" s="17"/>
-      <c r="K409" s="18"/>
+      <c r="G409" s="13"/>
+      <c r="J409" s="14"/>
+      <c r="K409" s="15"/>
     </row>
     <row r="410" ht="15.2" spans="7:11">
-      <c r="G410" s="16"/>
-      <c r="J410" s="17"/>
-      <c r="K410" s="18"/>
+      <c r="G410" s="13"/>
+      <c r="J410" s="14"/>
+      <c r="K410" s="15"/>
     </row>
     <row r="411" ht="15.2" spans="7:11">
-      <c r="G411" s="16"/>
-      <c r="J411" s="17"/>
-      <c r="K411" s="18"/>
+      <c r="G411" s="13"/>
+      <c r="J411" s="14"/>
+      <c r="K411" s="15"/>
     </row>
     <row r="412" ht="15.2" spans="7:11">
-      <c r="G412" s="16"/>
-      <c r="J412" s="17"/>
-      <c r="K412" s="18"/>
+      <c r="G412" s="13"/>
+      <c r="J412" s="14"/>
+      <c r="K412" s="15"/>
     </row>
     <row r="413" ht="15.2" spans="7:11">
-      <c r="G413" s="16"/>
-      <c r="J413" s="17"/>
-      <c r="K413" s="18"/>
+      <c r="G413" s="13"/>
+      <c r="J413" s="14"/>
+      <c r="K413" s="15"/>
     </row>
     <row r="414" ht="15.2" spans="7:11">
-      <c r="G414" s="16"/>
-      <c r="J414" s="17"/>
-      <c r="K414" s="18"/>
+      <c r="G414" s="13"/>
+      <c r="J414" s="14"/>
+      <c r="K414" s="15"/>
     </row>
     <row r="415" ht="15.2" spans="7:11">
-      <c r="G415" s="16"/>
-      <c r="J415" s="17"/>
-      <c r="K415" s="18"/>
+      <c r="G415" s="13"/>
+      <c r="J415" s="14"/>
+      <c r="K415" s="15"/>
     </row>
     <row r="416" ht="15.2" spans="7:11">
-      <c r="G416" s="16"/>
-      <c r="J416" s="17"/>
-      <c r="K416" s="18"/>
+      <c r="G416" s="13"/>
+      <c r="J416" s="14"/>
+      <c r="K416" s="15"/>
     </row>
     <row r="417" ht="15.2" spans="7:11">
-      <c r="G417" s="16"/>
-      <c r="J417" s="17"/>
-      <c r="K417" s="18"/>
+      <c r="G417" s="13"/>
+      <c r="J417" s="14"/>
+      <c r="K417" s="15"/>
     </row>
     <row r="418" ht="15.2" spans="7:11">
-      <c r="G418" s="16"/>
-      <c r="J418" s="17"/>
-      <c r="K418" s="18"/>
+      <c r="G418" s="13"/>
+      <c r="J418" s="14"/>
+      <c r="K418" s="15"/>
     </row>
     <row r="419" ht="15.2" spans="7:11">
-      <c r="G419" s="16"/>
-      <c r="J419" s="17"/>
-      <c r="K419" s="18"/>
+      <c r="G419" s="13"/>
+      <c r="J419" s="14"/>
+      <c r="K419" s="15"/>
     </row>
     <row r="420" ht="15.2" spans="7:11">
-      <c r="G420" s="16"/>
-      <c r="J420" s="17"/>
-      <c r="K420" s="18"/>
+      <c r="G420" s="13"/>
+      <c r="J420" s="14"/>
+      <c r="K420" s="15"/>
     </row>
     <row r="421" ht="15.2" spans="7:11">
-      <c r="G421" s="16"/>
-      <c r="J421" s="17"/>
-      <c r="K421" s="18"/>
+      <c r="G421" s="13"/>
+      <c r="J421" s="14"/>
+      <c r="K421" s="15"/>
     </row>
     <row r="422" ht="15.2" spans="7:11">
-      <c r="G422" s="16"/>
-      <c r="J422" s="17"/>
-      <c r="K422" s="18"/>
+      <c r="G422" s="13"/>
+      <c r="J422" s="14"/>
+      <c r="K422" s="15"/>
     </row>
     <row r="423" ht="15.2" spans="7:11">
-      <c r="G423" s="16"/>
-      <c r="J423" s="17"/>
-      <c r="K423" s="18"/>
+      <c r="G423" s="13"/>
+      <c r="J423" s="14"/>
+      <c r="K423" s="15"/>
     </row>
     <row r="424" ht="15.2" spans="7:11">
-      <c r="G424" s="16"/>
-      <c r="J424" s="17"/>
-      <c r="K424" s="18"/>
+      <c r="G424" s="13"/>
+      <c r="J424" s="14"/>
+      <c r="K424" s="15"/>
     </row>
     <row r="425" ht="15.2" spans="7:11">
-      <c r="G425" s="16"/>
-      <c r="J425" s="17"/>
-      <c r="K425" s="18"/>
+      <c r="G425" s="13"/>
+      <c r="J425" s="14"/>
+      <c r="K425" s="15"/>
     </row>
     <row r="426" ht="15.2" spans="7:11">
-      <c r="G426" s="16"/>
-      <c r="J426" s="17"/>
-      <c r="K426" s="18"/>
+      <c r="G426" s="13"/>
+      <c r="J426" s="14"/>
+      <c r="K426" s="15"/>
     </row>
     <row r="427" ht="15.2" spans="7:11">
-      <c r="G427" s="16"/>
-      <c r="J427" s="17"/>
-      <c r="K427" s="18"/>
+      <c r="G427" s="13"/>
+      <c r="J427" s="14"/>
+      <c r="K427" s="15"/>
     </row>
     <row r="428" ht="15.2" spans="7:11">
-      <c r="G428" s="16"/>
-      <c r="J428" s="17"/>
-      <c r="K428" s="18"/>
+      <c r="G428" s="13"/>
+      <c r="J428" s="14"/>
+      <c r="K428" s="15"/>
     </row>
     <row r="429" ht="15.2" spans="7:11">
-      <c r="G429" s="16"/>
-      <c r="J429" s="17"/>
-      <c r="K429" s="18"/>
+      <c r="G429" s="13"/>
+      <c r="J429" s="14"/>
+      <c r="K429" s="15"/>
     </row>
     <row r="430" ht="15.2" spans="7:11">
-      <c r="G430" s="16"/>
-      <c r="J430" s="17"/>
-      <c r="K430" s="18"/>
+      <c r="G430" s="13"/>
+      <c r="J430" s="14"/>
+      <c r="K430" s="15"/>
     </row>
     <row r="431" ht="15.2" spans="7:11">
-      <c r="G431" s="16"/>
-      <c r="J431" s="17"/>
-      <c r="K431" s="18"/>
+      <c r="G431" s="13"/>
+      <c r="J431" s="14"/>
+      <c r="K431" s="15"/>
     </row>
     <row r="432" ht="15.2" spans="7:11">
-      <c r="G432" s="16"/>
-      <c r="J432" s="17"/>
-      <c r="K432" s="18"/>
+      <c r="G432" s="13"/>
+      <c r="J432" s="14"/>
+      <c r="K432" s="15"/>
     </row>
     <row r="433" ht="15.2" spans="7:11">
-      <c r="G433" s="16"/>
-      <c r="J433" s="17"/>
-      <c r="K433" s="18"/>
+      <c r="G433" s="13"/>
+      <c r="J433" s="14"/>
+      <c r="K433" s="15"/>
     </row>
     <row r="434" ht="15.2" spans="7:11">
-      <c r="G434" s="16"/>
-      <c r="J434" s="17"/>
-      <c r="K434" s="18"/>
+      <c r="G434" s="13"/>
+      <c r="J434" s="14"/>
+      <c r="K434" s="15"/>
     </row>
     <row r="435" ht="15.2" spans="7:11">
-      <c r="G435" s="16"/>
-      <c r="J435" s="17"/>
-      <c r="K435" s="18"/>
+      <c r="G435" s="13"/>
+      <c r="J435" s="14"/>
+      <c r="K435" s="15"/>
     </row>
     <row r="436" ht="15.2" spans="7:11">
-      <c r="G436" s="16"/>
-      <c r="J436" s="17"/>
-      <c r="K436" s="18"/>
+      <c r="G436" s="13"/>
+      <c r="J436" s="14"/>
+      <c r="K436" s="15"/>
     </row>
     <row r="437" ht="15.2" spans="7:11">
-      <c r="G437" s="16"/>
-      <c r="J437" s="17"/>
-      <c r="K437" s="18"/>
+      <c r="G437" s="13"/>
+      <c r="J437" s="14"/>
+      <c r="K437" s="15"/>
     </row>
     <row r="438" ht="15.2" spans="7:11">
-      <c r="G438" s="16"/>
-      <c r="J438" s="17"/>
-      <c r="K438" s="18"/>
+      <c r="G438" s="13"/>
+      <c r="J438" s="14"/>
+      <c r="K438" s="15"/>
     </row>
     <row r="439" ht="15.2" spans="7:11">
-      <c r="G439" s="16"/>
-      <c r="J439" s="17"/>
-      <c r="K439" s="18"/>
+      <c r="G439" s="13"/>
+      <c r="J439" s="14"/>
+      <c r="K439" s="15"/>
     </row>
     <row r="440" ht="15.2" spans="7:11">
-      <c r="G440" s="16"/>
-      <c r="J440" s="17"/>
-      <c r="K440" s="18"/>
+      <c r="G440" s="13"/>
+      <c r="J440" s="14"/>
+      <c r="K440" s="15"/>
     </row>
     <row r="441" ht="15.2" spans="7:11">
-      <c r="G441" s="16"/>
-      <c r="J441" s="17"/>
-      <c r="K441" s="18"/>
+      <c r="G441" s="13"/>
+      <c r="J441" s="14"/>
+      <c r="K441" s="15"/>
     </row>
     <row r="442" ht="15.2" spans="7:11">
-      <c r="G442" s="16"/>
-      <c r="J442" s="17"/>
-      <c r="K442" s="18"/>
+      <c r="G442" s="13"/>
+      <c r="J442" s="14"/>
+      <c r="K442" s="15"/>
     </row>
     <row r="443" ht="15.2" spans="7:11">
-      <c r="G443" s="16"/>
-      <c r="J443" s="17"/>
-      <c r="K443" s="18"/>
+      <c r="G443" s="13"/>
+      <c r="J443" s="14"/>
+      <c r="K443" s="15"/>
     </row>
     <row r="444" ht="15.2" spans="7:11">
-      <c r="G444" s="16"/>
-      <c r="J444" s="17"/>
-      <c r="K444" s="18"/>
+      <c r="G444" s="13"/>
+      <c r="J444" s="14"/>
+      <c r="K444" s="15"/>
     </row>
     <row r="445" ht="15.2" spans="7:11">
-      <c r="G445" s="16"/>
-      <c r="J445" s="17"/>
-      <c r="K445" s="18"/>
+      <c r="G445" s="13"/>
+      <c r="J445" s="14"/>
+      <c r="K445" s="15"/>
     </row>
     <row r="446" ht="15.2" spans="7:11">
-      <c r="G446" s="16"/>
-      <c r="J446" s="17"/>
-      <c r="K446" s="18"/>
+      <c r="G446" s="13"/>
+      <c r="J446" s="14"/>
+      <c r="K446" s="15"/>
     </row>
     <row r="447" ht="15.2" spans="7:11">
-      <c r="G447" s="16"/>
-      <c r="J447" s="17"/>
-      <c r="K447" s="18"/>
+      <c r="G447" s="13"/>
+      <c r="J447" s="14"/>
+      <c r="K447" s="15"/>
     </row>
     <row r="448" ht="15.2" spans="7:11">
-      <c r="G448" s="16"/>
-      <c r="J448" s="17"/>
-      <c r="K448" s="18"/>
+      <c r="G448" s="13"/>
+      <c r="J448" s="14"/>
+      <c r="K448" s="15"/>
     </row>
     <row r="449" ht="15.2" spans="7:11">
-      <c r="G449" s="16"/>
-      <c r="J449" s="17"/>
-      <c r="K449" s="18"/>
+      <c r="G449" s="13"/>
+      <c r="J449" s="14"/>
+      <c r="K449" s="15"/>
     </row>
     <row r="450" ht="15.2" spans="7:11">
-      <c r="G450" s="16"/>
-      <c r="J450" s="17"/>
-      <c r="K450" s="18"/>
+      <c r="G450" s="13"/>
+      <c r="J450" s="14"/>
+      <c r="K450" s="15"/>
     </row>
     <row r="451" ht="15.2" spans="7:11">
-      <c r="G451" s="16"/>
-      <c r="J451" s="17"/>
-      <c r="K451" s="18"/>
+      <c r="G451" s="13"/>
+      <c r="J451" s="14"/>
+      <c r="K451" s="15"/>
     </row>
     <row r="452" ht="15.2" spans="7:11">
-      <c r="G452" s="16"/>
-      <c r="J452" s="17"/>
-      <c r="K452" s="18"/>
+      <c r="G452" s="13"/>
+      <c r="J452" s="14"/>
+      <c r="K452" s="15"/>
     </row>
     <row r="453" ht="15.2" spans="7:11">
-      <c r="G453" s="16"/>
-      <c r="J453" s="17"/>
-      <c r="K453" s="18"/>
+      <c r="G453" s="13"/>
+      <c r="J453" s="14"/>
+      <c r="K453" s="15"/>
     </row>
     <row r="454" ht="15.2" spans="7:11">
-      <c r="G454" s="16"/>
-      <c r="J454" s="17"/>
-      <c r="K454" s="18"/>
+      <c r="G454" s="13"/>
+      <c r="J454" s="14"/>
+      <c r="K454" s="15"/>
     </row>
     <row r="455" ht="15.2" spans="7:11">
-      <c r="G455" s="16"/>
-      <c r="J455" s="17"/>
-      <c r="K455" s="18"/>
+      <c r="G455" s="13"/>
+      <c r="J455" s="14"/>
+      <c r="K455" s="15"/>
     </row>
     <row r="456" ht="15.2" spans="7:11">
-      <c r="G456" s="16"/>
-      <c r="J456" s="17"/>
-      <c r="K456" s="18"/>
+      <c r="G456" s="13"/>
+      <c r="J456" s="14"/>
+      <c r="K456" s="15"/>
     </row>
     <row r="457" ht="15.2" spans="7:11">
-      <c r="G457" s="16"/>
-      <c r="J457" s="17"/>
-      <c r="K457" s="18"/>
+      <c r="G457" s="13"/>
+      <c r="J457" s="14"/>
+      <c r="K457" s="15"/>
     </row>
     <row r="458" ht="15.2" spans="7:11">
-      <c r="G458" s="16"/>
-      <c r="J458" s="17"/>
-      <c r="K458" s="18"/>
+      <c r="G458" s="13"/>
+      <c r="J458" s="14"/>
+      <c r="K458" s="15"/>
     </row>
     <row r="459" ht="15.2" spans="7:11">
-      <c r="G459" s="16"/>
-      <c r="J459" s="17"/>
-      <c r="K459" s="18"/>
+      <c r="G459" s="13"/>
+      <c r="J459" s="14"/>
+      <c r="K459" s="15"/>
     </row>
     <row r="460" ht="15.2" spans="7:11">
-      <c r="G460" s="16"/>
-      <c r="J460" s="17"/>
-      <c r="K460" s="18"/>
+      <c r="G460" s="13"/>
+      <c r="J460" s="14"/>
+      <c r="K460" s="15"/>
     </row>
     <row r="461" ht="15.2" spans="7:11">
-      <c r="G461" s="16"/>
-      <c r="J461" s="17"/>
-      <c r="K461" s="18"/>
+      <c r="G461" s="13"/>
+      <c r="J461" s="14"/>
+      <c r="K461" s="15"/>
     </row>
     <row r="462" ht="15.2" spans="7:11">
-      <c r="G462" s="16"/>
-      <c r="J462" s="17"/>
-      <c r="K462" s="18"/>
+      <c r="G462" s="13"/>
+      <c r="J462" s="14"/>
+      <c r="K462" s="15"/>
     </row>
     <row r="463" ht="15.2" spans="7:11">
-      <c r="G463" s="16"/>
-      <c r="J463" s="17"/>
-      <c r="K463" s="18"/>
+      <c r="G463" s="13"/>
+      <c r="J463" s="14"/>
+      <c r="K463" s="15"/>
     </row>
     <row r="464" ht="15.2" spans="7:11">
-      <c r="G464" s="16"/>
-      <c r="J464" s="17"/>
-      <c r="K464" s="18"/>
+      <c r="G464" s="13"/>
+      <c r="J464" s="14"/>
+      <c r="K464" s="15"/>
     </row>
     <row r="465" ht="15.2" spans="7:11">
-      <c r="G465" s="16"/>
-      <c r="J465" s="17"/>
-      <c r="K465" s="18"/>
+      <c r="G465" s="13"/>
+      <c r="J465" s="14"/>
+      <c r="K465" s="15"/>
     </row>
     <row r="466" ht="15.2" spans="7:11">
-      <c r="G466" s="16"/>
-      <c r="J466" s="17"/>
-      <c r="K466" s="18"/>
+      <c r="G466" s="13"/>
+      <c r="J466" s="14"/>
+      <c r="K466" s="15"/>
     </row>
     <row r="467" ht="15.2" spans="7:11">
-      <c r="G467" s="16"/>
-      <c r="J467" s="17"/>
-      <c r="K467" s="18"/>
+      <c r="G467" s="13"/>
+      <c r="J467" s="14"/>
+      <c r="K467" s="15"/>
     </row>
     <row r="468" ht="15.2" spans="7:11">
-      <c r="G468" s="16"/>
-      <c r="J468" s="17"/>
-      <c r="K468" s="18"/>
+      <c r="G468" s="13"/>
+      <c r="J468" s="14"/>
+      <c r="K468" s="15"/>
     </row>
     <row r="469" ht="15.2" spans="7:11">
-      <c r="G469" s="16"/>
-      <c r="J469" s="17"/>
-      <c r="K469" s="18"/>
+      <c r="G469" s="13"/>
+      <c r="J469" s="14"/>
+      <c r="K469" s="15"/>
     </row>
     <row r="470" ht="15.2" spans="7:11">
-      <c r="G470" s="16"/>
-      <c r="J470" s="17"/>
-      <c r="K470" s="18"/>
+      <c r="G470" s="13"/>
+      <c r="J470" s="14"/>
+      <c r="K470" s="15"/>
     </row>
     <row r="471" ht="15.2" spans="7:11">
-      <c r="G471" s="16"/>
-      <c r="J471" s="17"/>
-      <c r="K471" s="18"/>
+      <c r="G471" s="13"/>
+      <c r="J471" s="14"/>
+      <c r="K471" s="15"/>
     </row>
     <row r="472" ht="15.2" spans="7:11">
-      <c r="G472" s="16"/>
-      <c r="J472" s="17"/>
-      <c r="K472" s="18"/>
+      <c r="G472" s="13"/>
+      <c r="J472" s="14"/>
+      <c r="K472" s="15"/>
     </row>
     <row r="473" ht="15.2" spans="7:11">
-      <c r="G473" s="16"/>
-      <c r="J473" s="17"/>
-      <c r="K473" s="18"/>
+      <c r="G473" s="13"/>
+      <c r="J473" s="14"/>
+      <c r="K473" s="15"/>
     </row>
     <row r="474" ht="15.2" spans="7:11">
-      <c r="G474" s="16"/>
-      <c r="J474" s="17"/>
-      <c r="K474" s="18"/>
+      <c r="G474" s="13"/>
+      <c r="J474" s="14"/>
+      <c r="K474" s="15"/>
     </row>
     <row r="475" ht="15.2" spans="7:11">
-      <c r="G475" s="16"/>
-      <c r="J475" s="17"/>
-      <c r="K475" s="18"/>
+      <c r="G475" s="13"/>
+      <c r="J475" s="14"/>
+      <c r="K475" s="15"/>
     </row>
     <row r="476" ht="15.2" spans="7:11">
-      <c r="G476" s="16"/>
-      <c r="J476" s="17"/>
-      <c r="K476" s="18"/>
+      <c r="G476" s="13"/>
+      <c r="J476" s="14"/>
+      <c r="K476" s="15"/>
     </row>
     <row r="477" ht="15.2" spans="7:11">
-      <c r="G477" s="16"/>
-      <c r="J477" s="17"/>
-      <c r="K477" s="18"/>
+      <c r="G477" s="13"/>
+      <c r="J477" s="14"/>
+      <c r="K477" s="15"/>
     </row>
     <row r="478" ht="15.2" spans="7:11">
-      <c r="G478" s="16"/>
-      <c r="J478" s="17"/>
-      <c r="K478" s="18"/>
+      <c r="G478" s="13"/>
+      <c r="J478" s="14"/>
+      <c r="K478" s="15"/>
     </row>
     <row r="479" ht="15.2" spans="7:11">
-      <c r="G479" s="16"/>
-      <c r="J479" s="17"/>
-      <c r="K479" s="18"/>
+      <c r="G479" s="13"/>
+      <c r="J479" s="14"/>
+      <c r="K479" s="15"/>
     </row>
     <row r="480" ht="15.2" spans="7:11">
-      <c r="G480" s="16"/>
-      <c r="J480" s="17"/>
-      <c r="K480" s="18"/>
+      <c r="G480" s="13"/>
+      <c r="J480" s="14"/>
+      <c r="K480" s="15"/>
     </row>
     <row r="481" ht="15.2" spans="7:11">
-      <c r="G481" s="16"/>
-      <c r="J481" s="17"/>
-      <c r="K481" s="18"/>
+      <c r="G481" s="13"/>
+      <c r="J481" s="14"/>
+      <c r="K481" s="15"/>
     </row>
     <row r="482" ht="15.2" spans="7:11">
-      <c r="G482" s="16"/>
-      <c r="J482" s="17"/>
-      <c r="K482" s="18"/>
+      <c r="G482" s="13"/>
+      <c r="J482" s="14"/>
+      <c r="K482" s="15"/>
     </row>
     <row r="483" ht="15.2" spans="7:11">
-      <c r="G483" s="16"/>
-      <c r="J483" s="17"/>
-      <c r="K483" s="18"/>
+      <c r="G483" s="13"/>
+      <c r="J483" s="14"/>
+      <c r="K483" s="15"/>
     </row>
     <row r="484" ht="15.2" spans="7:11">
-      <c r="G484" s="16"/>
-      <c r="J484" s="17"/>
-      <c r="K484" s="18"/>
+      <c r="G484" s="13"/>
+      <c r="J484" s="14"/>
+      <c r="K484" s="15"/>
     </row>
     <row r="485" ht="15.2" spans="7:11">
-      <c r="G485" s="16"/>
-      <c r="J485" s="17"/>
-      <c r="K485" s="18"/>
+      <c r="G485" s="13"/>
+      <c r="J485" s="14"/>
+      <c r="K485" s="15"/>
     </row>
     <row r="486" ht="15.2" spans="7:11">
-      <c r="G486" s="16"/>
-      <c r="J486" s="17"/>
-      <c r="K486" s="18"/>
+      <c r="G486" s="13"/>
+      <c r="J486" s="14"/>
+      <c r="K486" s="15"/>
     </row>
     <row r="487" ht="15.2" spans="7:11">
-      <c r="G487" s="16"/>
-      <c r="J487" s="17"/>
-      <c r="K487" s="18"/>
+      <c r="G487" s="13"/>
+      <c r="J487" s="14"/>
+      <c r="K487" s="15"/>
     </row>
     <row r="488" ht="15.2" spans="7:11">
-      <c r="G488" s="16"/>
-      <c r="J488" s="17"/>
-      <c r="K488" s="18"/>
+      <c r="G488" s="13"/>
+      <c r="J488" s="14"/>
+      <c r="K488" s="15"/>
     </row>
     <row r="489" ht="15.2" spans="7:11">
-      <c r="G489" s="16"/>
-      <c r="J489" s="17"/>
-      <c r="K489" s="18"/>
+      <c r="G489" s="13"/>
+      <c r="J489" s="14"/>
+      <c r="K489" s="15"/>
     </row>
     <row r="490" ht="15.2" spans="7:11">
-      <c r="G490" s="16"/>
-      <c r="J490" s="17"/>
-      <c r="K490" s="18"/>
+      <c r="G490" s="13"/>
+      <c r="J490" s="14"/>
+      <c r="K490" s="15"/>
     </row>
     <row r="491" ht="15.2" spans="7:11">
-      <c r="G491" s="16"/>
-      <c r="J491" s="17"/>
-      <c r="K491" s="18"/>
+      <c r="G491" s="13"/>
+      <c r="J491" s="14"/>
+      <c r="K491" s="15"/>
     </row>
     <row r="492" ht="15.2" spans="7:11">
-      <c r="G492" s="16"/>
-      <c r="J492" s="17"/>
-      <c r="K492" s="18"/>
+      <c r="G492" s="13"/>
+      <c r="J492" s="14"/>
+      <c r="K492" s="15"/>
     </row>
     <row r="493" ht="15.2" spans="7:11">
-      <c r="G493" s="16"/>
-      <c r="J493" s="17"/>
-      <c r="K493" s="18"/>
+      <c r="G493" s="13"/>
+      <c r="J493" s="14"/>
+      <c r="K493" s="15"/>
     </row>
     <row r="494" ht="15.2" spans="7:11">
-      <c r="G494" s="16"/>
-      <c r="J494" s="17"/>
-      <c r="K494" s="18"/>
+      <c r="G494" s="13"/>
+      <c r="J494" s="14"/>
+      <c r="K494" s="15"/>
     </row>
     <row r="495" ht="15.2" spans="7:11">
-      <c r="G495" s="16"/>
-      <c r="J495" s="17"/>
-      <c r="K495" s="18"/>
+      <c r="G495" s="13"/>
+      <c r="J495" s="14"/>
+      <c r="K495" s="15"/>
     </row>
     <row r="496" ht="15.2" spans="7:11">
-      <c r="G496" s="16"/>
-      <c r="J496" s="17"/>
-      <c r="K496" s="18"/>
+      <c r="G496" s="13"/>
+      <c r="J496" s="14"/>
+      <c r="K496" s="15"/>
     </row>
     <row r="497" ht="15.2" spans="7:11">
-      <c r="G497" s="16"/>
-      <c r="J497" s="17"/>
-      <c r="K497" s="18"/>
+      <c r="G497" s="13"/>
+      <c r="J497" s="14"/>
+      <c r="K497" s="15"/>
     </row>
     <row r="498" ht="15.2" spans="7:11">
-      <c r="G498" s="16"/>
-      <c r="J498" s="17"/>
-      <c r="K498" s="18"/>
+      <c r="G498" s="13"/>
+      <c r="J498" s="14"/>
+      <c r="K498" s="15"/>
     </row>
     <row r="499" ht="15.2" spans="7:11">
-      <c r="G499" s="16"/>
-      <c r="J499" s="17"/>
-      <c r="K499" s="18"/>
+      <c r="G499" s="13"/>
+      <c r="J499" s="14"/>
+      <c r="K499" s="15"/>
     </row>
     <row r="500" ht="15.2" spans="7:11">
-      <c r="G500" s="16"/>
-      <c r="J500" s="17"/>
-      <c r="K500" s="18"/>
+      <c r="G500" s="13"/>
+      <c r="J500" s="14"/>
+      <c r="K500" s="15"/>
     </row>
     <row r="501" ht="15.2" spans="7:11">
-      <c r="G501" s="16"/>
-      <c r="J501" s="17"/>
-      <c r="K501" s="18"/>
+      <c r="G501" s="13"/>
+      <c r="J501" s="14"/>
+      <c r="K501" s="15"/>
     </row>
     <row r="502" ht="15.2" spans="7:11">
-      <c r="G502" s="16"/>
-      <c r="J502" s="17"/>
-      <c r="K502" s="18"/>
+      <c r="G502" s="13"/>
+      <c r="J502" s="14"/>
+      <c r="K502" s="15"/>
     </row>
     <row r="503" ht="15.2" spans="7:11">
-      <c r="G503" s="16"/>
-      <c r="J503" s="17"/>
-      <c r="K503" s="18"/>
+      <c r="G503" s="13"/>
+      <c r="J503" s="14"/>
+      <c r="K503" s="15"/>
     </row>
     <row r="504" ht="15.2" spans="7:11">
-      <c r="G504" s="16"/>
-      <c r="J504" s="17"/>
-      <c r="K504" s="18"/>
+      <c r="G504" s="13"/>
+      <c r="J504" s="14"/>
+      <c r="K504" s="15"/>
     </row>
     <row r="505" ht="15.2" spans="7:11">
-      <c r="G505" s="16"/>
-      <c r="J505" s="17"/>
-      <c r="K505" s="18"/>
+      <c r="G505" s="13"/>
+      <c r="J505" s="14"/>
+      <c r="K505" s="15"/>
     </row>
     <row r="506" ht="15.2" spans="7:11">
-      <c r="G506" s="16"/>
-      <c r="J506" s="17"/>
-      <c r="K506" s="18"/>
+      <c r="G506" s="13"/>
+      <c r="J506" s="14"/>
+      <c r="K506" s="15"/>
     </row>
     <row r="507" ht="15.2" spans="7:11">
-      <c r="G507" s="16"/>
-      <c r="J507" s="17"/>
-      <c r="K507" s="18"/>
+      <c r="G507" s="13"/>
+      <c r="J507" s="14"/>
+      <c r="K507" s="15"/>
     </row>
     <row r="508" ht="15.2" spans="7:11">
-      <c r="G508" s="16"/>
-      <c r="J508" s="17"/>
-      <c r="K508" s="18"/>
+      <c r="G508" s="13"/>
+      <c r="J508" s="14"/>
+      <c r="K508" s="15"/>
     </row>
     <row r="509" ht="15.2" spans="7:11">
-      <c r="G509" s="16"/>
-      <c r="J509" s="17"/>
-      <c r="K509" s="18"/>
+      <c r="G509" s="13"/>
+      <c r="J509" s="14"/>
+      <c r="K509" s="15"/>
     </row>
     <row r="510" ht="15.2" spans="7:11">
-      <c r="G510" s="16"/>
-      <c r="J510" s="17"/>
-      <c r="K510" s="18"/>
+      <c r="G510" s="13"/>
+      <c r="J510" s="14"/>
+      <c r="K510" s="15"/>
     </row>
     <row r="511" ht="15.2" spans="7:11">
-      <c r="G511" s="16"/>
-      <c r="J511" s="17"/>
-      <c r="K511" s="18"/>
+      <c r="G511" s="13"/>
+      <c r="J511" s="14"/>
+      <c r="K511" s="15"/>
     </row>
     <row r="512" ht="15.2" spans="7:11">
-      <c r="G512" s="16"/>
-      <c r="J512" s="17"/>
-      <c r="K512" s="18"/>
+      <c r="G512" s="13"/>
+      <c r="J512" s="14"/>
+      <c r="K512" s="15"/>
     </row>
     <row r="513" ht="15.2" spans="7:11">
-      <c r="G513" s="16"/>
-      <c r="J513" s="17"/>
-      <c r="K513" s="18"/>
+      <c r="G513" s="13"/>
+      <c r="J513" s="14"/>
+      <c r="K513" s="15"/>
     </row>
     <row r="514" ht="15.2" spans="7:11">
-      <c r="G514" s="16"/>
-      <c r="J514" s="17"/>
-      <c r="K514" s="18"/>
+      <c r="G514" s="13"/>
+      <c r="J514" s="14"/>
+      <c r="K514" s="15"/>
     </row>
     <row r="515" ht="15.2" spans="7:11">
-      <c r="G515" s="16"/>
-      <c r="J515" s="17"/>
-      <c r="K515" s="18"/>
+      <c r="G515" s="13"/>
+      <c r="J515" s="14"/>
+      <c r="K515" s="15"/>
     </row>
     <row r="516" ht="15.2" spans="7:11">
-      <c r="G516" s="16"/>
-      <c r="J516" s="17"/>
-      <c r="K516" s="18"/>
+      <c r="G516" s="13"/>
+      <c r="J516" s="14"/>
+      <c r="K516" s="15"/>
     </row>
     <row r="517" ht="15.2" spans="7:11">
-      <c r="G517" s="16"/>
-      <c r="J517" s="17"/>
-      <c r="K517" s="18"/>
+      <c r="G517" s="13"/>
+      <c r="J517" s="14"/>
+      <c r="K517" s="15"/>
     </row>
     <row r="518" ht="15.2" spans="7:11">
-      <c r="G518" s="16"/>
-      <c r="J518" s="17"/>
-      <c r="K518" s="18"/>
+      <c r="G518" s="13"/>
+      <c r="J518" s="14"/>
+      <c r="K518" s="15"/>
     </row>
     <row r="519" ht="15.2" spans="7:11">
-      <c r="G519" s="16"/>
-      <c r="J519" s="17"/>
-      <c r="K519" s="18"/>
+      <c r="G519" s="13"/>
+      <c r="J519" s="14"/>
+      <c r="K519" s="15"/>
     </row>
     <row r="520" ht="15.2" spans="7:11">
-      <c r="G520" s="16"/>
-      <c r="J520" s="17"/>
-      <c r="K520" s="18"/>
+      <c r="G520" s="13"/>
+      <c r="J520" s="14"/>
+      <c r="K520" s="15"/>
     </row>
     <row r="521" ht="15.2" spans="7:11">
-      <c r="G521" s="16"/>
-      <c r="J521" s="17"/>
-      <c r="K521" s="18"/>
+      <c r="G521" s="13"/>
+      <c r="J521" s="14"/>
+      <c r="K521" s="15"/>
     </row>
     <row r="522" ht="15.2" spans="7:11">
-      <c r="G522" s="16"/>
-      <c r="J522" s="17"/>
-      <c r="K522" s="18"/>
+      <c r="G522" s="13"/>
+      <c r="J522" s="14"/>
+      <c r="K522" s="15"/>
     </row>
     <row r="523" ht="15.2" spans="7:11">
-      <c r="G523" s="16"/>
-      <c r="J523" s="17"/>
-      <c r="K523" s="18"/>
+      <c r="G523" s="13"/>
+      <c r="J523" s="14"/>
+      <c r="K523" s="15"/>
     </row>
     <row r="524" ht="15.2" spans="7:11">
-      <c r="G524" s="16"/>
-      <c r="J524" s="17"/>
-      <c r="K524" s="18"/>
+      <c r="G524" s="13"/>
+      <c r="J524" s="14"/>
+      <c r="K524" s="15"/>
     </row>
     <row r="525" ht="15.2" spans="7:11">
-      <c r="G525" s="16"/>
-      <c r="J525" s="17"/>
-      <c r="K525" s="18"/>
+      <c r="G525" s="13"/>
+      <c r="J525" s="14"/>
+      <c r="K525" s="15"/>
     </row>
     <row r="526" ht="15.2" spans="7:11">
-      <c r="G526" s="16"/>
-      <c r="J526" s="17"/>
-      <c r="K526" s="18"/>
+      <c r="G526" s="13"/>
+      <c r="J526" s="14"/>
+      <c r="K526" s="15"/>
     </row>
     <row r="527" ht="15.2" spans="7:11">
-      <c r="G527" s="16"/>
-      <c r="J527" s="17"/>
-      <c r="K527" s="18"/>
+      <c r="G527" s="13"/>
+      <c r="J527" s="14"/>
+      <c r="K527" s="15"/>
     </row>
     <row r="528" ht="15.2" spans="7:11">
-      <c r="G528" s="16"/>
-      <c r="J528" s="17"/>
-      <c r="K528" s="18"/>
+      <c r="G528" s="13"/>
+      <c r="J528" s="14"/>
+      <c r="K528" s="15"/>
     </row>
     <row r="529" ht="15.2" spans="7:11">
-      <c r="G529" s="16"/>
-      <c r="J529" s="17"/>
-      <c r="K529" s="18"/>
+      <c r="G529" s="13"/>
+      <c r="J529" s="14"/>
+      <c r="K529" s="15"/>
     </row>
     <row r="530" ht="15.2" spans="7:11">
-      <c r="G530" s="16"/>
-      <c r="J530" s="17"/>
-      <c r="K530" s="18"/>
+      <c r="G530" s="13"/>
+      <c r="J530" s="14"/>
+      <c r="K530" s="15"/>
     </row>
     <row r="531" ht="15.2" spans="7:11">
-      <c r="G531" s="16"/>
-      <c r="J531" s="17"/>
-      <c r="K531" s="18"/>
+      <c r="G531" s="13"/>
+      <c r="J531" s="14"/>
+      <c r="K531" s="15"/>
     </row>
     <row r="532" ht="15.2" spans="7:11">
-      <c r="G532" s="16"/>
-      <c r="J532" s="17"/>
-      <c r="K532" s="18"/>
+      <c r="G532" s="13"/>
+      <c r="J532" s="14"/>
+      <c r="K532" s="15"/>
     </row>
     <row r="533" ht="15.2" spans="7:11">
-      <c r="G533" s="16"/>
-      <c r="J533" s="17"/>
-      <c r="K533" s="18"/>
+      <c r="G533" s="13"/>
+      <c r="J533" s="14"/>
+      <c r="K533" s="15"/>
     </row>
     <row r="534" ht="15.2" spans="7:11">
-      <c r="G534" s="16"/>
-      <c r="J534" s="17"/>
-      <c r="K534" s="18"/>
+      <c r="G534" s="13"/>
+      <c r="J534" s="14"/>
+      <c r="K534" s="15"/>
     </row>
     <row r="535" ht="15.2" spans="7:11">
-      <c r="G535" s="16"/>
-      <c r="J535" s="17"/>
-      <c r="K535" s="18"/>
+      <c r="G535" s="13"/>
+      <c r="J535" s="14"/>
+      <c r="K535" s="15"/>
     </row>
     <row r="536" ht="15.2" spans="7:11">
-      <c r="G536" s="16"/>
-      <c r="J536" s="17"/>
-      <c r="K536" s="18"/>
+      <c r="G536" s="13"/>
+      <c r="J536" s="14"/>
+      <c r="K536" s="15"/>
     </row>
     <row r="537" ht="15.2" spans="7:11">
-      <c r="G537" s="16"/>
-      <c r="J537" s="17"/>
-      <c r="K537" s="18"/>
+      <c r="G537" s="13"/>
+      <c r="J537" s="14"/>
+      <c r="K537" s="15"/>
     </row>
     <row r="538" ht="15.2" spans="7:11">
-      <c r="G538" s="16"/>
-      <c r="J538" s="17"/>
-      <c r="K538" s="18"/>
+      <c r="G538" s="13"/>
+      <c r="J538" s="14"/>
+      <c r="K538" s="15"/>
     </row>
     <row r="539" ht="15.2" spans="7:11">
-      <c r="G539" s="16"/>
-      <c r="J539" s="17"/>
-      <c r="K539" s="18"/>
+      <c r="G539" s="13"/>
+      <c r="J539" s="14"/>
+      <c r="K539" s="15"/>
     </row>
     <row r="540" ht="15.2" spans="7:11">
-      <c r="G540" s="16"/>
-      <c r="J540" s="17"/>
-      <c r="K540" s="18"/>
+      <c r="G540" s="13"/>
+      <c r="J540" s="14"/>
+      <c r="K540" s="15"/>
     </row>
     <row r="541" ht="15.2" spans="7:11">
-      <c r="G541" s="16"/>
-      <c r="J541" s="17"/>
-      <c r="K541" s="18"/>
+      <c r="G541" s="13"/>
+      <c r="J541" s="14"/>
+      <c r="K541" s="15"/>
     </row>
     <row r="542" ht="15.2" spans="7:11">
-      <c r="G542" s="16"/>
-      <c r="J542" s="17"/>
-      <c r="K542" s="18"/>
+      <c r="G542" s="13"/>
+      <c r="J542" s="14"/>
+      <c r="K542" s="15"/>
     </row>
     <row r="543" ht="15.2" spans="7:11">
-      <c r="G543" s="16"/>
-      <c r="J543" s="17"/>
-      <c r="K543" s="18"/>
+      <c r="G543" s="13"/>
+      <c r="J543" s="14"/>
+      <c r="K543" s="15"/>
     </row>
     <row r="544" ht="15.2" spans="7:11">
-      <c r="G544" s="16"/>
-      <c r="J544" s="17"/>
-      <c r="K544" s="18"/>
+      <c r="G544" s="13"/>
+      <c r="J544" s="14"/>
+      <c r="K544" s="15"/>
     </row>
     <row r="545" ht="15.2" spans="7:11">
-      <c r="G545" s="16"/>
-      <c r="J545" s="17"/>
-      <c r="K545" s="18"/>
+      <c r="G545" s="13"/>
+      <c r="J545" s="14"/>
+      <c r="K545" s="15"/>
     </row>
     <row r="546" ht="15.2" spans="7:11">
-      <c r="G546" s="16"/>
-      <c r="J546" s="17"/>
-      <c r="K546" s="18"/>
+      <c r="G546" s="13"/>
+      <c r="J546" s="14"/>
+      <c r="K546" s="15"/>
     </row>
     <row r="547" ht="15.2" spans="7:11">
-      <c r="G547" s="16"/>
-      <c r="J547" s="17"/>
-      <c r="K547" s="18"/>
+      <c r="G547" s="13"/>
+      <c r="J547" s="14"/>
+      <c r="K547" s="15"/>
     </row>
     <row r="548" ht="15.2" spans="7:11">
-      <c r="G548" s="16"/>
-      <c r="J548" s="17"/>
-      <c r="K548" s="18"/>
+      <c r="G548" s="13"/>
+      <c r="J548" s="14"/>
+      <c r="K548" s="15"/>
     </row>
     <row r="549" ht="15.2" spans="7:11">
-      <c r="G549" s="16"/>
-      <c r="J549" s="17"/>
-      <c r="K549" s="18"/>
+      <c r="G549" s="13"/>
+      <c r="J549" s="14"/>
+      <c r="K549" s="15"/>
     </row>
     <row r="550" ht="15.2" spans="7:11">
-      <c r="G550" s="16"/>
-      <c r="J550" s="17"/>
-      <c r="K550" s="18"/>
+      <c r="G550" s="13"/>
+      <c r="J550" s="14"/>
+      <c r="K550" s="15"/>
     </row>
     <row r="551" ht="15.2" spans="7:11">
-      <c r="G551" s="16"/>
-      <c r="J551" s="17"/>
-      <c r="K551" s="18"/>
+      <c r="G551" s="13"/>
+      <c r="J551" s="14"/>
+      <c r="K551" s="15"/>
     </row>
     <row r="552" ht="15.2" spans="7:11">
-      <c r="G552" s="16"/>
-      <c r="J552" s="17"/>
-      <c r="K552" s="18"/>
+      <c r="G552" s="13"/>
+      <c r="J552" s="14"/>
+      <c r="K552" s="15"/>
     </row>
     <row r="553" ht="15.2" spans="7:11">
-      <c r="G553" s="16"/>
-      <c r="J553" s="17"/>
-      <c r="K553" s="18"/>
+      <c r="G553" s="13"/>
+      <c r="J553" s="14"/>
+      <c r="K553" s="15"/>
     </row>
     <row r="554" ht="15.2" spans="7:11">
-      <c r="G554" s="16"/>
-      <c r="J554" s="17"/>
-      <c r="K554" s="18"/>
+      <c r="G554" s="13"/>
+      <c r="J554" s="14"/>
+      <c r="K554" s="15"/>
     </row>
     <row r="555" ht="15.2" spans="7:11">
-      <c r="G555" s="16"/>
-      <c r="J555" s="17"/>
-      <c r="K555" s="18"/>
+      <c r="G555" s="13"/>
+      <c r="J555" s="14"/>
+      <c r="K555" s="15"/>
     </row>
     <row r="556" ht="15.2" spans="7:11">
-      <c r="G556" s="16"/>
-      <c r="J556" s="17"/>
-      <c r="K556" s="18"/>
+      <c r="G556" s="13"/>
+      <c r="J556" s="14"/>
+      <c r="K556" s="15"/>
     </row>
     <row r="557" ht="15.2" spans="7:11">
-      <c r="G557" s="16"/>
-      <c r="J557" s="17"/>
-      <c r="K557" s="18"/>
+      <c r="G557" s="13"/>
+      <c r="J557" s="14"/>
+      <c r="K557" s="15"/>
     </row>
     <row r="558" ht="15.2" spans="7:11">
-      <c r="G558" s="16"/>
-      <c r="J558" s="17"/>
-      <c r="K558" s="18"/>
+      <c r="G558" s="13"/>
+      <c r="J558" s="14"/>
+      <c r="K558" s="15"/>
     </row>
     <row r="559" ht="15.2" spans="7:11">
-      <c r="G559" s="16"/>
-      <c r="J559" s="17"/>
-      <c r="K559" s="18"/>
+      <c r="G559" s="13"/>
+      <c r="J559" s="14"/>
+      <c r="K559" s="15"/>
     </row>
     <row r="560" ht="15.2" spans="7:11">
-      <c r="G560" s="16"/>
-      <c r="J560" s="17"/>
-      <c r="K560" s="18"/>
+      <c r="G560" s="13"/>
+      <c r="J560" s="14"/>
+      <c r="K560" s="15"/>
     </row>
     <row r="561" ht="15.2" spans="7:11">
-      <c r="G561" s="16"/>
-      <c r="J561" s="17"/>
-      <c r="K561" s="18"/>
+      <c r="G561" s="13"/>
+      <c r="J561" s="14"/>
+      <c r="K561" s="15"/>
     </row>
     <row r="562" ht="15.2" spans="7:11">
-      <c r="G562" s="16"/>
-      <c r="J562" s="17"/>
-      <c r="K562" s="18"/>
+      <c r="G562" s="13"/>
+      <c r="J562" s="14"/>
+      <c r="K562" s="15"/>
     </row>
     <row r="563" ht="15.2" spans="7:11">
-      <c r="G563" s="16"/>
-      <c r="J563" s="17"/>
-      <c r="K563" s="18"/>
+      <c r="G563" s="13"/>
+      <c r="J563" s="14"/>
+      <c r="K563" s="15"/>
     </row>
     <row r="564" ht="15.2" spans="7:11">
-      <c r="G564" s="16"/>
-      <c r="J564" s="17"/>
-      <c r="K564" s="18"/>
+      <c r="G564" s="13"/>
+      <c r="J564" s="14"/>
+      <c r="K564" s="15"/>
     </row>
     <row r="565" ht="15.2" spans="7:11">
-      <c r="G565" s="16"/>
-      <c r="J565" s="17"/>
-      <c r="K565" s="18"/>
+      <c r="G565" s="13"/>
+      <c r="J565" s="14"/>
+      <c r="K565" s="15"/>
     </row>
     <row r="566" ht="15.2" spans="7:11">
-      <c r="G566" s="16"/>
-      <c r="J566" s="17"/>
-      <c r="K566" s="18"/>
+      <c r="G566" s="13"/>
+      <c r="J566" s="14"/>
+      <c r="K566" s="15"/>
     </row>
     <row r="567" ht="15.2" spans="7:11">
-      <c r="G567" s="16"/>
-      <c r="J567" s="17"/>
-      <c r="K567" s="18"/>
+      <c r="G567" s="13"/>
+      <c r="J567" s="14"/>
+      <c r="K567" s="15"/>
     </row>
     <row r="568" ht="15.2" spans="7:11">
-      <c r="G568" s="16"/>
-      <c r="J568" s="17"/>
-      <c r="K568" s="18"/>
+      <c r="G568" s="13"/>
+      <c r="J568" s="14"/>
+      <c r="K568" s="15"/>
     </row>
     <row r="569" ht="15.2" spans="7:11">
-      <c r="G569" s="16"/>
-      <c r="J569" s="17"/>
-      <c r="K569" s="18"/>
+      <c r="G569" s="13"/>
+      <c r="J569" s="14"/>
+      <c r="K569" s="15"/>
     </row>
     <row r="570" ht="15.2" spans="7:11">
-      <c r="G570" s="16"/>
-      <c r="J570" s="17"/>
-      <c r="K570" s="18"/>
+      <c r="G570" s="13"/>
+      <c r="J570" s="14"/>
+      <c r="K570" s="15"/>
     </row>
     <row r="571" ht="15.2" spans="7:11">
-      <c r="G571" s="16"/>
-      <c r="J571" s="17"/>
-      <c r="K571" s="18"/>
+      <c r="G571" s="13"/>
+      <c r="J571" s="14"/>
+      <c r="K571" s="15"/>
     </row>
     <row r="572" ht="15.2" spans="7:11">
-      <c r="G572" s="16"/>
-      <c r="J572" s="17"/>
-      <c r="K572" s="18"/>
+      <c r="G572" s="13"/>
+      <c r="J572" s="14"/>
+      <c r="K572" s="15"/>
     </row>
     <row r="573" ht="15.2" spans="7:11">
-      <c r="G573" s="16"/>
-      <c r="J573" s="17"/>
-      <c r="K573" s="18"/>
+      <c r="G573" s="13"/>
+      <c r="J573" s="14"/>
+      <c r="K573" s="15"/>
     </row>
     <row r="574" ht="15.2" spans="7:11">
-      <c r="G574" s="16"/>
-      <c r="J574" s="17"/>
-      <c r="K574" s="18"/>
+      <c r="G574" s="13"/>
+      <c r="J574" s="14"/>
+      <c r="K574" s="15"/>
     </row>
     <row r="575" ht="15.2" spans="7:11">
-      <c r="G575" s="16"/>
-      <c r="J575" s="17"/>
-      <c r="K575" s="18"/>
+      <c r="G575" s="13"/>
+      <c r="J575" s="14"/>
+      <c r="K575" s="15"/>
     </row>
     <row r="576" ht="15.2" spans="7:11">
-      <c r="G576" s="16"/>
-      <c r="J576" s="17"/>
-      <c r="K576" s="18"/>
+      <c r="G576" s="13"/>
+      <c r="J576" s="14"/>
+      <c r="K576" s="15"/>
     </row>
     <row r="577" ht="15.2" spans="7:11">
-      <c r="G577" s="16"/>
-      <c r="J577" s="17"/>
-      <c r="K577" s="18"/>
+      <c r="G577" s="13"/>
+      <c r="J577" s="14"/>
+      <c r="K577" s="15"/>
     </row>
     <row r="578" ht="15.2" spans="7:11">
-      <c r="G578" s="16"/>
-      <c r="J578" s="17"/>
-      <c r="K578" s="18"/>
+      <c r="G578" s="13"/>
+      <c r="J578" s="14"/>
+      <c r="K578" s="15"/>
     </row>
     <row r="579" ht="15.2" spans="7:11">
-      <c r="G579" s="16"/>
-      <c r="J579" s="17"/>
-      <c r="K579" s="18"/>
+      <c r="G579" s="13"/>
+      <c r="J579" s="14"/>
+      <c r="K579" s="15"/>
     </row>
     <row r="580" ht="15.2" spans="7:11">
-      <c r="G580" s="16"/>
-      <c r="J580" s="17"/>
-      <c r="K580" s="18"/>
+      <c r="G580" s="13"/>
+      <c r="J580" s="14"/>
+      <c r="K580" s="15"/>
     </row>
     <row r="581" ht="15.2" spans="7:11">
-      <c r="G581" s="16"/>
-      <c r="J581" s="17"/>
-      <c r="K581" s="18"/>
+      <c r="G581" s="13"/>
+      <c r="J581" s="14"/>
+      <c r="K581" s="15"/>
     </row>
     <row r="582" ht="15.2" spans="7:11">
-      <c r="G582" s="16"/>
-      <c r="J582" s="17"/>
-      <c r="K582" s="18"/>
+      <c r="G582" s="13"/>
+      <c r="J582" s="14"/>
+      <c r="K582" s="15"/>
     </row>
     <row r="583" ht="15.2" spans="7:11">
-      <c r="G583" s="16"/>
-      <c r="J583" s="17"/>
-      <c r="K583" s="18"/>
+      <c r="G583" s="13"/>
+      <c r="J583" s="14"/>
+      <c r="K583" s="15"/>
     </row>
     <row r="584" ht="15.2" spans="7:11">
-      <c r="G584" s="16"/>
-      <c r="J584" s="17"/>
-      <c r="K584" s="18"/>
+      <c r="G584" s="13"/>
+      <c r="J584" s="14"/>
+      <c r="K584" s="15"/>
     </row>
     <row r="585" ht="15.2" spans="7:11">
-      <c r="G585" s="16"/>
-      <c r="J585" s="17"/>
-      <c r="K585" s="18"/>
+      <c r="G585" s="13"/>
+      <c r="J585" s="14"/>
+      <c r="K585" s="15"/>
     </row>
     <row r="586" ht="15.2" spans="7:11">
-      <c r="G586" s="16"/>
-      <c r="J586" s="17"/>
-      <c r="K586" s="18"/>
+      <c r="G586" s="13"/>
+      <c r="J586" s="14"/>
+      <c r="K586" s="15"/>
     </row>
     <row r="587" ht="15.2" spans="7:11">
-      <c r="G587" s="16"/>
-      <c r="J587" s="17"/>
-      <c r="K587" s="18"/>
+      <c r="G587" s="13"/>
+      <c r="J587" s="14"/>
+      <c r="K587" s="15"/>
     </row>
     <row r="588" ht="15.2" spans="7:11">
-      <c r="G588" s="16"/>
-      <c r="J588" s="17"/>
-      <c r="K588" s="18"/>
+      <c r="G588" s="13"/>
+      <c r="J588" s="14"/>
+      <c r="K588" s="15"/>
     </row>
     <row r="589" ht="15.2" spans="7:11">
-      <c r="G589" s="16"/>
-      <c r="J589" s="17"/>
-      <c r="K589" s="18"/>
+      <c r="G589" s="13"/>
+      <c r="J589" s="14"/>
+      <c r="K589" s="15"/>
     </row>
     <row r="590" ht="15.2" spans="7:11">
-      <c r="G590" s="16"/>
-      <c r="J590" s="17"/>
-      <c r="K590" s="18"/>
+      <c r="G590" s="13"/>
+      <c r="J590" s="14"/>
+      <c r="K590" s="15"/>
     </row>
     <row r="591" ht="15.2" spans="7:11">
-      <c r="G591" s="16"/>
-      <c r="J591" s="17"/>
-      <c r="K591" s="18"/>
+      <c r="G591" s="13"/>
+      <c r="J591" s="14"/>
+      <c r="K591" s="15"/>
     </row>
     <row r="592" ht="15.2" spans="7:11">
-      <c r="G592" s="16"/>
-      <c r="J592" s="17"/>
-      <c r="K592" s="18"/>
+      <c r="G592" s="13"/>
+      <c r="J592" s="14"/>
+      <c r="K592" s="15"/>
     </row>
     <row r="593" ht="15.2" spans="7:11">
-      <c r="G593" s="16"/>
-      <c r="J593" s="17"/>
-      <c r="K593" s="18"/>
+      <c r="G593" s="13"/>
+      <c r="J593" s="14"/>
+      <c r="K593" s="15"/>
     </row>
     <row r="594" ht="15.2" spans="7:11">
-      <c r="G594" s="16"/>
-      <c r="J594" s="17"/>
-      <c r="K594" s="18"/>
+      <c r="G594" s="13"/>
+      <c r="J594" s="14"/>
+      <c r="K594" s="15"/>
     </row>
     <row r="595" ht="15.2" spans="7:11">
-      <c r="G595" s="16"/>
-      <c r="J595" s="17"/>
-      <c r="K595" s="18"/>
+      <c r="G595" s="13"/>
+      <c r="J595" s="14"/>
+      <c r="K595" s="15"/>
     </row>
     <row r="596" ht="15.2" spans="7:11">
-      <c r="G596" s="16"/>
-      <c r="J596" s="17"/>
-      <c r="K596" s="18"/>
+      <c r="G596" s="13"/>
+      <c r="J596" s="14"/>
+      <c r="K596" s="15"/>
     </row>
     <row r="597" ht="15.2" spans="7:11">
-      <c r="G597" s="16"/>
-      <c r="J597" s="17"/>
-      <c r="K597" s="18"/>
+      <c r="G597" s="13"/>
+      <c r="J597" s="14"/>
+      <c r="K597" s="15"/>
     </row>
     <row r="598" ht="15.2" spans="7:11">
-      <c r="G598" s="16"/>
-      <c r="J598" s="17"/>
-      <c r="K598" s="18"/>
+      <c r="G598" s="13"/>
+      <c r="J598" s="14"/>
+      <c r="K598" s="15"/>
     </row>
     <row r="599" ht="15.2" spans="7:11">
-      <c r="G599" s="16"/>
-      <c r="J599" s="17"/>
-      <c r="K599" s="18"/>
+      <c r="G599" s="13"/>
+      <c r="J599" s="14"/>
+      <c r="K599" s="15"/>
     </row>
     <row r="600" ht="15.2" spans="7:11">
-      <c r="G600" s="16"/>
-      <c r="J600" s="17"/>
-      <c r="K600" s="18"/>
+      <c r="G600" s="13"/>
+      <c r="J600" s="14"/>
+      <c r="K600" s="15"/>
     </row>
     <row r="601" ht="15.2" spans="7:11">
-      <c r="G601" s="16"/>
-      <c r="J601" s="17"/>
-      <c r="K601" s="18"/>
+      <c r="G601" s="13"/>
+      <c r="J601" s="14"/>
+      <c r="K601" s="15"/>
     </row>
     <row r="602" ht="15.2" spans="7:11">
-      <c r="G602" s="16"/>
-      <c r="J602" s="17"/>
-      <c r="K602" s="18"/>
+      <c r="G602" s="13"/>
+      <c r="J602" s="14"/>
+      <c r="K602" s="15"/>
     </row>
     <row r="603" ht="15.2" spans="7:11">
-      <c r="G603" s="16"/>
-      <c r="J603" s="17"/>
-      <c r="K603" s="18"/>
+      <c r="G603" s="13"/>
+      <c r="J603" s="14"/>
+      <c r="K603" s="15"/>
     </row>
     <row r="604" ht="15.2" spans="7:11">
-      <c r="G604" s="16"/>
-      <c r="J604" s="17"/>
-      <c r="K604" s="18"/>
+      <c r="G604" s="13"/>
+      <c r="J604" s="14"/>
+      <c r="K604" s="15"/>
     </row>
     <row r="605" ht="15.2" spans="7:11">
-      <c r="G605" s="16"/>
-      <c r="J605" s="17"/>
-      <c r="K605" s="18"/>
+      <c r="G605" s="13"/>
+      <c r="J605" s="14"/>
+      <c r="K605" s="15"/>
     </row>
     <row r="606" ht="15.2" spans="7:11">
-      <c r="G606" s="16"/>
-      <c r="J606" s="17"/>
-      <c r="K606" s="18"/>
+      <c r="G606" s="13"/>
+      <c r="J606" s="14"/>
+      <c r="K606" s="15"/>
     </row>
     <row r="607" ht="15.2" spans="7:11">
-      <c r="G607" s="16"/>
-      <c r="J607" s="17"/>
-      <c r="K607" s="18"/>
+      <c r="G607" s="13"/>
+      <c r="J607" s="14"/>
+      <c r="K607" s="15"/>
     </row>
     <row r="608" ht="15.2" spans="7:11">
-      <c r="G608" s="16"/>
-      <c r="J608" s="17"/>
-      <c r="K608" s="18"/>
+      <c r="G608" s="13"/>
+      <c r="J608" s="14"/>
+      <c r="K608" s="15"/>
     </row>
     <row r="609" ht="15.2" spans="7:11">
-      <c r="G609" s="16"/>
-      <c r="J609" s="17"/>
-      <c r="K609" s="18"/>
+      <c r="G609" s="13"/>
+      <c r="J609" s="14"/>
+      <c r="K609" s="15"/>
     </row>
     <row r="610" ht="15.2" spans="7:11">
-      <c r="G610" s="16"/>
-      <c r="J610" s="17"/>
-      <c r="K610" s="18"/>
+      <c r="G610" s="13"/>
+      <c r="J610" s="14"/>
+      <c r="K610" s="15"/>
     </row>
     <row r="611" ht="15.2" spans="7:11">
-      <c r="G611" s="16"/>
-      <c r="J611" s="17"/>
-      <c r="K611" s="18"/>
+      <c r="G611" s="13"/>
+      <c r="J611" s="14"/>
+      <c r="K611" s="15"/>
     </row>
     <row r="612" ht="15.2" spans="7:11">
-      <c r="G612" s="16"/>
-      <c r="J612" s="17"/>
-      <c r="K612" s="18"/>
+      <c r="G612" s="13"/>
+      <c r="J612" s="14"/>
+      <c r="K612" s="15"/>
     </row>
     <row r="613" ht="15.2" spans="7:11">
-      <c r="G613" s="16"/>
-      <c r="J613" s="17"/>
-      <c r="K613" s="18"/>
+      <c r="G613" s="13"/>
+      <c r="J613" s="14"/>
+      <c r="K613" s="15"/>
     </row>
     <row r="614" ht="15.2" spans="7:11">
-      <c r="G614" s="16"/>
-      <c r="J614" s="17"/>
-      <c r="K614" s="18"/>
+      <c r="G614" s="13"/>
+      <c r="J614" s="14"/>
+      <c r="K614" s="15"/>
     </row>
     <row r="615" ht="15.2" spans="7:11">
-      <c r="G615" s="16"/>
-      <c r="J615" s="17"/>
-      <c r="K615" s="18"/>
+      <c r="G615" s="13"/>
+      <c r="J615" s="14"/>
+      <c r="K615" s="15"/>
     </row>
     <row r="616" ht="15.2" spans="7:11">
-      <c r="G616" s="16"/>
-      <c r="J616" s="17"/>
-      <c r="K616" s="18"/>
+      <c r="G616" s="13"/>
+      <c r="J616" s="14"/>
+      <c r="K616" s="15"/>
     </row>
     <row r="617" ht="15.2" spans="7:11">
-      <c r="G617" s="16"/>
-      <c r="J617" s="17"/>
-      <c r="K617" s="18"/>
+      <c r="G617" s="13"/>
+      <c r="J617" s="14"/>
+      <c r="K617" s="15"/>
     </row>
     <row r="618" ht="15.2" spans="7:11">
-      <c r="G618" s="16"/>
-      <c r="J618" s="17"/>
-      <c r="K618" s="18"/>
+      <c r="G618" s="13"/>
+      <c r="J618" s="14"/>
+      <c r="K618" s="15"/>
     </row>
     <row r="619" ht="15.2" spans="7:11">
-      <c r="G619" s="16"/>
-      <c r="J619" s="17"/>
-      <c r="K619" s="18"/>
+      <c r="G619" s="13"/>
+      <c r="J619" s="14"/>
+      <c r="K619" s="15"/>
     </row>
     <row r="620" ht="15.2" spans="7:11">
-      <c r="G620" s="16"/>
-      <c r="J620" s="17"/>
-      <c r="K620" s="18"/>
+      <c r="G620" s="13"/>
+      <c r="J620" s="14"/>
+      <c r="K620" s="15"/>
     </row>
     <row r="621" ht="15.2" spans="7:11">
-      <c r="G621" s="16"/>
-      <c r="J621" s="17"/>
-      <c r="K621" s="18"/>
+      <c r="G621" s="13"/>
+      <c r="J621" s="14"/>
+      <c r="K621" s="15"/>
     </row>
     <row r="622" ht="15.2" spans="7:11">
-      <c r="G622" s="16"/>
-      <c r="J622" s="17"/>
-      <c r="K622" s="18"/>
+      <c r="G622" s="13"/>
+      <c r="J622" s="14"/>
+      <c r="K622" s="15"/>
     </row>
     <row r="623" ht="15.2" spans="7:11">
-      <c r="G623" s="16"/>
-      <c r="J623" s="17"/>
-      <c r="K623" s="18"/>
+      <c r="G623" s="13"/>
+      <c r="J623" s="14"/>
+      <c r="K623" s="15"/>
     </row>
     <row r="624" ht="15.2" spans="7:11">
-      <c r="G624" s="16"/>
-      <c r="J624" s="17"/>
-      <c r="K624" s="18"/>
+      <c r="G624" s="13"/>
+      <c r="J624" s="14"/>
+      <c r="K624" s="15"/>
     </row>
     <row r="625" ht="15.2" spans="7:11">
-      <c r="G625" s="16"/>
-      <c r="J625" s="17"/>
-      <c r="K625" s="18"/>
+      <c r="G625" s="13"/>
+      <c r="J625" s="14"/>
+      <c r="K625" s="15"/>
     </row>
     <row r="626" ht="15.2" spans="7:11">
-      <c r="G626" s="16"/>
-      <c r="J626" s="17"/>
-      <c r="K626" s="18"/>
+      <c r="G626" s="13"/>
+      <c r="J626" s="14"/>
+      <c r="K626" s="15"/>
     </row>
     <row r="627" ht="15.2" spans="7:11">
-      <c r="G627" s="16"/>
-      <c r="J627" s="17"/>
-      <c r="K627" s="18"/>
+      <c r="G627" s="13"/>
+      <c r="J627" s="14"/>
+      <c r="K627" s="15"/>
     </row>
     <row r="628" ht="15.2" spans="7:11">
-      <c r="G628" s="16"/>
-      <c r="J628" s="17"/>
-      <c r="K628" s="18"/>
+      <c r="G628" s="13"/>
+      <c r="J628" s="14"/>
+      <c r="K628" s="15"/>
     </row>
     <row r="629" ht="15.2" spans="7:11">
-      <c r="G629" s="16"/>
-      <c r="J629" s="17"/>
-      <c r="K629" s="18"/>
+      <c r="G629" s="13"/>
+      <c r="J629" s="14"/>
+      <c r="K629" s="15"/>
     </row>
     <row r="630" ht="15.2" spans="7:11">
-      <c r="G630" s="16"/>
-      <c r="J630" s="17"/>
-      <c r="K630" s="18"/>
+      <c r="G630" s="13"/>
+      <c r="J630" s="14"/>
+      <c r="K630" s="15"/>
     </row>
     <row r="631" ht="15.2" spans="7:11">
-      <c r="G631" s="16"/>
-      <c r="J631" s="17"/>
-      <c r="K631" s="18"/>
+      <c r="G631" s="13"/>
+      <c r="J631" s="14"/>
+      <c r="K631" s="15"/>
     </row>
     <row r="632" ht="15.2" spans="7:11">
-      <c r="G632" s="16"/>
-      <c r="J632" s="17"/>
-      <c r="K632" s="18"/>
+      <c r="G632" s="13"/>
+      <c r="J632" s="14"/>
+      <c r="K632" s="15"/>
     </row>
     <row r="633" ht="15.2" spans="7:11">
-      <c r="G633" s="16"/>
-      <c r="J633" s="17"/>
-      <c r="K633" s="18"/>
+      <c r="G633" s="13"/>
+      <c r="J633" s="14"/>
+      <c r="K633" s="15"/>
     </row>
     <row r="634" ht="15.2" spans="7:11">
-      <c r="G634" s="16"/>
-      <c r="J634" s="17"/>
-      <c r="K634" s="18"/>
+      <c r="G634" s="13"/>
+      <c r="J634" s="14"/>
+      <c r="K634" s="15"/>
     </row>
     <row r="635" ht="15.2" spans="7:11">
-      <c r="G635" s="16"/>
-      <c r="J635" s="17"/>
-      <c r="K635" s="18"/>
+      <c r="G635" s="13"/>
+      <c r="J635" s="14"/>
+      <c r="K635" s="15"/>
     </row>
     <row r="636" ht="15.2" spans="7:11">
-      <c r="G636" s="16"/>
-      <c r="J636" s="17"/>
-      <c r="K636" s="18"/>
+      <c r="G636" s="13"/>
+      <c r="J636" s="14"/>
+      <c r="K636" s="15"/>
     </row>
     <row r="637" ht="15.2" spans="7:11">
-      <c r="G637" s="16"/>
-      <c r="J637" s="17"/>
-      <c r="K637" s="18"/>
+      <c r="G637" s="13"/>
+      <c r="J637" s="14"/>
+      <c r="K637" s="15"/>
     </row>
     <row r="638" ht="15.2" spans="7:11">
-      <c r="G638" s="16"/>
-      <c r="J638" s="17"/>
-      <c r="K638" s="18"/>
+      <c r="G638" s="13"/>
+      <c r="J638" s="14"/>
+      <c r="K638" s="15"/>
     </row>
     <row r="639" ht="15.2" spans="7:11">
-      <c r="G639" s="16"/>
-      <c r="J639" s="17"/>
-      <c r="K639" s="18"/>
+      <c r="G639" s="13"/>
+      <c r="J639" s="14"/>
+      <c r="K639" s="15"/>
     </row>
     <row r="640" ht="15.2" spans="7:11">
-      <c r="G640" s="16"/>
-      <c r="J640" s="17"/>
-      <c r="K640" s="18"/>
+      <c r="G640" s="13"/>
+      <c r="J640" s="14"/>
+      <c r="K640" s="15"/>
     </row>
     <row r="641" ht="15.2" spans="7:11">
-      <c r="G641" s="16"/>
-      <c r="J641" s="17"/>
-      <c r="K641" s="18"/>
+      <c r="G641" s="13"/>
+      <c r="J641" s="14"/>
+      <c r="K641" s="15"/>
     </row>
     <row r="642" ht="15.2" spans="7:11">
-      <c r="G642" s="16"/>
-      <c r="J642" s="17"/>
-      <c r="K642" s="18"/>
+      <c r="G642" s="13"/>
+      <c r="J642" s="14"/>
+      <c r="K642" s="15"/>
     </row>
     <row r="643" ht="15.2" spans="7:11">
-      <c r="G643" s="16"/>
-      <c r="J643" s="17"/>
-      <c r="K643" s="18"/>
+      <c r="G643" s="13"/>
+      <c r="J643" s="14"/>
+      <c r="K643" s="15"/>
     </row>
     <row r="644" ht="15.2" spans="7:11">
-      <c r="G644" s="16"/>
-      <c r="J644" s="17"/>
-      <c r="K644" s="18"/>
+      <c r="G644" s="13"/>
+      <c r="J644" s="14"/>
+      <c r="K644" s="15"/>
     </row>
     <row r="645" ht="15.2" spans="7:11">
-      <c r="G645" s="16"/>
-      <c r="J645" s="17"/>
-      <c r="K645" s="18"/>
+      <c r="G645" s="13"/>
+      <c r="J645" s="14"/>
+      <c r="K645" s="15"/>
     </row>
     <row r="646" ht="15.2" spans="7:11">
-      <c r="G646" s="16"/>
-      <c r="J646" s="17"/>
-      <c r="K646" s="18"/>
+      <c r="G646" s="13"/>
+      <c r="J646" s="14"/>
+      <c r="K646" s="15"/>
     </row>
     <row r="647" ht="15.2" spans="7:11">
-      <c r="G647" s="16"/>
-      <c r="J647" s="17"/>
-      <c r="K647" s="18"/>
+      <c r="G647" s="13"/>
+      <c r="J647" s="14"/>
+      <c r="K647" s="15"/>
     </row>
     <row r="648" ht="15.2" spans="7:11">
-      <c r="G648" s="16"/>
-      <c r="J648" s="17"/>
-      <c r="K648" s="18"/>
+      <c r="G648" s="13"/>
+      <c r="J648" s="14"/>
+      <c r="K648" s="15"/>
     </row>
     <row r="649" ht="15.2" spans="7:11">
-      <c r="G649" s="16"/>
-      <c r="J649" s="17"/>
-      <c r="K649" s="18"/>
+      <c r="G649" s="13"/>
+      <c r="J649" s="14"/>
+      <c r="K649" s="15"/>
     </row>
     <row r="650" ht="15.2" spans="7:11">
-      <c r="G650" s="16"/>
-      <c r="J650" s="17"/>
-      <c r="K650" s="18"/>
+      <c r="G650" s="13"/>
+      <c r="J650" s="14"/>
+      <c r="K650" s="15"/>
     </row>
     <row r="651" ht="15.2" spans="7:11">
-      <c r="G651" s="16"/>
-      <c r="J651" s="17"/>
-      <c r="K651" s="18"/>
+      <c r="G651" s="13"/>
+      <c r="J651" s="14"/>
+      <c r="K651" s="15"/>
     </row>
     <row r="652" ht="15.2" spans="7:11">
-      <c r="G652" s="16"/>
-      <c r="J652" s="17"/>
-      <c r="K652" s="18"/>
+      <c r="G652" s="13"/>
+      <c r="J652" s="14"/>
+      <c r="K652" s="15"/>
     </row>
     <row r="653" ht="15.2" spans="7:11">
-      <c r="G653" s="16"/>
-      <c r="J653" s="17"/>
-      <c r="K653" s="18"/>
+      <c r="G653" s="13"/>
+      <c r="J653" s="14"/>
+      <c r="K653" s="15"/>
     </row>
     <row r="654" ht="15.2" spans="7:11">
-      <c r="G654" s="16"/>
-      <c r="J654" s="17"/>
-      <c r="K654" s="18"/>
+      <c r="G654" s="13"/>
+      <c r="J654" s="14"/>
+      <c r="K654" s="15"/>
     </row>
     <row r="655" ht="15.2" spans="7:11">
-      <c r="G655" s="16"/>
-      <c r="J655" s="17"/>
-      <c r="K655" s="18"/>
+      <c r="G655" s="13"/>
+      <c r="J655" s="14"/>
+      <c r="K655" s="15"/>
     </row>
     <row r="656" ht="15.2" spans="7:11">
-      <c r="G656" s="16"/>
-      <c r="J656" s="17"/>
-      <c r="K656" s="18"/>
+      <c r="G656" s="13"/>
+      <c r="J656" s="14"/>
+      <c r="K656" s="15"/>
     </row>
     <row r="657" ht="15.2" spans="7:11">
-      <c r="G657" s="16"/>
-      <c r="J657" s="17"/>
-      <c r="K657" s="18"/>
+      <c r="G657" s="13"/>
+      <c r="J657" s="14"/>
+      <c r="K657" s="15"/>
     </row>
     <row r="658" ht="15.2" spans="7:11">
-      <c r="G658" s="16"/>
-      <c r="J658" s="17"/>
-      <c r="K658" s="18"/>
+      <c r="G658" s="13"/>
+      <c r="J658" s="14"/>
+      <c r="K658" s="15"/>
     </row>
     <row r="659" ht="15.2" spans="7:11">
-      <c r="G659" s="16"/>
-      <c r="J659" s="17"/>
-      <c r="K659" s="18"/>
+      <c r="G659" s="13"/>
+      <c r="J659" s="14"/>
+      <c r="K659" s="15"/>
     </row>
     <row r="660" ht="15.2" spans="7:11">
-      <c r="G660" s="16"/>
-      <c r="J660" s="17"/>
-      <c r="K660" s="18"/>
+      <c r="G660" s="13"/>
+      <c r="J660" s="14"/>
+      <c r="K660" s="15"/>
     </row>
     <row r="661" ht="15.2" spans="7:11">
-      <c r="G661" s="16"/>
-      <c r="J661" s="17"/>
-      <c r="K661" s="18"/>
+      <c r="G661" s="13"/>
+      <c r="J661" s="14"/>
+      <c r="K661" s="15"/>
     </row>
     <row r="662" ht="15.2" spans="7:11">
-      <c r="G662" s="16"/>
-      <c r="J662" s="17"/>
-      <c r="K662" s="18"/>
+      <c r="G662" s="13"/>
+      <c r="J662" s="14"/>
+      <c r="K662" s="15"/>
     </row>
     <row r="663" ht="15.2" spans="7:11">
-      <c r="G663" s="16"/>
-      <c r="J663" s="17"/>
-      <c r="K663" s="18"/>
+      <c r="G663" s="13"/>
+      <c r="J663" s="14"/>
+      <c r="K663" s="15"/>
     </row>
     <row r="664" ht="15.2" spans="7:11">
-      <c r="G664" s="16"/>
-      <c r="J664" s="17"/>
-      <c r="K664" s="18"/>
+      <c r="G664" s="13"/>
+      <c r="J664" s="14"/>
+      <c r="K664" s="15"/>
     </row>
     <row r="665" ht="15.2" spans="7:11">
-      <c r="G665" s="16"/>
-      <c r="J665" s="17"/>
-      <c r="K665" s="18"/>
+      <c r="G665" s="13"/>
+      <c r="J665" s="14"/>
+      <c r="K665" s="15"/>
     </row>
     <row r="666" ht="15.2" spans="7:11">
-      <c r="G666" s="16"/>
-      <c r="J666" s="17"/>
-      <c r="K666" s="18"/>
+      <c r="G666" s="13"/>
+      <c r="J666" s="14"/>
+      <c r="K666" s="15"/>
     </row>
     <row r="667" ht="15.2" spans="7:11">
-      <c r="G667" s="16"/>
-      <c r="J667" s="17"/>
-      <c r="K667" s="18"/>
+      <c r="G667" s="13"/>
+      <c r="J667" s="14"/>
+      <c r="K667" s="15"/>
     </row>
     <row r="668" ht="15.2" spans="7:11">
-      <c r="G668" s="16"/>
-      <c r="J668" s="17"/>
-      <c r="K668" s="18"/>
+      <c r="G668" s="13"/>
+      <c r="J668" s="14"/>
+      <c r="K668" s="15"/>
     </row>
     <row r="669" ht="15.2" spans="7:11">
-      <c r="G669" s="16"/>
-      <c r="J669" s="17"/>
-      <c r="K669" s="18"/>
+      <c r="G669" s="13"/>
+      <c r="J669" s="14"/>
+      <c r="K669" s="15"/>
     </row>
     <row r="670" ht="15.2" spans="7:11">
-      <c r="G670" s="16"/>
-      <c r="J670" s="17"/>
-      <c r="K670" s="18"/>
+      <c r="G670" s="13"/>
+      <c r="J670" s="14"/>
+      <c r="K670" s="15"/>
     </row>
     <row r="671" ht="15.2" spans="7:11">
-      <c r="G671" s="16"/>
-      <c r="J671" s="17"/>
-      <c r="K671" s="18"/>
+      <c r="G671" s="13"/>
+      <c r="J671" s="14"/>
+      <c r="K671" s="15"/>
     </row>
     <row r="672" ht="15.2" spans="7:11">
-      <c r="G672" s="16"/>
-      <c r="J672" s="17"/>
-      <c r="K672" s="18"/>
+      <c r="G672" s="13"/>
+      <c r="J672" s="14"/>
+      <c r="K672" s="15"/>
     </row>
     <row r="673" ht="15.2" spans="7:11">
-      <c r="G673" s="16"/>
-      <c r="J673" s="17"/>
-      <c r="K673" s="18"/>
+      <c r="G673" s="13"/>
+      <c r="J673" s="14"/>
+      <c r="K673" s="15"/>
     </row>
     <row r="674" ht="15.2" spans="7:11">
-      <c r="G674" s="16"/>
-      <c r="J674" s="17"/>
-      <c r="K674" s="18"/>
+      <c r="G674" s="13"/>
+      <c r="J674" s="14"/>
+      <c r="K674" s="15"/>
     </row>
     <row r="675" ht="15.2" spans="7:11">
-      <c r="G675" s="16"/>
-      <c r="J675" s="17"/>
-      <c r="K675" s="18"/>
+      <c r="G675" s="13"/>
+      <c r="J675" s="14"/>
+      <c r="K675" s="15"/>
     </row>
     <row r="676" ht="15.2" spans="7:11">
-      <c r="G676" s="16"/>
-      <c r="J676" s="17"/>
-      <c r="K676" s="18"/>
+      <c r="G676" s="13"/>
+      <c r="J676" s="14"/>
+      <c r="K676" s="15"/>
     </row>
     <row r="677" ht="15.2" spans="7:11">
-      <c r="G677" s="16"/>
-      <c r="J677" s="17"/>
-      <c r="K677" s="18"/>
+      <c r="G677" s="13"/>
+      <c r="J677" s="14"/>
+      <c r="K677" s="15"/>
     </row>
     <row r="678" ht="15.2" spans="7:11">
-      <c r="G678" s="16"/>
-      <c r="J678" s="17"/>
-      <c r="K678" s="18"/>
+      <c r="G678" s="13"/>
+      <c r="J678" s="14"/>
+      <c r="K678" s="15"/>
     </row>
     <row r="679" ht="15.2" spans="7:11">
-      <c r="G679" s="16"/>
-      <c r="J679" s="17"/>
-      <c r="K679" s="18"/>
+      <c r="G679" s="13"/>
+      <c r="J679" s="14"/>
+      <c r="K679" s="15"/>
     </row>
     <row r="680" ht="15.2" spans="7:11">
-      <c r="G680" s="16"/>
-      <c r="J680" s="17"/>
-      <c r="K680" s="18"/>
+      <c r="G680" s="13"/>
+      <c r="J680" s="14"/>
+      <c r="K680" s="15"/>
     </row>
     <row r="681" ht="15.2" spans="7:11">
-      <c r="G681" s="16"/>
-      <c r="J681" s="17"/>
-      <c r="K681" s="18"/>
+      <c r="G681" s="13"/>
+      <c r="J681" s="14"/>
+      <c r="K681" s="15"/>
     </row>
     <row r="682" ht="15.2" spans="7:11">
-      <c r="G682" s="16"/>
-      <c r="J682" s="17"/>
-      <c r="K682" s="18"/>
+      <c r="G682" s="13"/>
+      <c r="J682" s="14"/>
+      <c r="K682" s="15"/>
     </row>
     <row r="683" ht="15.2" spans="7:11">
-      <c r="G683" s="16"/>
-      <c r="J683" s="17"/>
-      <c r="K683" s="18"/>
+      <c r="G683" s="13"/>
+      <c r="J683" s="14"/>
+      <c r="K683" s="15"/>
     </row>
     <row r="684" ht="15.2" spans="7:11">
-      <c r="G684" s="16"/>
-      <c r="J684" s="17"/>
-      <c r="K684" s="18"/>
+      <c r="G684" s="13"/>
+      <c r="J684" s="14"/>
+      <c r="K684" s="15"/>
     </row>
     <row r="685" ht="15.2" spans="7:11">
-      <c r="G685" s="16"/>
-      <c r="J685" s="17"/>
-      <c r="K685" s="18"/>
+      <c r="G685" s="13"/>
+      <c r="J685" s="14"/>
+      <c r="K685" s="15"/>
     </row>
     <row r="686" ht="15.2" spans="7:11">
-      <c r="G686" s="16"/>
-      <c r="J686" s="17"/>
-      <c r="K686" s="18"/>
+      <c r="G686" s="13"/>
+      <c r="J686" s="14"/>
+      <c r="K686" s="15"/>
     </row>
     <row r="687" ht="15.2" spans="7:11">
-      <c r="G687" s="16"/>
-      <c r="J687" s="17"/>
-      <c r="K687" s="18"/>
+      <c r="G687" s="13"/>
+      <c r="J687" s="14"/>
+      <c r="K687" s="15"/>
     </row>
     <row r="688" ht="15.2" spans="7:11">
-      <c r="G688" s="16"/>
-      <c r="J688" s="17"/>
-      <c r="K688" s="18"/>
+      <c r="G688" s="13"/>
+      <c r="J688" s="14"/>
+      <c r="K688" s="15"/>
     </row>
     <row r="689" ht="15.2" spans="7:11">
-      <c r="G689" s="16"/>
-      <c r="J689" s="17"/>
-      <c r="K689" s="18"/>
+      <c r="G689" s="13"/>
+      <c r="J689" s="14"/>
+      <c r="K689" s="15"/>
     </row>
     <row r="690" ht="15.2" spans="7:11">
-      <c r="G690" s="16"/>
-      <c r="J690" s="17"/>
-      <c r="K690" s="18"/>
+      <c r="G690" s="13"/>
+      <c r="J690" s="14"/>
+      <c r="K690" s="15"/>
     </row>
     <row r="691" ht="15.2" spans="7:11">
-      <c r="G691" s="16"/>
-      <c r="J691" s="17"/>
-      <c r="K691" s="18"/>
+      <c r="G691" s="13"/>
+      <c r="J691" s="14"/>
+      <c r="K691" s="15"/>
     </row>
     <row r="692" ht="15.2" spans="7:11">
-      <c r="G692" s="16"/>
-      <c r="J692" s="17"/>
-      <c r="K692" s="18"/>
+      <c r="G692" s="13"/>
+      <c r="J692" s="14"/>
+      <c r="K692" s="15"/>
     </row>
     <row r="693" ht="15.2" spans="7:11">
-      <c r="G693" s="16"/>
-      <c r="J693" s="17"/>
-      <c r="K693" s="18"/>
+      <c r="G693" s="13"/>
+      <c r="J693" s="14"/>
+      <c r="K693" s="15"/>
     </row>
     <row r="694" ht="15.2" spans="7:11">
-      <c r="G694" s="16"/>
-      <c r="J694" s="17"/>
-      <c r="K694" s="18"/>
+      <c r="G694" s="13"/>
+      <c r="J694" s="14"/>
+      <c r="K694" s="15"/>
     </row>
     <row r="695" ht="15.2" spans="7:11">
-      <c r="G695" s="16"/>
-      <c r="J695" s="17"/>
-      <c r="K695" s="18"/>
+      <c r="G695" s="13"/>
+      <c r="J695" s="14"/>
+      <c r="K695" s="15"/>
     </row>
     <row r="696" ht="15.2" spans="7:11">
-      <c r="G696" s="16"/>
-      <c r="J696" s="17"/>
-      <c r="K696" s="18"/>
+      <c r="G696" s="13"/>
+      <c r="J696" s="14"/>
+      <c r="K696" s="15"/>
     </row>
     <row r="697" ht="15.2" spans="7:11">
-      <c r="G697" s="16"/>
-      <c r="J697" s="17"/>
-      <c r="K697" s="18"/>
+      <c r="G697" s="13"/>
+      <c r="J697" s="14"/>
+      <c r="K697" s="15"/>
     </row>
     <row r="698" ht="15.2" spans="7:11">
-      <c r="G698" s="16"/>
-      <c r="J698" s="17"/>
-      <c r="K698" s="18"/>
+      <c r="G698" s="13"/>
+      <c r="J698" s="14"/>
+      <c r="K698" s="15"/>
     </row>
     <row r="699" ht="15.2" spans="7:11">
-      <c r="G699" s="16"/>
-      <c r="J699" s="17"/>
-      <c r="K699" s="18"/>
+      <c r="G699" s="13"/>
+      <c r="J699" s="14"/>
+      <c r="K699" s="15"/>
     </row>
     <row r="700" ht="15.2" spans="7:11">
-      <c r="G700" s="16"/>
-      <c r="J700" s="17"/>
-      <c r="K700" s="18"/>
+      <c r="G700" s="13"/>
+      <c r="J700" s="14"/>
+      <c r="K700" s="15"/>
     </row>
     <row r="701" ht="15.2" spans="7:11">
-      <c r="G701" s="16"/>
-      <c r="J701" s="17"/>
-      <c r="K701" s="18"/>
+      <c r="G701" s="13"/>
+      <c r="J701" s="14"/>
+      <c r="K701" s="15"/>
     </row>
     <row r="702" ht="15.2" spans="7:11">
-      <c r="G702" s="16"/>
-      <c r="J702" s="17"/>
-      <c r="K702" s="18"/>
+      <c r="G702" s="13"/>
+      <c r="J702" s="14"/>
+      <c r="K702" s="15"/>
     </row>
     <row r="703" ht="15.2" spans="7:11">
-      <c r="G703" s="16"/>
-      <c r="J703" s="17"/>
-      <c r="K703" s="18"/>
+      <c r="G703" s="13"/>
+      <c r="J703" s="14"/>
+      <c r="K703" s="15"/>
     </row>
     <row r="704" ht="15.2" spans="7:11">
-      <c r="G704" s="16"/>
-      <c r="J704" s="17"/>
-      <c r="K704" s="18"/>
+      <c r="G704" s="13"/>
+      <c r="J704" s="14"/>
+      <c r="K704" s="15"/>
     </row>
     <row r="705" ht="15.2" spans="7:11">
-      <c r="G705" s="16"/>
-      <c r="J705" s="17"/>
-      <c r="K705" s="18"/>
+      <c r="G705" s="13"/>
+      <c r="J705" s="14"/>
+      <c r="K705" s="15"/>
     </row>
     <row r="706" ht="15.2" spans="7:11">
-      <c r="G706" s="16"/>
-      <c r="J706" s="17"/>
-      <c r="K706" s="18"/>
+      <c r="G706" s="13"/>
+      <c r="J706" s="14"/>
+      <c r="K706" s="15"/>
     </row>
     <row r="707" ht="15.2" spans="7:11">
-      <c r="G707" s="16"/>
-      <c r="J707" s="17"/>
-      <c r="K707" s="18"/>
+      <c r="G707" s="13"/>
+      <c r="J707" s="14"/>
+      <c r="K707" s="15"/>
     </row>
     <row r="708" ht="15.2" spans="7:11">
-      <c r="G708" s="16"/>
-      <c r="J708" s="17"/>
-      <c r="K708" s="18"/>
+      <c r="G708" s="13"/>
+      <c r="J708" s="14"/>
+      <c r="K708" s="15"/>
     </row>
     <row r="709" ht="15.2" spans="7:11">
-      <c r="G709" s="16"/>
-      <c r="J709" s="17"/>
-      <c r="K709" s="18"/>
+      <c r="G709" s="13"/>
+      <c r="J709" s="14"/>
+      <c r="K709" s="15"/>
     </row>
     <row r="710" ht="15.2" spans="7:11">
-      <c r="G710" s="16"/>
-      <c r="J710" s="17"/>
-      <c r="K710" s="18"/>
+      <c r="G710" s="13"/>
+      <c r="J710" s="14"/>
+      <c r="K710" s="15"/>
     </row>
     <row r="711" ht="15.2" spans="7:11">
-      <c r="G711" s="16"/>
-      <c r="J711" s="17"/>
-      <c r="K711" s="18"/>
+      <c r="G711" s="13"/>
+      <c r="J711" s="14"/>
+      <c r="K711" s="15"/>
     </row>
     <row r="712" ht="15.2" spans="7:11">
-      <c r="G712" s="16"/>
-      <c r="J712" s="17"/>
-      <c r="K712" s="18"/>
+      <c r="G712" s="13"/>
+      <c r="J712" s="14"/>
+      <c r="K712" s="15"/>
     </row>
     <row r="713" ht="15.2" spans="7:11">
-      <c r="G713" s="16"/>
-      <c r="J713" s="17"/>
-      <c r="K713" s="18"/>
+      <c r="G713" s="13"/>
+      <c r="J713" s="14"/>
+      <c r="K713" s="15"/>
     </row>
     <row r="714" ht="15.2" spans="7:11">
-      <c r="G714" s="16"/>
-      <c r="J714" s="17"/>
-      <c r="K714" s="18"/>
+      <c r="G714" s="13"/>
+      <c r="J714" s="14"/>
+      <c r="K714" s="15"/>
     </row>
     <row r="715" ht="15.2" spans="7:11">
-      <c r="G715" s="16"/>
-      <c r="J715" s="17"/>
-      <c r="K715" s="18"/>
+      <c r="G715" s="13"/>
+      <c r="J715" s="14"/>
+      <c r="K715" s="15"/>
     </row>
     <row r="716" ht="15.2" spans="7:11">
-      <c r="G716" s="16"/>
-      <c r="J716" s="17"/>
-      <c r="K716" s="18"/>
+      <c r="G716" s="13"/>
+      <c r="J716" s="14"/>
+      <c r="K716" s="15"/>
     </row>
     <row r="717" ht="15.2" spans="7:11">
-      <c r="G717" s="16"/>
-      <c r="J717" s="17"/>
-      <c r="K717" s="18"/>
+      <c r="G717" s="13"/>
+      <c r="J717" s="14"/>
+      <c r="K717" s="15"/>
     </row>
     <row r="718" ht="15.2" spans="7:11">
-      <c r="G718" s="16"/>
-      <c r="J718" s="17"/>
-      <c r="K718" s="18"/>
+      <c r="G718" s="13"/>
+      <c r="J718" s="14"/>
+      <c r="K718" s="15"/>
     </row>
     <row r="719" ht="15.2" spans="7:11">
-      <c r="G719" s="16"/>
-      <c r="J719" s="17"/>
-      <c r="K719" s="18"/>
+      <c r="G719" s="13"/>
+      <c r="J719" s="14"/>
+      <c r="K719" s="15"/>
     </row>
     <row r="720" ht="15.2" spans="7:11">
-      <c r="G720" s="16"/>
-      <c r="J720" s="17"/>
-      <c r="K720" s="18"/>
+      <c r="G720" s="13"/>
+      <c r="J720" s="14"/>
+      <c r="K720" s="15"/>
     </row>
     <row r="721" ht="15.2" spans="7:11">
-      <c r="G721" s="16"/>
-      <c r="J721" s="17"/>
-      <c r="K721" s="18"/>
+      <c r="G721" s="13"/>
+      <c r="J721" s="14"/>
+      <c r="K721" s="15"/>
     </row>
     <row r="722" ht="15.2" spans="7:11">
-      <c r="G722" s="16"/>
-      <c r="J722" s="17"/>
-      <c r="K722" s="18"/>
+      <c r="G722" s="13"/>
+      <c r="J722" s="14"/>
+      <c r="K722" s="15"/>
     </row>
     <row r="723" ht="15.2" spans="7:11">
-      <c r="G723" s="16"/>
-      <c r="J723" s="17"/>
-      <c r="K723" s="18"/>
+      <c r="G723" s="13"/>
+      <c r="J723" s="14"/>
+      <c r="K723" s="15"/>
     </row>
     <row r="724" ht="15.2" spans="7:11">
-      <c r="G724" s="16"/>
-      <c r="J724" s="17"/>
-      <c r="K724" s="18"/>
+      <c r="G724" s="13"/>
+      <c r="J724" s="14"/>
+      <c r="K724" s="15"/>
     </row>
     <row r="725" ht="15.2" spans="7:11">
-      <c r="G725" s="16"/>
-      <c r="J725" s="17"/>
-      <c r="K725" s="18"/>
+      <c r="G725" s="13"/>
+      <c r="J725" s="14"/>
+      <c r="K725" s="15"/>
     </row>
     <row r="726" ht="15.2" spans="7:11">
-      <c r="G726" s="16"/>
-      <c r="J726" s="17"/>
-      <c r="K726" s="18"/>
+      <c r="G726" s="13"/>
+      <c r="J726" s="14"/>
+      <c r="K726" s="15"/>
     </row>
     <row r="727" ht="15.2" spans="7:11">
-      <c r="G727" s="16"/>
-      <c r="J727" s="17"/>
-      <c r="K727" s="18"/>
+      <c r="G727" s="13"/>
+      <c r="J727" s="14"/>
+      <c r="K727" s="15"/>
     </row>
     <row r="728" ht="15.2" spans="7:11">
-      <c r="G728" s="16"/>
-      <c r="J728" s="17"/>
-      <c r="K728" s="18"/>
+      <c r="G728" s="13"/>
+      <c r="J728" s="14"/>
+      <c r="K728" s="15"/>
     </row>
     <row r="729" ht="15.2" spans="7:11">
-      <c r="G729" s="16"/>
-      <c r="J729" s="17"/>
-      <c r="K729" s="18"/>
+      <c r="G729" s="13"/>
+      <c r="J729" s="14"/>
+      <c r="K729" s="15"/>
     </row>
     <row r="730" ht="15.2" spans="7:11">
-      <c r="G730" s="16"/>
-      <c r="J730" s="17"/>
-      <c r="K730" s="18"/>
+      <c r="G730" s="13"/>
+      <c r="J730" s="14"/>
+      <c r="K730" s="15"/>
     </row>
     <row r="731" ht="15.2" spans="7:11">
-      <c r="G731" s="16"/>
-      <c r="J731" s="17"/>
-      <c r="K731" s="18"/>
+      <c r="G731" s="13"/>
+      <c r="J731" s="14"/>
+      <c r="K731" s="15"/>
     </row>
     <row r="732" ht="15.2" spans="7:11">
-      <c r="G732" s="16"/>
-      <c r="J732" s="17"/>
-      <c r="K732" s="18"/>
+      <c r="G732" s="13"/>
+      <c r="J732" s="14"/>
+      <c r="K732" s="15"/>
     </row>
     <row r="733" ht="15.2" spans="7:11">
-      <c r="G733" s="16"/>
-      <c r="J733" s="17"/>
-      <c r="K733" s="18"/>
+      <c r="G733" s="13"/>
+      <c r="J733" s="14"/>
+      <c r="K733" s="15"/>
     </row>
     <row r="734" ht="15.2" spans="7:11">
-      <c r="G734" s="16"/>
-      <c r="J734" s="17"/>
-      <c r="K734" s="18"/>
+      <c r="G734" s="13"/>
+      <c r="J734" s="14"/>
+      <c r="K734" s="15"/>
     </row>
     <row r="735" ht="15.2" spans="7:11">
-      <c r="G735" s="16"/>
-      <c r="J735" s="17"/>
-      <c r="K735" s="18"/>
+      <c r="G735" s="13"/>
+      <c r="J735" s="14"/>
+      <c r="K735" s="15"/>
     </row>
     <row r="736" ht="15.2" spans="7:11">
-      <c r="G736" s="16"/>
-      <c r="J736" s="17"/>
-      <c r="K736" s="18"/>
+      <c r="G736" s="13"/>
+      <c r="J736" s="14"/>
+      <c r="K736" s="15"/>
     </row>
     <row r="737" ht="15.2" spans="7:11">
-      <c r="G737" s="16"/>
-      <c r="J737" s="17"/>
-      <c r="K737" s="18"/>
+      <c r="G737" s="13"/>
+      <c r="J737" s="14"/>
+      <c r="K737" s="15"/>
     </row>
     <row r="738" ht="15.2" spans="7:11">
-      <c r="G738" s="16"/>
-      <c r="J738" s="17"/>
-      <c r="K738" s="18"/>
+      <c r="G738" s="13"/>
+      <c r="J738" s="14"/>
+      <c r="K738" s="15"/>
     </row>
     <row r="739" ht="15.2" spans="7:11">
-      <c r="G739" s="16"/>
-      <c r="J739" s="17"/>
-      <c r="K739" s="18"/>
+      <c r="G739" s="13"/>
+      <c r="J739" s="14"/>
+      <c r="K739" s="15"/>
     </row>
     <row r="740" ht="15.2" spans="7:11">
-      <c r="G740" s="16"/>
-      <c r="J740" s="17"/>
-      <c r="K740" s="18"/>
+      <c r="G740" s="13"/>
+      <c r="J740" s="14"/>
+      <c r="K740" s="15"/>
     </row>
     <row r="741" ht="15.2" spans="7:11">
-      <c r="G741" s="16"/>
-      <c r="J741" s="17"/>
-      <c r="K741" s="18"/>
+      <c r="G741" s="13"/>
+      <c r="J741" s="14"/>
+      <c r="K741" s="15"/>
     </row>
     <row r="742" ht="15.2" spans="7:11">
-      <c r="G742" s="16"/>
-      <c r="J742" s="17"/>
-      <c r="K742" s="18"/>
+      <c r="G742" s="13"/>
+      <c r="J742" s="14"/>
+      <c r="K742" s="15"/>
     </row>
     <row r="743" ht="15.2" spans="7:11">
-      <c r="G743" s="16"/>
-      <c r="J743" s="17"/>
-      <c r="K743" s="18"/>
+      <c r="G743" s="13"/>
+      <c r="J743" s="14"/>
+      <c r="K743" s="15"/>
     </row>
     <row r="744" ht="15.2" spans="7:11">
-      <c r="G744" s="16"/>
-      <c r="J744" s="17"/>
-      <c r="K744" s="18"/>
+      <c r="G744" s="13"/>
+      <c r="J744" s="14"/>
+      <c r="K744" s="15"/>
     </row>
     <row r="745" ht="15.2" spans="7:11">
-      <c r="G745" s="16"/>
-      <c r="J745" s="17"/>
-      <c r="K745" s="18"/>
+      <c r="G745" s="13"/>
+      <c r="J745" s="14"/>
+      <c r="K745" s="15"/>
     </row>
     <row r="746" ht="15.2" spans="7:11">
-      <c r="G746" s="16"/>
-      <c r="J746" s="17"/>
-      <c r="K746" s="18"/>
+      <c r="G746" s="13"/>
+      <c r="J746" s="14"/>
+      <c r="K746" s="15"/>
     </row>
     <row r="747" ht="15.2" spans="7:11">
-      <c r="G747" s="16"/>
-      <c r="J747" s="17"/>
-      <c r="K747" s="18"/>
+      <c r="G747" s="13"/>
+      <c r="J747" s="14"/>
+      <c r="K747" s="15"/>
     </row>
     <row r="748" ht="15.2" spans="7:11">
-      <c r="G748" s="16"/>
-      <c r="J748" s="17"/>
-      <c r="K748" s="18"/>
+      <c r="G748" s="13"/>
+      <c r="J748" s="14"/>
+      <c r="K748" s="15"/>
     </row>
     <row r="749" ht="15.2" spans="7:11">
-      <c r="G749" s="16"/>
-      <c r="J749" s="17"/>
-      <c r="K749" s="18"/>
+      <c r="G749" s="13"/>
+      <c r="J749" s="14"/>
+      <c r="K749" s="15"/>
     </row>
     <row r="750" ht="15.2" spans="7:11">
-      <c r="G750" s="16"/>
-      <c r="J750" s="17"/>
-      <c r="K750" s="18"/>
+      <c r="G750" s="13"/>
+      <c r="J750" s="14"/>
+      <c r="K750" s="15"/>
     </row>
     <row r="751" ht="15.2" spans="7:11">
-      <c r="G751" s="16"/>
-      <c r="J751" s="17"/>
-      <c r="K751" s="18"/>
+      <c r="G751" s="13"/>
+      <c r="J751" s="14"/>
+      <c r="K751" s="15"/>
     </row>
     <row r="752" ht="15.2" spans="7:11">
-      <c r="G752" s="16"/>
-      <c r="J752" s="17"/>
-      <c r="K752" s="18"/>
+      <c r="G752" s="13"/>
+      <c r="J752" s="14"/>
+      <c r="K752" s="15"/>
     </row>
     <row r="753" ht="15.2" spans="7:11">
-      <c r="G753" s="16"/>
-      <c r="J753" s="17"/>
-      <c r="K753" s="18"/>
+      <c r="G753" s="13"/>
+      <c r="J753" s="14"/>
+      <c r="K753" s="15"/>
     </row>
     <row r="754" ht="15.2" spans="7:11">
-      <c r="G754" s="16"/>
-      <c r="J754" s="17"/>
-      <c r="K754" s="18"/>
+      <c r="G754" s="13"/>
+      <c r="J754" s="14"/>
+      <c r="K754" s="15"/>
     </row>
     <row r="755" ht="15.2" spans="7:11">
-      <c r="G755" s="16"/>
-      <c r="J755" s="17"/>
-      <c r="K755" s="18"/>
+      <c r="G755" s="13"/>
+      <c r="J755" s="14"/>
+      <c r="K755" s="15"/>
     </row>
     <row r="756" ht="15.2" spans="7:11">
-      <c r="G756" s="16"/>
-      <c r="J756" s="17"/>
-      <c r="K756" s="18"/>
+      <c r="G756" s="13"/>
+      <c r="J756" s="14"/>
+      <c r="K756" s="15"/>
     </row>
     <row r="757" ht="15.2" spans="7:11">
-      <c r="G757" s="16"/>
-      <c r="J757" s="17"/>
-      <c r="K757" s="18"/>
+      <c r="G757" s="13"/>
+      <c r="J757" s="14"/>
+      <c r="K757" s="15"/>
     </row>
     <row r="758" ht="15.2" spans="7:11">
-      <c r="G758" s="16"/>
-      <c r="J758" s="17"/>
-      <c r="K758" s="18"/>
+      <c r="G758" s="13"/>
+      <c r="J758" s="14"/>
+      <c r="K758" s="15"/>
     </row>
     <row r="759" ht="15.2" spans="7:11">
-      <c r="G759" s="16"/>
-      <c r="J759" s="17"/>
-      <c r="K759" s="18"/>
+      <c r="G759" s="13"/>
+      <c r="J759" s="14"/>
+      <c r="K759" s="15"/>
     </row>
     <row r="760" ht="15.2" spans="7:11">
-      <c r="G760" s="16"/>
-      <c r="J760" s="17"/>
-      <c r="K760" s="18"/>
+      <c r="G760" s="13"/>
+      <c r="J760" s="14"/>
+      <c r="K760" s="15"/>
     </row>
     <row r="761" ht="15.2" spans="7:11">
-      <c r="G761" s="16"/>
-      <c r="J761" s="17"/>
-      <c r="K761" s="18"/>
+      <c r="G761" s="13"/>
+      <c r="J761" s="14"/>
+      <c r="K761" s="15"/>
     </row>
     <row r="762" ht="15.2" spans="7:11">
-      <c r="G762" s="16"/>
-      <c r="J762" s="17"/>
-      <c r="K762" s="18"/>
+      <c r="G762" s="13"/>
+      <c r="J762" s="14"/>
+      <c r="K762" s="15"/>
     </row>
     <row r="763" ht="15.2" spans="7:11">
-      <c r="G763" s="16"/>
-      <c r="J763" s="17"/>
-      <c r="K763" s="18"/>
+      <c r="G763" s="13"/>
+      <c r="J763" s="14"/>
+      <c r="K763" s="15"/>
     </row>
     <row r="764" ht="15.2" spans="7:11">
-      <c r="G764" s="16"/>
-      <c r="J764" s="17"/>
-      <c r="K764" s="18"/>
+      <c r="G764" s="13"/>
+      <c r="J764" s="14"/>
+      <c r="K764" s="15"/>
     </row>
     <row r="765" ht="15.2" spans="7:11">
-      <c r="G765" s="16"/>
-      <c r="J765" s="17"/>
-      <c r="K765" s="18"/>
+      <c r="G765" s="13"/>
+      <c r="J765" s="14"/>
+      <c r="K765" s="15"/>
     </row>
     <row r="766" ht="15.2" spans="7:11">
-      <c r="G766" s="16"/>
-      <c r="J766" s="17"/>
-      <c r="K766" s="18"/>
+      <c r="G766" s="13"/>
+      <c r="J766" s="14"/>
+      <c r="K766" s="15"/>
     </row>
     <row r="767" ht="15.2" spans="7:11">
-      <c r="G767" s="16"/>
-      <c r="J767" s="17"/>
-      <c r="K767" s="18"/>
+      <c r="G767" s="13"/>
+      <c r="J767" s="14"/>
+      <c r="K767" s="15"/>
     </row>
     <row r="768" ht="15.2" spans="7:11">
-      <c r="G768" s="16"/>
-      <c r="J768" s="17"/>
-      <c r="K768" s="18"/>
+      <c r="G768" s="13"/>
+      <c r="J768" s="14"/>
+      <c r="K768" s="15"/>
     </row>
     <row r="769" ht="15.2" spans="7:11">
-      <c r="G769" s="16"/>
-      <c r="J769" s="17"/>
-      <c r="K769" s="18"/>
+      <c r="G769" s="13"/>
+      <c r="J769" s="14"/>
+      <c r="K769" s="15"/>
     </row>
     <row r="770" ht="15.2" spans="7:11">
-      <c r="G770" s="16"/>
-      <c r="J770" s="17"/>
-      <c r="K770" s="18"/>
+      <c r="G770" s="13"/>
+      <c r="J770" s="14"/>
+      <c r="K770" s="15"/>
     </row>
     <row r="771" ht="15.2" spans="7:11">
-      <c r="G771" s="16"/>
-      <c r="J771" s="17"/>
-      <c r="K771" s="18"/>
+      <c r="G771" s="13"/>
+      <c r="J771" s="14"/>
+      <c r="K771" s="15"/>
     </row>
     <row r="772" ht="15.2" spans="7:11">
-      <c r="G772" s="16"/>
-      <c r="J772" s="17"/>
-      <c r="K772" s="18"/>
+      <c r="G772" s="13"/>
+      <c r="J772" s="14"/>
+      <c r="K772" s="15"/>
     </row>
     <row r="773" ht="15.2" spans="7:11">
-      <c r="G773" s="16"/>
-      <c r="J773" s="17"/>
-      <c r="K773" s="18"/>
+      <c r="G773" s="13"/>
+      <c r="J773" s="14"/>
+      <c r="K773" s="15"/>
     </row>
     <row r="774" ht="15.2" spans="7:11">
-      <c r="G774" s="16"/>
-      <c r="J774" s="17"/>
-      <c r="K774" s="18"/>
+      <c r="G774" s="13"/>
+      <c r="J774" s="14"/>
+      <c r="K774" s="15"/>
     </row>
     <row r="775" ht="15.2" spans="7:11">
-      <c r="G775" s="16"/>
-      <c r="J775" s="17"/>
-      <c r="K775" s="18"/>
+      <c r="G775" s="13"/>
+      <c r="J775" s="14"/>
+      <c r="K775" s="15"/>
     </row>
     <row r="776" ht="15.2" spans="7:11">
-      <c r="G776" s="16"/>
-      <c r="J776" s="17"/>
-      <c r="K776" s="18"/>
+      <c r="G776" s="13"/>
+      <c r="J776" s="14"/>
+      <c r="K776" s="15"/>
     </row>
     <row r="777" ht="15.2" spans="7:11">
-      <c r="G777" s="16"/>
-      <c r="J777" s="17"/>
-      <c r="K777" s="18"/>
+      <c r="G777" s="13"/>
+      <c r="J777" s="14"/>
+      <c r="K777" s="15"/>
     </row>
     <row r="778" ht="15.2" spans="7:11">
-      <c r="G778" s="16"/>
-      <c r="J778" s="17"/>
-      <c r="K778" s="18"/>
+      <c r="G778" s="13"/>
+      <c r="J778" s="14"/>
+      <c r="K778" s="15"/>
     </row>
     <row r="779" ht="15.2" spans="7:11">
-      <c r="G779" s="16"/>
-      <c r="J779" s="17"/>
-      <c r="K779" s="18"/>
+      <c r="G779" s="13"/>
+      <c r="J779" s="14"/>
+      <c r="K779" s="15"/>
     </row>
     <row r="780" ht="15.2" spans="7:11">
-      <c r="G780" s="16"/>
-      <c r="J780" s="17"/>
-      <c r="K780" s="18"/>
+      <c r="G780" s="13"/>
+      <c r="J780" s="14"/>
+      <c r="K780" s="15"/>
     </row>
     <row r="781" ht="15.2" spans="7:11">
-      <c r="G781" s="16"/>
-      <c r="J781" s="17"/>
-      <c r="K781" s="18"/>
+      <c r="G781" s="13"/>
+      <c r="J781" s="14"/>
+      <c r="K781" s="15"/>
     </row>
     <row r="782" ht="15.2" spans="7:11">
-      <c r="G782" s="16"/>
-      <c r="J782" s="17"/>
-      <c r="K782" s="18"/>
+      <c r="G782" s="13"/>
+      <c r="J782" s="14"/>
+      <c r="K782" s="15"/>
     </row>
     <row r="783" ht="15.2" spans="7:11">
-      <c r="G783" s="16"/>
-      <c r="J783" s="17"/>
-      <c r="K783" s="18"/>
+      <c r="G783" s="13"/>
+      <c r="J783" s="14"/>
+      <c r="K783" s="15"/>
     </row>
     <row r="784" ht="15.2" spans="7:11">
-      <c r="G784" s="16"/>
-      <c r="J784" s="17"/>
-      <c r="K784" s="18"/>
+      <c r="G784" s="13"/>
+      <c r="J784" s="14"/>
+      <c r="K784" s="15"/>
     </row>
     <row r="785" ht="15.2" spans="7:11">
-      <c r="G785" s="16"/>
-      <c r="J785" s="17"/>
-      <c r="K785" s="18"/>
+      <c r="G785" s="13"/>
+      <c r="J785" s="14"/>
+      <c r="K785" s="15"/>
     </row>
     <row r="786" ht="15.2" spans="7:11">
-      <c r="G786" s="16"/>
-      <c r="J786" s="17"/>
-      <c r="K786" s="18"/>
+      <c r="G786" s="13"/>
+      <c r="J786" s="14"/>
+      <c r="K786" s="15"/>
     </row>
     <row r="787" ht="15.2" spans="7:11">
-      <c r="G787" s="16"/>
-      <c r="J787" s="17"/>
-      <c r="K787" s="18"/>
+      <c r="G787" s="13"/>
+      <c r="J787" s="14"/>
+      <c r="K787" s="15"/>
     </row>
     <row r="788" ht="15.2" spans="7:11">
-      <c r="G788" s="16"/>
-      <c r="J788" s="17"/>
-      <c r="K788" s="18"/>
+      <c r="G788" s="13"/>
+      <c r="J788" s="14"/>
+      <c r="K788" s="15"/>
     </row>
     <row r="789" ht="15.2" spans="7:11">
-      <c r="G789" s="16"/>
-      <c r="J789" s="17"/>
-      <c r="K789" s="18"/>
+      <c r="G789" s="13"/>
+      <c r="J789" s="14"/>
+      <c r="K789" s="15"/>
     </row>
     <row r="790" ht="15.2" spans="7:11">
-      <c r="G790" s="16"/>
-      <c r="J790" s="17"/>
-      <c r="K790" s="18"/>
+      <c r="G790" s="13"/>
+      <c r="J790" s="14"/>
+      <c r="K790" s="15"/>
     </row>
     <row r="791" ht="15.2" spans="7:11">
-      <c r="G791" s="16"/>
-      <c r="J791" s="17"/>
-      <c r="K791" s="18"/>
+      <c r="G791" s="13"/>
+      <c r="J791" s="14"/>
+      <c r="K791" s="15"/>
     </row>
     <row r="792" ht="15.2" spans="7:11">
-      <c r="G792" s="16"/>
-      <c r="J792" s="17"/>
-      <c r="K792" s="18"/>
+      <c r="G792" s="13"/>
+      <c r="J792" s="14"/>
+      <c r="K792" s="15"/>
     </row>
     <row r="793" ht="15.2" spans="7:11">
-      <c r="G793" s="16"/>
-      <c r="J793" s="17"/>
-      <c r="K793" s="18"/>
+      <c r="G793" s="13"/>
+      <c r="J793" s="14"/>
+      <c r="K793" s="15"/>
     </row>
     <row r="794" ht="15.2" spans="7:11">
-      <c r="G794" s="16"/>
-      <c r="J794" s="17"/>
-      <c r="K794" s="18"/>
+      <c r="G794" s="13"/>
+      <c r="J794" s="14"/>
+      <c r="K794" s="15"/>
     </row>
     <row r="795" ht="15.2" spans="7:11">
-      <c r="G795" s="16"/>
-      <c r="J795" s="17"/>
-      <c r="K795" s="18"/>
+      <c r="G795" s="13"/>
+      <c r="J795" s="14"/>
+      <c r="K795" s="15"/>
     </row>
     <row r="796" ht="15.2" spans="7:11">
-      <c r="G796" s="16"/>
-      <c r="J796" s="17"/>
-      <c r="K796" s="18"/>
+      <c r="G796" s="13"/>
+      <c r="J796" s="14"/>
+      <c r="K796" s="15"/>
     </row>
     <row r="797" ht="15.2" spans="7:11">
-      <c r="G797" s="16"/>
-      <c r="J797" s="17"/>
-      <c r="K797" s="18"/>
+      <c r="G797" s="13"/>
+      <c r="J797" s="14"/>
+      <c r="K797" s="15"/>
     </row>
     <row r="798" ht="15.2" spans="7:11">
-      <c r="G798" s="16"/>
-      <c r="J798" s="17"/>
-      <c r="K798" s="18"/>
+      <c r="G798" s="13"/>
+      <c r="J798" s="14"/>
+      <c r="K798" s="15"/>
     </row>
     <row r="799" ht="15.2" spans="7:11">
-      <c r="G799" s="16"/>
-      <c r="J799" s="17"/>
-      <c r="K799" s="18"/>
+      <c r="G799" s="13"/>
+      <c r="J799" s="14"/>
+      <c r="K799" s="15"/>
     </row>
     <row r="800" ht="15.2" spans="7:11">
-      <c r="G800" s="16"/>
-      <c r="J800" s="17"/>
-      <c r="K800" s="18"/>
+      <c r="G800" s="13"/>
+      <c r="J800" s="14"/>
+      <c r="K800" s="15"/>
     </row>
     <row r="801" ht="15.2" spans="7:11">
-      <c r="G801" s="16"/>
-      <c r="J801" s="17"/>
-      <c r="K801" s="18"/>
+      <c r="G801" s="13"/>
+      <c r="J801" s="14"/>
+      <c r="K801" s="15"/>
     </row>
     <row r="802" ht="15.2" spans="7:11">
-      <c r="G802" s="16"/>
-      <c r="J802" s="17"/>
-      <c r="K802" s="18"/>
+      <c r="G802" s="13"/>
+      <c r="J802" s="14"/>
+      <c r="K802" s="15"/>
     </row>
     <row r="803" ht="15.2" spans="7:11">
-      <c r="G803" s="16"/>
-      <c r="J803" s="17"/>
-      <c r="K803" s="18"/>
+      <c r="G803" s="13"/>
+      <c r="J803" s="14"/>
+      <c r="K803" s="15"/>
     </row>
     <row r="804" ht="15.2" spans="7:11">
-      <c r="G804" s="16"/>
-      <c r="J804" s="17"/>
-      <c r="K804" s="18"/>
+      <c r="G804" s="13"/>
+      <c r="J804" s="14"/>
+      <c r="K804" s="15"/>
     </row>
     <row r="805" ht="15.2" spans="7:11">
-      <c r="G805" s="16"/>
-      <c r="J805" s="17"/>
-      <c r="K805" s="18"/>
+      <c r="G805" s="13"/>
+      <c r="J805" s="14"/>
+      <c r="K805" s="15"/>
     </row>
     <row r="806" ht="15.2" spans="7:11">
-      <c r="G806" s="16"/>
-      <c r="J806" s="17"/>
-      <c r="K806" s="18"/>
+      <c r="G806" s="13"/>
+      <c r="J806" s="14"/>
+      <c r="K806" s="15"/>
     </row>
     <row r="807" ht="15.2" spans="7:11">
-      <c r="G807" s="16"/>
-      <c r="J807" s="17"/>
-      <c r="K807" s="18"/>
+      <c r="G807" s="13"/>
+      <c r="J807" s="14"/>
+      <c r="K807" s="15"/>
     </row>
     <row r="808" ht="15.2" spans="7:11">
-      <c r="G808" s="16"/>
-      <c r="J808" s="17"/>
-      <c r="K808" s="18"/>
+      <c r="G808" s="13"/>
+      <c r="J808" s="14"/>
+      <c r="K808" s="15"/>
     </row>
     <row r="809" ht="15.2" spans="7:11">
-      <c r="G809" s="16"/>
-      <c r="J809" s="17"/>
-      <c r="K809" s="18"/>
+      <c r="G809" s="13"/>
+      <c r="J809" s="14"/>
+      <c r="K809" s="15"/>
     </row>
     <row r="810" ht="15.2" spans="7:11">
-      <c r="G810" s="16"/>
-      <c r="J810" s="17"/>
-      <c r="K810" s="18"/>
+      <c r="G810" s="13"/>
+      <c r="J810" s="14"/>
+      <c r="K810" s="15"/>
     </row>
     <row r="811" ht="15.2" spans="7:11">
-      <c r="G811" s="16"/>
-      <c r="J811" s="17"/>
-      <c r="K811" s="18"/>
+      <c r="G811" s="13"/>
+      <c r="J811" s="14"/>
+      <c r="K811" s="15"/>
     </row>
     <row r="812" ht="15.2" spans="7:11">
-      <c r="G812" s="16"/>
-      <c r="J812" s="17"/>
-      <c r="K812" s="18"/>
+      <c r="G812" s="13"/>
+      <c r="J812" s="14"/>
+      <c r="K812" s="15"/>
     </row>
     <row r="813" ht="15.2" spans="7:11">
-      <c r="G813" s="16"/>
-      <c r="J813" s="17"/>
-      <c r="K813" s="18"/>
+      <c r="G813" s="13"/>
+      <c r="J813" s="14"/>
+      <c r="K813" s="15"/>
     </row>
     <row r="814" ht="15.2" spans="7:11">
-      <c r="G814" s="16"/>
-      <c r="J814" s="17"/>
-      <c r="K814" s="18"/>
+      <c r="G814" s="13"/>
+      <c r="J814" s="14"/>
+      <c r="K814" s="15"/>
     </row>
     <row r="815" ht="15.2" spans="7:11">
-      <c r="G815" s="16"/>
-      <c r="J815" s="17"/>
-      <c r="K815" s="18"/>
+      <c r="G815" s="13"/>
+      <c r="J815" s="14"/>
+      <c r="K815" s="15"/>
     </row>
     <row r="816" ht="15.2" spans="7:11">
-      <c r="G816" s="16"/>
-      <c r="J816" s="17"/>
-      <c r="K816" s="18"/>
+      <c r="G816" s="13"/>
+      <c r="J816" s="14"/>
+      <c r="K816" s="15"/>
     </row>
     <row r="817" ht="15.2" spans="7:11">
-      <c r="G817" s="16"/>
-      <c r="J817" s="17"/>
-      <c r="K817" s="18"/>
+      <c r="G817" s="13"/>
+      <c r="J817" s="14"/>
+      <c r="K817" s="15"/>
     </row>
     <row r="818" ht="15.2" spans="7:11">
-      <c r="G818" s="16"/>
-      <c r="J818" s="17"/>
-      <c r="K818" s="18"/>
+      <c r="G818" s="13"/>
+      <c r="J818" s="14"/>
+      <c r="K818" s="15"/>
     </row>
     <row r="819" ht="15.2" spans="7:11">
-      <c r="G819" s="16"/>
-      <c r="J819" s="17"/>
-      <c r="K819" s="18"/>
+      <c r="G819" s="13"/>
+      <c r="J819" s="14"/>
+      <c r="K819" s="15"/>
     </row>
     <row r="820" ht="15.2" spans="7:11">
-      <c r="G820" s="16"/>
-      <c r="J820" s="17"/>
-      <c r="K820" s="18"/>
+      <c r="G820" s="13"/>
+      <c r="J820" s="14"/>
+      <c r="K820" s="15"/>
     </row>
     <row r="821" ht="15.2" spans="7:11">
-      <c r="G821" s="16"/>
-      <c r="J821" s="17"/>
-      <c r="K821" s="18"/>
+      <c r="G821" s="13"/>
+      <c r="J821" s="14"/>
+      <c r="K821" s="15"/>
     </row>
     <row r="822" ht="15.2" spans="7:11">
-      <c r="G822" s="16"/>
-      <c r="J822" s="17"/>
-      <c r="K822" s="18"/>
+      <c r="G822" s="13"/>
+      <c r="J822" s="14"/>
+      <c r="K822" s="15"/>
     </row>
     <row r="823" ht="15.2" spans="7:11">
-      <c r="G823" s="16"/>
-      <c r="J823" s="17"/>
-      <c r="K823" s="18"/>
+      <c r="G823" s="13"/>
+      <c r="J823" s="14"/>
+      <c r="K823" s="15"/>
     </row>
     <row r="824" ht="15.2" spans="7:11">
-      <c r="G824" s="16"/>
-      <c r="J824" s="17"/>
-      <c r="K824" s="18"/>
+      <c r="G824" s="13"/>
+      <c r="J824" s="14"/>
+      <c r="K824" s="15"/>
     </row>
     <row r="825" ht="15.2" spans="7:11">
-      <c r="G825" s="16"/>
-      <c r="J825" s="17"/>
-      <c r="K825" s="18"/>
+      <c r="G825" s="13"/>
+      <c r="J825" s="14"/>
+      <c r="K825" s="15"/>
     </row>
     <row r="826" ht="15.2" spans="7:11">
-      <c r="G826" s="16"/>
-      <c r="J826" s="17"/>
-      <c r="K826" s="18"/>
+      <c r="G826" s="13"/>
+      <c r="J826" s="14"/>
+      <c r="K826" s="15"/>
     </row>
     <row r="827" ht="15.2" spans="7:11">
-      <c r="G827" s="16"/>
-      <c r="J827" s="17"/>
-      <c r="K827" s="18"/>
+      <c r="G827" s="13"/>
+      <c r="J827" s="14"/>
+      <c r="K827" s="15"/>
     </row>
     <row r="828" ht="15.2" spans="7:11">
-      <c r="G828" s="16"/>
-      <c r="J828" s="17"/>
-      <c r="K828" s="18"/>
+      <c r="G828" s="13"/>
+      <c r="J828" s="14"/>
+      <c r="K828" s="15"/>
     </row>
     <row r="829" ht="15.2" spans="7:11">
-      <c r="G829" s="16"/>
-      <c r="J829" s="17"/>
-      <c r="K829" s="18"/>
+      <c r="G829" s="13"/>
+      <c r="J829" s="14"/>
+      <c r="K829" s="15"/>
     </row>
     <row r="830" ht="15.2" spans="7:11">
-      <c r="G830" s="16"/>
-      <c r="J830" s="17"/>
-      <c r="K830" s="18"/>
+      <c r="G830" s="13"/>
+      <c r="J830" s="14"/>
+      <c r="K830" s="15"/>
     </row>
     <row r="831" ht="15.2" spans="7:11">
-      <c r="G831" s="16"/>
-      <c r="J831" s="17"/>
-      <c r="K831" s="18"/>
+      <c r="G831" s="13"/>
+      <c r="J831" s="14"/>
+      <c r="K831" s="15"/>
     </row>
     <row r="832" ht="15.2" spans="7:11">
-      <c r="G832" s="16"/>
-      <c r="J832" s="17"/>
-      <c r="K832" s="18"/>
+      <c r="G832" s="13"/>
+      <c r="J832" s="14"/>
+      <c r="K832" s="15"/>
     </row>
     <row r="833" ht="15.2" spans="7:11">
-      <c r="G833" s="16"/>
-      <c r="J833" s="17"/>
-      <c r="K833" s="18"/>
+      <c r="G833" s="13"/>
+      <c r="J833" s="14"/>
+      <c r="K833" s="15"/>
     </row>
     <row r="834" ht="15.2" spans="7:11">
-      <c r="G834" s="16"/>
-      <c r="J834" s="17"/>
-      <c r="K834" s="18"/>
+      <c r="G834" s="13"/>
+      <c r="J834" s="14"/>
+      <c r="K834" s="15"/>
     </row>
     <row r="835" ht="15.2" spans="7:11">
-      <c r="G835" s="16"/>
-      <c r="J835" s="17"/>
-      <c r="K835" s="18"/>
+      <c r="G835" s="13"/>
+      <c r="J835" s="14"/>
+      <c r="K835" s="15"/>
     </row>
     <row r="836" ht="15.2" spans="7:11">
-      <c r="G836" s="16"/>
-      <c r="J836" s="17"/>
-      <c r="K836" s="18"/>
+      <c r="G836" s="13"/>
+      <c r="J836" s="14"/>
+      <c r="K836" s="15"/>
     </row>
     <row r="837" ht="15.2" spans="7:11">
-      <c r="G837" s="16"/>
-      <c r="J837" s="17"/>
-      <c r="K837" s="18"/>
+      <c r="G837" s="13"/>
+      <c r="J837" s="14"/>
+      <c r="K837" s="15"/>
     </row>
     <row r="838" ht="15.2" spans="7:11">
-      <c r="G838" s="16"/>
-      <c r="J838" s="17"/>
-      <c r="K838" s="18"/>
+      <c r="G838" s="13"/>
+      <c r="J838" s="14"/>
+      <c r="K838" s="15"/>
     </row>
     <row r="839" ht="15.2" spans="7:11">
-      <c r="G839" s="16"/>
-      <c r="J839" s="17"/>
-      <c r="K839" s="18"/>
+      <c r="G839" s="13"/>
+      <c r="J839" s="14"/>
+      <c r="K839" s="15"/>
     </row>
     <row r="840" ht="15.2" spans="7:11">
-      <c r="G840" s="16"/>
-      <c r="J840" s="17"/>
-      <c r="K840" s="18"/>
+      <c r="G840" s="13"/>
+      <c r="J840" s="14"/>
+      <c r="K840" s="15"/>
     </row>
     <row r="841" ht="15.2" spans="7:11">
-      <c r="G841" s="16"/>
-      <c r="J841" s="17"/>
-      <c r="K841" s="18"/>
+      <c r="G841" s="13"/>
+      <c r="J841" s="14"/>
+      <c r="K841" s="15"/>
     </row>
     <row r="842" ht="15.2" spans="7:11">
-      <c r="G842" s="16"/>
-      <c r="J842" s="17"/>
-      <c r="K842" s="18"/>
+      <c r="G842" s="13"/>
+      <c r="J842" s="14"/>
+      <c r="K842" s="15"/>
     </row>
     <row r="843" ht="15.2" spans="7:11">
-      <c r="G843" s="16"/>
-      <c r="J843" s="17"/>
-      <c r="K843" s="18"/>
+      <c r="G843" s="13"/>
+      <c r="J843" s="14"/>
+      <c r="K843" s="15"/>
     </row>
     <row r="844" ht="15.2" spans="7:11">
-      <c r="G844" s="16"/>
-      <c r="J844" s="17"/>
-      <c r="K844" s="18"/>
+      <c r="G844" s="13"/>
+      <c r="J844" s="14"/>
+      <c r="K844" s="15"/>
     </row>
     <row r="845" ht="15.2" spans="7:11">
-      <c r="G845" s="16"/>
-      <c r="J845" s="17"/>
-      <c r="K845" s="18"/>
+      <c r="G845" s="13"/>
+      <c r="J845" s="14"/>
+      <c r="K845" s="15"/>
     </row>
     <row r="846" ht="15.2" spans="7:11">
-      <c r="G846" s="16"/>
-      <c r="J846" s="17"/>
-      <c r="K846" s="18"/>
+      <c r="G846" s="13"/>
+      <c r="J846" s="14"/>
+      <c r="K846" s="15"/>
     </row>
     <row r="847" ht="15.2" spans="7:11">
-      <c r="G847" s="16"/>
-      <c r="J847" s="17"/>
-      <c r="K847" s="18"/>
+      <c r="G847" s="13"/>
+      <c r="J847" s="14"/>
+      <c r="K847" s="15"/>
     </row>
     <row r="848" ht="15.2" spans="7:11">
-      <c r="G848" s="16"/>
-      <c r="J848" s="17"/>
-      <c r="K848" s="18"/>
+      <c r="G848" s="13"/>
+      <c r="J848" s="14"/>
+      <c r="K848" s="15"/>
     </row>
     <row r="849" ht="15.2" spans="7:11">
-      <c r="G849" s="16"/>
-      <c r="J849" s="17"/>
-      <c r="K849" s="18"/>
+      <c r="G849" s="13"/>
+      <c r="J849" s="14"/>
+      <c r="K849" s="15"/>
     </row>
     <row r="850" ht="15.2" spans="7:11">
-      <c r="G850" s="16"/>
-      <c r="J850" s="17"/>
-      <c r="K850" s="18"/>
+      <c r="G850" s="13"/>
+      <c r="J850" s="14"/>
+      <c r="K850" s="15"/>
     </row>
     <row r="851" ht="15.2" spans="7:11">
-      <c r="G851" s="16"/>
-      <c r="J851" s="17"/>
-      <c r="K851" s="18"/>
+      <c r="G851" s="13"/>
+      <c r="J851" s="14"/>
+      <c r="K851" s="15"/>
     </row>
     <row r="852" ht="15.2" spans="7:11">
-      <c r="G852" s="16"/>
-      <c r="J852" s="17"/>
-      <c r="K852" s="18"/>
+      <c r="G852" s="13"/>
+      <c r="J852" s="14"/>
+      <c r="K852" s="15"/>
     </row>
     <row r="853" ht="15.2" spans="7:11">
-      <c r="G853" s="16"/>
-      <c r="J853" s="17"/>
-      <c r="K853" s="18"/>
+      <c r="G853" s="13"/>
+      <c r="J853" s="14"/>
+      <c r="K853" s="15"/>
     </row>
     <row r="854" ht="15.2" spans="7:11">
-      <c r="G854" s="16"/>
-      <c r="J854" s="17"/>
-      <c r="K854" s="18"/>
+      <c r="G854" s="13"/>
+      <c r="J854" s="14"/>
+      <c r="K854" s="15"/>
     </row>
     <row r="855" ht="15.2" spans="7:11">
-      <c r="G855" s="16"/>
-      <c r="J855" s="17"/>
-      <c r="K855" s="18"/>
+      <c r="G855" s="13"/>
+      <c r="J855" s="14"/>
+      <c r="K855" s="15"/>
     </row>
     <row r="856" ht="15.2" spans="7:11">
-      <c r="G856" s="16"/>
-      <c r="J856" s="17"/>
-      <c r="K856" s="18"/>
+      <c r="G856" s="13"/>
+      <c r="J856" s="14"/>
+      <c r="K856" s="15"/>
     </row>
     <row r="857" ht="15.2" spans="7:11">
-      <c r="G857" s="16"/>
-      <c r="J857" s="17"/>
-      <c r="K857" s="18"/>
+      <c r="G857" s="13"/>
+      <c r="J857" s="14"/>
+      <c r="K857" s="15"/>
     </row>
     <row r="858" ht="15.2" spans="7:11">
-      <c r="G858" s="16"/>
-      <c r="J858" s="17"/>
-      <c r="K858" s="18"/>
+      <c r="G858" s="13"/>
+      <c r="J858" s="14"/>
+      <c r="K858" s="15"/>
     </row>
     <row r="859" ht="15.2" spans="7:11">
-      <c r="G859" s="16"/>
-      <c r="J859" s="17"/>
-      <c r="K859" s="18"/>
+      <c r="G859" s="13"/>
+      <c r="J859" s="14"/>
+      <c r="K859" s="15"/>
     </row>
     <row r="860" ht="15.2" spans="7:11">
-      <c r="G860" s="16"/>
-      <c r="J860" s="17"/>
-      <c r="K860" s="18"/>
+      <c r="G860" s="13"/>
+      <c r="J860" s="14"/>
+      <c r="K860" s="15"/>
     </row>
     <row r="861" ht="15.2" spans="7:11">
-      <c r="G861" s="16"/>
-      <c r="J861" s="17"/>
-      <c r="K861" s="18"/>
+      <c r="G861" s="13"/>
+      <c r="J861" s="14"/>
+      <c r="K861" s="15"/>
     </row>
     <row r="862" ht="15.2" spans="7:11">
-      <c r="G862" s="16"/>
-      <c r="J862" s="17"/>
-      <c r="K862" s="18"/>
+      <c r="G862" s="13"/>
+      <c r="J862" s="14"/>
+      <c r="K862" s="15"/>
     </row>
     <row r="863" ht="15.2" spans="7:11">
-      <c r="G863" s="16"/>
-      <c r="J863" s="17"/>
-      <c r="K863" s="18"/>
+      <c r="G863" s="13"/>
+      <c r="J863" s="14"/>
+      <c r="K863" s="15"/>
     </row>
     <row r="864" ht="15.2" spans="7:11">
-      <c r="G864" s="16"/>
-      <c r="J864" s="17"/>
-      <c r="K864" s="18"/>
+      <c r="G864" s="13"/>
+      <c r="J864" s="14"/>
+      <c r="K864" s="15"/>
     </row>
     <row r="865" ht="15.2" spans="7:11">
-      <c r="G865" s="16"/>
-      <c r="J865" s="17"/>
-      <c r="K865" s="18"/>
+      <c r="G865" s="13"/>
+      <c r="J865" s="14"/>
+      <c r="K865" s="15"/>
     </row>
     <row r="866" ht="15.2" spans="7:11">
-      <c r="G866" s="16"/>
-      <c r="J866" s="17"/>
-      <c r="K866" s="18"/>
+      <c r="G866" s="13"/>
+      <c r="J866" s="14"/>
+      <c r="K866" s="15"/>
     </row>
     <row r="867" ht="15.2" spans="7:11">
-      <c r="G867" s="16"/>
-      <c r="J867" s="17"/>
-      <c r="K867" s="18"/>
+      <c r="G867" s="13"/>
+      <c r="J867" s="14"/>
+      <c r="K867" s="15"/>
     </row>
     <row r="868" ht="15.2" spans="7:11">
-      <c r="G868" s="16"/>
-      <c r="J868" s="17"/>
-      <c r="K868" s="18"/>
+      <c r="G868" s="13"/>
+      <c r="J868" s="14"/>
+      <c r="K868" s="15"/>
     </row>
     <row r="869" ht="15.2" spans="7:11">
-      <c r="G869" s="16"/>
-      <c r="J869" s="17"/>
-      <c r="K869" s="18"/>
+      <c r="G869" s="13"/>
+      <c r="J869" s="14"/>
+      <c r="K869" s="15"/>
     </row>
     <row r="870" ht="15.2" spans="7:11">
-      <c r="G870" s="16"/>
-      <c r="J870" s="17"/>
-      <c r="K870" s="18"/>
+      <c r="G870" s="13"/>
+      <c r="J870" s="14"/>
+      <c r="K870" s="15"/>
     </row>
     <row r="871" ht="15.2" spans="7:11">
-      <c r="G871" s="16"/>
-      <c r="J871" s="17"/>
-      <c r="K871" s="18"/>
+      <c r="G871" s="13"/>
+      <c r="J871" s="14"/>
+      <c r="K871" s="15"/>
     </row>
     <row r="872" ht="15.2" spans="7:11">
-      <c r="G872" s="16"/>
-      <c r="J872" s="17"/>
-      <c r="K872" s="18"/>
+      <c r="G872" s="13"/>
+      <c r="J872" s="14"/>
+      <c r="K872" s="15"/>
     </row>
     <row r="873" ht="15.2" spans="7:11">
-      <c r="G873" s="16"/>
-      <c r="J873" s="17"/>
-      <c r="K873" s="18"/>
+      <c r="G873" s="13"/>
+      <c r="J873" s="14"/>
+      <c r="K873" s="15"/>
     </row>
     <row r="874" ht="15.2" spans="7:11">
-      <c r="G874" s="16"/>
-      <c r="J874" s="17"/>
-      <c r="K874" s="18"/>
+      <c r="G874" s="13"/>
+      <c r="J874" s="14"/>
+      <c r="K874" s="15"/>
     </row>
     <row r="875" ht="15.2" spans="7:11">
-      <c r="G875" s="16"/>
-      <c r="J875" s="17"/>
-      <c r="K875" s="18"/>
+      <c r="G875" s="13"/>
+      <c r="J875" s="14"/>
+      <c r="K875" s="15"/>
     </row>
     <row r="876" ht="15.2" spans="7:11">
-      <c r="G876" s="16"/>
-      <c r="J876" s="17"/>
-      <c r="K876" s="18"/>
+      <c r="G876" s="13"/>
+      <c r="J876" s="14"/>
+      <c r="K876" s="15"/>
     </row>
     <row r="877" ht="15.2" spans="7:11">
-      <c r="G877" s="16"/>
-      <c r="J877" s="17"/>
-      <c r="K877" s="18"/>
+      <c r="G877" s="13"/>
+      <c r="J877" s="14"/>
+      <c r="K877" s="15"/>
     </row>
     <row r="878" ht="15.2" spans="7:11">
-      <c r="G878" s="16"/>
-      <c r="J878" s="17"/>
-      <c r="K878" s="18"/>
+      <c r="G878" s="13"/>
+      <c r="J878" s="14"/>
+      <c r="K878" s="15"/>
     </row>
     <row r="879" ht="15.2" spans="7:11">
-      <c r="G879" s="16"/>
-      <c r="J879" s="17"/>
-      <c r="K879" s="18"/>
+      <c r="G879" s="13"/>
+      <c r="J879" s="14"/>
+      <c r="K879" s="15"/>
     </row>
     <row r="880" ht="15.2" spans="7:11">
-      <c r="G880" s="16"/>
-      <c r="J880" s="17"/>
-      <c r="K880" s="18"/>
+      <c r="G880" s="13"/>
+      <c r="J880" s="14"/>
+      <c r="K880" s="15"/>
     </row>
     <row r="881" ht="15.2" spans="7:11">
-      <c r="G881" s="16"/>
-      <c r="J881" s="17"/>
-      <c r="K881" s="18"/>
+      <c r="G881" s="13"/>
+      <c r="J881" s="14"/>
+      <c r="K881" s="15"/>
     </row>
     <row r="882" ht="15.2" spans="7:11">
-      <c r="G882" s="16"/>
-      <c r="J882" s="17"/>
-      <c r="K882" s="18"/>
+      <c r="G882" s="13"/>
+      <c r="J882" s="14"/>
+      <c r="K882" s="15"/>
     </row>
     <row r="883" ht="15.2" spans="7:11">
-      <c r="G883" s="16"/>
-      <c r="J883" s="17"/>
-      <c r="K883" s="18"/>
+      <c r="G883" s="13"/>
+      <c r="J883" s="14"/>
+      <c r="K883" s="15"/>
     </row>
     <row r="884" ht="15.2" spans="7:11">
-      <c r="G884" s="16"/>
-      <c r="J884" s="17"/>
-      <c r="K884" s="18"/>
+      <c r="G884" s="13"/>
+      <c r="J884" s="14"/>
+      <c r="K884" s="15"/>
     </row>
     <row r="885" ht="15.2" spans="7:11">
-      <c r="G885" s="16"/>
-      <c r="J885" s="17"/>
-      <c r="K885" s="18"/>
+      <c r="G885" s="13"/>
+      <c r="J885" s="14"/>
+      <c r="K885" s="15"/>
     </row>
     <row r="886" ht="15.2" spans="7:11">
-      <c r="G886" s="16"/>
-      <c r="J886" s="17"/>
-      <c r="K886" s="18"/>
+      <c r="G886" s="13"/>
+      <c r="J886" s="14"/>
+      <c r="K886" s="15"/>
     </row>
     <row r="887" ht="15.2" spans="7:11">
-      <c r="G887" s="16"/>
-      <c r="J887" s="17"/>
-      <c r="K887" s="18"/>
+      <c r="G887" s="13"/>
+      <c r="J887" s="14"/>
+      <c r="K887" s="15"/>
     </row>
     <row r="888" ht="15.2" spans="7:11">
-      <c r="G888" s="16"/>
-      <c r="J888" s="17"/>
-      <c r="K888" s="18"/>
+      <c r="G888" s="13"/>
+      <c r="J888" s="14"/>
+      <c r="K888" s="15"/>
     </row>
     <row r="889" ht="15.2" spans="7:11">
-      <c r="G889" s="16"/>
-      <c r="J889" s="17"/>
-      <c r="K889" s="18"/>
+      <c r="G889" s="13"/>
+      <c r="J889" s="14"/>
+      <c r="K889" s="15"/>
     </row>
     <row r="890" ht="15.2" spans="7:11">
-      <c r="G890" s="16"/>
-      <c r="J890" s="17"/>
-      <c r="K890" s="18"/>
+      <c r="G890" s="13"/>
+      <c r="J890" s="14"/>
+      <c r="K890" s="15"/>
     </row>
     <row r="891" ht="15.2" spans="7:11">
-      <c r="G891" s="16"/>
-      <c r="J891" s="17"/>
-      <c r="K891" s="18"/>
+      <c r="G891" s="13"/>
+      <c r="J891" s="14"/>
+      <c r="K891" s="15"/>
     </row>
     <row r="892" ht="15.2" spans="7:11">
-      <c r="G892" s="16"/>
-      <c r="J892" s="17"/>
-      <c r="K892" s="18"/>
+      <c r="G892" s="13"/>
+      <c r="J892" s="14"/>
+      <c r="K892" s="15"/>
     </row>
     <row r="893" ht="15.2" spans="7:11">
-      <c r="G893" s="16"/>
-      <c r="J893" s="17"/>
-      <c r="K893" s="18"/>
+      <c r="G893" s="13"/>
+      <c r="J893" s="14"/>
+      <c r="K893" s="15"/>
     </row>
     <row r="894" ht="15.2" spans="7:11">
-      <c r="G894" s="16"/>
-      <c r="J894" s="17"/>
-      <c r="K894" s="18"/>
+      <c r="G894" s="13"/>
+      <c r="J894" s="14"/>
+      <c r="K894" s="15"/>
     </row>
     <row r="895" ht="15.2" spans="7:11">
-      <c r="G895" s="16"/>
-      <c r="J895" s="17"/>
-      <c r="K895" s="18"/>
+      <c r="G895" s="13"/>
+      <c r="J895" s="14"/>
+      <c r="K895" s="15"/>
     </row>
     <row r="896" ht="15.2" spans="7:11">
-      <c r="G896" s="16"/>
-      <c r="J896" s="17"/>
-      <c r="K896" s="18"/>
+      <c r="G896" s="13"/>
+      <c r="J896" s="14"/>
+      <c r="K896" s="15"/>
     </row>
     <row r="897" ht="15.2" spans="7:11">
-      <c r="G897" s="16"/>
-      <c r="J897" s="17"/>
-      <c r="K897" s="18"/>
+      <c r="G897" s="13"/>
+      <c r="J897" s="14"/>
+      <c r="K897" s="15"/>
     </row>
     <row r="898" ht="15.2" spans="7:11">
-      <c r="G898" s="16"/>
-      <c r="J898" s="17"/>
-      <c r="K898" s="18"/>
+      <c r="G898" s="13"/>
+      <c r="J898" s="14"/>
+      <c r="K898" s="15"/>
     </row>
     <row r="899" ht="15.2" spans="7:11">
-      <c r="G899" s="16"/>
-      <c r="J899" s="17"/>
-      <c r="K899" s="18"/>
+      <c r="G899" s="13"/>
+      <c r="J899" s="14"/>
+      <c r="K899" s="15"/>
     </row>
     <row r="900" ht="15.2" spans="7:11">
-      <c r="G900" s="16"/>
-      <c r="J900" s="17"/>
-      <c r="K900" s="18"/>
+      <c r="G900" s="13"/>
+      <c r="J900" s="14"/>
+      <c r="K900" s="15"/>
     </row>
     <row r="901" ht="15.2" spans="7:11">
-      <c r="G901" s="16"/>
-      <c r="J901" s="17"/>
-      <c r="K901" s="18"/>
+      <c r="G901" s="13"/>
+      <c r="J901" s="14"/>
+      <c r="K901" s="15"/>
     </row>
     <row r="902" ht="15.2" spans="7:11">
-      <c r="G902" s="16"/>
-      <c r="J902" s="17"/>
-      <c r="K902" s="18"/>
+      <c r="G902" s="13"/>
+      <c r="J902" s="14"/>
+      <c r="K902" s="15"/>
     </row>
     <row r="903" ht="15.2" spans="7:11">
-      <c r="G903" s="16"/>
-      <c r="J903" s="17"/>
-      <c r="K903" s="18"/>
+      <c r="G903" s="13"/>
+      <c r="J903" s="14"/>
+      <c r="K903" s="15"/>
     </row>
     <row r="904" ht="15.2" spans="7:11">
-      <c r="G904" s="16"/>
-      <c r="J904" s="17"/>
-      <c r="K904" s="18"/>
+      <c r="G904" s="13"/>
+      <c r="J904" s="14"/>
+      <c r="K904" s="15"/>
     </row>
     <row r="905" ht="15.2" spans="7:11">
-      <c r="G905" s="16"/>
-      <c r="J905" s="17"/>
-      <c r="K905" s="18"/>
+      <c r="G905" s="13"/>
+      <c r="J905" s="14"/>
+      <c r="K905" s="15"/>
     </row>
     <row r="906" ht="15.2" spans="7:11">
-      <c r="G906" s="16"/>
-      <c r="J906" s="17"/>
-      <c r="K906" s="18"/>
+      <c r="G906" s="13"/>
+      <c r="J906" s="14"/>
+      <c r="K906" s="15"/>
     </row>
     <row r="907" ht="15.2" spans="7:11">
-      <c r="G907" s="16"/>
-      <c r="J907" s="17"/>
-      <c r="K907" s="18"/>
+      <c r="G907" s="13"/>
+      <c r="J907" s="14"/>
+      <c r="K907" s="15"/>
     </row>
     <row r="908" ht="15.2" spans="7:11">
-      <c r="G908" s="16"/>
-      <c r="J908" s="17"/>
-      <c r="K908" s="18"/>
+      <c r="G908" s="13"/>
+      <c r="J908" s="14"/>
+      <c r="K908" s="15"/>
     </row>
     <row r="909" ht="15.2" spans="7:11">
-      <c r="G909" s="16"/>
-      <c r="J909" s="17"/>
-      <c r="K909" s="18"/>
+      <c r="G909" s="13"/>
+      <c r="J909" s="14"/>
+      <c r="K909" s="15"/>
     </row>
     <row r="910" ht="15.2" spans="7:11">
-      <c r="G910" s="16"/>
-      <c r="J910" s="17"/>
-      <c r="K910" s="18"/>
+      <c r="G910" s="13"/>
+      <c r="J910" s="14"/>
+      <c r="K910" s="15"/>
     </row>
     <row r="911" ht="15.2" spans="7:11">
-      <c r="G911" s="16"/>
-      <c r="J911" s="17"/>
-      <c r="K911" s="18"/>
+      <c r="G911" s="13"/>
+      <c r="J911" s="14"/>
+      <c r="K911" s="15"/>
     </row>
     <row r="912" ht="15.2" spans="7:11">
-      <c r="G912" s="16"/>
-      <c r="J912" s="17"/>
-      <c r="K912" s="18"/>
+      <c r="G912" s="13"/>
+      <c r="J912" s="14"/>
+      <c r="K912" s="15"/>
     </row>
     <row r="913" ht="15.2" spans="7:11">
-      <c r="G913" s="16"/>
-      <c r="J913" s="17"/>
-      <c r="K913" s="18"/>
+      <c r="G913" s="13"/>
+      <c r="J913" s="14"/>
+      <c r="K913" s="15"/>
     </row>
     <row r="914" ht="15.2" spans="7:11">
-      <c r="G914" s="16"/>
-      <c r="J914" s="17"/>
-      <c r="K914" s="18"/>
+      <c r="G914" s="13"/>
+      <c r="J914" s="14"/>
+      <c r="K914" s="15"/>
     </row>
     <row r="915" ht="15.2" spans="7:11">
-      <c r="G915" s="16"/>
-      <c r="J915" s="17"/>
-      <c r="K915" s="18"/>
+      <c r="G915" s="13"/>
+      <c r="J915" s="14"/>
+      <c r="K915" s="15"/>
     </row>
     <row r="916" ht="15.2" spans="7:11">
-      <c r="G916" s="16"/>
-      <c r="J916" s="17"/>
-      <c r="K916" s="18"/>
+      <c r="G916" s="13"/>
+      <c r="J916" s="14"/>
+      <c r="K916" s="15"/>
     </row>
     <row r="917" ht="15.2" spans="7:11">
-      <c r="G917" s="16"/>
-      <c r="J917" s="17"/>
-      <c r="K917" s="18"/>
+      <c r="G917" s="13"/>
+      <c r="J917" s="14"/>
+      <c r="K917" s="15"/>
     </row>
     <row r="918" ht="15.2" spans="7:11">
-      <c r="G918" s="16"/>
-      <c r="J918" s="17"/>
-      <c r="K918" s="18"/>
+      <c r="G918" s="13"/>
+      <c r="J918" s="14"/>
+      <c r="K918" s="15"/>
     </row>
     <row r="919" ht="15.2" spans="7:11">
-      <c r="G919" s="16"/>
-      <c r="J919" s="17"/>
-      <c r="K919" s="18"/>
+      <c r="G919" s="13"/>
+      <c r="J919" s="14"/>
+      <c r="K919" s="15"/>
     </row>
     <row r="920" ht="15.2" spans="7:11">
-      <c r="G920" s="16"/>
-      <c r="J920" s="17"/>
-      <c r="K920" s="18"/>
+      <c r="G920" s="13"/>
+      <c r="J920" s="14"/>
+      <c r="K920" s="15"/>
     </row>
     <row r="921" ht="15.2" spans="7:11">
-      <c r="G921" s="16"/>
-      <c r="J921" s="17"/>
-      <c r="K921" s="18"/>
+      <c r="G921" s="13"/>
+      <c r="J921" s="14"/>
+      <c r="K921" s="15"/>
     </row>
     <row r="922" ht="15.2" spans="7:11">
-      <c r="G922" s="16"/>
-      <c r="J922" s="17"/>
-      <c r="K922" s="18"/>
+      <c r="G922" s="13"/>
+      <c r="J922" s="14"/>
+      <c r="K922" s="15"/>
     </row>
     <row r="923" ht="15.2" spans="7:11">
-      <c r="G923" s="16"/>
-      <c r="J923" s="17"/>
-      <c r="K923" s="18"/>
+      <c r="G923" s="13"/>
+      <c r="J923" s="14"/>
+      <c r="K923" s="15"/>
     </row>
     <row r="924" ht="15.2" spans="7:11">
-      <c r="G924" s="16"/>
-      <c r="J924" s="17"/>
-      <c r="K924" s="18"/>
+      <c r="G924" s="13"/>
+      <c r="J924" s="14"/>
+      <c r="K924" s="15"/>
     </row>
     <row r="925" ht="15.2" spans="7:11">
-      <c r="G925" s="16"/>
-      <c r="J925" s="17"/>
-      <c r="K925" s="18"/>
+      <c r="G925" s="13"/>
+      <c r="J925" s="14"/>
+      <c r="K925" s="15"/>
     </row>
     <row r="926" ht="15.2" spans="7:11">
-      <c r="G926" s="16"/>
-      <c r="J926" s="17"/>
-      <c r="K926" s="18"/>
+      <c r="G926" s="13"/>
+      <c r="J926" s="14"/>
+      <c r="K926" s="15"/>
     </row>
     <row r="927" ht="15.2" spans="7:11">
-      <c r="G927" s="16"/>
-      <c r="J927" s="17"/>
-      <c r="K927" s="18"/>
+      <c r="G927" s="13"/>
+      <c r="J927" s="14"/>
+      <c r="K927" s="15"/>
     </row>
     <row r="928" ht="15.2" spans="7:11">
-      <c r="G928" s="16"/>
-      <c r="J928" s="17"/>
-      <c r="K928" s="18"/>
+      <c r="G928" s="13"/>
+      <c r="J928" s="14"/>
+      <c r="K928" s="15"/>
     </row>
     <row r="929" ht="15.2" spans="7:11">
-      <c r="G929" s="16"/>
-      <c r="J929" s="17"/>
-      <c r="K929" s="18"/>
+      <c r="G929" s="13"/>
+      <c r="J929" s="14"/>
+      <c r="K929" s="15"/>
     </row>
     <row r="930" ht="15.2" spans="7:11">
-      <c r="G930" s="16"/>
-      <c r="J930" s="17"/>
-      <c r="K930" s="18"/>
+      <c r="G930" s="13"/>
+      <c r="J930" s="14"/>
+      <c r="K930" s="15"/>
     </row>
     <row r="931" ht="15.2" spans="7:11">
-      <c r="G931" s="16"/>
-      <c r="J931" s="17"/>
-      <c r="K931" s="18"/>
+      <c r="G931" s="13"/>
+      <c r="J931" s="14"/>
+      <c r="K931" s="15"/>
     </row>
     <row r="932" ht="15.2" spans="7:11">
-      <c r="G932" s="16"/>
-      <c r="J932" s="17"/>
-      <c r="K932" s="18"/>
+      <c r="G932" s="13"/>
+      <c r="J932" s="14"/>
+      <c r="K932" s="15"/>
     </row>
     <row r="933" ht="15.2" spans="7:11">
-      <c r="G933" s="16"/>
-      <c r="J933" s="17"/>
-      <c r="K933" s="18"/>
+      <c r="G933" s="13"/>
+      <c r="J933" s="14"/>
+      <c r="K933" s="15"/>
     </row>
     <row r="934" ht="15.2" spans="7:11">
-      <c r="G934" s="16"/>
-      <c r="J934" s="17"/>
-      <c r="K934" s="18"/>
+      <c r="G934" s="13"/>
+      <c r="J934" s="14"/>
+      <c r="K934" s="15"/>
     </row>
     <row r="935" ht="15.2" spans="7:11">
-      <c r="G935" s="16"/>
-      <c r="J935" s="17"/>
-      <c r="K935" s="18"/>
+      <c r="G935" s="13"/>
+      <c r="J935" s="14"/>
+      <c r="K935" s="15"/>
     </row>
     <row r="936" ht="15.2" spans="7:11">
-      <c r="G936" s="16"/>
-      <c r="J936" s="17"/>
-      <c r="K936" s="18"/>
+      <c r="G936" s="13"/>
+      <c r="J936" s="14"/>
+      <c r="K936" s="15"/>
     </row>
     <row r="937" ht="15.2" spans="7:11">
-      <c r="G937" s="16"/>
-      <c r="J937" s="17"/>
-      <c r="K937" s="18"/>
+      <c r="G937" s="13"/>
+      <c r="J937" s="14"/>
+      <c r="K937" s="15"/>
     </row>
     <row r="938" ht="15.2" spans="7:11">
-      <c r="G938" s="16"/>
-      <c r="J938" s="17"/>
-      <c r="K938" s="18"/>
+      <c r="G938" s="13"/>
+      <c r="J938" s="14"/>
+      <c r="K938" s="15"/>
     </row>
     <row r="939" ht="15.2" spans="7:11">
-      <c r="G939" s="16"/>
-      <c r="J939" s="17"/>
-      <c r="K939" s="18"/>
+      <c r="G939" s="13"/>
+      <c r="J939" s="14"/>
+      <c r="K939" s="15"/>
     </row>
     <row r="940" ht="15.2" spans="7:11">
-      <c r="G940" s="16"/>
-      <c r="J940" s="17"/>
-      <c r="K940" s="18"/>
+      <c r="G940" s="13"/>
+      <c r="J940" s="14"/>
+      <c r="K940" s="15"/>
     </row>
     <row r="941" ht="15.2" spans="7:11">
-      <c r="G941" s="16"/>
-      <c r="J941" s="17"/>
-      <c r="K941" s="18"/>
+      <c r="G941" s="13"/>
+      <c r="J941" s="14"/>
+      <c r="K941" s="15"/>
     </row>
     <row r="942" ht="15.2" spans="7:11">
-      <c r="G942" s="16"/>
-      <c r="J942" s="17"/>
-      <c r="K942" s="18"/>
+      <c r="G942" s="13"/>
+      <c r="J942" s="14"/>
+      <c r="K942" s="15"/>
     </row>
     <row r="943" ht="15.2" spans="7:11">
-      <c r="G943" s="16"/>
-      <c r="J943" s="17"/>
-      <c r="K943" s="18"/>
+      <c r="G943" s="13"/>
+      <c r="J943" s="14"/>
+      <c r="K943" s="15"/>
     </row>
     <row r="944" ht="15.2" spans="7:11">
-      <c r="G944" s="16"/>
-      <c r="J944" s="17"/>
-      <c r="K944" s="18"/>
+      <c r="G944" s="13"/>
+      <c r="J944" s="14"/>
+      <c r="K944" s="15"/>
     </row>
     <row r="945" ht="15.2" spans="7:11">
-      <c r="G945" s="16"/>
-      <c r="J945" s="17"/>
-      <c r="K945" s="18"/>
+      <c r="G945" s="13"/>
+      <c r="J945" s="14"/>
+      <c r="K945" s="15"/>
     </row>
     <row r="946" ht="15.2" spans="7:11">
-      <c r="G946" s="16"/>
-      <c r="J946" s="17"/>
-      <c r="K946" s="18"/>
+      <c r="G946" s="13"/>
+      <c r="J946" s="14"/>
+      <c r="K946" s="15"/>
     </row>
     <row r="947" ht="15.2" spans="7:11">
-      <c r="G947" s="16"/>
-      <c r="J947" s="17"/>
-      <c r="K947" s="18"/>
+      <c r="G947" s="13"/>
+      <c r="J947" s="14"/>
+      <c r="K947" s="15"/>
     </row>
     <row r="948" ht="15.2" spans="7:11">
-      <c r="G948" s="16"/>
-      <c r="J948" s="17"/>
-      <c r="K948" s="18"/>
+      <c r="G948" s="13"/>
+      <c r="J948" s="14"/>
+      <c r="K948" s="15"/>
     </row>
     <row r="949" ht="15.2" spans="7:11">
-      <c r="G949" s="16"/>
-      <c r="J949" s="17"/>
-      <c r="K949" s="18"/>
+      <c r="G949" s="13"/>
+      <c r="J949" s="14"/>
+      <c r="K949" s="15"/>
     </row>
     <row r="950" ht="15.2" spans="7:11">
-      <c r="G950" s="16"/>
-      <c r="J950" s="17"/>
-      <c r="K950" s="18"/>
+      <c r="G950" s="13"/>
+      <c r="J950" s="14"/>
+      <c r="K950" s="15"/>
     </row>
     <row r="951" ht="15.2" spans="7:11">
-      <c r="G951" s="16"/>
-      <c r="J951" s="17"/>
-      <c r="K951" s="18"/>
+      <c r="G951" s="13"/>
+      <c r="J951" s="14"/>
+      <c r="K951" s="15"/>
     </row>
     <row r="952" ht="15.2" spans="7:11">
-      <c r="G952" s="16"/>
-      <c r="J952" s="17"/>
-      <c r="K952" s="18"/>
+      <c r="G952" s="13"/>
+      <c r="J952" s="14"/>
+      <c r="K952" s="15"/>
     </row>
     <row r="953" ht="15.2" spans="7:11">
-      <c r="G953" s="16"/>
-      <c r="J953" s="17"/>
-      <c r="K953" s="18"/>
+      <c r="G953" s="13"/>
+      <c r="J953" s="14"/>
+      <c r="K953" s="15"/>
     </row>
     <row r="954" ht="15.2" spans="7:11">
-      <c r="G954" s="16"/>
-      <c r="J954" s="17"/>
-      <c r="K954" s="18"/>
+      <c r="G954" s="13"/>
+      <c r="J954" s="14"/>
+      <c r="K954" s="15"/>
     </row>
     <row r="955" ht="15.2" spans="7:11">
-      <c r="G955" s="16"/>
-      <c r="J955" s="17"/>
-      <c r="K955" s="18"/>
+      <c r="G955" s="13"/>
+      <c r="J955" s="14"/>
+      <c r="K955" s="15"/>
     </row>
     <row r="956" ht="15.2" spans="7:11">
-      <c r="G956" s="16"/>
-      <c r="J956" s="17"/>
-      <c r="K956" s="18"/>
+      <c r="G956" s="13"/>
+      <c r="J956" s="14"/>
+      <c r="K956" s="15"/>
     </row>
     <row r="957" ht="15.2" spans="7:11">
-      <c r="G957" s="16"/>
-      <c r="J957" s="17"/>
-      <c r="K957" s="18"/>
+      <c r="G957" s="13"/>
+      <c r="J957" s="14"/>
+      <c r="K957" s="15"/>
     </row>
     <row r="958" ht="15.2" spans="7:11">
-      <c r="G958" s="16"/>
-      <c r="J958" s="17"/>
-      <c r="K958" s="18"/>
+      <c r="G958" s="13"/>
+      <c r="J958" s="14"/>
+      <c r="K958" s="15"/>
     </row>
     <row r="959" ht="15.2" spans="7:11">
-      <c r="G959" s="16"/>
-      <c r="J959" s="17"/>
-      <c r="K959" s="18"/>
+      <c r="G959" s="13"/>
+      <c r="J959" s="14"/>
+      <c r="K959" s="15"/>
     </row>
     <row r="960" ht="15.2" spans="7:11">
-      <c r="G960" s="16"/>
-      <c r="J960" s="17"/>
-      <c r="K960" s="18"/>
+      <c r="G960" s="13"/>
+      <c r="J960" s="14"/>
+      <c r="K960" s="15"/>
     </row>
     <row r="961" ht="15.2" spans="7:11">
-      <c r="G961" s="16"/>
-      <c r="J961" s="17"/>
-      <c r="K961" s="18"/>
+      <c r="G961" s="13"/>
+      <c r="J961" s="14"/>
+      <c r="K961" s="15"/>
     </row>
     <row r="962" ht="15.2" spans="7:11">
-      <c r="G962" s="16"/>
-      <c r="J962" s="17"/>
-      <c r="K962" s="18"/>
+      <c r="G962" s="13"/>
+      <c r="J962" s="14"/>
+      <c r="K962" s="15"/>
     </row>
     <row r="963" ht="15.2" spans="7:11">
-      <c r="G963" s="16"/>
-      <c r="J963" s="17"/>
-      <c r="K963" s="18"/>
+      <c r="G963" s="13"/>
+      <c r="J963" s="14"/>
+      <c r="K963" s="15"/>
     </row>
     <row r="964" ht="15.2" spans="7:11">
-      <c r="G964" s="16"/>
-      <c r="J964" s="17"/>
-      <c r="K964" s="18"/>
+      <c r="G964" s="13"/>
+      <c r="J964" s="14"/>
+      <c r="K964" s="15"/>
     </row>
     <row r="965" ht="15.2" spans="7:11">
-      <c r="G965" s="16"/>
-      <c r="J965" s="17"/>
-      <c r="K965" s="18"/>
+      <c r="G965" s="13"/>
+      <c r="J965" s="14"/>
+      <c r="K965" s="15"/>
     </row>
     <row r="966" ht="15.2" spans="7:11">
-      <c r="G966" s="16"/>
-      <c r="J966" s="17"/>
-      <c r="K966" s="18"/>
+      <c r="G966" s="13"/>
+      <c r="J966" s="14"/>
+      <c r="K966" s="15"/>
     </row>
     <row r="967" ht="15.2" spans="7:11">
-      <c r="G967" s="16"/>
-      <c r="J967" s="17"/>
-      <c r="K967" s="18"/>
+      <c r="G967" s="13"/>
+      <c r="J967" s="14"/>
+      <c r="K967" s="15"/>
     </row>
     <row r="968" ht="15.2" spans="7:11">
-      <c r="G968" s="16"/>
-      <c r="J968" s="17"/>
-      <c r="K968" s="18"/>
+      <c r="G968" s="13"/>
+      <c r="J968" s="14"/>
+      <c r="K968" s="15"/>
     </row>
     <row r="969" ht="15.2" spans="7:11">
-      <c r="G969" s="16"/>
-      <c r="J969" s="17"/>
-      <c r="K969" s="18"/>
+      <c r="G969" s="13"/>
+      <c r="J969" s="14"/>
+      <c r="K969" s="15"/>
     </row>
     <row r="970" ht="15.2" spans="7:11">
-      <c r="G970" s="16"/>
-      <c r="J970" s="17"/>
-      <c r="K970" s="18"/>
+      <c r="G970" s="13"/>
+      <c r="J970" s="14"/>
+      <c r="K970" s="15"/>
     </row>
     <row r="971" ht="15.2" spans="7:11">
-      <c r="G971" s="16"/>
-      <c r="J971" s="17"/>
-      <c r="K971" s="18"/>
+      <c r="G971" s="13"/>
+      <c r="J971" s="14"/>
+      <c r="K971" s="15"/>
     </row>
     <row r="972" ht="15.2" spans="7:11">
-      <c r="G972" s="16"/>
-      <c r="J972" s="17"/>
-      <c r="K972" s="18"/>
+      <c r="G972" s="13"/>
+      <c r="J972" s="14"/>
+      <c r="K972" s="15"/>
     </row>
     <row r="973" ht="15.2" spans="7:11">
-      <c r="G973" s="16"/>
-      <c r="J973" s="17"/>
-      <c r="K973" s="18"/>
+      <c r="G973" s="13"/>
+      <c r="J973" s="14"/>
+      <c r="K973" s="15"/>
     </row>
     <row r="974" ht="15.2" spans="7:11">
-      <c r="G974" s="16"/>
-      <c r="J974" s="17"/>
-      <c r="K974" s="18"/>
+      <c r="G974" s="13"/>
+      <c r="J974" s="14"/>
+      <c r="K974" s="15"/>
     </row>
     <row r="975" ht="15.2" spans="7:11">
-      <c r="G975" s="16"/>
-      <c r="J975" s="17"/>
-      <c r="K975" s="18"/>
+      <c r="G975" s="13"/>
+      <c r="J975" s="14"/>
+      <c r="K975" s="15"/>
     </row>
     <row r="976" ht="15.2" spans="7:11">
-      <c r="G976" s="16"/>
-      <c r="J976" s="17"/>
-      <c r="K976" s="18"/>
+      <c r="G976" s="13"/>
+      <c r="J976" s="14"/>
+      <c r="K976" s="15"/>
     </row>
     <row r="977" ht="15.2" spans="7:11">
-      <c r="G977" s="16"/>
-      <c r="J977" s="17"/>
-      <c r="K977" s="18"/>
+      <c r="G977" s="13"/>
+      <c r="J977" s="14"/>
+      <c r="K977" s="15"/>
     </row>
     <row r="978" ht="15.2" spans="7:11">
-      <c r="G978" s="16"/>
-      <c r="J978" s="17"/>
-      <c r="K978" s="18"/>
+      <c r="G978" s="13"/>
+      <c r="J978" s="14"/>
+      <c r="K978" s="15"/>
     </row>
     <row r="979" ht="15.2" spans="7:11">
-      <c r="G979" s="16"/>
-      <c r="J979" s="17"/>
-      <c r="K979" s="18"/>
+      <c r="G979" s="13"/>
+      <c r="J979" s="14"/>
+      <c r="K979" s="15"/>
     </row>
     <row r="980" ht="15.2" spans="7:11">
-      <c r="G980" s="16"/>
-      <c r="J980" s="17"/>
-      <c r="K980" s="18"/>
+      <c r="G980" s="13"/>
+      <c r="J980" s="14"/>
+      <c r="K980" s="15"/>
     </row>
     <row r="981" ht="15.2" spans="7:11">
-      <c r="G981" s="16"/>
-      <c r="J981" s="17"/>
-      <c r="K981" s="18"/>
+      <c r="G981" s="13"/>
+      <c r="J981" s="14"/>
+      <c r="K981" s="15"/>
     </row>
     <row r="982" ht="15.2" spans="7:11">
-      <c r="G982" s="16"/>
-      <c r="J982" s="17"/>
-      <c r="K982" s="18"/>
+      <c r="G982" s="13"/>
+      <c r="J982" s="14"/>
+      <c r="K982" s="15"/>
     </row>
     <row r="983" ht="15.2" spans="7:11">
-      <c r="G983" s="16"/>
-      <c r="J983" s="17"/>
-      <c r="K983" s="18"/>
+      <c r="G983" s="13"/>
+      <c r="J983" s="14"/>
+      <c r="K983" s="15"/>
     </row>
     <row r="984" ht="15.2" spans="7:11">
-      <c r="G984" s="16"/>
-      <c r="J984" s="17"/>
-      <c r="K984" s="18"/>
+      <c r="G984" s="13"/>
+      <c r="J984" s="14"/>
+      <c r="K984" s="15"/>
     </row>
     <row r="985" ht="15.2" spans="7:11">
-      <c r="G985" s="16"/>
-      <c r="J985" s="17"/>
-      <c r="K985" s="18"/>
+      <c r="G985" s="13"/>
+      <c r="J985" s="14"/>
+      <c r="K985" s="15"/>
     </row>
     <row r="986" ht="15.2" spans="7:11">
-      <c r="G986" s="16"/>
-      <c r="J986" s="17"/>
-      <c r="K986" s="18"/>
+      <c r="G986" s="13"/>
+      <c r="J986" s="14"/>
+      <c r="K986" s="15"/>
     </row>
     <row r="987" ht="15.2" spans="7:11">
-      <c r="G987" s="16"/>
-      <c r="J987" s="17"/>
-      <c r="K987" s="18"/>
+      <c r="G987" s="13"/>
+      <c r="J987" s="14"/>
+      <c r="K987" s="15"/>
     </row>
     <row r="988" ht="15.2" spans="7:11">
-      <c r="G988" s="16"/>
-      <c r="J988" s="17"/>
-      <c r="K988" s="18"/>
+      <c r="G988" s="13"/>
+      <c r="J988" s="14"/>
+      <c r="K988" s="15"/>
     </row>
     <row r="989" ht="15.2" spans="7:11">
-      <c r="G989" s="16"/>
-      <c r="J989" s="17"/>
-      <c r="K989" s="18"/>
+      <c r="G989" s="13"/>
+      <c r="J989" s="14"/>
+      <c r="K989" s="15"/>
     </row>
     <row r="990" ht="15.2" spans="7:11">
-      <c r="G990" s="16"/>
-      <c r="J990" s="17"/>
-      <c r="K990" s="18"/>
+      <c r="G990" s="13"/>
+      <c r="J990" s="14"/>
+      <c r="K990" s="15"/>
     </row>
     <row r="991" ht="15.2" spans="7:11">
-      <c r="G991" s="16"/>
-      <c r="J991" s="17"/>
-      <c r="K991" s="18"/>
+      <c r="G991" s="13"/>
+      <c r="J991" s="14"/>
+      <c r="K991" s="15"/>
     </row>
     <row r="992" ht="15.2" spans="7:11">
-      <c r="G992" s="16"/>
-      <c r="J992" s="17"/>
-      <c r="K992" s="18"/>
+      <c r="G992" s="13"/>
+      <c r="J992" s="14"/>
+      <c r="K992" s="15"/>
     </row>
     <row r="993" ht="15.2" spans="7:11">
-      <c r="G993" s="16"/>
-      <c r="J993" s="17"/>
-      <c r="K993" s="18"/>
+      <c r="G993" s="13"/>
+      <c r="J993" s="14"/>
+      <c r="K993" s="15"/>
     </row>
     <row r="994" ht="15.2" spans="7:11">
-      <c r="G994" s="16"/>
-      <c r="J994" s="17"/>
-      <c r="K994" s="18"/>
+      <c r="G994" s="13"/>
+      <c r="J994" s="14"/>
+      <c r="K994" s="15"/>
     </row>
     <row r="995" ht="15.2" spans="7:11">
-      <c r="G995" s="16"/>
-      <c r="J995" s="17"/>
-      <c r="K995" s="18"/>
+      <c r="G995" s="13"/>
+      <c r="J995" s="14"/>
+      <c r="K995" s="15"/>
     </row>
     <row r="996" ht="15.2" spans="7:11">
-      <c r="G996" s="16"/>
-      <c r="J996" s="17"/>
-      <c r="K996" s="18"/>
+      <c r="G996" s="13"/>
+      <c r="J996" s="14"/>
+      <c r="K996" s="15"/>
     </row>
     <row r="997" ht="15.2" spans="7:11">
-      <c r="G997" s="16"/>
-      <c r="J997" s="17"/>
-      <c r="K997" s="18"/>
+      <c r="G997" s="13"/>
+      <c r="J997" s="14"/>
+      <c r="K997" s="15"/>
     </row>
     <row r="998" ht="15.2" spans="7:11">
-      <c r="G998" s="16"/>
-      <c r="J998" s="17"/>
-      <c r="K998" s="18"/>
+      <c r="G998" s="13"/>
+      <c r="J998" s="14"/>
+      <c r="K998" s="15"/>
     </row>
     <row r="999" ht="15.2" spans="7:11">
-      <c r="G999" s="16"/>
-      <c r="J999" s="17"/>
-      <c r="K999" s="18"/>
+      <c r="G999" s="13"/>
+      <c r="J999" s="14"/>
+      <c r="K999" s="15"/>
     </row>
     <row r="1000" ht="15.2" spans="7:11">
-      <c r="G1000" s="16"/>
-      <c r="J1000" s="17"/>
-      <c r="K1000" s="18"/>
+      <c r="G1000" s="13"/>
+      <c r="J1000" s="14"/>
+      <c r="K1000" s="15"/>
     </row>
     <row r="1001" ht="15.2" spans="7:11">
-      <c r="G1001" s="16"/>
-      <c r="J1001" s="17"/>
-      <c r="K1001" s="18"/>
+      <c r="G1001" s="13"/>
+      <c r="J1001" s="14"/>
+      <c r="K1001" s="15"/>
     </row>
     <row r="1002" ht="15.2" spans="7:11">
-      <c r="G1002" s="16"/>
-      <c r="J1002" s="17"/>
-      <c r="K1002" s="18"/>
+      <c r="G1002" s="13"/>
+      <c r="J1002" s="14"/>
+      <c r="K1002" s="15"/>
     </row>
     <row r="1003" ht="15.2" spans="7:11">
-      <c r="G1003" s="16"/>
-      <c r="J1003" s="17"/>
-      <c r="K1003" s="18"/>
+      <c r="G1003" s="13"/>
+      <c r="J1003" s="14"/>
+      <c r="K1003" s="15"/>
     </row>
     <row r="1004" ht="15.2" spans="7:11">
-      <c r="G1004" s="16"/>
-      <c r="J1004" s="17"/>
-      <c r="K1004" s="18"/>
+      <c r="G1004" s="13"/>
+      <c r="J1004" s="14"/>
+      <c r="K1004" s="15"/>
     </row>
     <row r="1005" ht="15.2" spans="7:11">
-      <c r="G1005" s="16"/>
-      <c r="J1005" s="17"/>
-      <c r="K1005" s="18"/>
+      <c r="G1005" s="13"/>
+      <c r="J1005" s="14"/>
+      <c r="K1005" s="15"/>
     </row>
     <row r="1006" ht="15.2" spans="7:11">
-      <c r="G1006" s="16"/>
-      <c r="J1006" s="17"/>
-      <c r="K1006" s="18"/>
+      <c r="G1006" s="13"/>
+      <c r="J1006" s="14"/>
+      <c r="K1006" s="15"/>
     </row>
     <row r="1007" ht="15.2" spans="7:11">
-      <c r="G1007" s="16"/>
-      <c r="J1007" s="17"/>
-      <c r="K1007" s="18"/>
+      <c r="G1007" s="13"/>
+      <c r="J1007" s="14"/>
+      <c r="K1007" s="15"/>
     </row>
     <row r="1008" ht="15.2" spans="7:11">
-      <c r="G1008" s="16"/>
-      <c r="J1008" s="17"/>
-      <c r="K1008" s="18"/>
+      <c r="G1008" s="13"/>
+      <c r="J1008" s="14"/>
+      <c r="K1008" s="15"/>
     </row>
     <row r="1009" ht="15.2" spans="7:11">
-      <c r="G1009" s="16"/>
-      <c r="J1009" s="17"/>
-      <c r="K1009" s="18"/>
+      <c r="G1009" s="13"/>
+      <c r="J1009" s="14"/>
+      <c r="K1009" s="15"/>
     </row>
     <row r="1010" ht="15.2" spans="7:11">
-      <c r="G1010" s="16"/>
-      <c r="J1010" s="17"/>
-      <c r="K1010" s="18"/>
+      <c r="G1010" s="13"/>
+      <c r="J1010" s="14"/>
+      <c r="K1010" s="15"/>
     </row>
     <row r="1011" ht="15.2" spans="7:11">
-      <c r="G1011" s="16"/>
-      <c r="J1011" s="17"/>
-      <c r="K1011" s="18"/>
+      <c r="G1011" s="13"/>
+      <c r="J1011" s="14"/>
+      <c r="K1011" s="15"/>
     </row>
     <row r="1012" ht="15.2" spans="7:11">
-      <c r="G1012" s="16"/>
-      <c r="J1012" s="17"/>
-      <c r="K1012" s="18"/>
+      <c r="G1012" s="13"/>
+      <c r="J1012" s="14"/>
+      <c r="K1012" s="15"/>
     </row>
     <row r="1013" ht="15.2" spans="7:11">
-      <c r="G1013" s="16"/>
-      <c r="J1013" s="17"/>
-      <c r="K1013" s="18"/>
+      <c r="G1013" s="13"/>
+      <c r="J1013" s="14"/>
+      <c r="K1013" s="15"/>
     </row>
     <row r="1014" ht="15.2" spans="7:11">
-      <c r="G1014" s="16"/>
-      <c r="J1014" s="17"/>
-      <c r="K1014" s="18"/>
+      <c r="G1014" s="13"/>
+      <c r="J1014" s="14"/>
+      <c r="K1014" s="15"/>
     </row>
     <row r="1015" ht="15.2" spans="7:11">
-      <c r="G1015" s="16"/>
-      <c r="J1015" s="17"/>
-      <c r="K1015" s="18"/>
+      <c r="G1015" s="13"/>
+      <c r="J1015" s="14"/>
+      <c r="K1015" s="15"/>
     </row>
     <row r="1016" ht="15.2" spans="7:11">
-      <c r="G1016" s="16"/>
-      <c r="J1016" s="17"/>
-      <c r="K1016" s="18"/>
+      <c r="G1016" s="13"/>
+      <c r="J1016" s="14"/>
+      <c r="K1016" s="15"/>
     </row>
     <row r="1017" ht="15.2" spans="7:11">
-      <c r="G1017" s="16"/>
-      <c r="J1017" s="17"/>
-      <c r="K1017" s="18"/>
+      <c r="G1017" s="13"/>
+      <c r="J1017" s="14"/>
+      <c r="K1017" s="15"/>
     </row>
     <row r="1018" ht="15.2" spans="7:11">
-      <c r="G1018" s="16"/>
-      <c r="J1018" s="17"/>
-      <c r="K1018" s="18"/>
+      <c r="G1018" s="13"/>
+      <c r="J1018" s="14"/>
+      <c r="K1018" s="15"/>
     </row>
     <row r="1019" ht="15.2" spans="7:11">
-      <c r="G1019" s="16"/>
-      <c r="J1019" s="17"/>
-      <c r="K1019" s="18"/>
+      <c r="G1019" s="13"/>
+      <c r="J1019" s="14"/>
+      <c r="K1019" s="15"/>
     </row>
     <row r="1020" ht="15.2" spans="7:11">
-      <c r="G1020" s="16"/>
-      <c r="J1020" s="17"/>
-      <c r="K1020" s="18"/>
+      <c r="G1020" s="13"/>
+      <c r="J1020" s="14"/>
+      <c r="K1020" s="15"/>
     </row>
     <row r="1021" ht="15.2" spans="7:11">
-      <c r="G1021" s="16"/>
-      <c r="J1021" s="17"/>
-      <c r="K1021" s="18"/>
+      <c r="G1021" s="13"/>
+      <c r="J1021" s="14"/>
+      <c r="K1021" s="15"/>
     </row>
     <row r="1022" ht="15.2" spans="7:11">
-      <c r="G1022" s="16"/>
-      <c r="J1022" s="17"/>
-      <c r="K1022" s="18"/>
+      <c r="G1022" s="13"/>
+      <c r="J1022" s="14"/>
+      <c r="K1022" s="15"/>
     </row>
     <row r="1023" ht="15.2" spans="7:11">
-      <c r="G1023" s="16"/>
-      <c r="J1023" s="17"/>
-      <c r="K1023" s="18"/>
+      <c r="G1023" s="13"/>
+      <c r="J1023" s="14"/>
+      <c r="K1023" s="15"/>
     </row>
     <row r="1024" ht="15.2" spans="7:11">
-      <c r="G1024" s="16"/>
-      <c r="J1024" s="17"/>
-      <c r="K1024" s="18"/>
+      <c r="G1024" s="13"/>
+      <c r="J1024" s="14"/>
+      <c r="K1024" s="15"/>
     </row>
     <row r="1025" ht="15.2" spans="7:11">
-      <c r="G1025" s="16"/>
-      <c r="J1025" s="17"/>
-      <c r="K1025" s="18"/>
+      <c r="G1025" s="13"/>
+      <c r="J1025" s="14"/>
+      <c r="K1025" s="15"/>
     </row>
     <row r="1026" ht="15.2" spans="7:11">
-      <c r="G1026" s="16"/>
-      <c r="J1026" s="17"/>
-      <c r="K1026" s="18"/>
+      <c r="G1026" s="13"/>
+      <c r="J1026" s="14"/>
+      <c r="K1026" s="15"/>
     </row>
     <row r="1027" ht="15.2" spans="7:11">
-      <c r="G1027" s="16"/>
-      <c r="J1027" s="17"/>
-      <c r="K1027" s="18"/>
+      <c r="G1027" s="13"/>
+      <c r="J1027" s="14"/>
+      <c r="K1027" s="15"/>
     </row>
     <row r="1028" ht="15.2" spans="7:11">
-      <c r="G1028" s="16"/>
-      <c r="J1028" s="17"/>
-      <c r="K1028" s="18"/>
+      <c r="G1028" s="13"/>
+      <c r="J1028" s="14"/>
+      <c r="K1028" s="15"/>
     </row>
     <row r="1029" ht="15.2" spans="7:11">
-      <c r="G1029" s="16"/>
-      <c r="J1029" s="17"/>
-      <c r="K1029" s="18"/>
+      <c r="G1029" s="13"/>
+      <c r="J1029" s="14"/>
+      <c r="K1029" s="15"/>
     </row>
     <row r="1030" ht="15.2" spans="7:11">
-      <c r="G1030" s="16"/>
-      <c r="J1030" s="17"/>
-      <c r="K1030" s="18"/>
+      <c r="G1030" s="13"/>
+      <c r="J1030" s="14"/>
+      <c r="K1030" s="15"/>
     </row>
     <row r="1031" ht="15.2" spans="7:11">
-      <c r="G1031" s="16"/>
-      <c r="J1031" s="17"/>
-      <c r="K1031" s="18"/>
+      <c r="G1031" s="13"/>
+      <c r="J1031" s="14"/>
+      <c r="K1031" s="15"/>
     </row>
     <row r="1032" ht="15.2" spans="7:11">
-      <c r="G1032" s="16"/>
-      <c r="J1032" s="17"/>
-      <c r="K1032" s="18"/>
+      <c r="G1032" s="13"/>
+      <c r="J1032" s="14"/>
+      <c r="K1032" s="15"/>
     </row>
     <row r="1033" ht="15.2" spans="7:11">
-      <c r="G1033" s="16"/>
-      <c r="J1033" s="17"/>
-      <c r="K1033" s="18"/>
+      <c r="G1033" s="13"/>
+      <c r="J1033" s="14"/>
+      <c r="K1033" s="15"/>
     </row>
     <row r="1034" ht="15.2" spans="7:11">
-      <c r="G1034" s="16"/>
-      <c r="J1034" s="17"/>
-      <c r="K1034" s="18"/>
+      <c r="G1034" s="13"/>
+      <c r="J1034" s="14"/>
+      <c r="K1034" s="15"/>
     </row>
     <row r="1035" ht="15.2" spans="7:11">
-      <c r="G1035" s="16"/>
-      <c r="J1035" s="17"/>
-      <c r="K1035" s="18"/>
+      <c r="G1035" s="13"/>
+      <c r="J1035" s="14"/>
+      <c r="K1035" s="15"/>
     </row>
     <row r="1036" ht="15.2" spans="7:11">
-      <c r="G1036" s="16"/>
-      <c r="J1036" s="17"/>
-      <c r="K1036" s="18"/>
+      <c r="G1036" s="13"/>
+      <c r="J1036" s="14"/>
+      <c r="K1036" s="15"/>
     </row>
     <row r="1037" ht="15.2" spans="7:11">
-      <c r="G1037" s="16"/>
-      <c r="J1037" s="17"/>
-      <c r="K1037" s="18"/>
+      <c r="G1037" s="13"/>
+      <c r="J1037" s="14"/>
+      <c r="K1037" s="15"/>
     </row>
     <row r="1038" ht="15.2" spans="7:11">
-      <c r="G1038" s="16"/>
-      <c r="J1038" s="17"/>
-      <c r="K1038" s="18"/>
+      <c r="G1038" s="13"/>
+      <c r="J1038" s="14"/>
+      <c r="K1038" s="15"/>
     </row>
     <row r="1039" ht="15.2" spans="7:11">
-      <c r="G1039" s="16"/>
-      <c r="J1039" s="17"/>
-      <c r="K1039" s="18"/>
+      <c r="G1039" s="13"/>
+      <c r="J1039" s="14"/>
+      <c r="K1039" s="15"/>
     </row>
     <row r="1040" ht="15.2" spans="7:11">
-      <c r="G1040" s="16"/>
-      <c r="J1040" s="17"/>
-      <c r="K1040" s="18"/>
+      <c r="G1040" s="13"/>
+      <c r="J1040" s="14"/>
+      <c r="K1040" s="15"/>
     </row>
     <row r="1041" ht="15.2" spans="7:11">
-      <c r="G1041" s="16"/>
-      <c r="J1041" s="17"/>
-      <c r="K1041" s="18"/>
+      <c r="G1041" s="13"/>
+      <c r="J1041" s="14"/>
+      <c r="K1041" s="15"/>
     </row>
     <row r="1042" ht="15.2" spans="7:11">
-      <c r="G1042" s="16"/>
-      <c r="J1042" s="17"/>
-      <c r="K1042" s="18"/>
+      <c r="G1042" s="13"/>
+      <c r="J1042" s="14"/>
+      <c r="K1042" s="15"/>
     </row>
     <row r="1043" ht="15.2" spans="7:11">
-      <c r="G1043" s="16"/>
-      <c r="J1043" s="17"/>
-      <c r="K1043" s="18"/>
+      <c r="G1043" s="13"/>
+      <c r="J1043" s="14"/>
+      <c r="K1043" s="15"/>
     </row>
     <row r="1044" ht="15.2" spans="7:11">
-      <c r="G1044" s="16"/>
-      <c r="J1044" s="17"/>
-      <c r="K1044" s="18"/>
+      <c r="G1044" s="13"/>
+      <c r="J1044" s="14"/>
+      <c r="K1044" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1388,7 +1388,7 @@
     <t>Tsinghua University &amp; Zhipu AI</t>
   </si>
   <si>
-    <t>#</t>
+    <t>https://arxiv.org/pdf/2508.14040</t>
   </si>
   <si>
     <t>Lai et al., '25</t>
@@ -2108,7 +2108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2136,9 +2136,6 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2630,8 +2627,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -2711,8 +2708,8 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" ht="16.75" customHeight="1" spans="1:26">
       <c r="A2" s="3" t="s">
@@ -2775,12 +2772,12 @@
       <c r="T2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" ht="16.75" customHeight="1" spans="1:26">
       <c r="A3" s="3" t="s">
@@ -2843,12 +2840,12 @@
       <c r="T3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" ht="16.75" customHeight="1" spans="1:26">
       <c r="A4" s="3" t="s">
@@ -2911,12 +2908,12 @@
       <c r="T4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" ht="16.75" customHeight="1" spans="1:26">
       <c r="A5" s="3" t="s">
@@ -2979,12 +2976,12 @@
       <c r="T5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" ht="16.75" customHeight="1" spans="1:22">
       <c r="A6" s="3" t="s">
@@ -3021,8 +3018,8 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" ht="16.75" customHeight="1" spans="1:22">
       <c r="A7" s="3" t="s">
@@ -3059,8 +3056,8 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" ht="16.75" customHeight="1" spans="1:22">
       <c r="A8" s="3" t="s">
@@ -3123,8 +3120,8 @@
       <c r="T8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" ht="16.75" customHeight="1" spans="1:22">
       <c r="A9" s="3" t="s">
@@ -3187,8 +3184,8 @@
       <c r="T9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" ht="16.75" customHeight="1" spans="1:22">
       <c r="A10" s="3" t="s">
@@ -3251,8 +3248,8 @@
       <c r="T10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
     <row r="11" ht="16.75" customHeight="1" spans="1:22">
       <c r="A11" s="3" t="s">
@@ -3315,8 +3312,8 @@
       <c r="T11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" ht="16.75" customHeight="1" spans="1:22">
       <c r="A12" s="3" t="s">
@@ -3379,8 +3376,8 @@
       <c r="T12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" ht="16.75" customHeight="1" spans="1:22">
       <c r="A13" s="3" t="s">
@@ -3443,8 +3440,8 @@
       <c r="T13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" ht="16.75" customHeight="1" spans="1:22">
       <c r="A14" s="3" t="s">
@@ -3507,8 +3504,8 @@
       <c r="T14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
     <row r="15" ht="16.75" customHeight="1" spans="1:22">
       <c r="A15" s="3" t="s">
@@ -3571,8 +3568,8 @@
       <c r="T15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A16" s="3" t="s">
@@ -3635,15 +3632,15 @@
       <c r="T16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A17" s="3" t="s">
@@ -3706,15 +3703,15 @@
       <c r="T17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
     </row>
     <row r="18" ht="16.75" customHeight="1" spans="1:22">
       <c r="A18" s="3" t="s">
@@ -3777,8 +3774,8 @@
       <c r="T18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" ht="16.75" customHeight="1" spans="1:22">
       <c r="A19" s="3" t="s">
@@ -3841,8 +3838,8 @@
       <c r="T19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
     </row>
     <row r="20" ht="16.75" customHeight="1" spans="1:22">
       <c r="A20" s="3" t="s">
@@ -3905,8 +3902,8 @@
       <c r="T20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
     </row>
     <row r="21" ht="16.75" customHeight="1" spans="1:22">
       <c r="A21" s="3" t="s">
@@ -3969,8 +3966,8 @@
       <c r="T21" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" ht="16.75" customHeight="1" spans="1:22">
       <c r="A22" s="3" t="s">
@@ -4033,8 +4030,8 @@
       <c r="T22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" ht="16.75" customHeight="1" spans="1:22">
       <c r="A23" s="3" t="s">
@@ -4097,8 +4094,8 @@
       <c r="T23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
     </row>
     <row r="24" ht="16.75" customHeight="1" spans="1:22">
       <c r="A24" s="3" t="s">
@@ -4161,8 +4158,8 @@
       <c r="T24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
     </row>
     <row r="25" ht="16.75" customHeight="1" spans="1:22">
       <c r="A25" s="3" t="s">
@@ -4225,8 +4222,8 @@
       <c r="T25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
     </row>
     <row r="26" ht="16.75" customHeight="1" spans="1:22">
       <c r="A26" s="3" t="s">
@@ -4289,8 +4286,8 @@
       <c r="T26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
     </row>
     <row r="27" ht="16.75" customHeight="1" spans="1:22">
       <c r="A27" s="3" t="s">
@@ -4353,8 +4350,8 @@
       <c r="T27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
     </row>
     <row r="28" ht="16.75" customHeight="1" spans="1:22">
       <c r="A28" s="3" t="s">
@@ -4417,8 +4414,8 @@
       <c r="T28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
     </row>
     <row r="29" ht="16.75" customHeight="1" spans="1:22">
       <c r="A29" s="3" t="s">
@@ -4481,8 +4478,8 @@
       <c r="T29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
     </row>
     <row r="30" ht="16.75" customHeight="1" spans="1:22">
       <c r="A30" s="3" t="s">
@@ -4545,8 +4542,8 @@
       <c r="T30" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
     </row>
     <row r="31" ht="16.75" customHeight="1" spans="1:22">
       <c r="A31" s="3" t="s">
@@ -4609,8 +4606,8 @@
       <c r="T31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
     </row>
     <row r="32" ht="16.75" customHeight="1" spans="1:22">
       <c r="A32" s="3" t="s">
@@ -4673,8 +4670,8 @@
       <c r="T32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
     </row>
     <row r="33" ht="16.75" customHeight="1" spans="1:22">
       <c r="A33" s="3" t="s">
@@ -4737,8 +4734,8 @@
       <c r="T33" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
     </row>
     <row r="34" ht="16.75" customHeight="1" spans="1:22">
       <c r="A34" s="3" t="s">
@@ -4801,8 +4798,8 @@
       <c r="T34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
     </row>
     <row r="35" ht="16.75" customHeight="1" spans="1:22">
       <c r="A35" s="3" t="s">
@@ -4865,8 +4862,8 @@
       <c r="T35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
     </row>
     <row r="36" ht="16.75" customHeight="1" spans="1:22">
       <c r="A36" s="3" t="s">
@@ -4929,8 +4926,8 @@
       <c r="T36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
     </row>
     <row r="37" ht="16.75" customHeight="1" spans="1:22">
       <c r="A37" s="3" t="s">
@@ -4993,8 +4990,8 @@
       <c r="T37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
     </row>
     <row r="38" ht="16.75" customHeight="1" spans="1:22">
       <c r="A38" s="3" t="s">
@@ -5057,8 +5054,8 @@
       <c r="T38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
     </row>
     <row r="39" ht="16.75" customHeight="1" spans="1:22">
       <c r="A39" s="3" t="s">
@@ -5121,8 +5118,8 @@
       <c r="T39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
     </row>
     <row r="40" ht="16.75" customHeight="1" spans="1:22">
       <c r="A40" s="3" t="s">
@@ -5185,8 +5182,8 @@
       <c r="T40" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
     </row>
     <row r="41" ht="16.75" customHeight="1" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -5249,8 +5246,8 @@
       <c r="T41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
     </row>
     <row r="42" ht="16.75" customHeight="1" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -5313,8 +5310,8 @@
       <c r="T42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
     </row>
     <row r="43" ht="16.75" customHeight="1" spans="1:22">
       <c r="A43" s="3" t="s">
@@ -5377,8 +5374,8 @@
       <c r="T43" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
     </row>
     <row r="44" ht="16.75" customHeight="1" spans="1:22">
       <c r="A44" s="3" t="s">
@@ -5441,8 +5438,8 @@
       <c r="T44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
     </row>
     <row r="45" ht="16.75" customHeight="1" spans="1:22">
       <c r="A45" s="3" t="s">
@@ -5505,8 +5502,8 @@
       <c r="T45" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
     </row>
     <row r="46" ht="16.75" customHeight="1" spans="1:22">
       <c r="A46" s="3" t="s">
@@ -5569,8 +5566,8 @@
       <c r="T46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
     </row>
     <row r="47" ht="16.75" customHeight="1" spans="1:22">
       <c r="A47" s="3" t="s">
@@ -5633,8 +5630,8 @@
       <c r="T47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
     </row>
     <row r="48" ht="16.75" customHeight="1" spans="1:22">
       <c r="A48" s="3" t="s">
@@ -5697,8 +5694,8 @@
       <c r="T48" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
     </row>
     <row r="49" ht="16.75" customHeight="1" spans="1:22">
       <c r="A49" s="3" t="s">
@@ -5761,8 +5758,8 @@
       <c r="T49" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
     </row>
     <row r="50" ht="16.75" customHeight="1" spans="1:22">
       <c r="A50" s="3" t="s">
@@ -5825,8 +5822,8 @@
       <c r="T50" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
     </row>
     <row r="51" ht="16.75" customHeight="1" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -5889,8 +5886,8 @@
       <c r="T51" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
     </row>
     <row r="52" ht="16.75" customHeight="1" spans="1:22">
       <c r="A52" s="3" t="s">
@@ -5953,8 +5950,8 @@
       <c r="T52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
     </row>
     <row r="53" ht="16.75" customHeight="1" spans="1:22">
       <c r="A53" s="3" t="s">
@@ -6017,8 +6014,8 @@
       <c r="T53" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
     </row>
     <row r="54" ht="16.75" customHeight="1" spans="1:22">
       <c r="A54" s="3" t="s">
@@ -6081,8 +6078,8 @@
       <c r="T54" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
     </row>
     <row r="55" ht="16.75" customHeight="1" spans="1:22">
       <c r="A55" s="3" t="s">
@@ -6145,8 +6142,8 @@
       <c r="T55" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
     </row>
     <row r="56" ht="16.75" customHeight="1" spans="1:22">
       <c r="A56" s="3" t="s">
@@ -6209,8 +6206,8 @@
       <c r="T56" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
     </row>
     <row r="57" ht="16.75" customHeight="1" spans="1:22">
       <c r="A57" s="3" t="s">
@@ -6273,8 +6270,8 @@
       <c r="T57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
     </row>
     <row r="58" ht="16.75" customHeight="1" spans="1:22">
       <c r="A58" s="3" t="s">
@@ -6337,8 +6334,8 @@
       <c r="T58" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
     </row>
     <row r="59" ht="16.75" customHeight="1" spans="1:22">
       <c r="A59" s="3" t="s">
@@ -6401,8 +6398,8 @@
       <c r="T59" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
     </row>
     <row r="60" ht="31" spans="1:22">
       <c r="A60" s="3" t="s">
@@ -7283,7 +7280,7 @@
       <c r="B74" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>418</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -7347,7 +7344,7 @@
       <c r="B75" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>418</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -7411,7 +7408,7 @@
       <c r="B76" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>418</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -7473,7 +7470,7 @@
       <c r="B77" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>418</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -7611,7 +7608,7 @@
       <c r="B80" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>442</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -7626,7 +7623,7 @@
       <c r="G80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="12">
         <v>45880</v>
       </c>
       <c r="I80" s="6">
@@ -7673,7 +7670,7 @@
       <c r="B81" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>442</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -7688,7 +7685,7 @@
       <c r="G81" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="12">
         <v>45880</v>
       </c>
       <c r="I81" s="6">
@@ -7750,7 +7747,7 @@
       <c r="G82" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="13">
         <v>45887</v>
       </c>
       <c r="I82" s="6">
@@ -7812,7 +7809,7 @@
       <c r="G83" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="13">
         <v>45887</v>
       </c>
       <c r="I83" s="6">
@@ -7853,4809 +7850,4809 @@
       </c>
     </row>
     <row r="84" ht="15.2" spans="7:11">
-      <c r="G84" s="15"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="17"/>
+      <c r="G84" s="14"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="16"/>
     </row>
     <row r="85" ht="15.2" spans="7:11">
-      <c r="G85" s="15"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="17"/>
+      <c r="G85" s="14"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="16"/>
     </row>
     <row r="86" ht="15.2" spans="7:11">
-      <c r="G86" s="15"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="17"/>
+      <c r="G86" s="14"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="16"/>
     </row>
     <row r="87" ht="15.2" spans="7:11">
-      <c r="G87" s="15"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="17"/>
+      <c r="G87" s="14"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="16"/>
     </row>
     <row r="88" ht="15.2" spans="7:11">
-      <c r="G88" s="15"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="17"/>
+      <c r="G88" s="14"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="16"/>
     </row>
     <row r="89" ht="15.2" spans="7:11">
-      <c r="G89" s="15"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="17"/>
+      <c r="G89" s="14"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="16"/>
     </row>
     <row r="90" ht="15.2" spans="7:11">
-      <c r="G90" s="15"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="17"/>
+      <c r="G90" s="14"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="16"/>
     </row>
     <row r="91" ht="15.2" spans="7:11">
-      <c r="G91" s="15"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="17"/>
+      <c r="G91" s="14"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="16"/>
     </row>
     <row r="92" ht="15.2" spans="7:11">
-      <c r="G92" s="15"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="17"/>
+      <c r="G92" s="14"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="16"/>
     </row>
     <row r="93" ht="15.2" spans="7:11">
-      <c r="G93" s="15"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="17"/>
+      <c r="G93" s="14"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="16"/>
     </row>
     <row r="94" ht="15.2" spans="7:11">
-      <c r="G94" s="15"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="17"/>
+      <c r="G94" s="14"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="16"/>
     </row>
     <row r="95" ht="15.2" spans="7:11">
-      <c r="G95" s="15"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="17"/>
+      <c r="G95" s="14"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="16"/>
     </row>
     <row r="96" ht="15.2" spans="7:11">
-      <c r="G96" s="15"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="17"/>
+      <c r="G96" s="14"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="16"/>
     </row>
     <row r="97" ht="15.2" spans="7:11">
-      <c r="G97" s="15"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="17"/>
+      <c r="G97" s="14"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="16"/>
     </row>
     <row r="98" ht="15.2" spans="7:11">
-      <c r="G98" s="15"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="17"/>
+      <c r="G98" s="14"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="16"/>
     </row>
     <row r="99" ht="15.2" spans="7:11">
-      <c r="G99" s="15"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="17"/>
+      <c r="G99" s="14"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="16"/>
     </row>
     <row r="100" ht="15.2" spans="7:11">
-      <c r="G100" s="15"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="17"/>
+      <c r="G100" s="14"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="16"/>
     </row>
     <row r="101" ht="15.2" spans="7:11">
-      <c r="G101" s="15"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="17"/>
+      <c r="G101" s="14"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="16"/>
     </row>
     <row r="102" ht="15.2" spans="7:11">
-      <c r="G102" s="15"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="17"/>
+      <c r="G102" s="14"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="16"/>
     </row>
     <row r="103" ht="15.2" spans="7:11">
-      <c r="G103" s="15"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="17"/>
+      <c r="G103" s="14"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="16"/>
     </row>
     <row r="104" ht="15.2" spans="7:11">
-      <c r="G104" s="15"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="17"/>
+      <c r="G104" s="14"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="16"/>
     </row>
     <row r="105" ht="15.2" spans="7:11">
-      <c r="G105" s="15"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="17"/>
+      <c r="G105" s="14"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="16"/>
     </row>
     <row r="106" ht="15.2" spans="7:11">
-      <c r="G106" s="15"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="17"/>
+      <c r="G106" s="14"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="16"/>
     </row>
     <row r="107" ht="15.2" spans="7:11">
-      <c r="G107" s="15"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="17"/>
+      <c r="G107" s="14"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="16"/>
     </row>
     <row r="108" ht="15.2" spans="7:11">
-      <c r="G108" s="15"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="17"/>
+      <c r="G108" s="14"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="16"/>
     </row>
     <row r="109" ht="15.2" spans="7:11">
-      <c r="G109" s="15"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="17"/>
+      <c r="G109" s="14"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="16"/>
     </row>
     <row r="110" ht="15.2" spans="7:11">
-      <c r="G110" s="15"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="17"/>
+      <c r="G110" s="14"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="16"/>
     </row>
     <row r="111" ht="15.2" spans="7:11">
-      <c r="G111" s="15"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="17"/>
+      <c r="G111" s="14"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="16"/>
     </row>
     <row r="112" ht="15.2" spans="7:11">
-      <c r="G112" s="15"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="17"/>
+      <c r="G112" s="14"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="16"/>
     </row>
     <row r="113" ht="15.2" spans="7:11">
-      <c r="G113" s="15"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="17"/>
+      <c r="G113" s="14"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="16"/>
     </row>
     <row r="114" ht="15.2" spans="7:11">
-      <c r="G114" s="15"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="17"/>
+      <c r="G114" s="14"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="16"/>
     </row>
     <row r="115" ht="15.2" spans="7:11">
-      <c r="G115" s="15"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="17"/>
+      <c r="G115" s="14"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="16"/>
     </row>
     <row r="116" ht="15.2" spans="7:11">
-      <c r="G116" s="15"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="17"/>
+      <c r="G116" s="14"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="16"/>
     </row>
     <row r="117" ht="15.2" spans="7:11">
-      <c r="G117" s="15"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="17"/>
+      <c r="G117" s="14"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="16"/>
     </row>
     <row r="118" ht="15.2" spans="7:11">
-      <c r="G118" s="15"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="17"/>
+      <c r="G118" s="14"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="16"/>
     </row>
     <row r="119" ht="15.2" spans="7:11">
-      <c r="G119" s="15"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="17"/>
+      <c r="G119" s="14"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="16"/>
     </row>
     <row r="120" ht="15.2" spans="7:11">
-      <c r="G120" s="15"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="17"/>
+      <c r="G120" s="14"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="16"/>
     </row>
     <row r="121" ht="15.2" spans="7:11">
-      <c r="G121" s="15"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="17"/>
+      <c r="G121" s="14"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="16"/>
     </row>
     <row r="122" ht="15.2" spans="7:11">
-      <c r="G122" s="15"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="17"/>
+      <c r="G122" s="14"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="16"/>
     </row>
     <row r="123" ht="15.2" spans="7:11">
-      <c r="G123" s="15"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="17"/>
+      <c r="G123" s="14"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="16"/>
     </row>
     <row r="124" ht="15.2" spans="7:11">
-      <c r="G124" s="15"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="17"/>
+      <c r="G124" s="14"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="16"/>
     </row>
     <row r="125" ht="15.2" spans="7:11">
-      <c r="G125" s="15"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="17"/>
+      <c r="G125" s="14"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="16"/>
     </row>
     <row r="126" ht="15.2" spans="7:11">
-      <c r="G126" s="15"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="17"/>
+      <c r="G126" s="14"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="16"/>
     </row>
     <row r="127" ht="15.2" spans="7:11">
-      <c r="G127" s="15"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="17"/>
+      <c r="G127" s="14"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="16"/>
     </row>
     <row r="128" ht="15.2" spans="7:11">
-      <c r="G128" s="15"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="17"/>
+      <c r="G128" s="14"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="16"/>
     </row>
     <row r="129" ht="15.2" spans="7:11">
-      <c r="G129" s="15"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="17"/>
+      <c r="G129" s="14"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="16"/>
     </row>
     <row r="130" ht="15.2" spans="7:11">
-      <c r="G130" s="15"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="17"/>
+      <c r="G130" s="14"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="16"/>
     </row>
     <row r="131" ht="15.2" spans="7:11">
-      <c r="G131" s="15"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="17"/>
+      <c r="G131" s="14"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="16"/>
     </row>
     <row r="132" ht="15.2" spans="7:11">
-      <c r="G132" s="15"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="17"/>
+      <c r="G132" s="14"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="16"/>
     </row>
     <row r="133" ht="15.2" spans="7:11">
-      <c r="G133" s="15"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="17"/>
+      <c r="G133" s="14"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="16"/>
     </row>
     <row r="134" ht="15.2" spans="7:11">
-      <c r="G134" s="15"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="17"/>
+      <c r="G134" s="14"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="16"/>
     </row>
     <row r="135" ht="15.2" spans="7:11">
-      <c r="G135" s="15"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="17"/>
+      <c r="G135" s="14"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="16"/>
     </row>
     <row r="136" ht="15.2" spans="7:11">
-      <c r="G136" s="15"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="17"/>
+      <c r="G136" s="14"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="16"/>
     </row>
     <row r="137" ht="15.2" spans="7:11">
-      <c r="G137" s="15"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="17"/>
+      <c r="G137" s="14"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="16"/>
     </row>
     <row r="138" ht="15.2" spans="7:11">
-      <c r="G138" s="15"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="17"/>
+      <c r="G138" s="14"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="16"/>
     </row>
     <row r="139" ht="15.2" spans="7:11">
-      <c r="G139" s="15"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="17"/>
+      <c r="G139" s="14"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="16"/>
     </row>
     <row r="140" ht="15.2" spans="7:11">
-      <c r="G140" s="15"/>
-      <c r="J140" s="16"/>
-      <c r="K140" s="17"/>
+      <c r="G140" s="14"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="16"/>
     </row>
     <row r="141" ht="15.2" spans="7:11">
-      <c r="G141" s="15"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="17"/>
+      <c r="G141" s="14"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="16"/>
     </row>
     <row r="142" ht="15.2" spans="7:11">
-      <c r="G142" s="15"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="17"/>
+      <c r="G142" s="14"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="16"/>
     </row>
     <row r="143" ht="15.2" spans="7:11">
-      <c r="G143" s="15"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="17"/>
+      <c r="G143" s="14"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="16"/>
     </row>
     <row r="144" ht="15.2" spans="7:11">
-      <c r="G144" s="15"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="17"/>
+      <c r="G144" s="14"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="16"/>
     </row>
     <row r="145" ht="15.2" spans="7:11">
-      <c r="G145" s="15"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="17"/>
+      <c r="G145" s="14"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="16"/>
     </row>
     <row r="146" ht="15.2" spans="7:11">
-      <c r="G146" s="15"/>
-      <c r="J146" s="16"/>
-      <c r="K146" s="17"/>
+      <c r="G146" s="14"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="16"/>
     </row>
     <row r="147" ht="15.2" spans="7:11">
-      <c r="G147" s="15"/>
-      <c r="J147" s="16"/>
-      <c r="K147" s="17"/>
+      <c r="G147" s="14"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="16"/>
     </row>
     <row r="148" ht="15.2" spans="7:11">
-      <c r="G148" s="15"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="17"/>
+      <c r="G148" s="14"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="16"/>
     </row>
     <row r="149" ht="15.2" spans="7:11">
-      <c r="G149" s="15"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="17"/>
+      <c r="G149" s="14"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="16"/>
     </row>
     <row r="150" ht="15.2" spans="7:11">
-      <c r="G150" s="15"/>
-      <c r="J150" s="16"/>
-      <c r="K150" s="17"/>
+      <c r="G150" s="14"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="16"/>
     </row>
     <row r="151" ht="15.2" spans="7:11">
-      <c r="G151" s="15"/>
-      <c r="J151" s="16"/>
-      <c r="K151" s="17"/>
+      <c r="G151" s="14"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="16"/>
     </row>
     <row r="152" ht="15.2" spans="7:11">
-      <c r="G152" s="15"/>
-      <c r="J152" s="16"/>
-      <c r="K152" s="17"/>
+      <c r="G152" s="14"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="16"/>
     </row>
     <row r="153" ht="15.2" spans="7:11">
-      <c r="G153" s="15"/>
-      <c r="J153" s="16"/>
-      <c r="K153" s="17"/>
+      <c r="G153" s="14"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="16"/>
     </row>
     <row r="154" ht="15.2" spans="7:11">
-      <c r="G154" s="15"/>
-      <c r="J154" s="16"/>
-      <c r="K154" s="17"/>
+      <c r="G154" s="14"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="16"/>
     </row>
     <row r="155" ht="15.2" spans="7:11">
-      <c r="G155" s="15"/>
-      <c r="J155" s="16"/>
-      <c r="K155" s="17"/>
+      <c r="G155" s="14"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="16"/>
     </row>
     <row r="156" ht="15.2" spans="7:11">
-      <c r="G156" s="15"/>
-      <c r="J156" s="16"/>
-      <c r="K156" s="17"/>
+      <c r="G156" s="14"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="16"/>
     </row>
     <row r="157" ht="15.2" spans="7:11">
-      <c r="G157" s="15"/>
-      <c r="J157" s="16"/>
-      <c r="K157" s="17"/>
+      <c r="G157" s="14"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="16"/>
     </row>
     <row r="158" ht="15.2" spans="7:11">
-      <c r="G158" s="15"/>
-      <c r="J158" s="16"/>
-      <c r="K158" s="17"/>
+      <c r="G158" s="14"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="16"/>
     </row>
     <row r="159" ht="15.2" spans="7:11">
-      <c r="G159" s="15"/>
-      <c r="J159" s="16"/>
-      <c r="K159" s="17"/>
+      <c r="G159" s="14"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="16"/>
     </row>
     <row r="160" ht="15.2" spans="7:11">
-      <c r="G160" s="15"/>
-      <c r="J160" s="16"/>
-      <c r="K160" s="17"/>
+      <c r="G160" s="14"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="16"/>
     </row>
     <row r="161" ht="15.2" spans="7:11">
-      <c r="G161" s="15"/>
-      <c r="J161" s="16"/>
-      <c r="K161" s="17"/>
+      <c r="G161" s="14"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="16"/>
     </row>
     <row r="162" ht="15.2" spans="7:11">
-      <c r="G162" s="15"/>
-      <c r="J162" s="16"/>
-      <c r="K162" s="17"/>
+      <c r="G162" s="14"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="16"/>
     </row>
     <row r="163" ht="15.2" spans="7:11">
-      <c r="G163" s="15"/>
-      <c r="J163" s="16"/>
-      <c r="K163" s="17"/>
+      <c r="G163" s="14"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="16"/>
     </row>
     <row r="164" ht="15.2" spans="7:11">
-      <c r="G164" s="15"/>
-      <c r="J164" s="16"/>
-      <c r="K164" s="17"/>
+      <c r="G164" s="14"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="16"/>
     </row>
     <row r="165" ht="15.2" spans="7:11">
-      <c r="G165" s="15"/>
-      <c r="J165" s="16"/>
-      <c r="K165" s="17"/>
+      <c r="G165" s="14"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="16"/>
     </row>
     <row r="166" ht="15.2" spans="7:11">
-      <c r="G166" s="15"/>
-      <c r="J166" s="16"/>
-      <c r="K166" s="17"/>
+      <c r="G166" s="14"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="16"/>
     </row>
     <row r="167" ht="15.2" spans="7:11">
-      <c r="G167" s="15"/>
-      <c r="J167" s="16"/>
-      <c r="K167" s="17"/>
+      <c r="G167" s="14"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="16"/>
     </row>
     <row r="168" ht="15.2" spans="7:11">
-      <c r="G168" s="15"/>
-      <c r="J168" s="16"/>
-      <c r="K168" s="17"/>
+      <c r="G168" s="14"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="16"/>
     </row>
     <row r="169" ht="15.2" spans="7:11">
-      <c r="G169" s="15"/>
-      <c r="J169" s="16"/>
-      <c r="K169" s="17"/>
+      <c r="G169" s="14"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="16"/>
     </row>
     <row r="170" ht="15.2" spans="7:11">
-      <c r="G170" s="15"/>
-      <c r="J170" s="16"/>
-      <c r="K170" s="17"/>
+      <c r="G170" s="14"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="16"/>
     </row>
     <row r="171" ht="15.2" spans="7:11">
-      <c r="G171" s="15"/>
-      <c r="J171" s="16"/>
-      <c r="K171" s="17"/>
+      <c r="G171" s="14"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="16"/>
     </row>
     <row r="172" ht="15.2" spans="7:11">
-      <c r="G172" s="15"/>
-      <c r="J172" s="16"/>
-      <c r="K172" s="17"/>
+      <c r="G172" s="14"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="16"/>
     </row>
     <row r="173" ht="15.2" spans="7:11">
-      <c r="G173" s="15"/>
-      <c r="J173" s="16"/>
-      <c r="K173" s="17"/>
+      <c r="G173" s="14"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="16"/>
     </row>
     <row r="174" ht="15.2" spans="7:11">
-      <c r="G174" s="15"/>
-      <c r="J174" s="16"/>
-      <c r="K174" s="17"/>
+      <c r="G174" s="14"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="16"/>
     </row>
     <row r="175" ht="15.2" spans="7:11">
-      <c r="G175" s="15"/>
-      <c r="J175" s="16"/>
-      <c r="K175" s="17"/>
+      <c r="G175" s="14"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="16"/>
     </row>
     <row r="176" ht="15.2" spans="7:11">
-      <c r="G176" s="15"/>
-      <c r="J176" s="16"/>
-      <c r="K176" s="17"/>
+      <c r="G176" s="14"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="16"/>
     </row>
     <row r="177" ht="15.2" spans="7:11">
-      <c r="G177" s="15"/>
-      <c r="J177" s="16"/>
-      <c r="K177" s="17"/>
+      <c r="G177" s="14"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="16"/>
     </row>
     <row r="178" ht="15.2" spans="7:11">
-      <c r="G178" s="15"/>
-      <c r="J178" s="16"/>
-      <c r="K178" s="17"/>
+      <c r="G178" s="14"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="16"/>
     </row>
     <row r="179" ht="15.2" spans="7:11">
-      <c r="G179" s="15"/>
-      <c r="J179" s="16"/>
-      <c r="K179" s="17"/>
+      <c r="G179" s="14"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="16"/>
     </row>
     <row r="180" ht="15.2" spans="7:11">
-      <c r="G180" s="15"/>
-      <c r="J180" s="16"/>
-      <c r="K180" s="17"/>
+      <c r="G180" s="14"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="16"/>
     </row>
     <row r="181" ht="15.2" spans="7:11">
-      <c r="G181" s="15"/>
-      <c r="J181" s="16"/>
-      <c r="K181" s="17"/>
+      <c r="G181" s="14"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="16"/>
     </row>
     <row r="182" ht="15.2" spans="7:11">
-      <c r="G182" s="15"/>
-      <c r="J182" s="16"/>
-      <c r="K182" s="17"/>
+      <c r="G182" s="14"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="16"/>
     </row>
     <row r="183" ht="15.2" spans="7:11">
-      <c r="G183" s="15"/>
-      <c r="J183" s="16"/>
-      <c r="K183" s="17"/>
+      <c r="G183" s="14"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="16"/>
     </row>
     <row r="184" ht="15.2" spans="7:11">
-      <c r="G184" s="15"/>
-      <c r="J184" s="16"/>
-      <c r="K184" s="17"/>
+      <c r="G184" s="14"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="16"/>
     </row>
     <row r="185" ht="15.2" spans="7:11">
-      <c r="G185" s="15"/>
-      <c r="J185" s="16"/>
-      <c r="K185" s="17"/>
+      <c r="G185" s="14"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="16"/>
     </row>
     <row r="186" ht="15.2" spans="7:11">
-      <c r="G186" s="15"/>
-      <c r="J186" s="16"/>
-      <c r="K186" s="17"/>
+      <c r="G186" s="14"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="16"/>
     </row>
     <row r="187" ht="15.2" spans="7:11">
-      <c r="G187" s="15"/>
-      <c r="J187" s="16"/>
-      <c r="K187" s="17"/>
+      <c r="G187" s="14"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="16"/>
     </row>
     <row r="188" ht="15.2" spans="7:11">
-      <c r="G188" s="15"/>
-      <c r="J188" s="16"/>
-      <c r="K188" s="17"/>
+      <c r="G188" s="14"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="16"/>
     </row>
     <row r="189" ht="15.2" spans="7:11">
-      <c r="G189" s="15"/>
-      <c r="J189" s="16"/>
-      <c r="K189" s="17"/>
+      <c r="G189" s="14"/>
+      <c r="J189" s="15"/>
+      <c r="K189" s="16"/>
     </row>
     <row r="190" ht="15.2" spans="7:11">
-      <c r="G190" s="15"/>
-      <c r="J190" s="16"/>
-      <c r="K190" s="17"/>
+      <c r="G190" s="14"/>
+      <c r="J190" s="15"/>
+      <c r="K190" s="16"/>
     </row>
     <row r="191" ht="15.2" spans="7:11">
-      <c r="G191" s="15"/>
-      <c r="J191" s="16"/>
-      <c r="K191" s="17"/>
+      <c r="G191" s="14"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="16"/>
     </row>
     <row r="192" ht="15.2" spans="7:11">
-      <c r="G192" s="15"/>
-      <c r="J192" s="16"/>
-      <c r="K192" s="17"/>
+      <c r="G192" s="14"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="16"/>
     </row>
     <row r="193" ht="15.2" spans="7:11">
-      <c r="G193" s="15"/>
-      <c r="J193" s="16"/>
-      <c r="K193" s="17"/>
+      <c r="G193" s="14"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="16"/>
     </row>
     <row r="194" ht="15.2" spans="7:11">
-      <c r="G194" s="15"/>
-      <c r="J194" s="16"/>
-      <c r="K194" s="17"/>
+      <c r="G194" s="14"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="16"/>
     </row>
     <row r="195" ht="15.2" spans="7:11">
-      <c r="G195" s="15"/>
-      <c r="J195" s="16"/>
-      <c r="K195" s="17"/>
+      <c r="G195" s="14"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="16"/>
     </row>
     <row r="196" ht="15.2" spans="7:11">
-      <c r="G196" s="15"/>
-      <c r="J196" s="16"/>
-      <c r="K196" s="17"/>
+      <c r="G196" s="14"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="16"/>
     </row>
     <row r="197" ht="15.2" spans="7:11">
-      <c r="G197" s="15"/>
-      <c r="J197" s="16"/>
-      <c r="K197" s="17"/>
+      <c r="G197" s="14"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="16"/>
     </row>
     <row r="198" ht="15.2" spans="7:11">
-      <c r="G198" s="15"/>
-      <c r="J198" s="16"/>
-      <c r="K198" s="17"/>
+      <c r="G198" s="14"/>
+      <c r="J198" s="15"/>
+      <c r="K198" s="16"/>
     </row>
     <row r="199" ht="15.2" spans="7:11">
-      <c r="G199" s="15"/>
-      <c r="J199" s="16"/>
-      <c r="K199" s="17"/>
+      <c r="G199" s="14"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="16"/>
     </row>
     <row r="200" ht="15.2" spans="7:11">
-      <c r="G200" s="15"/>
-      <c r="J200" s="16"/>
-      <c r="K200" s="17"/>
+      <c r="G200" s="14"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="16"/>
     </row>
     <row r="201" ht="15.2" spans="7:11">
-      <c r="G201" s="15"/>
-      <c r="J201" s="16"/>
-      <c r="K201" s="17"/>
+      <c r="G201" s="14"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="16"/>
     </row>
     <row r="202" ht="15.2" spans="7:11">
-      <c r="G202" s="15"/>
-      <c r="J202" s="16"/>
-      <c r="K202" s="17"/>
+      <c r="G202" s="14"/>
+      <c r="J202" s="15"/>
+      <c r="K202" s="16"/>
     </row>
     <row r="203" ht="15.2" spans="7:11">
-      <c r="G203" s="15"/>
-      <c r="J203" s="16"/>
-      <c r="K203" s="17"/>
+      <c r="G203" s="14"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="16"/>
     </row>
     <row r="204" ht="15.2" spans="7:11">
-      <c r="G204" s="15"/>
-      <c r="J204" s="16"/>
-      <c r="K204" s="17"/>
+      <c r="G204" s="14"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="16"/>
     </row>
     <row r="205" ht="15.2" spans="7:11">
-      <c r="G205" s="15"/>
-      <c r="J205" s="16"/>
-      <c r="K205" s="17"/>
+      <c r="G205" s="14"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="16"/>
     </row>
     <row r="206" ht="15.2" spans="7:11">
-      <c r="G206" s="15"/>
-      <c r="J206" s="16"/>
-      <c r="K206" s="17"/>
+      <c r="G206" s="14"/>
+      <c r="J206" s="15"/>
+      <c r="K206" s="16"/>
     </row>
     <row r="207" ht="15.2" spans="7:11">
-      <c r="G207" s="15"/>
-      <c r="J207" s="16"/>
-      <c r="K207" s="17"/>
+      <c r="G207" s="14"/>
+      <c r="J207" s="15"/>
+      <c r="K207" s="16"/>
     </row>
     <row r="208" ht="15.2" spans="7:11">
-      <c r="G208" s="15"/>
-      <c r="J208" s="16"/>
-      <c r="K208" s="17"/>
+      <c r="G208" s="14"/>
+      <c r="J208" s="15"/>
+      <c r="K208" s="16"/>
     </row>
     <row r="209" ht="15.2" spans="7:11">
-      <c r="G209" s="15"/>
-      <c r="J209" s="16"/>
-      <c r="K209" s="17"/>
+      <c r="G209" s="14"/>
+      <c r="J209" s="15"/>
+      <c r="K209" s="16"/>
     </row>
     <row r="210" ht="15.2" spans="7:11">
-      <c r="G210" s="15"/>
-      <c r="J210" s="16"/>
-      <c r="K210" s="17"/>
+      <c r="G210" s="14"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="16"/>
     </row>
     <row r="211" ht="15.2" spans="7:11">
-      <c r="G211" s="15"/>
-      <c r="J211" s="16"/>
-      <c r="K211" s="17"/>
+      <c r="G211" s="14"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="16"/>
     </row>
     <row r="212" ht="15.2" spans="7:11">
-      <c r="G212" s="15"/>
-      <c r="J212" s="16"/>
-      <c r="K212" s="17"/>
+      <c r="G212" s="14"/>
+      <c r="J212" s="15"/>
+      <c r="K212" s="16"/>
     </row>
     <row r="213" ht="15.2" spans="7:11">
-      <c r="G213" s="15"/>
-      <c r="J213" s="16"/>
-      <c r="K213" s="17"/>
+      <c r="G213" s="14"/>
+      <c r="J213" s="15"/>
+      <c r="K213" s="16"/>
     </row>
     <row r="214" ht="15.2" spans="7:11">
-      <c r="G214" s="15"/>
-      <c r="J214" s="16"/>
-      <c r="K214" s="17"/>
+      <c r="G214" s="14"/>
+      <c r="J214" s="15"/>
+      <c r="K214" s="16"/>
     </row>
     <row r="215" ht="15.2" spans="7:11">
-      <c r="G215" s="15"/>
-      <c r="J215" s="16"/>
-      <c r="K215" s="17"/>
+      <c r="G215" s="14"/>
+      <c r="J215" s="15"/>
+      <c r="K215" s="16"/>
     </row>
     <row r="216" ht="15.2" spans="7:11">
-      <c r="G216" s="15"/>
-      <c r="J216" s="16"/>
-      <c r="K216" s="17"/>
+      <c r="G216" s="14"/>
+      <c r="J216" s="15"/>
+      <c r="K216" s="16"/>
     </row>
     <row r="217" ht="15.2" spans="7:11">
-      <c r="G217" s="15"/>
-      <c r="J217" s="16"/>
-      <c r="K217" s="17"/>
+      <c r="G217" s="14"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="16"/>
     </row>
     <row r="218" ht="15.2" spans="7:11">
-      <c r="G218" s="15"/>
-      <c r="J218" s="16"/>
-      <c r="K218" s="17"/>
+      <c r="G218" s="14"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="16"/>
     </row>
     <row r="219" ht="15.2" spans="7:11">
-      <c r="G219" s="15"/>
-      <c r="J219" s="16"/>
-      <c r="K219" s="17"/>
+      <c r="G219" s="14"/>
+      <c r="J219" s="15"/>
+      <c r="K219" s="16"/>
     </row>
     <row r="220" ht="15.2" spans="7:11">
-      <c r="G220" s="15"/>
-      <c r="J220" s="16"/>
-      <c r="K220" s="17"/>
+      <c r="G220" s="14"/>
+      <c r="J220" s="15"/>
+      <c r="K220" s="16"/>
     </row>
     <row r="221" ht="15.2" spans="7:11">
-      <c r="G221" s="15"/>
-      <c r="J221" s="16"/>
-      <c r="K221" s="17"/>
+      <c r="G221" s="14"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="16"/>
     </row>
     <row r="222" ht="15.2" spans="7:11">
-      <c r="G222" s="15"/>
-      <c r="J222" s="16"/>
-      <c r="K222" s="17"/>
+      <c r="G222" s="14"/>
+      <c r="J222" s="15"/>
+      <c r="K222" s="16"/>
     </row>
     <row r="223" ht="15.2" spans="7:11">
-      <c r="G223" s="15"/>
-      <c r="J223" s="16"/>
-      <c r="K223" s="17"/>
+      <c r="G223" s="14"/>
+      <c r="J223" s="15"/>
+      <c r="K223" s="16"/>
     </row>
     <row r="224" ht="15.2" spans="7:11">
-      <c r="G224" s="15"/>
-      <c r="J224" s="16"/>
-      <c r="K224" s="17"/>
+      <c r="G224" s="14"/>
+      <c r="J224" s="15"/>
+      <c r="K224" s="16"/>
     </row>
     <row r="225" ht="15.2" spans="7:11">
-      <c r="G225" s="15"/>
-      <c r="J225" s="16"/>
-      <c r="K225" s="17"/>
+      <c r="G225" s="14"/>
+      <c r="J225" s="15"/>
+      <c r="K225" s="16"/>
     </row>
     <row r="226" ht="15.2" spans="7:11">
-      <c r="G226" s="15"/>
-      <c r="J226" s="16"/>
-      <c r="K226" s="17"/>
+      <c r="G226" s="14"/>
+      <c r="J226" s="15"/>
+      <c r="K226" s="16"/>
     </row>
     <row r="227" ht="15.2" spans="7:11">
-      <c r="G227" s="15"/>
-      <c r="J227" s="16"/>
-      <c r="K227" s="17"/>
+      <c r="G227" s="14"/>
+      <c r="J227" s="15"/>
+      <c r="K227" s="16"/>
     </row>
     <row r="228" ht="15.2" spans="7:11">
-      <c r="G228" s="15"/>
-      <c r="J228" s="16"/>
-      <c r="K228" s="17"/>
+      <c r="G228" s="14"/>
+      <c r="J228" s="15"/>
+      <c r="K228" s="16"/>
     </row>
     <row r="229" ht="15.2" spans="7:11">
-      <c r="G229" s="15"/>
-      <c r="J229" s="16"/>
-      <c r="K229" s="17"/>
+      <c r="G229" s="14"/>
+      <c r="J229" s="15"/>
+      <c r="K229" s="16"/>
     </row>
     <row r="230" ht="15.2" spans="7:11">
-      <c r="G230" s="15"/>
-      <c r="J230" s="16"/>
-      <c r="K230" s="17"/>
+      <c r="G230" s="14"/>
+      <c r="J230" s="15"/>
+      <c r="K230" s="16"/>
     </row>
     <row r="231" ht="15.2" spans="7:11">
-      <c r="G231" s="15"/>
-      <c r="J231" s="16"/>
-      <c r="K231" s="17"/>
+      <c r="G231" s="14"/>
+      <c r="J231" s="15"/>
+      <c r="K231" s="16"/>
     </row>
     <row r="232" ht="15.2" spans="7:11">
-      <c r="G232" s="15"/>
-      <c r="J232" s="16"/>
-      <c r="K232" s="17"/>
+      <c r="G232" s="14"/>
+      <c r="J232" s="15"/>
+      <c r="K232" s="16"/>
     </row>
     <row r="233" ht="15.2" spans="7:11">
-      <c r="G233" s="15"/>
-      <c r="J233" s="16"/>
-      <c r="K233" s="17"/>
+      <c r="G233" s="14"/>
+      <c r="J233" s="15"/>
+      <c r="K233" s="16"/>
     </row>
     <row r="234" ht="15.2" spans="7:11">
-      <c r="G234" s="15"/>
-      <c r="J234" s="16"/>
-      <c r="K234" s="17"/>
+      <c r="G234" s="14"/>
+      <c r="J234" s="15"/>
+      <c r="K234" s="16"/>
     </row>
     <row r="235" ht="15.2" spans="7:11">
-      <c r="G235" s="15"/>
-      <c r="J235" s="16"/>
-      <c r="K235" s="17"/>
+      <c r="G235" s="14"/>
+      <c r="J235" s="15"/>
+      <c r="K235" s="16"/>
     </row>
     <row r="236" ht="15.2" spans="7:11">
-      <c r="G236" s="15"/>
-      <c r="J236" s="16"/>
-      <c r="K236" s="17"/>
+      <c r="G236" s="14"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="16"/>
     </row>
     <row r="237" ht="15.2" spans="7:11">
-      <c r="G237" s="15"/>
-      <c r="J237" s="16"/>
-      <c r="K237" s="17"/>
+      <c r="G237" s="14"/>
+      <c r="J237" s="15"/>
+      <c r="K237" s="16"/>
     </row>
     <row r="238" ht="15.2" spans="7:11">
-      <c r="G238" s="15"/>
-      <c r="J238" s="16"/>
-      <c r="K238" s="17"/>
+      <c r="G238" s="14"/>
+      <c r="J238" s="15"/>
+      <c r="K238" s="16"/>
     </row>
     <row r="239" ht="15.2" spans="7:11">
-      <c r="G239" s="15"/>
-      <c r="J239" s="16"/>
-      <c r="K239" s="17"/>
+      <c r="G239" s="14"/>
+      <c r="J239" s="15"/>
+      <c r="K239" s="16"/>
     </row>
     <row r="240" ht="15.2" spans="7:11">
-      <c r="G240" s="15"/>
-      <c r="J240" s="16"/>
-      <c r="K240" s="17"/>
+      <c r="G240" s="14"/>
+      <c r="J240" s="15"/>
+      <c r="K240" s="16"/>
     </row>
     <row r="241" ht="15.2" spans="7:11">
-      <c r="G241" s="15"/>
-      <c r="J241" s="16"/>
-      <c r="K241" s="17"/>
+      <c r="G241" s="14"/>
+      <c r="J241" s="15"/>
+      <c r="K241" s="16"/>
     </row>
     <row r="242" ht="15.2" spans="7:11">
-      <c r="G242" s="15"/>
-      <c r="J242" s="16"/>
-      <c r="K242" s="17"/>
+      <c r="G242" s="14"/>
+      <c r="J242" s="15"/>
+      <c r="K242" s="16"/>
     </row>
     <row r="243" ht="15.2" spans="7:11">
-      <c r="G243" s="15"/>
-      <c r="J243" s="16"/>
-      <c r="K243" s="17"/>
+      <c r="G243" s="14"/>
+      <c r="J243" s="15"/>
+      <c r="K243" s="16"/>
     </row>
     <row r="244" ht="15.2" spans="7:11">
-      <c r="G244" s="15"/>
-      <c r="J244" s="16"/>
-      <c r="K244" s="17"/>
+      <c r="G244" s="14"/>
+      <c r="J244" s="15"/>
+      <c r="K244" s="16"/>
     </row>
     <row r="245" ht="15.2" spans="7:11">
-      <c r="G245" s="15"/>
-      <c r="J245" s="16"/>
-      <c r="K245" s="17"/>
+      <c r="G245" s="14"/>
+      <c r="J245" s="15"/>
+      <c r="K245" s="16"/>
     </row>
     <row r="246" ht="15.2" spans="7:11">
-      <c r="G246" s="15"/>
-      <c r="J246" s="16"/>
-      <c r="K246" s="17"/>
+      <c r="G246" s="14"/>
+      <c r="J246" s="15"/>
+      <c r="K246" s="16"/>
     </row>
     <row r="247" ht="15.2" spans="7:11">
-      <c r="G247" s="15"/>
-      <c r="J247" s="16"/>
-      <c r="K247" s="17"/>
+      <c r="G247" s="14"/>
+      <c r="J247" s="15"/>
+      <c r="K247" s="16"/>
     </row>
     <row r="248" ht="15.2" spans="7:11">
-      <c r="G248" s="15"/>
-      <c r="J248" s="16"/>
-      <c r="K248" s="17"/>
+      <c r="G248" s="14"/>
+      <c r="J248" s="15"/>
+      <c r="K248" s="16"/>
     </row>
     <row r="249" ht="15.2" spans="7:11">
-      <c r="G249" s="15"/>
-      <c r="J249" s="16"/>
-      <c r="K249" s="17"/>
+      <c r="G249" s="14"/>
+      <c r="J249" s="15"/>
+      <c r="K249" s="16"/>
     </row>
     <row r="250" ht="15.2" spans="7:11">
-      <c r="G250" s="15"/>
-      <c r="J250" s="16"/>
-      <c r="K250" s="17"/>
+      <c r="G250" s="14"/>
+      <c r="J250" s="15"/>
+      <c r="K250" s="16"/>
     </row>
     <row r="251" ht="15.2" spans="7:11">
-      <c r="G251" s="15"/>
-      <c r="J251" s="16"/>
-      <c r="K251" s="17"/>
+      <c r="G251" s="14"/>
+      <c r="J251" s="15"/>
+      <c r="K251" s="16"/>
     </row>
     <row r="252" ht="15.2" spans="7:11">
-      <c r="G252" s="15"/>
-      <c r="J252" s="16"/>
-      <c r="K252" s="17"/>
+      <c r="G252" s="14"/>
+      <c r="J252" s="15"/>
+      <c r="K252" s="16"/>
     </row>
     <row r="253" ht="15.2" spans="7:11">
-      <c r="G253" s="15"/>
-      <c r="J253" s="16"/>
-      <c r="K253" s="17"/>
+      <c r="G253" s="14"/>
+      <c r="J253" s="15"/>
+      <c r="K253" s="16"/>
     </row>
     <row r="254" ht="15.2" spans="7:11">
-      <c r="G254" s="15"/>
-      <c r="J254" s="16"/>
-      <c r="K254" s="17"/>
+      <c r="G254" s="14"/>
+      <c r="J254" s="15"/>
+      <c r="K254" s="16"/>
     </row>
     <row r="255" ht="15.2" spans="7:11">
-      <c r="G255" s="15"/>
-      <c r="J255" s="16"/>
-      <c r="K255" s="17"/>
+      <c r="G255" s="14"/>
+      <c r="J255" s="15"/>
+      <c r="K255" s="16"/>
     </row>
     <row r="256" ht="15.2" spans="7:11">
-      <c r="G256" s="15"/>
-      <c r="J256" s="16"/>
-      <c r="K256" s="17"/>
+      <c r="G256" s="14"/>
+      <c r="J256" s="15"/>
+      <c r="K256" s="16"/>
     </row>
     <row r="257" ht="15.2" spans="7:11">
-      <c r="G257" s="15"/>
-      <c r="J257" s="16"/>
-      <c r="K257" s="17"/>
+      <c r="G257" s="14"/>
+      <c r="J257" s="15"/>
+      <c r="K257" s="16"/>
     </row>
     <row r="258" ht="15.2" spans="7:11">
-      <c r="G258" s="15"/>
-      <c r="J258" s="16"/>
-      <c r="K258" s="17"/>
+      <c r="G258" s="14"/>
+      <c r="J258" s="15"/>
+      <c r="K258" s="16"/>
     </row>
     <row r="259" ht="15.2" spans="7:11">
-      <c r="G259" s="15"/>
-      <c r="J259" s="16"/>
-      <c r="K259" s="17"/>
+      <c r="G259" s="14"/>
+      <c r="J259" s="15"/>
+      <c r="K259" s="16"/>
     </row>
     <row r="260" ht="15.2" spans="7:11">
-      <c r="G260" s="15"/>
-      <c r="J260" s="16"/>
-      <c r="K260" s="17"/>
+      <c r="G260" s="14"/>
+      <c r="J260" s="15"/>
+      <c r="K260" s="16"/>
     </row>
     <row r="261" ht="15.2" spans="7:11">
-      <c r="G261" s="15"/>
-      <c r="J261" s="16"/>
-      <c r="K261" s="17"/>
+      <c r="G261" s="14"/>
+      <c r="J261" s="15"/>
+      <c r="K261" s="16"/>
     </row>
     <row r="262" ht="15.2" spans="7:11">
-      <c r="G262" s="15"/>
-      <c r="J262" s="16"/>
-      <c r="K262" s="17"/>
+      <c r="G262" s="14"/>
+      <c r="J262" s="15"/>
+      <c r="K262" s="16"/>
     </row>
     <row r="263" ht="15.2" spans="7:11">
-      <c r="G263" s="15"/>
-      <c r="J263" s="16"/>
-      <c r="K263" s="17"/>
+      <c r="G263" s="14"/>
+      <c r="J263" s="15"/>
+      <c r="K263" s="16"/>
     </row>
     <row r="264" ht="15.2" spans="7:11">
-      <c r="G264" s="15"/>
-      <c r="J264" s="16"/>
-      <c r="K264" s="17"/>
+      <c r="G264" s="14"/>
+      <c r="J264" s="15"/>
+      <c r="K264" s="16"/>
     </row>
     <row r="265" ht="15.2" spans="7:11">
-      <c r="G265" s="15"/>
-      <c r="J265" s="16"/>
-      <c r="K265" s="17"/>
+      <c r="G265" s="14"/>
+      <c r="J265" s="15"/>
+      <c r="K265" s="16"/>
     </row>
     <row r="266" ht="15.2" spans="7:11">
-      <c r="G266" s="15"/>
-      <c r="J266" s="16"/>
-      <c r="K266" s="17"/>
+      <c r="G266" s="14"/>
+      <c r="J266" s="15"/>
+      <c r="K266" s="16"/>
     </row>
     <row r="267" ht="15.2" spans="7:11">
-      <c r="G267" s="15"/>
-      <c r="J267" s="16"/>
-      <c r="K267" s="17"/>
+      <c r="G267" s="14"/>
+      <c r="J267" s="15"/>
+      <c r="K267" s="16"/>
     </row>
     <row r="268" ht="15.2" spans="7:11">
-      <c r="G268" s="15"/>
-      <c r="J268" s="16"/>
-      <c r="K268" s="17"/>
+      <c r="G268" s="14"/>
+      <c r="J268" s="15"/>
+      <c r="K268" s="16"/>
     </row>
     <row r="269" ht="15.2" spans="7:11">
-      <c r="G269" s="15"/>
-      <c r="J269" s="16"/>
-      <c r="K269" s="17"/>
+      <c r="G269" s="14"/>
+      <c r="J269" s="15"/>
+      <c r="K269" s="16"/>
     </row>
     <row r="270" ht="15.2" spans="7:11">
-      <c r="G270" s="15"/>
-      <c r="J270" s="16"/>
-      <c r="K270" s="17"/>
+      <c r="G270" s="14"/>
+      <c r="J270" s="15"/>
+      <c r="K270" s="16"/>
     </row>
     <row r="271" ht="15.2" spans="7:11">
-      <c r="G271" s="15"/>
-      <c r="J271" s="16"/>
-      <c r="K271" s="17"/>
+      <c r="G271" s="14"/>
+      <c r="J271" s="15"/>
+      <c r="K271" s="16"/>
     </row>
     <row r="272" ht="15.2" spans="7:11">
-      <c r="G272" s="15"/>
-      <c r="J272" s="16"/>
-      <c r="K272" s="17"/>
+      <c r="G272" s="14"/>
+      <c r="J272" s="15"/>
+      <c r="K272" s="16"/>
     </row>
     <row r="273" ht="15.2" spans="7:11">
-      <c r="G273" s="15"/>
-      <c r="J273" s="16"/>
-      <c r="K273" s="17"/>
+      <c r="G273" s="14"/>
+      <c r="J273" s="15"/>
+      <c r="K273" s="16"/>
     </row>
     <row r="274" ht="15.2" spans="7:11">
-      <c r="G274" s="15"/>
-      <c r="J274" s="16"/>
-      <c r="K274" s="17"/>
+      <c r="G274" s="14"/>
+      <c r="J274" s="15"/>
+      <c r="K274" s="16"/>
     </row>
     <row r="275" ht="15.2" spans="7:11">
-      <c r="G275" s="15"/>
-      <c r="J275" s="16"/>
-      <c r="K275" s="17"/>
+      <c r="G275" s="14"/>
+      <c r="J275" s="15"/>
+      <c r="K275" s="16"/>
     </row>
     <row r="276" ht="15.2" spans="7:11">
-      <c r="G276" s="15"/>
-      <c r="J276" s="16"/>
-      <c r="K276" s="17"/>
+      <c r="G276" s="14"/>
+      <c r="J276" s="15"/>
+      <c r="K276" s="16"/>
     </row>
     <row r="277" ht="15.2" spans="7:11">
-      <c r="G277" s="15"/>
-      <c r="J277" s="16"/>
-      <c r="K277" s="17"/>
+      <c r="G277" s="14"/>
+      <c r="J277" s="15"/>
+      <c r="K277" s="16"/>
     </row>
     <row r="278" ht="15.2" spans="7:11">
-      <c r="G278" s="15"/>
-      <c r="J278" s="16"/>
-      <c r="K278" s="17"/>
+      <c r="G278" s="14"/>
+      <c r="J278" s="15"/>
+      <c r="K278" s="16"/>
     </row>
     <row r="279" ht="15.2" spans="7:11">
-      <c r="G279" s="15"/>
-      <c r="J279" s="16"/>
-      <c r="K279" s="17"/>
+      <c r="G279" s="14"/>
+      <c r="J279" s="15"/>
+      <c r="K279" s="16"/>
     </row>
     <row r="280" ht="15.2" spans="7:11">
-      <c r="G280" s="15"/>
-      <c r="J280" s="16"/>
-      <c r="K280" s="17"/>
+      <c r="G280" s="14"/>
+      <c r="J280" s="15"/>
+      <c r="K280" s="16"/>
     </row>
     <row r="281" ht="15.2" spans="7:11">
-      <c r="G281" s="15"/>
-      <c r="J281" s="16"/>
-      <c r="K281" s="17"/>
+      <c r="G281" s="14"/>
+      <c r="J281" s="15"/>
+      <c r="K281" s="16"/>
     </row>
     <row r="282" ht="15.2" spans="7:11">
-      <c r="G282" s="15"/>
-      <c r="J282" s="16"/>
-      <c r="K282" s="17"/>
+      <c r="G282" s="14"/>
+      <c r="J282" s="15"/>
+      <c r="K282" s="16"/>
     </row>
     <row r="283" ht="15.2" spans="7:11">
-      <c r="G283" s="15"/>
-      <c r="J283" s="16"/>
-      <c r="K283" s="17"/>
+      <c r="G283" s="14"/>
+      <c r="J283" s="15"/>
+      <c r="K283" s="16"/>
     </row>
     <row r="284" ht="15.2" spans="7:11">
-      <c r="G284" s="15"/>
-      <c r="J284" s="16"/>
-      <c r="K284" s="17"/>
+      <c r="G284" s="14"/>
+      <c r="J284" s="15"/>
+      <c r="K284" s="16"/>
     </row>
     <row r="285" ht="15.2" spans="7:11">
-      <c r="G285" s="15"/>
-      <c r="J285" s="16"/>
-      <c r="K285" s="17"/>
+      <c r="G285" s="14"/>
+      <c r="J285" s="15"/>
+      <c r="K285" s="16"/>
     </row>
     <row r="286" ht="15.2" spans="7:11">
-      <c r="G286" s="15"/>
-      <c r="J286" s="16"/>
-      <c r="K286" s="17"/>
+      <c r="G286" s="14"/>
+      <c r="J286" s="15"/>
+      <c r="K286" s="16"/>
     </row>
     <row r="287" ht="15.2" spans="7:11">
-      <c r="G287" s="15"/>
-      <c r="J287" s="16"/>
-      <c r="K287" s="17"/>
+      <c r="G287" s="14"/>
+      <c r="J287" s="15"/>
+      <c r="K287" s="16"/>
     </row>
     <row r="288" ht="15.2" spans="7:11">
-      <c r="G288" s="15"/>
-      <c r="J288" s="16"/>
-      <c r="K288" s="17"/>
+      <c r="G288" s="14"/>
+      <c r="J288" s="15"/>
+      <c r="K288" s="16"/>
     </row>
     <row r="289" ht="15.2" spans="7:11">
-      <c r="G289" s="15"/>
-      <c r="J289" s="16"/>
-      <c r="K289" s="17"/>
+      <c r="G289" s="14"/>
+      <c r="J289" s="15"/>
+      <c r="K289" s="16"/>
     </row>
     <row r="290" ht="15.2" spans="7:11">
-      <c r="G290" s="15"/>
-      <c r="J290" s="16"/>
-      <c r="K290" s="17"/>
+      <c r="G290" s="14"/>
+      <c r="J290" s="15"/>
+      <c r="K290" s="16"/>
     </row>
     <row r="291" ht="15.2" spans="7:11">
-      <c r="G291" s="15"/>
-      <c r="J291" s="16"/>
-      <c r="K291" s="17"/>
+      <c r="G291" s="14"/>
+      <c r="J291" s="15"/>
+      <c r="K291" s="16"/>
     </row>
     <row r="292" ht="15.2" spans="7:11">
-      <c r="G292" s="15"/>
-      <c r="J292" s="16"/>
-      <c r="K292" s="17"/>
+      <c r="G292" s="14"/>
+      <c r="J292" s="15"/>
+      <c r="K292" s="16"/>
     </row>
     <row r="293" ht="15.2" spans="7:11">
-      <c r="G293" s="15"/>
-      <c r="J293" s="16"/>
-      <c r="K293" s="17"/>
+      <c r="G293" s="14"/>
+      <c r="J293" s="15"/>
+      <c r="K293" s="16"/>
     </row>
     <row r="294" ht="15.2" spans="7:11">
-      <c r="G294" s="15"/>
-      <c r="J294" s="16"/>
-      <c r="K294" s="17"/>
+      <c r="G294" s="14"/>
+      <c r="J294" s="15"/>
+      <c r="K294" s="16"/>
     </row>
     <row r="295" ht="15.2" spans="7:11">
-      <c r="G295" s="15"/>
-      <c r="J295" s="16"/>
-      <c r="K295" s="17"/>
+      <c r="G295" s="14"/>
+      <c r="J295" s="15"/>
+      <c r="K295" s="16"/>
     </row>
     <row r="296" ht="15.2" spans="7:11">
-      <c r="G296" s="15"/>
-      <c r="J296" s="16"/>
-      <c r="K296" s="17"/>
+      <c r="G296" s="14"/>
+      <c r="J296" s="15"/>
+      <c r="K296" s="16"/>
     </row>
     <row r="297" ht="15.2" spans="7:11">
-      <c r="G297" s="15"/>
-      <c r="J297" s="16"/>
-      <c r="K297" s="17"/>
+      <c r="G297" s="14"/>
+      <c r="J297" s="15"/>
+      <c r="K297" s="16"/>
     </row>
     <row r="298" ht="15.2" spans="7:11">
-      <c r="G298" s="15"/>
-      <c r="J298" s="16"/>
-      <c r="K298" s="17"/>
+      <c r="G298" s="14"/>
+      <c r="J298" s="15"/>
+      <c r="K298" s="16"/>
     </row>
     <row r="299" ht="15.2" spans="7:11">
-      <c r="G299" s="15"/>
-      <c r="J299" s="16"/>
-      <c r="K299" s="17"/>
+      <c r="G299" s="14"/>
+      <c r="J299" s="15"/>
+      <c r="K299" s="16"/>
     </row>
     <row r="300" ht="15.2" spans="7:11">
-      <c r="G300" s="15"/>
-      <c r="J300" s="16"/>
-      <c r="K300" s="17"/>
+      <c r="G300" s="14"/>
+      <c r="J300" s="15"/>
+      <c r="K300" s="16"/>
     </row>
     <row r="301" ht="15.2" spans="7:11">
-      <c r="G301" s="15"/>
-      <c r="J301" s="16"/>
-      <c r="K301" s="17"/>
+      <c r="G301" s="14"/>
+      <c r="J301" s="15"/>
+      <c r="K301" s="16"/>
     </row>
     <row r="302" ht="15.2" spans="7:11">
-      <c r="G302" s="15"/>
-      <c r="J302" s="16"/>
-      <c r="K302" s="17"/>
+      <c r="G302" s="14"/>
+      <c r="J302" s="15"/>
+      <c r="K302" s="16"/>
     </row>
     <row r="303" ht="15.2" spans="7:11">
-      <c r="G303" s="15"/>
-      <c r="J303" s="16"/>
-      <c r="K303" s="17"/>
+      <c r="G303" s="14"/>
+      <c r="J303" s="15"/>
+      <c r="K303" s="16"/>
     </row>
     <row r="304" ht="15.2" spans="7:11">
-      <c r="G304" s="15"/>
-      <c r="J304" s="16"/>
-      <c r="K304" s="17"/>
+      <c r="G304" s="14"/>
+      <c r="J304" s="15"/>
+      <c r="K304" s="16"/>
     </row>
     <row r="305" ht="15.2" spans="7:11">
-      <c r="G305" s="15"/>
-      <c r="J305" s="16"/>
-      <c r="K305" s="17"/>
+      <c r="G305" s="14"/>
+      <c r="J305" s="15"/>
+      <c r="K305" s="16"/>
     </row>
     <row r="306" ht="15.2" spans="7:11">
-      <c r="G306" s="15"/>
-      <c r="J306" s="16"/>
-      <c r="K306" s="17"/>
+      <c r="G306" s="14"/>
+      <c r="J306" s="15"/>
+      <c r="K306" s="16"/>
     </row>
     <row r="307" ht="15.2" spans="7:11">
-      <c r="G307" s="15"/>
-      <c r="J307" s="16"/>
-      <c r="K307" s="17"/>
+      <c r="G307" s="14"/>
+      <c r="J307" s="15"/>
+      <c r="K307" s="16"/>
     </row>
     <row r="308" ht="15.2" spans="7:11">
-      <c r="G308" s="15"/>
-      <c r="J308" s="16"/>
-      <c r="K308" s="17"/>
+      <c r="G308" s="14"/>
+      <c r="J308" s="15"/>
+      <c r="K308" s="16"/>
     </row>
     <row r="309" ht="15.2" spans="7:11">
-      <c r="G309" s="15"/>
-      <c r="J309" s="16"/>
-      <c r="K309" s="17"/>
+      <c r="G309" s="14"/>
+      <c r="J309" s="15"/>
+      <c r="K309" s="16"/>
     </row>
     <row r="310" ht="15.2" spans="7:11">
-      <c r="G310" s="15"/>
-      <c r="J310" s="16"/>
-      <c r="K310" s="17"/>
+      <c r="G310" s="14"/>
+      <c r="J310" s="15"/>
+      <c r="K310" s="16"/>
     </row>
     <row r="311" ht="15.2" spans="7:11">
-      <c r="G311" s="15"/>
-      <c r="J311" s="16"/>
-      <c r="K311" s="17"/>
+      <c r="G311" s="14"/>
+      <c r="J311" s="15"/>
+      <c r="K311" s="16"/>
     </row>
     <row r="312" ht="15.2" spans="7:11">
-      <c r="G312" s="15"/>
-      <c r="J312" s="16"/>
-      <c r="K312" s="17"/>
+      <c r="G312" s="14"/>
+      <c r="J312" s="15"/>
+      <c r="K312" s="16"/>
     </row>
     <row r="313" ht="15.2" spans="7:11">
-      <c r="G313" s="15"/>
-      <c r="J313" s="16"/>
-      <c r="K313" s="17"/>
+      <c r="G313" s="14"/>
+      <c r="J313" s="15"/>
+      <c r="K313" s="16"/>
     </row>
     <row r="314" ht="15.2" spans="7:11">
-      <c r="G314" s="15"/>
-      <c r="J314" s="16"/>
-      <c r="K314" s="17"/>
+      <c r="G314" s="14"/>
+      <c r="J314" s="15"/>
+      <c r="K314" s="16"/>
     </row>
     <row r="315" ht="15.2" spans="7:11">
-      <c r="G315" s="15"/>
-      <c r="J315" s="16"/>
-      <c r="K315" s="17"/>
+      <c r="G315" s="14"/>
+      <c r="J315" s="15"/>
+      <c r="K315" s="16"/>
     </row>
     <row r="316" ht="15.2" spans="7:11">
-      <c r="G316" s="15"/>
-      <c r="J316" s="16"/>
-      <c r="K316" s="17"/>
+      <c r="G316" s="14"/>
+      <c r="J316" s="15"/>
+      <c r="K316" s="16"/>
     </row>
     <row r="317" ht="15.2" spans="7:11">
-      <c r="G317" s="15"/>
-      <c r="J317" s="16"/>
-      <c r="K317" s="17"/>
+      <c r="G317" s="14"/>
+      <c r="J317" s="15"/>
+      <c r="K317" s="16"/>
     </row>
     <row r="318" ht="15.2" spans="7:11">
-      <c r="G318" s="15"/>
-      <c r="J318" s="16"/>
-      <c r="K318" s="17"/>
+      <c r="G318" s="14"/>
+      <c r="J318" s="15"/>
+      <c r="K318" s="16"/>
     </row>
     <row r="319" ht="15.2" spans="7:11">
-      <c r="G319" s="15"/>
-      <c r="J319" s="16"/>
-      <c r="K319" s="17"/>
+      <c r="G319" s="14"/>
+      <c r="J319" s="15"/>
+      <c r="K319" s="16"/>
     </row>
     <row r="320" ht="15.2" spans="7:11">
-      <c r="G320" s="15"/>
-      <c r="J320" s="16"/>
-      <c r="K320" s="17"/>
+      <c r="G320" s="14"/>
+      <c r="J320" s="15"/>
+      <c r="K320" s="16"/>
     </row>
     <row r="321" ht="15.2" spans="7:11">
-      <c r="G321" s="15"/>
-      <c r="J321" s="16"/>
-      <c r="K321" s="17"/>
+      <c r="G321" s="14"/>
+      <c r="J321" s="15"/>
+      <c r="K321" s="16"/>
     </row>
     <row r="322" ht="15.2" spans="7:11">
-      <c r="G322" s="15"/>
-      <c r="J322" s="16"/>
-      <c r="K322" s="17"/>
+      <c r="G322" s="14"/>
+      <c r="J322" s="15"/>
+      <c r="K322" s="16"/>
     </row>
     <row r="323" ht="15.2" spans="7:11">
-      <c r="G323" s="15"/>
-      <c r="J323" s="16"/>
-      <c r="K323" s="17"/>
+      <c r="G323" s="14"/>
+      <c r="J323" s="15"/>
+      <c r="K323" s="16"/>
     </row>
     <row r="324" ht="15.2" spans="7:11">
-      <c r="G324" s="15"/>
-      <c r="J324" s="16"/>
-      <c r="K324" s="17"/>
+      <c r="G324" s="14"/>
+      <c r="J324" s="15"/>
+      <c r="K324" s="16"/>
     </row>
     <row r="325" ht="15.2" spans="7:11">
-      <c r="G325" s="15"/>
-      <c r="J325" s="16"/>
-      <c r="K325" s="17"/>
+      <c r="G325" s="14"/>
+      <c r="J325" s="15"/>
+      <c r="K325" s="16"/>
     </row>
     <row r="326" ht="15.2" spans="7:11">
-      <c r="G326" s="15"/>
-      <c r="J326" s="16"/>
-      <c r="K326" s="17"/>
+      <c r="G326" s="14"/>
+      <c r="J326" s="15"/>
+      <c r="K326" s="16"/>
     </row>
     <row r="327" ht="15.2" spans="7:11">
-      <c r="G327" s="15"/>
-      <c r="J327" s="16"/>
-      <c r="K327" s="17"/>
+      <c r="G327" s="14"/>
+      <c r="J327" s="15"/>
+      <c r="K327" s="16"/>
     </row>
     <row r="328" ht="15.2" spans="7:11">
-      <c r="G328" s="15"/>
-      <c r="J328" s="16"/>
-      <c r="K328" s="17"/>
+      <c r="G328" s="14"/>
+      <c r="J328" s="15"/>
+      <c r="K328" s="16"/>
     </row>
     <row r="329" ht="15.2" spans="7:11">
-      <c r="G329" s="15"/>
-      <c r="J329" s="16"/>
-      <c r="K329" s="17"/>
+      <c r="G329" s="14"/>
+      <c r="J329" s="15"/>
+      <c r="K329" s="16"/>
     </row>
     <row r="330" ht="15.2" spans="7:11">
-      <c r="G330" s="15"/>
-      <c r="J330" s="16"/>
-      <c r="K330" s="17"/>
+      <c r="G330" s="14"/>
+      <c r="J330" s="15"/>
+      <c r="K330" s="16"/>
     </row>
     <row r="331" ht="15.2" spans="7:11">
-      <c r="G331" s="15"/>
-      <c r="J331" s="16"/>
-      <c r="K331" s="17"/>
+      <c r="G331" s="14"/>
+      <c r="J331" s="15"/>
+      <c r="K331" s="16"/>
     </row>
     <row r="332" ht="15.2" spans="7:11">
-      <c r="G332" s="15"/>
-      <c r="J332" s="16"/>
-      <c r="K332" s="17"/>
+      <c r="G332" s="14"/>
+      <c r="J332" s="15"/>
+      <c r="K332" s="16"/>
     </row>
     <row r="333" ht="15.2" spans="7:11">
-      <c r="G333" s="15"/>
-      <c r="J333" s="16"/>
-      <c r="K333" s="17"/>
+      <c r="G333" s="14"/>
+      <c r="J333" s="15"/>
+      <c r="K333" s="16"/>
     </row>
     <row r="334" ht="15.2" spans="7:11">
-      <c r="G334" s="15"/>
-      <c r="J334" s="16"/>
-      <c r="K334" s="17"/>
+      <c r="G334" s="14"/>
+      <c r="J334" s="15"/>
+      <c r="K334" s="16"/>
     </row>
     <row r="335" ht="15.2" spans="7:11">
-      <c r="G335" s="15"/>
-      <c r="J335" s="16"/>
-      <c r="K335" s="17"/>
+      <c r="G335" s="14"/>
+      <c r="J335" s="15"/>
+      <c r="K335" s="16"/>
     </row>
     <row r="336" ht="15.2" spans="7:11">
-      <c r="G336" s="15"/>
-      <c r="J336" s="16"/>
-      <c r="K336" s="17"/>
+      <c r="G336" s="14"/>
+      <c r="J336" s="15"/>
+      <c r="K336" s="16"/>
     </row>
     <row r="337" ht="15.2" spans="7:11">
-      <c r="G337" s="15"/>
-      <c r="J337" s="16"/>
-      <c r="K337" s="17"/>
+      <c r="G337" s="14"/>
+      <c r="J337" s="15"/>
+      <c r="K337" s="16"/>
     </row>
     <row r="338" ht="15.2" spans="7:11">
-      <c r="G338" s="15"/>
-      <c r="J338" s="16"/>
-      <c r="K338" s="17"/>
+      <c r="G338" s="14"/>
+      <c r="J338" s="15"/>
+      <c r="K338" s="16"/>
     </row>
     <row r="339" ht="15.2" spans="7:11">
-      <c r="G339" s="15"/>
-      <c r="J339" s="16"/>
-      <c r="K339" s="17"/>
+      <c r="G339" s="14"/>
+      <c r="J339" s="15"/>
+      <c r="K339" s="16"/>
     </row>
     <row r="340" ht="15.2" spans="7:11">
-      <c r="G340" s="15"/>
-      <c r="J340" s="16"/>
-      <c r="K340" s="17"/>
+      <c r="G340" s="14"/>
+      <c r="J340" s="15"/>
+      <c r="K340" s="16"/>
     </row>
     <row r="341" ht="15.2" spans="7:11">
-      <c r="G341" s="15"/>
-      <c r="J341" s="16"/>
-      <c r="K341" s="17"/>
+      <c r="G341" s="14"/>
+      <c r="J341" s="15"/>
+      <c r="K341" s="16"/>
     </row>
     <row r="342" ht="15.2" spans="7:11">
-      <c r="G342" s="15"/>
-      <c r="J342" s="16"/>
-      <c r="K342" s="17"/>
+      <c r="G342" s="14"/>
+      <c r="J342" s="15"/>
+      <c r="K342" s="16"/>
     </row>
     <row r="343" ht="15.2" spans="7:11">
-      <c r="G343" s="15"/>
-      <c r="J343" s="16"/>
-      <c r="K343" s="17"/>
+      <c r="G343" s="14"/>
+      <c r="J343" s="15"/>
+      <c r="K343" s="16"/>
     </row>
     <row r="344" ht="15.2" spans="7:11">
-      <c r="G344" s="15"/>
-      <c r="J344" s="16"/>
-      <c r="K344" s="17"/>
+      <c r="G344" s="14"/>
+      <c r="J344" s="15"/>
+      <c r="K344" s="16"/>
     </row>
     <row r="345" ht="15.2" spans="7:11">
-      <c r="G345" s="15"/>
-      <c r="J345" s="16"/>
-      <c r="K345" s="17"/>
+      <c r="G345" s="14"/>
+      <c r="J345" s="15"/>
+      <c r="K345" s="16"/>
     </row>
     <row r="346" ht="15.2" spans="7:11">
-      <c r="G346" s="15"/>
-      <c r="J346" s="16"/>
-      <c r="K346" s="17"/>
+      <c r="G346" s="14"/>
+      <c r="J346" s="15"/>
+      <c r="K346" s="16"/>
     </row>
     <row r="347" ht="15.2" spans="7:11">
-      <c r="G347" s="15"/>
-      <c r="J347" s="16"/>
-      <c r="K347" s="17"/>
+      <c r="G347" s="14"/>
+      <c r="J347" s="15"/>
+      <c r="K347" s="16"/>
     </row>
     <row r="348" ht="15.2" spans="7:11">
-      <c r="G348" s="15"/>
-      <c r="J348" s="16"/>
-      <c r="K348" s="17"/>
+      <c r="G348" s="14"/>
+      <c r="J348" s="15"/>
+      <c r="K348" s="16"/>
     </row>
     <row r="349" ht="15.2" spans="7:11">
-      <c r="G349" s="15"/>
-      <c r="J349" s="16"/>
-      <c r="K349" s="17"/>
+      <c r="G349" s="14"/>
+      <c r="J349" s="15"/>
+      <c r="K349" s="16"/>
     </row>
     <row r="350" ht="15.2" spans="7:11">
-      <c r="G350" s="15"/>
-      <c r="J350" s="16"/>
-      <c r="K350" s="17"/>
+      <c r="G350" s="14"/>
+      <c r="J350" s="15"/>
+      <c r="K350" s="16"/>
     </row>
     <row r="351" ht="15.2" spans="7:11">
-      <c r="G351" s="15"/>
-      <c r="J351" s="16"/>
-      <c r="K351" s="17"/>
+      <c r="G351" s="14"/>
+      <c r="J351" s="15"/>
+      <c r="K351" s="16"/>
     </row>
     <row r="352" ht="15.2" spans="7:11">
-      <c r="G352" s="15"/>
-      <c r="J352" s="16"/>
-      <c r="K352" s="17"/>
+      <c r="G352" s="14"/>
+      <c r="J352" s="15"/>
+      <c r="K352" s="16"/>
     </row>
     <row r="353" ht="15.2" spans="7:11">
-      <c r="G353" s="15"/>
-      <c r="J353" s="16"/>
-      <c r="K353" s="17"/>
+      <c r="G353" s="14"/>
+      <c r="J353" s="15"/>
+      <c r="K353" s="16"/>
     </row>
     <row r="354" ht="15.2" spans="7:11">
-      <c r="G354" s="15"/>
-      <c r="J354" s="16"/>
-      <c r="K354" s="17"/>
+      <c r="G354" s="14"/>
+      <c r="J354" s="15"/>
+      <c r="K354" s="16"/>
     </row>
     <row r="355" ht="15.2" spans="7:11">
-      <c r="G355" s="15"/>
-      <c r="J355" s="16"/>
-      <c r="K355" s="17"/>
+      <c r="G355" s="14"/>
+      <c r="J355" s="15"/>
+      <c r="K355" s="16"/>
     </row>
     <row r="356" ht="15.2" spans="7:11">
-      <c r="G356" s="15"/>
-      <c r="J356" s="16"/>
-      <c r="K356" s="17"/>
+      <c r="G356" s="14"/>
+      <c r="J356" s="15"/>
+      <c r="K356" s="16"/>
     </row>
     <row r="357" ht="15.2" spans="7:11">
-      <c r="G357" s="15"/>
-      <c r="J357" s="16"/>
-      <c r="K357" s="17"/>
+      <c r="G357" s="14"/>
+      <c r="J357" s="15"/>
+      <c r="K357" s="16"/>
     </row>
     <row r="358" ht="15.2" spans="7:11">
-      <c r="G358" s="15"/>
-      <c r="J358" s="16"/>
-      <c r="K358" s="17"/>
+      <c r="G358" s="14"/>
+      <c r="J358" s="15"/>
+      <c r="K358" s="16"/>
     </row>
     <row r="359" ht="15.2" spans="7:11">
-      <c r="G359" s="15"/>
-      <c r="J359" s="16"/>
-      <c r="K359" s="17"/>
+      <c r="G359" s="14"/>
+      <c r="J359" s="15"/>
+      <c r="K359" s="16"/>
     </row>
     <row r="360" ht="15.2" spans="7:11">
-      <c r="G360" s="15"/>
-      <c r="J360" s="16"/>
-      <c r="K360" s="17"/>
+      <c r="G360" s="14"/>
+      <c r="J360" s="15"/>
+      <c r="K360" s="16"/>
     </row>
     <row r="361" ht="15.2" spans="7:11">
-      <c r="G361" s="15"/>
-      <c r="J361" s="16"/>
-      <c r="K361" s="17"/>
+      <c r="G361" s="14"/>
+      <c r="J361" s="15"/>
+      <c r="K361" s="16"/>
     </row>
     <row r="362" ht="15.2" spans="7:11">
-      <c r="G362" s="15"/>
-      <c r="J362" s="16"/>
-      <c r="K362" s="17"/>
+      <c r="G362" s="14"/>
+      <c r="J362" s="15"/>
+      <c r="K362" s="16"/>
     </row>
     <row r="363" ht="15.2" spans="7:11">
-      <c r="G363" s="15"/>
-      <c r="J363" s="16"/>
-      <c r="K363" s="17"/>
+      <c r="G363" s="14"/>
+      <c r="J363" s="15"/>
+      <c r="K363" s="16"/>
     </row>
     <row r="364" ht="15.2" spans="7:11">
-      <c r="G364" s="15"/>
-      <c r="J364" s="16"/>
-      <c r="K364" s="17"/>
+      <c r="G364" s="14"/>
+      <c r="J364" s="15"/>
+      <c r="K364" s="16"/>
     </row>
     <row r="365" ht="15.2" spans="7:11">
-      <c r="G365" s="15"/>
-      <c r="J365" s="16"/>
-      <c r="K365" s="17"/>
+      <c r="G365" s="14"/>
+      <c r="J365" s="15"/>
+      <c r="K365" s="16"/>
     </row>
     <row r="366" ht="15.2" spans="7:11">
-      <c r="G366" s="15"/>
-      <c r="J366" s="16"/>
-      <c r="K366" s="17"/>
+      <c r="G366" s="14"/>
+      <c r="J366" s="15"/>
+      <c r="K366" s="16"/>
     </row>
     <row r="367" ht="15.2" spans="7:11">
-      <c r="G367" s="15"/>
-      <c r="J367" s="16"/>
-      <c r="K367" s="17"/>
+      <c r="G367" s="14"/>
+      <c r="J367" s="15"/>
+      <c r="K367" s="16"/>
     </row>
     <row r="368" ht="15.2" spans="7:11">
-      <c r="G368" s="15"/>
-      <c r="J368" s="16"/>
-      <c r="K368" s="17"/>
+      <c r="G368" s="14"/>
+      <c r="J368" s="15"/>
+      <c r="K368" s="16"/>
     </row>
     <row r="369" ht="15.2" spans="7:11">
-      <c r="G369" s="15"/>
-      <c r="J369" s="16"/>
-      <c r="K369" s="17"/>
+      <c r="G369" s="14"/>
+      <c r="J369" s="15"/>
+      <c r="K369" s="16"/>
     </row>
     <row r="370" ht="15.2" spans="7:11">
-      <c r="G370" s="15"/>
-      <c r="J370" s="16"/>
-      <c r="K370" s="17"/>
+      <c r="G370" s="14"/>
+      <c r="J370" s="15"/>
+      <c r="K370" s="16"/>
     </row>
     <row r="371" ht="15.2" spans="7:11">
-      <c r="G371" s="15"/>
-      <c r="J371" s="16"/>
-      <c r="K371" s="17"/>
+      <c r="G371" s="14"/>
+      <c r="J371" s="15"/>
+      <c r="K371" s="16"/>
     </row>
     <row r="372" ht="15.2" spans="7:11">
-      <c r="G372" s="15"/>
-      <c r="J372" s="16"/>
-      <c r="K372" s="17"/>
+      <c r="G372" s="14"/>
+      <c r="J372" s="15"/>
+      <c r="K372" s="16"/>
     </row>
     <row r="373" ht="15.2" spans="7:11">
-      <c r="G373" s="15"/>
-      <c r="J373" s="16"/>
-      <c r="K373" s="17"/>
+      <c r="G373" s="14"/>
+      <c r="J373" s="15"/>
+      <c r="K373" s="16"/>
     </row>
     <row r="374" ht="15.2" spans="7:11">
-      <c r="G374" s="15"/>
-      <c r="J374" s="16"/>
-      <c r="K374" s="17"/>
+      <c r="G374" s="14"/>
+      <c r="J374" s="15"/>
+      <c r="K374" s="16"/>
     </row>
     <row r="375" ht="15.2" spans="7:11">
-      <c r="G375" s="15"/>
-      <c r="J375" s="16"/>
-      <c r="K375" s="17"/>
+      <c r="G375" s="14"/>
+      <c r="J375" s="15"/>
+      <c r="K375" s="16"/>
     </row>
     <row r="376" ht="15.2" spans="7:11">
-      <c r="G376" s="15"/>
-      <c r="J376" s="16"/>
-      <c r="K376" s="17"/>
+      <c r="G376" s="14"/>
+      <c r="J376" s="15"/>
+      <c r="K376" s="16"/>
     </row>
     <row r="377" ht="15.2" spans="7:11">
-      <c r="G377" s="15"/>
-      <c r="J377" s="16"/>
-      <c r="K377" s="17"/>
+      <c r="G377" s="14"/>
+      <c r="J377" s="15"/>
+      <c r="K377" s="16"/>
     </row>
     <row r="378" ht="15.2" spans="7:11">
-      <c r="G378" s="15"/>
-      <c r="J378" s="16"/>
-      <c r="K378" s="17"/>
+      <c r="G378" s="14"/>
+      <c r="J378" s="15"/>
+      <c r="K378" s="16"/>
     </row>
     <row r="379" ht="15.2" spans="7:11">
-      <c r="G379" s="15"/>
-      <c r="J379" s="16"/>
-      <c r="K379" s="17"/>
+      <c r="G379" s="14"/>
+      <c r="J379" s="15"/>
+      <c r="K379" s="16"/>
     </row>
     <row r="380" ht="15.2" spans="7:11">
-      <c r="G380" s="15"/>
-      <c r="J380" s="16"/>
-      <c r="K380" s="17"/>
+      <c r="G380" s="14"/>
+      <c r="J380" s="15"/>
+      <c r="K380" s="16"/>
     </row>
     <row r="381" ht="15.2" spans="7:11">
-      <c r="G381" s="15"/>
-      <c r="J381" s="16"/>
-      <c r="K381" s="17"/>
+      <c r="G381" s="14"/>
+      <c r="J381" s="15"/>
+      <c r="K381" s="16"/>
     </row>
     <row r="382" ht="15.2" spans="7:11">
-      <c r="G382" s="15"/>
-      <c r="J382" s="16"/>
-      <c r="K382" s="17"/>
+      <c r="G382" s="14"/>
+      <c r="J382" s="15"/>
+      <c r="K382" s="16"/>
     </row>
     <row r="383" ht="15.2" spans="7:11">
-      <c r="G383" s="15"/>
-      <c r="J383" s="16"/>
-      <c r="K383" s="17"/>
+      <c r="G383" s="14"/>
+      <c r="J383" s="15"/>
+      <c r="K383" s="16"/>
     </row>
     <row r="384" ht="15.2" spans="7:11">
-      <c r="G384" s="15"/>
-      <c r="J384" s="16"/>
-      <c r="K384" s="17"/>
+      <c r="G384" s="14"/>
+      <c r="J384" s="15"/>
+      <c r="K384" s="16"/>
     </row>
     <row r="385" ht="15.2" spans="7:11">
-      <c r="G385" s="15"/>
-      <c r="J385" s="16"/>
-      <c r="K385" s="17"/>
+      <c r="G385" s="14"/>
+      <c r="J385" s="15"/>
+      <c r="K385" s="16"/>
     </row>
     <row r="386" ht="15.2" spans="7:11">
-      <c r="G386" s="15"/>
-      <c r="J386" s="16"/>
-      <c r="K386" s="17"/>
+      <c r="G386" s="14"/>
+      <c r="J386" s="15"/>
+      <c r="K386" s="16"/>
     </row>
     <row r="387" ht="15.2" spans="7:11">
-      <c r="G387" s="15"/>
-      <c r="J387" s="16"/>
-      <c r="K387" s="17"/>
+      <c r="G387" s="14"/>
+      <c r="J387" s="15"/>
+      <c r="K387" s="16"/>
     </row>
     <row r="388" ht="15.2" spans="7:11">
-      <c r="G388" s="15"/>
-      <c r="J388" s="16"/>
-      <c r="K388" s="17"/>
+      <c r="G388" s="14"/>
+      <c r="J388" s="15"/>
+      <c r="K388" s="16"/>
     </row>
     <row r="389" ht="15.2" spans="7:11">
-      <c r="G389" s="15"/>
-      <c r="J389" s="16"/>
-      <c r="K389" s="17"/>
+      <c r="G389" s="14"/>
+      <c r="J389" s="15"/>
+      <c r="K389" s="16"/>
     </row>
     <row r="390" ht="15.2" spans="7:11">
-      <c r="G390" s="15"/>
-      <c r="J390" s="16"/>
-      <c r="K390" s="17"/>
+      <c r="G390" s="14"/>
+      <c r="J390" s="15"/>
+      <c r="K390" s="16"/>
     </row>
     <row r="391" ht="15.2" spans="7:11">
-      <c r="G391" s="15"/>
-      <c r="J391" s="16"/>
-      <c r="K391" s="17"/>
+      <c r="G391" s="14"/>
+      <c r="J391" s="15"/>
+      <c r="K391" s="16"/>
     </row>
     <row r="392" ht="15.2" spans="7:11">
-      <c r="G392" s="15"/>
-      <c r="J392" s="16"/>
-      <c r="K392" s="17"/>
+      <c r="G392" s="14"/>
+      <c r="J392" s="15"/>
+      <c r="K392" s="16"/>
     </row>
     <row r="393" ht="15.2" spans="7:11">
-      <c r="G393" s="15"/>
-      <c r="J393" s="16"/>
-      <c r="K393" s="17"/>
+      <c r="G393" s="14"/>
+      <c r="J393" s="15"/>
+      <c r="K393" s="16"/>
     </row>
     <row r="394" ht="15.2" spans="7:11">
-      <c r="G394" s="15"/>
-      <c r="J394" s="16"/>
-      <c r="K394" s="17"/>
+      <c r="G394" s="14"/>
+      <c r="J394" s="15"/>
+      <c r="K394" s="16"/>
     </row>
     <row r="395" ht="15.2" spans="7:11">
-      <c r="G395" s="15"/>
-      <c r="J395" s="16"/>
-      <c r="K395" s="17"/>
+      <c r="G395" s="14"/>
+      <c r="J395" s="15"/>
+      <c r="K395" s="16"/>
     </row>
     <row r="396" ht="15.2" spans="7:11">
-      <c r="G396" s="15"/>
-      <c r="J396" s="16"/>
-      <c r="K396" s="17"/>
+      <c r="G396" s="14"/>
+      <c r="J396" s="15"/>
+      <c r="K396" s="16"/>
     </row>
     <row r="397" ht="15.2" spans="7:11">
-      <c r="G397" s="15"/>
-      <c r="J397" s="16"/>
-      <c r="K397" s="17"/>
+      <c r="G397" s="14"/>
+      <c r="J397" s="15"/>
+      <c r="K397" s="16"/>
     </row>
     <row r="398" ht="15.2" spans="7:11">
-      <c r="G398" s="15"/>
-      <c r="J398" s="16"/>
-      <c r="K398" s="17"/>
+      <c r="G398" s="14"/>
+      <c r="J398" s="15"/>
+      <c r="K398" s="16"/>
     </row>
     <row r="399" ht="15.2" spans="7:11">
-      <c r="G399" s="15"/>
-      <c r="J399" s="16"/>
-      <c r="K399" s="17"/>
+      <c r="G399" s="14"/>
+      <c r="J399" s="15"/>
+      <c r="K399" s="16"/>
     </row>
     <row r="400" ht="15.2" spans="7:11">
-      <c r="G400" s="15"/>
-      <c r="J400" s="16"/>
-      <c r="K400" s="17"/>
+      <c r="G400" s="14"/>
+      <c r="J400" s="15"/>
+      <c r="K400" s="16"/>
     </row>
     <row r="401" ht="15.2" spans="7:11">
-      <c r="G401" s="15"/>
-      <c r="J401" s="16"/>
-      <c r="K401" s="17"/>
+      <c r="G401" s="14"/>
+      <c r="J401" s="15"/>
+      <c r="K401" s="16"/>
     </row>
     <row r="402" ht="15.2" spans="7:11">
-      <c r="G402" s="15"/>
-      <c r="J402" s="16"/>
-      <c r="K402" s="17"/>
+      <c r="G402" s="14"/>
+      <c r="J402" s="15"/>
+      <c r="K402" s="16"/>
     </row>
     <row r="403" ht="15.2" spans="7:11">
-      <c r="G403" s="15"/>
-      <c r="J403" s="16"/>
-      <c r="K403" s="17"/>
+      <c r="G403" s="14"/>
+      <c r="J403" s="15"/>
+      <c r="K403" s="16"/>
     </row>
     <row r="404" ht="15.2" spans="7:11">
-      <c r="G404" s="15"/>
-      <c r="J404" s="16"/>
-      <c r="K404" s="17"/>
+      <c r="G404" s="14"/>
+      <c r="J404" s="15"/>
+      <c r="K404" s="16"/>
     </row>
     <row r="405" ht="15.2" spans="7:11">
-      <c r="G405" s="15"/>
-      <c r="J405" s="16"/>
-      <c r="K405" s="17"/>
+      <c r="G405" s="14"/>
+      <c r="J405" s="15"/>
+      <c r="K405" s="16"/>
     </row>
     <row r="406" ht="15.2" spans="7:11">
-      <c r="G406" s="15"/>
-      <c r="J406" s="16"/>
-      <c r="K406" s="17"/>
+      <c r="G406" s="14"/>
+      <c r="J406" s="15"/>
+      <c r="K406" s="16"/>
     </row>
     <row r="407" ht="15.2" spans="7:11">
-      <c r="G407" s="15"/>
-      <c r="J407" s="16"/>
-      <c r="K407" s="17"/>
+      <c r="G407" s="14"/>
+      <c r="J407" s="15"/>
+      <c r="K407" s="16"/>
     </row>
     <row r="408" ht="15.2" spans="7:11">
-      <c r="G408" s="15"/>
-      <c r="J408" s="16"/>
-      <c r="K408" s="17"/>
+      <c r="G408" s="14"/>
+      <c r="J408" s="15"/>
+      <c r="K408" s="16"/>
     </row>
     <row r="409" ht="15.2" spans="7:11">
-      <c r="G409" s="15"/>
-      <c r="J409" s="16"/>
-      <c r="K409" s="17"/>
+      <c r="G409" s="14"/>
+      <c r="J409" s="15"/>
+      <c r="K409" s="16"/>
     </row>
     <row r="410" ht="15.2" spans="7:11">
-      <c r="G410" s="15"/>
-      <c r="J410" s="16"/>
-      <c r="K410" s="17"/>
+      <c r="G410" s="14"/>
+      <c r="J410" s="15"/>
+      <c r="K410" s="16"/>
     </row>
     <row r="411" ht="15.2" spans="7:11">
-      <c r="G411" s="15"/>
-      <c r="J411" s="16"/>
-      <c r="K411" s="17"/>
+      <c r="G411" s="14"/>
+      <c r="J411" s="15"/>
+      <c r="K411" s="16"/>
     </row>
     <row r="412" ht="15.2" spans="7:11">
-      <c r="G412" s="15"/>
-      <c r="J412" s="16"/>
-      <c r="K412" s="17"/>
+      <c r="G412" s="14"/>
+      <c r="J412" s="15"/>
+      <c r="K412" s="16"/>
     </row>
     <row r="413" ht="15.2" spans="7:11">
-      <c r="G413" s="15"/>
-      <c r="J413" s="16"/>
-      <c r="K413" s="17"/>
+      <c r="G413" s="14"/>
+      <c r="J413" s="15"/>
+      <c r="K413" s="16"/>
     </row>
     <row r="414" ht="15.2" spans="7:11">
-      <c r="G414" s="15"/>
-      <c r="J414" s="16"/>
-      <c r="K414" s="17"/>
+      <c r="G414" s="14"/>
+      <c r="J414" s="15"/>
+      <c r="K414" s="16"/>
     </row>
     <row r="415" ht="15.2" spans="7:11">
-      <c r="G415" s="15"/>
-      <c r="J415" s="16"/>
-      <c r="K415" s="17"/>
+      <c r="G415" s="14"/>
+      <c r="J415" s="15"/>
+      <c r="K415" s="16"/>
     </row>
     <row r="416" ht="15.2" spans="7:11">
-      <c r="G416" s="15"/>
-      <c r="J416" s="16"/>
-      <c r="K416" s="17"/>
+      <c r="G416" s="14"/>
+      <c r="J416" s="15"/>
+      <c r="K416" s="16"/>
     </row>
     <row r="417" ht="15.2" spans="7:11">
-      <c r="G417" s="15"/>
-      <c r="J417" s="16"/>
-      <c r="K417" s="17"/>
+      <c r="G417" s="14"/>
+      <c r="J417" s="15"/>
+      <c r="K417" s="16"/>
     </row>
     <row r="418" ht="15.2" spans="7:11">
-      <c r="G418" s="15"/>
-      <c r="J418" s="16"/>
-      <c r="K418" s="17"/>
+      <c r="G418" s="14"/>
+      <c r="J418" s="15"/>
+      <c r="K418" s="16"/>
     </row>
     <row r="419" ht="15.2" spans="7:11">
-      <c r="G419" s="15"/>
-      <c r="J419" s="16"/>
-      <c r="K419" s="17"/>
+      <c r="G419" s="14"/>
+      <c r="J419" s="15"/>
+      <c r="K419" s="16"/>
     </row>
     <row r="420" ht="15.2" spans="7:11">
-      <c r="G420" s="15"/>
-      <c r="J420" s="16"/>
-      <c r="K420" s="17"/>
+      <c r="G420" s="14"/>
+      <c r="J420" s="15"/>
+      <c r="K420" s="16"/>
     </row>
     <row r="421" ht="15.2" spans="7:11">
-      <c r="G421" s="15"/>
-      <c r="J421" s="16"/>
-      <c r="K421" s="17"/>
+      <c r="G421" s="14"/>
+      <c r="J421" s="15"/>
+      <c r="K421" s="16"/>
     </row>
     <row r="422" ht="15.2" spans="7:11">
-      <c r="G422" s="15"/>
-      <c r="J422" s="16"/>
-      <c r="K422" s="17"/>
+      <c r="G422" s="14"/>
+      <c r="J422" s="15"/>
+      <c r="K422" s="16"/>
     </row>
     <row r="423" ht="15.2" spans="7:11">
-      <c r="G423" s="15"/>
-      <c r="J423" s="16"/>
-      <c r="K423" s="17"/>
+      <c r="G423" s="14"/>
+      <c r="J423" s="15"/>
+      <c r="K423" s="16"/>
     </row>
     <row r="424" ht="15.2" spans="7:11">
-      <c r="G424" s="15"/>
-      <c r="J424" s="16"/>
-      <c r="K424" s="17"/>
+      <c r="G424" s="14"/>
+      <c r="J424" s="15"/>
+      <c r="K424" s="16"/>
     </row>
     <row r="425" ht="15.2" spans="7:11">
-      <c r="G425" s="15"/>
-      <c r="J425" s="16"/>
-      <c r="K425" s="17"/>
+      <c r="G425" s="14"/>
+      <c r="J425" s="15"/>
+      <c r="K425" s="16"/>
     </row>
     <row r="426" ht="15.2" spans="7:11">
-      <c r="G426" s="15"/>
-      <c r="J426" s="16"/>
-      <c r="K426" s="17"/>
+      <c r="G426" s="14"/>
+      <c r="J426" s="15"/>
+      <c r="K426" s="16"/>
     </row>
     <row r="427" ht="15.2" spans="7:11">
-      <c r="G427" s="15"/>
-      <c r="J427" s="16"/>
-      <c r="K427" s="17"/>
+      <c r="G427" s="14"/>
+      <c r="J427" s="15"/>
+      <c r="K427" s="16"/>
     </row>
     <row r="428" ht="15.2" spans="7:11">
-      <c r="G428" s="15"/>
-      <c r="J428" s="16"/>
-      <c r="K428" s="17"/>
+      <c r="G428" s="14"/>
+      <c r="J428" s="15"/>
+      <c r="K428" s="16"/>
     </row>
     <row r="429" ht="15.2" spans="7:11">
-      <c r="G429" s="15"/>
-      <c r="J429" s="16"/>
-      <c r="K429" s="17"/>
+      <c r="G429" s="14"/>
+      <c r="J429" s="15"/>
+      <c r="K429" s="16"/>
     </row>
     <row r="430" ht="15.2" spans="7:11">
-      <c r="G430" s="15"/>
-      <c r="J430" s="16"/>
-      <c r="K430" s="17"/>
+      <c r="G430" s="14"/>
+      <c r="J430" s="15"/>
+      <c r="K430" s="16"/>
     </row>
     <row r="431" ht="15.2" spans="7:11">
-      <c r="G431" s="15"/>
-      <c r="J431" s="16"/>
-      <c r="K431" s="17"/>
+      <c r="G431" s="14"/>
+      <c r="J431" s="15"/>
+      <c r="K431" s="16"/>
     </row>
     <row r="432" ht="15.2" spans="7:11">
-      <c r="G432" s="15"/>
-      <c r="J432" s="16"/>
-      <c r="K432" s="17"/>
+      <c r="G432" s="14"/>
+      <c r="J432" s="15"/>
+      <c r="K432" s="16"/>
     </row>
     <row r="433" ht="15.2" spans="7:11">
-      <c r="G433" s="15"/>
-      <c r="J433" s="16"/>
-      <c r="K433" s="17"/>
+      <c r="G433" s="14"/>
+      <c r="J433" s="15"/>
+      <c r="K433" s="16"/>
     </row>
     <row r="434" ht="15.2" spans="7:11">
-      <c r="G434" s="15"/>
-      <c r="J434" s="16"/>
-      <c r="K434" s="17"/>
+      <c r="G434" s="14"/>
+      <c r="J434" s="15"/>
+      <c r="K434" s="16"/>
     </row>
     <row r="435" ht="15.2" spans="7:11">
-      <c r="G435" s="15"/>
-      <c r="J435" s="16"/>
-      <c r="K435" s="17"/>
+      <c r="G435" s="14"/>
+      <c r="J435" s="15"/>
+      <c r="K435" s="16"/>
     </row>
     <row r="436" ht="15.2" spans="7:11">
-      <c r="G436" s="15"/>
-      <c r="J436" s="16"/>
-      <c r="K436" s="17"/>
+      <c r="G436" s="14"/>
+      <c r="J436" s="15"/>
+      <c r="K436" s="16"/>
     </row>
     <row r="437" ht="15.2" spans="7:11">
-      <c r="G437" s="15"/>
-      <c r="J437" s="16"/>
-      <c r="K437" s="17"/>
+      <c r="G437" s="14"/>
+      <c r="J437" s="15"/>
+      <c r="K437" s="16"/>
     </row>
     <row r="438" ht="15.2" spans="7:11">
-      <c r="G438" s="15"/>
-      <c r="J438" s="16"/>
-      <c r="K438" s="17"/>
+      <c r="G438" s="14"/>
+      <c r="J438" s="15"/>
+      <c r="K438" s="16"/>
     </row>
     <row r="439" ht="15.2" spans="7:11">
-      <c r="G439" s="15"/>
-      <c r="J439" s="16"/>
-      <c r="K439" s="17"/>
+      <c r="G439" s="14"/>
+      <c r="J439" s="15"/>
+      <c r="K439" s="16"/>
     </row>
     <row r="440" ht="15.2" spans="7:11">
-      <c r="G440" s="15"/>
-      <c r="J440" s="16"/>
-      <c r="K440" s="17"/>
+      <c r="G440" s="14"/>
+      <c r="J440" s="15"/>
+      <c r="K440" s="16"/>
     </row>
     <row r="441" ht="15.2" spans="7:11">
-      <c r="G441" s="15"/>
-      <c r="J441" s="16"/>
-      <c r="K441" s="17"/>
+      <c r="G441" s="14"/>
+      <c r="J441" s="15"/>
+      <c r="K441" s="16"/>
     </row>
     <row r="442" ht="15.2" spans="7:11">
-      <c r="G442" s="15"/>
-      <c r="J442" s="16"/>
-      <c r="K442" s="17"/>
+      <c r="G442" s="14"/>
+      <c r="J442" s="15"/>
+      <c r="K442" s="16"/>
     </row>
     <row r="443" ht="15.2" spans="7:11">
-      <c r="G443" s="15"/>
-      <c r="J443" s="16"/>
-      <c r="K443" s="17"/>
+      <c r="G443" s="14"/>
+      <c r="J443" s="15"/>
+      <c r="K443" s="16"/>
     </row>
     <row r="444" ht="15.2" spans="7:11">
-      <c r="G444" s="15"/>
-      <c r="J444" s="16"/>
-      <c r="K444" s="17"/>
+      <c r="G444" s="14"/>
+      <c r="J444" s="15"/>
+      <c r="K444" s="16"/>
     </row>
     <row r="445" ht="15.2" spans="7:11">
-      <c r="G445" s="15"/>
-      <c r="J445" s="16"/>
-      <c r="K445" s="17"/>
+      <c r="G445" s="14"/>
+      <c r="J445" s="15"/>
+      <c r="K445" s="16"/>
     </row>
     <row r="446" ht="15.2" spans="7:11">
-      <c r="G446" s="15"/>
-      <c r="J446" s="16"/>
-      <c r="K446" s="17"/>
+      <c r="G446" s="14"/>
+      <c r="J446" s="15"/>
+      <c r="K446" s="16"/>
     </row>
     <row r="447" ht="15.2" spans="7:11">
-      <c r="G447" s="15"/>
-      <c r="J447" s="16"/>
-      <c r="K447" s="17"/>
+      <c r="G447" s="14"/>
+      <c r="J447" s="15"/>
+      <c r="K447" s="16"/>
     </row>
     <row r="448" ht="15.2" spans="7:11">
-      <c r="G448" s="15"/>
-      <c r="J448" s="16"/>
-      <c r="K448" s="17"/>
+      <c r="G448" s="14"/>
+      <c r="J448" s="15"/>
+      <c r="K448" s="16"/>
     </row>
     <row r="449" ht="15.2" spans="7:11">
-      <c r="G449" s="15"/>
-      <c r="J449" s="16"/>
-      <c r="K449" s="17"/>
+      <c r="G449" s="14"/>
+      <c r="J449" s="15"/>
+      <c r="K449" s="16"/>
     </row>
     <row r="450" ht="15.2" spans="7:11">
-      <c r="G450" s="15"/>
-      <c r="J450" s="16"/>
-      <c r="K450" s="17"/>
+      <c r="G450" s="14"/>
+      <c r="J450" s="15"/>
+      <c r="K450" s="16"/>
     </row>
     <row r="451" ht="15.2" spans="7:11">
-      <c r="G451" s="15"/>
-      <c r="J451" s="16"/>
-      <c r="K451" s="17"/>
+      <c r="G451" s="14"/>
+      <c r="J451" s="15"/>
+      <c r="K451" s="16"/>
     </row>
     <row r="452" ht="15.2" spans="7:11">
-      <c r="G452" s="15"/>
-      <c r="J452" s="16"/>
-      <c r="K452" s="17"/>
+      <c r="G452" s="14"/>
+      <c r="J452" s="15"/>
+      <c r="K452" s="16"/>
     </row>
     <row r="453" ht="15.2" spans="7:11">
-      <c r="G453" s="15"/>
-      <c r="J453" s="16"/>
-      <c r="K453" s="17"/>
+      <c r="G453" s="14"/>
+      <c r="J453" s="15"/>
+      <c r="K453" s="16"/>
     </row>
     <row r="454" ht="15.2" spans="7:11">
-      <c r="G454" s="15"/>
-      <c r="J454" s="16"/>
-      <c r="K454" s="17"/>
+      <c r="G454" s="14"/>
+      <c r="J454" s="15"/>
+      <c r="K454" s="16"/>
     </row>
     <row r="455" ht="15.2" spans="7:11">
-      <c r="G455" s="15"/>
-      <c r="J455" s="16"/>
-      <c r="K455" s="17"/>
+      <c r="G455" s="14"/>
+      <c r="J455" s="15"/>
+      <c r="K455" s="16"/>
     </row>
     <row r="456" ht="15.2" spans="7:11">
-      <c r="G456" s="15"/>
-      <c r="J456" s="16"/>
-      <c r="K456" s="17"/>
+      <c r="G456" s="14"/>
+      <c r="J456" s="15"/>
+      <c r="K456" s="16"/>
     </row>
     <row r="457" ht="15.2" spans="7:11">
-      <c r="G457" s="15"/>
-      <c r="J457" s="16"/>
-      <c r="K457" s="17"/>
+      <c r="G457" s="14"/>
+      <c r="J457" s="15"/>
+      <c r="K457" s="16"/>
     </row>
     <row r="458" ht="15.2" spans="7:11">
-      <c r="G458" s="15"/>
-      <c r="J458" s="16"/>
-      <c r="K458" s="17"/>
+      <c r="G458" s="14"/>
+      <c r="J458" s="15"/>
+      <c r="K458" s="16"/>
     </row>
     <row r="459" ht="15.2" spans="7:11">
-      <c r="G459" s="15"/>
-      <c r="J459" s="16"/>
-      <c r="K459" s="17"/>
+      <c r="G459" s="14"/>
+      <c r="J459" s="15"/>
+      <c r="K459" s="16"/>
     </row>
     <row r="460" ht="15.2" spans="7:11">
-      <c r="G460" s="15"/>
-      <c r="J460" s="16"/>
-      <c r="K460" s="17"/>
+      <c r="G460" s="14"/>
+      <c r="J460" s="15"/>
+      <c r="K460" s="16"/>
     </row>
     <row r="461" ht="15.2" spans="7:11">
-      <c r="G461" s="15"/>
-      <c r="J461" s="16"/>
-      <c r="K461" s="17"/>
+      <c r="G461" s="14"/>
+      <c r="J461" s="15"/>
+      <c r="K461" s="16"/>
     </row>
     <row r="462" ht="15.2" spans="7:11">
-      <c r="G462" s="15"/>
-      <c r="J462" s="16"/>
-      <c r="K462" s="17"/>
+      <c r="G462" s="14"/>
+      <c r="J462" s="15"/>
+      <c r="K462" s="16"/>
     </row>
     <row r="463" ht="15.2" spans="7:11">
-      <c r="G463" s="15"/>
-      <c r="J463" s="16"/>
-      <c r="K463" s="17"/>
+      <c r="G463" s="14"/>
+      <c r="J463" s="15"/>
+      <c r="K463" s="16"/>
     </row>
     <row r="464" ht="15.2" spans="7:11">
-      <c r="G464" s="15"/>
-      <c r="J464" s="16"/>
-      <c r="K464" s="17"/>
+      <c r="G464" s="14"/>
+      <c r="J464" s="15"/>
+      <c r="K464" s="16"/>
     </row>
     <row r="465" ht="15.2" spans="7:11">
-      <c r="G465" s="15"/>
-      <c r="J465" s="16"/>
-      <c r="K465" s="17"/>
+      <c r="G465" s="14"/>
+      <c r="J465" s="15"/>
+      <c r="K465" s="16"/>
     </row>
     <row r="466" ht="15.2" spans="7:11">
-      <c r="G466" s="15"/>
-      <c r="J466" s="16"/>
-      <c r="K466" s="17"/>
+      <c r="G466" s="14"/>
+      <c r="J466" s="15"/>
+      <c r="K466" s="16"/>
     </row>
     <row r="467" ht="15.2" spans="7:11">
-      <c r="G467" s="15"/>
-      <c r="J467" s="16"/>
-      <c r="K467" s="17"/>
+      <c r="G467" s="14"/>
+      <c r="J467" s="15"/>
+      <c r="K467" s="16"/>
     </row>
     <row r="468" ht="15.2" spans="7:11">
-      <c r="G468" s="15"/>
-      <c r="J468" s="16"/>
-      <c r="K468" s="17"/>
+      <c r="G468" s="14"/>
+      <c r="J468" s="15"/>
+      <c r="K468" s="16"/>
     </row>
     <row r="469" ht="15.2" spans="7:11">
-      <c r="G469" s="15"/>
-      <c r="J469" s="16"/>
-      <c r="K469" s="17"/>
+      <c r="G469" s="14"/>
+      <c r="J469" s="15"/>
+      <c r="K469" s="16"/>
     </row>
     <row r="470" ht="15.2" spans="7:11">
-      <c r="G470" s="15"/>
-      <c r="J470" s="16"/>
-      <c r="K470" s="17"/>
+      <c r="G470" s="14"/>
+      <c r="J470" s="15"/>
+      <c r="K470" s="16"/>
     </row>
     <row r="471" ht="15.2" spans="7:11">
-      <c r="G471" s="15"/>
-      <c r="J471" s="16"/>
-      <c r="K471" s="17"/>
+      <c r="G471" s="14"/>
+      <c r="J471" s="15"/>
+      <c r="K471" s="16"/>
     </row>
     <row r="472" ht="15.2" spans="7:11">
-      <c r="G472" s="15"/>
-      <c r="J472" s="16"/>
-      <c r="K472" s="17"/>
+      <c r="G472" s="14"/>
+      <c r="J472" s="15"/>
+      <c r="K472" s="16"/>
     </row>
     <row r="473" ht="15.2" spans="7:11">
-      <c r="G473" s="15"/>
-      <c r="J473" s="16"/>
-      <c r="K473" s="17"/>
+      <c r="G473" s="14"/>
+      <c r="J473" s="15"/>
+      <c r="K473" s="16"/>
     </row>
     <row r="474" ht="15.2" spans="7:11">
-      <c r="G474" s="15"/>
-      <c r="J474" s="16"/>
-      <c r="K474" s="17"/>
+      <c r="G474" s="14"/>
+      <c r="J474" s="15"/>
+      <c r="K474" s="16"/>
     </row>
     <row r="475" ht="15.2" spans="7:11">
-      <c r="G475" s="15"/>
-      <c r="J475" s="16"/>
-      <c r="K475" s="17"/>
+      <c r="G475" s="14"/>
+      <c r="J475" s="15"/>
+      <c r="K475" s="16"/>
     </row>
     <row r="476" ht="15.2" spans="7:11">
-      <c r="G476" s="15"/>
-      <c r="J476" s="16"/>
-      <c r="K476" s="17"/>
+      <c r="G476" s="14"/>
+      <c r="J476" s="15"/>
+      <c r="K476" s="16"/>
     </row>
     <row r="477" ht="15.2" spans="7:11">
-      <c r="G477" s="15"/>
-      <c r="J477" s="16"/>
-      <c r="K477" s="17"/>
+      <c r="G477" s="14"/>
+      <c r="J477" s="15"/>
+      <c r="K477" s="16"/>
     </row>
     <row r="478" ht="15.2" spans="7:11">
-      <c r="G478" s="15"/>
-      <c r="J478" s="16"/>
-      <c r="K478" s="17"/>
+      <c r="G478" s="14"/>
+      <c r="J478" s="15"/>
+      <c r="K478" s="16"/>
     </row>
     <row r="479" ht="15.2" spans="7:11">
-      <c r="G479" s="15"/>
-      <c r="J479" s="16"/>
-      <c r="K479" s="17"/>
+      <c r="G479" s="14"/>
+      <c r="J479" s="15"/>
+      <c r="K479" s="16"/>
     </row>
     <row r="480" ht="15.2" spans="7:11">
-      <c r="G480" s="15"/>
-      <c r="J480" s="16"/>
-      <c r="K480" s="17"/>
+      <c r="G480" s="14"/>
+      <c r="J480" s="15"/>
+      <c r="K480" s="16"/>
     </row>
     <row r="481" ht="15.2" spans="7:11">
-      <c r="G481" s="15"/>
-      <c r="J481" s="16"/>
-      <c r="K481" s="17"/>
+      <c r="G481" s="14"/>
+      <c r="J481" s="15"/>
+      <c r="K481" s="16"/>
     </row>
     <row r="482" ht="15.2" spans="7:11">
-      <c r="G482" s="15"/>
-      <c r="J482" s="16"/>
-      <c r="K482" s="17"/>
+      <c r="G482" s="14"/>
+      <c r="J482" s="15"/>
+      <c r="K482" s="16"/>
     </row>
     <row r="483" ht="15.2" spans="7:11">
-      <c r="G483" s="15"/>
-      <c r="J483" s="16"/>
-      <c r="K483" s="17"/>
+      <c r="G483" s="14"/>
+      <c r="J483" s="15"/>
+      <c r="K483" s="16"/>
     </row>
     <row r="484" ht="15.2" spans="7:11">
-      <c r="G484" s="15"/>
-      <c r="J484" s="16"/>
-      <c r="K484" s="17"/>
+      <c r="G484" s="14"/>
+      <c r="J484" s="15"/>
+      <c r="K484" s="16"/>
     </row>
     <row r="485" ht="15.2" spans="7:11">
-      <c r="G485" s="15"/>
-      <c r="J485" s="16"/>
-      <c r="K485" s="17"/>
+      <c r="G485" s="14"/>
+      <c r="J485" s="15"/>
+      <c r="K485" s="16"/>
     </row>
     <row r="486" ht="15.2" spans="7:11">
-      <c r="G486" s="15"/>
-      <c r="J486" s="16"/>
-      <c r="K486" s="17"/>
+      <c r="G486" s="14"/>
+      <c r="J486" s="15"/>
+      <c r="K486" s="16"/>
     </row>
     <row r="487" ht="15.2" spans="7:11">
-      <c r="G487" s="15"/>
-      <c r="J487" s="16"/>
-      <c r="K487" s="17"/>
+      <c r="G487" s="14"/>
+      <c r="J487" s="15"/>
+      <c r="K487" s="16"/>
     </row>
     <row r="488" ht="15.2" spans="7:11">
-      <c r="G488" s="15"/>
-      <c r="J488" s="16"/>
-      <c r="K488" s="17"/>
+      <c r="G488" s="14"/>
+      <c r="J488" s="15"/>
+      <c r="K488" s="16"/>
     </row>
     <row r="489" ht="15.2" spans="7:11">
-      <c r="G489" s="15"/>
-      <c r="J489" s="16"/>
-      <c r="K489" s="17"/>
+      <c r="G489" s="14"/>
+      <c r="J489" s="15"/>
+      <c r="K489" s="16"/>
     </row>
     <row r="490" ht="15.2" spans="7:11">
-      <c r="G490" s="15"/>
-      <c r="J490" s="16"/>
-      <c r="K490" s="17"/>
+      <c r="G490" s="14"/>
+      <c r="J490" s="15"/>
+      <c r="K490" s="16"/>
     </row>
     <row r="491" ht="15.2" spans="7:11">
-      <c r="G491" s="15"/>
-      <c r="J491" s="16"/>
-      <c r="K491" s="17"/>
+      <c r="G491" s="14"/>
+      <c r="J491" s="15"/>
+      <c r="K491" s="16"/>
     </row>
     <row r="492" ht="15.2" spans="7:11">
-      <c r="G492" s="15"/>
-      <c r="J492" s="16"/>
-      <c r="K492" s="17"/>
+      <c r="G492" s="14"/>
+      <c r="J492" s="15"/>
+      <c r="K492" s="16"/>
     </row>
     <row r="493" ht="15.2" spans="7:11">
-      <c r="G493" s="15"/>
-      <c r="J493" s="16"/>
-      <c r="K493" s="17"/>
+      <c r="G493" s="14"/>
+      <c r="J493" s="15"/>
+      <c r="K493" s="16"/>
     </row>
     <row r="494" ht="15.2" spans="7:11">
-      <c r="G494" s="15"/>
-      <c r="J494" s="16"/>
-      <c r="K494" s="17"/>
+      <c r="G494" s="14"/>
+      <c r="J494" s="15"/>
+      <c r="K494" s="16"/>
     </row>
     <row r="495" ht="15.2" spans="7:11">
-      <c r="G495" s="15"/>
-      <c r="J495" s="16"/>
-      <c r="K495" s="17"/>
+      <c r="G495" s="14"/>
+      <c r="J495" s="15"/>
+      <c r="K495" s="16"/>
     </row>
     <row r="496" ht="15.2" spans="7:11">
-      <c r="G496" s="15"/>
-      <c r="J496" s="16"/>
-      <c r="K496" s="17"/>
+      <c r="G496" s="14"/>
+      <c r="J496" s="15"/>
+      <c r="K496" s="16"/>
     </row>
     <row r="497" ht="15.2" spans="7:11">
-      <c r="G497" s="15"/>
-      <c r="J497" s="16"/>
-      <c r="K497" s="17"/>
+      <c r="G497" s="14"/>
+      <c r="J497" s="15"/>
+      <c r="K497" s="16"/>
     </row>
     <row r="498" ht="15.2" spans="7:11">
-      <c r="G498" s="15"/>
-      <c r="J498" s="16"/>
-      <c r="K498" s="17"/>
+      <c r="G498" s="14"/>
+      <c r="J498" s="15"/>
+      <c r="K498" s="16"/>
     </row>
     <row r="499" ht="15.2" spans="7:11">
-      <c r="G499" s="15"/>
-      <c r="J499" s="16"/>
-      <c r="K499" s="17"/>
+      <c r="G499" s="14"/>
+      <c r="J499" s="15"/>
+      <c r="K499" s="16"/>
     </row>
     <row r="500" ht="15.2" spans="7:11">
-      <c r="G500" s="15"/>
-      <c r="J500" s="16"/>
-      <c r="K500" s="17"/>
+      <c r="G500" s="14"/>
+      <c r="J500" s="15"/>
+      <c r="K500" s="16"/>
     </row>
     <row r="501" ht="15.2" spans="7:11">
-      <c r="G501" s="15"/>
-      <c r="J501" s="16"/>
-      <c r="K501" s="17"/>
+      <c r="G501" s="14"/>
+      <c r="J501" s="15"/>
+      <c r="K501" s="16"/>
     </row>
     <row r="502" ht="15.2" spans="7:11">
-      <c r="G502" s="15"/>
-      <c r="J502" s="16"/>
-      <c r="K502" s="17"/>
+      <c r="G502" s="14"/>
+      <c r="J502" s="15"/>
+      <c r="K502" s="16"/>
     </row>
     <row r="503" ht="15.2" spans="7:11">
-      <c r="G503" s="15"/>
-      <c r="J503" s="16"/>
-      <c r="K503" s="17"/>
+      <c r="G503" s="14"/>
+      <c r="J503" s="15"/>
+      <c r="K503" s="16"/>
     </row>
     <row r="504" ht="15.2" spans="7:11">
-      <c r="G504" s="15"/>
-      <c r="J504" s="16"/>
-      <c r="K504" s="17"/>
+      <c r="G504" s="14"/>
+      <c r="J504" s="15"/>
+      <c r="K504" s="16"/>
     </row>
     <row r="505" ht="15.2" spans="7:11">
-      <c r="G505" s="15"/>
-      <c r="J505" s="16"/>
-      <c r="K505" s="17"/>
+      <c r="G505" s="14"/>
+      <c r="J505" s="15"/>
+      <c r="K505" s="16"/>
     </row>
     <row r="506" ht="15.2" spans="7:11">
-      <c r="G506" s="15"/>
-      <c r="J506" s="16"/>
-      <c r="K506" s="17"/>
+      <c r="G506" s="14"/>
+      <c r="J506" s="15"/>
+      <c r="K506" s="16"/>
     </row>
     <row r="507" ht="15.2" spans="7:11">
-      <c r="G507" s="15"/>
-      <c r="J507" s="16"/>
-      <c r="K507" s="17"/>
+      <c r="G507" s="14"/>
+      <c r="J507" s="15"/>
+      <c r="K507" s="16"/>
     </row>
     <row r="508" ht="15.2" spans="7:11">
-      <c r="G508" s="15"/>
-      <c r="J508" s="16"/>
-      <c r="K508" s="17"/>
+      <c r="G508" s="14"/>
+      <c r="J508" s="15"/>
+      <c r="K508" s="16"/>
     </row>
     <row r="509" ht="15.2" spans="7:11">
-      <c r="G509" s="15"/>
-      <c r="J509" s="16"/>
-      <c r="K509" s="17"/>
+      <c r="G509" s="14"/>
+      <c r="J509" s="15"/>
+      <c r="K509" s="16"/>
     </row>
     <row r="510" ht="15.2" spans="7:11">
-      <c r="G510" s="15"/>
-      <c r="J510" s="16"/>
-      <c r="K510" s="17"/>
+      <c r="G510" s="14"/>
+      <c r="J510" s="15"/>
+      <c r="K510" s="16"/>
     </row>
     <row r="511" ht="15.2" spans="7:11">
-      <c r="G511" s="15"/>
-      <c r="J511" s="16"/>
-      <c r="K511" s="17"/>
+      <c r="G511" s="14"/>
+      <c r="J511" s="15"/>
+      <c r="K511" s="16"/>
     </row>
     <row r="512" ht="15.2" spans="7:11">
-      <c r="G512" s="15"/>
-      <c r="J512" s="16"/>
-      <c r="K512" s="17"/>
+      <c r="G512" s="14"/>
+      <c r="J512" s="15"/>
+      <c r="K512" s="16"/>
     </row>
     <row r="513" ht="15.2" spans="7:11">
-      <c r="G513" s="15"/>
-      <c r="J513" s="16"/>
-      <c r="K513" s="17"/>
+      <c r="G513" s="14"/>
+      <c r="J513" s="15"/>
+      <c r="K513" s="16"/>
     </row>
     <row r="514" ht="15.2" spans="7:11">
-      <c r="G514" s="15"/>
-      <c r="J514" s="16"/>
-      <c r="K514" s="17"/>
+      <c r="G514" s="14"/>
+      <c r="J514" s="15"/>
+      <c r="K514" s="16"/>
     </row>
     <row r="515" ht="15.2" spans="7:11">
-      <c r="G515" s="15"/>
-      <c r="J515" s="16"/>
-      <c r="K515" s="17"/>
+      <c r="G515" s="14"/>
+      <c r="J515" s="15"/>
+      <c r="K515" s="16"/>
     </row>
     <row r="516" ht="15.2" spans="7:11">
-      <c r="G516" s="15"/>
-      <c r="J516" s="16"/>
-      <c r="K516" s="17"/>
+      <c r="G516" s="14"/>
+      <c r="J516" s="15"/>
+      <c r="K516" s="16"/>
     </row>
     <row r="517" ht="15.2" spans="7:11">
-      <c r="G517" s="15"/>
-      <c r="J517" s="16"/>
-      <c r="K517" s="17"/>
+      <c r="G517" s="14"/>
+      <c r="J517" s="15"/>
+      <c r="K517" s="16"/>
     </row>
     <row r="518" ht="15.2" spans="7:11">
-      <c r="G518" s="15"/>
-      <c r="J518" s="16"/>
-      <c r="K518" s="17"/>
+      <c r="G518" s="14"/>
+      <c r="J518" s="15"/>
+      <c r="K518" s="16"/>
     </row>
     <row r="519" ht="15.2" spans="7:11">
-      <c r="G519" s="15"/>
-      <c r="J519" s="16"/>
-      <c r="K519" s="17"/>
+      <c r="G519" s="14"/>
+      <c r="J519" s="15"/>
+      <c r="K519" s="16"/>
     </row>
     <row r="520" ht="15.2" spans="7:11">
-      <c r="G520" s="15"/>
-      <c r="J520" s="16"/>
-      <c r="K520" s="17"/>
+      <c r="G520" s="14"/>
+      <c r="J520" s="15"/>
+      <c r="K520" s="16"/>
     </row>
     <row r="521" ht="15.2" spans="7:11">
-      <c r="G521" s="15"/>
-      <c r="J521" s="16"/>
-      <c r="K521" s="17"/>
+      <c r="G521" s="14"/>
+      <c r="J521" s="15"/>
+      <c r="K521" s="16"/>
     </row>
     <row r="522" ht="15.2" spans="7:11">
-      <c r="G522" s="15"/>
-      <c r="J522" s="16"/>
-      <c r="K522" s="17"/>
+      <c r="G522" s="14"/>
+      <c r="J522" s="15"/>
+      <c r="K522" s="16"/>
     </row>
     <row r="523" ht="15.2" spans="7:11">
-      <c r="G523" s="15"/>
-      <c r="J523" s="16"/>
-      <c r="K523" s="17"/>
+      <c r="G523" s="14"/>
+      <c r="J523" s="15"/>
+      <c r="K523" s="16"/>
     </row>
     <row r="524" ht="15.2" spans="7:11">
-      <c r="G524" s="15"/>
-      <c r="J524" s="16"/>
-      <c r="K524" s="17"/>
+      <c r="G524" s="14"/>
+      <c r="J524" s="15"/>
+      <c r="K524" s="16"/>
     </row>
     <row r="525" ht="15.2" spans="7:11">
-      <c r="G525" s="15"/>
-      <c r="J525" s="16"/>
-      <c r="K525" s="17"/>
+      <c r="G525" s="14"/>
+      <c r="J525" s="15"/>
+      <c r="K525" s="16"/>
     </row>
     <row r="526" ht="15.2" spans="7:11">
-      <c r="G526" s="15"/>
-      <c r="J526" s="16"/>
-      <c r="K526" s="17"/>
+      <c r="G526" s="14"/>
+      <c r="J526" s="15"/>
+      <c r="K526" s="16"/>
     </row>
     <row r="527" ht="15.2" spans="7:11">
-      <c r="G527" s="15"/>
-      <c r="J527" s="16"/>
-      <c r="K527" s="17"/>
+      <c r="G527" s="14"/>
+      <c r="J527" s="15"/>
+      <c r="K527" s="16"/>
     </row>
     <row r="528" ht="15.2" spans="7:11">
-      <c r="G528" s="15"/>
-      <c r="J528" s="16"/>
-      <c r="K528" s="17"/>
+      <c r="G528" s="14"/>
+      <c r="J528" s="15"/>
+      <c r="K528" s="16"/>
     </row>
     <row r="529" ht="15.2" spans="7:11">
-      <c r="G529" s="15"/>
-      <c r="J529" s="16"/>
-      <c r="K529" s="17"/>
+      <c r="G529" s="14"/>
+      <c r="J529" s="15"/>
+      <c r="K529" s="16"/>
     </row>
     <row r="530" ht="15.2" spans="7:11">
-      <c r="G530" s="15"/>
-      <c r="J530" s="16"/>
-      <c r="K530" s="17"/>
+      <c r="G530" s="14"/>
+      <c r="J530" s="15"/>
+      <c r="K530" s="16"/>
     </row>
     <row r="531" ht="15.2" spans="7:11">
-      <c r="G531" s="15"/>
-      <c r="J531" s="16"/>
-      <c r="K531" s="17"/>
+      <c r="G531" s="14"/>
+      <c r="J531" s="15"/>
+      <c r="K531" s="16"/>
     </row>
     <row r="532" ht="15.2" spans="7:11">
-      <c r="G532" s="15"/>
-      <c r="J532" s="16"/>
-      <c r="K532" s="17"/>
+      <c r="G532" s="14"/>
+      <c r="J532" s="15"/>
+      <c r="K532" s="16"/>
     </row>
     <row r="533" ht="15.2" spans="7:11">
-      <c r="G533" s="15"/>
-      <c r="J533" s="16"/>
-      <c r="K533" s="17"/>
+      <c r="G533" s="14"/>
+      <c r="J533" s="15"/>
+      <c r="K533" s="16"/>
     </row>
     <row r="534" ht="15.2" spans="7:11">
-      <c r="G534" s="15"/>
-      <c r="J534" s="16"/>
-      <c r="K534" s="17"/>
+      <c r="G534" s="14"/>
+      <c r="J534" s="15"/>
+      <c r="K534" s="16"/>
     </row>
     <row r="535" ht="15.2" spans="7:11">
-      <c r="G535" s="15"/>
-      <c r="J535" s="16"/>
-      <c r="K535" s="17"/>
+      <c r="G535" s="14"/>
+      <c r="J535" s="15"/>
+      <c r="K535" s="16"/>
     </row>
     <row r="536" ht="15.2" spans="7:11">
-      <c r="G536" s="15"/>
-      <c r="J536" s="16"/>
-      <c r="K536" s="17"/>
+      <c r="G536" s="14"/>
+      <c r="J536" s="15"/>
+      <c r="K536" s="16"/>
     </row>
     <row r="537" ht="15.2" spans="7:11">
-      <c r="G537" s="15"/>
-      <c r="J537" s="16"/>
-      <c r="K537" s="17"/>
+      <c r="G537" s="14"/>
+      <c r="J537" s="15"/>
+      <c r="K537" s="16"/>
     </row>
     <row r="538" ht="15.2" spans="7:11">
-      <c r="G538" s="15"/>
-      <c r="J538" s="16"/>
-      <c r="K538" s="17"/>
+      <c r="G538" s="14"/>
+      <c r="J538" s="15"/>
+      <c r="K538" s="16"/>
     </row>
     <row r="539" ht="15.2" spans="7:11">
-      <c r="G539" s="15"/>
-      <c r="J539" s="16"/>
-      <c r="K539" s="17"/>
+      <c r="G539" s="14"/>
+      <c r="J539" s="15"/>
+      <c r="K539" s="16"/>
     </row>
     <row r="540" ht="15.2" spans="7:11">
-      <c r="G540" s="15"/>
-      <c r="J540" s="16"/>
-      <c r="K540" s="17"/>
+      <c r="G540" s="14"/>
+      <c r="J540" s="15"/>
+      <c r="K540" s="16"/>
     </row>
     <row r="541" ht="15.2" spans="7:11">
-      <c r="G541" s="15"/>
-      <c r="J541" s="16"/>
-      <c r="K541" s="17"/>
+      <c r="G541" s="14"/>
+      <c r="J541" s="15"/>
+      <c r="K541" s="16"/>
     </row>
     <row r="542" ht="15.2" spans="7:11">
-      <c r="G542" s="15"/>
-      <c r="J542" s="16"/>
-      <c r="K542" s="17"/>
+      <c r="G542" s="14"/>
+      <c r="J542" s="15"/>
+      <c r="K542" s="16"/>
     </row>
     <row r="543" ht="15.2" spans="7:11">
-      <c r="G543" s="15"/>
-      <c r="J543" s="16"/>
-      <c r="K543" s="17"/>
+      <c r="G543" s="14"/>
+      <c r="J543" s="15"/>
+      <c r="K543" s="16"/>
     </row>
     <row r="544" ht="15.2" spans="7:11">
-      <c r="G544" s="15"/>
-      <c r="J544" s="16"/>
-      <c r="K544" s="17"/>
+      <c r="G544" s="14"/>
+      <c r="J544" s="15"/>
+      <c r="K544" s="16"/>
     </row>
     <row r="545" ht="15.2" spans="7:11">
-      <c r="G545" s="15"/>
-      <c r="J545" s="16"/>
-      <c r="K545" s="17"/>
+      <c r="G545" s="14"/>
+      <c r="J545" s="15"/>
+      <c r="K545" s="16"/>
     </row>
     <row r="546" ht="15.2" spans="7:11">
-      <c r="G546" s="15"/>
-      <c r="J546" s="16"/>
-      <c r="K546" s="17"/>
+      <c r="G546" s="14"/>
+      <c r="J546" s="15"/>
+      <c r="K546" s="16"/>
     </row>
     <row r="547" ht="15.2" spans="7:11">
-      <c r="G547" s="15"/>
-      <c r="J547" s="16"/>
-      <c r="K547" s="17"/>
+      <c r="G547" s="14"/>
+      <c r="J547" s="15"/>
+      <c r="K547" s="16"/>
     </row>
     <row r="548" ht="15.2" spans="7:11">
-      <c r="G548" s="15"/>
-      <c r="J548" s="16"/>
-      <c r="K548" s="17"/>
+      <c r="G548" s="14"/>
+      <c r="J548" s="15"/>
+      <c r="K548" s="16"/>
     </row>
     <row r="549" ht="15.2" spans="7:11">
-      <c r="G549" s="15"/>
-      <c r="J549" s="16"/>
-      <c r="K549" s="17"/>
+      <c r="G549" s="14"/>
+      <c r="J549" s="15"/>
+      <c r="K549" s="16"/>
     </row>
     <row r="550" ht="15.2" spans="7:11">
-      <c r="G550" s="15"/>
-      <c r="J550" s="16"/>
-      <c r="K550" s="17"/>
+      <c r="G550" s="14"/>
+      <c r="J550" s="15"/>
+      <c r="K550" s="16"/>
     </row>
     <row r="551" ht="15.2" spans="7:11">
-      <c r="G551" s="15"/>
-      <c r="J551" s="16"/>
-      <c r="K551" s="17"/>
+      <c r="G551" s="14"/>
+      <c r="J551" s="15"/>
+      <c r="K551" s="16"/>
     </row>
     <row r="552" ht="15.2" spans="7:11">
-      <c r="G552" s="15"/>
-      <c r="J552" s="16"/>
-      <c r="K552" s="17"/>
+      <c r="G552" s="14"/>
+      <c r="J552" s="15"/>
+      <c r="K552" s="16"/>
     </row>
     <row r="553" ht="15.2" spans="7:11">
-      <c r="G553" s="15"/>
-      <c r="J553" s="16"/>
-      <c r="K553" s="17"/>
+      <c r="G553" s="14"/>
+      <c r="J553" s="15"/>
+      <c r="K553" s="16"/>
     </row>
     <row r="554" ht="15.2" spans="7:11">
-      <c r="G554" s="15"/>
-      <c r="J554" s="16"/>
-      <c r="K554" s="17"/>
+      <c r="G554" s="14"/>
+      <c r="J554" s="15"/>
+      <c r="K554" s="16"/>
     </row>
     <row r="555" ht="15.2" spans="7:11">
-      <c r="G555" s="15"/>
-      <c r="J555" s="16"/>
-      <c r="K555" s="17"/>
+      <c r="G555" s="14"/>
+      <c r="J555" s="15"/>
+      <c r="K555" s="16"/>
     </row>
     <row r="556" ht="15.2" spans="7:11">
-      <c r="G556" s="15"/>
-      <c r="J556" s="16"/>
-      <c r="K556" s="17"/>
+      <c r="G556" s="14"/>
+      <c r="J556" s="15"/>
+      <c r="K556" s="16"/>
     </row>
     <row r="557" ht="15.2" spans="7:11">
-      <c r="G557" s="15"/>
-      <c r="J557" s="16"/>
-      <c r="K557" s="17"/>
+      <c r="G557" s="14"/>
+      <c r="J557" s="15"/>
+      <c r="K557" s="16"/>
     </row>
     <row r="558" ht="15.2" spans="7:11">
-      <c r="G558" s="15"/>
-      <c r="J558" s="16"/>
-      <c r="K558" s="17"/>
+      <c r="G558" s="14"/>
+      <c r="J558" s="15"/>
+      <c r="K558" s="16"/>
     </row>
     <row r="559" ht="15.2" spans="7:11">
-      <c r="G559" s="15"/>
-      <c r="J559" s="16"/>
-      <c r="K559" s="17"/>
+      <c r="G559" s="14"/>
+      <c r="J559" s="15"/>
+      <c r="K559" s="16"/>
     </row>
     <row r="560" ht="15.2" spans="7:11">
-      <c r="G560" s="15"/>
-      <c r="J560" s="16"/>
-      <c r="K560" s="17"/>
+      <c r="G560" s="14"/>
+      <c r="J560" s="15"/>
+      <c r="K560" s="16"/>
     </row>
     <row r="561" ht="15.2" spans="7:11">
-      <c r="G561" s="15"/>
-      <c r="J561" s="16"/>
-      <c r="K561" s="17"/>
+      <c r="G561" s="14"/>
+      <c r="J561" s="15"/>
+      <c r="K561" s="16"/>
     </row>
     <row r="562" ht="15.2" spans="7:11">
-      <c r="G562" s="15"/>
-      <c r="J562" s="16"/>
-      <c r="K562" s="17"/>
+      <c r="G562" s="14"/>
+      <c r="J562" s="15"/>
+      <c r="K562" s="16"/>
     </row>
     <row r="563" ht="15.2" spans="7:11">
-      <c r="G563" s="15"/>
-      <c r="J563" s="16"/>
-      <c r="K563" s="17"/>
+      <c r="G563" s="14"/>
+      <c r="J563" s="15"/>
+      <c r="K563" s="16"/>
     </row>
     <row r="564" ht="15.2" spans="7:11">
-      <c r="G564" s="15"/>
-      <c r="J564" s="16"/>
-      <c r="K564" s="17"/>
+      <c r="G564" s="14"/>
+      <c r="J564" s="15"/>
+      <c r="K564" s="16"/>
     </row>
     <row r="565" ht="15.2" spans="7:11">
-      <c r="G565" s="15"/>
-      <c r="J565" s="16"/>
-      <c r="K565" s="17"/>
+      <c r="G565" s="14"/>
+      <c r="J565" s="15"/>
+      <c r="K565" s="16"/>
     </row>
     <row r="566" ht="15.2" spans="7:11">
-      <c r="G566" s="15"/>
-      <c r="J566" s="16"/>
-      <c r="K566" s="17"/>
+      <c r="G566" s="14"/>
+      <c r="J566" s="15"/>
+      <c r="K566" s="16"/>
     </row>
     <row r="567" ht="15.2" spans="7:11">
-      <c r="G567" s="15"/>
-      <c r="J567" s="16"/>
-      <c r="K567" s="17"/>
+      <c r="G567" s="14"/>
+      <c r="J567" s="15"/>
+      <c r="K567" s="16"/>
     </row>
     <row r="568" ht="15.2" spans="7:11">
-      <c r="G568" s="15"/>
-      <c r="J568" s="16"/>
-      <c r="K568" s="17"/>
+      <c r="G568" s="14"/>
+      <c r="J568" s="15"/>
+      <c r="K568" s="16"/>
     </row>
     <row r="569" ht="15.2" spans="7:11">
-      <c r="G569" s="15"/>
-      <c r="J569" s="16"/>
-      <c r="K569" s="17"/>
+      <c r="G569" s="14"/>
+      <c r="J569" s="15"/>
+      <c r="K569" s="16"/>
     </row>
     <row r="570" ht="15.2" spans="7:11">
-      <c r="G570" s="15"/>
-      <c r="J570" s="16"/>
-      <c r="K570" s="17"/>
+      <c r="G570" s="14"/>
+      <c r="J570" s="15"/>
+      <c r="K570" s="16"/>
     </row>
     <row r="571" ht="15.2" spans="7:11">
-      <c r="G571" s="15"/>
-      <c r="J571" s="16"/>
-      <c r="K571" s="17"/>
+      <c r="G571" s="14"/>
+      <c r="J571" s="15"/>
+      <c r="K571" s="16"/>
     </row>
     <row r="572" ht="15.2" spans="7:11">
-      <c r="G572" s="15"/>
-      <c r="J572" s="16"/>
-      <c r="K572" s="17"/>
+      <c r="G572" s="14"/>
+      <c r="J572" s="15"/>
+      <c r="K572" s="16"/>
     </row>
     <row r="573" ht="15.2" spans="7:11">
-      <c r="G573" s="15"/>
-      <c r="J573" s="16"/>
-      <c r="K573" s="17"/>
+      <c r="G573" s="14"/>
+      <c r="J573" s="15"/>
+      <c r="K573" s="16"/>
     </row>
     <row r="574" ht="15.2" spans="7:11">
-      <c r="G574" s="15"/>
-      <c r="J574" s="16"/>
-      <c r="K574" s="17"/>
+      <c r="G574" s="14"/>
+      <c r="J574" s="15"/>
+      <c r="K574" s="16"/>
     </row>
     <row r="575" ht="15.2" spans="7:11">
-      <c r="G575" s="15"/>
-      <c r="J575" s="16"/>
-      <c r="K575" s="17"/>
+      <c r="G575" s="14"/>
+      <c r="J575" s="15"/>
+      <c r="K575" s="16"/>
     </row>
     <row r="576" ht="15.2" spans="7:11">
-      <c r="G576" s="15"/>
-      <c r="J576" s="16"/>
-      <c r="K576" s="17"/>
+      <c r="G576" s="14"/>
+      <c r="J576" s="15"/>
+      <c r="K576" s="16"/>
     </row>
     <row r="577" ht="15.2" spans="7:11">
-      <c r="G577" s="15"/>
-      <c r="J577" s="16"/>
-      <c r="K577" s="17"/>
+      <c r="G577" s="14"/>
+      <c r="J577" s="15"/>
+      <c r="K577" s="16"/>
     </row>
     <row r="578" ht="15.2" spans="7:11">
-      <c r="G578" s="15"/>
-      <c r="J578" s="16"/>
-      <c r="K578" s="17"/>
+      <c r="G578" s="14"/>
+      <c r="J578" s="15"/>
+      <c r="K578" s="16"/>
     </row>
     <row r="579" ht="15.2" spans="7:11">
-      <c r="G579" s="15"/>
-      <c r="J579" s="16"/>
-      <c r="K579" s="17"/>
+      <c r="G579" s="14"/>
+      <c r="J579" s="15"/>
+      <c r="K579" s="16"/>
     </row>
     <row r="580" ht="15.2" spans="7:11">
-      <c r="G580" s="15"/>
-      <c r="J580" s="16"/>
-      <c r="K580" s="17"/>
+      <c r="G580" s="14"/>
+      <c r="J580" s="15"/>
+      <c r="K580" s="16"/>
     </row>
     <row r="581" ht="15.2" spans="7:11">
-      <c r="G581" s="15"/>
-      <c r="J581" s="16"/>
-      <c r="K581" s="17"/>
+      <c r="G581" s="14"/>
+      <c r="J581" s="15"/>
+      <c r="K581" s="16"/>
     </row>
     <row r="582" ht="15.2" spans="7:11">
-      <c r="G582" s="15"/>
-      <c r="J582" s="16"/>
-      <c r="K582" s="17"/>
+      <c r="G582" s="14"/>
+      <c r="J582" s="15"/>
+      <c r="K582" s="16"/>
     </row>
     <row r="583" ht="15.2" spans="7:11">
-      <c r="G583" s="15"/>
-      <c r="J583" s="16"/>
-      <c r="K583" s="17"/>
+      <c r="G583" s="14"/>
+      <c r="J583" s="15"/>
+      <c r="K583" s="16"/>
     </row>
     <row r="584" ht="15.2" spans="7:11">
-      <c r="G584" s="15"/>
-      <c r="J584" s="16"/>
-      <c r="K584" s="17"/>
+      <c r="G584" s="14"/>
+      <c r="J584" s="15"/>
+      <c r="K584" s="16"/>
     </row>
     <row r="585" ht="15.2" spans="7:11">
-      <c r="G585" s="15"/>
-      <c r="J585" s="16"/>
-      <c r="K585" s="17"/>
+      <c r="G585" s="14"/>
+      <c r="J585" s="15"/>
+      <c r="K585" s="16"/>
     </row>
     <row r="586" ht="15.2" spans="7:11">
-      <c r="G586" s="15"/>
-      <c r="J586" s="16"/>
-      <c r="K586" s="17"/>
+      <c r="G586" s="14"/>
+      <c r="J586" s="15"/>
+      <c r="K586" s="16"/>
     </row>
     <row r="587" ht="15.2" spans="7:11">
-      <c r="G587" s="15"/>
-      <c r="J587" s="16"/>
-      <c r="K587" s="17"/>
+      <c r="G587" s="14"/>
+      <c r="J587" s="15"/>
+      <c r="K587" s="16"/>
     </row>
     <row r="588" ht="15.2" spans="7:11">
-      <c r="G588" s="15"/>
-      <c r="J588" s="16"/>
-      <c r="K588" s="17"/>
+      <c r="G588" s="14"/>
+      <c r="J588" s="15"/>
+      <c r="K588" s="16"/>
     </row>
     <row r="589" ht="15.2" spans="7:11">
-      <c r="G589" s="15"/>
-      <c r="J589" s="16"/>
-      <c r="K589" s="17"/>
+      <c r="G589" s="14"/>
+      <c r="J589" s="15"/>
+      <c r="K589" s="16"/>
     </row>
     <row r="590" ht="15.2" spans="7:11">
-      <c r="G590" s="15"/>
-      <c r="J590" s="16"/>
-      <c r="K590" s="17"/>
+      <c r="G590" s="14"/>
+      <c r="J590" s="15"/>
+      <c r="K590" s="16"/>
     </row>
     <row r="591" ht="15.2" spans="7:11">
-      <c r="G591" s="15"/>
-      <c r="J591" s="16"/>
-      <c r="K591" s="17"/>
+      <c r="G591" s="14"/>
+      <c r="J591" s="15"/>
+      <c r="K591" s="16"/>
     </row>
     <row r="592" ht="15.2" spans="7:11">
-      <c r="G592" s="15"/>
-      <c r="J592" s="16"/>
-      <c r="K592" s="17"/>
+      <c r="G592" s="14"/>
+      <c r="J592" s="15"/>
+      <c r="K592" s="16"/>
     </row>
     <row r="593" ht="15.2" spans="7:11">
-      <c r="G593" s="15"/>
-      <c r="J593" s="16"/>
-      <c r="K593" s="17"/>
+      <c r="G593" s="14"/>
+      <c r="J593" s="15"/>
+      <c r="K593" s="16"/>
     </row>
     <row r="594" ht="15.2" spans="7:11">
-      <c r="G594" s="15"/>
-      <c r="J594" s="16"/>
-      <c r="K594" s="17"/>
+      <c r="G594" s="14"/>
+      <c r="J594" s="15"/>
+      <c r="K594" s="16"/>
     </row>
     <row r="595" ht="15.2" spans="7:11">
-      <c r="G595" s="15"/>
-      <c r="J595" s="16"/>
-      <c r="K595" s="17"/>
+      <c r="G595" s="14"/>
+      <c r="J595" s="15"/>
+      <c r="K595" s="16"/>
     </row>
     <row r="596" ht="15.2" spans="7:11">
-      <c r="G596" s="15"/>
-      <c r="J596" s="16"/>
-      <c r="K596" s="17"/>
+      <c r="G596" s="14"/>
+      <c r="J596" s="15"/>
+      <c r="K596" s="16"/>
     </row>
     <row r="597" ht="15.2" spans="7:11">
-      <c r="G597" s="15"/>
-      <c r="J597" s="16"/>
-      <c r="K597" s="17"/>
+      <c r="G597" s="14"/>
+      <c r="J597" s="15"/>
+      <c r="K597" s="16"/>
     </row>
     <row r="598" ht="15.2" spans="7:11">
-      <c r="G598" s="15"/>
-      <c r="J598" s="16"/>
-      <c r="K598" s="17"/>
+      <c r="G598" s="14"/>
+      <c r="J598" s="15"/>
+      <c r="K598" s="16"/>
     </row>
     <row r="599" ht="15.2" spans="7:11">
-      <c r="G599" s="15"/>
-      <c r="J599" s="16"/>
-      <c r="K599" s="17"/>
+      <c r="G599" s="14"/>
+      <c r="J599" s="15"/>
+      <c r="K599" s="16"/>
     </row>
     <row r="600" ht="15.2" spans="7:11">
-      <c r="G600" s="15"/>
-      <c r="J600" s="16"/>
-      <c r="K600" s="17"/>
+      <c r="G600" s="14"/>
+      <c r="J600" s="15"/>
+      <c r="K600" s="16"/>
     </row>
     <row r="601" ht="15.2" spans="7:11">
-      <c r="G601" s="15"/>
-      <c r="J601" s="16"/>
-      <c r="K601" s="17"/>
+      <c r="G601" s="14"/>
+      <c r="J601" s="15"/>
+      <c r="K601" s="16"/>
     </row>
     <row r="602" ht="15.2" spans="7:11">
-      <c r="G602" s="15"/>
-      <c r="J602" s="16"/>
-      <c r="K602" s="17"/>
+      <c r="G602" s="14"/>
+      <c r="J602" s="15"/>
+      <c r="K602" s="16"/>
     </row>
     <row r="603" ht="15.2" spans="7:11">
-      <c r="G603" s="15"/>
-      <c r="J603" s="16"/>
-      <c r="K603" s="17"/>
+      <c r="G603" s="14"/>
+      <c r="J603" s="15"/>
+      <c r="K603" s="16"/>
     </row>
     <row r="604" ht="15.2" spans="7:11">
-      <c r="G604" s="15"/>
-      <c r="J604" s="16"/>
-      <c r="K604" s="17"/>
+      <c r="G604" s="14"/>
+      <c r="J604" s="15"/>
+      <c r="K604" s="16"/>
     </row>
     <row r="605" ht="15.2" spans="7:11">
-      <c r="G605" s="15"/>
-      <c r="J605" s="16"/>
-      <c r="K605" s="17"/>
+      <c r="G605" s="14"/>
+      <c r="J605" s="15"/>
+      <c r="K605" s="16"/>
     </row>
     <row r="606" ht="15.2" spans="7:11">
-      <c r="G606" s="15"/>
-      <c r="J606" s="16"/>
-      <c r="K606" s="17"/>
+      <c r="G606" s="14"/>
+      <c r="J606" s="15"/>
+      <c r="K606" s="16"/>
     </row>
     <row r="607" ht="15.2" spans="7:11">
-      <c r="G607" s="15"/>
-      <c r="J607" s="16"/>
-      <c r="K607" s="17"/>
+      <c r="G607" s="14"/>
+      <c r="J607" s="15"/>
+      <c r="K607" s="16"/>
     </row>
     <row r="608" ht="15.2" spans="7:11">
-      <c r="G608" s="15"/>
-      <c r="J608" s="16"/>
-      <c r="K608" s="17"/>
+      <c r="G608" s="14"/>
+      <c r="J608" s="15"/>
+      <c r="K608" s="16"/>
     </row>
     <row r="609" ht="15.2" spans="7:11">
-      <c r="G609" s="15"/>
-      <c r="J609" s="16"/>
-      <c r="K609" s="17"/>
+      <c r="G609" s="14"/>
+      <c r="J609" s="15"/>
+      <c r="K609" s="16"/>
     </row>
     <row r="610" ht="15.2" spans="7:11">
-      <c r="G610" s="15"/>
-      <c r="J610" s="16"/>
-      <c r="K610" s="17"/>
+      <c r="G610" s="14"/>
+      <c r="J610" s="15"/>
+      <c r="K610" s="16"/>
     </row>
     <row r="611" ht="15.2" spans="7:11">
-      <c r="G611" s="15"/>
-      <c r="J611" s="16"/>
-      <c r="K611" s="17"/>
+      <c r="G611" s="14"/>
+      <c r="J611" s="15"/>
+      <c r="K611" s="16"/>
     </row>
     <row r="612" ht="15.2" spans="7:11">
-      <c r="G612" s="15"/>
-      <c r="J612" s="16"/>
-      <c r="K612" s="17"/>
+      <c r="G612" s="14"/>
+      <c r="J612" s="15"/>
+      <c r="K612" s="16"/>
     </row>
     <row r="613" ht="15.2" spans="7:11">
-      <c r="G613" s="15"/>
-      <c r="J613" s="16"/>
-      <c r="K613" s="17"/>
+      <c r="G613" s="14"/>
+      <c r="J613" s="15"/>
+      <c r="K613" s="16"/>
     </row>
     <row r="614" ht="15.2" spans="7:11">
-      <c r="G614" s="15"/>
-      <c r="J614" s="16"/>
-      <c r="K614" s="17"/>
+      <c r="G614" s="14"/>
+      <c r="J614" s="15"/>
+      <c r="K614" s="16"/>
     </row>
     <row r="615" ht="15.2" spans="7:11">
-      <c r="G615" s="15"/>
-      <c r="J615" s="16"/>
-      <c r="K615" s="17"/>
+      <c r="G615" s="14"/>
+      <c r="J615" s="15"/>
+      <c r="K615" s="16"/>
     </row>
     <row r="616" ht="15.2" spans="7:11">
-      <c r="G616" s="15"/>
-      <c r="J616" s="16"/>
-      <c r="K616" s="17"/>
+      <c r="G616" s="14"/>
+      <c r="J616" s="15"/>
+      <c r="K616" s="16"/>
     </row>
     <row r="617" ht="15.2" spans="7:11">
-      <c r="G617" s="15"/>
-      <c r="J617" s="16"/>
-      <c r="K617" s="17"/>
+      <c r="G617" s="14"/>
+      <c r="J617" s="15"/>
+      <c r="K617" s="16"/>
     </row>
     <row r="618" ht="15.2" spans="7:11">
-      <c r="G618" s="15"/>
-      <c r="J618" s="16"/>
-      <c r="K618" s="17"/>
+      <c r="G618" s="14"/>
+      <c r="J618" s="15"/>
+      <c r="K618" s="16"/>
     </row>
     <row r="619" ht="15.2" spans="7:11">
-      <c r="G619" s="15"/>
-      <c r="J619" s="16"/>
-      <c r="K619" s="17"/>
+      <c r="G619" s="14"/>
+      <c r="J619" s="15"/>
+      <c r="K619" s="16"/>
     </row>
     <row r="620" ht="15.2" spans="7:11">
-      <c r="G620" s="15"/>
-      <c r="J620" s="16"/>
-      <c r="K620" s="17"/>
+      <c r="G620" s="14"/>
+      <c r="J620" s="15"/>
+      <c r="K620" s="16"/>
     </row>
     <row r="621" ht="15.2" spans="7:11">
-      <c r="G621" s="15"/>
-      <c r="J621" s="16"/>
-      <c r="K621" s="17"/>
+      <c r="G621" s="14"/>
+      <c r="J621" s="15"/>
+      <c r="K621" s="16"/>
     </row>
     <row r="622" ht="15.2" spans="7:11">
-      <c r="G622" s="15"/>
-      <c r="J622" s="16"/>
-      <c r="K622" s="17"/>
+      <c r="G622" s="14"/>
+      <c r="J622" s="15"/>
+      <c r="K622" s="16"/>
     </row>
     <row r="623" ht="15.2" spans="7:11">
-      <c r="G623" s="15"/>
-      <c r="J623" s="16"/>
-      <c r="K623" s="17"/>
+      <c r="G623" s="14"/>
+      <c r="J623" s="15"/>
+      <c r="K623" s="16"/>
     </row>
     <row r="624" ht="15.2" spans="7:11">
-      <c r="G624" s="15"/>
-      <c r="J624" s="16"/>
-      <c r="K624" s="17"/>
+      <c r="G624" s="14"/>
+      <c r="J624" s="15"/>
+      <c r="K624" s="16"/>
     </row>
     <row r="625" ht="15.2" spans="7:11">
-      <c r="G625" s="15"/>
-      <c r="J625" s="16"/>
-      <c r="K625" s="17"/>
+      <c r="G625" s="14"/>
+      <c r="J625" s="15"/>
+      <c r="K625" s="16"/>
     </row>
     <row r="626" ht="15.2" spans="7:11">
-      <c r="G626" s="15"/>
-      <c r="J626" s="16"/>
-      <c r="K626" s="17"/>
+      <c r="G626" s="14"/>
+      <c r="J626" s="15"/>
+      <c r="K626" s="16"/>
     </row>
     <row r="627" ht="15.2" spans="7:11">
-      <c r="G627" s="15"/>
-      <c r="J627" s="16"/>
-      <c r="K627" s="17"/>
+      <c r="G627" s="14"/>
+      <c r="J627" s="15"/>
+      <c r="K627" s="16"/>
     </row>
     <row r="628" ht="15.2" spans="7:11">
-      <c r="G628" s="15"/>
-      <c r="J628" s="16"/>
-      <c r="K628" s="17"/>
+      <c r="G628" s="14"/>
+      <c r="J628" s="15"/>
+      <c r="K628" s="16"/>
     </row>
     <row r="629" ht="15.2" spans="7:11">
-      <c r="G629" s="15"/>
-      <c r="J629" s="16"/>
-      <c r="K629" s="17"/>
+      <c r="G629" s="14"/>
+      <c r="J629" s="15"/>
+      <c r="K629" s="16"/>
     </row>
     <row r="630" ht="15.2" spans="7:11">
-      <c r="G630" s="15"/>
-      <c r="J630" s="16"/>
-      <c r="K630" s="17"/>
+      <c r="G630" s="14"/>
+      <c r="J630" s="15"/>
+      <c r="K630" s="16"/>
     </row>
     <row r="631" ht="15.2" spans="7:11">
-      <c r="G631" s="15"/>
-      <c r="J631" s="16"/>
-      <c r="K631" s="17"/>
+      <c r="G631" s="14"/>
+      <c r="J631" s="15"/>
+      <c r="K631" s="16"/>
     </row>
     <row r="632" ht="15.2" spans="7:11">
-      <c r="G632" s="15"/>
-      <c r="J632" s="16"/>
-      <c r="K632" s="17"/>
+      <c r="G632" s="14"/>
+      <c r="J632" s="15"/>
+      <c r="K632" s="16"/>
     </row>
     <row r="633" ht="15.2" spans="7:11">
-      <c r="G633" s="15"/>
-      <c r="J633" s="16"/>
-      <c r="K633" s="17"/>
+      <c r="G633" s="14"/>
+      <c r="J633" s="15"/>
+      <c r="K633" s="16"/>
     </row>
     <row r="634" ht="15.2" spans="7:11">
-      <c r="G634" s="15"/>
-      <c r="J634" s="16"/>
-      <c r="K634" s="17"/>
+      <c r="G634" s="14"/>
+      <c r="J634" s="15"/>
+      <c r="K634" s="16"/>
     </row>
     <row r="635" ht="15.2" spans="7:11">
-      <c r="G635" s="15"/>
-      <c r="J635" s="16"/>
-      <c r="K635" s="17"/>
+      <c r="G635" s="14"/>
+      <c r="J635" s="15"/>
+      <c r="K635" s="16"/>
     </row>
     <row r="636" ht="15.2" spans="7:11">
-      <c r="G636" s="15"/>
-      <c r="J636" s="16"/>
-      <c r="K636" s="17"/>
+      <c r="G636" s="14"/>
+      <c r="J636" s="15"/>
+      <c r="K636" s="16"/>
     </row>
     <row r="637" ht="15.2" spans="7:11">
-      <c r="G637" s="15"/>
-      <c r="J637" s="16"/>
-      <c r="K637" s="17"/>
+      <c r="G637" s="14"/>
+      <c r="J637" s="15"/>
+      <c r="K637" s="16"/>
     </row>
     <row r="638" ht="15.2" spans="7:11">
-      <c r="G638" s="15"/>
-      <c r="J638" s="16"/>
-      <c r="K638" s="17"/>
+      <c r="G638" s="14"/>
+      <c r="J638" s="15"/>
+      <c r="K638" s="16"/>
     </row>
     <row r="639" ht="15.2" spans="7:11">
-      <c r="G639" s="15"/>
-      <c r="J639" s="16"/>
-      <c r="K639" s="17"/>
+      <c r="G639" s="14"/>
+      <c r="J639" s="15"/>
+      <c r="K639" s="16"/>
     </row>
     <row r="640" ht="15.2" spans="7:11">
-      <c r="G640" s="15"/>
-      <c r="J640" s="16"/>
-      <c r="K640" s="17"/>
+      <c r="G640" s="14"/>
+      <c r="J640" s="15"/>
+      <c r="K640" s="16"/>
     </row>
     <row r="641" ht="15.2" spans="7:11">
-      <c r="G641" s="15"/>
-      <c r="J641" s="16"/>
-      <c r="K641" s="17"/>
+      <c r="G641" s="14"/>
+      <c r="J641" s="15"/>
+      <c r="K641" s="16"/>
     </row>
     <row r="642" ht="15.2" spans="7:11">
-      <c r="G642" s="15"/>
-      <c r="J642" s="16"/>
-      <c r="K642" s="17"/>
+      <c r="G642" s="14"/>
+      <c r="J642" s="15"/>
+      <c r="K642" s="16"/>
     </row>
     <row r="643" ht="15.2" spans="7:11">
-      <c r="G643" s="15"/>
-      <c r="J643" s="16"/>
-      <c r="K643" s="17"/>
+      <c r="G643" s="14"/>
+      <c r="J643" s="15"/>
+      <c r="K643" s="16"/>
     </row>
     <row r="644" ht="15.2" spans="7:11">
-      <c r="G644" s="15"/>
-      <c r="J644" s="16"/>
-      <c r="K644" s="17"/>
+      <c r="G644" s="14"/>
+      <c r="J644" s="15"/>
+      <c r="K644" s="16"/>
     </row>
     <row r="645" ht="15.2" spans="7:11">
-      <c r="G645" s="15"/>
-      <c r="J645" s="16"/>
-      <c r="K645" s="17"/>
+      <c r="G645" s="14"/>
+      <c r="J645" s="15"/>
+      <c r="K645" s="16"/>
     </row>
     <row r="646" ht="15.2" spans="7:11">
-      <c r="G646" s="15"/>
-      <c r="J646" s="16"/>
-      <c r="K646" s="17"/>
+      <c r="G646" s="14"/>
+      <c r="J646" s="15"/>
+      <c r="K646" s="16"/>
     </row>
     <row r="647" ht="15.2" spans="7:11">
-      <c r="G647" s="15"/>
-      <c r="J647" s="16"/>
-      <c r="K647" s="17"/>
+      <c r="G647" s="14"/>
+      <c r="J647" s="15"/>
+      <c r="K647" s="16"/>
     </row>
     <row r="648" ht="15.2" spans="7:11">
-      <c r="G648" s="15"/>
-      <c r="J648" s="16"/>
-      <c r="K648" s="17"/>
+      <c r="G648" s="14"/>
+      <c r="J648" s="15"/>
+      <c r="K648" s="16"/>
     </row>
     <row r="649" ht="15.2" spans="7:11">
-      <c r="G649" s="15"/>
-      <c r="J649" s="16"/>
-      <c r="K649" s="17"/>
+      <c r="G649" s="14"/>
+      <c r="J649" s="15"/>
+      <c r="K649" s="16"/>
     </row>
     <row r="650" ht="15.2" spans="7:11">
-      <c r="G650" s="15"/>
-      <c r="J650" s="16"/>
-      <c r="K650" s="17"/>
+      <c r="G650" s="14"/>
+      <c r="J650" s="15"/>
+      <c r="K650" s="16"/>
     </row>
     <row r="651" ht="15.2" spans="7:11">
-      <c r="G651" s="15"/>
-      <c r="J651" s="16"/>
-      <c r="K651" s="17"/>
+      <c r="G651" s="14"/>
+      <c r="J651" s="15"/>
+      <c r="K651" s="16"/>
     </row>
     <row r="652" ht="15.2" spans="7:11">
-      <c r="G652" s="15"/>
-      <c r="J652" s="16"/>
-      <c r="K652" s="17"/>
+      <c r="G652" s="14"/>
+      <c r="J652" s="15"/>
+      <c r="K652" s="16"/>
     </row>
     <row r="653" ht="15.2" spans="7:11">
-      <c r="G653" s="15"/>
-      <c r="J653" s="16"/>
-      <c r="K653" s="17"/>
+      <c r="G653" s="14"/>
+      <c r="J653" s="15"/>
+      <c r="K653" s="16"/>
     </row>
     <row r="654" ht="15.2" spans="7:11">
-      <c r="G654" s="15"/>
-      <c r="J654" s="16"/>
-      <c r="K654" s="17"/>
+      <c r="G654" s="14"/>
+      <c r="J654" s="15"/>
+      <c r="K654" s="16"/>
     </row>
     <row r="655" ht="15.2" spans="7:11">
-      <c r="G655" s="15"/>
-      <c r="J655" s="16"/>
-      <c r="K655" s="17"/>
+      <c r="G655" s="14"/>
+      <c r="J655" s="15"/>
+      <c r="K655" s="16"/>
     </row>
     <row r="656" ht="15.2" spans="7:11">
-      <c r="G656" s="15"/>
-      <c r="J656" s="16"/>
-      <c r="K656" s="17"/>
+      <c r="G656" s="14"/>
+      <c r="J656" s="15"/>
+      <c r="K656" s="16"/>
     </row>
     <row r="657" ht="15.2" spans="7:11">
-      <c r="G657" s="15"/>
-      <c r="J657" s="16"/>
-      <c r="K657" s="17"/>
+      <c r="G657" s="14"/>
+      <c r="J657" s="15"/>
+      <c r="K657" s="16"/>
     </row>
     <row r="658" ht="15.2" spans="7:11">
-      <c r="G658" s="15"/>
-      <c r="J658" s="16"/>
-      <c r="K658" s="17"/>
+      <c r="G658" s="14"/>
+      <c r="J658" s="15"/>
+      <c r="K658" s="16"/>
     </row>
     <row r="659" ht="15.2" spans="7:11">
-      <c r="G659" s="15"/>
-      <c r="J659" s="16"/>
-      <c r="K659" s="17"/>
+      <c r="G659" s="14"/>
+      <c r="J659" s="15"/>
+      <c r="K659" s="16"/>
     </row>
     <row r="660" ht="15.2" spans="7:11">
-      <c r="G660" s="15"/>
-      <c r="J660" s="16"/>
-      <c r="K660" s="17"/>
+      <c r="G660" s="14"/>
+      <c r="J660" s="15"/>
+      <c r="K660" s="16"/>
     </row>
     <row r="661" ht="15.2" spans="7:11">
-      <c r="G661" s="15"/>
-      <c r="J661" s="16"/>
-      <c r="K661" s="17"/>
+      <c r="G661" s="14"/>
+      <c r="J661" s="15"/>
+      <c r="K661" s="16"/>
     </row>
     <row r="662" ht="15.2" spans="7:11">
-      <c r="G662" s="15"/>
-      <c r="J662" s="16"/>
-      <c r="K662" s="17"/>
+      <c r="G662" s="14"/>
+      <c r="J662" s="15"/>
+      <c r="K662" s="16"/>
     </row>
     <row r="663" ht="15.2" spans="7:11">
-      <c r="G663" s="15"/>
-      <c r="J663" s="16"/>
-      <c r="K663" s="17"/>
+      <c r="G663" s="14"/>
+      <c r="J663" s="15"/>
+      <c r="K663" s="16"/>
     </row>
     <row r="664" ht="15.2" spans="7:11">
-      <c r="G664" s="15"/>
-      <c r="J664" s="16"/>
-      <c r="K664" s="17"/>
+      <c r="G664" s="14"/>
+      <c r="J664" s="15"/>
+      <c r="K664" s="16"/>
     </row>
     <row r="665" ht="15.2" spans="7:11">
-      <c r="G665" s="15"/>
-      <c r="J665" s="16"/>
-      <c r="K665" s="17"/>
+      <c r="G665" s="14"/>
+      <c r="J665" s="15"/>
+      <c r="K665" s="16"/>
     </row>
     <row r="666" ht="15.2" spans="7:11">
-      <c r="G666" s="15"/>
-      <c r="J666" s="16"/>
-      <c r="K666" s="17"/>
+      <c r="G666" s="14"/>
+      <c r="J666" s="15"/>
+      <c r="K666" s="16"/>
     </row>
     <row r="667" ht="15.2" spans="7:11">
-      <c r="G667" s="15"/>
-      <c r="J667" s="16"/>
-      <c r="K667" s="17"/>
+      <c r="G667" s="14"/>
+      <c r="J667" s="15"/>
+      <c r="K667" s="16"/>
     </row>
     <row r="668" ht="15.2" spans="7:11">
-      <c r="G668" s="15"/>
-      <c r="J668" s="16"/>
-      <c r="K668" s="17"/>
+      <c r="G668" s="14"/>
+      <c r="J668" s="15"/>
+      <c r="K668" s="16"/>
     </row>
     <row r="669" ht="15.2" spans="7:11">
-      <c r="G669" s="15"/>
-      <c r="J669" s="16"/>
-      <c r="K669" s="17"/>
+      <c r="G669" s="14"/>
+      <c r="J669" s="15"/>
+      <c r="K669" s="16"/>
     </row>
     <row r="670" ht="15.2" spans="7:11">
-      <c r="G670" s="15"/>
-      <c r="J670" s="16"/>
-      <c r="K670" s="17"/>
+      <c r="G670" s="14"/>
+      <c r="J670" s="15"/>
+      <c r="K670" s="16"/>
     </row>
     <row r="671" ht="15.2" spans="7:11">
-      <c r="G671" s="15"/>
-      <c r="J671" s="16"/>
-      <c r="K671" s="17"/>
+      <c r="G671" s="14"/>
+      <c r="J671" s="15"/>
+      <c r="K671" s="16"/>
     </row>
     <row r="672" ht="15.2" spans="7:11">
-      <c r="G672" s="15"/>
-      <c r="J672" s="16"/>
-      <c r="K672" s="17"/>
+      <c r="G672" s="14"/>
+      <c r="J672" s="15"/>
+      <c r="K672" s="16"/>
     </row>
     <row r="673" ht="15.2" spans="7:11">
-      <c r="G673" s="15"/>
-      <c r="J673" s="16"/>
-      <c r="K673" s="17"/>
+      <c r="G673" s="14"/>
+      <c r="J673" s="15"/>
+      <c r="K673" s="16"/>
     </row>
     <row r="674" ht="15.2" spans="7:11">
-      <c r="G674" s="15"/>
-      <c r="J674" s="16"/>
-      <c r="K674" s="17"/>
+      <c r="G674" s="14"/>
+      <c r="J674" s="15"/>
+      <c r="K674" s="16"/>
     </row>
     <row r="675" ht="15.2" spans="7:11">
-      <c r="G675" s="15"/>
-      <c r="J675" s="16"/>
-      <c r="K675" s="17"/>
+      <c r="G675" s="14"/>
+      <c r="J675" s="15"/>
+      <c r="K675" s="16"/>
     </row>
     <row r="676" ht="15.2" spans="7:11">
-      <c r="G676" s="15"/>
-      <c r="J676" s="16"/>
-      <c r="K676" s="17"/>
+      <c r="G676" s="14"/>
+      <c r="J676" s="15"/>
+      <c r="K676" s="16"/>
     </row>
     <row r="677" ht="15.2" spans="7:11">
-      <c r="G677" s="15"/>
-      <c r="J677" s="16"/>
-      <c r="K677" s="17"/>
+      <c r="G677" s="14"/>
+      <c r="J677" s="15"/>
+      <c r="K677" s="16"/>
     </row>
     <row r="678" ht="15.2" spans="7:11">
-      <c r="G678" s="15"/>
-      <c r="J678" s="16"/>
-      <c r="K678" s="17"/>
+      <c r="G678" s="14"/>
+      <c r="J678" s="15"/>
+      <c r="K678" s="16"/>
     </row>
     <row r="679" ht="15.2" spans="7:11">
-      <c r="G679" s="15"/>
-      <c r="J679" s="16"/>
-      <c r="K679" s="17"/>
+      <c r="G679" s="14"/>
+      <c r="J679" s="15"/>
+      <c r="K679" s="16"/>
     </row>
     <row r="680" ht="15.2" spans="7:11">
-      <c r="G680" s="15"/>
-      <c r="J680" s="16"/>
-      <c r="K680" s="17"/>
+      <c r="G680" s="14"/>
+      <c r="J680" s="15"/>
+      <c r="K680" s="16"/>
     </row>
     <row r="681" ht="15.2" spans="7:11">
-      <c r="G681" s="15"/>
-      <c r="J681" s="16"/>
-      <c r="K681" s="17"/>
+      <c r="G681" s="14"/>
+      <c r="J681" s="15"/>
+      <c r="K681" s="16"/>
     </row>
     <row r="682" ht="15.2" spans="7:11">
-      <c r="G682" s="15"/>
-      <c r="J682" s="16"/>
-      <c r="K682" s="17"/>
+      <c r="G682" s="14"/>
+      <c r="J682" s="15"/>
+      <c r="K682" s="16"/>
     </row>
     <row r="683" ht="15.2" spans="7:11">
-      <c r="G683" s="15"/>
-      <c r="J683" s="16"/>
-      <c r="K683" s="17"/>
+      <c r="G683" s="14"/>
+      <c r="J683" s="15"/>
+      <c r="K683" s="16"/>
     </row>
     <row r="684" ht="15.2" spans="7:11">
-      <c r="G684" s="15"/>
-      <c r="J684" s="16"/>
-      <c r="K684" s="17"/>
+      <c r="G684" s="14"/>
+      <c r="J684" s="15"/>
+      <c r="K684" s="16"/>
     </row>
     <row r="685" ht="15.2" spans="7:11">
-      <c r="G685" s="15"/>
-      <c r="J685" s="16"/>
-      <c r="K685" s="17"/>
+      <c r="G685" s="14"/>
+      <c r="J685" s="15"/>
+      <c r="K685" s="16"/>
     </row>
     <row r="686" ht="15.2" spans="7:11">
-      <c r="G686" s="15"/>
-      <c r="J686" s="16"/>
-      <c r="K686" s="17"/>
+      <c r="G686" s="14"/>
+      <c r="J686" s="15"/>
+      <c r="K686" s="16"/>
     </row>
     <row r="687" ht="15.2" spans="7:11">
-      <c r="G687" s="15"/>
-      <c r="J687" s="16"/>
-      <c r="K687" s="17"/>
+      <c r="G687" s="14"/>
+      <c r="J687" s="15"/>
+      <c r="K687" s="16"/>
     </row>
     <row r="688" ht="15.2" spans="7:11">
-      <c r="G688" s="15"/>
-      <c r="J688" s="16"/>
-      <c r="K688" s="17"/>
+      <c r="G688" s="14"/>
+      <c r="J688" s="15"/>
+      <c r="K688" s="16"/>
     </row>
     <row r="689" ht="15.2" spans="7:11">
-      <c r="G689" s="15"/>
-      <c r="J689" s="16"/>
-      <c r="K689" s="17"/>
+      <c r="G689" s="14"/>
+      <c r="J689" s="15"/>
+      <c r="K689" s="16"/>
     </row>
     <row r="690" ht="15.2" spans="7:11">
-      <c r="G690" s="15"/>
-      <c r="J690" s="16"/>
-      <c r="K690" s="17"/>
+      <c r="G690" s="14"/>
+      <c r="J690" s="15"/>
+      <c r="K690" s="16"/>
     </row>
     <row r="691" ht="15.2" spans="7:11">
-      <c r="G691" s="15"/>
-      <c r="J691" s="16"/>
-      <c r="K691" s="17"/>
+      <c r="G691" s="14"/>
+      <c r="J691" s="15"/>
+      <c r="K691" s="16"/>
     </row>
     <row r="692" ht="15.2" spans="7:11">
-      <c r="G692" s="15"/>
-      <c r="J692" s="16"/>
-      <c r="K692" s="17"/>
+      <c r="G692" s="14"/>
+      <c r="J692" s="15"/>
+      <c r="K692" s="16"/>
     </row>
     <row r="693" ht="15.2" spans="7:11">
-      <c r="G693" s="15"/>
-      <c r="J693" s="16"/>
-      <c r="K693" s="17"/>
+      <c r="G693" s="14"/>
+      <c r="J693" s="15"/>
+      <c r="K693" s="16"/>
     </row>
     <row r="694" ht="15.2" spans="7:11">
-      <c r="G694" s="15"/>
-      <c r="J694" s="16"/>
-      <c r="K694" s="17"/>
+      <c r="G694" s="14"/>
+      <c r="J694" s="15"/>
+      <c r="K694" s="16"/>
     </row>
     <row r="695" ht="15.2" spans="7:11">
-      <c r="G695" s="15"/>
-      <c r="J695" s="16"/>
-      <c r="K695" s="17"/>
+      <c r="G695" s="14"/>
+      <c r="J695" s="15"/>
+      <c r="K695" s="16"/>
     </row>
     <row r="696" ht="15.2" spans="7:11">
-      <c r="G696" s="15"/>
-      <c r="J696" s="16"/>
-      <c r="K696" s="17"/>
+      <c r="G696" s="14"/>
+      <c r="J696" s="15"/>
+      <c r="K696" s="16"/>
     </row>
     <row r="697" ht="15.2" spans="7:11">
-      <c r="G697" s="15"/>
-      <c r="J697" s="16"/>
-      <c r="K697" s="17"/>
+      <c r="G697" s="14"/>
+      <c r="J697" s="15"/>
+      <c r="K697" s="16"/>
     </row>
     <row r="698" ht="15.2" spans="7:11">
-      <c r="G698" s="15"/>
-      <c r="J698" s="16"/>
-      <c r="K698" s="17"/>
+      <c r="G698" s="14"/>
+      <c r="J698" s="15"/>
+      <c r="K698" s="16"/>
     </row>
     <row r="699" ht="15.2" spans="7:11">
-      <c r="G699" s="15"/>
-      <c r="J699" s="16"/>
-      <c r="K699" s="17"/>
+      <c r="G699" s="14"/>
+      <c r="J699" s="15"/>
+      <c r="K699" s="16"/>
     </row>
     <row r="700" ht="15.2" spans="7:11">
-      <c r="G700" s="15"/>
-      <c r="J700" s="16"/>
-      <c r="K700" s="17"/>
+      <c r="G700" s="14"/>
+      <c r="J700" s="15"/>
+      <c r="K700" s="16"/>
     </row>
     <row r="701" ht="15.2" spans="7:11">
-      <c r="G701" s="15"/>
-      <c r="J701" s="16"/>
-      <c r="K701" s="17"/>
+      <c r="G701" s="14"/>
+      <c r="J701" s="15"/>
+      <c r="K701" s="16"/>
     </row>
     <row r="702" ht="15.2" spans="7:11">
-      <c r="G702" s="15"/>
-      <c r="J702" s="16"/>
-      <c r="K702" s="17"/>
+      <c r="G702" s="14"/>
+      <c r="J702" s="15"/>
+      <c r="K702" s="16"/>
     </row>
     <row r="703" ht="15.2" spans="7:11">
-      <c r="G703" s="15"/>
-      <c r="J703" s="16"/>
-      <c r="K703" s="17"/>
+      <c r="G703" s="14"/>
+      <c r="J703" s="15"/>
+      <c r="K703" s="16"/>
     </row>
     <row r="704" ht="15.2" spans="7:11">
-      <c r="G704" s="15"/>
-      <c r="J704" s="16"/>
-      <c r="K704" s="17"/>
+      <c r="G704" s="14"/>
+      <c r="J704" s="15"/>
+      <c r="K704" s="16"/>
     </row>
     <row r="705" ht="15.2" spans="7:11">
-      <c r="G705" s="15"/>
-      <c r="J705" s="16"/>
-      <c r="K705" s="17"/>
+      <c r="G705" s="14"/>
+      <c r="J705" s="15"/>
+      <c r="K705" s="16"/>
     </row>
     <row r="706" ht="15.2" spans="7:11">
-      <c r="G706" s="15"/>
-      <c r="J706" s="16"/>
-      <c r="K706" s="17"/>
+      <c r="G706" s="14"/>
+      <c r="J706" s="15"/>
+      <c r="K706" s="16"/>
     </row>
     <row r="707" ht="15.2" spans="7:11">
-      <c r="G707" s="15"/>
-      <c r="J707" s="16"/>
-      <c r="K707" s="17"/>
+      <c r="G707" s="14"/>
+      <c r="J707" s="15"/>
+      <c r="K707" s="16"/>
     </row>
     <row r="708" ht="15.2" spans="7:11">
-      <c r="G708" s="15"/>
-      <c r="J708" s="16"/>
-      <c r="K708" s="17"/>
+      <c r="G708" s="14"/>
+      <c r="J708" s="15"/>
+      <c r="K708" s="16"/>
     </row>
     <row r="709" ht="15.2" spans="7:11">
-      <c r="G709" s="15"/>
-      <c r="J709" s="16"/>
-      <c r="K709" s="17"/>
+      <c r="G709" s="14"/>
+      <c r="J709" s="15"/>
+      <c r="K709" s="16"/>
     </row>
     <row r="710" ht="15.2" spans="7:11">
-      <c r="G710" s="15"/>
-      <c r="J710" s="16"/>
-      <c r="K710" s="17"/>
+      <c r="G710" s="14"/>
+      <c r="J710" s="15"/>
+      <c r="K710" s="16"/>
     </row>
     <row r="711" ht="15.2" spans="7:11">
-      <c r="G711" s="15"/>
-      <c r="J711" s="16"/>
-      <c r="K711" s="17"/>
+      <c r="G711" s="14"/>
+      <c r="J711" s="15"/>
+      <c r="K711" s="16"/>
     </row>
     <row r="712" ht="15.2" spans="7:11">
-      <c r="G712" s="15"/>
-      <c r="J712" s="16"/>
-      <c r="K712" s="17"/>
+      <c r="G712" s="14"/>
+      <c r="J712" s="15"/>
+      <c r="K712" s="16"/>
     </row>
     <row r="713" ht="15.2" spans="7:11">
-      <c r="G713" s="15"/>
-      <c r="J713" s="16"/>
-      <c r="K713" s="17"/>
+      <c r="G713" s="14"/>
+      <c r="J713" s="15"/>
+      <c r="K713" s="16"/>
     </row>
     <row r="714" ht="15.2" spans="7:11">
-      <c r="G714" s="15"/>
-      <c r="J714" s="16"/>
-      <c r="K714" s="17"/>
+      <c r="G714" s="14"/>
+      <c r="J714" s="15"/>
+      <c r="K714" s="16"/>
     </row>
     <row r="715" ht="15.2" spans="7:11">
-      <c r="G715" s="15"/>
-      <c r="J715" s="16"/>
-      <c r="K715" s="17"/>
+      <c r="G715" s="14"/>
+      <c r="J715" s="15"/>
+      <c r="K715" s="16"/>
     </row>
     <row r="716" ht="15.2" spans="7:11">
-      <c r="G716" s="15"/>
-      <c r="J716" s="16"/>
-      <c r="K716" s="17"/>
+      <c r="G716" s="14"/>
+      <c r="J716" s="15"/>
+      <c r="K716" s="16"/>
     </row>
     <row r="717" ht="15.2" spans="7:11">
-      <c r="G717" s="15"/>
-      <c r="J717" s="16"/>
-      <c r="K717" s="17"/>
+      <c r="G717" s="14"/>
+      <c r="J717" s="15"/>
+      <c r="K717" s="16"/>
     </row>
     <row r="718" ht="15.2" spans="7:11">
-      <c r="G718" s="15"/>
-      <c r="J718" s="16"/>
-      <c r="K718" s="17"/>
+      <c r="G718" s="14"/>
+      <c r="J718" s="15"/>
+      <c r="K718" s="16"/>
     </row>
     <row r="719" ht="15.2" spans="7:11">
-      <c r="G719" s="15"/>
-      <c r="J719" s="16"/>
-      <c r="K719" s="17"/>
+      <c r="G719" s="14"/>
+      <c r="J719" s="15"/>
+      <c r="K719" s="16"/>
     </row>
     <row r="720" ht="15.2" spans="7:11">
-      <c r="G720" s="15"/>
-      <c r="J720" s="16"/>
-      <c r="K720" s="17"/>
+      <c r="G720" s="14"/>
+      <c r="J720" s="15"/>
+      <c r="K720" s="16"/>
     </row>
     <row r="721" ht="15.2" spans="7:11">
-      <c r="G721" s="15"/>
-      <c r="J721" s="16"/>
-      <c r="K721" s="17"/>
+      <c r="G721" s="14"/>
+      <c r="J721" s="15"/>
+      <c r="K721" s="16"/>
     </row>
     <row r="722" ht="15.2" spans="7:11">
-      <c r="G722" s="15"/>
-      <c r="J722" s="16"/>
-      <c r="K722" s="17"/>
+      <c r="G722" s="14"/>
+      <c r="J722" s="15"/>
+      <c r="K722" s="16"/>
     </row>
     <row r="723" ht="15.2" spans="7:11">
-      <c r="G723" s="15"/>
-      <c r="J723" s="16"/>
-      <c r="K723" s="17"/>
+      <c r="G723" s="14"/>
+      <c r="J723" s="15"/>
+      <c r="K723" s="16"/>
     </row>
     <row r="724" ht="15.2" spans="7:11">
-      <c r="G724" s="15"/>
-      <c r="J724" s="16"/>
-      <c r="K724" s="17"/>
+      <c r="G724" s="14"/>
+      <c r="J724" s="15"/>
+      <c r="K724" s="16"/>
     </row>
     <row r="725" ht="15.2" spans="7:11">
-      <c r="G725" s="15"/>
-      <c r="J725" s="16"/>
-      <c r="K725" s="17"/>
+      <c r="G725" s="14"/>
+      <c r="J725" s="15"/>
+      <c r="K725" s="16"/>
     </row>
     <row r="726" ht="15.2" spans="7:11">
-      <c r="G726" s="15"/>
-      <c r="J726" s="16"/>
-      <c r="K726" s="17"/>
+      <c r="G726" s="14"/>
+      <c r="J726" s="15"/>
+      <c r="K726" s="16"/>
     </row>
     <row r="727" ht="15.2" spans="7:11">
-      <c r="G727" s="15"/>
-      <c r="J727" s="16"/>
-      <c r="K727" s="17"/>
+      <c r="G727" s="14"/>
+      <c r="J727" s="15"/>
+      <c r="K727" s="16"/>
     </row>
     <row r="728" ht="15.2" spans="7:11">
-      <c r="G728" s="15"/>
-      <c r="J728" s="16"/>
-      <c r="K728" s="17"/>
+      <c r="G728" s="14"/>
+      <c r="J728" s="15"/>
+      <c r="K728" s="16"/>
     </row>
     <row r="729" ht="15.2" spans="7:11">
-      <c r="G729" s="15"/>
-      <c r="J729" s="16"/>
-      <c r="K729" s="17"/>
+      <c r="G729" s="14"/>
+      <c r="J729" s="15"/>
+      <c r="K729" s="16"/>
     </row>
     <row r="730" ht="15.2" spans="7:11">
-      <c r="G730" s="15"/>
-      <c r="J730" s="16"/>
-      <c r="K730" s="17"/>
+      <c r="G730" s="14"/>
+      <c r="J730" s="15"/>
+      <c r="K730" s="16"/>
     </row>
     <row r="731" ht="15.2" spans="7:11">
-      <c r="G731" s="15"/>
-      <c r="J731" s="16"/>
-      <c r="K731" s="17"/>
+      <c r="G731" s="14"/>
+      <c r="J731" s="15"/>
+      <c r="K731" s="16"/>
     </row>
     <row r="732" ht="15.2" spans="7:11">
-      <c r="G732" s="15"/>
-      <c r="J732" s="16"/>
-      <c r="K732" s="17"/>
+      <c r="G732" s="14"/>
+      <c r="J732" s="15"/>
+      <c r="K732" s="16"/>
     </row>
     <row r="733" ht="15.2" spans="7:11">
-      <c r="G733" s="15"/>
-      <c r="J733" s="16"/>
-      <c r="K733" s="17"/>
+      <c r="G733" s="14"/>
+      <c r="J733" s="15"/>
+      <c r="K733" s="16"/>
     </row>
     <row r="734" ht="15.2" spans="7:11">
-      <c r="G734" s="15"/>
-      <c r="J734" s="16"/>
-      <c r="K734" s="17"/>
+      <c r="G734" s="14"/>
+      <c r="J734" s="15"/>
+      <c r="K734" s="16"/>
     </row>
     <row r="735" ht="15.2" spans="7:11">
-      <c r="G735" s="15"/>
-      <c r="J735" s="16"/>
-      <c r="K735" s="17"/>
+      <c r="G735" s="14"/>
+      <c r="J735" s="15"/>
+      <c r="K735" s="16"/>
     </row>
     <row r="736" ht="15.2" spans="7:11">
-      <c r="G736" s="15"/>
-      <c r="J736" s="16"/>
-      <c r="K736" s="17"/>
+      <c r="G736" s="14"/>
+      <c r="J736" s="15"/>
+      <c r="K736" s="16"/>
     </row>
     <row r="737" ht="15.2" spans="7:11">
-      <c r="G737" s="15"/>
-      <c r="J737" s="16"/>
-      <c r="K737" s="17"/>
+      <c r="G737" s="14"/>
+      <c r="J737" s="15"/>
+      <c r="K737" s="16"/>
     </row>
     <row r="738" ht="15.2" spans="7:11">
-      <c r="G738" s="15"/>
-      <c r="J738" s="16"/>
-      <c r="K738" s="17"/>
+      <c r="G738" s="14"/>
+      <c r="J738" s="15"/>
+      <c r="K738" s="16"/>
     </row>
     <row r="739" ht="15.2" spans="7:11">
-      <c r="G739" s="15"/>
-      <c r="J739" s="16"/>
-      <c r="K739" s="17"/>
+      <c r="G739" s="14"/>
+      <c r="J739" s="15"/>
+      <c r="K739" s="16"/>
     </row>
     <row r="740" ht="15.2" spans="7:11">
-      <c r="G740" s="15"/>
-      <c r="J740" s="16"/>
-      <c r="K740" s="17"/>
+      <c r="G740" s="14"/>
+      <c r="J740" s="15"/>
+      <c r="K740" s="16"/>
     </row>
     <row r="741" ht="15.2" spans="7:11">
-      <c r="G741" s="15"/>
-      <c r="J741" s="16"/>
-      <c r="K741" s="17"/>
+      <c r="G741" s="14"/>
+      <c r="J741" s="15"/>
+      <c r="K741" s="16"/>
     </row>
     <row r="742" ht="15.2" spans="7:11">
-      <c r="G742" s="15"/>
-      <c r="J742" s="16"/>
-      <c r="K742" s="17"/>
+      <c r="G742" s="14"/>
+      <c r="J742" s="15"/>
+      <c r="K742" s="16"/>
     </row>
     <row r="743" ht="15.2" spans="7:11">
-      <c r="G743" s="15"/>
-      <c r="J743" s="16"/>
-      <c r="K743" s="17"/>
+      <c r="G743" s="14"/>
+      <c r="J743" s="15"/>
+      <c r="K743" s="16"/>
     </row>
     <row r="744" ht="15.2" spans="7:11">
-      <c r="G744" s="15"/>
-      <c r="J744" s="16"/>
-      <c r="K744" s="17"/>
+      <c r="G744" s="14"/>
+      <c r="J744" s="15"/>
+      <c r="K744" s="16"/>
     </row>
     <row r="745" ht="15.2" spans="7:11">
-      <c r="G745" s="15"/>
-      <c r="J745" s="16"/>
-      <c r="K745" s="17"/>
+      <c r="G745" s="14"/>
+      <c r="J745" s="15"/>
+      <c r="K745" s="16"/>
     </row>
     <row r="746" ht="15.2" spans="7:11">
-      <c r="G746" s="15"/>
-      <c r="J746" s="16"/>
-      <c r="K746" s="17"/>
+      <c r="G746" s="14"/>
+      <c r="J746" s="15"/>
+      <c r="K746" s="16"/>
     </row>
     <row r="747" ht="15.2" spans="7:11">
-      <c r="G747" s="15"/>
-      <c r="J747" s="16"/>
-      <c r="K747" s="17"/>
+      <c r="G747" s="14"/>
+      <c r="J747" s="15"/>
+      <c r="K747" s="16"/>
     </row>
     <row r="748" ht="15.2" spans="7:11">
-      <c r="G748" s="15"/>
-      <c r="J748" s="16"/>
-      <c r="K748" s="17"/>
+      <c r="G748" s="14"/>
+      <c r="J748" s="15"/>
+      <c r="K748" s="16"/>
     </row>
     <row r="749" ht="15.2" spans="7:11">
-      <c r="G749" s="15"/>
-      <c r="J749" s="16"/>
-      <c r="K749" s="17"/>
+      <c r="G749" s="14"/>
+      <c r="J749" s="15"/>
+      <c r="K749" s="16"/>
     </row>
     <row r="750" ht="15.2" spans="7:11">
-      <c r="G750" s="15"/>
-      <c r="J750" s="16"/>
-      <c r="K750" s="17"/>
+      <c r="G750" s="14"/>
+      <c r="J750" s="15"/>
+      <c r="K750" s="16"/>
     </row>
     <row r="751" ht="15.2" spans="7:11">
-      <c r="G751" s="15"/>
-      <c r="J751" s="16"/>
-      <c r="K751" s="17"/>
+      <c r="G751" s="14"/>
+      <c r="J751" s="15"/>
+      <c r="K751" s="16"/>
     </row>
     <row r="752" ht="15.2" spans="7:11">
-      <c r="G752" s="15"/>
-      <c r="J752" s="16"/>
-      <c r="K752" s="17"/>
+      <c r="G752" s="14"/>
+      <c r="J752" s="15"/>
+      <c r="K752" s="16"/>
     </row>
     <row r="753" ht="15.2" spans="7:11">
-      <c r="G753" s="15"/>
-      <c r="J753" s="16"/>
-      <c r="K753" s="17"/>
+      <c r="G753" s="14"/>
+      <c r="J753" s="15"/>
+      <c r="K753" s="16"/>
     </row>
     <row r="754" ht="15.2" spans="7:11">
-      <c r="G754" s="15"/>
-      <c r="J754" s="16"/>
-      <c r="K754" s="17"/>
+      <c r="G754" s="14"/>
+      <c r="J754" s="15"/>
+      <c r="K754" s="16"/>
     </row>
     <row r="755" ht="15.2" spans="7:11">
-      <c r="G755" s="15"/>
-      <c r="J755" s="16"/>
-      <c r="K755" s="17"/>
+      <c r="G755" s="14"/>
+      <c r="J755" s="15"/>
+      <c r="K755" s="16"/>
     </row>
     <row r="756" ht="15.2" spans="7:11">
-      <c r="G756" s="15"/>
-      <c r="J756" s="16"/>
-      <c r="K756" s="17"/>
+      <c r="G756" s="14"/>
+      <c r="J756" s="15"/>
+      <c r="K756" s="16"/>
     </row>
     <row r="757" ht="15.2" spans="7:11">
-      <c r="G757" s="15"/>
-      <c r="J757" s="16"/>
-      <c r="K757" s="17"/>
+      <c r="G757" s="14"/>
+      <c r="J757" s="15"/>
+      <c r="K757" s="16"/>
     </row>
     <row r="758" ht="15.2" spans="7:11">
-      <c r="G758" s="15"/>
-      <c r="J758" s="16"/>
-      <c r="K758" s="17"/>
+      <c r="G758" s="14"/>
+      <c r="J758" s="15"/>
+      <c r="K758" s="16"/>
     </row>
     <row r="759" ht="15.2" spans="7:11">
-      <c r="G759" s="15"/>
-      <c r="J759" s="16"/>
-      <c r="K759" s="17"/>
+      <c r="G759" s="14"/>
+      <c r="J759" s="15"/>
+      <c r="K759" s="16"/>
     </row>
     <row r="760" ht="15.2" spans="7:11">
-      <c r="G760" s="15"/>
-      <c r="J760" s="16"/>
-      <c r="K760" s="17"/>
+      <c r="G760" s="14"/>
+      <c r="J760" s="15"/>
+      <c r="K760" s="16"/>
     </row>
     <row r="761" ht="15.2" spans="7:11">
-      <c r="G761" s="15"/>
-      <c r="J761" s="16"/>
-      <c r="K761" s="17"/>
+      <c r="G761" s="14"/>
+      <c r="J761" s="15"/>
+      <c r="K761" s="16"/>
     </row>
     <row r="762" ht="15.2" spans="7:11">
-      <c r="G762" s="15"/>
-      <c r="J762" s="16"/>
-      <c r="K762" s="17"/>
+      <c r="G762" s="14"/>
+      <c r="J762" s="15"/>
+      <c r="K762" s="16"/>
     </row>
     <row r="763" ht="15.2" spans="7:11">
-      <c r="G763" s="15"/>
-      <c r="J763" s="16"/>
-      <c r="K763" s="17"/>
+      <c r="G763" s="14"/>
+      <c r="J763" s="15"/>
+      <c r="K763" s="16"/>
     </row>
     <row r="764" ht="15.2" spans="7:11">
-      <c r="G764" s="15"/>
-      <c r="J764" s="16"/>
-      <c r="K764" s="17"/>
+      <c r="G764" s="14"/>
+      <c r="J764" s="15"/>
+      <c r="K764" s="16"/>
     </row>
     <row r="765" ht="15.2" spans="7:11">
-      <c r="G765" s="15"/>
-      <c r="J765" s="16"/>
-      <c r="K765" s="17"/>
+      <c r="G765" s="14"/>
+      <c r="J765" s="15"/>
+      <c r="K765" s="16"/>
     </row>
     <row r="766" ht="15.2" spans="7:11">
-      <c r="G766" s="15"/>
-      <c r="J766" s="16"/>
-      <c r="K766" s="17"/>
+      <c r="G766" s="14"/>
+      <c r="J766" s="15"/>
+      <c r="K766" s="16"/>
     </row>
     <row r="767" ht="15.2" spans="7:11">
-      <c r="G767" s="15"/>
-      <c r="J767" s="16"/>
-      <c r="K767" s="17"/>
+      <c r="G767" s="14"/>
+      <c r="J767" s="15"/>
+      <c r="K767" s="16"/>
     </row>
     <row r="768" ht="15.2" spans="7:11">
-      <c r="G768" s="15"/>
-      <c r="J768" s="16"/>
-      <c r="K768" s="17"/>
+      <c r="G768" s="14"/>
+      <c r="J768" s="15"/>
+      <c r="K768" s="16"/>
     </row>
     <row r="769" ht="15.2" spans="7:11">
-      <c r="G769" s="15"/>
-      <c r="J769" s="16"/>
-      <c r="K769" s="17"/>
+      <c r="G769" s="14"/>
+      <c r="J769" s="15"/>
+      <c r="K769" s="16"/>
     </row>
     <row r="770" ht="15.2" spans="7:11">
-      <c r="G770" s="15"/>
-      <c r="J770" s="16"/>
-      <c r="K770" s="17"/>
+      <c r="G770" s="14"/>
+      <c r="J770" s="15"/>
+      <c r="K770" s="16"/>
     </row>
     <row r="771" ht="15.2" spans="7:11">
-      <c r="G771" s="15"/>
-      <c r="J771" s="16"/>
-      <c r="K771" s="17"/>
+      <c r="G771" s="14"/>
+      <c r="J771" s="15"/>
+      <c r="K771" s="16"/>
     </row>
     <row r="772" ht="15.2" spans="7:11">
-      <c r="G772" s="15"/>
-      <c r="J772" s="16"/>
-      <c r="K772" s="17"/>
+      <c r="G772" s="14"/>
+      <c r="J772" s="15"/>
+      <c r="K772" s="16"/>
     </row>
     <row r="773" ht="15.2" spans="7:11">
-      <c r="G773" s="15"/>
-      <c r="J773" s="16"/>
-      <c r="K773" s="17"/>
+      <c r="G773" s="14"/>
+      <c r="J773" s="15"/>
+      <c r="K773" s="16"/>
     </row>
     <row r="774" ht="15.2" spans="7:11">
-      <c r="G774" s="15"/>
-      <c r="J774" s="16"/>
-      <c r="K774" s="17"/>
+      <c r="G774" s="14"/>
+      <c r="J774" s="15"/>
+      <c r="K774" s="16"/>
     </row>
     <row r="775" ht="15.2" spans="7:11">
-      <c r="G775" s="15"/>
-      <c r="J775" s="16"/>
-      <c r="K775" s="17"/>
+      <c r="G775" s="14"/>
+      <c r="J775" s="15"/>
+      <c r="K775" s="16"/>
     </row>
     <row r="776" ht="15.2" spans="7:11">
-      <c r="G776" s="15"/>
-      <c r="J776" s="16"/>
-      <c r="K776" s="17"/>
+      <c r="G776" s="14"/>
+      <c r="J776" s="15"/>
+      <c r="K776" s="16"/>
     </row>
     <row r="777" ht="15.2" spans="7:11">
-      <c r="G777" s="15"/>
-      <c r="J777" s="16"/>
-      <c r="K777" s="17"/>
+      <c r="G777" s="14"/>
+      <c r="J777" s="15"/>
+      <c r="K777" s="16"/>
     </row>
     <row r="778" ht="15.2" spans="7:11">
-      <c r="G778" s="15"/>
-      <c r="J778" s="16"/>
-      <c r="K778" s="17"/>
+      <c r="G778" s="14"/>
+      <c r="J778" s="15"/>
+      <c r="K778" s="16"/>
     </row>
     <row r="779" ht="15.2" spans="7:11">
-      <c r="G779" s="15"/>
-      <c r="J779" s="16"/>
-      <c r="K779" s="17"/>
+      <c r="G779" s="14"/>
+      <c r="J779" s="15"/>
+      <c r="K779" s="16"/>
     </row>
     <row r="780" ht="15.2" spans="7:11">
-      <c r="G780" s="15"/>
-      <c r="J780" s="16"/>
-      <c r="K780" s="17"/>
+      <c r="G780" s="14"/>
+      <c r="J780" s="15"/>
+      <c r="K780" s="16"/>
     </row>
     <row r="781" ht="15.2" spans="7:11">
-      <c r="G781" s="15"/>
-      <c r="J781" s="16"/>
-      <c r="K781" s="17"/>
+      <c r="G781" s="14"/>
+      <c r="J781" s="15"/>
+      <c r="K781" s="16"/>
     </row>
     <row r="782" ht="15.2" spans="7:11">
-      <c r="G782" s="15"/>
-      <c r="J782" s="16"/>
-      <c r="K782" s="17"/>
+      <c r="G782" s="14"/>
+      <c r="J782" s="15"/>
+      <c r="K782" s="16"/>
     </row>
     <row r="783" ht="15.2" spans="7:11">
-      <c r="G783" s="15"/>
-      <c r="J783" s="16"/>
-      <c r="K783" s="17"/>
+      <c r="G783" s="14"/>
+      <c r="J783" s="15"/>
+      <c r="K783" s="16"/>
     </row>
     <row r="784" ht="15.2" spans="7:11">
-      <c r="G784" s="15"/>
-      <c r="J784" s="16"/>
-      <c r="K784" s="17"/>
+      <c r="G784" s="14"/>
+      <c r="J784" s="15"/>
+      <c r="K784" s="16"/>
     </row>
     <row r="785" ht="15.2" spans="7:11">
-      <c r="G785" s="15"/>
-      <c r="J785" s="16"/>
-      <c r="K785" s="17"/>
+      <c r="G785" s="14"/>
+      <c r="J785" s="15"/>
+      <c r="K785" s="16"/>
     </row>
     <row r="786" ht="15.2" spans="7:11">
-      <c r="G786" s="15"/>
-      <c r="J786" s="16"/>
-      <c r="K786" s="17"/>
+      <c r="G786" s="14"/>
+      <c r="J786" s="15"/>
+      <c r="K786" s="16"/>
     </row>
     <row r="787" ht="15.2" spans="7:11">
-      <c r="G787" s="15"/>
-      <c r="J787" s="16"/>
-      <c r="K787" s="17"/>
+      <c r="G787" s="14"/>
+      <c r="J787" s="15"/>
+      <c r="K787" s="16"/>
     </row>
     <row r="788" ht="15.2" spans="7:11">
-      <c r="G788" s="15"/>
-      <c r="J788" s="16"/>
-      <c r="K788" s="17"/>
+      <c r="G788" s="14"/>
+      <c r="J788" s="15"/>
+      <c r="K788" s="16"/>
     </row>
     <row r="789" ht="15.2" spans="7:11">
-      <c r="G789" s="15"/>
-      <c r="J789" s="16"/>
-      <c r="K789" s="17"/>
+      <c r="G789" s="14"/>
+      <c r="J789" s="15"/>
+      <c r="K789" s="16"/>
     </row>
     <row r="790" ht="15.2" spans="7:11">
-      <c r="G790" s="15"/>
-      <c r="J790" s="16"/>
-      <c r="K790" s="17"/>
+      <c r="G790" s="14"/>
+      <c r="J790" s="15"/>
+      <c r="K790" s="16"/>
     </row>
     <row r="791" ht="15.2" spans="7:11">
-      <c r="G791" s="15"/>
-      <c r="J791" s="16"/>
-      <c r="K791" s="17"/>
+      <c r="G791" s="14"/>
+      <c r="J791" s="15"/>
+      <c r="K791" s="16"/>
     </row>
     <row r="792" ht="15.2" spans="7:11">
-      <c r="G792" s="15"/>
-      <c r="J792" s="16"/>
-      <c r="K792" s="17"/>
+      <c r="G792" s="14"/>
+      <c r="J792" s="15"/>
+      <c r="K792" s="16"/>
     </row>
     <row r="793" ht="15.2" spans="7:11">
-      <c r="G793" s="15"/>
-      <c r="J793" s="16"/>
-      <c r="K793" s="17"/>
+      <c r="G793" s="14"/>
+      <c r="J793" s="15"/>
+      <c r="K793" s="16"/>
     </row>
     <row r="794" ht="15.2" spans="7:11">
-      <c r="G794" s="15"/>
-      <c r="J794" s="16"/>
-      <c r="K794" s="17"/>
+      <c r="G794" s="14"/>
+      <c r="J794" s="15"/>
+      <c r="K794" s="16"/>
     </row>
     <row r="795" ht="15.2" spans="7:11">
-      <c r="G795" s="15"/>
-      <c r="J795" s="16"/>
-      <c r="K795" s="17"/>
+      <c r="G795" s="14"/>
+      <c r="J795" s="15"/>
+      <c r="K795" s="16"/>
     </row>
     <row r="796" ht="15.2" spans="7:11">
-      <c r="G796" s="15"/>
-      <c r="J796" s="16"/>
-      <c r="K796" s="17"/>
+      <c r="G796" s="14"/>
+      <c r="J796" s="15"/>
+      <c r="K796" s="16"/>
     </row>
     <row r="797" ht="15.2" spans="7:11">
-      <c r="G797" s="15"/>
-      <c r="J797" s="16"/>
-      <c r="K797" s="17"/>
+      <c r="G797" s="14"/>
+      <c r="J797" s="15"/>
+      <c r="K797" s="16"/>
     </row>
     <row r="798" ht="15.2" spans="7:11">
-      <c r="G798" s="15"/>
-      <c r="J798" s="16"/>
-      <c r="K798" s="17"/>
+      <c r="G798" s="14"/>
+      <c r="J798" s="15"/>
+      <c r="K798" s="16"/>
     </row>
     <row r="799" ht="15.2" spans="7:11">
-      <c r="G799" s="15"/>
-      <c r="J799" s="16"/>
-      <c r="K799" s="17"/>
+      <c r="G799" s="14"/>
+      <c r="J799" s="15"/>
+      <c r="K799" s="16"/>
     </row>
     <row r="800" ht="15.2" spans="7:11">
-      <c r="G800" s="15"/>
-      <c r="J800" s="16"/>
-      <c r="K800" s="17"/>
+      <c r="G800" s="14"/>
+      <c r="J800" s="15"/>
+      <c r="K800" s="16"/>
     </row>
     <row r="801" ht="15.2" spans="7:11">
-      <c r="G801" s="15"/>
-      <c r="J801" s="16"/>
-      <c r="K801" s="17"/>
+      <c r="G801" s="14"/>
+      <c r="J801" s="15"/>
+      <c r="K801" s="16"/>
     </row>
     <row r="802" ht="15.2" spans="7:11">
-      <c r="G802" s="15"/>
-      <c r="J802" s="16"/>
-      <c r="K802" s="17"/>
+      <c r="G802" s="14"/>
+      <c r="J802" s="15"/>
+      <c r="K802" s="16"/>
     </row>
     <row r="803" ht="15.2" spans="7:11">
-      <c r="G803" s="15"/>
-      <c r="J803" s="16"/>
-      <c r="K803" s="17"/>
+      <c r="G803" s="14"/>
+      <c r="J803" s="15"/>
+      <c r="K803" s="16"/>
     </row>
     <row r="804" ht="15.2" spans="7:11">
-      <c r="G804" s="15"/>
-      <c r="J804" s="16"/>
-      <c r="K804" s="17"/>
+      <c r="G804" s="14"/>
+      <c r="J804" s="15"/>
+      <c r="K804" s="16"/>
     </row>
     <row r="805" ht="15.2" spans="7:11">
-      <c r="G805" s="15"/>
-      <c r="J805" s="16"/>
-      <c r="K805" s="17"/>
+      <c r="G805" s="14"/>
+      <c r="J805" s="15"/>
+      <c r="K805" s="16"/>
     </row>
     <row r="806" ht="15.2" spans="7:11">
-      <c r="G806" s="15"/>
-      <c r="J806" s="16"/>
-      <c r="K806" s="17"/>
+      <c r="G806" s="14"/>
+      <c r="J806" s="15"/>
+      <c r="K806" s="16"/>
     </row>
     <row r="807" ht="15.2" spans="7:11">
-      <c r="G807" s="15"/>
-      <c r="J807" s="16"/>
-      <c r="K807" s="17"/>
+      <c r="G807" s="14"/>
+      <c r="J807" s="15"/>
+      <c r="K807" s="16"/>
     </row>
     <row r="808" ht="15.2" spans="7:11">
-      <c r="G808" s="15"/>
-      <c r="J808" s="16"/>
-      <c r="K808" s="17"/>
+      <c r="G808" s="14"/>
+      <c r="J808" s="15"/>
+      <c r="K808" s="16"/>
     </row>
     <row r="809" ht="15.2" spans="7:11">
-      <c r="G809" s="15"/>
-      <c r="J809" s="16"/>
-      <c r="K809" s="17"/>
+      <c r="G809" s="14"/>
+      <c r="J809" s="15"/>
+      <c r="K809" s="16"/>
     </row>
     <row r="810" ht="15.2" spans="7:11">
-      <c r="G810" s="15"/>
-      <c r="J810" s="16"/>
-      <c r="K810" s="17"/>
+      <c r="G810" s="14"/>
+      <c r="J810" s="15"/>
+      <c r="K810" s="16"/>
     </row>
     <row r="811" ht="15.2" spans="7:11">
-      <c r="G811" s="15"/>
-      <c r="J811" s="16"/>
-      <c r="K811" s="17"/>
+      <c r="G811" s="14"/>
+      <c r="J811" s="15"/>
+      <c r="K811" s="16"/>
     </row>
     <row r="812" ht="15.2" spans="7:11">
-      <c r="G812" s="15"/>
-      <c r="J812" s="16"/>
-      <c r="K812" s="17"/>
+      <c r="G812" s="14"/>
+      <c r="J812" s="15"/>
+      <c r="K812" s="16"/>
     </row>
     <row r="813" ht="15.2" spans="7:11">
-      <c r="G813" s="15"/>
-      <c r="J813" s="16"/>
-      <c r="K813" s="17"/>
+      <c r="G813" s="14"/>
+      <c r="J813" s="15"/>
+      <c r="K813" s="16"/>
     </row>
     <row r="814" ht="15.2" spans="7:11">
-      <c r="G814" s="15"/>
-      <c r="J814" s="16"/>
-      <c r="K814" s="17"/>
+      <c r="G814" s="14"/>
+      <c r="J814" s="15"/>
+      <c r="K814" s="16"/>
     </row>
     <row r="815" ht="15.2" spans="7:11">
-      <c r="G815" s="15"/>
-      <c r="J815" s="16"/>
-      <c r="K815" s="17"/>
+      <c r="G815" s="14"/>
+      <c r="J815" s="15"/>
+      <c r="K815" s="16"/>
     </row>
     <row r="816" ht="15.2" spans="7:11">
-      <c r="G816" s="15"/>
-      <c r="J816" s="16"/>
-      <c r="K816" s="17"/>
+      <c r="G816" s="14"/>
+      <c r="J816" s="15"/>
+      <c r="K816" s="16"/>
     </row>
     <row r="817" ht="15.2" spans="7:11">
-      <c r="G817" s="15"/>
-      <c r="J817" s="16"/>
-      <c r="K817" s="17"/>
+      <c r="G817" s="14"/>
+      <c r="J817" s="15"/>
+      <c r="K817" s="16"/>
     </row>
     <row r="818" ht="15.2" spans="7:11">
-      <c r="G818" s="15"/>
-      <c r="J818" s="16"/>
-      <c r="K818" s="17"/>
+      <c r="G818" s="14"/>
+      <c r="J818" s="15"/>
+      <c r="K818" s="16"/>
     </row>
     <row r="819" ht="15.2" spans="7:11">
-      <c r="G819" s="15"/>
-      <c r="J819" s="16"/>
-      <c r="K819" s="17"/>
+      <c r="G819" s="14"/>
+      <c r="J819" s="15"/>
+      <c r="K819" s="16"/>
     </row>
     <row r="820" ht="15.2" spans="7:11">
-      <c r="G820" s="15"/>
-      <c r="J820" s="16"/>
-      <c r="K820" s="17"/>
+      <c r="G820" s="14"/>
+      <c r="J820" s="15"/>
+      <c r="K820" s="16"/>
     </row>
     <row r="821" ht="15.2" spans="7:11">
-      <c r="G821" s="15"/>
-      <c r="J821" s="16"/>
-      <c r="K821" s="17"/>
+      <c r="G821" s="14"/>
+      <c r="J821" s="15"/>
+      <c r="K821" s="16"/>
     </row>
     <row r="822" ht="15.2" spans="7:11">
-      <c r="G822" s="15"/>
-      <c r="J822" s="16"/>
-      <c r="K822" s="17"/>
+      <c r="G822" s="14"/>
+      <c r="J822" s="15"/>
+      <c r="K822" s="16"/>
     </row>
     <row r="823" ht="15.2" spans="7:11">
-      <c r="G823" s="15"/>
-      <c r="J823" s="16"/>
-      <c r="K823" s="17"/>
+      <c r="G823" s="14"/>
+      <c r="J823" s="15"/>
+      <c r="K823" s="16"/>
     </row>
     <row r="824" ht="15.2" spans="7:11">
-      <c r="G824" s="15"/>
-      <c r="J824" s="16"/>
-      <c r="K824" s="17"/>
+      <c r="G824" s="14"/>
+      <c r="J824" s="15"/>
+      <c r="K824" s="16"/>
     </row>
     <row r="825" ht="15.2" spans="7:11">
-      <c r="G825" s="15"/>
-      <c r="J825" s="16"/>
-      <c r="K825" s="17"/>
+      <c r="G825" s="14"/>
+      <c r="J825" s="15"/>
+      <c r="K825" s="16"/>
     </row>
     <row r="826" ht="15.2" spans="7:11">
-      <c r="G826" s="15"/>
-      <c r="J826" s="16"/>
-      <c r="K826" s="17"/>
+      <c r="G826" s="14"/>
+      <c r="J826" s="15"/>
+      <c r="K826" s="16"/>
     </row>
     <row r="827" ht="15.2" spans="7:11">
-      <c r="G827" s="15"/>
-      <c r="J827" s="16"/>
-      <c r="K827" s="17"/>
+      <c r="G827" s="14"/>
+      <c r="J827" s="15"/>
+      <c r="K827" s="16"/>
     </row>
     <row r="828" ht="15.2" spans="7:11">
-      <c r="G828" s="15"/>
-      <c r="J828" s="16"/>
-      <c r="K828" s="17"/>
+      <c r="G828" s="14"/>
+      <c r="J828" s="15"/>
+      <c r="K828" s="16"/>
     </row>
     <row r="829" ht="15.2" spans="7:11">
-      <c r="G829" s="15"/>
-      <c r="J829" s="16"/>
-      <c r="K829" s="17"/>
+      <c r="G829" s="14"/>
+      <c r="J829" s="15"/>
+      <c r="K829" s="16"/>
     </row>
     <row r="830" ht="15.2" spans="7:11">
-      <c r="G830" s="15"/>
-      <c r="J830" s="16"/>
-      <c r="K830" s="17"/>
+      <c r="G830" s="14"/>
+      <c r="J830" s="15"/>
+      <c r="K830" s="16"/>
     </row>
     <row r="831" ht="15.2" spans="7:11">
-      <c r="G831" s="15"/>
-      <c r="J831" s="16"/>
-      <c r="K831" s="17"/>
+      <c r="G831" s="14"/>
+      <c r="J831" s="15"/>
+      <c r="K831" s="16"/>
     </row>
     <row r="832" ht="15.2" spans="7:11">
-      <c r="G832" s="15"/>
-      <c r="J832" s="16"/>
-      <c r="K832" s="17"/>
+      <c r="G832" s="14"/>
+      <c r="J832" s="15"/>
+      <c r="K832" s="16"/>
     </row>
     <row r="833" ht="15.2" spans="7:11">
-      <c r="G833" s="15"/>
-      <c r="J833" s="16"/>
-      <c r="K833" s="17"/>
+      <c r="G833" s="14"/>
+      <c r="J833" s="15"/>
+      <c r="K833" s="16"/>
     </row>
     <row r="834" ht="15.2" spans="7:11">
-      <c r="G834" s="15"/>
-      <c r="J834" s="16"/>
-      <c r="K834" s="17"/>
+      <c r="G834" s="14"/>
+      <c r="J834" s="15"/>
+      <c r="K834" s="16"/>
     </row>
     <row r="835" ht="15.2" spans="7:11">
-      <c r="G835" s="15"/>
-      <c r="J835" s="16"/>
-      <c r="K835" s="17"/>
+      <c r="G835" s="14"/>
+      <c r="J835" s="15"/>
+      <c r="K835" s="16"/>
     </row>
     <row r="836" ht="15.2" spans="7:11">
-      <c r="G836" s="15"/>
-      <c r="J836" s="16"/>
-      <c r="K836" s="17"/>
+      <c r="G836" s="14"/>
+      <c r="J836" s="15"/>
+      <c r="K836" s="16"/>
     </row>
     <row r="837" ht="15.2" spans="7:11">
-      <c r="G837" s="15"/>
-      <c r="J837" s="16"/>
-      <c r="K837" s="17"/>
+      <c r="G837" s="14"/>
+      <c r="J837" s="15"/>
+      <c r="K837" s="16"/>
     </row>
     <row r="838" ht="15.2" spans="7:11">
-      <c r="G838" s="15"/>
-      <c r="J838" s="16"/>
-      <c r="K838" s="17"/>
+      <c r="G838" s="14"/>
+      <c r="J838" s="15"/>
+      <c r="K838" s="16"/>
     </row>
     <row r="839" ht="15.2" spans="7:11">
-      <c r="G839" s="15"/>
-      <c r="J839" s="16"/>
-      <c r="K839" s="17"/>
+      <c r="G839" s="14"/>
+      <c r="J839" s="15"/>
+      <c r="K839" s="16"/>
     </row>
     <row r="840" ht="15.2" spans="7:11">
-      <c r="G840" s="15"/>
-      <c r="J840" s="16"/>
-      <c r="K840" s="17"/>
+      <c r="G840" s="14"/>
+      <c r="J840" s="15"/>
+      <c r="K840" s="16"/>
     </row>
     <row r="841" ht="15.2" spans="7:11">
-      <c r="G841" s="15"/>
-      <c r="J841" s="16"/>
-      <c r="K841" s="17"/>
+      <c r="G841" s="14"/>
+      <c r="J841" s="15"/>
+      <c r="K841" s="16"/>
     </row>
     <row r="842" ht="15.2" spans="7:11">
-      <c r="G842" s="15"/>
-      <c r="J842" s="16"/>
-      <c r="K842" s="17"/>
+      <c r="G842" s="14"/>
+      <c r="J842" s="15"/>
+      <c r="K842" s="16"/>
     </row>
     <row r="843" ht="15.2" spans="7:11">
-      <c r="G843" s="15"/>
-      <c r="J843" s="16"/>
-      <c r="K843" s="17"/>
+      <c r="G843" s="14"/>
+      <c r="J843" s="15"/>
+      <c r="K843" s="16"/>
     </row>
     <row r="844" ht="15.2" spans="7:11">
-      <c r="G844" s="15"/>
-      <c r="J844" s="16"/>
-      <c r="K844" s="17"/>
+      <c r="G844" s="14"/>
+      <c r="J844" s="15"/>
+      <c r="K844" s="16"/>
     </row>
     <row r="845" ht="15.2" spans="7:11">
-      <c r="G845" s="15"/>
-      <c r="J845" s="16"/>
-      <c r="K845" s="17"/>
+      <c r="G845" s="14"/>
+      <c r="J845" s="15"/>
+      <c r="K845" s="16"/>
     </row>
     <row r="846" ht="15.2" spans="7:11">
-      <c r="G846" s="15"/>
-      <c r="J846" s="16"/>
-      <c r="K846" s="17"/>
+      <c r="G846" s="14"/>
+      <c r="J846" s="15"/>
+      <c r="K846" s="16"/>
     </row>
     <row r="847" ht="15.2" spans="7:11">
-      <c r="G847" s="15"/>
-      <c r="J847" s="16"/>
-      <c r="K847" s="17"/>
+      <c r="G847" s="14"/>
+      <c r="J847" s="15"/>
+      <c r="K847" s="16"/>
     </row>
     <row r="848" ht="15.2" spans="7:11">
-      <c r="G848" s="15"/>
-      <c r="J848" s="16"/>
-      <c r="K848" s="17"/>
+      <c r="G848" s="14"/>
+      <c r="J848" s="15"/>
+      <c r="K848" s="16"/>
     </row>
     <row r="849" ht="15.2" spans="7:11">
-      <c r="G849" s="15"/>
-      <c r="J849" s="16"/>
-      <c r="K849" s="17"/>
+      <c r="G849" s="14"/>
+      <c r="J849" s="15"/>
+      <c r="K849" s="16"/>
     </row>
     <row r="850" ht="15.2" spans="7:11">
-      <c r="G850" s="15"/>
-      <c r="J850" s="16"/>
-      <c r="K850" s="17"/>
+      <c r="G850" s="14"/>
+      <c r="J850" s="15"/>
+      <c r="K850" s="16"/>
     </row>
     <row r="851" ht="15.2" spans="7:11">
-      <c r="G851" s="15"/>
-      <c r="J851" s="16"/>
-      <c r="K851" s="17"/>
+      <c r="G851" s="14"/>
+      <c r="J851" s="15"/>
+      <c r="K851" s="16"/>
     </row>
     <row r="852" ht="15.2" spans="7:11">
-      <c r="G852" s="15"/>
-      <c r="J852" s="16"/>
-      <c r="K852" s="17"/>
+      <c r="G852" s="14"/>
+      <c r="J852" s="15"/>
+      <c r="K852" s="16"/>
     </row>
     <row r="853" ht="15.2" spans="7:11">
-      <c r="G853" s="15"/>
-      <c r="J853" s="16"/>
-      <c r="K853" s="17"/>
+      <c r="G853" s="14"/>
+      <c r="J853" s="15"/>
+      <c r="K853" s="16"/>
     </row>
     <row r="854" ht="15.2" spans="7:11">
-      <c r="G854" s="15"/>
-      <c r="J854" s="16"/>
-      <c r="K854" s="17"/>
+      <c r="G854" s="14"/>
+      <c r="J854" s="15"/>
+      <c r="K854" s="16"/>
     </row>
     <row r="855" ht="15.2" spans="7:11">
-      <c r="G855" s="15"/>
-      <c r="J855" s="16"/>
-      <c r="K855" s="17"/>
+      <c r="G855" s="14"/>
+      <c r="J855" s="15"/>
+      <c r="K855" s="16"/>
     </row>
     <row r="856" ht="15.2" spans="7:11">
-      <c r="G856" s="15"/>
-      <c r="J856" s="16"/>
-      <c r="K856" s="17"/>
+      <c r="G856" s="14"/>
+      <c r="J856" s="15"/>
+      <c r="K856" s="16"/>
     </row>
     <row r="857" ht="15.2" spans="7:11">
-      <c r="G857" s="15"/>
-      <c r="J857" s="16"/>
-      <c r="K857" s="17"/>
+      <c r="G857" s="14"/>
+      <c r="J857" s="15"/>
+      <c r="K857" s="16"/>
     </row>
     <row r="858" ht="15.2" spans="7:11">
-      <c r="G858" s="15"/>
-      <c r="J858" s="16"/>
-      <c r="K858" s="17"/>
+      <c r="G858" s="14"/>
+      <c r="J858" s="15"/>
+      <c r="K858" s="16"/>
     </row>
     <row r="859" ht="15.2" spans="7:11">
-      <c r="G859" s="15"/>
-      <c r="J859" s="16"/>
-      <c r="K859" s="17"/>
+      <c r="G859" s="14"/>
+      <c r="J859" s="15"/>
+      <c r="K859" s="16"/>
     </row>
     <row r="860" ht="15.2" spans="7:11">
-      <c r="G860" s="15"/>
-      <c r="J860" s="16"/>
-      <c r="K860" s="17"/>
+      <c r="G860" s="14"/>
+      <c r="J860" s="15"/>
+      <c r="K860" s="16"/>
     </row>
     <row r="861" ht="15.2" spans="7:11">
-      <c r="G861" s="15"/>
-      <c r="J861" s="16"/>
-      <c r="K861" s="17"/>
+      <c r="G861" s="14"/>
+      <c r="J861" s="15"/>
+      <c r="K861" s="16"/>
     </row>
     <row r="862" ht="15.2" spans="7:11">
-      <c r="G862" s="15"/>
-      <c r="J862" s="16"/>
-      <c r="K862" s="17"/>
+      <c r="G862" s="14"/>
+      <c r="J862" s="15"/>
+      <c r="K862" s="16"/>
     </row>
     <row r="863" ht="15.2" spans="7:11">
-      <c r="G863" s="15"/>
-      <c r="J863" s="16"/>
-      <c r="K863" s="17"/>
+      <c r="G863" s="14"/>
+      <c r="J863" s="15"/>
+      <c r="K863" s="16"/>
     </row>
     <row r="864" ht="15.2" spans="7:11">
-      <c r="G864" s="15"/>
-      <c r="J864" s="16"/>
-      <c r="K864" s="17"/>
+      <c r="G864" s="14"/>
+      <c r="J864" s="15"/>
+      <c r="K864" s="16"/>
     </row>
     <row r="865" ht="15.2" spans="7:11">
-      <c r="G865" s="15"/>
-      <c r="J865" s="16"/>
-      <c r="K865" s="17"/>
+      <c r="G865" s="14"/>
+      <c r="J865" s="15"/>
+      <c r="K865" s="16"/>
     </row>
     <row r="866" ht="15.2" spans="7:11">
-      <c r="G866" s="15"/>
-      <c r="J866" s="16"/>
-      <c r="K866" s="17"/>
+      <c r="G866" s="14"/>
+      <c r="J866" s="15"/>
+      <c r="K866" s="16"/>
     </row>
     <row r="867" ht="15.2" spans="7:11">
-      <c r="G867" s="15"/>
-      <c r="J867" s="16"/>
-      <c r="K867" s="17"/>
+      <c r="G867" s="14"/>
+      <c r="J867" s="15"/>
+      <c r="K867" s="16"/>
     </row>
     <row r="868" ht="15.2" spans="7:11">
-      <c r="G868" s="15"/>
-      <c r="J868" s="16"/>
-      <c r="K868" s="17"/>
+      <c r="G868" s="14"/>
+      <c r="J868" s="15"/>
+      <c r="K868" s="16"/>
     </row>
     <row r="869" ht="15.2" spans="7:11">
-      <c r="G869" s="15"/>
-      <c r="J869" s="16"/>
-      <c r="K869" s="17"/>
+      <c r="G869" s="14"/>
+      <c r="J869" s="15"/>
+      <c r="K869" s="16"/>
     </row>
     <row r="870" ht="15.2" spans="7:11">
-      <c r="G870" s="15"/>
-      <c r="J870" s="16"/>
-      <c r="K870" s="17"/>
+      <c r="G870" s="14"/>
+      <c r="J870" s="15"/>
+      <c r="K870" s="16"/>
     </row>
     <row r="871" ht="15.2" spans="7:11">
-      <c r="G871" s="15"/>
-      <c r="J871" s="16"/>
-      <c r="K871" s="17"/>
+      <c r="G871" s="14"/>
+      <c r="J871" s="15"/>
+      <c r="K871" s="16"/>
     </row>
     <row r="872" ht="15.2" spans="7:11">
-      <c r="G872" s="15"/>
-      <c r="J872" s="16"/>
-      <c r="K872" s="17"/>
+      <c r="G872" s="14"/>
+      <c r="J872" s="15"/>
+      <c r="K872" s="16"/>
     </row>
     <row r="873" ht="15.2" spans="7:11">
-      <c r="G873" s="15"/>
-      <c r="J873" s="16"/>
-      <c r="K873" s="17"/>
+      <c r="G873" s="14"/>
+      <c r="J873" s="15"/>
+      <c r="K873" s="16"/>
     </row>
     <row r="874" ht="15.2" spans="7:11">
-      <c r="G874" s="15"/>
-      <c r="J874" s="16"/>
-      <c r="K874" s="17"/>
+      <c r="G874" s="14"/>
+      <c r="J874" s="15"/>
+      <c r="K874" s="16"/>
     </row>
     <row r="875" ht="15.2" spans="7:11">
-      <c r="G875" s="15"/>
-      <c r="J875" s="16"/>
-      <c r="K875" s="17"/>
+      <c r="G875" s="14"/>
+      <c r="J875" s="15"/>
+      <c r="K875" s="16"/>
     </row>
     <row r="876" ht="15.2" spans="7:11">
-      <c r="G876" s="15"/>
-      <c r="J876" s="16"/>
-      <c r="K876" s="17"/>
+      <c r="G876" s="14"/>
+      <c r="J876" s="15"/>
+      <c r="K876" s="16"/>
     </row>
     <row r="877" ht="15.2" spans="7:11">
-      <c r="G877" s="15"/>
-      <c r="J877" s="16"/>
-      <c r="K877" s="17"/>
+      <c r="G877" s="14"/>
+      <c r="J877" s="15"/>
+      <c r="K877" s="16"/>
     </row>
     <row r="878" ht="15.2" spans="7:11">
-      <c r="G878" s="15"/>
-      <c r="J878" s="16"/>
-      <c r="K878" s="17"/>
+      <c r="G878" s="14"/>
+      <c r="J878" s="15"/>
+      <c r="K878" s="16"/>
     </row>
     <row r="879" ht="15.2" spans="7:11">
-      <c r="G879" s="15"/>
-      <c r="J879" s="16"/>
-      <c r="K879" s="17"/>
+      <c r="G879" s="14"/>
+      <c r="J879" s="15"/>
+      <c r="K879" s="16"/>
     </row>
     <row r="880" ht="15.2" spans="7:11">
-      <c r="G880" s="15"/>
-      <c r="J880" s="16"/>
-      <c r="K880" s="17"/>
+      <c r="G880" s="14"/>
+      <c r="J880" s="15"/>
+      <c r="K880" s="16"/>
     </row>
     <row r="881" ht="15.2" spans="7:11">
-      <c r="G881" s="15"/>
-      <c r="J881" s="16"/>
-      <c r="K881" s="17"/>
+      <c r="G881" s="14"/>
+      <c r="J881" s="15"/>
+      <c r="K881" s="16"/>
     </row>
     <row r="882" ht="15.2" spans="7:11">
-      <c r="G882" s="15"/>
-      <c r="J882" s="16"/>
-      <c r="K882" s="17"/>
+      <c r="G882" s="14"/>
+      <c r="J882" s="15"/>
+      <c r="K882" s="16"/>
     </row>
     <row r="883" ht="15.2" spans="7:11">
-      <c r="G883" s="15"/>
-      <c r="J883" s="16"/>
-      <c r="K883" s="17"/>
+      <c r="G883" s="14"/>
+      <c r="J883" s="15"/>
+      <c r="K883" s="16"/>
     </row>
     <row r="884" ht="15.2" spans="7:11">
-      <c r="G884" s="15"/>
-      <c r="J884" s="16"/>
-      <c r="K884" s="17"/>
+      <c r="G884" s="14"/>
+      <c r="J884" s="15"/>
+      <c r="K884" s="16"/>
     </row>
     <row r="885" ht="15.2" spans="7:11">
-      <c r="G885" s="15"/>
-      <c r="J885" s="16"/>
-      <c r="K885" s="17"/>
+      <c r="G885" s="14"/>
+      <c r="J885" s="15"/>
+      <c r="K885" s="16"/>
     </row>
     <row r="886" ht="15.2" spans="7:11">
-      <c r="G886" s="15"/>
-      <c r="J886" s="16"/>
-      <c r="K886" s="17"/>
+      <c r="G886" s="14"/>
+      <c r="J886" s="15"/>
+      <c r="K886" s="16"/>
     </row>
     <row r="887" ht="15.2" spans="7:11">
-      <c r="G887" s="15"/>
-      <c r="J887" s="16"/>
-      <c r="K887" s="17"/>
+      <c r="G887" s="14"/>
+      <c r="J887" s="15"/>
+      <c r="K887" s="16"/>
     </row>
     <row r="888" ht="15.2" spans="7:11">
-      <c r="G888" s="15"/>
-      <c r="J888" s="16"/>
-      <c r="K888" s="17"/>
+      <c r="G888" s="14"/>
+      <c r="J888" s="15"/>
+      <c r="K888" s="16"/>
     </row>
     <row r="889" ht="15.2" spans="7:11">
-      <c r="G889" s="15"/>
-      <c r="J889" s="16"/>
-      <c r="K889" s="17"/>
+      <c r="G889" s="14"/>
+      <c r="J889" s="15"/>
+      <c r="K889" s="16"/>
     </row>
     <row r="890" ht="15.2" spans="7:11">
-      <c r="G890" s="15"/>
-      <c r="J890" s="16"/>
-      <c r="K890" s="17"/>
+      <c r="G890" s="14"/>
+      <c r="J890" s="15"/>
+      <c r="K890" s="16"/>
     </row>
     <row r="891" ht="15.2" spans="7:11">
-      <c r="G891" s="15"/>
-      <c r="J891" s="16"/>
-      <c r="K891" s="17"/>
+      <c r="G891" s="14"/>
+      <c r="J891" s="15"/>
+      <c r="K891" s="16"/>
     </row>
     <row r="892" ht="15.2" spans="7:11">
-      <c r="G892" s="15"/>
-      <c r="J892" s="16"/>
-      <c r="K892" s="17"/>
+      <c r="G892" s="14"/>
+      <c r="J892" s="15"/>
+      <c r="K892" s="16"/>
     </row>
     <row r="893" ht="15.2" spans="7:11">
-      <c r="G893" s="15"/>
-      <c r="J893" s="16"/>
-      <c r="K893" s="17"/>
+      <c r="G893" s="14"/>
+      <c r="J893" s="15"/>
+      <c r="K893" s="16"/>
     </row>
     <row r="894" ht="15.2" spans="7:11">
-      <c r="G894" s="15"/>
-      <c r="J894" s="16"/>
-      <c r="K894" s="17"/>
+      <c r="G894" s="14"/>
+      <c r="J894" s="15"/>
+      <c r="K894" s="16"/>
     </row>
     <row r="895" ht="15.2" spans="7:11">
-      <c r="G895" s="15"/>
-      <c r="J895" s="16"/>
-      <c r="K895" s="17"/>
+      <c r="G895" s="14"/>
+      <c r="J895" s="15"/>
+      <c r="K895" s="16"/>
     </row>
     <row r="896" ht="15.2" spans="7:11">
-      <c r="G896" s="15"/>
-      <c r="J896" s="16"/>
-      <c r="K896" s="17"/>
+      <c r="G896" s="14"/>
+      <c r="J896" s="15"/>
+      <c r="K896" s="16"/>
     </row>
     <row r="897" ht="15.2" spans="7:11">
-      <c r="G897" s="15"/>
-      <c r="J897" s="16"/>
-      <c r="K897" s="17"/>
+      <c r="G897" s="14"/>
+      <c r="J897" s="15"/>
+      <c r="K897" s="16"/>
     </row>
     <row r="898" ht="15.2" spans="7:11">
-      <c r="G898" s="15"/>
-      <c r="J898" s="16"/>
-      <c r="K898" s="17"/>
+      <c r="G898" s="14"/>
+      <c r="J898" s="15"/>
+      <c r="K898" s="16"/>
     </row>
     <row r="899" ht="15.2" spans="7:11">
-      <c r="G899" s="15"/>
-      <c r="J899" s="16"/>
-      <c r="K899" s="17"/>
+      <c r="G899" s="14"/>
+      <c r="J899" s="15"/>
+      <c r="K899" s="16"/>
     </row>
     <row r="900" ht="15.2" spans="7:11">
-      <c r="G900" s="15"/>
-      <c r="J900" s="16"/>
-      <c r="K900" s="17"/>
+      <c r="G900" s="14"/>
+      <c r="J900" s="15"/>
+      <c r="K900" s="16"/>
     </row>
     <row r="901" ht="15.2" spans="7:11">
-      <c r="G901" s="15"/>
-      <c r="J901" s="16"/>
-      <c r="K901" s="17"/>
+      <c r="G901" s="14"/>
+      <c r="J901" s="15"/>
+      <c r="K901" s="16"/>
     </row>
     <row r="902" ht="15.2" spans="7:11">
-      <c r="G902" s="15"/>
-      <c r="J902" s="16"/>
-      <c r="K902" s="17"/>
+      <c r="G902" s="14"/>
+      <c r="J902" s="15"/>
+      <c r="K902" s="16"/>
     </row>
     <row r="903" ht="15.2" spans="7:11">
-      <c r="G903" s="15"/>
-      <c r="J903" s="16"/>
-      <c r="K903" s="17"/>
+      <c r="G903" s="14"/>
+      <c r="J903" s="15"/>
+      <c r="K903" s="16"/>
     </row>
     <row r="904" ht="15.2" spans="7:11">
-      <c r="G904" s="15"/>
-      <c r="J904" s="16"/>
-      <c r="K904" s="17"/>
+      <c r="G904" s="14"/>
+      <c r="J904" s="15"/>
+      <c r="K904" s="16"/>
     </row>
     <row r="905" ht="15.2" spans="7:11">
-      <c r="G905" s="15"/>
-      <c r="J905" s="16"/>
-      <c r="K905" s="17"/>
+      <c r="G905" s="14"/>
+      <c r="J905" s="15"/>
+      <c r="K905" s="16"/>
     </row>
     <row r="906" ht="15.2" spans="7:11">
-      <c r="G906" s="15"/>
-      <c r="J906" s="16"/>
-      <c r="K906" s="17"/>
+      <c r="G906" s="14"/>
+      <c r="J906" s="15"/>
+      <c r="K906" s="16"/>
     </row>
     <row r="907" ht="15.2" spans="7:11">
-      <c r="G907" s="15"/>
-      <c r="J907" s="16"/>
-      <c r="K907" s="17"/>
+      <c r="G907" s="14"/>
+      <c r="J907" s="15"/>
+      <c r="K907" s="16"/>
     </row>
     <row r="908" ht="15.2" spans="7:11">
-      <c r="G908" s="15"/>
-      <c r="J908" s="16"/>
-      <c r="K908" s="17"/>
+      <c r="G908" s="14"/>
+      <c r="J908" s="15"/>
+      <c r="K908" s="16"/>
     </row>
     <row r="909" ht="15.2" spans="7:11">
-      <c r="G909" s="15"/>
-      <c r="J909" s="16"/>
-      <c r="K909" s="17"/>
+      <c r="G909" s="14"/>
+      <c r="J909" s="15"/>
+      <c r="K909" s="16"/>
     </row>
     <row r="910" ht="15.2" spans="7:11">
-      <c r="G910" s="15"/>
-      <c r="J910" s="16"/>
-      <c r="K910" s="17"/>
+      <c r="G910" s="14"/>
+      <c r="J910" s="15"/>
+      <c r="K910" s="16"/>
     </row>
     <row r="911" ht="15.2" spans="7:11">
-      <c r="G911" s="15"/>
-      <c r="J911" s="16"/>
-      <c r="K911" s="17"/>
+      <c r="G911" s="14"/>
+      <c r="J911" s="15"/>
+      <c r="K911" s="16"/>
     </row>
     <row r="912" ht="15.2" spans="7:11">
-      <c r="G912" s="15"/>
-      <c r="J912" s="16"/>
-      <c r="K912" s="17"/>
+      <c r="G912" s="14"/>
+      <c r="J912" s="15"/>
+      <c r="K912" s="16"/>
     </row>
     <row r="913" ht="15.2" spans="7:11">
-      <c r="G913" s="15"/>
-      <c r="J913" s="16"/>
-      <c r="K913" s="17"/>
+      <c r="G913" s="14"/>
+      <c r="J913" s="15"/>
+      <c r="K913" s="16"/>
     </row>
     <row r="914" ht="15.2" spans="7:11">
-      <c r="G914" s="15"/>
-      <c r="J914" s="16"/>
-      <c r="K914" s="17"/>
+      <c r="G914" s="14"/>
+      <c r="J914" s="15"/>
+      <c r="K914" s="16"/>
     </row>
     <row r="915" ht="15.2" spans="7:11">
-      <c r="G915" s="15"/>
-      <c r="J915" s="16"/>
-      <c r="K915" s="17"/>
+      <c r="G915" s="14"/>
+      <c r="J915" s="15"/>
+      <c r="K915" s="16"/>
     </row>
     <row r="916" ht="15.2" spans="7:11">
-      <c r="G916" s="15"/>
-      <c r="J916" s="16"/>
-      <c r="K916" s="17"/>
+      <c r="G916" s="14"/>
+      <c r="J916" s="15"/>
+      <c r="K916" s="16"/>
     </row>
     <row r="917" ht="15.2" spans="7:11">
-      <c r="G917" s="15"/>
-      <c r="J917" s="16"/>
-      <c r="K917" s="17"/>
+      <c r="G917" s="14"/>
+      <c r="J917" s="15"/>
+      <c r="K917" s="16"/>
     </row>
     <row r="918" ht="15.2" spans="7:11">
-      <c r="G918" s="15"/>
-      <c r="J918" s="16"/>
-      <c r="K918" s="17"/>
+      <c r="G918" s="14"/>
+      <c r="J918" s="15"/>
+      <c r="K918" s="16"/>
     </row>
     <row r="919" ht="15.2" spans="7:11">
-      <c r="G919" s="15"/>
-      <c r="J919" s="16"/>
-      <c r="K919" s="17"/>
+      <c r="G919" s="14"/>
+      <c r="J919" s="15"/>
+      <c r="K919" s="16"/>
     </row>
     <row r="920" ht="15.2" spans="7:11">
-      <c r="G920" s="15"/>
-      <c r="J920" s="16"/>
-      <c r="K920" s="17"/>
+      <c r="G920" s="14"/>
+      <c r="J920" s="15"/>
+      <c r="K920" s="16"/>
     </row>
     <row r="921" ht="15.2" spans="7:11">
-      <c r="G921" s="15"/>
-      <c r="J921" s="16"/>
-      <c r="K921" s="17"/>
+      <c r="G921" s="14"/>
+      <c r="J921" s="15"/>
+      <c r="K921" s="16"/>
     </row>
     <row r="922" ht="15.2" spans="7:11">
-      <c r="G922" s="15"/>
-      <c r="J922" s="16"/>
-      <c r="K922" s="17"/>
+      <c r="G922" s="14"/>
+      <c r="J922" s="15"/>
+      <c r="K922" s="16"/>
     </row>
     <row r="923" ht="15.2" spans="7:11">
-      <c r="G923" s="15"/>
-      <c r="J923" s="16"/>
-      <c r="K923" s="17"/>
+      <c r="G923" s="14"/>
+      <c r="J923" s="15"/>
+      <c r="K923" s="16"/>
     </row>
     <row r="924" ht="15.2" spans="7:11">
-      <c r="G924" s="15"/>
-      <c r="J924" s="16"/>
-      <c r="K924" s="17"/>
+      <c r="G924" s="14"/>
+      <c r="J924" s="15"/>
+      <c r="K924" s="16"/>
     </row>
     <row r="925" ht="15.2" spans="7:11">
-      <c r="G925" s="15"/>
-      <c r="J925" s="16"/>
-      <c r="K925" s="17"/>
+      <c r="G925" s="14"/>
+      <c r="J925" s="15"/>
+      <c r="K925" s="16"/>
     </row>
     <row r="926" ht="15.2" spans="7:11">
-      <c r="G926" s="15"/>
-      <c r="J926" s="16"/>
-      <c r="K926" s="17"/>
+      <c r="G926" s="14"/>
+      <c r="J926" s="15"/>
+      <c r="K926" s="16"/>
     </row>
     <row r="927" ht="15.2" spans="7:11">
-      <c r="G927" s="15"/>
-      <c r="J927" s="16"/>
-      <c r="K927" s="17"/>
+      <c r="G927" s="14"/>
+      <c r="J927" s="15"/>
+      <c r="K927" s="16"/>
     </row>
     <row r="928" ht="15.2" spans="7:11">
-      <c r="G928" s="15"/>
-      <c r="J928" s="16"/>
-      <c r="K928" s="17"/>
+      <c r="G928" s="14"/>
+      <c r="J928" s="15"/>
+      <c r="K928" s="16"/>
     </row>
     <row r="929" ht="15.2" spans="7:11">
-      <c r="G929" s="15"/>
-      <c r="J929" s="16"/>
-      <c r="K929" s="17"/>
+      <c r="G929" s="14"/>
+      <c r="J929" s="15"/>
+      <c r="K929" s="16"/>
     </row>
     <row r="930" ht="15.2" spans="7:11">
-      <c r="G930" s="15"/>
-      <c r="J930" s="16"/>
-      <c r="K930" s="17"/>
+      <c r="G930" s="14"/>
+      <c r="J930" s="15"/>
+      <c r="K930" s="16"/>
     </row>
     <row r="931" ht="15.2" spans="7:11">
-      <c r="G931" s="15"/>
-      <c r="J931" s="16"/>
-      <c r="K931" s="17"/>
+      <c r="G931" s="14"/>
+      <c r="J931" s="15"/>
+      <c r="K931" s="16"/>
     </row>
     <row r="932" ht="15.2" spans="7:11">
-      <c r="G932" s="15"/>
-      <c r="J932" s="16"/>
-      <c r="K932" s="17"/>
+      <c r="G932" s="14"/>
+      <c r="J932" s="15"/>
+      <c r="K932" s="16"/>
     </row>
     <row r="933" ht="15.2" spans="7:11">
-      <c r="G933" s="15"/>
-      <c r="J933" s="16"/>
-      <c r="K933" s="17"/>
+      <c r="G933" s="14"/>
+      <c r="J933" s="15"/>
+      <c r="K933" s="16"/>
     </row>
     <row r="934" ht="15.2" spans="7:11">
-      <c r="G934" s="15"/>
-      <c r="J934" s="16"/>
-      <c r="K934" s="17"/>
+      <c r="G934" s="14"/>
+      <c r="J934" s="15"/>
+      <c r="K934" s="16"/>
     </row>
     <row r="935" ht="15.2" spans="7:11">
-      <c r="G935" s="15"/>
-      <c r="J935" s="16"/>
-      <c r="K935" s="17"/>
+      <c r="G935" s="14"/>
+      <c r="J935" s="15"/>
+      <c r="K935" s="16"/>
     </row>
     <row r="936" ht="15.2" spans="7:11">
-      <c r="G936" s="15"/>
-      <c r="J936" s="16"/>
-      <c r="K936" s="17"/>
+      <c r="G936" s="14"/>
+      <c r="J936" s="15"/>
+      <c r="K936" s="16"/>
     </row>
     <row r="937" ht="15.2" spans="7:11">
-      <c r="G937" s="15"/>
-      <c r="J937" s="16"/>
-      <c r="K937" s="17"/>
+      <c r="G937" s="14"/>
+      <c r="J937" s="15"/>
+      <c r="K937" s="16"/>
     </row>
     <row r="938" ht="15.2" spans="7:11">
-      <c r="G938" s="15"/>
-      <c r="J938" s="16"/>
-      <c r="K938" s="17"/>
+      <c r="G938" s="14"/>
+      <c r="J938" s="15"/>
+      <c r="K938" s="16"/>
     </row>
     <row r="939" ht="15.2" spans="7:11">
-      <c r="G939" s="15"/>
-      <c r="J939" s="16"/>
-      <c r="K939" s="17"/>
+      <c r="G939" s="14"/>
+      <c r="J939" s="15"/>
+      <c r="K939" s="16"/>
     </row>
     <row r="940" ht="15.2" spans="7:11">
-      <c r="G940" s="15"/>
-      <c r="J940" s="16"/>
-      <c r="K940" s="17"/>
+      <c r="G940" s="14"/>
+      <c r="J940" s="15"/>
+      <c r="K940" s="16"/>
     </row>
     <row r="941" ht="15.2" spans="7:11">
-      <c r="G941" s="15"/>
-      <c r="J941" s="16"/>
-      <c r="K941" s="17"/>
+      <c r="G941" s="14"/>
+      <c r="J941" s="15"/>
+      <c r="K941" s="16"/>
     </row>
     <row r="942" ht="15.2" spans="7:11">
-      <c r="G942" s="15"/>
-      <c r="J942" s="16"/>
-      <c r="K942" s="17"/>
+      <c r="G942" s="14"/>
+      <c r="J942" s="15"/>
+      <c r="K942" s="16"/>
     </row>
     <row r="943" ht="15.2" spans="7:11">
-      <c r="G943" s="15"/>
-      <c r="J943" s="16"/>
-      <c r="K943" s="17"/>
+      <c r="G943" s="14"/>
+      <c r="J943" s="15"/>
+      <c r="K943" s="16"/>
     </row>
     <row r="944" ht="15.2" spans="7:11">
-      <c r="G944" s="15"/>
-      <c r="J944" s="16"/>
-      <c r="K944" s="17"/>
+      <c r="G944" s="14"/>
+      <c r="J944" s="15"/>
+      <c r="K944" s="16"/>
     </row>
     <row r="945" ht="15.2" spans="7:11">
-      <c r="G945" s="15"/>
-      <c r="J945" s="16"/>
-      <c r="K945" s="17"/>
+      <c r="G945" s="14"/>
+      <c r="J945" s="15"/>
+      <c r="K945" s="16"/>
     </row>
     <row r="946" ht="15.2" spans="7:11">
-      <c r="G946" s="15"/>
-      <c r="J946" s="16"/>
-      <c r="K946" s="17"/>
+      <c r="G946" s="14"/>
+      <c r="J946" s="15"/>
+      <c r="K946" s="16"/>
     </row>
     <row r="947" ht="15.2" spans="7:11">
-      <c r="G947" s="15"/>
-      <c r="J947" s="16"/>
-      <c r="K947" s="17"/>
+      <c r="G947" s="14"/>
+      <c r="J947" s="15"/>
+      <c r="K947" s="16"/>
     </row>
     <row r="948" ht="15.2" spans="7:11">
-      <c r="G948" s="15"/>
-      <c r="J948" s="16"/>
-      <c r="K948" s="17"/>
+      <c r="G948" s="14"/>
+      <c r="J948" s="15"/>
+      <c r="K948" s="16"/>
     </row>
     <row r="949" ht="15.2" spans="7:11">
-      <c r="G949" s="15"/>
-      <c r="J949" s="16"/>
-      <c r="K949" s="17"/>
+      <c r="G949" s="14"/>
+      <c r="J949" s="15"/>
+      <c r="K949" s="16"/>
     </row>
     <row r="950" ht="15.2" spans="7:11">
-      <c r="G950" s="15"/>
-      <c r="J950" s="16"/>
-      <c r="K950" s="17"/>
+      <c r="G950" s="14"/>
+      <c r="J950" s="15"/>
+      <c r="K950" s="16"/>
     </row>
     <row r="951" ht="15.2" spans="7:11">
-      <c r="G951" s="15"/>
-      <c r="J951" s="16"/>
-      <c r="K951" s="17"/>
+      <c r="G951" s="14"/>
+      <c r="J951" s="15"/>
+      <c r="K951" s="16"/>
     </row>
     <row r="952" ht="15.2" spans="7:11">
-      <c r="G952" s="15"/>
-      <c r="J952" s="16"/>
-      <c r="K952" s="17"/>
+      <c r="G952" s="14"/>
+      <c r="J952" s="15"/>
+      <c r="K952" s="16"/>
     </row>
     <row r="953" ht="15.2" spans="7:11">
-      <c r="G953" s="15"/>
-      <c r="J953" s="16"/>
-      <c r="K953" s="17"/>
+      <c r="G953" s="14"/>
+      <c r="J953" s="15"/>
+      <c r="K953" s="16"/>
     </row>
     <row r="954" ht="15.2" spans="7:11">
-      <c r="G954" s="15"/>
-      <c r="J954" s="16"/>
-      <c r="K954" s="17"/>
+      <c r="G954" s="14"/>
+      <c r="J954" s="15"/>
+      <c r="K954" s="16"/>
     </row>
     <row r="955" ht="15.2" spans="7:11">
-      <c r="G955" s="15"/>
-      <c r="J955" s="16"/>
-      <c r="K955" s="17"/>
+      <c r="G955" s="14"/>
+      <c r="J955" s="15"/>
+      <c r="K955" s="16"/>
     </row>
     <row r="956" ht="15.2" spans="7:11">
-      <c r="G956" s="15"/>
-      <c r="J956" s="16"/>
-      <c r="K956" s="17"/>
+      <c r="G956" s="14"/>
+      <c r="J956" s="15"/>
+      <c r="K956" s="16"/>
     </row>
     <row r="957" ht="15.2" spans="7:11">
-      <c r="G957" s="15"/>
-      <c r="J957" s="16"/>
-      <c r="K957" s="17"/>
+      <c r="G957" s="14"/>
+      <c r="J957" s="15"/>
+      <c r="K957" s="16"/>
     </row>
     <row r="958" ht="15.2" spans="7:11">
-      <c r="G958" s="15"/>
-      <c r="J958" s="16"/>
-      <c r="K958" s="17"/>
+      <c r="G958" s="14"/>
+      <c r="J958" s="15"/>
+      <c r="K958" s="16"/>
     </row>
     <row r="959" ht="15.2" spans="7:11">
-      <c r="G959" s="15"/>
-      <c r="J959" s="16"/>
-      <c r="K959" s="17"/>
+      <c r="G959" s="14"/>
+      <c r="J959" s="15"/>
+      <c r="K959" s="16"/>
     </row>
     <row r="960" ht="15.2" spans="7:11">
-      <c r="G960" s="15"/>
-      <c r="J960" s="16"/>
-      <c r="K960" s="17"/>
+      <c r="G960" s="14"/>
+      <c r="J960" s="15"/>
+      <c r="K960" s="16"/>
     </row>
     <row r="961" ht="15.2" spans="7:11">
-      <c r="G961" s="15"/>
-      <c r="J961" s="16"/>
-      <c r="K961" s="17"/>
+      <c r="G961" s="14"/>
+      <c r="J961" s="15"/>
+      <c r="K961" s="16"/>
     </row>
     <row r="962" ht="15.2" spans="7:11">
-      <c r="G962" s="15"/>
-      <c r="J962" s="16"/>
-      <c r="K962" s="17"/>
+      <c r="G962" s="14"/>
+      <c r="J962" s="15"/>
+      <c r="K962" s="16"/>
     </row>
     <row r="963" ht="15.2" spans="7:11">
-      <c r="G963" s="15"/>
-      <c r="J963" s="16"/>
-      <c r="K963" s="17"/>
+      <c r="G963" s="14"/>
+      <c r="J963" s="15"/>
+      <c r="K963" s="16"/>
     </row>
     <row r="964" ht="15.2" spans="7:11">
-      <c r="G964" s="15"/>
-      <c r="J964" s="16"/>
-      <c r="K964" s="17"/>
+      <c r="G964" s="14"/>
+      <c r="J964" s="15"/>
+      <c r="K964" s="16"/>
     </row>
     <row r="965" ht="15.2" spans="7:11">
-      <c r="G965" s="15"/>
-      <c r="J965" s="16"/>
-      <c r="K965" s="17"/>
+      <c r="G965" s="14"/>
+      <c r="J965" s="15"/>
+      <c r="K965" s="16"/>
     </row>
     <row r="966" ht="15.2" spans="7:11">
-      <c r="G966" s="15"/>
-      <c r="J966" s="16"/>
-      <c r="K966" s="17"/>
+      <c r="G966" s="14"/>
+      <c r="J966" s="15"/>
+      <c r="K966" s="16"/>
     </row>
     <row r="967" ht="15.2" spans="7:11">
-      <c r="G967" s="15"/>
-      <c r="J967" s="16"/>
-      <c r="K967" s="17"/>
+      <c r="G967" s="14"/>
+      <c r="J967" s="15"/>
+      <c r="K967" s="16"/>
     </row>
     <row r="968" ht="15.2" spans="7:11">
-      <c r="G968" s="15"/>
-      <c r="J968" s="16"/>
-      <c r="K968" s="17"/>
+      <c r="G968" s="14"/>
+      <c r="J968" s="15"/>
+      <c r="K968" s="16"/>
     </row>
     <row r="969" ht="15.2" spans="7:11">
-      <c r="G969" s="15"/>
-      <c r="J969" s="16"/>
-      <c r="K969" s="17"/>
+      <c r="G969" s="14"/>
+      <c r="J969" s="15"/>
+      <c r="K969" s="16"/>
     </row>
     <row r="970" ht="15.2" spans="7:11">
-      <c r="G970" s="15"/>
-      <c r="J970" s="16"/>
-      <c r="K970" s="17"/>
+      <c r="G970" s="14"/>
+      <c r="J970" s="15"/>
+      <c r="K970" s="16"/>
     </row>
     <row r="971" ht="15.2" spans="7:11">
-      <c r="G971" s="15"/>
-      <c r="J971" s="16"/>
-      <c r="K971" s="17"/>
+      <c r="G971" s="14"/>
+      <c r="J971" s="15"/>
+      <c r="K971" s="16"/>
     </row>
     <row r="972" ht="15.2" spans="7:11">
-      <c r="G972" s="15"/>
-      <c r="J972" s="16"/>
-      <c r="K972" s="17"/>
+      <c r="G972" s="14"/>
+      <c r="J972" s="15"/>
+      <c r="K972" s="16"/>
     </row>
     <row r="973" ht="15.2" spans="7:11">
-      <c r="G973" s="15"/>
-      <c r="J973" s="16"/>
-      <c r="K973" s="17"/>
+      <c r="G973" s="14"/>
+      <c r="J973" s="15"/>
+      <c r="K973" s="16"/>
     </row>
     <row r="974" ht="15.2" spans="7:11">
-      <c r="G974" s="15"/>
-      <c r="J974" s="16"/>
-      <c r="K974" s="17"/>
+      <c r="G974" s="14"/>
+      <c r="J974" s="15"/>
+      <c r="K974" s="16"/>
     </row>
     <row r="975" ht="15.2" spans="7:11">
-      <c r="G975" s="15"/>
-      <c r="J975" s="16"/>
-      <c r="K975" s="17"/>
+      <c r="G975" s="14"/>
+      <c r="J975" s="15"/>
+      <c r="K975" s="16"/>
     </row>
     <row r="976" ht="15.2" spans="7:11">
-      <c r="G976" s="15"/>
-      <c r="J976" s="16"/>
-      <c r="K976" s="17"/>
+      <c r="G976" s="14"/>
+      <c r="J976" s="15"/>
+      <c r="K976" s="16"/>
     </row>
     <row r="977" ht="15.2" spans="7:11">
-      <c r="G977" s="15"/>
-      <c r="J977" s="16"/>
-      <c r="K977" s="17"/>
+      <c r="G977" s="14"/>
+      <c r="J977" s="15"/>
+      <c r="K977" s="16"/>
     </row>
     <row r="978" ht="15.2" spans="7:11">
-      <c r="G978" s="15"/>
-      <c r="J978" s="16"/>
-      <c r="K978" s="17"/>
+      <c r="G978" s="14"/>
+      <c r="J978" s="15"/>
+      <c r="K978" s="16"/>
     </row>
     <row r="979" ht="15.2" spans="7:11">
-      <c r="G979" s="15"/>
-      <c r="J979" s="16"/>
-      <c r="K979" s="17"/>
+      <c r="G979" s="14"/>
+      <c r="J979" s="15"/>
+      <c r="K979" s="16"/>
     </row>
     <row r="980" ht="15.2" spans="7:11">
-      <c r="G980" s="15"/>
-      <c r="J980" s="16"/>
-      <c r="K980" s="17"/>
+      <c r="G980" s="14"/>
+      <c r="J980" s="15"/>
+      <c r="K980" s="16"/>
     </row>
     <row r="981" ht="15.2" spans="7:11">
-      <c r="G981" s="15"/>
-      <c r="J981" s="16"/>
-      <c r="K981" s="17"/>
+      <c r="G981" s="14"/>
+      <c r="J981" s="15"/>
+      <c r="K981" s="16"/>
     </row>
     <row r="982" ht="15.2" spans="7:11">
-      <c r="G982" s="15"/>
-      <c r="J982" s="16"/>
-      <c r="K982" s="17"/>
+      <c r="G982" s="14"/>
+      <c r="J982" s="15"/>
+      <c r="K982" s="16"/>
     </row>
     <row r="983" ht="15.2" spans="7:11">
-      <c r="G983" s="15"/>
-      <c r="J983" s="16"/>
-      <c r="K983" s="17"/>
+      <c r="G983" s="14"/>
+      <c r="J983" s="15"/>
+      <c r="K983" s="16"/>
     </row>
     <row r="984" ht="15.2" spans="7:11">
-      <c r="G984" s="15"/>
-      <c r="J984" s="16"/>
-      <c r="K984" s="17"/>
+      <c r="G984" s="14"/>
+      <c r="J984" s="15"/>
+      <c r="K984" s="16"/>
     </row>
     <row r="985" ht="15.2" spans="7:11">
-      <c r="G985" s="15"/>
-      <c r="J985" s="16"/>
-      <c r="K985" s="17"/>
+      <c r="G985" s="14"/>
+      <c r="J985" s="15"/>
+      <c r="K985" s="16"/>
     </row>
     <row r="986" ht="15.2" spans="7:11">
-      <c r="G986" s="15"/>
-      <c r="J986" s="16"/>
-      <c r="K986" s="17"/>
+      <c r="G986" s="14"/>
+      <c r="J986" s="15"/>
+      <c r="K986" s="16"/>
     </row>
     <row r="987" ht="15.2" spans="7:11">
-      <c r="G987" s="15"/>
-      <c r="J987" s="16"/>
-      <c r="K987" s="17"/>
+      <c r="G987" s="14"/>
+      <c r="J987" s="15"/>
+      <c r="K987" s="16"/>
     </row>
     <row r="988" ht="15.2" spans="7:11">
-      <c r="G988" s="15"/>
-      <c r="J988" s="16"/>
-      <c r="K988" s="17"/>
+      <c r="G988" s="14"/>
+      <c r="J988" s="15"/>
+      <c r="K988" s="16"/>
     </row>
     <row r="989" ht="15.2" spans="7:11">
-      <c r="G989" s="15"/>
-      <c r="J989" s="16"/>
-      <c r="K989" s="17"/>
+      <c r="G989" s="14"/>
+      <c r="J989" s="15"/>
+      <c r="K989" s="16"/>
     </row>
     <row r="990" ht="15.2" spans="7:11">
-      <c r="G990" s="15"/>
-      <c r="J990" s="16"/>
-      <c r="K990" s="17"/>
+      <c r="G990" s="14"/>
+      <c r="J990" s="15"/>
+      <c r="K990" s="16"/>
     </row>
     <row r="991" ht="15.2" spans="7:11">
-      <c r="G991" s="15"/>
-      <c r="J991" s="16"/>
-      <c r="K991" s="17"/>
+      <c r="G991" s="14"/>
+      <c r="J991" s="15"/>
+      <c r="K991" s="16"/>
     </row>
     <row r="992" ht="15.2" spans="7:11">
-      <c r="G992" s="15"/>
-      <c r="J992" s="16"/>
-      <c r="K992" s="17"/>
+      <c r="G992" s="14"/>
+      <c r="J992" s="15"/>
+      <c r="K992" s="16"/>
     </row>
     <row r="993" ht="15.2" spans="7:11">
-      <c r="G993" s="15"/>
-      <c r="J993" s="16"/>
-      <c r="K993" s="17"/>
+      <c r="G993" s="14"/>
+      <c r="J993" s="15"/>
+      <c r="K993" s="16"/>
     </row>
     <row r="994" ht="15.2" spans="7:11">
-      <c r="G994" s="15"/>
-      <c r="J994" s="16"/>
-      <c r="K994" s="17"/>
+      <c r="G994" s="14"/>
+      <c r="J994" s="15"/>
+      <c r="K994" s="16"/>
     </row>
     <row r="995" ht="15.2" spans="7:11">
-      <c r="G995" s="15"/>
-      <c r="J995" s="16"/>
-      <c r="K995" s="17"/>
+      <c r="G995" s="14"/>
+      <c r="J995" s="15"/>
+      <c r="K995" s="16"/>
     </row>
     <row r="996" ht="15.2" spans="7:11">
-      <c r="G996" s="15"/>
-      <c r="J996" s="16"/>
-      <c r="K996" s="17"/>
+      <c r="G996" s="14"/>
+      <c r="J996" s="15"/>
+      <c r="K996" s="16"/>
     </row>
     <row r="997" ht="15.2" spans="7:11">
-      <c r="G997" s="15"/>
-      <c r="J997" s="16"/>
-      <c r="K997" s="17"/>
+      <c r="G997" s="14"/>
+      <c r="J997" s="15"/>
+      <c r="K997" s="16"/>
     </row>
     <row r="998" ht="15.2" spans="7:11">
-      <c r="G998" s="15"/>
-      <c r="J998" s="16"/>
-      <c r="K998" s="17"/>
+      <c r="G998" s="14"/>
+      <c r="J998" s="15"/>
+      <c r="K998" s="16"/>
     </row>
     <row r="999" ht="15.2" spans="7:11">
-      <c r="G999" s="15"/>
-      <c r="J999" s="16"/>
-      <c r="K999" s="17"/>
+      <c r="G999" s="14"/>
+      <c r="J999" s="15"/>
+      <c r="K999" s="16"/>
     </row>
     <row r="1000" ht="15.2" spans="7:11">
-      <c r="G1000" s="15"/>
-      <c r="J1000" s="16"/>
-      <c r="K1000" s="17"/>
+      <c r="G1000" s="14"/>
+      <c r="J1000" s="15"/>
+      <c r="K1000" s="16"/>
     </row>
     <row r="1001" ht="15.2" spans="7:11">
-      <c r="G1001" s="15"/>
-      <c r="J1001" s="16"/>
-      <c r="K1001" s="17"/>
+      <c r="G1001" s="14"/>
+      <c r="J1001" s="15"/>
+      <c r="K1001" s="16"/>
     </row>
     <row r="1002" ht="15.2" spans="7:11">
-      <c r="G1002" s="15"/>
-      <c r="J1002" s="16"/>
-      <c r="K1002" s="17"/>
+      <c r="G1002" s="14"/>
+      <c r="J1002" s="15"/>
+      <c r="K1002" s="16"/>
     </row>
     <row r="1003" ht="15.2" spans="7:11">
-      <c r="G1003" s="15"/>
-      <c r="J1003" s="16"/>
-      <c r="K1003" s="17"/>
+      <c r="G1003" s="14"/>
+      <c r="J1003" s="15"/>
+      <c r="K1003" s="16"/>
     </row>
     <row r="1004" ht="15.2" spans="7:11">
-      <c r="G1004" s="15"/>
-      <c r="J1004" s="16"/>
-      <c r="K1004" s="17"/>
+      <c r="G1004" s="14"/>
+      <c r="J1004" s="15"/>
+      <c r="K1004" s="16"/>
     </row>
     <row r="1005" ht="15.2" spans="7:11">
-      <c r="G1005" s="15"/>
-      <c r="J1005" s="16"/>
-      <c r="K1005" s="17"/>
+      <c r="G1005" s="14"/>
+      <c r="J1005" s="15"/>
+      <c r="K1005" s="16"/>
     </row>
     <row r="1006" ht="15.2" spans="7:11">
-      <c r="G1006" s="15"/>
-      <c r="J1006" s="16"/>
-      <c r="K1006" s="17"/>
+      <c r="G1006" s="14"/>
+      <c r="J1006" s="15"/>
+      <c r="K1006" s="16"/>
     </row>
     <row r="1007" ht="15.2" spans="7:11">
-      <c r="G1007" s="15"/>
-      <c r="J1007" s="16"/>
-      <c r="K1007" s="17"/>
+      <c r="G1007" s="14"/>
+      <c r="J1007" s="15"/>
+      <c r="K1007" s="16"/>
     </row>
     <row r="1008" ht="15.2" spans="7:11">
-      <c r="G1008" s="15"/>
-      <c r="J1008" s="16"/>
-      <c r="K1008" s="17"/>
+      <c r="G1008" s="14"/>
+      <c r="J1008" s="15"/>
+      <c r="K1008" s="16"/>
     </row>
     <row r="1009" ht="15.2" spans="7:11">
-      <c r="G1009" s="15"/>
-      <c r="J1009" s="16"/>
-      <c r="K1009" s="17"/>
+      <c r="G1009" s="14"/>
+      <c r="J1009" s="15"/>
+      <c r="K1009" s="16"/>
     </row>
     <row r="1010" ht="15.2" spans="7:11">
-      <c r="G1010" s="15"/>
-      <c r="J1010" s="16"/>
-      <c r="K1010" s="17"/>
+      <c r="G1010" s="14"/>
+      <c r="J1010" s="15"/>
+      <c r="K1010" s="16"/>
     </row>
     <row r="1011" ht="15.2" spans="7:11">
-      <c r="G1011" s="15"/>
-      <c r="J1011" s="16"/>
-      <c r="K1011" s="17"/>
+      <c r="G1011" s="14"/>
+      <c r="J1011" s="15"/>
+      <c r="K1011" s="16"/>
     </row>
     <row r="1012" ht="15.2" spans="7:11">
-      <c r="G1012" s="15"/>
-      <c r="J1012" s="16"/>
-      <c r="K1012" s="17"/>
+      <c r="G1012" s="14"/>
+      <c r="J1012" s="15"/>
+      <c r="K1012" s="16"/>
     </row>
     <row r="1013" ht="15.2" spans="7:11">
-      <c r="G1013" s="15"/>
-      <c r="J1013" s="16"/>
-      <c r="K1013" s="17"/>
+      <c r="G1013" s="14"/>
+      <c r="J1013" s="15"/>
+      <c r="K1013" s="16"/>
     </row>
     <row r="1014" ht="15.2" spans="7:11">
-      <c r="G1014" s="15"/>
-      <c r="J1014" s="16"/>
-      <c r="K1014" s="17"/>
+      <c r="G1014" s="14"/>
+      <c r="J1014" s="15"/>
+      <c r="K1014" s="16"/>
     </row>
     <row r="1015" ht="15.2" spans="7:11">
-      <c r="G1015" s="15"/>
-      <c r="J1015" s="16"/>
-      <c r="K1015" s="17"/>
+      <c r="G1015" s="14"/>
+      <c r="J1015" s="15"/>
+      <c r="K1015" s="16"/>
     </row>
     <row r="1016" ht="15.2" spans="7:11">
-      <c r="G1016" s="15"/>
-      <c r="J1016" s="16"/>
-      <c r="K1016" s="17"/>
+      <c r="G1016" s="14"/>
+      <c r="J1016" s="15"/>
+      <c r="K1016" s="16"/>
     </row>
     <row r="1017" ht="15.2" spans="7:11">
-      <c r="G1017" s="15"/>
-      <c r="J1017" s="16"/>
-      <c r="K1017" s="17"/>
+      <c r="G1017" s="14"/>
+      <c r="J1017" s="15"/>
+      <c r="K1017" s="16"/>
     </row>
     <row r="1018" ht="15.2" spans="7:11">
-      <c r="G1018" s="15"/>
-      <c r="J1018" s="16"/>
-      <c r="K1018" s="17"/>
+      <c r="G1018" s="14"/>
+      <c r="J1018" s="15"/>
+      <c r="K1018" s="16"/>
     </row>
     <row r="1019" ht="15.2" spans="7:11">
-      <c r="G1019" s="15"/>
-      <c r="J1019" s="16"/>
-      <c r="K1019" s="17"/>
+      <c r="G1019" s="14"/>
+      <c r="J1019" s="15"/>
+      <c r="K1019" s="16"/>
     </row>
     <row r="1020" ht="15.2" spans="7:11">
-      <c r="G1020" s="15"/>
-      <c r="J1020" s="16"/>
-      <c r="K1020" s="17"/>
+      <c r="G1020" s="14"/>
+      <c r="J1020" s="15"/>
+      <c r="K1020" s="16"/>
     </row>
     <row r="1021" ht="15.2" spans="7:11">
-      <c r="G1021" s="15"/>
-      <c r="J1021" s="16"/>
-      <c r="K1021" s="17"/>
+      <c r="G1021" s="14"/>
+      <c r="J1021" s="15"/>
+      <c r="K1021" s="16"/>
     </row>
     <row r="1022" ht="15.2" spans="7:11">
-      <c r="G1022" s="15"/>
-      <c r="J1022" s="16"/>
-      <c r="K1022" s="17"/>
+      <c r="G1022" s="14"/>
+      <c r="J1022" s="15"/>
+      <c r="K1022" s="16"/>
     </row>
     <row r="1023" ht="15.2" spans="7:11">
-      <c r="G1023" s="15"/>
-      <c r="J1023" s="16"/>
-      <c r="K1023" s="17"/>
+      <c r="G1023" s="14"/>
+      <c r="J1023" s="15"/>
+      <c r="K1023" s="16"/>
     </row>
     <row r="1024" ht="15.2" spans="7:11">
-      <c r="G1024" s="15"/>
-      <c r="J1024" s="16"/>
-      <c r="K1024" s="17"/>
+      <c r="G1024" s="14"/>
+      <c r="J1024" s="15"/>
+      <c r="K1024" s="16"/>
     </row>
     <row r="1025" ht="15.2" spans="7:11">
-      <c r="G1025" s="15"/>
-      <c r="J1025" s="16"/>
-      <c r="K1025" s="17"/>
+      <c r="G1025" s="14"/>
+      <c r="J1025" s="15"/>
+      <c r="K1025" s="16"/>
     </row>
     <row r="1026" ht="15.2" spans="7:11">
-      <c r="G1026" s="15"/>
-      <c r="J1026" s="16"/>
-      <c r="K1026" s="17"/>
+      <c r="G1026" s="14"/>
+      <c r="J1026" s="15"/>
+      <c r="K1026" s="16"/>
     </row>
     <row r="1027" ht="15.2" spans="7:11">
-      <c r="G1027" s="15"/>
-      <c r="J1027" s="16"/>
-      <c r="K1027" s="17"/>
+      <c r="G1027" s="14"/>
+      <c r="J1027" s="15"/>
+      <c r="K1027" s="16"/>
     </row>
     <row r="1028" ht="15.2" spans="7:11">
-      <c r="G1028" s="15"/>
-      <c r="J1028" s="16"/>
-      <c r="K1028" s="17"/>
+      <c r="G1028" s="14"/>
+      <c r="J1028" s="15"/>
+      <c r="K1028" s="16"/>
     </row>
     <row r="1029" ht="15.2" spans="7:11">
-      <c r="G1029" s="15"/>
-      <c r="J1029" s="16"/>
-      <c r="K1029" s="17"/>
+      <c r="G1029" s="14"/>
+      <c r="J1029" s="15"/>
+      <c r="K1029" s="16"/>
     </row>
     <row r="1030" ht="15.2" spans="7:11">
-      <c r="G1030" s="15"/>
-      <c r="J1030" s="16"/>
-      <c r="K1030" s="17"/>
+      <c r="G1030" s="14"/>
+      <c r="J1030" s="15"/>
+      <c r="K1030" s="16"/>
     </row>
     <row r="1031" ht="15.2" spans="7:11">
-      <c r="G1031" s="15"/>
-      <c r="J1031" s="16"/>
-      <c r="K1031" s="17"/>
+      <c r="G1031" s="14"/>
+      <c r="J1031" s="15"/>
+      <c r="K1031" s="16"/>
     </row>
     <row r="1032" ht="15.2" spans="7:11">
-      <c r="G1032" s="15"/>
-      <c r="J1032" s="16"/>
-      <c r="K1032" s="17"/>
+      <c r="G1032" s="14"/>
+      <c r="J1032" s="15"/>
+      <c r="K1032" s="16"/>
     </row>
     <row r="1033" ht="15.2" spans="7:11">
-      <c r="G1033" s="15"/>
-      <c r="J1033" s="16"/>
-      <c r="K1033" s="17"/>
+      <c r="G1033" s="14"/>
+      <c r="J1033" s="15"/>
+      <c r="K1033" s="16"/>
     </row>
     <row r="1034" ht="15.2" spans="7:11">
-      <c r="G1034" s="15"/>
-      <c r="J1034" s="16"/>
-      <c r="K1034" s="17"/>
+      <c r="G1034" s="14"/>
+      <c r="J1034" s="15"/>
+      <c r="K1034" s="16"/>
     </row>
     <row r="1035" ht="15.2" spans="7:11">
-      <c r="G1035" s="15"/>
-      <c r="J1035" s="16"/>
-      <c r="K1035" s="17"/>
+      <c r="G1035" s="14"/>
+      <c r="J1035" s="15"/>
+      <c r="K1035" s="16"/>
     </row>
     <row r="1036" ht="15.2" spans="7:11">
-      <c r="G1036" s="15"/>
-      <c r="J1036" s="16"/>
-      <c r="K1036" s="17"/>
+      <c r="G1036" s="14"/>
+      <c r="J1036" s="15"/>
+      <c r="K1036" s="16"/>
     </row>
     <row r="1037" ht="15.2" spans="7:11">
-      <c r="G1037" s="15"/>
-      <c r="J1037" s="16"/>
-      <c r="K1037" s="17"/>
+      <c r="G1037" s="14"/>
+      <c r="J1037" s="15"/>
+      <c r="K1037" s="16"/>
     </row>
     <row r="1038" ht="15.2" spans="7:11">
-      <c r="G1038" s="15"/>
-      <c r="J1038" s="16"/>
-      <c r="K1038" s="17"/>
+      <c r="G1038" s="14"/>
+      <c r="J1038" s="15"/>
+      <c r="K1038" s="16"/>
     </row>
     <row r="1039" ht="15.2" spans="7:11">
-      <c r="G1039" s="15"/>
-      <c r="J1039" s="16"/>
-      <c r="K1039" s="17"/>
+      <c r="G1039" s="14"/>
+      <c r="J1039" s="15"/>
+      <c r="K1039" s="16"/>
     </row>
     <row r="1040" ht="15.2" spans="7:11">
-      <c r="G1040" s="15"/>
-      <c r="J1040" s="16"/>
-      <c r="K1040" s="17"/>
+      <c r="G1040" s="14"/>
+      <c r="J1040" s="15"/>
+      <c r="K1040" s="16"/>
     </row>
     <row r="1041" ht="15.2" spans="7:11">
-      <c r="G1041" s="15"/>
-      <c r="J1041" s="16"/>
-      <c r="K1041" s="17"/>
+      <c r="G1041" s="14"/>
+      <c r="J1041" s="15"/>
+      <c r="K1041" s="16"/>
     </row>
     <row r="1042" ht="15.2" spans="7:11">
-      <c r="G1042" s="15"/>
-      <c r="J1042" s="16"/>
-      <c r="K1042" s="17"/>
+      <c r="G1042" s="14"/>
+      <c r="J1042" s="15"/>
+      <c r="K1042" s="16"/>
     </row>
     <row r="1043" ht="15.2" spans="7:11">
-      <c r="G1043" s="15"/>
-      <c r="J1043" s="16"/>
-      <c r="K1043" s="17"/>
+      <c r="G1043" s="14"/>
+      <c r="J1043" s="15"/>
+      <c r="K1043" s="16"/>
     </row>
     <row r="1044" ht="15.2" spans="7:11">
-      <c r="G1044" s="15"/>
-      <c r="J1044" s="16"/>
-      <c r="K1044" s="17"/>
+      <c r="G1044" s="14"/>
+      <c r="J1044" s="15"/>
+      <c r="K1044" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="476">
   <si>
     <t>Model</t>
   </si>
@@ -1067,198 +1067,198 @@
     <t>Agentic framework</t>
   </si>
   <si>
+    <t>128.81/369</t>
+  </si>
+  <si>
+    <t>13.00/47</t>
+  </si>
+  <si>
+    <t>12.96/47</t>
+  </si>
+  <si>
+    <t>14.00/101</t>
+  </si>
+  <si>
+    <t>6.89/17</t>
+  </si>
+  <si>
+    <t>168.84/369</t>
+  </si>
+  <si>
+    <t>21.00/47</t>
+  </si>
+  <si>
+    <t>29.03/101</t>
+  </si>
+  <si>
+    <t>agent s2.5 w/ o3</t>
+  </si>
+  <si>
+    <t>143.85/369</t>
+  </si>
+  <si>
+    <t>19.00/47</t>
+  </si>
+  <si>
+    <t>20.99/47</t>
+  </si>
+  <si>
+    <t>18.00/101</t>
+  </si>
+  <si>
+    <t>5.89/17</t>
+  </si>
+  <si>
+    <t>200.02/369</t>
+  </si>
+  <si>
+    <t>20.00/26</t>
+  </si>
+  <si>
+    <t>26.00/47</t>
+  </si>
+  <si>
+    <t>25.99/47</t>
+  </si>
+  <si>
+    <t>39.93/101</t>
+  </si>
+  <si>
+    <t>18.00/24</t>
+  </si>
+  <si>
+    <t>7.14/17</t>
+  </si>
+  <si>
+    <t>17.00/23</t>
+  </si>
+  <si>
+    <t>206.59/369</t>
+  </si>
+  <si>
+    <t>28.00/47</t>
+  </si>
+  <si>
+    <t>44.50/101</t>
+  </si>
+  <si>
+    <t>agent s2 w/ claude-3-7-sonnet-20250219</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Jedi-7B w/ gpt-4o</t>
+  </si>
+  <si>
+    <t>Salesforce &amp; The University of Hong Kong</t>
+  </si>
+  <si>
+    <t>https://osworld-grounding.github.io/</t>
+  </si>
+  <si>
+    <t>Xie et al., '25</t>
+  </si>
+  <si>
+    <t>96.59/360</t>
+  </si>
+  <si>
+    <t>13.96/45</t>
+  </si>
+  <si>
+    <t>6.96/47</t>
+  </si>
+  <si>
+    <t>8.09/93</t>
+  </si>
+  <si>
+    <t>4.58/17</t>
+  </si>
+  <si>
+    <t>97.19/361</t>
+  </si>
+  <si>
+    <t>7.96/47</t>
+  </si>
+  <si>
+    <t>14.69/93</t>
+  </si>
+  <si>
+    <t>105.80/361</t>
+  </si>
+  <si>
+    <t>12.85/93</t>
+  </si>
+  <si>
+    <t>Jedi-7B w/ o3</t>
+  </si>
+  <si>
+    <t>152.95/361</t>
+  </si>
+  <si>
+    <t>19.00/93</t>
+  </si>
+  <si>
+    <t>8.00/17</t>
+  </si>
+  <si>
+    <t>182.34/360</t>
+  </si>
+  <si>
+    <t>25.96/45</t>
+  </si>
+  <si>
+    <t>21.00/26</t>
+  </si>
+  <si>
+    <t>32.52/93</t>
+  </si>
+  <si>
+    <t>13.00/24</t>
+  </si>
+  <si>
+    <t>12.00/15</t>
+  </si>
+  <si>
+    <t>9.87/17</t>
+  </si>
+  <si>
+    <t>184.01/361</t>
+  </si>
+  <si>
+    <t>27.00/46</t>
+  </si>
+  <si>
+    <t>20.00/47</t>
+  </si>
+  <si>
+    <t>20.96/47</t>
+  </si>
+  <si>
+    <t>32.80/93</t>
+  </si>
+  <si>
+    <t>9.25/17</t>
+  </si>
+  <si>
+    <t>19.00/23</t>
+  </si>
+  <si>
+    <t>GTA1 w/ o3</t>
+  </si>
+  <si>
+    <t>Salesforce &amp; The Australian National University &amp; The University of Hong Kong</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2507.05791</t>
+  </si>
+  <si>
+    <t>Yang et al., '25</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>128.81/369</t>
-  </si>
-  <si>
-    <t>13.00/47</t>
-  </si>
-  <si>
-    <t>12.96/47</t>
-  </si>
-  <si>
-    <t>14.00/101</t>
-  </si>
-  <si>
-    <t>6.89/17</t>
-  </si>
-  <si>
-    <t>168.84/369</t>
-  </si>
-  <si>
-    <t>21.00/47</t>
-  </si>
-  <si>
-    <t>29.03/101</t>
-  </si>
-  <si>
-    <t>agent s2.5 w/ o3</t>
-  </si>
-  <si>
-    <t>143.85/369</t>
-  </si>
-  <si>
-    <t>19.00/47</t>
-  </si>
-  <si>
-    <t>20.99/47</t>
-  </si>
-  <si>
-    <t>18.00/101</t>
-  </si>
-  <si>
-    <t>5.89/17</t>
-  </si>
-  <si>
-    <t>200.02/369</t>
-  </si>
-  <si>
-    <t>20.00/26</t>
-  </si>
-  <si>
-    <t>26.00/47</t>
-  </si>
-  <si>
-    <t>25.99/47</t>
-  </si>
-  <si>
-    <t>39.93/101</t>
-  </si>
-  <si>
-    <t>18.00/24</t>
-  </si>
-  <si>
-    <t>7.14/17</t>
-  </si>
-  <si>
-    <t>17.00/23</t>
-  </si>
-  <si>
-    <t>206.59/369</t>
-  </si>
-  <si>
-    <t>28.00/47</t>
-  </si>
-  <si>
-    <t>44.50/101</t>
-  </si>
-  <si>
-    <t>agent s2 w/ claude-3-7-sonnet-20250219</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Jedi-7B w/ gpt-4o</t>
-  </si>
-  <si>
-    <t>Salesforce &amp; The University of Hong Kong</t>
-  </si>
-  <si>
-    <t>https://osworld-grounding.github.io/</t>
-  </si>
-  <si>
-    <t>Xie et al., '25</t>
-  </si>
-  <si>
-    <t>96.59/360</t>
-  </si>
-  <si>
-    <t>13.96/45</t>
-  </si>
-  <si>
-    <t>6.96/47</t>
-  </si>
-  <si>
-    <t>8.09/93</t>
-  </si>
-  <si>
-    <t>4.58/17</t>
-  </si>
-  <si>
-    <t>97.19/361</t>
-  </si>
-  <si>
-    <t>7.96/47</t>
-  </si>
-  <si>
-    <t>14.69/93</t>
-  </si>
-  <si>
-    <t>105.80/361</t>
-  </si>
-  <si>
-    <t>12.85/93</t>
-  </si>
-  <si>
-    <t>Jedi-7B w/ o3</t>
-  </si>
-  <si>
-    <t>152.95/361</t>
-  </si>
-  <si>
-    <t>19.00/93</t>
-  </si>
-  <si>
-    <t>8.00/17</t>
-  </si>
-  <si>
-    <t>182.34/360</t>
-  </si>
-  <si>
-    <t>25.96/45</t>
-  </si>
-  <si>
-    <t>21.00/26</t>
-  </si>
-  <si>
-    <t>32.52/93</t>
-  </si>
-  <si>
-    <t>13.00/24</t>
-  </si>
-  <si>
-    <t>12.00/15</t>
-  </si>
-  <si>
-    <t>9.87/17</t>
-  </si>
-  <si>
-    <t>184.01/361</t>
-  </si>
-  <si>
-    <t>27.00/46</t>
-  </si>
-  <si>
-    <t>20.00/47</t>
-  </si>
-  <si>
-    <t>20.96/47</t>
-  </si>
-  <si>
-    <t>32.80/93</t>
-  </si>
-  <si>
-    <t>9.25/17</t>
-  </si>
-  <si>
-    <t>19.00/23</t>
-  </si>
-  <si>
-    <t>GTA1 w/ o3</t>
-  </si>
-  <si>
-    <t>Salesforce &amp; The Australian National University &amp; The University of Hong Kong</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2507.05791</t>
-  </si>
-  <si>
-    <t>Yang et al., '25</t>
-  </si>
-  <si>
     <t>175.42/361</t>
   </si>
   <si>
@@ -1425,6 +1425,36 @@
   </si>
   <si>
     <t>10.93/17</t>
+  </si>
+  <si>
+    <t>gui-owl-7b</t>
+  </si>
+  <si>
+    <t>Tongyi Lab, Alibaba Group</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2508.15144</t>
+  </si>
+  <si>
+    <t>Ye et al., '25</t>
+  </si>
+  <si>
+    <t>115.92/361</t>
+  </si>
+  <si>
+    <t>8.96/47</t>
+  </si>
+  <si>
+    <t>mobile-agent-v3 w/ gui-owl-32b</t>
+  </si>
+  <si>
+    <t>139.70/359</t>
+  </si>
+  <si>
+    <t>22.92/45</t>
+  </si>
+  <si>
+    <t>7.83/17</t>
   </si>
 </sst>
 </file>
@@ -2634,7 +2664,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -6548,7 +6578,7 @@
         <v>26</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="I60" s="10">
         <v>45869</v>
@@ -6557,7 +6587,7 @@
         <v>34.64</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>237</v>
@@ -6566,16 +6596,16 @@
         <v>149</v>
       </c>
       <c r="N60" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>114</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>53</v>
@@ -6584,7 +6614,7 @@
         <v>44</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>46</v>
@@ -6614,7 +6644,7 @@
         <v>26</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="I61" s="10">
         <v>45866</v>
@@ -6623,7 +6653,7 @@
         <v>45.76</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>282</v>
@@ -6632,7 +6662,7 @@
         <v>295</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>111</v>
@@ -6641,7 +6671,7 @@
         <v>46</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>95</v>
@@ -6650,7 +6680,7 @@
         <v>44</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U61" s="3" t="s">
         <v>46</v>
@@ -6659,7 +6689,7 @@
     </row>
     <row r="62" ht="31" spans="1:22">
       <c r="A62" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>342</v>
@@ -6680,7 +6710,7 @@
         <v>26</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="I62" s="10">
         <v>45869</v>
@@ -6689,7 +6719,7 @@
         <v>39</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>237</v>
@@ -6698,16 +6728,16 @@
         <v>170</v>
       </c>
       <c r="N62" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>107</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>43</v>
@@ -6716,7 +6746,7 @@
         <v>44</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>114</v>
@@ -6725,7 +6755,7 @@
     </row>
     <row r="63" ht="31" spans="1:22">
       <c r="A63" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>342</v>
@@ -6746,7 +6776,7 @@
         <v>26</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="I63" s="10">
         <v>45869</v>
@@ -6755,43 +6785,43 @@
         <v>54.2</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>109</v>
       </c>
       <c r="M63" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N63" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="O63" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q63" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="R63" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="R63" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="S63" s="3" t="s">
         <v>131</v>
       </c>
       <c r="T63" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="U63" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="U63" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="V63" s="1"/>
     </row>
     <row r="64" ht="31" spans="1:22">
       <c r="A64" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>342</v>
@@ -6812,7 +6842,7 @@
         <v>26</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="I64" s="10">
         <v>45869</v>
@@ -6821,43 +6851,43 @@
         <v>56</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>109</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S64" s="3" t="s">
         <v>131</v>
       </c>
       <c r="T64" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="U64" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="U64" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="V64" s="1"/>
     </row>
     <row r="65" ht="31" spans="1:22">
       <c r="A65" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>342</v>
@@ -6878,11 +6908,11 @@
         <v>26</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -6899,16 +6929,16 @@
     </row>
     <row r="66" ht="46" spans="1:22">
       <c r="A66" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>345</v>
@@ -6929,10 +6959,10 @@
         <v>26.8</v>
       </c>
       <c r="K66" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>292</v>
@@ -6941,13 +6971,13 @@
         <v>212</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>34</v>
@@ -6956,7 +6986,7 @@
         <v>63</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>137</v>
@@ -6965,16 +6995,16 @@
     </row>
     <row r="67" ht="46" spans="1:22">
       <c r="A67" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>345</v>
@@ -6995,7 +7025,7 @@
         <v>27</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>237</v>
@@ -7007,13 +7037,13 @@
         <v>212</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>34</v>
@@ -7022,7 +7052,7 @@
         <v>35</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U67" s="3" t="s">
         <v>37</v>
@@ -7031,16 +7061,16 @@
     </row>
     <row r="68" ht="46" spans="1:22">
       <c r="A68" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>345</v>
@@ -7061,13 +7091,13 @@
         <v>29.3</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>274</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>87</v>
@@ -7079,7 +7109,7 @@
         <v>173</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>62</v>
@@ -7097,16 +7127,16 @@
     </row>
     <row r="69" ht="46" spans="1:22">
       <c r="A69" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>345</v>
@@ -7127,7 +7157,7 @@
         <v>42.4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>109</v>
@@ -7145,7 +7175,7 @@
         <v>175</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>62</v>
@@ -7154,7 +7184,7 @@
         <v>131</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U69" s="3" t="s">
         <v>114</v>
@@ -7163,16 +7193,16 @@
     </row>
     <row r="70" ht="46" spans="1:22">
       <c r="A70" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>345</v>
@@ -7193,34 +7223,34 @@
         <v>50.6</v>
       </c>
       <c r="K70" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="N70" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>175</v>
       </c>
       <c r="Q70" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="R70" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="R70" s="3" t="s">
+      <c r="S70" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="S70" s="3" t="s">
+      <c r="T70" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="U70" s="3" t="s">
         <v>114</v>
@@ -7229,16 +7259,16 @@
     </row>
     <row r="71" ht="46" spans="1:22">
       <c r="A71" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>345</v>
@@ -7259,52 +7289,52 @@
         <v>51</v>
       </c>
       <c r="K71" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>292</v>
       </c>
       <c r="N71" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>114</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T71" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="U71" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="U71" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="V71" s="1"/>
     </row>
     <row r="72" ht="92" spans="1:22">
       <c r="A72" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>345</v>
@@ -7316,7 +7346,7 @@
         <v>26</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I72" s="10">
         <v>45866</v>
@@ -7334,10 +7364,10 @@
         <v>211</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>411</v>
@@ -7355,22 +7385,22 @@
         <v>414</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V72" s="1"/>
     </row>
     <row r="73" ht="92" spans="1:22">
       <c r="A73" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>345</v>
@@ -7382,7 +7412,7 @@
         <v>26</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I73" s="10">
         <v>45866</v>
@@ -7400,7 +7430,7 @@
         <v>203</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>129</v>
@@ -7448,7 +7478,7 @@
         <v>26</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I74" s="10">
         <v>45873</v>
@@ -7514,7 +7544,7 @@
         <v>26</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I75" s="10">
         <v>45873</v>
@@ -7538,7 +7568,7 @@
         <v>129</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>430</v>
@@ -7580,7 +7610,7 @@
         <v>26</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I76" s="10">
         <v>45873</v>
@@ -7604,13 +7634,13 @@
         <v>435</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>436</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>44</v>
@@ -7645,7 +7675,7 @@
         <v>26</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I77" s="10">
         <v>45873</v>
@@ -7669,13 +7699,13 @@
         <v>435</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>436</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S77" s="3" t="s">
         <v>131</v>
@@ -7692,7 +7722,7 @@
         <v>439</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>440</v>
@@ -7733,7 +7763,7 @@
         <v>439</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>440</v>
@@ -7919,10 +7949,10 @@
         <v>15</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I82" s="15">
         <v>45887</v>
@@ -7955,7 +7985,7 @@
         <v>426</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T82" s="3" t="s">
         <v>461</v>
@@ -7984,10 +8014,10 @@
         <v>50</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="I83" s="15">
         <v>45887</v>
@@ -8005,10 +8035,10 @@
         <v>170</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>137</v>
@@ -8020,7 +8050,7 @@
         <v>426</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>465</v>
@@ -8029,15 +8059,135 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" ht="15.2" spans="7:11">
-      <c r="G84" s="13"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="17"/>
-    </row>
-    <row r="85" ht="15.2" spans="7:11">
-      <c r="G85" s="13"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="17"/>
+    <row r="84" ht="31" spans="1:21">
+      <c r="A84" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="6">
+        <v>15</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="15">
+        <v>45903</v>
+      </c>
+      <c r="J84" s="6">
+        <v>32.11</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" ht="31" spans="1:21">
+      <c r="A85" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F85" s="6">
+        <v>50</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="15">
+        <v>45903</v>
+      </c>
+      <c r="J85" s="6">
+        <v>38.91</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="86" ht="15.2" spans="7:11">
       <c r="G86" s="13"/>
@@ -12918,6 +13068,8 @@
     <hyperlink ref="C81" r:id="rId18" display="http://arxiv.org/abs/2508.04037" tooltip="http://arxiv.org/abs/2508.04037"/>
     <hyperlink ref="C82" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C83" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
+    <hyperlink ref="C84" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
+    <hyperlink ref="C85" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13200"/>
+    <workbookView windowWidth="27660" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Eval Results" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Additional a11y tree used</t>
   </si>
   <si>
-    <t>Additional tool used</t>
+    <t>Additional coding-based action</t>
   </si>
   <si>
     <t>Date</t>
@@ -2664,7 +2664,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="486">
   <si>
     <t>Model</t>
   </si>
@@ -1455,6 +1455,36 @@
   </si>
   <si>
     <t>7.83/17</t>
+  </si>
+  <si>
+    <t>Agentic-Lybic-Maestro</t>
+  </si>
+  <si>
+    <t>Lybic</t>
+  </si>
+  <si>
+    <t>https://lybic.ai/</t>
+  </si>
+  <si>
+    <t>Guo, Zhu et al.</t>
+  </si>
+  <si>
+    <t>205.47/360</t>
+  </si>
+  <si>
+    <t>27.96/46</t>
+  </si>
+  <si>
+    <t>22.00/26</t>
+  </si>
+  <si>
+    <t>27.96/47</t>
+  </si>
+  <si>
+    <t>32.71/92</t>
+  </si>
+  <si>
+    <t>10.84/17</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2224,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -2664,7 +2694,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -8189,10 +8219,70 @@
         <v>404</v>
       </c>
     </row>
-    <row r="86" ht="15.2" spans="7:11">
-      <c r="G86" s="13"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="17"/>
+    <row r="86" ht="31" spans="1:21">
+      <c r="A86" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F86" s="6">
+        <v>50</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I86" s="15">
+        <v>45909</v>
+      </c>
+      <c r="J86" s="6">
+        <v>57.07</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="87" ht="15.2" spans="7:11">
       <c r="G87" s="13"/>
@@ -13070,6 +13160,7 @@
     <hyperlink ref="C83" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C84" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
     <hyperlink ref="C85" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
+    <hyperlink ref="C86" r:id="rId21" display="https://lybic.ai/" tooltip="http://lybic.ai/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="492">
   <si>
     <t>Model</t>
   </si>
@@ -1463,7 +1463,7 @@
     <t>Lybic</t>
   </si>
   <si>
-    <t>https://lybic.ai/</t>
+    <t>https://arxiv.org/abs/2509.11067</t>
   </si>
   <si>
     <t>Guo, Zhu et al.</t>
@@ -1485,6 +1485,24 @@
   </si>
   <si>
     <t>10.84/17</t>
+  </si>
+  <si>
+    <t>uitars-2 (W4A8 quantization)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2509.02544</t>
+  </si>
+  <si>
+    <t>151.06/361</t>
+  </si>
+  <si>
+    <t>25.96/46</t>
+  </si>
+  <si>
+    <t>13.63/93</t>
+  </si>
+  <si>
+    <t>7.48/17</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2712,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -8284,10 +8302,70 @@
         <v>367</v>
       </c>
     </row>
-    <row r="87" ht="15.2" spans="7:11">
-      <c r="G87" s="13"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="17"/>
+    <row r="87" ht="31" spans="1:21">
+      <c r="A87" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="6">
+        <v>100</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="15">
+        <v>45916</v>
+      </c>
+      <c r="J87" s="6">
+        <v>41.84</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="88" ht="15.2" spans="7:11">
       <c r="G88" s="13"/>
@@ -13160,7 +13238,8 @@
     <hyperlink ref="C83" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C84" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
     <hyperlink ref="C85" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
-    <hyperlink ref="C86" r:id="rId21" display="https://lybic.ai/" tooltip="http://lybic.ai/"/>
+    <hyperlink ref="C86" r:id="rId21" display="https://arxiv.org/abs/2509.11067" tooltip="https://arxiv.org/abs/2509.11067"/>
+    <hyperlink ref="C87" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1487,7 +1487,7 @@
     <t>10.84/17</t>
   </si>
   <si>
-    <t>uitars-2 (W4A8 quantization)</t>
+    <t>UI-TARS-250705</t>
   </si>
   <si>
     <t>https://arxiv.org/pdf/2509.02544</t>
@@ -2189,7 +2189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2217,9 +2217,6 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2712,7 +2709,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -2795,7 +2792,7 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" ht="16.75" customHeight="1" spans="1:26">
       <c r="A2" s="3" t="s">
@@ -2861,11 +2858,11 @@
       <c r="U2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" ht="16.75" customHeight="1" spans="1:26">
       <c r="A3" s="3" t="s">
@@ -2931,11 +2928,11 @@
       <c r="U3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" ht="16.75" customHeight="1" spans="1:26">
       <c r="A4" s="3" t="s">
@@ -3001,11 +2998,11 @@
       <c r="U4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" ht="16.75" customHeight="1" spans="1:26">
       <c r="A5" s="3" t="s">
@@ -3071,11 +3068,11 @@
       <c r="U5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" ht="16.75" customHeight="1" spans="1:22">
       <c r="A6" s="3" t="s">
@@ -3115,7 +3112,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="11"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" ht="16.75" customHeight="1" spans="1:22">
       <c r="A7" s="3" t="s">
@@ -3155,7 +3152,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="11"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" ht="16.75" customHeight="1" spans="1:22">
       <c r="A8" s="3" t="s">
@@ -3221,7 +3218,7 @@
       <c r="U8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="11"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" ht="16.75" customHeight="1" spans="1:22">
       <c r="A9" s="3" t="s">
@@ -3287,7 +3284,7 @@
       <c r="U9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="11"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" ht="16.75" customHeight="1" spans="1:22">
       <c r="A10" s="3" t="s">
@@ -3353,7 +3350,7 @@
       <c r="U10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="11"/>
+      <c r="V10" s="3"/>
     </row>
     <row r="11" ht="16.75" customHeight="1" spans="1:22">
       <c r="A11" s="3" t="s">
@@ -3419,7 +3416,7 @@
       <c r="U11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V11" s="11"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" ht="16.75" customHeight="1" spans="1:22">
       <c r="A12" s="3" t="s">
@@ -3485,7 +3482,7 @@
       <c r="U12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="11"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" ht="16.75" customHeight="1" spans="1:22">
       <c r="A13" s="3" t="s">
@@ -3551,7 +3548,7 @@
       <c r="U13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V13" s="11"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" ht="16.75" customHeight="1" spans="1:22">
       <c r="A14" s="3" t="s">
@@ -3617,7 +3614,7 @@
       <c r="U14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V14" s="11"/>
+      <c r="V14" s="3"/>
     </row>
     <row r="15" ht="16.75" customHeight="1" spans="1:22">
       <c r="A15" s="3" t="s">
@@ -3683,7 +3680,7 @@
       <c r="U15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V15" s="11"/>
+      <c r="V15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A16" s="3" t="s">
@@ -3749,14 +3746,14 @@
       <c r="U16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A17" s="3" t="s">
@@ -3822,14 +3819,14 @@
       <c r="U17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
     </row>
     <row r="18" ht="16.75" customHeight="1" spans="1:22">
       <c r="A18" s="3" t="s">
@@ -3895,7 +3892,7 @@
       <c r="U18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V18" s="11"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" ht="16.75" customHeight="1" spans="1:22">
       <c r="A19" s="3" t="s">
@@ -3961,7 +3958,7 @@
       <c r="U19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V19" s="11"/>
+      <c r="V19" s="3"/>
     </row>
     <row r="20" ht="16.75" customHeight="1" spans="1:22">
       <c r="A20" s="3" t="s">
@@ -4027,7 +4024,7 @@
       <c r="U20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V20" s="11"/>
+      <c r="V20" s="3"/>
     </row>
     <row r="21" ht="16.75" customHeight="1" spans="1:22">
       <c r="A21" s="3" t="s">
@@ -4093,7 +4090,7 @@
       <c r="U21" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="V21" s="11"/>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" ht="16.75" customHeight="1" spans="1:22">
       <c r="A22" s="3" t="s">
@@ -4159,7 +4156,7 @@
       <c r="U22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="11"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" ht="16.75" customHeight="1" spans="1:22">
       <c r="A23" s="3" t="s">
@@ -4225,7 +4222,7 @@
       <c r="U23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="11"/>
+      <c r="V23" s="3"/>
     </row>
     <row r="24" ht="16.75" customHeight="1" spans="1:22">
       <c r="A24" s="3" t="s">
@@ -4291,7 +4288,7 @@
       <c r="U24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="3"/>
     </row>
     <row r="25" ht="16.75" customHeight="1" spans="1:22">
       <c r="A25" s="3" t="s">
@@ -4357,7 +4354,7 @@
       <c r="U25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V25" s="11"/>
+      <c r="V25" s="3"/>
     </row>
     <row r="26" ht="16.75" customHeight="1" spans="1:22">
       <c r="A26" s="3" t="s">
@@ -4423,7 +4420,7 @@
       <c r="U26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="11"/>
+      <c r="V26" s="3"/>
     </row>
     <row r="27" ht="16.75" customHeight="1" spans="1:22">
       <c r="A27" s="3" t="s">
@@ -4489,7 +4486,7 @@
       <c r="U27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V27" s="11"/>
+      <c r="V27" s="3"/>
     </row>
     <row r="28" ht="16.75" customHeight="1" spans="1:22">
       <c r="A28" s="3" t="s">
@@ -4555,7 +4552,7 @@
       <c r="U28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="11"/>
+      <c r="V28" s="3"/>
     </row>
     <row r="29" ht="16.75" customHeight="1" spans="1:22">
       <c r="A29" s="3" t="s">
@@ -4621,7 +4618,7 @@
       <c r="U29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V29" s="11"/>
+      <c r="V29" s="3"/>
     </row>
     <row r="30" ht="16.75" customHeight="1" spans="1:22">
       <c r="A30" s="3" t="s">
@@ -4687,7 +4684,7 @@
       <c r="U30" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="V30" s="11"/>
+      <c r="V30" s="3"/>
     </row>
     <row r="31" ht="16.75" customHeight="1" spans="1:22">
       <c r="A31" s="3" t="s">
@@ -4753,7 +4750,7 @@
       <c r="U31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V31" s="11"/>
+      <c r="V31" s="3"/>
     </row>
     <row r="32" ht="16.75" customHeight="1" spans="1:22">
       <c r="A32" s="3" t="s">
@@ -4819,7 +4816,7 @@
       <c r="U32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V32" s="11"/>
+      <c r="V32" s="3"/>
     </row>
     <row r="33" ht="16.75" customHeight="1" spans="1:22">
       <c r="A33" s="3" t="s">
@@ -4885,7 +4882,7 @@
       <c r="U33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V33" s="11"/>
+      <c r="V33" s="3"/>
     </row>
     <row r="34" ht="16.75" customHeight="1" spans="1:22">
       <c r="A34" s="3" t="s">
@@ -4951,7 +4948,7 @@
       <c r="U34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V34" s="11"/>
+      <c r="V34" s="3"/>
     </row>
     <row r="35" ht="16.75" customHeight="1" spans="1:22">
       <c r="A35" s="3" t="s">
@@ -5017,7 +5014,7 @@
       <c r="U35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="3"/>
     </row>
     <row r="36" ht="16.75" customHeight="1" spans="1:22">
       <c r="A36" s="3" t="s">
@@ -5083,7 +5080,7 @@
       <c r="U36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="3"/>
     </row>
     <row r="37" ht="16.75" customHeight="1" spans="1:22">
       <c r="A37" s="3" t="s">
@@ -5149,7 +5146,7 @@
       <c r="U37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V37" s="11"/>
+      <c r="V37" s="3"/>
     </row>
     <row r="38" ht="16.75" customHeight="1" spans="1:22">
       <c r="A38" s="3" t="s">
@@ -5215,7 +5212,7 @@
       <c r="U38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V38" s="11"/>
+      <c r="V38" s="3"/>
     </row>
     <row r="39" ht="16.75" customHeight="1" spans="1:22">
       <c r="A39" s="3" t="s">
@@ -5281,7 +5278,7 @@
       <c r="U39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V39" s="11"/>
+      <c r="V39" s="3"/>
     </row>
     <row r="40" ht="16.75" customHeight="1" spans="1:22">
       <c r="A40" s="3" t="s">
@@ -5347,7 +5344,7 @@
       <c r="U40" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="V40" s="11"/>
+      <c r="V40" s="3"/>
     </row>
     <row r="41" ht="16.75" customHeight="1" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -5413,7 +5410,7 @@
       <c r="U41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V41" s="11"/>
+      <c r="V41" s="3"/>
     </row>
     <row r="42" ht="16.75" customHeight="1" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -5479,7 +5476,7 @@
       <c r="U42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V42" s="11"/>
+      <c r="V42" s="3"/>
     </row>
     <row r="43" ht="16.75" customHeight="1" spans="1:22">
       <c r="A43" s="3" t="s">
@@ -5545,7 +5542,7 @@
       <c r="U43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V43" s="11"/>
+      <c r="V43" s="3"/>
     </row>
     <row r="44" ht="16.75" customHeight="1" spans="1:22">
       <c r="A44" s="3" t="s">
@@ -5611,7 +5608,7 @@
       <c r="U44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V44" s="11"/>
+      <c r="V44" s="3"/>
     </row>
     <row r="45" ht="16.75" customHeight="1" spans="1:22">
       <c r="A45" s="3" t="s">
@@ -5677,7 +5674,7 @@
       <c r="U45" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="V45" s="11"/>
+      <c r="V45" s="3"/>
     </row>
     <row r="46" ht="16.75" customHeight="1" spans="1:22">
       <c r="A46" s="3" t="s">
@@ -5743,7 +5740,7 @@
       <c r="U46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V46" s="11"/>
+      <c r="V46" s="3"/>
     </row>
     <row r="47" ht="16.75" customHeight="1" spans="1:22">
       <c r="A47" s="3" t="s">
@@ -5809,7 +5806,7 @@
       <c r="U47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V47" s="11"/>
+      <c r="V47" s="3"/>
     </row>
     <row r="48" ht="16.75" customHeight="1" spans="1:22">
       <c r="A48" s="3" t="s">
@@ -5875,7 +5872,7 @@
       <c r="U48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V48" s="11"/>
+      <c r="V48" s="3"/>
     </row>
     <row r="49" ht="16.75" customHeight="1" spans="1:22">
       <c r="A49" s="3" t="s">
@@ -5941,7 +5938,7 @@
       <c r="U49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V49" s="11"/>
+      <c r="V49" s="3"/>
     </row>
     <row r="50" ht="16.75" customHeight="1" spans="1:22">
       <c r="A50" s="3" t="s">
@@ -6007,7 +6004,7 @@
       <c r="U50" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="3"/>
     </row>
     <row r="51" ht="16.75" customHeight="1" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -6073,7 +6070,7 @@
       <c r="U51" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V51" s="11"/>
+      <c r="V51" s="3"/>
     </row>
     <row r="52" ht="16.75" customHeight="1" spans="1:22">
       <c r="A52" s="3" t="s">
@@ -6139,7 +6136,7 @@
       <c r="U52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V52" s="11"/>
+      <c r="V52" s="3"/>
     </row>
     <row r="53" ht="16.75" customHeight="1" spans="1:22">
       <c r="A53" s="3" t="s">
@@ -6205,7 +6202,7 @@
       <c r="U53" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="3"/>
     </row>
     <row r="54" ht="16.75" customHeight="1" spans="1:22">
       <c r="A54" s="3" t="s">
@@ -6271,7 +6268,7 @@
       <c r="U54" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="V54" s="11"/>
+      <c r="V54" s="3"/>
     </row>
     <row r="55" ht="16.75" customHeight="1" spans="1:22">
       <c r="A55" s="3" t="s">
@@ -6337,7 +6334,7 @@
       <c r="U55" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="V55" s="11"/>
+      <c r="V55" s="3"/>
     </row>
     <row r="56" ht="16.75" customHeight="1" spans="1:22">
       <c r="A56" s="3" t="s">
@@ -6403,7 +6400,7 @@
       <c r="U56" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="V56" s="11"/>
+      <c r="V56" s="3"/>
     </row>
     <row r="57" ht="16.75" customHeight="1" spans="1:22">
       <c r="A57" s="3" t="s">
@@ -6469,7 +6466,7 @@
       <c r="U57" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V57" s="11"/>
+      <c r="V57" s="3"/>
     </row>
     <row r="58" ht="16.75" customHeight="1" spans="1:22">
       <c r="A58" s="3" t="s">
@@ -6535,7 +6532,7 @@
       <c r="U58" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="V58" s="11"/>
+      <c r="V58" s="3"/>
     </row>
     <row r="59" ht="16.75" customHeight="1" spans="1:22">
       <c r="A59" s="3" t="s">
@@ -6601,7 +6598,7 @@
       <c r="U59" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V59" s="11"/>
+      <c r="V59" s="3"/>
     </row>
     <row r="60" ht="31" spans="1:22">
       <c r="A60" s="3" t="s">
@@ -7510,7 +7507,7 @@
       <c r="B74" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>420</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -7576,7 +7573,7 @@
       <c r="B75" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>420</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -7642,7 +7639,7 @@
       <c r="B76" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>420</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -7707,7 +7704,7 @@
       <c r="B77" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>420</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -7854,7 +7851,7 @@
       <c r="B80" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>444</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -7872,7 +7869,7 @@
       <c r="H80" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I80" s="13">
         <v>45880</v>
       </c>
       <c r="J80" s="6">
@@ -7919,7 +7916,7 @@
       <c r="B81" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>444</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -7937,7 +7934,7 @@
       <c r="H81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I81" s="13">
         <v>45880</v>
       </c>
       <c r="J81" s="6">
@@ -8002,7 +7999,7 @@
       <c r="H82" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I82" s="14">
         <v>45887</v>
       </c>
       <c r="J82" s="6">
@@ -8067,7 +8064,7 @@
       <c r="H83" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="14">
         <v>45887</v>
       </c>
       <c r="J83" s="6">
@@ -8132,7 +8129,7 @@
       <c r="H84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I84" s="15">
+      <c r="I84" s="14">
         <v>45903</v>
       </c>
       <c r="J84" s="6">
@@ -8197,7 +8194,7 @@
       <c r="H85" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I85" s="14">
         <v>45903</v>
       </c>
       <c r="J85" s="6">
@@ -8262,7 +8259,7 @@
       <c r="H86" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I86" s="14">
         <v>45909</v>
       </c>
       <c r="J86" s="6">
@@ -8327,7 +8324,7 @@
       <c r="H87" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I87" s="14">
         <v>45916</v>
       </c>
       <c r="J87" s="6">
@@ -8368,4789 +8365,4789 @@
       </c>
     </row>
     <row r="88" ht="15.2" spans="7:11">
-      <c r="G88" s="13"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="17"/>
+      <c r="G88" s="12"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="16"/>
     </row>
     <row r="89" ht="15.2" spans="7:11">
-      <c r="G89" s="13"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="17"/>
+      <c r="G89" s="12"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="16"/>
     </row>
     <row r="90" ht="15.2" spans="7:11">
-      <c r="G90" s="13"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="17"/>
+      <c r="G90" s="12"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="16"/>
     </row>
     <row r="91" ht="15.2" spans="7:11">
-      <c r="G91" s="13"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="17"/>
+      <c r="G91" s="12"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="16"/>
     </row>
     <row r="92" ht="15.2" spans="7:11">
-      <c r="G92" s="13"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="17"/>
+      <c r="G92" s="12"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="16"/>
     </row>
     <row r="93" ht="15.2" spans="7:11">
-      <c r="G93" s="13"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="17"/>
+      <c r="G93" s="12"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="16"/>
     </row>
     <row r="94" ht="15.2" spans="7:11">
-      <c r="G94" s="13"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="17"/>
+      <c r="G94" s="12"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="16"/>
     </row>
     <row r="95" ht="15.2" spans="7:11">
-      <c r="G95" s="13"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="17"/>
+      <c r="G95" s="12"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="16"/>
     </row>
     <row r="96" ht="15.2" spans="7:11">
-      <c r="G96" s="13"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="17"/>
+      <c r="G96" s="12"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="16"/>
     </row>
     <row r="97" ht="15.2" spans="7:11">
-      <c r="G97" s="13"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="17"/>
+      <c r="G97" s="12"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="16"/>
     </row>
     <row r="98" ht="15.2" spans="7:11">
-      <c r="G98" s="13"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="17"/>
+      <c r="G98" s="12"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="16"/>
     </row>
     <row r="99" ht="15.2" spans="7:11">
-      <c r="G99" s="13"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="17"/>
+      <c r="G99" s="12"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="16"/>
     </row>
     <row r="100" ht="15.2" spans="7:11">
-      <c r="G100" s="13"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="17"/>
+      <c r="G100" s="12"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="16"/>
     </row>
     <row r="101" ht="15.2" spans="7:11">
-      <c r="G101" s="13"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="17"/>
+      <c r="G101" s="12"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="16"/>
     </row>
     <row r="102" ht="15.2" spans="7:11">
-      <c r="G102" s="13"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="17"/>
+      <c r="G102" s="12"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="16"/>
     </row>
     <row r="103" ht="15.2" spans="7:11">
-      <c r="G103" s="13"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="17"/>
+      <c r="G103" s="12"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="16"/>
     </row>
     <row r="104" ht="15.2" spans="7:11">
-      <c r="G104" s="13"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="17"/>
+      <c r="G104" s="12"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="16"/>
     </row>
     <row r="105" ht="15.2" spans="7:11">
-      <c r="G105" s="13"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="17"/>
+      <c r="G105" s="12"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="16"/>
     </row>
     <row r="106" ht="15.2" spans="7:11">
-      <c r="G106" s="13"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="17"/>
+      <c r="G106" s="12"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="16"/>
     </row>
     <row r="107" ht="15.2" spans="7:11">
-      <c r="G107" s="13"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="17"/>
+      <c r="G107" s="12"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="16"/>
     </row>
     <row r="108" ht="15.2" spans="7:11">
-      <c r="G108" s="13"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="17"/>
+      <c r="G108" s="12"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="16"/>
     </row>
     <row r="109" ht="15.2" spans="7:11">
-      <c r="G109" s="13"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="17"/>
+      <c r="G109" s="12"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="16"/>
     </row>
     <row r="110" ht="15.2" spans="7:11">
-      <c r="G110" s="13"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="17"/>
+      <c r="G110" s="12"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="16"/>
     </row>
     <row r="111" ht="15.2" spans="7:11">
-      <c r="G111" s="13"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="17"/>
+      <c r="G111" s="12"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="16"/>
     </row>
     <row r="112" ht="15.2" spans="7:11">
-      <c r="G112" s="13"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="17"/>
+      <c r="G112" s="12"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="16"/>
     </row>
     <row r="113" ht="15.2" spans="7:11">
-      <c r="G113" s="13"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="17"/>
+      <c r="G113" s="12"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="16"/>
     </row>
     <row r="114" ht="15.2" spans="7:11">
-      <c r="G114" s="13"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="17"/>
+      <c r="G114" s="12"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="16"/>
     </row>
     <row r="115" ht="15.2" spans="7:11">
-      <c r="G115" s="13"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="17"/>
+      <c r="G115" s="12"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="16"/>
     </row>
     <row r="116" ht="15.2" spans="7:11">
-      <c r="G116" s="13"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="17"/>
+      <c r="G116" s="12"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="16"/>
     </row>
     <row r="117" ht="15.2" spans="7:11">
-      <c r="G117" s="13"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="17"/>
+      <c r="G117" s="12"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="16"/>
     </row>
     <row r="118" ht="15.2" spans="7:11">
-      <c r="G118" s="13"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="17"/>
+      <c r="G118" s="12"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="16"/>
     </row>
     <row r="119" ht="15.2" spans="7:11">
-      <c r="G119" s="13"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="17"/>
+      <c r="G119" s="12"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="16"/>
     </row>
     <row r="120" ht="15.2" spans="7:11">
-      <c r="G120" s="13"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="17"/>
+      <c r="G120" s="12"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="16"/>
     </row>
     <row r="121" ht="15.2" spans="7:11">
-      <c r="G121" s="13"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="17"/>
+      <c r="G121" s="12"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="16"/>
     </row>
     <row r="122" ht="15.2" spans="7:11">
-      <c r="G122" s="13"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="17"/>
+      <c r="G122" s="12"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="16"/>
     </row>
     <row r="123" ht="15.2" spans="7:11">
-      <c r="G123" s="13"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="17"/>
+      <c r="G123" s="12"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="16"/>
     </row>
     <row r="124" ht="15.2" spans="7:11">
-      <c r="G124" s="13"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="17"/>
+      <c r="G124" s="12"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="16"/>
     </row>
     <row r="125" ht="15.2" spans="7:11">
-      <c r="G125" s="13"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="17"/>
+      <c r="G125" s="12"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="16"/>
     </row>
     <row r="126" ht="15.2" spans="7:11">
-      <c r="G126" s="13"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="17"/>
+      <c r="G126" s="12"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="16"/>
     </row>
     <row r="127" ht="15.2" spans="7:11">
-      <c r="G127" s="13"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="17"/>
+      <c r="G127" s="12"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="16"/>
     </row>
     <row r="128" ht="15.2" spans="7:11">
-      <c r="G128" s="13"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="17"/>
+      <c r="G128" s="12"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="16"/>
     </row>
     <row r="129" ht="15.2" spans="7:11">
-      <c r="G129" s="13"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="17"/>
+      <c r="G129" s="12"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="16"/>
     </row>
     <row r="130" ht="15.2" spans="7:11">
-      <c r="G130" s="13"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="17"/>
+      <c r="G130" s="12"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="16"/>
     </row>
     <row r="131" ht="15.2" spans="7:11">
-      <c r="G131" s="13"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="17"/>
+      <c r="G131" s="12"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="16"/>
     </row>
     <row r="132" ht="15.2" spans="7:11">
-      <c r="G132" s="13"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="17"/>
+      <c r="G132" s="12"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="16"/>
     </row>
     <row r="133" ht="15.2" spans="7:11">
-      <c r="G133" s="13"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="17"/>
+      <c r="G133" s="12"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="16"/>
     </row>
     <row r="134" ht="15.2" spans="7:11">
-      <c r="G134" s="13"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="17"/>
+      <c r="G134" s="12"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="16"/>
     </row>
     <row r="135" ht="15.2" spans="7:11">
-      <c r="G135" s="13"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="17"/>
+      <c r="G135" s="12"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="16"/>
     </row>
     <row r="136" ht="15.2" spans="7:11">
-      <c r="G136" s="13"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="17"/>
+      <c r="G136" s="12"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="16"/>
     </row>
     <row r="137" ht="15.2" spans="7:11">
-      <c r="G137" s="13"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="17"/>
+      <c r="G137" s="12"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="16"/>
     </row>
     <row r="138" ht="15.2" spans="7:11">
-      <c r="G138" s="13"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="17"/>
+      <c r="G138" s="12"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="16"/>
     </row>
     <row r="139" ht="15.2" spans="7:11">
-      <c r="G139" s="13"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="17"/>
+      <c r="G139" s="12"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="16"/>
     </row>
     <row r="140" ht="15.2" spans="7:11">
-      <c r="G140" s="13"/>
-      <c r="J140" s="16"/>
-      <c r="K140" s="17"/>
+      <c r="G140" s="12"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="16"/>
     </row>
     <row r="141" ht="15.2" spans="7:11">
-      <c r="G141" s="13"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="17"/>
+      <c r="G141" s="12"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="16"/>
     </row>
     <row r="142" ht="15.2" spans="7:11">
-      <c r="G142" s="13"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="17"/>
+      <c r="G142" s="12"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="16"/>
     </row>
     <row r="143" ht="15.2" spans="7:11">
-      <c r="G143" s="13"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="17"/>
+      <c r="G143" s="12"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="16"/>
     </row>
     <row r="144" ht="15.2" spans="7:11">
-      <c r="G144" s="13"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="17"/>
+      <c r="G144" s="12"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="16"/>
     </row>
     <row r="145" ht="15.2" spans="7:11">
-      <c r="G145" s="13"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="17"/>
+      <c r="G145" s="12"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="16"/>
     </row>
     <row r="146" ht="15.2" spans="7:11">
-      <c r="G146" s="13"/>
-      <c r="J146" s="16"/>
-      <c r="K146" s="17"/>
+      <c r="G146" s="12"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="16"/>
     </row>
     <row r="147" ht="15.2" spans="7:11">
-      <c r="G147" s="13"/>
-      <c r="J147" s="16"/>
-      <c r="K147" s="17"/>
+      <c r="G147" s="12"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="16"/>
     </row>
     <row r="148" ht="15.2" spans="7:11">
-      <c r="G148" s="13"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="17"/>
+      <c r="G148" s="12"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="16"/>
     </row>
     <row r="149" ht="15.2" spans="7:11">
-      <c r="G149" s="13"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="17"/>
+      <c r="G149" s="12"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="16"/>
     </row>
     <row r="150" ht="15.2" spans="7:11">
-      <c r="G150" s="13"/>
-      <c r="J150" s="16"/>
-      <c r="K150" s="17"/>
+      <c r="G150" s="12"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="16"/>
     </row>
     <row r="151" ht="15.2" spans="7:11">
-      <c r="G151" s="13"/>
-      <c r="J151" s="16"/>
-      <c r="K151" s="17"/>
+      <c r="G151" s="12"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="16"/>
     </row>
     <row r="152" ht="15.2" spans="7:11">
-      <c r="G152" s="13"/>
-      <c r="J152" s="16"/>
-      <c r="K152" s="17"/>
+      <c r="G152" s="12"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="16"/>
     </row>
     <row r="153" ht="15.2" spans="7:11">
-      <c r="G153" s="13"/>
-      <c r="J153" s="16"/>
-      <c r="K153" s="17"/>
+      <c r="G153" s="12"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="16"/>
     </row>
     <row r="154" ht="15.2" spans="7:11">
-      <c r="G154" s="13"/>
-      <c r="J154" s="16"/>
-      <c r="K154" s="17"/>
+      <c r="G154" s="12"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="16"/>
     </row>
     <row r="155" ht="15.2" spans="7:11">
-      <c r="G155" s="13"/>
-      <c r="J155" s="16"/>
-      <c r="K155" s="17"/>
+      <c r="G155" s="12"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="16"/>
     </row>
     <row r="156" ht="15.2" spans="7:11">
-      <c r="G156" s="13"/>
-      <c r="J156" s="16"/>
-      <c r="K156" s="17"/>
+      <c r="G156" s="12"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="16"/>
     </row>
     <row r="157" ht="15.2" spans="7:11">
-      <c r="G157" s="13"/>
-      <c r="J157" s="16"/>
-      <c r="K157" s="17"/>
+      <c r="G157" s="12"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="16"/>
     </row>
     <row r="158" ht="15.2" spans="7:11">
-      <c r="G158" s="13"/>
-      <c r="J158" s="16"/>
-      <c r="K158" s="17"/>
+      <c r="G158" s="12"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="16"/>
     </row>
     <row r="159" ht="15.2" spans="7:11">
-      <c r="G159" s="13"/>
-      <c r="J159" s="16"/>
-      <c r="K159" s="17"/>
+      <c r="G159" s="12"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="16"/>
     </row>
     <row r="160" ht="15.2" spans="7:11">
-      <c r="G160" s="13"/>
-      <c r="J160" s="16"/>
-      <c r="K160" s="17"/>
+      <c r="G160" s="12"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="16"/>
     </row>
     <row r="161" ht="15.2" spans="7:11">
-      <c r="G161" s="13"/>
-      <c r="J161" s="16"/>
-      <c r="K161" s="17"/>
+      <c r="G161" s="12"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="16"/>
     </row>
     <row r="162" ht="15.2" spans="7:11">
-      <c r="G162" s="13"/>
-      <c r="J162" s="16"/>
-      <c r="K162" s="17"/>
+      <c r="G162" s="12"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="16"/>
     </row>
     <row r="163" ht="15.2" spans="7:11">
-      <c r="G163" s="13"/>
-      <c r="J163" s="16"/>
-      <c r="K163" s="17"/>
+      <c r="G163" s="12"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="16"/>
     </row>
     <row r="164" ht="15.2" spans="7:11">
-      <c r="G164" s="13"/>
-      <c r="J164" s="16"/>
-      <c r="K164" s="17"/>
+      <c r="G164" s="12"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="16"/>
     </row>
     <row r="165" ht="15.2" spans="7:11">
-      <c r="G165" s="13"/>
-      <c r="J165" s="16"/>
-      <c r="K165" s="17"/>
+      <c r="G165" s="12"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="16"/>
     </row>
     <row r="166" ht="15.2" spans="7:11">
-      <c r="G166" s="13"/>
-      <c r="J166" s="16"/>
-      <c r="K166" s="17"/>
+      <c r="G166" s="12"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="16"/>
     </row>
     <row r="167" ht="15.2" spans="7:11">
-      <c r="G167" s="13"/>
-      <c r="J167" s="16"/>
-      <c r="K167" s="17"/>
+      <c r="G167" s="12"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="16"/>
     </row>
     <row r="168" ht="15.2" spans="7:11">
-      <c r="G168" s="13"/>
-      <c r="J168" s="16"/>
-      <c r="K168" s="17"/>
+      <c r="G168" s="12"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="16"/>
     </row>
     <row r="169" ht="15.2" spans="7:11">
-      <c r="G169" s="13"/>
-      <c r="J169" s="16"/>
-      <c r="K169" s="17"/>
+      <c r="G169" s="12"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="16"/>
     </row>
     <row r="170" ht="15.2" spans="7:11">
-      <c r="G170" s="13"/>
-      <c r="J170" s="16"/>
-      <c r="K170" s="17"/>
+      <c r="G170" s="12"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="16"/>
     </row>
     <row r="171" ht="15.2" spans="7:11">
-      <c r="G171" s="13"/>
-      <c r="J171" s="16"/>
-      <c r="K171" s="17"/>
+      <c r="G171" s="12"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="16"/>
     </row>
     <row r="172" ht="15.2" spans="7:11">
-      <c r="G172" s="13"/>
-      <c r="J172" s="16"/>
-      <c r="K172" s="17"/>
+      <c r="G172" s="12"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="16"/>
     </row>
     <row r="173" ht="15.2" spans="7:11">
-      <c r="G173" s="13"/>
-      <c r="J173" s="16"/>
-      <c r="K173" s="17"/>
+      <c r="G173" s="12"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="16"/>
     </row>
     <row r="174" ht="15.2" spans="7:11">
-      <c r="G174" s="13"/>
-      <c r="J174" s="16"/>
-      <c r="K174" s="17"/>
+      <c r="G174" s="12"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="16"/>
     </row>
     <row r="175" ht="15.2" spans="7:11">
-      <c r="G175" s="13"/>
-      <c r="J175" s="16"/>
-      <c r="K175" s="17"/>
+      <c r="G175" s="12"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="16"/>
     </row>
     <row r="176" ht="15.2" spans="7:11">
-      <c r="G176" s="13"/>
-      <c r="J176" s="16"/>
-      <c r="K176" s="17"/>
+      <c r="G176" s="12"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="16"/>
     </row>
     <row r="177" ht="15.2" spans="7:11">
-      <c r="G177" s="13"/>
-      <c r="J177" s="16"/>
-      <c r="K177" s="17"/>
+      <c r="G177" s="12"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="16"/>
     </row>
     <row r="178" ht="15.2" spans="7:11">
-      <c r="G178" s="13"/>
-      <c r="J178" s="16"/>
-      <c r="K178" s="17"/>
+      <c r="G178" s="12"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="16"/>
     </row>
     <row r="179" ht="15.2" spans="7:11">
-      <c r="G179" s="13"/>
-      <c r="J179" s="16"/>
-      <c r="K179" s="17"/>
+      <c r="G179" s="12"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="16"/>
     </row>
     <row r="180" ht="15.2" spans="7:11">
-      <c r="G180" s="13"/>
-      <c r="J180" s="16"/>
-      <c r="K180" s="17"/>
+      <c r="G180" s="12"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="16"/>
     </row>
     <row r="181" ht="15.2" spans="7:11">
-      <c r="G181" s="13"/>
-      <c r="J181" s="16"/>
-      <c r="K181" s="17"/>
+      <c r="G181" s="12"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="16"/>
     </row>
     <row r="182" ht="15.2" spans="7:11">
-      <c r="G182" s="13"/>
-      <c r="J182" s="16"/>
-      <c r="K182" s="17"/>
+      <c r="G182" s="12"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="16"/>
     </row>
     <row r="183" ht="15.2" spans="7:11">
-      <c r="G183" s="13"/>
-      <c r="J183" s="16"/>
-      <c r="K183" s="17"/>
+      <c r="G183" s="12"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="16"/>
     </row>
     <row r="184" ht="15.2" spans="7:11">
-      <c r="G184" s="13"/>
-      <c r="J184" s="16"/>
-      <c r="K184" s="17"/>
+      <c r="G184" s="12"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="16"/>
     </row>
     <row r="185" ht="15.2" spans="7:11">
-      <c r="G185" s="13"/>
-      <c r="J185" s="16"/>
-      <c r="K185" s="17"/>
+      <c r="G185" s="12"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="16"/>
     </row>
     <row r="186" ht="15.2" spans="7:11">
-      <c r="G186" s="13"/>
-      <c r="J186" s="16"/>
-      <c r="K186" s="17"/>
+      <c r="G186" s="12"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="16"/>
     </row>
     <row r="187" ht="15.2" spans="7:11">
-      <c r="G187" s="13"/>
-      <c r="J187" s="16"/>
-      <c r="K187" s="17"/>
+      <c r="G187" s="12"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="16"/>
     </row>
     <row r="188" ht="15.2" spans="7:11">
-      <c r="G188" s="13"/>
-      <c r="J188" s="16"/>
-      <c r="K188" s="17"/>
+      <c r="G188" s="12"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="16"/>
     </row>
     <row r="189" ht="15.2" spans="7:11">
-      <c r="G189" s="13"/>
-      <c r="J189" s="16"/>
-      <c r="K189" s="17"/>
+      <c r="G189" s="12"/>
+      <c r="J189" s="15"/>
+      <c r="K189" s="16"/>
     </row>
     <row r="190" ht="15.2" spans="7:11">
-      <c r="G190" s="13"/>
-      <c r="J190" s="16"/>
-      <c r="K190" s="17"/>
+      <c r="G190" s="12"/>
+      <c r="J190" s="15"/>
+      <c r="K190" s="16"/>
     </row>
     <row r="191" ht="15.2" spans="7:11">
-      <c r="G191" s="13"/>
-      <c r="J191" s="16"/>
-      <c r="K191" s="17"/>
+      <c r="G191" s="12"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="16"/>
     </row>
     <row r="192" ht="15.2" spans="7:11">
-      <c r="G192" s="13"/>
-      <c r="J192" s="16"/>
-      <c r="K192" s="17"/>
+      <c r="G192" s="12"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="16"/>
     </row>
     <row r="193" ht="15.2" spans="7:11">
-      <c r="G193" s="13"/>
-      <c r="J193" s="16"/>
-      <c r="K193" s="17"/>
+      <c r="G193" s="12"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="16"/>
     </row>
     <row r="194" ht="15.2" spans="7:11">
-      <c r="G194" s="13"/>
-      <c r="J194" s="16"/>
-      <c r="K194" s="17"/>
+      <c r="G194" s="12"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="16"/>
     </row>
     <row r="195" ht="15.2" spans="7:11">
-      <c r="G195" s="13"/>
-      <c r="J195" s="16"/>
-      <c r="K195" s="17"/>
+      <c r="G195" s="12"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="16"/>
     </row>
     <row r="196" ht="15.2" spans="7:11">
-      <c r="G196" s="13"/>
-      <c r="J196" s="16"/>
-      <c r="K196" s="17"/>
+      <c r="G196" s="12"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="16"/>
     </row>
     <row r="197" ht="15.2" spans="7:11">
-      <c r="G197" s="13"/>
-      <c r="J197" s="16"/>
-      <c r="K197" s="17"/>
+      <c r="G197" s="12"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="16"/>
     </row>
     <row r="198" ht="15.2" spans="7:11">
-      <c r="G198" s="13"/>
-      <c r="J198" s="16"/>
-      <c r="K198" s="17"/>
+      <c r="G198" s="12"/>
+      <c r="J198" s="15"/>
+      <c r="K198" s="16"/>
     </row>
     <row r="199" ht="15.2" spans="7:11">
-      <c r="G199" s="13"/>
-      <c r="J199" s="16"/>
-      <c r="K199" s="17"/>
+      <c r="G199" s="12"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="16"/>
     </row>
     <row r="200" ht="15.2" spans="7:11">
-      <c r="G200" s="13"/>
-      <c r="J200" s="16"/>
-      <c r="K200" s="17"/>
+      <c r="G200" s="12"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="16"/>
     </row>
     <row r="201" ht="15.2" spans="7:11">
-      <c r="G201" s="13"/>
-      <c r="J201" s="16"/>
-      <c r="K201" s="17"/>
+      <c r="G201" s="12"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="16"/>
     </row>
     <row r="202" ht="15.2" spans="7:11">
-      <c r="G202" s="13"/>
-      <c r="J202" s="16"/>
-      <c r="K202" s="17"/>
+      <c r="G202" s="12"/>
+      <c r="J202" s="15"/>
+      <c r="K202" s="16"/>
     </row>
     <row r="203" ht="15.2" spans="7:11">
-      <c r="G203" s="13"/>
-      <c r="J203" s="16"/>
-      <c r="K203" s="17"/>
+      <c r="G203" s="12"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="16"/>
     </row>
     <row r="204" ht="15.2" spans="7:11">
-      <c r="G204" s="13"/>
-      <c r="J204" s="16"/>
-      <c r="K204" s="17"/>
+      <c r="G204" s="12"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="16"/>
     </row>
     <row r="205" ht="15.2" spans="7:11">
-      <c r="G205" s="13"/>
-      <c r="J205" s="16"/>
-      <c r="K205" s="17"/>
+      <c r="G205" s="12"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="16"/>
     </row>
     <row r="206" ht="15.2" spans="7:11">
-      <c r="G206" s="13"/>
-      <c r="J206" s="16"/>
-      <c r="K206" s="17"/>
+      <c r="G206" s="12"/>
+      <c r="J206" s="15"/>
+      <c r="K206" s="16"/>
     </row>
     <row r="207" ht="15.2" spans="7:11">
-      <c r="G207" s="13"/>
-      <c r="J207" s="16"/>
-      <c r="K207" s="17"/>
+      <c r="G207" s="12"/>
+      <c r="J207" s="15"/>
+      <c r="K207" s="16"/>
     </row>
     <row r="208" ht="15.2" spans="7:11">
-      <c r="G208" s="13"/>
-      <c r="J208" s="16"/>
-      <c r="K208" s="17"/>
+      <c r="G208" s="12"/>
+      <c r="J208" s="15"/>
+      <c r="K208" s="16"/>
     </row>
     <row r="209" ht="15.2" spans="7:11">
-      <c r="G209" s="13"/>
-      <c r="J209" s="16"/>
-      <c r="K209" s="17"/>
+      <c r="G209" s="12"/>
+      <c r="J209" s="15"/>
+      <c r="K209" s="16"/>
     </row>
     <row r="210" ht="15.2" spans="7:11">
-      <c r="G210" s="13"/>
-      <c r="J210" s="16"/>
-      <c r="K210" s="17"/>
+      <c r="G210" s="12"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="16"/>
     </row>
     <row r="211" ht="15.2" spans="7:11">
-      <c r="G211" s="13"/>
-      <c r="J211" s="16"/>
-      <c r="K211" s="17"/>
+      <c r="G211" s="12"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="16"/>
     </row>
     <row r="212" ht="15.2" spans="7:11">
-      <c r="G212" s="13"/>
-      <c r="J212" s="16"/>
-      <c r="K212" s="17"/>
+      <c r="G212" s="12"/>
+      <c r="J212" s="15"/>
+      <c r="K212" s="16"/>
     </row>
     <row r="213" ht="15.2" spans="7:11">
-      <c r="G213" s="13"/>
-      <c r="J213" s="16"/>
-      <c r="K213" s="17"/>
+      <c r="G213" s="12"/>
+      <c r="J213" s="15"/>
+      <c r="K213" s="16"/>
     </row>
     <row r="214" ht="15.2" spans="7:11">
-      <c r="G214" s="13"/>
-      <c r="J214" s="16"/>
-      <c r="K214" s="17"/>
+      <c r="G214" s="12"/>
+      <c r="J214" s="15"/>
+      <c r="K214" s="16"/>
     </row>
     <row r="215" ht="15.2" spans="7:11">
-      <c r="G215" s="13"/>
-      <c r="J215" s="16"/>
-      <c r="K215" s="17"/>
+      <c r="G215" s="12"/>
+      <c r="J215" s="15"/>
+      <c r="K215" s="16"/>
     </row>
     <row r="216" ht="15.2" spans="7:11">
-      <c r="G216" s="13"/>
-      <c r="J216" s="16"/>
-      <c r="K216" s="17"/>
+      <c r="G216" s="12"/>
+      <c r="J216" s="15"/>
+      <c r="K216" s="16"/>
     </row>
     <row r="217" ht="15.2" spans="7:11">
-      <c r="G217" s="13"/>
-      <c r="J217" s="16"/>
-      <c r="K217" s="17"/>
+      <c r="G217" s="12"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="16"/>
     </row>
     <row r="218" ht="15.2" spans="7:11">
-      <c r="G218" s="13"/>
-      <c r="J218" s="16"/>
-      <c r="K218" s="17"/>
+      <c r="G218" s="12"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="16"/>
     </row>
     <row r="219" ht="15.2" spans="7:11">
-      <c r="G219" s="13"/>
-      <c r="J219" s="16"/>
-      <c r="K219" s="17"/>
+      <c r="G219" s="12"/>
+      <c r="J219" s="15"/>
+      <c r="K219" s="16"/>
     </row>
     <row r="220" ht="15.2" spans="7:11">
-      <c r="G220" s="13"/>
-      <c r="J220" s="16"/>
-      <c r="K220" s="17"/>
+      <c r="G220" s="12"/>
+      <c r="J220" s="15"/>
+      <c r="K220" s="16"/>
     </row>
     <row r="221" ht="15.2" spans="7:11">
-      <c r="G221" s="13"/>
-      <c r="J221" s="16"/>
-      <c r="K221" s="17"/>
+      <c r="G221" s="12"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="16"/>
     </row>
     <row r="222" ht="15.2" spans="7:11">
-      <c r="G222" s="13"/>
-      <c r="J222" s="16"/>
-      <c r="K222" s="17"/>
+      <c r="G222" s="12"/>
+      <c r="J222" s="15"/>
+      <c r="K222" s="16"/>
     </row>
     <row r="223" ht="15.2" spans="7:11">
-      <c r="G223" s="13"/>
-      <c r="J223" s="16"/>
-      <c r="K223" s="17"/>
+      <c r="G223" s="12"/>
+      <c r="J223" s="15"/>
+      <c r="K223" s="16"/>
     </row>
     <row r="224" ht="15.2" spans="7:11">
-      <c r="G224" s="13"/>
-      <c r="J224" s="16"/>
-      <c r="K224" s="17"/>
+      <c r="G224" s="12"/>
+      <c r="J224" s="15"/>
+      <c r="K224" s="16"/>
     </row>
     <row r="225" ht="15.2" spans="7:11">
-      <c r="G225" s="13"/>
-      <c r="J225" s="16"/>
-      <c r="K225" s="17"/>
+      <c r="G225" s="12"/>
+      <c r="J225" s="15"/>
+      <c r="K225" s="16"/>
     </row>
     <row r="226" ht="15.2" spans="7:11">
-      <c r="G226" s="13"/>
-      <c r="J226" s="16"/>
-      <c r="K226" s="17"/>
+      <c r="G226" s="12"/>
+      <c r="J226" s="15"/>
+      <c r="K226" s="16"/>
     </row>
     <row r="227" ht="15.2" spans="7:11">
-      <c r="G227" s="13"/>
-      <c r="J227" s="16"/>
-      <c r="K227" s="17"/>
+      <c r="G227" s="12"/>
+      <c r="J227" s="15"/>
+      <c r="K227" s="16"/>
     </row>
     <row r="228" ht="15.2" spans="7:11">
-      <c r="G228" s="13"/>
-      <c r="J228" s="16"/>
-      <c r="K228" s="17"/>
+      <c r="G228" s="12"/>
+      <c r="J228" s="15"/>
+      <c r="K228" s="16"/>
     </row>
     <row r="229" ht="15.2" spans="7:11">
-      <c r="G229" s="13"/>
-      <c r="J229" s="16"/>
-      <c r="K229" s="17"/>
+      <c r="G229" s="12"/>
+      <c r="J229" s="15"/>
+      <c r="K229" s="16"/>
     </row>
     <row r="230" ht="15.2" spans="7:11">
-      <c r="G230" s="13"/>
-      <c r="J230" s="16"/>
-      <c r="K230" s="17"/>
+      <c r="G230" s="12"/>
+      <c r="J230" s="15"/>
+      <c r="K230" s="16"/>
     </row>
     <row r="231" ht="15.2" spans="7:11">
-      <c r="G231" s="13"/>
-      <c r="J231" s="16"/>
-      <c r="K231" s="17"/>
+      <c r="G231" s="12"/>
+      <c r="J231" s="15"/>
+      <c r="K231" s="16"/>
     </row>
     <row r="232" ht="15.2" spans="7:11">
-      <c r="G232" s="13"/>
-      <c r="J232" s="16"/>
-      <c r="K232" s="17"/>
+      <c r="G232" s="12"/>
+      <c r="J232" s="15"/>
+      <c r="K232" s="16"/>
     </row>
     <row r="233" ht="15.2" spans="7:11">
-      <c r="G233" s="13"/>
-      <c r="J233" s="16"/>
-      <c r="K233" s="17"/>
+      <c r="G233" s="12"/>
+      <c r="J233" s="15"/>
+      <c r="K233" s="16"/>
     </row>
     <row r="234" ht="15.2" spans="7:11">
-      <c r="G234" s="13"/>
-      <c r="J234" s="16"/>
-      <c r="K234" s="17"/>
+      <c r="G234" s="12"/>
+      <c r="J234" s="15"/>
+      <c r="K234" s="16"/>
     </row>
     <row r="235" ht="15.2" spans="7:11">
-      <c r="G235" s="13"/>
-      <c r="J235" s="16"/>
-      <c r="K235" s="17"/>
+      <c r="G235" s="12"/>
+      <c r="J235" s="15"/>
+      <c r="K235" s="16"/>
     </row>
     <row r="236" ht="15.2" spans="7:11">
-      <c r="G236" s="13"/>
-      <c r="J236" s="16"/>
-      <c r="K236" s="17"/>
+      <c r="G236" s="12"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="16"/>
     </row>
     <row r="237" ht="15.2" spans="7:11">
-      <c r="G237" s="13"/>
-      <c r="J237" s="16"/>
-      <c r="K237" s="17"/>
+      <c r="G237" s="12"/>
+      <c r="J237" s="15"/>
+      <c r="K237" s="16"/>
     </row>
     <row r="238" ht="15.2" spans="7:11">
-      <c r="G238" s="13"/>
-      <c r="J238" s="16"/>
-      <c r="K238" s="17"/>
+      <c r="G238" s="12"/>
+      <c r="J238" s="15"/>
+      <c r="K238" s="16"/>
     </row>
     <row r="239" ht="15.2" spans="7:11">
-      <c r="G239" s="13"/>
-      <c r="J239" s="16"/>
-      <c r="K239" s="17"/>
+      <c r="G239" s="12"/>
+      <c r="J239" s="15"/>
+      <c r="K239" s="16"/>
     </row>
     <row r="240" ht="15.2" spans="7:11">
-      <c r="G240" s="13"/>
-      <c r="J240" s="16"/>
-      <c r="K240" s="17"/>
+      <c r="G240" s="12"/>
+      <c r="J240" s="15"/>
+      <c r="K240" s="16"/>
     </row>
     <row r="241" ht="15.2" spans="7:11">
-      <c r="G241" s="13"/>
-      <c r="J241" s="16"/>
-      <c r="K241" s="17"/>
+      <c r="G241" s="12"/>
+      <c r="J241" s="15"/>
+      <c r="K241" s="16"/>
     </row>
     <row r="242" ht="15.2" spans="7:11">
-      <c r="G242" s="13"/>
-      <c r="J242" s="16"/>
-      <c r="K242" s="17"/>
+      <c r="G242" s="12"/>
+      <c r="J242" s="15"/>
+      <c r="K242" s="16"/>
     </row>
     <row r="243" ht="15.2" spans="7:11">
-      <c r="G243" s="13"/>
-      <c r="J243" s="16"/>
-      <c r="K243" s="17"/>
+      <c r="G243" s="12"/>
+      <c r="J243" s="15"/>
+      <c r="K243" s="16"/>
     </row>
     <row r="244" ht="15.2" spans="7:11">
-      <c r="G244" s="13"/>
-      <c r="J244" s="16"/>
-      <c r="K244" s="17"/>
+      <c r="G244" s="12"/>
+      <c r="J244" s="15"/>
+      <c r="K244" s="16"/>
     </row>
     <row r="245" ht="15.2" spans="7:11">
-      <c r="G245" s="13"/>
-      <c r="J245" s="16"/>
-      <c r="K245" s="17"/>
+      <c r="G245" s="12"/>
+      <c r="J245" s="15"/>
+      <c r="K245" s="16"/>
     </row>
     <row r="246" ht="15.2" spans="7:11">
-      <c r="G246" s="13"/>
-      <c r="J246" s="16"/>
-      <c r="K246" s="17"/>
+      <c r="G246" s="12"/>
+      <c r="J246" s="15"/>
+      <c r="K246" s="16"/>
     </row>
     <row r="247" ht="15.2" spans="7:11">
-      <c r="G247" s="13"/>
-      <c r="J247" s="16"/>
-      <c r="K247" s="17"/>
+      <c r="G247" s="12"/>
+      <c r="J247" s="15"/>
+      <c r="K247" s="16"/>
     </row>
     <row r="248" ht="15.2" spans="7:11">
-      <c r="G248" s="13"/>
-      <c r="J248" s="16"/>
-      <c r="K248" s="17"/>
+      <c r="G248" s="12"/>
+      <c r="J248" s="15"/>
+      <c r="K248" s="16"/>
     </row>
     <row r="249" ht="15.2" spans="7:11">
-      <c r="G249" s="13"/>
-      <c r="J249" s="16"/>
-      <c r="K249" s="17"/>
+      <c r="G249" s="12"/>
+      <c r="J249" s="15"/>
+      <c r="K249" s="16"/>
     </row>
     <row r="250" ht="15.2" spans="7:11">
-      <c r="G250" s="13"/>
-      <c r="J250" s="16"/>
-      <c r="K250" s="17"/>
+      <c r="G250" s="12"/>
+      <c r="J250" s="15"/>
+      <c r="K250" s="16"/>
     </row>
     <row r="251" ht="15.2" spans="7:11">
-      <c r="G251" s="13"/>
-      <c r="J251" s="16"/>
-      <c r="K251" s="17"/>
+      <c r="G251" s="12"/>
+      <c r="J251" s="15"/>
+      <c r="K251" s="16"/>
     </row>
     <row r="252" ht="15.2" spans="7:11">
-      <c r="G252" s="13"/>
-      <c r="J252" s="16"/>
-      <c r="K252" s="17"/>
+      <c r="G252" s="12"/>
+      <c r="J252" s="15"/>
+      <c r="K252" s="16"/>
     </row>
     <row r="253" ht="15.2" spans="7:11">
-      <c r="G253" s="13"/>
-      <c r="J253" s="16"/>
-      <c r="K253" s="17"/>
+      <c r="G253" s="12"/>
+      <c r="J253" s="15"/>
+      <c r="K253" s="16"/>
     </row>
     <row r="254" ht="15.2" spans="7:11">
-      <c r="G254" s="13"/>
-      <c r="J254" s="16"/>
-      <c r="K254" s="17"/>
+      <c r="G254" s="12"/>
+      <c r="J254" s="15"/>
+      <c r="K254" s="16"/>
     </row>
     <row r="255" ht="15.2" spans="7:11">
-      <c r="G255" s="13"/>
-      <c r="J255" s="16"/>
-      <c r="K255" s="17"/>
+      <c r="G255" s="12"/>
+      <c r="J255" s="15"/>
+      <c r="K255" s="16"/>
     </row>
     <row r="256" ht="15.2" spans="7:11">
-      <c r="G256" s="13"/>
-      <c r="J256" s="16"/>
-      <c r="K256" s="17"/>
+      <c r="G256" s="12"/>
+      <c r="J256" s="15"/>
+      <c r="K256" s="16"/>
     </row>
     <row r="257" ht="15.2" spans="7:11">
-      <c r="G257" s="13"/>
-      <c r="J257" s="16"/>
-      <c r="K257" s="17"/>
+      <c r="G257" s="12"/>
+      <c r="J257" s="15"/>
+      <c r="K257" s="16"/>
     </row>
     <row r="258" ht="15.2" spans="7:11">
-      <c r="G258" s="13"/>
-      <c r="J258" s="16"/>
-      <c r="K258" s="17"/>
+      <c r="G258" s="12"/>
+      <c r="J258" s="15"/>
+      <c r="K258" s="16"/>
     </row>
     <row r="259" ht="15.2" spans="7:11">
-      <c r="G259" s="13"/>
-      <c r="J259" s="16"/>
-      <c r="K259" s="17"/>
+      <c r="G259" s="12"/>
+      <c r="J259" s="15"/>
+      <c r="K259" s="16"/>
     </row>
     <row r="260" ht="15.2" spans="7:11">
-      <c r="G260" s="13"/>
-      <c r="J260" s="16"/>
-      <c r="K260" s="17"/>
+      <c r="G260" s="12"/>
+      <c r="J260" s="15"/>
+      <c r="K260" s="16"/>
     </row>
     <row r="261" ht="15.2" spans="7:11">
-      <c r="G261" s="13"/>
-      <c r="J261" s="16"/>
-      <c r="K261" s="17"/>
+      <c r="G261" s="12"/>
+      <c r="J261" s="15"/>
+      <c r="K261" s="16"/>
     </row>
     <row r="262" ht="15.2" spans="7:11">
-      <c r="G262" s="13"/>
-      <c r="J262" s="16"/>
-      <c r="K262" s="17"/>
+      <c r="G262" s="12"/>
+      <c r="J262" s="15"/>
+      <c r="K262" s="16"/>
     </row>
     <row r="263" ht="15.2" spans="7:11">
-      <c r="G263" s="13"/>
-      <c r="J263" s="16"/>
-      <c r="K263" s="17"/>
+      <c r="G263" s="12"/>
+      <c r="J263" s="15"/>
+      <c r="K263" s="16"/>
     </row>
     <row r="264" ht="15.2" spans="7:11">
-      <c r="G264" s="13"/>
-      <c r="J264" s="16"/>
-      <c r="K264" s="17"/>
+      <c r="G264" s="12"/>
+      <c r="J264" s="15"/>
+      <c r="K264" s="16"/>
     </row>
     <row r="265" ht="15.2" spans="7:11">
-      <c r="G265" s="13"/>
-      <c r="J265" s="16"/>
-      <c r="K265" s="17"/>
+      <c r="G265" s="12"/>
+      <c r="J265" s="15"/>
+      <c r="K265" s="16"/>
     </row>
     <row r="266" ht="15.2" spans="7:11">
-      <c r="G266" s="13"/>
-      <c r="J266" s="16"/>
-      <c r="K266" s="17"/>
+      <c r="G266" s="12"/>
+      <c r="J266" s="15"/>
+      <c r="K266" s="16"/>
     </row>
     <row r="267" ht="15.2" spans="7:11">
-      <c r="G267" s="13"/>
-      <c r="J267" s="16"/>
-      <c r="K267" s="17"/>
+      <c r="G267" s="12"/>
+      <c r="J267" s="15"/>
+      <c r="K267" s="16"/>
     </row>
     <row r="268" ht="15.2" spans="7:11">
-      <c r="G268" s="13"/>
-      <c r="J268" s="16"/>
-      <c r="K268" s="17"/>
+      <c r="G268" s="12"/>
+      <c r="J268" s="15"/>
+      <c r="K268" s="16"/>
     </row>
     <row r="269" ht="15.2" spans="7:11">
-      <c r="G269" s="13"/>
-      <c r="J269" s="16"/>
-      <c r="K269" s="17"/>
+      <c r="G269" s="12"/>
+      <c r="J269" s="15"/>
+      <c r="K269" s="16"/>
     </row>
     <row r="270" ht="15.2" spans="7:11">
-      <c r="G270" s="13"/>
-      <c r="J270" s="16"/>
-      <c r="K270" s="17"/>
+      <c r="G270" s="12"/>
+      <c r="J270" s="15"/>
+      <c r="K270" s="16"/>
     </row>
     <row r="271" ht="15.2" spans="7:11">
-      <c r="G271" s="13"/>
-      <c r="J271" s="16"/>
-      <c r="K271" s="17"/>
+      <c r="G271" s="12"/>
+      <c r="J271" s="15"/>
+      <c r="K271" s="16"/>
     </row>
     <row r="272" ht="15.2" spans="7:11">
-      <c r="G272" s="13"/>
-      <c r="J272" s="16"/>
-      <c r="K272" s="17"/>
+      <c r="G272" s="12"/>
+      <c r="J272" s="15"/>
+      <c r="K272" s="16"/>
     </row>
     <row r="273" ht="15.2" spans="7:11">
-      <c r="G273" s="13"/>
-      <c r="J273" s="16"/>
-      <c r="K273" s="17"/>
+      <c r="G273" s="12"/>
+      <c r="J273" s="15"/>
+      <c r="K273" s="16"/>
     </row>
     <row r="274" ht="15.2" spans="7:11">
-      <c r="G274" s="13"/>
-      <c r="J274" s="16"/>
-      <c r="K274" s="17"/>
+      <c r="G274" s="12"/>
+      <c r="J274" s="15"/>
+      <c r="K274" s="16"/>
     </row>
     <row r="275" ht="15.2" spans="7:11">
-      <c r="G275" s="13"/>
-      <c r="J275" s="16"/>
-      <c r="K275" s="17"/>
+      <c r="G275" s="12"/>
+      <c r="J275" s="15"/>
+      <c r="K275" s="16"/>
     </row>
     <row r="276" ht="15.2" spans="7:11">
-      <c r="G276" s="13"/>
-      <c r="J276" s="16"/>
-      <c r="K276" s="17"/>
+      <c r="G276" s="12"/>
+      <c r="J276" s="15"/>
+      <c r="K276" s="16"/>
     </row>
     <row r="277" ht="15.2" spans="7:11">
-      <c r="G277" s="13"/>
-      <c r="J277" s="16"/>
-      <c r="K277" s="17"/>
+      <c r="G277" s="12"/>
+      <c r="J277" s="15"/>
+      <c r="K277" s="16"/>
     </row>
     <row r="278" ht="15.2" spans="7:11">
-      <c r="G278" s="13"/>
-      <c r="J278" s="16"/>
-      <c r="K278" s="17"/>
+      <c r="G278" s="12"/>
+      <c r="J278" s="15"/>
+      <c r="K278" s="16"/>
     </row>
     <row r="279" ht="15.2" spans="7:11">
-      <c r="G279" s="13"/>
-      <c r="J279" s="16"/>
-      <c r="K279" s="17"/>
+      <c r="G279" s="12"/>
+      <c r="J279" s="15"/>
+      <c r="K279" s="16"/>
     </row>
     <row r="280" ht="15.2" spans="7:11">
-      <c r="G280" s="13"/>
-      <c r="J280" s="16"/>
-      <c r="K280" s="17"/>
+      <c r="G280" s="12"/>
+      <c r="J280" s="15"/>
+      <c r="K280" s="16"/>
     </row>
     <row r="281" ht="15.2" spans="7:11">
-      <c r="G281" s="13"/>
-      <c r="J281" s="16"/>
-      <c r="K281" s="17"/>
+      <c r="G281" s="12"/>
+      <c r="J281" s="15"/>
+      <c r="K281" s="16"/>
     </row>
     <row r="282" ht="15.2" spans="7:11">
-      <c r="G282" s="13"/>
-      <c r="J282" s="16"/>
-      <c r="K282" s="17"/>
+      <c r="G282" s="12"/>
+      <c r="J282" s="15"/>
+      <c r="K282" s="16"/>
     </row>
     <row r="283" ht="15.2" spans="7:11">
-      <c r="G283" s="13"/>
-      <c r="J283" s="16"/>
-      <c r="K283" s="17"/>
+      <c r="G283" s="12"/>
+      <c r="J283" s="15"/>
+      <c r="K283" s="16"/>
     </row>
     <row r="284" ht="15.2" spans="7:11">
-      <c r="G284" s="13"/>
-      <c r="J284" s="16"/>
-      <c r="K284" s="17"/>
+      <c r="G284" s="12"/>
+      <c r="J284" s="15"/>
+      <c r="K284" s="16"/>
     </row>
     <row r="285" ht="15.2" spans="7:11">
-      <c r="G285" s="13"/>
-      <c r="J285" s="16"/>
-      <c r="K285" s="17"/>
+      <c r="G285" s="12"/>
+      <c r="J285" s="15"/>
+      <c r="K285" s="16"/>
     </row>
     <row r="286" ht="15.2" spans="7:11">
-      <c r="G286" s="13"/>
-      <c r="J286" s="16"/>
-      <c r="K286" s="17"/>
+      <c r="G286" s="12"/>
+      <c r="J286" s="15"/>
+      <c r="K286" s="16"/>
     </row>
     <row r="287" ht="15.2" spans="7:11">
-      <c r="G287" s="13"/>
-      <c r="J287" s="16"/>
-      <c r="K287" s="17"/>
+      <c r="G287" s="12"/>
+      <c r="J287" s="15"/>
+      <c r="K287" s="16"/>
     </row>
     <row r="288" ht="15.2" spans="7:11">
-      <c r="G288" s="13"/>
-      <c r="J288" s="16"/>
-      <c r="K288" s="17"/>
+      <c r="G288" s="12"/>
+      <c r="J288" s="15"/>
+      <c r="K288" s="16"/>
     </row>
     <row r="289" ht="15.2" spans="7:11">
-      <c r="G289" s="13"/>
-      <c r="J289" s="16"/>
-      <c r="K289" s="17"/>
+      <c r="G289" s="12"/>
+      <c r="J289" s="15"/>
+      <c r="K289" s="16"/>
     </row>
     <row r="290" ht="15.2" spans="7:11">
-      <c r="G290" s="13"/>
-      <c r="J290" s="16"/>
-      <c r="K290" s="17"/>
+      <c r="G290" s="12"/>
+      <c r="J290" s="15"/>
+      <c r="K290" s="16"/>
     </row>
     <row r="291" ht="15.2" spans="7:11">
-      <c r="G291" s="13"/>
-      <c r="J291" s="16"/>
-      <c r="K291" s="17"/>
+      <c r="G291" s="12"/>
+      <c r="J291" s="15"/>
+      <c r="K291" s="16"/>
     </row>
     <row r="292" ht="15.2" spans="7:11">
-      <c r="G292" s="13"/>
-      <c r="J292" s="16"/>
-      <c r="K292" s="17"/>
+      <c r="G292" s="12"/>
+      <c r="J292" s="15"/>
+      <c r="K292" s="16"/>
     </row>
     <row r="293" ht="15.2" spans="7:11">
-      <c r="G293" s="13"/>
-      <c r="J293" s="16"/>
-      <c r="K293" s="17"/>
+      <c r="G293" s="12"/>
+      <c r="J293" s="15"/>
+      <c r="K293" s="16"/>
     </row>
     <row r="294" ht="15.2" spans="7:11">
-      <c r="G294" s="13"/>
-      <c r="J294" s="16"/>
-      <c r="K294" s="17"/>
+      <c r="G294" s="12"/>
+      <c r="J294" s="15"/>
+      <c r="K294" s="16"/>
     </row>
     <row r="295" ht="15.2" spans="7:11">
-      <c r="G295" s="13"/>
-      <c r="J295" s="16"/>
-      <c r="K295" s="17"/>
+      <c r="G295" s="12"/>
+      <c r="J295" s="15"/>
+      <c r="K295" s="16"/>
     </row>
     <row r="296" ht="15.2" spans="7:11">
-      <c r="G296" s="13"/>
-      <c r="J296" s="16"/>
-      <c r="K296" s="17"/>
+      <c r="G296" s="12"/>
+      <c r="J296" s="15"/>
+      <c r="K296" s="16"/>
     </row>
     <row r="297" ht="15.2" spans="7:11">
-      <c r="G297" s="13"/>
-      <c r="J297" s="16"/>
-      <c r="K297" s="17"/>
+      <c r="G297" s="12"/>
+      <c r="J297" s="15"/>
+      <c r="K297" s="16"/>
     </row>
     <row r="298" ht="15.2" spans="7:11">
-      <c r="G298" s="13"/>
-      <c r="J298" s="16"/>
-      <c r="K298" s="17"/>
+      <c r="G298" s="12"/>
+      <c r="J298" s="15"/>
+      <c r="K298" s="16"/>
     </row>
     <row r="299" ht="15.2" spans="7:11">
-      <c r="G299" s="13"/>
-      <c r="J299" s="16"/>
-      <c r="K299" s="17"/>
+      <c r="G299" s="12"/>
+      <c r="J299" s="15"/>
+      <c r="K299" s="16"/>
     </row>
     <row r="300" ht="15.2" spans="7:11">
-      <c r="G300" s="13"/>
-      <c r="J300" s="16"/>
-      <c r="K300" s="17"/>
+      <c r="G300" s="12"/>
+      <c r="J300" s="15"/>
+      <c r="K300" s="16"/>
     </row>
     <row r="301" ht="15.2" spans="7:11">
-      <c r="G301" s="13"/>
-      <c r="J301" s="16"/>
-      <c r="K301" s="17"/>
+      <c r="G301" s="12"/>
+      <c r="J301" s="15"/>
+      <c r="K301" s="16"/>
     </row>
     <row r="302" ht="15.2" spans="7:11">
-      <c r="G302" s="13"/>
-      <c r="J302" s="16"/>
-      <c r="K302" s="17"/>
+      <c r="G302" s="12"/>
+      <c r="J302" s="15"/>
+      <c r="K302" s="16"/>
     </row>
     <row r="303" ht="15.2" spans="7:11">
-      <c r="G303" s="13"/>
-      <c r="J303" s="16"/>
-      <c r="K303" s="17"/>
+      <c r="G303" s="12"/>
+      <c r="J303" s="15"/>
+      <c r="K303" s="16"/>
     </row>
     <row r="304" ht="15.2" spans="7:11">
-      <c r="G304" s="13"/>
-      <c r="J304" s="16"/>
-      <c r="K304" s="17"/>
+      <c r="G304" s="12"/>
+      <c r="J304" s="15"/>
+      <c r="K304" s="16"/>
     </row>
     <row r="305" ht="15.2" spans="7:11">
-      <c r="G305" s="13"/>
-      <c r="J305" s="16"/>
-      <c r="K305" s="17"/>
+      <c r="G305" s="12"/>
+      <c r="J305" s="15"/>
+      <c r="K305" s="16"/>
     </row>
     <row r="306" ht="15.2" spans="7:11">
-      <c r="G306" s="13"/>
-      <c r="J306" s="16"/>
-      <c r="K306" s="17"/>
+      <c r="G306" s="12"/>
+      <c r="J306" s="15"/>
+      <c r="K306" s="16"/>
     </row>
     <row r="307" ht="15.2" spans="7:11">
-      <c r="G307" s="13"/>
-      <c r="J307" s="16"/>
-      <c r="K307" s="17"/>
+      <c r="G307" s="12"/>
+      <c r="J307" s="15"/>
+      <c r="K307" s="16"/>
     </row>
     <row r="308" ht="15.2" spans="7:11">
-      <c r="G308" s="13"/>
-      <c r="J308" s="16"/>
-      <c r="K308" s="17"/>
+      <c r="G308" s="12"/>
+      <c r="J308" s="15"/>
+      <c r="K308" s="16"/>
     </row>
     <row r="309" ht="15.2" spans="7:11">
-      <c r="G309" s="13"/>
-      <c r="J309" s="16"/>
-      <c r="K309" s="17"/>
+      <c r="G309" s="12"/>
+      <c r="J309" s="15"/>
+      <c r="K309" s="16"/>
     </row>
     <row r="310" ht="15.2" spans="7:11">
-      <c r="G310" s="13"/>
-      <c r="J310" s="16"/>
-      <c r="K310" s="17"/>
+      <c r="G310" s="12"/>
+      <c r="J310" s="15"/>
+      <c r="K310" s="16"/>
     </row>
     <row r="311" ht="15.2" spans="7:11">
-      <c r="G311" s="13"/>
-      <c r="J311" s="16"/>
-      <c r="K311" s="17"/>
+      <c r="G311" s="12"/>
+      <c r="J311" s="15"/>
+      <c r="K311" s="16"/>
     </row>
     <row r="312" ht="15.2" spans="7:11">
-      <c r="G312" s="13"/>
-      <c r="J312" s="16"/>
-      <c r="K312" s="17"/>
+      <c r="G312" s="12"/>
+      <c r="J312" s="15"/>
+      <c r="K312" s="16"/>
     </row>
     <row r="313" ht="15.2" spans="7:11">
-      <c r="G313" s="13"/>
-      <c r="J313" s="16"/>
-      <c r="K313" s="17"/>
+      <c r="G313" s="12"/>
+      <c r="J313" s="15"/>
+      <c r="K313" s="16"/>
     </row>
     <row r="314" ht="15.2" spans="7:11">
-      <c r="G314" s="13"/>
-      <c r="J314" s="16"/>
-      <c r="K314" s="17"/>
+      <c r="G314" s="12"/>
+      <c r="J314" s="15"/>
+      <c r="K314" s="16"/>
     </row>
     <row r="315" ht="15.2" spans="7:11">
-      <c r="G315" s="13"/>
-      <c r="J315" s="16"/>
-      <c r="K315" s="17"/>
+      <c r="G315" s="12"/>
+      <c r="J315" s="15"/>
+      <c r="K315" s="16"/>
     </row>
     <row r="316" ht="15.2" spans="7:11">
-      <c r="G316" s="13"/>
-      <c r="J316" s="16"/>
-      <c r="K316" s="17"/>
+      <c r="G316" s="12"/>
+      <c r="J316" s="15"/>
+      <c r="K316" s="16"/>
     </row>
     <row r="317" ht="15.2" spans="7:11">
-      <c r="G317" s="13"/>
-      <c r="J317" s="16"/>
-      <c r="K317" s="17"/>
+      <c r="G317" s="12"/>
+      <c r="J317" s="15"/>
+      <c r="K317" s="16"/>
     </row>
     <row r="318" ht="15.2" spans="7:11">
-      <c r="G318" s="13"/>
-      <c r="J318" s="16"/>
-      <c r="K318" s="17"/>
+      <c r="G318" s="12"/>
+      <c r="J318" s="15"/>
+      <c r="K318" s="16"/>
     </row>
     <row r="319" ht="15.2" spans="7:11">
-      <c r="G319" s="13"/>
-      <c r="J319" s="16"/>
-      <c r="K319" s="17"/>
+      <c r="G319" s="12"/>
+      <c r="J319" s="15"/>
+      <c r="K319" s="16"/>
     </row>
     <row r="320" ht="15.2" spans="7:11">
-      <c r="G320" s="13"/>
-      <c r="J320" s="16"/>
-      <c r="K320" s="17"/>
+      <c r="G320" s="12"/>
+      <c r="J320" s="15"/>
+      <c r="K320" s="16"/>
     </row>
     <row r="321" ht="15.2" spans="7:11">
-      <c r="G321" s="13"/>
-      <c r="J321" s="16"/>
-      <c r="K321" s="17"/>
+      <c r="G321" s="12"/>
+      <c r="J321" s="15"/>
+      <c r="K321" s="16"/>
     </row>
     <row r="322" ht="15.2" spans="7:11">
-      <c r="G322" s="13"/>
-      <c r="J322" s="16"/>
-      <c r="K322" s="17"/>
+      <c r="G322" s="12"/>
+      <c r="J322" s="15"/>
+      <c r="K322" s="16"/>
     </row>
     <row r="323" ht="15.2" spans="7:11">
-      <c r="G323" s="13"/>
-      <c r="J323" s="16"/>
-      <c r="K323" s="17"/>
+      <c r="G323" s="12"/>
+      <c r="J323" s="15"/>
+      <c r="K323" s="16"/>
     </row>
     <row r="324" ht="15.2" spans="7:11">
-      <c r="G324" s="13"/>
-      <c r="J324" s="16"/>
-      <c r="K324" s="17"/>
+      <c r="G324" s="12"/>
+      <c r="J324" s="15"/>
+      <c r="K324" s="16"/>
     </row>
     <row r="325" ht="15.2" spans="7:11">
-      <c r="G325" s="13"/>
-      <c r="J325" s="16"/>
-      <c r="K325" s="17"/>
+      <c r="G325" s="12"/>
+      <c r="J325" s="15"/>
+      <c r="K325" s="16"/>
     </row>
     <row r="326" ht="15.2" spans="7:11">
-      <c r="G326" s="13"/>
-      <c r="J326" s="16"/>
-      <c r="K326" s="17"/>
+      <c r="G326" s="12"/>
+      <c r="J326" s="15"/>
+      <c r="K326" s="16"/>
     </row>
     <row r="327" ht="15.2" spans="7:11">
-      <c r="G327" s="13"/>
-      <c r="J327" s="16"/>
-      <c r="K327" s="17"/>
+      <c r="G327" s="12"/>
+      <c r="J327" s="15"/>
+      <c r="K327" s="16"/>
     </row>
     <row r="328" ht="15.2" spans="7:11">
-      <c r="G328" s="13"/>
-      <c r="J328" s="16"/>
-      <c r="K328" s="17"/>
+      <c r="G328" s="12"/>
+      <c r="J328" s="15"/>
+      <c r="K328" s="16"/>
     </row>
     <row r="329" ht="15.2" spans="7:11">
-      <c r="G329" s="13"/>
-      <c r="J329" s="16"/>
-      <c r="K329" s="17"/>
+      <c r="G329" s="12"/>
+      <c r="J329" s="15"/>
+      <c r="K329" s="16"/>
     </row>
     <row r="330" ht="15.2" spans="7:11">
-      <c r="G330" s="13"/>
-      <c r="J330" s="16"/>
-      <c r="K330" s="17"/>
+      <c r="G330" s="12"/>
+      <c r="J330" s="15"/>
+      <c r="K330" s="16"/>
     </row>
     <row r="331" ht="15.2" spans="7:11">
-      <c r="G331" s="13"/>
-      <c r="J331" s="16"/>
-      <c r="K331" s="17"/>
+      <c r="G331" s="12"/>
+      <c r="J331" s="15"/>
+      <c r="K331" s="16"/>
     </row>
     <row r="332" ht="15.2" spans="7:11">
-      <c r="G332" s="13"/>
-      <c r="J332" s="16"/>
-      <c r="K332" s="17"/>
+      <c r="G332" s="12"/>
+      <c r="J332" s="15"/>
+      <c r="K332" s="16"/>
     </row>
     <row r="333" ht="15.2" spans="7:11">
-      <c r="G333" s="13"/>
-      <c r="J333" s="16"/>
-      <c r="K333" s="17"/>
+      <c r="G333" s="12"/>
+      <c r="J333" s="15"/>
+      <c r="K333" s="16"/>
     </row>
     <row r="334" ht="15.2" spans="7:11">
-      <c r="G334" s="13"/>
-      <c r="J334" s="16"/>
-      <c r="K334" s="17"/>
+      <c r="G334" s="12"/>
+      <c r="J334" s="15"/>
+      <c r="K334" s="16"/>
     </row>
     <row r="335" ht="15.2" spans="7:11">
-      <c r="G335" s="13"/>
-      <c r="J335" s="16"/>
-      <c r="K335" s="17"/>
+      <c r="G335" s="12"/>
+      <c r="J335" s="15"/>
+      <c r="K335" s="16"/>
     </row>
     <row r="336" ht="15.2" spans="7:11">
-      <c r="G336" s="13"/>
-      <c r="J336" s="16"/>
-      <c r="K336" s="17"/>
+      <c r="G336" s="12"/>
+      <c r="J336" s="15"/>
+      <c r="K336" s="16"/>
     </row>
     <row r="337" ht="15.2" spans="7:11">
-      <c r="G337" s="13"/>
-      <c r="J337" s="16"/>
-      <c r="K337" s="17"/>
+      <c r="G337" s="12"/>
+      <c r="J337" s="15"/>
+      <c r="K337" s="16"/>
     </row>
     <row r="338" ht="15.2" spans="7:11">
-      <c r="G338" s="13"/>
-      <c r="J338" s="16"/>
-      <c r="K338" s="17"/>
+      <c r="G338" s="12"/>
+      <c r="J338" s="15"/>
+      <c r="K338" s="16"/>
     </row>
     <row r="339" ht="15.2" spans="7:11">
-      <c r="G339" s="13"/>
-      <c r="J339" s="16"/>
-      <c r="K339" s="17"/>
+      <c r="G339" s="12"/>
+      <c r="J339" s="15"/>
+      <c r="K339" s="16"/>
     </row>
     <row r="340" ht="15.2" spans="7:11">
-      <c r="G340" s="13"/>
-      <c r="J340" s="16"/>
-      <c r="K340" s="17"/>
+      <c r="G340" s="12"/>
+      <c r="J340" s="15"/>
+      <c r="K340" s="16"/>
     </row>
     <row r="341" ht="15.2" spans="7:11">
-      <c r="G341" s="13"/>
-      <c r="J341" s="16"/>
-      <c r="K341" s="17"/>
+      <c r="G341" s="12"/>
+      <c r="J341" s="15"/>
+      <c r="K341" s="16"/>
     </row>
     <row r="342" ht="15.2" spans="7:11">
-      <c r="G342" s="13"/>
-      <c r="J342" s="16"/>
-      <c r="K342" s="17"/>
+      <c r="G342" s="12"/>
+      <c r="J342" s="15"/>
+      <c r="K342" s="16"/>
     </row>
     <row r="343" ht="15.2" spans="7:11">
-      <c r="G343" s="13"/>
-      <c r="J343" s="16"/>
-      <c r="K343" s="17"/>
+      <c r="G343" s="12"/>
+      <c r="J343" s="15"/>
+      <c r="K343" s="16"/>
     </row>
     <row r="344" ht="15.2" spans="7:11">
-      <c r="G344" s="13"/>
-      <c r="J344" s="16"/>
-      <c r="K344" s="17"/>
+      <c r="G344" s="12"/>
+      <c r="J344" s="15"/>
+      <c r="K344" s="16"/>
     </row>
     <row r="345" ht="15.2" spans="7:11">
-      <c r="G345" s="13"/>
-      <c r="J345" s="16"/>
-      <c r="K345" s="17"/>
+      <c r="G345" s="12"/>
+      <c r="J345" s="15"/>
+      <c r="K345" s="16"/>
     </row>
     <row r="346" ht="15.2" spans="7:11">
-      <c r="G346" s="13"/>
-      <c r="J346" s="16"/>
-      <c r="K346" s="17"/>
+      <c r="G346" s="12"/>
+      <c r="J346" s="15"/>
+      <c r="K346" s="16"/>
     </row>
     <row r="347" ht="15.2" spans="7:11">
-      <c r="G347" s="13"/>
-      <c r="J347" s="16"/>
-      <c r="K347" s="17"/>
+      <c r="G347" s="12"/>
+      <c r="J347" s="15"/>
+      <c r="K347" s="16"/>
     </row>
     <row r="348" ht="15.2" spans="7:11">
-      <c r="G348" s="13"/>
-      <c r="J348" s="16"/>
-      <c r="K348" s="17"/>
+      <c r="G348" s="12"/>
+      <c r="J348" s="15"/>
+      <c r="K348" s="16"/>
     </row>
     <row r="349" ht="15.2" spans="7:11">
-      <c r="G349" s="13"/>
-      <c r="J349" s="16"/>
-      <c r="K349" s="17"/>
+      <c r="G349" s="12"/>
+      <c r="J349" s="15"/>
+      <c r="K349" s="16"/>
     </row>
     <row r="350" ht="15.2" spans="7:11">
-      <c r="G350" s="13"/>
-      <c r="J350" s="16"/>
-      <c r="K350" s="17"/>
+      <c r="G350" s="12"/>
+      <c r="J350" s="15"/>
+      <c r="K350" s="16"/>
     </row>
     <row r="351" ht="15.2" spans="7:11">
-      <c r="G351" s="13"/>
-      <c r="J351" s="16"/>
-      <c r="K351" s="17"/>
+      <c r="G351" s="12"/>
+      <c r="J351" s="15"/>
+      <c r="K351" s="16"/>
     </row>
     <row r="352" ht="15.2" spans="7:11">
-      <c r="G352" s="13"/>
-      <c r="J352" s="16"/>
-      <c r="K352" s="17"/>
+      <c r="G352" s="12"/>
+      <c r="J352" s="15"/>
+      <c r="K352" s="16"/>
     </row>
     <row r="353" ht="15.2" spans="7:11">
-      <c r="G353" s="13"/>
-      <c r="J353" s="16"/>
-      <c r="K353" s="17"/>
+      <c r="G353" s="12"/>
+      <c r="J353" s="15"/>
+      <c r="K353" s="16"/>
     </row>
     <row r="354" ht="15.2" spans="7:11">
-      <c r="G354" s="13"/>
-      <c r="J354" s="16"/>
-      <c r="K354" s="17"/>
+      <c r="G354" s="12"/>
+      <c r="J354" s="15"/>
+      <c r="K354" s="16"/>
     </row>
     <row r="355" ht="15.2" spans="7:11">
-      <c r="G355" s="13"/>
-      <c r="J355" s="16"/>
-      <c r="K355" s="17"/>
+      <c r="G355" s="12"/>
+      <c r="J355" s="15"/>
+      <c r="K355" s="16"/>
     </row>
     <row r="356" ht="15.2" spans="7:11">
-      <c r="G356" s="13"/>
-      <c r="J356" s="16"/>
-      <c r="K356" s="17"/>
+      <c r="G356" s="12"/>
+      <c r="J356" s="15"/>
+      <c r="K356" s="16"/>
     </row>
     <row r="357" ht="15.2" spans="7:11">
-      <c r="G357" s="13"/>
-      <c r="J357" s="16"/>
-      <c r="K357" s="17"/>
+      <c r="G357" s="12"/>
+      <c r="J357" s="15"/>
+      <c r="K357" s="16"/>
     </row>
     <row r="358" ht="15.2" spans="7:11">
-      <c r="G358" s="13"/>
-      <c r="J358" s="16"/>
-      <c r="K358" s="17"/>
+      <c r="G358" s="12"/>
+      <c r="J358" s="15"/>
+      <c r="K358" s="16"/>
     </row>
     <row r="359" ht="15.2" spans="7:11">
-      <c r="G359" s="13"/>
-      <c r="J359" s="16"/>
-      <c r="K359" s="17"/>
+      <c r="G359" s="12"/>
+      <c r="J359" s="15"/>
+      <c r="K359" s="16"/>
     </row>
     <row r="360" ht="15.2" spans="7:11">
-      <c r="G360" s="13"/>
-      <c r="J360" s="16"/>
-      <c r="K360" s="17"/>
+      <c r="G360" s="12"/>
+      <c r="J360" s="15"/>
+      <c r="K360" s="16"/>
     </row>
     <row r="361" ht="15.2" spans="7:11">
-      <c r="G361" s="13"/>
-      <c r="J361" s="16"/>
-      <c r="K361" s="17"/>
+      <c r="G361" s="12"/>
+      <c r="J361" s="15"/>
+      <c r="K361" s="16"/>
     </row>
     <row r="362" ht="15.2" spans="7:11">
-      <c r="G362" s="13"/>
-      <c r="J362" s="16"/>
-      <c r="K362" s="17"/>
+      <c r="G362" s="12"/>
+      <c r="J362" s="15"/>
+      <c r="K362" s="16"/>
     </row>
     <row r="363" ht="15.2" spans="7:11">
-      <c r="G363" s="13"/>
-      <c r="J363" s="16"/>
-      <c r="K363" s="17"/>
+      <c r="G363" s="12"/>
+      <c r="J363" s="15"/>
+      <c r="K363" s="16"/>
     </row>
     <row r="364" ht="15.2" spans="7:11">
-      <c r="G364" s="13"/>
-      <c r="J364" s="16"/>
-      <c r="K364" s="17"/>
+      <c r="G364" s="12"/>
+      <c r="J364" s="15"/>
+      <c r="K364" s="16"/>
     </row>
     <row r="365" ht="15.2" spans="7:11">
-      <c r="G365" s="13"/>
-      <c r="J365" s="16"/>
-      <c r="K365" s="17"/>
+      <c r="G365" s="12"/>
+      <c r="J365" s="15"/>
+      <c r="K365" s="16"/>
     </row>
     <row r="366" ht="15.2" spans="7:11">
-      <c r="G366" s="13"/>
-      <c r="J366" s="16"/>
-      <c r="K366" s="17"/>
+      <c r="G366" s="12"/>
+      <c r="J366" s="15"/>
+      <c r="K366" s="16"/>
     </row>
     <row r="367" ht="15.2" spans="7:11">
-      <c r="G367" s="13"/>
-      <c r="J367" s="16"/>
-      <c r="K367" s="17"/>
+      <c r="G367" s="12"/>
+      <c r="J367" s="15"/>
+      <c r="K367" s="16"/>
     </row>
     <row r="368" ht="15.2" spans="7:11">
-      <c r="G368" s="13"/>
-      <c r="J368" s="16"/>
-      <c r="K368" s="17"/>
+      <c r="G368" s="12"/>
+      <c r="J368" s="15"/>
+      <c r="K368" s="16"/>
     </row>
     <row r="369" ht="15.2" spans="7:11">
-      <c r="G369" s="13"/>
-      <c r="J369" s="16"/>
-      <c r="K369" s="17"/>
+      <c r="G369" s="12"/>
+      <c r="J369" s="15"/>
+      <c r="K369" s="16"/>
     </row>
     <row r="370" ht="15.2" spans="7:11">
-      <c r="G370" s="13"/>
-      <c r="J370" s="16"/>
-      <c r="K370" s="17"/>
+      <c r="G370" s="12"/>
+      <c r="J370" s="15"/>
+      <c r="K370" s="16"/>
     </row>
     <row r="371" ht="15.2" spans="7:11">
-      <c r="G371" s="13"/>
-      <c r="J371" s="16"/>
-      <c r="K371" s="17"/>
+      <c r="G371" s="12"/>
+      <c r="J371" s="15"/>
+      <c r="K371" s="16"/>
     </row>
     <row r="372" ht="15.2" spans="7:11">
-      <c r="G372" s="13"/>
-      <c r="J372" s="16"/>
-      <c r="K372" s="17"/>
+      <c r="G372" s="12"/>
+      <c r="J372" s="15"/>
+      <c r="K372" s="16"/>
     </row>
     <row r="373" ht="15.2" spans="7:11">
-      <c r="G373" s="13"/>
-      <c r="J373" s="16"/>
-      <c r="K373" s="17"/>
+      <c r="G373" s="12"/>
+      <c r="J373" s="15"/>
+      <c r="K373" s="16"/>
     </row>
     <row r="374" ht="15.2" spans="7:11">
-      <c r="G374" s="13"/>
-      <c r="J374" s="16"/>
-      <c r="K374" s="17"/>
+      <c r="G374" s="12"/>
+      <c r="J374" s="15"/>
+      <c r="K374" s="16"/>
     </row>
     <row r="375" ht="15.2" spans="7:11">
-      <c r="G375" s="13"/>
-      <c r="J375" s="16"/>
-      <c r="K375" s="17"/>
+      <c r="G375" s="12"/>
+      <c r="J375" s="15"/>
+      <c r="K375" s="16"/>
     </row>
     <row r="376" ht="15.2" spans="7:11">
-      <c r="G376" s="13"/>
-      <c r="J376" s="16"/>
-      <c r="K376" s="17"/>
+      <c r="G376" s="12"/>
+      <c r="J376" s="15"/>
+      <c r="K376" s="16"/>
     </row>
     <row r="377" ht="15.2" spans="7:11">
-      <c r="G377" s="13"/>
-      <c r="J377" s="16"/>
-      <c r="K377" s="17"/>
+      <c r="G377" s="12"/>
+      <c r="J377" s="15"/>
+      <c r="K377" s="16"/>
     </row>
     <row r="378" ht="15.2" spans="7:11">
-      <c r="G378" s="13"/>
-      <c r="J378" s="16"/>
-      <c r="K378" s="17"/>
+      <c r="G378" s="12"/>
+      <c r="J378" s="15"/>
+      <c r="K378" s="16"/>
     </row>
     <row r="379" ht="15.2" spans="7:11">
-      <c r="G379" s="13"/>
-      <c r="J379" s="16"/>
-      <c r="K379" s="17"/>
+      <c r="G379" s="12"/>
+      <c r="J379" s="15"/>
+      <c r="K379" s="16"/>
     </row>
     <row r="380" ht="15.2" spans="7:11">
-      <c r="G380" s="13"/>
-      <c r="J380" s="16"/>
-      <c r="K380" s="17"/>
+      <c r="G380" s="12"/>
+      <c r="J380" s="15"/>
+      <c r="K380" s="16"/>
     </row>
     <row r="381" ht="15.2" spans="7:11">
-      <c r="G381" s="13"/>
-      <c r="J381" s="16"/>
-      <c r="K381" s="17"/>
+      <c r="G381" s="12"/>
+      <c r="J381" s="15"/>
+      <c r="K381" s="16"/>
     </row>
     <row r="382" ht="15.2" spans="7:11">
-      <c r="G382" s="13"/>
-      <c r="J382" s="16"/>
-      <c r="K382" s="17"/>
+      <c r="G382" s="12"/>
+      <c r="J382" s="15"/>
+      <c r="K382" s="16"/>
     </row>
     <row r="383" ht="15.2" spans="7:11">
-      <c r="G383" s="13"/>
-      <c r="J383" s="16"/>
-      <c r="K383" s="17"/>
+      <c r="G383" s="12"/>
+      <c r="J383" s="15"/>
+      <c r="K383" s="16"/>
     </row>
     <row r="384" ht="15.2" spans="7:11">
-      <c r="G384" s="13"/>
-      <c r="J384" s="16"/>
-      <c r="K384" s="17"/>
+      <c r="G384" s="12"/>
+      <c r="J384" s="15"/>
+      <c r="K384" s="16"/>
     </row>
     <row r="385" ht="15.2" spans="7:11">
-      <c r="G385" s="13"/>
-      <c r="J385" s="16"/>
-      <c r="K385" s="17"/>
+      <c r="G385" s="12"/>
+      <c r="J385" s="15"/>
+      <c r="K385" s="16"/>
     </row>
     <row r="386" ht="15.2" spans="7:11">
-      <c r="G386" s="13"/>
-      <c r="J386" s="16"/>
-      <c r="K386" s="17"/>
+      <c r="G386" s="12"/>
+      <c r="J386" s="15"/>
+      <c r="K386" s="16"/>
     </row>
     <row r="387" ht="15.2" spans="7:11">
-      <c r="G387" s="13"/>
-      <c r="J387" s="16"/>
-      <c r="K387" s="17"/>
+      <c r="G387" s="12"/>
+      <c r="J387" s="15"/>
+      <c r="K387" s="16"/>
     </row>
     <row r="388" ht="15.2" spans="7:11">
-      <c r="G388" s="13"/>
-      <c r="J388" s="16"/>
-      <c r="K388" s="17"/>
+      <c r="G388" s="12"/>
+      <c r="J388" s="15"/>
+      <c r="K388" s="16"/>
     </row>
     <row r="389" ht="15.2" spans="7:11">
-      <c r="G389" s="13"/>
-      <c r="J389" s="16"/>
-      <c r="K389" s="17"/>
+      <c r="G389" s="12"/>
+      <c r="J389" s="15"/>
+      <c r="K389" s="16"/>
     </row>
     <row r="390" ht="15.2" spans="7:11">
-      <c r="G390" s="13"/>
-      <c r="J390" s="16"/>
-      <c r="K390" s="17"/>
+      <c r="G390" s="12"/>
+      <c r="J390" s="15"/>
+      <c r="K390" s="16"/>
     </row>
     <row r="391" ht="15.2" spans="7:11">
-      <c r="G391" s="13"/>
-      <c r="J391" s="16"/>
-      <c r="K391" s="17"/>
+      <c r="G391" s="12"/>
+      <c r="J391" s="15"/>
+      <c r="K391" s="16"/>
     </row>
     <row r="392" ht="15.2" spans="7:11">
-      <c r="G392" s="13"/>
-      <c r="J392" s="16"/>
-      <c r="K392" s="17"/>
+      <c r="G392" s="12"/>
+      <c r="J392" s="15"/>
+      <c r="K392" s="16"/>
     </row>
     <row r="393" ht="15.2" spans="7:11">
-      <c r="G393" s="13"/>
-      <c r="J393" s="16"/>
-      <c r="K393" s="17"/>
+      <c r="G393" s="12"/>
+      <c r="J393" s="15"/>
+      <c r="K393" s="16"/>
     </row>
     <row r="394" ht="15.2" spans="7:11">
-      <c r="G394" s="13"/>
-      <c r="J394" s="16"/>
-      <c r="K394" s="17"/>
+      <c r="G394" s="12"/>
+      <c r="J394" s="15"/>
+      <c r="K394" s="16"/>
     </row>
     <row r="395" ht="15.2" spans="7:11">
-      <c r="G395" s="13"/>
-      <c r="J395" s="16"/>
-      <c r="K395" s="17"/>
+      <c r="G395" s="12"/>
+      <c r="J395" s="15"/>
+      <c r="K395" s="16"/>
     </row>
     <row r="396" ht="15.2" spans="7:11">
-      <c r="G396" s="13"/>
-      <c r="J396" s="16"/>
-      <c r="K396" s="17"/>
+      <c r="G396" s="12"/>
+      <c r="J396" s="15"/>
+      <c r="K396" s="16"/>
     </row>
     <row r="397" ht="15.2" spans="7:11">
-      <c r="G397" s="13"/>
-      <c r="J397" s="16"/>
-      <c r="K397" s="17"/>
+      <c r="G397" s="12"/>
+      <c r="J397" s="15"/>
+      <c r="K397" s="16"/>
     </row>
     <row r="398" ht="15.2" spans="7:11">
-      <c r="G398" s="13"/>
-      <c r="J398" s="16"/>
-      <c r="K398" s="17"/>
+      <c r="G398" s="12"/>
+      <c r="J398" s="15"/>
+      <c r="K398" s="16"/>
     </row>
     <row r="399" ht="15.2" spans="7:11">
-      <c r="G399" s="13"/>
-      <c r="J399" s="16"/>
-      <c r="K399" s="17"/>
+      <c r="G399" s="12"/>
+      <c r="J399" s="15"/>
+      <c r="K399" s="16"/>
     </row>
     <row r="400" ht="15.2" spans="7:11">
-      <c r="G400" s="13"/>
-      <c r="J400" s="16"/>
-      <c r="K400" s="17"/>
+      <c r="G400" s="12"/>
+      <c r="J400" s="15"/>
+      <c r="K400" s="16"/>
     </row>
     <row r="401" ht="15.2" spans="7:11">
-      <c r="G401" s="13"/>
-      <c r="J401" s="16"/>
-      <c r="K401" s="17"/>
+      <c r="G401" s="12"/>
+      <c r="J401" s="15"/>
+      <c r="K401" s="16"/>
     </row>
     <row r="402" ht="15.2" spans="7:11">
-      <c r="G402" s="13"/>
-      <c r="J402" s="16"/>
-      <c r="K402" s="17"/>
+      <c r="G402" s="12"/>
+      <c r="J402" s="15"/>
+      <c r="K402" s="16"/>
     </row>
     <row r="403" ht="15.2" spans="7:11">
-      <c r="G403" s="13"/>
-      <c r="J403" s="16"/>
-      <c r="K403" s="17"/>
+      <c r="G403" s="12"/>
+      <c r="J403" s="15"/>
+      <c r="K403" s="16"/>
     </row>
     <row r="404" ht="15.2" spans="7:11">
-      <c r="G404" s="13"/>
-      <c r="J404" s="16"/>
-      <c r="K404" s="17"/>
+      <c r="G404" s="12"/>
+      <c r="J404" s="15"/>
+      <c r="K404" s="16"/>
     </row>
     <row r="405" ht="15.2" spans="7:11">
-      <c r="G405" s="13"/>
-      <c r="J405" s="16"/>
-      <c r="K405" s="17"/>
+      <c r="G405" s="12"/>
+      <c r="J405" s="15"/>
+      <c r="K405" s="16"/>
     </row>
     <row r="406" ht="15.2" spans="7:11">
-      <c r="G406" s="13"/>
-      <c r="J406" s="16"/>
-      <c r="K406" s="17"/>
+      <c r="G406" s="12"/>
+      <c r="J406" s="15"/>
+      <c r="K406" s="16"/>
     </row>
     <row r="407" ht="15.2" spans="7:11">
-      <c r="G407" s="13"/>
-      <c r="J407" s="16"/>
-      <c r="K407" s="17"/>
+      <c r="G407" s="12"/>
+      <c r="J407" s="15"/>
+      <c r="K407" s="16"/>
     </row>
     <row r="408" ht="15.2" spans="7:11">
-      <c r="G408" s="13"/>
-      <c r="J408" s="16"/>
-      <c r="K408" s="17"/>
+      <c r="G408" s="12"/>
+      <c r="J408" s="15"/>
+      <c r="K408" s="16"/>
     </row>
     <row r="409" ht="15.2" spans="7:11">
-      <c r="G409" s="13"/>
-      <c r="J409" s="16"/>
-      <c r="K409" s="17"/>
+      <c r="G409" s="12"/>
+      <c r="J409" s="15"/>
+      <c r="K409" s="16"/>
     </row>
     <row r="410" ht="15.2" spans="7:11">
-      <c r="G410" s="13"/>
-      <c r="J410" s="16"/>
-      <c r="K410" s="17"/>
+      <c r="G410" s="12"/>
+      <c r="J410" s="15"/>
+      <c r="K410" s="16"/>
     </row>
     <row r="411" ht="15.2" spans="7:11">
-      <c r="G411" s="13"/>
-      <c r="J411" s="16"/>
-      <c r="K411" s="17"/>
+      <c r="G411" s="12"/>
+      <c r="J411" s="15"/>
+      <c r="K411" s="16"/>
     </row>
     <row r="412" ht="15.2" spans="7:11">
-      <c r="G412" s="13"/>
-      <c r="J412" s="16"/>
-      <c r="K412" s="17"/>
+      <c r="G412" s="12"/>
+      <c r="J412" s="15"/>
+      <c r="K412" s="16"/>
     </row>
     <row r="413" ht="15.2" spans="7:11">
-      <c r="G413" s="13"/>
-      <c r="J413" s="16"/>
-      <c r="K413" s="17"/>
+      <c r="G413" s="12"/>
+      <c r="J413" s="15"/>
+      <c r="K413" s="16"/>
     </row>
     <row r="414" ht="15.2" spans="7:11">
-      <c r="G414" s="13"/>
-      <c r="J414" s="16"/>
-      <c r="K414" s="17"/>
+      <c r="G414" s="12"/>
+      <c r="J414" s="15"/>
+      <c r="K414" s="16"/>
     </row>
     <row r="415" ht="15.2" spans="7:11">
-      <c r="G415" s="13"/>
-      <c r="J415" s="16"/>
-      <c r="K415" s="17"/>
+      <c r="G415" s="12"/>
+      <c r="J415" s="15"/>
+      <c r="K415" s="16"/>
     </row>
     <row r="416" ht="15.2" spans="7:11">
-      <c r="G416" s="13"/>
-      <c r="J416" s="16"/>
-      <c r="K416" s="17"/>
+      <c r="G416" s="12"/>
+      <c r="J416" s="15"/>
+      <c r="K416" s="16"/>
     </row>
     <row r="417" ht="15.2" spans="7:11">
-      <c r="G417" s="13"/>
-      <c r="J417" s="16"/>
-      <c r="K417" s="17"/>
+      <c r="G417" s="12"/>
+      <c r="J417" s="15"/>
+      <c r="K417" s="16"/>
     </row>
     <row r="418" ht="15.2" spans="7:11">
-      <c r="G418" s="13"/>
-      <c r="J418" s="16"/>
-      <c r="K418" s="17"/>
+      <c r="G418" s="12"/>
+      <c r="J418" s="15"/>
+      <c r="K418" s="16"/>
     </row>
     <row r="419" ht="15.2" spans="7:11">
-      <c r="G419" s="13"/>
-      <c r="J419" s="16"/>
-      <c r="K419" s="17"/>
+      <c r="G419" s="12"/>
+      <c r="J419" s="15"/>
+      <c r="K419" s="16"/>
     </row>
     <row r="420" ht="15.2" spans="7:11">
-      <c r="G420" s="13"/>
-      <c r="J420" s="16"/>
-      <c r="K420" s="17"/>
+      <c r="G420" s="12"/>
+      <c r="J420" s="15"/>
+      <c r="K420" s="16"/>
     </row>
     <row r="421" ht="15.2" spans="7:11">
-      <c r="G421" s="13"/>
-      <c r="J421" s="16"/>
-      <c r="K421" s="17"/>
+      <c r="G421" s="12"/>
+      <c r="J421" s="15"/>
+      <c r="K421" s="16"/>
     </row>
     <row r="422" ht="15.2" spans="7:11">
-      <c r="G422" s="13"/>
-      <c r="J422" s="16"/>
-      <c r="K422" s="17"/>
+      <c r="G422" s="12"/>
+      <c r="J422" s="15"/>
+      <c r="K422" s="16"/>
     </row>
     <row r="423" ht="15.2" spans="7:11">
-      <c r="G423" s="13"/>
-      <c r="J423" s="16"/>
-      <c r="K423" s="17"/>
+      <c r="G423" s="12"/>
+      <c r="J423" s="15"/>
+      <c r="K423" s="16"/>
     </row>
     <row r="424" ht="15.2" spans="7:11">
-      <c r="G424" s="13"/>
-      <c r="J424" s="16"/>
-      <c r="K424" s="17"/>
+      <c r="G424" s="12"/>
+      <c r="J424" s="15"/>
+      <c r="K424" s="16"/>
     </row>
     <row r="425" ht="15.2" spans="7:11">
-      <c r="G425" s="13"/>
-      <c r="J425" s="16"/>
-      <c r="K425" s="17"/>
+      <c r="G425" s="12"/>
+      <c r="J425" s="15"/>
+      <c r="K425" s="16"/>
     </row>
     <row r="426" ht="15.2" spans="7:11">
-      <c r="G426" s="13"/>
-      <c r="J426" s="16"/>
-      <c r="K426" s="17"/>
+      <c r="G426" s="12"/>
+      <c r="J426" s="15"/>
+      <c r="K426" s="16"/>
     </row>
     <row r="427" ht="15.2" spans="7:11">
-      <c r="G427" s="13"/>
-      <c r="J427" s="16"/>
-      <c r="K427" s="17"/>
+      <c r="G427" s="12"/>
+      <c r="J427" s="15"/>
+      <c r="K427" s="16"/>
     </row>
     <row r="428" ht="15.2" spans="7:11">
-      <c r="G428" s="13"/>
-      <c r="J428" s="16"/>
-      <c r="K428" s="17"/>
+      <c r="G428" s="12"/>
+      <c r="J428" s="15"/>
+      <c r="K428" s="16"/>
     </row>
     <row r="429" ht="15.2" spans="7:11">
-      <c r="G429" s="13"/>
-      <c r="J429" s="16"/>
-      <c r="K429" s="17"/>
+      <c r="G429" s="12"/>
+      <c r="J429" s="15"/>
+      <c r="K429" s="16"/>
     </row>
     <row r="430" ht="15.2" spans="7:11">
-      <c r="G430" s="13"/>
-      <c r="J430" s="16"/>
-      <c r="K430" s="17"/>
+      <c r="G430" s="12"/>
+      <c r="J430" s="15"/>
+      <c r="K430" s="16"/>
     </row>
     <row r="431" ht="15.2" spans="7:11">
-      <c r="G431" s="13"/>
-      <c r="J431" s="16"/>
-      <c r="K431" s="17"/>
+      <c r="G431" s="12"/>
+      <c r="J431" s="15"/>
+      <c r="K431" s="16"/>
     </row>
     <row r="432" ht="15.2" spans="7:11">
-      <c r="G432" s="13"/>
-      <c r="J432" s="16"/>
-      <c r="K432" s="17"/>
+      <c r="G432" s="12"/>
+      <c r="J432" s="15"/>
+      <c r="K432" s="16"/>
     </row>
     <row r="433" ht="15.2" spans="7:11">
-      <c r="G433" s="13"/>
-      <c r="J433" s="16"/>
-      <c r="K433" s="17"/>
+      <c r="G433" s="12"/>
+      <c r="J433" s="15"/>
+      <c r="K433" s="16"/>
     </row>
     <row r="434" ht="15.2" spans="7:11">
-      <c r="G434" s="13"/>
-      <c r="J434" s="16"/>
-      <c r="K434" s="17"/>
+      <c r="G434" s="12"/>
+      <c r="J434" s="15"/>
+      <c r="K434" s="16"/>
     </row>
     <row r="435" ht="15.2" spans="7:11">
-      <c r="G435" s="13"/>
-      <c r="J435" s="16"/>
-      <c r="K435" s="17"/>
+      <c r="G435" s="12"/>
+      <c r="J435" s="15"/>
+      <c r="K435" s="16"/>
     </row>
     <row r="436" ht="15.2" spans="7:11">
-      <c r="G436" s="13"/>
-      <c r="J436" s="16"/>
-      <c r="K436" s="17"/>
+      <c r="G436" s="12"/>
+      <c r="J436" s="15"/>
+      <c r="K436" s="16"/>
     </row>
     <row r="437" ht="15.2" spans="7:11">
-      <c r="G437" s="13"/>
-      <c r="J437" s="16"/>
-      <c r="K437" s="17"/>
+      <c r="G437" s="12"/>
+      <c r="J437" s="15"/>
+      <c r="K437" s="16"/>
     </row>
     <row r="438" ht="15.2" spans="7:11">
-      <c r="G438" s="13"/>
-      <c r="J438" s="16"/>
-      <c r="K438" s="17"/>
+      <c r="G438" s="12"/>
+      <c r="J438" s="15"/>
+      <c r="K438" s="16"/>
     </row>
     <row r="439" ht="15.2" spans="7:11">
-      <c r="G439" s="13"/>
-      <c r="J439" s="16"/>
-      <c r="K439" s="17"/>
+      <c r="G439" s="12"/>
+      <c r="J439" s="15"/>
+      <c r="K439" s="16"/>
     </row>
     <row r="440" ht="15.2" spans="7:11">
-      <c r="G440" s="13"/>
-      <c r="J440" s="16"/>
-      <c r="K440" s="17"/>
+      <c r="G440" s="12"/>
+      <c r="J440" s="15"/>
+      <c r="K440" s="16"/>
     </row>
     <row r="441" ht="15.2" spans="7:11">
-      <c r="G441" s="13"/>
-      <c r="J441" s="16"/>
-      <c r="K441" s="17"/>
+      <c r="G441" s="12"/>
+      <c r="J441" s="15"/>
+      <c r="K441" s="16"/>
     </row>
     <row r="442" ht="15.2" spans="7:11">
-      <c r="G442" s="13"/>
-      <c r="J442" s="16"/>
-      <c r="K442" s="17"/>
+      <c r="G442" s="12"/>
+      <c r="J442" s="15"/>
+      <c r="K442" s="16"/>
     </row>
     <row r="443" ht="15.2" spans="7:11">
-      <c r="G443" s="13"/>
-      <c r="J443" s="16"/>
-      <c r="K443" s="17"/>
+      <c r="G443" s="12"/>
+      <c r="J443" s="15"/>
+      <c r="K443" s="16"/>
     </row>
     <row r="444" ht="15.2" spans="7:11">
-      <c r="G444" s="13"/>
-      <c r="J444" s="16"/>
-      <c r="K444" s="17"/>
+      <c r="G444" s="12"/>
+      <c r="J444" s="15"/>
+      <c r="K444" s="16"/>
     </row>
     <row r="445" ht="15.2" spans="7:11">
-      <c r="G445" s="13"/>
-      <c r="J445" s="16"/>
-      <c r="K445" s="17"/>
+      <c r="G445" s="12"/>
+      <c r="J445" s="15"/>
+      <c r="K445" s="16"/>
     </row>
     <row r="446" ht="15.2" spans="7:11">
-      <c r="G446" s="13"/>
-      <c r="J446" s="16"/>
-      <c r="K446" s="17"/>
+      <c r="G446" s="12"/>
+      <c r="J446" s="15"/>
+      <c r="K446" s="16"/>
     </row>
     <row r="447" ht="15.2" spans="7:11">
-      <c r="G447" s="13"/>
-      <c r="J447" s="16"/>
-      <c r="K447" s="17"/>
+      <c r="G447" s="12"/>
+      <c r="J447" s="15"/>
+      <c r="K447" s="16"/>
     </row>
     <row r="448" ht="15.2" spans="7:11">
-      <c r="G448" s="13"/>
-      <c r="J448" s="16"/>
-      <c r="K448" s="17"/>
+      <c r="G448" s="12"/>
+      <c r="J448" s="15"/>
+      <c r="K448" s="16"/>
     </row>
     <row r="449" ht="15.2" spans="7:11">
-      <c r="G449" s="13"/>
-      <c r="J449" s="16"/>
-      <c r="K449" s="17"/>
+      <c r="G449" s="12"/>
+      <c r="J449" s="15"/>
+      <c r="K449" s="16"/>
     </row>
     <row r="450" ht="15.2" spans="7:11">
-      <c r="G450" s="13"/>
-      <c r="J450" s="16"/>
-      <c r="K450" s="17"/>
+      <c r="G450" s="12"/>
+      <c r="J450" s="15"/>
+      <c r="K450" s="16"/>
     </row>
     <row r="451" ht="15.2" spans="7:11">
-      <c r="G451" s="13"/>
-      <c r="J451" s="16"/>
-      <c r="K451" s="17"/>
+      <c r="G451" s="12"/>
+      <c r="J451" s="15"/>
+      <c r="K451" s="16"/>
     </row>
     <row r="452" ht="15.2" spans="7:11">
-      <c r="G452" s="13"/>
-      <c r="J452" s="16"/>
-      <c r="K452" s="17"/>
+      <c r="G452" s="12"/>
+      <c r="J452" s="15"/>
+      <c r="K452" s="16"/>
     </row>
     <row r="453" ht="15.2" spans="7:11">
-      <c r="G453" s="13"/>
-      <c r="J453" s="16"/>
-      <c r="K453" s="17"/>
+      <c r="G453" s="12"/>
+      <c r="J453" s="15"/>
+      <c r="K453" s="16"/>
     </row>
     <row r="454" ht="15.2" spans="7:11">
-      <c r="G454" s="13"/>
-      <c r="J454" s="16"/>
-      <c r="K454" s="17"/>
+      <c r="G454" s="12"/>
+      <c r="J454" s="15"/>
+      <c r="K454" s="16"/>
     </row>
     <row r="455" ht="15.2" spans="7:11">
-      <c r="G455" s="13"/>
-      <c r="J455" s="16"/>
-      <c r="K455" s="17"/>
+      <c r="G455" s="12"/>
+      <c r="J455" s="15"/>
+      <c r="K455" s="16"/>
     </row>
     <row r="456" ht="15.2" spans="7:11">
-      <c r="G456" s="13"/>
-      <c r="J456" s="16"/>
-      <c r="K456" s="17"/>
+      <c r="G456" s="12"/>
+      <c r="J456" s="15"/>
+      <c r="K456" s="16"/>
     </row>
     <row r="457" ht="15.2" spans="7:11">
-      <c r="G457" s="13"/>
-      <c r="J457" s="16"/>
-      <c r="K457" s="17"/>
+      <c r="G457" s="12"/>
+      <c r="J457" s="15"/>
+      <c r="K457" s="16"/>
     </row>
     <row r="458" ht="15.2" spans="7:11">
-      <c r="G458" s="13"/>
-      <c r="J458" s="16"/>
-      <c r="K458" s="17"/>
+      <c r="G458" s="12"/>
+      <c r="J458" s="15"/>
+      <c r="K458" s="16"/>
     </row>
     <row r="459" ht="15.2" spans="7:11">
-      <c r="G459" s="13"/>
-      <c r="J459" s="16"/>
-      <c r="K459" s="17"/>
+      <c r="G459" s="12"/>
+      <c r="J459" s="15"/>
+      <c r="K459" s="16"/>
     </row>
     <row r="460" ht="15.2" spans="7:11">
-      <c r="G460" s="13"/>
-      <c r="J460" s="16"/>
-      <c r="K460" s="17"/>
+      <c r="G460" s="12"/>
+      <c r="J460" s="15"/>
+      <c r="K460" s="16"/>
     </row>
     <row r="461" ht="15.2" spans="7:11">
-      <c r="G461" s="13"/>
-      <c r="J461" s="16"/>
-      <c r="K461" s="17"/>
+      <c r="G461" s="12"/>
+      <c r="J461" s="15"/>
+      <c r="K461" s="16"/>
     </row>
     <row r="462" ht="15.2" spans="7:11">
-      <c r="G462" s="13"/>
-      <c r="J462" s="16"/>
-      <c r="K462" s="17"/>
+      <c r="G462" s="12"/>
+      <c r="J462" s="15"/>
+      <c r="K462" s="16"/>
     </row>
     <row r="463" ht="15.2" spans="7:11">
-      <c r="G463" s="13"/>
-      <c r="J463" s="16"/>
-      <c r="K463" s="17"/>
+      <c r="G463" s="12"/>
+      <c r="J463" s="15"/>
+      <c r="K463" s="16"/>
     </row>
     <row r="464" ht="15.2" spans="7:11">
-      <c r="G464" s="13"/>
-      <c r="J464" s="16"/>
-      <c r="K464" s="17"/>
+      <c r="G464" s="12"/>
+      <c r="J464" s="15"/>
+      <c r="K464" s="16"/>
     </row>
     <row r="465" ht="15.2" spans="7:11">
-      <c r="G465" s="13"/>
-      <c r="J465" s="16"/>
-      <c r="K465" s="17"/>
+      <c r="G465" s="12"/>
+      <c r="J465" s="15"/>
+      <c r="K465" s="16"/>
     </row>
     <row r="466" ht="15.2" spans="7:11">
-      <c r="G466" s="13"/>
-      <c r="J466" s="16"/>
-      <c r="K466" s="17"/>
+      <c r="G466" s="12"/>
+      <c r="J466" s="15"/>
+      <c r="K466" s="16"/>
     </row>
     <row r="467" ht="15.2" spans="7:11">
-      <c r="G467" s="13"/>
-      <c r="J467" s="16"/>
-      <c r="K467" s="17"/>
+      <c r="G467" s="12"/>
+      <c r="J467" s="15"/>
+      <c r="K467" s="16"/>
     </row>
     <row r="468" ht="15.2" spans="7:11">
-      <c r="G468" s="13"/>
-      <c r="J468" s="16"/>
-      <c r="K468" s="17"/>
+      <c r="G468" s="12"/>
+      <c r="J468" s="15"/>
+      <c r="K468" s="16"/>
     </row>
     <row r="469" ht="15.2" spans="7:11">
-      <c r="G469" s="13"/>
-      <c r="J469" s="16"/>
-      <c r="K469" s="17"/>
+      <c r="G469" s="12"/>
+      <c r="J469" s="15"/>
+      <c r="K469" s="16"/>
     </row>
     <row r="470" ht="15.2" spans="7:11">
-      <c r="G470" s="13"/>
-      <c r="J470" s="16"/>
-      <c r="K470" s="17"/>
+      <c r="G470" s="12"/>
+      <c r="J470" s="15"/>
+      <c r="K470" s="16"/>
     </row>
     <row r="471" ht="15.2" spans="7:11">
-      <c r="G471" s="13"/>
-      <c r="J471" s="16"/>
-      <c r="K471" s="17"/>
+      <c r="G471" s="12"/>
+      <c r="J471" s="15"/>
+      <c r="K471" s="16"/>
     </row>
     <row r="472" ht="15.2" spans="7:11">
-      <c r="G472" s="13"/>
-      <c r="J472" s="16"/>
-      <c r="K472" s="17"/>
+      <c r="G472" s="12"/>
+      <c r="J472" s="15"/>
+      <c r="K472" s="16"/>
     </row>
     <row r="473" ht="15.2" spans="7:11">
-      <c r="G473" s="13"/>
-      <c r="J473" s="16"/>
-      <c r="K473" s="17"/>
+      <c r="G473" s="12"/>
+      <c r="J473" s="15"/>
+      <c r="K473" s="16"/>
     </row>
     <row r="474" ht="15.2" spans="7:11">
-      <c r="G474" s="13"/>
-      <c r="J474" s="16"/>
-      <c r="K474" s="17"/>
+      <c r="G474" s="12"/>
+      <c r="J474" s="15"/>
+      <c r="K474" s="16"/>
     </row>
     <row r="475" ht="15.2" spans="7:11">
-      <c r="G475" s="13"/>
-      <c r="J475" s="16"/>
-      <c r="K475" s="17"/>
+      <c r="G475" s="12"/>
+      <c r="J475" s="15"/>
+      <c r="K475" s="16"/>
     </row>
     <row r="476" ht="15.2" spans="7:11">
-      <c r="G476" s="13"/>
-      <c r="J476" s="16"/>
-      <c r="K476" s="17"/>
+      <c r="G476" s="12"/>
+      <c r="J476" s="15"/>
+      <c r="K476" s="16"/>
     </row>
     <row r="477" ht="15.2" spans="7:11">
-      <c r="G477" s="13"/>
-      <c r="J477" s="16"/>
-      <c r="K477" s="17"/>
+      <c r="G477" s="12"/>
+      <c r="J477" s="15"/>
+      <c r="K477" s="16"/>
     </row>
     <row r="478" ht="15.2" spans="7:11">
-      <c r="G478" s="13"/>
-      <c r="J478" s="16"/>
-      <c r="K478" s="17"/>
+      <c r="G478" s="12"/>
+      <c r="J478" s="15"/>
+      <c r="K478" s="16"/>
     </row>
     <row r="479" ht="15.2" spans="7:11">
-      <c r="G479" s="13"/>
-      <c r="J479" s="16"/>
-      <c r="K479" s="17"/>
+      <c r="G479" s="12"/>
+      <c r="J479" s="15"/>
+      <c r="K479" s="16"/>
     </row>
     <row r="480" ht="15.2" spans="7:11">
-      <c r="G480" s="13"/>
-      <c r="J480" s="16"/>
-      <c r="K480" s="17"/>
+      <c r="G480" s="12"/>
+      <c r="J480" s="15"/>
+      <c r="K480" s="16"/>
     </row>
     <row r="481" ht="15.2" spans="7:11">
-      <c r="G481" s="13"/>
-      <c r="J481" s="16"/>
-      <c r="K481" s="17"/>
+      <c r="G481" s="12"/>
+      <c r="J481" s="15"/>
+      <c r="K481" s="16"/>
     </row>
     <row r="482" ht="15.2" spans="7:11">
-      <c r="G482" s="13"/>
-      <c r="J482" s="16"/>
-      <c r="K482" s="17"/>
+      <c r="G482" s="12"/>
+      <c r="J482" s="15"/>
+      <c r="K482" s="16"/>
     </row>
     <row r="483" ht="15.2" spans="7:11">
-      <c r="G483" s="13"/>
-      <c r="J483" s="16"/>
-      <c r="K483" s="17"/>
+      <c r="G483" s="12"/>
+      <c r="J483" s="15"/>
+      <c r="K483" s="16"/>
     </row>
     <row r="484" ht="15.2" spans="7:11">
-      <c r="G484" s="13"/>
-      <c r="J484" s="16"/>
-      <c r="K484" s="17"/>
+      <c r="G484" s="12"/>
+      <c r="J484" s="15"/>
+      <c r="K484" s="16"/>
     </row>
     <row r="485" ht="15.2" spans="7:11">
-      <c r="G485" s="13"/>
-      <c r="J485" s="16"/>
-      <c r="K485" s="17"/>
+      <c r="G485" s="12"/>
+      <c r="J485" s="15"/>
+      <c r="K485" s="16"/>
     </row>
     <row r="486" ht="15.2" spans="7:11">
-      <c r="G486" s="13"/>
-      <c r="J486" s="16"/>
-      <c r="K486" s="17"/>
+      <c r="G486" s="12"/>
+      <c r="J486" s="15"/>
+      <c r="K486" s="16"/>
     </row>
     <row r="487" ht="15.2" spans="7:11">
-      <c r="G487" s="13"/>
-      <c r="J487" s="16"/>
-      <c r="K487" s="17"/>
+      <c r="G487" s="12"/>
+      <c r="J487" s="15"/>
+      <c r="K487" s="16"/>
     </row>
     <row r="488" ht="15.2" spans="7:11">
-      <c r="G488" s="13"/>
-      <c r="J488" s="16"/>
-      <c r="K488" s="17"/>
+      <c r="G488" s="12"/>
+      <c r="J488" s="15"/>
+      <c r="K488" s="16"/>
     </row>
     <row r="489" ht="15.2" spans="7:11">
-      <c r="G489" s="13"/>
-      <c r="J489" s="16"/>
-      <c r="K489" s="17"/>
+      <c r="G489" s="12"/>
+      <c r="J489" s="15"/>
+      <c r="K489" s="16"/>
     </row>
     <row r="490" ht="15.2" spans="7:11">
-      <c r="G490" s="13"/>
-      <c r="J490" s="16"/>
-      <c r="K490" s="17"/>
+      <c r="G490" s="12"/>
+      <c r="J490" s="15"/>
+      <c r="K490" s="16"/>
     </row>
     <row r="491" ht="15.2" spans="7:11">
-      <c r="G491" s="13"/>
-      <c r="J491" s="16"/>
-      <c r="K491" s="17"/>
+      <c r="G491" s="12"/>
+      <c r="J491" s="15"/>
+      <c r="K491" s="16"/>
     </row>
     <row r="492" ht="15.2" spans="7:11">
-      <c r="G492" s="13"/>
-      <c r="J492" s="16"/>
-      <c r="K492" s="17"/>
+      <c r="G492" s="12"/>
+      <c r="J492" s="15"/>
+      <c r="K492" s="16"/>
     </row>
     <row r="493" ht="15.2" spans="7:11">
-      <c r="G493" s="13"/>
-      <c r="J493" s="16"/>
-      <c r="K493" s="17"/>
+      <c r="G493" s="12"/>
+      <c r="J493" s="15"/>
+      <c r="K493" s="16"/>
     </row>
     <row r="494" ht="15.2" spans="7:11">
-      <c r="G494" s="13"/>
-      <c r="J494" s="16"/>
-      <c r="K494" s="17"/>
+      <c r="G494" s="12"/>
+      <c r="J494" s="15"/>
+      <c r="K494" s="16"/>
     </row>
     <row r="495" ht="15.2" spans="7:11">
-      <c r="G495" s="13"/>
-      <c r="J495" s="16"/>
-      <c r="K495" s="17"/>
+      <c r="G495" s="12"/>
+      <c r="J495" s="15"/>
+      <c r="K495" s="16"/>
     </row>
     <row r="496" ht="15.2" spans="7:11">
-      <c r="G496" s="13"/>
-      <c r="J496" s="16"/>
-      <c r="K496" s="17"/>
+      <c r="G496" s="12"/>
+      <c r="J496" s="15"/>
+      <c r="K496" s="16"/>
     </row>
     <row r="497" ht="15.2" spans="7:11">
-      <c r="G497" s="13"/>
-      <c r="J497" s="16"/>
-      <c r="K497" s="17"/>
+      <c r="G497" s="12"/>
+      <c r="J497" s="15"/>
+      <c r="K497" s="16"/>
     </row>
     <row r="498" ht="15.2" spans="7:11">
-      <c r="G498" s="13"/>
-      <c r="J498" s="16"/>
-      <c r="K498" s="17"/>
+      <c r="G498" s="12"/>
+      <c r="J498" s="15"/>
+      <c r="K498" s="16"/>
     </row>
     <row r="499" ht="15.2" spans="7:11">
-      <c r="G499" s="13"/>
-      <c r="J499" s="16"/>
-      <c r="K499" s="17"/>
+      <c r="G499" s="12"/>
+      <c r="J499" s="15"/>
+      <c r="K499" s="16"/>
     </row>
     <row r="500" ht="15.2" spans="7:11">
-      <c r="G500" s="13"/>
-      <c r="J500" s="16"/>
-      <c r="K500" s="17"/>
+      <c r="G500" s="12"/>
+      <c r="J500" s="15"/>
+      <c r="K500" s="16"/>
     </row>
     <row r="501" ht="15.2" spans="7:11">
-      <c r="G501" s="13"/>
-      <c r="J501" s="16"/>
-      <c r="K501" s="17"/>
+      <c r="G501" s="12"/>
+      <c r="J501" s="15"/>
+      <c r="K501" s="16"/>
     </row>
     <row r="502" ht="15.2" spans="7:11">
-      <c r="G502" s="13"/>
-      <c r="J502" s="16"/>
-      <c r="K502" s="17"/>
+      <c r="G502" s="12"/>
+      <c r="J502" s="15"/>
+      <c r="K502" s="16"/>
     </row>
     <row r="503" ht="15.2" spans="7:11">
-      <c r="G503" s="13"/>
-      <c r="J503" s="16"/>
-      <c r="K503" s="17"/>
+      <c r="G503" s="12"/>
+      <c r="J503" s="15"/>
+      <c r="K503" s="16"/>
     </row>
     <row r="504" ht="15.2" spans="7:11">
-      <c r="G504" s="13"/>
-      <c r="J504" s="16"/>
-      <c r="K504" s="17"/>
+      <c r="G504" s="12"/>
+      <c r="J504" s="15"/>
+      <c r="K504" s="16"/>
     </row>
     <row r="505" ht="15.2" spans="7:11">
-      <c r="G505" s="13"/>
-      <c r="J505" s="16"/>
-      <c r="K505" s="17"/>
+      <c r="G505" s="12"/>
+      <c r="J505" s="15"/>
+      <c r="K505" s="16"/>
     </row>
     <row r="506" ht="15.2" spans="7:11">
-      <c r="G506" s="13"/>
-      <c r="J506" s="16"/>
-      <c r="K506" s="17"/>
+      <c r="G506" s="12"/>
+      <c r="J506" s="15"/>
+      <c r="K506" s="16"/>
     </row>
     <row r="507" ht="15.2" spans="7:11">
-      <c r="G507" s="13"/>
-      <c r="J507" s="16"/>
-      <c r="K507" s="17"/>
+      <c r="G507" s="12"/>
+      <c r="J507" s="15"/>
+      <c r="K507" s="16"/>
     </row>
     <row r="508" ht="15.2" spans="7:11">
-      <c r="G508" s="13"/>
-      <c r="J508" s="16"/>
-      <c r="K508" s="17"/>
+      <c r="G508" s="12"/>
+      <c r="J508" s="15"/>
+      <c r="K508" s="16"/>
     </row>
     <row r="509" ht="15.2" spans="7:11">
-      <c r="G509" s="13"/>
-      <c r="J509" s="16"/>
-      <c r="K509" s="17"/>
+      <c r="G509" s="12"/>
+      <c r="J509" s="15"/>
+      <c r="K509" s="16"/>
     </row>
     <row r="510" ht="15.2" spans="7:11">
-      <c r="G510" s="13"/>
-      <c r="J510" s="16"/>
-      <c r="K510" s="17"/>
+      <c r="G510" s="12"/>
+      <c r="J510" s="15"/>
+      <c r="K510" s="16"/>
     </row>
     <row r="511" ht="15.2" spans="7:11">
-      <c r="G511" s="13"/>
-      <c r="J511" s="16"/>
-      <c r="K511" s="17"/>
+      <c r="G511" s="12"/>
+      <c r="J511" s="15"/>
+      <c r="K511" s="16"/>
     </row>
     <row r="512" ht="15.2" spans="7:11">
-      <c r="G512" s="13"/>
-      <c r="J512" s="16"/>
-      <c r="K512" s="17"/>
+      <c r="G512" s="12"/>
+      <c r="J512" s="15"/>
+      <c r="K512" s="16"/>
     </row>
     <row r="513" ht="15.2" spans="7:11">
-      <c r="G513" s="13"/>
-      <c r="J513" s="16"/>
-      <c r="K513" s="17"/>
+      <c r="G513" s="12"/>
+      <c r="J513" s="15"/>
+      <c r="K513" s="16"/>
     </row>
     <row r="514" ht="15.2" spans="7:11">
-      <c r="G514" s="13"/>
-      <c r="J514" s="16"/>
-      <c r="K514" s="17"/>
+      <c r="G514" s="12"/>
+      <c r="J514" s="15"/>
+      <c r="K514" s="16"/>
     </row>
     <row r="515" ht="15.2" spans="7:11">
-      <c r="G515" s="13"/>
-      <c r="J515" s="16"/>
-      <c r="K515" s="17"/>
+      <c r="G515" s="12"/>
+      <c r="J515" s="15"/>
+      <c r="K515" s="16"/>
     </row>
     <row r="516" ht="15.2" spans="7:11">
-      <c r="G516" s="13"/>
-      <c r="J516" s="16"/>
-      <c r="K516" s="17"/>
+      <c r="G516" s="12"/>
+      <c r="J516" s="15"/>
+      <c r="K516" s="16"/>
     </row>
     <row r="517" ht="15.2" spans="7:11">
-      <c r="G517" s="13"/>
-      <c r="J517" s="16"/>
-      <c r="K517" s="17"/>
+      <c r="G517" s="12"/>
+      <c r="J517" s="15"/>
+      <c r="K517" s="16"/>
     </row>
     <row r="518" ht="15.2" spans="7:11">
-      <c r="G518" s="13"/>
-      <c r="J518" s="16"/>
-      <c r="K518" s="17"/>
+      <c r="G518" s="12"/>
+      <c r="J518" s="15"/>
+      <c r="K518" s="16"/>
     </row>
     <row r="519" ht="15.2" spans="7:11">
-      <c r="G519" s="13"/>
-      <c r="J519" s="16"/>
-      <c r="K519" s="17"/>
+      <c r="G519" s="12"/>
+      <c r="J519" s="15"/>
+      <c r="K519" s="16"/>
     </row>
     <row r="520" ht="15.2" spans="7:11">
-      <c r="G520" s="13"/>
-      <c r="J520" s="16"/>
-      <c r="K520" s="17"/>
+      <c r="G520" s="12"/>
+      <c r="J520" s="15"/>
+      <c r="K520" s="16"/>
     </row>
     <row r="521" ht="15.2" spans="7:11">
-      <c r="G521" s="13"/>
-      <c r="J521" s="16"/>
-      <c r="K521" s="17"/>
+      <c r="G521" s="12"/>
+      <c r="J521" s="15"/>
+      <c r="K521" s="16"/>
     </row>
     <row r="522" ht="15.2" spans="7:11">
-      <c r="G522" s="13"/>
-      <c r="J522" s="16"/>
-      <c r="K522" s="17"/>
+      <c r="G522" s="12"/>
+      <c r="J522" s="15"/>
+      <c r="K522" s="16"/>
     </row>
     <row r="523" ht="15.2" spans="7:11">
-      <c r="G523" s="13"/>
-      <c r="J523" s="16"/>
-      <c r="K523" s="17"/>
+      <c r="G523" s="12"/>
+      <c r="J523" s="15"/>
+      <c r="K523" s="16"/>
     </row>
     <row r="524" ht="15.2" spans="7:11">
-      <c r="G524" s="13"/>
-      <c r="J524" s="16"/>
-      <c r="K524" s="17"/>
+      <c r="G524" s="12"/>
+      <c r="J524" s="15"/>
+      <c r="K524" s="16"/>
     </row>
     <row r="525" ht="15.2" spans="7:11">
-      <c r="G525" s="13"/>
-      <c r="J525" s="16"/>
-      <c r="K525" s="17"/>
+      <c r="G525" s="12"/>
+      <c r="J525" s="15"/>
+      <c r="K525" s="16"/>
     </row>
     <row r="526" ht="15.2" spans="7:11">
-      <c r="G526" s="13"/>
-      <c r="J526" s="16"/>
-      <c r="K526" s="17"/>
+      <c r="G526" s="12"/>
+      <c r="J526" s="15"/>
+      <c r="K526" s="16"/>
     </row>
     <row r="527" ht="15.2" spans="7:11">
-      <c r="G527" s="13"/>
-      <c r="J527" s="16"/>
-      <c r="K527" s="17"/>
+      <c r="G527" s="12"/>
+      <c r="J527" s="15"/>
+      <c r="K527" s="16"/>
     </row>
     <row r="528" ht="15.2" spans="7:11">
-      <c r="G528" s="13"/>
-      <c r="J528" s="16"/>
-      <c r="K528" s="17"/>
+      <c r="G528" s="12"/>
+      <c r="J528" s="15"/>
+      <c r="K528" s="16"/>
     </row>
     <row r="529" ht="15.2" spans="7:11">
-      <c r="G529" s="13"/>
-      <c r="J529" s="16"/>
-      <c r="K529" s="17"/>
+      <c r="G529" s="12"/>
+      <c r="J529" s="15"/>
+      <c r="K529" s="16"/>
     </row>
     <row r="530" ht="15.2" spans="7:11">
-      <c r="G530" s="13"/>
-      <c r="J530" s="16"/>
-      <c r="K530" s="17"/>
+      <c r="G530" s="12"/>
+      <c r="J530" s="15"/>
+      <c r="K530" s="16"/>
     </row>
     <row r="531" ht="15.2" spans="7:11">
-      <c r="G531" s="13"/>
-      <c r="J531" s="16"/>
-      <c r="K531" s="17"/>
+      <c r="G531" s="12"/>
+      <c r="J531" s="15"/>
+      <c r="K531" s="16"/>
     </row>
     <row r="532" ht="15.2" spans="7:11">
-      <c r="G532" s="13"/>
-      <c r="J532" s="16"/>
-      <c r="K532" s="17"/>
+      <c r="G532" s="12"/>
+      <c r="J532" s="15"/>
+      <c r="K532" s="16"/>
     </row>
     <row r="533" ht="15.2" spans="7:11">
-      <c r="G533" s="13"/>
-      <c r="J533" s="16"/>
-      <c r="K533" s="17"/>
+      <c r="G533" s="12"/>
+      <c r="J533" s="15"/>
+      <c r="K533" s="16"/>
     </row>
     <row r="534" ht="15.2" spans="7:11">
-      <c r="G534" s="13"/>
-      <c r="J534" s="16"/>
-      <c r="K534" s="17"/>
+      <c r="G534" s="12"/>
+      <c r="J534" s="15"/>
+      <c r="K534" s="16"/>
     </row>
     <row r="535" ht="15.2" spans="7:11">
-      <c r="G535" s="13"/>
-      <c r="J535" s="16"/>
-      <c r="K535" s="17"/>
+      <c r="G535" s="12"/>
+      <c r="J535" s="15"/>
+      <c r="K535" s="16"/>
     </row>
     <row r="536" ht="15.2" spans="7:11">
-      <c r="G536" s="13"/>
-      <c r="J536" s="16"/>
-      <c r="K536" s="17"/>
+      <c r="G536" s="12"/>
+      <c r="J536" s="15"/>
+      <c r="K536" s="16"/>
     </row>
     <row r="537" ht="15.2" spans="7:11">
-      <c r="G537" s="13"/>
-      <c r="J537" s="16"/>
-      <c r="K537" s="17"/>
+      <c r="G537" s="12"/>
+      <c r="J537" s="15"/>
+      <c r="K537" s="16"/>
     </row>
     <row r="538" ht="15.2" spans="7:11">
-      <c r="G538" s="13"/>
-      <c r="J538" s="16"/>
-      <c r="K538" s="17"/>
+      <c r="G538" s="12"/>
+      <c r="J538" s="15"/>
+      <c r="K538" s="16"/>
     </row>
     <row r="539" ht="15.2" spans="7:11">
-      <c r="G539" s="13"/>
-      <c r="J539" s="16"/>
-      <c r="K539" s="17"/>
+      <c r="G539" s="12"/>
+      <c r="J539" s="15"/>
+      <c r="K539" s="16"/>
     </row>
     <row r="540" ht="15.2" spans="7:11">
-      <c r="G540" s="13"/>
-      <c r="J540" s="16"/>
-      <c r="K540" s="17"/>
+      <c r="G540" s="12"/>
+      <c r="J540" s="15"/>
+      <c r="K540" s="16"/>
     </row>
     <row r="541" ht="15.2" spans="7:11">
-      <c r="G541" s="13"/>
-      <c r="J541" s="16"/>
-      <c r="K541" s="17"/>
+      <c r="G541" s="12"/>
+      <c r="J541" s="15"/>
+      <c r="K541" s="16"/>
     </row>
     <row r="542" ht="15.2" spans="7:11">
-      <c r="G542" s="13"/>
-      <c r="J542" s="16"/>
-      <c r="K542" s="17"/>
+      <c r="G542" s="12"/>
+      <c r="J542" s="15"/>
+      <c r="K542" s="16"/>
     </row>
     <row r="543" ht="15.2" spans="7:11">
-      <c r="G543" s="13"/>
-      <c r="J543" s="16"/>
-      <c r="K543" s="17"/>
+      <c r="G543" s="12"/>
+      <c r="J543" s="15"/>
+      <c r="K543" s="16"/>
     </row>
     <row r="544" ht="15.2" spans="7:11">
-      <c r="G544" s="13"/>
-      <c r="J544" s="16"/>
-      <c r="K544" s="17"/>
+      <c r="G544" s="12"/>
+      <c r="J544" s="15"/>
+      <c r="K544" s="16"/>
     </row>
     <row r="545" ht="15.2" spans="7:11">
-      <c r="G545" s="13"/>
-      <c r="J545" s="16"/>
-      <c r="K545" s="17"/>
+      <c r="G545" s="12"/>
+      <c r="J545" s="15"/>
+      <c r="K545" s="16"/>
     </row>
     <row r="546" ht="15.2" spans="7:11">
-      <c r="G546" s="13"/>
-      <c r="J546" s="16"/>
-      <c r="K546" s="17"/>
+      <c r="G546" s="12"/>
+      <c r="J546" s="15"/>
+      <c r="K546" s="16"/>
     </row>
     <row r="547" ht="15.2" spans="7:11">
-      <c r="G547" s="13"/>
-      <c r="J547" s="16"/>
-      <c r="K547" s="17"/>
+      <c r="G547" s="12"/>
+      <c r="J547" s="15"/>
+      <c r="K547" s="16"/>
     </row>
     <row r="548" ht="15.2" spans="7:11">
-      <c r="G548" s="13"/>
-      <c r="J548" s="16"/>
-      <c r="K548" s="17"/>
+      <c r="G548" s="12"/>
+      <c r="J548" s="15"/>
+      <c r="K548" s="16"/>
     </row>
     <row r="549" ht="15.2" spans="7:11">
-      <c r="G549" s="13"/>
-      <c r="J549" s="16"/>
-      <c r="K549" s="17"/>
+      <c r="G549" s="12"/>
+      <c r="J549" s="15"/>
+      <c r="K549" s="16"/>
     </row>
     <row r="550" ht="15.2" spans="7:11">
-      <c r="G550" s="13"/>
-      <c r="J550" s="16"/>
-      <c r="K550" s="17"/>
+      <c r="G550" s="12"/>
+      <c r="J550" s="15"/>
+      <c r="K550" s="16"/>
     </row>
     <row r="551" ht="15.2" spans="7:11">
-      <c r="G551" s="13"/>
-      <c r="J551" s="16"/>
-      <c r="K551" s="17"/>
+      <c r="G551" s="12"/>
+      <c r="J551" s="15"/>
+      <c r="K551" s="16"/>
     </row>
     <row r="552" ht="15.2" spans="7:11">
-      <c r="G552" s="13"/>
-      <c r="J552" s="16"/>
-      <c r="K552" s="17"/>
+      <c r="G552" s="12"/>
+      <c r="J552" s="15"/>
+      <c r="K552" s="16"/>
     </row>
     <row r="553" ht="15.2" spans="7:11">
-      <c r="G553" s="13"/>
-      <c r="J553" s="16"/>
-      <c r="K553" s="17"/>
+      <c r="G553" s="12"/>
+      <c r="J553" s="15"/>
+      <c r="K553" s="16"/>
     </row>
     <row r="554" ht="15.2" spans="7:11">
-      <c r="G554" s="13"/>
-      <c r="J554" s="16"/>
-      <c r="K554" s="17"/>
+      <c r="G554" s="12"/>
+      <c r="J554" s="15"/>
+      <c r="K554" s="16"/>
     </row>
     <row r="555" ht="15.2" spans="7:11">
-      <c r="G555" s="13"/>
-      <c r="J555" s="16"/>
-      <c r="K555" s="17"/>
+      <c r="G555" s="12"/>
+      <c r="J555" s="15"/>
+      <c r="K555" s="16"/>
     </row>
     <row r="556" ht="15.2" spans="7:11">
-      <c r="G556" s="13"/>
-      <c r="J556" s="16"/>
-      <c r="K556" s="17"/>
+      <c r="G556" s="12"/>
+      <c r="J556" s="15"/>
+      <c r="K556" s="16"/>
     </row>
     <row r="557" ht="15.2" spans="7:11">
-      <c r="G557" s="13"/>
-      <c r="J557" s="16"/>
-      <c r="K557" s="17"/>
+      <c r="G557" s="12"/>
+      <c r="J557" s="15"/>
+      <c r="K557" s="16"/>
     </row>
     <row r="558" ht="15.2" spans="7:11">
-      <c r="G558" s="13"/>
-      <c r="J558" s="16"/>
-      <c r="K558" s="17"/>
+      <c r="G558" s="12"/>
+      <c r="J558" s="15"/>
+      <c r="K558" s="16"/>
     </row>
     <row r="559" ht="15.2" spans="7:11">
-      <c r="G559" s="13"/>
-      <c r="J559" s="16"/>
-      <c r="K559" s="17"/>
+      <c r="G559" s="12"/>
+      <c r="J559" s="15"/>
+      <c r="K559" s="16"/>
     </row>
     <row r="560" ht="15.2" spans="7:11">
-      <c r="G560" s="13"/>
-      <c r="J560" s="16"/>
-      <c r="K560" s="17"/>
+      <c r="G560" s="12"/>
+      <c r="J560" s="15"/>
+      <c r="K560" s="16"/>
     </row>
     <row r="561" ht="15.2" spans="7:11">
-      <c r="G561" s="13"/>
-      <c r="J561" s="16"/>
-      <c r="K561" s="17"/>
+      <c r="G561" s="12"/>
+      <c r="J561" s="15"/>
+      <c r="K561" s="16"/>
     </row>
     <row r="562" ht="15.2" spans="7:11">
-      <c r="G562" s="13"/>
-      <c r="J562" s="16"/>
-      <c r="K562" s="17"/>
+      <c r="G562" s="12"/>
+      <c r="J562" s="15"/>
+      <c r="K562" s="16"/>
     </row>
     <row r="563" ht="15.2" spans="7:11">
-      <c r="G563" s="13"/>
-      <c r="J563" s="16"/>
-      <c r="K563" s="17"/>
+      <c r="G563" s="12"/>
+      <c r="J563" s="15"/>
+      <c r="K563" s="16"/>
     </row>
     <row r="564" ht="15.2" spans="7:11">
-      <c r="G564" s="13"/>
-      <c r="J564" s="16"/>
-      <c r="K564" s="17"/>
+      <c r="G564" s="12"/>
+      <c r="J564" s="15"/>
+      <c r="K564" s="16"/>
     </row>
     <row r="565" ht="15.2" spans="7:11">
-      <c r="G565" s="13"/>
-      <c r="J565" s="16"/>
-      <c r="K565" s="17"/>
+      <c r="G565" s="12"/>
+      <c r="J565" s="15"/>
+      <c r="K565" s="16"/>
     </row>
     <row r="566" ht="15.2" spans="7:11">
-      <c r="G566" s="13"/>
-      <c r="J566" s="16"/>
-      <c r="K566" s="17"/>
+      <c r="G566" s="12"/>
+      <c r="J566" s="15"/>
+      <c r="K566" s="16"/>
     </row>
     <row r="567" ht="15.2" spans="7:11">
-      <c r="G567" s="13"/>
-      <c r="J567" s="16"/>
-      <c r="K567" s="17"/>
+      <c r="G567" s="12"/>
+      <c r="J567" s="15"/>
+      <c r="K567" s="16"/>
     </row>
     <row r="568" ht="15.2" spans="7:11">
-      <c r="G568" s="13"/>
-      <c r="J568" s="16"/>
-      <c r="K568" s="17"/>
+      <c r="G568" s="12"/>
+      <c r="J568" s="15"/>
+      <c r="K568" s="16"/>
     </row>
     <row r="569" ht="15.2" spans="7:11">
-      <c r="G569" s="13"/>
-      <c r="J569" s="16"/>
-      <c r="K569" s="17"/>
+      <c r="G569" s="12"/>
+      <c r="J569" s="15"/>
+      <c r="K569" s="16"/>
     </row>
     <row r="570" ht="15.2" spans="7:11">
-      <c r="G570" s="13"/>
-      <c r="J570" s="16"/>
-      <c r="K570" s="17"/>
+      <c r="G570" s="12"/>
+      <c r="J570" s="15"/>
+      <c r="K570" s="16"/>
     </row>
     <row r="571" ht="15.2" spans="7:11">
-      <c r="G571" s="13"/>
-      <c r="J571" s="16"/>
-      <c r="K571" s="17"/>
+      <c r="G571" s="12"/>
+      <c r="J571" s="15"/>
+      <c r="K571" s="16"/>
     </row>
     <row r="572" ht="15.2" spans="7:11">
-      <c r="G572" s="13"/>
-      <c r="J572" s="16"/>
-      <c r="K572" s="17"/>
+      <c r="G572" s="12"/>
+      <c r="J572" s="15"/>
+      <c r="K572" s="16"/>
     </row>
     <row r="573" ht="15.2" spans="7:11">
-      <c r="G573" s="13"/>
-      <c r="J573" s="16"/>
-      <c r="K573" s="17"/>
+      <c r="G573" s="12"/>
+      <c r="J573" s="15"/>
+      <c r="K573" s="16"/>
     </row>
     <row r="574" ht="15.2" spans="7:11">
-      <c r="G574" s="13"/>
-      <c r="J574" s="16"/>
-      <c r="K574" s="17"/>
+      <c r="G574" s="12"/>
+      <c r="J574" s="15"/>
+      <c r="K574" s="16"/>
     </row>
     <row r="575" ht="15.2" spans="7:11">
-      <c r="G575" s="13"/>
-      <c r="J575" s="16"/>
-      <c r="K575" s="17"/>
+      <c r="G575" s="12"/>
+      <c r="J575" s="15"/>
+      <c r="K575" s="16"/>
     </row>
     <row r="576" ht="15.2" spans="7:11">
-      <c r="G576" s="13"/>
-      <c r="J576" s="16"/>
-      <c r="K576" s="17"/>
+      <c r="G576" s="12"/>
+      <c r="J576" s="15"/>
+      <c r="K576" s="16"/>
     </row>
     <row r="577" ht="15.2" spans="7:11">
-      <c r="G577" s="13"/>
-      <c r="J577" s="16"/>
-      <c r="K577" s="17"/>
+      <c r="G577" s="12"/>
+      <c r="J577" s="15"/>
+      <c r="K577" s="16"/>
     </row>
     <row r="578" ht="15.2" spans="7:11">
-      <c r="G578" s="13"/>
-      <c r="J578" s="16"/>
-      <c r="K578" s="17"/>
+      <c r="G578" s="12"/>
+      <c r="J578" s="15"/>
+      <c r="K578" s="16"/>
     </row>
     <row r="579" ht="15.2" spans="7:11">
-      <c r="G579" s="13"/>
-      <c r="J579" s="16"/>
-      <c r="K579" s="17"/>
+      <c r="G579" s="12"/>
+      <c r="J579" s="15"/>
+      <c r="K579" s="16"/>
     </row>
     <row r="580" ht="15.2" spans="7:11">
-      <c r="G580" s="13"/>
-      <c r="J580" s="16"/>
-      <c r="K580" s="17"/>
+      <c r="G580" s="12"/>
+      <c r="J580" s="15"/>
+      <c r="K580" s="16"/>
     </row>
     <row r="581" ht="15.2" spans="7:11">
-      <c r="G581" s="13"/>
-      <c r="J581" s="16"/>
-      <c r="K581" s="17"/>
+      <c r="G581" s="12"/>
+      <c r="J581" s="15"/>
+      <c r="K581" s="16"/>
     </row>
     <row r="582" ht="15.2" spans="7:11">
-      <c r="G582" s="13"/>
-      <c r="J582" s="16"/>
-      <c r="K582" s="17"/>
+      <c r="G582" s="12"/>
+      <c r="J582" s="15"/>
+      <c r="K582" s="16"/>
     </row>
     <row r="583" ht="15.2" spans="7:11">
-      <c r="G583" s="13"/>
-      <c r="J583" s="16"/>
-      <c r="K583" s="17"/>
+      <c r="G583" s="12"/>
+      <c r="J583" s="15"/>
+      <c r="K583" s="16"/>
     </row>
     <row r="584" ht="15.2" spans="7:11">
-      <c r="G584" s="13"/>
-      <c r="J584" s="16"/>
-      <c r="K584" s="17"/>
+      <c r="G584" s="12"/>
+      <c r="J584" s="15"/>
+      <c r="K584" s="16"/>
     </row>
     <row r="585" ht="15.2" spans="7:11">
-      <c r="G585" s="13"/>
-      <c r="J585" s="16"/>
-      <c r="K585" s="17"/>
+      <c r="G585" s="12"/>
+      <c r="J585" s="15"/>
+      <c r="K585" s="16"/>
     </row>
     <row r="586" ht="15.2" spans="7:11">
-      <c r="G586" s="13"/>
-      <c r="J586" s="16"/>
-      <c r="K586" s="17"/>
+      <c r="G586" s="12"/>
+      <c r="J586" s="15"/>
+      <c r="K586" s="16"/>
     </row>
     <row r="587" ht="15.2" spans="7:11">
-      <c r="G587" s="13"/>
-      <c r="J587" s="16"/>
-      <c r="K587" s="17"/>
+      <c r="G587" s="12"/>
+      <c r="J587" s="15"/>
+      <c r="K587" s="16"/>
     </row>
     <row r="588" ht="15.2" spans="7:11">
-      <c r="G588" s="13"/>
-      <c r="J588" s="16"/>
-      <c r="K588" s="17"/>
+      <c r="G588" s="12"/>
+      <c r="J588" s="15"/>
+      <c r="K588" s="16"/>
     </row>
     <row r="589" ht="15.2" spans="7:11">
-      <c r="G589" s="13"/>
-      <c r="J589" s="16"/>
-      <c r="K589" s="17"/>
+      <c r="G589" s="12"/>
+      <c r="J589" s="15"/>
+      <c r="K589" s="16"/>
     </row>
     <row r="590" ht="15.2" spans="7:11">
-      <c r="G590" s="13"/>
-      <c r="J590" s="16"/>
-      <c r="K590" s="17"/>
+      <c r="G590" s="12"/>
+      <c r="J590" s="15"/>
+      <c r="K590" s="16"/>
     </row>
     <row r="591" ht="15.2" spans="7:11">
-      <c r="G591" s="13"/>
-      <c r="J591" s="16"/>
-      <c r="K591" s="17"/>
+      <c r="G591" s="12"/>
+      <c r="J591" s="15"/>
+      <c r="K591" s="16"/>
     </row>
     <row r="592" ht="15.2" spans="7:11">
-      <c r="G592" s="13"/>
-      <c r="J592" s="16"/>
-      <c r="K592" s="17"/>
+      <c r="G592" s="12"/>
+      <c r="J592" s="15"/>
+      <c r="K592" s="16"/>
     </row>
     <row r="593" ht="15.2" spans="7:11">
-      <c r="G593" s="13"/>
-      <c r="J593" s="16"/>
-      <c r="K593" s="17"/>
+      <c r="G593" s="12"/>
+      <c r="J593" s="15"/>
+      <c r="K593" s="16"/>
     </row>
     <row r="594" ht="15.2" spans="7:11">
-      <c r="G594" s="13"/>
-      <c r="J594" s="16"/>
-      <c r="K594" s="17"/>
+      <c r="G594" s="12"/>
+      <c r="J594" s="15"/>
+      <c r="K594" s="16"/>
     </row>
     <row r="595" ht="15.2" spans="7:11">
-      <c r="G595" s="13"/>
-      <c r="J595" s="16"/>
-      <c r="K595" s="17"/>
+      <c r="G595" s="12"/>
+      <c r="J595" s="15"/>
+      <c r="K595" s="16"/>
     </row>
     <row r="596" ht="15.2" spans="7:11">
-      <c r="G596" s="13"/>
-      <c r="J596" s="16"/>
-      <c r="K596" s="17"/>
+      <c r="G596" s="12"/>
+      <c r="J596" s="15"/>
+      <c r="K596" s="16"/>
     </row>
     <row r="597" ht="15.2" spans="7:11">
-      <c r="G597" s="13"/>
-      <c r="J597" s="16"/>
-      <c r="K597" s="17"/>
+      <c r="G597" s="12"/>
+      <c r="J597" s="15"/>
+      <c r="K597" s="16"/>
     </row>
     <row r="598" ht="15.2" spans="7:11">
-      <c r="G598" s="13"/>
-      <c r="J598" s="16"/>
-      <c r="K598" s="17"/>
+      <c r="G598" s="12"/>
+      <c r="J598" s="15"/>
+      <c r="K598" s="16"/>
     </row>
     <row r="599" ht="15.2" spans="7:11">
-      <c r="G599" s="13"/>
-      <c r="J599" s="16"/>
-      <c r="K599" s="17"/>
+      <c r="G599" s="12"/>
+      <c r="J599" s="15"/>
+      <c r="K599" s="16"/>
     </row>
     <row r="600" ht="15.2" spans="7:11">
-      <c r="G600" s="13"/>
-      <c r="J600" s="16"/>
-      <c r="K600" s="17"/>
+      <c r="G600" s="12"/>
+      <c r="J600" s="15"/>
+      <c r="K600" s="16"/>
     </row>
     <row r="601" ht="15.2" spans="7:11">
-      <c r="G601" s="13"/>
-      <c r="J601" s="16"/>
-      <c r="K601" s="17"/>
+      <c r="G601" s="12"/>
+      <c r="J601" s="15"/>
+      <c r="K601" s="16"/>
     </row>
     <row r="602" ht="15.2" spans="7:11">
-      <c r="G602" s="13"/>
-      <c r="J602" s="16"/>
-      <c r="K602" s="17"/>
+      <c r="G602" s="12"/>
+      <c r="J602" s="15"/>
+      <c r="K602" s="16"/>
     </row>
     <row r="603" ht="15.2" spans="7:11">
-      <c r="G603" s="13"/>
-      <c r="J603" s="16"/>
-      <c r="K603" s="17"/>
+      <c r="G603" s="12"/>
+      <c r="J603" s="15"/>
+      <c r="K603" s="16"/>
     </row>
     <row r="604" ht="15.2" spans="7:11">
-      <c r="G604" s="13"/>
-      <c r="J604" s="16"/>
-      <c r="K604" s="17"/>
+      <c r="G604" s="12"/>
+      <c r="J604" s="15"/>
+      <c r="K604" s="16"/>
     </row>
     <row r="605" ht="15.2" spans="7:11">
-      <c r="G605" s="13"/>
-      <c r="J605" s="16"/>
-      <c r="K605" s="17"/>
+      <c r="G605" s="12"/>
+      <c r="J605" s="15"/>
+      <c r="K605" s="16"/>
     </row>
     <row r="606" ht="15.2" spans="7:11">
-      <c r="G606" s="13"/>
-      <c r="J606" s="16"/>
-      <c r="K606" s="17"/>
+      <c r="G606" s="12"/>
+      <c r="J606" s="15"/>
+      <c r="K606" s="16"/>
     </row>
     <row r="607" ht="15.2" spans="7:11">
-      <c r="G607" s="13"/>
-      <c r="J607" s="16"/>
-      <c r="K607" s="17"/>
+      <c r="G607" s="12"/>
+      <c r="J607" s="15"/>
+      <c r="K607" s="16"/>
     </row>
     <row r="608" ht="15.2" spans="7:11">
-      <c r="G608" s="13"/>
-      <c r="J608" s="16"/>
-      <c r="K608" s="17"/>
+      <c r="G608" s="12"/>
+      <c r="J608" s="15"/>
+      <c r="K608" s="16"/>
     </row>
     <row r="609" ht="15.2" spans="7:11">
-      <c r="G609" s="13"/>
-      <c r="J609" s="16"/>
-      <c r="K609" s="17"/>
+      <c r="G609" s="12"/>
+      <c r="J609" s="15"/>
+      <c r="K609" s="16"/>
     </row>
     <row r="610" ht="15.2" spans="7:11">
-      <c r="G610" s="13"/>
-      <c r="J610" s="16"/>
-      <c r="K610" s="17"/>
+      <c r="G610" s="12"/>
+      <c r="J610" s="15"/>
+      <c r="K610" s="16"/>
     </row>
     <row r="611" ht="15.2" spans="7:11">
-      <c r="G611" s="13"/>
-      <c r="J611" s="16"/>
-      <c r="K611" s="17"/>
+      <c r="G611" s="12"/>
+      <c r="J611" s="15"/>
+      <c r="K611" s="16"/>
     </row>
     <row r="612" ht="15.2" spans="7:11">
-      <c r="G612" s="13"/>
-      <c r="J612" s="16"/>
-      <c r="K612" s="17"/>
+      <c r="G612" s="12"/>
+      <c r="J612" s="15"/>
+      <c r="K612" s="16"/>
     </row>
     <row r="613" ht="15.2" spans="7:11">
-      <c r="G613" s="13"/>
-      <c r="J613" s="16"/>
-      <c r="K613" s="17"/>
+      <c r="G613" s="12"/>
+      <c r="J613" s="15"/>
+      <c r="K613" s="16"/>
     </row>
     <row r="614" ht="15.2" spans="7:11">
-      <c r="G614" s="13"/>
-      <c r="J614" s="16"/>
-      <c r="K614" s="17"/>
+      <c r="G614" s="12"/>
+      <c r="J614" s="15"/>
+      <c r="K614" s="16"/>
     </row>
     <row r="615" ht="15.2" spans="7:11">
-      <c r="G615" s="13"/>
-      <c r="J615" s="16"/>
-      <c r="K615" s="17"/>
+      <c r="G615" s="12"/>
+      <c r="J615" s="15"/>
+      <c r="K615" s="16"/>
     </row>
     <row r="616" ht="15.2" spans="7:11">
-      <c r="G616" s="13"/>
-      <c r="J616" s="16"/>
-      <c r="K616" s="17"/>
+      <c r="G616" s="12"/>
+      <c r="J616" s="15"/>
+      <c r="K616" s="16"/>
     </row>
     <row r="617" ht="15.2" spans="7:11">
-      <c r="G617" s="13"/>
-      <c r="J617" s="16"/>
-      <c r="K617" s="17"/>
+      <c r="G617" s="12"/>
+      <c r="J617" s="15"/>
+      <c r="K617" s="16"/>
     </row>
     <row r="618" ht="15.2" spans="7:11">
-      <c r="G618" s="13"/>
-      <c r="J618" s="16"/>
-      <c r="K618" s="17"/>
+      <c r="G618" s="12"/>
+      <c r="J618" s="15"/>
+      <c r="K618" s="16"/>
     </row>
     <row r="619" ht="15.2" spans="7:11">
-      <c r="G619" s="13"/>
-      <c r="J619" s="16"/>
-      <c r="K619" s="17"/>
+      <c r="G619" s="12"/>
+      <c r="J619" s="15"/>
+      <c r="K619" s="16"/>
     </row>
     <row r="620" ht="15.2" spans="7:11">
-      <c r="G620" s="13"/>
-      <c r="J620" s="16"/>
-      <c r="K620" s="17"/>
+      <c r="G620" s="12"/>
+      <c r="J620" s="15"/>
+      <c r="K620" s="16"/>
     </row>
     <row r="621" ht="15.2" spans="7:11">
-      <c r="G621" s="13"/>
-      <c r="J621" s="16"/>
-      <c r="K621" s="17"/>
+      <c r="G621" s="12"/>
+      <c r="J621" s="15"/>
+      <c r="K621" s="16"/>
     </row>
     <row r="622" ht="15.2" spans="7:11">
-      <c r="G622" s="13"/>
-      <c r="J622" s="16"/>
-      <c r="K622" s="17"/>
+      <c r="G622" s="12"/>
+      <c r="J622" s="15"/>
+      <c r="K622" s="16"/>
     </row>
     <row r="623" ht="15.2" spans="7:11">
-      <c r="G623" s="13"/>
-      <c r="J623" s="16"/>
-      <c r="K623" s="17"/>
+      <c r="G623" s="12"/>
+      <c r="J623" s="15"/>
+      <c r="K623" s="16"/>
     </row>
     <row r="624" ht="15.2" spans="7:11">
-      <c r="G624" s="13"/>
-      <c r="J624" s="16"/>
-      <c r="K624" s="17"/>
+      <c r="G624" s="12"/>
+      <c r="J624" s="15"/>
+      <c r="K624" s="16"/>
     </row>
     <row r="625" ht="15.2" spans="7:11">
-      <c r="G625" s="13"/>
-      <c r="J625" s="16"/>
-      <c r="K625" s="17"/>
+      <c r="G625" s="12"/>
+      <c r="J625" s="15"/>
+      <c r="K625" s="16"/>
     </row>
     <row r="626" ht="15.2" spans="7:11">
-      <c r="G626" s="13"/>
-      <c r="J626" s="16"/>
-      <c r="K626" s="17"/>
+      <c r="G626" s="12"/>
+      <c r="J626" s="15"/>
+      <c r="K626" s="16"/>
     </row>
     <row r="627" ht="15.2" spans="7:11">
-      <c r="G627" s="13"/>
-      <c r="J627" s="16"/>
-      <c r="K627" s="17"/>
+      <c r="G627" s="12"/>
+      <c r="J627" s="15"/>
+      <c r="K627" s="16"/>
     </row>
     <row r="628" ht="15.2" spans="7:11">
-      <c r="G628" s="13"/>
-      <c r="J628" s="16"/>
-      <c r="K628" s="17"/>
+      <c r="G628" s="12"/>
+      <c r="J628" s="15"/>
+      <c r="K628" s="16"/>
     </row>
     <row r="629" ht="15.2" spans="7:11">
-      <c r="G629" s="13"/>
-      <c r="J629" s="16"/>
-      <c r="K629" s="17"/>
+      <c r="G629" s="12"/>
+      <c r="J629" s="15"/>
+      <c r="K629" s="16"/>
     </row>
     <row r="630" ht="15.2" spans="7:11">
-      <c r="G630" s="13"/>
-      <c r="J630" s="16"/>
-      <c r="K630" s="17"/>
+      <c r="G630" s="12"/>
+      <c r="J630" s="15"/>
+      <c r="K630" s="16"/>
     </row>
     <row r="631" ht="15.2" spans="7:11">
-      <c r="G631" s="13"/>
-      <c r="J631" s="16"/>
-      <c r="K631" s="17"/>
+      <c r="G631" s="12"/>
+      <c r="J631" s="15"/>
+      <c r="K631" s="16"/>
     </row>
     <row r="632" ht="15.2" spans="7:11">
-      <c r="G632" s="13"/>
-      <c r="J632" s="16"/>
-      <c r="K632" s="17"/>
+      <c r="G632" s="12"/>
+      <c r="J632" s="15"/>
+      <c r="K632" s="16"/>
     </row>
     <row r="633" ht="15.2" spans="7:11">
-      <c r="G633" s="13"/>
-      <c r="J633" s="16"/>
-      <c r="K633" s="17"/>
+      <c r="G633" s="12"/>
+      <c r="J633" s="15"/>
+      <c r="K633" s="16"/>
     </row>
     <row r="634" ht="15.2" spans="7:11">
-      <c r="G634" s="13"/>
-      <c r="J634" s="16"/>
-      <c r="K634" s="17"/>
+      <c r="G634" s="12"/>
+      <c r="J634" s="15"/>
+      <c r="K634" s="16"/>
     </row>
     <row r="635" ht="15.2" spans="7:11">
-      <c r="G635" s="13"/>
-      <c r="J635" s="16"/>
-      <c r="K635" s="17"/>
+      <c r="G635" s="12"/>
+      <c r="J635" s="15"/>
+      <c r="K635" s="16"/>
     </row>
     <row r="636" ht="15.2" spans="7:11">
-      <c r="G636" s="13"/>
-      <c r="J636" s="16"/>
-      <c r="K636" s="17"/>
+      <c r="G636" s="12"/>
+      <c r="J636" s="15"/>
+      <c r="K636" s="16"/>
     </row>
     <row r="637" ht="15.2" spans="7:11">
-      <c r="G637" s="13"/>
-      <c r="J637" s="16"/>
-      <c r="K637" s="17"/>
+      <c r="G637" s="12"/>
+      <c r="J637" s="15"/>
+      <c r="K637" s="16"/>
     </row>
     <row r="638" ht="15.2" spans="7:11">
-      <c r="G638" s="13"/>
-      <c r="J638" s="16"/>
-      <c r="K638" s="17"/>
+      <c r="G638" s="12"/>
+      <c r="J638" s="15"/>
+      <c r="K638" s="16"/>
     </row>
     <row r="639" ht="15.2" spans="7:11">
-      <c r="G639" s="13"/>
-      <c r="J639" s="16"/>
-      <c r="K639" s="17"/>
+      <c r="G639" s="12"/>
+      <c r="J639" s="15"/>
+      <c r="K639" s="16"/>
     </row>
     <row r="640" ht="15.2" spans="7:11">
-      <c r="G640" s="13"/>
-      <c r="J640" s="16"/>
-      <c r="K640" s="17"/>
+      <c r="G640" s="12"/>
+      <c r="J640" s="15"/>
+      <c r="K640" s="16"/>
     </row>
     <row r="641" ht="15.2" spans="7:11">
-      <c r="G641" s="13"/>
-      <c r="J641" s="16"/>
-      <c r="K641" s="17"/>
+      <c r="G641" s="12"/>
+      <c r="J641" s="15"/>
+      <c r="K641" s="16"/>
     </row>
     <row r="642" ht="15.2" spans="7:11">
-      <c r="G642" s="13"/>
-      <c r="J642" s="16"/>
-      <c r="K642" s="17"/>
+      <c r="G642" s="12"/>
+      <c r="J642" s="15"/>
+      <c r="K642" s="16"/>
     </row>
     <row r="643" ht="15.2" spans="7:11">
-      <c r="G643" s="13"/>
-      <c r="J643" s="16"/>
-      <c r="K643" s="17"/>
+      <c r="G643" s="12"/>
+      <c r="J643" s="15"/>
+      <c r="K643" s="16"/>
     </row>
     <row r="644" ht="15.2" spans="7:11">
-      <c r="G644" s="13"/>
-      <c r="J644" s="16"/>
-      <c r="K644" s="17"/>
+      <c r="G644" s="12"/>
+      <c r="J644" s="15"/>
+      <c r="K644" s="16"/>
     </row>
     <row r="645" ht="15.2" spans="7:11">
-      <c r="G645" s="13"/>
-      <c r="J645" s="16"/>
-      <c r="K645" s="17"/>
+      <c r="G645" s="12"/>
+      <c r="J645" s="15"/>
+      <c r="K645" s="16"/>
     </row>
     <row r="646" ht="15.2" spans="7:11">
-      <c r="G646" s="13"/>
-      <c r="J646" s="16"/>
-      <c r="K646" s="17"/>
+      <c r="G646" s="12"/>
+      <c r="J646" s="15"/>
+      <c r="K646" s="16"/>
     </row>
     <row r="647" ht="15.2" spans="7:11">
-      <c r="G647" s="13"/>
-      <c r="J647" s="16"/>
-      <c r="K647" s="17"/>
+      <c r="G647" s="12"/>
+      <c r="J647" s="15"/>
+      <c r="K647" s="16"/>
     </row>
     <row r="648" ht="15.2" spans="7:11">
-      <c r="G648" s="13"/>
-      <c r="J648" s="16"/>
-      <c r="K648" s="17"/>
+      <c r="G648" s="12"/>
+      <c r="J648" s="15"/>
+      <c r="K648" s="16"/>
     </row>
     <row r="649" ht="15.2" spans="7:11">
-      <c r="G649" s="13"/>
-      <c r="J649" s="16"/>
-      <c r="K649" s="17"/>
+      <c r="G649" s="12"/>
+      <c r="J649" s="15"/>
+      <c r="K649" s="16"/>
     </row>
     <row r="650" ht="15.2" spans="7:11">
-      <c r="G650" s="13"/>
-      <c r="J650" s="16"/>
-      <c r="K650" s="17"/>
+      <c r="G650" s="12"/>
+      <c r="J650" s="15"/>
+      <c r="K650" s="16"/>
     </row>
     <row r="651" ht="15.2" spans="7:11">
-      <c r="G651" s="13"/>
-      <c r="J651" s="16"/>
-      <c r="K651" s="17"/>
+      <c r="G651" s="12"/>
+      <c r="J651" s="15"/>
+      <c r="K651" s="16"/>
     </row>
     <row r="652" ht="15.2" spans="7:11">
-      <c r="G652" s="13"/>
-      <c r="J652" s="16"/>
-      <c r="K652" s="17"/>
+      <c r="G652" s="12"/>
+      <c r="J652" s="15"/>
+      <c r="K652" s="16"/>
     </row>
     <row r="653" ht="15.2" spans="7:11">
-      <c r="G653" s="13"/>
-      <c r="J653" s="16"/>
-      <c r="K653" s="17"/>
+      <c r="G653" s="12"/>
+      <c r="J653" s="15"/>
+      <c r="K653" s="16"/>
     </row>
     <row r="654" ht="15.2" spans="7:11">
-      <c r="G654" s="13"/>
-      <c r="J654" s="16"/>
-      <c r="K654" s="17"/>
+      <c r="G654" s="12"/>
+      <c r="J654" s="15"/>
+      <c r="K654" s="16"/>
     </row>
     <row r="655" ht="15.2" spans="7:11">
-      <c r="G655" s="13"/>
-      <c r="J655" s="16"/>
-      <c r="K655" s="17"/>
+      <c r="G655" s="12"/>
+      <c r="J655" s="15"/>
+      <c r="K655" s="16"/>
     </row>
     <row r="656" ht="15.2" spans="7:11">
-      <c r="G656" s="13"/>
-      <c r="J656" s="16"/>
-      <c r="K656" s="17"/>
+      <c r="G656" s="12"/>
+      <c r="J656" s="15"/>
+      <c r="K656" s="16"/>
     </row>
     <row r="657" ht="15.2" spans="7:11">
-      <c r="G657" s="13"/>
-      <c r="J657" s="16"/>
-      <c r="K657" s="17"/>
+      <c r="G657" s="12"/>
+      <c r="J657" s="15"/>
+      <c r="K657" s="16"/>
     </row>
     <row r="658" ht="15.2" spans="7:11">
-      <c r="G658" s="13"/>
-      <c r="J658" s="16"/>
-      <c r="K658" s="17"/>
+      <c r="G658" s="12"/>
+      <c r="J658" s="15"/>
+      <c r="K658" s="16"/>
     </row>
     <row r="659" ht="15.2" spans="7:11">
-      <c r="G659" s="13"/>
-      <c r="J659" s="16"/>
-      <c r="K659" s="17"/>
+      <c r="G659" s="12"/>
+      <c r="J659" s="15"/>
+      <c r="K659" s="16"/>
     </row>
     <row r="660" ht="15.2" spans="7:11">
-      <c r="G660" s="13"/>
-      <c r="J660" s="16"/>
-      <c r="K660" s="17"/>
+      <c r="G660" s="12"/>
+      <c r="J660" s="15"/>
+      <c r="K660" s="16"/>
     </row>
     <row r="661" ht="15.2" spans="7:11">
-      <c r="G661" s="13"/>
-      <c r="J661" s="16"/>
-      <c r="K661" s="17"/>
+      <c r="G661" s="12"/>
+      <c r="J661" s="15"/>
+      <c r="K661" s="16"/>
     </row>
     <row r="662" ht="15.2" spans="7:11">
-      <c r="G662" s="13"/>
-      <c r="J662" s="16"/>
-      <c r="K662" s="17"/>
+      <c r="G662" s="12"/>
+      <c r="J662" s="15"/>
+      <c r="K662" s="16"/>
     </row>
     <row r="663" ht="15.2" spans="7:11">
-      <c r="G663" s="13"/>
-      <c r="J663" s="16"/>
-      <c r="K663" s="17"/>
+      <c r="G663" s="12"/>
+      <c r="J663" s="15"/>
+      <c r="K663" s="16"/>
     </row>
     <row r="664" ht="15.2" spans="7:11">
-      <c r="G664" s="13"/>
-      <c r="J664" s="16"/>
-      <c r="K664" s="17"/>
+      <c r="G664" s="12"/>
+      <c r="J664" s="15"/>
+      <c r="K664" s="16"/>
     </row>
     <row r="665" ht="15.2" spans="7:11">
-      <c r="G665" s="13"/>
-      <c r="J665" s="16"/>
-      <c r="K665" s="17"/>
+      <c r="G665" s="12"/>
+      <c r="J665" s="15"/>
+      <c r="K665" s="16"/>
     </row>
     <row r="666" ht="15.2" spans="7:11">
-      <c r="G666" s="13"/>
-      <c r="J666" s="16"/>
-      <c r="K666" s="17"/>
+      <c r="G666" s="12"/>
+      <c r="J666" s="15"/>
+      <c r="K666" s="16"/>
     </row>
     <row r="667" ht="15.2" spans="7:11">
-      <c r="G667" s="13"/>
-      <c r="J667" s="16"/>
-      <c r="K667" s="17"/>
+      <c r="G667" s="12"/>
+      <c r="J667" s="15"/>
+      <c r="K667" s="16"/>
     </row>
     <row r="668" ht="15.2" spans="7:11">
-      <c r="G668" s="13"/>
-      <c r="J668" s="16"/>
-      <c r="K668" s="17"/>
+      <c r="G668" s="12"/>
+      <c r="J668" s="15"/>
+      <c r="K668" s="16"/>
     </row>
     <row r="669" ht="15.2" spans="7:11">
-      <c r="G669" s="13"/>
-      <c r="J669" s="16"/>
-      <c r="K669" s="17"/>
+      <c r="G669" s="12"/>
+      <c r="J669" s="15"/>
+      <c r="K669" s="16"/>
     </row>
     <row r="670" ht="15.2" spans="7:11">
-      <c r="G670" s="13"/>
-      <c r="J670" s="16"/>
-      <c r="K670" s="17"/>
+      <c r="G670" s="12"/>
+      <c r="J670" s="15"/>
+      <c r="K670" s="16"/>
     </row>
     <row r="671" ht="15.2" spans="7:11">
-      <c r="G671" s="13"/>
-      <c r="J671" s="16"/>
-      <c r="K671" s="17"/>
+      <c r="G671" s="12"/>
+      <c r="J671" s="15"/>
+      <c r="K671" s="16"/>
     </row>
     <row r="672" ht="15.2" spans="7:11">
-      <c r="G672" s="13"/>
-      <c r="J672" s="16"/>
-      <c r="K672" s="17"/>
+      <c r="G672" s="12"/>
+      <c r="J672" s="15"/>
+      <c r="K672" s="16"/>
     </row>
     <row r="673" ht="15.2" spans="7:11">
-      <c r="G673" s="13"/>
-      <c r="J673" s="16"/>
-      <c r="K673" s="17"/>
+      <c r="G673" s="12"/>
+      <c r="J673" s="15"/>
+      <c r="K673" s="16"/>
     </row>
     <row r="674" ht="15.2" spans="7:11">
-      <c r="G674" s="13"/>
-      <c r="J674" s="16"/>
-      <c r="K674" s="17"/>
+      <c r="G674" s="12"/>
+      <c r="J674" s="15"/>
+      <c r="K674" s="16"/>
     </row>
     <row r="675" ht="15.2" spans="7:11">
-      <c r="G675" s="13"/>
-      <c r="J675" s="16"/>
-      <c r="K675" s="17"/>
+      <c r="G675" s="12"/>
+      <c r="J675" s="15"/>
+      <c r="K675" s="16"/>
     </row>
     <row r="676" ht="15.2" spans="7:11">
-      <c r="G676" s="13"/>
-      <c r="J676" s="16"/>
-      <c r="K676" s="17"/>
+      <c r="G676" s="12"/>
+      <c r="J676" s="15"/>
+      <c r="K676" s="16"/>
     </row>
     <row r="677" ht="15.2" spans="7:11">
-      <c r="G677" s="13"/>
-      <c r="J677" s="16"/>
-      <c r="K677" s="17"/>
+      <c r="G677" s="12"/>
+      <c r="J677" s="15"/>
+      <c r="K677" s="16"/>
     </row>
     <row r="678" ht="15.2" spans="7:11">
-      <c r="G678" s="13"/>
-      <c r="J678" s="16"/>
-      <c r="K678" s="17"/>
+      <c r="G678" s="12"/>
+      <c r="J678" s="15"/>
+      <c r="K678" s="16"/>
     </row>
     <row r="679" ht="15.2" spans="7:11">
-      <c r="G679" s="13"/>
-      <c r="J679" s="16"/>
-      <c r="K679" s="17"/>
+      <c r="G679" s="12"/>
+      <c r="J679" s="15"/>
+      <c r="K679" s="16"/>
     </row>
     <row r="680" ht="15.2" spans="7:11">
-      <c r="G680" s="13"/>
-      <c r="J680" s="16"/>
-      <c r="K680" s="17"/>
+      <c r="G680" s="12"/>
+      <c r="J680" s="15"/>
+      <c r="K680" s="16"/>
     </row>
     <row r="681" ht="15.2" spans="7:11">
-      <c r="G681" s="13"/>
-      <c r="J681" s="16"/>
-      <c r="K681" s="17"/>
+      <c r="G681" s="12"/>
+      <c r="J681" s="15"/>
+      <c r="K681" s="16"/>
     </row>
     <row r="682" ht="15.2" spans="7:11">
-      <c r="G682" s="13"/>
-      <c r="J682" s="16"/>
-      <c r="K682" s="17"/>
+      <c r="G682" s="12"/>
+      <c r="J682" s="15"/>
+      <c r="K682" s="16"/>
     </row>
     <row r="683" ht="15.2" spans="7:11">
-      <c r="G683" s="13"/>
-      <c r="J683" s="16"/>
-      <c r="K683" s="17"/>
+      <c r="G683" s="12"/>
+      <c r="J683" s="15"/>
+      <c r="K683" s="16"/>
     </row>
     <row r="684" ht="15.2" spans="7:11">
-      <c r="G684" s="13"/>
-      <c r="J684" s="16"/>
-      <c r="K684" s="17"/>
+      <c r="G684" s="12"/>
+      <c r="J684" s="15"/>
+      <c r="K684" s="16"/>
     </row>
     <row r="685" ht="15.2" spans="7:11">
-      <c r="G685" s="13"/>
-      <c r="J685" s="16"/>
-      <c r="K685" s="17"/>
+      <c r="G685" s="12"/>
+      <c r="J685" s="15"/>
+      <c r="K685" s="16"/>
     </row>
     <row r="686" ht="15.2" spans="7:11">
-      <c r="G686" s="13"/>
-      <c r="J686" s="16"/>
-      <c r="K686" s="17"/>
+      <c r="G686" s="12"/>
+      <c r="J686" s="15"/>
+      <c r="K686" s="16"/>
     </row>
     <row r="687" ht="15.2" spans="7:11">
-      <c r="G687" s="13"/>
-      <c r="J687" s="16"/>
-      <c r="K687" s="17"/>
+      <c r="G687" s="12"/>
+      <c r="J687" s="15"/>
+      <c r="K687" s="16"/>
     </row>
     <row r="688" ht="15.2" spans="7:11">
-      <c r="G688" s="13"/>
-      <c r="J688" s="16"/>
-      <c r="K688" s="17"/>
+      <c r="G688" s="12"/>
+      <c r="J688" s="15"/>
+      <c r="K688" s="16"/>
     </row>
     <row r="689" ht="15.2" spans="7:11">
-      <c r="G689" s="13"/>
-      <c r="J689" s="16"/>
-      <c r="K689" s="17"/>
+      <c r="G689" s="12"/>
+      <c r="J689" s="15"/>
+      <c r="K689" s="16"/>
     </row>
     <row r="690" ht="15.2" spans="7:11">
-      <c r="G690" s="13"/>
-      <c r="J690" s="16"/>
-      <c r="K690" s="17"/>
+      <c r="G690" s="12"/>
+      <c r="J690" s="15"/>
+      <c r="K690" s="16"/>
     </row>
     <row r="691" ht="15.2" spans="7:11">
-      <c r="G691" s="13"/>
-      <c r="J691" s="16"/>
-      <c r="K691" s="17"/>
+      <c r="G691" s="12"/>
+      <c r="J691" s="15"/>
+      <c r="K691" s="16"/>
     </row>
     <row r="692" ht="15.2" spans="7:11">
-      <c r="G692" s="13"/>
-      <c r="J692" s="16"/>
-      <c r="K692" s="17"/>
+      <c r="G692" s="12"/>
+      <c r="J692" s="15"/>
+      <c r="K692" s="16"/>
     </row>
     <row r="693" ht="15.2" spans="7:11">
-      <c r="G693" s="13"/>
-      <c r="J693" s="16"/>
-      <c r="K693" s="17"/>
+      <c r="G693" s="12"/>
+      <c r="J693" s="15"/>
+      <c r="K693" s="16"/>
     </row>
     <row r="694" ht="15.2" spans="7:11">
-      <c r="G694" s="13"/>
-      <c r="J694" s="16"/>
-      <c r="K694" s="17"/>
+      <c r="G694" s="12"/>
+      <c r="J694" s="15"/>
+      <c r="K694" s="16"/>
     </row>
     <row r="695" ht="15.2" spans="7:11">
-      <c r="G695" s="13"/>
-      <c r="J695" s="16"/>
-      <c r="K695" s="17"/>
+      <c r="G695" s="12"/>
+      <c r="J695" s="15"/>
+      <c r="K695" s="16"/>
     </row>
     <row r="696" ht="15.2" spans="7:11">
-      <c r="G696" s="13"/>
-      <c r="J696" s="16"/>
-      <c r="K696" s="17"/>
+      <c r="G696" s="12"/>
+      <c r="J696" s="15"/>
+      <c r="K696" s="16"/>
     </row>
     <row r="697" ht="15.2" spans="7:11">
-      <c r="G697" s="13"/>
-      <c r="J697" s="16"/>
-      <c r="K697" s="17"/>
+      <c r="G697" s="12"/>
+      <c r="J697" s="15"/>
+      <c r="K697" s="16"/>
     </row>
     <row r="698" ht="15.2" spans="7:11">
-      <c r="G698" s="13"/>
-      <c r="J698" s="16"/>
-      <c r="K698" s="17"/>
+      <c r="G698" s="12"/>
+      <c r="J698" s="15"/>
+      <c r="K698" s="16"/>
     </row>
     <row r="699" ht="15.2" spans="7:11">
-      <c r="G699" s="13"/>
-      <c r="J699" s="16"/>
-      <c r="K699" s="17"/>
+      <c r="G699" s="12"/>
+      <c r="J699" s="15"/>
+      <c r="K699" s="16"/>
     </row>
     <row r="700" ht="15.2" spans="7:11">
-      <c r="G700" s="13"/>
-      <c r="J700" s="16"/>
-      <c r="K700" s="17"/>
+      <c r="G700" s="12"/>
+      <c r="J700" s="15"/>
+      <c r="K700" s="16"/>
     </row>
     <row r="701" ht="15.2" spans="7:11">
-      <c r="G701" s="13"/>
-      <c r="J701" s="16"/>
-      <c r="K701" s="17"/>
+      <c r="G701" s="12"/>
+      <c r="J701" s="15"/>
+      <c r="K701" s="16"/>
     </row>
     <row r="702" ht="15.2" spans="7:11">
-      <c r="G702" s="13"/>
-      <c r="J702" s="16"/>
-      <c r="K702" s="17"/>
+      <c r="G702" s="12"/>
+      <c r="J702" s="15"/>
+      <c r="K702" s="16"/>
     </row>
     <row r="703" ht="15.2" spans="7:11">
-      <c r="G703" s="13"/>
-      <c r="J703" s="16"/>
-      <c r="K703" s="17"/>
+      <c r="G703" s="12"/>
+      <c r="J703" s="15"/>
+      <c r="K703" s="16"/>
     </row>
     <row r="704" ht="15.2" spans="7:11">
-      <c r="G704" s="13"/>
-      <c r="J704" s="16"/>
-      <c r="K704" s="17"/>
+      <c r="G704" s="12"/>
+      <c r="J704" s="15"/>
+      <c r="K704" s="16"/>
     </row>
     <row r="705" ht="15.2" spans="7:11">
-      <c r="G705" s="13"/>
-      <c r="J705" s="16"/>
-      <c r="K705" s="17"/>
+      <c r="G705" s="12"/>
+      <c r="J705" s="15"/>
+      <c r="K705" s="16"/>
     </row>
     <row r="706" ht="15.2" spans="7:11">
-      <c r="G706" s="13"/>
-      <c r="J706" s="16"/>
-      <c r="K706" s="17"/>
+      <c r="G706" s="12"/>
+      <c r="J706" s="15"/>
+      <c r="K706" s="16"/>
     </row>
     <row r="707" ht="15.2" spans="7:11">
-      <c r="G707" s="13"/>
-      <c r="J707" s="16"/>
-      <c r="K707" s="17"/>
+      <c r="G707" s="12"/>
+      <c r="J707" s="15"/>
+      <c r="K707" s="16"/>
     </row>
     <row r="708" ht="15.2" spans="7:11">
-      <c r="G708" s="13"/>
-      <c r="J708" s="16"/>
-      <c r="K708" s="17"/>
+      <c r="G708" s="12"/>
+      <c r="J708" s="15"/>
+      <c r="K708" s="16"/>
     </row>
     <row r="709" ht="15.2" spans="7:11">
-      <c r="G709" s="13"/>
-      <c r="J709" s="16"/>
-      <c r="K709" s="17"/>
+      <c r="G709" s="12"/>
+      <c r="J709" s="15"/>
+      <c r="K709" s="16"/>
     </row>
     <row r="710" ht="15.2" spans="7:11">
-      <c r="G710" s="13"/>
-      <c r="J710" s="16"/>
-      <c r="K710" s="17"/>
+      <c r="G710" s="12"/>
+      <c r="J710" s="15"/>
+      <c r="K710" s="16"/>
     </row>
     <row r="711" ht="15.2" spans="7:11">
-      <c r="G711" s="13"/>
-      <c r="J711" s="16"/>
-      <c r="K711" s="17"/>
+      <c r="G711" s="12"/>
+      <c r="J711" s="15"/>
+      <c r="K711" s="16"/>
     </row>
     <row r="712" ht="15.2" spans="7:11">
-      <c r="G712" s="13"/>
-      <c r="J712" s="16"/>
-      <c r="K712" s="17"/>
+      <c r="G712" s="12"/>
+      <c r="J712" s="15"/>
+      <c r="K712" s="16"/>
     </row>
     <row r="713" ht="15.2" spans="7:11">
-      <c r="G713" s="13"/>
-      <c r="J713" s="16"/>
-      <c r="K713" s="17"/>
+      <c r="G713" s="12"/>
+      <c r="J713" s="15"/>
+      <c r="K713" s="16"/>
     </row>
     <row r="714" ht="15.2" spans="7:11">
-      <c r="G714" s="13"/>
-      <c r="J714" s="16"/>
-      <c r="K714" s="17"/>
+      <c r="G714" s="12"/>
+      <c r="J714" s="15"/>
+      <c r="K714" s="16"/>
     </row>
     <row r="715" ht="15.2" spans="7:11">
-      <c r="G715" s="13"/>
-      <c r="J715" s="16"/>
-      <c r="K715" s="17"/>
+      <c r="G715" s="12"/>
+      <c r="J715" s="15"/>
+      <c r="K715" s="16"/>
     </row>
     <row r="716" ht="15.2" spans="7:11">
-      <c r="G716" s="13"/>
-      <c r="J716" s="16"/>
-      <c r="K716" s="17"/>
+      <c r="G716" s="12"/>
+      <c r="J716" s="15"/>
+      <c r="K716" s="16"/>
     </row>
     <row r="717" ht="15.2" spans="7:11">
-      <c r="G717" s="13"/>
-      <c r="J717" s="16"/>
-      <c r="K717" s="17"/>
+      <c r="G717" s="12"/>
+      <c r="J717" s="15"/>
+      <c r="K717" s="16"/>
     </row>
     <row r="718" ht="15.2" spans="7:11">
-      <c r="G718" s="13"/>
-      <c r="J718" s="16"/>
-      <c r="K718" s="17"/>
+      <c r="G718" s="12"/>
+      <c r="J718" s="15"/>
+      <c r="K718" s="16"/>
     </row>
     <row r="719" ht="15.2" spans="7:11">
-      <c r="G719" s="13"/>
-      <c r="J719" s="16"/>
-      <c r="K719" s="17"/>
+      <c r="G719" s="12"/>
+      <c r="J719" s="15"/>
+      <c r="K719" s="16"/>
     </row>
     <row r="720" ht="15.2" spans="7:11">
-      <c r="G720" s="13"/>
-      <c r="J720" s="16"/>
-      <c r="K720" s="17"/>
+      <c r="G720" s="12"/>
+      <c r="J720" s="15"/>
+      <c r="K720" s="16"/>
     </row>
     <row r="721" ht="15.2" spans="7:11">
-      <c r="G721" s="13"/>
-      <c r="J721" s="16"/>
-      <c r="K721" s="17"/>
+      <c r="G721" s="12"/>
+      <c r="J721" s="15"/>
+      <c r="K721" s="16"/>
     </row>
     <row r="722" ht="15.2" spans="7:11">
-      <c r="G722" s="13"/>
-      <c r="J722" s="16"/>
-      <c r="K722" s="17"/>
+      <c r="G722" s="12"/>
+      <c r="J722" s="15"/>
+      <c r="K722" s="16"/>
     </row>
     <row r="723" ht="15.2" spans="7:11">
-      <c r="G723" s="13"/>
-      <c r="J723" s="16"/>
-      <c r="K723" s="17"/>
+      <c r="G723" s="12"/>
+      <c r="J723" s="15"/>
+      <c r="K723" s="16"/>
     </row>
     <row r="724" ht="15.2" spans="7:11">
-      <c r="G724" s="13"/>
-      <c r="J724" s="16"/>
-      <c r="K724" s="17"/>
+      <c r="G724" s="12"/>
+      <c r="J724" s="15"/>
+      <c r="K724" s="16"/>
     </row>
     <row r="725" ht="15.2" spans="7:11">
-      <c r="G725" s="13"/>
-      <c r="J725" s="16"/>
-      <c r="K725" s="17"/>
+      <c r="G725" s="12"/>
+      <c r="J725" s="15"/>
+      <c r="K725" s="16"/>
     </row>
     <row r="726" ht="15.2" spans="7:11">
-      <c r="G726" s="13"/>
-      <c r="J726" s="16"/>
-      <c r="K726" s="17"/>
+      <c r="G726" s="12"/>
+      <c r="J726" s="15"/>
+      <c r="K726" s="16"/>
     </row>
     <row r="727" ht="15.2" spans="7:11">
-      <c r="G727" s="13"/>
-      <c r="J727" s="16"/>
-      <c r="K727" s="17"/>
+      <c r="G727" s="12"/>
+      <c r="J727" s="15"/>
+      <c r="K727" s="16"/>
     </row>
     <row r="728" ht="15.2" spans="7:11">
-      <c r="G728" s="13"/>
-      <c r="J728" s="16"/>
-      <c r="K728" s="17"/>
+      <c r="G728" s="12"/>
+      <c r="J728" s="15"/>
+      <c r="K728" s="16"/>
     </row>
     <row r="729" ht="15.2" spans="7:11">
-      <c r="G729" s="13"/>
-      <c r="J729" s="16"/>
-      <c r="K729" s="17"/>
+      <c r="G729" s="12"/>
+      <c r="J729" s="15"/>
+      <c r="K729" s="16"/>
     </row>
     <row r="730" ht="15.2" spans="7:11">
-      <c r="G730" s="13"/>
-      <c r="J730" s="16"/>
-      <c r="K730" s="17"/>
+      <c r="G730" s="12"/>
+      <c r="J730" s="15"/>
+      <c r="K730" s="16"/>
     </row>
     <row r="731" ht="15.2" spans="7:11">
-      <c r="G731" s="13"/>
-      <c r="J731" s="16"/>
-      <c r="K731" s="17"/>
+      <c r="G731" s="12"/>
+      <c r="J731" s="15"/>
+      <c r="K731" s="16"/>
     </row>
     <row r="732" ht="15.2" spans="7:11">
-      <c r="G732" s="13"/>
-      <c r="J732" s="16"/>
-      <c r="K732" s="17"/>
+      <c r="G732" s="12"/>
+      <c r="J732" s="15"/>
+      <c r="K732" s="16"/>
     </row>
     <row r="733" ht="15.2" spans="7:11">
-      <c r="G733" s="13"/>
-      <c r="J733" s="16"/>
-      <c r="K733" s="17"/>
+      <c r="G733" s="12"/>
+      <c r="J733" s="15"/>
+      <c r="K733" s="16"/>
     </row>
     <row r="734" ht="15.2" spans="7:11">
-      <c r="G734" s="13"/>
-      <c r="J734" s="16"/>
-      <c r="K734" s="17"/>
+      <c r="G734" s="12"/>
+      <c r="J734" s="15"/>
+      <c r="K734" s="16"/>
     </row>
     <row r="735" ht="15.2" spans="7:11">
-      <c r="G735" s="13"/>
-      <c r="J735" s="16"/>
-      <c r="K735" s="17"/>
+      <c r="G735" s="12"/>
+      <c r="J735" s="15"/>
+      <c r="K735" s="16"/>
     </row>
     <row r="736" ht="15.2" spans="7:11">
-      <c r="G736" s="13"/>
-      <c r="J736" s="16"/>
-      <c r="K736" s="17"/>
+      <c r="G736" s="12"/>
+      <c r="J736" s="15"/>
+      <c r="K736" s="16"/>
     </row>
     <row r="737" ht="15.2" spans="7:11">
-      <c r="G737" s="13"/>
-      <c r="J737" s="16"/>
-      <c r="K737" s="17"/>
+      <c r="G737" s="12"/>
+      <c r="J737" s="15"/>
+      <c r="K737" s="16"/>
     </row>
     <row r="738" ht="15.2" spans="7:11">
-      <c r="G738" s="13"/>
-      <c r="J738" s="16"/>
-      <c r="K738" s="17"/>
+      <c r="G738" s="12"/>
+      <c r="J738" s="15"/>
+      <c r="K738" s="16"/>
     </row>
     <row r="739" ht="15.2" spans="7:11">
-      <c r="G739" s="13"/>
-      <c r="J739" s="16"/>
-      <c r="K739" s="17"/>
+      <c r="G739" s="12"/>
+      <c r="J739" s="15"/>
+      <c r="K739" s="16"/>
     </row>
     <row r="740" ht="15.2" spans="7:11">
-      <c r="G740" s="13"/>
-      <c r="J740" s="16"/>
-      <c r="K740" s="17"/>
+      <c r="G740" s="12"/>
+      <c r="J740" s="15"/>
+      <c r="K740" s="16"/>
     </row>
     <row r="741" ht="15.2" spans="7:11">
-      <c r="G741" s="13"/>
-      <c r="J741" s="16"/>
-      <c r="K741" s="17"/>
+      <c r="G741" s="12"/>
+      <c r="J741" s="15"/>
+      <c r="K741" s="16"/>
     </row>
     <row r="742" ht="15.2" spans="7:11">
-      <c r="G742" s="13"/>
-      <c r="J742" s="16"/>
-      <c r="K742" s="17"/>
+      <c r="G742" s="12"/>
+      <c r="J742" s="15"/>
+      <c r="K742" s="16"/>
     </row>
     <row r="743" ht="15.2" spans="7:11">
-      <c r="G743" s="13"/>
-      <c r="J743" s="16"/>
-      <c r="K743" s="17"/>
+      <c r="G743" s="12"/>
+      <c r="J743" s="15"/>
+      <c r="K743" s="16"/>
     </row>
     <row r="744" ht="15.2" spans="7:11">
-      <c r="G744" s="13"/>
-      <c r="J744" s="16"/>
-      <c r="K744" s="17"/>
+      <c r="G744" s="12"/>
+      <c r="J744" s="15"/>
+      <c r="K744" s="16"/>
     </row>
     <row r="745" ht="15.2" spans="7:11">
-      <c r="G745" s="13"/>
-      <c r="J745" s="16"/>
-      <c r="K745" s="17"/>
+      <c r="G745" s="12"/>
+      <c r="J745" s="15"/>
+      <c r="K745" s="16"/>
     </row>
     <row r="746" ht="15.2" spans="7:11">
-      <c r="G746" s="13"/>
-      <c r="J746" s="16"/>
-      <c r="K746" s="17"/>
+      <c r="G746" s="12"/>
+      <c r="J746" s="15"/>
+      <c r="K746" s="16"/>
     </row>
     <row r="747" ht="15.2" spans="7:11">
-      <c r="G747" s="13"/>
-      <c r="J747" s="16"/>
-      <c r="K747" s="17"/>
+      <c r="G747" s="12"/>
+      <c r="J747" s="15"/>
+      <c r="K747" s="16"/>
     </row>
     <row r="748" ht="15.2" spans="7:11">
-      <c r="G748" s="13"/>
-      <c r="J748" s="16"/>
-      <c r="K748" s="17"/>
+      <c r="G748" s="12"/>
+      <c r="J748" s="15"/>
+      <c r="K748" s="16"/>
     </row>
     <row r="749" ht="15.2" spans="7:11">
-      <c r="G749" s="13"/>
-      <c r="J749" s="16"/>
-      <c r="K749" s="17"/>
+      <c r="G749" s="12"/>
+      <c r="J749" s="15"/>
+      <c r="K749" s="16"/>
     </row>
     <row r="750" ht="15.2" spans="7:11">
-      <c r="G750" s="13"/>
-      <c r="J750" s="16"/>
-      <c r="K750" s="17"/>
+      <c r="G750" s="12"/>
+      <c r="J750" s="15"/>
+      <c r="K750" s="16"/>
     </row>
     <row r="751" ht="15.2" spans="7:11">
-      <c r="G751" s="13"/>
-      <c r="J751" s="16"/>
-      <c r="K751" s="17"/>
+      <c r="G751" s="12"/>
+      <c r="J751" s="15"/>
+      <c r="K751" s="16"/>
     </row>
     <row r="752" ht="15.2" spans="7:11">
-      <c r="G752" s="13"/>
-      <c r="J752" s="16"/>
-      <c r="K752" s="17"/>
+      <c r="G752" s="12"/>
+      <c r="J752" s="15"/>
+      <c r="K752" s="16"/>
     </row>
     <row r="753" ht="15.2" spans="7:11">
-      <c r="G753" s="13"/>
-      <c r="J753" s="16"/>
-      <c r="K753" s="17"/>
+      <c r="G753" s="12"/>
+      <c r="J753" s="15"/>
+      <c r="K753" s="16"/>
     </row>
     <row r="754" ht="15.2" spans="7:11">
-      <c r="G754" s="13"/>
-      <c r="J754" s="16"/>
-      <c r="K754" s="17"/>
+      <c r="G754" s="12"/>
+      <c r="J754" s="15"/>
+      <c r="K754" s="16"/>
     </row>
     <row r="755" ht="15.2" spans="7:11">
-      <c r="G755" s="13"/>
-      <c r="J755" s="16"/>
-      <c r="K755" s="17"/>
+      <c r="G755" s="12"/>
+      <c r="J755" s="15"/>
+      <c r="K755" s="16"/>
     </row>
     <row r="756" ht="15.2" spans="7:11">
-      <c r="G756" s="13"/>
-      <c r="J756" s="16"/>
-      <c r="K756" s="17"/>
+      <c r="G756" s="12"/>
+      <c r="J756" s="15"/>
+      <c r="K756" s="16"/>
     </row>
     <row r="757" ht="15.2" spans="7:11">
-      <c r="G757" s="13"/>
-      <c r="J757" s="16"/>
-      <c r="K757" s="17"/>
+      <c r="G757" s="12"/>
+      <c r="J757" s="15"/>
+      <c r="K757" s="16"/>
     </row>
     <row r="758" ht="15.2" spans="7:11">
-      <c r="G758" s="13"/>
-      <c r="J758" s="16"/>
-      <c r="K758" s="17"/>
+      <c r="G758" s="12"/>
+      <c r="J758" s="15"/>
+      <c r="K758" s="16"/>
     </row>
     <row r="759" ht="15.2" spans="7:11">
-      <c r="G759" s="13"/>
-      <c r="J759" s="16"/>
-      <c r="K759" s="17"/>
+      <c r="G759" s="12"/>
+      <c r="J759" s="15"/>
+      <c r="K759" s="16"/>
     </row>
     <row r="760" ht="15.2" spans="7:11">
-      <c r="G760" s="13"/>
-      <c r="J760" s="16"/>
-      <c r="K760" s="17"/>
+      <c r="G760" s="12"/>
+      <c r="J760" s="15"/>
+      <c r="K760" s="16"/>
     </row>
     <row r="761" ht="15.2" spans="7:11">
-      <c r="G761" s="13"/>
-      <c r="J761" s="16"/>
-      <c r="K761" s="17"/>
+      <c r="G761" s="12"/>
+      <c r="J761" s="15"/>
+      <c r="K761" s="16"/>
     </row>
     <row r="762" ht="15.2" spans="7:11">
-      <c r="G762" s="13"/>
-      <c r="J762" s="16"/>
-      <c r="K762" s="17"/>
+      <c r="G762" s="12"/>
+      <c r="J762" s="15"/>
+      <c r="K762" s="16"/>
     </row>
     <row r="763" ht="15.2" spans="7:11">
-      <c r="G763" s="13"/>
-      <c r="J763" s="16"/>
-      <c r="K763" s="17"/>
+      <c r="G763" s="12"/>
+      <c r="J763" s="15"/>
+      <c r="K763" s="16"/>
     </row>
     <row r="764" ht="15.2" spans="7:11">
-      <c r="G764" s="13"/>
-      <c r="J764" s="16"/>
-      <c r="K764" s="17"/>
+      <c r="G764" s="12"/>
+      <c r="J764" s="15"/>
+      <c r="K764" s="16"/>
     </row>
     <row r="765" ht="15.2" spans="7:11">
-      <c r="G765" s="13"/>
-      <c r="J765" s="16"/>
-      <c r="K765" s="17"/>
+      <c r="G765" s="12"/>
+      <c r="J765" s="15"/>
+      <c r="K765" s="16"/>
     </row>
     <row r="766" ht="15.2" spans="7:11">
-      <c r="G766" s="13"/>
-      <c r="J766" s="16"/>
-      <c r="K766" s="17"/>
+      <c r="G766" s="12"/>
+      <c r="J766" s="15"/>
+      <c r="K766" s="16"/>
     </row>
     <row r="767" ht="15.2" spans="7:11">
-      <c r="G767" s="13"/>
-      <c r="J767" s="16"/>
-      <c r="K767" s="17"/>
+      <c r="G767" s="12"/>
+      <c r="J767" s="15"/>
+      <c r="K767" s="16"/>
     </row>
     <row r="768" ht="15.2" spans="7:11">
-      <c r="G768" s="13"/>
-      <c r="J768" s="16"/>
-      <c r="K768" s="17"/>
+      <c r="G768" s="12"/>
+      <c r="J768" s="15"/>
+      <c r="K768" s="16"/>
     </row>
     <row r="769" ht="15.2" spans="7:11">
-      <c r="G769" s="13"/>
-      <c r="J769" s="16"/>
-      <c r="K769" s="17"/>
+      <c r="G769" s="12"/>
+      <c r="J769" s="15"/>
+      <c r="K769" s="16"/>
     </row>
     <row r="770" ht="15.2" spans="7:11">
-      <c r="G770" s="13"/>
-      <c r="J770" s="16"/>
-      <c r="K770" s="17"/>
+      <c r="G770" s="12"/>
+      <c r="J770" s="15"/>
+      <c r="K770" s="16"/>
     </row>
     <row r="771" ht="15.2" spans="7:11">
-      <c r="G771" s="13"/>
-      <c r="J771" s="16"/>
-      <c r="K771" s="17"/>
+      <c r="G771" s="12"/>
+      <c r="J771" s="15"/>
+      <c r="K771" s="16"/>
     </row>
     <row r="772" ht="15.2" spans="7:11">
-      <c r="G772" s="13"/>
-      <c r="J772" s="16"/>
-      <c r="K772" s="17"/>
+      <c r="G772" s="12"/>
+      <c r="J772" s="15"/>
+      <c r="K772" s="16"/>
     </row>
     <row r="773" ht="15.2" spans="7:11">
-      <c r="G773" s="13"/>
-      <c r="J773" s="16"/>
-      <c r="K773" s="17"/>
+      <c r="G773" s="12"/>
+      <c r="J773" s="15"/>
+      <c r="K773" s="16"/>
     </row>
     <row r="774" ht="15.2" spans="7:11">
-      <c r="G774" s="13"/>
-      <c r="J774" s="16"/>
-      <c r="K774" s="17"/>
+      <c r="G774" s="12"/>
+      <c r="J774" s="15"/>
+      <c r="K774" s="16"/>
     </row>
     <row r="775" ht="15.2" spans="7:11">
-      <c r="G775" s="13"/>
-      <c r="J775" s="16"/>
-      <c r="K775" s="17"/>
+      <c r="G775" s="12"/>
+      <c r="J775" s="15"/>
+      <c r="K775" s="16"/>
     </row>
     <row r="776" ht="15.2" spans="7:11">
-      <c r="G776" s="13"/>
-      <c r="J776" s="16"/>
-      <c r="K776" s="17"/>
+      <c r="G776" s="12"/>
+      <c r="J776" s="15"/>
+      <c r="K776" s="16"/>
     </row>
     <row r="777" ht="15.2" spans="7:11">
-      <c r="G777" s="13"/>
-      <c r="J777" s="16"/>
-      <c r="K777" s="17"/>
+      <c r="G777" s="12"/>
+      <c r="J777" s="15"/>
+      <c r="K777" s="16"/>
     </row>
     <row r="778" ht="15.2" spans="7:11">
-      <c r="G778" s="13"/>
-      <c r="J778" s="16"/>
-      <c r="K778" s="17"/>
+      <c r="G778" s="12"/>
+      <c r="J778" s="15"/>
+      <c r="K778" s="16"/>
     </row>
     <row r="779" ht="15.2" spans="7:11">
-      <c r="G779" s="13"/>
-      <c r="J779" s="16"/>
-      <c r="K779" s="17"/>
+      <c r="G779" s="12"/>
+      <c r="J779" s="15"/>
+      <c r="K779" s="16"/>
     </row>
     <row r="780" ht="15.2" spans="7:11">
-      <c r="G780" s="13"/>
-      <c r="J780" s="16"/>
-      <c r="K780" s="17"/>
+      <c r="G780" s="12"/>
+      <c r="J780" s="15"/>
+      <c r="K780" s="16"/>
     </row>
     <row r="781" ht="15.2" spans="7:11">
-      <c r="G781" s="13"/>
-      <c r="J781" s="16"/>
-      <c r="K781" s="17"/>
+      <c r="G781" s="12"/>
+      <c r="J781" s="15"/>
+      <c r="K781" s="16"/>
     </row>
     <row r="782" ht="15.2" spans="7:11">
-      <c r="G782" s="13"/>
-      <c r="J782" s="16"/>
-      <c r="K782" s="17"/>
+      <c r="G782" s="12"/>
+      <c r="J782" s="15"/>
+      <c r="K782" s="16"/>
     </row>
     <row r="783" ht="15.2" spans="7:11">
-      <c r="G783" s="13"/>
-      <c r="J783" s="16"/>
-      <c r="K783" s="17"/>
+      <c r="G783" s="12"/>
+      <c r="J783" s="15"/>
+      <c r="K783" s="16"/>
     </row>
     <row r="784" ht="15.2" spans="7:11">
-      <c r="G784" s="13"/>
-      <c r="J784" s="16"/>
-      <c r="K784" s="17"/>
+      <c r="G784" s="12"/>
+      <c r="J784" s="15"/>
+      <c r="K784" s="16"/>
     </row>
     <row r="785" ht="15.2" spans="7:11">
-      <c r="G785" s="13"/>
-      <c r="J785" s="16"/>
-      <c r="K785" s="17"/>
+      <c r="G785" s="12"/>
+      <c r="J785" s="15"/>
+      <c r="K785" s="16"/>
     </row>
     <row r="786" ht="15.2" spans="7:11">
-      <c r="G786" s="13"/>
-      <c r="J786" s="16"/>
-      <c r="K786" s="17"/>
+      <c r="G786" s="12"/>
+      <c r="J786" s="15"/>
+      <c r="K786" s="16"/>
     </row>
     <row r="787" ht="15.2" spans="7:11">
-      <c r="G787" s="13"/>
-      <c r="J787" s="16"/>
-      <c r="K787" s="17"/>
+      <c r="G787" s="12"/>
+      <c r="J787" s="15"/>
+      <c r="K787" s="16"/>
     </row>
     <row r="788" ht="15.2" spans="7:11">
-      <c r="G788" s="13"/>
-      <c r="J788" s="16"/>
-      <c r="K788" s="17"/>
+      <c r="G788" s="12"/>
+      <c r="J788" s="15"/>
+      <c r="K788" s="16"/>
     </row>
     <row r="789" ht="15.2" spans="7:11">
-      <c r="G789" s="13"/>
-      <c r="J789" s="16"/>
-      <c r="K789" s="17"/>
+      <c r="G789" s="12"/>
+      <c r="J789" s="15"/>
+      <c r="K789" s="16"/>
     </row>
     <row r="790" ht="15.2" spans="7:11">
-      <c r="G790" s="13"/>
-      <c r="J790" s="16"/>
-      <c r="K790" s="17"/>
+      <c r="G790" s="12"/>
+      <c r="J790" s="15"/>
+      <c r="K790" s="16"/>
     </row>
     <row r="791" ht="15.2" spans="7:11">
-      <c r="G791" s="13"/>
-      <c r="J791" s="16"/>
-      <c r="K791" s="17"/>
+      <c r="G791" s="12"/>
+      <c r="J791" s="15"/>
+      <c r="K791" s="16"/>
     </row>
     <row r="792" ht="15.2" spans="7:11">
-      <c r="G792" s="13"/>
-      <c r="J792" s="16"/>
-      <c r="K792" s="17"/>
+      <c r="G792" s="12"/>
+      <c r="J792" s="15"/>
+      <c r="K792" s="16"/>
     </row>
     <row r="793" ht="15.2" spans="7:11">
-      <c r="G793" s="13"/>
-      <c r="J793" s="16"/>
-      <c r="K793" s="17"/>
+      <c r="G793" s="12"/>
+      <c r="J793" s="15"/>
+      <c r="K793" s="16"/>
     </row>
     <row r="794" ht="15.2" spans="7:11">
-      <c r="G794" s="13"/>
-      <c r="J794" s="16"/>
-      <c r="K794" s="17"/>
+      <c r="G794" s="12"/>
+      <c r="J794" s="15"/>
+      <c r="K794" s="16"/>
     </row>
     <row r="795" ht="15.2" spans="7:11">
-      <c r="G795" s="13"/>
-      <c r="J795" s="16"/>
-      <c r="K795" s="17"/>
+      <c r="G795" s="12"/>
+      <c r="J795" s="15"/>
+      <c r="K795" s="16"/>
     </row>
     <row r="796" ht="15.2" spans="7:11">
-      <c r="G796" s="13"/>
-      <c r="J796" s="16"/>
-      <c r="K796" s="17"/>
+      <c r="G796" s="12"/>
+      <c r="J796" s="15"/>
+      <c r="K796" s="16"/>
     </row>
     <row r="797" ht="15.2" spans="7:11">
-      <c r="G797" s="13"/>
-      <c r="J797" s="16"/>
-      <c r="K797" s="17"/>
+      <c r="G797" s="12"/>
+      <c r="J797" s="15"/>
+      <c r="K797" s="16"/>
     </row>
     <row r="798" ht="15.2" spans="7:11">
-      <c r="G798" s="13"/>
-      <c r="J798" s="16"/>
-      <c r="K798" s="17"/>
+      <c r="G798" s="12"/>
+      <c r="J798" s="15"/>
+      <c r="K798" s="16"/>
     </row>
     <row r="799" ht="15.2" spans="7:11">
-      <c r="G799" s="13"/>
-      <c r="J799" s="16"/>
-      <c r="K799" s="17"/>
+      <c r="G799" s="12"/>
+      <c r="J799" s="15"/>
+      <c r="K799" s="16"/>
     </row>
     <row r="800" ht="15.2" spans="7:11">
-      <c r="G800" s="13"/>
-      <c r="J800" s="16"/>
-      <c r="K800" s="17"/>
+      <c r="G800" s="12"/>
+      <c r="J800" s="15"/>
+      <c r="K800" s="16"/>
     </row>
     <row r="801" ht="15.2" spans="7:11">
-      <c r="G801" s="13"/>
-      <c r="J801" s="16"/>
-      <c r="K801" s="17"/>
+      <c r="G801" s="12"/>
+      <c r="J801" s="15"/>
+      <c r="K801" s="16"/>
     </row>
     <row r="802" ht="15.2" spans="7:11">
-      <c r="G802" s="13"/>
-      <c r="J802" s="16"/>
-      <c r="K802" s="17"/>
+      <c r="G802" s="12"/>
+      <c r="J802" s="15"/>
+      <c r="K802" s="16"/>
     </row>
     <row r="803" ht="15.2" spans="7:11">
-      <c r="G803" s="13"/>
-      <c r="J803" s="16"/>
-      <c r="K803" s="17"/>
+      <c r="G803" s="12"/>
+      <c r="J803" s="15"/>
+      <c r="K803" s="16"/>
     </row>
     <row r="804" ht="15.2" spans="7:11">
-      <c r="G804" s="13"/>
-      <c r="J804" s="16"/>
-      <c r="K804" s="17"/>
+      <c r="G804" s="12"/>
+      <c r="J804" s="15"/>
+      <c r="K804" s="16"/>
     </row>
     <row r="805" ht="15.2" spans="7:11">
-      <c r="G805" s="13"/>
-      <c r="J805" s="16"/>
-      <c r="K805" s="17"/>
+      <c r="G805" s="12"/>
+      <c r="J805" s="15"/>
+      <c r="K805" s="16"/>
     </row>
     <row r="806" ht="15.2" spans="7:11">
-      <c r="G806" s="13"/>
-      <c r="J806" s="16"/>
-      <c r="K806" s="17"/>
+      <c r="G806" s="12"/>
+      <c r="J806" s="15"/>
+      <c r="K806" s="16"/>
     </row>
     <row r="807" ht="15.2" spans="7:11">
-      <c r="G807" s="13"/>
-      <c r="J807" s="16"/>
-      <c r="K807" s="17"/>
+      <c r="G807" s="12"/>
+      <c r="J807" s="15"/>
+      <c r="K807" s="16"/>
     </row>
     <row r="808" ht="15.2" spans="7:11">
-      <c r="G808" s="13"/>
-      <c r="J808" s="16"/>
-      <c r="K808" s="17"/>
+      <c r="G808" s="12"/>
+      <c r="J808" s="15"/>
+      <c r="K808" s="16"/>
     </row>
     <row r="809" ht="15.2" spans="7:11">
-      <c r="G809" s="13"/>
-      <c r="J809" s="16"/>
-      <c r="K809" s="17"/>
+      <c r="G809" s="12"/>
+      <c r="J809" s="15"/>
+      <c r="K809" s="16"/>
     </row>
     <row r="810" ht="15.2" spans="7:11">
-      <c r="G810" s="13"/>
-      <c r="J810" s="16"/>
-      <c r="K810" s="17"/>
+      <c r="G810" s="12"/>
+      <c r="J810" s="15"/>
+      <c r="K810" s="16"/>
     </row>
     <row r="811" ht="15.2" spans="7:11">
-      <c r="G811" s="13"/>
-      <c r="J811" s="16"/>
-      <c r="K811" s="17"/>
+      <c r="G811" s="12"/>
+      <c r="J811" s="15"/>
+      <c r="K811" s="16"/>
     </row>
     <row r="812" ht="15.2" spans="7:11">
-      <c r="G812" s="13"/>
-      <c r="J812" s="16"/>
-      <c r="K812" s="17"/>
+      <c r="G812" s="12"/>
+      <c r="J812" s="15"/>
+      <c r="K812" s="16"/>
     </row>
     <row r="813" ht="15.2" spans="7:11">
-      <c r="G813" s="13"/>
-      <c r="J813" s="16"/>
-      <c r="K813" s="17"/>
+      <c r="G813" s="12"/>
+      <c r="J813" s="15"/>
+      <c r="K813" s="16"/>
     </row>
     <row r="814" ht="15.2" spans="7:11">
-      <c r="G814" s="13"/>
-      <c r="J814" s="16"/>
-      <c r="K814" s="17"/>
+      <c r="G814" s="12"/>
+      <c r="J814" s="15"/>
+      <c r="K814" s="16"/>
     </row>
     <row r="815" ht="15.2" spans="7:11">
-      <c r="G815" s="13"/>
-      <c r="J815" s="16"/>
-      <c r="K815" s="17"/>
+      <c r="G815" s="12"/>
+      <c r="J815" s="15"/>
+      <c r="K815" s="16"/>
     </row>
     <row r="816" ht="15.2" spans="7:11">
-      <c r="G816" s="13"/>
-      <c r="J816" s="16"/>
-      <c r="K816" s="17"/>
+      <c r="G816" s="12"/>
+      <c r="J816" s="15"/>
+      <c r="K816" s="16"/>
     </row>
     <row r="817" ht="15.2" spans="7:11">
-      <c r="G817" s="13"/>
-      <c r="J817" s="16"/>
-      <c r="K817" s="17"/>
+      <c r="G817" s="12"/>
+      <c r="J817" s="15"/>
+      <c r="K817" s="16"/>
     </row>
     <row r="818" ht="15.2" spans="7:11">
-      <c r="G818" s="13"/>
-      <c r="J818" s="16"/>
-      <c r="K818" s="17"/>
+      <c r="G818" s="12"/>
+      <c r="J818" s="15"/>
+      <c r="K818" s="16"/>
     </row>
     <row r="819" ht="15.2" spans="7:11">
-      <c r="G819" s="13"/>
-      <c r="J819" s="16"/>
-      <c r="K819" s="17"/>
+      <c r="G819" s="12"/>
+      <c r="J819" s="15"/>
+      <c r="K819" s="16"/>
     </row>
     <row r="820" ht="15.2" spans="7:11">
-      <c r="G820" s="13"/>
-      <c r="J820" s="16"/>
-      <c r="K820" s="17"/>
+      <c r="G820" s="12"/>
+      <c r="J820" s="15"/>
+      <c r="K820" s="16"/>
     </row>
     <row r="821" ht="15.2" spans="7:11">
-      <c r="G821" s="13"/>
-      <c r="J821" s="16"/>
-      <c r="K821" s="17"/>
+      <c r="G821" s="12"/>
+      <c r="J821" s="15"/>
+      <c r="K821" s="16"/>
     </row>
     <row r="822" ht="15.2" spans="7:11">
-      <c r="G822" s="13"/>
-      <c r="J822" s="16"/>
-      <c r="K822" s="17"/>
+      <c r="G822" s="12"/>
+      <c r="J822" s="15"/>
+      <c r="K822" s="16"/>
     </row>
     <row r="823" ht="15.2" spans="7:11">
-      <c r="G823" s="13"/>
-      <c r="J823" s="16"/>
-      <c r="K823" s="17"/>
+      <c r="G823" s="12"/>
+      <c r="J823" s="15"/>
+      <c r="K823" s="16"/>
     </row>
     <row r="824" ht="15.2" spans="7:11">
-      <c r="G824" s="13"/>
-      <c r="J824" s="16"/>
-      <c r="K824" s="17"/>
+      <c r="G824" s="12"/>
+      <c r="J824" s="15"/>
+      <c r="K824" s="16"/>
     </row>
     <row r="825" ht="15.2" spans="7:11">
-      <c r="G825" s="13"/>
-      <c r="J825" s="16"/>
-      <c r="K825" s="17"/>
+      <c r="G825" s="12"/>
+      <c r="J825" s="15"/>
+      <c r="K825" s="16"/>
     </row>
     <row r="826" ht="15.2" spans="7:11">
-      <c r="G826" s="13"/>
-      <c r="J826" s="16"/>
-      <c r="K826" s="17"/>
+      <c r="G826" s="12"/>
+      <c r="J826" s="15"/>
+      <c r="K826" s="16"/>
     </row>
     <row r="827" ht="15.2" spans="7:11">
-      <c r="G827" s="13"/>
-      <c r="J827" s="16"/>
-      <c r="K827" s="17"/>
+      <c r="G827" s="12"/>
+      <c r="J827" s="15"/>
+      <c r="K827" s="16"/>
     </row>
     <row r="828" ht="15.2" spans="7:11">
-      <c r="G828" s="13"/>
-      <c r="J828" s="16"/>
-      <c r="K828" s="17"/>
+      <c r="G828" s="12"/>
+      <c r="J828" s="15"/>
+      <c r="K828" s="16"/>
     </row>
     <row r="829" ht="15.2" spans="7:11">
-      <c r="G829" s="13"/>
-      <c r="J829" s="16"/>
-      <c r="K829" s="17"/>
+      <c r="G829" s="12"/>
+      <c r="J829" s="15"/>
+      <c r="K829" s="16"/>
     </row>
     <row r="830" ht="15.2" spans="7:11">
-      <c r="G830" s="13"/>
-      <c r="J830" s="16"/>
-      <c r="K830" s="17"/>
+      <c r="G830" s="12"/>
+      <c r="J830" s="15"/>
+      <c r="K830" s="16"/>
     </row>
     <row r="831" ht="15.2" spans="7:11">
-      <c r="G831" s="13"/>
-      <c r="J831" s="16"/>
-      <c r="K831" s="17"/>
+      <c r="G831" s="12"/>
+      <c r="J831" s="15"/>
+      <c r="K831" s="16"/>
     </row>
     <row r="832" ht="15.2" spans="7:11">
-      <c r="G832" s="13"/>
-      <c r="J832" s="16"/>
-      <c r="K832" s="17"/>
+      <c r="G832" s="12"/>
+      <c r="J832" s="15"/>
+      <c r="K832" s="16"/>
     </row>
     <row r="833" ht="15.2" spans="7:11">
-      <c r="G833" s="13"/>
-      <c r="J833" s="16"/>
-      <c r="K833" s="17"/>
+      <c r="G833" s="12"/>
+      <c r="J833" s="15"/>
+      <c r="K833" s="16"/>
     </row>
     <row r="834" ht="15.2" spans="7:11">
-      <c r="G834" s="13"/>
-      <c r="J834" s="16"/>
-      <c r="K834" s="17"/>
+      <c r="G834" s="12"/>
+      <c r="J834" s="15"/>
+      <c r="K834" s="16"/>
     </row>
     <row r="835" ht="15.2" spans="7:11">
-      <c r="G835" s="13"/>
-      <c r="J835" s="16"/>
-      <c r="K835" s="17"/>
+      <c r="G835" s="12"/>
+      <c r="J835" s="15"/>
+      <c r="K835" s="16"/>
     </row>
     <row r="836" ht="15.2" spans="7:11">
-      <c r="G836" s="13"/>
-      <c r="J836" s="16"/>
-      <c r="K836" s="17"/>
+      <c r="G836" s="12"/>
+      <c r="J836" s="15"/>
+      <c r="K836" s="16"/>
     </row>
     <row r="837" ht="15.2" spans="7:11">
-      <c r="G837" s="13"/>
-      <c r="J837" s="16"/>
-      <c r="K837" s="17"/>
+      <c r="G837" s="12"/>
+      <c r="J837" s="15"/>
+      <c r="K837" s="16"/>
     </row>
     <row r="838" ht="15.2" spans="7:11">
-      <c r="G838" s="13"/>
-      <c r="J838" s="16"/>
-      <c r="K838" s="17"/>
+      <c r="G838" s="12"/>
+      <c r="J838" s="15"/>
+      <c r="K838" s="16"/>
     </row>
     <row r="839" ht="15.2" spans="7:11">
-      <c r="G839" s="13"/>
-      <c r="J839" s="16"/>
-      <c r="K839" s="17"/>
+      <c r="G839" s="12"/>
+      <c r="J839" s="15"/>
+      <c r="K839" s="16"/>
     </row>
     <row r="840" ht="15.2" spans="7:11">
-      <c r="G840" s="13"/>
-      <c r="J840" s="16"/>
-      <c r="K840" s="17"/>
+      <c r="G840" s="12"/>
+      <c r="J840" s="15"/>
+      <c r="K840" s="16"/>
     </row>
     <row r="841" ht="15.2" spans="7:11">
-      <c r="G841" s="13"/>
-      <c r="J841" s="16"/>
-      <c r="K841" s="17"/>
+      <c r="G841" s="12"/>
+      <c r="J841" s="15"/>
+      <c r="K841" s="16"/>
     </row>
     <row r="842" ht="15.2" spans="7:11">
-      <c r="G842" s="13"/>
-      <c r="J842" s="16"/>
-      <c r="K842" s="17"/>
+      <c r="G842" s="12"/>
+      <c r="J842" s="15"/>
+      <c r="K842" s="16"/>
     </row>
     <row r="843" ht="15.2" spans="7:11">
-      <c r="G843" s="13"/>
-      <c r="J843" s="16"/>
-      <c r="K843" s="17"/>
+      <c r="G843" s="12"/>
+      <c r="J843" s="15"/>
+      <c r="K843" s="16"/>
     </row>
     <row r="844" ht="15.2" spans="7:11">
-      <c r="G844" s="13"/>
-      <c r="J844" s="16"/>
-      <c r="K844" s="17"/>
+      <c r="G844" s="12"/>
+      <c r="J844" s="15"/>
+      <c r="K844" s="16"/>
     </row>
     <row r="845" ht="15.2" spans="7:11">
-      <c r="G845" s="13"/>
-      <c r="J845" s="16"/>
-      <c r="K845" s="17"/>
+      <c r="G845" s="12"/>
+      <c r="J845" s="15"/>
+      <c r="K845" s="16"/>
     </row>
     <row r="846" ht="15.2" spans="7:11">
-      <c r="G846" s="13"/>
-      <c r="J846" s="16"/>
-      <c r="K846" s="17"/>
+      <c r="G846" s="12"/>
+      <c r="J846" s="15"/>
+      <c r="K846" s="16"/>
     </row>
     <row r="847" ht="15.2" spans="7:11">
-      <c r="G847" s="13"/>
-      <c r="J847" s="16"/>
-      <c r="K847" s="17"/>
+      <c r="G847" s="12"/>
+      <c r="J847" s="15"/>
+      <c r="K847" s="16"/>
     </row>
     <row r="848" ht="15.2" spans="7:11">
-      <c r="G848" s="13"/>
-      <c r="J848" s="16"/>
-      <c r="K848" s="17"/>
+      <c r="G848" s="12"/>
+      <c r="J848" s="15"/>
+      <c r="K848" s="16"/>
     </row>
     <row r="849" ht="15.2" spans="7:11">
-      <c r="G849" s="13"/>
-      <c r="J849" s="16"/>
-      <c r="K849" s="17"/>
+      <c r="G849" s="12"/>
+      <c r="J849" s="15"/>
+      <c r="K849" s="16"/>
     </row>
     <row r="850" ht="15.2" spans="7:11">
-      <c r="G850" s="13"/>
-      <c r="J850" s="16"/>
-      <c r="K850" s="17"/>
+      <c r="G850" s="12"/>
+      <c r="J850" s="15"/>
+      <c r="K850" s="16"/>
     </row>
     <row r="851" ht="15.2" spans="7:11">
-      <c r="G851" s="13"/>
-      <c r="J851" s="16"/>
-      <c r="K851" s="17"/>
+      <c r="G851" s="12"/>
+      <c r="J851" s="15"/>
+      <c r="K851" s="16"/>
     </row>
     <row r="852" ht="15.2" spans="7:11">
-      <c r="G852" s="13"/>
-      <c r="J852" s="16"/>
-      <c r="K852" s="17"/>
+      <c r="G852" s="12"/>
+      <c r="J852" s="15"/>
+      <c r="K852" s="16"/>
     </row>
     <row r="853" ht="15.2" spans="7:11">
-      <c r="G853" s="13"/>
-      <c r="J853" s="16"/>
-      <c r="K853" s="17"/>
+      <c r="G853" s="12"/>
+      <c r="J853" s="15"/>
+      <c r="K853" s="16"/>
     </row>
     <row r="854" ht="15.2" spans="7:11">
-      <c r="G854" s="13"/>
-      <c r="J854" s="16"/>
-      <c r="K854" s="17"/>
+      <c r="G854" s="12"/>
+      <c r="J854" s="15"/>
+      <c r="K854" s="16"/>
     </row>
     <row r="855" ht="15.2" spans="7:11">
-      <c r="G855" s="13"/>
-      <c r="J855" s="16"/>
-      <c r="K855" s="17"/>
+      <c r="G855" s="12"/>
+      <c r="J855" s="15"/>
+      <c r="K855" s="16"/>
     </row>
     <row r="856" ht="15.2" spans="7:11">
-      <c r="G856" s="13"/>
-      <c r="J856" s="16"/>
-      <c r="K856" s="17"/>
+      <c r="G856" s="12"/>
+      <c r="J856" s="15"/>
+      <c r="K856" s="16"/>
     </row>
     <row r="857" ht="15.2" spans="7:11">
-      <c r="G857" s="13"/>
-      <c r="J857" s="16"/>
-      <c r="K857" s="17"/>
+      <c r="G857" s="12"/>
+      <c r="J857" s="15"/>
+      <c r="K857" s="16"/>
     </row>
     <row r="858" ht="15.2" spans="7:11">
-      <c r="G858" s="13"/>
-      <c r="J858" s="16"/>
-      <c r="K858" s="17"/>
+      <c r="G858" s="12"/>
+      <c r="J858" s="15"/>
+      <c r="K858" s="16"/>
     </row>
     <row r="859" ht="15.2" spans="7:11">
-      <c r="G859" s="13"/>
-      <c r="J859" s="16"/>
-      <c r="K859" s="17"/>
+      <c r="G859" s="12"/>
+      <c r="J859" s="15"/>
+      <c r="K859" s="16"/>
     </row>
     <row r="860" ht="15.2" spans="7:11">
-      <c r="G860" s="13"/>
-      <c r="J860" s="16"/>
-      <c r="K860" s="17"/>
+      <c r="G860" s="12"/>
+      <c r="J860" s="15"/>
+      <c r="K860" s="16"/>
     </row>
     <row r="861" ht="15.2" spans="7:11">
-      <c r="G861" s="13"/>
-      <c r="J861" s="16"/>
-      <c r="K861" s="17"/>
+      <c r="G861" s="12"/>
+      <c r="J861" s="15"/>
+      <c r="K861" s="16"/>
     </row>
     <row r="862" ht="15.2" spans="7:11">
-      <c r="G862" s="13"/>
-      <c r="J862" s="16"/>
-      <c r="K862" s="17"/>
+      <c r="G862" s="12"/>
+      <c r="J862" s="15"/>
+      <c r="K862" s="16"/>
     </row>
     <row r="863" ht="15.2" spans="7:11">
-      <c r="G863" s="13"/>
-      <c r="J863" s="16"/>
-      <c r="K863" s="17"/>
+      <c r="G863" s="12"/>
+      <c r="J863" s="15"/>
+      <c r="K863" s="16"/>
     </row>
     <row r="864" ht="15.2" spans="7:11">
-      <c r="G864" s="13"/>
-      <c r="J864" s="16"/>
-      <c r="K864" s="17"/>
+      <c r="G864" s="12"/>
+      <c r="J864" s="15"/>
+      <c r="K864" s="16"/>
     </row>
     <row r="865" ht="15.2" spans="7:11">
-      <c r="G865" s="13"/>
-      <c r="J865" s="16"/>
-      <c r="K865" s="17"/>
+      <c r="G865" s="12"/>
+      <c r="J865" s="15"/>
+      <c r="K865" s="16"/>
     </row>
     <row r="866" ht="15.2" spans="7:11">
-      <c r="G866" s="13"/>
-      <c r="J866" s="16"/>
-      <c r="K866" s="17"/>
+      <c r="G866" s="12"/>
+      <c r="J866" s="15"/>
+      <c r="K866" s="16"/>
     </row>
     <row r="867" ht="15.2" spans="7:11">
-      <c r="G867" s="13"/>
-      <c r="J867" s="16"/>
-      <c r="K867" s="17"/>
+      <c r="G867" s="12"/>
+      <c r="J867" s="15"/>
+      <c r="K867" s="16"/>
     </row>
     <row r="868" ht="15.2" spans="7:11">
-      <c r="G868" s="13"/>
-      <c r="J868" s="16"/>
-      <c r="K868" s="17"/>
+      <c r="G868" s="12"/>
+      <c r="J868" s="15"/>
+      <c r="K868" s="16"/>
     </row>
     <row r="869" ht="15.2" spans="7:11">
-      <c r="G869" s="13"/>
-      <c r="J869" s="16"/>
-      <c r="K869" s="17"/>
+      <c r="G869" s="12"/>
+      <c r="J869" s="15"/>
+      <c r="K869" s="16"/>
     </row>
     <row r="870" ht="15.2" spans="7:11">
-      <c r="G870" s="13"/>
-      <c r="J870" s="16"/>
-      <c r="K870" s="17"/>
+      <c r="G870" s="12"/>
+      <c r="J870" s="15"/>
+      <c r="K870" s="16"/>
     </row>
     <row r="871" ht="15.2" spans="7:11">
-      <c r="G871" s="13"/>
-      <c r="J871" s="16"/>
-      <c r="K871" s="17"/>
+      <c r="G871" s="12"/>
+      <c r="J871" s="15"/>
+      <c r="K871" s="16"/>
     </row>
     <row r="872" ht="15.2" spans="7:11">
-      <c r="G872" s="13"/>
-      <c r="J872" s="16"/>
-      <c r="K872" s="17"/>
+      <c r="G872" s="12"/>
+      <c r="J872" s="15"/>
+      <c r="K872" s="16"/>
     </row>
     <row r="873" ht="15.2" spans="7:11">
-      <c r="G873" s="13"/>
-      <c r="J873" s="16"/>
-      <c r="K873" s="17"/>
+      <c r="G873" s="12"/>
+      <c r="J873" s="15"/>
+      <c r="K873" s="16"/>
     </row>
     <row r="874" ht="15.2" spans="7:11">
-      <c r="G874" s="13"/>
-      <c r="J874" s="16"/>
-      <c r="K874" s="17"/>
+      <c r="G874" s="12"/>
+      <c r="J874" s="15"/>
+      <c r="K874" s="16"/>
     </row>
     <row r="875" ht="15.2" spans="7:11">
-      <c r="G875" s="13"/>
-      <c r="J875" s="16"/>
-      <c r="K875" s="17"/>
+      <c r="G875" s="12"/>
+      <c r="J875" s="15"/>
+      <c r="K875" s="16"/>
     </row>
     <row r="876" ht="15.2" spans="7:11">
-      <c r="G876" s="13"/>
-      <c r="J876" s="16"/>
-      <c r="K876" s="17"/>
+      <c r="G876" s="12"/>
+      <c r="J876" s="15"/>
+      <c r="K876" s="16"/>
     </row>
     <row r="877" ht="15.2" spans="7:11">
-      <c r="G877" s="13"/>
-      <c r="J877" s="16"/>
-      <c r="K877" s="17"/>
+      <c r="G877" s="12"/>
+      <c r="J877" s="15"/>
+      <c r="K877" s="16"/>
     </row>
     <row r="878" ht="15.2" spans="7:11">
-      <c r="G878" s="13"/>
-      <c r="J878" s="16"/>
-      <c r="K878" s="17"/>
+      <c r="G878" s="12"/>
+      <c r="J878" s="15"/>
+      <c r="K878" s="16"/>
     </row>
     <row r="879" ht="15.2" spans="7:11">
-      <c r="G879" s="13"/>
-      <c r="J879" s="16"/>
-      <c r="K879" s="17"/>
+      <c r="G879" s="12"/>
+      <c r="J879" s="15"/>
+      <c r="K879" s="16"/>
     </row>
     <row r="880" ht="15.2" spans="7:11">
-      <c r="G880" s="13"/>
-      <c r="J880" s="16"/>
-      <c r="K880" s="17"/>
+      <c r="G880" s="12"/>
+      <c r="J880" s="15"/>
+      <c r="K880" s="16"/>
     </row>
     <row r="881" ht="15.2" spans="7:11">
-      <c r="G881" s="13"/>
-      <c r="J881" s="16"/>
-      <c r="K881" s="17"/>
+      <c r="G881" s="12"/>
+      <c r="J881" s="15"/>
+      <c r="K881" s="16"/>
     </row>
     <row r="882" ht="15.2" spans="7:11">
-      <c r="G882" s="13"/>
-      <c r="J882" s="16"/>
-      <c r="K882" s="17"/>
+      <c r="G882" s="12"/>
+      <c r="J882" s="15"/>
+      <c r="K882" s="16"/>
     </row>
     <row r="883" ht="15.2" spans="7:11">
-      <c r="G883" s="13"/>
-      <c r="J883" s="16"/>
-      <c r="K883" s="17"/>
+      <c r="G883" s="12"/>
+      <c r="J883" s="15"/>
+      <c r="K883" s="16"/>
     </row>
     <row r="884" ht="15.2" spans="7:11">
-      <c r="G884" s="13"/>
-      <c r="J884" s="16"/>
-      <c r="K884" s="17"/>
+      <c r="G884" s="12"/>
+      <c r="J884" s="15"/>
+      <c r="K884" s="16"/>
     </row>
     <row r="885" ht="15.2" spans="7:11">
-      <c r="G885" s="13"/>
-      <c r="J885" s="16"/>
-      <c r="K885" s="17"/>
+      <c r="G885" s="12"/>
+      <c r="J885" s="15"/>
+      <c r="K885" s="16"/>
     </row>
     <row r="886" ht="15.2" spans="7:11">
-      <c r="G886" s="13"/>
-      <c r="J886" s="16"/>
-      <c r="K886" s="17"/>
+      <c r="G886" s="12"/>
+      <c r="J886" s="15"/>
+      <c r="K886" s="16"/>
     </row>
     <row r="887" ht="15.2" spans="7:11">
-      <c r="G887" s="13"/>
-      <c r="J887" s="16"/>
-      <c r="K887" s="17"/>
+      <c r="G887" s="12"/>
+      <c r="J887" s="15"/>
+      <c r="K887" s="16"/>
     </row>
     <row r="888" ht="15.2" spans="7:11">
-      <c r="G888" s="13"/>
-      <c r="J888" s="16"/>
-      <c r="K888" s="17"/>
+      <c r="G888" s="12"/>
+      <c r="J888" s="15"/>
+      <c r="K888" s="16"/>
     </row>
     <row r="889" ht="15.2" spans="7:11">
-      <c r="G889" s="13"/>
-      <c r="J889" s="16"/>
-      <c r="K889" s="17"/>
+      <c r="G889" s="12"/>
+      <c r="J889" s="15"/>
+      <c r="K889" s="16"/>
     </row>
     <row r="890" ht="15.2" spans="7:11">
-      <c r="G890" s="13"/>
-      <c r="J890" s="16"/>
-      <c r="K890" s="17"/>
+      <c r="G890" s="12"/>
+      <c r="J890" s="15"/>
+      <c r="K890" s="16"/>
     </row>
     <row r="891" ht="15.2" spans="7:11">
-      <c r="G891" s="13"/>
-      <c r="J891" s="16"/>
-      <c r="K891" s="17"/>
+      <c r="G891" s="12"/>
+      <c r="J891" s="15"/>
+      <c r="K891" s="16"/>
     </row>
     <row r="892" ht="15.2" spans="7:11">
-      <c r="G892" s="13"/>
-      <c r="J892" s="16"/>
-      <c r="K892" s="17"/>
+      <c r="G892" s="12"/>
+      <c r="J892" s="15"/>
+      <c r="K892" s="16"/>
     </row>
     <row r="893" ht="15.2" spans="7:11">
-      <c r="G893" s="13"/>
-      <c r="J893" s="16"/>
-      <c r="K893" s="17"/>
+      <c r="G893" s="12"/>
+      <c r="J893" s="15"/>
+      <c r="K893" s="16"/>
     </row>
     <row r="894" ht="15.2" spans="7:11">
-      <c r="G894" s="13"/>
-      <c r="J894" s="16"/>
-      <c r="K894" s="17"/>
+      <c r="G894" s="12"/>
+      <c r="J894" s="15"/>
+      <c r="K894" s="16"/>
     </row>
     <row r="895" ht="15.2" spans="7:11">
-      <c r="G895" s="13"/>
-      <c r="J895" s="16"/>
-      <c r="K895" s="17"/>
+      <c r="G895" s="12"/>
+      <c r="J895" s="15"/>
+      <c r="K895" s="16"/>
     </row>
     <row r="896" ht="15.2" spans="7:11">
-      <c r="G896" s="13"/>
-      <c r="J896" s="16"/>
-      <c r="K896" s="17"/>
+      <c r="G896" s="12"/>
+      <c r="J896" s="15"/>
+      <c r="K896" s="16"/>
     </row>
     <row r="897" ht="15.2" spans="7:11">
-      <c r="G897" s="13"/>
-      <c r="J897" s="16"/>
-      <c r="K897" s="17"/>
+      <c r="G897" s="12"/>
+      <c r="J897" s="15"/>
+      <c r="K897" s="16"/>
     </row>
     <row r="898" ht="15.2" spans="7:11">
-      <c r="G898" s="13"/>
-      <c r="J898" s="16"/>
-      <c r="K898" s="17"/>
+      <c r="G898" s="12"/>
+      <c r="J898" s="15"/>
+      <c r="K898" s="16"/>
     </row>
     <row r="899" ht="15.2" spans="7:11">
-      <c r="G899" s="13"/>
-      <c r="J899" s="16"/>
-      <c r="K899" s="17"/>
+      <c r="G899" s="12"/>
+      <c r="J899" s="15"/>
+      <c r="K899" s="16"/>
     </row>
     <row r="900" ht="15.2" spans="7:11">
-      <c r="G900" s="13"/>
-      <c r="J900" s="16"/>
-      <c r="K900" s="17"/>
+      <c r="G900" s="12"/>
+      <c r="J900" s="15"/>
+      <c r="K900" s="16"/>
     </row>
     <row r="901" ht="15.2" spans="7:11">
-      <c r="G901" s="13"/>
-      <c r="J901" s="16"/>
-      <c r="K901" s="17"/>
+      <c r="G901" s="12"/>
+      <c r="J901" s="15"/>
+      <c r="K901" s="16"/>
     </row>
     <row r="902" ht="15.2" spans="7:11">
-      <c r="G902" s="13"/>
-      <c r="J902" s="16"/>
-      <c r="K902" s="17"/>
+      <c r="G902" s="12"/>
+      <c r="J902" s="15"/>
+      <c r="K902" s="16"/>
     </row>
     <row r="903" ht="15.2" spans="7:11">
-      <c r="G903" s="13"/>
-      <c r="J903" s="16"/>
-      <c r="K903" s="17"/>
+      <c r="G903" s="12"/>
+      <c r="J903" s="15"/>
+      <c r="K903" s="16"/>
     </row>
     <row r="904" ht="15.2" spans="7:11">
-      <c r="G904" s="13"/>
-      <c r="J904" s="16"/>
-      <c r="K904" s="17"/>
+      <c r="G904" s="12"/>
+      <c r="J904" s="15"/>
+      <c r="K904" s="16"/>
     </row>
     <row r="905" ht="15.2" spans="7:11">
-      <c r="G905" s="13"/>
-      <c r="J905" s="16"/>
-      <c r="K905" s="17"/>
+      <c r="G905" s="12"/>
+      <c r="J905" s="15"/>
+      <c r="K905" s="16"/>
     </row>
     <row r="906" ht="15.2" spans="7:11">
-      <c r="G906" s="13"/>
-      <c r="J906" s="16"/>
-      <c r="K906" s="17"/>
+      <c r="G906" s="12"/>
+      <c r="J906" s="15"/>
+      <c r="K906" s="16"/>
     </row>
     <row r="907" ht="15.2" spans="7:11">
-      <c r="G907" s="13"/>
-      <c r="J907" s="16"/>
-      <c r="K907" s="17"/>
+      <c r="G907" s="12"/>
+      <c r="J907" s="15"/>
+      <c r="K907" s="16"/>
     </row>
     <row r="908" ht="15.2" spans="7:11">
-      <c r="G908" s="13"/>
-      <c r="J908" s="16"/>
-      <c r="K908" s="17"/>
+      <c r="G908" s="12"/>
+      <c r="J908" s="15"/>
+      <c r="K908" s="16"/>
     </row>
     <row r="909" ht="15.2" spans="7:11">
-      <c r="G909" s="13"/>
-      <c r="J909" s="16"/>
-      <c r="K909" s="17"/>
+      <c r="G909" s="12"/>
+      <c r="J909" s="15"/>
+      <c r="K909" s="16"/>
     </row>
     <row r="910" ht="15.2" spans="7:11">
-      <c r="G910" s="13"/>
-      <c r="J910" s="16"/>
-      <c r="K910" s="17"/>
+      <c r="G910" s="12"/>
+      <c r="J910" s="15"/>
+      <c r="K910" s="16"/>
     </row>
     <row r="911" ht="15.2" spans="7:11">
-      <c r="G911" s="13"/>
-      <c r="J911" s="16"/>
-      <c r="K911" s="17"/>
+      <c r="G911" s="12"/>
+      <c r="J911" s="15"/>
+      <c r="K911" s="16"/>
     </row>
     <row r="912" ht="15.2" spans="7:11">
-      <c r="G912" s="13"/>
-      <c r="J912" s="16"/>
-      <c r="K912" s="17"/>
+      <c r="G912" s="12"/>
+      <c r="J912" s="15"/>
+      <c r="K912" s="16"/>
     </row>
     <row r="913" ht="15.2" spans="7:11">
-      <c r="G913" s="13"/>
-      <c r="J913" s="16"/>
-      <c r="K913" s="17"/>
+      <c r="G913" s="12"/>
+      <c r="J913" s="15"/>
+      <c r="K913" s="16"/>
     </row>
     <row r="914" ht="15.2" spans="7:11">
-      <c r="G914" s="13"/>
-      <c r="J914" s="16"/>
-      <c r="K914" s="17"/>
+      <c r="G914" s="12"/>
+      <c r="J914" s="15"/>
+      <c r="K914" s="16"/>
     </row>
     <row r="915" ht="15.2" spans="7:11">
-      <c r="G915" s="13"/>
-      <c r="J915" s="16"/>
-      <c r="K915" s="17"/>
+      <c r="G915" s="12"/>
+      <c r="J915" s="15"/>
+      <c r="K915" s="16"/>
     </row>
     <row r="916" ht="15.2" spans="7:11">
-      <c r="G916" s="13"/>
-      <c r="J916" s="16"/>
-      <c r="K916" s="17"/>
+      <c r="G916" s="12"/>
+      <c r="J916" s="15"/>
+      <c r="K916" s="16"/>
     </row>
     <row r="917" ht="15.2" spans="7:11">
-      <c r="G917" s="13"/>
-      <c r="J917" s="16"/>
-      <c r="K917" s="17"/>
+      <c r="G917" s="12"/>
+      <c r="J917" s="15"/>
+      <c r="K917" s="16"/>
     </row>
     <row r="918" ht="15.2" spans="7:11">
-      <c r="G918" s="13"/>
-      <c r="J918" s="16"/>
-      <c r="K918" s="17"/>
+      <c r="G918" s="12"/>
+      <c r="J918" s="15"/>
+      <c r="K918" s="16"/>
     </row>
     <row r="919" ht="15.2" spans="7:11">
-      <c r="G919" s="13"/>
-      <c r="J919" s="16"/>
-      <c r="K919" s="17"/>
+      <c r="G919" s="12"/>
+      <c r="J919" s="15"/>
+      <c r="K919" s="16"/>
     </row>
     <row r="920" ht="15.2" spans="7:11">
-      <c r="G920" s="13"/>
-      <c r="J920" s="16"/>
-      <c r="K920" s="17"/>
+      <c r="G920" s="12"/>
+      <c r="J920" s="15"/>
+      <c r="K920" s="16"/>
     </row>
     <row r="921" ht="15.2" spans="7:11">
-      <c r="G921" s="13"/>
-      <c r="J921" s="16"/>
-      <c r="K921" s="17"/>
+      <c r="G921" s="12"/>
+      <c r="J921" s="15"/>
+      <c r="K921" s="16"/>
     </row>
     <row r="922" ht="15.2" spans="7:11">
-      <c r="G922" s="13"/>
-      <c r="J922" s="16"/>
-      <c r="K922" s="17"/>
+      <c r="G922" s="12"/>
+      <c r="J922" s="15"/>
+      <c r="K922" s="16"/>
     </row>
     <row r="923" ht="15.2" spans="7:11">
-      <c r="G923" s="13"/>
-      <c r="J923" s="16"/>
-      <c r="K923" s="17"/>
+      <c r="G923" s="12"/>
+      <c r="J923" s="15"/>
+      <c r="K923" s="16"/>
     </row>
     <row r="924" ht="15.2" spans="7:11">
-      <c r="G924" s="13"/>
-      <c r="J924" s="16"/>
-      <c r="K924" s="17"/>
+      <c r="G924" s="12"/>
+      <c r="J924" s="15"/>
+      <c r="K924" s="16"/>
     </row>
     <row r="925" ht="15.2" spans="7:11">
-      <c r="G925" s="13"/>
-      <c r="J925" s="16"/>
-      <c r="K925" s="17"/>
+      <c r="G925" s="12"/>
+      <c r="J925" s="15"/>
+      <c r="K925" s="16"/>
     </row>
     <row r="926" ht="15.2" spans="7:11">
-      <c r="G926" s="13"/>
-      <c r="J926" s="16"/>
-      <c r="K926" s="17"/>
+      <c r="G926" s="12"/>
+      <c r="J926" s="15"/>
+      <c r="K926" s="16"/>
     </row>
     <row r="927" ht="15.2" spans="7:11">
-      <c r="G927" s="13"/>
-      <c r="J927" s="16"/>
-      <c r="K927" s="17"/>
+      <c r="G927" s="12"/>
+      <c r="J927" s="15"/>
+      <c r="K927" s="16"/>
     </row>
     <row r="928" ht="15.2" spans="7:11">
-      <c r="G928" s="13"/>
-      <c r="J928" s="16"/>
-      <c r="K928" s="17"/>
+      <c r="G928" s="12"/>
+      <c r="J928" s="15"/>
+      <c r="K928" s="16"/>
     </row>
     <row r="929" ht="15.2" spans="7:11">
-      <c r="G929" s="13"/>
-      <c r="J929" s="16"/>
-      <c r="K929" s="17"/>
+      <c r="G929" s="12"/>
+      <c r="J929" s="15"/>
+      <c r="K929" s="16"/>
     </row>
     <row r="930" ht="15.2" spans="7:11">
-      <c r="G930" s="13"/>
-      <c r="J930" s="16"/>
-      <c r="K930" s="17"/>
+      <c r="G930" s="12"/>
+      <c r="J930" s="15"/>
+      <c r="K930" s="16"/>
     </row>
     <row r="931" ht="15.2" spans="7:11">
-      <c r="G931" s="13"/>
-      <c r="J931" s="16"/>
-      <c r="K931" s="17"/>
+      <c r="G931" s="12"/>
+      <c r="J931" s="15"/>
+      <c r="K931" s="16"/>
     </row>
     <row r="932" ht="15.2" spans="7:11">
-      <c r="G932" s="13"/>
-      <c r="J932" s="16"/>
-      <c r="K932" s="17"/>
+      <c r="G932" s="12"/>
+      <c r="J932" s="15"/>
+      <c r="K932" s="16"/>
     </row>
     <row r="933" ht="15.2" spans="7:11">
-      <c r="G933" s="13"/>
-      <c r="J933" s="16"/>
-      <c r="K933" s="17"/>
+      <c r="G933" s="12"/>
+      <c r="J933" s="15"/>
+      <c r="K933" s="16"/>
     </row>
     <row r="934" ht="15.2" spans="7:11">
-      <c r="G934" s="13"/>
-      <c r="J934" s="16"/>
-      <c r="K934" s="17"/>
+      <c r="G934" s="12"/>
+      <c r="J934" s="15"/>
+      <c r="K934" s="16"/>
     </row>
     <row r="935" ht="15.2" spans="7:11">
-      <c r="G935" s="13"/>
-      <c r="J935" s="16"/>
-      <c r="K935" s="17"/>
+      <c r="G935" s="12"/>
+      <c r="J935" s="15"/>
+      <c r="K935" s="16"/>
     </row>
     <row r="936" ht="15.2" spans="7:11">
-      <c r="G936" s="13"/>
-      <c r="J936" s="16"/>
-      <c r="K936" s="17"/>
+      <c r="G936" s="12"/>
+      <c r="J936" s="15"/>
+      <c r="K936" s="16"/>
     </row>
     <row r="937" ht="15.2" spans="7:11">
-      <c r="G937" s="13"/>
-      <c r="J937" s="16"/>
-      <c r="K937" s="17"/>
+      <c r="G937" s="12"/>
+      <c r="J937" s="15"/>
+      <c r="K937" s="16"/>
     </row>
     <row r="938" ht="15.2" spans="7:11">
-      <c r="G938" s="13"/>
-      <c r="J938" s="16"/>
-      <c r="K938" s="17"/>
+      <c r="G938" s="12"/>
+      <c r="J938" s="15"/>
+      <c r="K938" s="16"/>
     </row>
     <row r="939" ht="15.2" spans="7:11">
-      <c r="G939" s="13"/>
-      <c r="J939" s="16"/>
-      <c r="K939" s="17"/>
+      <c r="G939" s="12"/>
+      <c r="J939" s="15"/>
+      <c r="K939" s="16"/>
     </row>
     <row r="940" ht="15.2" spans="7:11">
-      <c r="G940" s="13"/>
-      <c r="J940" s="16"/>
-      <c r="K940" s="17"/>
+      <c r="G940" s="12"/>
+      <c r="J940" s="15"/>
+      <c r="K940" s="16"/>
     </row>
     <row r="941" ht="15.2" spans="7:11">
-      <c r="G941" s="13"/>
-      <c r="J941" s="16"/>
-      <c r="K941" s="17"/>
+      <c r="G941" s="12"/>
+      <c r="J941" s="15"/>
+      <c r="K941" s="16"/>
     </row>
     <row r="942" ht="15.2" spans="7:11">
-      <c r="G942" s="13"/>
-      <c r="J942" s="16"/>
-      <c r="K942" s="17"/>
+      <c r="G942" s="12"/>
+      <c r="J942" s="15"/>
+      <c r="K942" s="16"/>
     </row>
     <row r="943" ht="15.2" spans="7:11">
-      <c r="G943" s="13"/>
-      <c r="J943" s="16"/>
-      <c r="K943" s="17"/>
+      <c r="G943" s="12"/>
+      <c r="J943" s="15"/>
+      <c r="K943" s="16"/>
     </row>
     <row r="944" ht="15.2" spans="7:11">
-      <c r="G944" s="13"/>
-      <c r="J944" s="16"/>
-      <c r="K944" s="17"/>
+      <c r="G944" s="12"/>
+      <c r="J944" s="15"/>
+      <c r="K944" s="16"/>
     </row>
     <row r="945" ht="15.2" spans="7:11">
-      <c r="G945" s="13"/>
-      <c r="J945" s="16"/>
-      <c r="K945" s="17"/>
+      <c r="G945" s="12"/>
+      <c r="J945" s="15"/>
+      <c r="K945" s="16"/>
     </row>
     <row r="946" ht="15.2" spans="7:11">
-      <c r="G946" s="13"/>
-      <c r="J946" s="16"/>
-      <c r="K946" s="17"/>
+      <c r="G946" s="12"/>
+      <c r="J946" s="15"/>
+      <c r="K946" s="16"/>
     </row>
     <row r="947" ht="15.2" spans="7:11">
-      <c r="G947" s="13"/>
-      <c r="J947" s="16"/>
-      <c r="K947" s="17"/>
+      <c r="G947" s="12"/>
+      <c r="J947" s="15"/>
+      <c r="K947" s="16"/>
     </row>
     <row r="948" ht="15.2" spans="7:11">
-      <c r="G948" s="13"/>
-      <c r="J948" s="16"/>
-      <c r="K948" s="17"/>
+      <c r="G948" s="12"/>
+      <c r="J948" s="15"/>
+      <c r="K948" s="16"/>
     </row>
     <row r="949" ht="15.2" spans="7:11">
-      <c r="G949" s="13"/>
-      <c r="J949" s="16"/>
-      <c r="K949" s="17"/>
+      <c r="G949" s="12"/>
+      <c r="J949" s="15"/>
+      <c r="K949" s="16"/>
     </row>
     <row r="950" ht="15.2" spans="7:11">
-      <c r="G950" s="13"/>
-      <c r="J950" s="16"/>
-      <c r="K950" s="17"/>
+      <c r="G950" s="12"/>
+      <c r="J950" s="15"/>
+      <c r="K950" s="16"/>
     </row>
     <row r="951" ht="15.2" spans="7:11">
-      <c r="G951" s="13"/>
-      <c r="J951" s="16"/>
-      <c r="K951" s="17"/>
+      <c r="G951" s="12"/>
+      <c r="J951" s="15"/>
+      <c r="K951" s="16"/>
     </row>
     <row r="952" ht="15.2" spans="7:11">
-      <c r="G952" s="13"/>
-      <c r="J952" s="16"/>
-      <c r="K952" s="17"/>
+      <c r="G952" s="12"/>
+      <c r="J952" s="15"/>
+      <c r="K952" s="16"/>
     </row>
     <row r="953" ht="15.2" spans="7:11">
-      <c r="G953" s="13"/>
-      <c r="J953" s="16"/>
-      <c r="K953" s="17"/>
+      <c r="G953" s="12"/>
+      <c r="J953" s="15"/>
+      <c r="K953" s="16"/>
     </row>
     <row r="954" ht="15.2" spans="7:11">
-      <c r="G954" s="13"/>
-      <c r="J954" s="16"/>
-      <c r="K954" s="17"/>
+      <c r="G954" s="12"/>
+      <c r="J954" s="15"/>
+      <c r="K954" s="16"/>
     </row>
     <row r="955" ht="15.2" spans="7:11">
-      <c r="G955" s="13"/>
-      <c r="J955" s="16"/>
-      <c r="K955" s="17"/>
+      <c r="G955" s="12"/>
+      <c r="J955" s="15"/>
+      <c r="K955" s="16"/>
     </row>
     <row r="956" ht="15.2" spans="7:11">
-      <c r="G956" s="13"/>
-      <c r="J956" s="16"/>
-      <c r="K956" s="17"/>
+      <c r="G956" s="12"/>
+      <c r="J956" s="15"/>
+      <c r="K956" s="16"/>
     </row>
     <row r="957" ht="15.2" spans="7:11">
-      <c r="G957" s="13"/>
-      <c r="J957" s="16"/>
-      <c r="K957" s="17"/>
+      <c r="G957" s="12"/>
+      <c r="J957" s="15"/>
+      <c r="K957" s="16"/>
     </row>
     <row r="958" ht="15.2" spans="7:11">
-      <c r="G958" s="13"/>
-      <c r="J958" s="16"/>
-      <c r="K958" s="17"/>
+      <c r="G958" s="12"/>
+      <c r="J958" s="15"/>
+      <c r="K958" s="16"/>
     </row>
     <row r="959" ht="15.2" spans="7:11">
-      <c r="G959" s="13"/>
-      <c r="J959" s="16"/>
-      <c r="K959" s="17"/>
+      <c r="G959" s="12"/>
+      <c r="J959" s="15"/>
+      <c r="K959" s="16"/>
     </row>
     <row r="960" ht="15.2" spans="7:11">
-      <c r="G960" s="13"/>
-      <c r="J960" s="16"/>
-      <c r="K960" s="17"/>
+      <c r="G960" s="12"/>
+      <c r="J960" s="15"/>
+      <c r="K960" s="16"/>
     </row>
     <row r="961" ht="15.2" spans="7:11">
-      <c r="G961" s="13"/>
-      <c r="J961" s="16"/>
-      <c r="K961" s="17"/>
+      <c r="G961" s="12"/>
+      <c r="J961" s="15"/>
+      <c r="K961" s="16"/>
     </row>
     <row r="962" ht="15.2" spans="7:11">
-      <c r="G962" s="13"/>
-      <c r="J962" s="16"/>
-      <c r="K962" s="17"/>
+      <c r="G962" s="12"/>
+      <c r="J962" s="15"/>
+      <c r="K962" s="16"/>
     </row>
     <row r="963" ht="15.2" spans="7:11">
-      <c r="G963" s="13"/>
-      <c r="J963" s="16"/>
-      <c r="K963" s="17"/>
+      <c r="G963" s="12"/>
+      <c r="J963" s="15"/>
+      <c r="K963" s="16"/>
     </row>
     <row r="964" ht="15.2" spans="7:11">
-      <c r="G964" s="13"/>
-      <c r="J964" s="16"/>
-      <c r="K964" s="17"/>
+      <c r="G964" s="12"/>
+      <c r="J964" s="15"/>
+      <c r="K964" s="16"/>
     </row>
     <row r="965" ht="15.2" spans="7:11">
-      <c r="G965" s="13"/>
-      <c r="J965" s="16"/>
-      <c r="K965" s="17"/>
+      <c r="G965" s="12"/>
+      <c r="J965" s="15"/>
+      <c r="K965" s="16"/>
     </row>
     <row r="966" ht="15.2" spans="7:11">
-      <c r="G966" s="13"/>
-      <c r="J966" s="16"/>
-      <c r="K966" s="17"/>
+      <c r="G966" s="12"/>
+      <c r="J966" s="15"/>
+      <c r="K966" s="16"/>
     </row>
     <row r="967" ht="15.2" spans="7:11">
-      <c r="G967" s="13"/>
-      <c r="J967" s="16"/>
-      <c r="K967" s="17"/>
+      <c r="G967" s="12"/>
+      <c r="J967" s="15"/>
+      <c r="K967" s="16"/>
     </row>
     <row r="968" ht="15.2" spans="7:11">
-      <c r="G968" s="13"/>
-      <c r="J968" s="16"/>
-      <c r="K968" s="17"/>
+      <c r="G968" s="12"/>
+      <c r="J968" s="15"/>
+      <c r="K968" s="16"/>
     </row>
     <row r="969" ht="15.2" spans="7:11">
-      <c r="G969" s="13"/>
-      <c r="J969" s="16"/>
-      <c r="K969" s="17"/>
+      <c r="G969" s="12"/>
+      <c r="J969" s="15"/>
+      <c r="K969" s="16"/>
     </row>
     <row r="970" ht="15.2" spans="7:11">
-      <c r="G970" s="13"/>
-      <c r="J970" s="16"/>
-      <c r="K970" s="17"/>
+      <c r="G970" s="12"/>
+      <c r="J970" s="15"/>
+      <c r="K970" s="16"/>
     </row>
     <row r="971" ht="15.2" spans="7:11">
-      <c r="G971" s="13"/>
-      <c r="J971" s="16"/>
-      <c r="K971" s="17"/>
+      <c r="G971" s="12"/>
+      <c r="J971" s="15"/>
+      <c r="K971" s="16"/>
     </row>
     <row r="972" ht="15.2" spans="7:11">
-      <c r="G972" s="13"/>
-      <c r="J972" s="16"/>
-      <c r="K972" s="17"/>
+      <c r="G972" s="12"/>
+      <c r="J972" s="15"/>
+      <c r="K972" s="16"/>
     </row>
     <row r="973" ht="15.2" spans="7:11">
-      <c r="G973" s="13"/>
-      <c r="J973" s="16"/>
-      <c r="K973" s="17"/>
+      <c r="G973" s="12"/>
+      <c r="J973" s="15"/>
+      <c r="K973" s="16"/>
     </row>
     <row r="974" ht="15.2" spans="7:11">
-      <c r="G974" s="13"/>
-      <c r="J974" s="16"/>
-      <c r="K974" s="17"/>
+      <c r="G974" s="12"/>
+      <c r="J974" s="15"/>
+      <c r="K974" s="16"/>
     </row>
     <row r="975" ht="15.2" spans="7:11">
-      <c r="G975" s="13"/>
-      <c r="J975" s="16"/>
-      <c r="K975" s="17"/>
+      <c r="G975" s="12"/>
+      <c r="J975" s="15"/>
+      <c r="K975" s="16"/>
     </row>
     <row r="976" ht="15.2" spans="7:11">
-      <c r="G976" s="13"/>
-      <c r="J976" s="16"/>
-      <c r="K976" s="17"/>
+      <c r="G976" s="12"/>
+      <c r="J976" s="15"/>
+      <c r="K976" s="16"/>
     </row>
     <row r="977" ht="15.2" spans="7:11">
-      <c r="G977" s="13"/>
-      <c r="J977" s="16"/>
-      <c r="K977" s="17"/>
+      <c r="G977" s="12"/>
+      <c r="J977" s="15"/>
+      <c r="K977" s="16"/>
     </row>
     <row r="978" ht="15.2" spans="7:11">
-      <c r="G978" s="13"/>
-      <c r="J978" s="16"/>
-      <c r="K978" s="17"/>
+      <c r="G978" s="12"/>
+      <c r="J978" s="15"/>
+      <c r="K978" s="16"/>
     </row>
     <row r="979" ht="15.2" spans="7:11">
-      <c r="G979" s="13"/>
-      <c r="J979" s="16"/>
-      <c r="K979" s="17"/>
+      <c r="G979" s="12"/>
+      <c r="J979" s="15"/>
+      <c r="K979" s="16"/>
     </row>
     <row r="980" ht="15.2" spans="7:11">
-      <c r="G980" s="13"/>
-      <c r="J980" s="16"/>
-      <c r="K980" s="17"/>
+      <c r="G980" s="12"/>
+      <c r="J980" s="15"/>
+      <c r="K980" s="16"/>
     </row>
     <row r="981" ht="15.2" spans="7:11">
-      <c r="G981" s="13"/>
-      <c r="J981" s="16"/>
-      <c r="K981" s="17"/>
+      <c r="G981" s="12"/>
+      <c r="J981" s="15"/>
+      <c r="K981" s="16"/>
     </row>
     <row r="982" ht="15.2" spans="7:11">
-      <c r="G982" s="13"/>
-      <c r="J982" s="16"/>
-      <c r="K982" s="17"/>
+      <c r="G982" s="12"/>
+      <c r="J982" s="15"/>
+      <c r="K982" s="16"/>
     </row>
     <row r="983" ht="15.2" spans="7:11">
-      <c r="G983" s="13"/>
-      <c r="J983" s="16"/>
-      <c r="K983" s="17"/>
+      <c r="G983" s="12"/>
+      <c r="J983" s="15"/>
+      <c r="K983" s="16"/>
     </row>
     <row r="984" ht="15.2" spans="7:11">
-      <c r="G984" s="13"/>
-      <c r="J984" s="16"/>
-      <c r="K984" s="17"/>
+      <c r="G984" s="12"/>
+      <c r="J984" s="15"/>
+      <c r="K984" s="16"/>
     </row>
     <row r="985" ht="15.2" spans="7:11">
-      <c r="G985" s="13"/>
-      <c r="J985" s="16"/>
-      <c r="K985" s="17"/>
+      <c r="G985" s="12"/>
+      <c r="J985" s="15"/>
+      <c r="K985" s="16"/>
     </row>
     <row r="986" ht="15.2" spans="7:11">
-      <c r="G986" s="13"/>
-      <c r="J986" s="16"/>
-      <c r="K986" s="17"/>
+      <c r="G986" s="12"/>
+      <c r="J986" s="15"/>
+      <c r="K986" s="16"/>
     </row>
     <row r="987" ht="15.2" spans="7:11">
-      <c r="G987" s="13"/>
-      <c r="J987" s="16"/>
-      <c r="K987" s="17"/>
+      <c r="G987" s="12"/>
+      <c r="J987" s="15"/>
+      <c r="K987" s="16"/>
     </row>
     <row r="988" ht="15.2" spans="7:11">
-      <c r="G988" s="13"/>
-      <c r="J988" s="16"/>
-      <c r="K988" s="17"/>
+      <c r="G988" s="12"/>
+      <c r="J988" s="15"/>
+      <c r="K988" s="16"/>
     </row>
     <row r="989" ht="15.2" spans="7:11">
-      <c r="G989" s="13"/>
-      <c r="J989" s="16"/>
-      <c r="K989" s="17"/>
+      <c r="G989" s="12"/>
+      <c r="J989" s="15"/>
+      <c r="K989" s="16"/>
     </row>
     <row r="990" ht="15.2" spans="7:11">
-      <c r="G990" s="13"/>
-      <c r="J990" s="16"/>
-      <c r="K990" s="17"/>
+      <c r="G990" s="12"/>
+      <c r="J990" s="15"/>
+      <c r="K990" s="16"/>
     </row>
     <row r="991" ht="15.2" spans="7:11">
-      <c r="G991" s="13"/>
-      <c r="J991" s="16"/>
-      <c r="K991" s="17"/>
+      <c r="G991" s="12"/>
+      <c r="J991" s="15"/>
+      <c r="K991" s="16"/>
     </row>
     <row r="992" ht="15.2" spans="7:11">
-      <c r="G992" s="13"/>
-      <c r="J992" s="16"/>
-      <c r="K992" s="17"/>
+      <c r="G992" s="12"/>
+      <c r="J992" s="15"/>
+      <c r="K992" s="16"/>
     </row>
     <row r="993" ht="15.2" spans="7:11">
-      <c r="G993" s="13"/>
-      <c r="J993" s="16"/>
-      <c r="K993" s="17"/>
+      <c r="G993" s="12"/>
+      <c r="J993" s="15"/>
+      <c r="K993" s="16"/>
     </row>
     <row r="994" ht="15.2" spans="7:11">
-      <c r="G994" s="13"/>
-      <c r="J994" s="16"/>
-      <c r="K994" s="17"/>
+      <c r="G994" s="12"/>
+      <c r="J994" s="15"/>
+      <c r="K994" s="16"/>
     </row>
     <row r="995" ht="15.2" spans="7:11">
-      <c r="G995" s="13"/>
-      <c r="J995" s="16"/>
-      <c r="K995" s="17"/>
+      <c r="G995" s="12"/>
+      <c r="J995" s="15"/>
+      <c r="K995" s="16"/>
     </row>
     <row r="996" ht="15.2" spans="7:11">
-      <c r="G996" s="13"/>
-      <c r="J996" s="16"/>
-      <c r="K996" s="17"/>
+      <c r="G996" s="12"/>
+      <c r="J996" s="15"/>
+      <c r="K996" s="16"/>
     </row>
     <row r="997" ht="15.2" spans="7:11">
-      <c r="G997" s="13"/>
-      <c r="J997" s="16"/>
-      <c r="K997" s="17"/>
+      <c r="G997" s="12"/>
+      <c r="J997" s="15"/>
+      <c r="K997" s="16"/>
     </row>
     <row r="998" ht="15.2" spans="7:11">
-      <c r="G998" s="13"/>
-      <c r="J998" s="16"/>
-      <c r="K998" s="17"/>
+      <c r="G998" s="12"/>
+      <c r="J998" s="15"/>
+      <c r="K998" s="16"/>
     </row>
     <row r="999" ht="15.2" spans="7:11">
-      <c r="G999" s="13"/>
-      <c r="J999" s="16"/>
-      <c r="K999" s="17"/>
+      <c r="G999" s="12"/>
+      <c r="J999" s="15"/>
+      <c r="K999" s="16"/>
     </row>
     <row r="1000" ht="15.2" spans="7:11">
-      <c r="G1000" s="13"/>
-      <c r="J1000" s="16"/>
-      <c r="K1000" s="17"/>
+      <c r="G1000" s="12"/>
+      <c r="J1000" s="15"/>
+      <c r="K1000" s="16"/>
     </row>
     <row r="1001" ht="15.2" spans="7:11">
-      <c r="G1001" s="13"/>
-      <c r="J1001" s="16"/>
-      <c r="K1001" s="17"/>
+      <c r="G1001" s="12"/>
+      <c r="J1001" s="15"/>
+      <c r="K1001" s="16"/>
     </row>
     <row r="1002" ht="15.2" spans="7:11">
-      <c r="G1002" s="13"/>
-      <c r="J1002" s="16"/>
-      <c r="K1002" s="17"/>
+      <c r="G1002" s="12"/>
+      <c r="J1002" s="15"/>
+      <c r="K1002" s="16"/>
     </row>
     <row r="1003" ht="15.2" spans="7:11">
-      <c r="G1003" s="13"/>
-      <c r="J1003" s="16"/>
-      <c r="K1003" s="17"/>
+      <c r="G1003" s="12"/>
+      <c r="J1003" s="15"/>
+      <c r="K1003" s="16"/>
     </row>
     <row r="1004" ht="15.2" spans="7:11">
-      <c r="G1004" s="13"/>
-      <c r="J1004" s="16"/>
-      <c r="K1004" s="17"/>
+      <c r="G1004" s="12"/>
+      <c r="J1004" s="15"/>
+      <c r="K1004" s="16"/>
     </row>
     <row r="1005" ht="15.2" spans="7:11">
-      <c r="G1005" s="13"/>
-      <c r="J1005" s="16"/>
-      <c r="K1005" s="17"/>
+      <c r="G1005" s="12"/>
+      <c r="J1005" s="15"/>
+      <c r="K1005" s="16"/>
     </row>
     <row r="1006" ht="15.2" spans="7:11">
-      <c r="G1006" s="13"/>
-      <c r="J1006" s="16"/>
-      <c r="K1006" s="17"/>
+      <c r="G1006" s="12"/>
+      <c r="J1006" s="15"/>
+      <c r="K1006" s="16"/>
     </row>
     <row r="1007" ht="15.2" spans="7:11">
-      <c r="G1007" s="13"/>
-      <c r="J1007" s="16"/>
-      <c r="K1007" s="17"/>
+      <c r="G1007" s="12"/>
+      <c r="J1007" s="15"/>
+      <c r="K1007" s="16"/>
     </row>
     <row r="1008" ht="15.2" spans="7:11">
-      <c r="G1008" s="13"/>
-      <c r="J1008" s="16"/>
-      <c r="K1008" s="17"/>
+      <c r="G1008" s="12"/>
+      <c r="J1008" s="15"/>
+      <c r="K1008" s="16"/>
     </row>
     <row r="1009" ht="15.2" spans="7:11">
-      <c r="G1009" s="13"/>
-      <c r="J1009" s="16"/>
-      <c r="K1009" s="17"/>
+      <c r="G1009" s="12"/>
+      <c r="J1009" s="15"/>
+      <c r="K1009" s="16"/>
     </row>
     <row r="1010" ht="15.2" spans="7:11">
-      <c r="G1010" s="13"/>
-      <c r="J1010" s="16"/>
-      <c r="K1010" s="17"/>
+      <c r="G1010" s="12"/>
+      <c r="J1010" s="15"/>
+      <c r="K1010" s="16"/>
     </row>
     <row r="1011" ht="15.2" spans="7:11">
-      <c r="G1011" s="13"/>
-      <c r="J1011" s="16"/>
-      <c r="K1011" s="17"/>
+      <c r="G1011" s="12"/>
+      <c r="J1011" s="15"/>
+      <c r="K1011" s="16"/>
     </row>
     <row r="1012" ht="15.2" spans="7:11">
-      <c r="G1012" s="13"/>
-      <c r="J1012" s="16"/>
-      <c r="K1012" s="17"/>
+      <c r="G1012" s="12"/>
+      <c r="J1012" s="15"/>
+      <c r="K1012" s="16"/>
     </row>
     <row r="1013" ht="15.2" spans="7:11">
-      <c r="G1013" s="13"/>
-      <c r="J1013" s="16"/>
-      <c r="K1013" s="17"/>
+      <c r="G1013" s="12"/>
+      <c r="J1013" s="15"/>
+      <c r="K1013" s="16"/>
     </row>
     <row r="1014" ht="15.2" spans="7:11">
-      <c r="G1014" s="13"/>
-      <c r="J1014" s="16"/>
-      <c r="K1014" s="17"/>
+      <c r="G1014" s="12"/>
+      <c r="J1014" s="15"/>
+      <c r="K1014" s="16"/>
     </row>
     <row r="1015" ht="15.2" spans="7:11">
-      <c r="G1015" s="13"/>
-      <c r="J1015" s="16"/>
-      <c r="K1015" s="17"/>
+      <c r="G1015" s="12"/>
+      <c r="J1015" s="15"/>
+      <c r="K1015" s="16"/>
     </row>
     <row r="1016" ht="15.2" spans="7:11">
-      <c r="G1016" s="13"/>
-      <c r="J1016" s="16"/>
-      <c r="K1016" s="17"/>
+      <c r="G1016" s="12"/>
+      <c r="J1016" s="15"/>
+      <c r="K1016" s="16"/>
     </row>
     <row r="1017" ht="15.2" spans="7:11">
-      <c r="G1017" s="13"/>
-      <c r="J1017" s="16"/>
-      <c r="K1017" s="17"/>
+      <c r="G1017" s="12"/>
+      <c r="J1017" s="15"/>
+      <c r="K1017" s="16"/>
     </row>
     <row r="1018" ht="15.2" spans="7:11">
-      <c r="G1018" s="13"/>
-      <c r="J1018" s="16"/>
-      <c r="K1018" s="17"/>
+      <c r="G1018" s="12"/>
+      <c r="J1018" s="15"/>
+      <c r="K1018" s="16"/>
     </row>
     <row r="1019" ht="15.2" spans="7:11">
-      <c r="G1019" s="13"/>
-      <c r="J1019" s="16"/>
-      <c r="K1019" s="17"/>
+      <c r="G1019" s="12"/>
+      <c r="J1019" s="15"/>
+      <c r="K1019" s="16"/>
     </row>
     <row r="1020" ht="15.2" spans="7:11">
-      <c r="G1020" s="13"/>
-      <c r="J1020" s="16"/>
-      <c r="K1020" s="17"/>
+      <c r="G1020" s="12"/>
+      <c r="J1020" s="15"/>
+      <c r="K1020" s="16"/>
     </row>
     <row r="1021" ht="15.2" spans="7:11">
-      <c r="G1021" s="13"/>
-      <c r="J1021" s="16"/>
-      <c r="K1021" s="17"/>
+      <c r="G1021" s="12"/>
+      <c r="J1021" s="15"/>
+      <c r="K1021" s="16"/>
     </row>
     <row r="1022" ht="15.2" spans="7:11">
-      <c r="G1022" s="13"/>
-      <c r="J1022" s="16"/>
-      <c r="K1022" s="17"/>
+      <c r="G1022" s="12"/>
+      <c r="J1022" s="15"/>
+      <c r="K1022" s="16"/>
     </row>
     <row r="1023" ht="15.2" spans="7:11">
-      <c r="G1023" s="13"/>
-      <c r="J1023" s="16"/>
-      <c r="K1023" s="17"/>
+      <c r="G1023" s="12"/>
+      <c r="J1023" s="15"/>
+      <c r="K1023" s="16"/>
     </row>
     <row r="1024" ht="15.2" spans="7:11">
-      <c r="G1024" s="13"/>
-      <c r="J1024" s="16"/>
-      <c r="K1024" s="17"/>
+      <c r="G1024" s="12"/>
+      <c r="J1024" s="15"/>
+      <c r="K1024" s="16"/>
     </row>
     <row r="1025" ht="15.2" spans="7:11">
-      <c r="G1025" s="13"/>
-      <c r="J1025" s="16"/>
-      <c r="K1025" s="17"/>
+      <c r="G1025" s="12"/>
+      <c r="J1025" s="15"/>
+      <c r="K1025" s="16"/>
     </row>
     <row r="1026" ht="15.2" spans="7:11">
-      <c r="G1026" s="13"/>
-      <c r="J1026" s="16"/>
-      <c r="K1026" s="17"/>
+      <c r="G1026" s="12"/>
+      <c r="J1026" s="15"/>
+      <c r="K1026" s="16"/>
     </row>
     <row r="1027" ht="15.2" spans="7:11">
-      <c r="G1027" s="13"/>
-      <c r="J1027" s="16"/>
-      <c r="K1027" s="17"/>
+      <c r="G1027" s="12"/>
+      <c r="J1027" s="15"/>
+      <c r="K1027" s="16"/>
     </row>
     <row r="1028" ht="15.2" spans="7:11">
-      <c r="G1028" s="13"/>
-      <c r="J1028" s="16"/>
-      <c r="K1028" s="17"/>
+      <c r="G1028" s="12"/>
+      <c r="J1028" s="15"/>
+      <c r="K1028" s="16"/>
     </row>
     <row r="1029" ht="15.2" spans="7:11">
-      <c r="G1029" s="13"/>
-      <c r="J1029" s="16"/>
-      <c r="K1029" s="17"/>
+      <c r="G1029" s="12"/>
+      <c r="J1029" s="15"/>
+      <c r="K1029" s="16"/>
     </row>
     <row r="1030" ht="15.2" spans="7:11">
-      <c r="G1030" s="13"/>
-      <c r="J1030" s="16"/>
-      <c r="K1030" s="17"/>
+      <c r="G1030" s="12"/>
+      <c r="J1030" s="15"/>
+      <c r="K1030" s="16"/>
     </row>
     <row r="1031" ht="15.2" spans="7:11">
-      <c r="G1031" s="13"/>
-      <c r="J1031" s="16"/>
-      <c r="K1031" s="17"/>
+      <c r="G1031" s="12"/>
+      <c r="J1031" s="15"/>
+      <c r="K1031" s="16"/>
     </row>
     <row r="1032" ht="15.2" spans="7:11">
-      <c r="G1032" s="13"/>
-      <c r="J1032" s="16"/>
-      <c r="K1032" s="17"/>
+      <c r="G1032" s="12"/>
+      <c r="J1032" s="15"/>
+      <c r="K1032" s="16"/>
     </row>
     <row r="1033" ht="15.2" spans="7:11">
-      <c r="G1033" s="13"/>
-      <c r="J1033" s="16"/>
-      <c r="K1033" s="17"/>
+      <c r="G1033" s="12"/>
+      <c r="J1033" s="15"/>
+      <c r="K1033" s="16"/>
     </row>
     <row r="1034" ht="15.2" spans="7:11">
-      <c r="G1034" s="13"/>
-      <c r="J1034" s="16"/>
-      <c r="K1034" s="17"/>
+      <c r="G1034" s="12"/>
+      <c r="J1034" s="15"/>
+      <c r="K1034" s="16"/>
     </row>
     <row r="1035" ht="15.2" spans="7:11">
-      <c r="G1035" s="13"/>
-      <c r="J1035" s="16"/>
-      <c r="K1035" s="17"/>
+      <c r="G1035" s="12"/>
+      <c r="J1035" s="15"/>
+      <c r="K1035" s="16"/>
     </row>
     <row r="1036" ht="15.2" spans="7:11">
-      <c r="G1036" s="13"/>
-      <c r="J1036" s="16"/>
-      <c r="K1036" s="17"/>
+      <c r="G1036" s="12"/>
+      <c r="J1036" s="15"/>
+      <c r="K1036" s="16"/>
     </row>
     <row r="1037" ht="15.2" spans="7:11">
-      <c r="G1037" s="13"/>
-      <c r="J1037" s="16"/>
-      <c r="K1037" s="17"/>
+      <c r="G1037" s="12"/>
+      <c r="J1037" s="15"/>
+      <c r="K1037" s="16"/>
     </row>
     <row r="1038" ht="15.2" spans="7:11">
-      <c r="G1038" s="13"/>
-      <c r="J1038" s="16"/>
-      <c r="K1038" s="17"/>
+      <c r="G1038" s="12"/>
+      <c r="J1038" s="15"/>
+      <c r="K1038" s="16"/>
     </row>
     <row r="1039" ht="15.2" spans="7:11">
-      <c r="G1039" s="13"/>
-      <c r="J1039" s="16"/>
-      <c r="K1039" s="17"/>
+      <c r="G1039" s="12"/>
+      <c r="J1039" s="15"/>
+      <c r="K1039" s="16"/>
     </row>
     <row r="1040" ht="15.2" spans="7:11">
-      <c r="G1040" s="13"/>
-      <c r="J1040" s="16"/>
-      <c r="K1040" s="17"/>
+      <c r="G1040" s="12"/>
+      <c r="J1040" s="15"/>
+      <c r="K1040" s="16"/>
     </row>
     <row r="1041" ht="15.2" spans="7:11">
-      <c r="G1041" s="13"/>
-      <c r="J1041" s="16"/>
-      <c r="K1041" s="17"/>
+      <c r="G1041" s="12"/>
+      <c r="J1041" s="15"/>
+      <c r="K1041" s="16"/>
     </row>
     <row r="1042" ht="15.2" spans="7:11">
-      <c r="G1042" s="13"/>
-      <c r="J1042" s="16"/>
-      <c r="K1042" s="17"/>
+      <c r="G1042" s="12"/>
+      <c r="J1042" s="15"/>
+      <c r="K1042" s="16"/>
     </row>
     <row r="1043" ht="15.2" spans="7:11">
-      <c r="G1043" s="13"/>
-      <c r="J1043" s="16"/>
-      <c r="K1043" s="17"/>
+      <c r="G1043" s="12"/>
+      <c r="J1043" s="15"/>
+      <c r="K1043" s="16"/>
     </row>
     <row r="1044" ht="15.2" spans="7:11">
-      <c r="G1044" s="13"/>
-      <c r="J1044" s="16"/>
-      <c r="K1044" s="17"/>
+      <c r="G1044" s="12"/>
+      <c r="J1044" s="15"/>
+      <c r="K1044" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="501">
   <si>
     <t>Model</t>
   </si>
@@ -1503,6 +1503,33 @@
   </si>
   <si>
     <t>7.48/17</t>
+  </si>
+  <si>
+    <t>UiPath Screen Agent</t>
+  </si>
+  <si>
+    <t>UiPath</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>UiPath Computer Use team</t>
+  </si>
+  <si>
+    <t>193.06/360</t>
+  </si>
+  <si>
+    <t>26.96/46</t>
+  </si>
+  <si>
+    <t>24.96/47</t>
+  </si>
+  <si>
+    <t>34.69/93</t>
+  </si>
+  <si>
+    <t>9.49/17</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1543,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1572,6 +1599,13 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1735,12 +1769,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2044,31 +2084,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2077,37 +2114,37 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2122,74 +2159,77 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2219,18 +2259,27 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2709,7 +2758,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -2792,7 +2841,7 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3"/>
+      <c r="V1" s="11"/>
     </row>
     <row r="2" ht="16.75" customHeight="1" spans="1:26">
       <c r="A2" s="3" t="s">
@@ -2858,11 +2907,11 @@
       <c r="U2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3" ht="16.75" customHeight="1" spans="1:26">
       <c r="A3" s="3" t="s">
@@ -2928,11 +2977,11 @@
       <c r="U3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" ht="16.75" customHeight="1" spans="1:26">
       <c r="A4" s="3" t="s">
@@ -2998,11 +3047,11 @@
       <c r="U4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5" ht="16.75" customHeight="1" spans="1:26">
       <c r="A5" s="3" t="s">
@@ -3068,11 +3117,11 @@
       <c r="U5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
     </row>
     <row r="6" ht="16.75" customHeight="1" spans="1:22">
       <c r="A6" s="3" t="s">
@@ -3112,7 +3161,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" ht="16.75" customHeight="1" spans="1:22">
       <c r="A7" s="3" t="s">
@@ -3152,7 +3201,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8" ht="16.75" customHeight="1" spans="1:22">
       <c r="A8" s="3" t="s">
@@ -3218,7 +3267,7 @@
       <c r="U8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="3"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" ht="16.75" customHeight="1" spans="1:22">
       <c r="A9" s="3" t="s">
@@ -3284,7 +3333,7 @@
       <c r="U9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" ht="16.75" customHeight="1" spans="1:22">
       <c r="A10" s="3" t="s">
@@ -3350,7 +3399,7 @@
       <c r="U10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="3"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11" ht="16.75" customHeight="1" spans="1:22">
       <c r="A11" s="3" t="s">
@@ -3416,7 +3465,7 @@
       <c r="U11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V11" s="3"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" ht="16.75" customHeight="1" spans="1:22">
       <c r="A12" s="3" t="s">
@@ -3482,7 +3531,7 @@
       <c r="U12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="3"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="13" ht="16.75" customHeight="1" spans="1:22">
       <c r="A13" s="3" t="s">
@@ -3548,7 +3597,7 @@
       <c r="U13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V13" s="3"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" ht="16.75" customHeight="1" spans="1:22">
       <c r="A14" s="3" t="s">
@@ -3614,7 +3663,7 @@
       <c r="U14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V14" s="3"/>
+      <c r="V14" s="11"/>
     </row>
     <row r="15" ht="16.75" customHeight="1" spans="1:22">
       <c r="A15" s="3" t="s">
@@ -3680,7 +3729,7 @@
       <c r="U15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V15" s="3"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A16" s="3" t="s">
@@ -3746,14 +3795,14 @@
       <c r="U16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A17" s="3" t="s">
@@ -3819,14 +3868,14 @@
       <c r="U17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
     </row>
     <row r="18" ht="16.75" customHeight="1" spans="1:22">
       <c r="A18" s="3" t="s">
@@ -3892,7 +3941,7 @@
       <c r="U18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V18" s="3"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" ht="16.75" customHeight="1" spans="1:22">
       <c r="A19" s="3" t="s">
@@ -3958,7 +4007,7 @@
       <c r="U19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V19" s="3"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20" ht="16.75" customHeight="1" spans="1:22">
       <c r="A20" s="3" t="s">
@@ -4024,7 +4073,7 @@
       <c r="U20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V20" s="3"/>
+      <c r="V20" s="11"/>
     </row>
     <row r="21" ht="16.75" customHeight="1" spans="1:22">
       <c r="A21" s="3" t="s">
@@ -4090,7 +4139,7 @@
       <c r="U21" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="V21" s="3"/>
+      <c r="V21" s="11"/>
     </row>
     <row r="22" ht="16.75" customHeight="1" spans="1:22">
       <c r="A22" s="3" t="s">
@@ -4156,7 +4205,7 @@
       <c r="U22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="3"/>
+      <c r="V22" s="11"/>
     </row>
     <row r="23" ht="16.75" customHeight="1" spans="1:22">
       <c r="A23" s="3" t="s">
@@ -4222,7 +4271,7 @@
       <c r="U23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="3"/>
+      <c r="V23" s="11"/>
     </row>
     <row r="24" ht="16.75" customHeight="1" spans="1:22">
       <c r="A24" s="3" t="s">
@@ -4288,7 +4337,7 @@
       <c r="U24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V24" s="3"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" ht="16.75" customHeight="1" spans="1:22">
       <c r="A25" s="3" t="s">
@@ -4354,7 +4403,7 @@
       <c r="U25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V25" s="3"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="26" ht="16.75" customHeight="1" spans="1:22">
       <c r="A26" s="3" t="s">
@@ -4420,7 +4469,7 @@
       <c r="U26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="3"/>
+      <c r="V26" s="11"/>
     </row>
     <row r="27" ht="16.75" customHeight="1" spans="1:22">
       <c r="A27" s="3" t="s">
@@ -4486,7 +4535,7 @@
       <c r="U27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V27" s="3"/>
+      <c r="V27" s="11"/>
     </row>
     <row r="28" ht="16.75" customHeight="1" spans="1:22">
       <c r="A28" s="3" t="s">
@@ -4552,7 +4601,7 @@
       <c r="U28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="3"/>
+      <c r="V28" s="11"/>
     </row>
     <row r="29" ht="16.75" customHeight="1" spans="1:22">
       <c r="A29" s="3" t="s">
@@ -4618,7 +4667,7 @@
       <c r="U29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V29" s="3"/>
+      <c r="V29" s="11"/>
     </row>
     <row r="30" ht="16.75" customHeight="1" spans="1:22">
       <c r="A30" s="3" t="s">
@@ -4684,7 +4733,7 @@
       <c r="U30" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="V30" s="3"/>
+      <c r="V30" s="11"/>
     </row>
     <row r="31" ht="16.75" customHeight="1" spans="1:22">
       <c r="A31" s="3" t="s">
@@ -4750,7 +4799,7 @@
       <c r="U31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V31" s="3"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32" ht="16.75" customHeight="1" spans="1:22">
       <c r="A32" s="3" t="s">
@@ -4816,7 +4865,7 @@
       <c r="U32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V32" s="3"/>
+      <c r="V32" s="11"/>
     </row>
     <row r="33" ht="16.75" customHeight="1" spans="1:22">
       <c r="A33" s="3" t="s">
@@ -4882,7 +4931,7 @@
       <c r="U33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V33" s="3"/>
+      <c r="V33" s="11"/>
     </row>
     <row r="34" ht="16.75" customHeight="1" spans="1:22">
       <c r="A34" s="3" t="s">
@@ -4948,7 +4997,7 @@
       <c r="U34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V34" s="3"/>
+      <c r="V34" s="11"/>
     </row>
     <row r="35" ht="16.75" customHeight="1" spans="1:22">
       <c r="A35" s="3" t="s">
@@ -5014,7 +5063,7 @@
       <c r="U35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V35" s="3"/>
+      <c r="V35" s="11"/>
     </row>
     <row r="36" ht="16.75" customHeight="1" spans="1:22">
       <c r="A36" s="3" t="s">
@@ -5080,7 +5129,7 @@
       <c r="U36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V36" s="3"/>
+      <c r="V36" s="11"/>
     </row>
     <row r="37" ht="16.75" customHeight="1" spans="1:22">
       <c r="A37" s="3" t="s">
@@ -5146,7 +5195,7 @@
       <c r="U37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V37" s="3"/>
+      <c r="V37" s="11"/>
     </row>
     <row r="38" ht="16.75" customHeight="1" spans="1:22">
       <c r="A38" s="3" t="s">
@@ -5212,7 +5261,7 @@
       <c r="U38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V38" s="3"/>
+      <c r="V38" s="11"/>
     </row>
     <row r="39" ht="16.75" customHeight="1" spans="1:22">
       <c r="A39" s="3" t="s">
@@ -5278,7 +5327,7 @@
       <c r="U39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V39" s="3"/>
+      <c r="V39" s="11"/>
     </row>
     <row r="40" ht="16.75" customHeight="1" spans="1:22">
       <c r="A40" s="3" t="s">
@@ -5344,7 +5393,7 @@
       <c r="U40" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="V40" s="3"/>
+      <c r="V40" s="11"/>
     </row>
     <row r="41" ht="16.75" customHeight="1" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -5410,7 +5459,7 @@
       <c r="U41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V41" s="3"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" ht="16.75" customHeight="1" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -5476,7 +5525,7 @@
       <c r="U42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V42" s="3"/>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" ht="16.75" customHeight="1" spans="1:22">
       <c r="A43" s="3" t="s">
@@ -5542,7 +5591,7 @@
       <c r="U43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V43" s="3"/>
+      <c r="V43" s="11"/>
     </row>
     <row r="44" ht="16.75" customHeight="1" spans="1:22">
       <c r="A44" s="3" t="s">
@@ -5608,7 +5657,7 @@
       <c r="U44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V44" s="3"/>
+      <c r="V44" s="11"/>
     </row>
     <row r="45" ht="16.75" customHeight="1" spans="1:22">
       <c r="A45" s="3" t="s">
@@ -5674,7 +5723,7 @@
       <c r="U45" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="V45" s="3"/>
+      <c r="V45" s="11"/>
     </row>
     <row r="46" ht="16.75" customHeight="1" spans="1:22">
       <c r="A46" s="3" t="s">
@@ -5740,7 +5789,7 @@
       <c r="U46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V46" s="3"/>
+      <c r="V46" s="11"/>
     </row>
     <row r="47" ht="16.75" customHeight="1" spans="1:22">
       <c r="A47" s="3" t="s">
@@ -5806,7 +5855,7 @@
       <c r="U47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V47" s="3"/>
+      <c r="V47" s="11"/>
     </row>
     <row r="48" ht="16.75" customHeight="1" spans="1:22">
       <c r="A48" s="3" t="s">
@@ -5872,7 +5921,7 @@
       <c r="U48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V48" s="3"/>
+      <c r="V48" s="11"/>
     </row>
     <row r="49" ht="16.75" customHeight="1" spans="1:22">
       <c r="A49" s="3" t="s">
@@ -5938,7 +5987,7 @@
       <c r="U49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V49" s="3"/>
+      <c r="V49" s="11"/>
     </row>
     <row r="50" ht="16.75" customHeight="1" spans="1:22">
       <c r="A50" s="3" t="s">
@@ -6004,7 +6053,7 @@
       <c r="U50" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="V50" s="3"/>
+      <c r="V50" s="11"/>
     </row>
     <row r="51" ht="16.75" customHeight="1" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -6070,7 +6119,7 @@
       <c r="U51" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V51" s="3"/>
+      <c r="V51" s="11"/>
     </row>
     <row r="52" ht="16.75" customHeight="1" spans="1:22">
       <c r="A52" s="3" t="s">
@@ -6136,7 +6185,7 @@
       <c r="U52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V52" s="3"/>
+      <c r="V52" s="11"/>
     </row>
     <row r="53" ht="16.75" customHeight="1" spans="1:22">
       <c r="A53" s="3" t="s">
@@ -6202,7 +6251,7 @@
       <c r="U53" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="V53" s="3"/>
+      <c r="V53" s="11"/>
     </row>
     <row r="54" ht="16.75" customHeight="1" spans="1:22">
       <c r="A54" s="3" t="s">
@@ -6268,7 +6317,7 @@
       <c r="U54" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="V54" s="3"/>
+      <c r="V54" s="11"/>
     </row>
     <row r="55" ht="16.75" customHeight="1" spans="1:22">
       <c r="A55" s="3" t="s">
@@ -6334,7 +6383,7 @@
       <c r="U55" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="V55" s="3"/>
+      <c r="V55" s="11"/>
     </row>
     <row r="56" ht="16.75" customHeight="1" spans="1:22">
       <c r="A56" s="3" t="s">
@@ -6400,7 +6449,7 @@
       <c r="U56" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="V56" s="3"/>
+      <c r="V56" s="11"/>
     </row>
     <row r="57" ht="16.75" customHeight="1" spans="1:22">
       <c r="A57" s="3" t="s">
@@ -6466,7 +6515,7 @@
       <c r="U57" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V57" s="3"/>
+      <c r="V57" s="11"/>
     </row>
     <row r="58" ht="16.75" customHeight="1" spans="1:22">
       <c r="A58" s="3" t="s">
@@ -6532,7 +6581,7 @@
       <c r="U58" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="V58" s="3"/>
+      <c r="V58" s="11"/>
     </row>
     <row r="59" ht="16.75" customHeight="1" spans="1:22">
       <c r="A59" s="3" t="s">
@@ -6598,7 +6647,7 @@
       <c r="U59" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V59" s="3"/>
+      <c r="V59" s="11"/>
     </row>
     <row r="60" ht="31" spans="1:22">
       <c r="A60" s="3" t="s">
@@ -7507,7 +7556,7 @@
       <c r="B74" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="12" t="s">
         <v>420</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -7573,7 +7622,7 @@
       <c r="B75" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="12" t="s">
         <v>420</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -7639,7 +7688,7 @@
       <c r="B76" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="12" t="s">
         <v>420</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -7704,7 +7753,7 @@
       <c r="B77" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="12" t="s">
         <v>420</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -7851,7 +7900,7 @@
       <c r="B80" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="12" t="s">
         <v>444</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -7869,7 +7918,7 @@
       <c r="H80" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="16">
         <v>45880</v>
       </c>
       <c r="J80" s="6">
@@ -7916,7 +7965,7 @@
       <c r="B81" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="12" t="s">
         <v>444</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -7934,7 +7983,7 @@
       <c r="H81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="16">
         <v>45880</v>
       </c>
       <c r="J81" s="6">
@@ -7999,7 +8048,7 @@
       <c r="H82" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I82" s="17">
         <v>45887</v>
       </c>
       <c r="J82" s="6">
@@ -8064,7 +8113,7 @@
       <c r="H83" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I83" s="17">
         <v>45887</v>
       </c>
       <c r="J83" s="6">
@@ -8129,7 +8178,7 @@
       <c r="H84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="17">
         <v>45903</v>
       </c>
       <c r="J84" s="6">
@@ -8194,7 +8243,7 @@
       <c r="H85" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I85" s="17">
         <v>45903</v>
       </c>
       <c r="J85" s="6">
@@ -8259,7 +8308,7 @@
       <c r="H86" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I86" s="17">
         <v>45909</v>
       </c>
       <c r="J86" s="6">
@@ -8324,7 +8373,7 @@
       <c r="H87" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I87" s="17">
         <v>45916</v>
       </c>
       <c r="J87" s="6">
@@ -8364,4790 +8413,4850 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" ht="15.2" spans="7:11">
-      <c r="G88" s="12"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="16"/>
+    <row r="88" ht="46" spans="1:21">
+      <c r="A88" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F88" s="14">
+        <v>50</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="17">
+        <v>45914</v>
+      </c>
+      <c r="J88" s="6">
+        <v>53.63</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="89" ht="15.2" spans="7:11">
-      <c r="G89" s="12"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="16"/>
+      <c r="G89" s="15"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="19"/>
     </row>
     <row r="90" ht="15.2" spans="7:11">
-      <c r="G90" s="12"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="16"/>
+      <c r="G90" s="15"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="19"/>
     </row>
     <row r="91" ht="15.2" spans="7:11">
-      <c r="G91" s="12"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="16"/>
+      <c r="G91" s="15"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="19"/>
     </row>
     <row r="92" ht="15.2" spans="7:11">
-      <c r="G92" s="12"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="16"/>
+      <c r="G92" s="15"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="19"/>
     </row>
     <row r="93" ht="15.2" spans="7:11">
-      <c r="G93" s="12"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="16"/>
+      <c r="G93" s="15"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="19"/>
     </row>
     <row r="94" ht="15.2" spans="7:11">
-      <c r="G94" s="12"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="16"/>
+      <c r="G94" s="15"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="19"/>
     </row>
     <row r="95" ht="15.2" spans="7:11">
-      <c r="G95" s="12"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="16"/>
+      <c r="G95" s="15"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="19"/>
     </row>
     <row r="96" ht="15.2" spans="7:11">
-      <c r="G96" s="12"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="16"/>
+      <c r="G96" s="15"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="19"/>
     </row>
     <row r="97" ht="15.2" spans="7:11">
-      <c r="G97" s="12"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="16"/>
+      <c r="G97" s="15"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="19"/>
     </row>
     <row r="98" ht="15.2" spans="7:11">
-      <c r="G98" s="12"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="16"/>
+      <c r="G98" s="15"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="19"/>
     </row>
     <row r="99" ht="15.2" spans="7:11">
-      <c r="G99" s="12"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="16"/>
+      <c r="G99" s="15"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="19"/>
     </row>
     <row r="100" ht="15.2" spans="7:11">
-      <c r="G100" s="12"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="16"/>
+      <c r="G100" s="15"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="19"/>
     </row>
     <row r="101" ht="15.2" spans="7:11">
-      <c r="G101" s="12"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="16"/>
+      <c r="G101" s="15"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="19"/>
     </row>
     <row r="102" ht="15.2" spans="7:11">
-      <c r="G102" s="12"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="16"/>
+      <c r="G102" s="15"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="19"/>
     </row>
     <row r="103" ht="15.2" spans="7:11">
-      <c r="G103" s="12"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="16"/>
+      <c r="G103" s="15"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="19"/>
     </row>
     <row r="104" ht="15.2" spans="7:11">
-      <c r="G104" s="12"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="16"/>
+      <c r="G104" s="15"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="19"/>
     </row>
     <row r="105" ht="15.2" spans="7:11">
-      <c r="G105" s="12"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="16"/>
+      <c r="G105" s="15"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="19"/>
     </row>
     <row r="106" ht="15.2" spans="7:11">
-      <c r="G106" s="12"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="16"/>
+      <c r="G106" s="15"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="19"/>
     </row>
     <row r="107" ht="15.2" spans="7:11">
-      <c r="G107" s="12"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="16"/>
+      <c r="G107" s="15"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="19"/>
     </row>
     <row r="108" ht="15.2" spans="7:11">
-      <c r="G108" s="12"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="16"/>
+      <c r="G108" s="15"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="19"/>
     </row>
     <row r="109" ht="15.2" spans="7:11">
-      <c r="G109" s="12"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="16"/>
+      <c r="G109" s="15"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="19"/>
     </row>
     <row r="110" ht="15.2" spans="7:11">
-      <c r="G110" s="12"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="16"/>
+      <c r="G110" s="15"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="19"/>
     </row>
     <row r="111" ht="15.2" spans="7:11">
-      <c r="G111" s="12"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="16"/>
+      <c r="G111" s="15"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="19"/>
     </row>
     <row r="112" ht="15.2" spans="7:11">
-      <c r="G112" s="12"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="16"/>
+      <c r="G112" s="15"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="19"/>
     </row>
     <row r="113" ht="15.2" spans="7:11">
-      <c r="G113" s="12"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="16"/>
+      <c r="G113" s="15"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="19"/>
     </row>
     <row r="114" ht="15.2" spans="7:11">
-      <c r="G114" s="12"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="16"/>
+      <c r="G114" s="15"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="19"/>
     </row>
     <row r="115" ht="15.2" spans="7:11">
-      <c r="G115" s="12"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="16"/>
+      <c r="G115" s="15"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="19"/>
     </row>
     <row r="116" ht="15.2" spans="7:11">
-      <c r="G116" s="12"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="16"/>
+      <c r="G116" s="15"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="19"/>
     </row>
     <row r="117" ht="15.2" spans="7:11">
-      <c r="G117" s="12"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="16"/>
+      <c r="G117" s="15"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="19"/>
     </row>
     <row r="118" ht="15.2" spans="7:11">
-      <c r="G118" s="12"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="16"/>
+      <c r="G118" s="15"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="19"/>
     </row>
     <row r="119" ht="15.2" spans="7:11">
-      <c r="G119" s="12"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="16"/>
+      <c r="G119" s="15"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="19"/>
     </row>
     <row r="120" ht="15.2" spans="7:11">
-      <c r="G120" s="12"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="16"/>
+      <c r="G120" s="15"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="19"/>
     </row>
     <row r="121" ht="15.2" spans="7:11">
-      <c r="G121" s="12"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="16"/>
+      <c r="G121" s="15"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="19"/>
     </row>
     <row r="122" ht="15.2" spans="7:11">
-      <c r="G122" s="12"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="16"/>
+      <c r="G122" s="15"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="19"/>
     </row>
     <row r="123" ht="15.2" spans="7:11">
-      <c r="G123" s="12"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="16"/>
+      <c r="G123" s="15"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="19"/>
     </row>
     <row r="124" ht="15.2" spans="7:11">
-      <c r="G124" s="12"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="16"/>
+      <c r="G124" s="15"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="19"/>
     </row>
     <row r="125" ht="15.2" spans="7:11">
-      <c r="G125" s="12"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="16"/>
+      <c r="G125" s="15"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="19"/>
     </row>
     <row r="126" ht="15.2" spans="7:11">
-      <c r="G126" s="12"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="16"/>
+      <c r="G126" s="15"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="19"/>
     </row>
     <row r="127" ht="15.2" spans="7:11">
-      <c r="G127" s="12"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="16"/>
+      <c r="G127" s="15"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="19"/>
     </row>
     <row r="128" ht="15.2" spans="7:11">
-      <c r="G128" s="12"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="16"/>
+      <c r="G128" s="15"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="19"/>
     </row>
     <row r="129" ht="15.2" spans="7:11">
-      <c r="G129" s="12"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="16"/>
+      <c r="G129" s="15"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="19"/>
     </row>
     <row r="130" ht="15.2" spans="7:11">
-      <c r="G130" s="12"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="16"/>
+      <c r="G130" s="15"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="19"/>
     </row>
     <row r="131" ht="15.2" spans="7:11">
-      <c r="G131" s="12"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="16"/>
+      <c r="G131" s="15"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="19"/>
     </row>
     <row r="132" ht="15.2" spans="7:11">
-      <c r="G132" s="12"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="16"/>
+      <c r="G132" s="15"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="19"/>
     </row>
     <row r="133" ht="15.2" spans="7:11">
-      <c r="G133" s="12"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="16"/>
+      <c r="G133" s="15"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="19"/>
     </row>
     <row r="134" ht="15.2" spans="7:11">
-      <c r="G134" s="12"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="16"/>
+      <c r="G134" s="15"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="19"/>
     </row>
     <row r="135" ht="15.2" spans="7:11">
-      <c r="G135" s="12"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="16"/>
+      <c r="G135" s="15"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="19"/>
     </row>
     <row r="136" ht="15.2" spans="7:11">
-      <c r="G136" s="12"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="16"/>
+      <c r="G136" s="15"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="19"/>
     </row>
     <row r="137" ht="15.2" spans="7:11">
-      <c r="G137" s="12"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="16"/>
+      <c r="G137" s="15"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="19"/>
     </row>
     <row r="138" ht="15.2" spans="7:11">
-      <c r="G138" s="12"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="16"/>
+      <c r="G138" s="15"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="19"/>
     </row>
     <row r="139" ht="15.2" spans="7:11">
-      <c r="G139" s="12"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="16"/>
+      <c r="G139" s="15"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="19"/>
     </row>
     <row r="140" ht="15.2" spans="7:11">
-      <c r="G140" s="12"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="16"/>
+      <c r="G140" s="15"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="19"/>
     </row>
     <row r="141" ht="15.2" spans="7:11">
-      <c r="G141" s="12"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="16"/>
+      <c r="G141" s="15"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="19"/>
     </row>
     <row r="142" ht="15.2" spans="7:11">
-      <c r="G142" s="12"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="16"/>
+      <c r="G142" s="15"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="19"/>
     </row>
     <row r="143" ht="15.2" spans="7:11">
-      <c r="G143" s="12"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="16"/>
+      <c r="G143" s="15"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="19"/>
     </row>
     <row r="144" ht="15.2" spans="7:11">
-      <c r="G144" s="12"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="16"/>
+      <c r="G144" s="15"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="19"/>
     </row>
     <row r="145" ht="15.2" spans="7:11">
-      <c r="G145" s="12"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="16"/>
+      <c r="G145" s="15"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="19"/>
     </row>
     <row r="146" ht="15.2" spans="7:11">
-      <c r="G146" s="12"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="16"/>
+      <c r="G146" s="15"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="19"/>
     </row>
     <row r="147" ht="15.2" spans="7:11">
-      <c r="G147" s="12"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="16"/>
+      <c r="G147" s="15"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="19"/>
     </row>
     <row r="148" ht="15.2" spans="7:11">
-      <c r="G148" s="12"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="16"/>
+      <c r="G148" s="15"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="19"/>
     </row>
     <row r="149" ht="15.2" spans="7:11">
-      <c r="G149" s="12"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="16"/>
+      <c r="G149" s="15"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="19"/>
     </row>
     <row r="150" ht="15.2" spans="7:11">
-      <c r="G150" s="12"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="16"/>
+      <c r="G150" s="15"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="19"/>
     </row>
     <row r="151" ht="15.2" spans="7:11">
-      <c r="G151" s="12"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="16"/>
+      <c r="G151" s="15"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="19"/>
     </row>
     <row r="152" ht="15.2" spans="7:11">
-      <c r="G152" s="12"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="16"/>
+      <c r="G152" s="15"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="19"/>
     </row>
     <row r="153" ht="15.2" spans="7:11">
-      <c r="G153" s="12"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="16"/>
+      <c r="G153" s="15"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="19"/>
     </row>
     <row r="154" ht="15.2" spans="7:11">
-      <c r="G154" s="12"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="16"/>
+      <c r="G154" s="15"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="19"/>
     </row>
     <row r="155" ht="15.2" spans="7:11">
-      <c r="G155" s="12"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="16"/>
+      <c r="G155" s="15"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="19"/>
     </row>
     <row r="156" ht="15.2" spans="7:11">
-      <c r="G156" s="12"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="16"/>
+      <c r="G156" s="15"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="19"/>
     </row>
     <row r="157" ht="15.2" spans="7:11">
-      <c r="G157" s="12"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="16"/>
+      <c r="G157" s="15"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="19"/>
     </row>
     <row r="158" ht="15.2" spans="7:11">
-      <c r="G158" s="12"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="16"/>
+      <c r="G158" s="15"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="19"/>
     </row>
     <row r="159" ht="15.2" spans="7:11">
-      <c r="G159" s="12"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="16"/>
+      <c r="G159" s="15"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="19"/>
     </row>
     <row r="160" ht="15.2" spans="7:11">
-      <c r="G160" s="12"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="16"/>
+      <c r="G160" s="15"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="19"/>
     </row>
     <row r="161" ht="15.2" spans="7:11">
-      <c r="G161" s="12"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="16"/>
+      <c r="G161" s="15"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="19"/>
     </row>
     <row r="162" ht="15.2" spans="7:11">
-      <c r="G162" s="12"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="16"/>
+      <c r="G162" s="15"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="19"/>
     </row>
     <row r="163" ht="15.2" spans="7:11">
-      <c r="G163" s="12"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="16"/>
+      <c r="G163" s="15"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="19"/>
     </row>
     <row r="164" ht="15.2" spans="7:11">
-      <c r="G164" s="12"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="16"/>
+      <c r="G164" s="15"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="19"/>
     </row>
     <row r="165" ht="15.2" spans="7:11">
-      <c r="G165" s="12"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="16"/>
+      <c r="G165" s="15"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="19"/>
     </row>
     <row r="166" ht="15.2" spans="7:11">
-      <c r="G166" s="12"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="16"/>
+      <c r="G166" s="15"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="19"/>
     </row>
     <row r="167" ht="15.2" spans="7:11">
-      <c r="G167" s="12"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="16"/>
+      <c r="G167" s="15"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="19"/>
     </row>
     <row r="168" ht="15.2" spans="7:11">
-      <c r="G168" s="12"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="16"/>
+      <c r="G168" s="15"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="19"/>
     </row>
     <row r="169" ht="15.2" spans="7:11">
-      <c r="G169" s="12"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="16"/>
+      <c r="G169" s="15"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="19"/>
     </row>
     <row r="170" ht="15.2" spans="7:11">
-      <c r="G170" s="12"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="16"/>
+      <c r="G170" s="15"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="19"/>
     </row>
     <row r="171" ht="15.2" spans="7:11">
-      <c r="G171" s="12"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="16"/>
+      <c r="G171" s="15"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="19"/>
     </row>
     <row r="172" ht="15.2" spans="7:11">
-      <c r="G172" s="12"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="16"/>
+      <c r="G172" s="15"/>
+      <c r="J172" s="18"/>
+      <c r="K172" s="19"/>
     </row>
     <row r="173" ht="15.2" spans="7:11">
-      <c r="G173" s="12"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="16"/>
+      <c r="G173" s="15"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="19"/>
     </row>
     <row r="174" ht="15.2" spans="7:11">
-      <c r="G174" s="12"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="16"/>
+      <c r="G174" s="15"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="19"/>
     </row>
     <row r="175" ht="15.2" spans="7:11">
-      <c r="G175" s="12"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="16"/>
+      <c r="G175" s="15"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="19"/>
     </row>
     <row r="176" ht="15.2" spans="7:11">
-      <c r="G176" s="12"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="16"/>
+      <c r="G176" s="15"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="19"/>
     </row>
     <row r="177" ht="15.2" spans="7:11">
-      <c r="G177" s="12"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="16"/>
+      <c r="G177" s="15"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="19"/>
     </row>
     <row r="178" ht="15.2" spans="7:11">
-      <c r="G178" s="12"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="16"/>
+      <c r="G178" s="15"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="19"/>
     </row>
     <row r="179" ht="15.2" spans="7:11">
-      <c r="G179" s="12"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="16"/>
+      <c r="G179" s="15"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="19"/>
     </row>
     <row r="180" ht="15.2" spans="7:11">
-      <c r="G180" s="12"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="16"/>
+      <c r="G180" s="15"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="19"/>
     </row>
     <row r="181" ht="15.2" spans="7:11">
-      <c r="G181" s="12"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="16"/>
+      <c r="G181" s="15"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="19"/>
     </row>
     <row r="182" ht="15.2" spans="7:11">
-      <c r="G182" s="12"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="16"/>
+      <c r="G182" s="15"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="19"/>
     </row>
     <row r="183" ht="15.2" spans="7:11">
-      <c r="G183" s="12"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="16"/>
+      <c r="G183" s="15"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="19"/>
     </row>
     <row r="184" ht="15.2" spans="7:11">
-      <c r="G184" s="12"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="16"/>
+      <c r="G184" s="15"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="19"/>
     </row>
     <row r="185" ht="15.2" spans="7:11">
-      <c r="G185" s="12"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="16"/>
+      <c r="G185" s="15"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="19"/>
     </row>
     <row r="186" ht="15.2" spans="7:11">
-      <c r="G186" s="12"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="16"/>
+      <c r="G186" s="15"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="19"/>
     </row>
     <row r="187" ht="15.2" spans="7:11">
-      <c r="G187" s="12"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="16"/>
+      <c r="G187" s="15"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="19"/>
     </row>
     <row r="188" ht="15.2" spans="7:11">
-      <c r="G188" s="12"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="16"/>
+      <c r="G188" s="15"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="19"/>
     </row>
     <row r="189" ht="15.2" spans="7:11">
-      <c r="G189" s="12"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="16"/>
+      <c r="G189" s="15"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="19"/>
     </row>
     <row r="190" ht="15.2" spans="7:11">
-      <c r="G190" s="12"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="16"/>
+      <c r="G190" s="15"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="19"/>
     </row>
     <row r="191" ht="15.2" spans="7:11">
-      <c r="G191" s="12"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="16"/>
+      <c r="G191" s="15"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="19"/>
     </row>
     <row r="192" ht="15.2" spans="7:11">
-      <c r="G192" s="12"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="16"/>
+      <c r="G192" s="15"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="19"/>
     </row>
     <row r="193" ht="15.2" spans="7:11">
-      <c r="G193" s="12"/>
-      <c r="J193" s="15"/>
-      <c r="K193" s="16"/>
+      <c r="G193" s="15"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="19"/>
     </row>
     <row r="194" ht="15.2" spans="7:11">
-      <c r="G194" s="12"/>
-      <c r="J194" s="15"/>
-      <c r="K194" s="16"/>
+      <c r="G194" s="15"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="19"/>
     </row>
     <row r="195" ht="15.2" spans="7:11">
-      <c r="G195" s="12"/>
-      <c r="J195" s="15"/>
-      <c r="K195" s="16"/>
+      <c r="G195" s="15"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="19"/>
     </row>
     <row r="196" ht="15.2" spans="7:11">
-      <c r="G196" s="12"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="16"/>
+      <c r="G196" s="15"/>
+      <c r="J196" s="18"/>
+      <c r="K196" s="19"/>
     </row>
     <row r="197" ht="15.2" spans="7:11">
-      <c r="G197" s="12"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="16"/>
+      <c r="G197" s="15"/>
+      <c r="J197" s="18"/>
+      <c r="K197" s="19"/>
     </row>
     <row r="198" ht="15.2" spans="7:11">
-      <c r="G198" s="12"/>
-      <c r="J198" s="15"/>
-      <c r="K198" s="16"/>
+      <c r="G198" s="15"/>
+      <c r="J198" s="18"/>
+      <c r="K198" s="19"/>
     </row>
     <row r="199" ht="15.2" spans="7:11">
-      <c r="G199" s="12"/>
-      <c r="J199" s="15"/>
-      <c r="K199" s="16"/>
+      <c r="G199" s="15"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="19"/>
     </row>
     <row r="200" ht="15.2" spans="7:11">
-      <c r="G200" s="12"/>
-      <c r="J200" s="15"/>
-      <c r="K200" s="16"/>
+      <c r="G200" s="15"/>
+      <c r="J200" s="18"/>
+      <c r="K200" s="19"/>
     </row>
     <row r="201" ht="15.2" spans="7:11">
-      <c r="G201" s="12"/>
-      <c r="J201" s="15"/>
-      <c r="K201" s="16"/>
+      <c r="G201" s="15"/>
+      <c r="J201" s="18"/>
+      <c r="K201" s="19"/>
     </row>
     <row r="202" ht="15.2" spans="7:11">
-      <c r="G202" s="12"/>
-      <c r="J202" s="15"/>
-      <c r="K202" s="16"/>
+      <c r="G202" s="15"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="19"/>
     </row>
     <row r="203" ht="15.2" spans="7:11">
-      <c r="G203" s="12"/>
-      <c r="J203" s="15"/>
-      <c r="K203" s="16"/>
+      <c r="G203" s="15"/>
+      <c r="J203" s="18"/>
+      <c r="K203" s="19"/>
     </row>
     <row r="204" ht="15.2" spans="7:11">
-      <c r="G204" s="12"/>
-      <c r="J204" s="15"/>
-      <c r="K204" s="16"/>
+      <c r="G204" s="15"/>
+      <c r="J204" s="18"/>
+      <c r="K204" s="19"/>
     </row>
     <row r="205" ht="15.2" spans="7:11">
-      <c r="G205" s="12"/>
-      <c r="J205" s="15"/>
-      <c r="K205" s="16"/>
+      <c r="G205" s="15"/>
+      <c r="J205" s="18"/>
+      <c r="K205" s="19"/>
     </row>
     <row r="206" ht="15.2" spans="7:11">
-      <c r="G206" s="12"/>
-      <c r="J206" s="15"/>
-      <c r="K206" s="16"/>
+      <c r="G206" s="15"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="19"/>
     </row>
     <row r="207" ht="15.2" spans="7:11">
-      <c r="G207" s="12"/>
-      <c r="J207" s="15"/>
-      <c r="K207" s="16"/>
+      <c r="G207" s="15"/>
+      <c r="J207" s="18"/>
+      <c r="K207" s="19"/>
     </row>
     <row r="208" ht="15.2" spans="7:11">
-      <c r="G208" s="12"/>
-      <c r="J208" s="15"/>
-      <c r="K208" s="16"/>
+      <c r="G208" s="15"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="19"/>
     </row>
     <row r="209" ht="15.2" spans="7:11">
-      <c r="G209" s="12"/>
-      <c r="J209" s="15"/>
-      <c r="K209" s="16"/>
+      <c r="G209" s="15"/>
+      <c r="J209" s="18"/>
+      <c r="K209" s="19"/>
     </row>
     <row r="210" ht="15.2" spans="7:11">
-      <c r="G210" s="12"/>
-      <c r="J210" s="15"/>
-      <c r="K210" s="16"/>
+      <c r="G210" s="15"/>
+      <c r="J210" s="18"/>
+      <c r="K210" s="19"/>
     </row>
     <row r="211" ht="15.2" spans="7:11">
-      <c r="G211" s="12"/>
-      <c r="J211" s="15"/>
-      <c r="K211" s="16"/>
+      <c r="G211" s="15"/>
+      <c r="J211" s="18"/>
+      <c r="K211" s="19"/>
     </row>
     <row r="212" ht="15.2" spans="7:11">
-      <c r="G212" s="12"/>
-      <c r="J212" s="15"/>
-      <c r="K212" s="16"/>
+      <c r="G212" s="15"/>
+      <c r="J212" s="18"/>
+      <c r="K212" s="19"/>
     </row>
     <row r="213" ht="15.2" spans="7:11">
-      <c r="G213" s="12"/>
-      <c r="J213" s="15"/>
-      <c r="K213" s="16"/>
+      <c r="G213" s="15"/>
+      <c r="J213" s="18"/>
+      <c r="K213" s="19"/>
     </row>
     <row r="214" ht="15.2" spans="7:11">
-      <c r="G214" s="12"/>
-      <c r="J214" s="15"/>
-      <c r="K214" s="16"/>
+      <c r="G214" s="15"/>
+      <c r="J214" s="18"/>
+      <c r="K214" s="19"/>
     </row>
     <row r="215" ht="15.2" spans="7:11">
-      <c r="G215" s="12"/>
-      <c r="J215" s="15"/>
-      <c r="K215" s="16"/>
+      <c r="G215" s="15"/>
+      <c r="J215" s="18"/>
+      <c r="K215" s="19"/>
     </row>
     <row r="216" ht="15.2" spans="7:11">
-      <c r="G216" s="12"/>
-      <c r="J216" s="15"/>
-      <c r="K216" s="16"/>
+      <c r="G216" s="15"/>
+      <c r="J216" s="18"/>
+      <c r="K216" s="19"/>
     </row>
     <row r="217" ht="15.2" spans="7:11">
-      <c r="G217" s="12"/>
-      <c r="J217" s="15"/>
-      <c r="K217" s="16"/>
+      <c r="G217" s="15"/>
+      <c r="J217" s="18"/>
+      <c r="K217" s="19"/>
     </row>
     <row r="218" ht="15.2" spans="7:11">
-      <c r="G218" s="12"/>
-      <c r="J218" s="15"/>
-      <c r="K218" s="16"/>
+      <c r="G218" s="15"/>
+      <c r="J218" s="18"/>
+      <c r="K218" s="19"/>
     </row>
     <row r="219" ht="15.2" spans="7:11">
-      <c r="G219" s="12"/>
-      <c r="J219" s="15"/>
-      <c r="K219" s="16"/>
+      <c r="G219" s="15"/>
+      <c r="J219" s="18"/>
+      <c r="K219" s="19"/>
     </row>
     <row r="220" ht="15.2" spans="7:11">
-      <c r="G220" s="12"/>
-      <c r="J220" s="15"/>
-      <c r="K220" s="16"/>
+      <c r="G220" s="15"/>
+      <c r="J220" s="18"/>
+      <c r="K220" s="19"/>
     </row>
     <row r="221" ht="15.2" spans="7:11">
-      <c r="G221" s="12"/>
-      <c r="J221" s="15"/>
-      <c r="K221" s="16"/>
+      <c r="G221" s="15"/>
+      <c r="J221" s="18"/>
+      <c r="K221" s="19"/>
     </row>
     <row r="222" ht="15.2" spans="7:11">
-      <c r="G222" s="12"/>
-      <c r="J222" s="15"/>
-      <c r="K222" s="16"/>
+      <c r="G222" s="15"/>
+      <c r="J222" s="18"/>
+      <c r="K222" s="19"/>
     </row>
     <row r="223" ht="15.2" spans="7:11">
-      <c r="G223" s="12"/>
-      <c r="J223" s="15"/>
-      <c r="K223" s="16"/>
+      <c r="G223" s="15"/>
+      <c r="J223" s="18"/>
+      <c r="K223" s="19"/>
     </row>
     <row r="224" ht="15.2" spans="7:11">
-      <c r="G224" s="12"/>
-      <c r="J224" s="15"/>
-      <c r="K224" s="16"/>
+      <c r="G224" s="15"/>
+      <c r="J224" s="18"/>
+      <c r="K224" s="19"/>
     </row>
     <row r="225" ht="15.2" spans="7:11">
-      <c r="G225" s="12"/>
-      <c r="J225" s="15"/>
-      <c r="K225" s="16"/>
+      <c r="G225" s="15"/>
+      <c r="J225" s="18"/>
+      <c r="K225" s="19"/>
     </row>
     <row r="226" ht="15.2" spans="7:11">
-      <c r="G226" s="12"/>
-      <c r="J226" s="15"/>
-      <c r="K226" s="16"/>
+      <c r="G226" s="15"/>
+      <c r="J226" s="18"/>
+      <c r="K226" s="19"/>
     </row>
     <row r="227" ht="15.2" spans="7:11">
-      <c r="G227" s="12"/>
-      <c r="J227" s="15"/>
-      <c r="K227" s="16"/>
+      <c r="G227" s="15"/>
+      <c r="J227" s="18"/>
+      <c r="K227" s="19"/>
     </row>
     <row r="228" ht="15.2" spans="7:11">
-      <c r="G228" s="12"/>
-      <c r="J228" s="15"/>
-      <c r="K228" s="16"/>
+      <c r="G228" s="15"/>
+      <c r="J228" s="18"/>
+      <c r="K228" s="19"/>
     </row>
     <row r="229" ht="15.2" spans="7:11">
-      <c r="G229" s="12"/>
-      <c r="J229" s="15"/>
-      <c r="K229" s="16"/>
+      <c r="G229" s="15"/>
+      <c r="J229" s="18"/>
+      <c r="K229" s="19"/>
     </row>
     <row r="230" ht="15.2" spans="7:11">
-      <c r="G230" s="12"/>
-      <c r="J230" s="15"/>
-      <c r="K230" s="16"/>
+      <c r="G230" s="15"/>
+      <c r="J230" s="18"/>
+      <c r="K230" s="19"/>
     </row>
     <row r="231" ht="15.2" spans="7:11">
-      <c r="G231" s="12"/>
-      <c r="J231" s="15"/>
-      <c r="K231" s="16"/>
+      <c r="G231" s="15"/>
+      <c r="J231" s="18"/>
+      <c r="K231" s="19"/>
     </row>
     <row r="232" ht="15.2" spans="7:11">
-      <c r="G232" s="12"/>
-      <c r="J232" s="15"/>
-      <c r="K232" s="16"/>
+      <c r="G232" s="15"/>
+      <c r="J232" s="18"/>
+      <c r="K232" s="19"/>
     </row>
     <row r="233" ht="15.2" spans="7:11">
-      <c r="G233" s="12"/>
-      <c r="J233" s="15"/>
-      <c r="K233" s="16"/>
+      <c r="G233" s="15"/>
+      <c r="J233" s="18"/>
+      <c r="K233" s="19"/>
     </row>
     <row r="234" ht="15.2" spans="7:11">
-      <c r="G234" s="12"/>
-      <c r="J234" s="15"/>
-      <c r="K234" s="16"/>
+      <c r="G234" s="15"/>
+      <c r="J234" s="18"/>
+      <c r="K234" s="19"/>
     </row>
     <row r="235" ht="15.2" spans="7:11">
-      <c r="G235" s="12"/>
-      <c r="J235" s="15"/>
-      <c r="K235" s="16"/>
+      <c r="G235" s="15"/>
+      <c r="J235" s="18"/>
+      <c r="K235" s="19"/>
     </row>
     <row r="236" ht="15.2" spans="7:11">
-      <c r="G236" s="12"/>
-      <c r="J236" s="15"/>
-      <c r="K236" s="16"/>
+      <c r="G236" s="15"/>
+      <c r="J236" s="18"/>
+      <c r="K236" s="19"/>
     </row>
     <row r="237" ht="15.2" spans="7:11">
-      <c r="G237" s="12"/>
-      <c r="J237" s="15"/>
-      <c r="K237" s="16"/>
+      <c r="G237" s="15"/>
+      <c r="J237" s="18"/>
+      <c r="K237" s="19"/>
     </row>
     <row r="238" ht="15.2" spans="7:11">
-      <c r="G238" s="12"/>
-      <c r="J238" s="15"/>
-      <c r="K238" s="16"/>
+      <c r="G238" s="15"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="19"/>
     </row>
     <row r="239" ht="15.2" spans="7:11">
-      <c r="G239" s="12"/>
-      <c r="J239" s="15"/>
-      <c r="K239" s="16"/>
+      <c r="G239" s="15"/>
+      <c r="J239" s="18"/>
+      <c r="K239" s="19"/>
     </row>
     <row r="240" ht="15.2" spans="7:11">
-      <c r="G240" s="12"/>
-      <c r="J240" s="15"/>
-      <c r="K240" s="16"/>
+      <c r="G240" s="15"/>
+      <c r="J240" s="18"/>
+      <c r="K240" s="19"/>
     </row>
     <row r="241" ht="15.2" spans="7:11">
-      <c r="G241" s="12"/>
-      <c r="J241" s="15"/>
-      <c r="K241" s="16"/>
+      <c r="G241" s="15"/>
+      <c r="J241" s="18"/>
+      <c r="K241" s="19"/>
     </row>
     <row r="242" ht="15.2" spans="7:11">
-      <c r="G242" s="12"/>
-      <c r="J242" s="15"/>
-      <c r="K242" s="16"/>
+      <c r="G242" s="15"/>
+      <c r="J242" s="18"/>
+      <c r="K242" s="19"/>
     </row>
     <row r="243" ht="15.2" spans="7:11">
-      <c r="G243" s="12"/>
-      <c r="J243" s="15"/>
-      <c r="K243" s="16"/>
+      <c r="G243" s="15"/>
+      <c r="J243" s="18"/>
+      <c r="K243" s="19"/>
     </row>
     <row r="244" ht="15.2" spans="7:11">
-      <c r="G244" s="12"/>
-      <c r="J244" s="15"/>
-      <c r="K244" s="16"/>
+      <c r="G244" s="15"/>
+      <c r="J244" s="18"/>
+      <c r="K244" s="19"/>
     </row>
     <row r="245" ht="15.2" spans="7:11">
-      <c r="G245" s="12"/>
-      <c r="J245" s="15"/>
-      <c r="K245" s="16"/>
+      <c r="G245" s="15"/>
+      <c r="J245" s="18"/>
+      <c r="K245" s="19"/>
     </row>
     <row r="246" ht="15.2" spans="7:11">
-      <c r="G246" s="12"/>
-      <c r="J246" s="15"/>
-      <c r="K246" s="16"/>
+      <c r="G246" s="15"/>
+      <c r="J246" s="18"/>
+      <c r="K246" s="19"/>
     </row>
     <row r="247" ht="15.2" spans="7:11">
-      <c r="G247" s="12"/>
-      <c r="J247" s="15"/>
-      <c r="K247" s="16"/>
+      <c r="G247" s="15"/>
+      <c r="J247" s="18"/>
+      <c r="K247" s="19"/>
     </row>
     <row r="248" ht="15.2" spans="7:11">
-      <c r="G248" s="12"/>
-      <c r="J248" s="15"/>
-      <c r="K248" s="16"/>
+      <c r="G248" s="15"/>
+      <c r="J248" s="18"/>
+      <c r="K248" s="19"/>
     </row>
     <row r="249" ht="15.2" spans="7:11">
-      <c r="G249" s="12"/>
-      <c r="J249" s="15"/>
-      <c r="K249" s="16"/>
+      <c r="G249" s="15"/>
+      <c r="J249" s="18"/>
+      <c r="K249" s="19"/>
     </row>
     <row r="250" ht="15.2" spans="7:11">
-      <c r="G250" s="12"/>
-      <c r="J250" s="15"/>
-      <c r="K250" s="16"/>
+      <c r="G250" s="15"/>
+      <c r="J250" s="18"/>
+      <c r="K250" s="19"/>
     </row>
     <row r="251" ht="15.2" spans="7:11">
-      <c r="G251" s="12"/>
-      <c r="J251" s="15"/>
-      <c r="K251" s="16"/>
+      <c r="G251" s="15"/>
+      <c r="J251" s="18"/>
+      <c r="K251" s="19"/>
     </row>
     <row r="252" ht="15.2" spans="7:11">
-      <c r="G252" s="12"/>
-      <c r="J252" s="15"/>
-      <c r="K252" s="16"/>
+      <c r="G252" s="15"/>
+      <c r="J252" s="18"/>
+      <c r="K252" s="19"/>
     </row>
     <row r="253" ht="15.2" spans="7:11">
-      <c r="G253" s="12"/>
-      <c r="J253" s="15"/>
-      <c r="K253" s="16"/>
+      <c r="G253" s="15"/>
+      <c r="J253" s="18"/>
+      <c r="K253" s="19"/>
     </row>
     <row r="254" ht="15.2" spans="7:11">
-      <c r="G254" s="12"/>
-      <c r="J254" s="15"/>
-      <c r="K254" s="16"/>
+      <c r="G254" s="15"/>
+      <c r="J254" s="18"/>
+      <c r="K254" s="19"/>
     </row>
     <row r="255" ht="15.2" spans="7:11">
-      <c r="G255" s="12"/>
-      <c r="J255" s="15"/>
-      <c r="K255" s="16"/>
+      <c r="G255" s="15"/>
+      <c r="J255" s="18"/>
+      <c r="K255" s="19"/>
     </row>
     <row r="256" ht="15.2" spans="7:11">
-      <c r="G256" s="12"/>
-      <c r="J256" s="15"/>
-      <c r="K256" s="16"/>
+      <c r="G256" s="15"/>
+      <c r="J256" s="18"/>
+      <c r="K256" s="19"/>
     </row>
     <row r="257" ht="15.2" spans="7:11">
-      <c r="G257" s="12"/>
-      <c r="J257" s="15"/>
-      <c r="K257" s="16"/>
+      <c r="G257" s="15"/>
+      <c r="J257" s="18"/>
+      <c r="K257" s="19"/>
     </row>
     <row r="258" ht="15.2" spans="7:11">
-      <c r="G258" s="12"/>
-      <c r="J258" s="15"/>
-      <c r="K258" s="16"/>
+      <c r="G258" s="15"/>
+      <c r="J258" s="18"/>
+      <c r="K258" s="19"/>
     </row>
     <row r="259" ht="15.2" spans="7:11">
-      <c r="G259" s="12"/>
-      <c r="J259" s="15"/>
-      <c r="K259" s="16"/>
+      <c r="G259" s="15"/>
+      <c r="J259" s="18"/>
+      <c r="K259" s="19"/>
     </row>
     <row r="260" ht="15.2" spans="7:11">
-      <c r="G260" s="12"/>
-      <c r="J260" s="15"/>
-      <c r="K260" s="16"/>
+      <c r="G260" s="15"/>
+      <c r="J260" s="18"/>
+      <c r="K260" s="19"/>
     </row>
     <row r="261" ht="15.2" spans="7:11">
-      <c r="G261" s="12"/>
-      <c r="J261" s="15"/>
-      <c r="K261" s="16"/>
+      <c r="G261" s="15"/>
+      <c r="J261" s="18"/>
+      <c r="K261" s="19"/>
     </row>
     <row r="262" ht="15.2" spans="7:11">
-      <c r="G262" s="12"/>
-      <c r="J262" s="15"/>
-      <c r="K262" s="16"/>
+      <c r="G262" s="15"/>
+      <c r="J262" s="18"/>
+      <c r="K262" s="19"/>
     </row>
     <row r="263" ht="15.2" spans="7:11">
-      <c r="G263" s="12"/>
-      <c r="J263" s="15"/>
-      <c r="K263" s="16"/>
+      <c r="G263" s="15"/>
+      <c r="J263" s="18"/>
+      <c r="K263" s="19"/>
     </row>
     <row r="264" ht="15.2" spans="7:11">
-      <c r="G264" s="12"/>
-      <c r="J264" s="15"/>
-      <c r="K264" s="16"/>
+      <c r="G264" s="15"/>
+      <c r="J264" s="18"/>
+      <c r="K264" s="19"/>
     </row>
     <row r="265" ht="15.2" spans="7:11">
-      <c r="G265" s="12"/>
-      <c r="J265" s="15"/>
-      <c r="K265" s="16"/>
+      <c r="G265" s="15"/>
+      <c r="J265" s="18"/>
+      <c r="K265" s="19"/>
     </row>
     <row r="266" ht="15.2" spans="7:11">
-      <c r="G266" s="12"/>
-      <c r="J266" s="15"/>
-      <c r="K266" s="16"/>
+      <c r="G266" s="15"/>
+      <c r="J266" s="18"/>
+      <c r="K266" s="19"/>
     </row>
     <row r="267" ht="15.2" spans="7:11">
-      <c r="G267" s="12"/>
-      <c r="J267" s="15"/>
-      <c r="K267" s="16"/>
+      <c r="G267" s="15"/>
+      <c r="J267" s="18"/>
+      <c r="K267" s="19"/>
     </row>
     <row r="268" ht="15.2" spans="7:11">
-      <c r="G268" s="12"/>
-      <c r="J268" s="15"/>
-      <c r="K268" s="16"/>
+      <c r="G268" s="15"/>
+      <c r="J268" s="18"/>
+      <c r="K268" s="19"/>
     </row>
     <row r="269" ht="15.2" spans="7:11">
-      <c r="G269" s="12"/>
-      <c r="J269" s="15"/>
-      <c r="K269" s="16"/>
+      <c r="G269" s="15"/>
+      <c r="J269" s="18"/>
+      <c r="K269" s="19"/>
     </row>
     <row r="270" ht="15.2" spans="7:11">
-      <c r="G270" s="12"/>
-      <c r="J270" s="15"/>
-      <c r="K270" s="16"/>
+      <c r="G270" s="15"/>
+      <c r="J270" s="18"/>
+      <c r="K270" s="19"/>
     </row>
     <row r="271" ht="15.2" spans="7:11">
-      <c r="G271" s="12"/>
-      <c r="J271" s="15"/>
-      <c r="K271" s="16"/>
+      <c r="G271" s="15"/>
+      <c r="J271" s="18"/>
+      <c r="K271" s="19"/>
     </row>
     <row r="272" ht="15.2" spans="7:11">
-      <c r="G272" s="12"/>
-      <c r="J272" s="15"/>
-      <c r="K272" s="16"/>
+      <c r="G272" s="15"/>
+      <c r="J272" s="18"/>
+      <c r="K272" s="19"/>
     </row>
     <row r="273" ht="15.2" spans="7:11">
-      <c r="G273" s="12"/>
-      <c r="J273" s="15"/>
-      <c r="K273" s="16"/>
+      <c r="G273" s="15"/>
+      <c r="J273" s="18"/>
+      <c r="K273" s="19"/>
     </row>
     <row r="274" ht="15.2" spans="7:11">
-      <c r="G274" s="12"/>
-      <c r="J274" s="15"/>
-      <c r="K274" s="16"/>
+      <c r="G274" s="15"/>
+      <c r="J274" s="18"/>
+      <c r="K274" s="19"/>
     </row>
     <row r="275" ht="15.2" spans="7:11">
-      <c r="G275" s="12"/>
-      <c r="J275" s="15"/>
-      <c r="K275" s="16"/>
+      <c r="G275" s="15"/>
+      <c r="J275" s="18"/>
+      <c r="K275" s="19"/>
     </row>
     <row r="276" ht="15.2" spans="7:11">
-      <c r="G276" s="12"/>
-      <c r="J276" s="15"/>
-      <c r="K276" s="16"/>
+      <c r="G276" s="15"/>
+      <c r="J276" s="18"/>
+      <c r="K276" s="19"/>
     </row>
     <row r="277" ht="15.2" spans="7:11">
-      <c r="G277" s="12"/>
-      <c r="J277" s="15"/>
-      <c r="K277" s="16"/>
+      <c r="G277" s="15"/>
+      <c r="J277" s="18"/>
+      <c r="K277" s="19"/>
     </row>
     <row r="278" ht="15.2" spans="7:11">
-      <c r="G278" s="12"/>
-      <c r="J278" s="15"/>
-      <c r="K278" s="16"/>
+      <c r="G278" s="15"/>
+      <c r="J278" s="18"/>
+      <c r="K278" s="19"/>
     </row>
     <row r="279" ht="15.2" spans="7:11">
-      <c r="G279" s="12"/>
-      <c r="J279" s="15"/>
-      <c r="K279" s="16"/>
+      <c r="G279" s="15"/>
+      <c r="J279" s="18"/>
+      <c r="K279" s="19"/>
     </row>
     <row r="280" ht="15.2" spans="7:11">
-      <c r="G280" s="12"/>
-      <c r="J280" s="15"/>
-      <c r="K280" s="16"/>
+      <c r="G280" s="15"/>
+      <c r="J280" s="18"/>
+      <c r="K280" s="19"/>
     </row>
     <row r="281" ht="15.2" spans="7:11">
-      <c r="G281" s="12"/>
-      <c r="J281" s="15"/>
-      <c r="K281" s="16"/>
+      <c r="G281" s="15"/>
+      <c r="J281" s="18"/>
+      <c r="K281" s="19"/>
     </row>
     <row r="282" ht="15.2" spans="7:11">
-      <c r="G282" s="12"/>
-      <c r="J282" s="15"/>
-      <c r="K282" s="16"/>
+      <c r="G282" s="15"/>
+      <c r="J282" s="18"/>
+      <c r="K282" s="19"/>
     </row>
     <row r="283" ht="15.2" spans="7:11">
-      <c r="G283" s="12"/>
-      <c r="J283" s="15"/>
-      <c r="K283" s="16"/>
+      <c r="G283" s="15"/>
+      <c r="J283" s="18"/>
+      <c r="K283" s="19"/>
     </row>
     <row r="284" ht="15.2" spans="7:11">
-      <c r="G284" s="12"/>
-      <c r="J284" s="15"/>
-      <c r="K284" s="16"/>
+      <c r="G284" s="15"/>
+      <c r="J284" s="18"/>
+      <c r="K284" s="19"/>
     </row>
     <row r="285" ht="15.2" spans="7:11">
-      <c r="G285" s="12"/>
-      <c r="J285" s="15"/>
-      <c r="K285" s="16"/>
+      <c r="G285" s="15"/>
+      <c r="J285" s="18"/>
+      <c r="K285" s="19"/>
     </row>
     <row r="286" ht="15.2" spans="7:11">
-      <c r="G286" s="12"/>
-      <c r="J286" s="15"/>
-      <c r="K286" s="16"/>
+      <c r="G286" s="15"/>
+      <c r="J286" s="18"/>
+      <c r="K286" s="19"/>
     </row>
     <row r="287" ht="15.2" spans="7:11">
-      <c r="G287" s="12"/>
-      <c r="J287" s="15"/>
-      <c r="K287" s="16"/>
+      <c r="G287" s="15"/>
+      <c r="J287" s="18"/>
+      <c r="K287" s="19"/>
     </row>
     <row r="288" ht="15.2" spans="7:11">
-      <c r="G288" s="12"/>
-      <c r="J288" s="15"/>
-      <c r="K288" s="16"/>
+      <c r="G288" s="15"/>
+      <c r="J288" s="18"/>
+      <c r="K288" s="19"/>
     </row>
     <row r="289" ht="15.2" spans="7:11">
-      <c r="G289" s="12"/>
-      <c r="J289" s="15"/>
-      <c r="K289" s="16"/>
+      <c r="G289" s="15"/>
+      <c r="J289" s="18"/>
+      <c r="K289" s="19"/>
     </row>
     <row r="290" ht="15.2" spans="7:11">
-      <c r="G290" s="12"/>
-      <c r="J290" s="15"/>
-      <c r="K290" s="16"/>
+      <c r="G290" s="15"/>
+      <c r="J290" s="18"/>
+      <c r="K290" s="19"/>
     </row>
     <row r="291" ht="15.2" spans="7:11">
-      <c r="G291" s="12"/>
-      <c r="J291" s="15"/>
-      <c r="K291" s="16"/>
+      <c r="G291" s="15"/>
+      <c r="J291" s="18"/>
+      <c r="K291" s="19"/>
     </row>
     <row r="292" ht="15.2" spans="7:11">
-      <c r="G292" s="12"/>
-      <c r="J292" s="15"/>
-      <c r="K292" s="16"/>
+      <c r="G292" s="15"/>
+      <c r="J292" s="18"/>
+      <c r="K292" s="19"/>
     </row>
     <row r="293" ht="15.2" spans="7:11">
-      <c r="G293" s="12"/>
-      <c r="J293" s="15"/>
-      <c r="K293" s="16"/>
+      <c r="G293" s="15"/>
+      <c r="J293" s="18"/>
+      <c r="K293" s="19"/>
     </row>
     <row r="294" ht="15.2" spans="7:11">
-      <c r="G294" s="12"/>
-      <c r="J294" s="15"/>
-      <c r="K294" s="16"/>
+      <c r="G294" s="15"/>
+      <c r="J294" s="18"/>
+      <c r="K294" s="19"/>
     </row>
     <row r="295" ht="15.2" spans="7:11">
-      <c r="G295" s="12"/>
-      <c r="J295" s="15"/>
-      <c r="K295" s="16"/>
+      <c r="G295" s="15"/>
+      <c r="J295" s="18"/>
+      <c r="K295" s="19"/>
     </row>
     <row r="296" ht="15.2" spans="7:11">
-      <c r="G296" s="12"/>
-      <c r="J296" s="15"/>
-      <c r="K296" s="16"/>
+      <c r="G296" s="15"/>
+      <c r="J296" s="18"/>
+      <c r="K296" s="19"/>
     </row>
     <row r="297" ht="15.2" spans="7:11">
-      <c r="G297" s="12"/>
-      <c r="J297" s="15"/>
-      <c r="K297" s="16"/>
+      <c r="G297" s="15"/>
+      <c r="J297" s="18"/>
+      <c r="K297" s="19"/>
     </row>
     <row r="298" ht="15.2" spans="7:11">
-      <c r="G298" s="12"/>
-      <c r="J298" s="15"/>
-      <c r="K298" s="16"/>
+      <c r="G298" s="15"/>
+      <c r="J298" s="18"/>
+      <c r="K298" s="19"/>
     </row>
     <row r="299" ht="15.2" spans="7:11">
-      <c r="G299" s="12"/>
-      <c r="J299" s="15"/>
-      <c r="K299" s="16"/>
+      <c r="G299" s="15"/>
+      <c r="J299" s="18"/>
+      <c r="K299" s="19"/>
     </row>
     <row r="300" ht="15.2" spans="7:11">
-      <c r="G300" s="12"/>
-      <c r="J300" s="15"/>
-      <c r="K300" s="16"/>
+      <c r="G300" s="15"/>
+      <c r="J300" s="18"/>
+      <c r="K300" s="19"/>
     </row>
     <row r="301" ht="15.2" spans="7:11">
-      <c r="G301" s="12"/>
-      <c r="J301" s="15"/>
-      <c r="K301" s="16"/>
+      <c r="G301" s="15"/>
+      <c r="J301" s="18"/>
+      <c r="K301" s="19"/>
     </row>
     <row r="302" ht="15.2" spans="7:11">
-      <c r="G302" s="12"/>
-      <c r="J302" s="15"/>
-      <c r="K302" s="16"/>
+      <c r="G302" s="15"/>
+      <c r="J302" s="18"/>
+      <c r="K302" s="19"/>
     </row>
     <row r="303" ht="15.2" spans="7:11">
-      <c r="G303" s="12"/>
-      <c r="J303" s="15"/>
-      <c r="K303" s="16"/>
+      <c r="G303" s="15"/>
+      <c r="J303" s="18"/>
+      <c r="K303" s="19"/>
     </row>
     <row r="304" ht="15.2" spans="7:11">
-      <c r="G304" s="12"/>
-      <c r="J304" s="15"/>
-      <c r="K304" s="16"/>
+      <c r="G304" s="15"/>
+      <c r="J304" s="18"/>
+      <c r="K304" s="19"/>
     </row>
     <row r="305" ht="15.2" spans="7:11">
-      <c r="G305" s="12"/>
-      <c r="J305" s="15"/>
-      <c r="K305" s="16"/>
+      <c r="G305" s="15"/>
+      <c r="J305" s="18"/>
+      <c r="K305" s="19"/>
     </row>
     <row r="306" ht="15.2" spans="7:11">
-      <c r="G306" s="12"/>
-      <c r="J306" s="15"/>
-      <c r="K306" s="16"/>
+      <c r="G306" s="15"/>
+      <c r="J306" s="18"/>
+      <c r="K306" s="19"/>
     </row>
     <row r="307" ht="15.2" spans="7:11">
-      <c r="G307" s="12"/>
-      <c r="J307" s="15"/>
-      <c r="K307" s="16"/>
+      <c r="G307" s="15"/>
+      <c r="J307" s="18"/>
+      <c r="K307" s="19"/>
     </row>
     <row r="308" ht="15.2" spans="7:11">
-      <c r="G308" s="12"/>
-      <c r="J308" s="15"/>
-      <c r="K308" s="16"/>
+      <c r="G308" s="15"/>
+      <c r="J308" s="18"/>
+      <c r="K308" s="19"/>
     </row>
     <row r="309" ht="15.2" spans="7:11">
-      <c r="G309" s="12"/>
-      <c r="J309" s="15"/>
-      <c r="K309" s="16"/>
+      <c r="G309" s="15"/>
+      <c r="J309" s="18"/>
+      <c r="K309" s="19"/>
     </row>
     <row r="310" ht="15.2" spans="7:11">
-      <c r="G310" s="12"/>
-      <c r="J310" s="15"/>
-      <c r="K310" s="16"/>
+      <c r="G310" s="15"/>
+      <c r="J310" s="18"/>
+      <c r="K310" s="19"/>
     </row>
     <row r="311" ht="15.2" spans="7:11">
-      <c r="G311" s="12"/>
-      <c r="J311" s="15"/>
-      <c r="K311" s="16"/>
+      <c r="G311" s="15"/>
+      <c r="J311" s="18"/>
+      <c r="K311" s="19"/>
     </row>
     <row r="312" ht="15.2" spans="7:11">
-      <c r="G312" s="12"/>
-      <c r="J312" s="15"/>
-      <c r="K312" s="16"/>
+      <c r="G312" s="15"/>
+      <c r="J312" s="18"/>
+      <c r="K312" s="19"/>
     </row>
     <row r="313" ht="15.2" spans="7:11">
-      <c r="G313" s="12"/>
-      <c r="J313" s="15"/>
-      <c r="K313" s="16"/>
+      <c r="G313" s="15"/>
+      <c r="J313" s="18"/>
+      <c r="K313" s="19"/>
     </row>
     <row r="314" ht="15.2" spans="7:11">
-      <c r="G314" s="12"/>
-      <c r="J314" s="15"/>
-      <c r="K314" s="16"/>
+      <c r="G314" s="15"/>
+      <c r="J314" s="18"/>
+      <c r="K314" s="19"/>
     </row>
     <row r="315" ht="15.2" spans="7:11">
-      <c r="G315" s="12"/>
-      <c r="J315" s="15"/>
-      <c r="K315" s="16"/>
+      <c r="G315" s="15"/>
+      <c r="J315" s="18"/>
+      <c r="K315" s="19"/>
     </row>
     <row r="316" ht="15.2" spans="7:11">
-      <c r="G316" s="12"/>
-      <c r="J316" s="15"/>
-      <c r="K316" s="16"/>
+      <c r="G316" s="15"/>
+      <c r="J316" s="18"/>
+      <c r="K316" s="19"/>
     </row>
     <row r="317" ht="15.2" spans="7:11">
-      <c r="G317" s="12"/>
-      <c r="J317" s="15"/>
-      <c r="K317" s="16"/>
+      <c r="G317" s="15"/>
+      <c r="J317" s="18"/>
+      <c r="K317" s="19"/>
     </row>
     <row r="318" ht="15.2" spans="7:11">
-      <c r="G318" s="12"/>
-      <c r="J318" s="15"/>
-      <c r="K318" s="16"/>
+      <c r="G318" s="15"/>
+      <c r="J318" s="18"/>
+      <c r="K318" s="19"/>
     </row>
     <row r="319" ht="15.2" spans="7:11">
-      <c r="G319" s="12"/>
-      <c r="J319" s="15"/>
-      <c r="K319" s="16"/>
+      <c r="G319" s="15"/>
+      <c r="J319" s="18"/>
+      <c r="K319" s="19"/>
     </row>
     <row r="320" ht="15.2" spans="7:11">
-      <c r="G320" s="12"/>
-      <c r="J320" s="15"/>
-      <c r="K320" s="16"/>
+      <c r="G320" s="15"/>
+      <c r="J320" s="18"/>
+      <c r="K320" s="19"/>
     </row>
     <row r="321" ht="15.2" spans="7:11">
-      <c r="G321" s="12"/>
-      <c r="J321" s="15"/>
-      <c r="K321" s="16"/>
+      <c r="G321" s="15"/>
+      <c r="J321" s="18"/>
+      <c r="K321" s="19"/>
     </row>
     <row r="322" ht="15.2" spans="7:11">
-      <c r="G322" s="12"/>
-      <c r="J322" s="15"/>
-      <c r="K322" s="16"/>
+      <c r="G322" s="15"/>
+      <c r="J322" s="18"/>
+      <c r="K322" s="19"/>
     </row>
     <row r="323" ht="15.2" spans="7:11">
-      <c r="G323" s="12"/>
-      <c r="J323" s="15"/>
-      <c r="K323" s="16"/>
+      <c r="G323" s="15"/>
+      <c r="J323" s="18"/>
+      <c r="K323" s="19"/>
     </row>
     <row r="324" ht="15.2" spans="7:11">
-      <c r="G324" s="12"/>
-      <c r="J324" s="15"/>
-      <c r="K324" s="16"/>
+      <c r="G324" s="15"/>
+      <c r="J324" s="18"/>
+      <c r="K324" s="19"/>
     </row>
     <row r="325" ht="15.2" spans="7:11">
-      <c r="G325" s="12"/>
-      <c r="J325" s="15"/>
-      <c r="K325" s="16"/>
+      <c r="G325" s="15"/>
+      <c r="J325" s="18"/>
+      <c r="K325" s="19"/>
     </row>
     <row r="326" ht="15.2" spans="7:11">
-      <c r="G326" s="12"/>
-      <c r="J326" s="15"/>
-      <c r="K326" s="16"/>
+      <c r="G326" s="15"/>
+      <c r="J326" s="18"/>
+      <c r="K326" s="19"/>
     </row>
     <row r="327" ht="15.2" spans="7:11">
-      <c r="G327" s="12"/>
-      <c r="J327" s="15"/>
-      <c r="K327" s="16"/>
+      <c r="G327" s="15"/>
+      <c r="J327" s="18"/>
+      <c r="K327" s="19"/>
     </row>
     <row r="328" ht="15.2" spans="7:11">
-      <c r="G328" s="12"/>
-      <c r="J328" s="15"/>
-      <c r="K328" s="16"/>
+      <c r="G328" s="15"/>
+      <c r="J328" s="18"/>
+      <c r="K328" s="19"/>
     </row>
     <row r="329" ht="15.2" spans="7:11">
-      <c r="G329" s="12"/>
-      <c r="J329" s="15"/>
-      <c r="K329" s="16"/>
+      <c r="G329" s="15"/>
+      <c r="J329" s="18"/>
+      <c r="K329" s="19"/>
     </row>
     <row r="330" ht="15.2" spans="7:11">
-      <c r="G330" s="12"/>
-      <c r="J330" s="15"/>
-      <c r="K330" s="16"/>
+      <c r="G330" s="15"/>
+      <c r="J330" s="18"/>
+      <c r="K330" s="19"/>
     </row>
     <row r="331" ht="15.2" spans="7:11">
-      <c r="G331" s="12"/>
-      <c r="J331" s="15"/>
-      <c r="K331" s="16"/>
+      <c r="G331" s="15"/>
+      <c r="J331" s="18"/>
+      <c r="K331" s="19"/>
     </row>
     <row r="332" ht="15.2" spans="7:11">
-      <c r="G332" s="12"/>
-      <c r="J332" s="15"/>
-      <c r="K332" s="16"/>
+      <c r="G332" s="15"/>
+      <c r="J332" s="18"/>
+      <c r="K332" s="19"/>
     </row>
     <row r="333" ht="15.2" spans="7:11">
-      <c r="G333" s="12"/>
-      <c r="J333" s="15"/>
-      <c r="K333" s="16"/>
+      <c r="G333" s="15"/>
+      <c r="J333" s="18"/>
+      <c r="K333" s="19"/>
     </row>
     <row r="334" ht="15.2" spans="7:11">
-      <c r="G334" s="12"/>
-      <c r="J334" s="15"/>
-      <c r="K334" s="16"/>
+      <c r="G334" s="15"/>
+      <c r="J334" s="18"/>
+      <c r="K334" s="19"/>
     </row>
     <row r="335" ht="15.2" spans="7:11">
-      <c r="G335" s="12"/>
-      <c r="J335" s="15"/>
-      <c r="K335" s="16"/>
+      <c r="G335" s="15"/>
+      <c r="J335" s="18"/>
+      <c r="K335" s="19"/>
     </row>
     <row r="336" ht="15.2" spans="7:11">
-      <c r="G336" s="12"/>
-      <c r="J336" s="15"/>
-      <c r="K336" s="16"/>
+      <c r="G336" s="15"/>
+      <c r="J336" s="18"/>
+      <c r="K336" s="19"/>
     </row>
     <row r="337" ht="15.2" spans="7:11">
-      <c r="G337" s="12"/>
-      <c r="J337" s="15"/>
-      <c r="K337" s="16"/>
+      <c r="G337" s="15"/>
+      <c r="J337" s="18"/>
+      <c r="K337" s="19"/>
     </row>
     <row r="338" ht="15.2" spans="7:11">
-      <c r="G338" s="12"/>
-      <c r="J338" s="15"/>
-      <c r="K338" s="16"/>
+      <c r="G338" s="15"/>
+      <c r="J338" s="18"/>
+      <c r="K338" s="19"/>
     </row>
     <row r="339" ht="15.2" spans="7:11">
-      <c r="G339" s="12"/>
-      <c r="J339" s="15"/>
-      <c r="K339" s="16"/>
+      <c r="G339" s="15"/>
+      <c r="J339" s="18"/>
+      <c r="K339" s="19"/>
     </row>
     <row r="340" ht="15.2" spans="7:11">
-      <c r="G340" s="12"/>
-      <c r="J340" s="15"/>
-      <c r="K340" s="16"/>
+      <c r="G340" s="15"/>
+      <c r="J340" s="18"/>
+      <c r="K340" s="19"/>
     </row>
     <row r="341" ht="15.2" spans="7:11">
-      <c r="G341" s="12"/>
-      <c r="J341" s="15"/>
-      <c r="K341" s="16"/>
+      <c r="G341" s="15"/>
+      <c r="J341" s="18"/>
+      <c r="K341" s="19"/>
     </row>
     <row r="342" ht="15.2" spans="7:11">
-      <c r="G342" s="12"/>
-      <c r="J342" s="15"/>
-      <c r="K342" s="16"/>
+      <c r="G342" s="15"/>
+      <c r="J342" s="18"/>
+      <c r="K342" s="19"/>
     </row>
     <row r="343" ht="15.2" spans="7:11">
-      <c r="G343" s="12"/>
-      <c r="J343" s="15"/>
-      <c r="K343" s="16"/>
+      <c r="G343" s="15"/>
+      <c r="J343" s="18"/>
+      <c r="K343" s="19"/>
     </row>
     <row r="344" ht="15.2" spans="7:11">
-      <c r="G344" s="12"/>
-      <c r="J344" s="15"/>
-      <c r="K344" s="16"/>
+      <c r="G344" s="15"/>
+      <c r="J344" s="18"/>
+      <c r="K344" s="19"/>
     </row>
     <row r="345" ht="15.2" spans="7:11">
-      <c r="G345" s="12"/>
-      <c r="J345" s="15"/>
-      <c r="K345" s="16"/>
+      <c r="G345" s="15"/>
+      <c r="J345" s="18"/>
+      <c r="K345" s="19"/>
     </row>
     <row r="346" ht="15.2" spans="7:11">
-      <c r="G346" s="12"/>
-      <c r="J346" s="15"/>
-      <c r="K346" s="16"/>
+      <c r="G346" s="15"/>
+      <c r="J346" s="18"/>
+      <c r="K346" s="19"/>
     </row>
     <row r="347" ht="15.2" spans="7:11">
-      <c r="G347" s="12"/>
-      <c r="J347" s="15"/>
-      <c r="K347" s="16"/>
+      <c r="G347" s="15"/>
+      <c r="J347" s="18"/>
+      <c r="K347" s="19"/>
     </row>
     <row r="348" ht="15.2" spans="7:11">
-      <c r="G348" s="12"/>
-      <c r="J348" s="15"/>
-      <c r="K348" s="16"/>
+      <c r="G348" s="15"/>
+      <c r="J348" s="18"/>
+      <c r="K348" s="19"/>
     </row>
     <row r="349" ht="15.2" spans="7:11">
-      <c r="G349" s="12"/>
-      <c r="J349" s="15"/>
-      <c r="K349" s="16"/>
+      <c r="G349" s="15"/>
+      <c r="J349" s="18"/>
+      <c r="K349" s="19"/>
     </row>
     <row r="350" ht="15.2" spans="7:11">
-      <c r="G350" s="12"/>
-      <c r="J350" s="15"/>
-      <c r="K350" s="16"/>
+      <c r="G350" s="15"/>
+      <c r="J350" s="18"/>
+      <c r="K350" s="19"/>
     </row>
     <row r="351" ht="15.2" spans="7:11">
-      <c r="G351" s="12"/>
-      <c r="J351" s="15"/>
-      <c r="K351" s="16"/>
+      <c r="G351" s="15"/>
+      <c r="J351" s="18"/>
+      <c r="K351" s="19"/>
     </row>
     <row r="352" ht="15.2" spans="7:11">
-      <c r="G352" s="12"/>
-      <c r="J352" s="15"/>
-      <c r="K352" s="16"/>
+      <c r="G352" s="15"/>
+      <c r="J352" s="18"/>
+      <c r="K352" s="19"/>
     </row>
     <row r="353" ht="15.2" spans="7:11">
-      <c r="G353" s="12"/>
-      <c r="J353" s="15"/>
-      <c r="K353" s="16"/>
+      <c r="G353" s="15"/>
+      <c r="J353" s="18"/>
+      <c r="K353" s="19"/>
     </row>
     <row r="354" ht="15.2" spans="7:11">
-      <c r="G354" s="12"/>
-      <c r="J354" s="15"/>
-      <c r="K354" s="16"/>
+      <c r="G354" s="15"/>
+      <c r="J354" s="18"/>
+      <c r="K354" s="19"/>
     </row>
     <row r="355" ht="15.2" spans="7:11">
-      <c r="G355" s="12"/>
-      <c r="J355" s="15"/>
-      <c r="K355" s="16"/>
+      <c r="G355" s="15"/>
+      <c r="J355" s="18"/>
+      <c r="K355" s="19"/>
     </row>
     <row r="356" ht="15.2" spans="7:11">
-      <c r="G356" s="12"/>
-      <c r="J356" s="15"/>
-      <c r="K356" s="16"/>
+      <c r="G356" s="15"/>
+      <c r="J356" s="18"/>
+      <c r="K356" s="19"/>
     </row>
     <row r="357" ht="15.2" spans="7:11">
-      <c r="G357" s="12"/>
-      <c r="J357" s="15"/>
-      <c r="K357" s="16"/>
+      <c r="G357" s="15"/>
+      <c r="J357" s="18"/>
+      <c r="K357" s="19"/>
     </row>
     <row r="358" ht="15.2" spans="7:11">
-      <c r="G358" s="12"/>
-      <c r="J358" s="15"/>
-      <c r="K358" s="16"/>
+      <c r="G358" s="15"/>
+      <c r="J358" s="18"/>
+      <c r="K358" s="19"/>
     </row>
     <row r="359" ht="15.2" spans="7:11">
-      <c r="G359" s="12"/>
-      <c r="J359" s="15"/>
-      <c r="K359" s="16"/>
+      <c r="G359" s="15"/>
+      <c r="J359" s="18"/>
+      <c r="K359" s="19"/>
     </row>
     <row r="360" ht="15.2" spans="7:11">
-      <c r="G360" s="12"/>
-      <c r="J360" s="15"/>
-      <c r="K360" s="16"/>
+      <c r="G360" s="15"/>
+      <c r="J360" s="18"/>
+      <c r="K360" s="19"/>
     </row>
     <row r="361" ht="15.2" spans="7:11">
-      <c r="G361" s="12"/>
-      <c r="J361" s="15"/>
-      <c r="K361" s="16"/>
+      <c r="G361" s="15"/>
+      <c r="J361" s="18"/>
+      <c r="K361" s="19"/>
     </row>
     <row r="362" ht="15.2" spans="7:11">
-      <c r="G362" s="12"/>
-      <c r="J362" s="15"/>
-      <c r="K362" s="16"/>
+      <c r="G362" s="15"/>
+      <c r="J362" s="18"/>
+      <c r="K362" s="19"/>
     </row>
     <row r="363" ht="15.2" spans="7:11">
-      <c r="G363" s="12"/>
-      <c r="J363" s="15"/>
-      <c r="K363" s="16"/>
+      <c r="G363" s="15"/>
+      <c r="J363" s="18"/>
+      <c r="K363" s="19"/>
     </row>
     <row r="364" ht="15.2" spans="7:11">
-      <c r="G364" s="12"/>
-      <c r="J364" s="15"/>
-      <c r="K364" s="16"/>
+      <c r="G364" s="15"/>
+      <c r="J364" s="18"/>
+      <c r="K364" s="19"/>
     </row>
     <row r="365" ht="15.2" spans="7:11">
-      <c r="G365" s="12"/>
-      <c r="J365" s="15"/>
-      <c r="K365" s="16"/>
+      <c r="G365" s="15"/>
+      <c r="J365" s="18"/>
+      <c r="K365" s="19"/>
     </row>
     <row r="366" ht="15.2" spans="7:11">
-      <c r="G366" s="12"/>
-      <c r="J366" s="15"/>
-      <c r="K366" s="16"/>
+      <c r="G366" s="15"/>
+      <c r="J366" s="18"/>
+      <c r="K366" s="19"/>
     </row>
     <row r="367" ht="15.2" spans="7:11">
-      <c r="G367" s="12"/>
-      <c r="J367" s="15"/>
-      <c r="K367" s="16"/>
+      <c r="G367" s="15"/>
+      <c r="J367" s="18"/>
+      <c r="K367" s="19"/>
     </row>
     <row r="368" ht="15.2" spans="7:11">
-      <c r="G368" s="12"/>
-      <c r="J368" s="15"/>
-      <c r="K368" s="16"/>
+      <c r="G368" s="15"/>
+      <c r="J368" s="18"/>
+      <c r="K368" s="19"/>
     </row>
     <row r="369" ht="15.2" spans="7:11">
-      <c r="G369" s="12"/>
-      <c r="J369" s="15"/>
-      <c r="K369" s="16"/>
+      <c r="G369" s="15"/>
+      <c r="J369" s="18"/>
+      <c r="K369" s="19"/>
     </row>
     <row r="370" ht="15.2" spans="7:11">
-      <c r="G370" s="12"/>
-      <c r="J370" s="15"/>
-      <c r="K370" s="16"/>
+      <c r="G370" s="15"/>
+      <c r="J370" s="18"/>
+      <c r="K370" s="19"/>
     </row>
     <row r="371" ht="15.2" spans="7:11">
-      <c r="G371" s="12"/>
-      <c r="J371" s="15"/>
-      <c r="K371" s="16"/>
+      <c r="G371" s="15"/>
+      <c r="J371" s="18"/>
+      <c r="K371" s="19"/>
     </row>
     <row r="372" ht="15.2" spans="7:11">
-      <c r="G372" s="12"/>
-      <c r="J372" s="15"/>
-      <c r="K372" s="16"/>
+      <c r="G372" s="15"/>
+      <c r="J372" s="18"/>
+      <c r="K372" s="19"/>
     </row>
     <row r="373" ht="15.2" spans="7:11">
-      <c r="G373" s="12"/>
-      <c r="J373" s="15"/>
-      <c r="K373" s="16"/>
+      <c r="G373" s="15"/>
+      <c r="J373" s="18"/>
+      <c r="K373" s="19"/>
     </row>
     <row r="374" ht="15.2" spans="7:11">
-      <c r="G374" s="12"/>
-      <c r="J374" s="15"/>
-      <c r="K374" s="16"/>
+      <c r="G374" s="15"/>
+      <c r="J374" s="18"/>
+      <c r="K374" s="19"/>
     </row>
     <row r="375" ht="15.2" spans="7:11">
-      <c r="G375" s="12"/>
-      <c r="J375" s="15"/>
-      <c r="K375" s="16"/>
+      <c r="G375" s="15"/>
+      <c r="J375" s="18"/>
+      <c r="K375" s="19"/>
     </row>
     <row r="376" ht="15.2" spans="7:11">
-      <c r="G376" s="12"/>
-      <c r="J376" s="15"/>
-      <c r="K376" s="16"/>
+      <c r="G376" s="15"/>
+      <c r="J376" s="18"/>
+      <c r="K376" s="19"/>
     </row>
     <row r="377" ht="15.2" spans="7:11">
-      <c r="G377" s="12"/>
-      <c r="J377" s="15"/>
-      <c r="K377" s="16"/>
+      <c r="G377" s="15"/>
+      <c r="J377" s="18"/>
+      <c r="K377" s="19"/>
     </row>
     <row r="378" ht="15.2" spans="7:11">
-      <c r="G378" s="12"/>
-      <c r="J378" s="15"/>
-      <c r="K378" s="16"/>
+      <c r="G378" s="15"/>
+      <c r="J378" s="18"/>
+      <c r="K378" s="19"/>
     </row>
     <row r="379" ht="15.2" spans="7:11">
-      <c r="G379" s="12"/>
-      <c r="J379" s="15"/>
-      <c r="K379" s="16"/>
+      <c r="G379" s="15"/>
+      <c r="J379" s="18"/>
+      <c r="K379" s="19"/>
     </row>
     <row r="380" ht="15.2" spans="7:11">
-      <c r="G380" s="12"/>
-      <c r="J380" s="15"/>
-      <c r="K380" s="16"/>
+      <c r="G380" s="15"/>
+      <c r="J380" s="18"/>
+      <c r="K380" s="19"/>
     </row>
     <row r="381" ht="15.2" spans="7:11">
-      <c r="G381" s="12"/>
-      <c r="J381" s="15"/>
-      <c r="K381" s="16"/>
+      <c r="G381" s="15"/>
+      <c r="J381" s="18"/>
+      <c r="K381" s="19"/>
     </row>
     <row r="382" ht="15.2" spans="7:11">
-      <c r="G382" s="12"/>
-      <c r="J382" s="15"/>
-      <c r="K382" s="16"/>
+      <c r="G382" s="15"/>
+      <c r="J382" s="18"/>
+      <c r="K382" s="19"/>
     </row>
     <row r="383" ht="15.2" spans="7:11">
-      <c r="G383" s="12"/>
-      <c r="J383" s="15"/>
-      <c r="K383" s="16"/>
+      <c r="G383" s="15"/>
+      <c r="J383" s="18"/>
+      <c r="K383" s="19"/>
     </row>
     <row r="384" ht="15.2" spans="7:11">
-      <c r="G384" s="12"/>
-      <c r="J384" s="15"/>
-      <c r="K384" s="16"/>
+      <c r="G384" s="15"/>
+      <c r="J384" s="18"/>
+      <c r="K384" s="19"/>
     </row>
     <row r="385" ht="15.2" spans="7:11">
-      <c r="G385" s="12"/>
-      <c r="J385" s="15"/>
-      <c r="K385" s="16"/>
+      <c r="G385" s="15"/>
+      <c r="J385" s="18"/>
+      <c r="K385" s="19"/>
     </row>
     <row r="386" ht="15.2" spans="7:11">
-      <c r="G386" s="12"/>
-      <c r="J386" s="15"/>
-      <c r="K386" s="16"/>
+      <c r="G386" s="15"/>
+      <c r="J386" s="18"/>
+      <c r="K386" s="19"/>
     </row>
     <row r="387" ht="15.2" spans="7:11">
-      <c r="G387" s="12"/>
-      <c r="J387" s="15"/>
-      <c r="K387" s="16"/>
+      <c r="G387" s="15"/>
+      <c r="J387" s="18"/>
+      <c r="K387" s="19"/>
     </row>
     <row r="388" ht="15.2" spans="7:11">
-      <c r="G388" s="12"/>
-      <c r="J388" s="15"/>
-      <c r="K388" s="16"/>
+      <c r="G388" s="15"/>
+      <c r="J388" s="18"/>
+      <c r="K388" s="19"/>
     </row>
     <row r="389" ht="15.2" spans="7:11">
-      <c r="G389" s="12"/>
-      <c r="J389" s="15"/>
-      <c r="K389" s="16"/>
+      <c r="G389" s="15"/>
+      <c r="J389" s="18"/>
+      <c r="K389" s="19"/>
     </row>
     <row r="390" ht="15.2" spans="7:11">
-      <c r="G390" s="12"/>
-      <c r="J390" s="15"/>
-      <c r="K390" s="16"/>
+      <c r="G390" s="15"/>
+      <c r="J390" s="18"/>
+      <c r="K390" s="19"/>
     </row>
     <row r="391" ht="15.2" spans="7:11">
-      <c r="G391" s="12"/>
-      <c r="J391" s="15"/>
-      <c r="K391" s="16"/>
+      <c r="G391" s="15"/>
+      <c r="J391" s="18"/>
+      <c r="K391" s="19"/>
     </row>
     <row r="392" ht="15.2" spans="7:11">
-      <c r="G392" s="12"/>
-      <c r="J392" s="15"/>
-      <c r="K392" s="16"/>
+      <c r="G392" s="15"/>
+      <c r="J392" s="18"/>
+      <c r="K392" s="19"/>
     </row>
     <row r="393" ht="15.2" spans="7:11">
-      <c r="G393" s="12"/>
-      <c r="J393" s="15"/>
-      <c r="K393" s="16"/>
+      <c r="G393" s="15"/>
+      <c r="J393" s="18"/>
+      <c r="K393" s="19"/>
     </row>
     <row r="394" ht="15.2" spans="7:11">
-      <c r="G394" s="12"/>
-      <c r="J394" s="15"/>
-      <c r="K394" s="16"/>
+      <c r="G394" s="15"/>
+      <c r="J394" s="18"/>
+      <c r="K394" s="19"/>
     </row>
     <row r="395" ht="15.2" spans="7:11">
-      <c r="G395" s="12"/>
-      <c r="J395" s="15"/>
-      <c r="K395" s="16"/>
+      <c r="G395" s="15"/>
+      <c r="J395" s="18"/>
+      <c r="K395" s="19"/>
     </row>
     <row r="396" ht="15.2" spans="7:11">
-      <c r="G396" s="12"/>
-      <c r="J396" s="15"/>
-      <c r="K396" s="16"/>
+      <c r="G396" s="15"/>
+      <c r="J396" s="18"/>
+      <c r="K396" s="19"/>
     </row>
     <row r="397" ht="15.2" spans="7:11">
-      <c r="G397" s="12"/>
-      <c r="J397" s="15"/>
-      <c r="K397" s="16"/>
+      <c r="G397" s="15"/>
+      <c r="J397" s="18"/>
+      <c r="K397" s="19"/>
     </row>
     <row r="398" ht="15.2" spans="7:11">
-      <c r="G398" s="12"/>
-      <c r="J398" s="15"/>
-      <c r="K398" s="16"/>
+      <c r="G398" s="15"/>
+      <c r="J398" s="18"/>
+      <c r="K398" s="19"/>
     </row>
     <row r="399" ht="15.2" spans="7:11">
-      <c r="G399" s="12"/>
-      <c r="J399" s="15"/>
-      <c r="K399" s="16"/>
+      <c r="G399" s="15"/>
+      <c r="J399" s="18"/>
+      <c r="K399" s="19"/>
     </row>
     <row r="400" ht="15.2" spans="7:11">
-      <c r="G400" s="12"/>
-      <c r="J400" s="15"/>
-      <c r="K400" s="16"/>
+      <c r="G400" s="15"/>
+      <c r="J400" s="18"/>
+      <c r="K400" s="19"/>
     </row>
     <row r="401" ht="15.2" spans="7:11">
-      <c r="G401" s="12"/>
-      <c r="J401" s="15"/>
-      <c r="K401" s="16"/>
+      <c r="G401" s="15"/>
+      <c r="J401" s="18"/>
+      <c r="K401" s="19"/>
     </row>
     <row r="402" ht="15.2" spans="7:11">
-      <c r="G402" s="12"/>
-      <c r="J402" s="15"/>
-      <c r="K402" s="16"/>
+      <c r="G402" s="15"/>
+      <c r="J402" s="18"/>
+      <c r="K402" s="19"/>
     </row>
     <row r="403" ht="15.2" spans="7:11">
-      <c r="G403" s="12"/>
-      <c r="J403" s="15"/>
-      <c r="K403" s="16"/>
+      <c r="G403" s="15"/>
+      <c r="J403" s="18"/>
+      <c r="K403" s="19"/>
     </row>
     <row r="404" ht="15.2" spans="7:11">
-      <c r="G404" s="12"/>
-      <c r="J404" s="15"/>
-      <c r="K404" s="16"/>
+      <c r="G404" s="15"/>
+      <c r="J404" s="18"/>
+      <c r="K404" s="19"/>
     </row>
     <row r="405" ht="15.2" spans="7:11">
-      <c r="G405" s="12"/>
-      <c r="J405" s="15"/>
-      <c r="K405" s="16"/>
+      <c r="G405" s="15"/>
+      <c r="J405" s="18"/>
+      <c r="K405" s="19"/>
     </row>
     <row r="406" ht="15.2" spans="7:11">
-      <c r="G406" s="12"/>
-      <c r="J406" s="15"/>
-      <c r="K406" s="16"/>
+      <c r="G406" s="15"/>
+      <c r="J406" s="18"/>
+      <c r="K406" s="19"/>
     </row>
     <row r="407" ht="15.2" spans="7:11">
-      <c r="G407" s="12"/>
-      <c r="J407" s="15"/>
-      <c r="K407" s="16"/>
+      <c r="G407" s="15"/>
+      <c r="J407" s="18"/>
+      <c r="K407" s="19"/>
     </row>
     <row r="408" ht="15.2" spans="7:11">
-      <c r="G408" s="12"/>
-      <c r="J408" s="15"/>
-      <c r="K408" s="16"/>
+      <c r="G408" s="15"/>
+      <c r="J408" s="18"/>
+      <c r="K408" s="19"/>
     </row>
     <row r="409" ht="15.2" spans="7:11">
-      <c r="G409" s="12"/>
-      <c r="J409" s="15"/>
-      <c r="K409" s="16"/>
+      <c r="G409" s="15"/>
+      <c r="J409" s="18"/>
+      <c r="K409" s="19"/>
     </row>
     <row r="410" ht="15.2" spans="7:11">
-      <c r="G410" s="12"/>
-      <c r="J410" s="15"/>
-      <c r="K410" s="16"/>
+      <c r="G410" s="15"/>
+      <c r="J410" s="18"/>
+      <c r="K410" s="19"/>
     </row>
     <row r="411" ht="15.2" spans="7:11">
-      <c r="G411" s="12"/>
-      <c r="J411" s="15"/>
-      <c r="K411" s="16"/>
+      <c r="G411" s="15"/>
+      <c r="J411" s="18"/>
+      <c r="K411" s="19"/>
     </row>
     <row r="412" ht="15.2" spans="7:11">
-      <c r="G412" s="12"/>
-      <c r="J412" s="15"/>
-      <c r="K412" s="16"/>
+      <c r="G412" s="15"/>
+      <c r="J412" s="18"/>
+      <c r="K412" s="19"/>
     </row>
     <row r="413" ht="15.2" spans="7:11">
-      <c r="G413" s="12"/>
-      <c r="J413" s="15"/>
-      <c r="K413" s="16"/>
+      <c r="G413" s="15"/>
+      <c r="J413" s="18"/>
+      <c r="K413" s="19"/>
     </row>
     <row r="414" ht="15.2" spans="7:11">
-      <c r="G414" s="12"/>
-      <c r="J414" s="15"/>
-      <c r="K414" s="16"/>
+      <c r="G414" s="15"/>
+      <c r="J414" s="18"/>
+      <c r="K414" s="19"/>
     </row>
     <row r="415" ht="15.2" spans="7:11">
-      <c r="G415" s="12"/>
-      <c r="J415" s="15"/>
-      <c r="K415" s="16"/>
+      <c r="G415" s="15"/>
+      <c r="J415" s="18"/>
+      <c r="K415" s="19"/>
     </row>
     <row r="416" ht="15.2" spans="7:11">
-      <c r="G416" s="12"/>
-      <c r="J416" s="15"/>
-      <c r="K416" s="16"/>
+      <c r="G416" s="15"/>
+      <c r="J416" s="18"/>
+      <c r="K416" s="19"/>
     </row>
     <row r="417" ht="15.2" spans="7:11">
-      <c r="G417" s="12"/>
-      <c r="J417" s="15"/>
-      <c r="K417" s="16"/>
+      <c r="G417" s="15"/>
+      <c r="J417" s="18"/>
+      <c r="K417" s="19"/>
     </row>
     <row r="418" ht="15.2" spans="7:11">
-      <c r="G418" s="12"/>
-      <c r="J418" s="15"/>
-      <c r="K418" s="16"/>
+      <c r="G418" s="15"/>
+      <c r="J418" s="18"/>
+      <c r="K418" s="19"/>
     </row>
     <row r="419" ht="15.2" spans="7:11">
-      <c r="G419" s="12"/>
-      <c r="J419" s="15"/>
-      <c r="K419" s="16"/>
+      <c r="G419" s="15"/>
+      <c r="J419" s="18"/>
+      <c r="K419" s="19"/>
     </row>
     <row r="420" ht="15.2" spans="7:11">
-      <c r="G420" s="12"/>
-      <c r="J420" s="15"/>
-      <c r="K420" s="16"/>
+      <c r="G420" s="15"/>
+      <c r="J420" s="18"/>
+      <c r="K420" s="19"/>
     </row>
     <row r="421" ht="15.2" spans="7:11">
-      <c r="G421" s="12"/>
-      <c r="J421" s="15"/>
-      <c r="K421" s="16"/>
+      <c r="G421" s="15"/>
+      <c r="J421" s="18"/>
+      <c r="K421" s="19"/>
     </row>
     <row r="422" ht="15.2" spans="7:11">
-      <c r="G422" s="12"/>
-      <c r="J422" s="15"/>
-      <c r="K422" s="16"/>
+      <c r="G422" s="15"/>
+      <c r="J422" s="18"/>
+      <c r="K422" s="19"/>
     </row>
     <row r="423" ht="15.2" spans="7:11">
-      <c r="G423" s="12"/>
-      <c r="J423" s="15"/>
-      <c r="K423" s="16"/>
+      <c r="G423" s="15"/>
+      <c r="J423" s="18"/>
+      <c r="K423" s="19"/>
     </row>
     <row r="424" ht="15.2" spans="7:11">
-      <c r="G424" s="12"/>
-      <c r="J424" s="15"/>
-      <c r="K424" s="16"/>
+      <c r="G424" s="15"/>
+      <c r="J424" s="18"/>
+      <c r="K424" s="19"/>
     </row>
     <row r="425" ht="15.2" spans="7:11">
-      <c r="G425" s="12"/>
-      <c r="J425" s="15"/>
-      <c r="K425" s="16"/>
+      <c r="G425" s="15"/>
+      <c r="J425" s="18"/>
+      <c r="K425" s="19"/>
     </row>
     <row r="426" ht="15.2" spans="7:11">
-      <c r="G426" s="12"/>
-      <c r="J426" s="15"/>
-      <c r="K426" s="16"/>
+      <c r="G426" s="15"/>
+      <c r="J426" s="18"/>
+      <c r="K426" s="19"/>
     </row>
     <row r="427" ht="15.2" spans="7:11">
-      <c r="G427" s="12"/>
-      <c r="J427" s="15"/>
-      <c r="K427" s="16"/>
+      <c r="G427" s="15"/>
+      <c r="J427" s="18"/>
+      <c r="K427" s="19"/>
     </row>
     <row r="428" ht="15.2" spans="7:11">
-      <c r="G428" s="12"/>
-      <c r="J428" s="15"/>
-      <c r="K428" s="16"/>
+      <c r="G428" s="15"/>
+      <c r="J428" s="18"/>
+      <c r="K428" s="19"/>
     </row>
     <row r="429" ht="15.2" spans="7:11">
-      <c r="G429" s="12"/>
-      <c r="J429" s="15"/>
-      <c r="K429" s="16"/>
+      <c r="G429" s="15"/>
+      <c r="J429" s="18"/>
+      <c r="K429" s="19"/>
     </row>
     <row r="430" ht="15.2" spans="7:11">
-      <c r="G430" s="12"/>
-      <c r="J430" s="15"/>
-      <c r="K430" s="16"/>
+      <c r="G430" s="15"/>
+      <c r="J430" s="18"/>
+      <c r="K430" s="19"/>
     </row>
     <row r="431" ht="15.2" spans="7:11">
-      <c r="G431" s="12"/>
-      <c r="J431" s="15"/>
-      <c r="K431" s="16"/>
+      <c r="G431" s="15"/>
+      <c r="J431" s="18"/>
+      <c r="K431" s="19"/>
     </row>
     <row r="432" ht="15.2" spans="7:11">
-      <c r="G432" s="12"/>
-      <c r="J432" s="15"/>
-      <c r="K432" s="16"/>
+      <c r="G432" s="15"/>
+      <c r="J432" s="18"/>
+      <c r="K432" s="19"/>
     </row>
     <row r="433" ht="15.2" spans="7:11">
-      <c r="G433" s="12"/>
-      <c r="J433" s="15"/>
-      <c r="K433" s="16"/>
+      <c r="G433" s="15"/>
+      <c r="J433" s="18"/>
+      <c r="K433" s="19"/>
     </row>
     <row r="434" ht="15.2" spans="7:11">
-      <c r="G434" s="12"/>
-      <c r="J434" s="15"/>
-      <c r="K434" s="16"/>
+      <c r="G434" s="15"/>
+      <c r="J434" s="18"/>
+      <c r="K434" s="19"/>
     </row>
     <row r="435" ht="15.2" spans="7:11">
-      <c r="G435" s="12"/>
-      <c r="J435" s="15"/>
-      <c r="K435" s="16"/>
+      <c r="G435" s="15"/>
+      <c r="J435" s="18"/>
+      <c r="K435" s="19"/>
     </row>
     <row r="436" ht="15.2" spans="7:11">
-      <c r="G436" s="12"/>
-      <c r="J436" s="15"/>
-      <c r="K436" s="16"/>
+      <c r="G436" s="15"/>
+      <c r="J436" s="18"/>
+      <c r="K436" s="19"/>
     </row>
     <row r="437" ht="15.2" spans="7:11">
-      <c r="G437" s="12"/>
-      <c r="J437" s="15"/>
-      <c r="K437" s="16"/>
+      <c r="G437" s="15"/>
+      <c r="J437" s="18"/>
+      <c r="K437" s="19"/>
     </row>
     <row r="438" ht="15.2" spans="7:11">
-      <c r="G438" s="12"/>
-      <c r="J438" s="15"/>
-      <c r="K438" s="16"/>
+      <c r="G438" s="15"/>
+      <c r="J438" s="18"/>
+      <c r="K438" s="19"/>
     </row>
     <row r="439" ht="15.2" spans="7:11">
-      <c r="G439" s="12"/>
-      <c r="J439" s="15"/>
-      <c r="K439" s="16"/>
+      <c r="G439" s="15"/>
+      <c r="J439" s="18"/>
+      <c r="K439" s="19"/>
     </row>
     <row r="440" ht="15.2" spans="7:11">
-      <c r="G440" s="12"/>
-      <c r="J440" s="15"/>
-      <c r="K440" s="16"/>
+      <c r="G440" s="15"/>
+      <c r="J440" s="18"/>
+      <c r="K440" s="19"/>
     </row>
     <row r="441" ht="15.2" spans="7:11">
-      <c r="G441" s="12"/>
-      <c r="J441" s="15"/>
-      <c r="K441" s="16"/>
+      <c r="G441" s="15"/>
+      <c r="J441" s="18"/>
+      <c r="K441" s="19"/>
     </row>
     <row r="442" ht="15.2" spans="7:11">
-      <c r="G442" s="12"/>
-      <c r="J442" s="15"/>
-      <c r="K442" s="16"/>
+      <c r="G442" s="15"/>
+      <c r="J442" s="18"/>
+      <c r="K442" s="19"/>
     </row>
     <row r="443" ht="15.2" spans="7:11">
-      <c r="G443" s="12"/>
-      <c r="J443" s="15"/>
-      <c r="K443" s="16"/>
+      <c r="G443" s="15"/>
+      <c r="J443" s="18"/>
+      <c r="K443" s="19"/>
     </row>
     <row r="444" ht="15.2" spans="7:11">
-      <c r="G444" s="12"/>
-      <c r="J444" s="15"/>
-      <c r="K444" s="16"/>
+      <c r="G444" s="15"/>
+      <c r="J444" s="18"/>
+      <c r="K444" s="19"/>
     </row>
     <row r="445" ht="15.2" spans="7:11">
-      <c r="G445" s="12"/>
-      <c r="J445" s="15"/>
-      <c r="K445" s="16"/>
+      <c r="G445" s="15"/>
+      <c r="J445" s="18"/>
+      <c r="K445" s="19"/>
     </row>
     <row r="446" ht="15.2" spans="7:11">
-      <c r="G446" s="12"/>
-      <c r="J446" s="15"/>
-      <c r="K446" s="16"/>
+      <c r="G446" s="15"/>
+      <c r="J446" s="18"/>
+      <c r="K446" s="19"/>
     </row>
     <row r="447" ht="15.2" spans="7:11">
-      <c r="G447" s="12"/>
-      <c r="J447" s="15"/>
-      <c r="K447" s="16"/>
+      <c r="G447" s="15"/>
+      <c r="J447" s="18"/>
+      <c r="K447" s="19"/>
     </row>
     <row r="448" ht="15.2" spans="7:11">
-      <c r="G448" s="12"/>
-      <c r="J448" s="15"/>
-      <c r="K448" s="16"/>
+      <c r="G448" s="15"/>
+      <c r="J448" s="18"/>
+      <c r="K448" s="19"/>
     </row>
     <row r="449" ht="15.2" spans="7:11">
-      <c r="G449" s="12"/>
-      <c r="J449" s="15"/>
-      <c r="K449" s="16"/>
+      <c r="G449" s="15"/>
+      <c r="J449" s="18"/>
+      <c r="K449" s="19"/>
     </row>
     <row r="450" ht="15.2" spans="7:11">
-      <c r="G450" s="12"/>
-      <c r="J450" s="15"/>
-      <c r="K450" s="16"/>
+      <c r="G450" s="15"/>
+      <c r="J450" s="18"/>
+      <c r="K450" s="19"/>
     </row>
     <row r="451" ht="15.2" spans="7:11">
-      <c r="G451" s="12"/>
-      <c r="J451" s="15"/>
-      <c r="K451" s="16"/>
+      <c r="G451" s="15"/>
+      <c r="J451" s="18"/>
+      <c r="K451" s="19"/>
     </row>
     <row r="452" ht="15.2" spans="7:11">
-      <c r="G452" s="12"/>
-      <c r="J452" s="15"/>
-      <c r="K452" s="16"/>
+      <c r="G452" s="15"/>
+      <c r="J452" s="18"/>
+      <c r="K452" s="19"/>
     </row>
     <row r="453" ht="15.2" spans="7:11">
-      <c r="G453" s="12"/>
-      <c r="J453" s="15"/>
-      <c r="K453" s="16"/>
+      <c r="G453" s="15"/>
+      <c r="J453" s="18"/>
+      <c r="K453" s="19"/>
     </row>
     <row r="454" ht="15.2" spans="7:11">
-      <c r="G454" s="12"/>
-      <c r="J454" s="15"/>
-      <c r="K454" s="16"/>
+      <c r="G454" s="15"/>
+      <c r="J454" s="18"/>
+      <c r="K454" s="19"/>
     </row>
     <row r="455" ht="15.2" spans="7:11">
-      <c r="G455" s="12"/>
-      <c r="J455" s="15"/>
-      <c r="K455" s="16"/>
+      <c r="G455" s="15"/>
+      <c r="J455" s="18"/>
+      <c r="K455" s="19"/>
     </row>
     <row r="456" ht="15.2" spans="7:11">
-      <c r="G456" s="12"/>
-      <c r="J456" s="15"/>
-      <c r="K456" s="16"/>
+      <c r="G456" s="15"/>
+      <c r="J456" s="18"/>
+      <c r="K456" s="19"/>
     </row>
     <row r="457" ht="15.2" spans="7:11">
-      <c r="G457" s="12"/>
-      <c r="J457" s="15"/>
-      <c r="K457" s="16"/>
+      <c r="G457" s="15"/>
+      <c r="J457" s="18"/>
+      <c r="K457" s="19"/>
     </row>
     <row r="458" ht="15.2" spans="7:11">
-      <c r="G458" s="12"/>
-      <c r="J458" s="15"/>
-      <c r="K458" s="16"/>
+      <c r="G458" s="15"/>
+      <c r="J458" s="18"/>
+      <c r="K458" s="19"/>
     </row>
     <row r="459" ht="15.2" spans="7:11">
-      <c r="G459" s="12"/>
-      <c r="J459" s="15"/>
-      <c r="K459" s="16"/>
+      <c r="G459" s="15"/>
+      <c r="J459" s="18"/>
+      <c r="K459" s="19"/>
     </row>
     <row r="460" ht="15.2" spans="7:11">
-      <c r="G460" s="12"/>
-      <c r="J460" s="15"/>
-      <c r="K460" s="16"/>
+      <c r="G460" s="15"/>
+      <c r="J460" s="18"/>
+      <c r="K460" s="19"/>
     </row>
     <row r="461" ht="15.2" spans="7:11">
-      <c r="G461" s="12"/>
-      <c r="J461" s="15"/>
-      <c r="K461" s="16"/>
+      <c r="G461" s="15"/>
+      <c r="J461" s="18"/>
+      <c r="K461" s="19"/>
     </row>
     <row r="462" ht="15.2" spans="7:11">
-      <c r="G462" s="12"/>
-      <c r="J462" s="15"/>
-      <c r="K462" s="16"/>
+      <c r="G462" s="15"/>
+      <c r="J462" s="18"/>
+      <c r="K462" s="19"/>
     </row>
     <row r="463" ht="15.2" spans="7:11">
-      <c r="G463" s="12"/>
-      <c r="J463" s="15"/>
-      <c r="K463" s="16"/>
+      <c r="G463" s="15"/>
+      <c r="J463" s="18"/>
+      <c r="K463" s="19"/>
     </row>
     <row r="464" ht="15.2" spans="7:11">
-      <c r="G464" s="12"/>
-      <c r="J464" s="15"/>
-      <c r="K464" s="16"/>
+      <c r="G464" s="15"/>
+      <c r="J464" s="18"/>
+      <c r="K464" s="19"/>
     </row>
     <row r="465" ht="15.2" spans="7:11">
-      <c r="G465" s="12"/>
-      <c r="J465" s="15"/>
-      <c r="K465" s="16"/>
+      <c r="G465" s="15"/>
+      <c r="J465" s="18"/>
+      <c r="K465" s="19"/>
     </row>
     <row r="466" ht="15.2" spans="7:11">
-      <c r="G466" s="12"/>
-      <c r="J466" s="15"/>
-      <c r="K466" s="16"/>
+      <c r="G466" s="15"/>
+      <c r="J466" s="18"/>
+      <c r="K466" s="19"/>
     </row>
     <row r="467" ht="15.2" spans="7:11">
-      <c r="G467" s="12"/>
-      <c r="J467" s="15"/>
-      <c r="K467" s="16"/>
+      <c r="G467" s="15"/>
+      <c r="J467" s="18"/>
+      <c r="K467" s="19"/>
     </row>
     <row r="468" ht="15.2" spans="7:11">
-      <c r="G468" s="12"/>
-      <c r="J468" s="15"/>
-      <c r="K468" s="16"/>
+      <c r="G468" s="15"/>
+      <c r="J468" s="18"/>
+      <c r="K468" s="19"/>
     </row>
     <row r="469" ht="15.2" spans="7:11">
-      <c r="G469" s="12"/>
-      <c r="J469" s="15"/>
-      <c r="K469" s="16"/>
+      <c r="G469" s="15"/>
+      <c r="J469" s="18"/>
+      <c r="K469" s="19"/>
     </row>
     <row r="470" ht="15.2" spans="7:11">
-      <c r="G470" s="12"/>
-      <c r="J470" s="15"/>
-      <c r="K470" s="16"/>
+      <c r="G470" s="15"/>
+      <c r="J470" s="18"/>
+      <c r="K470" s="19"/>
     </row>
     <row r="471" ht="15.2" spans="7:11">
-      <c r="G471" s="12"/>
-      <c r="J471" s="15"/>
-      <c r="K471" s="16"/>
+      <c r="G471" s="15"/>
+      <c r="J471" s="18"/>
+      <c r="K471" s="19"/>
     </row>
     <row r="472" ht="15.2" spans="7:11">
-      <c r="G472" s="12"/>
-      <c r="J472" s="15"/>
-      <c r="K472" s="16"/>
+      <c r="G472" s="15"/>
+      <c r="J472" s="18"/>
+      <c r="K472" s="19"/>
     </row>
     <row r="473" ht="15.2" spans="7:11">
-      <c r="G473" s="12"/>
-      <c r="J473" s="15"/>
-      <c r="K473" s="16"/>
+      <c r="G473" s="15"/>
+      <c r="J473" s="18"/>
+      <c r="K473" s="19"/>
     </row>
     <row r="474" ht="15.2" spans="7:11">
-      <c r="G474" s="12"/>
-      <c r="J474" s="15"/>
-      <c r="K474" s="16"/>
+      <c r="G474" s="15"/>
+      <c r="J474" s="18"/>
+      <c r="K474" s="19"/>
     </row>
     <row r="475" ht="15.2" spans="7:11">
-      <c r="G475" s="12"/>
-      <c r="J475" s="15"/>
-      <c r="K475" s="16"/>
+      <c r="G475" s="15"/>
+      <c r="J475" s="18"/>
+      <c r="K475" s="19"/>
     </row>
     <row r="476" ht="15.2" spans="7:11">
-      <c r="G476" s="12"/>
-      <c r="J476" s="15"/>
-      <c r="K476" s="16"/>
+      <c r="G476" s="15"/>
+      <c r="J476" s="18"/>
+      <c r="K476" s="19"/>
     </row>
     <row r="477" ht="15.2" spans="7:11">
-      <c r="G477" s="12"/>
-      <c r="J477" s="15"/>
-      <c r="K477" s="16"/>
+      <c r="G477" s="15"/>
+      <c r="J477" s="18"/>
+      <c r="K477" s="19"/>
     </row>
     <row r="478" ht="15.2" spans="7:11">
-      <c r="G478" s="12"/>
-      <c r="J478" s="15"/>
-      <c r="K478" s="16"/>
+      <c r="G478" s="15"/>
+      <c r="J478" s="18"/>
+      <c r="K478" s="19"/>
     </row>
     <row r="479" ht="15.2" spans="7:11">
-      <c r="G479" s="12"/>
-      <c r="J479" s="15"/>
-      <c r="K479" s="16"/>
+      <c r="G479" s="15"/>
+      <c r="J479" s="18"/>
+      <c r="K479" s="19"/>
     </row>
     <row r="480" ht="15.2" spans="7:11">
-      <c r="G480" s="12"/>
-      <c r="J480" s="15"/>
-      <c r="K480" s="16"/>
+      <c r="G480" s="15"/>
+      <c r="J480" s="18"/>
+      <c r="K480" s="19"/>
     </row>
     <row r="481" ht="15.2" spans="7:11">
-      <c r="G481" s="12"/>
-      <c r="J481" s="15"/>
-      <c r="K481" s="16"/>
+      <c r="G481" s="15"/>
+      <c r="J481" s="18"/>
+      <c r="K481" s="19"/>
     </row>
     <row r="482" ht="15.2" spans="7:11">
-      <c r="G482" s="12"/>
-      <c r="J482" s="15"/>
-      <c r="K482" s="16"/>
+      <c r="G482" s="15"/>
+      <c r="J482" s="18"/>
+      <c r="K482" s="19"/>
     </row>
     <row r="483" ht="15.2" spans="7:11">
-      <c r="G483" s="12"/>
-      <c r="J483" s="15"/>
-      <c r="K483" s="16"/>
+      <c r="G483" s="15"/>
+      <c r="J483" s="18"/>
+      <c r="K483" s="19"/>
     </row>
     <row r="484" ht="15.2" spans="7:11">
-      <c r="G484" s="12"/>
-      <c r="J484" s="15"/>
-      <c r="K484" s="16"/>
+      <c r="G484" s="15"/>
+      <c r="J484" s="18"/>
+      <c r="K484" s="19"/>
     </row>
     <row r="485" ht="15.2" spans="7:11">
-      <c r="G485" s="12"/>
-      <c r="J485" s="15"/>
-      <c r="K485" s="16"/>
+      <c r="G485" s="15"/>
+      <c r="J485" s="18"/>
+      <c r="K485" s="19"/>
     </row>
     <row r="486" ht="15.2" spans="7:11">
-      <c r="G486" s="12"/>
-      <c r="J486" s="15"/>
-      <c r="K486" s="16"/>
+      <c r="G486" s="15"/>
+      <c r="J486" s="18"/>
+      <c r="K486" s="19"/>
     </row>
     <row r="487" ht="15.2" spans="7:11">
-      <c r="G487" s="12"/>
-      <c r="J487" s="15"/>
-      <c r="K487" s="16"/>
+      <c r="G487" s="15"/>
+      <c r="J487" s="18"/>
+      <c r="K487" s="19"/>
     </row>
     <row r="488" ht="15.2" spans="7:11">
-      <c r="G488" s="12"/>
-      <c r="J488" s="15"/>
-      <c r="K488" s="16"/>
+      <c r="G488" s="15"/>
+      <c r="J488" s="18"/>
+      <c r="K488" s="19"/>
     </row>
     <row r="489" ht="15.2" spans="7:11">
-      <c r="G489" s="12"/>
-      <c r="J489" s="15"/>
-      <c r="K489" s="16"/>
+      <c r="G489" s="15"/>
+      <c r="J489" s="18"/>
+      <c r="K489" s="19"/>
     </row>
     <row r="490" ht="15.2" spans="7:11">
-      <c r="G490" s="12"/>
-      <c r="J490" s="15"/>
-      <c r="K490" s="16"/>
+      <c r="G490" s="15"/>
+      <c r="J490" s="18"/>
+      <c r="K490" s="19"/>
     </row>
     <row r="491" ht="15.2" spans="7:11">
-      <c r="G491" s="12"/>
-      <c r="J491" s="15"/>
-      <c r="K491" s="16"/>
+      <c r="G491" s="15"/>
+      <c r="J491" s="18"/>
+      <c r="K491" s="19"/>
     </row>
     <row r="492" ht="15.2" spans="7:11">
-      <c r="G492" s="12"/>
-      <c r="J492" s="15"/>
-      <c r="K492" s="16"/>
+      <c r="G492" s="15"/>
+      <c r="J492" s="18"/>
+      <c r="K492" s="19"/>
     </row>
     <row r="493" ht="15.2" spans="7:11">
-      <c r="G493" s="12"/>
-      <c r="J493" s="15"/>
-      <c r="K493" s="16"/>
+      <c r="G493" s="15"/>
+      <c r="J493" s="18"/>
+      <c r="K493" s="19"/>
     </row>
     <row r="494" ht="15.2" spans="7:11">
-      <c r="G494" s="12"/>
-      <c r="J494" s="15"/>
-      <c r="K494" s="16"/>
+      <c r="G494" s="15"/>
+      <c r="J494" s="18"/>
+      <c r="K494" s="19"/>
     </row>
     <row r="495" ht="15.2" spans="7:11">
-      <c r="G495" s="12"/>
-      <c r="J495" s="15"/>
-      <c r="K495" s="16"/>
+      <c r="G495" s="15"/>
+      <c r="J495" s="18"/>
+      <c r="K495" s="19"/>
     </row>
     <row r="496" ht="15.2" spans="7:11">
-      <c r="G496" s="12"/>
-      <c r="J496" s="15"/>
-      <c r="K496" s="16"/>
+      <c r="G496" s="15"/>
+      <c r="J496" s="18"/>
+      <c r="K496" s="19"/>
     </row>
     <row r="497" ht="15.2" spans="7:11">
-      <c r="G497" s="12"/>
-      <c r="J497" s="15"/>
-      <c r="K497" s="16"/>
+      <c r="G497" s="15"/>
+      <c r="J497" s="18"/>
+      <c r="K497" s="19"/>
     </row>
     <row r="498" ht="15.2" spans="7:11">
-      <c r="G498" s="12"/>
-      <c r="J498" s="15"/>
-      <c r="K498" s="16"/>
+      <c r="G498" s="15"/>
+      <c r="J498" s="18"/>
+      <c r="K498" s="19"/>
     </row>
     <row r="499" ht="15.2" spans="7:11">
-      <c r="G499" s="12"/>
-      <c r="J499" s="15"/>
-      <c r="K499" s="16"/>
+      <c r="G499" s="15"/>
+      <c r="J499" s="18"/>
+      <c r="K499" s="19"/>
     </row>
     <row r="500" ht="15.2" spans="7:11">
-      <c r="G500" s="12"/>
-      <c r="J500" s="15"/>
-      <c r="K500" s="16"/>
+      <c r="G500" s="15"/>
+      <c r="J500" s="18"/>
+      <c r="K500" s="19"/>
     </row>
     <row r="501" ht="15.2" spans="7:11">
-      <c r="G501" s="12"/>
-      <c r="J501" s="15"/>
-      <c r="K501" s="16"/>
+      <c r="G501" s="15"/>
+      <c r="J501" s="18"/>
+      <c r="K501" s="19"/>
     </row>
     <row r="502" ht="15.2" spans="7:11">
-      <c r="G502" s="12"/>
-      <c r="J502" s="15"/>
-      <c r="K502" s="16"/>
+      <c r="G502" s="15"/>
+      <c r="J502" s="18"/>
+      <c r="K502" s="19"/>
     </row>
     <row r="503" ht="15.2" spans="7:11">
-      <c r="G503" s="12"/>
-      <c r="J503" s="15"/>
-      <c r="K503" s="16"/>
+      <c r="G503" s="15"/>
+      <c r="J503" s="18"/>
+      <c r="K503" s="19"/>
     </row>
     <row r="504" ht="15.2" spans="7:11">
-      <c r="G504" s="12"/>
-      <c r="J504" s="15"/>
-      <c r="K504" s="16"/>
+      <c r="G504" s="15"/>
+      <c r="J504" s="18"/>
+      <c r="K504" s="19"/>
     </row>
     <row r="505" ht="15.2" spans="7:11">
-      <c r="G505" s="12"/>
-      <c r="J505" s="15"/>
-      <c r="K505" s="16"/>
+      <c r="G505" s="15"/>
+      <c r="J505" s="18"/>
+      <c r="K505" s="19"/>
     </row>
     <row r="506" ht="15.2" spans="7:11">
-      <c r="G506" s="12"/>
-      <c r="J506" s="15"/>
-      <c r="K506" s="16"/>
+      <c r="G506" s="15"/>
+      <c r="J506" s="18"/>
+      <c r="K506" s="19"/>
     </row>
     <row r="507" ht="15.2" spans="7:11">
-      <c r="G507" s="12"/>
-      <c r="J507" s="15"/>
-      <c r="K507" s="16"/>
+      <c r="G507" s="15"/>
+      <c r="J507" s="18"/>
+      <c r="K507" s="19"/>
     </row>
     <row r="508" ht="15.2" spans="7:11">
-      <c r="G508" s="12"/>
-      <c r="J508" s="15"/>
-      <c r="K508" s="16"/>
+      <c r="G508" s="15"/>
+      <c r="J508" s="18"/>
+      <c r="K508" s="19"/>
     </row>
     <row r="509" ht="15.2" spans="7:11">
-      <c r="G509" s="12"/>
-      <c r="J509" s="15"/>
-      <c r="K509" s="16"/>
+      <c r="G509" s="15"/>
+      <c r="J509" s="18"/>
+      <c r="K509" s="19"/>
     </row>
     <row r="510" ht="15.2" spans="7:11">
-      <c r="G510" s="12"/>
-      <c r="J510" s="15"/>
-      <c r="K510" s="16"/>
+      <c r="G510" s="15"/>
+      <c r="J510" s="18"/>
+      <c r="K510" s="19"/>
     </row>
     <row r="511" ht="15.2" spans="7:11">
-      <c r="G511" s="12"/>
-      <c r="J511" s="15"/>
-      <c r="K511" s="16"/>
+      <c r="G511" s="15"/>
+      <c r="J511" s="18"/>
+      <c r="K511" s="19"/>
     </row>
     <row r="512" ht="15.2" spans="7:11">
-      <c r="G512" s="12"/>
-      <c r="J512" s="15"/>
-      <c r="K512" s="16"/>
+      <c r="G512" s="15"/>
+      <c r="J512" s="18"/>
+      <c r="K512" s="19"/>
     </row>
     <row r="513" ht="15.2" spans="7:11">
-      <c r="G513" s="12"/>
-      <c r="J513" s="15"/>
-      <c r="K513" s="16"/>
+      <c r="G513" s="15"/>
+      <c r="J513" s="18"/>
+      <c r="K513" s="19"/>
     </row>
     <row r="514" ht="15.2" spans="7:11">
-      <c r="G514" s="12"/>
-      <c r="J514" s="15"/>
-      <c r="K514" s="16"/>
+      <c r="G514" s="15"/>
+      <c r="J514" s="18"/>
+      <c r="K514" s="19"/>
     </row>
     <row r="515" ht="15.2" spans="7:11">
-      <c r="G515" s="12"/>
-      <c r="J515" s="15"/>
-      <c r="K515" s="16"/>
+      <c r="G515" s="15"/>
+      <c r="J515" s="18"/>
+      <c r="K515" s="19"/>
     </row>
     <row r="516" ht="15.2" spans="7:11">
-      <c r="G516" s="12"/>
-      <c r="J516" s="15"/>
-      <c r="K516" s="16"/>
+      <c r="G516" s="15"/>
+      <c r="J516" s="18"/>
+      <c r="K516" s="19"/>
     </row>
     <row r="517" ht="15.2" spans="7:11">
-      <c r="G517" s="12"/>
-      <c r="J517" s="15"/>
-      <c r="K517" s="16"/>
+      <c r="G517" s="15"/>
+      <c r="J517" s="18"/>
+      <c r="K517" s="19"/>
     </row>
     <row r="518" ht="15.2" spans="7:11">
-      <c r="G518" s="12"/>
-      <c r="J518" s="15"/>
-      <c r="K518" s="16"/>
+      <c r="G518" s="15"/>
+      <c r="J518" s="18"/>
+      <c r="K518" s="19"/>
     </row>
     <row r="519" ht="15.2" spans="7:11">
-      <c r="G519" s="12"/>
-      <c r="J519" s="15"/>
-      <c r="K519" s="16"/>
+      <c r="G519" s="15"/>
+      <c r="J519" s="18"/>
+      <c r="K519" s="19"/>
     </row>
     <row r="520" ht="15.2" spans="7:11">
-      <c r="G520" s="12"/>
-      <c r="J520" s="15"/>
-      <c r="K520" s="16"/>
+      <c r="G520" s="15"/>
+      <c r="J520" s="18"/>
+      <c r="K520" s="19"/>
     </row>
     <row r="521" ht="15.2" spans="7:11">
-      <c r="G521" s="12"/>
-      <c r="J521" s="15"/>
-      <c r="K521" s="16"/>
+      <c r="G521" s="15"/>
+      <c r="J521" s="18"/>
+      <c r="K521" s="19"/>
     </row>
     <row r="522" ht="15.2" spans="7:11">
-      <c r="G522" s="12"/>
-      <c r="J522" s="15"/>
-      <c r="K522" s="16"/>
+      <c r="G522" s="15"/>
+      <c r="J522" s="18"/>
+      <c r="K522" s="19"/>
     </row>
     <row r="523" ht="15.2" spans="7:11">
-      <c r="G523" s="12"/>
-      <c r="J523" s="15"/>
-      <c r="K523" s="16"/>
+      <c r="G523" s="15"/>
+      <c r="J523" s="18"/>
+      <c r="K523" s="19"/>
     </row>
     <row r="524" ht="15.2" spans="7:11">
-      <c r="G524" s="12"/>
-      <c r="J524" s="15"/>
-      <c r="K524" s="16"/>
+      <c r="G524" s="15"/>
+      <c r="J524" s="18"/>
+      <c r="K524" s="19"/>
     </row>
     <row r="525" ht="15.2" spans="7:11">
-      <c r="G525" s="12"/>
-      <c r="J525" s="15"/>
-      <c r="K525" s="16"/>
+      <c r="G525" s="15"/>
+      <c r="J525" s="18"/>
+      <c r="K525" s="19"/>
     </row>
     <row r="526" ht="15.2" spans="7:11">
-      <c r="G526" s="12"/>
-      <c r="J526" s="15"/>
-      <c r="K526" s="16"/>
+      <c r="G526" s="15"/>
+      <c r="J526" s="18"/>
+      <c r="K526" s="19"/>
     </row>
     <row r="527" ht="15.2" spans="7:11">
-      <c r="G527" s="12"/>
-      <c r="J527" s="15"/>
-      <c r="K527" s="16"/>
+      <c r="G527" s="15"/>
+      <c r="J527" s="18"/>
+      <c r="K527" s="19"/>
     </row>
     <row r="528" ht="15.2" spans="7:11">
-      <c r="G528" s="12"/>
-      <c r="J528" s="15"/>
-      <c r="K528" s="16"/>
+      <c r="G528" s="15"/>
+      <c r="J528" s="18"/>
+      <c r="K528" s="19"/>
     </row>
     <row r="529" ht="15.2" spans="7:11">
-      <c r="G529" s="12"/>
-      <c r="J529" s="15"/>
-      <c r="K529" s="16"/>
+      <c r="G529" s="15"/>
+      <c r="J529" s="18"/>
+      <c r="K529" s="19"/>
     </row>
     <row r="530" ht="15.2" spans="7:11">
-      <c r="G530" s="12"/>
-      <c r="J530" s="15"/>
-      <c r="K530" s="16"/>
+      <c r="G530" s="15"/>
+      <c r="J530" s="18"/>
+      <c r="K530" s="19"/>
     </row>
     <row r="531" ht="15.2" spans="7:11">
-      <c r="G531" s="12"/>
-      <c r="J531" s="15"/>
-      <c r="K531" s="16"/>
+      <c r="G531" s="15"/>
+      <c r="J531" s="18"/>
+      <c r="K531" s="19"/>
     </row>
     <row r="532" ht="15.2" spans="7:11">
-      <c r="G532" s="12"/>
-      <c r="J532" s="15"/>
-      <c r="K532" s="16"/>
+      <c r="G532" s="15"/>
+      <c r="J532" s="18"/>
+      <c r="K532" s="19"/>
     </row>
     <row r="533" ht="15.2" spans="7:11">
-      <c r="G533" s="12"/>
-      <c r="J533" s="15"/>
-      <c r="K533" s="16"/>
+      <c r="G533" s="15"/>
+      <c r="J533" s="18"/>
+      <c r="K533" s="19"/>
     </row>
     <row r="534" ht="15.2" spans="7:11">
-      <c r="G534" s="12"/>
-      <c r="J534" s="15"/>
-      <c r="K534" s="16"/>
+      <c r="G534" s="15"/>
+      <c r="J534" s="18"/>
+      <c r="K534" s="19"/>
     </row>
     <row r="535" ht="15.2" spans="7:11">
-      <c r="G535" s="12"/>
-      <c r="J535" s="15"/>
-      <c r="K535" s="16"/>
+      <c r="G535" s="15"/>
+      <c r="J535" s="18"/>
+      <c r="K535" s="19"/>
     </row>
     <row r="536" ht="15.2" spans="7:11">
-      <c r="G536" s="12"/>
-      <c r="J536" s="15"/>
-      <c r="K536" s="16"/>
+      <c r="G536" s="15"/>
+      <c r="J536" s="18"/>
+      <c r="K536" s="19"/>
     </row>
     <row r="537" ht="15.2" spans="7:11">
-      <c r="G537" s="12"/>
-      <c r="J537" s="15"/>
-      <c r="K537" s="16"/>
+      <c r="G537" s="15"/>
+      <c r="J537" s="18"/>
+      <c r="K537" s="19"/>
     </row>
     <row r="538" ht="15.2" spans="7:11">
-      <c r="G538" s="12"/>
-      <c r="J538" s="15"/>
-      <c r="K538" s="16"/>
+      <c r="G538" s="15"/>
+      <c r="J538" s="18"/>
+      <c r="K538" s="19"/>
     </row>
     <row r="539" ht="15.2" spans="7:11">
-      <c r="G539" s="12"/>
-      <c r="J539" s="15"/>
-      <c r="K539" s="16"/>
+      <c r="G539" s="15"/>
+      <c r="J539" s="18"/>
+      <c r="K539" s="19"/>
     </row>
     <row r="540" ht="15.2" spans="7:11">
-      <c r="G540" s="12"/>
-      <c r="J540" s="15"/>
-      <c r="K540" s="16"/>
+      <c r="G540" s="15"/>
+      <c r="J540" s="18"/>
+      <c r="K540" s="19"/>
     </row>
     <row r="541" ht="15.2" spans="7:11">
-      <c r="G541" s="12"/>
-      <c r="J541" s="15"/>
-      <c r="K541" s="16"/>
+      <c r="G541" s="15"/>
+      <c r="J541" s="18"/>
+      <c r="K541" s="19"/>
     </row>
     <row r="542" ht="15.2" spans="7:11">
-      <c r="G542" s="12"/>
-      <c r="J542" s="15"/>
-      <c r="K542" s="16"/>
+      <c r="G542" s="15"/>
+      <c r="J542" s="18"/>
+      <c r="K542" s="19"/>
     </row>
     <row r="543" ht="15.2" spans="7:11">
-      <c r="G543" s="12"/>
-      <c r="J543" s="15"/>
-      <c r="K543" s="16"/>
+      <c r="G543" s="15"/>
+      <c r="J543" s="18"/>
+      <c r="K543" s="19"/>
     </row>
     <row r="544" ht="15.2" spans="7:11">
-      <c r="G544" s="12"/>
-      <c r="J544" s="15"/>
-      <c r="K544" s="16"/>
+      <c r="G544" s="15"/>
+      <c r="J544" s="18"/>
+      <c r="K544" s="19"/>
     </row>
     <row r="545" ht="15.2" spans="7:11">
-      <c r="G545" s="12"/>
-      <c r="J545" s="15"/>
-      <c r="K545" s="16"/>
+      <c r="G545" s="15"/>
+      <c r="J545" s="18"/>
+      <c r="K545" s="19"/>
     </row>
     <row r="546" ht="15.2" spans="7:11">
-      <c r="G546" s="12"/>
-      <c r="J546" s="15"/>
-      <c r="K546" s="16"/>
+      <c r="G546" s="15"/>
+      <c r="J546" s="18"/>
+      <c r="K546" s="19"/>
     </row>
     <row r="547" ht="15.2" spans="7:11">
-      <c r="G547" s="12"/>
-      <c r="J547" s="15"/>
-      <c r="K547" s="16"/>
+      <c r="G547" s="15"/>
+      <c r="J547" s="18"/>
+      <c r="K547" s="19"/>
     </row>
     <row r="548" ht="15.2" spans="7:11">
-      <c r="G548" s="12"/>
-      <c r="J548" s="15"/>
-      <c r="K548" s="16"/>
+      <c r="G548" s="15"/>
+      <c r="J548" s="18"/>
+      <c r="K548" s="19"/>
     </row>
     <row r="549" ht="15.2" spans="7:11">
-      <c r="G549" s="12"/>
-      <c r="J549" s="15"/>
-      <c r="K549" s="16"/>
+      <c r="G549" s="15"/>
+      <c r="J549" s="18"/>
+      <c r="K549" s="19"/>
     </row>
     <row r="550" ht="15.2" spans="7:11">
-      <c r="G550" s="12"/>
-      <c r="J550" s="15"/>
-      <c r="K550" s="16"/>
+      <c r="G550" s="15"/>
+      <c r="J550" s="18"/>
+      <c r="K550" s="19"/>
     </row>
     <row r="551" ht="15.2" spans="7:11">
-      <c r="G551" s="12"/>
-      <c r="J551" s="15"/>
-      <c r="K551" s="16"/>
+      <c r="G551" s="15"/>
+      <c r="J551" s="18"/>
+      <c r="K551" s="19"/>
     </row>
     <row r="552" ht="15.2" spans="7:11">
-      <c r="G552" s="12"/>
-      <c r="J552" s="15"/>
-      <c r="K552" s="16"/>
+      <c r="G552" s="15"/>
+      <c r="J552" s="18"/>
+      <c r="K552" s="19"/>
     </row>
     <row r="553" ht="15.2" spans="7:11">
-      <c r="G553" s="12"/>
-      <c r="J553" s="15"/>
-      <c r="K553" s="16"/>
+      <c r="G553" s="15"/>
+      <c r="J553" s="18"/>
+      <c r="K553" s="19"/>
     </row>
     <row r="554" ht="15.2" spans="7:11">
-      <c r="G554" s="12"/>
-      <c r="J554" s="15"/>
-      <c r="K554" s="16"/>
+      <c r="G554" s="15"/>
+      <c r="J554" s="18"/>
+      <c r="K554" s="19"/>
     </row>
     <row r="555" ht="15.2" spans="7:11">
-      <c r="G555" s="12"/>
-      <c r="J555" s="15"/>
-      <c r="K555" s="16"/>
+      <c r="G555" s="15"/>
+      <c r="J555" s="18"/>
+      <c r="K555" s="19"/>
     </row>
     <row r="556" ht="15.2" spans="7:11">
-      <c r="G556" s="12"/>
-      <c r="J556" s="15"/>
-      <c r="K556" s="16"/>
+      <c r="G556" s="15"/>
+      <c r="J556" s="18"/>
+      <c r="K556" s="19"/>
     </row>
     <row r="557" ht="15.2" spans="7:11">
-      <c r="G557" s="12"/>
-      <c r="J557" s="15"/>
-      <c r="K557" s="16"/>
+      <c r="G557" s="15"/>
+      <c r="J557" s="18"/>
+      <c r="K557" s="19"/>
     </row>
     <row r="558" ht="15.2" spans="7:11">
-      <c r="G558" s="12"/>
-      <c r="J558" s="15"/>
-      <c r="K558" s="16"/>
+      <c r="G558" s="15"/>
+      <c r="J558" s="18"/>
+      <c r="K558" s="19"/>
     </row>
     <row r="559" ht="15.2" spans="7:11">
-      <c r="G559" s="12"/>
-      <c r="J559" s="15"/>
-      <c r="K559" s="16"/>
+      <c r="G559" s="15"/>
+      <c r="J559" s="18"/>
+      <c r="K559" s="19"/>
     </row>
     <row r="560" ht="15.2" spans="7:11">
-      <c r="G560" s="12"/>
-      <c r="J560" s="15"/>
-      <c r="K560" s="16"/>
+      <c r="G560" s="15"/>
+      <c r="J560" s="18"/>
+      <c r="K560" s="19"/>
     </row>
     <row r="561" ht="15.2" spans="7:11">
-      <c r="G561" s="12"/>
-      <c r="J561" s="15"/>
-      <c r="K561" s="16"/>
+      <c r="G561" s="15"/>
+      <c r="J561" s="18"/>
+      <c r="K561" s="19"/>
     </row>
     <row r="562" ht="15.2" spans="7:11">
-      <c r="G562" s="12"/>
-      <c r="J562" s="15"/>
-      <c r="K562" s="16"/>
+      <c r="G562" s="15"/>
+      <c r="J562" s="18"/>
+      <c r="K562" s="19"/>
     </row>
     <row r="563" ht="15.2" spans="7:11">
-      <c r="G563" s="12"/>
-      <c r="J563" s="15"/>
-      <c r="K563" s="16"/>
+      <c r="G563" s="15"/>
+      <c r="J563" s="18"/>
+      <c r="K563" s="19"/>
     </row>
     <row r="564" ht="15.2" spans="7:11">
-      <c r="G564" s="12"/>
-      <c r="J564" s="15"/>
-      <c r="K564" s="16"/>
+      <c r="G564" s="15"/>
+      <c r="J564" s="18"/>
+      <c r="K564" s="19"/>
     </row>
     <row r="565" ht="15.2" spans="7:11">
-      <c r="G565" s="12"/>
-      <c r="J565" s="15"/>
-      <c r="K565" s="16"/>
+      <c r="G565" s="15"/>
+      <c r="J565" s="18"/>
+      <c r="K565" s="19"/>
     </row>
     <row r="566" ht="15.2" spans="7:11">
-      <c r="G566" s="12"/>
-      <c r="J566" s="15"/>
-      <c r="K566" s="16"/>
+      <c r="G566" s="15"/>
+      <c r="J566" s="18"/>
+      <c r="K566" s="19"/>
     </row>
     <row r="567" ht="15.2" spans="7:11">
-      <c r="G567" s="12"/>
-      <c r="J567" s="15"/>
-      <c r="K567" s="16"/>
+      <c r="G567" s="15"/>
+      <c r="J567" s="18"/>
+      <c r="K567" s="19"/>
     </row>
     <row r="568" ht="15.2" spans="7:11">
-      <c r="G568" s="12"/>
-      <c r="J568" s="15"/>
-      <c r="K568" s="16"/>
+      <c r="G568" s="15"/>
+      <c r="J568" s="18"/>
+      <c r="K568" s="19"/>
     </row>
     <row r="569" ht="15.2" spans="7:11">
-      <c r="G569" s="12"/>
-      <c r="J569" s="15"/>
-      <c r="K569" s="16"/>
+      <c r="G569" s="15"/>
+      <c r="J569" s="18"/>
+      <c r="K569" s="19"/>
     </row>
     <row r="570" ht="15.2" spans="7:11">
-      <c r="G570" s="12"/>
-      <c r="J570" s="15"/>
-      <c r="K570" s="16"/>
+      <c r="G570" s="15"/>
+      <c r="J570" s="18"/>
+      <c r="K570" s="19"/>
     </row>
     <row r="571" ht="15.2" spans="7:11">
-      <c r="G571" s="12"/>
-      <c r="J571" s="15"/>
-      <c r="K571" s="16"/>
+      <c r="G571" s="15"/>
+      <c r="J571" s="18"/>
+      <c r="K571" s="19"/>
     </row>
     <row r="572" ht="15.2" spans="7:11">
-      <c r="G572" s="12"/>
-      <c r="J572" s="15"/>
-      <c r="K572" s="16"/>
+      <c r="G572" s="15"/>
+      <c r="J572" s="18"/>
+      <c r="K572" s="19"/>
     </row>
     <row r="573" ht="15.2" spans="7:11">
-      <c r="G573" s="12"/>
-      <c r="J573" s="15"/>
-      <c r="K573" s="16"/>
+      <c r="G573" s="15"/>
+      <c r="J573" s="18"/>
+      <c r="K573" s="19"/>
     </row>
     <row r="574" ht="15.2" spans="7:11">
-      <c r="G574" s="12"/>
-      <c r="J574" s="15"/>
-      <c r="K574" s="16"/>
+      <c r="G574" s="15"/>
+      <c r="J574" s="18"/>
+      <c r="K574" s="19"/>
     </row>
     <row r="575" ht="15.2" spans="7:11">
-      <c r="G575" s="12"/>
-      <c r="J575" s="15"/>
-      <c r="K575" s="16"/>
+      <c r="G575" s="15"/>
+      <c r="J575" s="18"/>
+      <c r="K575" s="19"/>
     </row>
     <row r="576" ht="15.2" spans="7:11">
-      <c r="G576" s="12"/>
-      <c r="J576" s="15"/>
-      <c r="K576" s="16"/>
+      <c r="G576" s="15"/>
+      <c r="J576" s="18"/>
+      <c r="K576" s="19"/>
     </row>
     <row r="577" ht="15.2" spans="7:11">
-      <c r="G577" s="12"/>
-      <c r="J577" s="15"/>
-      <c r="K577" s="16"/>
+      <c r="G577" s="15"/>
+      <c r="J577" s="18"/>
+      <c r="K577" s="19"/>
     </row>
     <row r="578" ht="15.2" spans="7:11">
-      <c r="G578" s="12"/>
-      <c r="J578" s="15"/>
-      <c r="K578" s="16"/>
+      <c r="G578" s="15"/>
+      <c r="J578" s="18"/>
+      <c r="K578" s="19"/>
     </row>
     <row r="579" ht="15.2" spans="7:11">
-      <c r="G579" s="12"/>
-      <c r="J579" s="15"/>
-      <c r="K579" s="16"/>
+      <c r="G579" s="15"/>
+      <c r="J579" s="18"/>
+      <c r="K579" s="19"/>
     </row>
     <row r="580" ht="15.2" spans="7:11">
-      <c r="G580" s="12"/>
-      <c r="J580" s="15"/>
-      <c r="K580" s="16"/>
+      <c r="G580" s="15"/>
+      <c r="J580" s="18"/>
+      <c r="K580" s="19"/>
     </row>
     <row r="581" ht="15.2" spans="7:11">
-      <c r="G581" s="12"/>
-      <c r="J581" s="15"/>
-      <c r="K581" s="16"/>
+      <c r="G581" s="15"/>
+      <c r="J581" s="18"/>
+      <c r="K581" s="19"/>
     </row>
     <row r="582" ht="15.2" spans="7:11">
-      <c r="G582" s="12"/>
-      <c r="J582" s="15"/>
-      <c r="K582" s="16"/>
+      <c r="G582" s="15"/>
+      <c r="J582" s="18"/>
+      <c r="K582" s="19"/>
     </row>
     <row r="583" ht="15.2" spans="7:11">
-      <c r="G583" s="12"/>
-      <c r="J583" s="15"/>
-      <c r="K583" s="16"/>
+      <c r="G583" s="15"/>
+      <c r="J583" s="18"/>
+      <c r="K583" s="19"/>
     </row>
     <row r="584" ht="15.2" spans="7:11">
-      <c r="G584" s="12"/>
-      <c r="J584" s="15"/>
-      <c r="K584" s="16"/>
+      <c r="G584" s="15"/>
+      <c r="J584" s="18"/>
+      <c r="K584" s="19"/>
     </row>
     <row r="585" ht="15.2" spans="7:11">
-      <c r="G585" s="12"/>
-      <c r="J585" s="15"/>
-      <c r="K585" s="16"/>
+      <c r="G585" s="15"/>
+      <c r="J585" s="18"/>
+      <c r="K585" s="19"/>
     </row>
     <row r="586" ht="15.2" spans="7:11">
-      <c r="G586" s="12"/>
-      <c r="J586" s="15"/>
-      <c r="K586" s="16"/>
+      <c r="G586" s="15"/>
+      <c r="J586" s="18"/>
+      <c r="K586" s="19"/>
     </row>
     <row r="587" ht="15.2" spans="7:11">
-      <c r="G587" s="12"/>
-      <c r="J587" s="15"/>
-      <c r="K587" s="16"/>
+      <c r="G587" s="15"/>
+      <c r="J587" s="18"/>
+      <c r="K587" s="19"/>
     </row>
     <row r="588" ht="15.2" spans="7:11">
-      <c r="G588" s="12"/>
-      <c r="J588" s="15"/>
-      <c r="K588" s="16"/>
+      <c r="G588" s="15"/>
+      <c r="J588" s="18"/>
+      <c r="K588" s="19"/>
     </row>
     <row r="589" ht="15.2" spans="7:11">
-      <c r="G589" s="12"/>
-      <c r="J589" s="15"/>
-      <c r="K589" s="16"/>
+      <c r="G589" s="15"/>
+      <c r="J589" s="18"/>
+      <c r="K589" s="19"/>
     </row>
     <row r="590" ht="15.2" spans="7:11">
-      <c r="G590" s="12"/>
-      <c r="J590" s="15"/>
-      <c r="K590" s="16"/>
+      <c r="G590" s="15"/>
+      <c r="J590" s="18"/>
+      <c r="K590" s="19"/>
     </row>
     <row r="591" ht="15.2" spans="7:11">
-      <c r="G591" s="12"/>
-      <c r="J591" s="15"/>
-      <c r="K591" s="16"/>
+      <c r="G591" s="15"/>
+      <c r="J591" s="18"/>
+      <c r="K591" s="19"/>
     </row>
     <row r="592" ht="15.2" spans="7:11">
-      <c r="G592" s="12"/>
-      <c r="J592" s="15"/>
-      <c r="K592" s="16"/>
+      <c r="G592" s="15"/>
+      <c r="J592" s="18"/>
+      <c r="K592" s="19"/>
     </row>
     <row r="593" ht="15.2" spans="7:11">
-      <c r="G593" s="12"/>
-      <c r="J593" s="15"/>
-      <c r="K593" s="16"/>
+      <c r="G593" s="15"/>
+      <c r="J593" s="18"/>
+      <c r="K593" s="19"/>
     </row>
     <row r="594" ht="15.2" spans="7:11">
-      <c r="G594" s="12"/>
-      <c r="J594" s="15"/>
-      <c r="K594" s="16"/>
+      <c r="G594" s="15"/>
+      <c r="J594" s="18"/>
+      <c r="K594" s="19"/>
     </row>
     <row r="595" ht="15.2" spans="7:11">
-      <c r="G595" s="12"/>
-      <c r="J595" s="15"/>
-      <c r="K595" s="16"/>
+      <c r="G595" s="15"/>
+      <c r="J595" s="18"/>
+      <c r="K595" s="19"/>
     </row>
     <row r="596" ht="15.2" spans="7:11">
-      <c r="G596" s="12"/>
-      <c r="J596" s="15"/>
-      <c r="K596" s="16"/>
+      <c r="G596" s="15"/>
+      <c r="J596" s="18"/>
+      <c r="K596" s="19"/>
     </row>
     <row r="597" ht="15.2" spans="7:11">
-      <c r="G597" s="12"/>
-      <c r="J597" s="15"/>
-      <c r="K597" s="16"/>
+      <c r="G597" s="15"/>
+      <c r="J597" s="18"/>
+      <c r="K597" s="19"/>
     </row>
     <row r="598" ht="15.2" spans="7:11">
-      <c r="G598" s="12"/>
-      <c r="J598" s="15"/>
-      <c r="K598" s="16"/>
+      <c r="G598" s="15"/>
+      <c r="J598" s="18"/>
+      <c r="K598" s="19"/>
     </row>
     <row r="599" ht="15.2" spans="7:11">
-      <c r="G599" s="12"/>
-      <c r="J599" s="15"/>
-      <c r="K599" s="16"/>
+      <c r="G599" s="15"/>
+      <c r="J599" s="18"/>
+      <c r="K599" s="19"/>
     </row>
     <row r="600" ht="15.2" spans="7:11">
-      <c r="G600" s="12"/>
-      <c r="J600" s="15"/>
-      <c r="K600" s="16"/>
+      <c r="G600" s="15"/>
+      <c r="J600" s="18"/>
+      <c r="K600" s="19"/>
     </row>
     <row r="601" ht="15.2" spans="7:11">
-      <c r="G601" s="12"/>
-      <c r="J601" s="15"/>
-      <c r="K601" s="16"/>
+      <c r="G601" s="15"/>
+      <c r="J601" s="18"/>
+      <c r="K601" s="19"/>
     </row>
     <row r="602" ht="15.2" spans="7:11">
-      <c r="G602" s="12"/>
-      <c r="J602" s="15"/>
-      <c r="K602" s="16"/>
+      <c r="G602" s="15"/>
+      <c r="J602" s="18"/>
+      <c r="K602" s="19"/>
     </row>
     <row r="603" ht="15.2" spans="7:11">
-      <c r="G603" s="12"/>
-      <c r="J603" s="15"/>
-      <c r="K603" s="16"/>
+      <c r="G603" s="15"/>
+      <c r="J603" s="18"/>
+      <c r="K603" s="19"/>
     </row>
     <row r="604" ht="15.2" spans="7:11">
-      <c r="G604" s="12"/>
-      <c r="J604" s="15"/>
-      <c r="K604" s="16"/>
+      <c r="G604" s="15"/>
+      <c r="J604" s="18"/>
+      <c r="K604" s="19"/>
     </row>
     <row r="605" ht="15.2" spans="7:11">
-      <c r="G605" s="12"/>
-      <c r="J605" s="15"/>
-      <c r="K605" s="16"/>
+      <c r="G605" s="15"/>
+      <c r="J605" s="18"/>
+      <c r="K605" s="19"/>
     </row>
     <row r="606" ht="15.2" spans="7:11">
-      <c r="G606" s="12"/>
-      <c r="J606" s="15"/>
-      <c r="K606" s="16"/>
+      <c r="G606" s="15"/>
+      <c r="J606" s="18"/>
+      <c r="K606" s="19"/>
     </row>
     <row r="607" ht="15.2" spans="7:11">
-      <c r="G607" s="12"/>
-      <c r="J607" s="15"/>
-      <c r="K607" s="16"/>
+      <c r="G607" s="15"/>
+      <c r="J607" s="18"/>
+      <c r="K607" s="19"/>
     </row>
     <row r="608" ht="15.2" spans="7:11">
-      <c r="G608" s="12"/>
-      <c r="J608" s="15"/>
-      <c r="K608" s="16"/>
+      <c r="G608" s="15"/>
+      <c r="J608" s="18"/>
+      <c r="K608" s="19"/>
     </row>
     <row r="609" ht="15.2" spans="7:11">
-      <c r="G609" s="12"/>
-      <c r="J609" s="15"/>
-      <c r="K609" s="16"/>
+      <c r="G609" s="15"/>
+      <c r="J609" s="18"/>
+      <c r="K609" s="19"/>
     </row>
     <row r="610" ht="15.2" spans="7:11">
-      <c r="G610" s="12"/>
-      <c r="J610" s="15"/>
-      <c r="K610" s="16"/>
+      <c r="G610" s="15"/>
+      <c r="J610" s="18"/>
+      <c r="K610" s="19"/>
     </row>
     <row r="611" ht="15.2" spans="7:11">
-      <c r="G611" s="12"/>
-      <c r="J611" s="15"/>
-      <c r="K611" s="16"/>
+      <c r="G611" s="15"/>
+      <c r="J611" s="18"/>
+      <c r="K611" s="19"/>
     </row>
     <row r="612" ht="15.2" spans="7:11">
-      <c r="G612" s="12"/>
-      <c r="J612" s="15"/>
-      <c r="K612" s="16"/>
+      <c r="G612" s="15"/>
+      <c r="J612" s="18"/>
+      <c r="K612" s="19"/>
     </row>
     <row r="613" ht="15.2" spans="7:11">
-      <c r="G613" s="12"/>
-      <c r="J613" s="15"/>
-      <c r="K613" s="16"/>
+      <c r="G613" s="15"/>
+      <c r="J613" s="18"/>
+      <c r="K613" s="19"/>
     </row>
     <row r="614" ht="15.2" spans="7:11">
-      <c r="G614" s="12"/>
-      <c r="J614" s="15"/>
-      <c r="K614" s="16"/>
+      <c r="G614" s="15"/>
+      <c r="J614" s="18"/>
+      <c r="K614" s="19"/>
     </row>
     <row r="615" ht="15.2" spans="7:11">
-      <c r="G615" s="12"/>
-      <c r="J615" s="15"/>
-      <c r="K615" s="16"/>
+      <c r="G615" s="15"/>
+      <c r="J615" s="18"/>
+      <c r="K615" s="19"/>
     </row>
     <row r="616" ht="15.2" spans="7:11">
-      <c r="G616" s="12"/>
-      <c r="J616" s="15"/>
-      <c r="K616" s="16"/>
+      <c r="G616" s="15"/>
+      <c r="J616" s="18"/>
+      <c r="K616" s="19"/>
     </row>
     <row r="617" ht="15.2" spans="7:11">
-      <c r="G617" s="12"/>
-      <c r="J617" s="15"/>
-      <c r="K617" s="16"/>
+      <c r="G617" s="15"/>
+      <c r="J617" s="18"/>
+      <c r="K617" s="19"/>
     </row>
     <row r="618" ht="15.2" spans="7:11">
-      <c r="G618" s="12"/>
-      <c r="J618" s="15"/>
-      <c r="K618" s="16"/>
+      <c r="G618" s="15"/>
+      <c r="J618" s="18"/>
+      <c r="K618" s="19"/>
     </row>
     <row r="619" ht="15.2" spans="7:11">
-      <c r="G619" s="12"/>
-      <c r="J619" s="15"/>
-      <c r="K619" s="16"/>
+      <c r="G619" s="15"/>
+      <c r="J619" s="18"/>
+      <c r="K619" s="19"/>
     </row>
     <row r="620" ht="15.2" spans="7:11">
-      <c r="G620" s="12"/>
-      <c r="J620" s="15"/>
-      <c r="K620" s="16"/>
+      <c r="G620" s="15"/>
+      <c r="J620" s="18"/>
+      <c r="K620" s="19"/>
     </row>
     <row r="621" ht="15.2" spans="7:11">
-      <c r="G621" s="12"/>
-      <c r="J621" s="15"/>
-      <c r="K621" s="16"/>
+      <c r="G621" s="15"/>
+      <c r="J621" s="18"/>
+      <c r="K621" s="19"/>
     </row>
     <row r="622" ht="15.2" spans="7:11">
-      <c r="G622" s="12"/>
-      <c r="J622" s="15"/>
-      <c r="K622" s="16"/>
+      <c r="G622" s="15"/>
+      <c r="J622" s="18"/>
+      <c r="K622" s="19"/>
     </row>
     <row r="623" ht="15.2" spans="7:11">
-      <c r="G623" s="12"/>
-      <c r="J623" s="15"/>
-      <c r="K623" s="16"/>
+      <c r="G623" s="15"/>
+      <c r="J623" s="18"/>
+      <c r="K623" s="19"/>
     </row>
     <row r="624" ht="15.2" spans="7:11">
-      <c r="G624" s="12"/>
-      <c r="J624" s="15"/>
-      <c r="K624" s="16"/>
+      <c r="G624" s="15"/>
+      <c r="J624" s="18"/>
+      <c r="K624" s="19"/>
     </row>
     <row r="625" ht="15.2" spans="7:11">
-      <c r="G625" s="12"/>
-      <c r="J625" s="15"/>
-      <c r="K625" s="16"/>
+      <c r="G625" s="15"/>
+      <c r="J625" s="18"/>
+      <c r="K625" s="19"/>
     </row>
     <row r="626" ht="15.2" spans="7:11">
-      <c r="G626" s="12"/>
-      <c r="J626" s="15"/>
-      <c r="K626" s="16"/>
+      <c r="G626" s="15"/>
+      <c r="J626" s="18"/>
+      <c r="K626" s="19"/>
     </row>
     <row r="627" ht="15.2" spans="7:11">
-      <c r="G627" s="12"/>
-      <c r="J627" s="15"/>
-      <c r="K627" s="16"/>
+      <c r="G627" s="15"/>
+      <c r="J627" s="18"/>
+      <c r="K627" s="19"/>
     </row>
     <row r="628" ht="15.2" spans="7:11">
-      <c r="G628" s="12"/>
-      <c r="J628" s="15"/>
-      <c r="K628" s="16"/>
+      <c r="G628" s="15"/>
+      <c r="J628" s="18"/>
+      <c r="K628" s="19"/>
     </row>
     <row r="629" ht="15.2" spans="7:11">
-      <c r="G629" s="12"/>
-      <c r="J629" s="15"/>
-      <c r="K629" s="16"/>
+      <c r="G629" s="15"/>
+      <c r="J629" s="18"/>
+      <c r="K629" s="19"/>
     </row>
     <row r="630" ht="15.2" spans="7:11">
-      <c r="G630" s="12"/>
-      <c r="J630" s="15"/>
-      <c r="K630" s="16"/>
+      <c r="G630" s="15"/>
+      <c r="J630" s="18"/>
+      <c r="K630" s="19"/>
     </row>
     <row r="631" ht="15.2" spans="7:11">
-      <c r="G631" s="12"/>
-      <c r="J631" s="15"/>
-      <c r="K631" s="16"/>
+      <c r="G631" s="15"/>
+      <c r="J631" s="18"/>
+      <c r="K631" s="19"/>
     </row>
     <row r="632" ht="15.2" spans="7:11">
-      <c r="G632" s="12"/>
-      <c r="J632" s="15"/>
-      <c r="K632" s="16"/>
+      <c r="G632" s="15"/>
+      <c r="J632" s="18"/>
+      <c r="K632" s="19"/>
     </row>
     <row r="633" ht="15.2" spans="7:11">
-      <c r="G633" s="12"/>
-      <c r="J633" s="15"/>
-      <c r="K633" s="16"/>
+      <c r="G633" s="15"/>
+      <c r="J633" s="18"/>
+      <c r="K633" s="19"/>
     </row>
     <row r="634" ht="15.2" spans="7:11">
-      <c r="G634" s="12"/>
-      <c r="J634" s="15"/>
-      <c r="K634" s="16"/>
+      <c r="G634" s="15"/>
+      <c r="J634" s="18"/>
+      <c r="K634" s="19"/>
     </row>
     <row r="635" ht="15.2" spans="7:11">
-      <c r="G635" s="12"/>
-      <c r="J635" s="15"/>
-      <c r="K635" s="16"/>
+      <c r="G635" s="15"/>
+      <c r="J635" s="18"/>
+      <c r="K635" s="19"/>
     </row>
     <row r="636" ht="15.2" spans="7:11">
-      <c r="G636" s="12"/>
-      <c r="J636" s="15"/>
-      <c r="K636" s="16"/>
+      <c r="G636" s="15"/>
+      <c r="J636" s="18"/>
+      <c r="K636" s="19"/>
     </row>
     <row r="637" ht="15.2" spans="7:11">
-      <c r="G637" s="12"/>
-      <c r="J637" s="15"/>
-      <c r="K637" s="16"/>
+      <c r="G637" s="15"/>
+      <c r="J637" s="18"/>
+      <c r="K637" s="19"/>
     </row>
     <row r="638" ht="15.2" spans="7:11">
-      <c r="G638" s="12"/>
-      <c r="J638" s="15"/>
-      <c r="K638" s="16"/>
+      <c r="G638" s="15"/>
+      <c r="J638" s="18"/>
+      <c r="K638" s="19"/>
     </row>
     <row r="639" ht="15.2" spans="7:11">
-      <c r="G639" s="12"/>
-      <c r="J639" s="15"/>
-      <c r="K639" s="16"/>
+      <c r="G639" s="15"/>
+      <c r="J639" s="18"/>
+      <c r="K639" s="19"/>
     </row>
     <row r="640" ht="15.2" spans="7:11">
-      <c r="G640" s="12"/>
-      <c r="J640" s="15"/>
-      <c r="K640" s="16"/>
+      <c r="G640" s="15"/>
+      <c r="J640" s="18"/>
+      <c r="K640" s="19"/>
     </row>
     <row r="641" ht="15.2" spans="7:11">
-      <c r="G641" s="12"/>
-      <c r="J641" s="15"/>
-      <c r="K641" s="16"/>
+      <c r="G641" s="15"/>
+      <c r="J641" s="18"/>
+      <c r="K641" s="19"/>
     </row>
     <row r="642" ht="15.2" spans="7:11">
-      <c r="G642" s="12"/>
-      <c r="J642" s="15"/>
-      <c r="K642" s="16"/>
+      <c r="G642" s="15"/>
+      <c r="J642" s="18"/>
+      <c r="K642" s="19"/>
     </row>
     <row r="643" ht="15.2" spans="7:11">
-      <c r="G643" s="12"/>
-      <c r="J643" s="15"/>
-      <c r="K643" s="16"/>
+      <c r="G643" s="15"/>
+      <c r="J643" s="18"/>
+      <c r="K643" s="19"/>
     </row>
     <row r="644" ht="15.2" spans="7:11">
-      <c r="G644" s="12"/>
-      <c r="J644" s="15"/>
-      <c r="K644" s="16"/>
+      <c r="G644" s="15"/>
+      <c r="J644" s="18"/>
+      <c r="K644" s="19"/>
     </row>
     <row r="645" ht="15.2" spans="7:11">
-      <c r="G645" s="12"/>
-      <c r="J645" s="15"/>
-      <c r="K645" s="16"/>
+      <c r="G645" s="15"/>
+      <c r="J645" s="18"/>
+      <c r="K645" s="19"/>
     </row>
     <row r="646" ht="15.2" spans="7:11">
-      <c r="G646" s="12"/>
-      <c r="J646" s="15"/>
-      <c r="K646" s="16"/>
+      <c r="G646" s="15"/>
+      <c r="J646" s="18"/>
+      <c r="K646" s="19"/>
     </row>
     <row r="647" ht="15.2" spans="7:11">
-      <c r="G647" s="12"/>
-      <c r="J647" s="15"/>
-      <c r="K647" s="16"/>
+      <c r="G647" s="15"/>
+      <c r="J647" s="18"/>
+      <c r="K647" s="19"/>
     </row>
     <row r="648" ht="15.2" spans="7:11">
-      <c r="G648" s="12"/>
-      <c r="J648" s="15"/>
-      <c r="K648" s="16"/>
+      <c r="G648" s="15"/>
+      <c r="J648" s="18"/>
+      <c r="K648" s="19"/>
     </row>
     <row r="649" ht="15.2" spans="7:11">
-      <c r="G649" s="12"/>
-      <c r="J649" s="15"/>
-      <c r="K649" s="16"/>
+      <c r="G649" s="15"/>
+      <c r="J649" s="18"/>
+      <c r="K649" s="19"/>
     </row>
     <row r="650" ht="15.2" spans="7:11">
-      <c r="G650" s="12"/>
-      <c r="J650" s="15"/>
-      <c r="K650" s="16"/>
+      <c r="G650" s="15"/>
+      <c r="J650" s="18"/>
+      <c r="K650" s="19"/>
     </row>
     <row r="651" ht="15.2" spans="7:11">
-      <c r="G651" s="12"/>
-      <c r="J651" s="15"/>
-      <c r="K651" s="16"/>
+      <c r="G651" s="15"/>
+      <c r="J651" s="18"/>
+      <c r="K651" s="19"/>
     </row>
     <row r="652" ht="15.2" spans="7:11">
-      <c r="G652" s="12"/>
-      <c r="J652" s="15"/>
-      <c r="K652" s="16"/>
+      <c r="G652" s="15"/>
+      <c r="J652" s="18"/>
+      <c r="K652" s="19"/>
     </row>
     <row r="653" ht="15.2" spans="7:11">
-      <c r="G653" s="12"/>
-      <c r="J653" s="15"/>
-      <c r="K653" s="16"/>
+      <c r="G653" s="15"/>
+      <c r="J653" s="18"/>
+      <c r="K653" s="19"/>
     </row>
     <row r="654" ht="15.2" spans="7:11">
-      <c r="G654" s="12"/>
-      <c r="J654" s="15"/>
-      <c r="K654" s="16"/>
+      <c r="G654" s="15"/>
+      <c r="J654" s="18"/>
+      <c r="K654" s="19"/>
     </row>
     <row r="655" ht="15.2" spans="7:11">
-      <c r="G655" s="12"/>
-      <c r="J655" s="15"/>
-      <c r="K655" s="16"/>
+      <c r="G655" s="15"/>
+      <c r="J655" s="18"/>
+      <c r="K655" s="19"/>
     </row>
     <row r="656" ht="15.2" spans="7:11">
-      <c r="G656" s="12"/>
-      <c r="J656" s="15"/>
-      <c r="K656" s="16"/>
+      <c r="G656" s="15"/>
+      <c r="J656" s="18"/>
+      <c r="K656" s="19"/>
     </row>
     <row r="657" ht="15.2" spans="7:11">
-      <c r="G657" s="12"/>
-      <c r="J657" s="15"/>
-      <c r="K657" s="16"/>
+      <c r="G657" s="15"/>
+      <c r="J657" s="18"/>
+      <c r="K657" s="19"/>
     </row>
     <row r="658" ht="15.2" spans="7:11">
-      <c r="G658" s="12"/>
-      <c r="J658" s="15"/>
-      <c r="K658" s="16"/>
+      <c r="G658" s="15"/>
+      <c r="J658" s="18"/>
+      <c r="K658" s="19"/>
     </row>
     <row r="659" ht="15.2" spans="7:11">
-      <c r="G659" s="12"/>
-      <c r="J659" s="15"/>
-      <c r="K659" s="16"/>
+      <c r="G659" s="15"/>
+      <c r="J659" s="18"/>
+      <c r="K659" s="19"/>
     </row>
     <row r="660" ht="15.2" spans="7:11">
-      <c r="G660" s="12"/>
-      <c r="J660" s="15"/>
-      <c r="K660" s="16"/>
+      <c r="G660" s="15"/>
+      <c r="J660" s="18"/>
+      <c r="K660" s="19"/>
     </row>
     <row r="661" ht="15.2" spans="7:11">
-      <c r="G661" s="12"/>
-      <c r="J661" s="15"/>
-      <c r="K661" s="16"/>
+      <c r="G661" s="15"/>
+      <c r="J661" s="18"/>
+      <c r="K661" s="19"/>
     </row>
     <row r="662" ht="15.2" spans="7:11">
-      <c r="G662" s="12"/>
-      <c r="J662" s="15"/>
-      <c r="K662" s="16"/>
+      <c r="G662" s="15"/>
+      <c r="J662" s="18"/>
+      <c r="K662" s="19"/>
     </row>
     <row r="663" ht="15.2" spans="7:11">
-      <c r="G663" s="12"/>
-      <c r="J663" s="15"/>
-      <c r="K663" s="16"/>
+      <c r="G663" s="15"/>
+      <c r="J663" s="18"/>
+      <c r="K663" s="19"/>
     </row>
     <row r="664" ht="15.2" spans="7:11">
-      <c r="G664" s="12"/>
-      <c r="J664" s="15"/>
-      <c r="K664" s="16"/>
+      <c r="G664" s="15"/>
+      <c r="J664" s="18"/>
+      <c r="K664" s="19"/>
     </row>
     <row r="665" ht="15.2" spans="7:11">
-      <c r="G665" s="12"/>
-      <c r="J665" s="15"/>
-      <c r="K665" s="16"/>
+      <c r="G665" s="15"/>
+      <c r="J665" s="18"/>
+      <c r="K665" s="19"/>
     </row>
     <row r="666" ht="15.2" spans="7:11">
-      <c r="G666" s="12"/>
-      <c r="J666" s="15"/>
-      <c r="K666" s="16"/>
+      <c r="G666" s="15"/>
+      <c r="J666" s="18"/>
+      <c r="K666" s="19"/>
     </row>
     <row r="667" ht="15.2" spans="7:11">
-      <c r="G667" s="12"/>
-      <c r="J667" s="15"/>
-      <c r="K667" s="16"/>
+      <c r="G667" s="15"/>
+      <c r="J667" s="18"/>
+      <c r="K667" s="19"/>
     </row>
     <row r="668" ht="15.2" spans="7:11">
-      <c r="G668" s="12"/>
-      <c r="J668" s="15"/>
-      <c r="K668" s="16"/>
+      <c r="G668" s="15"/>
+      <c r="J668" s="18"/>
+      <c r="K668" s="19"/>
     </row>
     <row r="669" ht="15.2" spans="7:11">
-      <c r="G669" s="12"/>
-      <c r="J669" s="15"/>
-      <c r="K669" s="16"/>
+      <c r="G669" s="15"/>
+      <c r="J669" s="18"/>
+      <c r="K669" s="19"/>
     </row>
     <row r="670" ht="15.2" spans="7:11">
-      <c r="G670" s="12"/>
-      <c r="J670" s="15"/>
-      <c r="K670" s="16"/>
+      <c r="G670" s="15"/>
+      <c r="J670" s="18"/>
+      <c r="K670" s="19"/>
     </row>
     <row r="671" ht="15.2" spans="7:11">
-      <c r="G671" s="12"/>
-      <c r="J671" s="15"/>
-      <c r="K671" s="16"/>
+      <c r="G671" s="15"/>
+      <c r="J671" s="18"/>
+      <c r="K671" s="19"/>
     </row>
     <row r="672" ht="15.2" spans="7:11">
-      <c r="G672" s="12"/>
-      <c r="J672" s="15"/>
-      <c r="K672" s="16"/>
+      <c r="G672" s="15"/>
+      <c r="J672" s="18"/>
+      <c r="K672" s="19"/>
     </row>
     <row r="673" ht="15.2" spans="7:11">
-      <c r="G673" s="12"/>
-      <c r="J673" s="15"/>
-      <c r="K673" s="16"/>
+      <c r="G673" s="15"/>
+      <c r="J673" s="18"/>
+      <c r="K673" s="19"/>
     </row>
     <row r="674" ht="15.2" spans="7:11">
-      <c r="G674" s="12"/>
-      <c r="J674" s="15"/>
-      <c r="K674" s="16"/>
+      <c r="G674" s="15"/>
+      <c r="J674" s="18"/>
+      <c r="K674" s="19"/>
     </row>
     <row r="675" ht="15.2" spans="7:11">
-      <c r="G675" s="12"/>
-      <c r="J675" s="15"/>
-      <c r="K675" s="16"/>
+      <c r="G675" s="15"/>
+      <c r="J675" s="18"/>
+      <c r="K675" s="19"/>
     </row>
     <row r="676" ht="15.2" spans="7:11">
-      <c r="G676" s="12"/>
-      <c r="J676" s="15"/>
-      <c r="K676" s="16"/>
+      <c r="G676" s="15"/>
+      <c r="J676" s="18"/>
+      <c r="K676" s="19"/>
     </row>
     <row r="677" ht="15.2" spans="7:11">
-      <c r="G677" s="12"/>
-      <c r="J677" s="15"/>
-      <c r="K677" s="16"/>
+      <c r="G677" s="15"/>
+      <c r="J677" s="18"/>
+      <c r="K677" s="19"/>
     </row>
     <row r="678" ht="15.2" spans="7:11">
-      <c r="G678" s="12"/>
-      <c r="J678" s="15"/>
-      <c r="K678" s="16"/>
+      <c r="G678" s="15"/>
+      <c r="J678" s="18"/>
+      <c r="K678" s="19"/>
     </row>
     <row r="679" ht="15.2" spans="7:11">
-      <c r="G679" s="12"/>
-      <c r="J679" s="15"/>
-      <c r="K679" s="16"/>
+      <c r="G679" s="15"/>
+      <c r="J679" s="18"/>
+      <c r="K679" s="19"/>
     </row>
     <row r="680" ht="15.2" spans="7:11">
-      <c r="G680" s="12"/>
-      <c r="J680" s="15"/>
-      <c r="K680" s="16"/>
+      <c r="G680" s="15"/>
+      <c r="J680" s="18"/>
+      <c r="K680" s="19"/>
     </row>
     <row r="681" ht="15.2" spans="7:11">
-      <c r="G681" s="12"/>
-      <c r="J681" s="15"/>
-      <c r="K681" s="16"/>
+      <c r="G681" s="15"/>
+      <c r="J681" s="18"/>
+      <c r="K681" s="19"/>
     </row>
     <row r="682" ht="15.2" spans="7:11">
-      <c r="G682" s="12"/>
-      <c r="J682" s="15"/>
-      <c r="K682" s="16"/>
+      <c r="G682" s="15"/>
+      <c r="J682" s="18"/>
+      <c r="K682" s="19"/>
     </row>
     <row r="683" ht="15.2" spans="7:11">
-      <c r="G683" s="12"/>
-      <c r="J683" s="15"/>
-      <c r="K683" s="16"/>
+      <c r="G683" s="15"/>
+      <c r="J683" s="18"/>
+      <c r="K683" s="19"/>
     </row>
     <row r="684" ht="15.2" spans="7:11">
-      <c r="G684" s="12"/>
-      <c r="J684" s="15"/>
-      <c r="K684" s="16"/>
+      <c r="G684" s="15"/>
+      <c r="J684" s="18"/>
+      <c r="K684" s="19"/>
     </row>
     <row r="685" ht="15.2" spans="7:11">
-      <c r="G685" s="12"/>
-      <c r="J685" s="15"/>
-      <c r="K685" s="16"/>
+      <c r="G685" s="15"/>
+      <c r="J685" s="18"/>
+      <c r="K685" s="19"/>
     </row>
     <row r="686" ht="15.2" spans="7:11">
-      <c r="G686" s="12"/>
-      <c r="J686" s="15"/>
-      <c r="K686" s="16"/>
+      <c r="G686" s="15"/>
+      <c r="J686" s="18"/>
+      <c r="K686" s="19"/>
     </row>
     <row r="687" ht="15.2" spans="7:11">
-      <c r="G687" s="12"/>
-      <c r="J687" s="15"/>
-      <c r="K687" s="16"/>
+      <c r="G687" s="15"/>
+      <c r="J687" s="18"/>
+      <c r="K687" s="19"/>
     </row>
     <row r="688" ht="15.2" spans="7:11">
-      <c r="G688" s="12"/>
-      <c r="J688" s="15"/>
-      <c r="K688" s="16"/>
+      <c r="G688" s="15"/>
+      <c r="J688" s="18"/>
+      <c r="K688" s="19"/>
     </row>
     <row r="689" ht="15.2" spans="7:11">
-      <c r="G689" s="12"/>
-      <c r="J689" s="15"/>
-      <c r="K689" s="16"/>
+      <c r="G689" s="15"/>
+      <c r="J689" s="18"/>
+      <c r="K689" s="19"/>
     </row>
     <row r="690" ht="15.2" spans="7:11">
-      <c r="G690" s="12"/>
-      <c r="J690" s="15"/>
-      <c r="K690" s="16"/>
+      <c r="G690" s="15"/>
+      <c r="J690" s="18"/>
+      <c r="K690" s="19"/>
     </row>
     <row r="691" ht="15.2" spans="7:11">
-      <c r="G691" s="12"/>
-      <c r="J691" s="15"/>
-      <c r="K691" s="16"/>
+      <c r="G691" s="15"/>
+      <c r="J691" s="18"/>
+      <c r="K691" s="19"/>
     </row>
     <row r="692" ht="15.2" spans="7:11">
-      <c r="G692" s="12"/>
-      <c r="J692" s="15"/>
-      <c r="K692" s="16"/>
+      <c r="G692" s="15"/>
+      <c r="J692" s="18"/>
+      <c r="K692" s="19"/>
     </row>
     <row r="693" ht="15.2" spans="7:11">
-      <c r="G693" s="12"/>
-      <c r="J693" s="15"/>
-      <c r="K693" s="16"/>
+      <c r="G693" s="15"/>
+      <c r="J693" s="18"/>
+      <c r="K693" s="19"/>
     </row>
     <row r="694" ht="15.2" spans="7:11">
-      <c r="G694" s="12"/>
-      <c r="J694" s="15"/>
-      <c r="K694" s="16"/>
+      <c r="G694" s="15"/>
+      <c r="J694" s="18"/>
+      <c r="K694" s="19"/>
     </row>
     <row r="695" ht="15.2" spans="7:11">
-      <c r="G695" s="12"/>
-      <c r="J695" s="15"/>
-      <c r="K695" s="16"/>
+      <c r="G695" s="15"/>
+      <c r="J695" s="18"/>
+      <c r="K695" s="19"/>
     </row>
     <row r="696" ht="15.2" spans="7:11">
-      <c r="G696" s="12"/>
-      <c r="J696" s="15"/>
-      <c r="K696" s="16"/>
+      <c r="G696" s="15"/>
+      <c r="J696" s="18"/>
+      <c r="K696" s="19"/>
     </row>
     <row r="697" ht="15.2" spans="7:11">
-      <c r="G697" s="12"/>
-      <c r="J697" s="15"/>
-      <c r="K697" s="16"/>
+      <c r="G697" s="15"/>
+      <c r="J697" s="18"/>
+      <c r="K697" s="19"/>
     </row>
     <row r="698" ht="15.2" spans="7:11">
-      <c r="G698" s="12"/>
-      <c r="J698" s="15"/>
-      <c r="K698" s="16"/>
+      <c r="G698" s="15"/>
+      <c r="J698" s="18"/>
+      <c r="K698" s="19"/>
     </row>
     <row r="699" ht="15.2" spans="7:11">
-      <c r="G699" s="12"/>
-      <c r="J699" s="15"/>
-      <c r="K699" s="16"/>
+      <c r="G699" s="15"/>
+      <c r="J699" s="18"/>
+      <c r="K699" s="19"/>
     </row>
     <row r="700" ht="15.2" spans="7:11">
-      <c r="G700" s="12"/>
-      <c r="J700" s="15"/>
-      <c r="K700" s="16"/>
+      <c r="G700" s="15"/>
+      <c r="J700" s="18"/>
+      <c r="K700" s="19"/>
     </row>
     <row r="701" ht="15.2" spans="7:11">
-      <c r="G701" s="12"/>
-      <c r="J701" s="15"/>
-      <c r="K701" s="16"/>
+      <c r="G701" s="15"/>
+      <c r="J701" s="18"/>
+      <c r="K701" s="19"/>
     </row>
     <row r="702" ht="15.2" spans="7:11">
-      <c r="G702" s="12"/>
-      <c r="J702" s="15"/>
-      <c r="K702" s="16"/>
+      <c r="G702" s="15"/>
+      <c r="J702" s="18"/>
+      <c r="K702" s="19"/>
     </row>
     <row r="703" ht="15.2" spans="7:11">
-      <c r="G703" s="12"/>
-      <c r="J703" s="15"/>
-      <c r="K703" s="16"/>
+      <c r="G703" s="15"/>
+      <c r="J703" s="18"/>
+      <c r="K703" s="19"/>
     </row>
     <row r="704" ht="15.2" spans="7:11">
-      <c r="G704" s="12"/>
-      <c r="J704" s="15"/>
-      <c r="K704" s="16"/>
+      <c r="G704" s="15"/>
+      <c r="J704" s="18"/>
+      <c r="K704" s="19"/>
     </row>
     <row r="705" ht="15.2" spans="7:11">
-      <c r="G705" s="12"/>
-      <c r="J705" s="15"/>
-      <c r="K705" s="16"/>
+      <c r="G705" s="15"/>
+      <c r="J705" s="18"/>
+      <c r="K705" s="19"/>
     </row>
     <row r="706" ht="15.2" spans="7:11">
-      <c r="G706" s="12"/>
-      <c r="J706" s="15"/>
-      <c r="K706" s="16"/>
+      <c r="G706" s="15"/>
+      <c r="J706" s="18"/>
+      <c r="K706" s="19"/>
     </row>
     <row r="707" ht="15.2" spans="7:11">
-      <c r="G707" s="12"/>
-      <c r="J707" s="15"/>
-      <c r="K707" s="16"/>
+      <c r="G707" s="15"/>
+      <c r="J707" s="18"/>
+      <c r="K707" s="19"/>
     </row>
     <row r="708" ht="15.2" spans="7:11">
-      <c r="G708" s="12"/>
-      <c r="J708" s="15"/>
-      <c r="K708" s="16"/>
+      <c r="G708" s="15"/>
+      <c r="J708" s="18"/>
+      <c r="K708" s="19"/>
     </row>
     <row r="709" ht="15.2" spans="7:11">
-      <c r="G709" s="12"/>
-      <c r="J709" s="15"/>
-      <c r="K709" s="16"/>
+      <c r="G709" s="15"/>
+      <c r="J709" s="18"/>
+      <c r="K709" s="19"/>
     </row>
     <row r="710" ht="15.2" spans="7:11">
-      <c r="G710" s="12"/>
-      <c r="J710" s="15"/>
-      <c r="K710" s="16"/>
+      <c r="G710" s="15"/>
+      <c r="J710" s="18"/>
+      <c r="K710" s="19"/>
     </row>
     <row r="711" ht="15.2" spans="7:11">
-      <c r="G711" s="12"/>
-      <c r="J711" s="15"/>
-      <c r="K711" s="16"/>
+      <c r="G711" s="15"/>
+      <c r="J711" s="18"/>
+      <c r="K711" s="19"/>
     </row>
     <row r="712" ht="15.2" spans="7:11">
-      <c r="G712" s="12"/>
-      <c r="J712" s="15"/>
-      <c r="K712" s="16"/>
+      <c r="G712" s="15"/>
+      <c r="J712" s="18"/>
+      <c r="K712" s="19"/>
     </row>
     <row r="713" ht="15.2" spans="7:11">
-      <c r="G713" s="12"/>
-      <c r="J713" s="15"/>
-      <c r="K713" s="16"/>
+      <c r="G713" s="15"/>
+      <c r="J713" s="18"/>
+      <c r="K713" s="19"/>
     </row>
     <row r="714" ht="15.2" spans="7:11">
-      <c r="G714" s="12"/>
-      <c r="J714" s="15"/>
-      <c r="K714" s="16"/>
+      <c r="G714" s="15"/>
+      <c r="J714" s="18"/>
+      <c r="K714" s="19"/>
     </row>
     <row r="715" ht="15.2" spans="7:11">
-      <c r="G715" s="12"/>
-      <c r="J715" s="15"/>
-      <c r="K715" s="16"/>
+      <c r="G715" s="15"/>
+      <c r="J715" s="18"/>
+      <c r="K715" s="19"/>
     </row>
     <row r="716" ht="15.2" spans="7:11">
-      <c r="G716" s="12"/>
-      <c r="J716" s="15"/>
-      <c r="K716" s="16"/>
+      <c r="G716" s="15"/>
+      <c r="J716" s="18"/>
+      <c r="K716" s="19"/>
     </row>
     <row r="717" ht="15.2" spans="7:11">
-      <c r="G717" s="12"/>
-      <c r="J717" s="15"/>
-      <c r="K717" s="16"/>
+      <c r="G717" s="15"/>
+      <c r="J717" s="18"/>
+      <c r="K717" s="19"/>
     </row>
     <row r="718" ht="15.2" spans="7:11">
-      <c r="G718" s="12"/>
-      <c r="J718" s="15"/>
-      <c r="K718" s="16"/>
+      <c r="G718" s="15"/>
+      <c r="J718" s="18"/>
+      <c r="K718" s="19"/>
     </row>
     <row r="719" ht="15.2" spans="7:11">
-      <c r="G719" s="12"/>
-      <c r="J719" s="15"/>
-      <c r="K719" s="16"/>
+      <c r="G719" s="15"/>
+      <c r="J719" s="18"/>
+      <c r="K719" s="19"/>
     </row>
     <row r="720" ht="15.2" spans="7:11">
-      <c r="G720" s="12"/>
-      <c r="J720" s="15"/>
-      <c r="K720" s="16"/>
+      <c r="G720" s="15"/>
+      <c r="J720" s="18"/>
+      <c r="K720" s="19"/>
     </row>
     <row r="721" ht="15.2" spans="7:11">
-      <c r="G721" s="12"/>
-      <c r="J721" s="15"/>
-      <c r="K721" s="16"/>
+      <c r="G721" s="15"/>
+      <c r="J721" s="18"/>
+      <c r="K721" s="19"/>
     </row>
     <row r="722" ht="15.2" spans="7:11">
-      <c r="G722" s="12"/>
-      <c r="J722" s="15"/>
-      <c r="K722" s="16"/>
+      <c r="G722" s="15"/>
+      <c r="J722" s="18"/>
+      <c r="K722" s="19"/>
     </row>
     <row r="723" ht="15.2" spans="7:11">
-      <c r="G723" s="12"/>
-      <c r="J723" s="15"/>
-      <c r="K723" s="16"/>
+      <c r="G723" s="15"/>
+      <c r="J723" s="18"/>
+      <c r="K723" s="19"/>
     </row>
     <row r="724" ht="15.2" spans="7:11">
-      <c r="G724" s="12"/>
-      <c r="J724" s="15"/>
-      <c r="K724" s="16"/>
+      <c r="G724" s="15"/>
+      <c r="J724" s="18"/>
+      <c r="K724" s="19"/>
     </row>
     <row r="725" ht="15.2" spans="7:11">
-      <c r="G725" s="12"/>
-      <c r="J725" s="15"/>
-      <c r="K725" s="16"/>
+      <c r="G725" s="15"/>
+      <c r="J725" s="18"/>
+      <c r="K725" s="19"/>
     </row>
     <row r="726" ht="15.2" spans="7:11">
-      <c r="G726" s="12"/>
-      <c r="J726" s="15"/>
-      <c r="K726" s="16"/>
+      <c r="G726" s="15"/>
+      <c r="J726" s="18"/>
+      <c r="K726" s="19"/>
     </row>
     <row r="727" ht="15.2" spans="7:11">
-      <c r="G727" s="12"/>
-      <c r="J727" s="15"/>
-      <c r="K727" s="16"/>
+      <c r="G727" s="15"/>
+      <c r="J727" s="18"/>
+      <c r="K727" s="19"/>
     </row>
     <row r="728" ht="15.2" spans="7:11">
-      <c r="G728" s="12"/>
-      <c r="J728" s="15"/>
-      <c r="K728" s="16"/>
+      <c r="G728" s="15"/>
+      <c r="J728" s="18"/>
+      <c r="K728" s="19"/>
     </row>
     <row r="729" ht="15.2" spans="7:11">
-      <c r="G729" s="12"/>
-      <c r="J729" s="15"/>
-      <c r="K729" s="16"/>
+      <c r="G729" s="15"/>
+      <c r="J729" s="18"/>
+      <c r="K729" s="19"/>
     </row>
     <row r="730" ht="15.2" spans="7:11">
-      <c r="G730" s="12"/>
-      <c r="J730" s="15"/>
-      <c r="K730" s="16"/>
+      <c r="G730" s="15"/>
+      <c r="J730" s="18"/>
+      <c r="K730" s="19"/>
     </row>
     <row r="731" ht="15.2" spans="7:11">
-      <c r="G731" s="12"/>
-      <c r="J731" s="15"/>
-      <c r="K731" s="16"/>
+      <c r="G731" s="15"/>
+      <c r="J731" s="18"/>
+      <c r="K731" s="19"/>
     </row>
     <row r="732" ht="15.2" spans="7:11">
-      <c r="G732" s="12"/>
-      <c r="J732" s="15"/>
-      <c r="K732" s="16"/>
+      <c r="G732" s="15"/>
+      <c r="J732" s="18"/>
+      <c r="K732" s="19"/>
     </row>
     <row r="733" ht="15.2" spans="7:11">
-      <c r="G733" s="12"/>
-      <c r="J733" s="15"/>
-      <c r="K733" s="16"/>
+      <c r="G733" s="15"/>
+      <c r="J733" s="18"/>
+      <c r="K733" s="19"/>
     </row>
     <row r="734" ht="15.2" spans="7:11">
-      <c r="G734" s="12"/>
-      <c r="J734" s="15"/>
-      <c r="K734" s="16"/>
+      <c r="G734" s="15"/>
+      <c r="J734" s="18"/>
+      <c r="K734" s="19"/>
     </row>
     <row r="735" ht="15.2" spans="7:11">
-      <c r="G735" s="12"/>
-      <c r="J735" s="15"/>
-      <c r="K735" s="16"/>
+      <c r="G735" s="15"/>
+      <c r="J735" s="18"/>
+      <c r="K735" s="19"/>
     </row>
     <row r="736" ht="15.2" spans="7:11">
-      <c r="G736" s="12"/>
-      <c r="J736" s="15"/>
-      <c r="K736" s="16"/>
+      <c r="G736" s="15"/>
+      <c r="J736" s="18"/>
+      <c r="K736" s="19"/>
     </row>
     <row r="737" ht="15.2" spans="7:11">
-      <c r="G737" s="12"/>
-      <c r="J737" s="15"/>
-      <c r="K737" s="16"/>
+      <c r="G737" s="15"/>
+      <c r="J737" s="18"/>
+      <c r="K737" s="19"/>
     </row>
     <row r="738" ht="15.2" spans="7:11">
-      <c r="G738" s="12"/>
-      <c r="J738" s="15"/>
-      <c r="K738" s="16"/>
+      <c r="G738" s="15"/>
+      <c r="J738" s="18"/>
+      <c r="K738" s="19"/>
     </row>
     <row r="739" ht="15.2" spans="7:11">
-      <c r="G739" s="12"/>
-      <c r="J739" s="15"/>
-      <c r="K739" s="16"/>
+      <c r="G739" s="15"/>
+      <c r="J739" s="18"/>
+      <c r="K739" s="19"/>
     </row>
     <row r="740" ht="15.2" spans="7:11">
-      <c r="G740" s="12"/>
-      <c r="J740" s="15"/>
-      <c r="K740" s="16"/>
+      <c r="G740" s="15"/>
+      <c r="J740" s="18"/>
+      <c r="K740" s="19"/>
     </row>
     <row r="741" ht="15.2" spans="7:11">
-      <c r="G741" s="12"/>
-      <c r="J741" s="15"/>
-      <c r="K741" s="16"/>
+      <c r="G741" s="15"/>
+      <c r="J741" s="18"/>
+      <c r="K741" s="19"/>
     </row>
     <row r="742" ht="15.2" spans="7:11">
-      <c r="G742" s="12"/>
-      <c r="J742" s="15"/>
-      <c r="K742" s="16"/>
+      <c r="G742" s="15"/>
+      <c r="J742" s="18"/>
+      <c r="K742" s="19"/>
     </row>
     <row r="743" ht="15.2" spans="7:11">
-      <c r="G743" s="12"/>
-      <c r="J743" s="15"/>
-      <c r="K743" s="16"/>
+      <c r="G743" s="15"/>
+      <c r="J743" s="18"/>
+      <c r="K743" s="19"/>
     </row>
     <row r="744" ht="15.2" spans="7:11">
-      <c r="G744" s="12"/>
-      <c r="J744" s="15"/>
-      <c r="K744" s="16"/>
+      <c r="G744" s="15"/>
+      <c r="J744" s="18"/>
+      <c r="K744" s="19"/>
     </row>
     <row r="745" ht="15.2" spans="7:11">
-      <c r="G745" s="12"/>
-      <c r="J745" s="15"/>
-      <c r="K745" s="16"/>
+      <c r="G745" s="15"/>
+      <c r="J745" s="18"/>
+      <c r="K745" s="19"/>
     </row>
     <row r="746" ht="15.2" spans="7:11">
-      <c r="G746" s="12"/>
-      <c r="J746" s="15"/>
-      <c r="K746" s="16"/>
+      <c r="G746" s="15"/>
+      <c r="J746" s="18"/>
+      <c r="K746" s="19"/>
     </row>
     <row r="747" ht="15.2" spans="7:11">
-      <c r="G747" s="12"/>
-      <c r="J747" s="15"/>
-      <c r="K747" s="16"/>
+      <c r="G747" s="15"/>
+      <c r="J747" s="18"/>
+      <c r="K747" s="19"/>
     </row>
     <row r="748" ht="15.2" spans="7:11">
-      <c r="G748" s="12"/>
-      <c r="J748" s="15"/>
-      <c r="K748" s="16"/>
+      <c r="G748" s="15"/>
+      <c r="J748" s="18"/>
+      <c r="K748" s="19"/>
     </row>
     <row r="749" ht="15.2" spans="7:11">
-      <c r="G749" s="12"/>
-      <c r="J749" s="15"/>
-      <c r="K749" s="16"/>
+      <c r="G749" s="15"/>
+      <c r="J749" s="18"/>
+      <c r="K749" s="19"/>
     </row>
     <row r="750" ht="15.2" spans="7:11">
-      <c r="G750" s="12"/>
-      <c r="J750" s="15"/>
-      <c r="K750" s="16"/>
+      <c r="G750" s="15"/>
+      <c r="J750" s="18"/>
+      <c r="K750" s="19"/>
     </row>
     <row r="751" ht="15.2" spans="7:11">
-      <c r="G751" s="12"/>
-      <c r="J751" s="15"/>
-      <c r="K751" s="16"/>
+      <c r="G751" s="15"/>
+      <c r="J751" s="18"/>
+      <c r="K751" s="19"/>
     </row>
     <row r="752" ht="15.2" spans="7:11">
-      <c r="G752" s="12"/>
-      <c r="J752" s="15"/>
-      <c r="K752" s="16"/>
+      <c r="G752" s="15"/>
+      <c r="J752" s="18"/>
+      <c r="K752" s="19"/>
     </row>
     <row r="753" ht="15.2" spans="7:11">
-      <c r="G753" s="12"/>
-      <c r="J753" s="15"/>
-      <c r="K753" s="16"/>
+      <c r="G753" s="15"/>
+      <c r="J753" s="18"/>
+      <c r="K753" s="19"/>
     </row>
     <row r="754" ht="15.2" spans="7:11">
-      <c r="G754" s="12"/>
-      <c r="J754" s="15"/>
-      <c r="K754" s="16"/>
+      <c r="G754" s="15"/>
+      <c r="J754" s="18"/>
+      <c r="K754" s="19"/>
     </row>
     <row r="755" ht="15.2" spans="7:11">
-      <c r="G755" s="12"/>
-      <c r="J755" s="15"/>
-      <c r="K755" s="16"/>
+      <c r="G755" s="15"/>
+      <c r="J755" s="18"/>
+      <c r="K755" s="19"/>
     </row>
     <row r="756" ht="15.2" spans="7:11">
-      <c r="G756" s="12"/>
-      <c r="J756" s="15"/>
-      <c r="K756" s="16"/>
+      <c r="G756" s="15"/>
+      <c r="J756" s="18"/>
+      <c r="K756" s="19"/>
     </row>
     <row r="757" ht="15.2" spans="7:11">
-      <c r="G757" s="12"/>
-      <c r="J757" s="15"/>
-      <c r="K757" s="16"/>
+      <c r="G757" s="15"/>
+      <c r="J757" s="18"/>
+      <c r="K757" s="19"/>
     </row>
     <row r="758" ht="15.2" spans="7:11">
-      <c r="G758" s="12"/>
-      <c r="J758" s="15"/>
-      <c r="K758" s="16"/>
+      <c r="G758" s="15"/>
+      <c r="J758" s="18"/>
+      <c r="K758" s="19"/>
     </row>
     <row r="759" ht="15.2" spans="7:11">
-      <c r="G759" s="12"/>
-      <c r="J759" s="15"/>
-      <c r="K759" s="16"/>
+      <c r="G759" s="15"/>
+      <c r="J759" s="18"/>
+      <c r="K759" s="19"/>
     </row>
     <row r="760" ht="15.2" spans="7:11">
-      <c r="G760" s="12"/>
-      <c r="J760" s="15"/>
-      <c r="K760" s="16"/>
+      <c r="G760" s="15"/>
+      <c r="J760" s="18"/>
+      <c r="K760" s="19"/>
     </row>
     <row r="761" ht="15.2" spans="7:11">
-      <c r="G761" s="12"/>
-      <c r="J761" s="15"/>
-      <c r="K761" s="16"/>
+      <c r="G761" s="15"/>
+      <c r="J761" s="18"/>
+      <c r="K761" s="19"/>
     </row>
     <row r="762" ht="15.2" spans="7:11">
-      <c r="G762" s="12"/>
-      <c r="J762" s="15"/>
-      <c r="K762" s="16"/>
+      <c r="G762" s="15"/>
+      <c r="J762" s="18"/>
+      <c r="K762" s="19"/>
     </row>
     <row r="763" ht="15.2" spans="7:11">
-      <c r="G763" s="12"/>
-      <c r="J763" s="15"/>
-      <c r="K763" s="16"/>
+      <c r="G763" s="15"/>
+      <c r="J763" s="18"/>
+      <c r="K763" s="19"/>
     </row>
     <row r="764" ht="15.2" spans="7:11">
-      <c r="G764" s="12"/>
-      <c r="J764" s="15"/>
-      <c r="K764" s="16"/>
+      <c r="G764" s="15"/>
+      <c r="J764" s="18"/>
+      <c r="K764" s="19"/>
     </row>
     <row r="765" ht="15.2" spans="7:11">
-      <c r="G765" s="12"/>
-      <c r="J765" s="15"/>
-      <c r="K765" s="16"/>
+      <c r="G765" s="15"/>
+      <c r="J765" s="18"/>
+      <c r="K765" s="19"/>
     </row>
     <row r="766" ht="15.2" spans="7:11">
-      <c r="G766" s="12"/>
-      <c r="J766" s="15"/>
-      <c r="K766" s="16"/>
+      <c r="G766" s="15"/>
+      <c r="J766" s="18"/>
+      <c r="K766" s="19"/>
     </row>
     <row r="767" ht="15.2" spans="7:11">
-      <c r="G767" s="12"/>
-      <c r="J767" s="15"/>
-      <c r="K767" s="16"/>
+      <c r="G767" s="15"/>
+      <c r="J767" s="18"/>
+      <c r="K767" s="19"/>
     </row>
     <row r="768" ht="15.2" spans="7:11">
-      <c r="G768" s="12"/>
-      <c r="J768" s="15"/>
-      <c r="K768" s="16"/>
+      <c r="G768" s="15"/>
+      <c r="J768" s="18"/>
+      <c r="K768" s="19"/>
     </row>
     <row r="769" ht="15.2" spans="7:11">
-      <c r="G769" s="12"/>
-      <c r="J769" s="15"/>
-      <c r="K769" s="16"/>
+      <c r="G769" s="15"/>
+      <c r="J769" s="18"/>
+      <c r="K769" s="19"/>
     </row>
     <row r="770" ht="15.2" spans="7:11">
-      <c r="G770" s="12"/>
-      <c r="J770" s="15"/>
-      <c r="K770" s="16"/>
+      <c r="G770" s="15"/>
+      <c r="J770" s="18"/>
+      <c r="K770" s="19"/>
     </row>
     <row r="771" ht="15.2" spans="7:11">
-      <c r="G771" s="12"/>
-      <c r="J771" s="15"/>
-      <c r="K771" s="16"/>
+      <c r="G771" s="15"/>
+      <c r="J771" s="18"/>
+      <c r="K771" s="19"/>
     </row>
     <row r="772" ht="15.2" spans="7:11">
-      <c r="G772" s="12"/>
-      <c r="J772" s="15"/>
-      <c r="K772" s="16"/>
+      <c r="G772" s="15"/>
+      <c r="J772" s="18"/>
+      <c r="K772" s="19"/>
     </row>
     <row r="773" ht="15.2" spans="7:11">
-      <c r="G773" s="12"/>
-      <c r="J773" s="15"/>
-      <c r="K773" s="16"/>
+      <c r="G773" s="15"/>
+      <c r="J773" s="18"/>
+      <c r="K773" s="19"/>
     </row>
     <row r="774" ht="15.2" spans="7:11">
-      <c r="G774" s="12"/>
-      <c r="J774" s="15"/>
-      <c r="K774" s="16"/>
+      <c r="G774" s="15"/>
+      <c r="J774" s="18"/>
+      <c r="K774" s="19"/>
     </row>
     <row r="775" ht="15.2" spans="7:11">
-      <c r="G775" s="12"/>
-      <c r="J775" s="15"/>
-      <c r="K775" s="16"/>
+      <c r="G775" s="15"/>
+      <c r="J775" s="18"/>
+      <c r="K775" s="19"/>
     </row>
     <row r="776" ht="15.2" spans="7:11">
-      <c r="G776" s="12"/>
-      <c r="J776" s="15"/>
-      <c r="K776" s="16"/>
+      <c r="G776" s="15"/>
+      <c r="J776" s="18"/>
+      <c r="K776" s="19"/>
     </row>
     <row r="777" ht="15.2" spans="7:11">
-      <c r="G777" s="12"/>
-      <c r="J777" s="15"/>
-      <c r="K777" s="16"/>
+      <c r="G777" s="15"/>
+      <c r="J777" s="18"/>
+      <c r="K777" s="19"/>
     </row>
     <row r="778" ht="15.2" spans="7:11">
-      <c r="G778" s="12"/>
-      <c r="J778" s="15"/>
-      <c r="K778" s="16"/>
+      <c r="G778" s="15"/>
+      <c r="J778" s="18"/>
+      <c r="K778" s="19"/>
     </row>
     <row r="779" ht="15.2" spans="7:11">
-      <c r="G779" s="12"/>
-      <c r="J779" s="15"/>
-      <c r="K779" s="16"/>
+      <c r="G779" s="15"/>
+      <c r="J779" s="18"/>
+      <c r="K779" s="19"/>
     </row>
     <row r="780" ht="15.2" spans="7:11">
-      <c r="G780" s="12"/>
-      <c r="J780" s="15"/>
-      <c r="K780" s="16"/>
+      <c r="G780" s="15"/>
+      <c r="J780" s="18"/>
+      <c r="K780" s="19"/>
     </row>
     <row r="781" ht="15.2" spans="7:11">
-      <c r="G781" s="12"/>
-      <c r="J781" s="15"/>
-      <c r="K781" s="16"/>
+      <c r="G781" s="15"/>
+      <c r="J781" s="18"/>
+      <c r="K781" s="19"/>
     </row>
     <row r="782" ht="15.2" spans="7:11">
-      <c r="G782" s="12"/>
-      <c r="J782" s="15"/>
-      <c r="K782" s="16"/>
+      <c r="G782" s="15"/>
+      <c r="J782" s="18"/>
+      <c r="K782" s="19"/>
     </row>
     <row r="783" ht="15.2" spans="7:11">
-      <c r="G783" s="12"/>
-      <c r="J783" s="15"/>
-      <c r="K783" s="16"/>
+      <c r="G783" s="15"/>
+      <c r="J783" s="18"/>
+      <c r="K783" s="19"/>
     </row>
     <row r="784" ht="15.2" spans="7:11">
-      <c r="G784" s="12"/>
-      <c r="J784" s="15"/>
-      <c r="K784" s="16"/>
+      <c r="G784" s="15"/>
+      <c r="J784" s="18"/>
+      <c r="K784" s="19"/>
     </row>
     <row r="785" ht="15.2" spans="7:11">
-      <c r="G785" s="12"/>
-      <c r="J785" s="15"/>
-      <c r="K785" s="16"/>
+      <c r="G785" s="15"/>
+      <c r="J785" s="18"/>
+      <c r="K785" s="19"/>
     </row>
     <row r="786" ht="15.2" spans="7:11">
-      <c r="G786" s="12"/>
-      <c r="J786" s="15"/>
-      <c r="K786" s="16"/>
+      <c r="G786" s="15"/>
+      <c r="J786" s="18"/>
+      <c r="K786" s="19"/>
     </row>
     <row r="787" ht="15.2" spans="7:11">
-      <c r="G787" s="12"/>
-      <c r="J787" s="15"/>
-      <c r="K787" s="16"/>
+      <c r="G787" s="15"/>
+      <c r="J787" s="18"/>
+      <c r="K787" s="19"/>
     </row>
     <row r="788" ht="15.2" spans="7:11">
-      <c r="G788" s="12"/>
-      <c r="J788" s="15"/>
-      <c r="K788" s="16"/>
+      <c r="G788" s="15"/>
+      <c r="J788" s="18"/>
+      <c r="K788" s="19"/>
     </row>
     <row r="789" ht="15.2" spans="7:11">
-      <c r="G789" s="12"/>
-      <c r="J789" s="15"/>
-      <c r="K789" s="16"/>
+      <c r="G789" s="15"/>
+      <c r="J789" s="18"/>
+      <c r="K789" s="19"/>
     </row>
     <row r="790" ht="15.2" spans="7:11">
-      <c r="G790" s="12"/>
-      <c r="J790" s="15"/>
-      <c r="K790" s="16"/>
+      <c r="G790" s="15"/>
+      <c r="J790" s="18"/>
+      <c r="K790" s="19"/>
     </row>
     <row r="791" ht="15.2" spans="7:11">
-      <c r="G791" s="12"/>
-      <c r="J791" s="15"/>
-      <c r="K791" s="16"/>
+      <c r="G791" s="15"/>
+      <c r="J791" s="18"/>
+      <c r="K791" s="19"/>
     </row>
     <row r="792" ht="15.2" spans="7:11">
-      <c r="G792" s="12"/>
-      <c r="J792" s="15"/>
-      <c r="K792" s="16"/>
+      <c r="G792" s="15"/>
+      <c r="J792" s="18"/>
+      <c r="K792" s="19"/>
     </row>
     <row r="793" ht="15.2" spans="7:11">
-      <c r="G793" s="12"/>
-      <c r="J793" s="15"/>
-      <c r="K793" s="16"/>
+      <c r="G793" s="15"/>
+      <c r="J793" s="18"/>
+      <c r="K793" s="19"/>
     </row>
     <row r="794" ht="15.2" spans="7:11">
-      <c r="G794" s="12"/>
-      <c r="J794" s="15"/>
-      <c r="K794" s="16"/>
+      <c r="G794" s="15"/>
+      <c r="J794" s="18"/>
+      <c r="K794" s="19"/>
     </row>
     <row r="795" ht="15.2" spans="7:11">
-      <c r="G795" s="12"/>
-      <c r="J795" s="15"/>
-      <c r="K795" s="16"/>
+      <c r="G795" s="15"/>
+      <c r="J795" s="18"/>
+      <c r="K795" s="19"/>
     </row>
     <row r="796" ht="15.2" spans="7:11">
-      <c r="G796" s="12"/>
-      <c r="J796" s="15"/>
-      <c r="K796" s="16"/>
+      <c r="G796" s="15"/>
+      <c r="J796" s="18"/>
+      <c r="K796" s="19"/>
     </row>
     <row r="797" ht="15.2" spans="7:11">
-      <c r="G797" s="12"/>
-      <c r="J797" s="15"/>
-      <c r="K797" s="16"/>
+      <c r="G797" s="15"/>
+      <c r="J797" s="18"/>
+      <c r="K797" s="19"/>
     </row>
     <row r="798" ht="15.2" spans="7:11">
-      <c r="G798" s="12"/>
-      <c r="J798" s="15"/>
-      <c r="K798" s="16"/>
+      <c r="G798" s="15"/>
+      <c r="J798" s="18"/>
+      <c r="K798" s="19"/>
     </row>
     <row r="799" ht="15.2" spans="7:11">
-      <c r="G799" s="12"/>
-      <c r="J799" s="15"/>
-      <c r="K799" s="16"/>
+      <c r="G799" s="15"/>
+      <c r="J799" s="18"/>
+      <c r="K799" s="19"/>
     </row>
     <row r="800" ht="15.2" spans="7:11">
-      <c r="G800" s="12"/>
-      <c r="J800" s="15"/>
-      <c r="K800" s="16"/>
+      <c r="G800" s="15"/>
+      <c r="J800" s="18"/>
+      <c r="K800" s="19"/>
     </row>
     <row r="801" ht="15.2" spans="7:11">
-      <c r="G801" s="12"/>
-      <c r="J801" s="15"/>
-      <c r="K801" s="16"/>
+      <c r="G801" s="15"/>
+      <c r="J801" s="18"/>
+      <c r="K801" s="19"/>
     </row>
     <row r="802" ht="15.2" spans="7:11">
-      <c r="G802" s="12"/>
-      <c r="J802" s="15"/>
-      <c r="K802" s="16"/>
+      <c r="G802" s="15"/>
+      <c r="J802" s="18"/>
+      <c r="K802" s="19"/>
     </row>
     <row r="803" ht="15.2" spans="7:11">
-      <c r="G803" s="12"/>
-      <c r="J803" s="15"/>
-      <c r="K803" s="16"/>
+      <c r="G803" s="15"/>
+      <c r="J803" s="18"/>
+      <c r="K803" s="19"/>
     </row>
     <row r="804" ht="15.2" spans="7:11">
-      <c r="G804" s="12"/>
-      <c r="J804" s="15"/>
-      <c r="K804" s="16"/>
+      <c r="G804" s="15"/>
+      <c r="J804" s="18"/>
+      <c r="K804" s="19"/>
     </row>
     <row r="805" ht="15.2" spans="7:11">
-      <c r="G805" s="12"/>
-      <c r="J805" s="15"/>
-      <c r="K805" s="16"/>
+      <c r="G805" s="15"/>
+      <c r="J805" s="18"/>
+      <c r="K805" s="19"/>
     </row>
     <row r="806" ht="15.2" spans="7:11">
-      <c r="G806" s="12"/>
-      <c r="J806" s="15"/>
-      <c r="K806" s="16"/>
+      <c r="G806" s="15"/>
+      <c r="J806" s="18"/>
+      <c r="K806" s="19"/>
     </row>
     <row r="807" ht="15.2" spans="7:11">
-      <c r="G807" s="12"/>
-      <c r="J807" s="15"/>
-      <c r="K807" s="16"/>
+      <c r="G807" s="15"/>
+      <c r="J807" s="18"/>
+      <c r="K807" s="19"/>
     </row>
     <row r="808" ht="15.2" spans="7:11">
-      <c r="G808" s="12"/>
-      <c r="J808" s="15"/>
-      <c r="K808" s="16"/>
+      <c r="G808" s="15"/>
+      <c r="J808" s="18"/>
+      <c r="K808" s="19"/>
     </row>
     <row r="809" ht="15.2" spans="7:11">
-      <c r="G809" s="12"/>
-      <c r="J809" s="15"/>
-      <c r="K809" s="16"/>
+      <c r="G809" s="15"/>
+      <c r="J809" s="18"/>
+      <c r="K809" s="19"/>
     </row>
     <row r="810" ht="15.2" spans="7:11">
-      <c r="G810" s="12"/>
-      <c r="J810" s="15"/>
-      <c r="K810" s="16"/>
+      <c r="G810" s="15"/>
+      <c r="J810" s="18"/>
+      <c r="K810" s="19"/>
     </row>
     <row r="811" ht="15.2" spans="7:11">
-      <c r="G811" s="12"/>
-      <c r="J811" s="15"/>
-      <c r="K811" s="16"/>
+      <c r="G811" s="15"/>
+      <c r="J811" s="18"/>
+      <c r="K811" s="19"/>
     </row>
     <row r="812" ht="15.2" spans="7:11">
-      <c r="G812" s="12"/>
-      <c r="J812" s="15"/>
-      <c r="K812" s="16"/>
+      <c r="G812" s="15"/>
+      <c r="J812" s="18"/>
+      <c r="K812" s="19"/>
     </row>
     <row r="813" ht="15.2" spans="7:11">
-      <c r="G813" s="12"/>
-      <c r="J813" s="15"/>
-      <c r="K813" s="16"/>
+      <c r="G813" s="15"/>
+      <c r="J813" s="18"/>
+      <c r="K813" s="19"/>
     </row>
     <row r="814" ht="15.2" spans="7:11">
-      <c r="G814" s="12"/>
-      <c r="J814" s="15"/>
-      <c r="K814" s="16"/>
+      <c r="G814" s="15"/>
+      <c r="J814" s="18"/>
+      <c r="K814" s="19"/>
     </row>
     <row r="815" ht="15.2" spans="7:11">
-      <c r="G815" s="12"/>
-      <c r="J815" s="15"/>
-      <c r="K815" s="16"/>
+      <c r="G815" s="15"/>
+      <c r="J815" s="18"/>
+      <c r="K815" s="19"/>
     </row>
     <row r="816" ht="15.2" spans="7:11">
-      <c r="G816" s="12"/>
-      <c r="J816" s="15"/>
-      <c r="K816" s="16"/>
+      <c r="G816" s="15"/>
+      <c r="J816" s="18"/>
+      <c r="K816" s="19"/>
     </row>
     <row r="817" ht="15.2" spans="7:11">
-      <c r="G817" s="12"/>
-      <c r="J817" s="15"/>
-      <c r="K817" s="16"/>
+      <c r="G817" s="15"/>
+      <c r="J817" s="18"/>
+      <c r="K817" s="19"/>
     </row>
     <row r="818" ht="15.2" spans="7:11">
-      <c r="G818" s="12"/>
-      <c r="J818" s="15"/>
-      <c r="K818" s="16"/>
+      <c r="G818" s="15"/>
+      <c r="J818" s="18"/>
+      <c r="K818" s="19"/>
     </row>
     <row r="819" ht="15.2" spans="7:11">
-      <c r="G819" s="12"/>
-      <c r="J819" s="15"/>
-      <c r="K819" s="16"/>
+      <c r="G819" s="15"/>
+      <c r="J819" s="18"/>
+      <c r="K819" s="19"/>
     </row>
     <row r="820" ht="15.2" spans="7:11">
-      <c r="G820" s="12"/>
-      <c r="J820" s="15"/>
-      <c r="K820" s="16"/>
+      <c r="G820" s="15"/>
+      <c r="J820" s="18"/>
+      <c r="K820" s="19"/>
     </row>
     <row r="821" ht="15.2" spans="7:11">
-      <c r="G821" s="12"/>
-      <c r="J821" s="15"/>
-      <c r="K821" s="16"/>
+      <c r="G821" s="15"/>
+      <c r="J821" s="18"/>
+      <c r="K821" s="19"/>
     </row>
     <row r="822" ht="15.2" spans="7:11">
-      <c r="G822" s="12"/>
-      <c r="J822" s="15"/>
-      <c r="K822" s="16"/>
+      <c r="G822" s="15"/>
+      <c r="J822" s="18"/>
+      <c r="K822" s="19"/>
     </row>
     <row r="823" ht="15.2" spans="7:11">
-      <c r="G823" s="12"/>
-      <c r="J823" s="15"/>
-      <c r="K823" s="16"/>
+      <c r="G823" s="15"/>
+      <c r="J823" s="18"/>
+      <c r="K823" s="19"/>
     </row>
     <row r="824" ht="15.2" spans="7:11">
-      <c r="G824" s="12"/>
-      <c r="J824" s="15"/>
-      <c r="K824" s="16"/>
+      <c r="G824" s="15"/>
+      <c r="J824" s="18"/>
+      <c r="K824" s="19"/>
     </row>
     <row r="825" ht="15.2" spans="7:11">
-      <c r="G825" s="12"/>
-      <c r="J825" s="15"/>
-      <c r="K825" s="16"/>
+      <c r="G825" s="15"/>
+      <c r="J825" s="18"/>
+      <c r="K825" s="19"/>
     </row>
     <row r="826" ht="15.2" spans="7:11">
-      <c r="G826" s="12"/>
-      <c r="J826" s="15"/>
-      <c r="K826" s="16"/>
+      <c r="G826" s="15"/>
+      <c r="J826" s="18"/>
+      <c r="K826" s="19"/>
     </row>
     <row r="827" ht="15.2" spans="7:11">
-      <c r="G827" s="12"/>
-      <c r="J827" s="15"/>
-      <c r="K827" s="16"/>
+      <c r="G827" s="15"/>
+      <c r="J827" s="18"/>
+      <c r="K827" s="19"/>
     </row>
     <row r="828" ht="15.2" spans="7:11">
-      <c r="G828" s="12"/>
-      <c r="J828" s="15"/>
-      <c r="K828" s="16"/>
+      <c r="G828" s="15"/>
+      <c r="J828" s="18"/>
+      <c r="K828" s="19"/>
     </row>
     <row r="829" ht="15.2" spans="7:11">
-      <c r="G829" s="12"/>
-      <c r="J829" s="15"/>
-      <c r="K829" s="16"/>
+      <c r="G829" s="15"/>
+      <c r="J829" s="18"/>
+      <c r="K829" s="19"/>
     </row>
     <row r="830" ht="15.2" spans="7:11">
-      <c r="G830" s="12"/>
-      <c r="J830" s="15"/>
-      <c r="K830" s="16"/>
+      <c r="G830" s="15"/>
+      <c r="J830" s="18"/>
+      <c r="K830" s="19"/>
     </row>
     <row r="831" ht="15.2" spans="7:11">
-      <c r="G831" s="12"/>
-      <c r="J831" s="15"/>
-      <c r="K831" s="16"/>
+      <c r="G831" s="15"/>
+      <c r="J831" s="18"/>
+      <c r="K831" s="19"/>
     </row>
     <row r="832" ht="15.2" spans="7:11">
-      <c r="G832" s="12"/>
-      <c r="J832" s="15"/>
-      <c r="K832" s="16"/>
+      <c r="G832" s="15"/>
+      <c r="J832" s="18"/>
+      <c r="K832" s="19"/>
     </row>
     <row r="833" ht="15.2" spans="7:11">
-      <c r="G833" s="12"/>
-      <c r="J833" s="15"/>
-      <c r="K833" s="16"/>
+      <c r="G833" s="15"/>
+      <c r="J833" s="18"/>
+      <c r="K833" s="19"/>
     </row>
     <row r="834" ht="15.2" spans="7:11">
-      <c r="G834" s="12"/>
-      <c r="J834" s="15"/>
-      <c r="K834" s="16"/>
+      <c r="G834" s="15"/>
+      <c r="J834" s="18"/>
+      <c r="K834" s="19"/>
     </row>
     <row r="835" ht="15.2" spans="7:11">
-      <c r="G835" s="12"/>
-      <c r="J835" s="15"/>
-      <c r="K835" s="16"/>
+      <c r="G835" s="15"/>
+      <c r="J835" s="18"/>
+      <c r="K835" s="19"/>
     </row>
     <row r="836" ht="15.2" spans="7:11">
-      <c r="G836" s="12"/>
-      <c r="J836" s="15"/>
-      <c r="K836" s="16"/>
+      <c r="G836" s="15"/>
+      <c r="J836" s="18"/>
+      <c r="K836" s="19"/>
     </row>
     <row r="837" ht="15.2" spans="7:11">
-      <c r="G837" s="12"/>
-      <c r="J837" s="15"/>
-      <c r="K837" s="16"/>
+      <c r="G837" s="15"/>
+      <c r="J837" s="18"/>
+      <c r="K837" s="19"/>
     </row>
     <row r="838" ht="15.2" spans="7:11">
-      <c r="G838" s="12"/>
-      <c r="J838" s="15"/>
-      <c r="K838" s="16"/>
+      <c r="G838" s="15"/>
+      <c r="J838" s="18"/>
+      <c r="K838" s="19"/>
     </row>
     <row r="839" ht="15.2" spans="7:11">
-      <c r="G839" s="12"/>
-      <c r="J839" s="15"/>
-      <c r="K839" s="16"/>
+      <c r="G839" s="15"/>
+      <c r="J839" s="18"/>
+      <c r="K839" s="19"/>
     </row>
     <row r="840" ht="15.2" spans="7:11">
-      <c r="G840" s="12"/>
-      <c r="J840" s="15"/>
-      <c r="K840" s="16"/>
+      <c r="G840" s="15"/>
+      <c r="J840" s="18"/>
+      <c r="K840" s="19"/>
     </row>
     <row r="841" ht="15.2" spans="7:11">
-      <c r="G841" s="12"/>
-      <c r="J841" s="15"/>
-      <c r="K841" s="16"/>
+      <c r="G841" s="15"/>
+      <c r="J841" s="18"/>
+      <c r="K841" s="19"/>
     </row>
     <row r="842" ht="15.2" spans="7:11">
-      <c r="G842" s="12"/>
-      <c r="J842" s="15"/>
-      <c r="K842" s="16"/>
+      <c r="G842" s="15"/>
+      <c r="J842" s="18"/>
+      <c r="K842" s="19"/>
     </row>
     <row r="843" ht="15.2" spans="7:11">
-      <c r="G843" s="12"/>
-      <c r="J843" s="15"/>
-      <c r="K843" s="16"/>
+      <c r="G843" s="15"/>
+      <c r="J843" s="18"/>
+      <c r="K843" s="19"/>
     </row>
     <row r="844" ht="15.2" spans="7:11">
-      <c r="G844" s="12"/>
-      <c r="J844" s="15"/>
-      <c r="K844" s="16"/>
+      <c r="G844" s="15"/>
+      <c r="J844" s="18"/>
+      <c r="K844" s="19"/>
     </row>
     <row r="845" ht="15.2" spans="7:11">
-      <c r="G845" s="12"/>
-      <c r="J845" s="15"/>
-      <c r="K845" s="16"/>
+      <c r="G845" s="15"/>
+      <c r="J845" s="18"/>
+      <c r="K845" s="19"/>
     </row>
     <row r="846" ht="15.2" spans="7:11">
-      <c r="G846" s="12"/>
-      <c r="J846" s="15"/>
-      <c r="K846" s="16"/>
+      <c r="G846" s="15"/>
+      <c r="J846" s="18"/>
+      <c r="K846" s="19"/>
     </row>
     <row r="847" ht="15.2" spans="7:11">
-      <c r="G847" s="12"/>
-      <c r="J847" s="15"/>
-      <c r="K847" s="16"/>
+      <c r="G847" s="15"/>
+      <c r="J847" s="18"/>
+      <c r="K847" s="19"/>
     </row>
     <row r="848" ht="15.2" spans="7:11">
-      <c r="G848" s="12"/>
-      <c r="J848" s="15"/>
-      <c r="K848" s="16"/>
+      <c r="G848" s="15"/>
+      <c r="J848" s="18"/>
+      <c r="K848" s="19"/>
     </row>
     <row r="849" ht="15.2" spans="7:11">
-      <c r="G849" s="12"/>
-      <c r="J849" s="15"/>
-      <c r="K849" s="16"/>
+      <c r="G849" s="15"/>
+      <c r="J849" s="18"/>
+      <c r="K849" s="19"/>
     </row>
     <row r="850" ht="15.2" spans="7:11">
-      <c r="G850" s="12"/>
-      <c r="J850" s="15"/>
-      <c r="K850" s="16"/>
+      <c r="G850" s="15"/>
+      <c r="J850" s="18"/>
+      <c r="K850" s="19"/>
     </row>
     <row r="851" ht="15.2" spans="7:11">
-      <c r="G851" s="12"/>
-      <c r="J851" s="15"/>
-      <c r="K851" s="16"/>
+      <c r="G851" s="15"/>
+      <c r="J851" s="18"/>
+      <c r="K851" s="19"/>
     </row>
     <row r="852" ht="15.2" spans="7:11">
-      <c r="G852" s="12"/>
-      <c r="J852" s="15"/>
-      <c r="K852" s="16"/>
+      <c r="G852" s="15"/>
+      <c r="J852" s="18"/>
+      <c r="K852" s="19"/>
     </row>
     <row r="853" ht="15.2" spans="7:11">
-      <c r="G853" s="12"/>
-      <c r="J853" s="15"/>
-      <c r="K853" s="16"/>
+      <c r="G853" s="15"/>
+      <c r="J853" s="18"/>
+      <c r="K853" s="19"/>
     </row>
     <row r="854" ht="15.2" spans="7:11">
-      <c r="G854" s="12"/>
-      <c r="J854" s="15"/>
-      <c r="K854" s="16"/>
+      <c r="G854" s="15"/>
+      <c r="J854" s="18"/>
+      <c r="K854" s="19"/>
     </row>
     <row r="855" ht="15.2" spans="7:11">
-      <c r="G855" s="12"/>
-      <c r="J855" s="15"/>
-      <c r="K855" s="16"/>
+      <c r="G855" s="15"/>
+      <c r="J855" s="18"/>
+      <c r="K855" s="19"/>
     </row>
     <row r="856" ht="15.2" spans="7:11">
-      <c r="G856" s="12"/>
-      <c r="J856" s="15"/>
-      <c r="K856" s="16"/>
+      <c r="G856" s="15"/>
+      <c r="J856" s="18"/>
+      <c r="K856" s="19"/>
     </row>
     <row r="857" ht="15.2" spans="7:11">
-      <c r="G857" s="12"/>
-      <c r="J857" s="15"/>
-      <c r="K857" s="16"/>
+      <c r="G857" s="15"/>
+      <c r="J857" s="18"/>
+      <c r="K857" s="19"/>
     </row>
     <row r="858" ht="15.2" spans="7:11">
-      <c r="G858" s="12"/>
-      <c r="J858" s="15"/>
-      <c r="K858" s="16"/>
+      <c r="G858" s="15"/>
+      <c r="J858" s="18"/>
+      <c r="K858" s="19"/>
     </row>
     <row r="859" ht="15.2" spans="7:11">
-      <c r="G859" s="12"/>
-      <c r="J859" s="15"/>
-      <c r="K859" s="16"/>
+      <c r="G859" s="15"/>
+      <c r="J859" s="18"/>
+      <c r="K859" s="19"/>
     </row>
     <row r="860" ht="15.2" spans="7:11">
-      <c r="G860" s="12"/>
-      <c r="J860" s="15"/>
-      <c r="K860" s="16"/>
+      <c r="G860" s="15"/>
+      <c r="J860" s="18"/>
+      <c r="K860" s="19"/>
     </row>
     <row r="861" ht="15.2" spans="7:11">
-      <c r="G861" s="12"/>
-      <c r="J861" s="15"/>
-      <c r="K861" s="16"/>
+      <c r="G861" s="15"/>
+      <c r="J861" s="18"/>
+      <c r="K861" s="19"/>
     </row>
     <row r="862" ht="15.2" spans="7:11">
-      <c r="G862" s="12"/>
-      <c r="J862" s="15"/>
-      <c r="K862" s="16"/>
+      <c r="G862" s="15"/>
+      <c r="J862" s="18"/>
+      <c r="K862" s="19"/>
     </row>
     <row r="863" ht="15.2" spans="7:11">
-      <c r="G863" s="12"/>
-      <c r="J863" s="15"/>
-      <c r="K863" s="16"/>
+      <c r="G863" s="15"/>
+      <c r="J863" s="18"/>
+      <c r="K863" s="19"/>
     </row>
     <row r="864" ht="15.2" spans="7:11">
-      <c r="G864" s="12"/>
-      <c r="J864" s="15"/>
-      <c r="K864" s="16"/>
+      <c r="G864" s="15"/>
+      <c r="J864" s="18"/>
+      <c r="K864" s="19"/>
     </row>
     <row r="865" ht="15.2" spans="7:11">
-      <c r="G865" s="12"/>
-      <c r="J865" s="15"/>
-      <c r="K865" s="16"/>
+      <c r="G865" s="15"/>
+      <c r="J865" s="18"/>
+      <c r="K865" s="19"/>
     </row>
     <row r="866" ht="15.2" spans="7:11">
-      <c r="G866" s="12"/>
-      <c r="J866" s="15"/>
-      <c r="K866" s="16"/>
+      <c r="G866" s="15"/>
+      <c r="J866" s="18"/>
+      <c r="K866" s="19"/>
     </row>
     <row r="867" ht="15.2" spans="7:11">
-      <c r="G867" s="12"/>
-      <c r="J867" s="15"/>
-      <c r="K867" s="16"/>
+      <c r="G867" s="15"/>
+      <c r="J867" s="18"/>
+      <c r="K867" s="19"/>
     </row>
     <row r="868" ht="15.2" spans="7:11">
-      <c r="G868" s="12"/>
-      <c r="J868" s="15"/>
-      <c r="K868" s="16"/>
+      <c r="G868" s="15"/>
+      <c r="J868" s="18"/>
+      <c r="K868" s="19"/>
     </row>
     <row r="869" ht="15.2" spans="7:11">
-      <c r="G869" s="12"/>
-      <c r="J869" s="15"/>
-      <c r="K869" s="16"/>
+      <c r="G869" s="15"/>
+      <c r="J869" s="18"/>
+      <c r="K869" s="19"/>
     </row>
     <row r="870" ht="15.2" spans="7:11">
-      <c r="G870" s="12"/>
-      <c r="J870" s="15"/>
-      <c r="K870" s="16"/>
+      <c r="G870" s="15"/>
+      <c r="J870" s="18"/>
+      <c r="K870" s="19"/>
     </row>
     <row r="871" ht="15.2" spans="7:11">
-      <c r="G871" s="12"/>
-      <c r="J871" s="15"/>
-      <c r="K871" s="16"/>
+      <c r="G871" s="15"/>
+      <c r="J871" s="18"/>
+      <c r="K871" s="19"/>
     </row>
     <row r="872" ht="15.2" spans="7:11">
-      <c r="G872" s="12"/>
-      <c r="J872" s="15"/>
-      <c r="K872" s="16"/>
+      <c r="G872" s="15"/>
+      <c r="J872" s="18"/>
+      <c r="K872" s="19"/>
     </row>
     <row r="873" ht="15.2" spans="7:11">
-      <c r="G873" s="12"/>
-      <c r="J873" s="15"/>
-      <c r="K873" s="16"/>
+      <c r="G873" s="15"/>
+      <c r="J873" s="18"/>
+      <c r="K873" s="19"/>
     </row>
     <row r="874" ht="15.2" spans="7:11">
-      <c r="G874" s="12"/>
-      <c r="J874" s="15"/>
-      <c r="K874" s="16"/>
+      <c r="G874" s="15"/>
+      <c r="J874" s="18"/>
+      <c r="K874" s="19"/>
     </row>
     <row r="875" ht="15.2" spans="7:11">
-      <c r="G875" s="12"/>
-      <c r="J875" s="15"/>
-      <c r="K875" s="16"/>
+      <c r="G875" s="15"/>
+      <c r="J875" s="18"/>
+      <c r="K875" s="19"/>
     </row>
     <row r="876" ht="15.2" spans="7:11">
-      <c r="G876" s="12"/>
-      <c r="J876" s="15"/>
-      <c r="K876" s="16"/>
+      <c r="G876" s="15"/>
+      <c r="J876" s="18"/>
+      <c r="K876" s="19"/>
     </row>
     <row r="877" ht="15.2" spans="7:11">
-      <c r="G877" s="12"/>
-      <c r="J877" s="15"/>
-      <c r="K877" s="16"/>
+      <c r="G877" s="15"/>
+      <c r="J877" s="18"/>
+      <c r="K877" s="19"/>
     </row>
     <row r="878" ht="15.2" spans="7:11">
-      <c r="G878" s="12"/>
-      <c r="J878" s="15"/>
-      <c r="K878" s="16"/>
+      <c r="G878" s="15"/>
+      <c r="J878" s="18"/>
+      <c r="K878" s="19"/>
     </row>
     <row r="879" ht="15.2" spans="7:11">
-      <c r="G879" s="12"/>
-      <c r="J879" s="15"/>
-      <c r="K879" s="16"/>
+      <c r="G879" s="15"/>
+      <c r="J879" s="18"/>
+      <c r="K879" s="19"/>
     </row>
     <row r="880" ht="15.2" spans="7:11">
-      <c r="G880" s="12"/>
-      <c r="J880" s="15"/>
-      <c r="K880" s="16"/>
+      <c r="G880" s="15"/>
+      <c r="J880" s="18"/>
+      <c r="K880" s="19"/>
     </row>
     <row r="881" ht="15.2" spans="7:11">
-      <c r="G881" s="12"/>
-      <c r="J881" s="15"/>
-      <c r="K881" s="16"/>
+      <c r="G881" s="15"/>
+      <c r="J881" s="18"/>
+      <c r="K881" s="19"/>
     </row>
     <row r="882" ht="15.2" spans="7:11">
-      <c r="G882" s="12"/>
-      <c r="J882" s="15"/>
-      <c r="K882" s="16"/>
+      <c r="G882" s="15"/>
+      <c r="J882" s="18"/>
+      <c r="K882" s="19"/>
     </row>
     <row r="883" ht="15.2" spans="7:11">
-      <c r="G883" s="12"/>
-      <c r="J883" s="15"/>
-      <c r="K883" s="16"/>
+      <c r="G883" s="15"/>
+      <c r="J883" s="18"/>
+      <c r="K883" s="19"/>
     </row>
     <row r="884" ht="15.2" spans="7:11">
-      <c r="G884" s="12"/>
-      <c r="J884" s="15"/>
-      <c r="K884" s="16"/>
+      <c r="G884" s="15"/>
+      <c r="J884" s="18"/>
+      <c r="K884" s="19"/>
     </row>
     <row r="885" ht="15.2" spans="7:11">
-      <c r="G885" s="12"/>
-      <c r="J885" s="15"/>
-      <c r="K885" s="16"/>
+      <c r="G885" s="15"/>
+      <c r="J885" s="18"/>
+      <c r="K885" s="19"/>
     </row>
     <row r="886" ht="15.2" spans="7:11">
-      <c r="G886" s="12"/>
-      <c r="J886" s="15"/>
-      <c r="K886" s="16"/>
+      <c r="G886" s="15"/>
+      <c r="J886" s="18"/>
+      <c r="K886" s="19"/>
     </row>
     <row r="887" ht="15.2" spans="7:11">
-      <c r="G887" s="12"/>
-      <c r="J887" s="15"/>
-      <c r="K887" s="16"/>
+      <c r="G887" s="15"/>
+      <c r="J887" s="18"/>
+      <c r="K887" s="19"/>
     </row>
     <row r="888" ht="15.2" spans="7:11">
-      <c r="G888" s="12"/>
-      <c r="J888" s="15"/>
-      <c r="K888" s="16"/>
+      <c r="G888" s="15"/>
+      <c r="J888" s="18"/>
+      <c r="K888" s="19"/>
     </row>
     <row r="889" ht="15.2" spans="7:11">
-      <c r="G889" s="12"/>
-      <c r="J889" s="15"/>
-      <c r="K889" s="16"/>
+      <c r="G889" s="15"/>
+      <c r="J889" s="18"/>
+      <c r="K889" s="19"/>
     </row>
     <row r="890" ht="15.2" spans="7:11">
-      <c r="G890" s="12"/>
-      <c r="J890" s="15"/>
-      <c r="K890" s="16"/>
+      <c r="G890" s="15"/>
+      <c r="J890" s="18"/>
+      <c r="K890" s="19"/>
     </row>
     <row r="891" ht="15.2" spans="7:11">
-      <c r="G891" s="12"/>
-      <c r="J891" s="15"/>
-      <c r="K891" s="16"/>
+      <c r="G891" s="15"/>
+      <c r="J891" s="18"/>
+      <c r="K891" s="19"/>
     </row>
     <row r="892" ht="15.2" spans="7:11">
-      <c r="G892" s="12"/>
-      <c r="J892" s="15"/>
-      <c r="K892" s="16"/>
+      <c r="G892" s="15"/>
+      <c r="J892" s="18"/>
+      <c r="K892" s="19"/>
     </row>
     <row r="893" ht="15.2" spans="7:11">
-      <c r="G893" s="12"/>
-      <c r="J893" s="15"/>
-      <c r="K893" s="16"/>
+      <c r="G893" s="15"/>
+      <c r="J893" s="18"/>
+      <c r="K893" s="19"/>
     </row>
     <row r="894" ht="15.2" spans="7:11">
-      <c r="G894" s="12"/>
-      <c r="J894" s="15"/>
-      <c r="K894" s="16"/>
+      <c r="G894" s="15"/>
+      <c r="J894" s="18"/>
+      <c r="K894" s="19"/>
     </row>
     <row r="895" ht="15.2" spans="7:11">
-      <c r="G895" s="12"/>
-      <c r="J895" s="15"/>
-      <c r="K895" s="16"/>
+      <c r="G895" s="15"/>
+      <c r="J895" s="18"/>
+      <c r="K895" s="19"/>
     </row>
     <row r="896" ht="15.2" spans="7:11">
-      <c r="G896" s="12"/>
-      <c r="J896" s="15"/>
-      <c r="K896" s="16"/>
+      <c r="G896" s="15"/>
+      <c r="J896" s="18"/>
+      <c r="K896" s="19"/>
     </row>
     <row r="897" ht="15.2" spans="7:11">
-      <c r="G897" s="12"/>
-      <c r="J897" s="15"/>
-      <c r="K897" s="16"/>
+      <c r="G897" s="15"/>
+      <c r="J897" s="18"/>
+      <c r="K897" s="19"/>
     </row>
     <row r="898" ht="15.2" spans="7:11">
-      <c r="G898" s="12"/>
-      <c r="J898" s="15"/>
-      <c r="K898" s="16"/>
+      <c r="G898" s="15"/>
+      <c r="J898" s="18"/>
+      <c r="K898" s="19"/>
     </row>
     <row r="899" ht="15.2" spans="7:11">
-      <c r="G899" s="12"/>
-      <c r="J899" s="15"/>
-      <c r="K899" s="16"/>
+      <c r="G899" s="15"/>
+      <c r="J899" s="18"/>
+      <c r="K899" s="19"/>
     </row>
     <row r="900" ht="15.2" spans="7:11">
-      <c r="G900" s="12"/>
-      <c r="J900" s="15"/>
-      <c r="K900" s="16"/>
+      <c r="G900" s="15"/>
+      <c r="J900" s="18"/>
+      <c r="K900" s="19"/>
     </row>
     <row r="901" ht="15.2" spans="7:11">
-      <c r="G901" s="12"/>
-      <c r="J901" s="15"/>
-      <c r="K901" s="16"/>
+      <c r="G901" s="15"/>
+      <c r="J901" s="18"/>
+      <c r="K901" s="19"/>
     </row>
     <row r="902" ht="15.2" spans="7:11">
-      <c r="G902" s="12"/>
-      <c r="J902" s="15"/>
-      <c r="K902" s="16"/>
+      <c r="G902" s="15"/>
+      <c r="J902" s="18"/>
+      <c r="K902" s="19"/>
     </row>
     <row r="903" ht="15.2" spans="7:11">
-      <c r="G903" s="12"/>
-      <c r="J903" s="15"/>
-      <c r="K903" s="16"/>
+      <c r="G903" s="15"/>
+      <c r="J903" s="18"/>
+      <c r="K903" s="19"/>
     </row>
     <row r="904" ht="15.2" spans="7:11">
-      <c r="G904" s="12"/>
-      <c r="J904" s="15"/>
-      <c r="K904" s="16"/>
+      <c r="G904" s="15"/>
+      <c r="J904" s="18"/>
+      <c r="K904" s="19"/>
     </row>
     <row r="905" ht="15.2" spans="7:11">
-      <c r="G905" s="12"/>
-      <c r="J905" s="15"/>
-      <c r="K905" s="16"/>
+      <c r="G905" s="15"/>
+      <c r="J905" s="18"/>
+      <c r="K905" s="19"/>
     </row>
     <row r="906" ht="15.2" spans="7:11">
-      <c r="G906" s="12"/>
-      <c r="J906" s="15"/>
-      <c r="K906" s="16"/>
+      <c r="G906" s="15"/>
+      <c r="J906" s="18"/>
+      <c r="K906" s="19"/>
     </row>
     <row r="907" ht="15.2" spans="7:11">
-      <c r="G907" s="12"/>
-      <c r="J907" s="15"/>
-      <c r="K907" s="16"/>
+      <c r="G907" s="15"/>
+      <c r="J907" s="18"/>
+      <c r="K907" s="19"/>
     </row>
     <row r="908" ht="15.2" spans="7:11">
-      <c r="G908" s="12"/>
-      <c r="J908" s="15"/>
-      <c r="K908" s="16"/>
+      <c r="G908" s="15"/>
+      <c r="J908" s="18"/>
+      <c r="K908" s="19"/>
     </row>
     <row r="909" ht="15.2" spans="7:11">
-      <c r="G909" s="12"/>
-      <c r="J909" s="15"/>
-      <c r="K909" s="16"/>
+      <c r="G909" s="15"/>
+      <c r="J909" s="18"/>
+      <c r="K909" s="19"/>
     </row>
     <row r="910" ht="15.2" spans="7:11">
-      <c r="G910" s="12"/>
-      <c r="J910" s="15"/>
-      <c r="K910" s="16"/>
+      <c r="G910" s="15"/>
+      <c r="J910" s="18"/>
+      <c r="K910" s="19"/>
     </row>
     <row r="911" ht="15.2" spans="7:11">
-      <c r="G911" s="12"/>
-      <c r="J911" s="15"/>
-      <c r="K911" s="16"/>
+      <c r="G911" s="15"/>
+      <c r="J911" s="18"/>
+      <c r="K911" s="19"/>
     </row>
     <row r="912" ht="15.2" spans="7:11">
-      <c r="G912" s="12"/>
-      <c r="J912" s="15"/>
-      <c r="K912" s="16"/>
+      <c r="G912" s="15"/>
+      <c r="J912" s="18"/>
+      <c r="K912" s="19"/>
     </row>
     <row r="913" ht="15.2" spans="7:11">
-      <c r="G913" s="12"/>
-      <c r="J913" s="15"/>
-      <c r="K913" s="16"/>
+      <c r="G913" s="15"/>
+      <c r="J913" s="18"/>
+      <c r="K913" s="19"/>
     </row>
     <row r="914" ht="15.2" spans="7:11">
-      <c r="G914" s="12"/>
-      <c r="J914" s="15"/>
-      <c r="K914" s="16"/>
+      <c r="G914" s="15"/>
+      <c r="J914" s="18"/>
+      <c r="K914" s="19"/>
     </row>
     <row r="915" ht="15.2" spans="7:11">
-      <c r="G915" s="12"/>
-      <c r="J915" s="15"/>
-      <c r="K915" s="16"/>
+      <c r="G915" s="15"/>
+      <c r="J915" s="18"/>
+      <c r="K915" s="19"/>
     </row>
     <row r="916" ht="15.2" spans="7:11">
-      <c r="G916" s="12"/>
-      <c r="J916" s="15"/>
-      <c r="K916" s="16"/>
+      <c r="G916" s="15"/>
+      <c r="J916" s="18"/>
+      <c r="K916" s="19"/>
     </row>
     <row r="917" ht="15.2" spans="7:11">
-      <c r="G917" s="12"/>
-      <c r="J917" s="15"/>
-      <c r="K917" s="16"/>
+      <c r="G917" s="15"/>
+      <c r="J917" s="18"/>
+      <c r="K917" s="19"/>
     </row>
     <row r="918" ht="15.2" spans="7:11">
-      <c r="G918" s="12"/>
-      <c r="J918" s="15"/>
-      <c r="K918" s="16"/>
+      <c r="G918" s="15"/>
+      <c r="J918" s="18"/>
+      <c r="K918" s="19"/>
     </row>
     <row r="919" ht="15.2" spans="7:11">
-      <c r="G919" s="12"/>
-      <c r="J919" s="15"/>
-      <c r="K919" s="16"/>
+      <c r="G919" s="15"/>
+      <c r="J919" s="18"/>
+      <c r="K919" s="19"/>
     </row>
     <row r="920" ht="15.2" spans="7:11">
-      <c r="G920" s="12"/>
-      <c r="J920" s="15"/>
-      <c r="K920" s="16"/>
+      <c r="G920" s="15"/>
+      <c r="J920" s="18"/>
+      <c r="K920" s="19"/>
     </row>
     <row r="921" ht="15.2" spans="7:11">
-      <c r="G921" s="12"/>
-      <c r="J921" s="15"/>
-      <c r="K921" s="16"/>
+      <c r="G921" s="15"/>
+      <c r="J921" s="18"/>
+      <c r="K921" s="19"/>
     </row>
     <row r="922" ht="15.2" spans="7:11">
-      <c r="G922" s="12"/>
-      <c r="J922" s="15"/>
-      <c r="K922" s="16"/>
+      <c r="G922" s="15"/>
+      <c r="J922" s="18"/>
+      <c r="K922" s="19"/>
     </row>
     <row r="923" ht="15.2" spans="7:11">
-      <c r="G923" s="12"/>
-      <c r="J923" s="15"/>
-      <c r="K923" s="16"/>
+      <c r="G923" s="15"/>
+      <c r="J923" s="18"/>
+      <c r="K923" s="19"/>
     </row>
     <row r="924" ht="15.2" spans="7:11">
-      <c r="G924" s="12"/>
-      <c r="J924" s="15"/>
-      <c r="K924" s="16"/>
+      <c r="G924" s="15"/>
+      <c r="J924" s="18"/>
+      <c r="K924" s="19"/>
     </row>
     <row r="925" ht="15.2" spans="7:11">
-      <c r="G925" s="12"/>
-      <c r="J925" s="15"/>
-      <c r="K925" s="16"/>
+      <c r="G925" s="15"/>
+      <c r="J925" s="18"/>
+      <c r="K925" s="19"/>
     </row>
     <row r="926" ht="15.2" spans="7:11">
-      <c r="G926" s="12"/>
-      <c r="J926" s="15"/>
-      <c r="K926" s="16"/>
+      <c r="G926" s="15"/>
+      <c r="J926" s="18"/>
+      <c r="K926" s="19"/>
     </row>
     <row r="927" ht="15.2" spans="7:11">
-      <c r="G927" s="12"/>
-      <c r="J927" s="15"/>
-      <c r="K927" s="16"/>
+      <c r="G927" s="15"/>
+      <c r="J927" s="18"/>
+      <c r="K927" s="19"/>
     </row>
     <row r="928" ht="15.2" spans="7:11">
-      <c r="G928" s="12"/>
-      <c r="J928" s="15"/>
-      <c r="K928" s="16"/>
+      <c r="G928" s="15"/>
+      <c r="J928" s="18"/>
+      <c r="K928" s="19"/>
     </row>
     <row r="929" ht="15.2" spans="7:11">
-      <c r="G929" s="12"/>
-      <c r="J929" s="15"/>
-      <c r="K929" s="16"/>
+      <c r="G929" s="15"/>
+      <c r="J929" s="18"/>
+      <c r="K929" s="19"/>
     </row>
     <row r="930" ht="15.2" spans="7:11">
-      <c r="G930" s="12"/>
-      <c r="J930" s="15"/>
-      <c r="K930" s="16"/>
+      <c r="G930" s="15"/>
+      <c r="J930" s="18"/>
+      <c r="K930" s="19"/>
     </row>
     <row r="931" ht="15.2" spans="7:11">
-      <c r="G931" s="12"/>
-      <c r="J931" s="15"/>
-      <c r="K931" s="16"/>
+      <c r="G931" s="15"/>
+      <c r="J931" s="18"/>
+      <c r="K931" s="19"/>
     </row>
     <row r="932" ht="15.2" spans="7:11">
-      <c r="G932" s="12"/>
-      <c r="J932" s="15"/>
-      <c r="K932" s="16"/>
+      <c r="G932" s="15"/>
+      <c r="J932" s="18"/>
+      <c r="K932" s="19"/>
     </row>
     <row r="933" ht="15.2" spans="7:11">
-      <c r="G933" s="12"/>
-      <c r="J933" s="15"/>
-      <c r="K933" s="16"/>
+      <c r="G933" s="15"/>
+      <c r="J933" s="18"/>
+      <c r="K933" s="19"/>
     </row>
     <row r="934" ht="15.2" spans="7:11">
-      <c r="G934" s="12"/>
-      <c r="J934" s="15"/>
-      <c r="K934" s="16"/>
+      <c r="G934" s="15"/>
+      <c r="J934" s="18"/>
+      <c r="K934" s="19"/>
     </row>
     <row r="935" ht="15.2" spans="7:11">
-      <c r="G935" s="12"/>
-      <c r="J935" s="15"/>
-      <c r="K935" s="16"/>
+      <c r="G935" s="15"/>
+      <c r="J935" s="18"/>
+      <c r="K935" s="19"/>
     </row>
     <row r="936" ht="15.2" spans="7:11">
-      <c r="G936" s="12"/>
-      <c r="J936" s="15"/>
-      <c r="K936" s="16"/>
+      <c r="G936" s="15"/>
+      <c r="J936" s="18"/>
+      <c r="K936" s="19"/>
     </row>
     <row r="937" ht="15.2" spans="7:11">
-      <c r="G937" s="12"/>
-      <c r="J937" s="15"/>
-      <c r="K937" s="16"/>
+      <c r="G937" s="15"/>
+      <c r="J937" s="18"/>
+      <c r="K937" s="19"/>
     </row>
     <row r="938" ht="15.2" spans="7:11">
-      <c r="G938" s="12"/>
-      <c r="J938" s="15"/>
-      <c r="K938" s="16"/>
+      <c r="G938" s="15"/>
+      <c r="J938" s="18"/>
+      <c r="K938" s="19"/>
     </row>
     <row r="939" ht="15.2" spans="7:11">
-      <c r="G939" s="12"/>
-      <c r="J939" s="15"/>
-      <c r="K939" s="16"/>
+      <c r="G939" s="15"/>
+      <c r="J939" s="18"/>
+      <c r="K939" s="19"/>
     </row>
     <row r="940" ht="15.2" spans="7:11">
-      <c r="G940" s="12"/>
-      <c r="J940" s="15"/>
-      <c r="K940" s="16"/>
+      <c r="G940" s="15"/>
+      <c r="J940" s="18"/>
+      <c r="K940" s="19"/>
     </row>
     <row r="941" ht="15.2" spans="7:11">
-      <c r="G941" s="12"/>
-      <c r="J941" s="15"/>
-      <c r="K941" s="16"/>
+      <c r="G941" s="15"/>
+      <c r="J941" s="18"/>
+      <c r="K941" s="19"/>
     </row>
     <row r="942" ht="15.2" spans="7:11">
-      <c r="G942" s="12"/>
-      <c r="J942" s="15"/>
-      <c r="K942" s="16"/>
+      <c r="G942" s="15"/>
+      <c r="J942" s="18"/>
+      <c r="K942" s="19"/>
     </row>
     <row r="943" ht="15.2" spans="7:11">
-      <c r="G943" s="12"/>
-      <c r="J943" s="15"/>
-      <c r="K943" s="16"/>
+      <c r="G943" s="15"/>
+      <c r="J943" s="18"/>
+      <c r="K943" s="19"/>
     </row>
     <row r="944" ht="15.2" spans="7:11">
-      <c r="G944" s="12"/>
-      <c r="J944" s="15"/>
-      <c r="K944" s="16"/>
+      <c r="G944" s="15"/>
+      <c r="J944" s="18"/>
+      <c r="K944" s="19"/>
     </row>
     <row r="945" ht="15.2" spans="7:11">
-      <c r="G945" s="12"/>
-      <c r="J945" s="15"/>
-      <c r="K945" s="16"/>
+      <c r="G945" s="15"/>
+      <c r="J945" s="18"/>
+      <c r="K945" s="19"/>
     </row>
     <row r="946" ht="15.2" spans="7:11">
-      <c r="G946" s="12"/>
-      <c r="J946" s="15"/>
-      <c r="K946" s="16"/>
+      <c r="G946" s="15"/>
+      <c r="J946" s="18"/>
+      <c r="K946" s="19"/>
     </row>
     <row r="947" ht="15.2" spans="7:11">
-      <c r="G947" s="12"/>
-      <c r="J947" s="15"/>
-      <c r="K947" s="16"/>
+      <c r="G947" s="15"/>
+      <c r="J947" s="18"/>
+      <c r="K947" s="19"/>
     </row>
     <row r="948" ht="15.2" spans="7:11">
-      <c r="G948" s="12"/>
-      <c r="J948" s="15"/>
-      <c r="K948" s="16"/>
+      <c r="G948" s="15"/>
+      <c r="J948" s="18"/>
+      <c r="K948" s="19"/>
     </row>
     <row r="949" ht="15.2" spans="7:11">
-      <c r="G949" s="12"/>
-      <c r="J949" s="15"/>
-      <c r="K949" s="16"/>
+      <c r="G949" s="15"/>
+      <c r="J949" s="18"/>
+      <c r="K949" s="19"/>
     </row>
     <row r="950" ht="15.2" spans="7:11">
-      <c r="G950" s="12"/>
-      <c r="J950" s="15"/>
-      <c r="K950" s="16"/>
+      <c r="G950" s="15"/>
+      <c r="J950" s="18"/>
+      <c r="K950" s="19"/>
     </row>
     <row r="951" ht="15.2" spans="7:11">
-      <c r="G951" s="12"/>
-      <c r="J951" s="15"/>
-      <c r="K951" s="16"/>
+      <c r="G951" s="15"/>
+      <c r="J951" s="18"/>
+      <c r="K951" s="19"/>
     </row>
     <row r="952" ht="15.2" spans="7:11">
-      <c r="G952" s="12"/>
-      <c r="J952" s="15"/>
-      <c r="K952" s="16"/>
+      <c r="G952" s="15"/>
+      <c r="J952" s="18"/>
+      <c r="K952" s="19"/>
     </row>
     <row r="953" ht="15.2" spans="7:11">
-      <c r="G953" s="12"/>
-      <c r="J953" s="15"/>
-      <c r="K953" s="16"/>
+      <c r="G953" s="15"/>
+      <c r="J953" s="18"/>
+      <c r="K953" s="19"/>
     </row>
     <row r="954" ht="15.2" spans="7:11">
-      <c r="G954" s="12"/>
-      <c r="J954" s="15"/>
-      <c r="K954" s="16"/>
+      <c r="G954" s="15"/>
+      <c r="J954" s="18"/>
+      <c r="K954" s="19"/>
     </row>
     <row r="955" ht="15.2" spans="7:11">
-      <c r="G955" s="12"/>
-      <c r="J955" s="15"/>
-      <c r="K955" s="16"/>
+      <c r="G955" s="15"/>
+      <c r="J955" s="18"/>
+      <c r="K955" s="19"/>
     </row>
     <row r="956" ht="15.2" spans="7:11">
-      <c r="G956" s="12"/>
-      <c r="J956" s="15"/>
-      <c r="K956" s="16"/>
+      <c r="G956" s="15"/>
+      <c r="J956" s="18"/>
+      <c r="K956" s="19"/>
     </row>
     <row r="957" ht="15.2" spans="7:11">
-      <c r="G957" s="12"/>
-      <c r="J957" s="15"/>
-      <c r="K957" s="16"/>
+      <c r="G957" s="15"/>
+      <c r="J957" s="18"/>
+      <c r="K957" s="19"/>
     </row>
     <row r="958" ht="15.2" spans="7:11">
-      <c r="G958" s="12"/>
-      <c r="J958" s="15"/>
-      <c r="K958" s="16"/>
+      <c r="G958" s="15"/>
+      <c r="J958" s="18"/>
+      <c r="K958" s="19"/>
     </row>
     <row r="959" ht="15.2" spans="7:11">
-      <c r="G959" s="12"/>
-      <c r="J959" s="15"/>
-      <c r="K959" s="16"/>
+      <c r="G959" s="15"/>
+      <c r="J959" s="18"/>
+      <c r="K959" s="19"/>
     </row>
     <row r="960" ht="15.2" spans="7:11">
-      <c r="G960" s="12"/>
-      <c r="J960" s="15"/>
-      <c r="K960" s="16"/>
+      <c r="G960" s="15"/>
+      <c r="J960" s="18"/>
+      <c r="K960" s="19"/>
     </row>
     <row r="961" ht="15.2" spans="7:11">
-      <c r="G961" s="12"/>
-      <c r="J961" s="15"/>
-      <c r="K961" s="16"/>
+      <c r="G961" s="15"/>
+      <c r="J961" s="18"/>
+      <c r="K961" s="19"/>
     </row>
     <row r="962" ht="15.2" spans="7:11">
-      <c r="G962" s="12"/>
-      <c r="J962" s="15"/>
-      <c r="K962" s="16"/>
+      <c r="G962" s="15"/>
+      <c r="J962" s="18"/>
+      <c r="K962" s="19"/>
     </row>
     <row r="963" ht="15.2" spans="7:11">
-      <c r="G963" s="12"/>
-      <c r="J963" s="15"/>
-      <c r="K963" s="16"/>
+      <c r="G963" s="15"/>
+      <c r="J963" s="18"/>
+      <c r="K963" s="19"/>
     </row>
     <row r="964" ht="15.2" spans="7:11">
-      <c r="G964" s="12"/>
-      <c r="J964" s="15"/>
-      <c r="K964" s="16"/>
+      <c r="G964" s="15"/>
+      <c r="J964" s="18"/>
+      <c r="K964" s="19"/>
     </row>
     <row r="965" ht="15.2" spans="7:11">
-      <c r="G965" s="12"/>
-      <c r="J965" s="15"/>
-      <c r="K965" s="16"/>
+      <c r="G965" s="15"/>
+      <c r="J965" s="18"/>
+      <c r="K965" s="19"/>
     </row>
     <row r="966" ht="15.2" spans="7:11">
-      <c r="G966" s="12"/>
-      <c r="J966" s="15"/>
-      <c r="K966" s="16"/>
+      <c r="G966" s="15"/>
+      <c r="J966" s="18"/>
+      <c r="K966" s="19"/>
     </row>
     <row r="967" ht="15.2" spans="7:11">
-      <c r="G967" s="12"/>
-      <c r="J967" s="15"/>
-      <c r="K967" s="16"/>
+      <c r="G967" s="15"/>
+      <c r="J967" s="18"/>
+      <c r="K967" s="19"/>
     </row>
     <row r="968" ht="15.2" spans="7:11">
-      <c r="G968" s="12"/>
-      <c r="J968" s="15"/>
-      <c r="K968" s="16"/>
+      <c r="G968" s="15"/>
+      <c r="J968" s="18"/>
+      <c r="K968" s="19"/>
     </row>
     <row r="969" ht="15.2" spans="7:11">
-      <c r="G969" s="12"/>
-      <c r="J969" s="15"/>
-      <c r="K969" s="16"/>
+      <c r="G969" s="15"/>
+      <c r="J969" s="18"/>
+      <c r="K969" s="19"/>
     </row>
     <row r="970" ht="15.2" spans="7:11">
-      <c r="G970" s="12"/>
-      <c r="J970" s="15"/>
-      <c r="K970" s="16"/>
+      <c r="G970" s="15"/>
+      <c r="J970" s="18"/>
+      <c r="K970" s="19"/>
     </row>
     <row r="971" ht="15.2" spans="7:11">
-      <c r="G971" s="12"/>
-      <c r="J971" s="15"/>
-      <c r="K971" s="16"/>
+      <c r="G971" s="15"/>
+      <c r="J971" s="18"/>
+      <c r="K971" s="19"/>
     </row>
     <row r="972" ht="15.2" spans="7:11">
-      <c r="G972" s="12"/>
-      <c r="J972" s="15"/>
-      <c r="K972" s="16"/>
+      <c r="G972" s="15"/>
+      <c r="J972" s="18"/>
+      <c r="K972" s="19"/>
     </row>
     <row r="973" ht="15.2" spans="7:11">
-      <c r="G973" s="12"/>
-      <c r="J973" s="15"/>
-      <c r="K973" s="16"/>
+      <c r="G973" s="15"/>
+      <c r="J973" s="18"/>
+      <c r="K973" s="19"/>
     </row>
     <row r="974" ht="15.2" spans="7:11">
-      <c r="G974" s="12"/>
-      <c r="J974" s="15"/>
-      <c r="K974" s="16"/>
+      <c r="G974" s="15"/>
+      <c r="J974" s="18"/>
+      <c r="K974" s="19"/>
     </row>
     <row r="975" ht="15.2" spans="7:11">
-      <c r="G975" s="12"/>
-      <c r="J975" s="15"/>
-      <c r="K975" s="16"/>
+      <c r="G975" s="15"/>
+      <c r="J975" s="18"/>
+      <c r="K975" s="19"/>
     </row>
     <row r="976" ht="15.2" spans="7:11">
-      <c r="G976" s="12"/>
-      <c r="J976" s="15"/>
-      <c r="K976" s="16"/>
+      <c r="G976" s="15"/>
+      <c r="J976" s="18"/>
+      <c r="K976" s="19"/>
     </row>
     <row r="977" ht="15.2" spans="7:11">
-      <c r="G977" s="12"/>
-      <c r="J977" s="15"/>
-      <c r="K977" s="16"/>
+      <c r="G977" s="15"/>
+      <c r="J977" s="18"/>
+      <c r="K977" s="19"/>
     </row>
     <row r="978" ht="15.2" spans="7:11">
-      <c r="G978" s="12"/>
-      <c r="J978" s="15"/>
-      <c r="K978" s="16"/>
+      <c r="G978" s="15"/>
+      <c r="J978" s="18"/>
+      <c r="K978" s="19"/>
     </row>
     <row r="979" ht="15.2" spans="7:11">
-      <c r="G979" s="12"/>
-      <c r="J979" s="15"/>
-      <c r="K979" s="16"/>
+      <c r="G979" s="15"/>
+      <c r="J979" s="18"/>
+      <c r="K979" s="19"/>
     </row>
     <row r="980" ht="15.2" spans="7:11">
-      <c r="G980" s="12"/>
-      <c r="J980" s="15"/>
-      <c r="K980" s="16"/>
+      <c r="G980" s="15"/>
+      <c r="J980" s="18"/>
+      <c r="K980" s="19"/>
     </row>
     <row r="981" ht="15.2" spans="7:11">
-      <c r="G981" s="12"/>
-      <c r="J981" s="15"/>
-      <c r="K981" s="16"/>
+      <c r="G981" s="15"/>
+      <c r="J981" s="18"/>
+      <c r="K981" s="19"/>
     </row>
     <row r="982" ht="15.2" spans="7:11">
-      <c r="G982" s="12"/>
-      <c r="J982" s="15"/>
-      <c r="K982" s="16"/>
+      <c r="G982" s="15"/>
+      <c r="J982" s="18"/>
+      <c r="K982" s="19"/>
     </row>
     <row r="983" ht="15.2" spans="7:11">
-      <c r="G983" s="12"/>
-      <c r="J983" s="15"/>
-      <c r="K983" s="16"/>
+      <c r="G983" s="15"/>
+      <c r="J983" s="18"/>
+      <c r="K983" s="19"/>
     </row>
     <row r="984" ht="15.2" spans="7:11">
-      <c r="G984" s="12"/>
-      <c r="J984" s="15"/>
-      <c r="K984" s="16"/>
+      <c r="G984" s="15"/>
+      <c r="J984" s="18"/>
+      <c r="K984" s="19"/>
     </row>
     <row r="985" ht="15.2" spans="7:11">
-      <c r="G985" s="12"/>
-      <c r="J985" s="15"/>
-      <c r="K985" s="16"/>
+      <c r="G985" s="15"/>
+      <c r="J985" s="18"/>
+      <c r="K985" s="19"/>
     </row>
     <row r="986" ht="15.2" spans="7:11">
-      <c r="G986" s="12"/>
-      <c r="J986" s="15"/>
-      <c r="K986" s="16"/>
+      <c r="G986" s="15"/>
+      <c r="J986" s="18"/>
+      <c r="K986" s="19"/>
     </row>
     <row r="987" ht="15.2" spans="7:11">
-      <c r="G987" s="12"/>
-      <c r="J987" s="15"/>
-      <c r="K987" s="16"/>
+      <c r="G987" s="15"/>
+      <c r="J987" s="18"/>
+      <c r="K987" s="19"/>
     </row>
     <row r="988" ht="15.2" spans="7:11">
-      <c r="G988" s="12"/>
-      <c r="J988" s="15"/>
-      <c r="K988" s="16"/>
+      <c r="G988" s="15"/>
+      <c r="J988" s="18"/>
+      <c r="K988" s="19"/>
     </row>
     <row r="989" ht="15.2" spans="7:11">
-      <c r="G989" s="12"/>
-      <c r="J989" s="15"/>
-      <c r="K989" s="16"/>
+      <c r="G989" s="15"/>
+      <c r="J989" s="18"/>
+      <c r="K989" s="19"/>
     </row>
     <row r="990" ht="15.2" spans="7:11">
-      <c r="G990" s="12"/>
-      <c r="J990" s="15"/>
-      <c r="K990" s="16"/>
+      <c r="G990" s="15"/>
+      <c r="J990" s="18"/>
+      <c r="K990" s="19"/>
     </row>
     <row r="991" ht="15.2" spans="7:11">
-      <c r="G991" s="12"/>
-      <c r="J991" s="15"/>
-      <c r="K991" s="16"/>
+      <c r="G991" s="15"/>
+      <c r="J991" s="18"/>
+      <c r="K991" s="19"/>
     </row>
     <row r="992" ht="15.2" spans="7:11">
-      <c r="G992" s="12"/>
-      <c r="J992" s="15"/>
-      <c r="K992" s="16"/>
+      <c r="G992" s="15"/>
+      <c r="J992" s="18"/>
+      <c r="K992" s="19"/>
     </row>
     <row r="993" ht="15.2" spans="7:11">
-      <c r="G993" s="12"/>
-      <c r="J993" s="15"/>
-      <c r="K993" s="16"/>
+      <c r="G993" s="15"/>
+      <c r="J993" s="18"/>
+      <c r="K993" s="19"/>
     </row>
     <row r="994" ht="15.2" spans="7:11">
-      <c r="G994" s="12"/>
-      <c r="J994" s="15"/>
-      <c r="K994" s="16"/>
+      <c r="G994" s="15"/>
+      <c r="J994" s="18"/>
+      <c r="K994" s="19"/>
     </row>
     <row r="995" ht="15.2" spans="7:11">
-      <c r="G995" s="12"/>
-      <c r="J995" s="15"/>
-      <c r="K995" s="16"/>
+      <c r="G995" s="15"/>
+      <c r="J995" s="18"/>
+      <c r="K995" s="19"/>
     </row>
     <row r="996" ht="15.2" spans="7:11">
-      <c r="G996" s="12"/>
-      <c r="J996" s="15"/>
-      <c r="K996" s="16"/>
+      <c r="G996" s="15"/>
+      <c r="J996" s="18"/>
+      <c r="K996" s="19"/>
     </row>
     <row r="997" ht="15.2" spans="7:11">
-      <c r="G997" s="12"/>
-      <c r="J997" s="15"/>
-      <c r="K997" s="16"/>
+      <c r="G997" s="15"/>
+      <c r="J997" s="18"/>
+      <c r="K997" s="19"/>
     </row>
     <row r="998" ht="15.2" spans="7:11">
-      <c r="G998" s="12"/>
-      <c r="J998" s="15"/>
-      <c r="K998" s="16"/>
+      <c r="G998" s="15"/>
+      <c r="J998" s="18"/>
+      <c r="K998" s="19"/>
     </row>
     <row r="999" ht="15.2" spans="7:11">
-      <c r="G999" s="12"/>
-      <c r="J999" s="15"/>
-      <c r="K999" s="16"/>
+      <c r="G999" s="15"/>
+      <c r="J999" s="18"/>
+      <c r="K999" s="19"/>
     </row>
     <row r="1000" ht="15.2" spans="7:11">
-      <c r="G1000" s="12"/>
-      <c r="J1000" s="15"/>
-      <c r="K1000" s="16"/>
+      <c r="G1000" s="15"/>
+      <c r="J1000" s="18"/>
+      <c r="K1000" s="19"/>
     </row>
     <row r="1001" ht="15.2" spans="7:11">
-      <c r="G1001" s="12"/>
-      <c r="J1001" s="15"/>
-      <c r="K1001" s="16"/>
+      <c r="G1001" s="15"/>
+      <c r="J1001" s="18"/>
+      <c r="K1001" s="19"/>
     </row>
     <row r="1002" ht="15.2" spans="7:11">
-      <c r="G1002" s="12"/>
-      <c r="J1002" s="15"/>
-      <c r="K1002" s="16"/>
+      <c r="G1002" s="15"/>
+      <c r="J1002" s="18"/>
+      <c r="K1002" s="19"/>
     </row>
     <row r="1003" ht="15.2" spans="7:11">
-      <c r="G1003" s="12"/>
-      <c r="J1003" s="15"/>
-      <c r="K1003" s="16"/>
+      <c r="G1003" s="15"/>
+      <c r="J1003" s="18"/>
+      <c r="K1003" s="19"/>
     </row>
     <row r="1004" ht="15.2" spans="7:11">
-      <c r="G1004" s="12"/>
-      <c r="J1004" s="15"/>
-      <c r="K1004" s="16"/>
+      <c r="G1004" s="15"/>
+      <c r="J1004" s="18"/>
+      <c r="K1004" s="19"/>
     </row>
     <row r="1005" ht="15.2" spans="7:11">
-      <c r="G1005" s="12"/>
-      <c r="J1005" s="15"/>
-      <c r="K1005" s="16"/>
+      <c r="G1005" s="15"/>
+      <c r="J1005" s="18"/>
+      <c r="K1005" s="19"/>
     </row>
     <row r="1006" ht="15.2" spans="7:11">
-      <c r="G1006" s="12"/>
-      <c r="J1006" s="15"/>
-      <c r="K1006" s="16"/>
+      <c r="G1006" s="15"/>
+      <c r="J1006" s="18"/>
+      <c r="K1006" s="19"/>
     </row>
     <row r="1007" ht="15.2" spans="7:11">
-      <c r="G1007" s="12"/>
-      <c r="J1007" s="15"/>
-      <c r="K1007" s="16"/>
+      <c r="G1007" s="15"/>
+      <c r="J1007" s="18"/>
+      <c r="K1007" s="19"/>
     </row>
     <row r="1008" ht="15.2" spans="7:11">
-      <c r="G1008" s="12"/>
-      <c r="J1008" s="15"/>
-      <c r="K1008" s="16"/>
+      <c r="G1008" s="15"/>
+      <c r="J1008" s="18"/>
+      <c r="K1008" s="19"/>
     </row>
     <row r="1009" ht="15.2" spans="7:11">
-      <c r="G1009" s="12"/>
-      <c r="J1009" s="15"/>
-      <c r="K1009" s="16"/>
+      <c r="G1009" s="15"/>
+      <c r="J1009" s="18"/>
+      <c r="K1009" s="19"/>
     </row>
     <row r="1010" ht="15.2" spans="7:11">
-      <c r="G1010" s="12"/>
-      <c r="J1010" s="15"/>
-      <c r="K1010" s="16"/>
+      <c r="G1010" s="15"/>
+      <c r="J1010" s="18"/>
+      <c r="K1010" s="19"/>
     </row>
     <row r="1011" ht="15.2" spans="7:11">
-      <c r="G1011" s="12"/>
-      <c r="J1011" s="15"/>
-      <c r="K1011" s="16"/>
+      <c r="G1011" s="15"/>
+      <c r="J1011" s="18"/>
+      <c r="K1011" s="19"/>
     </row>
     <row r="1012" ht="15.2" spans="7:11">
-      <c r="G1012" s="12"/>
-      <c r="J1012" s="15"/>
-      <c r="K1012" s="16"/>
+      <c r="G1012" s="15"/>
+      <c r="J1012" s="18"/>
+      <c r="K1012" s="19"/>
     </row>
     <row r="1013" ht="15.2" spans="7:11">
-      <c r="G1013" s="12"/>
-      <c r="J1013" s="15"/>
-      <c r="K1013" s="16"/>
+      <c r="G1013" s="15"/>
+      <c r="J1013" s="18"/>
+      <c r="K1013" s="19"/>
     </row>
     <row r="1014" ht="15.2" spans="7:11">
-      <c r="G1014" s="12"/>
-      <c r="J1014" s="15"/>
-      <c r="K1014" s="16"/>
+      <c r="G1014" s="15"/>
+      <c r="J1014" s="18"/>
+      <c r="K1014" s="19"/>
     </row>
     <row r="1015" ht="15.2" spans="7:11">
-      <c r="G1015" s="12"/>
-      <c r="J1015" s="15"/>
-      <c r="K1015" s="16"/>
+      <c r="G1015" s="15"/>
+      <c r="J1015" s="18"/>
+      <c r="K1015" s="19"/>
     </row>
     <row r="1016" ht="15.2" spans="7:11">
-      <c r="G1016" s="12"/>
-      <c r="J1016" s="15"/>
-      <c r="K1016" s="16"/>
+      <c r="G1016" s="15"/>
+      <c r="J1016" s="18"/>
+      <c r="K1016" s="19"/>
     </row>
     <row r="1017" ht="15.2" spans="7:11">
-      <c r="G1017" s="12"/>
-      <c r="J1017" s="15"/>
-      <c r="K1017" s="16"/>
+      <c r="G1017" s="15"/>
+      <c r="J1017" s="18"/>
+      <c r="K1017" s="19"/>
     </row>
     <row r="1018" ht="15.2" spans="7:11">
-      <c r="G1018" s="12"/>
-      <c r="J1018" s="15"/>
-      <c r="K1018" s="16"/>
+      <c r="G1018" s="15"/>
+      <c r="J1018" s="18"/>
+      <c r="K1018" s="19"/>
     </row>
     <row r="1019" ht="15.2" spans="7:11">
-      <c r="G1019" s="12"/>
-      <c r="J1019" s="15"/>
-      <c r="K1019" s="16"/>
+      <c r="G1019" s="15"/>
+      <c r="J1019" s="18"/>
+      <c r="K1019" s="19"/>
     </row>
     <row r="1020" ht="15.2" spans="7:11">
-      <c r="G1020" s="12"/>
-      <c r="J1020" s="15"/>
-      <c r="K1020" s="16"/>
+      <c r="G1020" s="15"/>
+      <c r="J1020" s="18"/>
+      <c r="K1020" s="19"/>
     </row>
     <row r="1021" ht="15.2" spans="7:11">
-      <c r="G1021" s="12"/>
-      <c r="J1021" s="15"/>
-      <c r="K1021" s="16"/>
+      <c r="G1021" s="15"/>
+      <c r="J1021" s="18"/>
+      <c r="K1021" s="19"/>
     </row>
     <row r="1022" ht="15.2" spans="7:11">
-      <c r="G1022" s="12"/>
-      <c r="J1022" s="15"/>
-      <c r="K1022" s="16"/>
+      <c r="G1022" s="15"/>
+      <c r="J1022" s="18"/>
+      <c r="K1022" s="19"/>
     </row>
     <row r="1023" ht="15.2" spans="7:11">
-      <c r="G1023" s="12"/>
-      <c r="J1023" s="15"/>
-      <c r="K1023" s="16"/>
+      <c r="G1023" s="15"/>
+      <c r="J1023" s="18"/>
+      <c r="K1023" s="19"/>
     </row>
     <row r="1024" ht="15.2" spans="7:11">
-      <c r="G1024" s="12"/>
-      <c r="J1024" s="15"/>
-      <c r="K1024" s="16"/>
+      <c r="G1024" s="15"/>
+      <c r="J1024" s="18"/>
+      <c r="K1024" s="19"/>
     </row>
     <row r="1025" ht="15.2" spans="7:11">
-      <c r="G1025" s="12"/>
-      <c r="J1025" s="15"/>
-      <c r="K1025" s="16"/>
+      <c r="G1025" s="15"/>
+      <c r="J1025" s="18"/>
+      <c r="K1025" s="19"/>
     </row>
     <row r="1026" ht="15.2" spans="7:11">
-      <c r="G1026" s="12"/>
-      <c r="J1026" s="15"/>
-      <c r="K1026" s="16"/>
+      <c r="G1026" s="15"/>
+      <c r="J1026" s="18"/>
+      <c r="K1026" s="19"/>
     </row>
     <row r="1027" ht="15.2" spans="7:11">
-      <c r="G1027" s="12"/>
-      <c r="J1027" s="15"/>
-      <c r="K1027" s="16"/>
+      <c r="G1027" s="15"/>
+      <c r="J1027" s="18"/>
+      <c r="K1027" s="19"/>
     </row>
     <row r="1028" ht="15.2" spans="7:11">
-      <c r="G1028" s="12"/>
-      <c r="J1028" s="15"/>
-      <c r="K1028" s="16"/>
+      <c r="G1028" s="15"/>
+      <c r="J1028" s="18"/>
+      <c r="K1028" s="19"/>
     </row>
     <row r="1029" ht="15.2" spans="7:11">
-      <c r="G1029" s="12"/>
-      <c r="J1029" s="15"/>
-      <c r="K1029" s="16"/>
+      <c r="G1029" s="15"/>
+      <c r="J1029" s="18"/>
+      <c r="K1029" s="19"/>
     </row>
     <row r="1030" ht="15.2" spans="7:11">
-      <c r="G1030" s="12"/>
-      <c r="J1030" s="15"/>
-      <c r="K1030" s="16"/>
+      <c r="G1030" s="15"/>
+      <c r="J1030" s="18"/>
+      <c r="K1030" s="19"/>
     </row>
     <row r="1031" ht="15.2" spans="7:11">
-      <c r="G1031" s="12"/>
-      <c r="J1031" s="15"/>
-      <c r="K1031" s="16"/>
+      <c r="G1031" s="15"/>
+      <c r="J1031" s="18"/>
+      <c r="K1031" s="19"/>
     </row>
     <row r="1032" ht="15.2" spans="7:11">
-      <c r="G1032" s="12"/>
-      <c r="J1032" s="15"/>
-      <c r="K1032" s="16"/>
+      <c r="G1032" s="15"/>
+      <c r="J1032" s="18"/>
+      <c r="K1032" s="19"/>
     </row>
     <row r="1033" ht="15.2" spans="7:11">
-      <c r="G1033" s="12"/>
-      <c r="J1033" s="15"/>
-      <c r="K1033" s="16"/>
+      <c r="G1033" s="15"/>
+      <c r="J1033" s="18"/>
+      <c r="K1033" s="19"/>
     </row>
     <row r="1034" ht="15.2" spans="7:11">
-      <c r="G1034" s="12"/>
-      <c r="J1034" s="15"/>
-      <c r="K1034" s="16"/>
+      <c r="G1034" s="15"/>
+      <c r="J1034" s="18"/>
+      <c r="K1034" s="19"/>
     </row>
     <row r="1035" ht="15.2" spans="7:11">
-      <c r="G1035" s="12"/>
-      <c r="J1035" s="15"/>
-      <c r="K1035" s="16"/>
+      <c r="G1035" s="15"/>
+      <c r="J1035" s="18"/>
+      <c r="K1035" s="19"/>
     </row>
     <row r="1036" ht="15.2" spans="7:11">
-      <c r="G1036" s="12"/>
-      <c r="J1036" s="15"/>
-      <c r="K1036" s="16"/>
+      <c r="G1036" s="15"/>
+      <c r="J1036" s="18"/>
+      <c r="K1036" s="19"/>
     </row>
     <row r="1037" ht="15.2" spans="7:11">
-      <c r="G1037" s="12"/>
-      <c r="J1037" s="15"/>
-      <c r="K1037" s="16"/>
+      <c r="G1037" s="15"/>
+      <c r="J1037" s="18"/>
+      <c r="K1037" s="19"/>
     </row>
     <row r="1038" ht="15.2" spans="7:11">
-      <c r="G1038" s="12"/>
-      <c r="J1038" s="15"/>
-      <c r="K1038" s="16"/>
+      <c r="G1038" s="15"/>
+      <c r="J1038" s="18"/>
+      <c r="K1038" s="19"/>
     </row>
     <row r="1039" ht="15.2" spans="7:11">
-      <c r="G1039" s="12"/>
-      <c r="J1039" s="15"/>
-      <c r="K1039" s="16"/>
+      <c r="G1039" s="15"/>
+      <c r="J1039" s="18"/>
+      <c r="K1039" s="19"/>
     </row>
     <row r="1040" ht="15.2" spans="7:11">
-      <c r="G1040" s="12"/>
-      <c r="J1040" s="15"/>
-      <c r="K1040" s="16"/>
+      <c r="G1040" s="15"/>
+      <c r="J1040" s="18"/>
+      <c r="K1040" s="19"/>
     </row>
     <row r="1041" ht="15.2" spans="7:11">
-      <c r="G1041" s="12"/>
-      <c r="J1041" s="15"/>
-      <c r="K1041" s="16"/>
+      <c r="G1041" s="15"/>
+      <c r="J1041" s="18"/>
+      <c r="K1041" s="19"/>
     </row>
     <row r="1042" ht="15.2" spans="7:11">
-      <c r="G1042" s="12"/>
-      <c r="J1042" s="15"/>
-      <c r="K1042" s="16"/>
+      <c r="G1042" s="15"/>
+      <c r="J1042" s="18"/>
+      <c r="K1042" s="19"/>
     </row>
     <row r="1043" ht="15.2" spans="7:11">
-      <c r="G1043" s="12"/>
-      <c r="J1043" s="15"/>
-      <c r="K1043" s="16"/>
+      <c r="G1043" s="15"/>
+      <c r="J1043" s="18"/>
+      <c r="K1043" s="19"/>
     </row>
     <row r="1044" ht="15.2" spans="7:11">
-      <c r="G1044" s="12"/>
-      <c r="J1044" s="15"/>
-      <c r="K1044" s="16"/>
+      <c r="G1044" s="15"/>
+      <c r="J1044" s="18"/>
+      <c r="K1044" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1505,7 +1505,7 @@
     <t>7.48/17</t>
   </si>
   <si>
-    <t>UiPath Screen Agent</t>
+    <t>UiPath Screen Agent w/ GPT-5</t>
   </si>
   <si>
     <t>UiPath</t>
@@ -2758,7 +2758,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="517">
   <si>
     <t>Model</t>
   </si>
@@ -1530,6 +1530,54 @@
   </si>
   <si>
     <t>9.49/17</t>
+  </si>
+  <si>
+    <t>DeepMiner-Mano-7B</t>
+  </si>
+  <si>
+    <t>Mininglamp Technology</t>
+  </si>
+  <si>
+    <t>https://www.mininglamp.com/news/6394/</t>
+  </si>
+  <si>
+    <t>DeepMiner-Mano Team</t>
+  </si>
+  <si>
+    <t>141.96/358</t>
+  </si>
+  <si>
+    <t>15.00/43</t>
+  </si>
+  <si>
+    <t>16.00/93</t>
+  </si>
+  <si>
+    <t>aworldGUIAgent-v1</t>
+  </si>
+  <si>
+    <t>inclusionAI</t>
+  </si>
+  <si>
+    <t>https://github.com/inclusionAI/AWorld/tree/main/examples/osworld</t>
+  </si>
+  <si>
+    <t>Aworld Team</t>
+  </si>
+  <si>
+    <t>209.55/361</t>
+  </si>
+  <si>
+    <t>22.96/46</t>
+  </si>
+  <si>
+    <t>28.39/47</t>
+  </si>
+  <si>
+    <t>40.41/93</t>
+  </si>
+  <si>
+    <t>9.79/17</t>
   </si>
 </sst>
 </file>
@@ -2757,8 +2805,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -8478,15 +8526,135 @@
         <v>404</v>
       </c>
     </row>
-    <row r="89" ht="15.2" spans="7:11">
-      <c r="G89" s="15"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="19"/>
-    </row>
-    <row r="90" ht="15.2" spans="7:11">
-      <c r="G90" s="15"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="19"/>
+    <row r="89" ht="31" spans="1:21">
+      <c r="A89" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="6">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="17">
+        <v>45918</v>
+      </c>
+      <c r="J89" s="6">
+        <v>39.65</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" ht="31" spans="1:21">
+      <c r="A90" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F90" s="6">
+        <v>50</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I90" s="17">
+        <v>45918</v>
+      </c>
+      <c r="J90" s="6">
+        <v>58.04</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="91" ht="15.2" spans="7:11">
       <c r="G91" s="15"/>
@@ -13346,6 +13514,8 @@
     <hyperlink ref="C85" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
     <hyperlink ref="C86" r:id="rId21" display="https://arxiv.org/abs/2509.11067" tooltip="https://arxiv.org/abs/2509.11067"/>
     <hyperlink ref="C87" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
+    <hyperlink ref="C89" r:id="rId23" display="https://www.mininglamp.com/news/6394/" tooltip="https://www.mininglamp.com/news/6394/"/>
+    <hyperlink ref="C90" r:id="rId24" display="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld" tooltip="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1544,10 +1544,10 @@
     <t>DeepMiner-Mano Team</t>
   </si>
   <si>
-    <t>141.96/358</t>
-  </si>
-  <si>
-    <t>15.00/43</t>
+    <t>144.96/361</t>
+  </si>
+  <si>
+    <t>18.00/46</t>
   </si>
   <si>
     <t>16.00/93</t>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -8555,7 +8555,7 @@
         <v>45918</v>
       </c>
       <c r="J89" s="6">
-        <v>39.65</v>
+        <v>40.15</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>505</v>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1532,7 +1532,7 @@
     <t>9.49/17</t>
   </si>
   <si>
-    <t>DeepMiner-Mano-7B</t>
+    <t>DeepMiner-Mano</t>
   </si>
   <si>
     <t>Mininglamp Technology</t>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1538,7 +1538,7 @@
     <t>Mininglamp Technology</t>
   </si>
   <si>
-    <t>https://www.mininglamp.com/news/6394/</t>
+    <t>https://arxiv.org/abs/2509.17336</t>
   </si>
   <si>
     <t>DeepMiner-Mano Team</t>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -13514,7 +13514,7 @@
     <hyperlink ref="C85" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
     <hyperlink ref="C86" r:id="rId21" display="https://arxiv.org/abs/2509.11067" tooltip="https://arxiv.org/abs/2509.11067"/>
     <hyperlink ref="C87" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
-    <hyperlink ref="C89" r:id="rId23" display="https://www.mininglamp.com/news/6394/" tooltip="https://www.mininglamp.com/news/6394/"/>
+    <hyperlink ref="C89" r:id="rId23" display="https://arxiv.org/abs/2509.17336" tooltip="https://www.mininglamp.com/news/6394/"/>
     <hyperlink ref="C90" r:id="rId24" display="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld" tooltip="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="525">
   <si>
     <t>Model</t>
   </si>
@@ -1578,6 +1578,30 @@
   </si>
   <si>
     <t>9.79/17</t>
+  </si>
+  <si>
+    <t>autoglm-os-9b-20250925</t>
+  </si>
+  <si>
+    <t>169.24/361</t>
+  </si>
+  <si>
+    <t>26.46/93</t>
+  </si>
+  <si>
+    <t>19.00/24</t>
+  </si>
+  <si>
+    <t>11.82/17</t>
+  </si>
+  <si>
+    <t>172.92/360</t>
+  </si>
+  <si>
+    <t>25.97/93</t>
+  </si>
+  <si>
+    <t>10.99/17</t>
   </si>
 </sst>
 </file>
@@ -2806,7 +2830,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -8656,15 +8680,135 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" ht="15.2" spans="7:11">
-      <c r="G91" s="15"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="19"/>
-    </row>
-    <row r="92" ht="15.2" spans="7:11">
-      <c r="G92" s="15"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="19"/>
+    <row r="91" ht="46" spans="1:21">
+      <c r="A91" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="6">
+        <v>15</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I91" s="17">
+        <v>45925</v>
+      </c>
+      <c r="J91" s="6">
+        <v>46.88</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" ht="46" spans="1:21">
+      <c r="A92" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="6">
+        <v>50</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I92" s="17">
+        <v>45925</v>
+      </c>
+      <c r="J92" s="6">
+        <v>48.03</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="93" ht="15.2" spans="7:11">
       <c r="G93" s="15"/>
@@ -13516,6 +13660,8 @@
     <hyperlink ref="C87" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
     <hyperlink ref="C89" r:id="rId23" display="https://arxiv.org/abs/2509.17336" tooltip="https://www.mininglamp.com/news/6394/"/>
     <hyperlink ref="C90" r:id="rId24" display="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld" tooltip="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld"/>
+    <hyperlink ref="C91" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
+    <hyperlink ref="C92" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="547">
   <si>
     <t>Model</t>
   </si>
@@ -1647,6 +1647,27 @@
   </si>
   <si>
     <t>10.99/17</t>
+  </si>
+  <si>
+    <t>GTA1 w/ GPT-5</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2507.05791</t>
+  </si>
+  <si>
+    <t>228.92/361</t>
+  </si>
+  <si>
+    <t>30.00/47</t>
+  </si>
+  <si>
+    <t>30.80/47</t>
+  </si>
+  <si>
+    <t>47.35/93</t>
+  </si>
+  <si>
+    <t>9.84/17</t>
   </si>
 </sst>
 </file>
@@ -2875,7 +2896,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -9180,10 +9201,70 @@
         <v>422</v>
       </c>
     </row>
-    <row r="98" ht="15.2" spans="7:11">
-      <c r="G98" s="15"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="19"/>
+    <row r="98" ht="92" spans="1:21">
+      <c r="A98" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F98" s="6">
+        <v>100</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I98" s="17">
+        <v>45933</v>
+      </c>
+      <c r="J98" s="6">
+        <v>63.41</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="99" ht="15.2" spans="7:11">
       <c r="G99" s="15"/>
@@ -14012,6 +14093,7 @@
     <hyperlink ref="C95" r:id="rId24" display="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld" tooltip="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld"/>
     <hyperlink ref="C96" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C97" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
+    <hyperlink ref="C98" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="601">
   <si>
     <t>Model</t>
   </si>
@@ -53,6 +53,9 @@
     <t>Additional coding-based action</t>
   </si>
   <si>
+    <t>Multiple rollout</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -1668,6 +1671,165 @@
   </si>
   <si>
     <t>9.84/17</t>
+  </si>
+  <si>
+    <t>agent s3 w/ GPT-5 bBoN (N=10)</t>
+  </si>
+  <si>
+    <t>Simular</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2510.02250</t>
+  </si>
+  <si>
+    <t>Gonzalo et al., '25</t>
+  </si>
+  <si>
+    <t>252.35/361</t>
+  </si>
+  <si>
+    <t>31.96/46</t>
+  </si>
+  <si>
+    <t>41.00/47</t>
+  </si>
+  <si>
+    <t>29.96/47</t>
+  </si>
+  <si>
+    <t>17.97/23</t>
+  </si>
+  <si>
+    <t>54.62/93</t>
+  </si>
+  <si>
+    <t>8.85/17</t>
+  </si>
+  <si>
+    <t>agent s3 w/ GPT-5 bBoN (N=1)</t>
+  </si>
+  <si>
+    <t>229.32/361</t>
+  </si>
+  <si>
+    <t>35.00/47</t>
+  </si>
+  <si>
+    <t>15.97/23</t>
+  </si>
+  <si>
+    <t>49.15/93</t>
+  </si>
+  <si>
+    <t>11.28/17</t>
+  </si>
+  <si>
+    <t>222.79/361</t>
+  </si>
+  <si>
+    <t>36.00/47</t>
+  </si>
+  <si>
+    <t>22.96/47</t>
+  </si>
+  <si>
+    <t>48.36/93</t>
+  </si>
+  <si>
+    <t>8.55/17</t>
+  </si>
+  <si>
+    <t>223.38/361</t>
+  </si>
+  <si>
+    <t>39.00/47</t>
+  </si>
+  <si>
+    <t>25.63/47</t>
+  </si>
+  <si>
+    <t>14.97/23</t>
+  </si>
+  <si>
+    <t>45.59/93</t>
+  </si>
+  <si>
+    <t>10.24/17</t>
+  </si>
+  <si>
+    <t>223.03/361</t>
+  </si>
+  <si>
+    <t>46.43/93</t>
+  </si>
+  <si>
+    <t>20.00/24</t>
+  </si>
+  <si>
+    <t>9.72/17</t>
+  </si>
+  <si>
+    <t>236.73/361</t>
+  </si>
+  <si>
+    <t>32.96/46</t>
+  </si>
+  <si>
+    <t>50.32/93</t>
+  </si>
+  <si>
+    <t>10.52/17</t>
+  </si>
+  <si>
+    <t>232.40/361</t>
+  </si>
+  <si>
+    <t>26.96/47</t>
+  </si>
+  <si>
+    <t>47.66/93</t>
+  </si>
+  <si>
+    <t>222.78/361</t>
+  </si>
+  <si>
+    <t>34.00/47</t>
+  </si>
+  <si>
+    <t>47.58/93</t>
+  </si>
+  <si>
+    <t>10.32/17</t>
+  </si>
+  <si>
+    <t>219.03/361</t>
+  </si>
+  <si>
+    <t>37.00/47</t>
+  </si>
+  <si>
+    <t>22.63/47</t>
+  </si>
+  <si>
+    <t>46.48/93</t>
+  </si>
+  <si>
+    <t>221.15/361</t>
+  </si>
+  <si>
+    <t>49.76/93</t>
+  </si>
+  <si>
+    <t>7.50/17</t>
+  </si>
+  <si>
+    <t>229.29/361</t>
+  </si>
+  <si>
+    <t>46.39/93</t>
+  </si>
+  <si>
+    <t>11.99/17</t>
   </si>
 </sst>
 </file>
@@ -2896,7 +3058,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="G80" sqref="A1:V109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -2979,41 +3141,43 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" ht="16.75" customHeight="1" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6">
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="9">
+        <v>45866</v>
+      </c>
+      <c r="K2" s="6">
         <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="9">
-        <v>45866</v>
-      </c>
-      <c r="J2" s="6">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>28</v>
@@ -3045,7 +3209,9 @@
       <c r="U2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="10"/>
+      <c r="V2" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -3053,46 +3219,46 @@
     </row>
     <row r="3" ht="16.75" customHeight="1" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6">
         <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="9">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="9">
         <v>45866</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>31.3</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>40</v>
@@ -3115,7 +3281,9 @@
       <c r="U3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="10"/>
+      <c r="V3" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
@@ -3123,37 +3291,37 @@
     </row>
     <row r="4" ht="16.75" customHeight="1" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="9">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="9">
         <v>45866</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>31.4</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>48</v>
@@ -3168,10 +3336,10 @@
         <v>51</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>53</v>
@@ -3180,12 +3348,14 @@
         <v>54</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
@@ -3193,37 +3363,37 @@
     </row>
     <row r="5" ht="16.75" customHeight="1" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6">
         <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="9">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="9">
         <v>45866</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>29.63</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>57</v>
@@ -3232,10 +3402,10 @@
         <v>58</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>60</v>
@@ -3253,9 +3423,11 @@
         <v>64</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
@@ -3263,32 +3435,34 @@
     </row>
     <row r="6" ht="16.75" customHeight="1" spans="1:22">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -3299,36 +3473,38 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="10"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" ht="16.75" customHeight="1" spans="1:22">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -3339,41 +3515,41 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="10"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" ht="16.75" customHeight="1" spans="1:22">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" s="6">
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="9">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9">
         <v>45866</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>9.1</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>75</v>
@@ -3385,7 +3561,7 @@
         <v>77</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>78</v>
@@ -3405,41 +3581,43 @@
       <c r="U8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="10"/>
+      <c r="V8" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" ht="16.75" customHeight="1" spans="1:22">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" s="6">
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="9">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9">
         <v>45866</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>17.17</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>85</v>
@@ -3457,73 +3635,75 @@
         <v>89</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>80</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>91</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="V9" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" ht="16.75" customHeight="1" spans="1:22">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9">
         <v>45866</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>23</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>95</v>
@@ -3537,65 +3717,67 @@
       <c r="U10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="10"/>
+      <c r="V10" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" ht="16.75" customHeight="1" spans="1:22">
       <c r="A11" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="6">
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="9">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9">
         <v>45866</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>27.1</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>104</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>106</v>
@@ -3603,107 +3785,111 @@
       <c r="U11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V11" s="10"/>
+      <c r="V11" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" ht="16.75" customHeight="1" spans="1:22">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6">
         <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="9">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9">
         <v>45866</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>35.8</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>109</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>111</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="10"/>
+      <c r="V12" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" ht="16.75" customHeight="1" spans="1:22">
       <c r="A13" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="6">
         <v>100</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="9">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9">
         <v>45866</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>35.6</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>116</v>
@@ -3712,205 +3898,211 @@
         <v>117</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V13" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" ht="16.75" customHeight="1" spans="1:22">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="6">
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="9">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9">
         <v>45866</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>31.2</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>125</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" ht="16.75" customHeight="1" spans="1:22">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" s="6">
         <v>50</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="9">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="9">
         <v>45866</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>43.9</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="9">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="9">
         <v>45866</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>41.4</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>134</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>136</v>
@@ -3922,18 +4114,20 @@
         <v>138</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
@@ -3944,69 +4138,71 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:29">
       <c r="A17" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="6">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="9">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9">
         <v>45866</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>27.8</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>145</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V17" s="10"/>
+      <c r="V17" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
@@ -4017,37 +4213,37 @@
     </row>
     <row r="18" ht="16.75" customHeight="1" spans="1:22">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" s="6">
         <v>100</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="9">
+        <v>27</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="9">
         <v>45866</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>33.8</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>148</v>
@@ -4062,190 +4258,196 @@
         <v>151</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V18" s="10"/>
+        <v>154</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="19" ht="16.75" customHeight="1" spans="1:22">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" s="6">
         <v>15</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="9">
+        <v>27</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9">
         <v>45866</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>31.9</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>156</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>159</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V19" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" ht="16.75" customHeight="1" spans="1:22">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="6">
         <v>100</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="9">
+        <v>27</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9">
         <v>45866</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>40</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>161</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V20" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="21" ht="16.75" customHeight="1" spans="1:22">
       <c r="A21" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6">
         <v>15</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="9">
+        <v>27</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9">
         <v>45866</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <v>25.7</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>169</v>
@@ -4257,277 +4459,285 @@
         <v>171</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>173</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="V21" s="10"/>
+      <c r="V21" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="22" ht="16.75" customHeight="1" spans="1:22">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" s="6">
         <v>15</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="9">
+        <v>27</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9">
         <v>45866</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>23.3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>177</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V22" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" ht="16.75" customHeight="1" spans="1:22">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="6">
         <v>50</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="9">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="9">
         <v>45866</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>25.1</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>180</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>182</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V23" s="10"/>
+        <v>184</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" ht="16.75" customHeight="1" spans="1:22">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F24" s="6">
         <v>50</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="9">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="9">
         <v>45866</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>29.4</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>185</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>171</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V24" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="25" ht="16.75" customHeight="1" spans="1:22">
       <c r="A25" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="6">
         <v>100</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="9">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="9">
         <v>45866</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>25.2</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>189</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>191</v>
@@ -4536,112 +4746,116 @@
         <v>192</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" s="10"/>
+        <v>154</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" ht="16.75" customHeight="1" spans="1:22">
       <c r="A26" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6">
         <v>100</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="9">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="9">
         <v>45866</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>29.6</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>194</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V26" s="10"/>
+        <v>198</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" ht="16.75" customHeight="1" spans="1:22">
       <c r="A27" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="6">
         <v>15</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="9">
+        <v>27</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="9">
         <v>45866</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>24</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>202</v>
@@ -4653,127 +4867,131 @@
         <v>204</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V27" s="10"/>
+        <v>154</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" ht="16.75" customHeight="1" spans="1:22">
       <c r="A28" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="6">
         <v>50</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="9">
+        <v>27</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="9">
         <v>45866</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>25.8</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>207</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V28" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" ht="16.75" customHeight="1" spans="1:22">
       <c r="A29" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="6">
         <v>100</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="9">
+        <v>27</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="9">
         <v>45866</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <v>27.1</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>210</v>
@@ -4788,322 +5006,332 @@
         <v>213</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V29" s="10"/>
+        <v>154</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="30" ht="16.75" customHeight="1" spans="1:22">
       <c r="A30" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="6">
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="9">
+        <v>27</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="9">
         <v>45866</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <v>16.9</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>220</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>222</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="V30" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="31" ht="16.75" customHeight="1" spans="1:22">
       <c r="A31" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="6">
         <v>50</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="9">
+        <v>27</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="9">
         <v>45866</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>19.9</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>81</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V31" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="32" ht="16.75" customHeight="1" spans="1:22">
       <c r="A32" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="6">
         <v>100</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="9">
+        <v>27</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="9">
         <v>45866</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <v>17.7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>228</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V32" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="33" ht="16.75" customHeight="1" spans="1:22">
       <c r="A33" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" s="6">
         <v>15</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="9">
+        <v>27</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="9">
         <v>45866</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <v>19.9</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>233</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>87</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V33" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="34" ht="16.75" customHeight="1" spans="1:22">
       <c r="A34" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F34" s="6">
         <v>50</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="9">
+        <v>27</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="9">
         <v>45866</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <v>20.6</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>237</v>
@@ -5112,1384 +5340,1426 @@
         <v>238</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>240</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V34" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="35" ht="16.75" customHeight="1" spans="1:22">
       <c r="A35" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F35" s="6">
         <v>100</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="9">
+        <v>27</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="9">
         <v>45866</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <v>23.1</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="L35" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V35" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" ht="16.75" customHeight="1" spans="1:22">
       <c r="A36" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F36" s="6">
         <v>15</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="9">
+        <v>27</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="9">
         <v>45866</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <v>26.2</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="L36" s="3" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V36" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="37" ht="16.75" customHeight="1" spans="1:22">
       <c r="A37" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F37" s="6">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="9">
+        <v>27</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="9">
         <v>45866</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>23.6</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="L37" s="3" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V37" s="10"/>
+        <v>154</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="38" ht="16.75" customHeight="1" spans="1:22">
       <c r="A38" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" s="6">
         <v>15</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="9">
+        <v>27</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="9">
         <v>45866</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <v>23</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="L38" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>87</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V38" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="39" ht="16.75" customHeight="1" spans="1:22">
       <c r="A39" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F39" s="6">
         <v>50</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="9">
+        <v>27</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="9">
         <v>45866</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <v>28.8</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>253</v>
+        <v>50</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>254</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="S39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V39" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="40" ht="16.75" customHeight="1" spans="1:22">
       <c r="A40" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F40" s="6">
         <v>50</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="9">
+        <v>27</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="9">
         <v>45866</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="6">
         <v>27.7</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>257</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>259</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="V40" s="10"/>
+      <c r="V40" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="41" ht="16.75" customHeight="1" spans="1:22">
       <c r="A41" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F41" s="6">
         <v>50</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="9">
+        <v>27</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="9">
         <v>45866</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <v>28</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="L41" s="3" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>264</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V41" s="10"/>
+      <c r="V41" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42" ht="16.75" customHeight="1" spans="1:22">
       <c r="A42" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F42" s="6">
         <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="9">
+        <v>27</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="9">
         <v>45866</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>27.2</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="L42" s="3" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V42" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="43" ht="16.75" customHeight="1" spans="1:22">
       <c r="A43" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F43" s="6">
         <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="9">
+        <v>27</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="9">
         <v>45866</v>
       </c>
-      <c r="J43" s="6">
+      <c r="K43" s="6">
         <v>26.1</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>272</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V43" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="44" ht="16.75" customHeight="1" spans="1:22">
       <c r="A44" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F44" s="6">
         <v>100</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="9">
+        <v>27</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="9">
         <v>45866</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <v>26.6</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>274</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>58</v>
+        <v>275</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V44" s="10"/>
+      <c r="V44" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" ht="16.75" customHeight="1" spans="1:22">
       <c r="A45" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F45" s="6">
         <v>15</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="9">
+        <v>27</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="9">
         <v>45866</v>
       </c>
-      <c r="J45" s="6">
+      <c r="K45" s="6">
         <v>28.1</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="L45" s="3" t="s">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="V45" s="10"/>
+        <v>281</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="46" ht="16.75" customHeight="1" spans="1:22">
       <c r="A46" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F46" s="6">
         <v>15</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="9">
+        <v>27</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="9">
         <v>45866</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <v>30.5</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>282</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V46" s="10"/>
+        <v>284</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="47" ht="16.75" customHeight="1" spans="1:22">
       <c r="A47" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" s="6">
         <v>15</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="9">
+        <v>27</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="9">
         <v>45866</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>30.4</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="L47" s="3" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="R47" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U47" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V47" s="10"/>
+      <c r="V47" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48" ht="16.75" customHeight="1" spans="1:22">
       <c r="A48" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F48" s="6">
         <v>50</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="9">
+        <v>27</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="9">
         <v>45866</v>
       </c>
-      <c r="J48" s="6">
+      <c r="K48" s="6">
         <v>33.8</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>288</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V48" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="49" ht="16.75" customHeight="1" spans="1:22">
       <c r="A49" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F49" s="6">
         <v>50</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="9">
+        <v>27</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="9">
         <v>45866</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <v>33.5</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="L49" s="3" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>292</v>
+        <v>105</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V49" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="50" ht="16.75" customHeight="1" spans="1:22">
       <c r="A50" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F50" s="6">
         <v>50</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="9">
+        <v>27</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="9">
         <v>45866</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <v>35.1</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="V50" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="51" ht="16.75" customHeight="1" spans="1:22">
       <c r="A51" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" s="6">
         <v>100</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="9">
+        <v>27</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="9">
         <v>45866</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <v>33.8</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>299</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>51</v>
+        <v>293</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V51" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="52" ht="16.75" customHeight="1" spans="1:22">
       <c r="A52" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F52" s="6">
         <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="9">
+        <v>27</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="9">
         <v>45866</v>
       </c>
-      <c r="J52" s="6">
+      <c r="K52" s="6">
         <v>35.7</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>292</v>
+        <v>105</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>289</v>
+        <v>125</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="R52" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U52" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V52" s="10"/>
+      <c r="V52" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="53" ht="16.75" customHeight="1" spans="1:22">
       <c r="A53" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F53" s="6">
         <v>100</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="9">
+        <v>27</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="9">
         <v>45866</v>
       </c>
-      <c r="J53" s="6">
+      <c r="K53" s="6">
         <v>34.8</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="L53" s="3" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>305</v>
+        <v>99</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="V53" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="54" ht="16.75" customHeight="1" spans="1:22">
       <c r="A54" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F54" s="6">
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="9">
+        <v>27</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="9">
         <v>45931</v>
       </c>
-      <c r="J54" s="6">
+      <c r="K54" s="6">
         <v>39</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>116</v>
+        <v>309</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>310</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="P54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U54" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V54" s="10"/>
+      <c r="V54" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="55" ht="16.75" customHeight="1" spans="1:22">
       <c r="A55" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F55" s="6">
         <v>50</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="9">
+        <v>27</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="9">
         <v>45931</v>
       </c>
-      <c r="J55" s="6">
+      <c r="K55" s="6">
         <v>44.9</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>313</v>
@@ -6498,280 +6768,288 @@
         <v>314</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>316</v>
+        <v>56</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="V55" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="56" ht="16.75" customHeight="1" spans="1:22">
       <c r="A56" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F56" s="6">
         <v>100</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="9">
+        <v>27</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="9">
         <v>45931</v>
       </c>
-      <c r="J56" s="6">
+      <c r="K56" s="6">
         <v>46.1</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>319</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>320</v>
+        <v>126</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>54</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="V56" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="57" ht="16.75" customHeight="1" spans="1:22">
       <c r="A57" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F57" s="6">
         <v>100</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="9">
+        <v>27</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="9">
         <v>45931</v>
       </c>
-      <c r="J57" s="6">
+      <c r="K57" s="6">
         <v>43.8</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>324</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V57" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="58" ht="16.75" customHeight="1" spans="1:22">
       <c r="A58" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F58" s="6">
         <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="9">
+        <v>27</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="9">
         <v>45931</v>
       </c>
-      <c r="J58" s="6">
+      <c r="K58" s="6">
         <v>45.1</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="L58" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>329</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>54</v>
+        <v>330</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V58" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="59" ht="16.75" customHeight="1" spans="1:22">
       <c r="A59" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="6">
         <v>15</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="9">
+        <v>27</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="9">
         <v>45866</v>
       </c>
-      <c r="J59" s="6">
+      <c r="K59" s="6">
         <v>3.04</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="L59" s="3" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>338</v>
@@ -6785,107 +7063,111 @@
       <c r="U59" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="V59" s="10"/>
+      <c r="V59" s="3" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="60" ht="31" spans="1:22">
       <c r="A60" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F60" s="6">
         <v>100</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="9">
+        <v>27</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="9">
         <v>45866</v>
       </c>
-      <c r="J60" s="6">
+      <c r="K60" s="6">
         <v>3.88</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="L60" s="3" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>338</v>
+        <v>179</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>81</v>
+        <v>339</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="V60" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="61" ht="31" spans="1:22">
       <c r="A61" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F61" s="6">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="9">
+        <v>27</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="9">
         <v>45866</v>
       </c>
-      <c r="J61" s="6">
+      <c r="K61" s="6">
         <v>4.43</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>345</v>
@@ -6894,130 +7176,134 @@
         <v>346</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>88</v>
+        <v>347</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>78</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>348</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="V61" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="62" ht="31" spans="1:22">
       <c r="A62" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F62" s="6">
         <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="9">
+        <v>27</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="9">
         <v>45866</v>
       </c>
-      <c r="J62" s="6">
+      <c r="K62" s="6">
         <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>350</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="V62" s="1"/>
-    </row>
-    <row r="63" ht="31" spans="1:22">
+        <v>349</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" ht="16" spans="1:22">
       <c r="A63" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F63" s="6">
         <v>15</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="9">
+        <v>27</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="9">
         <v>45866</v>
       </c>
-      <c r="J63" s="6">
+      <c r="K63" s="6">
         <v>9.7</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>356</v>
@@ -7026,64 +7312,66 @@
         <v>357</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>358</v>
+        <v>84</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>359</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V63" s="1"/>
-    </row>
-    <row r="64" ht="31" spans="1:22">
+        <v>154</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" ht="16" spans="1:22">
       <c r="A64" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F64" s="6">
         <v>100</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="9">
+        <v>27</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="9">
         <v>45866</v>
       </c>
-      <c r="J64" s="6">
+      <c r="K64" s="6">
         <v>10.3</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>361</v>
@@ -7092,391 +7380,405 @@
         <v>362</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>221</v>
+        <v>363</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>358</v>
+        <v>84</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>230</v>
+        <v>359</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V64" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="65" ht="31" spans="1:22">
       <c r="A65" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F65" s="6">
         <v>15</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I65" s="9">
+        <v>27</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="9">
         <v>45869</v>
       </c>
-      <c r="J65" s="6">
+      <c r="K65" s="6">
         <v>34.64</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="L65" s="3" t="s">
-        <v>237</v>
+        <v>370</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>371</v>
+        <v>115</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V65" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="66" ht="31" spans="1:22">
       <c r="A66" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F66" s="6">
         <v>50</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" s="9">
+        <v>27</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="9">
         <v>45866</v>
       </c>
-      <c r="J66" s="6">
+      <c r="K66" s="6">
         <v>45.76</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U66" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V66" s="1"/>
+      <c r="V66" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="67" ht="31" spans="1:22">
       <c r="A67" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F67" s="6">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I67" s="9">
+        <v>27</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="9">
         <v>45869</v>
       </c>
-      <c r="J67" s="6">
+      <c r="K67" s="6">
         <v>39</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="L67" s="3" t="s">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>378</v>
+        <v>171</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>379</v>
+        <v>108</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="S67" s="3" t="s">
         <v>44</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V67" s="1"/>
+        <v>381</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="68" ht="31" spans="1:22">
       <c r="A68" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F68" s="6">
         <v>50</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" s="9">
+        <v>27</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="9">
         <v>45869</v>
       </c>
-      <c r="J68" s="6">
+      <c r="K68" s="6">
         <v>54.2</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="L68" s="3" t="s">
-        <v>109</v>
+        <v>382</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>383</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>37</v>
+        <v>384</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>384</v>
+        <v>38</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>385</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="V68" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="69" ht="31" spans="1:22">
       <c r="A69" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F69" s="6">
         <v>100</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="9">
+        <v>27</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="9">
         <v>45869</v>
       </c>
-      <c r="J69" s="6">
+      <c r="K69" s="6">
         <v>56</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="L69" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U69" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="L69" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q69" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="S69" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="T69" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="U69" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="V69" s="1"/>
+      <c r="V69" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="70" ht="31" spans="1:22">
       <c r="A70" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F70" s="6">
         <v>50</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="K70" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3" t="s">
+        <v>392</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -7487,323 +7789,331 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="1"/>
+      <c r="V70" s="3"/>
     </row>
     <row r="71" ht="46" spans="1:22">
       <c r="A71" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F71" s="6">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" s="9">
+        <v>27</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="9">
         <v>45866</v>
       </c>
-      <c r="J71" s="6">
+      <c r="K71" s="6">
         <v>26.8</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>397</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>212</v>
+        <v>293</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>398</v>
+        <v>213</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>37</v>
+        <v>399</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>400</v>
+        <v>64</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V71" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="72" ht="46" spans="1:22">
       <c r="A72" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F72" s="6">
         <v>50</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" s="9">
+        <v>27</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="9">
         <v>45866</v>
       </c>
-      <c r="J72" s="6">
-        <v>27</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>401</v>
+      <c r="K72" s="6">
+        <v>27</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>237</v>
+        <v>402</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>402</v>
+        <v>213</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>403</v>
+        <v>33</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>35</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V72" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="73" ht="46" spans="1:22">
       <c r="A73" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F73" s="6">
         <v>100</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I73" s="9">
+        <v>27</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" s="9">
         <v>45866</v>
       </c>
-      <c r="J73" s="6">
+      <c r="K73" s="6">
         <v>29.3</v>
       </c>
-      <c r="K73" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="L73" s="3" t="s">
-        <v>274</v>
+        <v>405</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>87</v>
+        <v>315</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>405</v>
+        <v>174</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>62</v>
+        <v>406</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="V73" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="74" ht="46" spans="1:22">
       <c r="A74" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F74" s="6">
         <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I74" s="9">
+        <v>27</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="9">
         <v>45866</v>
       </c>
-      <c r="J74" s="6">
+      <c r="K74" s="6">
         <v>42.4</v>
       </c>
-      <c r="K74" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="L74" s="3" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>408</v>
+        <v>176</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>62</v>
+        <v>409</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V74" s="1"/>
+        <v>410</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="75" ht="46" spans="1:22">
       <c r="A75" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F75" s="6">
         <v>50</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I75" s="9">
+        <v>27</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="9">
         <v>45866</v>
       </c>
-      <c r="J75" s="6">
+      <c r="K75" s="6">
         <v>50.6</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>411</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>412</v>
+        <v>176</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>413</v>
@@ -7815,495 +8125,520 @@
         <v>415</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V75" s="1"/>
-    </row>
-    <row r="76" ht="46" spans="1:21">
+        <v>416</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" ht="46" spans="1:22">
       <c r="A76" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F76" s="6">
         <v>100</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I76" s="9">
+        <v>27</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" s="9">
         <v>45866</v>
       </c>
-      <c r="J76" s="6">
+      <c r="K76" s="6">
         <v>51</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>417</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>418</v>
+        <v>293</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>419</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>114</v>
+        <v>420</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>420</v>
+        <v>115</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>62</v>
+        <v>421</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>414</v>
+        <v>63</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="77" ht="92" spans="1:21">
+      <c r="V76" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" ht="92" spans="1:22">
       <c r="A77" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F77" s="6">
         <v>50</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I77" s="9">
+        <v>428</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" s="9">
         <v>45866</v>
       </c>
-      <c r="J77" s="6">
+      <c r="K77" s="6">
         <v>48.59</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="L77" s="3" t="s">
-        <v>150</v>
+        <v>429</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>378</v>
+        <v>212</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>430</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>53</v>
+        <v>431</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>431</v>
+        <v>54</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>432</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="78" ht="92" spans="1:21">
+        <v>433</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" ht="92" spans="1:22">
       <c r="A78" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F78" s="6">
         <v>100</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I78" s="9">
+        <v>428</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" s="9">
         <v>45866</v>
       </c>
-      <c r="J78" s="6">
+      <c r="K78" s="6">
         <v>53.1</v>
       </c>
-      <c r="K78" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="L78" s="3" t="s">
-        <v>116</v>
+        <v>434</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>388</v>
+        <v>204</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>429</v>
+        <v>130</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>95</v>
+        <v>435</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>431</v>
+        <v>96</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" ht="92" spans="1:21">
+        <v>436</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" ht="92" spans="1:22">
       <c r="A79" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F79" s="6">
         <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I79" s="9">
+        <v>428</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="9">
         <v>45873</v>
       </c>
-      <c r="J79" s="6">
+      <c r="K79" s="6">
         <v>39.81</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>441</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>442</v>
+        <v>30</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>264</v>
+        <v>443</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>443</v>
+        <v>115</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>444</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>192</v>
+        <v>445</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>445</v>
+        <v>193</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" ht="92" spans="1:21">
+        <v>446</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" ht="92" spans="1:22">
       <c r="A80" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F80" s="6">
         <v>50</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I80" s="9">
+        <v>428</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="9">
         <v>45873</v>
       </c>
-      <c r="J80" s="6">
+      <c r="K80" s="6">
         <v>56.39</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="L80" s="3" t="s">
-        <v>282</v>
+        <v>447</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>447</v>
+        <v>204</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>129</v>
+        <v>448</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>448</v>
+        <v>318</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>43</v>
+        <v>449</v>
       </c>
       <c r="S80" s="3" t="s">
         <v>44</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="U80" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="81" ht="92" spans="1:21">
+      <c r="V80" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="81" ht="92" spans="1:22">
       <c r="A81" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F81" s="6">
         <v>100</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I81" s="9">
+        <v>428</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="9">
         <v>45873</v>
       </c>
-      <c r="J81" s="6">
+      <c r="K81" s="6">
         <v>59.93</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>451</v>
-      </c>
       <c r="L81" s="3" t="s">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>452</v>
+        <v>296</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>453</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>317</v>
+        <v>454</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>454</v>
+        <v>318</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="82" ht="92" spans="1:21">
+      <c r="V81" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" ht="92" spans="1:22">
       <c r="A82" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F82" s="6">
         <v>150</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I82" s="9">
+        <v>428</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" s="9">
         <v>45873</v>
       </c>
-      <c r="J82" s="6">
+      <c r="K82" s="6">
         <v>60.76</v>
       </c>
-      <c r="K82" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="L82" s="3" t="s">
-        <v>116</v>
+        <v>456</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>452</v>
+        <v>296</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>453</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>317</v>
+        <v>454</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>454</v>
+        <v>318</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>456</v>
+        <v>132</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="83" ht="46" spans="1:21">
+        <v>457</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83" ht="46" spans="1:22">
       <c r="A83" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F83" s="6">
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K83" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -8314,37 +8649,40 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
-    </row>
-    <row r="84" ht="46" spans="1:21">
+      <c r="V83" s="3"/>
+    </row>
+    <row r="84" ht="46" spans="1:22">
       <c r="A84" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F84" s="6">
         <v>100</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K84" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -8355,430 +8693,449 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
-    </row>
-    <row r="85" ht="31" spans="1:21">
+      <c r="V84" s="3"/>
+    </row>
+    <row r="85" ht="16" spans="1:22">
       <c r="A85" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F85" s="6">
         <v>50</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="16">
+        <v>27</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" s="16">
         <v>45880</v>
       </c>
-      <c r="J85" s="6">
+      <c r="K85" s="6">
         <v>29.24</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>465</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>149</v>
+        <v>466</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>466</v>
+        <v>213</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>137</v>
+        <v>467</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>272</v>
+        <v>468</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>36</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" ht="31" spans="1:21">
+        <v>37</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" ht="16" spans="1:22">
       <c r="A86" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F86" s="6">
         <v>50</v>
       </c>
       <c r="G86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" s="16">
+        <v>45880</v>
+      </c>
+      <c r="K86" s="6">
+        <v>30.38</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="V86" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" ht="46" spans="1:22">
+      <c r="A87" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="16">
-        <v>45880</v>
-      </c>
-      <c r="J86" s="6">
-        <v>30.38</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O86" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="P86" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="T86" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="U86" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" ht="46" spans="1:21">
-      <c r="A87" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="F87" s="6">
         <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I87" s="17">
+        <v>428</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" s="17">
         <v>45887</v>
       </c>
-      <c r="J87" s="6">
+      <c r="K87" s="6">
         <v>46.26</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>476</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>149</v>
+        <v>477</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>477</v>
+        <v>150</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>31</v>
+        <v>478</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>478</v>
+        <v>138</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="U87" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" ht="46" spans="1:21">
+        <v>480</v>
+      </c>
+      <c r="V87" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" ht="46" spans="1:22">
       <c r="A88" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F88" s="6">
         <v>50</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I88" s="17">
+        <v>428</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" s="17">
         <v>45887</v>
       </c>
-      <c r="J88" s="6">
+      <c r="K88" s="6">
         <v>47.26</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>481</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>170</v>
+        <v>482</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>417</v>
+        <v>171</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>482</v>
+        <v>138</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>483</v>
+        <v>415</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" ht="31" spans="1:21">
+        <v>484</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" ht="31" spans="1:22">
       <c r="A89" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F89" s="6">
         <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="17">
+        <v>27</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" s="17">
         <v>45903</v>
       </c>
-      <c r="J89" s="6">
+      <c r="K89" s="6">
         <v>32.11</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="L89" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" ht="31" spans="1:22">
+      <c r="A90" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" ht="31" spans="1:21">
-      <c r="A90" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="E90" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F90" s="6">
         <v>50</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="17">
+        <v>27</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" s="17">
         <v>45903</v>
       </c>
-      <c r="J90" s="6">
+      <c r="K90" s="6">
         <v>38.91</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>492</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>203</v>
+        <v>493</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>408</v>
+        <v>138</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>53</v>
+        <v>409</v>
       </c>
       <c r="S90" s="3" t="s">
         <v>54</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>493</v>
+        <v>55</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="91" ht="31" spans="1:21">
+        <v>494</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" ht="16" spans="1:22">
       <c r="A91" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F91" s="6">
         <v>50</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I91" s="17">
+        <v>428</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" s="17">
         <v>45909</v>
       </c>
-      <c r="J91" s="6">
+      <c r="K91" s="6">
         <v>57.07</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>499</v>
@@ -8787,539 +9144,1256 @@
         <v>500</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>46</v>
+        <v>502</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>502</v>
+        <v>47</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>131</v>
+        <v>445</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>503</v>
+        <v>132</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="92" ht="31" spans="1:21">
+        <v>504</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" ht="16" spans="1:22">
       <c r="A92" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F92" s="6">
         <v>100</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" s="17">
+        <v>27</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" s="17">
         <v>45916</v>
       </c>
-      <c r="J92" s="6">
+      <c r="K92" s="6">
         <v>41.84</v>
       </c>
-      <c r="K92" s="3" t="s">
-        <v>506</v>
-      </c>
       <c r="L92" s="3" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>378</v>
+        <v>50</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>55</v>
+        <v>384</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>507</v>
+        <v>56</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>272</v>
+        <v>508</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>508</v>
+        <v>45</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" ht="46" spans="1:21">
+        <v>509</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" ht="46" spans="1:22">
       <c r="A93" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F93" s="14">
         <v>50</v>
       </c>
       <c r="G93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" s="17">
+        <v>45914</v>
+      </c>
+      <c r="K93" s="6">
+        <v>53.63</v>
+      </c>
+      <c r="L93" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="V93" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" ht="31" spans="1:22">
+      <c r="A94" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" s="17">
-        <v>45914</v>
-      </c>
-      <c r="J93" s="6">
-        <v>53.63</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="O93" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q93" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="R93" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="T93" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="U93" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="94" ht="31" spans="1:21">
-      <c r="A94" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="F94" s="6">
         <v>100</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I94" s="17">
+        <v>27</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="17">
         <v>45918</v>
       </c>
-      <c r="J94" s="6">
+      <c r="K94" s="6">
         <v>40.15</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>522</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>292</v>
+        <v>523</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>523</v>
+        <v>115</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>62</v>
+        <v>524</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="95" ht="31" spans="1:21">
+        <v>107</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" ht="16" spans="1:22">
       <c r="A95" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F95" s="6">
         <v>50</v>
       </c>
       <c r="G95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" s="17">
+        <v>45918</v>
+      </c>
+      <c r="K95" s="6">
+        <v>58.04</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" ht="46" spans="1:22">
+      <c r="A96" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I95" s="17">
-        <v>45918</v>
-      </c>
-      <c r="J95" s="6">
-        <v>58.04</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="P95" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="R95" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="S95" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="U95" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" ht="46" spans="1:21">
-      <c r="A96" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="F96" s="6">
         <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I96" s="17">
+        <v>428</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" s="17">
         <v>45925</v>
       </c>
-      <c r="J96" s="6">
+      <c r="K96" s="6">
         <v>46.88</v>
       </c>
-      <c r="K96" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="L96" s="3" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>442</v>
+        <v>296</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>534</v>
+        <v>138</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>535</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>131</v>
+        <v>536</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>536</v>
+        <v>132</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" ht="46" spans="1:21">
+        <v>537</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="97" ht="46" spans="1:22">
       <c r="A97" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F97" s="6">
         <v>50</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H97" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" s="17">
+        <v>45925</v>
+      </c>
+      <c r="K97" s="6">
+        <v>48.03</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" ht="92" spans="1:22">
+      <c r="A98" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="I97" s="17">
-        <v>45925</v>
-      </c>
-      <c r="J97" s="6">
-        <v>48.03</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q97" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="S97" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="T97" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="U97" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="98" ht="92" spans="1:21">
-      <c r="A98" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="E98" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F98" s="6">
         <v>100</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I98" s="17">
+        <v>428</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" s="17">
         <v>45933</v>
       </c>
-      <c r="J98" s="6">
+      <c r="K98" s="6">
         <v>63.41</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="L98" s="3" t="s">
-        <v>313</v>
+        <v>543</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>314</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>543</v>
+        <v>315</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>544</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>429</v>
+        <v>545</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>545</v>
+        <v>430</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>546</v>
+        <v>415</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="99" ht="15.2" spans="7:11">
-      <c r="G99" s="15"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="19"/>
-    </row>
-    <row r="100" ht="15.2" spans="7:11">
-      <c r="G100" s="15"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="19"/>
-    </row>
-    <row r="101" ht="15.2" spans="7:11">
-      <c r="G101" s="15"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="19"/>
-    </row>
-    <row r="102" ht="15.2" spans="7:11">
-      <c r="G102" s="15"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="19"/>
-    </row>
-    <row r="103" ht="15.2" spans="7:11">
-      <c r="G103" s="15"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="19"/>
-    </row>
-    <row r="104" ht="15.2" spans="7:11">
-      <c r="G104" s="15"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="19"/>
-    </row>
-    <row r="105" ht="15.2" spans="7:11">
-      <c r="G105" s="15"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="19"/>
-    </row>
-    <row r="106" ht="15.2" spans="7:11">
-      <c r="G106" s="15"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="19"/>
-    </row>
-    <row r="107" ht="15.2" spans="7:11">
-      <c r="G107" s="15"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="19"/>
-    </row>
-    <row r="108" ht="15.2" spans="7:11">
-      <c r="G108" s="15"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="19"/>
-    </row>
-    <row r="109" ht="15.2" spans="7:11">
-      <c r="G109" s="15"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="19"/>
+        <v>547</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" ht="31" spans="1:22">
+      <c r="A99" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F99" s="6">
+        <v>100</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J99" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K99" s="6">
+        <v>69.9</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="V99" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" ht="31" spans="1:22">
+      <c r="A100" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F100" s="6">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K100" s="6">
+        <v>63.52</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" ht="31" spans="1:22">
+      <c r="A101" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F101" s="6">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K101" s="6">
+        <v>61.71</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="102" ht="31" spans="1:22">
+      <c r="A102" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F102" s="6">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K102" s="6">
+        <v>61.88</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" ht="31" spans="1:22">
+      <c r="A103" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F103" s="6">
+        <v>100</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K103" s="6">
+        <v>61.78</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" ht="31" spans="1:22">
+      <c r="A104" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F104" s="6">
+        <v>100</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K104" s="6">
+        <v>65.58</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="T104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" ht="31" spans="1:22">
+      <c r="A105" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F105" s="6">
+        <v>100</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K105" s="6">
+        <v>64.38</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="T105" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" ht="31" spans="1:22">
+      <c r="A106" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F106" s="6">
+        <v>100</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K106" s="6">
+        <v>61.71</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" ht="31" spans="1:22">
+      <c r="A107" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F107" s="6">
+        <v>100</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K107" s="6">
+        <v>60.67</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="V107" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" ht="31" spans="1:22">
+      <c r="A108" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F108" s="6">
+        <v>100</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K108" s="6">
+        <v>61.26</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="V108" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" ht="31" spans="1:22">
+      <c r="A109" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F109" s="6">
+        <v>100</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K109" s="6">
+        <v>63.52</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="V109" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="110" ht="15.2" spans="7:11">
       <c r="G110" s="15"/>
@@ -14094,6 +15168,8 @@
     <hyperlink ref="C96" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C97" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C98" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
+    <hyperlink ref="C99" r:id="rId26" display="https://arxiv.org/abs/2510.02250" tooltip="https://arxiv.org/abs/2510.02250"/>
+    <hyperlink ref="C100" r:id="rId26" display="https://arxiv.org/abs/2510.02250" tooltip="https://arxiv.org/abs/2510.02250"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13260"/>
+    <workbookView windowWidth="27660" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Eval Results" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="608">
   <si>
     <t>Model</t>
   </si>
@@ -1830,6 +1830,27 @@
   </si>
   <si>
     <t>11.99/17</t>
+  </si>
+  <si>
+    <t>UI-TARS-2-2509</t>
+  </si>
+  <si>
+    <t>191.69/361</t>
+  </si>
+  <si>
+    <t>28.96/46</t>
+  </si>
+  <si>
+    <t>31.00/47</t>
+  </si>
+  <si>
+    <t>26.50/47</t>
+  </si>
+  <si>
+    <t>31.74/93</t>
+  </si>
+  <si>
+    <t>8.49/17</t>
   </si>
 </sst>
 </file>
@@ -3058,7 +3079,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G80" sqref="A1:V109"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -10395,10 +10416,73 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" ht="15.2" spans="7:11">
-      <c r="G110" s="15"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="19"/>
+    <row r="110" ht="16" spans="1:22">
+      <c r="A110" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F110" s="6">
+        <v>100</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" s="17">
+        <v>45944</v>
+      </c>
+      <c r="K110" s="6">
+        <v>53.1</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="V110" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="111" ht="15.2" spans="7:11">
       <c r="G111" s="15"/>
@@ -15168,8 +15252,7 @@
     <hyperlink ref="C96" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C97" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C98" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
-    <hyperlink ref="C99" r:id="rId26" display="https://arxiv.org/abs/2510.02250" tooltip="https://arxiv.org/abs/2510.02250"/>
-    <hyperlink ref="C100" r:id="rId26" display="https://arxiv.org/abs/2510.02250" tooltip="https://arxiv.org/abs/2510.02250"/>
+    <hyperlink ref="C110" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -2296,12 +2296,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2426,7 +2441,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2438,34 +2453,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2553,50 +2568,50 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3079,7 +3094,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="G82" sqref="A1:V110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -7088,7 +7103,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="60" ht="31" spans="1:22">
+    <row r="60" ht="31.75" spans="1:22">
       <c r="A60" s="3" t="s">
         <v>331</v>
       </c>
@@ -7156,7 +7171,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" ht="31" spans="1:22">
+    <row r="61" ht="31.75" spans="1:22">
       <c r="A61" s="3" t="s">
         <v>344</v>
       </c>
@@ -7224,7 +7239,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" ht="31" spans="1:22">
+    <row r="62" ht="31.75" spans="1:22">
       <c r="A62" s="3" t="s">
         <v>344</v>
       </c>
@@ -7292,7 +7307,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" ht="16" spans="1:22">
+    <row r="63" ht="16.75" spans="1:22">
       <c r="A63" s="3" t="s">
         <v>352</v>
       </c>
@@ -7360,7 +7375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" ht="16" spans="1:22">
+    <row r="64" ht="16.75" spans="1:22">
       <c r="A64" s="3" t="s">
         <v>352</v>
       </c>
@@ -7428,7 +7443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" ht="31" spans="1:22">
+    <row r="65" ht="31.75" spans="1:22">
       <c r="A65" s="3" t="s">
         <v>365</v>
       </c>
@@ -7496,7 +7511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" ht="31" spans="1:22">
+    <row r="66" ht="31.75" spans="1:22">
       <c r="A66" s="3" t="s">
         <v>365</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" ht="31" spans="1:22">
+    <row r="67" ht="31.75" spans="1:22">
       <c r="A67" s="3" t="s">
         <v>377</v>
       </c>
@@ -7632,7 +7647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" ht="31" spans="1:22">
+    <row r="68" ht="31.75" spans="1:22">
       <c r="A68" s="3" t="s">
         <v>377</v>
       </c>
@@ -7700,7 +7715,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="69" ht="31" spans="1:22">
+    <row r="69" ht="31.75" spans="1:22">
       <c r="A69" s="3" t="s">
         <v>377</v>
       </c>
@@ -7768,7 +7783,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" ht="31" spans="1:22">
+    <row r="70" ht="31.75" spans="1:22">
       <c r="A70" s="3" t="s">
         <v>391</v>
       </c>
@@ -7812,7 +7827,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" ht="46" spans="1:22">
+    <row r="71" ht="46.75" spans="1:22">
       <c r="A71" s="3" t="s">
         <v>393</v>
       </c>
@@ -7880,7 +7895,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" ht="46" spans="1:22">
+    <row r="72" ht="46.75" spans="1:22">
       <c r="A72" s="3" t="s">
         <v>393</v>
       </c>
@@ -7948,7 +7963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" ht="46" spans="1:22">
+    <row r="73" ht="46.75" spans="1:22">
       <c r="A73" s="3" t="s">
         <v>393</v>
       </c>
@@ -8016,7 +8031,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" ht="46" spans="1:22">
+    <row r="74" ht="46.75" spans="1:22">
       <c r="A74" s="3" t="s">
         <v>407</v>
       </c>
@@ -8084,7 +8099,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" ht="46" spans="1:22">
+    <row r="75" ht="46.75" spans="1:22">
       <c r="A75" s="3" t="s">
         <v>407</v>
       </c>
@@ -8152,7 +8167,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" ht="46" spans="1:22">
+    <row r="76" ht="46.75" spans="1:22">
       <c r="A76" s="3" t="s">
         <v>407</v>
       </c>
@@ -8220,7 +8235,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="77" ht="92" spans="1:22">
+    <row r="77" ht="92.75" spans="1:22">
       <c r="A77" s="3" t="s">
         <v>424</v>
       </c>
@@ -8288,7 +8303,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="78" ht="92" spans="1:22">
+    <row r="78" ht="92.75" spans="1:22">
       <c r="A78" s="3" t="s">
         <v>424</v>
       </c>
@@ -8356,7 +8371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" ht="92" spans="1:22">
+    <row r="79" ht="92.75" spans="1:22">
       <c r="A79" s="3" t="s">
         <v>437</v>
       </c>
@@ -8424,7 +8439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" ht="92" spans="1:22">
+    <row r="80" ht="92.75" spans="1:22">
       <c r="A80" s="3" t="s">
         <v>437</v>
       </c>
@@ -8492,7 +8507,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="81" ht="92" spans="1:22">
+    <row r="81" ht="92.75" spans="1:22">
       <c r="A81" s="3" t="s">
         <v>437</v>
       </c>
@@ -8560,7 +8575,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="82" ht="92" spans="1:22">
+    <row r="82" ht="92.75" spans="1:22">
       <c r="A82" s="3" t="s">
         <v>437</v>
       </c>
@@ -8628,7 +8643,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="83" ht="46" spans="1:22">
+    <row r="83" ht="46.75" spans="1:22">
       <c r="A83" s="3" t="s">
         <v>458</v>
       </c>
@@ -8672,7 +8687,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" ht="46" spans="1:22">
+    <row r="84" ht="46.75" spans="1:22">
       <c r="A84" s="3" t="s">
         <v>458</v>
       </c>
@@ -8716,7 +8731,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" ht="16" spans="1:22">
+    <row r="85" ht="16.75" spans="1:22">
       <c r="A85" s="3" t="s">
         <v>461</v>
       </c>
@@ -8784,7 +8799,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" ht="16" spans="1:22">
+    <row r="86" ht="16.75" spans="1:22">
       <c r="A86" s="3" t="s">
         <v>461</v>
       </c>
@@ -8852,7 +8867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" ht="46" spans="1:22">
+    <row r="87" ht="46.75" spans="1:22">
       <c r="A87" s="3" t="s">
         <v>472</v>
       </c>
@@ -8920,7 +8935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" ht="46" spans="1:22">
+    <row r="88" ht="46.75" spans="1:22">
       <c r="A88" s="3" t="s">
         <v>472</v>
       </c>
@@ -8988,7 +9003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" ht="31" spans="1:22">
+    <row r="89" ht="31.75" spans="1:22">
       <c r="A89" s="3" t="s">
         <v>485</v>
       </c>
@@ -9056,7 +9071,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" ht="31" spans="1:22">
+    <row r="90" ht="31.75" spans="1:22">
       <c r="A90" s="3" t="s">
         <v>491</v>
       </c>
@@ -9124,7 +9139,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="91" ht="16" spans="1:22">
+    <row r="91" ht="16.75" spans="1:22">
       <c r="A91" s="3" t="s">
         <v>495</v>
       </c>
@@ -9192,7 +9207,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="92" ht="16" spans="1:22">
+    <row r="92" ht="16.75" spans="1:22">
       <c r="A92" s="3" t="s">
         <v>505</v>
       </c>
@@ -9260,7 +9275,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" ht="46" spans="1:22">
+    <row r="93" ht="46.75" spans="1:22">
       <c r="A93" s="12" t="s">
         <v>510</v>
       </c>
@@ -9328,7 +9343,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="94" ht="31" spans="1:22">
+    <row r="94" ht="31.75" spans="1:22">
       <c r="A94" s="3" t="s">
         <v>518</v>
       </c>
@@ -9396,7 +9411,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="95" ht="16" spans="1:22">
+    <row r="95" ht="16.75" spans="1:22">
       <c r="A95" s="3" t="s">
         <v>525</v>
       </c>
@@ -9464,7 +9479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" ht="46" spans="1:22">
+    <row r="96" ht="46.75" spans="1:22">
       <c r="A96" s="3" t="s">
         <v>533</v>
       </c>
@@ -9532,7 +9547,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" ht="46" spans="1:22">
+    <row r="97" ht="46.75" spans="1:22">
       <c r="A97" s="3" t="s">
         <v>533</v>
       </c>
@@ -9600,7 +9615,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="98" ht="92" spans="1:22">
+    <row r="98" ht="92.75" spans="1:22">
       <c r="A98" s="3" t="s">
         <v>541</v>
       </c>
@@ -9668,7 +9683,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="99" ht="31" spans="1:22">
+    <row r="99" ht="31.75" spans="1:22">
       <c r="A99" s="3" t="s">
         <v>548</v>
       </c>
@@ -9736,7 +9751,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="100" ht="31" spans="1:22">
+    <row r="100" ht="31.75" spans="1:22">
       <c r="A100" s="3" t="s">
         <v>559</v>
       </c>
@@ -9804,7 +9819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" ht="31" spans="1:22">
+    <row r="101" ht="31.75" spans="1:22">
       <c r="A101" s="3" t="s">
         <v>559</v>
       </c>
@@ -9872,7 +9887,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="102" ht="31" spans="1:22">
+    <row r="102" ht="31.75" spans="1:22">
       <c r="A102" s="3" t="s">
         <v>559</v>
       </c>
@@ -9940,7 +9955,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="103" ht="31" spans="1:22">
+    <row r="103" ht="31.75" spans="1:22">
       <c r="A103" s="3" t="s">
         <v>559</v>
       </c>
@@ -10008,7 +10023,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="104" ht="31" spans="1:22">
+    <row r="104" ht="31.75" spans="1:22">
       <c r="A104" s="3" t="s">
         <v>559</v>
       </c>
@@ -10076,7 +10091,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="105" ht="31" spans="1:22">
+    <row r="105" ht="31.75" spans="1:22">
       <c r="A105" s="3" t="s">
         <v>559</v>
       </c>
@@ -10144,7 +10159,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="106" ht="31" spans="1:22">
+    <row r="106" ht="31.75" spans="1:22">
       <c r="A106" s="3" t="s">
         <v>559</v>
       </c>
@@ -10212,7 +10227,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" ht="31" spans="1:22">
+    <row r="107" ht="31.75" spans="1:22">
       <c r="A107" s="3" t="s">
         <v>559</v>
       </c>
@@ -10280,7 +10295,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" ht="31" spans="1:22">
+    <row r="108" ht="31.75" spans="1:22">
       <c r="A108" s="3" t="s">
         <v>559</v>
       </c>
@@ -10348,7 +10363,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="109" ht="31" spans="1:22">
+    <row r="109" ht="31.75" spans="1:22">
       <c r="A109" s="3" t="s">
         <v>559</v>
       </c>
@@ -10416,7 +10431,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" ht="16" spans="1:22">
+    <row r="110" ht="16.75" spans="1:22">
       <c r="A110" s="3" t="s">
         <v>601</v>
       </c>
@@ -10439,7 +10454,7 @@
         <v>27</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>27</v>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -1682,7 +1682,7 @@
     <t>https://arxiv.org/abs/2510.02250</t>
   </si>
   <si>
-    <t>Gonzalo et al., '25</t>
+    <t>Gonzalez-Pumariega et. al, '25</t>
   </si>
   <si>
     <t>252.35/361</t>
@@ -2296,27 +2296,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2441,7 +2426,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2453,34 +2438,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2568,50 +2553,50 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3093,8 +3078,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G82" sqref="A1:V110"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -7103,7 +7088,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="60" ht="31.75" spans="1:22">
+    <row r="60" ht="31" spans="1:22">
       <c r="A60" s="3" t="s">
         <v>331</v>
       </c>
@@ -7171,7 +7156,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" ht="31.75" spans="1:22">
+    <row r="61" ht="31" spans="1:22">
       <c r="A61" s="3" t="s">
         <v>344</v>
       </c>
@@ -7239,7 +7224,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" ht="31.75" spans="1:22">
+    <row r="62" ht="31" spans="1:22">
       <c r="A62" s="3" t="s">
         <v>344</v>
       </c>
@@ -7307,7 +7292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" ht="16.75" spans="1:22">
+    <row r="63" ht="16" spans="1:22">
       <c r="A63" s="3" t="s">
         <v>352</v>
       </c>
@@ -7375,7 +7360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" ht="16.75" spans="1:22">
+    <row r="64" ht="16" spans="1:22">
       <c r="A64" s="3" t="s">
         <v>352</v>
       </c>
@@ -7443,7 +7428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" ht="31.75" spans="1:22">
+    <row r="65" ht="31" spans="1:22">
       <c r="A65" s="3" t="s">
         <v>365</v>
       </c>
@@ -7511,7 +7496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" ht="31.75" spans="1:22">
+    <row r="66" ht="31" spans="1:22">
       <c r="A66" s="3" t="s">
         <v>365</v>
       </c>
@@ -7579,7 +7564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" ht="31.75" spans="1:22">
+    <row r="67" ht="31" spans="1:22">
       <c r="A67" s="3" t="s">
         <v>377</v>
       </c>
@@ -7647,7 +7632,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" ht="31.75" spans="1:22">
+    <row r="68" ht="31" spans="1:22">
       <c r="A68" s="3" t="s">
         <v>377</v>
       </c>
@@ -7715,7 +7700,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="69" ht="31.75" spans="1:22">
+    <row r="69" ht="31" spans="1:22">
       <c r="A69" s="3" t="s">
         <v>377</v>
       </c>
@@ -7783,7 +7768,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" ht="31.75" spans="1:22">
+    <row r="70" ht="31" spans="1:22">
       <c r="A70" s="3" t="s">
         <v>391</v>
       </c>
@@ -7827,7 +7812,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" ht="46.75" spans="1:22">
+    <row r="71" ht="46" spans="1:22">
       <c r="A71" s="3" t="s">
         <v>393</v>
       </c>
@@ -7895,7 +7880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" ht="46.75" spans="1:22">
+    <row r="72" ht="46" spans="1:22">
       <c r="A72" s="3" t="s">
         <v>393</v>
       </c>
@@ -7963,7 +7948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" ht="46.75" spans="1:22">
+    <row r="73" ht="46" spans="1:22">
       <c r="A73" s="3" t="s">
         <v>393</v>
       </c>
@@ -8031,7 +8016,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" ht="46.75" spans="1:22">
+    <row r="74" ht="46" spans="1:22">
       <c r="A74" s="3" t="s">
         <v>407</v>
       </c>
@@ -8099,7 +8084,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" ht="46.75" spans="1:22">
+    <row r="75" ht="46" spans="1:22">
       <c r="A75" s="3" t="s">
         <v>407</v>
       </c>
@@ -8167,7 +8152,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" ht="46.75" spans="1:22">
+    <row r="76" ht="46" spans="1:22">
       <c r="A76" s="3" t="s">
         <v>407</v>
       </c>
@@ -8235,7 +8220,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="77" ht="92.75" spans="1:22">
+    <row r="77" ht="92" spans="1:22">
       <c r="A77" s="3" t="s">
         <v>424</v>
       </c>
@@ -8303,7 +8288,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="78" ht="92.75" spans="1:22">
+    <row r="78" ht="92" spans="1:22">
       <c r="A78" s="3" t="s">
         <v>424</v>
       </c>
@@ -8371,7 +8356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" ht="92.75" spans="1:22">
+    <row r="79" ht="92" spans="1:22">
       <c r="A79" s="3" t="s">
         <v>437</v>
       </c>
@@ -8439,7 +8424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" ht="92.75" spans="1:22">
+    <row r="80" ht="92" spans="1:22">
       <c r="A80" s="3" t="s">
         <v>437</v>
       </c>
@@ -8507,7 +8492,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="81" ht="92.75" spans="1:22">
+    <row r="81" ht="92" spans="1:22">
       <c r="A81" s="3" t="s">
         <v>437</v>
       </c>
@@ -8575,7 +8560,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="82" ht="92.75" spans="1:22">
+    <row r="82" ht="92" spans="1:22">
       <c r="A82" s="3" t="s">
         <v>437</v>
       </c>
@@ -8643,7 +8628,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="83" ht="46.75" spans="1:22">
+    <row r="83" ht="46" spans="1:22">
       <c r="A83" s="3" t="s">
         <v>458</v>
       </c>
@@ -8687,7 +8672,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" ht="46.75" spans="1:22">
+    <row r="84" ht="46" spans="1:22">
       <c r="A84" s="3" t="s">
         <v>458</v>
       </c>
@@ -8731,7 +8716,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" ht="16.75" spans="1:22">
+    <row r="85" ht="16" spans="1:22">
       <c r="A85" s="3" t="s">
         <v>461</v>
       </c>
@@ -8799,7 +8784,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" ht="16.75" spans="1:22">
+    <row r="86" ht="16" spans="1:22">
       <c r="A86" s="3" t="s">
         <v>461</v>
       </c>
@@ -8867,7 +8852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" ht="46.75" spans="1:22">
+    <row r="87" ht="46" spans="1:22">
       <c r="A87" s="3" t="s">
         <v>472</v>
       </c>
@@ -8935,7 +8920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" ht="46.75" spans="1:22">
+    <row r="88" ht="46" spans="1:22">
       <c r="A88" s="3" t="s">
         <v>472</v>
       </c>
@@ -9003,7 +8988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" ht="31.75" spans="1:22">
+    <row r="89" ht="31" spans="1:22">
       <c r="A89" s="3" t="s">
         <v>485</v>
       </c>
@@ -9071,7 +9056,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" ht="31.75" spans="1:22">
+    <row r="90" ht="31" spans="1:22">
       <c r="A90" s="3" t="s">
         <v>491</v>
       </c>
@@ -9139,7 +9124,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="91" ht="16.75" spans="1:22">
+    <row r="91" ht="16" spans="1:22">
       <c r="A91" s="3" t="s">
         <v>495</v>
       </c>
@@ -9207,7 +9192,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="92" ht="16.75" spans="1:22">
+    <row r="92" ht="16" spans="1:22">
       <c r="A92" s="3" t="s">
         <v>505</v>
       </c>
@@ -9275,7 +9260,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" ht="46.75" spans="1:22">
+    <row r="93" ht="46" spans="1:22">
       <c r="A93" s="12" t="s">
         <v>510</v>
       </c>
@@ -9343,7 +9328,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="94" ht="31.75" spans="1:22">
+    <row r="94" ht="31" spans="1:22">
       <c r="A94" s="3" t="s">
         <v>518</v>
       </c>
@@ -9411,7 +9396,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="95" ht="16.75" spans="1:22">
+    <row r="95" ht="16" spans="1:22">
       <c r="A95" s="3" t="s">
         <v>525</v>
       </c>
@@ -9479,7 +9464,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" ht="46.75" spans="1:22">
+    <row r="96" ht="46" spans="1:22">
       <c r="A96" s="3" t="s">
         <v>533</v>
       </c>
@@ -9547,7 +9532,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" ht="46.75" spans="1:22">
+    <row r="97" ht="46" spans="1:22">
       <c r="A97" s="3" t="s">
         <v>533</v>
       </c>
@@ -9615,7 +9600,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="98" ht="92.75" spans="1:22">
+    <row r="98" ht="92" spans="1:22">
       <c r="A98" s="3" t="s">
         <v>541</v>
       </c>
@@ -9683,7 +9668,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="99" ht="31.75" spans="1:22">
+    <row r="99" ht="46" spans="1:22">
       <c r="A99" s="3" t="s">
         <v>548</v>
       </c>
@@ -9751,7 +9736,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="100" ht="31.75" spans="1:22">
+    <row r="100" ht="46" spans="1:22">
       <c r="A100" s="3" t="s">
         <v>559</v>
       </c>
@@ -9819,7 +9804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" ht="31.75" spans="1:22">
+    <row r="101" ht="46" spans="1:22">
       <c r="A101" s="3" t="s">
         <v>559</v>
       </c>
@@ -9887,7 +9872,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="102" ht="31.75" spans="1:22">
+    <row r="102" ht="46" spans="1:22">
       <c r="A102" s="3" t="s">
         <v>559</v>
       </c>
@@ -9955,7 +9940,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="103" ht="31.75" spans="1:22">
+    <row r="103" ht="46" spans="1:22">
       <c r="A103" s="3" t="s">
         <v>559</v>
       </c>
@@ -10023,7 +10008,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="104" ht="31.75" spans="1:22">
+    <row r="104" ht="46" spans="1:22">
       <c r="A104" s="3" t="s">
         <v>559</v>
       </c>
@@ -10091,7 +10076,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="105" ht="31.75" spans="1:22">
+    <row r="105" ht="46" spans="1:22">
       <c r="A105" s="3" t="s">
         <v>559</v>
       </c>
@@ -10159,7 +10144,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="106" ht="31.75" spans="1:22">
+    <row r="106" ht="46" spans="1:22">
       <c r="A106" s="3" t="s">
         <v>559</v>
       </c>
@@ -10227,7 +10212,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" ht="31.75" spans="1:22">
+    <row r="107" ht="46" spans="1:22">
       <c r="A107" s="3" t="s">
         <v>559</v>
       </c>
@@ -10295,7 +10280,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" ht="31.75" spans="1:22">
+    <row r="108" ht="46" spans="1:22">
       <c r="A108" s="3" t="s">
         <v>559</v>
       </c>
@@ -10363,7 +10348,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="109" ht="31.75" spans="1:22">
+    <row r="109" ht="46" spans="1:22">
       <c r="A109" s="3" t="s">
         <v>559</v>
       </c>
@@ -10431,7 +10416,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" ht="16.75" spans="1:22">
+    <row r="110" ht="16" spans="1:22">
       <c r="A110" s="3" t="s">
         <v>601</v>
       </c>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13120"/>
+    <workbookView windowWidth="27660" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="Eval Results" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="617">
   <si>
     <t>Model</t>
   </si>
@@ -1544,6 +1544,39 @@
     <t>10.84/17</t>
   </si>
   <si>
+    <t>204.22/360</t>
+  </si>
+  <si>
+    <t>28.96/46</t>
+  </si>
+  <si>
+    <t>28.96/47</t>
+  </si>
+  <si>
+    <t>13.00/22</t>
+  </si>
+  <si>
+    <t>38.46/93</t>
+  </si>
+  <si>
+    <t>9.84/17</t>
+  </si>
+  <si>
+    <t>222.96/360</t>
+  </si>
+  <si>
+    <t>28.00/46</t>
+  </si>
+  <si>
+    <t>32.63/47</t>
+  </si>
+  <si>
+    <t>38.66/93</t>
+  </si>
+  <si>
+    <t>13.72/17</t>
+  </si>
+  <si>
     <t>UI-TARS-250705</t>
   </si>
   <si>
@@ -1670,9 +1703,6 @@
     <t>47.35/93</t>
   </si>
   <si>
-    <t>9.84/17</t>
-  </si>
-  <si>
     <t>agent s3 w/ GPT-5 bBoN (N=10)</t>
   </si>
   <si>
@@ -1836,9 +1866,6 @@
   </si>
   <si>
     <t>191.69/361</t>
-  </si>
-  <si>
-    <t>28.96/46</t>
   </si>
   <si>
     <t>31.00/47</t>
@@ -3079,7 +3106,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -9194,155 +9221,155 @@
     </row>
     <row r="92" ht="16" spans="1:22">
       <c r="A92" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F92" s="6">
+        <v>50</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" s="17">
+        <v>45947</v>
+      </c>
+      <c r="K92" s="6">
+        <v>56.73</v>
+      </c>
+      <c r="L92" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="M92" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F92" s="6">
-        <v>100</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J92" s="17">
-        <v>45916</v>
-      </c>
-      <c r="K92" s="6">
-        <v>41.84</v>
-      </c>
-      <c r="L92" s="3" t="s">
+      <c r="N92" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="P92" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="M92" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="Q92" s="3" t="s">
-        <v>56</v>
+        <v>508</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>273</v>
+        <v>445</v>
       </c>
       <c r="T92" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U92" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" ht="46" spans="1:22">
-      <c r="A93" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>513</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" ht="16" spans="1:22">
+      <c r="A93" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="F93" s="14">
-        <v>50</v>
+      <c r="F93" s="6">
+        <v>100</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>27</v>
+        <v>428</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J93" s="17">
-        <v>45914</v>
+        <v>45947</v>
       </c>
       <c r="K93" s="6">
-        <v>53.63</v>
-      </c>
-      <c r="L93" s="12" t="s">
+        <v>61.93</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R93" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="M93" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="O93" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="P93" s="3" t="s">
+      <c r="S93" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U93" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="Q93" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="R93" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="T93" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="U93" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="V93" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="94" ht="31" spans="1:22">
+    <row r="94" ht="16" spans="1:22">
       <c r="A94" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>519</v>
+        <v>142</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>26</v>
+        <v>142</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F94" s="6">
         <v>100</v>
@@ -9357,196 +9384,196 @@
         <v>27</v>
       </c>
       <c r="J94" s="17">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="K94" s="6">
-        <v>40.15</v>
+        <v>41.84</v>
       </c>
       <c r="L94" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" ht="46" spans="1:22">
+      <c r="A95" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R94" s="3" t="s">
+      <c r="D95" s="12" t="s">
         <v>524</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="95" ht="16" spans="1:22">
-      <c r="A95" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="14">
         <v>50</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J95" s="17">
-        <v>45918</v>
+        <v>45914</v>
       </c>
       <c r="K95" s="6">
-        <v>58.04</v>
-      </c>
-      <c r="L95" s="3" t="s">
+        <v>53.63</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" ht="31" spans="1:22">
+      <c r="A96" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="M95" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="P95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="Q95" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R95" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="S95" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="U95" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="V95" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" ht="46" spans="1:22">
-      <c r="A96" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F96" s="6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J96" s="17">
-        <v>45925</v>
+        <v>45918</v>
       </c>
       <c r="K96" s="6">
-        <v>46.88</v>
+        <v>40.15</v>
       </c>
       <c r="L96" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="M96" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="M96" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="N96" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>535</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>536</v>
+        <v>63</v>
       </c>
       <c r="T96" s="3" t="s">
         <v>132</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>537</v>
+        <v>107</v>
       </c>
       <c r="V96" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="97" ht="46" spans="1:22">
+    <row r="97" ht="16" spans="1:22">
       <c r="A97" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>26</v>
+        <v>539</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="F97" s="6">
         <v>50</v>
@@ -9561,63 +9588,63 @@
         <v>27</v>
       </c>
       <c r="J97" s="17">
-        <v>45925</v>
+        <v>45918</v>
       </c>
       <c r="K97" s="6">
-        <v>48.03</v>
+        <v>58.04</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>523</v>
+        <v>325</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>41</v>
+        <v>541</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>415</v>
+        <v>132</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="98" ht="92" spans="1:22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" ht="46" spans="1:22">
       <c r="A98" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>369</v>
+        <v>475</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F98" s="6">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>27</v>
@@ -9629,63 +9656,63 @@
         <v>27</v>
       </c>
       <c r="J98" s="17">
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="K98" s="6">
-        <v>63.41</v>
+        <v>46.88</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>544</v>
+        <v>443</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>545</v>
+        <v>41</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>430</v>
+        <v>138</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>546</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>415</v>
+        <v>132</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" ht="46" spans="1:22">
       <c r="A99" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>369</v>
+        <v>475</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F99" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>27</v>
@@ -9694,60 +9721,60 @@
         <v>428</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="J99" s="17">
-        <v>45934</v>
+        <v>45925</v>
       </c>
       <c r="K99" s="6">
-        <v>69.9</v>
+        <v>48.03</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>554</v>
+        <v>418</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>556</v>
+        <v>138</v>
       </c>
       <c r="R99" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>536</v>
+        <v>386</v>
       </c>
       <c r="T99" s="3" t="s">
         <v>415</v>
       </c>
       <c r="U99" s="3" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="V99" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="100" ht="46" spans="1:22">
+    <row r="100" ht="92" spans="1:22">
       <c r="A100" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>549</v>
+        <v>425</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>551</v>
+        <v>427</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>369</v>
@@ -9765,57 +9792,57 @@
         <v>27</v>
       </c>
       <c r="J100" s="17">
-        <v>45934</v>
+        <v>45933</v>
       </c>
       <c r="K100" s="6">
-        <v>63.52</v>
+        <v>63.41</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>117</v>
+        <v>314</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>562</v>
+        <v>430</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>47</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" ht="46" spans="1:22">
       <c r="A101" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C101" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>369</v>
@@ -9830,60 +9857,60 @@
         <v>428</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>27</v>
+        <v>428</v>
       </c>
       <c r="J101" s="17">
         <v>45934</v>
       </c>
       <c r="K101" s="6">
-        <v>61.71</v>
+        <v>69.9</v>
       </c>
       <c r="L101" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="P101" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="O101" s="3" t="s">
+      <c r="Q101" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="R101" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="R101" s="3" t="s">
+      <c r="S101" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U101" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="V101" s="3" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
     </row>
     <row r="102" ht="46" spans="1:22">
       <c r="A102" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>369</v>
@@ -9904,54 +9931,54 @@
         <v>45934</v>
       </c>
       <c r="K102" s="6">
-        <v>61.88</v>
+        <v>63.52</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>570</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>571</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>574</v>
-      </c>
       <c r="S102" s="3" t="s">
-        <v>44</v>
+        <v>547</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>132</v>
       </c>
       <c r="U102" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>451</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" ht="46" spans="1:22">
       <c r="A103" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C103" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>369</v>
@@ -9972,31 +9999,31 @@
         <v>45934</v>
       </c>
       <c r="K103" s="6">
-        <v>61.78</v>
+        <v>61.71</v>
       </c>
       <c r="L103" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O103" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="M103" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="O103" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="P103" s="3" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>578</v>
+        <v>386</v>
       </c>
       <c r="T103" s="3" t="s">
         <v>132</v>
@@ -10005,21 +10032,21 @@
         <v>579</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>318</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" ht="46" spans="1:22">
       <c r="A104" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C104" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>369</v>
@@ -10040,54 +10067,54 @@
         <v>45934</v>
       </c>
       <c r="K104" s="6">
-        <v>65.58</v>
+        <v>61.88</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>580</v>
       </c>
       <c r="M104" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O104" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="N104" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="O104" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="P104" s="3" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>536</v>
+        <v>44</v>
       </c>
       <c r="T104" s="3" t="s">
         <v>132</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" ht="46" spans="1:22">
       <c r="A105" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C105" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>369</v>
@@ -10108,54 +10135,54 @@
         <v>45934</v>
       </c>
       <c r="K105" s="6">
-        <v>64.38</v>
+        <v>61.78</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="R105" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>536</v>
+        <v>588</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="U105" s="3" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>423</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" ht="46" spans="1:22">
       <c r="A106" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C106" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E106" s="13" t="s">
         <v>369</v>
@@ -10176,54 +10203,54 @@
         <v>45934</v>
       </c>
       <c r="K106" s="6">
-        <v>61.71</v>
+        <v>65.58</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>320</v>
+        <v>591</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>386</v>
+        <v>547</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>415</v>
+        <v>132</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>318</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" ht="46" spans="1:22">
       <c r="A107" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C107" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E107" s="13" t="s">
         <v>369</v>
@@ -10244,54 +10271,54 @@
         <v>45934</v>
       </c>
       <c r="K107" s="6">
-        <v>60.67</v>
+        <v>64.38</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="R107" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>410</v>
+        <v>568</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>176</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" ht="46" spans="1:22">
       <c r="A108" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C108" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>369</v>
@@ -10312,54 +10339,54 @@
         <v>45934</v>
       </c>
       <c r="K108" s="6">
-        <v>61.26</v>
+        <v>61.71</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="N108" s="3" t="s">
         <v>171</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>130</v>
+        <v>595</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="R108" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="T108" s="3" t="s">
         <v>415</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>451</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" ht="46" spans="1:22">
       <c r="A109" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="C109" s="4" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>369</v>
@@ -10380,57 +10407,57 @@
         <v>45934</v>
       </c>
       <c r="K109" s="6">
-        <v>63.52</v>
+        <v>60.67</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>115</v>
+        <v>572</v>
       </c>
       <c r="R109" s="3" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="T109" s="3" t="s">
         <v>132</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="110" ht="16" spans="1:22">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" ht="46" spans="1:22">
       <c r="A110" s="3" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>142</v>
+        <v>559</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>74</v>
+        <v>561</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="F110" s="6">
         <v>100</v>
@@ -10439,60 +10466,186 @@
         <v>27</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>27</v>
+        <v>428</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J110" s="17">
-        <v>45944</v>
+        <v>45934</v>
       </c>
       <c r="K110" s="6">
-        <v>53.1</v>
+        <v>61.26</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>603</v>
+        <v>500</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>605</v>
+        <v>130</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>56</v>
+        <v>572</v>
       </c>
       <c r="R110" s="3" t="s">
         <v>606</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="U110" s="3" t="s">
         <v>607</v>
       </c>
       <c r="V110" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111" ht="46" spans="1:22">
+      <c r="A111" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F111" s="6">
+        <v>100</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" s="17">
+        <v>45934</v>
+      </c>
+      <c r="K111" s="6">
+        <v>63.52</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="T111" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U111" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="V111" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" ht="16" spans="1:22">
+      <c r="A112" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="6">
+        <v>100</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" s="17">
+        <v>45944</v>
+      </c>
+      <c r="K112" s="6">
+        <v>53.1</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="T112" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U112" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="V112" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="111" ht="15.2" spans="7:11">
-      <c r="G111" s="15"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="19"/>
-    </row>
-    <row r="112" ht="15.2" spans="7:11">
-      <c r="G112" s="15"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="19"/>
     </row>
     <row r="113" ht="15.2" spans="7:11">
       <c r="G113" s="15"/>
@@ -15246,13 +15399,15 @@
     <hyperlink ref="C89" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
     <hyperlink ref="C90" r:id="rId20" display="https://arxiv.org/abs/2508.15144" tooltip="https://arxiv.org/abs/2508.15144"/>
     <hyperlink ref="C91" r:id="rId21" display="https://arxiv.org/abs/2509.11067" tooltip="https://arxiv.org/abs/2509.11067"/>
-    <hyperlink ref="C92" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
-    <hyperlink ref="C94" r:id="rId23" display="https://arxiv.org/abs/2509.17336" tooltip="https://www.mininglamp.com/news/6394/"/>
-    <hyperlink ref="C95" r:id="rId24" display="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld" tooltip="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld"/>
-    <hyperlink ref="C96" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
-    <hyperlink ref="C97" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
-    <hyperlink ref="C98" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
-    <hyperlink ref="C110" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
+    <hyperlink ref="C92" r:id="rId21" display="https://arxiv.org/abs/2509.11067" tooltip="https://arxiv.org/abs/2509.11067"/>
+    <hyperlink ref="C93" r:id="rId21" display="https://arxiv.org/abs/2509.11067" tooltip="https://arxiv.org/abs/2509.11067"/>
+    <hyperlink ref="C94" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
+    <hyperlink ref="C96" r:id="rId23" display="https://arxiv.org/abs/2509.17336" tooltip="https://www.mininglamp.com/news/6394/"/>
+    <hyperlink ref="C97" r:id="rId24" display="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld" tooltip="https://github.com/inclusionAI/AWorld/tree/main/examples/osworld"/>
+    <hyperlink ref="C98" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
+    <hyperlink ref="C99" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
+    <hyperlink ref="C100" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
+    <hyperlink ref="C112" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -3106,7 +3106,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13100"/>
+    <workbookView windowWidth="27660" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Eval Results" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="628">
   <si>
     <t>Model</t>
   </si>
@@ -1878,6 +1878,39 @@
   </si>
   <si>
     <t>8.49/17</t>
+  </si>
+  <si>
+    <t>agi-0</t>
+  </si>
+  <si>
+    <t>AGI Inc</t>
+  </si>
+  <si>
+    <t>https://www.theagi.company/blog/osworld</t>
+  </si>
+  <si>
+    <t>AGI Inc research team</t>
+  </si>
+  <si>
+    <t>274.52/360</t>
+  </si>
+  <si>
+    <t>35.96/46</t>
+  </si>
+  <si>
+    <t>32.96/47</t>
+  </si>
+  <si>
+    <t>18.97/23</t>
+  </si>
+  <si>
+    <t>66.82/92</t>
+  </si>
+  <si>
+    <t>22.00/24</t>
+  </si>
+  <si>
+    <t>13.82/17</t>
   </si>
 </sst>
 </file>
@@ -3106,7 +3139,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -10647,10 +10680,73 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" ht="15.2" spans="7:11">
-      <c r="G113" s="15"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="19"/>
+    <row r="113" ht="31" spans="1:22">
+      <c r="A113" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="6">
+        <v>50</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" s="17">
+        <v>45952</v>
+      </c>
+      <c r="K113" s="6">
+        <v>76.26</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="T113" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="V113" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="114" ht="15.2" spans="7:11">
       <c r="G114" s="15"/>
@@ -15408,6 +15504,7 @@
     <hyperlink ref="C99" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C100" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
     <hyperlink ref="C112" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
+    <hyperlink ref="C113" r:id="rId26" display="https://www.theagi.company/blog/osworld" tooltip="https://www.theagi.company/blog/osworld"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="617">
   <si>
     <t>Model</t>
   </si>
@@ -1878,39 +1878,6 @@
   </si>
   <si>
     <t>8.49/17</t>
-  </si>
-  <si>
-    <t>agi-0</t>
-  </si>
-  <si>
-    <t>AGI Inc</t>
-  </si>
-  <si>
-    <t>https://www.theagi.company/blog/osworld</t>
-  </si>
-  <si>
-    <t>AGI Inc research team</t>
-  </si>
-  <si>
-    <t>274.52/360</t>
-  </si>
-  <si>
-    <t>35.96/46</t>
-  </si>
-  <si>
-    <t>32.96/47</t>
-  </si>
-  <si>
-    <t>18.97/23</t>
-  </si>
-  <si>
-    <t>66.82/92</t>
-  </si>
-  <si>
-    <t>22.00/24</t>
-  </si>
-  <si>
-    <t>13.82/17</t>
   </si>
 </sst>
 </file>
@@ -3138,8 +3105,8 @@
   </sheetPr>
   <dimension ref="A1:AC1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A113" sqref="$A113:$XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -10680,73 +10647,29 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" ht="31" spans="1:22">
-      <c r="A113" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="6">
-        <v>50</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J113" s="17">
-        <v>45952</v>
-      </c>
-      <c r="K113" s="6">
-        <v>76.26</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q113" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="R113" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="S113" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="T113" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="U113" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="V113" s="3" t="s">
-        <v>423</v>
-      </c>
+    <row r="113" ht="15.2" spans="1:22">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
     </row>
     <row r="114" ht="15.2" spans="7:11">
       <c r="G114" s="15"/>
@@ -15504,7 +15427,6 @@
     <hyperlink ref="C99" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C100" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
     <hyperlink ref="C112" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
-    <hyperlink ref="C113" r:id="rId26" display="https://www.theagi.company/blog/osworld" tooltip="https://www.theagi.company/blog/osworld"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13120"/>
+    <workbookView windowWidth="27660" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Eval Results" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="642">
   <si>
     <t>Model</t>
   </si>
@@ -1878,6 +1878,81 @@
   </si>
   <si>
     <t>8.49/17</t>
+  </si>
+  <si>
+    <t>agi-0</t>
+  </si>
+  <si>
+    <t>AGI Inc</t>
+  </si>
+  <si>
+    <t>https://www.theagi.company/blog/osworld</t>
+  </si>
+  <si>
+    <t>AGI Inc research team</t>
+  </si>
+  <si>
+    <t>274.52/360</t>
+  </si>
+  <si>
+    <t>35.96/46</t>
+  </si>
+  <si>
+    <t>32.96/47</t>
+  </si>
+  <si>
+    <t>18.97/23</t>
+  </si>
+  <si>
+    <t>66.82/92</t>
+  </si>
+  <si>
+    <t>22.00/24</t>
+  </si>
+  <si>
+    <t>13.82/17</t>
+  </si>
+  <si>
+    <t>qwen3-vl-flash-2025-10-25</t>
+  </si>
+  <si>
+    <t>Qwen Team, Alibaba Group</t>
+  </si>
+  <si>
+    <t>https://qwen.ai/blog?id=99f0335c4ad9ff6153e517418d48535ab6d8afef&amp;from=research.latest-advancements-list</t>
+  </si>
+  <si>
+    <t>Alibaba Qwen</t>
+  </si>
+  <si>
+    <t>150.07/361</t>
+  </si>
+  <si>
+    <t>10.83/47</t>
+  </si>
+  <si>
+    <t>23.96/47</t>
+  </si>
+  <si>
+    <t>20.47/93</t>
+  </si>
+  <si>
+    <t>5.85/17</t>
+  </si>
+  <si>
+    <t>DeepMiner-Mano-72B</t>
+  </si>
+  <si>
+    <t>https://www.mininglamp.com/news/6394/</t>
+  </si>
+  <si>
+    <t>194.62/361</t>
+  </si>
+  <si>
+    <t>23.00/26</t>
+  </si>
+  <si>
+    <t>22.70/93</t>
   </si>
 </sst>
 </file>
@@ -3106,7 +3181,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A113" sqref="$A113:$XFD113"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -10647,39 +10722,209 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" ht="15.2" spans="1:22">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
-    </row>
-    <row r="114" ht="15.2" spans="7:11">
-      <c r="G114" s="15"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="19"/>
-    </row>
-    <row r="115" ht="15.2" spans="7:11">
-      <c r="G115" s="15"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="19"/>
+    <row r="113" ht="31" spans="1:22">
+      <c r="A113" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="6">
+        <v>50</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" s="17">
+        <v>45952</v>
+      </c>
+      <c r="K113" s="6">
+        <v>76.26</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="T113" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="V113" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" ht="31" spans="1:22">
+      <c r="A114" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="6">
+        <v>100</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" s="17">
+        <v>45953</v>
+      </c>
+      <c r="K114" s="6">
+        <v>41.57</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="T114" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="V114" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" ht="31" spans="1:22">
+      <c r="A115" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="6">
+        <v>100</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" s="17">
+        <v>45961</v>
+      </c>
+      <c r="K115" s="6">
+        <v>53.91</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V115" s="3" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="116" ht="15.2" spans="7:11">
       <c r="G116" s="15"/>
@@ -15427,6 +15672,9 @@
     <hyperlink ref="C99" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C100" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
     <hyperlink ref="C112" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
+    <hyperlink ref="C113" r:id="rId26" display="https://www.theagi.company/blog/osworld" tooltip="https://www.theagi.company/blog/osworld"/>
+    <hyperlink ref="C114" r:id="rId27" display="https://qwen.ai/blog?id=99f0335c4ad9ff6153e517418d48535ab6d8afef&amp;from=research.latest-advancements-list" tooltip="https://qwen.ai/blog?id=99f0335c4ad9ff6153e517418d48535ab6d8afef&amp;from=research.latest-advancements-list"/>
+    <hyperlink ref="C115" r:id="rId23" display="https://www.mininglamp.com/news/6394/" tooltip="https://www.mininglamp.com/news/6394/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="635">
   <si>
     <t>Model</t>
   </si>
@@ -1616,7 +1616,7 @@
     <t>9.49/17</t>
   </si>
   <si>
-    <t>DeepMiner-Mano</t>
+    <t>DeepMiner-Mano-7B</t>
   </si>
   <si>
     <t>Mininglamp Technology</t>
@@ -1880,39 +1880,6 @@
     <t>8.49/17</t>
   </si>
   <si>
-    <t>agi-0</t>
-  </si>
-  <si>
-    <t>AGI Inc</t>
-  </si>
-  <si>
-    <t>https://www.theagi.company/blog/osworld</t>
-  </si>
-  <si>
-    <t>AGI Inc research team</t>
-  </si>
-  <si>
-    <t>274.52/360</t>
-  </si>
-  <si>
-    <t>35.96/46</t>
-  </si>
-  <si>
-    <t>32.96/47</t>
-  </si>
-  <si>
-    <t>18.97/23</t>
-  </si>
-  <si>
-    <t>66.82/92</t>
-  </si>
-  <si>
-    <t>22.00/24</t>
-  </si>
-  <si>
-    <t>13.82/17</t>
-  </si>
-  <si>
     <t>qwen3-vl-flash-2025-10-25</t>
   </si>
   <si>
@@ -1953,6 +1920,18 @@
   </si>
   <si>
     <t>22.70/93</t>
+  </si>
+  <si>
+    <t>claude-sonnet-4-5-20250929</t>
+  </si>
+  <si>
+    <t>https://www.anthropic.com/news/claude-sonnet-4-5</t>
+  </si>
+  <si>
+    <t>154.80/361 23.96/46 13.00/26 17.00/47 22.96/47 14.00/23 17.00/93 18.00/24 10.00/15 4.89/17 14.00/2</t>
+  </si>
+  <si>
+    <t>209.68/361 25.96/46 15.00/26 31.00/47 27.02/47 15.00/23 43.70/93 17.00/24 10.00/15 9.00/17 16.00/23</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2700,6 +2679,14 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3181,7 +3168,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -10739,7 +10726,7 @@
         <v>74</v>
       </c>
       <c r="F113" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>27</v>
@@ -10751,60 +10738,60 @@
         <v>27</v>
       </c>
       <c r="J113" s="17">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="K113" s="6">
-        <v>76.26</v>
+        <v>41.57</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>621</v>
       </c>
       <c r="M113" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O113" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>623</v>
       </c>
       <c r="Q113" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R113" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="R113" s="3" t="s">
+      <c r="S113" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="T113" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U113" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="S113" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="T113" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="U113" s="3" t="s">
-        <v>627</v>
-      </c>
       <c r="V113" s="3" t="s">
-        <v>423</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" ht="31" spans="1:22">
       <c r="A114" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>629</v>
+        <v>530</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>74</v>
+        <v>532</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F114" s="6">
         <v>100</v>
@@ -10819,63 +10806,63 @@
         <v>27</v>
       </c>
       <c r="J114" s="17">
-        <v>45953</v>
+        <v>45961</v>
       </c>
       <c r="K114" s="6">
-        <v>41.57</v>
+        <v>53.91</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>320</v>
+        <v>117</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>118</v>
+        <v>629</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>633</v>
+        <v>478</v>
       </c>
       <c r="P114" s="3" t="s">
-        <v>634</v>
+        <v>507</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="R114" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="T114" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>636</v>
+        <v>107</v>
       </c>
       <c r="V114" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" ht="31" spans="1:22">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" ht="16" spans="1:22">
       <c r="A115" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>530</v>
+        <v>101</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F115" s="6">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>27</v>
@@ -10890,4686 +10877,4748 @@
         <v>45961</v>
       </c>
       <c r="K115" s="6">
-        <v>53.91</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="M115" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N115" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="O115" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="P115" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q115" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="R115" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="S115" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="T115" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U115" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V115" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="116" ht="15.2" spans="7:11">
-      <c r="G116" s="15"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="19"/>
-    </row>
-    <row r="117" ht="15.2" spans="7:11">
-      <c r="G117" s="15"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="19"/>
+        <v>42.88</v>
+      </c>
+      <c r="L115" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+    </row>
+    <row r="116" ht="16" spans="1:22">
+      <c r="A116" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" s="6">
+        <v>50</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" s="17">
+        <v>45961</v>
+      </c>
+      <c r="K116" s="6">
+        <v>58.08</v>
+      </c>
+      <c r="L116" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+    </row>
+    <row r="117" ht="16" spans="1:22">
+      <c r="A117" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F117" s="6">
+        <v>100</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" s="17">
+        <v>45961</v>
+      </c>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
     </row>
     <row r="118" ht="15.2" spans="7:11">
       <c r="G118" s="15"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="20"/>
     </row>
     <row r="119" ht="15.2" spans="7:11">
       <c r="G119" s="15"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" ht="15.2" spans="7:11">
       <c r="G120" s="15"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" ht="15.2" spans="7:11">
       <c r="G121" s="15"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="20"/>
     </row>
     <row r="122" ht="15.2" spans="7:11">
       <c r="G122" s="15"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="20"/>
     </row>
     <row r="123" ht="15.2" spans="7:11">
       <c r="G123" s="15"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="20"/>
     </row>
     <row r="124" ht="15.2" spans="7:11">
       <c r="G124" s="15"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="20"/>
     </row>
     <row r="125" ht="15.2" spans="7:11">
       <c r="G125" s="15"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="20"/>
     </row>
     <row r="126" ht="15.2" spans="7:11">
       <c r="G126" s="15"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="20"/>
     </row>
     <row r="127" ht="15.2" spans="7:11">
       <c r="G127" s="15"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="20"/>
     </row>
     <row r="128" ht="15.2" spans="7:11">
       <c r="G128" s="15"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" ht="15.2" spans="7:11">
       <c r="G129" s="15"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="20"/>
     </row>
     <row r="130" ht="15.2" spans="7:11">
       <c r="G130" s="15"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="20"/>
     </row>
     <row r="131" ht="15.2" spans="7:11">
       <c r="G131" s="15"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" ht="15.2" spans="7:11">
       <c r="G132" s="15"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="20"/>
     </row>
     <row r="133" ht="15.2" spans="7:11">
       <c r="G133" s="15"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="20"/>
     </row>
     <row r="134" ht="15.2" spans="7:11">
       <c r="G134" s="15"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="20"/>
     </row>
     <row r="135" ht="15.2" spans="7:11">
       <c r="G135" s="15"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="20"/>
     </row>
     <row r="136" ht="15.2" spans="7:11">
       <c r="G136" s="15"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="20"/>
     </row>
     <row r="137" ht="15.2" spans="7:11">
       <c r="G137" s="15"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="20"/>
     </row>
     <row r="138" ht="15.2" spans="7:11">
       <c r="G138" s="15"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="20"/>
     </row>
     <row r="139" ht="15.2" spans="7:11">
       <c r="G139" s="15"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="20"/>
     </row>
     <row r="140" ht="15.2" spans="7:11">
       <c r="G140" s="15"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="20"/>
     </row>
     <row r="141" ht="15.2" spans="7:11">
       <c r="G141" s="15"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="20"/>
     </row>
     <row r="142" ht="15.2" spans="7:11">
       <c r="G142" s="15"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="20"/>
     </row>
     <row r="143" ht="15.2" spans="7:11">
       <c r="G143" s="15"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="20"/>
     </row>
     <row r="144" ht="15.2" spans="7:11">
       <c r="G144" s="15"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="20"/>
     </row>
     <row r="145" ht="15.2" spans="7:11">
       <c r="G145" s="15"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="20"/>
     </row>
     <row r="146" ht="15.2" spans="7:11">
       <c r="G146" s="15"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="20"/>
     </row>
     <row r="147" ht="15.2" spans="7:11">
       <c r="G147" s="15"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="20"/>
     </row>
     <row r="148" ht="15.2" spans="7:11">
       <c r="G148" s="15"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="20"/>
     </row>
     <row r="149" ht="15.2" spans="7:11">
       <c r="G149" s="15"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="20"/>
     </row>
     <row r="150" ht="15.2" spans="7:11">
       <c r="G150" s="15"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="20"/>
     </row>
     <row r="151" ht="15.2" spans="7:11">
       <c r="G151" s="15"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="20"/>
     </row>
     <row r="152" ht="15.2" spans="7:11">
       <c r="G152" s="15"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="20"/>
     </row>
     <row r="153" ht="15.2" spans="7:11">
       <c r="G153" s="15"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="20"/>
     </row>
     <row r="154" ht="15.2" spans="7:11">
       <c r="G154" s="15"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="20"/>
     </row>
     <row r="155" ht="15.2" spans="7:11">
       <c r="G155" s="15"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="20"/>
     </row>
     <row r="156" ht="15.2" spans="7:11">
       <c r="G156" s="15"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="20"/>
     </row>
     <row r="157" ht="15.2" spans="7:11">
       <c r="G157" s="15"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="20"/>
     </row>
     <row r="158" ht="15.2" spans="7:11">
       <c r="G158" s="15"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="20"/>
     </row>
     <row r="159" ht="15.2" spans="7:11">
       <c r="G159" s="15"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="20"/>
     </row>
     <row r="160" ht="15.2" spans="7:11">
       <c r="G160" s="15"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="20"/>
     </row>
     <row r="161" ht="15.2" spans="7:11">
       <c r="G161" s="15"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="20"/>
     </row>
     <row r="162" ht="15.2" spans="7:11">
       <c r="G162" s="15"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="20"/>
     </row>
     <row r="163" ht="15.2" spans="7:11">
       <c r="G163" s="15"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="20"/>
     </row>
     <row r="164" ht="15.2" spans="7:11">
       <c r="G164" s="15"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="20"/>
     </row>
     <row r="165" ht="15.2" spans="7:11">
       <c r="G165" s="15"/>
-      <c r="J165" s="18"/>
-      <c r="K165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="20"/>
     </row>
     <row r="166" ht="15.2" spans="7:11">
       <c r="G166" s="15"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="20"/>
     </row>
     <row r="167" ht="15.2" spans="7:11">
       <c r="G167" s="15"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="20"/>
     </row>
     <row r="168" ht="15.2" spans="7:11">
       <c r="G168" s="15"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="20"/>
     </row>
     <row r="169" ht="15.2" spans="7:11">
       <c r="G169" s="15"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="20"/>
     </row>
     <row r="170" ht="15.2" spans="7:11">
       <c r="G170" s="15"/>
-      <c r="J170" s="18"/>
-      <c r="K170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="20"/>
     </row>
     <row r="171" ht="15.2" spans="7:11">
       <c r="G171" s="15"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="20"/>
     </row>
     <row r="172" ht="15.2" spans="7:11">
       <c r="G172" s="15"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="20"/>
     </row>
     <row r="173" ht="15.2" spans="7:11">
       <c r="G173" s="15"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="20"/>
     </row>
     <row r="174" ht="15.2" spans="7:11">
       <c r="G174" s="15"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="20"/>
     </row>
     <row r="175" ht="15.2" spans="7:11">
       <c r="G175" s="15"/>
-      <c r="J175" s="18"/>
-      <c r="K175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="20"/>
     </row>
     <row r="176" ht="15.2" spans="7:11">
       <c r="G176" s="15"/>
-      <c r="J176" s="18"/>
-      <c r="K176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="20"/>
     </row>
     <row r="177" ht="15.2" spans="7:11">
       <c r="G177" s="15"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="20"/>
     </row>
     <row r="178" ht="15.2" spans="7:11">
       <c r="G178" s="15"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="20"/>
     </row>
     <row r="179" ht="15.2" spans="7:11">
       <c r="G179" s="15"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="20"/>
     </row>
     <row r="180" ht="15.2" spans="7:11">
       <c r="G180" s="15"/>
-      <c r="J180" s="18"/>
-      <c r="K180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="20"/>
     </row>
     <row r="181" ht="15.2" spans="7:11">
       <c r="G181" s="15"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="20"/>
     </row>
     <row r="182" ht="15.2" spans="7:11">
       <c r="G182" s="15"/>
-      <c r="J182" s="18"/>
-      <c r="K182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="20"/>
     </row>
     <row r="183" ht="15.2" spans="7:11">
       <c r="G183" s="15"/>
-      <c r="J183" s="18"/>
-      <c r="K183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="20"/>
     </row>
     <row r="184" ht="15.2" spans="7:11">
       <c r="G184" s="15"/>
-      <c r="J184" s="18"/>
-      <c r="K184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="20"/>
     </row>
     <row r="185" ht="15.2" spans="7:11">
       <c r="G185" s="15"/>
-      <c r="J185" s="18"/>
-      <c r="K185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="20"/>
     </row>
     <row r="186" ht="15.2" spans="7:11">
       <c r="G186" s="15"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="20"/>
     </row>
     <row r="187" ht="15.2" spans="7:11">
       <c r="G187" s="15"/>
-      <c r="J187" s="18"/>
-      <c r="K187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="20"/>
     </row>
     <row r="188" ht="15.2" spans="7:11">
       <c r="G188" s="15"/>
-      <c r="J188" s="18"/>
-      <c r="K188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="20"/>
     </row>
     <row r="189" ht="15.2" spans="7:11">
       <c r="G189" s="15"/>
-      <c r="J189" s="18"/>
-      <c r="K189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="20"/>
     </row>
     <row r="190" ht="15.2" spans="7:11">
       <c r="G190" s="15"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="20"/>
     </row>
     <row r="191" ht="15.2" spans="7:11">
       <c r="G191" s="15"/>
-      <c r="J191" s="18"/>
-      <c r="K191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="20"/>
     </row>
     <row r="192" ht="15.2" spans="7:11">
       <c r="G192" s="15"/>
-      <c r="J192" s="18"/>
-      <c r="K192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="20"/>
     </row>
     <row r="193" ht="15.2" spans="7:11">
       <c r="G193" s="15"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="20"/>
     </row>
     <row r="194" ht="15.2" spans="7:11">
       <c r="G194" s="15"/>
-      <c r="J194" s="18"/>
-      <c r="K194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="20"/>
     </row>
     <row r="195" ht="15.2" spans="7:11">
       <c r="G195" s="15"/>
-      <c r="J195" s="18"/>
-      <c r="K195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="20"/>
     </row>
     <row r="196" ht="15.2" spans="7:11">
       <c r="G196" s="15"/>
-      <c r="J196" s="18"/>
-      <c r="K196" s="19"/>
+      <c r="J196" s="19"/>
+      <c r="K196" s="20"/>
     </row>
     <row r="197" ht="15.2" spans="7:11">
       <c r="G197" s="15"/>
-      <c r="J197" s="18"/>
-      <c r="K197" s="19"/>
+      <c r="J197" s="19"/>
+      <c r="K197" s="20"/>
     </row>
     <row r="198" ht="15.2" spans="7:11">
       <c r="G198" s="15"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="19"/>
+      <c r="J198" s="19"/>
+      <c r="K198" s="20"/>
     </row>
     <row r="199" ht="15.2" spans="7:11">
       <c r="G199" s="15"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="20"/>
     </row>
     <row r="200" ht="15.2" spans="7:11">
       <c r="G200" s="15"/>
-      <c r="J200" s="18"/>
-      <c r="K200" s="19"/>
+      <c r="J200" s="19"/>
+      <c r="K200" s="20"/>
     </row>
     <row r="201" ht="15.2" spans="7:11">
       <c r="G201" s="15"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="19"/>
+      <c r="J201" s="19"/>
+      <c r="K201" s="20"/>
     </row>
     <row r="202" ht="15.2" spans="7:11">
       <c r="G202" s="15"/>
-      <c r="J202" s="18"/>
-      <c r="K202" s="19"/>
+      <c r="J202" s="19"/>
+      <c r="K202" s="20"/>
     </row>
     <row r="203" ht="15.2" spans="7:11">
       <c r="G203" s="15"/>
-      <c r="J203" s="18"/>
-      <c r="K203" s="19"/>
+      <c r="J203" s="19"/>
+      <c r="K203" s="20"/>
     </row>
     <row r="204" ht="15.2" spans="7:11">
       <c r="G204" s="15"/>
-      <c r="J204" s="18"/>
-      <c r="K204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="20"/>
     </row>
     <row r="205" ht="15.2" spans="7:11">
       <c r="G205" s="15"/>
-      <c r="J205" s="18"/>
-      <c r="K205" s="19"/>
+      <c r="J205" s="19"/>
+      <c r="K205" s="20"/>
     </row>
     <row r="206" ht="15.2" spans="7:11">
       <c r="G206" s="15"/>
-      <c r="J206" s="18"/>
-      <c r="K206" s="19"/>
+      <c r="J206" s="19"/>
+      <c r="K206" s="20"/>
     </row>
     <row r="207" ht="15.2" spans="7:11">
       <c r="G207" s="15"/>
-      <c r="J207" s="18"/>
-      <c r="K207" s="19"/>
+      <c r="J207" s="19"/>
+      <c r="K207" s="20"/>
     </row>
     <row r="208" ht="15.2" spans="7:11">
       <c r="G208" s="15"/>
-      <c r="J208" s="18"/>
-      <c r="K208" s="19"/>
+      <c r="J208" s="19"/>
+      <c r="K208" s="20"/>
     </row>
     <row r="209" ht="15.2" spans="7:11">
       <c r="G209" s="15"/>
-      <c r="J209" s="18"/>
-      <c r="K209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="20"/>
     </row>
     <row r="210" ht="15.2" spans="7:11">
       <c r="G210" s="15"/>
-      <c r="J210" s="18"/>
-      <c r="K210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="20"/>
     </row>
     <row r="211" ht="15.2" spans="7:11">
       <c r="G211" s="15"/>
-      <c r="J211" s="18"/>
-      <c r="K211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="20"/>
     </row>
     <row r="212" ht="15.2" spans="7:11">
       <c r="G212" s="15"/>
-      <c r="J212" s="18"/>
-      <c r="K212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="20"/>
     </row>
     <row r="213" ht="15.2" spans="7:11">
       <c r="G213" s="15"/>
-      <c r="J213" s="18"/>
-      <c r="K213" s="19"/>
+      <c r="J213" s="19"/>
+      <c r="K213" s="20"/>
     </row>
     <row r="214" ht="15.2" spans="7:11">
       <c r="G214" s="15"/>
-      <c r="J214" s="18"/>
-      <c r="K214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="20"/>
     </row>
     <row r="215" ht="15.2" spans="7:11">
       <c r="G215" s="15"/>
-      <c r="J215" s="18"/>
-      <c r="K215" s="19"/>
+      <c r="J215" s="19"/>
+      <c r="K215" s="20"/>
     </row>
     <row r="216" ht="15.2" spans="7:11">
       <c r="G216" s="15"/>
-      <c r="J216" s="18"/>
-      <c r="K216" s="19"/>
+      <c r="J216" s="19"/>
+      <c r="K216" s="20"/>
     </row>
     <row r="217" ht="15.2" spans="7:11">
       <c r="G217" s="15"/>
-      <c r="J217" s="18"/>
-      <c r="K217" s="19"/>
+      <c r="J217" s="19"/>
+      <c r="K217" s="20"/>
     </row>
     <row r="218" ht="15.2" spans="7:11">
       <c r="G218" s="15"/>
-      <c r="J218" s="18"/>
-      <c r="K218" s="19"/>
+      <c r="J218" s="19"/>
+      <c r="K218" s="20"/>
     </row>
     <row r="219" ht="15.2" spans="7:11">
       <c r="G219" s="15"/>
-      <c r="J219" s="18"/>
-      <c r="K219" s="19"/>
+      <c r="J219" s="19"/>
+      <c r="K219" s="20"/>
     </row>
     <row r="220" ht="15.2" spans="7:11">
       <c r="G220" s="15"/>
-      <c r="J220" s="18"/>
-      <c r="K220" s="19"/>
+      <c r="J220" s="19"/>
+      <c r="K220" s="20"/>
     </row>
     <row r="221" ht="15.2" spans="7:11">
       <c r="G221" s="15"/>
-      <c r="J221" s="18"/>
-      <c r="K221" s="19"/>
+      <c r="J221" s="19"/>
+      <c r="K221" s="20"/>
     </row>
     <row r="222" ht="15.2" spans="7:11">
       <c r="G222" s="15"/>
-      <c r="J222" s="18"/>
-      <c r="K222" s="19"/>
+      <c r="J222" s="19"/>
+      <c r="K222" s="20"/>
     </row>
     <row r="223" ht="15.2" spans="7:11">
       <c r="G223" s="15"/>
-      <c r="J223" s="18"/>
-      <c r="K223" s="19"/>
+      <c r="J223" s="19"/>
+      <c r="K223" s="20"/>
     </row>
     <row r="224" ht="15.2" spans="7:11">
       <c r="G224" s="15"/>
-      <c r="J224" s="18"/>
-      <c r="K224" s="19"/>
+      <c r="J224" s="19"/>
+      <c r="K224" s="20"/>
     </row>
     <row r="225" ht="15.2" spans="7:11">
       <c r="G225" s="15"/>
-      <c r="J225" s="18"/>
-      <c r="K225" s="19"/>
+      <c r="J225" s="19"/>
+      <c r="K225" s="20"/>
     </row>
     <row r="226" ht="15.2" spans="7:11">
       <c r="G226" s="15"/>
-      <c r="J226" s="18"/>
-      <c r="K226" s="19"/>
+      <c r="J226" s="19"/>
+      <c r="K226" s="20"/>
     </row>
     <row r="227" ht="15.2" spans="7:11">
       <c r="G227" s="15"/>
-      <c r="J227" s="18"/>
-      <c r="K227" s="19"/>
+      <c r="J227" s="19"/>
+      <c r="K227" s="20"/>
     </row>
     <row r="228" ht="15.2" spans="7:11">
       <c r="G228" s="15"/>
-      <c r="J228" s="18"/>
-      <c r="K228" s="19"/>
+      <c r="J228" s="19"/>
+      <c r="K228" s="20"/>
     </row>
     <row r="229" ht="15.2" spans="7:11">
       <c r="G229" s="15"/>
-      <c r="J229" s="18"/>
-      <c r="K229" s="19"/>
+      <c r="J229" s="19"/>
+      <c r="K229" s="20"/>
     </row>
     <row r="230" ht="15.2" spans="7:11">
       <c r="G230" s="15"/>
-      <c r="J230" s="18"/>
-      <c r="K230" s="19"/>
+      <c r="J230" s="19"/>
+      <c r="K230" s="20"/>
     </row>
     <row r="231" ht="15.2" spans="7:11">
       <c r="G231" s="15"/>
-      <c r="J231" s="18"/>
-      <c r="K231" s="19"/>
+      <c r="J231" s="19"/>
+      <c r="K231" s="20"/>
     </row>
     <row r="232" ht="15.2" spans="7:11">
       <c r="G232" s="15"/>
-      <c r="J232" s="18"/>
-      <c r="K232" s="19"/>
+      <c r="J232" s="19"/>
+      <c r="K232" s="20"/>
     </row>
     <row r="233" ht="15.2" spans="7:11">
       <c r="G233" s="15"/>
-      <c r="J233" s="18"/>
-      <c r="K233" s="19"/>
+      <c r="J233" s="19"/>
+      <c r="K233" s="20"/>
     </row>
     <row r="234" ht="15.2" spans="7:11">
       <c r="G234" s="15"/>
-      <c r="J234" s="18"/>
-      <c r="K234" s="19"/>
+      <c r="J234" s="19"/>
+      <c r="K234" s="20"/>
     </row>
     <row r="235" ht="15.2" spans="7:11">
       <c r="G235" s="15"/>
-      <c r="J235" s="18"/>
-      <c r="K235" s="19"/>
+      <c r="J235" s="19"/>
+      <c r="K235" s="20"/>
     </row>
     <row r="236" ht="15.2" spans="7:11">
       <c r="G236" s="15"/>
-      <c r="J236" s="18"/>
-      <c r="K236" s="19"/>
+      <c r="J236" s="19"/>
+      <c r="K236" s="20"/>
     </row>
     <row r="237" ht="15.2" spans="7:11">
       <c r="G237" s="15"/>
-      <c r="J237" s="18"/>
-      <c r="K237" s="19"/>
+      <c r="J237" s="19"/>
+      <c r="K237" s="20"/>
     </row>
     <row r="238" ht="15.2" spans="7:11">
       <c r="G238" s="15"/>
-      <c r="J238" s="18"/>
-      <c r="K238" s="19"/>
+      <c r="J238" s="19"/>
+      <c r="K238" s="20"/>
     </row>
     <row r="239" ht="15.2" spans="7:11">
       <c r="G239" s="15"/>
-      <c r="J239" s="18"/>
-      <c r="K239" s="19"/>
+      <c r="J239" s="19"/>
+      <c r="K239" s="20"/>
     </row>
     <row r="240" ht="15.2" spans="7:11">
       <c r="G240" s="15"/>
-      <c r="J240" s="18"/>
-      <c r="K240" s="19"/>
+      <c r="J240" s="19"/>
+      <c r="K240" s="20"/>
     </row>
     <row r="241" ht="15.2" spans="7:11">
       <c r="G241" s="15"/>
-      <c r="J241" s="18"/>
-      <c r="K241" s="19"/>
+      <c r="J241" s="19"/>
+      <c r="K241" s="20"/>
     </row>
     <row r="242" ht="15.2" spans="7:11">
       <c r="G242" s="15"/>
-      <c r="J242" s="18"/>
-      <c r="K242" s="19"/>
+      <c r="J242" s="19"/>
+      <c r="K242" s="20"/>
     </row>
     <row r="243" ht="15.2" spans="7:11">
       <c r="G243" s="15"/>
-      <c r="J243" s="18"/>
-      <c r="K243" s="19"/>
+      <c r="J243" s="19"/>
+      <c r="K243" s="20"/>
     </row>
     <row r="244" ht="15.2" spans="7:11">
       <c r="G244" s="15"/>
-      <c r="J244" s="18"/>
-      <c r="K244" s="19"/>
+      <c r="J244" s="19"/>
+      <c r="K244" s="20"/>
     </row>
     <row r="245" ht="15.2" spans="7:11">
       <c r="G245" s="15"/>
-      <c r="J245" s="18"/>
-      <c r="K245" s="19"/>
+      <c r="J245" s="19"/>
+      <c r="K245" s="20"/>
     </row>
     <row r="246" ht="15.2" spans="7:11">
       <c r="G246" s="15"/>
-      <c r="J246" s="18"/>
-      <c r="K246" s="19"/>
+      <c r="J246" s="19"/>
+      <c r="K246" s="20"/>
     </row>
     <row r="247" ht="15.2" spans="7:11">
       <c r="G247" s="15"/>
-      <c r="J247" s="18"/>
-      <c r="K247" s="19"/>
+      <c r="J247" s="19"/>
+      <c r="K247" s="20"/>
     </row>
     <row r="248" ht="15.2" spans="7:11">
       <c r="G248" s="15"/>
-      <c r="J248" s="18"/>
-      <c r="K248" s="19"/>
+      <c r="J248" s="19"/>
+      <c r="K248" s="20"/>
     </row>
     <row r="249" ht="15.2" spans="7:11">
       <c r="G249" s="15"/>
-      <c r="J249" s="18"/>
-      <c r="K249" s="19"/>
+      <c r="J249" s="19"/>
+      <c r="K249" s="20"/>
     </row>
     <row r="250" ht="15.2" spans="7:11">
       <c r="G250" s="15"/>
-      <c r="J250" s="18"/>
-      <c r="K250" s="19"/>
+      <c r="J250" s="19"/>
+      <c r="K250" s="20"/>
     </row>
     <row r="251" ht="15.2" spans="7:11">
       <c r="G251" s="15"/>
-      <c r="J251" s="18"/>
-      <c r="K251" s="19"/>
+      <c r="J251" s="19"/>
+      <c r="K251" s="20"/>
     </row>
     <row r="252" ht="15.2" spans="7:11">
       <c r="G252" s="15"/>
-      <c r="J252" s="18"/>
-      <c r="K252" s="19"/>
+      <c r="J252" s="19"/>
+      <c r="K252" s="20"/>
     </row>
     <row r="253" ht="15.2" spans="7:11">
       <c r="G253" s="15"/>
-      <c r="J253" s="18"/>
-      <c r="K253" s="19"/>
+      <c r="J253" s="19"/>
+      <c r="K253" s="20"/>
     </row>
     <row r="254" ht="15.2" spans="7:11">
       <c r="G254" s="15"/>
-      <c r="J254" s="18"/>
-      <c r="K254" s="19"/>
+      <c r="J254" s="19"/>
+      <c r="K254" s="20"/>
     </row>
     <row r="255" ht="15.2" spans="7:11">
       <c r="G255" s="15"/>
-      <c r="J255" s="18"/>
-      <c r="K255" s="19"/>
+      <c r="J255" s="19"/>
+      <c r="K255" s="20"/>
     </row>
     <row r="256" ht="15.2" spans="7:11">
       <c r="G256" s="15"/>
-      <c r="J256" s="18"/>
-      <c r="K256" s="19"/>
+      <c r="J256" s="19"/>
+      <c r="K256" s="20"/>
     </row>
     <row r="257" ht="15.2" spans="7:11">
       <c r="G257" s="15"/>
-      <c r="J257" s="18"/>
-      <c r="K257" s="19"/>
+      <c r="J257" s="19"/>
+      <c r="K257" s="20"/>
     </row>
     <row r="258" ht="15.2" spans="7:11">
       <c r="G258" s="15"/>
-      <c r="J258" s="18"/>
-      <c r="K258" s="19"/>
+      <c r="J258" s="19"/>
+      <c r="K258" s="20"/>
     </row>
     <row r="259" ht="15.2" spans="7:11">
       <c r="G259" s="15"/>
-      <c r="J259" s="18"/>
-      <c r="K259" s="19"/>
+      <c r="J259" s="19"/>
+      <c r="K259" s="20"/>
     </row>
     <row r="260" ht="15.2" spans="7:11">
       <c r="G260" s="15"/>
-      <c r="J260" s="18"/>
-      <c r="K260" s="19"/>
+      <c r="J260" s="19"/>
+      <c r="K260" s="20"/>
     </row>
     <row r="261" ht="15.2" spans="7:11">
       <c r="G261" s="15"/>
-      <c r="J261" s="18"/>
-      <c r="K261" s="19"/>
+      <c r="J261" s="19"/>
+      <c r="K261" s="20"/>
     </row>
     <row r="262" ht="15.2" spans="7:11">
       <c r="G262" s="15"/>
-      <c r="J262" s="18"/>
-      <c r="K262" s="19"/>
+      <c r="J262" s="19"/>
+      <c r="K262" s="20"/>
     </row>
     <row r="263" ht="15.2" spans="7:11">
       <c r="G263" s="15"/>
-      <c r="J263" s="18"/>
-      <c r="K263" s="19"/>
+      <c r="J263" s="19"/>
+      <c r="K263" s="20"/>
     </row>
     <row r="264" ht="15.2" spans="7:11">
       <c r="G264" s="15"/>
-      <c r="J264" s="18"/>
-      <c r="K264" s="19"/>
+      <c r="J264" s="19"/>
+      <c r="K264" s="20"/>
     </row>
     <row r="265" ht="15.2" spans="7:11">
       <c r="G265" s="15"/>
-      <c r="J265" s="18"/>
-      <c r="K265" s="19"/>
+      <c r="J265" s="19"/>
+      <c r="K265" s="20"/>
     </row>
     <row r="266" ht="15.2" spans="7:11">
       <c r="G266" s="15"/>
-      <c r="J266" s="18"/>
-      <c r="K266" s="19"/>
+      <c r="J266" s="19"/>
+      <c r="K266" s="20"/>
     </row>
     <row r="267" ht="15.2" spans="7:11">
       <c r="G267" s="15"/>
-      <c r="J267" s="18"/>
-      <c r="K267" s="19"/>
+      <c r="J267" s="19"/>
+      <c r="K267" s="20"/>
     </row>
     <row r="268" ht="15.2" spans="7:11">
       <c r="G268" s="15"/>
-      <c r="J268" s="18"/>
-      <c r="K268" s="19"/>
+      <c r="J268" s="19"/>
+      <c r="K268" s="20"/>
     </row>
     <row r="269" ht="15.2" spans="7:11">
       <c r="G269" s="15"/>
-      <c r="J269" s="18"/>
-      <c r="K269" s="19"/>
+      <c r="J269" s="19"/>
+      <c r="K269" s="20"/>
     </row>
     <row r="270" ht="15.2" spans="7:11">
       <c r="G270" s="15"/>
-      <c r="J270" s="18"/>
-      <c r="K270" s="19"/>
+      <c r="J270" s="19"/>
+      <c r="K270" s="20"/>
     </row>
     <row r="271" ht="15.2" spans="7:11">
       <c r="G271" s="15"/>
-      <c r="J271" s="18"/>
-      <c r="K271" s="19"/>
+      <c r="J271" s="19"/>
+      <c r="K271" s="20"/>
     </row>
     <row r="272" ht="15.2" spans="7:11">
       <c r="G272" s="15"/>
-      <c r="J272" s="18"/>
-      <c r="K272" s="19"/>
+      <c r="J272" s="19"/>
+      <c r="K272" s="20"/>
     </row>
     <row r="273" ht="15.2" spans="7:11">
       <c r="G273" s="15"/>
-      <c r="J273" s="18"/>
-      <c r="K273" s="19"/>
+      <c r="J273" s="19"/>
+      <c r="K273" s="20"/>
     </row>
     <row r="274" ht="15.2" spans="7:11">
       <c r="G274" s="15"/>
-      <c r="J274" s="18"/>
-      <c r="K274" s="19"/>
+      <c r="J274" s="19"/>
+      <c r="K274" s="20"/>
     </row>
     <row r="275" ht="15.2" spans="7:11">
       <c r="G275" s="15"/>
-      <c r="J275" s="18"/>
-      <c r="K275" s="19"/>
+      <c r="J275" s="19"/>
+      <c r="K275" s="20"/>
     </row>
     <row r="276" ht="15.2" spans="7:11">
       <c r="G276" s="15"/>
-      <c r="J276" s="18"/>
-      <c r="K276" s="19"/>
+      <c r="J276" s="19"/>
+      <c r="K276" s="20"/>
     </row>
     <row r="277" ht="15.2" spans="7:11">
       <c r="G277" s="15"/>
-      <c r="J277" s="18"/>
-      <c r="K277" s="19"/>
+      <c r="J277" s="19"/>
+      <c r="K277" s="20"/>
     </row>
     <row r="278" ht="15.2" spans="7:11">
       <c r="G278" s="15"/>
-      <c r="J278" s="18"/>
-      <c r="K278" s="19"/>
+      <c r="J278" s="19"/>
+      <c r="K278" s="20"/>
     </row>
     <row r="279" ht="15.2" spans="7:11">
       <c r="G279" s="15"/>
-      <c r="J279" s="18"/>
-      <c r="K279" s="19"/>
+      <c r="J279" s="19"/>
+      <c r="K279" s="20"/>
     </row>
     <row r="280" ht="15.2" spans="7:11">
       <c r="G280" s="15"/>
-      <c r="J280" s="18"/>
-      <c r="K280" s="19"/>
+      <c r="J280" s="19"/>
+      <c r="K280" s="20"/>
     </row>
     <row r="281" ht="15.2" spans="7:11">
       <c r="G281" s="15"/>
-      <c r="J281" s="18"/>
-      <c r="K281" s="19"/>
+      <c r="J281" s="19"/>
+      <c r="K281" s="20"/>
     </row>
     <row r="282" ht="15.2" spans="7:11">
       <c r="G282" s="15"/>
-      <c r="J282" s="18"/>
-      <c r="K282" s="19"/>
+      <c r="J282" s="19"/>
+      <c r="K282" s="20"/>
     </row>
     <row r="283" ht="15.2" spans="7:11">
       <c r="G283" s="15"/>
-      <c r="J283" s="18"/>
-      <c r="K283" s="19"/>
+      <c r="J283" s="19"/>
+      <c r="K283" s="20"/>
     </row>
     <row r="284" ht="15.2" spans="7:11">
       <c r="G284" s="15"/>
-      <c r="J284" s="18"/>
-      <c r="K284" s="19"/>
+      <c r="J284" s="19"/>
+      <c r="K284" s="20"/>
     </row>
     <row r="285" ht="15.2" spans="7:11">
       <c r="G285" s="15"/>
-      <c r="J285" s="18"/>
-      <c r="K285" s="19"/>
+      <c r="J285" s="19"/>
+      <c r="K285" s="20"/>
     </row>
     <row r="286" ht="15.2" spans="7:11">
       <c r="G286" s="15"/>
-      <c r="J286" s="18"/>
-      <c r="K286" s="19"/>
+      <c r="J286" s="19"/>
+      <c r="K286" s="20"/>
     </row>
     <row r="287" ht="15.2" spans="7:11">
       <c r="G287" s="15"/>
-      <c r="J287" s="18"/>
-      <c r="K287" s="19"/>
+      <c r="J287" s="19"/>
+      <c r="K287" s="20"/>
     </row>
     <row r="288" ht="15.2" spans="7:11">
       <c r="G288" s="15"/>
-      <c r="J288" s="18"/>
-      <c r="K288" s="19"/>
+      <c r="J288" s="19"/>
+      <c r="K288" s="20"/>
     </row>
     <row r="289" ht="15.2" spans="7:11">
       <c r="G289" s="15"/>
-      <c r="J289" s="18"/>
-      <c r="K289" s="19"/>
+      <c r="J289" s="19"/>
+      <c r="K289" s="20"/>
     </row>
     <row r="290" ht="15.2" spans="7:11">
       <c r="G290" s="15"/>
-      <c r="J290" s="18"/>
-      <c r="K290" s="19"/>
+      <c r="J290" s="19"/>
+      <c r="K290" s="20"/>
     </row>
     <row r="291" ht="15.2" spans="7:11">
       <c r="G291" s="15"/>
-      <c r="J291" s="18"/>
-      <c r="K291" s="19"/>
+      <c r="J291" s="19"/>
+      <c r="K291" s="20"/>
     </row>
     <row r="292" ht="15.2" spans="7:11">
       <c r="G292" s="15"/>
-      <c r="J292" s="18"/>
-      <c r="K292" s="19"/>
+      <c r="J292" s="19"/>
+      <c r="K292" s="20"/>
     </row>
     <row r="293" ht="15.2" spans="7:11">
       <c r="G293" s="15"/>
-      <c r="J293" s="18"/>
-      <c r="K293" s="19"/>
+      <c r="J293" s="19"/>
+      <c r="K293" s="20"/>
     </row>
     <row r="294" ht="15.2" spans="7:11">
       <c r="G294" s="15"/>
-      <c r="J294" s="18"/>
-      <c r="K294" s="19"/>
+      <c r="J294" s="19"/>
+      <c r="K294" s="20"/>
     </row>
     <row r="295" ht="15.2" spans="7:11">
       <c r="G295" s="15"/>
-      <c r="J295" s="18"/>
-      <c r="K295" s="19"/>
+      <c r="J295" s="19"/>
+      <c r="K295" s="20"/>
     </row>
     <row r="296" ht="15.2" spans="7:11">
       <c r="G296" s="15"/>
-      <c r="J296" s="18"/>
-      <c r="K296" s="19"/>
+      <c r="J296" s="19"/>
+      <c r="K296" s="20"/>
     </row>
     <row r="297" ht="15.2" spans="7:11">
       <c r="G297" s="15"/>
-      <c r="J297" s="18"/>
-      <c r="K297" s="19"/>
+      <c r="J297" s="19"/>
+      <c r="K297" s="20"/>
     </row>
     <row r="298" ht="15.2" spans="7:11">
       <c r="G298" s="15"/>
-      <c r="J298" s="18"/>
-      <c r="K298" s="19"/>
+      <c r="J298" s="19"/>
+      <c r="K298" s="20"/>
     </row>
     <row r="299" ht="15.2" spans="7:11">
       <c r="G299" s="15"/>
-      <c r="J299" s="18"/>
-      <c r="K299" s="19"/>
+      <c r="J299" s="19"/>
+      <c r="K299" s="20"/>
     </row>
     <row r="300" ht="15.2" spans="7:11">
       <c r="G300" s="15"/>
-      <c r="J300" s="18"/>
-      <c r="K300" s="19"/>
+      <c r="J300" s="19"/>
+      <c r="K300" s="20"/>
     </row>
     <row r="301" ht="15.2" spans="7:11">
       <c r="G301" s="15"/>
-      <c r="J301" s="18"/>
-      <c r="K301" s="19"/>
+      <c r="J301" s="19"/>
+      <c r="K301" s="20"/>
     </row>
     <row r="302" ht="15.2" spans="7:11">
       <c r="G302" s="15"/>
-      <c r="J302" s="18"/>
-      <c r="K302" s="19"/>
+      <c r="J302" s="19"/>
+      <c r="K302" s="20"/>
     </row>
     <row r="303" ht="15.2" spans="7:11">
       <c r="G303" s="15"/>
-      <c r="J303" s="18"/>
-      <c r="K303" s="19"/>
+      <c r="J303" s="19"/>
+      <c r="K303" s="20"/>
     </row>
     <row r="304" ht="15.2" spans="7:11">
       <c r="G304" s="15"/>
-      <c r="J304" s="18"/>
-      <c r="K304" s="19"/>
+      <c r="J304" s="19"/>
+      <c r="K304" s="20"/>
     </row>
     <row r="305" ht="15.2" spans="7:11">
       <c r="G305" s="15"/>
-      <c r="J305" s="18"/>
-      <c r="K305" s="19"/>
+      <c r="J305" s="19"/>
+      <c r="K305" s="20"/>
     </row>
     <row r="306" ht="15.2" spans="7:11">
       <c r="G306" s="15"/>
-      <c r="J306" s="18"/>
-      <c r="K306" s="19"/>
+      <c r="J306" s="19"/>
+      <c r="K306" s="20"/>
     </row>
     <row r="307" ht="15.2" spans="7:11">
       <c r="G307" s="15"/>
-      <c r="J307" s="18"/>
-      <c r="K307" s="19"/>
+      <c r="J307" s="19"/>
+      <c r="K307" s="20"/>
     </row>
     <row r="308" ht="15.2" spans="7:11">
       <c r="G308" s="15"/>
-      <c r="J308" s="18"/>
-      <c r="K308" s="19"/>
+      <c r="J308" s="19"/>
+      <c r="K308" s="20"/>
     </row>
     <row r="309" ht="15.2" spans="7:11">
       <c r="G309" s="15"/>
-      <c r="J309" s="18"/>
-      <c r="K309" s="19"/>
+      <c r="J309" s="19"/>
+      <c r="K309" s="20"/>
     </row>
     <row r="310" ht="15.2" spans="7:11">
       <c r="G310" s="15"/>
-      <c r="J310" s="18"/>
-      <c r="K310" s="19"/>
+      <c r="J310" s="19"/>
+      <c r="K310" s="20"/>
     </row>
     <row r="311" ht="15.2" spans="7:11">
       <c r="G311" s="15"/>
-      <c r="J311" s="18"/>
-      <c r="K311" s="19"/>
+      <c r="J311" s="19"/>
+      <c r="K311" s="20"/>
     </row>
     <row r="312" ht="15.2" spans="7:11">
       <c r="G312" s="15"/>
-      <c r="J312" s="18"/>
-      <c r="K312" s="19"/>
+      <c r="J312" s="19"/>
+      <c r="K312" s="20"/>
     </row>
     <row r="313" ht="15.2" spans="7:11">
       <c r="G313" s="15"/>
-      <c r="J313" s="18"/>
-      <c r="K313" s="19"/>
+      <c r="J313" s="19"/>
+      <c r="K313" s="20"/>
     </row>
     <row r="314" ht="15.2" spans="7:11">
       <c r="G314" s="15"/>
-      <c r="J314" s="18"/>
-      <c r="K314" s="19"/>
+      <c r="J314" s="19"/>
+      <c r="K314" s="20"/>
     </row>
     <row r="315" ht="15.2" spans="7:11">
       <c r="G315" s="15"/>
-      <c r="J315" s="18"/>
-      <c r="K315" s="19"/>
+      <c r="J315" s="19"/>
+      <c r="K315" s="20"/>
     </row>
     <row r="316" ht="15.2" spans="7:11">
       <c r="G316" s="15"/>
-      <c r="J316" s="18"/>
-      <c r="K316" s="19"/>
+      <c r="J316" s="19"/>
+      <c r="K316" s="20"/>
     </row>
     <row r="317" ht="15.2" spans="7:11">
       <c r="G317" s="15"/>
-      <c r="J317" s="18"/>
-      <c r="K317" s="19"/>
+      <c r="J317" s="19"/>
+      <c r="K317" s="20"/>
     </row>
     <row r="318" ht="15.2" spans="7:11">
       <c r="G318" s="15"/>
-      <c r="J318" s="18"/>
-      <c r="K318" s="19"/>
+      <c r="J318" s="19"/>
+      <c r="K318" s="20"/>
     </row>
     <row r="319" ht="15.2" spans="7:11">
       <c r="G319" s="15"/>
-      <c r="J319" s="18"/>
-      <c r="K319" s="19"/>
+      <c r="J319" s="19"/>
+      <c r="K319" s="20"/>
     </row>
     <row r="320" ht="15.2" spans="7:11">
       <c r="G320" s="15"/>
-      <c r="J320" s="18"/>
-      <c r="K320" s="19"/>
+      <c r="J320" s="19"/>
+      <c r="K320" s="20"/>
     </row>
     <row r="321" ht="15.2" spans="7:11">
       <c r="G321" s="15"/>
-      <c r="J321" s="18"/>
-      <c r="K321" s="19"/>
+      <c r="J321" s="19"/>
+      <c r="K321" s="20"/>
     </row>
     <row r="322" ht="15.2" spans="7:11">
       <c r="G322" s="15"/>
-      <c r="J322" s="18"/>
-      <c r="K322" s="19"/>
+      <c r="J322" s="19"/>
+      <c r="K322" s="20"/>
     </row>
     <row r="323" ht="15.2" spans="7:11">
       <c r="G323" s="15"/>
-      <c r="J323" s="18"/>
-      <c r="K323" s="19"/>
+      <c r="J323" s="19"/>
+      <c r="K323" s="20"/>
     </row>
     <row r="324" ht="15.2" spans="7:11">
       <c r="G324" s="15"/>
-      <c r="J324" s="18"/>
-      <c r="K324" s="19"/>
+      <c r="J324" s="19"/>
+      <c r="K324" s="20"/>
     </row>
     <row r="325" ht="15.2" spans="7:11">
       <c r="G325" s="15"/>
-      <c r="J325" s="18"/>
-      <c r="K325" s="19"/>
+      <c r="J325" s="19"/>
+      <c r="K325" s="20"/>
     </row>
     <row r="326" ht="15.2" spans="7:11">
       <c r="G326" s="15"/>
-      <c r="J326" s="18"/>
-      <c r="K326" s="19"/>
+      <c r="J326" s="19"/>
+      <c r="K326" s="20"/>
     </row>
     <row r="327" ht="15.2" spans="7:11">
       <c r="G327" s="15"/>
-      <c r="J327" s="18"/>
-      <c r="K327" s="19"/>
+      <c r="J327" s="19"/>
+      <c r="K327" s="20"/>
     </row>
     <row r="328" ht="15.2" spans="7:11">
       <c r="G328" s="15"/>
-      <c r="J328" s="18"/>
-      <c r="K328" s="19"/>
+      <c r="J328" s="19"/>
+      <c r="K328" s="20"/>
     </row>
     <row r="329" ht="15.2" spans="7:11">
       <c r="G329" s="15"/>
-      <c r="J329" s="18"/>
-      <c r="K329" s="19"/>
+      <c r="J329" s="19"/>
+      <c r="K329" s="20"/>
     </row>
     <row r="330" ht="15.2" spans="7:11">
       <c r="G330" s="15"/>
-      <c r="J330" s="18"/>
-      <c r="K330" s="19"/>
+      <c r="J330" s="19"/>
+      <c r="K330" s="20"/>
     </row>
     <row r="331" ht="15.2" spans="7:11">
       <c r="G331" s="15"/>
-      <c r="J331" s="18"/>
-      <c r="K331" s="19"/>
+      <c r="J331" s="19"/>
+      <c r="K331" s="20"/>
     </row>
     <row r="332" ht="15.2" spans="7:11">
       <c r="G332" s="15"/>
-      <c r="J332" s="18"/>
-      <c r="K332" s="19"/>
+      <c r="J332" s="19"/>
+      <c r="K332" s="20"/>
     </row>
     <row r="333" ht="15.2" spans="7:11">
       <c r="G333" s="15"/>
-      <c r="J333" s="18"/>
-      <c r="K333" s="19"/>
+      <c r="J333" s="19"/>
+      <c r="K333" s="20"/>
     </row>
     <row r="334" ht="15.2" spans="7:11">
       <c r="G334" s="15"/>
-      <c r="J334" s="18"/>
-      <c r="K334" s="19"/>
+      <c r="J334" s="19"/>
+      <c r="K334" s="20"/>
     </row>
     <row r="335" ht="15.2" spans="7:11">
       <c r="G335" s="15"/>
-      <c r="J335" s="18"/>
-      <c r="K335" s="19"/>
+      <c r="J335" s="19"/>
+      <c r="K335" s="20"/>
     </row>
     <row r="336" ht="15.2" spans="7:11">
       <c r="G336" s="15"/>
-      <c r="J336" s="18"/>
-      <c r="K336" s="19"/>
+      <c r="J336" s="19"/>
+      <c r="K336" s="20"/>
     </row>
     <row r="337" ht="15.2" spans="7:11">
       <c r="G337" s="15"/>
-      <c r="J337" s="18"/>
-      <c r="K337" s="19"/>
+      <c r="J337" s="19"/>
+      <c r="K337" s="20"/>
     </row>
     <row r="338" ht="15.2" spans="7:11">
       <c r="G338" s="15"/>
-      <c r="J338" s="18"/>
-      <c r="K338" s="19"/>
+      <c r="J338" s="19"/>
+      <c r="K338" s="20"/>
     </row>
     <row r="339" ht="15.2" spans="7:11">
       <c r="G339" s="15"/>
-      <c r="J339" s="18"/>
-      <c r="K339" s="19"/>
+      <c r="J339" s="19"/>
+      <c r="K339" s="20"/>
     </row>
     <row r="340" ht="15.2" spans="7:11">
       <c r="G340" s="15"/>
-      <c r="J340" s="18"/>
-      <c r="K340" s="19"/>
+      <c r="J340" s="19"/>
+      <c r="K340" s="20"/>
     </row>
     <row r="341" ht="15.2" spans="7:11">
       <c r="G341" s="15"/>
-      <c r="J341" s="18"/>
-      <c r="K341" s="19"/>
+      <c r="J341" s="19"/>
+      <c r="K341" s="20"/>
     </row>
     <row r="342" ht="15.2" spans="7:11">
       <c r="G342" s="15"/>
-      <c r="J342" s="18"/>
-      <c r="K342" s="19"/>
+      <c r="J342" s="19"/>
+      <c r="K342" s="20"/>
     </row>
     <row r="343" ht="15.2" spans="7:11">
       <c r="G343" s="15"/>
-      <c r="J343" s="18"/>
-      <c r="K343" s="19"/>
+      <c r="J343" s="19"/>
+      <c r="K343" s="20"/>
     </row>
     <row r="344" ht="15.2" spans="7:11">
       <c r="G344" s="15"/>
-      <c r="J344" s="18"/>
-      <c r="K344" s="19"/>
+      <c r="J344" s="19"/>
+      <c r="K344" s="20"/>
     </row>
     <row r="345" ht="15.2" spans="7:11">
       <c r="G345" s="15"/>
-      <c r="J345" s="18"/>
-      <c r="K345" s="19"/>
+      <c r="J345" s="19"/>
+      <c r="K345" s="20"/>
     </row>
     <row r="346" ht="15.2" spans="7:11">
       <c r="G346" s="15"/>
-      <c r="J346" s="18"/>
-      <c r="K346" s="19"/>
+      <c r="J346" s="19"/>
+      <c r="K346" s="20"/>
     </row>
     <row r="347" ht="15.2" spans="7:11">
       <c r="G347" s="15"/>
-      <c r="J347" s="18"/>
-      <c r="K347" s="19"/>
+      <c r="J347" s="19"/>
+      <c r="K347" s="20"/>
     </row>
     <row r="348" ht="15.2" spans="7:11">
       <c r="G348" s="15"/>
-      <c r="J348" s="18"/>
-      <c r="K348" s="19"/>
+      <c r="J348" s="19"/>
+      <c r="K348" s="20"/>
     </row>
     <row r="349" ht="15.2" spans="7:11">
       <c r="G349" s="15"/>
-      <c r="J349" s="18"/>
-      <c r="K349" s="19"/>
+      <c r="J349" s="19"/>
+      <c r="K349" s="20"/>
     </row>
     <row r="350" ht="15.2" spans="7:11">
       <c r="G350" s="15"/>
-      <c r="J350" s="18"/>
-      <c r="K350" s="19"/>
+      <c r="J350" s="19"/>
+      <c r="K350" s="20"/>
     </row>
     <row r="351" ht="15.2" spans="7:11">
       <c r="G351" s="15"/>
-      <c r="J351" s="18"/>
-      <c r="K351" s="19"/>
+      <c r="J351" s="19"/>
+      <c r="K351" s="20"/>
     </row>
     <row r="352" ht="15.2" spans="7:11">
       <c r="G352" s="15"/>
-      <c r="J352" s="18"/>
-      <c r="K352" s="19"/>
+      <c r="J352" s="19"/>
+      <c r="K352" s="20"/>
     </row>
     <row r="353" ht="15.2" spans="7:11">
       <c r="G353" s="15"/>
-      <c r="J353" s="18"/>
-      <c r="K353" s="19"/>
+      <c r="J353" s="19"/>
+      <c r="K353" s="20"/>
     </row>
     <row r="354" ht="15.2" spans="7:11">
       <c r="G354" s="15"/>
-      <c r="J354" s="18"/>
-      <c r="K354" s="19"/>
+      <c r="J354" s="19"/>
+      <c r="K354" s="20"/>
     </row>
     <row r="355" ht="15.2" spans="7:11">
       <c r="G355" s="15"/>
-      <c r="J355" s="18"/>
-      <c r="K355" s="19"/>
+      <c r="J355" s="19"/>
+      <c r="K355" s="20"/>
     </row>
     <row r="356" ht="15.2" spans="7:11">
       <c r="G356" s="15"/>
-      <c r="J356" s="18"/>
-      <c r="K356" s="19"/>
+      <c r="J356" s="19"/>
+      <c r="K356" s="20"/>
     </row>
     <row r="357" ht="15.2" spans="7:11">
       <c r="G357" s="15"/>
-      <c r="J357" s="18"/>
-      <c r="K357" s="19"/>
+      <c r="J357" s="19"/>
+      <c r="K357" s="20"/>
     </row>
     <row r="358" ht="15.2" spans="7:11">
       <c r="G358" s="15"/>
-      <c r="J358" s="18"/>
-      <c r="K358" s="19"/>
+      <c r="J358" s="19"/>
+      <c r="K358" s="20"/>
     </row>
     <row r="359" ht="15.2" spans="7:11">
       <c r="G359" s="15"/>
-      <c r="J359" s="18"/>
-      <c r="K359" s="19"/>
+      <c r="J359" s="19"/>
+      <c r="K359" s="20"/>
     </row>
     <row r="360" ht="15.2" spans="7:11">
       <c r="G360" s="15"/>
-      <c r="J360" s="18"/>
-      <c r="K360" s="19"/>
+      <c r="J360" s="19"/>
+      <c r="K360" s="20"/>
     </row>
     <row r="361" ht="15.2" spans="7:11">
       <c r="G361" s="15"/>
-      <c r="J361" s="18"/>
-      <c r="K361" s="19"/>
+      <c r="J361" s="19"/>
+      <c r="K361" s="20"/>
     </row>
     <row r="362" ht="15.2" spans="7:11">
       <c r="G362" s="15"/>
-      <c r="J362" s="18"/>
-      <c r="K362" s="19"/>
+      <c r="J362" s="19"/>
+      <c r="K362" s="20"/>
     </row>
     <row r="363" ht="15.2" spans="7:11">
       <c r="G363" s="15"/>
-      <c r="J363" s="18"/>
-      <c r="K363" s="19"/>
+      <c r="J363" s="19"/>
+      <c r="K363" s="20"/>
     </row>
     <row r="364" ht="15.2" spans="7:11">
       <c r="G364" s="15"/>
-      <c r="J364" s="18"/>
-      <c r="K364" s="19"/>
+      <c r="J364" s="19"/>
+      <c r="K364" s="20"/>
     </row>
     <row r="365" ht="15.2" spans="7:11">
       <c r="G365" s="15"/>
-      <c r="J365" s="18"/>
-      <c r="K365" s="19"/>
+      <c r="J365" s="19"/>
+      <c r="K365" s="20"/>
     </row>
     <row r="366" ht="15.2" spans="7:11">
       <c r="G366" s="15"/>
-      <c r="J366" s="18"/>
-      <c r="K366" s="19"/>
+      <c r="J366" s="19"/>
+      <c r="K366" s="20"/>
     </row>
     <row r="367" ht="15.2" spans="7:11">
       <c r="G367" s="15"/>
-      <c r="J367" s="18"/>
-      <c r="K367" s="19"/>
+      <c r="J367" s="19"/>
+      <c r="K367" s="20"/>
     </row>
     <row r="368" ht="15.2" spans="7:11">
       <c r="G368" s="15"/>
-      <c r="J368" s="18"/>
-      <c r="K368" s="19"/>
+      <c r="J368" s="19"/>
+      <c r="K368" s="20"/>
     </row>
     <row r="369" ht="15.2" spans="7:11">
       <c r="G369" s="15"/>
-      <c r="J369" s="18"/>
-      <c r="K369" s="19"/>
+      <c r="J369" s="19"/>
+      <c r="K369" s="20"/>
     </row>
     <row r="370" ht="15.2" spans="7:11">
       <c r="G370" s="15"/>
-      <c r="J370" s="18"/>
-      <c r="K370" s="19"/>
+      <c r="J370" s="19"/>
+      <c r="K370" s="20"/>
     </row>
     <row r="371" ht="15.2" spans="7:11">
       <c r="G371" s="15"/>
-      <c r="J371" s="18"/>
-      <c r="K371" s="19"/>
+      <c r="J371" s="19"/>
+      <c r="K371" s="20"/>
     </row>
     <row r="372" ht="15.2" spans="7:11">
       <c r="G372" s="15"/>
-      <c r="J372" s="18"/>
-      <c r="K372" s="19"/>
+      <c r="J372" s="19"/>
+      <c r="K372" s="20"/>
     </row>
     <row r="373" ht="15.2" spans="7:11">
       <c r="G373" s="15"/>
-      <c r="J373" s="18"/>
-      <c r="K373" s="19"/>
+      <c r="J373" s="19"/>
+      <c r="K373" s="20"/>
     </row>
     <row r="374" ht="15.2" spans="7:11">
       <c r="G374" s="15"/>
-      <c r="J374" s="18"/>
-      <c r="K374" s="19"/>
+      <c r="J374" s="19"/>
+      <c r="K374" s="20"/>
     </row>
     <row r="375" ht="15.2" spans="7:11">
       <c r="G375" s="15"/>
-      <c r="J375" s="18"/>
-      <c r="K375" s="19"/>
+      <c r="J375" s="19"/>
+      <c r="K375" s="20"/>
     </row>
     <row r="376" ht="15.2" spans="7:11">
       <c r="G376" s="15"/>
-      <c r="J376" s="18"/>
-      <c r="K376" s="19"/>
+      <c r="J376" s="19"/>
+      <c r="K376" s="20"/>
     </row>
     <row r="377" ht="15.2" spans="7:11">
       <c r="G377" s="15"/>
-      <c r="J377" s="18"/>
-      <c r="K377" s="19"/>
+      <c r="J377" s="19"/>
+      <c r="K377" s="20"/>
     </row>
     <row r="378" ht="15.2" spans="7:11">
       <c r="G378" s="15"/>
-      <c r="J378" s="18"/>
-      <c r="K378" s="19"/>
+      <c r="J378" s="19"/>
+      <c r="K378" s="20"/>
     </row>
     <row r="379" ht="15.2" spans="7:11">
       <c r="G379" s="15"/>
-      <c r="J379" s="18"/>
-      <c r="K379" s="19"/>
+      <c r="J379" s="19"/>
+      <c r="K379" s="20"/>
     </row>
     <row r="380" ht="15.2" spans="7:11">
       <c r="G380" s="15"/>
-      <c r="J380" s="18"/>
-      <c r="K380" s="19"/>
+      <c r="J380" s="19"/>
+      <c r="K380" s="20"/>
     </row>
     <row r="381" ht="15.2" spans="7:11">
       <c r="G381" s="15"/>
-      <c r="J381" s="18"/>
-      <c r="K381" s="19"/>
+      <c r="J381" s="19"/>
+      <c r="K381" s="20"/>
     </row>
     <row r="382" ht="15.2" spans="7:11">
       <c r="G382" s="15"/>
-      <c r="J382" s="18"/>
-      <c r="K382" s="19"/>
+      <c r="J382" s="19"/>
+      <c r="K382" s="20"/>
     </row>
     <row r="383" ht="15.2" spans="7:11">
       <c r="G383" s="15"/>
-      <c r="J383" s="18"/>
-      <c r="K383" s="19"/>
+      <c r="J383" s="19"/>
+      <c r="K383" s="20"/>
     </row>
     <row r="384" ht="15.2" spans="7:11">
       <c r="G384" s="15"/>
-      <c r="J384" s="18"/>
-      <c r="K384" s="19"/>
+      <c r="J384" s="19"/>
+      <c r="K384" s="20"/>
     </row>
     <row r="385" ht="15.2" spans="7:11">
       <c r="G385" s="15"/>
-      <c r="J385" s="18"/>
-      <c r="K385" s="19"/>
+      <c r="J385" s="19"/>
+      <c r="K385" s="20"/>
     </row>
     <row r="386" ht="15.2" spans="7:11">
       <c r="G386" s="15"/>
-      <c r="J386" s="18"/>
-      <c r="K386" s="19"/>
+      <c r="J386" s="19"/>
+      <c r="K386" s="20"/>
     </row>
     <row r="387" ht="15.2" spans="7:11">
       <c r="G387" s="15"/>
-      <c r="J387" s="18"/>
-      <c r="K387" s="19"/>
+      <c r="J387" s="19"/>
+      <c r="K387" s="20"/>
     </row>
     <row r="388" ht="15.2" spans="7:11">
       <c r="G388" s="15"/>
-      <c r="J388" s="18"/>
-      <c r="K388" s="19"/>
+      <c r="J388" s="19"/>
+      <c r="K388" s="20"/>
     </row>
     <row r="389" ht="15.2" spans="7:11">
       <c r="G389" s="15"/>
-      <c r="J389" s="18"/>
-      <c r="K389" s="19"/>
+      <c r="J389" s="19"/>
+      <c r="K389" s="20"/>
     </row>
     <row r="390" ht="15.2" spans="7:11">
       <c r="G390" s="15"/>
-      <c r="J390" s="18"/>
-      <c r="K390" s="19"/>
+      <c r="J390" s="19"/>
+      <c r="K390" s="20"/>
     </row>
     <row r="391" ht="15.2" spans="7:11">
       <c r="G391" s="15"/>
-      <c r="J391" s="18"/>
-      <c r="K391" s="19"/>
+      <c r="J391" s="19"/>
+      <c r="K391" s="20"/>
     </row>
     <row r="392" ht="15.2" spans="7:11">
       <c r="G392" s="15"/>
-      <c r="J392" s="18"/>
-      <c r="K392" s="19"/>
+      <c r="J392" s="19"/>
+      <c r="K392" s="20"/>
     </row>
     <row r="393" ht="15.2" spans="7:11">
       <c r="G393" s="15"/>
-      <c r="J393" s="18"/>
-      <c r="K393" s="19"/>
+      <c r="J393" s="19"/>
+      <c r="K393" s="20"/>
     </row>
     <row r="394" ht="15.2" spans="7:11">
       <c r="G394" s="15"/>
-      <c r="J394" s="18"/>
-      <c r="K394" s="19"/>
+      <c r="J394" s="19"/>
+      <c r="K394" s="20"/>
     </row>
     <row r="395" ht="15.2" spans="7:11">
       <c r="G395" s="15"/>
-      <c r="J395" s="18"/>
-      <c r="K395" s="19"/>
+      <c r="J395" s="19"/>
+      <c r="K395" s="20"/>
     </row>
     <row r="396" ht="15.2" spans="7:11">
       <c r="G396" s="15"/>
-      <c r="J396" s="18"/>
-      <c r="K396" s="19"/>
+      <c r="J396" s="19"/>
+      <c r="K396" s="20"/>
     </row>
     <row r="397" ht="15.2" spans="7:11">
       <c r="G397" s="15"/>
-      <c r="J397" s="18"/>
-      <c r="K397" s="19"/>
+      <c r="J397" s="19"/>
+      <c r="K397" s="20"/>
     </row>
     <row r="398" ht="15.2" spans="7:11">
       <c r="G398" s="15"/>
-      <c r="J398" s="18"/>
-      <c r="K398" s="19"/>
+      <c r="J398" s="19"/>
+      <c r="K398" s="20"/>
     </row>
     <row r="399" ht="15.2" spans="7:11">
       <c r="G399" s="15"/>
-      <c r="J399" s="18"/>
-      <c r="K399" s="19"/>
+      <c r="J399" s="19"/>
+      <c r="K399" s="20"/>
     </row>
     <row r="400" ht="15.2" spans="7:11">
       <c r="G400" s="15"/>
-      <c r="J400" s="18"/>
-      <c r="K400" s="19"/>
+      <c r="J400" s="19"/>
+      <c r="K400" s="20"/>
     </row>
     <row r="401" ht="15.2" spans="7:11">
       <c r="G401" s="15"/>
-      <c r="J401" s="18"/>
-      <c r="K401" s="19"/>
+      <c r="J401" s="19"/>
+      <c r="K401" s="20"/>
     </row>
     <row r="402" ht="15.2" spans="7:11">
       <c r="G402" s="15"/>
-      <c r="J402" s="18"/>
-      <c r="K402" s="19"/>
+      <c r="J402" s="19"/>
+      <c r="K402" s="20"/>
     </row>
     <row r="403" ht="15.2" spans="7:11">
       <c r="G403" s="15"/>
-      <c r="J403" s="18"/>
-      <c r="K403" s="19"/>
+      <c r="J403" s="19"/>
+      <c r="K403" s="20"/>
     </row>
     <row r="404" ht="15.2" spans="7:11">
       <c r="G404" s="15"/>
-      <c r="J404" s="18"/>
-      <c r="K404" s="19"/>
+      <c r="J404" s="19"/>
+      <c r="K404" s="20"/>
     </row>
     <row r="405" ht="15.2" spans="7:11">
       <c r="G405" s="15"/>
-      <c r="J405" s="18"/>
-      <c r="K405" s="19"/>
+      <c r="J405" s="19"/>
+      <c r="K405" s="20"/>
     </row>
     <row r="406" ht="15.2" spans="7:11">
       <c r="G406" s="15"/>
-      <c r="J406" s="18"/>
-      <c r="K406" s="19"/>
+      <c r="J406" s="19"/>
+      <c r="K406" s="20"/>
     </row>
     <row r="407" ht="15.2" spans="7:11">
       <c r="G407" s="15"/>
-      <c r="J407" s="18"/>
-      <c r="K407" s="19"/>
+      <c r="J407" s="19"/>
+      <c r="K407" s="20"/>
     </row>
     <row r="408" ht="15.2" spans="7:11">
       <c r="G408" s="15"/>
-      <c r="J408" s="18"/>
-      <c r="K408" s="19"/>
+      <c r="J408" s="19"/>
+      <c r="K408" s="20"/>
     </row>
     <row r="409" ht="15.2" spans="7:11">
       <c r="G409" s="15"/>
-      <c r="J409" s="18"/>
-      <c r="K409" s="19"/>
+      <c r="J409" s="19"/>
+      <c r="K409" s="20"/>
     </row>
     <row r="410" ht="15.2" spans="7:11">
       <c r="G410" s="15"/>
-      <c r="J410" s="18"/>
-      <c r="K410" s="19"/>
+      <c r="J410" s="19"/>
+      <c r="K410" s="20"/>
     </row>
     <row r="411" ht="15.2" spans="7:11">
       <c r="G411" s="15"/>
-      <c r="J411" s="18"/>
-      <c r="K411" s="19"/>
+      <c r="J411" s="19"/>
+      <c r="K411" s="20"/>
     </row>
     <row r="412" ht="15.2" spans="7:11">
       <c r="G412" s="15"/>
-      <c r="J412" s="18"/>
-      <c r="K412" s="19"/>
+      <c r="J412" s="19"/>
+      <c r="K412" s="20"/>
     </row>
     <row r="413" ht="15.2" spans="7:11">
       <c r="G413" s="15"/>
-      <c r="J413" s="18"/>
-      <c r="K413" s="19"/>
+      <c r="J413" s="19"/>
+      <c r="K413" s="20"/>
     </row>
     <row r="414" ht="15.2" spans="7:11">
       <c r="G414" s="15"/>
-      <c r="J414" s="18"/>
-      <c r="K414" s="19"/>
+      <c r="J414" s="19"/>
+      <c r="K414" s="20"/>
     </row>
     <row r="415" ht="15.2" spans="7:11">
       <c r="G415" s="15"/>
-      <c r="J415" s="18"/>
-      <c r="K415" s="19"/>
+      <c r="J415" s="19"/>
+      <c r="K415" s="20"/>
     </row>
     <row r="416" ht="15.2" spans="7:11">
       <c r="G416" s="15"/>
-      <c r="J416" s="18"/>
-      <c r="K416" s="19"/>
+      <c r="J416" s="19"/>
+      <c r="K416" s="20"/>
     </row>
     <row r="417" ht="15.2" spans="7:11">
       <c r="G417" s="15"/>
-      <c r="J417" s="18"/>
-      <c r="K417" s="19"/>
+      <c r="J417" s="19"/>
+      <c r="K417" s="20"/>
     </row>
     <row r="418" ht="15.2" spans="7:11">
       <c r="G418" s="15"/>
-      <c r="J418" s="18"/>
-      <c r="K418" s="19"/>
+      <c r="J418" s="19"/>
+      <c r="K418" s="20"/>
     </row>
     <row r="419" ht="15.2" spans="7:11">
       <c r="G419" s="15"/>
-      <c r="J419" s="18"/>
-      <c r="K419" s="19"/>
+      <c r="J419" s="19"/>
+      <c r="K419" s="20"/>
     </row>
     <row r="420" ht="15.2" spans="7:11">
       <c r="G420" s="15"/>
-      <c r="J420" s="18"/>
-      <c r="K420" s="19"/>
+      <c r="J420" s="19"/>
+      <c r="K420" s="20"/>
     </row>
     <row r="421" ht="15.2" spans="7:11">
       <c r="G421" s="15"/>
-      <c r="J421" s="18"/>
-      <c r="K421" s="19"/>
+      <c r="J421" s="19"/>
+      <c r="K421" s="20"/>
     </row>
     <row r="422" ht="15.2" spans="7:11">
       <c r="G422" s="15"/>
-      <c r="J422" s="18"/>
-      <c r="K422" s="19"/>
+      <c r="J422" s="19"/>
+      <c r="K422" s="20"/>
     </row>
     <row r="423" ht="15.2" spans="7:11">
       <c r="G423" s="15"/>
-      <c r="J423" s="18"/>
-      <c r="K423" s="19"/>
+      <c r="J423" s="19"/>
+      <c r="K423" s="20"/>
     </row>
     <row r="424" ht="15.2" spans="7:11">
       <c r="G424" s="15"/>
-      <c r="J424" s="18"/>
-      <c r="K424" s="19"/>
+      <c r="J424" s="19"/>
+      <c r="K424" s="20"/>
     </row>
     <row r="425" ht="15.2" spans="7:11">
       <c r="G425" s="15"/>
-      <c r="J425" s="18"/>
-      <c r="K425" s="19"/>
+      <c r="J425" s="19"/>
+      <c r="K425" s="20"/>
     </row>
     <row r="426" ht="15.2" spans="7:11">
       <c r="G426" s="15"/>
-      <c r="J426" s="18"/>
-      <c r="K426" s="19"/>
+      <c r="J426" s="19"/>
+      <c r="K426" s="20"/>
     </row>
     <row r="427" ht="15.2" spans="7:11">
       <c r="G427" s="15"/>
-      <c r="J427" s="18"/>
-      <c r="K427" s="19"/>
+      <c r="J427" s="19"/>
+      <c r="K427" s="20"/>
     </row>
     <row r="428" ht="15.2" spans="7:11">
       <c r="G428" s="15"/>
-      <c r="J428" s="18"/>
-      <c r="K428" s="19"/>
+      <c r="J428" s="19"/>
+      <c r="K428" s="20"/>
     </row>
     <row r="429" ht="15.2" spans="7:11">
       <c r="G429" s="15"/>
-      <c r="J429" s="18"/>
-      <c r="K429" s="19"/>
+      <c r="J429" s="19"/>
+      <c r="K429" s="20"/>
     </row>
     <row r="430" ht="15.2" spans="7:11">
       <c r="G430" s="15"/>
-      <c r="J430" s="18"/>
-      <c r="K430" s="19"/>
+      <c r="J430" s="19"/>
+      <c r="K430" s="20"/>
     </row>
     <row r="431" ht="15.2" spans="7:11">
       <c r="G431" s="15"/>
-      <c r="J431" s="18"/>
-      <c r="K431" s="19"/>
+      <c r="J431" s="19"/>
+      <c r="K431" s="20"/>
     </row>
     <row r="432" ht="15.2" spans="7:11">
       <c r="G432" s="15"/>
-      <c r="J432" s="18"/>
-      <c r="K432" s="19"/>
+      <c r="J432" s="19"/>
+      <c r="K432" s="20"/>
     </row>
     <row r="433" ht="15.2" spans="7:11">
       <c r="G433" s="15"/>
-      <c r="J433" s="18"/>
-      <c r="K433" s="19"/>
+      <c r="J433" s="19"/>
+      <c r="K433" s="20"/>
     </row>
     <row r="434" ht="15.2" spans="7:11">
       <c r="G434" s="15"/>
-      <c r="J434" s="18"/>
-      <c r="K434" s="19"/>
+      <c r="J434" s="19"/>
+      <c r="K434" s="20"/>
     </row>
     <row r="435" ht="15.2" spans="7:11">
       <c r="G435" s="15"/>
-      <c r="J435" s="18"/>
-      <c r="K435" s="19"/>
+      <c r="J435" s="19"/>
+      <c r="K435" s="20"/>
     </row>
     <row r="436" ht="15.2" spans="7:11">
       <c r="G436" s="15"/>
-      <c r="J436" s="18"/>
-      <c r="K436" s="19"/>
+      <c r="J436" s="19"/>
+      <c r="K436" s="20"/>
     </row>
     <row r="437" ht="15.2" spans="7:11">
       <c r="G437" s="15"/>
-      <c r="J437" s="18"/>
-      <c r="K437" s="19"/>
+      <c r="J437" s="19"/>
+      <c r="K437" s="20"/>
     </row>
     <row r="438" ht="15.2" spans="7:11">
       <c r="G438" s="15"/>
-      <c r="J438" s="18"/>
-      <c r="K438" s="19"/>
+      <c r="J438" s="19"/>
+      <c r="K438" s="20"/>
     </row>
     <row r="439" ht="15.2" spans="7:11">
       <c r="G439" s="15"/>
-      <c r="J439" s="18"/>
-      <c r="K439" s="19"/>
+      <c r="J439" s="19"/>
+      <c r="K439" s="20"/>
     </row>
     <row r="440" ht="15.2" spans="7:11">
       <c r="G440" s="15"/>
-      <c r="J440" s="18"/>
-      <c r="K440" s="19"/>
+      <c r="J440" s="19"/>
+      <c r="K440" s="20"/>
     </row>
     <row r="441" ht="15.2" spans="7:11">
       <c r="G441" s="15"/>
-      <c r="J441" s="18"/>
-      <c r="K441" s="19"/>
+      <c r="J441" s="19"/>
+      <c r="K441" s="20"/>
     </row>
     <row r="442" ht="15.2" spans="7:11">
       <c r="G442" s="15"/>
-      <c r="J442" s="18"/>
-      <c r="K442" s="19"/>
+      <c r="J442" s="19"/>
+      <c r="K442" s="20"/>
     </row>
     <row r="443" ht="15.2" spans="7:11">
       <c r="G443" s="15"/>
-      <c r="J443" s="18"/>
-      <c r="K443" s="19"/>
+      <c r="J443" s="19"/>
+      <c r="K443" s="20"/>
     </row>
     <row r="444" ht="15.2" spans="7:11">
       <c r="G444" s="15"/>
-      <c r="J444" s="18"/>
-      <c r="K444" s="19"/>
+      <c r="J444" s="19"/>
+      <c r="K444" s="20"/>
     </row>
     <row r="445" ht="15.2" spans="7:11">
       <c r="G445" s="15"/>
-      <c r="J445" s="18"/>
-      <c r="K445" s="19"/>
+      <c r="J445" s="19"/>
+      <c r="K445" s="20"/>
     </row>
     <row r="446" ht="15.2" spans="7:11">
       <c r="G446" s="15"/>
-      <c r="J446" s="18"/>
-      <c r="K446" s="19"/>
+      <c r="J446" s="19"/>
+      <c r="K446" s="20"/>
     </row>
     <row r="447" ht="15.2" spans="7:11">
       <c r="G447" s="15"/>
-      <c r="J447" s="18"/>
-      <c r="K447" s="19"/>
+      <c r="J447" s="19"/>
+      <c r="K447" s="20"/>
     </row>
     <row r="448" ht="15.2" spans="7:11">
       <c r="G448" s="15"/>
-      <c r="J448" s="18"/>
-      <c r="K448" s="19"/>
+      <c r="J448" s="19"/>
+      <c r="K448" s="20"/>
     </row>
     <row r="449" ht="15.2" spans="7:11">
       <c r="G449" s="15"/>
-      <c r="J449" s="18"/>
-      <c r="K449" s="19"/>
+      <c r="J449" s="19"/>
+      <c r="K449" s="20"/>
     </row>
     <row r="450" ht="15.2" spans="7:11">
       <c r="G450" s="15"/>
-      <c r="J450" s="18"/>
-      <c r="K450" s="19"/>
+      <c r="J450" s="19"/>
+      <c r="K450" s="20"/>
     </row>
     <row r="451" ht="15.2" spans="7:11">
       <c r="G451" s="15"/>
-      <c r="J451" s="18"/>
-      <c r="K451" s="19"/>
+      <c r="J451" s="19"/>
+      <c r="K451" s="20"/>
     </row>
     <row r="452" ht="15.2" spans="7:11">
       <c r="G452" s="15"/>
-      <c r="J452" s="18"/>
-      <c r="K452" s="19"/>
+      <c r="J452" s="19"/>
+      <c r="K452" s="20"/>
     </row>
     <row r="453" ht="15.2" spans="7:11">
       <c r="G453" s="15"/>
-      <c r="J453" s="18"/>
-      <c r="K453" s="19"/>
+      <c r="J453" s="19"/>
+      <c r="K453" s="20"/>
     </row>
     <row r="454" ht="15.2" spans="7:11">
       <c r="G454" s="15"/>
-      <c r="J454" s="18"/>
-      <c r="K454" s="19"/>
+      <c r="J454" s="19"/>
+      <c r="K454" s="20"/>
     </row>
     <row r="455" ht="15.2" spans="7:11">
       <c r="G455" s="15"/>
-      <c r="J455" s="18"/>
-      <c r="K455" s="19"/>
+      <c r="J455" s="19"/>
+      <c r="K455" s="20"/>
     </row>
     <row r="456" ht="15.2" spans="7:11">
       <c r="G456" s="15"/>
-      <c r="J456" s="18"/>
-      <c r="K456" s="19"/>
+      <c r="J456" s="19"/>
+      <c r="K456" s="20"/>
     </row>
     <row r="457" ht="15.2" spans="7:11">
       <c r="G457" s="15"/>
-      <c r="J457" s="18"/>
-      <c r="K457" s="19"/>
+      <c r="J457" s="19"/>
+      <c r="K457" s="20"/>
     </row>
     <row r="458" ht="15.2" spans="7:11">
       <c r="G458" s="15"/>
-      <c r="J458" s="18"/>
-      <c r="K458" s="19"/>
+      <c r="J458" s="19"/>
+      <c r="K458" s="20"/>
     </row>
     <row r="459" ht="15.2" spans="7:11">
       <c r="G459" s="15"/>
-      <c r="J459" s="18"/>
-      <c r="K459" s="19"/>
+      <c r="J459" s="19"/>
+      <c r="K459" s="20"/>
     </row>
     <row r="460" ht="15.2" spans="7:11">
       <c r="G460" s="15"/>
-      <c r="J460" s="18"/>
-      <c r="K460" s="19"/>
+      <c r="J460" s="19"/>
+      <c r="K460" s="20"/>
     </row>
     <row r="461" ht="15.2" spans="7:11">
       <c r="G461" s="15"/>
-      <c r="J461" s="18"/>
-      <c r="K461" s="19"/>
+      <c r="J461" s="19"/>
+      <c r="K461" s="20"/>
     </row>
     <row r="462" ht="15.2" spans="7:11">
       <c r="G462" s="15"/>
-      <c r="J462" s="18"/>
-      <c r="K462" s="19"/>
+      <c r="J462" s="19"/>
+      <c r="K462" s="20"/>
     </row>
     <row r="463" ht="15.2" spans="7:11">
       <c r="G463" s="15"/>
-      <c r="J463" s="18"/>
-      <c r="K463" s="19"/>
+      <c r="J463" s="19"/>
+      <c r="K463" s="20"/>
     </row>
     <row r="464" ht="15.2" spans="7:11">
       <c r="G464" s="15"/>
-      <c r="J464" s="18"/>
-      <c r="K464" s="19"/>
+      <c r="J464" s="19"/>
+      <c r="K464" s="20"/>
     </row>
     <row r="465" ht="15.2" spans="7:11">
       <c r="G465" s="15"/>
-      <c r="J465" s="18"/>
-      <c r="K465" s="19"/>
+      <c r="J465" s="19"/>
+      <c r="K465" s="20"/>
     </row>
     <row r="466" ht="15.2" spans="7:11">
       <c r="G466" s="15"/>
-      <c r="J466" s="18"/>
-      <c r="K466" s="19"/>
+      <c r="J466" s="19"/>
+      <c r="K466" s="20"/>
     </row>
     <row r="467" ht="15.2" spans="7:11">
       <c r="G467" s="15"/>
-      <c r="J467" s="18"/>
-      <c r="K467" s="19"/>
+      <c r="J467" s="19"/>
+      <c r="K467" s="20"/>
     </row>
     <row r="468" ht="15.2" spans="7:11">
       <c r="G468" s="15"/>
-      <c r="J468" s="18"/>
-      <c r="K468" s="19"/>
+      <c r="J468" s="19"/>
+      <c r="K468" s="20"/>
     </row>
     <row r="469" ht="15.2" spans="7:11">
       <c r="G469" s="15"/>
-      <c r="J469" s="18"/>
-      <c r="K469" s="19"/>
+      <c r="J469" s="19"/>
+      <c r="K469" s="20"/>
     </row>
     <row r="470" ht="15.2" spans="7:11">
       <c r="G470" s="15"/>
-      <c r="J470" s="18"/>
-      <c r="K470" s="19"/>
+      <c r="J470" s="19"/>
+      <c r="K470" s="20"/>
     </row>
     <row r="471" ht="15.2" spans="7:11">
       <c r="G471" s="15"/>
-      <c r="J471" s="18"/>
-      <c r="K471" s="19"/>
+      <c r="J471" s="19"/>
+      <c r="K471" s="20"/>
     </row>
     <row r="472" ht="15.2" spans="7:11">
       <c r="G472" s="15"/>
-      <c r="J472" s="18"/>
-      <c r="K472" s="19"/>
+      <c r="J472" s="19"/>
+      <c r="K472" s="20"/>
     </row>
     <row r="473" ht="15.2" spans="7:11">
       <c r="G473" s="15"/>
-      <c r="J473" s="18"/>
-      <c r="K473" s="19"/>
+      <c r="J473" s="19"/>
+      <c r="K473" s="20"/>
     </row>
     <row r="474" ht="15.2" spans="7:11">
       <c r="G474" s="15"/>
-      <c r="J474" s="18"/>
-      <c r="K474" s="19"/>
+      <c r="J474" s="19"/>
+      <c r="K474" s="20"/>
     </row>
     <row r="475" ht="15.2" spans="7:11">
       <c r="G475" s="15"/>
-      <c r="J475" s="18"/>
-      <c r="K475" s="19"/>
+      <c r="J475" s="19"/>
+      <c r="K475" s="20"/>
     </row>
     <row r="476" ht="15.2" spans="7:11">
       <c r="G476" s="15"/>
-      <c r="J476" s="18"/>
-      <c r="K476" s="19"/>
+      <c r="J476" s="19"/>
+      <c r="K476" s="20"/>
     </row>
     <row r="477" ht="15.2" spans="7:11">
       <c r="G477" s="15"/>
-      <c r="J477" s="18"/>
-      <c r="K477" s="19"/>
+      <c r="J477" s="19"/>
+      <c r="K477" s="20"/>
     </row>
     <row r="478" ht="15.2" spans="7:11">
       <c r="G478" s="15"/>
-      <c r="J478" s="18"/>
-      <c r="K478" s="19"/>
+      <c r="J478" s="19"/>
+      <c r="K478" s="20"/>
     </row>
     <row r="479" ht="15.2" spans="7:11">
       <c r="G479" s="15"/>
-      <c r="J479" s="18"/>
-      <c r="K479" s="19"/>
+      <c r="J479" s="19"/>
+      <c r="K479" s="20"/>
     </row>
     <row r="480" ht="15.2" spans="7:11">
       <c r="G480" s="15"/>
-      <c r="J480" s="18"/>
-      <c r="K480" s="19"/>
+      <c r="J480" s="19"/>
+      <c r="K480" s="20"/>
     </row>
     <row r="481" ht="15.2" spans="7:11">
       <c r="G481" s="15"/>
-      <c r="J481" s="18"/>
-      <c r="K481" s="19"/>
+      <c r="J481" s="19"/>
+      <c r="K481" s="20"/>
     </row>
     <row r="482" ht="15.2" spans="7:11">
       <c r="G482" s="15"/>
-      <c r="J482" s="18"/>
-      <c r="K482" s="19"/>
+      <c r="J482" s="19"/>
+      <c r="K482" s="20"/>
     </row>
     <row r="483" ht="15.2" spans="7:11">
       <c r="G483" s="15"/>
-      <c r="J483" s="18"/>
-      <c r="K483" s="19"/>
+      <c r="J483" s="19"/>
+      <c r="K483" s="20"/>
     </row>
     <row r="484" ht="15.2" spans="7:11">
       <c r="G484" s="15"/>
-      <c r="J484" s="18"/>
-      <c r="K484" s="19"/>
+      <c r="J484" s="19"/>
+      <c r="K484" s="20"/>
     </row>
     <row r="485" ht="15.2" spans="7:11">
       <c r="G485" s="15"/>
-      <c r="J485" s="18"/>
-      <c r="K485" s="19"/>
+      <c r="J485" s="19"/>
+      <c r="K485" s="20"/>
     </row>
     <row r="486" ht="15.2" spans="7:11">
       <c r="G486" s="15"/>
-      <c r="J486" s="18"/>
-      <c r="K486" s="19"/>
+      <c r="J486" s="19"/>
+      <c r="K486" s="20"/>
     </row>
     <row r="487" ht="15.2" spans="7:11">
       <c r="G487" s="15"/>
-      <c r="J487" s="18"/>
-      <c r="K487" s="19"/>
+      <c r="J487" s="19"/>
+      <c r="K487" s="20"/>
     </row>
     <row r="488" ht="15.2" spans="7:11">
       <c r="G488" s="15"/>
-      <c r="J488" s="18"/>
-      <c r="K488" s="19"/>
+      <c r="J488" s="19"/>
+      <c r="K488" s="20"/>
     </row>
     <row r="489" ht="15.2" spans="7:11">
       <c r="G489" s="15"/>
-      <c r="J489" s="18"/>
-      <c r="K489" s="19"/>
+      <c r="J489" s="19"/>
+      <c r="K489" s="20"/>
     </row>
     <row r="490" ht="15.2" spans="7:11">
       <c r="G490" s="15"/>
-      <c r="J490" s="18"/>
-      <c r="K490" s="19"/>
+      <c r="J490" s="19"/>
+      <c r="K490" s="20"/>
     </row>
     <row r="491" ht="15.2" spans="7:11">
       <c r="G491" s="15"/>
-      <c r="J491" s="18"/>
-      <c r="K491" s="19"/>
+      <c r="J491" s="19"/>
+      <c r="K491" s="20"/>
     </row>
     <row r="492" ht="15.2" spans="7:11">
       <c r="G492" s="15"/>
-      <c r="J492" s="18"/>
-      <c r="K492" s="19"/>
+      <c r="J492" s="19"/>
+      <c r="K492" s="20"/>
     </row>
     <row r="493" ht="15.2" spans="7:11">
       <c r="G493" s="15"/>
-      <c r="J493" s="18"/>
-      <c r="K493" s="19"/>
+      <c r="J493" s="19"/>
+      <c r="K493" s="20"/>
     </row>
     <row r="494" ht="15.2" spans="7:11">
       <c r="G494" s="15"/>
-      <c r="J494" s="18"/>
-      <c r="K494" s="19"/>
+      <c r="J494" s="19"/>
+      <c r="K494" s="20"/>
     </row>
     <row r="495" ht="15.2" spans="7:11">
       <c r="G495" s="15"/>
-      <c r="J495" s="18"/>
-      <c r="K495" s="19"/>
+      <c r="J495" s="19"/>
+      <c r="K495" s="20"/>
     </row>
     <row r="496" ht="15.2" spans="7:11">
       <c r="G496" s="15"/>
-      <c r="J496" s="18"/>
-      <c r="K496" s="19"/>
+      <c r="J496" s="19"/>
+      <c r="K496" s="20"/>
     </row>
     <row r="497" ht="15.2" spans="7:11">
       <c r="G497" s="15"/>
-      <c r="J497" s="18"/>
-      <c r="K497" s="19"/>
+      <c r="J497" s="19"/>
+      <c r="K497" s="20"/>
     </row>
     <row r="498" ht="15.2" spans="7:11">
       <c r="G498" s="15"/>
-      <c r="J498" s="18"/>
-      <c r="K498" s="19"/>
+      <c r="J498" s="19"/>
+      <c r="K498" s="20"/>
     </row>
     <row r="499" ht="15.2" spans="7:11">
       <c r="G499" s="15"/>
-      <c r="J499" s="18"/>
-      <c r="K499" s="19"/>
+      <c r="J499" s="19"/>
+      <c r="K499" s="20"/>
     </row>
     <row r="500" ht="15.2" spans="7:11">
       <c r="G500" s="15"/>
-      <c r="J500" s="18"/>
-      <c r="K500" s="19"/>
+      <c r="J500" s="19"/>
+      <c r="K500" s="20"/>
     </row>
     <row r="501" ht="15.2" spans="7:11">
       <c r="G501" s="15"/>
-      <c r="J501" s="18"/>
-      <c r="K501" s="19"/>
+      <c r="J501" s="19"/>
+      <c r="K501" s="20"/>
     </row>
     <row r="502" ht="15.2" spans="7:11">
       <c r="G502" s="15"/>
-      <c r="J502" s="18"/>
-      <c r="K502" s="19"/>
+      <c r="J502" s="19"/>
+      <c r="K502" s="20"/>
     </row>
     <row r="503" ht="15.2" spans="7:11">
       <c r="G503" s="15"/>
-      <c r="J503" s="18"/>
-      <c r="K503" s="19"/>
+      <c r="J503" s="19"/>
+      <c r="K503" s="20"/>
     </row>
     <row r="504" ht="15.2" spans="7:11">
       <c r="G504" s="15"/>
-      <c r="J504" s="18"/>
-      <c r="K504" s="19"/>
+      <c r="J504" s="19"/>
+      <c r="K504" s="20"/>
     </row>
     <row r="505" ht="15.2" spans="7:11">
       <c r="G505" s="15"/>
-      <c r="J505" s="18"/>
-      <c r="K505" s="19"/>
+      <c r="J505" s="19"/>
+      <c r="K505" s="20"/>
     </row>
     <row r="506" ht="15.2" spans="7:11">
       <c r="G506" s="15"/>
-      <c r="J506" s="18"/>
-      <c r="K506" s="19"/>
+      <c r="J506" s="19"/>
+      <c r="K506" s="20"/>
     </row>
     <row r="507" ht="15.2" spans="7:11">
       <c r="G507" s="15"/>
-      <c r="J507" s="18"/>
-      <c r="K507" s="19"/>
+      <c r="J507" s="19"/>
+      <c r="K507" s="20"/>
     </row>
     <row r="508" ht="15.2" spans="7:11">
       <c r="G508" s="15"/>
-      <c r="J508" s="18"/>
-      <c r="K508" s="19"/>
+      <c r="J508" s="19"/>
+      <c r="K508" s="20"/>
     </row>
     <row r="509" ht="15.2" spans="7:11">
       <c r="G509" s="15"/>
-      <c r="J509" s="18"/>
-      <c r="K509" s="19"/>
+      <c r="J509" s="19"/>
+      <c r="K509" s="20"/>
     </row>
     <row r="510" ht="15.2" spans="7:11">
       <c r="G510" s="15"/>
-      <c r="J510" s="18"/>
-      <c r="K510" s="19"/>
+      <c r="J510" s="19"/>
+      <c r="K510" s="20"/>
     </row>
     <row r="511" ht="15.2" spans="7:11">
       <c r="G511" s="15"/>
-      <c r="J511" s="18"/>
-      <c r="K511" s="19"/>
+      <c r="J511" s="19"/>
+      <c r="K511" s="20"/>
     </row>
     <row r="512" ht="15.2" spans="7:11">
       <c r="G512" s="15"/>
-      <c r="J512" s="18"/>
-      <c r="K512" s="19"/>
+      <c r="J512" s="19"/>
+      <c r="K512" s="20"/>
     </row>
     <row r="513" ht="15.2" spans="7:11">
       <c r="G513" s="15"/>
-      <c r="J513" s="18"/>
-      <c r="K513" s="19"/>
+      <c r="J513" s="19"/>
+      <c r="K513" s="20"/>
     </row>
     <row r="514" ht="15.2" spans="7:11">
       <c r="G514" s="15"/>
-      <c r="J514" s="18"/>
-      <c r="K514" s="19"/>
+      <c r="J514" s="19"/>
+      <c r="K514" s="20"/>
     </row>
     <row r="515" ht="15.2" spans="7:11">
       <c r="G515" s="15"/>
-      <c r="J515" s="18"/>
-      <c r="K515" s="19"/>
+      <c r="J515" s="19"/>
+      <c r="K515" s="20"/>
     </row>
     <row r="516" ht="15.2" spans="7:11">
       <c r="G516" s="15"/>
-      <c r="J516" s="18"/>
-      <c r="K516" s="19"/>
+      <c r="J516" s="19"/>
+      <c r="K516" s="20"/>
     </row>
     <row r="517" ht="15.2" spans="7:11">
       <c r="G517" s="15"/>
-      <c r="J517" s="18"/>
-      <c r="K517" s="19"/>
+      <c r="J517" s="19"/>
+      <c r="K517" s="20"/>
     </row>
     <row r="518" ht="15.2" spans="7:11">
       <c r="G518" s="15"/>
-      <c r="J518" s="18"/>
-      <c r="K518" s="19"/>
+      <c r="J518" s="19"/>
+      <c r="K518" s="20"/>
     </row>
     <row r="519" ht="15.2" spans="7:11">
       <c r="G519" s="15"/>
-      <c r="J519" s="18"/>
-      <c r="K519" s="19"/>
+      <c r="J519" s="19"/>
+      <c r="K519" s="20"/>
     </row>
     <row r="520" ht="15.2" spans="7:11">
       <c r="G520" s="15"/>
-      <c r="J520" s="18"/>
-      <c r="K520" s="19"/>
+      <c r="J520" s="19"/>
+      <c r="K520" s="20"/>
     </row>
     <row r="521" ht="15.2" spans="7:11">
       <c r="G521" s="15"/>
-      <c r="J521" s="18"/>
-      <c r="K521" s="19"/>
+      <c r="J521" s="19"/>
+      <c r="K521" s="20"/>
     </row>
     <row r="522" ht="15.2" spans="7:11">
       <c r="G522" s="15"/>
-      <c r="J522" s="18"/>
-      <c r="K522" s="19"/>
+      <c r="J522" s="19"/>
+      <c r="K522" s="20"/>
     </row>
     <row r="523" ht="15.2" spans="7:11">
       <c r="G523" s="15"/>
-      <c r="J523" s="18"/>
-      <c r="K523" s="19"/>
+      <c r="J523" s="19"/>
+      <c r="K523" s="20"/>
     </row>
     <row r="524" ht="15.2" spans="7:11">
       <c r="G524" s="15"/>
-      <c r="J524" s="18"/>
-      <c r="K524" s="19"/>
+      <c r="J524" s="19"/>
+      <c r="K524" s="20"/>
     </row>
     <row r="525" ht="15.2" spans="7:11">
       <c r="G525" s="15"/>
-      <c r="J525" s="18"/>
-      <c r="K525" s="19"/>
+      <c r="J525" s="19"/>
+      <c r="K525" s="20"/>
     </row>
     <row r="526" ht="15.2" spans="7:11">
       <c r="G526" s="15"/>
-      <c r="J526" s="18"/>
-      <c r="K526" s="19"/>
+      <c r="J526" s="19"/>
+      <c r="K526" s="20"/>
     </row>
     <row r="527" ht="15.2" spans="7:11">
       <c r="G527" s="15"/>
-      <c r="J527" s="18"/>
-      <c r="K527" s="19"/>
+      <c r="J527" s="19"/>
+      <c r="K527" s="20"/>
     </row>
     <row r="528" ht="15.2" spans="7:11">
       <c r="G528" s="15"/>
-      <c r="J528" s="18"/>
-      <c r="K528" s="19"/>
+      <c r="J528" s="19"/>
+      <c r="K528" s="20"/>
     </row>
     <row r="529" ht="15.2" spans="7:11">
       <c r="G529" s="15"/>
-      <c r="J529" s="18"/>
-      <c r="K529" s="19"/>
+      <c r="J529" s="19"/>
+      <c r="K529" s="20"/>
     </row>
     <row r="530" ht="15.2" spans="7:11">
       <c r="G530" s="15"/>
-      <c r="J530" s="18"/>
-      <c r="K530" s="19"/>
+      <c r="J530" s="19"/>
+      <c r="K530" s="20"/>
     </row>
     <row r="531" ht="15.2" spans="7:11">
       <c r="G531" s="15"/>
-      <c r="J531" s="18"/>
-      <c r="K531" s="19"/>
+      <c r="J531" s="19"/>
+      <c r="K531" s="20"/>
     </row>
     <row r="532" ht="15.2" spans="7:11">
       <c r="G532" s="15"/>
-      <c r="J532" s="18"/>
-      <c r="K532" s="19"/>
+      <c r="J532" s="19"/>
+      <c r="K532" s="20"/>
     </row>
     <row r="533" ht="15.2" spans="7:11">
       <c r="G533" s="15"/>
-      <c r="J533" s="18"/>
-      <c r="K533" s="19"/>
+      <c r="J533" s="19"/>
+      <c r="K533" s="20"/>
     </row>
     <row r="534" ht="15.2" spans="7:11">
       <c r="G534" s="15"/>
-      <c r="J534" s="18"/>
-      <c r="K534" s="19"/>
+      <c r="J534" s="19"/>
+      <c r="K534" s="20"/>
     </row>
     <row r="535" ht="15.2" spans="7:11">
       <c r="G535" s="15"/>
-      <c r="J535" s="18"/>
-      <c r="K535" s="19"/>
+      <c r="J535" s="19"/>
+      <c r="K535" s="20"/>
     </row>
     <row r="536" ht="15.2" spans="7:11">
       <c r="G536" s="15"/>
-      <c r="J536" s="18"/>
-      <c r="K536" s="19"/>
+      <c r="J536" s="19"/>
+      <c r="K536" s="20"/>
     </row>
     <row r="537" ht="15.2" spans="7:11">
       <c r="G537" s="15"/>
-      <c r="J537" s="18"/>
-      <c r="K537" s="19"/>
+      <c r="J537" s="19"/>
+      <c r="K537" s="20"/>
     </row>
     <row r="538" ht="15.2" spans="7:11">
       <c r="G538" s="15"/>
-      <c r="J538" s="18"/>
-      <c r="K538" s="19"/>
+      <c r="J538" s="19"/>
+      <c r="K538" s="20"/>
     </row>
     <row r="539" ht="15.2" spans="7:11">
       <c r="G539" s="15"/>
-      <c r="J539" s="18"/>
-      <c r="K539" s="19"/>
+      <c r="J539" s="19"/>
+      <c r="K539" s="20"/>
     </row>
     <row r="540" ht="15.2" spans="7:11">
       <c r="G540" s="15"/>
-      <c r="J540" s="18"/>
-      <c r="K540" s="19"/>
+      <c r="J540" s="19"/>
+      <c r="K540" s="20"/>
     </row>
     <row r="541" ht="15.2" spans="7:11">
       <c r="G541" s="15"/>
-      <c r="J541" s="18"/>
-      <c r="K541" s="19"/>
+      <c r="J541" s="19"/>
+      <c r="K541" s="20"/>
     </row>
     <row r="542" ht="15.2" spans="7:11">
       <c r="G542" s="15"/>
-      <c r="J542" s="18"/>
-      <c r="K542" s="19"/>
+      <c r="J542" s="19"/>
+      <c r="K542" s="20"/>
     </row>
     <row r="543" ht="15.2" spans="7:11">
       <c r="G543" s="15"/>
-      <c r="J543" s="18"/>
-      <c r="K543" s="19"/>
+      <c r="J543" s="19"/>
+      <c r="K543" s="20"/>
     </row>
     <row r="544" ht="15.2" spans="7:11">
       <c r="G544" s="15"/>
-      <c r="J544" s="18"/>
-      <c r="K544" s="19"/>
+      <c r="J544" s="19"/>
+      <c r="K544" s="20"/>
     </row>
     <row r="545" ht="15.2" spans="7:11">
       <c r="G545" s="15"/>
-      <c r="J545" s="18"/>
-      <c r="K545" s="19"/>
+      <c r="J545" s="19"/>
+      <c r="K545" s="20"/>
     </row>
     <row r="546" ht="15.2" spans="7:11">
       <c r="G546" s="15"/>
-      <c r="J546" s="18"/>
-      <c r="K546" s="19"/>
+      <c r="J546" s="19"/>
+      <c r="K546" s="20"/>
     </row>
     <row r="547" ht="15.2" spans="7:11">
       <c r="G547" s="15"/>
-      <c r="J547" s="18"/>
-      <c r="K547" s="19"/>
+      <c r="J547" s="19"/>
+      <c r="K547" s="20"/>
     </row>
     <row r="548" ht="15.2" spans="7:11">
       <c r="G548" s="15"/>
-      <c r="J548" s="18"/>
-      <c r="K548" s="19"/>
+      <c r="J548" s="19"/>
+      <c r="K548" s="20"/>
     </row>
     <row r="549" ht="15.2" spans="7:11">
       <c r="G549" s="15"/>
-      <c r="J549" s="18"/>
-      <c r="K549" s="19"/>
+      <c r="J549" s="19"/>
+      <c r="K549" s="20"/>
     </row>
     <row r="550" ht="15.2" spans="7:11">
       <c r="G550" s="15"/>
-      <c r="J550" s="18"/>
-      <c r="K550" s="19"/>
+      <c r="J550" s="19"/>
+      <c r="K550" s="20"/>
     </row>
     <row r="551" ht="15.2" spans="7:11">
       <c r="G551" s="15"/>
-      <c r="J551" s="18"/>
-      <c r="K551" s="19"/>
+      <c r="J551" s="19"/>
+      <c r="K551" s="20"/>
     </row>
     <row r="552" ht="15.2" spans="7:11">
       <c r="G552" s="15"/>
-      <c r="J552" s="18"/>
-      <c r="K552" s="19"/>
+      <c r="J552" s="19"/>
+      <c r="K552" s="20"/>
     </row>
     <row r="553" ht="15.2" spans="7:11">
       <c r="G553" s="15"/>
-      <c r="J553" s="18"/>
-      <c r="K553" s="19"/>
+      <c r="J553" s="19"/>
+      <c r="K553" s="20"/>
     </row>
     <row r="554" ht="15.2" spans="7:11">
       <c r="G554" s="15"/>
-      <c r="J554" s="18"/>
-      <c r="K554" s="19"/>
+      <c r="J554" s="19"/>
+      <c r="K554" s="20"/>
     </row>
     <row r="555" ht="15.2" spans="7:11">
       <c r="G555" s="15"/>
-      <c r="J555" s="18"/>
-      <c r="K555" s="19"/>
+      <c r="J555" s="19"/>
+      <c r="K555" s="20"/>
     </row>
     <row r="556" ht="15.2" spans="7:11">
       <c r="G556" s="15"/>
-      <c r="J556" s="18"/>
-      <c r="K556" s="19"/>
+      <c r="J556" s="19"/>
+      <c r="K556" s="20"/>
     </row>
     <row r="557" ht="15.2" spans="7:11">
       <c r="G557" s="15"/>
-      <c r="J557" s="18"/>
-      <c r="K557" s="19"/>
+      <c r="J557" s="19"/>
+      <c r="K557" s="20"/>
     </row>
     <row r="558" ht="15.2" spans="7:11">
       <c r="G558" s="15"/>
-      <c r="J558" s="18"/>
-      <c r="K558" s="19"/>
+      <c r="J558" s="19"/>
+      <c r="K558" s="20"/>
     </row>
     <row r="559" ht="15.2" spans="7:11">
       <c r="G559" s="15"/>
-      <c r="J559" s="18"/>
-      <c r="K559" s="19"/>
+      <c r="J559" s="19"/>
+      <c r="K559" s="20"/>
     </row>
     <row r="560" ht="15.2" spans="7:11">
       <c r="G560" s="15"/>
-      <c r="J560" s="18"/>
-      <c r="K560" s="19"/>
+      <c r="J560" s="19"/>
+      <c r="K560" s="20"/>
     </row>
     <row r="561" ht="15.2" spans="7:11">
       <c r="G561" s="15"/>
-      <c r="J561" s="18"/>
-      <c r="K561" s="19"/>
+      <c r="J561" s="19"/>
+      <c r="K561" s="20"/>
     </row>
     <row r="562" ht="15.2" spans="7:11">
       <c r="G562" s="15"/>
-      <c r="J562" s="18"/>
-      <c r="K562" s="19"/>
+      <c r="J562" s="19"/>
+      <c r="K562" s="20"/>
     </row>
     <row r="563" ht="15.2" spans="7:11">
       <c r="G563" s="15"/>
-      <c r="J563" s="18"/>
-      <c r="K563" s="19"/>
+      <c r="J563" s="19"/>
+      <c r="K563" s="20"/>
     </row>
     <row r="564" ht="15.2" spans="7:11">
       <c r="G564" s="15"/>
-      <c r="J564" s="18"/>
-      <c r="K564" s="19"/>
+      <c r="J564" s="19"/>
+      <c r="K564" s="20"/>
     </row>
     <row r="565" ht="15.2" spans="7:11">
       <c r="G565" s="15"/>
-      <c r="J565" s="18"/>
-      <c r="K565" s="19"/>
+      <c r="J565" s="19"/>
+      <c r="K565" s="20"/>
     </row>
     <row r="566" ht="15.2" spans="7:11">
       <c r="G566" s="15"/>
-      <c r="J566" s="18"/>
-      <c r="K566" s="19"/>
+      <c r="J566" s="19"/>
+      <c r="K566" s="20"/>
     </row>
     <row r="567" ht="15.2" spans="7:11">
       <c r="G567" s="15"/>
-      <c r="J567" s="18"/>
-      <c r="K567" s="19"/>
+      <c r="J567" s="19"/>
+      <c r="K567" s="20"/>
     </row>
     <row r="568" ht="15.2" spans="7:11">
       <c r="G568" s="15"/>
-      <c r="J568" s="18"/>
-      <c r="K568" s="19"/>
+      <c r="J568" s="19"/>
+      <c r="K568" s="20"/>
     </row>
     <row r="569" ht="15.2" spans="7:11">
       <c r="G569" s="15"/>
-      <c r="J569" s="18"/>
-      <c r="K569" s="19"/>
+      <c r="J569" s="19"/>
+      <c r="K569" s="20"/>
     </row>
     <row r="570" ht="15.2" spans="7:11">
       <c r="G570" s="15"/>
-      <c r="J570" s="18"/>
-      <c r="K570" s="19"/>
+      <c r="J570" s="19"/>
+      <c r="K570" s="20"/>
     </row>
     <row r="571" ht="15.2" spans="7:11">
       <c r="G571" s="15"/>
-      <c r="J571" s="18"/>
-      <c r="K571" s="19"/>
+      <c r="J571" s="19"/>
+      <c r="K571" s="20"/>
     </row>
     <row r="572" ht="15.2" spans="7:11">
       <c r="G572" s="15"/>
-      <c r="J572" s="18"/>
-      <c r="K572" s="19"/>
+      <c r="J572" s="19"/>
+      <c r="K572" s="20"/>
     </row>
     <row r="573" ht="15.2" spans="7:11">
       <c r="G573" s="15"/>
-      <c r="J573" s="18"/>
-      <c r="K573" s="19"/>
+      <c r="J573" s="19"/>
+      <c r="K573" s="20"/>
     </row>
     <row r="574" ht="15.2" spans="7:11">
       <c r="G574" s="15"/>
-      <c r="J574" s="18"/>
-      <c r="K574" s="19"/>
+      <c r="J574" s="19"/>
+      <c r="K574" s="20"/>
     </row>
     <row r="575" ht="15.2" spans="7:11">
       <c r="G575" s="15"/>
-      <c r="J575" s="18"/>
-      <c r="K575" s="19"/>
+      <c r="J575" s="19"/>
+      <c r="K575" s="20"/>
     </row>
     <row r="576" ht="15.2" spans="7:11">
       <c r="G576" s="15"/>
-      <c r="J576" s="18"/>
-      <c r="K576" s="19"/>
+      <c r="J576" s="19"/>
+      <c r="K576" s="20"/>
     </row>
     <row r="577" ht="15.2" spans="7:11">
       <c r="G577" s="15"/>
-      <c r="J577" s="18"/>
-      <c r="K577" s="19"/>
+      <c r="J577" s="19"/>
+      <c r="K577" s="20"/>
     </row>
     <row r="578" ht="15.2" spans="7:11">
       <c r="G578" s="15"/>
-      <c r="J578" s="18"/>
-      <c r="K578" s="19"/>
+      <c r="J578" s="19"/>
+      <c r="K578" s="20"/>
     </row>
     <row r="579" ht="15.2" spans="7:11">
       <c r="G579" s="15"/>
-      <c r="J579" s="18"/>
-      <c r="K579" s="19"/>
+      <c r="J579" s="19"/>
+      <c r="K579" s="20"/>
     </row>
     <row r="580" ht="15.2" spans="7:11">
       <c r="G580" s="15"/>
-      <c r="J580" s="18"/>
-      <c r="K580" s="19"/>
+      <c r="J580" s="19"/>
+      <c r="K580" s="20"/>
     </row>
     <row r="581" ht="15.2" spans="7:11">
       <c r="G581" s="15"/>
-      <c r="J581" s="18"/>
-      <c r="K581" s="19"/>
+      <c r="J581" s="19"/>
+      <c r="K581" s="20"/>
     </row>
     <row r="582" ht="15.2" spans="7:11">
       <c r="G582" s="15"/>
-      <c r="J582" s="18"/>
-      <c r="K582" s="19"/>
+      <c r="J582" s="19"/>
+      <c r="K582" s="20"/>
     </row>
     <row r="583" ht="15.2" spans="7:11">
       <c r="G583" s="15"/>
-      <c r="J583" s="18"/>
-      <c r="K583" s="19"/>
+      <c r="J583" s="19"/>
+      <c r="K583" s="20"/>
     </row>
     <row r="584" ht="15.2" spans="7:11">
       <c r="G584" s="15"/>
-      <c r="J584" s="18"/>
-      <c r="K584" s="19"/>
+      <c r="J584" s="19"/>
+      <c r="K584" s="20"/>
     </row>
     <row r="585" ht="15.2" spans="7:11">
       <c r="G585" s="15"/>
-      <c r="J585" s="18"/>
-      <c r="K585" s="19"/>
+      <c r="J585" s="19"/>
+      <c r="K585" s="20"/>
     </row>
     <row r="586" ht="15.2" spans="7:11">
       <c r="G586" s="15"/>
-      <c r="J586" s="18"/>
-      <c r="K586" s="19"/>
+      <c r="J586" s="19"/>
+      <c r="K586" s="20"/>
     </row>
     <row r="587" ht="15.2" spans="7:11">
       <c r="G587" s="15"/>
-      <c r="J587" s="18"/>
-      <c r="K587" s="19"/>
+      <c r="J587" s="19"/>
+      <c r="K587" s="20"/>
     </row>
     <row r="588" ht="15.2" spans="7:11">
       <c r="G588" s="15"/>
-      <c r="J588" s="18"/>
-      <c r="K588" s="19"/>
+      <c r="J588" s="19"/>
+      <c r="K588" s="20"/>
     </row>
     <row r="589" ht="15.2" spans="7:11">
       <c r="G589" s="15"/>
-      <c r="J589" s="18"/>
-      <c r="K589" s="19"/>
+      <c r="J589" s="19"/>
+      <c r="K589" s="20"/>
     </row>
     <row r="590" ht="15.2" spans="7:11">
       <c r="G590" s="15"/>
-      <c r="J590" s="18"/>
-      <c r="K590" s="19"/>
+      <c r="J590" s="19"/>
+      <c r="K590" s="20"/>
     </row>
     <row r="591" ht="15.2" spans="7:11">
       <c r="G591" s="15"/>
-      <c r="J591" s="18"/>
-      <c r="K591" s="19"/>
+      <c r="J591" s="19"/>
+      <c r="K591" s="20"/>
     </row>
     <row r="592" ht="15.2" spans="7:11">
       <c r="G592" s="15"/>
-      <c r="J592" s="18"/>
-      <c r="K592" s="19"/>
+      <c r="J592" s="19"/>
+      <c r="K592" s="20"/>
     </row>
     <row r="593" ht="15.2" spans="7:11">
       <c r="G593" s="15"/>
-      <c r="J593" s="18"/>
-      <c r="K593" s="19"/>
+      <c r="J593" s="19"/>
+      <c r="K593" s="20"/>
     </row>
     <row r="594" ht="15.2" spans="7:11">
       <c r="G594" s="15"/>
-      <c r="J594" s="18"/>
-      <c r="K594" s="19"/>
+      <c r="J594" s="19"/>
+      <c r="K594" s="20"/>
     </row>
     <row r="595" ht="15.2" spans="7:11">
       <c r="G595" s="15"/>
-      <c r="J595" s="18"/>
-      <c r="K595" s="19"/>
+      <c r="J595" s="19"/>
+      <c r="K595" s="20"/>
     </row>
     <row r="596" ht="15.2" spans="7:11">
       <c r="G596" s="15"/>
-      <c r="J596" s="18"/>
-      <c r="K596" s="19"/>
+      <c r="J596" s="19"/>
+      <c r="K596" s="20"/>
     </row>
     <row r="597" ht="15.2" spans="7:11">
       <c r="G597" s="15"/>
-      <c r="J597" s="18"/>
-      <c r="K597" s="19"/>
+      <c r="J597" s="19"/>
+      <c r="K597" s="20"/>
     </row>
     <row r="598" ht="15.2" spans="7:11">
       <c r="G598" s="15"/>
-      <c r="J598" s="18"/>
-      <c r="K598" s="19"/>
+      <c r="J598" s="19"/>
+      <c r="K598" s="20"/>
     </row>
     <row r="599" ht="15.2" spans="7:11">
       <c r="G599" s="15"/>
-      <c r="J599" s="18"/>
-      <c r="K599" s="19"/>
+      <c r="J599" s="19"/>
+      <c r="K599" s="20"/>
     </row>
     <row r="600" ht="15.2" spans="7:11">
       <c r="G600" s="15"/>
-      <c r="J600" s="18"/>
-      <c r="K600" s="19"/>
+      <c r="J600" s="19"/>
+      <c r="K600" s="20"/>
     </row>
     <row r="601" ht="15.2" spans="7:11">
       <c r="G601" s="15"/>
-      <c r="J601" s="18"/>
-      <c r="K601" s="19"/>
+      <c r="J601" s="19"/>
+      <c r="K601" s="20"/>
     </row>
     <row r="602" ht="15.2" spans="7:11">
       <c r="G602" s="15"/>
-      <c r="J602" s="18"/>
-      <c r="K602" s="19"/>
+      <c r="J602" s="19"/>
+      <c r="K602" s="20"/>
     </row>
     <row r="603" ht="15.2" spans="7:11">
       <c r="G603" s="15"/>
-      <c r="J603" s="18"/>
-      <c r="K603" s="19"/>
+      <c r="J603" s="19"/>
+      <c r="K603" s="20"/>
     </row>
     <row r="604" ht="15.2" spans="7:11">
       <c r="G604" s="15"/>
-      <c r="J604" s="18"/>
-      <c r="K604" s="19"/>
+      <c r="J604" s="19"/>
+      <c r="K604" s="20"/>
     </row>
     <row r="605" ht="15.2" spans="7:11">
       <c r="G605" s="15"/>
-      <c r="J605" s="18"/>
-      <c r="K605" s="19"/>
+      <c r="J605" s="19"/>
+      <c r="K605" s="20"/>
     </row>
     <row r="606" ht="15.2" spans="7:11">
       <c r="G606" s="15"/>
-      <c r="J606" s="18"/>
-      <c r="K606" s="19"/>
+      <c r="J606" s="19"/>
+      <c r="K606" s="20"/>
     </row>
     <row r="607" ht="15.2" spans="7:11">
       <c r="G607" s="15"/>
-      <c r="J607" s="18"/>
-      <c r="K607" s="19"/>
+      <c r="J607" s="19"/>
+      <c r="K607" s="20"/>
     </row>
     <row r="608" ht="15.2" spans="7:11">
       <c r="G608" s="15"/>
-      <c r="J608" s="18"/>
-      <c r="K608" s="19"/>
+      <c r="J608" s="19"/>
+      <c r="K608" s="20"/>
     </row>
     <row r="609" ht="15.2" spans="7:11">
       <c r="G609" s="15"/>
-      <c r="J609" s="18"/>
-      <c r="K609" s="19"/>
+      <c r="J609" s="19"/>
+      <c r="K609" s="20"/>
     </row>
     <row r="610" ht="15.2" spans="7:11">
       <c r="G610" s="15"/>
-      <c r="J610" s="18"/>
-      <c r="K610" s="19"/>
+      <c r="J610" s="19"/>
+      <c r="K610" s="20"/>
     </row>
     <row r="611" ht="15.2" spans="7:11">
       <c r="G611" s="15"/>
-      <c r="J611" s="18"/>
-      <c r="K611" s="19"/>
+      <c r="J611" s="19"/>
+      <c r="K611" s="20"/>
     </row>
     <row r="612" ht="15.2" spans="7:11">
       <c r="G612" s="15"/>
-      <c r="J612" s="18"/>
-      <c r="K612" s="19"/>
+      <c r="J612" s="19"/>
+      <c r="K612" s="20"/>
     </row>
     <row r="613" ht="15.2" spans="7:11">
       <c r="G613" s="15"/>
-      <c r="J613" s="18"/>
-      <c r="K613" s="19"/>
+      <c r="J613" s="19"/>
+      <c r="K613" s="20"/>
     </row>
     <row r="614" ht="15.2" spans="7:11">
       <c r="G614" s="15"/>
-      <c r="J614" s="18"/>
-      <c r="K614" s="19"/>
+      <c r="J614" s="19"/>
+      <c r="K614" s="20"/>
     </row>
     <row r="615" ht="15.2" spans="7:11">
       <c r="G615" s="15"/>
-      <c r="J615" s="18"/>
-      <c r="K615" s="19"/>
+      <c r="J615" s="19"/>
+      <c r="K615" s="20"/>
     </row>
     <row r="616" ht="15.2" spans="7:11">
       <c r="G616" s="15"/>
-      <c r="J616" s="18"/>
-      <c r="K616" s="19"/>
+      <c r="J616" s="19"/>
+      <c r="K616" s="20"/>
     </row>
     <row r="617" ht="15.2" spans="7:11">
       <c r="G617" s="15"/>
-      <c r="J617" s="18"/>
-      <c r="K617" s="19"/>
+      <c r="J617" s="19"/>
+      <c r="K617" s="20"/>
     </row>
     <row r="618" ht="15.2" spans="7:11">
       <c r="G618" s="15"/>
-      <c r="J618" s="18"/>
-      <c r="K618" s="19"/>
+      <c r="J618" s="19"/>
+      <c r="K618" s="20"/>
     </row>
     <row r="619" ht="15.2" spans="7:11">
       <c r="G619" s="15"/>
-      <c r="J619" s="18"/>
-      <c r="K619" s="19"/>
+      <c r="J619" s="19"/>
+      <c r="K619" s="20"/>
     </row>
     <row r="620" ht="15.2" spans="7:11">
       <c r="G620" s="15"/>
-      <c r="J620" s="18"/>
-      <c r="K620" s="19"/>
+      <c r="J620" s="19"/>
+      <c r="K620" s="20"/>
     </row>
     <row r="621" ht="15.2" spans="7:11">
       <c r="G621" s="15"/>
-      <c r="J621" s="18"/>
-      <c r="K621" s="19"/>
+      <c r="J621" s="19"/>
+      <c r="K621" s="20"/>
     </row>
     <row r="622" ht="15.2" spans="7:11">
       <c r="G622" s="15"/>
-      <c r="J622" s="18"/>
-      <c r="K622" s="19"/>
+      <c r="J622" s="19"/>
+      <c r="K622" s="20"/>
     </row>
     <row r="623" ht="15.2" spans="7:11">
       <c r="G623" s="15"/>
-      <c r="J623" s="18"/>
-      <c r="K623" s="19"/>
+      <c r="J623" s="19"/>
+      <c r="K623" s="20"/>
     </row>
     <row r="624" ht="15.2" spans="7:11">
       <c r="G624" s="15"/>
-      <c r="J624" s="18"/>
-      <c r="K624" s="19"/>
+      <c r="J624" s="19"/>
+      <c r="K624" s="20"/>
     </row>
     <row r="625" ht="15.2" spans="7:11">
       <c r="G625" s="15"/>
-      <c r="J625" s="18"/>
-      <c r="K625" s="19"/>
+      <c r="J625" s="19"/>
+      <c r="K625" s="20"/>
     </row>
     <row r="626" ht="15.2" spans="7:11">
       <c r="G626" s="15"/>
-      <c r="J626" s="18"/>
-      <c r="K626" s="19"/>
+      <c r="J626" s="19"/>
+      <c r="K626" s="20"/>
     </row>
     <row r="627" ht="15.2" spans="7:11">
       <c r="G627" s="15"/>
-      <c r="J627" s="18"/>
-      <c r="K627" s="19"/>
+      <c r="J627" s="19"/>
+      <c r="K627" s="20"/>
     </row>
     <row r="628" ht="15.2" spans="7:11">
       <c r="G628" s="15"/>
-      <c r="J628" s="18"/>
-      <c r="K628" s="19"/>
+      <c r="J628" s="19"/>
+      <c r="K628" s="20"/>
     </row>
     <row r="629" ht="15.2" spans="7:11">
       <c r="G629" s="15"/>
-      <c r="J629" s="18"/>
-      <c r="K629" s="19"/>
+      <c r="J629" s="19"/>
+      <c r="K629" s="20"/>
     </row>
     <row r="630" ht="15.2" spans="7:11">
       <c r="G630" s="15"/>
-      <c r="J630" s="18"/>
-      <c r="K630" s="19"/>
+      <c r="J630" s="19"/>
+      <c r="K630" s="20"/>
     </row>
     <row r="631" ht="15.2" spans="7:11">
       <c r="G631" s="15"/>
-      <c r="J631" s="18"/>
-      <c r="K631" s="19"/>
+      <c r="J631" s="19"/>
+      <c r="K631" s="20"/>
     </row>
     <row r="632" ht="15.2" spans="7:11">
       <c r="G632" s="15"/>
-      <c r="J632" s="18"/>
-      <c r="K632" s="19"/>
+      <c r="J632" s="19"/>
+      <c r="K632" s="20"/>
     </row>
     <row r="633" ht="15.2" spans="7:11">
       <c r="G633" s="15"/>
-      <c r="J633" s="18"/>
-      <c r="K633" s="19"/>
+      <c r="J633" s="19"/>
+      <c r="K633" s="20"/>
     </row>
     <row r="634" ht="15.2" spans="7:11">
       <c r="G634" s="15"/>
-      <c r="J634" s="18"/>
-      <c r="K634" s="19"/>
+      <c r="J634" s="19"/>
+      <c r="K634" s="20"/>
     </row>
     <row r="635" ht="15.2" spans="7:11">
       <c r="G635" s="15"/>
-      <c r="J635" s="18"/>
-      <c r="K635" s="19"/>
+      <c r="J635" s="19"/>
+      <c r="K635" s="20"/>
     </row>
     <row r="636" ht="15.2" spans="7:11">
       <c r="G636" s="15"/>
-      <c r="J636" s="18"/>
-      <c r="K636" s="19"/>
+      <c r="J636" s="19"/>
+      <c r="K636" s="20"/>
     </row>
     <row r="637" ht="15.2" spans="7:11">
       <c r="G637" s="15"/>
-      <c r="J637" s="18"/>
-      <c r="K637" s="19"/>
+      <c r="J637" s="19"/>
+      <c r="K637" s="20"/>
     </row>
     <row r="638" ht="15.2" spans="7:11">
       <c r="G638" s="15"/>
-      <c r="J638" s="18"/>
-      <c r="K638" s="19"/>
+      <c r="J638" s="19"/>
+      <c r="K638" s="20"/>
     </row>
     <row r="639" ht="15.2" spans="7:11">
       <c r="G639" s="15"/>
-      <c r="J639" s="18"/>
-      <c r="K639" s="19"/>
+      <c r="J639" s="19"/>
+      <c r="K639" s="20"/>
     </row>
     <row r="640" ht="15.2" spans="7:11">
       <c r="G640" s="15"/>
-      <c r="J640" s="18"/>
-      <c r="K640" s="19"/>
+      <c r="J640" s="19"/>
+      <c r="K640" s="20"/>
     </row>
     <row r="641" ht="15.2" spans="7:11">
       <c r="G641" s="15"/>
-      <c r="J641" s="18"/>
-      <c r="K641" s="19"/>
+      <c r="J641" s="19"/>
+      <c r="K641" s="20"/>
     </row>
     <row r="642" ht="15.2" spans="7:11">
       <c r="G642" s="15"/>
-      <c r="J642" s="18"/>
-      <c r="K642" s="19"/>
+      <c r="J642" s="19"/>
+      <c r="K642" s="20"/>
     </row>
     <row r="643" ht="15.2" spans="7:11">
       <c r="G643" s="15"/>
-      <c r="J643" s="18"/>
-      <c r="K643" s="19"/>
+      <c r="J643" s="19"/>
+      <c r="K643" s="20"/>
     </row>
     <row r="644" ht="15.2" spans="7:11">
       <c r="G644" s="15"/>
-      <c r="J644" s="18"/>
-      <c r="K644" s="19"/>
+      <c r="J644" s="19"/>
+      <c r="K644" s="20"/>
     </row>
     <row r="645" ht="15.2" spans="7:11">
       <c r="G645" s="15"/>
-      <c r="J645" s="18"/>
-      <c r="K645" s="19"/>
+      <c r="J645" s="19"/>
+      <c r="K645" s="20"/>
     </row>
     <row r="646" ht="15.2" spans="7:11">
       <c r="G646" s="15"/>
-      <c r="J646" s="18"/>
-      <c r="K646" s="19"/>
+      <c r="J646" s="19"/>
+      <c r="K646" s="20"/>
     </row>
     <row r="647" ht="15.2" spans="7:11">
       <c r="G647" s="15"/>
-      <c r="J647" s="18"/>
-      <c r="K647" s="19"/>
+      <c r="J647" s="19"/>
+      <c r="K647" s="20"/>
     </row>
     <row r="648" ht="15.2" spans="7:11">
       <c r="G648" s="15"/>
-      <c r="J648" s="18"/>
-      <c r="K648" s="19"/>
+      <c r="J648" s="19"/>
+      <c r="K648" s="20"/>
     </row>
     <row r="649" ht="15.2" spans="7:11">
       <c r="G649" s="15"/>
-      <c r="J649" s="18"/>
-      <c r="K649" s="19"/>
+      <c r="J649" s="19"/>
+      <c r="K649" s="20"/>
     </row>
     <row r="650" ht="15.2" spans="7:11">
       <c r="G650" s="15"/>
-      <c r="J650" s="18"/>
-      <c r="K650" s="19"/>
+      <c r="J650" s="19"/>
+      <c r="K650" s="20"/>
     </row>
     <row r="651" ht="15.2" spans="7:11">
       <c r="G651" s="15"/>
-      <c r="J651" s="18"/>
-      <c r="K651" s="19"/>
+      <c r="J651" s="19"/>
+      <c r="K651" s="20"/>
     </row>
     <row r="652" ht="15.2" spans="7:11">
       <c r="G652" s="15"/>
-      <c r="J652" s="18"/>
-      <c r="K652" s="19"/>
+      <c r="J652" s="19"/>
+      <c r="K652" s="20"/>
     </row>
     <row r="653" ht="15.2" spans="7:11">
       <c r="G653" s="15"/>
-      <c r="J653" s="18"/>
-      <c r="K653" s="19"/>
+      <c r="J653" s="19"/>
+      <c r="K653" s="20"/>
     </row>
     <row r="654" ht="15.2" spans="7:11">
       <c r="G654" s="15"/>
-      <c r="J654" s="18"/>
-      <c r="K654" s="19"/>
+      <c r="J654" s="19"/>
+      <c r="K654" s="20"/>
     </row>
     <row r="655" ht="15.2" spans="7:11">
       <c r="G655" s="15"/>
-      <c r="J655" s="18"/>
-      <c r="K655" s="19"/>
+      <c r="J655" s="19"/>
+      <c r="K655" s="20"/>
     </row>
     <row r="656" ht="15.2" spans="7:11">
       <c r="G656" s="15"/>
-      <c r="J656" s="18"/>
-      <c r="K656" s="19"/>
+      <c r="J656" s="19"/>
+      <c r="K656" s="20"/>
     </row>
     <row r="657" ht="15.2" spans="7:11">
       <c r="G657" s="15"/>
-      <c r="J657" s="18"/>
-      <c r="K657" s="19"/>
+      <c r="J657" s="19"/>
+      <c r="K657" s="20"/>
     </row>
     <row r="658" ht="15.2" spans="7:11">
       <c r="G658" s="15"/>
-      <c r="J658" s="18"/>
-      <c r="K658" s="19"/>
+      <c r="J658" s="19"/>
+      <c r="K658" s="20"/>
     </row>
     <row r="659" ht="15.2" spans="7:11">
       <c r="G659" s="15"/>
-      <c r="J659" s="18"/>
-      <c r="K659" s="19"/>
+      <c r="J659" s="19"/>
+      <c r="K659" s="20"/>
     </row>
     <row r="660" ht="15.2" spans="7:11">
       <c r="G660" s="15"/>
-      <c r="J660" s="18"/>
-      <c r="K660" s="19"/>
+      <c r="J660" s="19"/>
+      <c r="K660" s="20"/>
     </row>
     <row r="661" ht="15.2" spans="7:11">
       <c r="G661" s="15"/>
-      <c r="J661" s="18"/>
-      <c r="K661" s="19"/>
+      <c r="J661" s="19"/>
+      <c r="K661" s="20"/>
     </row>
     <row r="662" ht="15.2" spans="7:11">
       <c r="G662" s="15"/>
-      <c r="J662" s="18"/>
-      <c r="K662" s="19"/>
+      <c r="J662" s="19"/>
+      <c r="K662" s="20"/>
     </row>
     <row r="663" ht="15.2" spans="7:11">
       <c r="G663" s="15"/>
-      <c r="J663" s="18"/>
-      <c r="K663" s="19"/>
+      <c r="J663" s="19"/>
+      <c r="K663" s="20"/>
     </row>
     <row r="664" ht="15.2" spans="7:11">
       <c r="G664" s="15"/>
-      <c r="J664" s="18"/>
-      <c r="K664" s="19"/>
+      <c r="J664" s="19"/>
+      <c r="K664" s="20"/>
     </row>
     <row r="665" ht="15.2" spans="7:11">
       <c r="G665" s="15"/>
-      <c r="J665" s="18"/>
-      <c r="K665" s="19"/>
+      <c r="J665" s="19"/>
+      <c r="K665" s="20"/>
     </row>
     <row r="666" ht="15.2" spans="7:11">
       <c r="G666" s="15"/>
-      <c r="J666" s="18"/>
-      <c r="K666" s="19"/>
+      <c r="J666" s="19"/>
+      <c r="K666" s="20"/>
     </row>
     <row r="667" ht="15.2" spans="7:11">
       <c r="G667" s="15"/>
-      <c r="J667" s="18"/>
-      <c r="K667" s="19"/>
+      <c r="J667" s="19"/>
+      <c r="K667" s="20"/>
     </row>
     <row r="668" ht="15.2" spans="7:11">
       <c r="G668" s="15"/>
-      <c r="J668" s="18"/>
-      <c r="K668" s="19"/>
+      <c r="J668" s="19"/>
+      <c r="K668" s="20"/>
     </row>
     <row r="669" ht="15.2" spans="7:11">
       <c r="G669" s="15"/>
-      <c r="J669" s="18"/>
-      <c r="K669" s="19"/>
+      <c r="J669" s="19"/>
+      <c r="K669" s="20"/>
     </row>
     <row r="670" ht="15.2" spans="7:11">
       <c r="G670" s="15"/>
-      <c r="J670" s="18"/>
-      <c r="K670" s="19"/>
+      <c r="J670" s="19"/>
+      <c r="K670" s="20"/>
     </row>
     <row r="671" ht="15.2" spans="7:11">
       <c r="G671" s="15"/>
-      <c r="J671" s="18"/>
-      <c r="K671" s="19"/>
+      <c r="J671" s="19"/>
+      <c r="K671" s="20"/>
     </row>
     <row r="672" ht="15.2" spans="7:11">
       <c r="G672" s="15"/>
-      <c r="J672" s="18"/>
-      <c r="K672" s="19"/>
+      <c r="J672" s="19"/>
+      <c r="K672" s="20"/>
     </row>
     <row r="673" ht="15.2" spans="7:11">
       <c r="G673" s="15"/>
-      <c r="J673" s="18"/>
-      <c r="K673" s="19"/>
+      <c r="J673" s="19"/>
+      <c r="K673" s="20"/>
     </row>
     <row r="674" ht="15.2" spans="7:11">
       <c r="G674" s="15"/>
-      <c r="J674" s="18"/>
-      <c r="K674" s="19"/>
+      <c r="J674" s="19"/>
+      <c r="K674" s="20"/>
     </row>
     <row r="675" ht="15.2" spans="7:11">
       <c r="G675" s="15"/>
-      <c r="J675" s="18"/>
-      <c r="K675" s="19"/>
+      <c r="J675" s="19"/>
+      <c r="K675" s="20"/>
     </row>
     <row r="676" ht="15.2" spans="7:11">
       <c r="G676" s="15"/>
-      <c r="J676" s="18"/>
-      <c r="K676" s="19"/>
+      <c r="J676" s="19"/>
+      <c r="K676" s="20"/>
     </row>
     <row r="677" ht="15.2" spans="7:11">
       <c r="G677" s="15"/>
-      <c r="J677" s="18"/>
-      <c r="K677" s="19"/>
+      <c r="J677" s="19"/>
+      <c r="K677" s="20"/>
     </row>
     <row r="678" ht="15.2" spans="7:11">
       <c r="G678" s="15"/>
-      <c r="J678" s="18"/>
-      <c r="K678" s="19"/>
+      <c r="J678" s="19"/>
+      <c r="K678" s="20"/>
     </row>
     <row r="679" ht="15.2" spans="7:11">
       <c r="G679" s="15"/>
-      <c r="J679" s="18"/>
-      <c r="K679" s="19"/>
+      <c r="J679" s="19"/>
+      <c r="K679" s="20"/>
     </row>
     <row r="680" ht="15.2" spans="7:11">
       <c r="G680" s="15"/>
-      <c r="J680" s="18"/>
-      <c r="K680" s="19"/>
+      <c r="J680" s="19"/>
+      <c r="K680" s="20"/>
     </row>
     <row r="681" ht="15.2" spans="7:11">
       <c r="G681" s="15"/>
-      <c r="J681" s="18"/>
-      <c r="K681" s="19"/>
+      <c r="J681" s="19"/>
+      <c r="K681" s="20"/>
     </row>
     <row r="682" ht="15.2" spans="7:11">
       <c r="G682" s="15"/>
-      <c r="J682" s="18"/>
-      <c r="K682" s="19"/>
+      <c r="J682" s="19"/>
+      <c r="K682" s="20"/>
     </row>
     <row r="683" ht="15.2" spans="7:11">
       <c r="G683" s="15"/>
-      <c r="J683" s="18"/>
-      <c r="K683" s="19"/>
+      <c r="J683" s="19"/>
+      <c r="K683" s="20"/>
     </row>
     <row r="684" ht="15.2" spans="7:11">
       <c r="G684" s="15"/>
-      <c r="J684" s="18"/>
-      <c r="K684" s="19"/>
+      <c r="J684" s="19"/>
+      <c r="K684" s="20"/>
     </row>
     <row r="685" ht="15.2" spans="7:11">
       <c r="G685" s="15"/>
-      <c r="J685" s="18"/>
-      <c r="K685" s="19"/>
+      <c r="J685" s="19"/>
+      <c r="K685" s="20"/>
     </row>
     <row r="686" ht="15.2" spans="7:11">
       <c r="G686" s="15"/>
-      <c r="J686" s="18"/>
-      <c r="K686" s="19"/>
+      <c r="J686" s="19"/>
+      <c r="K686" s="20"/>
     </row>
     <row r="687" ht="15.2" spans="7:11">
       <c r="G687" s="15"/>
-      <c r="J687" s="18"/>
-      <c r="K687" s="19"/>
+      <c r="J687" s="19"/>
+      <c r="K687" s="20"/>
     </row>
     <row r="688" ht="15.2" spans="7:11">
       <c r="G688" s="15"/>
-      <c r="J688" s="18"/>
-      <c r="K688" s="19"/>
+      <c r="J688" s="19"/>
+      <c r="K688" s="20"/>
     </row>
     <row r="689" ht="15.2" spans="7:11">
       <c r="G689" s="15"/>
-      <c r="J689" s="18"/>
-      <c r="K689" s="19"/>
+      <c r="J689" s="19"/>
+      <c r="K689" s="20"/>
     </row>
     <row r="690" ht="15.2" spans="7:11">
       <c r="G690" s="15"/>
-      <c r="J690" s="18"/>
-      <c r="K690" s="19"/>
+      <c r="J690" s="19"/>
+      <c r="K690" s="20"/>
     </row>
     <row r="691" ht="15.2" spans="7:11">
       <c r="G691" s="15"/>
-      <c r="J691" s="18"/>
-      <c r="K691" s="19"/>
+      <c r="J691" s="19"/>
+      <c r="K691" s="20"/>
     </row>
     <row r="692" ht="15.2" spans="7:11">
       <c r="G692" s="15"/>
-      <c r="J692" s="18"/>
-      <c r="K692" s="19"/>
+      <c r="J692" s="19"/>
+      <c r="K692" s="20"/>
     </row>
     <row r="693" ht="15.2" spans="7:11">
       <c r="G693" s="15"/>
-      <c r="J693" s="18"/>
-      <c r="K693" s="19"/>
+      <c r="J693" s="19"/>
+      <c r="K693" s="20"/>
     </row>
     <row r="694" ht="15.2" spans="7:11">
       <c r="G694" s="15"/>
-      <c r="J694" s="18"/>
-      <c r="K694" s="19"/>
+      <c r="J694" s="19"/>
+      <c r="K694" s="20"/>
     </row>
     <row r="695" ht="15.2" spans="7:11">
       <c r="G695" s="15"/>
-      <c r="J695" s="18"/>
-      <c r="K695" s="19"/>
+      <c r="J695" s="19"/>
+      <c r="K695" s="20"/>
     </row>
     <row r="696" ht="15.2" spans="7:11">
       <c r="G696" s="15"/>
-      <c r="J696" s="18"/>
-      <c r="K696" s="19"/>
+      <c r="J696" s="19"/>
+      <c r="K696" s="20"/>
     </row>
     <row r="697" ht="15.2" spans="7:11">
       <c r="G697" s="15"/>
-      <c r="J697" s="18"/>
-      <c r="K697" s="19"/>
+      <c r="J697" s="19"/>
+      <c r="K697" s="20"/>
     </row>
     <row r="698" ht="15.2" spans="7:11">
       <c r="G698" s="15"/>
-      <c r="J698" s="18"/>
-      <c r="K698" s="19"/>
+      <c r="J698" s="19"/>
+      <c r="K698" s="20"/>
     </row>
     <row r="699" ht="15.2" spans="7:11">
       <c r="G699" s="15"/>
-      <c r="J699" s="18"/>
-      <c r="K699" s="19"/>
+      <c r="J699" s="19"/>
+      <c r="K699" s="20"/>
     </row>
     <row r="700" ht="15.2" spans="7:11">
       <c r="G700" s="15"/>
-      <c r="J700" s="18"/>
-      <c r="K700" s="19"/>
+      <c r="J700" s="19"/>
+      <c r="K700" s="20"/>
     </row>
     <row r="701" ht="15.2" spans="7:11">
       <c r="G701" s="15"/>
-      <c r="J701" s="18"/>
-      <c r="K701" s="19"/>
+      <c r="J701" s="19"/>
+      <c r="K701" s="20"/>
     </row>
     <row r="702" ht="15.2" spans="7:11">
       <c r="G702" s="15"/>
-      <c r="J702" s="18"/>
-      <c r="K702" s="19"/>
+      <c r="J702" s="19"/>
+      <c r="K702" s="20"/>
     </row>
     <row r="703" ht="15.2" spans="7:11">
       <c r="G703" s="15"/>
-      <c r="J703" s="18"/>
-      <c r="K703" s="19"/>
+      <c r="J703" s="19"/>
+      <c r="K703" s="20"/>
     </row>
     <row r="704" ht="15.2" spans="7:11">
       <c r="G704" s="15"/>
-      <c r="J704" s="18"/>
-      <c r="K704" s="19"/>
+      <c r="J704" s="19"/>
+      <c r="K704" s="20"/>
     </row>
     <row r="705" ht="15.2" spans="7:11">
       <c r="G705" s="15"/>
-      <c r="J705" s="18"/>
-      <c r="K705" s="19"/>
+      <c r="J705" s="19"/>
+      <c r="K705" s="20"/>
     </row>
     <row r="706" ht="15.2" spans="7:11">
       <c r="G706" s="15"/>
-      <c r="J706" s="18"/>
-      <c r="K706" s="19"/>
+      <c r="J706" s="19"/>
+      <c r="K706" s="20"/>
     </row>
     <row r="707" ht="15.2" spans="7:11">
       <c r="G707" s="15"/>
-      <c r="J707" s="18"/>
-      <c r="K707" s="19"/>
+      <c r="J707" s="19"/>
+      <c r="K707" s="20"/>
     </row>
     <row r="708" ht="15.2" spans="7:11">
       <c r="G708" s="15"/>
-      <c r="J708" s="18"/>
-      <c r="K708" s="19"/>
+      <c r="J708" s="19"/>
+      <c r="K708" s="20"/>
     </row>
     <row r="709" ht="15.2" spans="7:11">
       <c r="G709" s="15"/>
-      <c r="J709" s="18"/>
-      <c r="K709" s="19"/>
+      <c r="J709" s="19"/>
+      <c r="K709" s="20"/>
     </row>
     <row r="710" ht="15.2" spans="7:11">
       <c r="G710" s="15"/>
-      <c r="J710" s="18"/>
-      <c r="K710" s="19"/>
+      <c r="J710" s="19"/>
+      <c r="K710" s="20"/>
     </row>
     <row r="711" ht="15.2" spans="7:11">
       <c r="G711" s="15"/>
-      <c r="J711" s="18"/>
-      <c r="K711" s="19"/>
+      <c r="J711" s="19"/>
+      <c r="K711" s="20"/>
     </row>
     <row r="712" ht="15.2" spans="7:11">
       <c r="G712" s="15"/>
-      <c r="J712" s="18"/>
-      <c r="K712" s="19"/>
+      <c r="J712" s="19"/>
+      <c r="K712" s="20"/>
     </row>
     <row r="713" ht="15.2" spans="7:11">
       <c r="G713" s="15"/>
-      <c r="J713" s="18"/>
-      <c r="K713" s="19"/>
+      <c r="J713" s="19"/>
+      <c r="K713" s="20"/>
     </row>
     <row r="714" ht="15.2" spans="7:11">
       <c r="G714" s="15"/>
-      <c r="J714" s="18"/>
-      <c r="K714" s="19"/>
+      <c r="J714" s="19"/>
+      <c r="K714" s="20"/>
     </row>
     <row r="715" ht="15.2" spans="7:11">
       <c r="G715" s="15"/>
-      <c r="J715" s="18"/>
-      <c r="K715" s="19"/>
+      <c r="J715" s="19"/>
+      <c r="K715" s="20"/>
     </row>
     <row r="716" ht="15.2" spans="7:11">
       <c r="G716" s="15"/>
-      <c r="J716" s="18"/>
-      <c r="K716" s="19"/>
+      <c r="J716" s="19"/>
+      <c r="K716" s="20"/>
     </row>
     <row r="717" ht="15.2" spans="7:11">
       <c r="G717" s="15"/>
-      <c r="J717" s="18"/>
-      <c r="K717" s="19"/>
+      <c r="J717" s="19"/>
+      <c r="K717" s="20"/>
     </row>
     <row r="718" ht="15.2" spans="7:11">
       <c r="G718" s="15"/>
-      <c r="J718" s="18"/>
-      <c r="K718" s="19"/>
+      <c r="J718" s="19"/>
+      <c r="K718" s="20"/>
     </row>
     <row r="719" ht="15.2" spans="7:11">
       <c r="G719" s="15"/>
-      <c r="J719" s="18"/>
-      <c r="K719" s="19"/>
+      <c r="J719" s="19"/>
+      <c r="K719" s="20"/>
     </row>
     <row r="720" ht="15.2" spans="7:11">
       <c r="G720" s="15"/>
-      <c r="J720" s="18"/>
-      <c r="K720" s="19"/>
+      <c r="J720" s="19"/>
+      <c r="K720" s="20"/>
     </row>
     <row r="721" ht="15.2" spans="7:11">
       <c r="G721" s="15"/>
-      <c r="J721" s="18"/>
-      <c r="K721" s="19"/>
+      <c r="J721" s="19"/>
+      <c r="K721" s="20"/>
     </row>
     <row r="722" ht="15.2" spans="7:11">
       <c r="G722" s="15"/>
-      <c r="J722" s="18"/>
-      <c r="K722" s="19"/>
+      <c r="J722" s="19"/>
+      <c r="K722" s="20"/>
     </row>
     <row r="723" ht="15.2" spans="7:11">
       <c r="G723" s="15"/>
-      <c r="J723" s="18"/>
-      <c r="K723" s="19"/>
+      <c r="J723" s="19"/>
+      <c r="K723" s="20"/>
     </row>
     <row r="724" ht="15.2" spans="7:11">
       <c r="G724" s="15"/>
-      <c r="J724" s="18"/>
-      <c r="K724" s="19"/>
+      <c r="J724" s="19"/>
+      <c r="K724" s="20"/>
     </row>
     <row r="725" ht="15.2" spans="7:11">
       <c r="G725" s="15"/>
-      <c r="J725" s="18"/>
-      <c r="K725" s="19"/>
+      <c r="J725" s="19"/>
+      <c r="K725" s="20"/>
     </row>
     <row r="726" ht="15.2" spans="7:11">
       <c r="G726" s="15"/>
-      <c r="J726" s="18"/>
-      <c r="K726" s="19"/>
+      <c r="J726" s="19"/>
+      <c r="K726" s="20"/>
     </row>
     <row r="727" ht="15.2" spans="7:11">
       <c r="G727" s="15"/>
-      <c r="J727" s="18"/>
-      <c r="K727" s="19"/>
+      <c r="J727" s="19"/>
+      <c r="K727" s="20"/>
     </row>
     <row r="728" ht="15.2" spans="7:11">
       <c r="G728" s="15"/>
-      <c r="J728" s="18"/>
-      <c r="K728" s="19"/>
+      <c r="J728" s="19"/>
+      <c r="K728" s="20"/>
     </row>
     <row r="729" ht="15.2" spans="7:11">
       <c r="G729" s="15"/>
-      <c r="J729" s="18"/>
-      <c r="K729" s="19"/>
+      <c r="J729" s="19"/>
+      <c r="K729" s="20"/>
     </row>
     <row r="730" ht="15.2" spans="7:11">
       <c r="G730" s="15"/>
-      <c r="J730" s="18"/>
-      <c r="K730" s="19"/>
+      <c r="J730" s="19"/>
+      <c r="K730" s="20"/>
     </row>
     <row r="731" ht="15.2" spans="7:11">
       <c r="G731" s="15"/>
-      <c r="J731" s="18"/>
-      <c r="K731" s="19"/>
+      <c r="J731" s="19"/>
+      <c r="K731" s="20"/>
     </row>
     <row r="732" ht="15.2" spans="7:11">
       <c r="G732" s="15"/>
-      <c r="J732" s="18"/>
-      <c r="K732" s="19"/>
+      <c r="J732" s="19"/>
+      <c r="K732" s="20"/>
     </row>
     <row r="733" ht="15.2" spans="7:11">
       <c r="G733" s="15"/>
-      <c r="J733" s="18"/>
-      <c r="K733" s="19"/>
+      <c r="J733" s="19"/>
+      <c r="K733" s="20"/>
     </row>
     <row r="734" ht="15.2" spans="7:11">
       <c r="G734" s="15"/>
-      <c r="J734" s="18"/>
-      <c r="K734" s="19"/>
+      <c r="J734" s="19"/>
+      <c r="K734" s="20"/>
     </row>
     <row r="735" ht="15.2" spans="7:11">
       <c r="G735" s="15"/>
-      <c r="J735" s="18"/>
-      <c r="K735" s="19"/>
+      <c r="J735" s="19"/>
+      <c r="K735" s="20"/>
     </row>
     <row r="736" ht="15.2" spans="7:11">
       <c r="G736" s="15"/>
-      <c r="J736" s="18"/>
-      <c r="K736" s="19"/>
+      <c r="J736" s="19"/>
+      <c r="K736" s="20"/>
     </row>
     <row r="737" ht="15.2" spans="7:11">
       <c r="G737" s="15"/>
-      <c r="J737" s="18"/>
-      <c r="K737" s="19"/>
+      <c r="J737" s="19"/>
+      <c r="K737" s="20"/>
     </row>
     <row r="738" ht="15.2" spans="7:11">
       <c r="G738" s="15"/>
-      <c r="J738" s="18"/>
-      <c r="K738" s="19"/>
+      <c r="J738" s="19"/>
+      <c r="K738" s="20"/>
     </row>
     <row r="739" ht="15.2" spans="7:11">
       <c r="G739" s="15"/>
-      <c r="J739" s="18"/>
-      <c r="K739" s="19"/>
+      <c r="J739" s="19"/>
+      <c r="K739" s="20"/>
     </row>
     <row r="740" ht="15.2" spans="7:11">
       <c r="G740" s="15"/>
-      <c r="J740" s="18"/>
-      <c r="K740" s="19"/>
+      <c r="J740" s="19"/>
+      <c r="K740" s="20"/>
     </row>
     <row r="741" ht="15.2" spans="7:11">
       <c r="G741" s="15"/>
-      <c r="J741" s="18"/>
-      <c r="K741" s="19"/>
+      <c r="J741" s="19"/>
+      <c r="K741" s="20"/>
     </row>
     <row r="742" ht="15.2" spans="7:11">
       <c r="G742" s="15"/>
-      <c r="J742" s="18"/>
-      <c r="K742" s="19"/>
+      <c r="J742" s="19"/>
+      <c r="K742" s="20"/>
     </row>
     <row r="743" ht="15.2" spans="7:11">
       <c r="G743" s="15"/>
-      <c r="J743" s="18"/>
-      <c r="K743" s="19"/>
+      <c r="J743" s="19"/>
+      <c r="K743" s="20"/>
     </row>
     <row r="744" ht="15.2" spans="7:11">
       <c r="G744" s="15"/>
-      <c r="J744" s="18"/>
-      <c r="K744" s="19"/>
+      <c r="J744" s="19"/>
+      <c r="K744" s="20"/>
     </row>
     <row r="745" ht="15.2" spans="7:11">
       <c r="G745" s="15"/>
-      <c r="J745" s="18"/>
-      <c r="K745" s="19"/>
+      <c r="J745" s="19"/>
+      <c r="K745" s="20"/>
     </row>
     <row r="746" ht="15.2" spans="7:11">
       <c r="G746" s="15"/>
-      <c r="J746" s="18"/>
-      <c r="K746" s="19"/>
+      <c r="J746" s="19"/>
+      <c r="K746" s="20"/>
     </row>
     <row r="747" ht="15.2" spans="7:11">
       <c r="G747" s="15"/>
-      <c r="J747" s="18"/>
-      <c r="K747" s="19"/>
+      <c r="J747" s="19"/>
+      <c r="K747" s="20"/>
     </row>
     <row r="748" ht="15.2" spans="7:11">
       <c r="G748" s="15"/>
-      <c r="J748" s="18"/>
-      <c r="K748" s="19"/>
+      <c r="J748" s="19"/>
+      <c r="K748" s="20"/>
     </row>
     <row r="749" ht="15.2" spans="7:11">
       <c r="G749" s="15"/>
-      <c r="J749" s="18"/>
-      <c r="K749" s="19"/>
+      <c r="J749" s="19"/>
+      <c r="K749" s="20"/>
     </row>
     <row r="750" ht="15.2" spans="7:11">
       <c r="G750" s="15"/>
-      <c r="J750" s="18"/>
-      <c r="K750" s="19"/>
+      <c r="J750" s="19"/>
+      <c r="K750" s="20"/>
     </row>
     <row r="751" ht="15.2" spans="7:11">
       <c r="G751" s="15"/>
-      <c r="J751" s="18"/>
-      <c r="K751" s="19"/>
+      <c r="J751" s="19"/>
+      <c r="K751" s="20"/>
     </row>
     <row r="752" ht="15.2" spans="7:11">
       <c r="G752" s="15"/>
-      <c r="J752" s="18"/>
-      <c r="K752" s="19"/>
+      <c r="J752" s="19"/>
+      <c r="K752" s="20"/>
     </row>
     <row r="753" ht="15.2" spans="7:11">
       <c r="G753" s="15"/>
-      <c r="J753" s="18"/>
-      <c r="K753" s="19"/>
+      <c r="J753" s="19"/>
+      <c r="K753" s="20"/>
     </row>
     <row r="754" ht="15.2" spans="7:11">
       <c r="G754" s="15"/>
-      <c r="J754" s="18"/>
-      <c r="K754" s="19"/>
+      <c r="J754" s="19"/>
+      <c r="K754" s="20"/>
     </row>
     <row r="755" ht="15.2" spans="7:11">
       <c r="G755" s="15"/>
-      <c r="J755" s="18"/>
-      <c r="K755" s="19"/>
+      <c r="J755" s="19"/>
+      <c r="K755" s="20"/>
     </row>
     <row r="756" ht="15.2" spans="7:11">
       <c r="G756" s="15"/>
-      <c r="J756" s="18"/>
-      <c r="K756" s="19"/>
+      <c r="J756" s="19"/>
+      <c r="K756" s="20"/>
     </row>
     <row r="757" ht="15.2" spans="7:11">
       <c r="G757" s="15"/>
-      <c r="J757" s="18"/>
-      <c r="K757" s="19"/>
+      <c r="J757" s="19"/>
+      <c r="K757" s="20"/>
     </row>
     <row r="758" ht="15.2" spans="7:11">
       <c r="G758" s="15"/>
-      <c r="J758" s="18"/>
-      <c r="K758" s="19"/>
+      <c r="J758" s="19"/>
+      <c r="K758" s="20"/>
     </row>
     <row r="759" ht="15.2" spans="7:11">
       <c r="G759" s="15"/>
-      <c r="J759" s="18"/>
-      <c r="K759" s="19"/>
+      <c r="J759" s="19"/>
+      <c r="K759" s="20"/>
     </row>
     <row r="760" ht="15.2" spans="7:11">
       <c r="G760" s="15"/>
-      <c r="J760" s="18"/>
-      <c r="K760" s="19"/>
+      <c r="J760" s="19"/>
+      <c r="K760" s="20"/>
     </row>
     <row r="761" ht="15.2" spans="7:11">
       <c r="G761" s="15"/>
-      <c r="J761" s="18"/>
-      <c r="K761" s="19"/>
+      <c r="J761" s="19"/>
+      <c r="K761" s="20"/>
     </row>
     <row r="762" ht="15.2" spans="7:11">
       <c r="G762" s="15"/>
-      <c r="J762" s="18"/>
-      <c r="K762" s="19"/>
+      <c r="J762" s="19"/>
+      <c r="K762" s="20"/>
     </row>
     <row r="763" ht="15.2" spans="7:11">
       <c r="G763" s="15"/>
-      <c r="J763" s="18"/>
-      <c r="K763" s="19"/>
+      <c r="J763" s="19"/>
+      <c r="K763" s="20"/>
     </row>
     <row r="764" ht="15.2" spans="7:11">
       <c r="G764" s="15"/>
-      <c r="J764" s="18"/>
-      <c r="K764" s="19"/>
+      <c r="J764" s="19"/>
+      <c r="K764" s="20"/>
     </row>
     <row r="765" ht="15.2" spans="7:11">
       <c r="G765" s="15"/>
-      <c r="J765" s="18"/>
-      <c r="K765" s="19"/>
+      <c r="J765" s="19"/>
+      <c r="K765" s="20"/>
     </row>
     <row r="766" ht="15.2" spans="7:11">
       <c r="G766" s="15"/>
-      <c r="J766" s="18"/>
-      <c r="K766" s="19"/>
+      <c r="J766" s="19"/>
+      <c r="K766" s="20"/>
     </row>
     <row r="767" ht="15.2" spans="7:11">
       <c r="G767" s="15"/>
-      <c r="J767" s="18"/>
-      <c r="K767" s="19"/>
+      <c r="J767" s="19"/>
+      <c r="K767" s="20"/>
     </row>
     <row r="768" ht="15.2" spans="7:11">
       <c r="G768" s="15"/>
-      <c r="J768" s="18"/>
-      <c r="K768" s="19"/>
+      <c r="J768" s="19"/>
+      <c r="K768" s="20"/>
     </row>
     <row r="769" ht="15.2" spans="7:11">
       <c r="G769" s="15"/>
-      <c r="J769" s="18"/>
-      <c r="K769" s="19"/>
+      <c r="J769" s="19"/>
+      <c r="K769" s="20"/>
     </row>
     <row r="770" ht="15.2" spans="7:11">
       <c r="G770" s="15"/>
-      <c r="J770" s="18"/>
-      <c r="K770" s="19"/>
+      <c r="J770" s="19"/>
+      <c r="K770" s="20"/>
     </row>
     <row r="771" ht="15.2" spans="7:11">
       <c r="G771" s="15"/>
-      <c r="J771" s="18"/>
-      <c r="K771" s="19"/>
+      <c r="J771" s="19"/>
+      <c r="K771" s="20"/>
     </row>
     <row r="772" ht="15.2" spans="7:11">
       <c r="G772" s="15"/>
-      <c r="J772" s="18"/>
-      <c r="K772" s="19"/>
+      <c r="J772" s="19"/>
+      <c r="K772" s="20"/>
     </row>
     <row r="773" ht="15.2" spans="7:11">
       <c r="G773" s="15"/>
-      <c r="J773" s="18"/>
-      <c r="K773" s="19"/>
+      <c r="J773" s="19"/>
+      <c r="K773" s="20"/>
     </row>
     <row r="774" ht="15.2" spans="7:11">
       <c r="G774" s="15"/>
-      <c r="J774" s="18"/>
-      <c r="K774" s="19"/>
+      <c r="J774" s="19"/>
+      <c r="K774" s="20"/>
     </row>
     <row r="775" ht="15.2" spans="7:11">
       <c r="G775" s="15"/>
-      <c r="J775" s="18"/>
-      <c r="K775" s="19"/>
+      <c r="J775" s="19"/>
+      <c r="K775" s="20"/>
     </row>
     <row r="776" ht="15.2" spans="7:11">
       <c r="G776" s="15"/>
-      <c r="J776" s="18"/>
-      <c r="K776" s="19"/>
+      <c r="J776" s="19"/>
+      <c r="K776" s="20"/>
     </row>
     <row r="777" ht="15.2" spans="7:11">
       <c r="G777" s="15"/>
-      <c r="J777" s="18"/>
-      <c r="K777" s="19"/>
+      <c r="J777" s="19"/>
+      <c r="K777" s="20"/>
     </row>
     <row r="778" ht="15.2" spans="7:11">
       <c r="G778" s="15"/>
-      <c r="J778" s="18"/>
-      <c r="K778" s="19"/>
+      <c r="J778" s="19"/>
+      <c r="K778" s="20"/>
     </row>
     <row r="779" ht="15.2" spans="7:11">
       <c r="G779" s="15"/>
-      <c r="J779" s="18"/>
-      <c r="K779" s="19"/>
+      <c r="J779" s="19"/>
+      <c r="K779" s="20"/>
     </row>
     <row r="780" ht="15.2" spans="7:11">
       <c r="G780" s="15"/>
-      <c r="J780" s="18"/>
-      <c r="K780" s="19"/>
+      <c r="J780" s="19"/>
+      <c r="K780" s="20"/>
     </row>
     <row r="781" ht="15.2" spans="7:11">
       <c r="G781" s="15"/>
-      <c r="J781" s="18"/>
-      <c r="K781" s="19"/>
+      <c r="J781" s="19"/>
+      <c r="K781" s="20"/>
     </row>
     <row r="782" ht="15.2" spans="7:11">
       <c r="G782" s="15"/>
-      <c r="J782" s="18"/>
-      <c r="K782" s="19"/>
+      <c r="J782" s="19"/>
+      <c r="K782" s="20"/>
     </row>
     <row r="783" ht="15.2" spans="7:11">
       <c r="G783" s="15"/>
-      <c r="J783" s="18"/>
-      <c r="K783" s="19"/>
+      <c r="J783" s="19"/>
+      <c r="K783" s="20"/>
     </row>
     <row r="784" ht="15.2" spans="7:11">
       <c r="G784" s="15"/>
-      <c r="J784" s="18"/>
-      <c r="K784" s="19"/>
+      <c r="J784" s="19"/>
+      <c r="K784" s="20"/>
     </row>
     <row r="785" ht="15.2" spans="7:11">
       <c r="G785" s="15"/>
-      <c r="J785" s="18"/>
-      <c r="K785" s="19"/>
+      <c r="J785" s="19"/>
+      <c r="K785" s="20"/>
     </row>
     <row r="786" ht="15.2" spans="7:11">
       <c r="G786" s="15"/>
-      <c r="J786" s="18"/>
-      <c r="K786" s="19"/>
+      <c r="J786" s="19"/>
+      <c r="K786" s="20"/>
     </row>
     <row r="787" ht="15.2" spans="7:11">
       <c r="G787" s="15"/>
-      <c r="J787" s="18"/>
-      <c r="K787" s="19"/>
+      <c r="J787" s="19"/>
+      <c r="K787" s="20"/>
     </row>
     <row r="788" ht="15.2" spans="7:11">
       <c r="G788" s="15"/>
-      <c r="J788" s="18"/>
-      <c r="K788" s="19"/>
+      <c r="J788" s="19"/>
+      <c r="K788" s="20"/>
     </row>
     <row r="789" ht="15.2" spans="7:11">
       <c r="G789" s="15"/>
-      <c r="J789" s="18"/>
-      <c r="K789" s="19"/>
+      <c r="J789" s="19"/>
+      <c r="K789" s="20"/>
     </row>
     <row r="790" ht="15.2" spans="7:11">
       <c r="G790" s="15"/>
-      <c r="J790" s="18"/>
-      <c r="K790" s="19"/>
+      <c r="J790" s="19"/>
+      <c r="K790" s="20"/>
     </row>
     <row r="791" ht="15.2" spans="7:11">
       <c r="G791" s="15"/>
-      <c r="J791" s="18"/>
-      <c r="K791" s="19"/>
+      <c r="J791" s="19"/>
+      <c r="K791" s="20"/>
     </row>
     <row r="792" ht="15.2" spans="7:11">
       <c r="G792" s="15"/>
-      <c r="J792" s="18"/>
-      <c r="K792" s="19"/>
+      <c r="J792" s="19"/>
+      <c r="K792" s="20"/>
     </row>
     <row r="793" ht="15.2" spans="7:11">
       <c r="G793" s="15"/>
-      <c r="J793" s="18"/>
-      <c r="K793" s="19"/>
+      <c r="J793" s="19"/>
+      <c r="K793" s="20"/>
     </row>
     <row r="794" ht="15.2" spans="7:11">
       <c r="G794" s="15"/>
-      <c r="J794" s="18"/>
-      <c r="K794" s="19"/>
+      <c r="J794" s="19"/>
+      <c r="K794" s="20"/>
     </row>
     <row r="795" ht="15.2" spans="7:11">
       <c r="G795" s="15"/>
-      <c r="J795" s="18"/>
-      <c r="K795" s="19"/>
+      <c r="J795" s="19"/>
+      <c r="K795" s="20"/>
     </row>
     <row r="796" ht="15.2" spans="7:11">
       <c r="G796" s="15"/>
-      <c r="J796" s="18"/>
-      <c r="K796" s="19"/>
+      <c r="J796" s="19"/>
+      <c r="K796" s="20"/>
     </row>
     <row r="797" ht="15.2" spans="7:11">
       <c r="G797" s="15"/>
-      <c r="J797" s="18"/>
-      <c r="K797" s="19"/>
+      <c r="J797" s="19"/>
+      <c r="K797" s="20"/>
     </row>
     <row r="798" ht="15.2" spans="7:11">
       <c r="G798" s="15"/>
-      <c r="J798" s="18"/>
-      <c r="K798" s="19"/>
+      <c r="J798" s="19"/>
+      <c r="K798" s="20"/>
     </row>
     <row r="799" ht="15.2" spans="7:11">
       <c r="G799" s="15"/>
-      <c r="J799" s="18"/>
-      <c r="K799" s="19"/>
+      <c r="J799" s="19"/>
+      <c r="K799" s="20"/>
     </row>
     <row r="800" ht="15.2" spans="7:11">
       <c r="G800" s="15"/>
-      <c r="J800" s="18"/>
-      <c r="K800" s="19"/>
+      <c r="J800" s="19"/>
+      <c r="K800" s="20"/>
     </row>
     <row r="801" ht="15.2" spans="7:11">
       <c r="G801" s="15"/>
-      <c r="J801" s="18"/>
-      <c r="K801" s="19"/>
+      <c r="J801" s="19"/>
+      <c r="K801" s="20"/>
     </row>
     <row r="802" ht="15.2" spans="7:11">
       <c r="G802" s="15"/>
-      <c r="J802" s="18"/>
-      <c r="K802" s="19"/>
+      <c r="J802" s="19"/>
+      <c r="K802" s="20"/>
     </row>
     <row r="803" ht="15.2" spans="7:11">
       <c r="G803" s="15"/>
-      <c r="J803" s="18"/>
-      <c r="K803" s="19"/>
+      <c r="J803" s="19"/>
+      <c r="K803" s="20"/>
     </row>
     <row r="804" ht="15.2" spans="7:11">
       <c r="G804" s="15"/>
-      <c r="J804" s="18"/>
-      <c r="K804" s="19"/>
+      <c r="J804" s="19"/>
+      <c r="K804" s="20"/>
     </row>
     <row r="805" ht="15.2" spans="7:11">
       <c r="G805" s="15"/>
-      <c r="J805" s="18"/>
-      <c r="K805" s="19"/>
+      <c r="J805" s="19"/>
+      <c r="K805" s="20"/>
     </row>
     <row r="806" ht="15.2" spans="7:11">
       <c r="G806" s="15"/>
-      <c r="J806" s="18"/>
-      <c r="K806" s="19"/>
+      <c r="J806" s="19"/>
+      <c r="K806" s="20"/>
     </row>
     <row r="807" ht="15.2" spans="7:11">
       <c r="G807" s="15"/>
-      <c r="J807" s="18"/>
-      <c r="K807" s="19"/>
+      <c r="J807" s="19"/>
+      <c r="K807" s="20"/>
     </row>
     <row r="808" ht="15.2" spans="7:11">
       <c r="G808" s="15"/>
-      <c r="J808" s="18"/>
-      <c r="K808" s="19"/>
+      <c r="J808" s="19"/>
+      <c r="K808" s="20"/>
     </row>
     <row r="809" ht="15.2" spans="7:11">
       <c r="G809" s="15"/>
-      <c r="J809" s="18"/>
-      <c r="K809" s="19"/>
+      <c r="J809" s="19"/>
+      <c r="K809" s="20"/>
     </row>
     <row r="810" ht="15.2" spans="7:11">
       <c r="G810" s="15"/>
-      <c r="J810" s="18"/>
-      <c r="K810" s="19"/>
+      <c r="J810" s="19"/>
+      <c r="K810" s="20"/>
     </row>
     <row r="811" ht="15.2" spans="7:11">
       <c r="G811" s="15"/>
-      <c r="J811" s="18"/>
-      <c r="K811" s="19"/>
+      <c r="J811" s="19"/>
+      <c r="K811" s="20"/>
     </row>
     <row r="812" ht="15.2" spans="7:11">
       <c r="G812" s="15"/>
-      <c r="J812" s="18"/>
-      <c r="K812" s="19"/>
+      <c r="J812" s="19"/>
+      <c r="K812" s="20"/>
     </row>
     <row r="813" ht="15.2" spans="7:11">
       <c r="G813" s="15"/>
-      <c r="J813" s="18"/>
-      <c r="K813" s="19"/>
+      <c r="J813" s="19"/>
+      <c r="K813" s="20"/>
     </row>
     <row r="814" ht="15.2" spans="7:11">
       <c r="G814" s="15"/>
-      <c r="J814" s="18"/>
-      <c r="K814" s="19"/>
+      <c r="J814" s="19"/>
+      <c r="K814" s="20"/>
     </row>
     <row r="815" ht="15.2" spans="7:11">
       <c r="G815" s="15"/>
-      <c r="J815" s="18"/>
-      <c r="K815" s="19"/>
+      <c r="J815" s="19"/>
+      <c r="K815" s="20"/>
     </row>
     <row r="816" ht="15.2" spans="7:11">
       <c r="G816" s="15"/>
-      <c r="J816" s="18"/>
-      <c r="K816" s="19"/>
+      <c r="J816" s="19"/>
+      <c r="K816" s="20"/>
     </row>
     <row r="817" ht="15.2" spans="7:11">
       <c r="G817" s="15"/>
-      <c r="J817" s="18"/>
-      <c r="K817" s="19"/>
+      <c r="J817" s="19"/>
+      <c r="K817" s="20"/>
     </row>
     <row r="818" ht="15.2" spans="7:11">
       <c r="G818" s="15"/>
-      <c r="J818" s="18"/>
-      <c r="K818" s="19"/>
+      <c r="J818" s="19"/>
+      <c r="K818" s="20"/>
     </row>
     <row r="819" ht="15.2" spans="7:11">
       <c r="G819" s="15"/>
-      <c r="J819" s="18"/>
-      <c r="K819" s="19"/>
+      <c r="J819" s="19"/>
+      <c r="K819" s="20"/>
     </row>
     <row r="820" ht="15.2" spans="7:11">
       <c r="G820" s="15"/>
-      <c r="J820" s="18"/>
-      <c r="K820" s="19"/>
+      <c r="J820" s="19"/>
+      <c r="K820" s="20"/>
     </row>
     <row r="821" ht="15.2" spans="7:11">
       <c r="G821" s="15"/>
-      <c r="J821" s="18"/>
-      <c r="K821" s="19"/>
+      <c r="J821" s="19"/>
+      <c r="K821" s="20"/>
     </row>
     <row r="822" ht="15.2" spans="7:11">
       <c r="G822" s="15"/>
-      <c r="J822" s="18"/>
-      <c r="K822" s="19"/>
+      <c r="J822" s="19"/>
+      <c r="K822" s="20"/>
     </row>
     <row r="823" ht="15.2" spans="7:11">
       <c r="G823" s="15"/>
-      <c r="J823" s="18"/>
-      <c r="K823" s="19"/>
+      <c r="J823" s="19"/>
+      <c r="K823" s="20"/>
     </row>
     <row r="824" ht="15.2" spans="7:11">
       <c r="G824" s="15"/>
-      <c r="J824" s="18"/>
-      <c r="K824" s="19"/>
+      <c r="J824" s="19"/>
+      <c r="K824" s="20"/>
     </row>
     <row r="825" ht="15.2" spans="7:11">
       <c r="G825" s="15"/>
-      <c r="J825" s="18"/>
-      <c r="K825" s="19"/>
+      <c r="J825" s="19"/>
+      <c r="K825" s="20"/>
     </row>
     <row r="826" ht="15.2" spans="7:11">
       <c r="G826" s="15"/>
-      <c r="J826" s="18"/>
-      <c r="K826" s="19"/>
+      <c r="J826" s="19"/>
+      <c r="K826" s="20"/>
     </row>
     <row r="827" ht="15.2" spans="7:11">
       <c r="G827" s="15"/>
-      <c r="J827" s="18"/>
-      <c r="K827" s="19"/>
+      <c r="J827" s="19"/>
+      <c r="K827" s="20"/>
     </row>
     <row r="828" ht="15.2" spans="7:11">
       <c r="G828" s="15"/>
-      <c r="J828" s="18"/>
-      <c r="K828" s="19"/>
+      <c r="J828" s="19"/>
+      <c r="K828" s="20"/>
     </row>
     <row r="829" ht="15.2" spans="7:11">
       <c r="G829" s="15"/>
-      <c r="J829" s="18"/>
-      <c r="K829" s="19"/>
+      <c r="J829" s="19"/>
+      <c r="K829" s="20"/>
     </row>
     <row r="830" ht="15.2" spans="7:11">
       <c r="G830" s="15"/>
-      <c r="J830" s="18"/>
-      <c r="K830" s="19"/>
+      <c r="J830" s="19"/>
+      <c r="K830" s="20"/>
     </row>
     <row r="831" ht="15.2" spans="7:11">
       <c r="G831" s="15"/>
-      <c r="J831" s="18"/>
-      <c r="K831" s="19"/>
+      <c r="J831" s="19"/>
+      <c r="K831" s="20"/>
     </row>
     <row r="832" ht="15.2" spans="7:11">
       <c r="G832" s="15"/>
-      <c r="J832" s="18"/>
-      <c r="K832" s="19"/>
+      <c r="J832" s="19"/>
+      <c r="K832" s="20"/>
     </row>
     <row r="833" ht="15.2" spans="7:11">
       <c r="G833" s="15"/>
-      <c r="J833" s="18"/>
-      <c r="K833" s="19"/>
+      <c r="J833" s="19"/>
+      <c r="K833" s="20"/>
     </row>
     <row r="834" ht="15.2" spans="7:11">
       <c r="G834" s="15"/>
-      <c r="J834" s="18"/>
-      <c r="K834" s="19"/>
+      <c r="J834" s="19"/>
+      <c r="K834" s="20"/>
     </row>
     <row r="835" ht="15.2" spans="7:11">
       <c r="G835" s="15"/>
-      <c r="J835" s="18"/>
-      <c r="K835" s="19"/>
+      <c r="J835" s="19"/>
+      <c r="K835" s="20"/>
     </row>
     <row r="836" ht="15.2" spans="7:11">
       <c r="G836" s="15"/>
-      <c r="J836" s="18"/>
-      <c r="K836" s="19"/>
+      <c r="J836" s="19"/>
+      <c r="K836" s="20"/>
     </row>
     <row r="837" ht="15.2" spans="7:11">
       <c r="G837" s="15"/>
-      <c r="J837" s="18"/>
-      <c r="K837" s="19"/>
+      <c r="J837" s="19"/>
+      <c r="K837" s="20"/>
     </row>
     <row r="838" ht="15.2" spans="7:11">
       <c r="G838" s="15"/>
-      <c r="J838" s="18"/>
-      <c r="K838" s="19"/>
+      <c r="J838" s="19"/>
+      <c r="K838" s="20"/>
     </row>
     <row r="839" ht="15.2" spans="7:11">
       <c r="G839" s="15"/>
-      <c r="J839" s="18"/>
-      <c r="K839" s="19"/>
+      <c r="J839" s="19"/>
+      <c r="K839" s="20"/>
     </row>
     <row r="840" ht="15.2" spans="7:11">
       <c r="G840" s="15"/>
-      <c r="J840" s="18"/>
-      <c r="K840" s="19"/>
+      <c r="J840" s="19"/>
+      <c r="K840" s="20"/>
     </row>
     <row r="841" ht="15.2" spans="7:11">
       <c r="G841" s="15"/>
-      <c r="J841" s="18"/>
-      <c r="K841" s="19"/>
+      <c r="J841" s="19"/>
+      <c r="K841" s="20"/>
     </row>
     <row r="842" ht="15.2" spans="7:11">
       <c r="G842" s="15"/>
-      <c r="J842" s="18"/>
-      <c r="K842" s="19"/>
+      <c r="J842" s="19"/>
+      <c r="K842" s="20"/>
     </row>
     <row r="843" ht="15.2" spans="7:11">
       <c r="G843" s="15"/>
-      <c r="J843" s="18"/>
-      <c r="K843" s="19"/>
+      <c r="J843" s="19"/>
+      <c r="K843" s="20"/>
     </row>
     <row r="844" ht="15.2" spans="7:11">
       <c r="G844" s="15"/>
-      <c r="J844" s="18"/>
-      <c r="K844" s="19"/>
+      <c r="J844" s="19"/>
+      <c r="K844" s="20"/>
     </row>
     <row r="845" ht="15.2" spans="7:11">
       <c r="G845" s="15"/>
-      <c r="J845" s="18"/>
-      <c r="K845" s="19"/>
+      <c r="J845" s="19"/>
+      <c r="K845" s="20"/>
     </row>
     <row r="846" ht="15.2" spans="7:11">
       <c r="G846" s="15"/>
-      <c r="J846" s="18"/>
-      <c r="K846" s="19"/>
+      <c r="J846" s="19"/>
+      <c r="K846" s="20"/>
     </row>
     <row r="847" ht="15.2" spans="7:11">
       <c r="G847" s="15"/>
-      <c r="J847" s="18"/>
-      <c r="K847" s="19"/>
+      <c r="J847" s="19"/>
+      <c r="K847" s="20"/>
     </row>
     <row r="848" ht="15.2" spans="7:11">
       <c r="G848" s="15"/>
-      <c r="J848" s="18"/>
-      <c r="K848" s="19"/>
+      <c r="J848" s="19"/>
+      <c r="K848" s="20"/>
     </row>
     <row r="849" ht="15.2" spans="7:11">
       <c r="G849" s="15"/>
-      <c r="J849" s="18"/>
-      <c r="K849" s="19"/>
+      <c r="J849" s="19"/>
+      <c r="K849" s="20"/>
     </row>
     <row r="850" ht="15.2" spans="7:11">
       <c r="G850" s="15"/>
-      <c r="J850" s="18"/>
-      <c r="K850" s="19"/>
+      <c r="J850" s="19"/>
+      <c r="K850" s="20"/>
     </row>
     <row r="851" ht="15.2" spans="7:11">
       <c r="G851" s="15"/>
-      <c r="J851" s="18"/>
-      <c r="K851" s="19"/>
+      <c r="J851" s="19"/>
+      <c r="K851" s="20"/>
     </row>
     <row r="852" ht="15.2" spans="7:11">
       <c r="G852" s="15"/>
-      <c r="J852" s="18"/>
-      <c r="K852" s="19"/>
+      <c r="J852" s="19"/>
+      <c r="K852" s="20"/>
     </row>
     <row r="853" ht="15.2" spans="7:11">
       <c r="G853" s="15"/>
-      <c r="J853" s="18"/>
-      <c r="K853" s="19"/>
+      <c r="J853" s="19"/>
+      <c r="K853" s="20"/>
     </row>
     <row r="854" ht="15.2" spans="7:11">
       <c r="G854" s="15"/>
-      <c r="J854" s="18"/>
-      <c r="K854" s="19"/>
+      <c r="J854" s="19"/>
+      <c r="K854" s="20"/>
     </row>
     <row r="855" ht="15.2" spans="7:11">
       <c r="G855" s="15"/>
-      <c r="J855" s="18"/>
-      <c r="K855" s="19"/>
+      <c r="J855" s="19"/>
+      <c r="K855" s="20"/>
     </row>
     <row r="856" ht="15.2" spans="7:11">
       <c r="G856" s="15"/>
-      <c r="J856" s="18"/>
-      <c r="K856" s="19"/>
+      <c r="J856" s="19"/>
+      <c r="K856" s="20"/>
     </row>
     <row r="857" ht="15.2" spans="7:11">
       <c r="G857" s="15"/>
-      <c r="J857" s="18"/>
-      <c r="K857" s="19"/>
+      <c r="J857" s="19"/>
+      <c r="K857" s="20"/>
     </row>
     <row r="858" ht="15.2" spans="7:11">
       <c r="G858" s="15"/>
-      <c r="J858" s="18"/>
-      <c r="K858" s="19"/>
+      <c r="J858" s="19"/>
+      <c r="K858" s="20"/>
     </row>
     <row r="859" ht="15.2" spans="7:11">
       <c r="G859" s="15"/>
-      <c r="J859" s="18"/>
-      <c r="K859" s="19"/>
+      <c r="J859" s="19"/>
+      <c r="K859" s="20"/>
     </row>
     <row r="860" ht="15.2" spans="7:11">
       <c r="G860" s="15"/>
-      <c r="J860" s="18"/>
-      <c r="K860" s="19"/>
+      <c r="J860" s="19"/>
+      <c r="K860" s="20"/>
     </row>
     <row r="861" ht="15.2" spans="7:11">
       <c r="G861" s="15"/>
-      <c r="J861" s="18"/>
-      <c r="K861" s="19"/>
+      <c r="J861" s="19"/>
+      <c r="K861" s="20"/>
     </row>
     <row r="862" ht="15.2" spans="7:11">
       <c r="G862" s="15"/>
-      <c r="J862" s="18"/>
-      <c r="K862" s="19"/>
+      <c r="J862" s="19"/>
+      <c r="K862" s="20"/>
     </row>
     <row r="863" ht="15.2" spans="7:11">
       <c r="G863" s="15"/>
-      <c r="J863" s="18"/>
-      <c r="K863" s="19"/>
+      <c r="J863" s="19"/>
+      <c r="K863" s="20"/>
     </row>
     <row r="864" ht="15.2" spans="7:11">
       <c r="G864" s="15"/>
-      <c r="J864" s="18"/>
-      <c r="K864" s="19"/>
+      <c r="J864" s="19"/>
+      <c r="K864" s="20"/>
     </row>
     <row r="865" ht="15.2" spans="7:11">
       <c r="G865" s="15"/>
-      <c r="J865" s="18"/>
-      <c r="K865" s="19"/>
+      <c r="J865" s="19"/>
+      <c r="K865" s="20"/>
     </row>
     <row r="866" ht="15.2" spans="7:11">
       <c r="G866" s="15"/>
-      <c r="J866" s="18"/>
-      <c r="K866" s="19"/>
+      <c r="J866" s="19"/>
+      <c r="K866" s="20"/>
     </row>
     <row r="867" ht="15.2" spans="7:11">
       <c r="G867" s="15"/>
-      <c r="J867" s="18"/>
-      <c r="K867" s="19"/>
+      <c r="J867" s="19"/>
+      <c r="K867" s="20"/>
     </row>
     <row r="868" ht="15.2" spans="7:11">
       <c r="G868" s="15"/>
-      <c r="J868" s="18"/>
-      <c r="K868" s="19"/>
+      <c r="J868" s="19"/>
+      <c r="K868" s="20"/>
     </row>
     <row r="869" ht="15.2" spans="7:11">
       <c r="G869" s="15"/>
-      <c r="J869" s="18"/>
-      <c r="K869" s="19"/>
+      <c r="J869" s="19"/>
+      <c r="K869" s="20"/>
     </row>
     <row r="870" ht="15.2" spans="7:11">
       <c r="G870" s="15"/>
-      <c r="J870" s="18"/>
-      <c r="K870" s="19"/>
+      <c r="J870" s="19"/>
+      <c r="K870" s="20"/>
     </row>
     <row r="871" ht="15.2" spans="7:11">
       <c r="G871" s="15"/>
-      <c r="J871" s="18"/>
-      <c r="K871" s="19"/>
+      <c r="J871" s="19"/>
+      <c r="K871" s="20"/>
     </row>
     <row r="872" ht="15.2" spans="7:11">
       <c r="G872" s="15"/>
-      <c r="J872" s="18"/>
-      <c r="K872" s="19"/>
+      <c r="J872" s="19"/>
+      <c r="K872" s="20"/>
     </row>
     <row r="873" ht="15.2" spans="7:11">
       <c r="G873" s="15"/>
-      <c r="J873" s="18"/>
-      <c r="K873" s="19"/>
+      <c r="J873" s="19"/>
+      <c r="K873" s="20"/>
     </row>
     <row r="874" ht="15.2" spans="7:11">
       <c r="G874" s="15"/>
-      <c r="J874" s="18"/>
-      <c r="K874" s="19"/>
+      <c r="J874" s="19"/>
+      <c r="K874" s="20"/>
     </row>
     <row r="875" ht="15.2" spans="7:11">
       <c r="G875" s="15"/>
-      <c r="J875" s="18"/>
-      <c r="K875" s="19"/>
+      <c r="J875" s="19"/>
+      <c r="K875" s="20"/>
     </row>
     <row r="876" ht="15.2" spans="7:11">
       <c r="G876" s="15"/>
-      <c r="J876" s="18"/>
-      <c r="K876" s="19"/>
+      <c r="J876" s="19"/>
+      <c r="K876" s="20"/>
     </row>
     <row r="877" ht="15.2" spans="7:11">
       <c r="G877" s="15"/>
-      <c r="J877" s="18"/>
-      <c r="K877" s="19"/>
+      <c r="J877" s="19"/>
+      <c r="K877" s="20"/>
     </row>
     <row r="878" ht="15.2" spans="7:11">
       <c r="G878" s="15"/>
-      <c r="J878" s="18"/>
-      <c r="K878" s="19"/>
+      <c r="J878" s="19"/>
+      <c r="K878" s="20"/>
     </row>
     <row r="879" ht="15.2" spans="7:11">
       <c r="G879" s="15"/>
-      <c r="J879" s="18"/>
-      <c r="K879" s="19"/>
+      <c r="J879" s="19"/>
+      <c r="K879" s="20"/>
     </row>
     <row r="880" ht="15.2" spans="7:11">
       <c r="G880" s="15"/>
-      <c r="J880" s="18"/>
-      <c r="K880" s="19"/>
+      <c r="J880" s="19"/>
+      <c r="K880" s="20"/>
     </row>
     <row r="881" ht="15.2" spans="7:11">
       <c r="G881" s="15"/>
-      <c r="J881" s="18"/>
-      <c r="K881" s="19"/>
+      <c r="J881" s="19"/>
+      <c r="K881" s="20"/>
     </row>
     <row r="882" ht="15.2" spans="7:11">
       <c r="G882" s="15"/>
-      <c r="J882" s="18"/>
-      <c r="K882" s="19"/>
+      <c r="J882" s="19"/>
+      <c r="K882" s="20"/>
     </row>
     <row r="883" ht="15.2" spans="7:11">
       <c r="G883" s="15"/>
-      <c r="J883" s="18"/>
-      <c r="K883" s="19"/>
+      <c r="J883" s="19"/>
+      <c r="K883" s="20"/>
     </row>
     <row r="884" ht="15.2" spans="7:11">
       <c r="G884" s="15"/>
-      <c r="J884" s="18"/>
-      <c r="K884" s="19"/>
+      <c r="J884" s="19"/>
+      <c r="K884" s="20"/>
     </row>
     <row r="885" ht="15.2" spans="7:11">
       <c r="G885" s="15"/>
-      <c r="J885" s="18"/>
-      <c r="K885" s="19"/>
+      <c r="J885" s="19"/>
+      <c r="K885" s="20"/>
     </row>
     <row r="886" ht="15.2" spans="7:11">
       <c r="G886" s="15"/>
-      <c r="J886" s="18"/>
-      <c r="K886" s="19"/>
+      <c r="J886" s="19"/>
+      <c r="K886" s="20"/>
     </row>
     <row r="887" ht="15.2" spans="7:11">
       <c r="G887" s="15"/>
-      <c r="J887" s="18"/>
-      <c r="K887" s="19"/>
+      <c r="J887" s="19"/>
+      <c r="K887" s="20"/>
     </row>
     <row r="888" ht="15.2" spans="7:11">
       <c r="G888" s="15"/>
-      <c r="J888" s="18"/>
-      <c r="K888" s="19"/>
+      <c r="J888" s="19"/>
+      <c r="K888" s="20"/>
     </row>
     <row r="889" ht="15.2" spans="7:11">
       <c r="G889" s="15"/>
-      <c r="J889" s="18"/>
-      <c r="K889" s="19"/>
+      <c r="J889" s="19"/>
+      <c r="K889" s="20"/>
     </row>
     <row r="890" ht="15.2" spans="7:11">
       <c r="G890" s="15"/>
-      <c r="J890" s="18"/>
-      <c r="K890" s="19"/>
+      <c r="J890" s="19"/>
+      <c r="K890" s="20"/>
     </row>
     <row r="891" ht="15.2" spans="7:11">
       <c r="G891" s="15"/>
-      <c r="J891" s="18"/>
-      <c r="K891" s="19"/>
+      <c r="J891" s="19"/>
+      <c r="K891" s="20"/>
     </row>
     <row r="892" ht="15.2" spans="7:11">
       <c r="G892" s="15"/>
-      <c r="J892" s="18"/>
-      <c r="K892" s="19"/>
+      <c r="J892" s="19"/>
+      <c r="K892" s="20"/>
     </row>
     <row r="893" ht="15.2" spans="7:11">
       <c r="G893" s="15"/>
-      <c r="J893" s="18"/>
-      <c r="K893" s="19"/>
+      <c r="J893" s="19"/>
+      <c r="K893" s="20"/>
     </row>
     <row r="894" ht="15.2" spans="7:11">
       <c r="G894" s="15"/>
-      <c r="J894" s="18"/>
-      <c r="K894" s="19"/>
+      <c r="J894" s="19"/>
+      <c r="K894" s="20"/>
     </row>
     <row r="895" ht="15.2" spans="7:11">
       <c r="G895" s="15"/>
-      <c r="J895" s="18"/>
-      <c r="K895" s="19"/>
+      <c r="J895" s="19"/>
+      <c r="K895" s="20"/>
     </row>
     <row r="896" ht="15.2" spans="7:11">
       <c r="G896" s="15"/>
-      <c r="J896" s="18"/>
-      <c r="K896" s="19"/>
+      <c r="J896" s="19"/>
+      <c r="K896" s="20"/>
     </row>
     <row r="897" ht="15.2" spans="7:11">
       <c r="G897" s="15"/>
-      <c r="J897" s="18"/>
-      <c r="K897" s="19"/>
+      <c r="J897" s="19"/>
+      <c r="K897" s="20"/>
     </row>
     <row r="898" ht="15.2" spans="7:11">
       <c r="G898" s="15"/>
-      <c r="J898" s="18"/>
-      <c r="K898" s="19"/>
+      <c r="J898" s="19"/>
+      <c r="K898" s="20"/>
     </row>
     <row r="899" ht="15.2" spans="7:11">
       <c r="G899" s="15"/>
-      <c r="J899" s="18"/>
-      <c r="K899" s="19"/>
+      <c r="J899" s="19"/>
+      <c r="K899" s="20"/>
     </row>
     <row r="900" ht="15.2" spans="7:11">
       <c r="G900" s="15"/>
-      <c r="J900" s="18"/>
-      <c r="K900" s="19"/>
+      <c r="J900" s="19"/>
+      <c r="K900" s="20"/>
     </row>
     <row r="901" ht="15.2" spans="7:11">
       <c r="G901" s="15"/>
-      <c r="J901" s="18"/>
-      <c r="K901" s="19"/>
+      <c r="J901" s="19"/>
+      <c r="K901" s="20"/>
     </row>
     <row r="902" ht="15.2" spans="7:11">
       <c r="G902" s="15"/>
-      <c r="J902" s="18"/>
-      <c r="K902" s="19"/>
+      <c r="J902" s="19"/>
+      <c r="K902" s="20"/>
     </row>
     <row r="903" ht="15.2" spans="7:11">
       <c r="G903" s="15"/>
-      <c r="J903" s="18"/>
-      <c r="K903" s="19"/>
+      <c r="J903" s="19"/>
+      <c r="K903" s="20"/>
     </row>
     <row r="904" ht="15.2" spans="7:11">
       <c r="G904" s="15"/>
-      <c r="J904" s="18"/>
-      <c r="K904" s="19"/>
+      <c r="J904" s="19"/>
+      <c r="K904" s="20"/>
     </row>
     <row r="905" ht="15.2" spans="7:11">
       <c r="G905" s="15"/>
-      <c r="J905" s="18"/>
-      <c r="K905" s="19"/>
+      <c r="J905" s="19"/>
+      <c r="K905" s="20"/>
     </row>
     <row r="906" ht="15.2" spans="7:11">
       <c r="G906" s="15"/>
-      <c r="J906" s="18"/>
-      <c r="K906" s="19"/>
+      <c r="J906" s="19"/>
+      <c r="K906" s="20"/>
     </row>
     <row r="907" ht="15.2" spans="7:11">
       <c r="G907" s="15"/>
-      <c r="J907" s="18"/>
-      <c r="K907" s="19"/>
+      <c r="J907" s="19"/>
+      <c r="K907" s="20"/>
     </row>
     <row r="908" ht="15.2" spans="7:11">
       <c r="G908" s="15"/>
-      <c r="J908" s="18"/>
-      <c r="K908" s="19"/>
+      <c r="J908" s="19"/>
+      <c r="K908" s="20"/>
     </row>
     <row r="909" ht="15.2" spans="7:11">
       <c r="G909" s="15"/>
-      <c r="J909" s="18"/>
-      <c r="K909" s="19"/>
+      <c r="J909" s="19"/>
+      <c r="K909" s="20"/>
     </row>
     <row r="910" ht="15.2" spans="7:11">
       <c r="G910" s="15"/>
-      <c r="J910" s="18"/>
-      <c r="K910" s="19"/>
+      <c r="J910" s="19"/>
+      <c r="K910" s="20"/>
     </row>
     <row r="911" ht="15.2" spans="7:11">
       <c r="G911" s="15"/>
-      <c r="J911" s="18"/>
-      <c r="K911" s="19"/>
+      <c r="J911" s="19"/>
+      <c r="K911" s="20"/>
     </row>
     <row r="912" ht="15.2" spans="7:11">
       <c r="G912" s="15"/>
-      <c r="J912" s="18"/>
-      <c r="K912" s="19"/>
+      <c r="J912" s="19"/>
+      <c r="K912" s="20"/>
     </row>
     <row r="913" ht="15.2" spans="7:11">
       <c r="G913" s="15"/>
-      <c r="J913" s="18"/>
-      <c r="K913" s="19"/>
+      <c r="J913" s="19"/>
+      <c r="K913" s="20"/>
     </row>
     <row r="914" ht="15.2" spans="7:11">
       <c r="G914" s="15"/>
-      <c r="J914" s="18"/>
-      <c r="K914" s="19"/>
+      <c r="J914" s="19"/>
+      <c r="K914" s="20"/>
     </row>
     <row r="915" ht="15.2" spans="7:11">
       <c r="G915" s="15"/>
-      <c r="J915" s="18"/>
-      <c r="K915" s="19"/>
+      <c r="J915" s="19"/>
+      <c r="K915" s="20"/>
     </row>
     <row r="916" ht="15.2" spans="7:11">
       <c r="G916" s="15"/>
-      <c r="J916" s="18"/>
-      <c r="K916" s="19"/>
+      <c r="J916" s="19"/>
+      <c r="K916" s="20"/>
     </row>
     <row r="917" ht="15.2" spans="7:11">
       <c r="G917" s="15"/>
-      <c r="J917" s="18"/>
-      <c r="K917" s="19"/>
+      <c r="J917" s="19"/>
+      <c r="K917" s="20"/>
     </row>
     <row r="918" ht="15.2" spans="7:11">
       <c r="G918" s="15"/>
-      <c r="J918" s="18"/>
-      <c r="K918" s="19"/>
+      <c r="J918" s="19"/>
+      <c r="K918" s="20"/>
     </row>
     <row r="919" ht="15.2" spans="7:11">
       <c r="G919" s="15"/>
-      <c r="J919" s="18"/>
-      <c r="K919" s="19"/>
+      <c r="J919" s="19"/>
+      <c r="K919" s="20"/>
     </row>
     <row r="920" ht="15.2" spans="7:11">
       <c r="G920" s="15"/>
-      <c r="J920" s="18"/>
-      <c r="K920" s="19"/>
+      <c r="J920" s="19"/>
+      <c r="K920" s="20"/>
     </row>
     <row r="921" ht="15.2" spans="7:11">
       <c r="G921" s="15"/>
-      <c r="J921" s="18"/>
-      <c r="K921" s="19"/>
+      <c r="J921" s="19"/>
+      <c r="K921" s="20"/>
     </row>
     <row r="922" ht="15.2" spans="7:11">
       <c r="G922" s="15"/>
-      <c r="J922" s="18"/>
-      <c r="K922" s="19"/>
+      <c r="J922" s="19"/>
+      <c r="K922" s="20"/>
     </row>
     <row r="923" ht="15.2" spans="7:11">
       <c r="G923" s="15"/>
-      <c r="J923" s="18"/>
-      <c r="K923" s="19"/>
+      <c r="J923" s="19"/>
+      <c r="K923" s="20"/>
     </row>
     <row r="924" ht="15.2" spans="7:11">
       <c r="G924" s="15"/>
-      <c r="J924" s="18"/>
-      <c r="K924" s="19"/>
+      <c r="J924" s="19"/>
+      <c r="K924" s="20"/>
     </row>
     <row r="925" ht="15.2" spans="7:11">
       <c r="G925" s="15"/>
-      <c r="J925" s="18"/>
-      <c r="K925" s="19"/>
+      <c r="J925" s="19"/>
+      <c r="K925" s="20"/>
     </row>
     <row r="926" ht="15.2" spans="7:11">
       <c r="G926" s="15"/>
-      <c r="J926" s="18"/>
-      <c r="K926" s="19"/>
+      <c r="J926" s="19"/>
+      <c r="K926" s="20"/>
     </row>
     <row r="927" ht="15.2" spans="7:11">
       <c r="G927" s="15"/>
-      <c r="J927" s="18"/>
-      <c r="K927" s="19"/>
+      <c r="J927" s="19"/>
+      <c r="K927" s="20"/>
     </row>
     <row r="928" ht="15.2" spans="7:11">
       <c r="G928" s="15"/>
-      <c r="J928" s="18"/>
-      <c r="K928" s="19"/>
+      <c r="J928" s="19"/>
+      <c r="K928" s="20"/>
     </row>
     <row r="929" ht="15.2" spans="7:11">
       <c r="G929" s="15"/>
-      <c r="J929" s="18"/>
-      <c r="K929" s="19"/>
+      <c r="J929" s="19"/>
+      <c r="K929" s="20"/>
     </row>
     <row r="930" ht="15.2" spans="7:11">
       <c r="G930" s="15"/>
-      <c r="J930" s="18"/>
-      <c r="K930" s="19"/>
+      <c r="J930" s="19"/>
+      <c r="K930" s="20"/>
     </row>
     <row r="931" ht="15.2" spans="7:11">
       <c r="G931" s="15"/>
-      <c r="J931" s="18"/>
-      <c r="K931" s="19"/>
+      <c r="J931" s="19"/>
+      <c r="K931" s="20"/>
     </row>
     <row r="932" ht="15.2" spans="7:11">
       <c r="G932" s="15"/>
-      <c r="J932" s="18"/>
-      <c r="K932" s="19"/>
+      <c r="J932" s="19"/>
+      <c r="K932" s="20"/>
     </row>
     <row r="933" ht="15.2" spans="7:11">
       <c r="G933" s="15"/>
-      <c r="J933" s="18"/>
-      <c r="K933" s="19"/>
+      <c r="J933" s="19"/>
+      <c r="K933" s="20"/>
     </row>
     <row r="934" ht="15.2" spans="7:11">
       <c r="G934" s="15"/>
-      <c r="J934" s="18"/>
-      <c r="K934" s="19"/>
+      <c r="J934" s="19"/>
+      <c r="K934" s="20"/>
     </row>
     <row r="935" ht="15.2" spans="7:11">
       <c r="G935" s="15"/>
-      <c r="J935" s="18"/>
-      <c r="K935" s="19"/>
+      <c r="J935" s="19"/>
+      <c r="K935" s="20"/>
     </row>
     <row r="936" ht="15.2" spans="7:11">
       <c r="G936" s="15"/>
-      <c r="J936" s="18"/>
-      <c r="K936" s="19"/>
+      <c r="J936" s="19"/>
+      <c r="K936" s="20"/>
     </row>
     <row r="937" ht="15.2" spans="7:11">
       <c r="G937" s="15"/>
-      <c r="J937" s="18"/>
-      <c r="K937" s="19"/>
+      <c r="J937" s="19"/>
+      <c r="K937" s="20"/>
     </row>
     <row r="938" ht="15.2" spans="7:11">
       <c r="G938" s="15"/>
-      <c r="J938" s="18"/>
-      <c r="K938" s="19"/>
+      <c r="J938" s="19"/>
+      <c r="K938" s="20"/>
     </row>
     <row r="939" ht="15.2" spans="7:11">
       <c r="G939" s="15"/>
-      <c r="J939" s="18"/>
-      <c r="K939" s="19"/>
+      <c r="J939" s="19"/>
+      <c r="K939" s="20"/>
     </row>
     <row r="940" ht="15.2" spans="7:11">
       <c r="G940" s="15"/>
-      <c r="J940" s="18"/>
-      <c r="K940" s="19"/>
+      <c r="J940" s="19"/>
+      <c r="K940" s="20"/>
     </row>
     <row r="941" ht="15.2" spans="7:11">
       <c r="G941" s="15"/>
-      <c r="J941" s="18"/>
-      <c r="K941" s="19"/>
+      <c r="J941" s="19"/>
+      <c r="K941" s="20"/>
     </row>
     <row r="942" ht="15.2" spans="7:11">
       <c r="G942" s="15"/>
-      <c r="J942" s="18"/>
-      <c r="K942" s="19"/>
+      <c r="J942" s="19"/>
+      <c r="K942" s="20"/>
     </row>
     <row r="943" ht="15.2" spans="7:11">
       <c r="G943" s="15"/>
-      <c r="J943" s="18"/>
-      <c r="K943" s="19"/>
+      <c r="J943" s="19"/>
+      <c r="K943" s="20"/>
     </row>
     <row r="944" ht="15.2" spans="7:11">
       <c r="G944" s="15"/>
-      <c r="J944" s="18"/>
-      <c r="K944" s="19"/>
+      <c r="J944" s="19"/>
+      <c r="K944" s="20"/>
     </row>
     <row r="945" ht="15.2" spans="7:11">
       <c r="G945" s="15"/>
-      <c r="J945" s="18"/>
-      <c r="K945" s="19"/>
+      <c r="J945" s="19"/>
+      <c r="K945" s="20"/>
     </row>
     <row r="946" ht="15.2" spans="7:11">
       <c r="G946" s="15"/>
-      <c r="J946" s="18"/>
-      <c r="K946" s="19"/>
+      <c r="J946" s="19"/>
+      <c r="K946" s="20"/>
     </row>
     <row r="947" ht="15.2" spans="7:11">
       <c r="G947" s="15"/>
-      <c r="J947" s="18"/>
-      <c r="K947" s="19"/>
+      <c r="J947" s="19"/>
+      <c r="K947" s="20"/>
     </row>
     <row r="948" ht="15.2" spans="7:11">
       <c r="G948" s="15"/>
-      <c r="J948" s="18"/>
-      <c r="K948" s="19"/>
+      <c r="J948" s="19"/>
+      <c r="K948" s="20"/>
     </row>
     <row r="949" ht="15.2" spans="7:11">
       <c r="G949" s="15"/>
-      <c r="J949" s="18"/>
-      <c r="K949" s="19"/>
+      <c r="J949" s="19"/>
+      <c r="K949" s="20"/>
     </row>
     <row r="950" ht="15.2" spans="7:11">
       <c r="G950" s="15"/>
-      <c r="J950" s="18"/>
-      <c r="K950" s="19"/>
+      <c r="J950" s="19"/>
+      <c r="K950" s="20"/>
     </row>
     <row r="951" ht="15.2" spans="7:11">
       <c r="G951" s="15"/>
-      <c r="J951" s="18"/>
-      <c r="K951" s="19"/>
+      <c r="J951" s="19"/>
+      <c r="K951" s="20"/>
     </row>
     <row r="952" ht="15.2" spans="7:11">
       <c r="G952" s="15"/>
-      <c r="J952" s="18"/>
-      <c r="K952" s="19"/>
+      <c r="J952" s="19"/>
+      <c r="K952" s="20"/>
     </row>
     <row r="953" ht="15.2" spans="7:11">
       <c r="G953" s="15"/>
-      <c r="J953" s="18"/>
-      <c r="K953" s="19"/>
+      <c r="J953" s="19"/>
+      <c r="K953" s="20"/>
     </row>
     <row r="954" ht="15.2" spans="7:11">
       <c r="G954" s="15"/>
-      <c r="J954" s="18"/>
-      <c r="K954" s="19"/>
+      <c r="J954" s="19"/>
+      <c r="K954" s="20"/>
     </row>
     <row r="955" ht="15.2" spans="7:11">
       <c r="G955" s="15"/>
-      <c r="J955" s="18"/>
-      <c r="K955" s="19"/>
+      <c r="J955" s="19"/>
+      <c r="K955" s="20"/>
     </row>
     <row r="956" ht="15.2" spans="7:11">
       <c r="G956" s="15"/>
-      <c r="J956" s="18"/>
-      <c r="K956" s="19"/>
+      <c r="J956" s="19"/>
+      <c r="K956" s="20"/>
     </row>
     <row r="957" ht="15.2" spans="7:11">
       <c r="G957" s="15"/>
-      <c r="J957" s="18"/>
-      <c r="K957" s="19"/>
+      <c r="J957" s="19"/>
+      <c r="K957" s="20"/>
     </row>
     <row r="958" ht="15.2" spans="7:11">
       <c r="G958" s="15"/>
-      <c r="J958" s="18"/>
-      <c r="K958" s="19"/>
+      <c r="J958" s="19"/>
+      <c r="K958" s="20"/>
     </row>
     <row r="959" ht="15.2" spans="7:11">
       <c r="G959" s="15"/>
-      <c r="J959" s="18"/>
-      <c r="K959" s="19"/>
+      <c r="J959" s="19"/>
+      <c r="K959" s="20"/>
     </row>
     <row r="960" ht="15.2" spans="7:11">
       <c r="G960" s="15"/>
-      <c r="J960" s="18"/>
-      <c r="K960" s="19"/>
+      <c r="J960" s="19"/>
+      <c r="K960" s="20"/>
     </row>
     <row r="961" ht="15.2" spans="7:11">
       <c r="G961" s="15"/>
-      <c r="J961" s="18"/>
-      <c r="K961" s="19"/>
+      <c r="J961" s="19"/>
+      <c r="K961" s="20"/>
     </row>
     <row r="962" ht="15.2" spans="7:11">
       <c r="G962" s="15"/>
-      <c r="J962" s="18"/>
-      <c r="K962" s="19"/>
+      <c r="J962" s="19"/>
+      <c r="K962" s="20"/>
     </row>
     <row r="963" ht="15.2" spans="7:11">
       <c r="G963" s="15"/>
-      <c r="J963" s="18"/>
-      <c r="K963" s="19"/>
+      <c r="J963" s="19"/>
+      <c r="K963" s="20"/>
     </row>
     <row r="964" ht="15.2" spans="7:11">
       <c r="G964" s="15"/>
-      <c r="J964" s="18"/>
-      <c r="K964" s="19"/>
+      <c r="J964" s="19"/>
+      <c r="K964" s="20"/>
     </row>
     <row r="965" ht="15.2" spans="7:11">
       <c r="G965" s="15"/>
-      <c r="J965" s="18"/>
-      <c r="K965" s="19"/>
+      <c r="J965" s="19"/>
+      <c r="K965" s="20"/>
     </row>
     <row r="966" ht="15.2" spans="7:11">
       <c r="G966" s="15"/>
-      <c r="J966" s="18"/>
-      <c r="K966" s="19"/>
+      <c r="J966" s="19"/>
+      <c r="K966" s="20"/>
     </row>
     <row r="967" ht="15.2" spans="7:11">
       <c r="G967" s="15"/>
-      <c r="J967" s="18"/>
-      <c r="K967" s="19"/>
+      <c r="J967" s="19"/>
+      <c r="K967" s="20"/>
     </row>
     <row r="968" ht="15.2" spans="7:11">
       <c r="G968" s="15"/>
-      <c r="J968" s="18"/>
-      <c r="K968" s="19"/>
+      <c r="J968" s="19"/>
+      <c r="K968" s="20"/>
     </row>
     <row r="969" ht="15.2" spans="7:11">
       <c r="G969" s="15"/>
-      <c r="J969" s="18"/>
-      <c r="K969" s="19"/>
+      <c r="J969" s="19"/>
+      <c r="K969" s="20"/>
     </row>
     <row r="970" ht="15.2" spans="7:11">
       <c r="G970" s="15"/>
-      <c r="J970" s="18"/>
-      <c r="K970" s="19"/>
+      <c r="J970" s="19"/>
+      <c r="K970" s="20"/>
     </row>
     <row r="971" ht="15.2" spans="7:11">
       <c r="G971" s="15"/>
-      <c r="J971" s="18"/>
-      <c r="K971" s="19"/>
+      <c r="J971" s="19"/>
+      <c r="K971" s="20"/>
     </row>
     <row r="972" ht="15.2" spans="7:11">
       <c r="G972" s="15"/>
-      <c r="J972" s="18"/>
-      <c r="K972" s="19"/>
+      <c r="J972" s="19"/>
+      <c r="K972" s="20"/>
     </row>
     <row r="973" ht="15.2" spans="7:11">
       <c r="G973" s="15"/>
-      <c r="J973" s="18"/>
-      <c r="K973" s="19"/>
+      <c r="J973" s="19"/>
+      <c r="K973" s="20"/>
     </row>
     <row r="974" ht="15.2" spans="7:11">
       <c r="G974" s="15"/>
-      <c r="J974" s="18"/>
-      <c r="K974" s="19"/>
+      <c r="J974" s="19"/>
+      <c r="K974" s="20"/>
     </row>
     <row r="975" ht="15.2" spans="7:11">
       <c r="G975" s="15"/>
-      <c r="J975" s="18"/>
-      <c r="K975" s="19"/>
+      <c r="J975" s="19"/>
+      <c r="K975" s="20"/>
     </row>
     <row r="976" ht="15.2" spans="7:11">
       <c r="G976" s="15"/>
-      <c r="J976" s="18"/>
-      <c r="K976" s="19"/>
+      <c r="J976" s="19"/>
+      <c r="K976" s="20"/>
     </row>
     <row r="977" ht="15.2" spans="7:11">
       <c r="G977" s="15"/>
-      <c r="J977" s="18"/>
-      <c r="K977" s="19"/>
+      <c r="J977" s="19"/>
+      <c r="K977" s="20"/>
     </row>
     <row r="978" ht="15.2" spans="7:11">
       <c r="G978" s="15"/>
-      <c r="J978" s="18"/>
-      <c r="K978" s="19"/>
+      <c r="J978" s="19"/>
+      <c r="K978" s="20"/>
     </row>
     <row r="979" ht="15.2" spans="7:11">
       <c r="G979" s="15"/>
-      <c r="J979" s="18"/>
-      <c r="K979" s="19"/>
+      <c r="J979" s="19"/>
+      <c r="K979" s="20"/>
     </row>
     <row r="980" ht="15.2" spans="7:11">
       <c r="G980" s="15"/>
-      <c r="J980" s="18"/>
-      <c r="K980" s="19"/>
+      <c r="J980" s="19"/>
+      <c r="K980" s="20"/>
     </row>
     <row r="981" ht="15.2" spans="7:11">
       <c r="G981" s="15"/>
-      <c r="J981" s="18"/>
-      <c r="K981" s="19"/>
+      <c r="J981" s="19"/>
+      <c r="K981" s="20"/>
     </row>
     <row r="982" ht="15.2" spans="7:11">
       <c r="G982" s="15"/>
-      <c r="J982" s="18"/>
-      <c r="K982" s="19"/>
+      <c r="J982" s="19"/>
+      <c r="K982" s="20"/>
     </row>
     <row r="983" ht="15.2" spans="7:11">
       <c r="G983" s="15"/>
-      <c r="J983" s="18"/>
-      <c r="K983" s="19"/>
+      <c r="J983" s="19"/>
+      <c r="K983" s="20"/>
     </row>
     <row r="984" ht="15.2" spans="7:11">
       <c r="G984" s="15"/>
-      <c r="J984" s="18"/>
-      <c r="K984" s="19"/>
+      <c r="J984" s="19"/>
+      <c r="K984" s="20"/>
     </row>
     <row r="985" ht="15.2" spans="7:11">
       <c r="G985" s="15"/>
-      <c r="J985" s="18"/>
-      <c r="K985" s="19"/>
+      <c r="J985" s="19"/>
+      <c r="K985" s="20"/>
     </row>
     <row r="986" ht="15.2" spans="7:11">
       <c r="G986" s="15"/>
-      <c r="J986" s="18"/>
-      <c r="K986" s="19"/>
+      <c r="J986" s="19"/>
+      <c r="K986" s="20"/>
     </row>
     <row r="987" ht="15.2" spans="7:11">
       <c r="G987" s="15"/>
-      <c r="J987" s="18"/>
-      <c r="K987" s="19"/>
+      <c r="J987" s="19"/>
+      <c r="K987" s="20"/>
     </row>
     <row r="988" ht="15.2" spans="7:11">
       <c r="G988" s="15"/>
-      <c r="J988" s="18"/>
-      <c r="K988" s="19"/>
+      <c r="J988" s="19"/>
+      <c r="K988" s="20"/>
     </row>
     <row r="989" ht="15.2" spans="7:11">
       <c r="G989" s="15"/>
-      <c r="J989" s="18"/>
-      <c r="K989" s="19"/>
+      <c r="J989" s="19"/>
+      <c r="K989" s="20"/>
     </row>
     <row r="990" ht="15.2" spans="7:11">
       <c r="G990" s="15"/>
-      <c r="J990" s="18"/>
-      <c r="K990" s="19"/>
+      <c r="J990" s="19"/>
+      <c r="K990" s="20"/>
     </row>
     <row r="991" ht="15.2" spans="7:11">
       <c r="G991" s="15"/>
-      <c r="J991" s="18"/>
-      <c r="K991" s="19"/>
+      <c r="J991" s="19"/>
+      <c r="K991" s="20"/>
     </row>
     <row r="992" ht="15.2" spans="7:11">
       <c r="G992" s="15"/>
-      <c r="J992" s="18"/>
-      <c r="K992" s="19"/>
+      <c r="J992" s="19"/>
+      <c r="K992" s="20"/>
     </row>
     <row r="993" ht="15.2" spans="7:11">
       <c r="G993" s="15"/>
-      <c r="J993" s="18"/>
-      <c r="K993" s="19"/>
+      <c r="J993" s="19"/>
+      <c r="K993" s="20"/>
     </row>
     <row r="994" ht="15.2" spans="7:11">
       <c r="G994" s="15"/>
-      <c r="J994" s="18"/>
-      <c r="K994" s="19"/>
+      <c r="J994" s="19"/>
+      <c r="K994" s="20"/>
     </row>
     <row r="995" ht="15.2" spans="7:11">
       <c r="G995" s="15"/>
-      <c r="J995" s="18"/>
-      <c r="K995" s="19"/>
+      <c r="J995" s="19"/>
+      <c r="K995" s="20"/>
     </row>
     <row r="996" ht="15.2" spans="7:11">
       <c r="G996" s="15"/>
-      <c r="J996" s="18"/>
-      <c r="K996" s="19"/>
+      <c r="J996" s="19"/>
+      <c r="K996" s="20"/>
     </row>
     <row r="997" ht="15.2" spans="7:11">
       <c r="G997" s="15"/>
-      <c r="J997" s="18"/>
-      <c r="K997" s="19"/>
+      <c r="J997" s="19"/>
+      <c r="K997" s="20"/>
     </row>
     <row r="998" ht="15.2" spans="7:11">
       <c r="G998" s="15"/>
-      <c r="J998" s="18"/>
-      <c r="K998" s="19"/>
+      <c r="J998" s="19"/>
+      <c r="K998" s="20"/>
     </row>
     <row r="999" ht="15.2" spans="7:11">
       <c r="G999" s="15"/>
-      <c r="J999" s="18"/>
-      <c r="K999" s="19"/>
+      <c r="J999" s="19"/>
+      <c r="K999" s="20"/>
     </row>
     <row r="1000" ht="15.2" spans="7:11">
       <c r="G1000" s="15"/>
-      <c r="J1000" s="18"/>
-      <c r="K1000" s="19"/>
+      <c r="J1000" s="19"/>
+      <c r="K1000" s="20"/>
     </row>
     <row r="1001" ht="15.2" spans="7:11">
       <c r="G1001" s="15"/>
-      <c r="J1001" s="18"/>
-      <c r="K1001" s="19"/>
+      <c r="J1001" s="19"/>
+      <c r="K1001" s="20"/>
     </row>
     <row r="1002" ht="15.2" spans="7:11">
       <c r="G1002" s="15"/>
-      <c r="J1002" s="18"/>
-      <c r="K1002" s="19"/>
+      <c r="J1002" s="19"/>
+      <c r="K1002" s="20"/>
     </row>
     <row r="1003" ht="15.2" spans="7:11">
       <c r="G1003" s="15"/>
-      <c r="J1003" s="18"/>
-      <c r="K1003" s="19"/>
+      <c r="J1003" s="19"/>
+      <c r="K1003" s="20"/>
     </row>
     <row r="1004" ht="15.2" spans="7:11">
       <c r="G1004" s="15"/>
-      <c r="J1004" s="18"/>
-      <c r="K1004" s="19"/>
+      <c r="J1004" s="19"/>
+      <c r="K1004" s="20"/>
     </row>
     <row r="1005" ht="15.2" spans="7:11">
       <c r="G1005" s="15"/>
-      <c r="J1005" s="18"/>
-      <c r="K1005" s="19"/>
+      <c r="J1005" s="19"/>
+      <c r="K1005" s="20"/>
     </row>
     <row r="1006" ht="15.2" spans="7:11">
       <c r="G1006" s="15"/>
-      <c r="J1006" s="18"/>
-      <c r="K1006" s="19"/>
+      <c r="J1006" s="19"/>
+      <c r="K1006" s="20"/>
     </row>
     <row r="1007" ht="15.2" spans="7:11">
       <c r="G1007" s="15"/>
-      <c r="J1007" s="18"/>
-      <c r="K1007" s="19"/>
+      <c r="J1007" s="19"/>
+      <c r="K1007" s="20"/>
     </row>
     <row r="1008" ht="15.2" spans="7:11">
       <c r="G1008" s="15"/>
-      <c r="J1008" s="18"/>
-      <c r="K1008" s="19"/>
+      <c r="J1008" s="19"/>
+      <c r="K1008" s="20"/>
     </row>
     <row r="1009" ht="15.2" spans="7:11">
       <c r="G1009" s="15"/>
-      <c r="J1009" s="18"/>
-      <c r="K1009" s="19"/>
+      <c r="J1009" s="19"/>
+      <c r="K1009" s="20"/>
     </row>
     <row r="1010" ht="15.2" spans="7:11">
       <c r="G1010" s="15"/>
-      <c r="J1010" s="18"/>
-      <c r="K1010" s="19"/>
+      <c r="J1010" s="19"/>
+      <c r="K1010" s="20"/>
     </row>
     <row r="1011" ht="15.2" spans="7:11">
       <c r="G1011" s="15"/>
-      <c r="J1011" s="18"/>
-      <c r="K1011" s="19"/>
+      <c r="J1011" s="19"/>
+      <c r="K1011" s="20"/>
     </row>
     <row r="1012" ht="15.2" spans="7:11">
       <c r="G1012" s="15"/>
-      <c r="J1012" s="18"/>
-      <c r="K1012" s="19"/>
+      <c r="J1012" s="19"/>
+      <c r="K1012" s="20"/>
     </row>
     <row r="1013" ht="15.2" spans="7:11">
       <c r="G1013" s="15"/>
-      <c r="J1013" s="18"/>
-      <c r="K1013" s="19"/>
+      <c r="J1013" s="19"/>
+      <c r="K1013" s="20"/>
     </row>
     <row r="1014" ht="15.2" spans="7:11">
       <c r="G1014" s="15"/>
-      <c r="J1014" s="18"/>
-      <c r="K1014" s="19"/>
+      <c r="J1014" s="19"/>
+      <c r="K1014" s="20"/>
     </row>
     <row r="1015" ht="15.2" spans="7:11">
       <c r="G1015" s="15"/>
-      <c r="J1015" s="18"/>
-      <c r="K1015" s="19"/>
+      <c r="J1015" s="19"/>
+      <c r="K1015" s="20"/>
     </row>
     <row r="1016" ht="15.2" spans="7:11">
       <c r="G1016" s="15"/>
-      <c r="J1016" s="18"/>
-      <c r="K1016" s="19"/>
+      <c r="J1016" s="19"/>
+      <c r="K1016" s="20"/>
     </row>
     <row r="1017" ht="15.2" spans="7:11">
       <c r="G1017" s="15"/>
-      <c r="J1017" s="18"/>
-      <c r="K1017" s="19"/>
+      <c r="J1017" s="19"/>
+      <c r="K1017" s="20"/>
     </row>
     <row r="1018" ht="15.2" spans="7:11">
       <c r="G1018" s="15"/>
-      <c r="J1018" s="18"/>
-      <c r="K1018" s="19"/>
+      <c r="J1018" s="19"/>
+      <c r="K1018" s="20"/>
     </row>
     <row r="1019" ht="15.2" spans="7:11">
       <c r="G1019" s="15"/>
-      <c r="J1019" s="18"/>
-      <c r="K1019" s="19"/>
+      <c r="J1019" s="19"/>
+      <c r="K1019" s="20"/>
     </row>
     <row r="1020" ht="15.2" spans="7:11">
       <c r="G1020" s="15"/>
-      <c r="J1020" s="18"/>
-      <c r="K1020" s="19"/>
+      <c r="J1020" s="19"/>
+      <c r="K1020" s="20"/>
     </row>
     <row r="1021" ht="15.2" spans="7:11">
       <c r="G1021" s="15"/>
-      <c r="J1021" s="18"/>
-      <c r="K1021" s="19"/>
+      <c r="J1021" s="19"/>
+      <c r="K1021" s="20"/>
     </row>
     <row r="1022" ht="15.2" spans="7:11">
       <c r="G1022" s="15"/>
-      <c r="J1022" s="18"/>
-      <c r="K1022" s="19"/>
+      <c r="J1022" s="19"/>
+      <c r="K1022" s="20"/>
     </row>
     <row r="1023" ht="15.2" spans="7:11">
       <c r="G1023" s="15"/>
-      <c r="J1023" s="18"/>
-      <c r="K1023" s="19"/>
+      <c r="J1023" s="19"/>
+      <c r="K1023" s="20"/>
     </row>
     <row r="1024" ht="15.2" spans="7:11">
       <c r="G1024" s="15"/>
-      <c r="J1024" s="18"/>
-      <c r="K1024" s="19"/>
+      <c r="J1024" s="19"/>
+      <c r="K1024" s="20"/>
     </row>
     <row r="1025" ht="15.2" spans="7:11">
       <c r="G1025" s="15"/>
-      <c r="J1025" s="18"/>
-      <c r="K1025" s="19"/>
+      <c r="J1025" s="19"/>
+      <c r="K1025" s="20"/>
     </row>
     <row r="1026" ht="15.2" spans="7:11">
       <c r="G1026" s="15"/>
-      <c r="J1026" s="18"/>
-      <c r="K1026" s="19"/>
+      <c r="J1026" s="19"/>
+      <c r="K1026" s="20"/>
     </row>
     <row r="1027" ht="15.2" spans="7:11">
       <c r="G1027" s="15"/>
-      <c r="J1027" s="18"/>
-      <c r="K1027" s="19"/>
+      <c r="J1027" s="19"/>
+      <c r="K1027" s="20"/>
     </row>
     <row r="1028" ht="15.2" spans="7:11">
       <c r="G1028" s="15"/>
-      <c r="J1028" s="18"/>
-      <c r="K1028" s="19"/>
+      <c r="J1028" s="19"/>
+      <c r="K1028" s="20"/>
     </row>
     <row r="1029" ht="15.2" spans="7:11">
       <c r="G1029" s="15"/>
-      <c r="J1029" s="18"/>
-      <c r="K1029" s="19"/>
+      <c r="J1029" s="19"/>
+      <c r="K1029" s="20"/>
     </row>
     <row r="1030" ht="15.2" spans="7:11">
       <c r="G1030" s="15"/>
-      <c r="J1030" s="18"/>
-      <c r="K1030" s="19"/>
+      <c r="J1030" s="19"/>
+      <c r="K1030" s="20"/>
     </row>
     <row r="1031" ht="15.2" spans="7:11">
       <c r="G1031" s="15"/>
-      <c r="J1031" s="18"/>
-      <c r="K1031" s="19"/>
+      <c r="J1031" s="19"/>
+      <c r="K1031" s="20"/>
     </row>
     <row r="1032" ht="15.2" spans="7:11">
       <c r="G1032" s="15"/>
-      <c r="J1032" s="18"/>
-      <c r="K1032" s="19"/>
+      <c r="J1032" s="19"/>
+      <c r="K1032" s="20"/>
     </row>
     <row r="1033" ht="15.2" spans="7:11">
       <c r="G1033" s="15"/>
-      <c r="J1033" s="18"/>
-      <c r="K1033" s="19"/>
+      <c r="J1033" s="19"/>
+      <c r="K1033" s="20"/>
     </row>
     <row r="1034" ht="15.2" spans="7:11">
       <c r="G1034" s="15"/>
-      <c r="J1034" s="18"/>
-      <c r="K1034" s="19"/>
+      <c r="J1034" s="19"/>
+      <c r="K1034" s="20"/>
     </row>
     <row r="1035" ht="15.2" spans="7:11">
       <c r="G1035" s="15"/>
-      <c r="J1035" s="18"/>
-      <c r="K1035" s="19"/>
+      <c r="J1035" s="19"/>
+      <c r="K1035" s="20"/>
     </row>
     <row r="1036" ht="15.2" spans="7:11">
       <c r="G1036" s="15"/>
-      <c r="J1036" s="18"/>
-      <c r="K1036" s="19"/>
+      <c r="J1036" s="19"/>
+      <c r="K1036" s="20"/>
     </row>
     <row r="1037" ht="15.2" spans="7:11">
       <c r="G1037" s="15"/>
-      <c r="J1037" s="18"/>
-      <c r="K1037" s="19"/>
+      <c r="J1037" s="19"/>
+      <c r="K1037" s="20"/>
     </row>
     <row r="1038" ht="15.2" spans="7:11">
       <c r="G1038" s="15"/>
-      <c r="J1038" s="18"/>
-      <c r="K1038" s="19"/>
+      <c r="J1038" s="19"/>
+      <c r="K1038" s="20"/>
     </row>
     <row r="1039" ht="15.2" spans="7:11">
       <c r="G1039" s="15"/>
-      <c r="J1039" s="18"/>
-      <c r="K1039" s="19"/>
+      <c r="J1039" s="19"/>
+      <c r="K1039" s="20"/>
     </row>
     <row r="1040" ht="15.2" spans="7:11">
       <c r="G1040" s="15"/>
-      <c r="J1040" s="18"/>
-      <c r="K1040" s="19"/>
+      <c r="J1040" s="19"/>
+      <c r="K1040" s="20"/>
     </row>
     <row r="1041" ht="15.2" spans="7:11">
       <c r="G1041" s="15"/>
-      <c r="J1041" s="18"/>
-      <c r="K1041" s="19"/>
+      <c r="J1041" s="19"/>
+      <c r="K1041" s="20"/>
     </row>
     <row r="1042" ht="15.2" spans="7:11">
       <c r="G1042" s="15"/>
-      <c r="J1042" s="18"/>
-      <c r="K1042" s="19"/>
+      <c r="J1042" s="19"/>
+      <c r="K1042" s="20"/>
     </row>
     <row r="1043" ht="15.2" spans="7:11">
       <c r="G1043" s="15"/>
-      <c r="J1043" s="18"/>
-      <c r="K1043" s="19"/>
+      <c r="J1043" s="19"/>
+      <c r="K1043" s="20"/>
     </row>
     <row r="1044" ht="15.2" spans="7:11">
       <c r="G1044" s="15"/>
-      <c r="J1044" s="18"/>
-      <c r="K1044" s="19"/>
+      <c r="J1044" s="19"/>
+      <c r="K1044" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15672,9 +15721,11 @@
     <hyperlink ref="C99" r:id="rId19" display="https://arxiv.org/pdf/2508.14040" tooltip="https://arxiv.org/pdf/2508.14040"/>
     <hyperlink ref="C100" r:id="rId25" display="https://arxiv.org/pdf/2507.05791" tooltip="https://arxiv.org/pdf/2507.05791"/>
     <hyperlink ref="C112" r:id="rId22" display="https://arxiv.org/pdf/2509.02544" tooltip="https://arxiv.org/pdf/2509.02544"/>
-    <hyperlink ref="C113" r:id="rId26" display="https://www.theagi.company/blog/osworld" tooltip="https://www.theagi.company/blog/osworld"/>
-    <hyperlink ref="C114" r:id="rId27" display="https://qwen.ai/blog?id=99f0335c4ad9ff6153e517418d48535ab6d8afef&amp;from=research.latest-advancements-list" tooltip="https://qwen.ai/blog?id=99f0335c4ad9ff6153e517418d48535ab6d8afef&amp;from=research.latest-advancements-list"/>
-    <hyperlink ref="C115" r:id="rId23" display="https://www.mininglamp.com/news/6394/" tooltip="https://www.mininglamp.com/news/6394/"/>
+    <hyperlink ref="C113" r:id="rId26" display="https://qwen.ai/blog?id=99f0335c4ad9ff6153e517418d48535ab6d8afef&amp;from=research.latest-advancements-list" tooltip="https://qwen.ai/blog?id=99f0335c4ad9ff6153e517418d48535ab6d8afef&amp;from=research.latest-advancements-list"/>
+    <hyperlink ref="C114" r:id="rId23" display="https://www.mininglamp.com/news/6394/" tooltip="https://www.mininglamp.com/news/6394/"/>
+    <hyperlink ref="C115" r:id="rId27" display="https://www.anthropic.com/news/claude-sonnet-4-5" tooltip="https://www.anthropic.com/news/claude-sonnet-4-5"/>
+    <hyperlink ref="C116" r:id="rId27" display="https://www.anthropic.com/news/claude-sonnet-4-5" tooltip="https://www.anthropic.com/news/claude-sonnet-4-5"/>
+    <hyperlink ref="C117" r:id="rId27" display="https://www.anthropic.com/news/claude-sonnet-4-5" tooltip="https://www.anthropic.com/news/claude-sonnet-4-5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/data/osworld_verified_results.xlsx
+++ b/static/data/osworld_verified_results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="645">
   <si>
     <t>Model</t>
   </si>
@@ -1928,10 +1928,40 @@
     <t>https://www.anthropic.com/news/claude-sonnet-4-5</t>
   </si>
   <si>
-    <t>154.80/361 23.96/46 13.00/26 17.00/47 22.96/47 14.00/23 17.00/93 18.00/24 10.00/15 4.89/17 14.00/2</t>
-  </si>
-  <si>
-    <t>209.68/361 25.96/46 15.00/26 31.00/47 27.02/47 15.00/23 43.70/93 17.00/24 10.00/15 9.00/17 16.00/23</t>
+    <t>154.80/361</t>
+  </si>
+  <si>
+    <t>17.00/93</t>
+  </si>
+  <si>
+    <t>4.89/17</t>
+  </si>
+  <si>
+    <t>209.68/361</t>
+  </si>
+  <si>
+    <t>27.02/47</t>
+  </si>
+  <si>
+    <t>43.70/93</t>
+  </si>
+  <si>
+    <t>9.00/17</t>
+  </si>
+  <si>
+    <t>226.35/360</t>
+  </si>
+  <si>
+    <t>31.96/47</t>
+  </si>
+  <si>
+    <t>18.97/23</t>
+  </si>
+  <si>
+    <t>45.58/92</t>
+  </si>
+  <si>
+    <t>9.89/17</t>
   </si>
 </sst>
 </file>
@@ -2631,7 +2661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2679,14 +2709,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <extLst>
-        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
-          <etc:displayText val="2"/>
-        </ext>
-      </extLst>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3168,7 +3190,7 @@
   <dimension ref="A1:AC1044"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -10879,19 +10901,39 @@
       <c r="K115" s="6">
         <v>42.88</v>
       </c>
-      <c r="L115" s="18" t="s">
+      <c r="L115" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
+      <c r="M115" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="V115" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="116" ht="16" spans="1:22">
       <c r="A116" s="3" t="s">
@@ -10927,19 +10969,39 @@
       <c r="K116" s="6">
         <v>58.08</v>
       </c>
-      <c r="L116" s="18" t="s">
-        <v>634</v>
-      </c>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
-      <c r="U116" s="3"/>
-      <c r="V116" s="3"/>
+      <c r="L116" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T116" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U116" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="V116" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="117" ht="16" spans="1:22">
       <c r="A117" s="3" t="s">
@@ -10972,4653 +11034,4677 @@
       <c r="J117" s="17">
         <v>45961</v>
       </c>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
-      <c r="U117" s="3"/>
-      <c r="V117" s="3"/>
+      <c r="K117" s="6">
+        <v>62.88</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q117" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T117" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="V117" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="118" ht="15.2" spans="7:11">
       <c r="G118" s="15"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="20"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="19"/>
     </row>
     <row r="119" ht="15.2" spans="7:11">
       <c r="G119" s="15"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="20"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="19"/>
     </row>
     <row r="120" ht="15.2" spans="7:11">
       <c r="G120" s="15"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="20"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="19"/>
     </row>
     <row r="121" ht="15.2" spans="7:11">
       <c r="G121" s="15"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="20"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="19"/>
     </row>
     <row r="122" ht="15.2" spans="7:11">
       <c r="G122" s="15"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="20"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="19"/>
     </row>
     <row r="123" ht="15.2" spans="7:11">
       <c r="G123" s="15"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="20"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="19"/>
     </row>
     <row r="124" ht="15.2" spans="7:11">
       <c r="G124" s="15"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="20"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="19"/>
     </row>
     <row r="125" ht="15.2" spans="7:11">
       <c r="G125" s="15"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="20"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="19"/>
     </row>
     <row r="126" ht="15.2" spans="7:11">
       <c r="G126" s="15"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="20"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="19"/>
     </row>
     <row r="127" ht="15.2" spans="7:11">
       <c r="G127" s="15"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="20"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="19"/>
     </row>
     <row r="128" ht="15.2" spans="7:11">
       <c r="G128" s="15"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="20"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="19"/>
     </row>
     <row r="129" ht="15.2" spans="7:11">
       <c r="G129" s="15"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="20"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="19"/>
     </row>
     <row r="130" ht="15.2" spans="7:11">
       <c r="G130" s="15"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="20"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="19"/>
     </row>
     <row r="131" ht="15.2" spans="7:11">
       <c r="G131" s="15"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="20"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="19"/>
     </row>
     <row r="132" ht="15.2" spans="7:11">
       <c r="G132" s="15"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="20"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="19"/>
     </row>
     <row r="133" ht="15.2" spans="7:11">
       <c r="G133" s="15"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="20"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="19"/>
     </row>
     <row r="134" ht="15.2" spans="7:11">
       <c r="G134" s="15"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="20"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="19"/>
     </row>
     <row r="135" ht="15.2" spans="7:11">
       <c r="G135" s="15"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="20"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="19"/>
     </row>
     <row r="136" ht="15.2" spans="7:11">
       <c r="G136" s="15"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="20"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="19"/>
     </row>
     <row r="137" ht="15.2" spans="7:11">
       <c r="G137" s="15"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="20"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="19"/>
     </row>
     <row r="138" ht="15.2" spans="7:11">
       <c r="G138" s="15"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="20"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="19"/>
     </row>
     <row r="139" ht="15.2" spans="7:11">
       <c r="G139" s="15"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="20"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="19"/>
     </row>
     <row r="140" ht="15.2" spans="7:11">
       <c r="G140" s="15"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="20"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="19"/>
     </row>
     <row r="141" ht="15.2" spans="7:11">
       <c r="G141" s="15"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="20"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="19"/>
     </row>
     <row r="142" ht="15.2" spans="7:11">
       <c r="G142" s="15"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="20"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="19"/>
     </row>
     <row r="143" ht="15.2" spans="7:11">
       <c r="G143" s="15"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="20"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="19"/>
     </row>
     <row r="144" ht="15.2" spans="7:11">
       <c r="G144" s="15"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="20"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="19"/>
     </row>
     <row r="145" ht="15.2" spans="7:11">
       <c r="G145" s="15"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="20"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="19"/>
     </row>
     <row r="146" ht="15.2" spans="7:11">
       <c r="G146" s="15"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="20"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="19"/>
     </row>
     <row r="147" ht="15.2" spans="7:11">
       <c r="G147" s="15"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="20"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="19"/>
     </row>
     <row r="148" ht="15.2" spans="7:11">
       <c r="G148" s="15"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="20"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="19"/>
     </row>
     <row r="149" ht="15.2" spans="7:11">
       <c r="G149" s="15"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="20"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="19"/>
     </row>
     <row r="150" ht="15.2" spans="7:11">
       <c r="G150" s="15"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="20"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="19"/>
     </row>
     <row r="151" ht="15.2" spans="7:11">
       <c r="G151" s="15"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="20"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="19"/>
     </row>
     <row r="152" ht="15.2" spans="7:11">
       <c r="G152" s="15"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="20"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="19"/>
     </row>
     <row r="153" ht="15.2" spans="7:11">
       <c r="G153" s="15"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="20"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="19"/>
     </row>
     <row r="154" ht="15.2" spans="7:11">
       <c r="G154" s="15"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="20"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="19"/>
     </row>
     <row r="155" ht="15.2" spans="7:11">
       <c r="G155" s="15"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="20"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="19"/>
     </row>
     <row r="156" ht="15.2" spans="7:11">
       <c r="G156" s="15"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="20"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="19"/>
     </row>
     <row r="157" ht="15.2" spans="7:11">
       <c r="G157" s="15"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="20"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="19"/>
     </row>
     <row r="158" ht="15.2" spans="7:11">
       <c r="G158" s="15"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="20"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="19"/>
     </row>
     <row r="159" ht="15.2" spans="7:11">
       <c r="G159" s="15"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="20"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="19"/>
     </row>
     <row r="160" ht="15.2" spans="7:11">
       <c r="G160" s="15"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="20"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="19"/>
     </row>
     <row r="161" ht="15.2" spans="7:11">
       <c r="G161" s="15"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="20"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="19"/>
     </row>
     <row r="162" ht="15.2" spans="7:11">
       <c r="G162" s="15"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="20"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="19"/>
     </row>
     <row r="163" ht="15.2" spans="7:11">
       <c r="G163" s="15"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="20"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="19"/>
     </row>
     <row r="164" ht="15.2" spans="7:11">
       <c r="G164" s="15"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="20"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="19"/>
     </row>
     <row r="165" ht="15.2" spans="7:11">
       <c r="G165" s="15"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="20"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="19"/>
     </row>
     <row r="166" ht="15.2" spans="7:11">
       <c r="G166" s="15"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="20"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="19"/>
     </row>
     <row r="167" ht="15.2" spans="7:11">
       <c r="G167" s="15"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="20"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="19"/>
     </row>
     <row r="168" ht="15.2" spans="7:11">
       <c r="G168" s="15"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="20"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="19"/>
     </row>
     <row r="169" ht="15.2" spans="7:11">
       <c r="G169" s="15"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="20"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="19"/>
     </row>
     <row r="170" ht="15.2" spans="7:11">
       <c r="G170" s="15"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="20"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="19"/>
     </row>
     <row r="171" ht="15.2" spans="7:11">
       <c r="G171" s="15"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="20"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="19"/>
     </row>
     <row r="172" ht="15.2" spans="7:11">
       <c r="G172" s="15"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="20"/>
+      <c r="J172" s="18"/>
+      <c r="K172" s="19"/>
     </row>
     <row r="173" ht="15.2" spans="7:11">
       <c r="G173" s="15"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="20"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="19"/>
     </row>
     <row r="174" ht="15.2" spans="7:11">
       <c r="G174" s="15"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="20"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="19"/>
     </row>
     <row r="175" ht="15.2" spans="7:11">
       <c r="G175" s="15"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="20"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="19"/>
     </row>
     <row r="176" ht="15.2" spans="7:11">
       <c r="G176" s="15"/>
-      <c r="J176" s="19"/>
-      <c r="K176" s="20"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="19"/>
     </row>
     <row r="177" ht="15.2" spans="7:11">
       <c r="G177" s="15"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="20"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="19"/>
     </row>
     <row r="178" ht="15.2" spans="7:11">
       <c r="G178" s="15"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="20"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="19"/>
     </row>
     <row r="179" ht="15.2" spans="7:11">
       <c r="G179" s="15"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="20"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="19"/>
     </row>
     <row r="180" ht="15.2" spans="7:11">
       <c r="G180" s="15"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="20"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="19"/>
     </row>
     <row r="181" ht="15.2" spans="7:11">
       <c r="G181" s="15"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="20"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="19"/>
     </row>
     <row r="182" ht="15.2" spans="7:11">
       <c r="G182" s="15"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="20"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="19"/>
     </row>
     <row r="183" ht="15.2" spans="7:11">
       <c r="G183" s="15"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="20"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="19"/>
     </row>
     <row r="184" ht="15.2" spans="7:11">
       <c r="G184" s="15"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="20"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="19"/>
     </row>
     <row r="185" ht="15.2" spans="7:11">
       <c r="G185" s="15"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="20"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="19"/>
     </row>
     <row r="186" ht="15.2" spans="7:11">
       <c r="G186" s="15"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="20"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="19"/>
     </row>
     <row r="187" ht="15.2" spans="7:11">
       <c r="G187" s="15"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="20"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="19"/>
     </row>
     <row r="188" ht="15.2" spans="7:11">
       <c r="G188" s="15"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="20"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="19"/>
     </row>
     <row r="189" ht="15.2" spans="7:11">
       <c r="G189" s="15"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="20"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="19"/>
     </row>
     <row r="190" ht="15.2" spans="7:11">
       <c r="G190" s="15"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="20"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="19"/>
     </row>
     <row r="191" ht="15.2" spans="7:11">
       <c r="G191" s="15"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="20"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="19"/>
     </row>
     <row r="192" ht="15.2" spans="7:11">
       <c r="G192" s="15"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="20"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="19"/>
     </row>
     <row r="193" ht="15.2" spans="7:11">
       <c r="G193" s="15"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="20"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="19"/>
     </row>
     <row r="194" ht="15.2" spans="7:11">
       <c r="G194" s="15"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="20"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="19"/>
     </row>
     <row r="195" ht="15.2" spans="7:11">
       <c r="G195" s="15"/>
-      <c r="J195" s="19"/>
-      <c r="K195" s="20"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="19"/>
     </row>
     <row r="196" ht="15.2" spans="7:11">
       <c r="G196" s="15"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="20"/>
+      <c r="J196" s="18"/>
+      <c r="K196" s="19"/>
     </row>
     <row r="197" ht="15.2" spans="7:11">
       <c r="G197" s="15"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="20"/>
+      <c r="J197" s="18"/>
+      <c r="K197" s="19"/>
     </row>
     <row r="198" ht="15.2" spans="7:11">
       <c r="G198" s="15"/>
-      <c r="J198" s="19"/>
-      <c r="K198" s="20"/>
+      <c r="J198" s="18"/>
+      <c r="K198" s="19"/>
     </row>
     <row r="199" ht="15.2" spans="7:11">
       <c r="G199" s="15"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="20"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="19"/>
     </row>
     <row r="200" ht="15.2" spans="7:11">
       <c r="G200" s="15"/>
-      <c r="J200" s="19"/>
-      <c r="K200" s="20"/>
+      <c r="J200" s="18"/>
+      <c r="K200" s="19"/>
     </row>
     <row r="201" ht="15.2" spans="7:11">
       <c r="G201" s="15"/>
-      <c r="J201" s="19"/>
-      <c r="K201" s="20"/>
+      <c r="J201" s="18"/>
+      <c r="K201" s="19"/>
     </row>
     <row r="202" ht="15.2" spans="7:11">
       <c r="G202" s="15"/>
-      <c r="J202" s="19"/>
-      <c r="K202" s="20"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="19"/>
     </row>
     <row r="203" ht="15.2" spans="7:11">
       <c r="G203" s="15"/>
-      <c r="J203" s="19"/>
-      <c r="K203" s="20"/>
+      <c r="J203" s="18"/>
+      <c r="K203" s="19"/>
     </row>
     <row r="204" ht="15.2" spans="7:11">
       <c r="G204" s="15"/>
-      <c r="J204" s="19"/>
-      <c r="K204" s="20"/>
+      <c r="J204" s="18"/>
+      <c r="K204" s="19"/>
     </row>
     <row r="205" ht="15.2" spans="7:11">
       <c r="G205" s="15"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="20"/>
+      <c r="J205" s="18"/>
+      <c r="K205" s="19"/>
     </row>
     <row r="206" ht="15.2" spans="7:11">
       <c r="G206" s="15"/>
-      <c r="J206" s="19"/>
-      <c r="K206" s="20"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="19"/>
     </row>
     <row r="207" ht="15.2" spans="7:11">
       <c r="G207" s="15"/>
-      <c r="J207" s="19"/>
-      <c r="K207" s="20"/>
+      <c r="J207" s="18"/>
+      <c r="K207" s="19"/>
     </row>
     <row r="208" ht="15.2" spans="7:11">
       <c r="G208" s="15"/>
-      <c r="J208" s="19"/>
-      <c r="K208" s="20"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="19"/>
     </row>
     <row r="209" ht="15.2" spans="7:11">
       <c r="G209" s="15"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="20"/>
+      <c r="J209" s="18"/>
+      <c r="K209" s="19"/>
     </row>
     <row r="210" ht="15.2" spans="7:11">
       <c r="G210" s="15"/>
-      <c r="J210" s="19"/>
-      <c r="K210" s="20"/>
+      <c r="J210" s="18"/>
+      <c r="K210" s="19"/>
     </row>
     <row r="211" ht="15.2" spans="7:11">
       <c r="G211" s="15"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="20"/>
+      <c r="J211" s="18"/>
+      <c r="K211" s="19"/>
     </row>
     <row r="212" ht="15.2" spans="7:11">
       <c r="G212" s="15"/>
-      <c r="J212" s="19"/>
-      <c r="K212" s="20"/>
+      <c r="J212" s="18"/>
+      <c r="K212" s="19"/>
     </row>
     <row r="213" ht="15.2" spans="7:11">
       <c r="G213" s="15"/>
-      <c r="J213" s="19"/>
-      <c r="K213" s="20"/>
+      <c r="J213" s="18"/>
+      <c r="K213" s="19"/>
     </row>
     <row r="214" ht="15.2" spans="7:11">
       <c r="G214" s="15"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="20"/>
+      <c r="J214" s="18"/>
+      <c r="K214" s="19"/>
     </row>
     <row r="215" ht="15.2" spans="7:11">
       <c r="G215" s="15"/>
-      <c r="J215" s="19"/>
-      <c r="K215" s="20"/>
+      <c r="J215" s="18"/>
+      <c r="K215" s="19"/>
     </row>
     <row r="216" ht="15.2" spans="7:11">
       <c r="G216" s="15"/>
-      <c r="J216" s="19"/>
-      <c r="K216" s="20"/>
+      <c r="J216" s="18"/>
+      <c r="K216" s="19"/>
     </row>
     <row r="217" ht="15.2" spans="7:11">
       <c r="G217" s="15"/>
-      <c r="J217" s="19"/>
-      <c r="K217" s="20"/>
+      <c r="J217" s="18"/>
+      <c r="K217" s="19"/>
     </row>
     <row r="218" ht="15.2" spans="7:11">
       <c r="G218" s="15"/>
-      <c r="J218" s="19"/>
-      <c r="K218" s="20"/>
+      <c r="J218" s="18"/>
+      <c r="K218" s="19"/>
     </row>
     <row r="219" ht="15.2" spans="7:11">
       <c r="G219" s="15"/>
-      <c r="J219" s="19"/>
-      <c r="K219" s="20"/>
+      <c r="J219" s="18"/>
+      <c r="K219" s="19"/>
     </row>
     <row r="220" ht="15.2" spans="7:11">
       <c r="G220" s="15"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="20"/>
+      <c r="J220" s="18"/>
+      <c r="K220" s="19"/>
     </row>
     <row r="221" ht="15.2" spans="7:11">
       <c r="G221" s="15"/>
-      <c r="J221" s="19"/>
-      <c r="K221" s="20"/>
+      <c r="J221" s="18"/>
+      <c r="K221" s="19"/>
     </row>
     <row r="222" ht="15.2" spans="7:11">
       <c r="G222" s="15"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="20"/>
+      <c r="J222" s="18"/>
+      <c r="K222" s="19"/>
     </row>
     <row r="223" ht="15.2" spans="7:11">
       <c r="G223" s="15"/>
-      <c r="J223" s="19"/>
-      <c r="K223" s="20"/>
+      <c r="J223" s="18"/>
+      <c r="K223" s="19"/>
     </row>
     <row r="224" ht="15.2" spans="7:11">
       <c r="G224" s="15"/>
-      <c r="J224" s="19"/>
-      <c r="K224" s="20"/>
+      <c r="J224" s="18"/>
+      <c r="K224" s="19"/>
     </row>
     <row r="225" ht="15.2" spans="7:11">
       <c r="G225" s="15"/>
-      <c r="J225" s="19"/>
-      <c r="K225" s="20"/>
+      <c r="J225" s="18"/>
+      <c r="K225" s="19"/>
     </row>
     <row r="226" ht="15.2" spans="7:11">
       <c r="G226" s="15"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="20"/>
+      <c r="J226" s="18"/>
+      <c r="K226" s="19"/>
     </row>
     <row r="227" ht="15.2" spans="7:11">
       <c r="G227" s="15"/>
-      <c r="J227" s="19"/>
-      <c r="K227" s="20"/>
+      <c r="J227" s="18"/>
+      <c r="K227" s="19"/>
     </row>
     <row r="228" ht="15.2" spans="7:11">
       <c r="G228" s="15"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="20"/>
+      <c r="J228" s="18"/>
+      <c r="K228" s="19"/>
     </row>
     <row r="229" ht="15.2" spans="7:11">
       <c r="G229" s="15"/>
-      <c r="J229" s="19"/>
-      <c r="K229" s="20"/>
+      <c r="J229" s="18"/>
+      <c r="K229" s="19"/>
     </row>
     <row r="230" ht="15.2" spans="7:11">
       <c r="G230" s="15"/>
-      <c r="J230" s="19"/>
-      <c r="K230" s="20"/>
+      <c r="J230" s="18"/>
+      <c r="K230" s="19"/>
     </row>
     <row r="231" ht="15.2" spans="7:11">
       <c r="G231" s="15"/>
-      <c r="J231" s="19"/>
-      <c r="K231" s="20"/>
+      <c r="J231" s="18"/>
+      <c r="K231" s="19"/>
     </row>
     <row r="232" ht="15.2" spans="7:11">
       <c r="G232" s="15"/>
-      <c r="J232" s="19"/>
-      <c r="K232" s="20"/>
+      <c r="J232" s="18"/>
+      <c r="K232" s="19"/>
     </row>
     <row r="233" ht="15.2" spans="7:11">
       <c r="G233" s="15"/>
-      <c r="J233" s="19"/>
-      <c r="K233" s="20"/>
+      <c r="J233" s="18"/>
+      <c r="K233" s="19"/>
     </row>
     <row r="234" ht="15.2" spans="7:11">
       <c r="G234" s="15"/>
-      <c r="J234" s="19"/>
-      <c r="K234" s="20"/>
+      <c r="J234" s="18"/>
+      <c r="K234" s="19"/>
     </row>
     <row r="235" ht="15.2" spans="7:11">
       <c r="G235" s="15"/>
-      <c r="J235" s="19"/>
-      <c r="K235" s="20"/>
+      <c r="J235" s="18"/>
+      <c r="K235" s="19"/>
     </row>
     <row r="236" ht="15.2" spans="7:11">
       <c r="G236" s="15"/>
-      <c r="J236" s="19"/>
-      <c r="K236" s="20"/>
+      <c r="J236" s="18"/>
+      <c r="K236" s="19"/>
     </row>
     <row r="237" ht="15.2" spans="7:11">
       <c r="G237" s="15"/>
-      <c r="J237" s="19"/>
-      <c r="K237" s="20"/>
+      <c r="J237" s="18"/>
+      <c r="K237" s="19"/>
     </row>
     <row r="238" ht="15.2" spans="7:11">
       <c r="G238" s="15"/>
-      <c r="J238" s="19"/>
-      <c r="K238" s="20"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="19"/>
     </row>
     <row r="239" ht="15.2" spans="7:11">
       <c r="G239" s="15"/>
-      <c r="J239" s="19"/>
-      <c r="K239" s="20"/>
+      <c r="J239" s="18"/>
+      <c r="K239" s="19"/>
     </row>
     <row r="240" ht="15.2" spans="7:11">
       <c r="G240" s="15"/>
-      <c r="J240" s="19"/>
-      <c r="K240" s="20"/>
+      <c r="J240" s="18"/>
+      <c r="K240" s="19"/>
     </row>
     <row r="241" ht="15.2" spans="7:11">
       <c r="G241" s="15"/>
-      <c r="J241" s="19"/>
-      <c r="K241" s="20"/>
+      <c r="J241" s="18"/>
+      <c r="K241" s="19"/>
     </row>
     <row r="242" ht="15.2" spans="7:11">
       <c r="G242" s="15"/>
-      <c r="J242" s="19"/>
-      <c r="K242" s="20"/>
+      <c r="J242" s="18"/>
+      <c r="K242" s="19"/>
     </row>
     <row r="243" ht="15.2" spans="7:11">
       <c r="G243" s="15"/>
-      <c r="J243" s="19"/>
-      <c r="K243" s="20"/>
+      <c r="J243" s="18"/>
+      <c r="K243" s="19"/>
     </row>
     <row r="244" ht="15.2" spans="7:11">
       <c r="G244" s="15"/>
-      <c r="J244" s="19"/>
-      <c r="K244" s="20"/>
+      <c r="J244" s="18"/>
+      <c r="K244" s="19"/>
     </row>
     <row r="245" ht="15.2" spans="7:11">
       <c r="G245" s="15"/>
-      <c r="J245" s="19"/>
-      <c r="K245" s="20"/>
+      <c r="J245" s="18"/>
+      <c r="K245" s="19"/>
     </row>
     <row r="246" ht="15.2" spans="7:11">
       <c r="G246" s="15"/>
-      <c r="J246" s="19"/>
-      <c r="K246" s="20"/>
+      <c r="J246" s="18"/>
+      <c r="K246" s="19"/>
     </row>
     <row r="247" ht="15.2" spans="7:11">
       <c r="G247" s="15"/>
-      <c r="J247" s="19"/>
-      <c r="K247" s="20"/>
+      <c r="J247" s="18"/>
+      <c r="K247" s="19"/>
     </row>
     <row r="248" ht="15.2" spans="7:11">
       <c r="G248" s="15"/>
-      <c r="J248" s="19"/>
-      <c r="K248" s="20"/>
+      <c r="J248" s="18"/>
+      <c r="K248" s="19"/>
     </row>
     <row r="249" ht="15.2" spans="7:11">
       <c r="G249" s="15"/>
-      <c r="J249" s="19"/>
-      <c r="K249" s="20"/>
+      <c r="J249" s="18"/>
+      <c r="K249" s="19"/>
     </row>
     <row r="250" ht="15.2" spans="7:11">
       <c r="G250" s="15"/>
-      <c r="J250" s="19"/>
-      <c r="K250" s="20"/>
+      <c r="J250" s="18"/>
+      <c r="K250" s="19"/>
     </row>
     <row r="251" ht="15.2" spans="7:11">
       <c r="G251" s="15"/>
-      <c r="J251" s="19"/>
-      <c r="K251" s="20"/>
+      <c r="J251" s="18"/>
+      <c r="K251" s="19"/>
     </row>
     <row r="252" ht="15.2" spans="7:11">
       <c r="G252" s="15"/>
-      <c r="J252" s="19"/>
-      <c r="K252" s="20"/>
+      <c r="J252" s="18"/>
+      <c r="K252" s="19"/>
     </row>
     <row r="253" ht="15.2" spans="7:11">
       <c r="G253" s="15"/>
-      <c r="J253" s="19"/>
-      <c r="K253" s="20"/>
+      <c r="J253" s="18"/>
+      <c r="K253" s="19"/>
     </row>
     <row r="254" ht="15.2" spans="7:11">
       <c r="G254" s="15"/>
-      <c r="J254" s="19"/>
-      <c r="K254" s="20"/>
+      <c r="J254" s="18"/>
+      <c r="K254" s="19"/>
     </row>
     <row r="255" ht="15.2" spans="7:11">
       <c r="G255" s="15"/>
-      <c r="J255" s="19"/>
-      <c r="K255" s="20"/>
+      <c r="J255" s="18"/>
+      <c r="K255" s="19"/>
     </row>
     <row r="256" ht="15.2" spans="7:11">
       <c r="G256" s="15"/>
-      <c r="J256" s="19"/>
-      <c r="K256" s="20"/>
+      <c r="J256" s="18"/>
+      <c r="K256" s="19"/>
     </row>
     <row r="257" ht="15.2" spans="7:11">
       <c r="G257" s="15"/>
-      <c r="J257" s="19"/>
-      <c r="K257" s="20"/>
+      <c r="J257" s="18"/>
+      <c r="K257" s="19"/>
     </row>
     <row r="258" ht="15.2" spans="7:11">
       <c r="G258" s="15"/>
-      <c r="J258" s="19"/>
-      <c r="K258" s="20"/>
+      <c r="J258" s="18"/>
+      <c r="K258" s="19"/>
     </row>
     <row r="259" ht="15.2" spans="7:11">
       <c r="G259" s="15"/>
-      <c r="J259" s="19"/>
-      <c r="K259" s="20"/>
+      <c r="J259" s="18"/>
+      <c r="K259" s="19"/>
     </row>
     <row r="260" ht="15.2" spans="7:11">
       <c r="G260" s="15"/>
-      <c r="J260" s="19"/>
-      <c r="K260" s="20"/>
+      <c r="J260" s="18"/>
+      <c r="K260" s="19"/>
     </row>
     <row r="261" ht="15.2" spans="7:11">
       <c r="G261" s="15"/>
-      <c r="J261" s="19"/>
-      <c r="K261" s="20"/>
+      <c r="J261" s="18"/>
+      <c r="K261" s="19"/>
     </row>
     <row r="262" ht="15.2" spans="7:11">
       <c r="G262" s="15"/>
-      <c r="J262" s="19"/>
-      <c r="K262" s="20"/>
+      <c r="J262" s="18"/>
+      <c r="K262" s="19"/>
     </row>
     <row r="263" ht="15.2" spans="7:11">
       <c r="G263" s="15"/>
-      <c r="J263" s="19"/>
-      <c r="K263" s="20"/>
+      <c r="J263" s="18"/>
+      <c r="K263" s="19"/>
     </row>
     <row r="264" ht="15.2" spans="7:11">
       <c r="G264" s="15"/>
-      <c r="J264" s="19"/>
-      <c r="K264" s="20"/>
+      <c r="J264" s="18"/>
+      <c r="K264" s="19"/>
     </row>
     <row r="265" ht="15.2" spans="7:11">
       <c r="G265" s="15"/>
-      <c r="J265" s="19"/>
-      <c r="K265" s="20"/>
+      <c r="J265" s="18"/>
+      <c r="K265" s="19"/>
     </row>
     <row r="266" ht="15.2" spans="7:11">
       <c r="G266" s="15"/>
-      <c r="J266" s="19"/>
-      <c r="K266" s="20"/>
+      <c r="J266" s="18"/>
+      <c r="K266" s="19"/>
     </row>
     <row r="267" ht="15.2" spans="7:11">
       <c r="G267" s="15"/>
-      <c r="J267" s="19"/>
-      <c r="K267" s="20"/>
+      <c r="J267" s="18"/>
+      <c r="K267" s="19"/>
     </row>
     <row r="268" ht="15.2" spans="7:11">
       <c r="G268" s="15"/>
-      <c r="J268" s="19"/>
-      <c r="K268" s="20"/>
+      <c r="J268" s="18"/>
+      <c r="K268" s="19"/>
     </row>
     <row r="269" ht="15.2" spans="7:11">
       <c r="G269" s="15"/>
-      <c r="J269" s="19"/>
-      <c r="K269" s="20"/>
+      <c r="J269" s="18"/>
+      <c r="K269" s="19"/>
     </row>
     <row r="270" ht="15.2" spans="7:11">
       <c r="G270" s="15"/>
-      <c r="J270" s="19"/>
-      <c r="K270" s="20"/>
+      <c r="J270" s="18"/>
+      <c r="K270" s="19"/>
     </row>
     <row r="271" ht="15.2" spans="7:11">
       <c r="G271" s="15"/>
-      <c r="J271" s="19"/>
-      <c r="K271" s="20"/>
+      <c r="J271" s="18"/>
+      <c r="K271" s="19"/>
     </row>
     <row r="272" ht="15.2" spans="7:11">
       <c r="G272" s="15"/>
-      <c r="J272" s="19"/>
-      <c r="K272" s="20"/>
+      <c r="J272" s="18"/>
+      <c r="K272" s="19"/>
     </row>
     <row r="273" ht="15.2" spans="7:11">
       <c r="G273" s="15"/>
-      <c r="J273" s="19"/>
-      <c r="K273" s="20"/>
+      <c r="J273" s="18"/>
+      <c r="K273" s="19"/>
     </row>
     <row r="274" ht="15.2" spans="7:11">
       <c r="G274" s="15"/>
-      <c r="J274" s="19"/>
-      <c r="K274" s="20"/>
+      <c r="J274" s="18"/>
+      <c r="K274" s="19"/>
     </row>
     <row r="275" ht="15.2" spans="7:11">
       <c r="G275" s="15"/>
-      <c r="J275" s="19"/>
-      <c r="K275" s="20"/>
+      <c r="J275" s="18"/>
+      <c r="K275" s="19"/>
     </row>
     <row r="276" ht="15.2" spans="7:11">
       <c r="G276" s="15"/>
-      <c r="J276" s="19"/>
-      <c r="K276" s="20"/>
+      <c r="J276" s="18"/>
+      <c r="K276" s="19"/>
     </row>
     <row r="277" ht="15.2" spans="7:11">
       <c r="G277" s="15"/>
-      <c r="J277" s="19"/>
-      <c r="K277" s="20"/>
+      <c r="J277" s="18"/>
+      <c r="K277" s="19"/>
     </row>
     <row r="278" ht="15.2" spans="7:11">
       <c r="G278" s="15"/>
-      <c r="J278" s="19"/>
-      <c r="K278" s="20"/>
+      <c r="J278" s="18"/>
+      <c r="K278" s="19"/>
     </row>
     <row r="279" ht="15.2" spans="7:11">
       <c r="G279" s="15"/>
-      <c r="J279" s="19"/>
-      <c r="K279" s="20"/>
+      <c r="J279" s="18"/>
+      <c r="K279" s="19"/>
     </row>
     <row r="280" ht="15.2" spans="7:11">
       <c r="G280" s="15"/>
-      <c r="J280" s="19"/>
-      <c r="K280" s="20"/>
+      <c r="J280" s="18"/>
+      <c r="K280" s="19"/>
     </row>
     <row r="281" ht="15.2" spans="7:11">
       <c r="G281" s="15"/>
-      <c r="J281" s="19"/>
-      <c r="K281" s="20"/>
+      <c r="J281" s="18"/>
+      <c r="K281" s="19"/>
     </row>
     <row r="282" ht="15.2" spans="7:11">
       <c r="G282" s="15"/>
-      <c r="J282" s="19"/>
-      <c r="K282" s="20"/>
+      <c r="J282" s="18"/>
+      <c r="K282" s="19"/>
     </row>
     <row r="283" ht="15.2" spans="7:11">
       <c r="G283" s="15"/>
-      <c r="J283" s="19"/>
-      <c r="K283" s="20"/>
+      <c r="J283" s="18"/>
+      <c r="K283" s="19"/>
     </row>
     <row r="284" ht="15.2" spans="7:11">
       <c r="G284" s="15"/>
-      <c r="J284" s="19"/>
-      <c r="K284" s="20"/>
+      <c r="J284" s="18"/>
+      <c r="K284" s="19"/>
     </row>
     <row r="285" ht="15.2" spans="7:11">
       <c r="G285" s="15"/>
-      <c r="J285" s="19"/>
-      <c r="K285" s="20"/>
+      <c r="J285" s="18"/>
+      <c r="K285" s="19"/>
     </row>
     <row r="286" ht="15.2" spans="7:11">
       <c r="G286" s="15"/>
-      <c r="J286" s="19"/>
-      <c r="K286" s="20"/>
+      <c r="J286" s="18"/>
+      <c r="K286" s="19"/>
     </row>
     <row r="287" ht="15.2" spans="7:11">
       <c r="G287" s="15"/>
-      <c r="J287" s="19"/>
-      <c r="K287" s="20"/>
+      <c r="J287" s="18"/>
+      <c r="K287" s="19"/>
     </row>
     <row r="288" ht="15.2" spans="7:11">
       <c r="G288" s="15"/>
-      <c r="J288" s="19"/>
-      <c r="K288" s="20"/>
+      <c r="J288" s="18"/>
+      <c r="K288" s="19"/>
     </row>
     <row r="289" ht="15.2" spans="7:11">
       <c r="G289" s="15"/>
-      <c r="J289" s="19"/>
-      <c r="K289" s="20"/>
+      <c r="J289" s="18"/>
+      <c r="K289" s="19"/>
     </row>
     <row r="290" ht="15.2" spans="7:11">
       <c r="G290" s="15"/>
-      <c r="J290" s="19"/>
-      <c r="K290" s="20"/>
+      <c r="J290" s="18"/>
+      <c r="K290" s="19"/>
     </row>
     <row r="291" ht="15.2" spans="7:11">
       <c r="G291" s="15"/>
-      <c r="J291" s="19"/>
-      <c r="K291" s="20"/>
+      <c r="J291" s="18"/>
+      <c r="K291" s="19"/>
     </row>
     <row r="292" ht="15.2" spans="7:11">
       <c r="G292" s="15"/>
-      <c r="J292" s="19"/>
-      <c r="K292" s="20"/>
+      <c r="J292" s="18"/>
+      <c r="K292" s="19"/>
     </row>
     <row r="293" ht="15.2" spans="7:11">
       <c r="G293" s="15"/>
-      <c r="J293" s="19"/>
-      <c r="K293" s="20"/>
+      <c r="J293" s="18"/>
+      <c r="K293" s="19"/>
     </row>
     <row r="294" ht="15.2" spans="7:11">
       <c r="G294" s="15"/>
-      <c r="J294" s="19"/>
-      <c r="K294" s="20"/>
+      <c r="J294" s="18"/>
+      <c r="K294" s="19"/>
     </row>
     <row r="295" ht="15.2" spans="7:11">
       <c r="G295" s="15"/>
-      <c r="J295" s="19"/>
-      <c r="K295" s="20"/>
+      <c r="J295" s="18"/>
+      <c r="K295" s="19"/>
     </row>
     <row r="296" ht="15.2" spans="7:11">
       <c r="G296" s="15"/>
-      <c r="J296" s="19"/>
-      <c r="K296" s="20"/>
+      <c r="J296" s="18"/>
+      <c r="K296" s="19"/>
     </row>
     <row r="297" ht="15.2" spans="7:11">
       <c r="G297" s="15"/>
-      <c r="J297" s="19"/>
-      <c r="K297" s="20"/>
+      <c r="J297" s="18"/>
+      <c r="K297" s="19"/>
     </row>
     <row r="298" ht="15.2" spans="7:11">
       <c r="G298" s="15"/>
-      <c r="J298" s="19"/>
-      <c r="K298" s="20"/>
+      <c r="J298" s="18"/>
+      <c r="K298" s="19"/>
     </row>
     <row r="299" ht="15.2" spans="7:11">
       <c r="G299" s="15"/>
-      <c r="J299" s="19"/>
-      <c r="K299" s="20"/>
+      <c r="J299" s="18"/>
+      <c r="K299" s="19"/>
     </row>
     <row r="300" ht="15.2" spans="7:11">
       <c r="G300" s="15"/>
-      <c r="J300" s="19"/>
-      <c r="K300" s="20"/>
+      <c r="J300" s="18"/>
+      <c r="K300" s="19"/>
     </row>
     <row r="301" ht="15.2" spans="7:11">
       <c r="G301" s="15"/>
-      <c r="J301" s="19"/>
-      <c r="K301" s="20"/>
+      <c r="J301" s="18"/>
+      <c r="K301" s="19"/>
     </row>
     <row r="302" ht="15.2" spans="7:11">
       <c r="G302" s="15"/>
-      <c r="J302" s="19"/>
-      <c r="K302" s="20"/>
+      <c r="J302" s="18"/>
+      <c r="K302" s="19"/>
     </row>
     <row r="303" ht="15.2" spans="7:11">
       <c r="G303" s="15"/>
-      <c r="J303" s="19"/>
-      <c r="K303" s="20"/>
+      <c r="J303" s="18"/>
+      <c r="K303" s="19"/>
     </row>
     <row r="304" ht="15.2" spans="7:11">
       <c r="G304" s="15"/>
-      <c r="J304" s="19"/>
-      <c r="K304" s="20"/>
+      <c r="J304" s="18"/>
+      <c r="K304" s="19"/>
     </row>
     <row r="305" ht="15.2" spans="7:11">
       <c r="G305" s="15"/>
-      <c r="J305" s="19"/>
-      <c r="K305" s="20"/>
+      <c r="J305" s="18"/>
+      <c r="K305" s="19"/>
     </row>
     <row r="306" ht="15.2" spans="7:11">
       <c r="G306" s="15"/>
-      <c r="J306" s="19"/>
-      <c r="K306" s="20"/>
+      <c r="J306" s="18"/>
+      <c r="K306" s="19"/>
     </row>
     <row r="307" ht="15.2" spans="7:11">
       <c r="G307" s="15"/>
-      <c r="J307" s="19"/>
-      <c r="K307" s="20"/>
+      <c r="J307" s="18"/>
+      <c r="K307" s="19"/>
     </row>
     <row r="308" ht="15.2" spans="7:11">
       <c r="G308" s="15"/>
-      <c r="J308" s="19"/>
-      <c r="K308" s="20"/>
+      <c r="J308" s="18"/>
+      <c r="K308" s="19"/>
     </row>
     <row r="309" ht="15.2" spans="7:11">
       <c r="G309" s="15"/>
-      <c r="J309" s="19"/>
-      <c r="K309" s="20"/>
+      <c r="J309" s="18"/>
+      <c r="K309" s="19"/>
     </row>
     <row r="310" ht="15.2" spans="7:11">
       <c r="G310" s="15"/>
-      <c r="J310" s="19"/>
-      <c r="K310" s="20"/>
+      <c r="J310" s="18"/>
+      <c r="K310" s="19"/>
     </row>
     <row r="311" ht="15.2" spans="7:11">
       <c r="G311" s="15"/>
-      <c r="J311" s="19"/>
-      <c r="K311" s="20"/>
+      <c r="J311" s="18"/>
+      <c r="K311" s="19"/>
     </row>
     <row r="312" ht="15.2" spans="7:11">
       <c r="G312" s="15"/>
-      <c r="J312" s="19"/>
-      <c r="K312" s="20"/>
+      <c r="J312" s="18"/>
+      <c r="K312" s="19"/>
     </row>
     <row r="313" ht="15.2" spans="7:11">
       <c r="G313" s="15"/>
-      <c r="J313" s="19"/>
-      <c r="K313" s="20"/>
+      <c r="J313" s="18"/>
+      <c r="K313" s="19"/>
     </row>
     <row r="314" ht="15.2" spans="7:11">
       <c r="G314" s="15"/>
-      <c r="J314" s="19"/>
-      <c r="K314" s="20"/>
+      <c r="J314" s="18"/>
+      <c r="K314" s="19"/>
     </row>
     <row r="315" ht="15.2" spans="7:11">
       <c r="G315" s="15"/>
-      <c r="J315" s="19"/>
-      <c r="K315" s="20"/>
+      <c r="J315" s="18"/>
+      <c r="K315" s="19"/>
     </row>
     <row r="316" ht="15.2" spans="7:11">
       <c r="G316" s="15"/>
-      <c r="J316" s="19"/>
-      <c r="K316" s="20"/>
+      <c r="J316" s="18"/>
+      <c r="K316" s="19"/>
     </row>
     <row r="317" ht="15.2" spans="7:11">
       <c r="G317" s="15"/>
-      <c r="J317" s="19"/>
-      <c r="K317" s="20"/>
+      <c r="J317" s="18"/>
+      <c r="K317" s="19"/>
     </row>
     <row r="318" ht="15.2" spans="7:11">
       <c r="G318" s="15"/>
-      <c r="J318" s="19"/>
-      <c r="K318" s="20"/>
+      <c r="J318" s="18"/>
+      <c r="K318" s="19"/>
     </row>
     <row r="319" ht="15.2" spans="7:11">
       <c r="G319" s="15"/>
-      <c r="J319" s="19"/>
-      <c r="K319" s="20"/>
+      <c r="J319" s="18"/>
+      <c r="K319" s="19"/>
     </row>
     <row r="320" ht="15.2" spans="7:11">
       <c r="G320" s="15"/>
-      <c r="J320" s="19"/>
-      <c r="K320" s="20"/>
+      <c r="J320" s="18"/>
+      <c r="K320" s="19"/>
     </row>
     <row r="321" ht="15.2" spans="7:11">
       <c r="G321" s="15"/>
-      <c r="J321" s="19"/>
-      <c r="K321" s="20"/>
+      <c r="J321" s="18"/>
+      <c r="K321" s="19"/>
     </row>
     <row r="322" ht="15.2" spans="7:11">
       <c r="G322" s="15"/>
-      <c r="J322" s="19"/>
-      <c r="K322" s="20"/>
+      <c r="J322" s="18"/>
+      <c r="K322" s="19"/>
     </row>
     <row r="323" ht="15.2" spans="7:11">
       <c r="G323" s="15"/>
-      <c r="J323" s="19"/>
-      <c r="K323" s="20"/>
+      <c r="J323" s="18"/>
+      <c r="K323" s="19"/>
     </row>
     <row r="324" ht="15.2" spans="7:11">
       <c r="G324" s="15"/>
-      <c r="J324" s="19"/>
-      <c r="K324" s="20"/>
+      <c r="J324" s="18"/>
+      <c r="K324" s="19"/>
     </row>
     <row r="325" ht="15.2" spans="7:11">
       <c r="G325" s="15"/>
-      <c r="J325" s="19"/>
-      <c r="K325" s="20"/>
+      <c r="J325" s="18"/>
+      <c r="K325" s="19"/>
     </row>
     <row r="326" ht="15.2" spans="7:11">
       <c r="G326" s="15"/>
-      <c r="J326" s="19"/>
-      <c r="K326" s="20"/>
+      <c r="J326" s="18"/>
+      <c r="K326" s="19"/>
     </row>
     <row r="327" ht="15.2" spans="7:11">
       <c r="G327" s="15"/>
-      <c r="J327" s="19"/>
-      <c r="K327" s="20"/>
+      <c r="J327" s="18"/>
+      <c r="K327" s="19"/>
     </row>
     <row r="328" ht="15.2" spans="7:11">
       <c r="G328" s="15"/>
-      <c r="J328" s="19"/>
-      <c r="K328" s="20"/>
+      <c r="J328" s="18"/>
+      <c r="K328" s="19"/>
     </row>
     <row r="329" ht="15.2" spans="7:11">
       <c r="G329" s="15"/>
-      <c r="J329" s="19"/>
-      <c r="K329" s="20"/>
+      <c r="J329" s="18"/>
+      <c r="K329" s="19"/>
     </row>
     <row r="330" ht="15.2" spans="7:11">
       <c r="G330" s="15"/>
-      <c r="J330" s="19"/>
-      <c r="K330" s="20"/>
+      <c r="J330" s="18"/>
+      <c r="K330" s="19"/>
     </row>
     <row r="331" ht="15.2" spans="7:11">
       <c r="G331" s="15"/>
-      <c r="J331" s="19"/>
-      <c r="K331" s="20"/>
+      <c r="J331" s="18"/>
+      <c r="K331" s="19"/>
     </row>
     <row r="332" ht="15.2" spans="7:11">
       <c r="G332" s="15"/>
-      <c r="J332" s="19"/>
-      <c r="K332" s="20"/>
+      <c r="J332" s="18"/>
+      <c r="K332" s="19"/>
     </row>
     <row r="333" ht="15.2" spans="7:11">
       <c r="G333" s="15"/>
-      <c r="J333" s="19"/>
-      <c r="K333" s="20"/>
+      <c r="J333" s="18"/>
+      <c r="K333" s="19"/>
     </row>
     <row r="334" ht="15.2" spans="7:11">
       <c r="G334" s="15"/>
-      <c r="J334" s="19"/>
-      <c r="K334" s="20"/>
+      <c r="J334" s="18"/>
+      <c r="K334" s="19"/>
     </row>
     <row r="335" ht="15.2" spans="7:11">
       <c r="G335" s="15"/>
-      <c r="J335" s="19"/>
-      <c r="K335" s="20"/>
+      <c r="J335" s="18"/>
+      <c r="K335" s="19"/>
     </row>
     <row r="336" ht="15.2" spans="7:11">
       <c r="G336" s="15"/>
-      <c r="J336" s="19"/>
-      <c r="K336" s="20"/>
+      <c r="J336" s="18"/>
+      <c r="K336" s="19"/>
     </row>
     <row r="337" ht="15.2" spans="7:11">
       <c r="G337" s="15"/>
-      <c r="J337" s="19"/>
-      <c r="K337" s="20"/>
+      <c r="J337" s="18"/>
+      <c r="K337" s="19"/>
     </row>
     <row r="338" ht="15.2" spans="7:11">
       <c r="G338" s="15"/>
-      <c r="J338" s="19"/>
-      <c r="K338" s="20"/>
+      <c r="J338" s="18"/>
+      <c r="K338" s="19"/>
     </row>
     <row r="339" ht="15.2" spans="7:11">
       <c r="G339" s="15"/>
-      <c r="J339" s="19"/>
-      <c r="K339" s="20"/>
+      <c r="J339" s="18"/>
+      <c r="K339" s="19"/>
     </row>
     <row r="340" ht="15.2" spans="7:11">
       <c r="G340" s="15"/>
-      <c r="J340" s="19"/>
-      <c r="K340" s="20"/>
+      <c r="J340" s="18"/>
+      <c r="K340" s="19"/>
     </row>
     <row r="341" ht="15.2" spans="7:11">
       <c r="G341" s="15"/>
-      <c r="J341" s="19"/>
-      <c r="K341" s="20"/>
+      <c r="J341" s="18"/>
+      <c r="K341" s="19"/>
     </row>
     <row r="342" ht="15.2" spans="7:11">
       <c r="G342" s="15"/>
-      <c r="J342" s="19"/>
-      <c r="K342" s="20"/>
+      <c r="J342" s="18"/>
+      <c r="K342" s="19"/>
     </row>
     <row r="343" ht="15.2" spans="7:11">
       <c r="G343" s="15"/>
-      <c r="J343" s="19"/>
-      <c r="K343" s="20"/>
+      <c r="J343" s="18"/>
+      <c r="K343" s="19"/>
     </row>
     <row r="344" ht="15.2" spans="7:11">
       <c r="G344" s="15"/>
-      <c r="J344" s="19"/>
-      <c r="K344" s="20"/>
+      <c r="J344" s="18"/>
+      <c r="K344" s="19"/>
     </row>
     <row r="345" ht="15.2" spans="7:11">
       <c r="G345" s="15"/>
-      <c r="J345" s="19"/>
-      <c r="K345" s="20"/>
+      <c r="J345" s="18"/>
+      <c r="K345" s="19"/>
     </row>
     <row r="346" ht="15.2" spans="7:11">
       <c r="G346" s="15"/>
-      <c r="J346" s="19"/>
-      <c r="K346" s="20"/>
+      <c r="J346" s="18"/>
+      <c r="K346" s="19"/>
     </row>
     <row r="347" ht="15.2" spans="7:11">
       <c r="G347" s="15"/>
-      <c r="J347" s="19"/>
-      <c r="K347" s="20"/>
+      <c r="J347" s="18"/>
+      <c r="K347" s="19"/>
     </row>
     <row r="348" ht="15.2" spans="7:11">
       <c r="G348" s="15"/>
-      <c r="J348" s="19"/>
-      <c r="K348" s="20"/>
+      <c r="J348" s="18"/>
+      <c r="K348" s="19"/>
     </row>
     <row r="349" ht="15.2" spans="7:11">
       <c r="G349" s="15"/>
-      <c r="J349" s="19"/>
-      <c r="K349" s="20"/>
+      <c r="J349" s="18"/>
+      <c r="K349" s="19"/>
     </row>
     <row r="350" ht="15.2" spans="7:11">
       <c r="G350" s="15"/>
-      <c r="J350" s="19"/>
-      <c r="K350" s="20"/>
+      <c r="J350" s="18"/>
+      <c r="K350" s="19"/>
     </row>
     <row r="351" ht="15.2" spans="7:11">
       <c r="G351" s="15"/>
-      <c r="J351" s="19"/>
-      <c r="K351" s="20"/>
+      <c r="J351" s="18"/>
+      <c r="K351" s="19"/>
     </row>
     <row r="352" ht="15.2" spans="7:11">
       <c r="G352" s="15"/>
-      <c r="J352" s="19"/>
-      <c r="K352" s="20"/>
+      <c r="J352" s="18"/>
+      <c r="K352" s="19"/>
     </row>
     <row r="353" ht="15.2" spans="7:11">
       <c r="G353" s="15"/>
-      <c r="J353" s="19"/>
-      <c r="K353" s="20"/>
+      <c r="J353" s="18"/>
+      <c r="K353" s="19"/>
     </row>
     <row r="354" ht="15.2" spans="7:11">
       <c r="G354" s="15"/>
-      <c r="J354" s="19"/>
-      <c r="K354" s="20"/>
+      <c r="J354" s="18"/>
+      <c r="K354" s="19"/>
     </row>
     <row r="355" ht="15.2" spans="7:11">
       <c r="G355" s="15"/>
-      <c r="J355" s="19"/>
-      <c r="K355" s="20"/>
+      <c r="J355" s="18"/>
+      <c r="K355" s="19"/>
     </row>
     <row r="356" ht="15.2" spans="7:11">
       <c r="G356" s="15"/>
-      <c r="J356" s="19"/>
-      <c r="K356" s="20"/>
+      <c r="J356" s="18"/>
+      <c r="K356" s="19"/>
     </row>
     <row r="357" ht="15.2" spans="7:11">
       <c r="G357" s="15"/>
-      <c r="J357" s="19"/>
-      <c r="K357" s="20"/>
+      <c r="J357" s="18"/>
+      <c r="K357" s="19"/>
     </row>
     <row r="358" ht="15.2" spans="7:11">
       <c r="G358" s="15"/>
-      <c r="J358" s="19"/>
-      <c r="K358" s="20"/>
+      <c r="J358" s="18"/>
+      <c r="K358" s="19"/>
     </row>
     <row r="359" ht="15.2" spans="7:11">
       <c r="G359" s="15"/>
-      <c r="J359" s="19"/>
-      <c r="K359" s="20"/>
+      <c r="J359" s="18"/>
+      <c r="K359" s="19"/>
     </row>
     <row r="360" ht="15.2" spans="7:11">
       <c r="G360" s="15"/>
-      <c r="J360" s="19"/>
-      <c r="K360" s="20"/>
+      <c r="J360" s="18"/>
+      <c r="K360" s="19"/>
     </row>
     <row r="361" ht="15.2" spans="7:11">
       <c r="G361" s="15"/>
-      <c r="J361" s="19"/>
-      <c r="K361" s="20"/>
+      <c r="J361" s="18"/>
+      <c r="K361" s="19"/>
     </row>
     <row r="362" ht="15.2" spans="7:11">
       <c r="G362" s="15"/>
-      <c r="J362" s="19"/>
-      <c r="K362" s="20"/>
+      <c r="J362" s="18"/>
+      <c r="K362" s="19"/>
     </row>
     <row r="363" ht="15.2" spans="7:11">
       <c r="G363" s="15"/>
-      <c r="J363" s="19"/>
-      <c r="K363" s="20"/>
+      <c r="J363" s="18"/>
+      <c r="K363" s="19"/>
     </row>
     <row r="364" ht="15.2" spans="7:11">
       <c r="G364" s="15"/>
-      <c r="J364" s="19"/>
-      <c r="K364" s="20"/>
+      <c r="J364" s="18"/>
+      <c r="K364" s="19"/>
     </row>
     <row r="365" ht="15.2" spans="7:11">
       <c r="G365" s="15"/>
-      <c r="J365" s="19"/>
-      <c r="K365" s="20"/>
+      <c r="J365" s="18"/>
+      <c r="K365" s="19"/>
     </row>
     <row r="366" ht="15.2" spans="7:11">
       <c r="G366" s="15"/>
-      <c r="J366" s="19"/>
-      <c r="K366" s="20"/>
+      <c r="J366" s="18"/>
+      <c r="K366" s="19"/>
     </row>
     <row r="367" ht="15.2" spans="7:11">
       <c r="G367" s="15"/>
-      <c r="J367" s="19"/>
-      <c r="K367" s="20"/>
+      <c r="J367" s="18"/>
+      <c r="K367" s="19"/>
     </row>
     <row r="368" ht="15.2" spans="7:11">
       <c r="G368" s="15"/>
-      <c r="J368" s="19"/>
-      <c r="K368" s="20"/>
+      <c r="J368" s="18"/>
+      <c r="K368" s="19"/>
     </row>
     <row r="369" ht="15.2" spans="7:11">
       <c r="G369" s="15"/>
-      <c r="J369" s="19"/>
-      <c r="K369" s="20"/>
+      <c r="J369" s="18"/>
+      <c r="K369" s="19"/>
     </row>
     <row r="370" ht="15.2" spans="7:11">
       <c r="G370" s="15"/>
-      <c r="J370" s="19"/>
-      <c r="K370" s="20"/>
+      <c r="J370" s="18"/>
+      <c r="K370" s="19"/>
     </row>
     <row r="371" ht="15.2" spans="7:11">
       <c r="G371" s="15"/>
-      <c r="J371" s="19"/>
-      <c r="K371" s="20"/>
+      <c r="J371" s="18"/>
+      <c r="K371" s="19"/>
     </row>
     <row r="372" ht="15.2" spans="7:11">
       <c r="G372" s="15"/>
-      <c r="J372" s="19"/>
-      <c r="K372" s="20"/>
+      <c r="J372" s="18"/>
+      <c r="K372" s="19"/>
     </row>
     <row r="373" ht="15.2" spans="7:11">
       <c r="G373" s="15"/>
-      <c r="J373" s="19"/>
-      <c r="K373" s="20"/>
+      <c r="J373" s="18"/>
+      <c r="K373" s="19"/>
     </row>
     <row r="374" ht="15.2" spans="7:11">
       <c r="G374" s="15"/>
-      <c r="J374" s="19"/>
-      <c r="K374" s="20"/>
+      <c r="J374" s="18"/>
+      <c r="K374" s="19"/>
     </row>
     <row r="375" ht="15.2" spans="7:11">
       <c r="G375" s="15"/>
-      <c r="J375" s="19"/>
-      <c r="K375" s="20"/>
+      <c r="J375" s="18"/>
+      <c r="K375" s="19"/>
     </row>
     <row r="376" ht="15.2" spans="7:11">
       <c r="G376" s="15"/>
-      <c r="J376" s="19"/>
-      <c r="K376" s="20"/>
+      <c r="J376" s="18"/>
+      <c r="K376" s="19"/>
     </row>
     <row r="377" ht="15.2" spans="7:11">
       <c r="G377" s="15"/>
-      <c r="J377" s="19"/>
-      <c r="K377" s="20"/>
+      <c r="J377" s="18"/>
+      <c r="K377" s="19"/>
     </row>
     <row r="378" ht="15.2" spans="7:11">
       <c r="G378" s="15"/>
-      <c r="J378" s="19"/>
-      <c r="K378" s="20"/>
+      <c r="J378" s="18"/>
+      <c r="K378" s="19"/>
     </row>
     <row r="379" ht="15.2" spans="7:11">
       <c r="G379" s="15"/>
-      <c r="J379" s="19"/>
-      <c r="K379" s="20"/>
+      <c r="J379" s="18"/>
+      <c r="K379" s="19"/>
     </row>
     <row r="380" ht="15.2" spans="7:11">
       <c r="G380" s="15"/>
-      <c r="J380" s="19"/>
-      <c r="K380" s="20"/>
+      <c r="J380" s="18"/>
+      <c r="K380" s="19"/>
     </row>
     <row r="381" ht="15.2" spans="7:11">
       <c r="G381" s="15"/>
-      <c r="J381" s="19"/>
-      <c r="K381" s="20"/>
+      <c r="J381" s="18"/>
+      <c r="K381" s="19"/>
     </row>
     <row r="382" ht="15.2" spans="7:11">
       <c r="G382" s="15"/>
-      <c r="J382" s="19"/>
-      <c r="K382" s="20"/>
+      <c r="J382" s="18"/>
+      <c r="K382" s="19"/>
     </row>
     <row r="383" ht="15.2" spans="7:11">
       <c r="G383" s="15"/>
-      <c r="J383" s="19"/>
-      <c r="K383" s="20"/>
+      <c r="J383" s="18"/>
+      <c r="K383" s="19"/>
     </row>
     <row r="384" ht="15.2" spans="7:11">
       <c r="G384" s="15"/>
-      <c r="J384" s="19"/>
-      <c r="K384" s="20"/>
+      <c r="J384" s="18"/>
+      <c r="K384" s="19"/>
     </row>
     <row r="385" ht="15.2" spans="7:11">
       <c r="G385" s="15"/>
-      <c r="J385" s="19"/>
-      <c r="K385" s="20"/>
+      <c r="J385" s="18"/>
+      <c r="K385" s="19"/>
     </row>
     <row r="386" ht="15.2" spans="7:11">
       <c r="G386" s="15"/>
-      <c r="J386" s="19"/>
-      <c r="K386" s="20"/>
+      <c r="J386" s="18"/>
+      <c r="K386" s="19"/>
     </row>
     <row r="387" ht="15.2" spans="7:11">
       <c r="G387" s="15"/>
-      <c r="J387" s="19"/>
-      <c r="K387" s="20"/>
+      <c r="J387" s="18"/>
+      <c r="K387" s="19"/>
     </row>
     <row r="388" ht="15.2" spans="7:11">
       <c r="G388" s="15"/>
-      <c r="J388" s="19"/>
-      <c r="K388" s="20"/>
+      <c r="J388" s="18"/>
+      <c r="K388" s="19"/>
     </row>
     <row r="389" ht="15.2" spans="7:11">
       <c r="G389" s="15"/>
-      <c r="J389" s="19"/>
-      <c r="K389" s="20"/>
+      <c r="J389" s="18"/>
+      <c r="K389" s="19"/>
     </row>
     <row r="390" ht="15.2" spans="7:11">
       <c r="G390" s="15"/>
-      <c r="J390" s="19"/>
-      <c r="K390" s="20"/>
+      <c r="J390" s="18"/>
+      <c r="K390" s="19"/>
     </row>
     <row r="391" ht="15.2" spans="7:11">
       <c r="G391" s="15"/>
-      <c r="J391" s="19"/>
-      <c r="K391" s="20"/>
+      <c r="J391" s="18"/>
+      <c r="K391" s="19"/>
     </row>
     <row r="392" ht="15.2" spans="7:11">
       <c r="G392" s="15"/>
-      <c r="J392" s="19"/>
-      <c r="K392" s="20"/>
+      <c r="J392" s="18"/>
+      <c r="K392" s="19"/>
     </row>
     <row r="393" ht="15.2" spans="7:11">
       <c r="G393" s="15"/>
-      <c r="J393" s="19"/>
-      <c r="K393" s="20"/>
+      <c r="J393" s="18"/>
+      <c r="K393" s="19"/>
     </row>
     <row r="394" ht="15.2" spans="7:11">
       <c r="G394" s="15"/>
-      <c r="J394" s="19"/>
-      <c r="K394" s="20"/>
+      <c r="J394" s="18"/>
+      <c r="K394" s="19"/>
     </row>
     <row r="395" ht="15.2" spans="7:11">
       <c r="G395" s="15"/>
-      <c r="J395" s="19"/>
-      <c r="K395" s="20"/>
+      <c r="J395" s="18"/>
+      <c r="K395" s="19"/>
     </row>
     <row r="396" ht="15.2" spans="7:11">
       <c r="G396" s="15"/>
-      <c r="J396" s="19"/>
-      <c r="K396" s="20"/>
+      <c r="J396" s="18"/>
+      <c r="K396" s="19"/>
     </row>
     <row r="397" ht="15.2" spans="7:11">
       <c r="G397" s="15"/>
-      <c r="J397" s="19"/>
-      <c r="K397" s="20"/>
+      <c r="J397" s="18"/>
+      <c r="K397" s="19"/>
     </row>
     <row r="398" ht="15.2" spans="7:11">
       <c r="G398" s="15"/>
-      <c r="J398" s="19"/>
-      <c r="K398" s="20"/>
+      <c r="J398" s="18"/>
+      <c r="K398" s="19"/>
     </row>
     <row r="399" ht="15.2" spans="7:11">
       <c r="G399" s="15"/>
-      <c r="J399" s="19"/>
-      <c r="K399" s="20"/>
+      <c r="J399" s="18"/>
+      <c r="K399" s="19"/>
     </row>
     <row r="400" ht="15.2" spans="7:11">
       <c r="G400" s="15"/>
-      <c r="J400" s="19"/>
-      <c r="K400" s="20"/>
+      <c r="J400" s="18"/>
+      <c r="K400" s="19"/>
     </row>
     <row r="401" ht="15.2" spans="7:11">
       <c r="G401" s="15"/>
-      <c r="J401" s="19"/>
-      <c r="K401" s="20"/>
+      <c r="J401" s="18"/>
+      <c r="K401" s="19"/>
     </row>
     <row r="402" ht="15.2" spans="7:11">
       <c r="G402" s="15"/>
-      <c r="J402" s="19"/>
-      <c r="K402" s="20"/>
+      <c r="J402" s="18"/>
+      <c r="K402" s="19"/>
     </row>
     <row r="403" ht="15.2" spans="7:11">
       <c r="G403" s="15"/>
-      <c r="J403" s="19"/>
-      <c r="K403" s="20"/>
+      <c r="J403" s="18"/>
+      <c r="K403" s="19"/>
     </row>
     <row r="404" ht="15.2" spans="7:11">
       <c r="G404" s="15"/>
-      <c r="J404" s="19"/>
-      <c r="K404" s="20"/>
+      <c r="J404" s="18"/>
+      <c r="K404" s="19"/>
     </row>
     <row r="405" ht="15.2" spans="7:11">
       <c r="G405" s="15"/>
-      <c r="J405" s="19"/>
-      <c r="K405" s="20"/>
+      <c r="J405" s="18"/>
+      <c r="K405" s="19"/>
     </row>
     <row r="406" ht="15.2" spans="7:11">
       <c r="G406" s="15"/>
-      <c r="J406" s="19"/>
-      <c r="K406" s="20"/>
+      <c r="J406" s="18"/>
+      <c r="K406" s="19"/>
     </row>
     <row r="407" ht="15.2" spans="7:11">
       <c r="G407" s="15"/>
-      <c r="J407" s="19"/>
-      <c r="K407" s="20"/>
+      <c r="J407" s="18"/>
+      <c r="K407" s="19"/>
     </row>
     <row r="408" ht="15.2" spans="7:11">
       <c r="G408" s="15"/>
-      <c r="J408" s="19"/>
-      <c r="K408" s="20"/>
+      <c r="J408" s="18"/>
+      <c r="K408" s="19"/>
     </row>
     <row r="409" ht="15.2" spans="7:11">
       <c r="G409" s="15"/>
-      <c r="J409" s="19"/>
-      <c r="K409" s="20"/>
+      <c r="J409" s="18"/>
+      <c r="K409" s="19"/>
     </row>
     <row r="410" ht="15.2" spans="7:11">
       <c r="G410" s="15"/>
-      <c r="J410" s="19"/>
-      <c r="K410" s="20"/>
+      <c r="J410" s="18"/>
+      <c r="K410" s="19"/>
     </row>
     <row r="411" ht="15.2" spans="7:11">
       <c r="G411" s="15"/>
-      <c r="J411" s="19"/>
-      <c r="K411" s="20"/>
+      <c r="J411" s="18"/>
+      <c r="K411" s="19"/>
     </row>
     <row r="412" ht="15.2" spans="7:11">
       <c r="G412" s="15"/>
-      <c r="J412" s="19"/>
-      <c r="K412" s="20"/>
+      <c r="J412" s="18"/>
+      <c r="K412" s="19"/>
     </row>
     <row r="413" ht="15.2" spans="7:11">
       <c r="G413" s="15"/>
-      <c r="J413" s="19"/>
-      <c r="K413" s="20"/>
+      <c r="J413" s="18"/>
+      <c r="K413" s="19"/>
     </row>
     <row r="414" ht="15.2" spans="7:11">
       <c r="G414" s="15"/>
-      <c r="J414" s="19"/>
-      <c r="K414" s="20"/>
+      <c r="J414" s="18"/>
+      <c r="K414" s="19"/>
     </row>
     <row r="415" ht="15.2" spans="7:11">
       <c r="G415" s="15"/>
-      <c r="J415" s="19"/>
-      <c r="K415" s="20"/>
+      <c r="J415" s="18"/>
+      <c r="K415" s="19"/>
     </row>
     <row r="416" ht="15.2" spans="7:11">
       <c r="G416" s="15"/>
-      <c r="J416" s="19"/>
-      <c r="K416" s="20"/>
+      <c r="J416" s="18"/>
+      <c r="K416" s="19"/>
     </row>
     <row r="417" ht="15.2" spans="7:11">
       <c r="G417" s="15"/>
-      <c r="J417" s="19"/>
-      <c r="K417" s="20"/>
+      <c r="J417" s="18"/>
+      <c r="K417" s="19"/>
     </row>
     <row r="418" ht="15.2" spans="7:11">
       <c r="G418" s="15"/>
-      <c r="J418" s="19"/>
-      <c r="K418" s="20"/>
+      <c r="J418" s="18"/>
+      <c r="K418" s="19"/>
     </row>
     <row r="419" ht="15.2" spans="7:11">
       <c r="G419" s="15"/>
-      <c r="J419" s="19"/>
-      <c r="K419" s="20"/>
+      <c r="J419" s="18"/>
+      <c r="K419" s="19"/>
     </row>
     <row r="420" ht="15.2" spans="7:11">
       <c r="G420" s="15"/>
-      <c r="J420" s="19"/>
-      <c r="K420" s="20"/>
+      <c r="J420" s="18"/>
+      <c r="K420" s="19"/>
     </row>
     <row r="421" ht="15.2" spans="7:11">
       <c r="G421" s="15"/>
-      <c r="J421" s="19"/>
-      <c r="K421" s="20"/>
+      <c r="J421" s="18"/>
+      <c r="K421" s="19"/>
     </row>
     <row r="422" ht="15.2" spans="7:11">
       <c r="G422" s="15"/>
-      <c r="J422" s="19"/>
-      <c r="K422" s="20"/>
+      <c r="J422" s="18"/>
+      <c r="K422" s="19"/>
     </row>
     <row r="423" ht="15.2" spans="7:11">
       <c r="G423" s="15"/>
-      <c r="J423" s="19"/>
-      <c r="K423" s="20"/>
+      <c r="J423" s="18"/>
+      <c r="K423" s="19"/>
     </row>
     <row r="424" ht="15.2" spans="7:11">
       <c r="G424" s="15"/>
-      <c r="J424" s="19"/>
-      <c r="K424" s="20"/>
+      <c r="J424" s="18"/>
+      <c r="K424" s="19"/>
     </row>
     <row r="425" ht="15.2" spans="7:11">
       <c r="G425" s="15"/>
-      <c r="J425" s="19"/>
-      <c r="K425" s="20"/>
+      <c r="J425" s="18"/>
+      <c r="K425" s="19"/>
     </row>
     <row r="426" ht="15.2" spans="7:11">
       <c r="G426" s="15"/>
-      <c r="J426" s="19"/>
-      <c r="K426" s="20"/>
+      <c r="J426" s="18"/>
+      <c r="K426" s="19"/>
     </row>
     <row r="427" ht="15.2" spans="7:11">
       <c r="G427" s="15"/>
-      <c r="J427" s="19"/>
-      <c r="K427" s="20"/>
+      <c r="J427" s="18"/>
+      <c r="K427" s="19"/>
     </row>
     <row r="428" ht="15.2" spans="7:11">
       <c r="G428" s="15"/>
-      <c r="J428" s="19"/>
-      <c r="K428" s="20"/>
+      <c r="J428" s="18"/>
+      <c r="K428" s="19"/>
     </row>
     <row r="429" ht="15.2" spans="7:11">
       <c r="G429" s="15"/>
-      <c r="J429" s="19"/>
-      <c r="K429" s="20"/>
+      <c r="J429" s="18"/>
+      <c r="K429" s="19"/>
     </row>
     <row r="430" ht="15.2" spans="7:11">
       <c r="G430" s="15"/>
-      <c r="J430" s="19"/>
-      <c r="K430" s="20"/>
+      <c r="J430" s="18"/>
+      <c r="K430" s="19"/>
     </row>
     <row r="431" ht="15.2" spans="7:11">
       <c r="G431" s="15"/>
-      <c r="J431" s="19"/>
-      <c r="K431" s="20"/>
+      <c r="J431" s="18"/>
+      <c r="K431" s="19"/>
     </row>
     <row r="432" ht="15.2" spans="7:11">
       <c r="G432" s="15"/>
-      <c r="J432" s="19"/>
-      <c r="K432" s="20"/>
+      <c r="J432" s="18"/>
+      <c r="K432" s="19"/>
     </row>
     <row r="433" ht="15.2" spans="7:11">
       <c r="G433" s="15"/>
-      <c r="J433" s="19"/>
-      <c r="K433" s="20"/>
+      <c r="J433" s="18"/>
+      <c r="K433" s="19"/>
     </row>
     <row r="434" ht="15.2" spans="7:11">
       <c r="G434" s="15"/>
-      <c r="J434" s="19"/>
-      <c r="K434" s="20"/>
+      <c r="J434" s="18"/>
+      <c r="K434" s="19"/>
     </row>
     <row r="435" ht="15.2" spans="7:11">
       <c r="G435" s="15"/>
-      <c r="J435" s="19"/>
-      <c r="K435" s="20"/>
+      <c r="J435" s="18"/>
+      <c r="K435" s="19"/>
     </row>
     <row r="436" ht="15.2" spans="7:11">
       <c r="G436" s="15"/>
-      <c r="J436" s="19"/>
-      <c r="K436" s="20"/>
+      <c r="J436" s="18"/>
+      <c r="K436" s="19"/>
     </row>
     <row r="437" ht="15.2" spans="7:11">
       <c r="G437" s="15"/>
-      <c r="J437" s="19"/>
-      <c r="K437" s="20"/>
+      <c r="J437" s="18"/>
+      <c r="K437" s="19"/>
     </row>
     <row r="438" ht="15.2" spans="7:11">
       <c r="G438" s="15"/>
-      <c r="J438" s="19"/>
-      <c r="K438" s="20"/>
+      <c r="J438" s="18"/>
+      <c r="K438" s="19"/>
     </row>
     <row r="439" ht="15.2" spans="7:11">
       <c r="G439" s="15"/>
-      <c r="J439" s="19"/>
-      <c r="K439" s="20"/>
+      <c r="J439" s="18"/>
+      <c r="K439" s="19"/>
     </row>
     <row r="440" ht="15.2" spans="7:11">
       <c r="G440" s="15"/>
-      <c r="J440" s="19"/>
-      <c r="K440" s="20"/>
+      <c r="J440" s="18"/>
+      <c r="K440" s="19"/>
     </row>
     <row r="441" ht="15.2" spans="7:11">
       <c r="G441" s="15"/>
-      <c r="J441" s="19"/>
-      <c r="K441" s="20"/>
+      <c r="J441" s="18"/>
+      <c r="K441" s="19"/>
     </row>
     <row r="442" ht="15.2" spans="7:11">
       <c r="G442" s="15"/>
-      <c r="J442" s="19"/>
-      <c r="K442" s="20"/>
+      <c r="J442" s="18"/>
+      <c r="K442" s="19"/>
     </row>
     <row r="443" ht="15.2" spans="7:11">
       <c r="G443" s="15"/>
-      <c r="J443" s="19"/>
-      <c r="K443" s="20"/>
+      <c r="J443" s="18"/>
+      <c r="K443" s="19"/>
     </row>
     <row r="444" ht="15.2" spans="7:11">
       <c r="G444" s="15"/>
-      <c r="J444" s="19"/>
-      <c r="K444" s="20"/>
+      <c r="J444" s="18"/>
+      <c r="K444" s="19"/>
     </row>
     <row r="445" ht="15.2" spans="7:11">
       <c r="G445" s="15"/>
-      <c r="J445" s="19"/>
-      <c r="K445" s="20"/>
+      <c r="J445" s="18"/>
+      <c r="K445" s="19"/>
     </row>
     <row r="446" ht="15.2" spans="7:11">
       <c r="G446" s="15"/>
-      <c r="J446" s="19"/>
-      <c r="K446" s="20"/>
+      <c r="J446" s="18"/>
+      <c r="K446" s="19"/>
     </row>
     <row r="447" ht="15.2" spans="7:11">
       <c r="G447" s="15"/>
-      <c r="J447" s="19"/>
-      <c r="K447" s="20"/>
+      <c r="J447" s="18"/>
+      <c r="K447" s="19"/>
     </row>
     <row r="448" ht="15.2" spans="7:11">
       <c r="G448" s="15"/>
-      <c r="J448" s="19"/>
-      <c r="K448" s="20"/>
+      <c r="J448" s="18"/>
+      <c r="K448" s="19"/>
     </row>
     <row r="449" ht="15.2" spans="7:11">
       <c r="G449" s="15"/>
-      <c r="J449" s="19"/>
-      <c r="K449" s="20"/>
+      <c r="J449" s="18"/>
+      <c r="K449" s="19"/>
     </row>
     <row r="450" ht="15.2" spans="7:11">
       <c r="G450" s="15"/>
-      <c r="J450" s="19"/>
-      <c r="K450" s="20"/>
+      <c r="J450" s="18"/>
+      <c r="K450" s="19"/>
     </row>
     <row r="451" ht="15.2" spans="7:11">
       <c r="G451" s="15"/>
-      <c r="J451" s="19"/>
-      <c r="K451" s="20"/>
+      <c r="J451" s="18"/>
+      <c r="K451" s="19"/>
     </row>
     <row r="452" ht="15.2" spans="7:11">
       <c r="G452" s="15"/>
-      <c r="J452" s="19"/>
-      <c r="K452" s="20"/>
+      <c r="J452" s="18"/>
+      <c r="K452" s="19"/>
     </row>
     <row r="453" ht="15.2" spans="7:11">
       <c r="G453" s="15"/>
-      <c r="J453" s="19"/>
-      <c r="K453" s="20"/>
+      <c r="J453" s="18"/>
+      <c r="K453" s="19"/>
     </row>
     <row r="454" ht="15.2" spans="7:11">
       <c r="G454" s="15"/>
-      <c r="J454" s="19"/>
-      <c r="K454" s="20"/>
+      <c r="J454" s="18"/>
+      <c r="K454" s="19"/>
     </row>
     <row r="455" ht="15.2" spans="7:11">
       <c r="G455" s="15"/>
-      <c r="J455" s="19"/>
-      <c r="K455" s="20"/>
+      <c r="J455" s="18"/>
+      <c r="K455" s="19"/>
     </row>
     <row r="456" ht="15.2" spans="7:11">
       <c r="G456" s="15"/>
-      <c r="J456" s="19"/>
-      <c r="K456" s="20"/>
+      <c r="J456" s="18"/>
+      <c r="K456" s="19"/>
     </row>
     <row r="457" ht="15.2" spans="7:11">
       <c r="G457" s="15"/>
-      <c r="J457" s="19"/>
-      <c r="K457" s="20"/>
+      <c r="J457" s="18"/>
+      <c r="K457" s="19"/>
     </row>
     <row r="458" ht="15.2" spans="7:11">
       <c r="G458" s="15"/>
-      <c r="J458" s="19"/>
-      <c r="K458" s="20"/>
+      <c r="J458" s="18"/>
+      <c r="K458" s="19"/>
     </row>
     <row r="459" ht="15.2" spans="7:11">
       <c r="G459" s="15"/>
-      <c r="J459" s="19"/>
-      <c r="K459" s="20"/>
+      <c r="J459" s="18"/>
+      <c r="K459" s="19"/>
     </row>
     <row r="460" ht="15.2" spans="7:11">
       <c r="G460" s="15"/>
-      <c r="J460" s="19"/>
-      <c r="K460" s="20"/>
+      <c r="J460" s="18"/>
+      <c r="K460" s="19"/>
     </row>
     <row r="461" ht="15.2" spans="7:11">
       <c r="G461" s="15"/>
-      <c r="J461" s="19"/>
-      <c r="K461" s="20"/>
+      <c r="J461" s="18"/>
+      <c r="K461" s="19"/>
     </row>
     <row r="462" ht="15.2" spans="7:11">
       <c r="G462" s="15"/>
-      <c r="J462" s="19"/>
-      <c r="K462" s="20"/>
+      <c r="J462" s="18"/>
+      <c r="K462" s="19"/>
     </row>
     <row r="463" ht="15.2" spans="7:11">
       <c r="G463" s="15"/>
-      <c r="J463" s="19"/>
-      <c r="K463" s="20"/>
+      <c r="J463" s="18"/>
+      <c r="K463" s="19"/>
     </row>
     <row r="464" ht="15.2" spans="7:11">
       <c r="G464" s="15"/>
-      <c r="J464" s="19"/>
-      <c r="K464" s="20"/>
+      <c r="J464" s="18"/>
+      <c r="K464" s="19"/>
     </row>
     <row r="465" ht="15.2" spans="7:11">
       <c r="G465" s="15"/>
-      <c r="J465" s="19"/>
-      <c r="K465" s="20"/>
+      <c r="J465" s="18"/>
+      <c r="K465" s="19"/>
     </row>
     <row r="466" ht="15.2" spans="7:11">
       <c r="G466" s="15"/>
-      <c r="J466" s="19"/>
-      <c r="K466" s="20"/>
+      <c r="J466" s="18"/>
+      <c r="K466" s="19"/>
     </row>
     <row r="467" ht="15.2" spans="7:11">
       <c r="G467" s="15"/>
-      <c r="J467" s="19"/>
-      <c r="K467" s="20"/>
+      <c r="J467" s="18"/>
+      <c r="K467" s="19"/>
     </row>
     <row r="468" ht="15.2" spans="7:11">
       <c r="G468" s="15"/>
-      <c r="J468" s="19"/>
-      <c r="K468" s="20"/>
+      <c r="J468" s="18"/>
+      <c r="K468" s="19"/>
     </row>
     <row r="469" ht="15.2" spans="7:11">
       <c r="G469" s="15"/>
-      <c r="J469" s="19"/>
-      <c r="K469" s="20"/>
+      <c r="J469" s="18"/>
+      <c r="K469" s="19"/>
     </row>
     <row r="470" ht="15.2" spans="7:11">
       <c r="G470" s="15"/>
-      <c r="J470" s="19"/>
-      <c r="K470" s="20"/>
+      <c r="J470" s="18"/>
+      <c r="K470" s="19"/>
     </row>
     <row r="471" ht="15.2" spans="7:11">
       <c r="G471" s="15"/>
-      <c r="J471" s="19"/>
-      <c r="K471" s="20"/>
+      <c r="J471" s="18"/>
+      <c r="K471" s="19"/>
     </row>
     <row r="472" ht="15.2" spans="7:11">
       <c r="G472" s="15"/>
-      <c r="J472" s="19"/>
-      <c r="K472" s="20"/>
+      <c r="J472" s="18"/>
+      <c r="K472" s="19"/>
     </row>
     <row r="473" ht="15.2" spans="7:11">
       <c r="G473" s="15"/>
-      <c r="J473" s="19"/>
-      <c r="K473" s="20"/>
+      <c r="J473" s="18"/>
+      <c r="K473" s="19"/>
     </row>
     <row r="474" ht="15.2" spans="7:11">
       <c r="G474" s="15"/>
-      <c r="J474" s="19"/>
-      <c r="K474" s="20"/>
+      <c r="J474" s="18"/>
+      <c r="K474" s="19"/>
     </row>
     <row r="475" ht="15.2" spans="7:11">
       <c r="G475" s="15"/>
-      <c r="J475" s="19"/>
-      <c r="K475" s="20"/>
+      <c r="J475" s="18"/>
+      <c r="K475" s="19"/>
     </row>
     <row r="476" ht="15.2" spans="7:11">
       <c r="G476" s="15"/>
-      <c r="J476" s="19"/>
-      <c r="K476" s="20"/>
+      <c r="J476" s="18"/>
+      <c r="K476" s="19"/>
     </row>
     <row r="477" ht="15.2" spans="7:11">
       <c r="G477" s="15"/>
-      <c r="J477" s="19"/>
-      <c r="K477" s="20"/>
+      <c r="J477" s="18"/>
+      <c r="K477" s="19"/>
     </row>
     <row r="478" ht="15.2" spans="7:11">
       <c r="G478" s="15"/>
-      <c r="J478" s="19"/>
-      <c r="K478" s="20"/>
+      <c r="J478" s="18"/>
+      <c r="K478" s="19"/>
     </row>
     <row r="479" ht="15.2" spans="7:11">
       <c r="G479" s="15"/>
-      <c r="J479" s="19"/>
-      <c r="K479" s="20"/>
+      <c r="J479" s="18"/>
+      <c r="K479" s="19"/>
     </row>
     <row r="480" ht="15.2" spans="7:11">
       <c r="G480" s="15"/>
-      <c r="J480" s="19"/>
-      <c r="K480" s="20"/>
+      <c r="J480" s="18"/>
+      <c r="K480" s="19"/>
     </row>
     <row r="481" ht="15.2" spans="7:11">
       <c r="G481" s="15"/>
-      <c r="J481" s="19"/>
-      <c r="K481" s="20"/>
+      <c r="J481" s="18"/>
+      <c r="K481" s="19"/>
     </row>
     <row r="482" ht="15.2" spans="7:11">
       <c r="G482" s="15"/>
-      <c r="J482" s="19"/>
-      <c r="K482" s="20"/>
+      <c r="J482" s="18"/>
+      <c r="K482" s="19"/>
     </row>
     <row r="483" ht="15.2" spans="7:11">
       <c r="G483" s="15"/>
-      <c r="J483" s="19"/>
-      <c r="K483" s="20"/>
+      <c r="J483" s="18"/>
+      <c r="K483" s="19"/>
     </row>
     <row r="484" ht="15.2" spans="7:11">
       <c r="G484" s="15"/>
-      <c r="J484" s="19"/>
-      <c r="K484" s="20"/>
+      <c r="J484" s="18"/>
+      <c r="K484" s="19"/>
     </row>
     <row r="485" ht="15.2" spans="7:11">
       <c r="G485" s="15"/>
-      <c r="J485" s="19"/>
-      <c r="K485" s="20"/>
+      <c r="J485" s="18"/>
+      <c r="K485" s="19"/>
     </row>
     <row r="486" ht="15.2" spans="7:11">
       <c r="G486" s="15"/>
-      <c r="J486" s="19"/>
-      <c r="K486" s="20"/>
+      <c r="J486" s="18"/>
+      <c r="K486" s="19"/>
     </row>
     <row r="487" ht="15.2" spans="7:11">
       <c r="G487" s="15"/>
-      <c r="J487" s="19"/>
-      <c r="K487" s="20"/>
+      <c r="J487" s="18"/>
+      <c r="K487" s="19"/>
     </row>
     <row r="488" ht="15.2" spans="7:11">
       <c r="G488" s="15"/>
-      <c r="J488" s="19"/>
-      <c r="K488" s="20"/>
+      <c r="J488" s="18"/>
+      <c r="K488" s="19"/>
     </row>
     <row r="489" ht="15.2" spans="7:11">
       <c r="G489" s="15"/>
-      <c r="J489" s="19"/>
-      <c r="K489" s="20"/>
+      <c r="J489" s="18"/>
+      <c r="K489" s="19"/>
     </row>
     <row r="490" ht="15.2" spans="7:11">
       <c r="G490" s="15"/>
-      <c r="J490" s="19"/>
-      <c r="K490" s="20"/>
+      <c r="J490" s="18"/>
+      <c r="K490" s="19"/>
     </row>
     <row r="491" ht="15.2" spans="7:11">
       <c r="G491" s="15"/>
-      <c r="J491" s="19"/>
-      <c r="K491" s="20"/>
+      <c r="J491" s="18"/>
+      <c r="K491" s="19"/>
     </row>
     <row r="492" ht="15.2" spans="7:11">
       <c r="G492" s="15"/>
-      <c r="J492" s="19"/>
-      <c r="K492" s="20"/>
+      <c r="J492" s="18"/>
+      <c r="K492" s="19"/>
     </row>
     <row r="493" ht="15.2" spans="7:11">
       <c r="G493" s="15"/>
-      <c r="J493" s="19"/>
-      <c r="K493" s="20"/>
+      <c r="J493" s="18"/>
+      <c r="K493" s="19"/>
     </row>
     <row r="494" ht="15.2" spans="7:11">
       <c r="G494" s="15"/>
-      <c r="J494" s="19"/>
-      <c r="K494" s="20"/>
+      <c r="J494" s="18"/>
+      <c r="K494" s="19"/>
     </row>
     <row r="495" ht="15.2" spans="7:11">
       <c r="G495" s="15"/>
-      <c r="J495" s="19"/>
-      <c r="K495" s="20"/>
+      <c r="J495" s="18"/>
+      <c r="K495" s="19"/>
     </row>
     <row r="496" ht="15.2" spans="7:11">
       <c r="G496" s="15"/>
-      <c r="J496" s="19"/>
-      <c r="K496" s="20"/>
+      <c r="J496" s="18"/>
+      <c r="K496" s="19"/>
     </row>
     <row r="497" ht="15.2" spans="7:11">
       <c r="G497" s="15"/>
-      <c r="J497" s="19"/>
-      <c r="K497" s="20"/>
+      <c r="J497" s="18"/>
+      <c r="K497" s="19"/>
     </row>
     <row r="498" ht="15.2" spans="7:11">
       <c r="G498" s="15"/>
-      <c r="J498" s="19"/>
-      <c r="K498" s="20"/>
+      <c r="J498" s="18"/>
+      <c r="K498" s="19"/>
     </row>
     <row r="499" ht="15.2" spans="7:11">
       <c r="G499" s="15"/>
-      <c r="J499" s="19"/>
-      <c r="K499" s="20"/>
+      <c r="J499" s="18"/>
+      <c r="K499" s="19"/>
     </row>
     <row r="500" ht="15.2" spans="7:11">
       <c r="G500" s="15"/>
-      <c r="J500" s="19"/>
-      <c r="K500" s="20"/>
+      <c r="J500" s="18"/>
+      <c r="K500" s="19"/>
     </row>
     <row r="501" ht="15.2" spans="7:11">
       <c r="G501" s="15"/>
-      <c r="J501" s="19"/>
-      <c r="K501" s="20"/>
+      <c r="J501" s="18"/>
+      <c r="K501" s="19"/>
     </row>
     <row r="502" ht="15.2" spans="7:11">
       <c r="G502" s="15"/>
-      <c r="J502" s="19"/>
-      <c r="K502" s="20"/>
+      <c r="J502" s="18"/>
+      <c r="K502" s="19"/>
     </row>
     <row r="503" ht="15.2" spans="7:11">
       <c r="G503" s="15"/>
-      <c r="J503" s="19"/>
-      <c r="K503" s="20"/>
+      <c r="J503" s="18"/>
+      <c r="K503" s="19"/>
     </row>
     <row r="504" ht="15.2" spans="7:11">
       <c r="G504" s="15"/>
-      <c r="J504" s="19"/>
-      <c r="K504" s="20"/>
+      <c r="J504" s="18"/>
+      <c r="K504" s="19"/>
     </row>
     <row r="505" ht="15.2" spans="7:11">
       <c r="G505" s="15"/>
-      <c r="J505" s="19"/>
-      <c r="K505" s="20"/>
+      <c r="J505" s="18"/>
+      <c r="K505" s="19"/>
     </row>
     <row r="506" ht="15.2" spans="7:11">
       <c r="G506" s="15"/>
-      <c r="J506" s="19"/>
-      <c r="K506" s="20"/>
+      <c r="J506" s="18"/>
+      <c r="K506" s="19"/>
     </row>
     <row r="507" ht="15.2" spans="7:11">
       <c r="G507" s="15"/>
-      <c r="J507" s="19"/>
-      <c r="K507" s="20"/>
+      <c r="J507" s="18"/>
+      <c r="K507" s="19"/>
     </row>
     <row r="508" ht="15.2" spans="7:11">
       <c r="G508" s="15"/>
-      <c r="J508" s="19"/>
-      <c r="K508" s="20"/>
+      <c r="J508" s="18"/>
+      <c r="K508" s="19"/>
     </row>
     <row r="509" ht="15.2" spans="7:11">
       <c r="G509" s="15"/>
-      <c r="J509" s="19"/>
-      <c r="K509" s="20"/>
+      <c r="J509" s="18"/>
+      <c r="K509" s="19"/>
     </row>
     <row r="510" ht="15.2" spans="7:11">
       <c r="G510" s="15"/>
-      <c r="J510" s="19"/>
-      <c r="K510" s="20"/>
+      <c r="J510" s="18"/>
+      <c r="K510" s="19"/>
     </row>
     <row r="511" ht="15.2" spans="7:11">
       <c r="G511" s="15"/>
-      <c r="J511" s="19"/>
-      <c r="K511" s="20"/>
+      <c r="J511" s="18"/>
+      <c r="K511" s="19"/>
     </row>
     <row r="512" ht="15.2" spans="7:11">
       <c r="G512" s="15"/>
-      <c r="J512" s="19"/>
-      <c r="K512" s="20"/>
+      <c r="J512" s="18"/>
+      <c r="K512" s="19"/>
     </row>
     <row r="513" ht="15.2" spans="7:11">
       <c r="G513" s="15"/>
-      <c r="J513" s="19"/>
-      <c r="K513" s="20"/>
+      <c r="J513" s="18"/>
+      <c r="K513" s="19"/>
     </row>
     <row r="514" ht="15.2" spans="7:11">
       <c r="G514" s="15"/>
-      <c r="J514" s="19"/>
-      <c r="K514" s="20"/>
+      <c r="J514" s="18"/>
+      <c r="K514" s="19"/>
     </row>
     <row r="515" ht="15.2" spans="7:11">
       <c r="G515" s="15"/>
-      <c r="J515" s="19"/>
-      <c r="K515" s="20"/>
+      <c r="J515" s="18"/>
+      <c r="K515" s="19"/>
     </row>
     <row r="516" ht="15.2" spans="7:11">
       <c r="G516" s="15"/>
-      <c r="J516" s="19"/>
-      <c r="K516" s="20"/>
+      <c r="J516" s="18"/>
+      <c r="K516" s="19"/>
     </row>
     <row r="517" ht="15.2" spans="7:11">
       <c r="G517" s="15"/>
-      <c r="J517" s="19"/>
-      <c r="K517" s="20"/>
+      <c r="J517" s="18"/>
+      <c r="K517" s="19"/>
     </row>
     <row r="518" ht="15.2" spans="7:11">
       <c r="G518" s="15"/>
-      <c r="J518" s="19"/>
-      <c r="K518" s="20"/>
+      <c r="J518" s="18"/>
+      <c r="K518" s="19"/>
     </row>
     <row r="519" ht="15.2" spans="7:11">
       <c r="G519" s="15"/>
-      <c r="J519" s="19"/>
-      <c r="K519" s="20"/>
+      <c r="J519" s="18"/>
+      <c r="K519" s="19"/>
     </row>
     <row r="520" ht="15.2" spans="7:11">
       <c r="G520" s="15"/>
-      <c r="J520" s="19"/>
-      <c r="K520" s="20"/>
+      <c r="J520" s="18"/>
+      <c r="K520" s="19"/>
     </row>
     <row r="521" ht="15.2" spans="7:11">
       <c r="G521" s="15"/>
-      <c r="J521" s="19"/>
-      <c r="K521" s="20"/>
+      <c r="J521" s="18"/>
+      <c r="K521" s="19"/>
     </row>
     <row r="522" ht="15.2" spans="7:11">
       <c r="G522" s="15"/>
-      <c r="J522" s="19"/>
-      <c r="K522" s="20"/>
+      <c r="J522" s="18"/>
+      <c r="K522" s="19"/>
     </row>
     <row r="523" ht="15.2" spans="7:11">
       <c r="G523" s="15"/>
-      <c r="J523" s="19"/>
-      <c r="K523" s="20"/>
+      <c r="J523" s="18"/>
+      <c r="K523" s="19"/>
     </row>
     <row r="524" ht="15.2" spans="7:11">
       <c r="G524" s="15"/>
-      <c r="J524" s="19"/>
-      <c r="K524" s="20"/>
+      <c r="J524" s="18"/>
+      <c r="K524" s="19"/>
     </row>
     <row r="525" ht="15.2" spans="7:11">
       <c r="G525" s="15"/>
-      <c r="J525" s="19"/>
-      <c r="K525" s="20"/>
+      <c r="J525" s="18"/>
+      <c r="K525" s="19"/>
     </row>
     <row r="526" ht="15.2" spans="7:11">
       <c r="G526" s="15"/>
-      <c r="J526" s="19"/>
-      <c r="K526" s="20"/>
+      <c r="J526" s="18"/>
+      <c r="K526" s="19"/>
     </row>
     <row r="527" ht="15.2" spans="7:11">
       <c r="G527" s="15"/>
-      <c r="J527" s="19"/>
-      <c r="K527" s="20"/>
+      <c r="J527" s="18"/>
+      <c r="K527" s="19"/>
     </row>
     <row r="528" ht="15.2" spans="7:11">
       <c r="G528" s="15"/>
-      <c r="J528" s="19"/>
-      <c r="K528" s="20"/>
+      <c r="J528" s="18"/>
+      <c r="K528" s="19"/>
     </row>
     <row r="529" ht="15.2" spans="7:11">
       <c r="G529" s="15"/>
-      <c r="J529" s="19"/>
-      <c r="K529" s="20"/>
+      <c r="J529" s="18"/>
+      <c r="K529" s="19"/>
     </row>
     <row r="530" ht="15.2" spans="7:11">
       <c r="G530" s="15"/>
-      <c r="J530" s="19"/>
-      <c r="K530" s="20"/>
+      <c r="J530" s="18"/>
+      <c r="K530" s="19"/>
     </row>
     <row r="531" ht="15.2" spans="7:11">
       <c r="G531" s="15"/>
-      <c r="J531" s="19"/>
-      <c r="K531" s="20"/>
+      <c r="J531" s="18"/>
+      <c r="K531" s="19"/>
     </row>
     <row r="532" ht="15.2" spans="7:11">
       <c r="G532" s="15"/>
-      <c r="J532" s="19"/>
-      <c r="K532" s="20"/>
+      <c r="J532" s="18"/>
+      <c r="K532" s="19"/>
     </row>
     <row r="533" ht="15.2" spans="7:11">
       <c r="G533" s="15"/>
-      <c r="J533" s="19"/>
-      <c r="K533" s="20"/>
+      <c r="J533" s="18"/>
+      <c r="K533" s="19"/>
     </row>
     <row r="534" ht="15.2" spans="7:11">
       <c r="G534" s="15"/>
-      <c r="J534" s="19"/>
-      <c r="K534" s="20"/>
+      <c r="J534" s="18"/>
+      <c r="K534" s="19"/>
     </row>
     <row r="535" ht="15.2" spans="7:11">
       <c r="G535" s="15"/>
-      <c r="J535" s="19"/>
-      <c r="K535" s="20"/>
+      <c r="J535" s="18"/>
+      <c r="K535" s="19"/>
     </row>
     <row r="536" ht="15.2" spans="7:11">
       <c r="G536" s="15"/>
-      <c r="J536" s="19"/>
-      <c r="K536" s="20"/>
+      <c r="J536" s="18"/>
+      <c r="K536" s="19"/>
     </row>
     <row r="537" ht="15.2" spans="7:11">
       <c r="G537" s="15"/>
-      <c r="J537" s="19"/>
-      <c r="K537" s="20"/>
+      <c r="J537" s="18"/>
+      <c r="K537" s="19"/>
     </row>
     <row r="538" ht="15.2" spans="7:11">
       <c r="G538" s="15"/>
-      <c r="J538" s="19"/>
-      <c r="K538" s="20"/>
+      <c r="J538" s="18"/>
+      <c r="K538" s="19"/>
     </row>
     <row r="539" ht="15.2" spans="7:11">
       <c r="G539" s="15"/>
-      <c r="J539" s="19"/>
-      <c r="K539" s="20"/>
+      <c r="J539" s="18"/>
+      <c r="K539" s="19"/>
     </row>
     <row r="540" ht="15.2" spans="7:11">
       <c r="G540" s="15"/>
-      <c r="J540" s="19"/>
-      <c r="K540" s="20"/>
+      <c r="J540" s="18"/>
+      <c r="K540" s="19"/>
     </row>
     <row r="541" ht="15.2" spans="7:11">
       <c r="G541" s="15"/>
-      <c r="J541" s="19"/>
-      <c r="K541" s="20"/>
+      <c r="J541" s="18"/>
+      <c r="K541" s="19"/>
     </row>
     <row r="542" ht="15.2" spans="7:11">
       <c r="G542" s="15"/>
-      <c r="J542" s="19"/>
-      <c r="K542" s="20"/>
+      <c r="J542" s="18"/>
+      <c r="K542" s="19"/>
     </row>
     <row r="543" ht="15.2" spans="7:11">
       <c r="G543" s="15"/>
-      <c r="J543" s="19"/>
-      <c r="K543" s="20"/>
+      <c r="J543" s="18"/>
+      <c r="K543" s="19"/>
     </row>
     <row r="544" ht="15.2" spans="7:11">
       <c r="G544" s="15"/>
-      <c r="J544" s="19"/>
-      <c r="K544" s="20"/>
+      <c r="J544" s="18"/>
+      <c r="K544" s="19"/>
     </row>
     <row r="545" ht="15.2" spans="7:11">
       <c r="G545" s="15"/>
-      <c r="J545" s="19"/>
-      <c r="K545" s="20"/>
+      <c r="J545" s="18"/>
+      <c r="K545" s="19"/>
     </row>
     <row r="546" ht="15.2" spans="7:11">
       <c r="G546" s="15"/>
-      <c r="J546" s="19"/>
-      <c r="K546" s="20"/>
+      <c r="J546" s="18"/>
+      <c r="K546" s="19"/>
     </row>
     <row r="547" ht="15.2" spans="7:11">
       <c r="G547" s="15"/>
-      <c r="J547" s="19"/>
-      <c r="K547" s="20"/>
+      <c r="J547" s="18"/>
+      <c r="K547" s="19"/>
     </row>
     <row r="548" ht="15.2" spans="7:11">
       <c r="G548" s="15"/>
-      <c r="J548" s="19"/>
-      <c r="K548" s="20"/>
+      <c r="J548" s="18"/>
+      <c r="K548" s="19"/>
     </row>
     <row r="549" ht="15.2" spans="7:11">
       <c r="G549" s="15"/>
-      <c r="J549" s="19"/>
-      <c r="K549" s="20"/>
+      <c r="J549" s="18"/>
+      <c r="K549" s="19"/>
     </row>
     <row r="550" ht="15.2" spans="7:11">
       <c r="G550" s="15"/>
-      <c r="J550" s="19"/>
-      <c r="K550" s="20"/>
+      <c r="J550" s="18"/>
+      <c r="K550" s="19"/>
     </row>
     <row r="551" ht="15.2" spans="7:11">
       <c r="G551" s="15"/>
-      <c r="J551" s="19"/>
-      <c r="K551" s="20"/>
+      <c r="J551" s="18"/>
+      <c r="K551" s="19"/>
     </row>
     <row r="552" ht="15.2" spans="7:11">
       <c r="G552" s="15"/>
-      <c r="J552" s="19"/>
-      <c r="K552" s="20"/>
+      <c r="J552" s="18"/>
+      <c r="K552" s="19"/>
     </row>
     <row r="553" ht="15.2" spans="7:11">
       <c r="G553" s="15"/>
-      <c r="J553" s="19"/>
-      <c r="K553" s="20"/>
+      <c r="J553" s="18"/>
+      <c r="K553" s="19"/>
     </row>
     <row r="554" ht="15.2" spans="7:11">
       <c r="G554" s="15"/>
-      <c r="J554" s="19"/>
-      <c r="K554" s="20"/>
+      <c r="J554" s="18"/>
+      <c r="K554" s="19"/>
     </row>
     <row r="555" ht="15.2" spans="7:11">
       <c r="G555" s="15"/>
-      <c r="J555" s="19"/>
-      <c r="K555" s="20"/>
+      <c r="J555" s="18"/>
+      <c r="K555" s="19"/>
     </row>
     <row r="556" ht="15.2" spans="7:11">
       <c r="G556" s="15"/>
-      <c r="J556" s="19"/>
-      <c r="K556" s="20"/>
+      <c r="J556" s="18"/>
+      <c r="K556" s="19"/>
     </row>
     <row r="557" ht="15.2" spans="7:11">
       <c r="G557" s="15"/>
-      <c r="J557" s="19"/>
-      <c r="K557" s="20"/>
+      <c r="J557" s="18"/>
+      <c r="K557" s="19"/>
     </row>
     <row r="558" ht="15.2" spans="7:11">
       <c r="G558" s="15"/>
-      <c r="J558" s="19"/>
-      <c r="K558" s="20"/>
+      <c r="J558" s="18"/>
+      <c r="K558" s="19"/>
     </row>
     <row r="559" ht="15.2" spans="7:11">
       <c r="G559" s="15"/>
-      <c r="J559" s="19"/>
-      <c r="K559" s="20"/>
+      <c r="J559" s="18"/>
+      <c r="K559" s="19"/>
     </row>
     <row r="560" ht="15.2" spans="7:11">
       <c r="G560" s="15"/>
-      <c r="J560" s="19"/>
-      <c r="K560" s="20"/>
+      <c r="J560" s="18"/>
+      <c r="K560" s="19"/>
     </row>
     <row r="561" ht="15.2" spans="7:11">
       <c r="G561" s="15"/>
-      <c r="J561" s="19"/>
-      <c r="K561" s="20"/>
+      <c r="J561" s="18"/>
+      <c r="K561" s="19"/>
     </row>
     <row r="562" ht="15.2" spans="7:11">
       <c r="G562" s="15"/>
-      <c r="J562" s="19"/>
-      <c r="K562" s="20"/>
+      <c r="J562" s="18"/>
+      <c r="K562" s="19"/>
     </row>
     <row r="563" ht="15.2" spans="7:11">
       <c r="G563" s="15"/>
-      <c r="J563" s="19"/>
-      <c r="K563" s="20"/>
+      <c r="J563" s="18"/>
+      <c r="K563" s="19"/>
     </row>
     <row r="564" ht="15.2" spans="7:11">
       <c r="G564" s="15"/>
-      <c r="J564" s="19"/>
-      <c r="K564" s="20"/>
+      <c r="J564" s="18"/>
+      <c r="K564" s="19"/>
     </row>
     <row r="565" ht="15.2" spans="7:11">
       <c r="G565" s="15"/>
-      <c r="J565" s="19"/>
-      <c r="K565" s="20"/>
+      <c r="J565" s="18"/>
+      <c r="K565" s="19"/>
     </row>
     <row r="566" ht="15.2" spans="7:11">
       <c r="G566" s="15"/>
-      <c r="J566" s="19"/>
-      <c r="K566" s="20"/>
+      <c r="J566" s="18"/>
+      <c r="K566" s="19"/>
     </row>
     <row r="567" ht="15.2" spans="7:11">
       <c r="G567" s="15"/>
-      <c r="J567" s="19"/>
-      <c r="K567" s="20"/>
+      <c r="J567" s="18"/>
+      <c r="K567" s="19"/>
     </row>
     <row r="568" ht="15.2" spans="7:11">
       <c r="G568" s="15"/>
-      <c r="J568" s="19"/>
-      <c r="K568" s="20"/>
+      <c r="J568" s="18"/>
+      <c r="K568" s="19"/>
     </row>
     <row r="569" ht="15.2" spans="7:11">
       <c r="G569" s="15"/>
-      <c r="J569" s="19"/>
-      <c r="K569" s="20"/>
+      <c r="J569" s="18"/>
+      <c r="K569" s="19"/>
     </row>
     <row r="570" ht="15.2" spans="7:11">
       <c r="G570" s="15"/>
-      <c r="J570" s="19"/>
-      <c r="K570" s="20"/>
+      <c r="J570" s="18"/>
+      <c r="K570" s="19"/>
     </row>
     <row r="571" ht="15.2" spans="7:11">
       <c r="G571" s="15"/>
-      <c r="J571" s="19"/>
-      <c r="K571" s="20"/>
+      <c r="J571" s="18"/>
+      <c r="K571" s="19"/>
     </row>
     <row r="572" ht="15.2" spans="7:11">
       <c r="G572" s="15"/>
-      <c r="J572" s="19"/>
-      <c r="K572" s="20"/>
+      <c r="J572" s="18"/>
+      <c r="K572" s="19"/>
     </row>
     <row r="573" ht="15.2" spans="7:11">
       <c r="G573" s="15"/>
-      <c r="J573" s="19"/>
-      <c r="K573" s="20"/>
+      <c r="J573" s="18"/>
+      <c r="K573" s="19"/>
     </row>
     <row r="574" ht="15.2" spans="7:11">
       <c r="G574" s="15"/>
-      <c r="J574" s="19"/>
-      <c r="K574" s="20"/>
+      <c r="J574" s="18"/>
+      <c r="K574" s="19"/>
     </row>
     <row r="575" ht="15.2" spans="7:11">
       <c r="G575" s="15"/>
-      <c r="J575" s="19"/>
-      <c r="K575" s="20"/>
+      <c r="J575" s="18"/>
+      <c r="K575" s="19"/>
     </row>
     <row r="576" ht="15.2" spans="7:11">
       <c r="G576" s="15"/>
-      <c r="J576" s="19"/>
-      <c r="K576" s="20"/>
+      <c r="J576" s="18"/>
+      <c r="K576" s="19"/>
     </row>
     <row r="577" ht="15.2" spans="7:11">
       <c r="G577" s="15"/>
-      <c r="J577" s="19"/>
-      <c r="K577" s="20"/>
+      <c r="J577" s="18"/>
+      <c r="K577" s="19"/>
     </row>
     <row r="578" ht="15.2" spans="7:11">
       <c r="G578" s="15"/>
-      <c r="J578" s="19"/>
-      <c r="K578" s="20"/>
+      <c r="J578" s="18"/>
+      <c r="K578" s="19"/>
     </row>
     <row r="579" ht="15.2" spans="7:11">
       <c r="G579" s="15"/>
-      <c r="J579" s="19"/>
-      <c r="K579" s="20"/>
+      <c r="J579" s="18"/>
+      <c r="K579" s="19"/>
     </row>
     <row r="580" ht="15.2" spans="7:11">
       <c r="G580" s="15"/>
-      <c r="J580" s="19"/>
-      <c r="K580" s="20"/>
+      <c r="J580" s="18"/>
+      <c r="K580" s="19"/>
     </row>
     <row r="581" ht="15.2" spans="7:11">
       <c r="G581" s="15"/>
-      <c r="J581" s="19"/>
-      <c r="K581" s="20"/>
+      <c r="J581" s="18"/>
+      <c r="K581" s="19"/>
     </row>
     <row r="582" ht="15.2" spans="7:11">
       <c r="G582" s="15"/>
-      <c r="J582" s="19"/>
-      <c r="K582" s="20"/>
+      <c r="J582" s="18"/>
+      <c r="K582" s="19"/>
     </row>
     <row r="583" ht="15.2" spans="7:11">
       <c r="G583" s="15"/>
-      <c r="J583" s="19"/>
-      <c r="K583" s="20"/>
+      <c r="J583" s="18"/>
+      <c r="K583" s="19"/>
     </row>
     <row r="584" ht="15.2" spans="7:11">
       <c r="G584" s="15"/>
-      <c r="J584" s="19"/>
-      <c r="K584" s="20"/>
+      <c r="J584" s="18"/>
+      <c r="K584" s="19"/>
     </row>
     <row r="585" ht="15.2" spans="7:11">
       <c r="G585" s="15"/>
-      <c r="J585" s="19"/>
-      <c r="K585" s="20"/>
+      <c r="J585" s="18"/>
+      <c r="K585" s="19"/>
     </row>
     <row r="586" ht="15.2" spans="7:11">
       <c r="G586" s="15"/>
-      <c r="J586" s="19"/>
-      <c r="K586" s="20"/>
+      <c r="J586" s="18"/>
+      <c r="K586" s="19"/>
     </row>
     <row r="587" ht="15.2" spans="7:11">
       <c r="G587" s="15"/>
-      <c r="J587" s="19"/>
-      <c r="K587" s="20"/>
+      <c r="J587" s="18"/>
+      <c r="K587" s="19"/>
     </row>
     <row r="588" ht="15.2" spans="7:11">
       <c r="G588" s="15"/>
-      <c r="J588" s="19"/>
-      <c r="K588" s="20"/>
+      <c r="J588" s="18"/>
+      <c r="K588" s="19"/>
     </row>
     <row r="589" ht="15.2" spans="7:11">
       <c r="G589" s="15"/>
-      <c r="J589" s="19"/>
-      <c r="K589" s="20"/>
+      <c r="J589" s="18"/>
+      <c r="K589" s="19"/>
     </row>
     <row r="590" ht="15.2" spans="7:11">
       <c r="G590" s="15"/>
-      <c r="J590" s="19"/>
-      <c r="K590" s="20"/>
+      <c r="J590" s="18"/>
+      <c r="K590" s="19"/>
     </row>
     <row r="591" ht="15.2" spans="7:11">
       <c r="G591" s="15"/>
-      <c r="J591" s="19"/>
-      <c r="K591" s="20"/>
+      <c r="J591" s="18"/>
+      <c r="K591" s="19"/>
     </row>
     <row r="592" ht="15.2" spans="7:11">
       <c r="G592" s="15"/>
-      <c r="J592" s="19"/>
-      <c r="K592" s="20"/>
+      <c r="J592" s="18"/>
+      <c r="K592" s="19"/>
     </row>
     <row r="593" ht="15.2" spans="7:11">
       <c r="G593" s="15"/>
-      <c r="J593" s="19"/>
-      <c r="K593" s="20"/>
+      <c r="J593" s="18"/>
+      <c r="K593" s="19"/>
     </row>
     <row r="594" ht="15.2" spans="7:11">
       <c r="G594" s="15"/>
-      <c r="J594" s="19"/>
-      <c r="K594" s="20"/>
+      <c r="J594" s="18"/>
+      <c r="K594" s="19"/>
     </row>
     <row r="595" ht="15.2" spans="7:11">
       <c r="G595" s="15"/>
-      <c r="J595" s="19"/>
-      <c r="K595" s="20"/>
+      <c r="J595" s="18"/>
+      <c r="K595" s="19"/>
     </row>
     <row r="596" ht="15.2" spans="7:11">
       <c r="G596" s="15"/>
-      <c r="J596" s="19"/>
-      <c r="K596" s="20"/>
+      <c r="J596" s="18"/>
+      <c r="K596" s="19"/>
     </row>
     <row r="597" ht="15.2" spans="7:11">
       <c r="G597" s="15"/>
-      <c r="J597" s="19"/>
-      <c r="K597" s="20"/>
+      <c r="J597" s="18"/>
+      <c r="K597" s="19"/>
     </row>
     <row r="598" ht="15.2" spans="7:11">
       <c r="G598" s="15"/>
-      <c r="J598" s="19"/>
-      <c r="K598" s="20"/>
+      <c r="J598" s="18"/>
+      <c r="K598" s="19"/>
     </row>
     <row r="599" ht="15.2" spans="7:11">
       <c r="G599" s="15"/>
-      <c r="J599" s="19"/>
-      <c r="K599" s="20"/>
+      <c r="J599" s="18"/>
+      <c r="K599" s="19"/>
     </row>
     <row r="600" ht="15.2" spans="7:11">
       <c r="G600" s="15"/>
-      <c r="J600" s="19"/>
-      <c r="K600" s="20"/>
+      <c r="J600" s="18"/>
+      <c r="K600" s="19"/>
     </row>
     <row r="601" ht="15.2" spans="7:11">
       <c r="G601" s="15"/>
-      <c r="J601" s="19"/>
-      <c r="K601" s="20"/>
+      <c r="J601" s="18"/>
+      <c r="K601" s="19"/>
     </row>
     <row r="602" ht="15.2" spans="7:11">
       <c r="G602" s="15"/>
-      <c r="J602" s="19"/>
-      <c r="K602" s="20"/>
+      <c r="J602" s="18"/>
+      <c r="K602" s="19"/>
     </row>
     <row r="603" ht="15.2" spans="7:11">
       <c r="G603" s="15"/>
-      <c r="J603" s="19"/>
-      <c r="K603" s="20"/>
+      <c r="J603" s="18"/>
+      <c r="K603" s="19"/>
     </row>
     <row r="604" ht="15.2" spans="7:11">
       <c r="G604" s="15"/>
-      <c r="J604" s="19"/>
-      <c r="K604" s="20"/>
+      <c r="J604" s="18"/>
+      <c r="K604" s="19"/>
     </row>
     <row r="605" ht="15.2" spans="7:11">
       <c r="G605" s="15"/>
-      <c r="J605" s="19"/>
-      <c r="K605" s="20"/>
+      <c r="J605" s="18"/>
+      <c r="K605" s="19"/>
     </row>
     <row r="606" ht="15.2" spans="7:11">
       <c r="G606" s="15"/>
-      <c r="J606" s="19"/>
-      <c r="K606" s="20"/>
+      <c r="J606" s="18"/>
+      <c r="K606" s="19"/>
     </row>
     <row r="607" ht="15.2" spans="7:11">
       <c r="G607" s="15"/>
-      <c r="J607" s="19"/>
-      <c r="K607" s="20"/>
+      <c r="J607" s="18"/>
+      <c r="K607" s="19"/>
     </row>
     <row r="608" ht="15.2" spans="7:11">
       <c r="G608" s="15"/>
-      <c r="J608" s="19"/>
-      <c r="K608" s="20"/>
+      <c r="J608" s="18"/>
+      <c r="K608" s="19"/>
     </row>
     <row r="609" ht="15.2" spans="7:11">
       <c r="G609" s="15"/>
-      <c r="J609" s="19"/>
-      <c r="K609" s="20"/>
+      <c r="J609" s="18"/>
+      <c r="K609" s="19"/>
     </row>
     <row r="610" ht="15.2" spans="7:11">
       <c r="G610" s="15"/>
-      <c r="J610" s="19"/>
-      <c r="K610" s="20"/>
+      <c r="J610" s="18"/>
+      <c r="K610" s="19"/>
     </row>
     <row r="611" ht="15.2" spans="7:11">
       <c r="G611" s="15"/>
-      <c r="J611" s="19"/>
-      <c r="K611" s="20"/>
+      <c r="J611" s="18"/>
+      <c r="K611" s="19"/>
     </row>
     <row r="612" ht="15.2" spans="7:11">
       <c r="G612" s="15"/>
-      <c r="J612" s="19"/>
-      <c r="K612" s="20"/>
+      <c r="J612" s="18"/>
+      <c r="K612" s="19"/>
     </row>
     <row r="613" ht="15.2" spans="7:11">
       <c r="G613" s="15"/>
-      <c r="J613" s="19"/>
-      <c r="K613" s="20"/>
+      <c r="J613" s="18"/>
+      <c r="K613" s="19"/>
     </row>
     <row r="614" ht="15.2" spans="7:11">
       <c r="G614" s="15"/>
-      <c r="J614" s="19"/>
-      <c r="K614" s="20"/>
+      <c r="J614" s="18"/>
+      <c r="K614" s="19"/>
     </row>
     <row r="615" ht="15.2" spans="7:11">
       <c r="G615" s="15"/>
-      <c r="J615" s="19"/>
-      <c r="K615" s="20"/>
+      <c r="J615" s="18"/>
+      <c r="K615" s="19"/>
     </row>
     <row r="616" ht="15.2" spans="7:11">
       <c r="G616" s="15"/>
-      <c r="J616" s="19"/>
-      <c r="K616" s="20"/>
+      <c r="J616" s="18"/>
+      <c r="K616" s="19"/>
     </row>
     <row r="617" ht="15.2" spans="7:11">
       <c r="G617" s="15"/>
-      <c r="J617" s="19"/>
-      <c r="K617" s="20"/>
+      <c r="J617" s="18"/>
+      <c r="K617" s="19"/>
     </row>
     <row r="618" ht="15.2" spans="7:11">
       <c r="G618" s="15"/>
-      <c r="J618" s="19"/>
-      <c r="K618" s="20"/>
+      <c r="J618" s="18"/>
+      <c r="K618" s="19"/>
     </row>
     <row r="619" ht="15.2" spans="7:11">
       <c r="G619" s="15"/>
-      <c r="J619" s="19"/>
-      <c r="K619" s="20"/>
+      <c r="J619" s="18"/>
+      <c r="K619" s="19"/>
     </row>
     <row r="620" ht="15.2" spans="7:11">
       <c r="G620" s="15"/>
-      <c r="J620" s="19"/>
-      <c r="K620" s="20"/>
+      <c r="J620" s="18"/>
+      <c r="K620" s="19"/>
     </row>
     <row r="621" ht="15.2" spans="7:11">
       <c r="G621" s="15"/>
-      <c r="J621" s="19"/>
-      <c r="K621" s="20"/>
+      <c r="J621" s="18"/>
+      <c r="K621" s="19"/>
     </row>
     <row r="622" ht="15.2" spans="7:11">
       <c r="G622" s="15"/>
-      <c r="J622" s="19"/>
-      <c r="K622" s="20"/>
+      <c r="J622" s="18"/>
+      <c r="K622" s="19"/>
     </row>
     <row r="623" ht="15.2" spans="7:11">
       <c r="G623" s="15"/>
-      <c r="J623" s="19"/>
-      <c r="K623" s="20"/>
+      <c r="J623" s="18"/>
+      <c r="K623" s="19"/>
     </row>
     <row r="624" ht="15.2" spans="7:11">
       <c r="G624" s="15"/>
-      <c r="J624" s="19"/>
-      <c r="K624" s="20"/>
+      <c r="J624" s="18"/>
+      <c r="K624" s="19"/>
     </row>
     <row r="625" ht="15.2" spans="7:11">
       <c r="G625" s="15"/>
-      <c r="J625" s="19"/>
-      <c r="K625" s="20"/>
+      <c r="J625" s="18"/>
+      <c r="K625" s="19"/>
     </row>
     <row r="626" ht="15.2" spans="7:11">
       <c r="G626" s="15"/>
-      <c r="J626" s="19"/>
-      <c r="K626" s="20"/>
+      <c r="J626" s="18"/>
+      <c r="K626" s="19"/>
     </row>
     <row r="627" ht="15.2" spans="7:11">
       <c r="G627" s="15"/>
-      <c r="J627" s="19"/>
-      <c r="K627" s="20"/>
+      <c r="J627" s="18"/>
+      <c r="K627" s="19"/>
     </row>
     <row r="628" ht="15.2" spans="7:11">
       <c r="G628" s="15"/>
-      <c r="J628" s="19"/>
-      <c r="K628" s="20"/>
+      <c r="J628" s="18"/>
+      <c r="K628" s="19"/>
     </row>
     <row r="629" ht="15.2" spans="7:11">
       <c r="G629" s="15"/>
-      <c r="J629" s="19"/>
-      <c r="K629" s="20"/>
+      <c r="J629" s="18"/>
+      <c r="K629" s="19"/>
     </row>
     <row r="630" ht="15.2" spans="7:11">
       <c r="G630" s="15"/>
-      <c r="J630" s="19"/>
-      <c r="K630" s="20"/>
+      <c r="J630" s="18"/>
+      <c r="K630" s="19"/>
     </row>
     <row r="631" ht="15.2" spans="7:11">
       <c r="G631" s="15"/>
-      <c r="J631" s="19"/>
-      <c r="K631" s="20"/>
+      <c r="J631" s="18"/>
+      <c r="K631" s="19"/>
     </row>
     <row r="632" ht="15.2" spans="7:11">
       <c r="G632" s="15"/>
-      <c r="J632" s="19"/>
-      <c r="K632" s="20"/>
+      <c r="J632" s="18"/>
+      <c r="K632" s="19"/>
     </row>
     <row r="633" ht="15.2" spans="7:11">
       <c r="G633" s="15"/>
-      <c r="J633" s="19"/>
-      <c r="K633" s="20"/>
+      <c r="J633" s="18"/>
+      <c r="K633" s="19"/>
     </row>
     <row r="634" ht="15.2" spans="7:11">
       <c r="G634" s="15"/>
-      <c r="J634" s="19"/>
-      <c r="K634" s="20"/>
+      <c r="J634" s="18"/>
+      <c r="K634" s="19"/>
     </row>
     <row r="635" ht="15.2" spans="7:11">
       <c r="G635" s="15"/>
-      <c r="J635" s="19"/>
-      <c r="K635" s="20"/>
+      <c r="J635" s="18"/>
+      <c r="K635" s="19"/>
     </row>
     <row r="636" ht="15.2" spans="7:11">
       <c r="G636" s="15"/>
-      <c r="J636" s="19"/>
-      <c r="K636" s="20"/>
+      <c r="J636" s="18"/>
+      <c r="K636" s="19"/>
     </row>
     <row r="637" ht="15.2" spans="7:11">
       <c r="G637" s="15"/>
-      <c r="J637" s="19"/>
-      <c r="K637" s="20"/>
+      <c r="J637" s="18"/>
+      <c r="K637" s="19"/>
     </row>
     <row r="638" ht="15.2" spans="7:11">
       <c r="G638" s="15"/>
-      <c r="J638" s="19"/>
-      <c r="K638" s="20"/>
+      <c r="J638" s="18"/>
+      <c r="K638" s="19"/>
     </row>
     <row r="639" ht="15.2" spans="7:11">
       <c r="G639" s="15"/>
-      <c r="J639" s="19"/>
-      <c r="K639" s="20"/>
+      <c r="J639" s="18"/>
+      <c r="K639" s="19"/>
     </row>
     <row r="640" ht="15.2" spans="7:11">
       <c r="G640" s="15"/>
-      <c r="J640" s="19"/>
-      <c r="K640" s="20"/>
+      <c r="J640" s="18"/>
+      <c r="K640" s="19"/>
     </row>
     <row r="641" ht="15.2" spans="7:11">
       <c r="G641" s="15"/>
-      <c r="J641" s="19"/>
-      <c r="K641" s="20"/>
+      <c r="J641" s="18"/>
+      <c r="K641" s="19"/>
     </row>
     <row r="642" ht="15.2" spans="7:11">
       <c r="G642" s="15"/>
-      <c r="J642" s="19"/>
-      <c r="K642" s="20"/>
+      <c r="J642" s="18"/>
+      <c r="K642" s="19"/>
     </row>
     <row r="643" ht="15.2" spans="7:11">
       <c r="G643" s="15"/>
-      <c r="J643" s="19"/>
-      <c r="K643" s="20"/>
+      <c r="J643" s="18"/>
+      <c r="K643" s="19"/>
     </row>
     <row r="644" ht="15.2" spans="7:11">
       <c r="G644" s="15"/>
-      <c r="J644" s="19"/>
-      <c r="K644" s="20"/>
+      <c r="J644" s="18"/>
+      <c r="K644" s="19"/>
     </row>
     <row r="645" ht="15.2" spans="7:11">
       <c r="G645" s="15"/>
-      <c r="J645" s="19"/>
-      <c r="K645" s="20"/>
+      <c r="J645" s="18"/>
+      <c r="K645" s="19"/>
     </row>
     <row r="646" ht="15.2" spans="7:11">
       <c r="G646" s="15"/>
-      <c r="J646" s="19"/>
-      <c r="K646" s="20"/>
+      <c r="J646" s="18"/>
+      <c r="K646" s="19"/>
     </row>
     <row r="647" ht="15.2" spans="7:11">
       <c r="G647" s="15"/>
-      <c r="J647" s="19"/>
-      <c r="K647" s="20"/>
+      <c r="J647" s="18"/>
+      <c r="K647" s="19"/>
     </row>
     <row r="648" ht="15.2" spans="7:11">
       <c r="G648" s="15"/>
-      <c r="J648" s="19"/>
-      <c r="K648" s="20"/>
+      <c r="J648" s="18"/>
+      <c r="K648" s="19"/>
     </row>
     <row r="649" ht="15.2" spans="7:11">
       <c r="G649" s="15"/>
-      <c r="J649" s="19"/>
-      <c r="K649" s="20"/>
+      <c r="J649" s="18"/>
+      <c r="K649" s="19"/>
     </row>
     <row r="650" ht="15.2" spans="7:11">
       <c r="G650" s="15"/>
-      <c r="J650" s="19"/>
-      <c r="K650" s="20"/>
+      <c r="J650" s="18"/>
+      <c r="K650" s="19"/>
     </row>
     <row r="651" ht="15.2" spans="7:11">
       <c r="G651" s="15"/>
-      <c r="J651" s="19"/>
-      <c r="K651" s="20"/>
+      <c r="J651" s="18"/>
+      <c r="K651" s="19"/>
     </row>
     <row r="652" ht="15.2" spans="7:11">
       <c r="G652" s="15"/>
-      <c r="J652" s="19"/>
-      <c r="K652" s="20"/>
+      <c r="J652" s="18"/>
+      <c r="K652" s="19"/>
     </row>
     <row r="653" ht="15.2" spans="7:11">
       <c r="G653" s="15"/>
-      <c r="J653" s="19"/>
-      <c r="K653" s="20"/>
+      <c r="J653" s="18"/>
+      <c r="K653" s="19"/>
     </row>
     <row r="654" ht="15.2" spans="7:11">
       <c r="G654" s="15"/>
-      <c r="J654" s="19"/>
-      <c r="K654" s="20"/>
+      <c r="J654" s="18"/>
+      <c r="K654" s="19"/>
     </row>
     <row r="655" ht="15.2" spans="7:11">
       <c r="G655" s="15"/>
-      <c r="J655" s="19"/>
-      <c r="K655" s="20"/>
+      <c r="J655" s="18"/>
+      <c r="K655" s="19"/>
     </row>
     <row r="656" ht="15.2" spans="7:11">
       <c r="G656" s="15"/>
-      <c r="J656" s="19"/>
-      <c r="K656" s="20"/>
+      <c r="J656" s="18"/>
+      <c r="K656" s="19"/>
     </row>
     <row r="657" ht="15.2" spans="7:11">
       <c r="G657" s="15"/>
-      <c r="J657" s="19"/>
-      <c r="K657" s="20"/>
+      <c r="J657" s="18"/>
+      <c r="K657" s="19"/>
     </row>
     <row r="658" ht="15.2" spans="7:11">
       <c r="G658" s="15"/>
-      <c r="J658" s="19"/>
-      <c r="K658" s="20"/>
+      <c r="J658" s="18"/>
+      <c r="K658" s="19"/>
     </row>
     <row r="659" ht="15.2" spans="7:11">
       <c r="G659" s="15"/>
-      <c r="J659" s="19"/>
-      <c r="K659" s="20"/>
+      <c r="J659" s="18"/>
+      <c r="K659" s="19"/>
     </row>
     <row r="660" ht="15.2" spans="7:11">
       <c r="G660" s="15"/>
-      <c r="J660" s="19"/>
-      <c r="K660" s="20"/>
+      <c r="J660" s="18"/>
+      <c r="K660" s="19"/>
     </row>
     <row r="661" ht="15.2" spans="7:11">
       <c r="G661" s="15"/>
-      <c r="J661" s="19"/>
-      <c r="K661" s="20"/>
+      <c r="J661" s="18"/>
+      <c r="K661" s="19"/>
     </row>
     <row r="662" ht="15.2" spans="7:11">
       <c r="G662" s="15"/>
-      <c r="J662" s="19"/>
-      <c r="K662" s="20"/>
+      <c r="J662" s="18"/>
+      <c r="K662" s="19"/>
     </row>
     <row r="663" ht="15.2" spans="7:11">
       <c r="G663" s="15"/>
-      <c r="J663" s="19"/>
-      <c r="K663" s="20"/>
+      <c r="J663" s="18"/>
+      <c r="K663" s="19"/>
     </row>
     <row r="664" ht="15.2" spans="7:11">
       <c r="G664" s="15"/>
-      <c r="J664" s="19"/>
-      <c r="K664" s="20"/>
+      <c r="J664" s="18"/>
+      <c r="K664" s="19"/>
     </row>
     <row r="665" ht="15.2" spans="7:11">
       <c r="G665" s="15"/>
-      <c r="J665" s="19"/>
-      <c r="K665" s="20"/>
+      <c r="J665" s="18"/>
+      <c r="K665" s="19"/>
     </row>
     <row r="666" ht="15.2" spans="7:11">
       <c r="G666" s="15"/>
-      <c r="J666" s="19"/>
-      <c r="K666" s="20"/>
+      <c r="J666" s="18"/>
+      <c r="K666" s="19"/>
     </row>
     <row r="667" ht="15.2" spans="7:11">
       <c r="G667" s="15"/>
-      <c r="J667" s="19"/>
-      <c r="K667" s="20"/>
+      <c r="J667" s="18"/>
+      <c r="K667" s="19"/>
     </row>
     <row r="668" ht="15.2" spans="7:11">
       <c r="G668" s="15"/>
-      <c r="J668" s="19"/>
-      <c r="K668" s="20"/>
+      <c r="J668" s="18"/>
+      <c r="K668" s="19"/>
     </row>
     <row r="669" ht="15.2" spans="7:11">
       <c r="G669" s="15"/>
-      <c r="J669" s="19"/>
-      <c r="K669" s="20"/>
+      <c r="J669" s="18"/>
+      <c r="K669" s="19"/>
     </row>
     <row r="670" ht="15.2" spans="7:11">
       <c r="G670" s="15"/>
-      <c r="J670" s="19"/>
-      <c r="K670" s="20"/>
+      <c r="J670" s="18"/>
+      <c r="K670" s="19"/>
     </row>
     <row r="671" ht="15.2" spans="7:11">
       <c r="G671" s="15"/>
-      <c r="J671" s="19"/>
-      <c r="K671" s="20"/>
+      <c r="J671" s="18"/>
+      <c r="K671" s="19"/>
     </row>
     <row r="672" ht="15.2" spans="7:11">
       <c r="G672" s="15"/>
-      <c r="J672" s="19"/>
-      <c r="K672" s="20"/>
+      <c r="J672" s="18"/>
+      <c r="K672" s="19"/>
     </row>
     <row r="673" ht="15.2" spans="7:11">
       <c r="G673" s="15"/>
-      <c r="J673" s="19"/>
-      <c r="K673" s="20"/>
+      <c r="J673" s="18"/>
+      <c r="K673" s="19"/>
     </row>
     <row r="674" ht="15.2" spans="7:11">
       <c r="G674" s="15"/>
-      <c r="J674" s="19"/>
-      <c r="K674" s="20"/>
+      <c r="J674" s="18"/>
+      <c r="K674" s="19"/>
     </row>
     <row r="675" ht="15.2" spans="7:11">
       <c r="G675" s="15"/>
-      <c r="J675" s="19"/>
-      <c r="K675" s="20"/>
+      <c r="J675" s="18"/>
+      <c r="K675" s="19"/>
     </row>
     <row r="676" ht="15.2" spans="7:11">
       <c r="G676" s="15"/>
-      <c r="J676" s="19"/>
-      <c r="K676" s="20"/>
+      <c r="J676" s="18"/>
+      <c r="K676" s="19"/>
     </row>
     <row r="677" ht="15.2" spans="7:11">
       <c r="G677" s="15"/>
-      <c r="J677" s="19"/>
-      <c r="K677" s="20"/>
+      <c r="J677" s="18"/>
+      <c r="K677" s="19"/>
     </row>
     <row r="678" ht="15.2" spans="7:11">
       <c r="G678" s="15"/>
-      <c r="J678" s="19"/>
-      <c r="K678" s="20"/>
+      <c r="J678" s="18"/>
+      <c r="K678" s="19"/>
     </row>
     <row r="679" ht="15.2" spans="7:11">
       <c r="G679" s="15"/>
-      <c r="J679" s="19"/>
-      <c r="K679" s="20"/>
+      <c r="J679" s="18"/>
+      <c r="K679" s="19"/>
     </row>
     <row r="680" ht="15.2" spans="7:11">
       <c r="G680" s="15"/>
-      <c r="J680" s="19"/>
-      <c r="K680" s="20"/>
+      <c r="J680" s="18"/>
+      <c r="K680" s="19"/>
     </row>
     <row r="681" ht="15.2" spans="7:11">
       <c r="G681" s="15"/>
-      <c r="J681" s="19"/>
-      <c r="K681" s="20"/>
+      <c r="J681" s="18"/>
+      <c r="K681" s="19"/>
     </row>
     <row r="682" ht="15.2" spans="7:11">
       <c r="G682" s="15"/>
-      <c r="J682" s="19"/>
-      <c r="K682" s="20"/>
+      <c r="J682" s="18"/>
+      <c r="K682" s="19"/>
     </row>
     <row r="683" ht="15.2" spans="7:11">
       <c r="G683" s="15"/>
-      <c r="J683" s="19"/>
-      <c r="K683" s="20"/>
+      <c r="J683" s="18"/>
+      <c r="K683" s="19"/>
     </row>
     <row r="684" ht="15.2" spans="7:11">
       <c r="G684" s="15"/>
-      <c r="J684" s="19"/>
-      <c r="K684" s="20"/>
+      <c r="J684" s="18"/>
+      <c r="K684" s="19"/>
     </row>
     <row r="685" ht="15.2" spans="7:11">
       <c r="G685" s="15"/>
-      <c r="J685" s="19"/>
-      <c r="K685" s="20"/>
+      <c r="J685" s="18"/>
+      <c r="K685" s="19"/>
     </row>
     <row r="686" ht="15.2" spans="7:11">
       <c r="G686" s="15"/>
-      <c r="J686" s="19"/>
-      <c r="K686" s="20"/>
+      <c r="J686" s="18"/>
+      <c r="K686" s="19"/>
     </row>
     <row r="687" ht="15.2" spans="7:11">
       <c r="G687" s="15"/>
-      <c r="J687" s="19"/>
-      <c r="K687" s="20"/>
+      <c r="J687" s="18"/>
+      <c r="K687" s="19"/>
     </row>
     <row r="688" ht="15.2" spans="7:11">
       <c r="G688" s="15"/>
-      <c r="J688" s="19"/>
-      <c r="K688" s="20"/>
+      <c r="J688" s="18"/>
+      <c r="K688" s="19"/>
     </row>
     <row r="689" ht="15.2" spans="7:11">
       <c r="G689" s="15"/>
-      <c r="J689" s="19"/>
-      <c r="K689" s="20"/>
+      <c r="J689" s="18"/>
+      <c r="K689" s="19"/>
     </row>
     <row r="690" ht="15.2" spans="7:11">
       <c r="G690" s="15"/>
-      <c r="J690" s="19"/>
-      <c r="K690" s="20"/>
+      <c r="J690" s="18"/>
+      <c r="K690" s="19"/>
     </row>
     <row r="691" ht="15.2" spans="7:11">
       <c r="G691" s="15"/>
-      <c r="J691" s="19"/>
-      <c r="K691" s="20"/>
+      <c r="J691" s="18"/>
+      <c r="K691" s="19"/>
     </row>
     <row r="692" ht="15.2" spans="7:11">
       <c r="G692" s="15"/>
-      <c r="J692" s="19"/>
-      <c r="K692" s="20"/>
+      <c r="J692" s="18"/>
+      <c r="K692" s="19"/>
     </row>
     <row r="693" ht="15.2" spans="7:11">
       <c r="G693" s="15"/>
-      <c r="J693" s="19"/>
-      <c r="K693" s="20"/>
+      <c r="J693" s="18"/>
+      <c r="K693" s="19"/>
     </row>
     <row r="694" ht="15.2" spans="7:11">
       <c r="G694" s="15"/>
-      <c r="J694" s="19"/>
-      <c r="K694" s="20"/>
+      <c r="J694" s="18"/>
+      <c r="K694" s="19"/>
     </row>
     <row r="695" ht="15.2" spans="7:11">
       <c r="G695" s="15"/>
-      <c r="J695" s="19"/>
-      <c r="K695" s="20"/>
+      <c r="J695" s="18"/>
+      <c r="K695" s="19"/>
     </row>
     <row r="696" ht="15.2" spans="7:11">
       <c r="G696" s="15"/>
-      <c r="J696" s="19"/>
-      <c r="K696" s="20"/>
+      <c r="J696" s="18"/>
+      <c r="K696" s="19"/>
     </row>
     <row r="697" ht="15.2" spans="7:11">
       <c r="G697" s="15"/>
-      <c r="J697" s="19"/>
-      <c r="K697" s="20"/>
+      <c r="J697" s="18"/>
+      <c r="K697" s="19"/>
     </row>
     <row r="698" ht="15.2" spans="7:11">
       <c r="G698" s="15"/>
-      <c r="J698" s="19"/>
-      <c r="K698" s="20"/>
+      <c r="J698" s="18"/>
+      <c r="K698" s="19"/>
     </row>
     <row r="699" ht="15.2" spans="7:11">
       <c r="G699" s="15"/>
-      <c r="J699" s="19"/>
-      <c r="K699" s="20"/>
+      <c r="J699" s="18"/>
+      <c r="K699" s="19"/>
     </row>
     <row r="700" ht="15.2" spans="7:11">
       <c r="G700" s="15"/>
-      <c r="J700" s="19"/>
-      <c r="K700" s="20"/>
+      <c r="J700" s="18"/>
+      <c r="K700" s="19"/>
     </row>
     <row r="701" ht="15.2" spans="7:11">
       <c r="G701" s="15"/>
-      <c r="J701" s="19"/>
-      <c r="K701" s="20"/>
+      <c r="J701" s="18"/>
+      <c r="K701" s="19"/>
     </row>
     <row r="702" ht="15.2" spans="7:11">
       <c r="G702" s="15"/>
-      <c r="J702" s="19"/>
-      <c r="K702" s="20"/>
+      <c r="J702" s="18"/>
+      <c r="K702" s="19"/>
     </row>
     <row r="703" ht="15.2" spans="7:11">
       <c r="G703" s="15"/>
-      <c r="J703" s="19"/>
-      <c r="K703" s="20"/>
+      <c r="J703" s="18"/>
+      <c r="K703" s="19"/>
     </row>
     <row r="704" ht="15.2" spans="7:11">
       <c r="G704" s="15"/>
-      <c r="J704" s="19"/>
-      <c r="K704" s="20"/>
+      <c r="J704" s="18"/>
+      <c r="K704" s="19"/>
     </row>
     <row r="705" ht="15.2" spans="7:11">
       <c r="G705" s="15"/>
-      <c r="J705" s="19"/>
-      <c r="K705" s="20"/>
+      <c r="J705" s="18"/>
+      <c r="K705" s="19"/>
     </row>
     <row r="706" ht="15.2" spans="7:11">
       <c r="G706" s="15"/>
-      <c r="J706" s="19"/>
-      <c r="K706" s="20"/>
+      <c r="J706" s="18"/>
+      <c r="K706" s="19"/>
     </row>
     <row r="707" ht="15.2" spans="7:11">
       <c r="G707" s="15"/>
-      <c r="J707" s="19"/>
-      <c r="K707" s="20"/>
+      <c r="J707" s="18"/>
+      <c r="K707" s="19"/>
     </row>
     <row r="708" ht="15.2" spans="7:11">
       <c r="G708" s="15"/>
-      <c r="J708" s="19"/>
-      <c r="K708" s="20"/>
+      <c r="J708" s="18"/>
+      <c r="K708" s="19"/>
     </row>
     <row r="709" ht="15.2" spans="7:11">
       <c r="G709" s="15"/>
-      <c r="J709" s="19"/>
-      <c r="K709" s="20"/>
+      <c r="J709" s="18"/>
+      <c r="K709" s="19"/>
     </row>
     <row r="710" ht="15.2" spans="7:11">
       <c r="G710" s="15"/>
-      <c r="J710" s="19"/>
-      <c r="K710" s="20"/>
+      <c r="J710" s="18"/>
+      <c r="K710" s="19"/>
     </row>
     <row r="711" ht="15.2" spans="7:11">
       <c r="G711" s="15"/>
-      <c r="J711" s="19"/>
-      <c r="K711" s="20"/>
+      <c r="J711" s="18"/>
+      <c r="K711" s="19"/>
     </row>
     <row r="712" ht="15.2" spans="7:11">
       <c r="G712" s="15"/>
-      <c r="J712" s="19"/>
-      <c r="K712" s="20"/>
+      <c r="J712" s="18"/>
+      <c r="K712" s="19"/>
     </row>
     <row r="713" ht="15.2" spans="7:11">
       <c r="G713" s="15"/>
-      <c r="J713" s="19"/>
-      <c r="K713" s="20"/>
+      <c r="J713" s="18"/>
+      <c r="K713" s="19"/>
     </row>
     <row r="714" ht="15.2" spans="7:11">
       <c r="G714" s="15"/>
-      <c r="J714" s="19"/>
-      <c r="K714" s="20"/>
+      <c r="J714" s="18"/>
+      <c r="K714" s="19"/>
     </row>
     <row r="715" ht="15.2" spans="7:11">
       <c r="G715" s="15"/>
-      <c r="J715" s="19"/>
-      <c r="K715" s="20"/>
+      <c r="J715" s="18"/>
+      <c r="K715" s="19"/>
     </row>
     <row r="716" ht="15.2" spans="7:11">
       <c r="G716" s="15"/>
-      <c r="J716" s="19"/>
-      <c r="K716" s="20"/>
+      <c r="J716" s="18"/>
+      <c r="K716" s="19"/>
     </row>
     <row r="717" ht="15.2" spans="7:11">
       <c r="G717" s="15"/>
-      <c r="J717" s="19"/>
-      <c r="K717" s="20"/>
+      <c r="J717" s="18"/>
+      <c r="K717" s="19"/>
     </row>
     <row r="718" ht="15.2" spans="7:11">
       <c r="G718" s="15"/>
-      <c r="J718" s="19"/>
-      <c r="K718" s="20"/>
+      <c r="J718" s="18"/>
+      <c r="K718" s="19"/>
     </row>
     <row r="719" ht="15.2" spans="7:11">
       <c r="G719" s="15"/>
-      <c r="J719" s="19"/>
-      <c r="K719" s="20"/>
+      <c r="J719" s="18"/>
+      <c r="K719" s="19"/>
     </row>
     <row r="720" ht="15.2" spans="7:11">
